--- a/GateioData20250220.xlsx
+++ b/GateioData20250220.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>56735</v>
+        <v>54618</v>
       </c>
       <c r="F2" t="n">
-        <v>11.26855201085313</v>
+        <v>1.866048869547826</v>
       </c>
       <c r="G2" t="n">
-        <v>61.56309678787902</v>
+        <v>27.95123908822048</v>
       </c>
       <c r="H2" t="n">
         <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>2192.61</v>
+        <v>2106.7</v>
       </c>
     </row>
     <row r="3">
@@ -535,19 +535,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>91004</v>
+        <v>91000</v>
       </c>
       <c r="F3" t="n">
-        <v>4.730957841138712</v>
+        <v>9.578541352655474</v>
       </c>
       <c r="G3" t="n">
-        <v>445.9005093067419</v>
+        <v>445.9443355816426</v>
       </c>
       <c r="H3" t="n">
         <v>3.06</v>
       </c>
       <c r="I3" t="n">
-        <v>1252.58</v>
+        <v>1236.54</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>609546223</v>
+        <v>607549787</v>
       </c>
       <c r="E4" t="n">
-        <v>1182738780</v>
+        <v>1178776997</v>
       </c>
       <c r="F4" t="n">
-        <v>48282.15627981362</v>
+        <v>44006.76690215015</v>
       </c>
       <c r="G4" t="n">
-        <v>49790.94970304436</v>
+        <v>57612.88316852613</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="I4" t="n">
-        <v>21295678</v>
+        <v>22220911</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1360574</v>
+        <v>1360786</v>
       </c>
       <c r="E5" t="n">
-        <v>4397932</v>
+        <v>4398619</v>
       </c>
       <c r="F5" t="n">
-        <v>3755.651019123931</v>
+        <v>4289.542026786493</v>
       </c>
       <c r="G5" t="n">
-        <v>4520.430146597907</v>
+        <v>3394.734012474844</v>
       </c>
       <c r="H5" t="n">
         <v>0.45</v>
       </c>
       <c r="I5" t="n">
-        <v>62461</v>
+        <v>75686</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>140458558</v>
+        <v>140753605</v>
       </c>
       <c r="E6" t="n">
-        <v>155650517</v>
+        <v>155977476</v>
       </c>
       <c r="F6" t="n">
-        <v>213796.7159180798</v>
+        <v>167856.0094218845</v>
       </c>
       <c r="G6" t="n">
-        <v>314810.432671873</v>
+        <v>455075.6087670454</v>
       </c>
       <c r="H6" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I6" t="n">
-        <v>31038500</v>
+        <v>31758105</v>
       </c>
     </row>
     <row r="7">
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3823.76</v>
+        <v>3822.86</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>9.09</v>
       </c>
       <c r="I7" t="n">
-        <v>1559.73</v>
+        <v>1560.09</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8924964</v>
+        <v>8767452</v>
       </c>
       <c r="E8" t="n">
-        <v>9150019</v>
+        <v>8988534</v>
       </c>
       <c r="F8" t="n">
-        <v>736.8101066241543</v>
+        <v>892.0287443955747</v>
       </c>
       <c r="G8" t="n">
-        <v>123.8637267509304</v>
+        <v>55.55911449169101</v>
       </c>
       <c r="H8" t="n">
-        <v>2.9</v>
+        <v>3.35</v>
       </c>
       <c r="I8" t="n">
-        <v>73387</v>
+        <v>71736</v>
       </c>
     </row>
     <row r="9">
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>285439</v>
+        <v>285538</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -754,10 +754,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>4.91</v>
+        <v>5.64</v>
       </c>
       <c r="I9" t="n">
-        <v>29.92</v>
+        <v>25.72</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5396706</v>
+        <v>5312150</v>
       </c>
       <c r="E10" t="n">
-        <v>8622314</v>
+        <v>8487219</v>
       </c>
       <c r="F10" t="n">
-        <v>416.9138234562348</v>
+        <v>242.9221982292028</v>
       </c>
       <c r="G10" t="n">
-        <v>218.4943496789665</v>
+        <v>389.7747494856602</v>
       </c>
       <c r="H10" t="n">
-        <v>0.22</v>
+        <v>0.4</v>
       </c>
       <c r="I10" t="n">
-        <v>107208</v>
+        <v>106160</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>997088</v>
+        <v>999111</v>
       </c>
       <c r="E11" t="n">
-        <v>12201662</v>
+        <v>12226420</v>
       </c>
       <c r="F11" t="n">
-        <v>1228.513931433771</v>
+        <v>1227.079717714951</v>
       </c>
       <c r="G11" t="n">
-        <v>1692.679506196761</v>
+        <v>1688.647914601288</v>
       </c>
       <c r="H11" t="n">
         <v>0.49</v>
       </c>
       <c r="I11" t="n">
-        <v>2022.96</v>
+        <v>2117.19</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>567862</v>
+        <v>561804</v>
       </c>
       <c r="E12" t="n">
-        <v>567862</v>
+        <v>561804</v>
       </c>
       <c r="F12" t="n">
-        <v>1.860670669325795</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>138.2720409060478</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1.88</v>
+        <v>8.02</v>
       </c>
       <c r="I12" t="n">
-        <v>25095</v>
+        <v>24185</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4691540</v>
+        <v>4683938</v>
       </c>
       <c r="E13" t="n">
-        <v>28817601</v>
+        <v>28770904</v>
       </c>
       <c r="F13" t="n">
-        <v>776.195802061013</v>
+        <v>862.2821619182126</v>
       </c>
       <c r="G13" t="n">
-        <v>904.4647125256579</v>
+        <v>756.0711934569053</v>
       </c>
       <c r="H13" t="n">
-        <v>1.11</v>
+        <v>0.66</v>
       </c>
       <c r="I13" t="n">
-        <v>484033</v>
+        <v>491661</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>198724</v>
+        <v>198332</v>
       </c>
       <c r="E14" t="n">
-        <v>2186180</v>
+        <v>2181866</v>
       </c>
       <c r="F14" t="n">
-        <v>112.0548451326021</v>
+        <v>263.5391066898086</v>
       </c>
       <c r="G14" t="n">
-        <v>617.7402230116159</v>
+        <v>944.5026238261646</v>
       </c>
       <c r="H14" t="n">
         <v>1.82</v>
       </c>
       <c r="I14" t="n">
-        <v>48007</v>
+        <v>47983</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3358530</v>
+        <v>3360987</v>
       </c>
       <c r="E15" t="n">
-        <v>9554721</v>
+        <v>9561712</v>
       </c>
       <c r="F15" t="n">
-        <v>923.1351677377785</v>
+        <v>2312.390644829807</v>
       </c>
       <c r="G15" t="n">
-        <v>384.0473770780752</v>
+        <v>370.86864846498</v>
       </c>
       <c r="H15" t="n">
         <v>1.25</v>
       </c>
       <c r="I15" t="n">
-        <v>237402</v>
+        <v>236597</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>308954</v>
+        <v>315119</v>
       </c>
       <c r="E16" t="n">
-        <v>3566028</v>
+        <v>3637188</v>
       </c>
       <c r="F16" t="n">
-        <v>163.4466217554789</v>
+        <v>163.4704492307979</v>
       </c>
       <c r="G16" t="n">
-        <v>131.170100574078</v>
+        <v>131.5601056704298</v>
       </c>
       <c r="H16" t="n">
         <v>0.6</v>
       </c>
       <c r="I16" t="n">
-        <v>3146.26</v>
+        <v>3164.56</v>
       </c>
     </row>
     <row r="17">
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>946111</v>
+        <v>928873</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1034,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>4.86</v>
+        <v>4.66</v>
       </c>
       <c r="I17" t="n">
-        <v>13597.1</v>
+        <v>14096.77</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>22663281</v>
+        <v>22647566</v>
       </c>
       <c r="E18" t="n">
-        <v>22705715</v>
+        <v>22689970</v>
       </c>
       <c r="F18" t="n">
-        <v>1759.897473928467</v>
+        <v>1834.854299576517</v>
       </c>
       <c r="G18" t="n">
-        <v>992.6476178476768</v>
+        <v>2268.148641464647</v>
       </c>
       <c r="H18" t="n">
-        <v>0.39</v>
+        <v>0.58</v>
       </c>
       <c r="I18" t="n">
-        <v>824587</v>
+        <v>844525</v>
       </c>
     </row>
     <row r="19">
@@ -1095,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>7012427</v>
+        <v>6963052</v>
       </c>
       <c r="F19" t="n">
-        <v>322.0551846241231</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>9.135094385900615</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>2.4</v>
+        <v>4.79</v>
       </c>
       <c r="I19" t="n">
-        <v>27694</v>
+        <v>26228</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2453339</v>
+        <v>2464956</v>
       </c>
       <c r="E20" t="n">
-        <v>2453339</v>
+        <v>2464956</v>
       </c>
       <c r="F20" t="n">
-        <v>371.4292227028679</v>
+        <v>288.9815954385993</v>
       </c>
       <c r="G20" t="n">
-        <v>361.8210135980309</v>
+        <v>2.448181056277805</v>
       </c>
       <c r="H20" t="n">
-        <v>0.52</v>
+        <v>2.25</v>
       </c>
       <c r="I20" t="n">
-        <v>323213</v>
+        <v>287116</v>
       </c>
     </row>
     <row r="21">
@@ -1165,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>399244</v>
+        <v>408124</v>
       </c>
       <c r="F21" t="n">
-        <v>179.0841216124826</v>
+        <v>170.4771113908057</v>
       </c>
       <c r="G21" t="n">
-        <v>186.8905267679669</v>
+        <v>154.2859627794687</v>
       </c>
       <c r="H21" t="n">
-        <v>1.97</v>
+        <v>1.21</v>
       </c>
       <c r="I21" t="n">
-        <v>1559.85</v>
+        <v>2054.11</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>19933893</v>
+        <v>19539802</v>
       </c>
       <c r="E22" t="n">
-        <v>25656553</v>
+        <v>25149326</v>
       </c>
       <c r="F22" t="n">
-        <v>4368.014431746695</v>
+        <v>1563.715186351649</v>
       </c>
       <c r="G22" t="n">
-        <v>4423.863728828791</v>
+        <v>2289.923368456066</v>
       </c>
       <c r="H22" t="n">
-        <v>0.11</v>
+        <v>0.48</v>
       </c>
       <c r="I22" t="n">
-        <v>2188984</v>
+        <v>2223187</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>470473492</v>
+        <v>466473491</v>
       </c>
       <c r="E23" t="n">
-        <v>470473494</v>
+        <v>466473491</v>
       </c>
       <c r="F23" t="n">
-        <v>77580.62808097285</v>
+        <v>94018.89599925764</v>
       </c>
       <c r="G23" t="n">
-        <v>110993.1033374244</v>
+        <v>95007.84664838493</v>
       </c>
       <c r="H23" t="n">
         <v>0.04</v>
       </c>
       <c r="I23" t="n">
-        <v>55908552</v>
+        <v>54254551</v>
       </c>
     </row>
     <row r="24">
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>19905.46</v>
+        <v>19578.55</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1279,10 +1279,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>5.17</v>
+        <v>4.94</v>
       </c>
       <c r="I24" t="n">
-        <v>2613.71</v>
+        <v>2385.7</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4688005</v>
+        <v>4693889</v>
       </c>
       <c r="E25" t="n">
-        <v>4688005</v>
+        <v>4693889</v>
       </c>
       <c r="F25" t="n">
-        <v>867.7376397819515</v>
+        <v>857.5242869498813</v>
       </c>
       <c r="G25" t="n">
-        <v>1128.873564619666</v>
+        <v>1464.806643794621</v>
       </c>
       <c r="H25" t="n">
-        <v>0.26</v>
+        <v>0.62</v>
       </c>
       <c r="I25" t="n">
-        <v>1975386</v>
+        <v>1936468</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3657818</v>
+        <v>3510047</v>
       </c>
       <c r="E26" t="n">
-        <v>3657818</v>
+        <v>3510047</v>
       </c>
       <c r="F26" t="n">
-        <v>191.4043653842745</v>
+        <v>1118.399286850753</v>
       </c>
       <c r="G26" t="n">
-        <v>304.7610273441879</v>
+        <v>94.40204199319845</v>
       </c>
       <c r="H26" t="n">
-        <v>0.03</v>
+        <v>0.23</v>
       </c>
       <c r="I26" t="n">
-        <v>521768</v>
+        <v>429542</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>306416</v>
+        <v>304507</v>
       </c>
       <c r="E27" t="n">
-        <v>1430379</v>
+        <v>1421469</v>
       </c>
       <c r="F27" t="n">
-        <v>1966.521438990547</v>
+        <v>3126.080424303009</v>
       </c>
       <c r="G27" t="n">
-        <v>243.4105108026767</v>
+        <v>325.6177728595081</v>
       </c>
       <c r="H27" t="n">
-        <v>1.43</v>
+        <v>2.11</v>
       </c>
       <c r="I27" t="n">
-        <v>609360</v>
+        <v>598327</v>
       </c>
     </row>
     <row r="28">
@@ -1410,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1548298</v>
+        <v>1545516</v>
       </c>
       <c r="F28" t="n">
-        <v>551.3331958919543</v>
+        <v>575.8112782981763</v>
       </c>
       <c r="G28" t="n">
-        <v>69.83753581603899</v>
+        <v>194.9553469862424</v>
       </c>
       <c r="H28" t="n">
         <v>0.45</v>
       </c>
       <c r="I28" t="n">
-        <v>172780</v>
+        <v>158139</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>12235890</v>
+        <v>12497993</v>
       </c>
       <c r="E29" t="n">
-        <v>33029361</v>
+        <v>32853638</v>
       </c>
       <c r="F29" t="n">
-        <v>843.2099521126893</v>
+        <v>989.4678813239168</v>
       </c>
       <c r="G29" t="n">
-        <v>1210.987323954419</v>
+        <v>1317.554855053718</v>
       </c>
       <c r="H29" t="n">
-        <v>0.55</v>
+        <v>0.49</v>
       </c>
       <c r="I29" t="n">
-        <v>1801459</v>
+        <v>1654849</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>914184</v>
+        <v>919009</v>
       </c>
       <c r="E30" t="n">
-        <v>6399288</v>
+        <v>6433060</v>
       </c>
       <c r="F30" t="n">
-        <v>975.2029835211684</v>
+        <v>273.858146057349</v>
       </c>
       <c r="G30" t="n">
-        <v>119.2752097953808</v>
+        <v>295.8929689649548</v>
       </c>
       <c r="H30" t="n">
-        <v>1.03</v>
+        <v>2.09</v>
       </c>
       <c r="I30" t="n">
-        <v>601340</v>
+        <v>581595</v>
       </c>
     </row>
     <row r="31">
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>186496</v>
+        <v>190346</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1524,10 +1524,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>11.17</v>
+        <v>7.89</v>
       </c>
       <c r="I31" t="n">
-        <v>12220.45</v>
+        <v>12274.09</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5577535</v>
+        <v>5460616</v>
       </c>
       <c r="E32" t="n">
-        <v>5844365</v>
+        <v>5721852</v>
       </c>
       <c r="F32" t="n">
-        <v>329.1342686894761</v>
+        <v>94.59567298430096</v>
       </c>
       <c r="G32" t="n">
-        <v>163.5764009974596</v>
+        <v>139.7087326888943</v>
       </c>
       <c r="H32" t="n">
-        <v>1.85</v>
+        <v>3.66</v>
       </c>
       <c r="I32" t="n">
-        <v>152286</v>
+        <v>213781</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>5250172</v>
+        <v>5243625</v>
       </c>
       <c r="E33" t="n">
-        <v>7728538</v>
+        <v>7718901</v>
       </c>
       <c r="F33" t="n">
-        <v>390.1253524063716</v>
+        <v>558.2335815632779</v>
       </c>
       <c r="G33" t="n">
-        <v>828.0010591568966</v>
+        <v>699.6648818048716</v>
       </c>
       <c r="H33" t="n">
-        <v>1.83</v>
+        <v>2.21</v>
       </c>
       <c r="I33" t="n">
-        <v>556692</v>
+        <v>542494</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7670069</v>
+        <v>7651581</v>
       </c>
       <c r="E34" t="n">
-        <v>7670069</v>
+        <v>7651581</v>
       </c>
       <c r="F34" t="n">
-        <v>32240.61107744448</v>
+        <v>32337.48394280507</v>
       </c>
       <c r="G34" t="n">
-        <v>33431.82309652672</v>
+        <v>33214.29060382827</v>
       </c>
       <c r="H34" t="n">
-        <v>0.75</v>
+        <v>0.68</v>
       </c>
       <c r="I34" t="n">
-        <v>237023</v>
+        <v>207824</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1518170</v>
+        <v>1489710</v>
       </c>
       <c r="E35" t="n">
-        <v>1518170</v>
+        <v>1489710</v>
       </c>
       <c r="F35" t="n">
-        <v>155.8237179421432</v>
+        <v>199.830565598439</v>
       </c>
       <c r="G35" t="n">
-        <v>216.7404257247933</v>
+        <v>212.6155667118413</v>
       </c>
       <c r="H35" t="n">
-        <v>2.68</v>
+        <v>1.07</v>
       </c>
       <c r="I35" t="n">
-        <v>277651</v>
+        <v>275591</v>
       </c>
     </row>
     <row r="36">
@@ -1690,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>16662997</v>
+        <v>16501463</v>
       </c>
       <c r="F36" t="n">
-        <v>295.1959391695395</v>
+        <v>250.2491827410031</v>
       </c>
       <c r="G36" t="n">
-        <v>170.8837810124834</v>
+        <v>170.9146780985618</v>
       </c>
       <c r="H36" t="n">
         <v>0.7</v>
       </c>
       <c r="I36" t="n">
-        <v>10799.65</v>
+        <v>11371.42</v>
       </c>
     </row>
     <row r="37">
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>61042</v>
+        <v>61028</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>8.51</v>
       </c>
       <c r="I37" t="n">
-        <v>377.16</v>
+        <v>377.25</v>
       </c>
     </row>
     <row r="38">
@@ -1753,22 +1753,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>135593348</v>
+        <v>134542892</v>
       </c>
       <c r="E38" t="n">
-        <v>135593348</v>
+        <v>134542892</v>
       </c>
       <c r="F38" t="n">
-        <v>334413.4473239036</v>
+        <v>307345.8921483443</v>
       </c>
       <c r="G38" t="n">
-        <v>303893.3461268473</v>
+        <v>406756.6746457807</v>
       </c>
       <c r="H38" t="n">
         <v>0.05</v>
       </c>
       <c r="I38" t="n">
-        <v>65810059</v>
+        <v>66564314</v>
       </c>
     </row>
     <row r="39">
@@ -1788,22 +1788,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>65969462</v>
+        <v>64425180</v>
       </c>
       <c r="E39" t="n">
-        <v>338304932</v>
+        <v>330385537</v>
       </c>
       <c r="F39" t="n">
-        <v>85635.63022048032</v>
+        <v>83634.10296956227</v>
       </c>
       <c r="G39" t="n">
-        <v>94033.65202906741</v>
+        <v>98555.73244692334</v>
       </c>
       <c r="H39" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I39" t="n">
-        <v>15950146</v>
+        <v>16791728</v>
       </c>
     </row>
     <row r="40">
@@ -1823,10 +1823,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>43202</v>
+        <v>42391</v>
       </c>
       <c r="E40" t="n">
-        <v>127669</v>
+        <v>125273</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -1835,10 +1835,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>8.960000000000001</v>
+        <v>8.75</v>
       </c>
       <c r="I40" t="n">
-        <v>689.37</v>
+        <v>733.08</v>
       </c>
     </row>
     <row r="41">
@@ -1861,19 +1861,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>50104</v>
+        <v>50125</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>273.6680631761004</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>8.167849067395792</v>
       </c>
       <c r="H41" t="n">
-        <v>4.97</v>
+        <v>1.11</v>
       </c>
       <c r="I41" t="n">
-        <v>25794</v>
+        <v>25563</v>
       </c>
     </row>
     <row r="42">
@@ -1896,19 +1896,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>591508</v>
+        <v>591622</v>
       </c>
       <c r="F42" t="n">
-        <v>85.90214216940696</v>
+        <v>289.0159961185836</v>
       </c>
       <c r="G42" t="n">
-        <v>409.8022160994306</v>
+        <v>381.787553809539</v>
       </c>
       <c r="H42" t="n">
-        <v>1.06</v>
+        <v>0.7</v>
       </c>
       <c r="I42" t="n">
-        <v>381.62</v>
+        <v>380.15</v>
       </c>
     </row>
     <row r="43">
@@ -1961,22 +1961,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2711659</v>
+        <v>2768252</v>
       </c>
       <c r="E44" t="n">
-        <v>10897541</v>
+        <v>11124974</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>32.73261488049115</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>307.7355246838008</v>
       </c>
       <c r="H44" t="n">
-        <v>6.61</v>
+        <v>0.88</v>
       </c>
       <c r="I44" t="n">
-        <v>24837</v>
+        <v>27375</v>
       </c>
     </row>
     <row r="45">
@@ -1996,22 +1996,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>17377425</v>
+        <v>17404273</v>
       </c>
       <c r="E45" t="n">
-        <v>122572245</v>
+        <v>122754481</v>
       </c>
       <c r="F45" t="n">
-        <v>715.9475909348129</v>
+        <v>34.94228113601638</v>
       </c>
       <c r="G45" t="n">
-        <v>248.600415059547</v>
+        <v>967.3308250776976</v>
       </c>
       <c r="H45" t="n">
-        <v>0.61</v>
+        <v>0.77</v>
       </c>
       <c r="I45" t="n">
-        <v>1059300</v>
+        <v>974899</v>
       </c>
     </row>
     <row r="46">
@@ -2031,10 +2031,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>147229</v>
+        <v>148048</v>
       </c>
       <c r="E46" t="n">
-        <v>1970006</v>
+        <v>1980972</v>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>45766</v>
+        <v>46833</v>
       </c>
     </row>
     <row r="47">
@@ -2064,22 +2064,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>253473698</v>
+        <v>251194359</v>
       </c>
       <c r="E47" t="n">
-        <v>253473698</v>
+        <v>251194359</v>
       </c>
       <c r="F47" t="n">
-        <v>124044.1770147901</v>
+        <v>119970.9807261117</v>
       </c>
       <c r="G47" t="n">
-        <v>120828.5530015771</v>
+        <v>161189.5052916349</v>
       </c>
       <c r="H47" t="n">
         <v>0.04</v>
       </c>
       <c r="I47" t="n">
-        <v>14097267</v>
+        <v>14345894</v>
       </c>
     </row>
     <row r="48">
@@ -2099,22 +2099,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>633078</v>
+        <v>632965</v>
       </c>
       <c r="E48" t="n">
-        <v>633078</v>
+        <v>632965</v>
       </c>
       <c r="F48" t="n">
-        <v>223.755107714065</v>
+        <v>13.29054174952809</v>
       </c>
       <c r="G48" t="n">
-        <v>130.5898799222237</v>
+        <v>553.6372705247546</v>
       </c>
       <c r="H48" t="n">
-        <v>3.25</v>
+        <v>3.08</v>
       </c>
       <c r="I48" t="n">
-        <v>777.59</v>
+        <v>777.45</v>
       </c>
     </row>
     <row r="49">
@@ -2167,22 +2167,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>438228765</v>
+        <v>438189320</v>
       </c>
       <c r="E50" t="n">
-        <v>438228765</v>
+        <v>438189320</v>
       </c>
       <c r="F50" t="n">
-        <v>5586.669063660728</v>
+        <v>5409.967534773229</v>
       </c>
       <c r="G50" t="n">
-        <v>3452.195176813334</v>
+        <v>2825.729589437688</v>
       </c>
       <c r="H50" t="n">
-        <v>0.02</v>
+        <v>0.3</v>
       </c>
       <c r="I50" t="n">
-        <v>2753554</v>
+        <v>2612115</v>
       </c>
     </row>
     <row r="51">
@@ -2202,22 +2202,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2541199</v>
+        <v>2520765</v>
       </c>
       <c r="E51" t="n">
-        <v>2541199</v>
+        <v>2520765</v>
       </c>
       <c r="F51" t="n">
-        <v>438.1608767048086</v>
+        <v>299.2268886164948</v>
       </c>
       <c r="G51" t="n">
-        <v>63.75866071656225</v>
+        <v>35.78458387836247</v>
       </c>
       <c r="H51" t="n">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="I51" t="n">
-        <v>113896</v>
+        <v>111831</v>
       </c>
     </row>
     <row r="52">
@@ -2237,10 +2237,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>23154</v>
+        <v>24325</v>
       </c>
       <c r="E52" t="n">
-        <v>46308</v>
+        <v>48651</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -2249,10 +2249,10 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>6.06</v>
+        <v>8.68</v>
       </c>
       <c r="I52" t="n">
-        <v>7644.73</v>
+        <v>4727.86</v>
       </c>
     </row>
     <row r="53">
@@ -2275,19 +2275,19 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>154942</v>
+        <v>149907</v>
       </c>
       <c r="F53" t="n">
-        <v>48.22693142184374</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>55.11392036302449</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.8100000000000001</v>
+        <v>4.92</v>
       </c>
       <c r="I53" t="n">
-        <v>25299</v>
+        <v>24209</v>
       </c>
     </row>
     <row r="54">
@@ -2307,22 +2307,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2532642</v>
+        <v>2539030</v>
       </c>
       <c r="E54" t="n">
-        <v>6474919</v>
+        <v>6491250</v>
       </c>
       <c r="F54" t="n">
-        <v>261.0171561812637</v>
+        <v>236.6904308112144</v>
       </c>
       <c r="G54" t="n">
-        <v>233.4489870788519</v>
+        <v>332.5068890183234</v>
       </c>
       <c r="H54" t="n">
-        <v>2.26</v>
+        <v>1.52</v>
       </c>
       <c r="I54" t="n">
-        <v>85405</v>
+        <v>84407</v>
       </c>
     </row>
     <row r="55">
@@ -2345,19 +2345,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>3774.31</v>
+        <v>3644.27</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>1.414639590545117</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>1.095899612858024</v>
       </c>
       <c r="H55" t="n">
-        <v>5.16</v>
+        <v>3.83</v>
       </c>
       <c r="I55" t="n">
-        <v>1605.66</v>
+        <v>1621.76</v>
       </c>
     </row>
     <row r="56">
@@ -2377,22 +2377,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>74858954</v>
+        <v>74968959</v>
       </c>
       <c r="E56" t="n">
-        <v>74858954</v>
+        <v>74968959</v>
       </c>
       <c r="F56" t="n">
-        <v>21346.31970070638</v>
+        <v>10837.25651513341</v>
       </c>
       <c r="G56" t="n">
-        <v>20156.41591080562</v>
+        <v>16842.62031547517</v>
       </c>
       <c r="H56" t="n">
         <v>0.16</v>
       </c>
       <c r="I56" t="n">
-        <v>4795642</v>
+        <v>4748413</v>
       </c>
     </row>
     <row r="57">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3322183</v>
+        <v>3395903</v>
       </c>
       <c r="E57" t="n">
-        <v>4209787</v>
+        <v>4303203</v>
       </c>
       <c r="F57" t="n">
-        <v>76.72940566632047</v>
+        <v>233.3293808781839</v>
       </c>
       <c r="G57" t="n">
-        <v>72.61686519825597</v>
+        <v>107.7289643540001</v>
       </c>
       <c r="H57" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="I57" t="n">
-        <v>191980</v>
+        <v>243535</v>
       </c>
     </row>
     <row r="58">
@@ -2447,22 +2447,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>4525797</v>
+        <v>4432742</v>
       </c>
       <c r="E58" t="n">
-        <v>8925253</v>
+        <v>8741740</v>
       </c>
       <c r="F58" t="n">
-        <v>2754.806262992226</v>
+        <v>2785.446131267568</v>
       </c>
       <c r="G58" t="n">
-        <v>1862.424991996829</v>
+        <v>2025.014780917098</v>
       </c>
       <c r="H58" t="n">
-        <v>0.09</v>
+        <v>0.36</v>
       </c>
       <c r="I58" t="n">
-        <v>1710796</v>
+        <v>1700038</v>
       </c>
     </row>
     <row r="59">
@@ -2482,22 +2482,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1508500</v>
+        <v>1574334</v>
       </c>
       <c r="E59" t="n">
-        <v>8661242</v>
+        <v>9039237</v>
       </c>
       <c r="F59" t="n">
-        <v>196.1918123107404</v>
+        <v>486.2871988913375</v>
       </c>
       <c r="G59" t="n">
-        <v>587.7889676658046</v>
+        <v>314.498372306533</v>
       </c>
       <c r="H59" t="n">
-        <v>0.8</v>
+        <v>0.27</v>
       </c>
       <c r="I59" t="n">
-        <v>261503</v>
+        <v>324461</v>
       </c>
     </row>
     <row r="60">
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>604008</v>
+        <v>598741</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>16.67</v>
+        <v>17.54</v>
       </c>
       <c r="I60" t="n">
-        <v>2848.13</v>
+        <v>2647.84</v>
       </c>
     </row>
     <row r="61">
@@ -2555,19 +2555,19 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>32192076</v>
+        <v>32150032</v>
       </c>
       <c r="F61" t="n">
-        <v>524.0329450890913</v>
+        <v>425.4206937006529</v>
       </c>
       <c r="G61" t="n">
-        <v>1410.800940718219</v>
+        <v>1857.827867915804</v>
       </c>
       <c r="H61" t="n">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="I61" t="n">
-        <v>255685</v>
+        <v>253787</v>
       </c>
     </row>
     <row r="62">
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>1432477</v>
+        <v>1437254</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>5.65</v>
+        <v>5.79</v>
       </c>
       <c r="I62" t="n">
-        <v>28096</v>
+        <v>28450</v>
       </c>
     </row>
     <row r="63">
@@ -2622,22 +2622,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>7534589</v>
+        <v>7542066</v>
       </c>
       <c r="E63" t="n">
-        <v>17745454</v>
+        <v>17763065</v>
       </c>
       <c r="F63" t="n">
-        <v>1158.68347943094</v>
+        <v>1023.61073997987</v>
       </c>
       <c r="G63" t="n">
-        <v>1853.208256821704</v>
+        <v>1461.923738136607</v>
       </c>
       <c r="H63" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="I63" t="n">
-        <v>27799</v>
+        <v>21462</v>
       </c>
     </row>
     <row r="64">
@@ -2657,10 +2657,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2915914</v>
+        <v>2923287</v>
       </c>
       <c r="E64" t="n">
-        <v>2915914</v>
+        <v>2923287</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -2669,10 +2669,10 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>6.21</v>
+        <v>4.01</v>
       </c>
       <c r="I64" t="n">
-        <v>10168.2</v>
+        <v>10407.82</v>
       </c>
     </row>
     <row r="65">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3408706</v>
+        <v>3417978</v>
       </c>
       <c r="E65" t="n">
-        <v>8410809</v>
+        <v>8433686</v>
       </c>
       <c r="F65" t="n">
-        <v>659.175386569824</v>
+        <v>659.8243689921959</v>
       </c>
       <c r="G65" t="n">
-        <v>1124.088771227148</v>
+        <v>1325.064505401719</v>
       </c>
       <c r="H65" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="I65" t="n">
-        <v>94358</v>
+        <v>89273</v>
       </c>
     </row>
     <row r="66">
@@ -2730,19 +2730,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>270728</v>
+        <v>270106</v>
       </c>
       <c r="F66" t="n">
-        <v>35.16574156851587</v>
+        <v>35.16913018631964</v>
       </c>
       <c r="G66" t="n">
-        <v>56.30564078505467</v>
+        <v>56.3110664717687</v>
       </c>
       <c r="H66" t="n">
         <v>3.33</v>
       </c>
       <c r="I66" t="n">
-        <v>3628.52</v>
+        <v>2640.73</v>
       </c>
     </row>
     <row r="67">
@@ -2762,22 +2762,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>72170862</v>
+        <v>71900741</v>
       </c>
       <c r="E67" t="n">
-        <v>150512897</v>
+        <v>149949558</v>
       </c>
       <c r="F67" t="n">
-        <v>70549.80186410935</v>
+        <v>68419.60624236532</v>
       </c>
       <c r="G67" t="n">
-        <v>85000.95774799759</v>
+        <v>93017.86875512813</v>
       </c>
       <c r="H67" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I67" t="n">
-        <v>13809893</v>
+        <v>14056762</v>
       </c>
     </row>
     <row r="68">
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>2200323</v>
+        <v>2080781</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>5.48</v>
+        <v>6.1</v>
       </c>
       <c r="I68" t="n">
-        <v>4520.03</v>
+        <v>4367.69</v>
       </c>
     </row>
     <row r="69">
@@ -2835,19 +2835,19 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>204003552</v>
+        <v>201799162</v>
       </c>
       <c r="F69" t="n">
-        <v>2745.293256954687</v>
+        <v>5157.660245562764</v>
       </c>
       <c r="G69" t="n">
-        <v>3769.938590363917</v>
+        <v>2818.233025079142</v>
       </c>
       <c r="H69" t="n">
-        <v>0.05</v>
+        <v>0.44</v>
       </c>
       <c r="I69" t="n">
-        <v>3914858</v>
+        <v>2983273</v>
       </c>
     </row>
     <row r="70">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>184996</v>
+        <v>190484</v>
       </c>
       <c r="E70" t="n">
-        <v>193188</v>
+        <v>198920</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -2879,10 +2879,10 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>11.22</v>
+        <v>12.16</v>
       </c>
       <c r="I70" t="n">
-        <v>594.39</v>
+        <v>612.72</v>
       </c>
     </row>
     <row r="71">
@@ -2902,22 +2902,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>144325767</v>
+        <v>143780522</v>
       </c>
       <c r="E71" t="n">
-        <v>144364726</v>
+        <v>143820539</v>
       </c>
       <c r="F71" t="n">
-        <v>30279.3779560143</v>
+        <v>30056.92784636997</v>
       </c>
       <c r="G71" t="n">
-        <v>34172.45603747877</v>
+        <v>40315.82955974471</v>
       </c>
       <c r="H71" t="n">
-        <v>0.38</v>
+        <v>0.32</v>
       </c>
       <c r="I71" t="n">
-        <v>3175803</v>
+        <v>3142421</v>
       </c>
     </row>
     <row r="72">
@@ -2937,22 +2937,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>26167190</v>
+        <v>26075548</v>
       </c>
       <c r="E72" t="n">
-        <v>85875714</v>
+        <v>85574964</v>
       </c>
       <c r="F72" t="n">
-        <v>22767.71018668451</v>
+        <v>6681.106091370991</v>
       </c>
       <c r="G72" t="n">
-        <v>30604.67938815723</v>
+        <v>35422.75253520065</v>
       </c>
       <c r="H72" t="n">
-        <v>0.47</v>
+        <v>0.7</v>
       </c>
       <c r="I72" t="n">
-        <v>114842</v>
+        <v>100325</v>
       </c>
     </row>
     <row r="73">
@@ -2972,10 +2972,10 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>105840</v>
+        <v>110069</v>
       </c>
       <c r="E73" t="n">
-        <v>105840</v>
+        <v>110069</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -2984,10 +2984,10 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>4.71</v>
+        <v>4.49</v>
       </c>
       <c r="I73" t="n">
-        <v>72.8</v>
+        <v>126.78</v>
       </c>
     </row>
     <row r="74">
@@ -3007,22 +3007,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>198647550</v>
+        <v>196114298</v>
       </c>
       <c r="E74" t="n">
-        <v>690119542</v>
+        <v>681318796</v>
       </c>
       <c r="F74" t="n">
-        <v>139905.7813072492</v>
+        <v>106580.08709138</v>
       </c>
       <c r="G74" t="n">
-        <v>170906.7426762966</v>
+        <v>178076.5607885942</v>
       </c>
       <c r="H74" t="n">
         <v>0.06</v>
       </c>
       <c r="I74" t="n">
-        <v>25744135</v>
+        <v>26057526</v>
       </c>
     </row>
     <row r="75">
@@ -3042,22 +3042,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>4210156</v>
+        <v>4145190</v>
       </c>
       <c r="E75" t="n">
-        <v>4210156</v>
+        <v>4145190</v>
       </c>
       <c r="F75" t="n">
-        <v>575.0669667249138</v>
+        <v>122.398221195999</v>
       </c>
       <c r="G75" t="n">
-        <v>1708.572343499856</v>
+        <v>1603.622689641382</v>
       </c>
       <c r="H75" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="I75" t="n">
-        <v>4467546</v>
+        <v>4192478</v>
       </c>
     </row>
     <row r="76">
@@ -3077,22 +3077,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>113876042</v>
+        <v>115215393</v>
       </c>
       <c r="E76" t="n">
-        <v>484761048</v>
+        <v>490368026</v>
       </c>
       <c r="F76" t="n">
-        <v>158236.3511646344</v>
+        <v>261623.2019062011</v>
       </c>
       <c r="G76" t="n">
-        <v>142730.3219687652</v>
+        <v>164562.7147779193</v>
       </c>
       <c r="H76" t="n">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="I76" t="n">
-        <v>11036561</v>
+        <v>11435955</v>
       </c>
     </row>
     <row r="77">
@@ -3115,19 +3115,19 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1866389</v>
+        <v>1866962</v>
       </c>
       <c r="F77" t="n">
-        <v>108.6993350760637</v>
+        <v>108.7098094891051</v>
       </c>
       <c r="G77" t="n">
-        <v>100.3139187409802</v>
+        <v>100.3235851241091</v>
       </c>
       <c r="H77" t="n">
         <v>0.54</v>
       </c>
       <c r="I77" t="n">
-        <v>440.58</v>
+        <v>440.71</v>
       </c>
     </row>
     <row r="78">
@@ -3147,22 +3147,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3235116</v>
+        <v>3160494</v>
       </c>
       <c r="E78" t="n">
-        <v>16220137</v>
+        <v>15846001</v>
       </c>
       <c r="F78" t="n">
-        <v>263.0846985363135</v>
+        <v>67.83915291923367</v>
       </c>
       <c r="G78" t="n">
-        <v>3.457782447231116</v>
+        <v>246.5808442895772</v>
       </c>
       <c r="H78" t="n">
-        <v>1.8</v>
+        <v>2.42</v>
       </c>
       <c r="I78" t="n">
-        <v>17206.76</v>
+        <v>20551</v>
       </c>
     </row>
     <row r="79">
@@ -3182,22 +3182,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>517573</v>
+        <v>520817</v>
       </c>
       <c r="E79" t="n">
-        <v>8853057</v>
+        <v>8908541</v>
       </c>
       <c r="F79" t="n">
-        <v>445.6205488847398</v>
+        <v>36.31726335185728</v>
       </c>
       <c r="G79" t="n">
-        <v>113.9094007905261</v>
+        <v>240.7789250457974</v>
       </c>
       <c r="H79" t="n">
-        <v>1.81</v>
+        <v>3.47</v>
       </c>
       <c r="I79" t="n">
-        <v>325915</v>
+        <v>331870</v>
       </c>
     </row>
     <row r="80">
@@ -3217,22 +3217,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>5973913</v>
+        <v>5889184</v>
       </c>
       <c r="E80" t="n">
-        <v>8118930</v>
+        <v>8003544</v>
       </c>
       <c r="F80" t="n">
-        <v>193.708756380942</v>
+        <v>361.511224840948</v>
       </c>
       <c r="G80" t="n">
-        <v>935.7299779215151</v>
+        <v>991.6293368907172</v>
       </c>
       <c r="H80" t="n">
-        <v>0.6</v>
+        <v>0.27</v>
       </c>
       <c r="I80" t="n">
-        <v>6441720</v>
+        <v>6446026</v>
       </c>
     </row>
     <row r="81">
@@ -3251,19 +3251,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>42764</v>
+        <v>42940</v>
       </c>
       <c r="F81" t="n">
-        <v>97.39962170710842</v>
+        <v>160.1063868749789</v>
       </c>
       <c r="G81" t="n">
-        <v>601.6734466542018</v>
+        <v>718.3105398195727</v>
       </c>
       <c r="H81" t="n">
-        <v>1.17</v>
+        <v>1.96</v>
       </c>
       <c r="I81" t="n">
-        <v>62509</v>
+        <v>63368</v>
       </c>
     </row>
     <row r="82">
@@ -3283,22 +3283,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>42315290</v>
+        <v>41863829</v>
       </c>
       <c r="E82" t="n">
-        <v>49423254</v>
+        <v>48895958</v>
       </c>
       <c r="F82" t="n">
-        <v>31.21102249471828</v>
+        <v>425.0295444833742</v>
       </c>
       <c r="G82" t="n">
-        <v>211.9653356213675</v>
+        <v>13.10158139051671</v>
       </c>
       <c r="H82" t="n">
-        <v>2.68</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>905545</v>
+        <v>888515</v>
       </c>
     </row>
     <row r="83">
@@ -3321,19 +3321,19 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>14423899</v>
+        <v>14420727</v>
       </c>
       <c r="F83" t="n">
-        <v>236.5435923389185</v>
+        <v>363.3094850404356</v>
       </c>
       <c r="G83" t="n">
-        <v>1025.921217568187</v>
+        <v>786.0444908406254</v>
       </c>
       <c r="H83" t="n">
-        <v>0.86</v>
+        <v>1.09</v>
       </c>
       <c r="I83" t="n">
-        <v>327450</v>
+        <v>496939</v>
       </c>
     </row>
     <row r="84">
@@ -3353,22 +3353,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>35740817</v>
+        <v>35700566</v>
       </c>
       <c r="E84" t="n">
-        <v>35740817</v>
+        <v>35700566</v>
       </c>
       <c r="F84" t="n">
-        <v>672.7430950375842</v>
+        <v>172.3523711441378</v>
       </c>
       <c r="G84" t="n">
-        <v>161.4585973586949</v>
+        <v>315.6924549950686</v>
       </c>
       <c r="H84" t="n">
-        <v>2.44</v>
+        <v>2.18</v>
       </c>
       <c r="I84" t="n">
-        <v>571323</v>
+        <v>301539</v>
       </c>
     </row>
     <row r="85">
@@ -3388,22 +3388,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>522028</v>
+        <v>531143</v>
       </c>
       <c r="E85" t="n">
-        <v>6331689</v>
+        <v>6442242</v>
       </c>
       <c r="F85" t="n">
-        <v>1071.97631853053</v>
+        <v>698.2358606616765</v>
       </c>
       <c r="G85" t="n">
-        <v>332.2934282999081</v>
+        <v>742.814790744924</v>
       </c>
       <c r="H85" t="n">
-        <v>1.25</v>
+        <v>0.82</v>
       </c>
       <c r="I85" t="n">
-        <v>2871792</v>
+        <v>2919450</v>
       </c>
     </row>
     <row r="86">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>25429632</v>
+        <v>25185604</v>
       </c>
       <c r="E86" t="n">
-        <v>35943791</v>
+        <v>35598867</v>
       </c>
       <c r="F86" t="n">
-        <v>298.4137504093307</v>
+        <v>35.50684635559525</v>
       </c>
       <c r="G86" t="n">
-        <v>30.07878908360499</v>
+        <v>1373.102547226564</v>
       </c>
       <c r="H86" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="I86" t="n">
-        <v>80166</v>
+        <v>84785</v>
       </c>
     </row>
     <row r="87">
@@ -3458,22 +3458,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1274980419</v>
+        <v>1280657944</v>
       </c>
       <c r="E87" t="n">
-        <v>6113792219</v>
+        <v>6141017113</v>
       </c>
       <c r="F87" t="n">
-        <v>654376.5268270778</v>
+        <v>547725.1213305825</v>
       </c>
       <c r="G87" t="n">
-        <v>793960.1855327112</v>
+        <v>933893.5912680527</v>
       </c>
       <c r="H87" t="n">
         <v>0.02</v>
       </c>
       <c r="I87" t="n">
-        <v>192893820</v>
+        <v>197207231</v>
       </c>
     </row>
     <row r="88">
@@ -3493,22 +3493,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>272479641</v>
+        <v>268120972</v>
       </c>
       <c r="E88" t="n">
-        <v>1176173397</v>
+        <v>1157358961</v>
       </c>
       <c r="F88" t="n">
-        <v>1218539.160449246</v>
+        <v>1163791.088110847</v>
       </c>
       <c r="G88" t="n">
-        <v>894480.118513817</v>
+        <v>1031321.82783537</v>
       </c>
       <c r="H88" t="n">
         <v>0.02</v>
       </c>
       <c r="I88" t="n">
-        <v>110248886</v>
+        <v>110916602</v>
       </c>
     </row>
     <row r="89">
@@ -3528,22 +3528,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>113385596</v>
+        <v>113155964</v>
       </c>
       <c r="E89" t="n">
-        <v>113385596</v>
+        <v>113155964</v>
       </c>
       <c r="F89" t="n">
-        <v>30804.81450549049</v>
+        <v>36174.86033984219</v>
       </c>
       <c r="G89" t="n">
-        <v>25931.85674831489</v>
+        <v>30675.79236666215</v>
       </c>
       <c r="H89" t="n">
-        <v>0.58</v>
+        <v>0.47</v>
       </c>
       <c r="I89" t="n">
-        <v>5954893</v>
+        <v>6009179</v>
       </c>
     </row>
     <row r="90">
@@ -3563,22 +3563,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>3862817</v>
+        <v>3861115</v>
       </c>
       <c r="E90" t="n">
-        <v>30059972</v>
+        <v>30046732</v>
       </c>
       <c r="F90" t="n">
-        <v>10367.77083587564</v>
+        <v>10693.749013423</v>
       </c>
       <c r="G90" t="n">
-        <v>13556.91439562434</v>
+        <v>13063.26073168851</v>
       </c>
       <c r="H90" t="n">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="I90" t="n">
-        <v>9190.32</v>
+        <v>9425.34</v>
       </c>
     </row>
     <row r="91">
@@ -3601,19 +3601,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>3791543</v>
+        <v>3779486</v>
       </c>
       <c r="F91" t="n">
-        <v>1775.458006591961</v>
+        <v>1792.655166046041</v>
       </c>
       <c r="G91" t="n">
-        <v>2213.923125354997</v>
+        <v>1258.873932020728</v>
       </c>
       <c r="H91" t="n">
-        <v>0.82</v>
+        <v>0.92</v>
       </c>
       <c r="I91" t="n">
-        <v>303731</v>
+        <v>306544</v>
       </c>
     </row>
     <row r="92">
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>856126</v>
+        <v>875164</v>
       </c>
       <c r="F92" t="n">
-        <v>61.06123684950094</v>
+        <v>88.44973351682542</v>
       </c>
       <c r="G92" t="n">
-        <v>9.999999639676052</v>
+        <v>142.0413694158389</v>
       </c>
       <c r="H92" t="n">
-        <v>3.27</v>
+        <v>2.83</v>
       </c>
       <c r="I92" t="n">
-        <v>78055</v>
+        <v>81078</v>
       </c>
     </row>
     <row r="93">
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>134577</v>
+        <v>132215</v>
       </c>
       <c r="F93" t="n">
-        <v>60.02009383133911</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>6.059994585460252</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>2.08</v>
+        <v>5.06</v>
       </c>
       <c r="I93" t="n">
-        <v>90695</v>
+        <v>98201</v>
       </c>
     </row>
     <row r="94">
@@ -3699,22 +3699,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>11742870</v>
+        <v>10908210</v>
       </c>
       <c r="E94" t="n">
-        <v>128862323</v>
+        <v>131745335</v>
       </c>
       <c r="F94" t="n">
-        <v>1271.000733090341</v>
+        <v>3790.659859068629</v>
       </c>
       <c r="G94" t="n">
-        <v>4370.481137746555</v>
+        <v>1582.449312517926</v>
       </c>
       <c r="H94" t="n">
-        <v>0.62</v>
+        <v>0.08</v>
       </c>
       <c r="I94" t="n">
-        <v>179313</v>
+        <v>241357</v>
       </c>
     </row>
     <row r="95">
@@ -3734,22 +3734,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>21538901</v>
+        <v>21550370</v>
       </c>
       <c r="E95" t="n">
-        <v>53847253</v>
+        <v>53875924</v>
       </c>
       <c r="F95" t="n">
-        <v>10859.33701252024</v>
+        <v>10250.83478061943</v>
       </c>
       <c r="G95" t="n">
-        <v>11729.69056365576</v>
+        <v>13272.51367230475</v>
       </c>
       <c r="H95" t="n">
-        <v>0.15</v>
+        <v>0.28</v>
       </c>
       <c r="I95" t="n">
-        <v>2170699</v>
+        <v>2186214</v>
       </c>
     </row>
     <row r="96">
@@ -3772,19 +3772,19 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>2541788</v>
+        <v>2391609</v>
       </c>
       <c r="F96" t="n">
-        <v>117.2489374977522</v>
+        <v>108.8405649314375</v>
       </c>
       <c r="G96" t="n">
-        <v>171.5308863763632</v>
+        <v>75.94619816425394</v>
       </c>
       <c r="H96" t="n">
-        <v>2.39</v>
+        <v>2.74</v>
       </c>
       <c r="I96" t="n">
-        <v>63270</v>
+        <v>61765</v>
       </c>
     </row>
     <row r="97">
@@ -3807,19 +3807,19 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>20371372</v>
+        <v>20257290</v>
       </c>
       <c r="F97" t="n">
-        <v>1812.073037521619</v>
+        <v>1631.659392056127</v>
       </c>
       <c r="G97" t="n">
-        <v>1153.968038135518</v>
+        <v>1237.365628331331</v>
       </c>
       <c r="H97" t="n">
-        <v>0.97</v>
+        <v>0.49</v>
       </c>
       <c r="I97" t="n">
-        <v>116815</v>
+        <v>126780</v>
       </c>
     </row>
     <row r="98">
@@ -3839,22 +3839,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>3513524</v>
+        <v>3493748</v>
       </c>
       <c r="E98" t="n">
-        <v>10120385</v>
+        <v>10063423</v>
       </c>
       <c r="F98" t="n">
-        <v>1391.865562678081</v>
+        <v>1233.426244119088</v>
       </c>
       <c r="G98" t="n">
-        <v>185.0954726421157</v>
+        <v>2151.605073863407</v>
       </c>
       <c r="H98" t="n">
-        <v>1.56</v>
+        <v>0.99</v>
       </c>
       <c r="I98" t="n">
-        <v>405907</v>
+        <v>357163</v>
       </c>
     </row>
     <row r="99">
@@ -3877,19 +3877,19 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>1667645</v>
+        <v>1661723</v>
       </c>
       <c r="F99" t="n">
-        <v>66.93175623972421</v>
+        <v>68.83748097144827</v>
       </c>
       <c r="G99" t="n">
-        <v>71.81582046793258</v>
+        <v>61.75233709392942</v>
       </c>
       <c r="H99" t="n">
-        <v>2.87</v>
+        <v>2.61</v>
       </c>
       <c r="I99" t="n">
-        <v>266934</v>
+        <v>289146</v>
       </c>
     </row>
     <row r="100">
@@ -3909,22 +3909,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>79948543</v>
+        <v>79947401</v>
       </c>
       <c r="E100" t="n">
-        <v>101740735</v>
+        <v>101739281</v>
       </c>
       <c r="F100" t="n">
-        <v>1870.24417707086</v>
+        <v>10250.41280119941</v>
       </c>
       <c r="G100" t="n">
-        <v>3252.447956462814</v>
+        <v>9286.994371378145</v>
       </c>
       <c r="H100" t="n">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="I100" t="n">
-        <v>6350693</v>
+        <v>6239734</v>
       </c>
     </row>
     <row r="101">
@@ -3944,22 +3944,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>22694077</v>
+        <v>22770101</v>
       </c>
       <c r="E101" t="n">
-        <v>29439409</v>
+        <v>29538030</v>
       </c>
       <c r="F101" t="n">
-        <v>6118.307148402969</v>
+        <v>7703.387404789334</v>
       </c>
       <c r="G101" t="n">
-        <v>4916.25869038785</v>
+        <v>6442.021412628012</v>
       </c>
       <c r="H101" t="n">
-        <v>0.57</v>
+        <v>0.46</v>
       </c>
       <c r="I101" t="n">
-        <v>179824</v>
+        <v>186666</v>
       </c>
     </row>
     <row r="102">
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>1753060</v>
+        <v>1666316</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>4.44</v>
+        <v>9.68</v>
       </c>
       <c r="I102" t="n">
-        <v>17909.03</v>
+        <v>17509.76</v>
       </c>
     </row>
     <row r="103">
@@ -4014,10 +4014,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>607765</v>
+        <v>614095</v>
       </c>
       <c r="E103" t="n">
-        <v>607765</v>
+        <v>614095</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -4026,10 +4026,10 @@
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>4.2</v>
+        <v>4.14</v>
       </c>
       <c r="I103" t="n">
-        <v>83134</v>
+        <v>83216</v>
       </c>
     </row>
     <row r="104">
@@ -4049,22 +4049,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>40840013</v>
+        <v>41205317</v>
       </c>
       <c r="E104" t="n">
-        <v>42692417</v>
+        <v>43074290</v>
       </c>
       <c r="F104" t="n">
-        <v>193.3906428249547</v>
+        <v>144.4157469987222</v>
       </c>
       <c r="G104" t="n">
-        <v>808.4356653498048</v>
+        <v>1604.927392234609</v>
       </c>
       <c r="H104" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="I104" t="n">
-        <v>783728</v>
+        <v>797421</v>
       </c>
     </row>
     <row r="105">
@@ -4084,22 +4084,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>13649323</v>
+        <v>13651852</v>
       </c>
       <c r="E105" t="n">
-        <v>13649323</v>
+        <v>13651852</v>
       </c>
       <c r="F105" t="n">
-        <v>3688.769790077421</v>
+        <v>2219.756123466018</v>
       </c>
       <c r="G105" t="n">
-        <v>2948.035064235747</v>
+        <v>2276.080665671326</v>
       </c>
       <c r="H105" t="n">
-        <v>0.1</v>
+        <v>0.35</v>
       </c>
       <c r="I105" t="n">
-        <v>3988068</v>
+        <v>4369697</v>
       </c>
     </row>
     <row r="106">
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>1087790</v>
+        <v>1088018</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -4131,10 +4131,10 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>8.949999999999999</v>
+        <v>5.35</v>
       </c>
       <c r="I106" t="n">
-        <v>5294.07</v>
+        <v>4010.75</v>
       </c>
     </row>
     <row r="107">
@@ -4154,22 +4154,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>50968346</v>
+        <v>50561299</v>
       </c>
       <c r="E107" t="n">
-        <v>129844775</v>
+        <v>128807801</v>
       </c>
       <c r="F107" t="n">
-        <v>1971.112336941448</v>
+        <v>1543.824938469899</v>
       </c>
       <c r="G107" t="n">
-        <v>3841.409239347157</v>
+        <v>3367.243249701979</v>
       </c>
       <c r="H107" t="n">
-        <v>0.18</v>
+        <v>0.36</v>
       </c>
       <c r="I107" t="n">
-        <v>2249770</v>
+        <v>2450495</v>
       </c>
     </row>
     <row r="108">
@@ -4189,22 +4189,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>14198951</v>
+        <v>14060412</v>
       </c>
       <c r="E108" t="n">
-        <v>68767785</v>
+        <v>68096821</v>
       </c>
       <c r="F108" t="n">
-        <v>8833.560394697468</v>
+        <v>8850.014957851088</v>
       </c>
       <c r="G108" t="n">
-        <v>12489.01369483377</v>
+        <v>11643.62632737918</v>
       </c>
       <c r="H108" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="I108" t="n">
-        <v>3547334</v>
+        <v>3551823</v>
       </c>
     </row>
     <row r="109">
@@ -4227,7 +4227,7 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>503360</v>
+        <v>492504</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -4236,10 +4236,10 @@
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>8.48</v>
+        <v>5.88</v>
       </c>
       <c r="I109" t="n">
-        <v>7328.45</v>
+        <v>6020.44</v>
       </c>
     </row>
     <row r="110">
@@ -4259,22 +4259,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>4294953</v>
+        <v>4419817</v>
       </c>
       <c r="E110" t="n">
-        <v>9790155</v>
+        <v>10074778</v>
       </c>
       <c r="F110" t="n">
-        <v>2606.255790750711</v>
+        <v>259.051440206955</v>
       </c>
       <c r="G110" t="n">
-        <v>2210.810864674415</v>
+        <v>982.5759348979184</v>
       </c>
       <c r="H110" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="I110" t="n">
-        <v>93644</v>
+        <v>104514</v>
       </c>
     </row>
     <row r="111">
@@ -4297,19 +4297,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>1855487834</v>
+        <v>1864442747</v>
       </c>
       <c r="F111" t="n">
-        <v>74417.92092153843</v>
+        <v>50166.17726500579</v>
       </c>
       <c r="G111" t="n">
-        <v>48082.06980150066</v>
+        <v>49233.83059359586</v>
       </c>
       <c r="H111" t="n">
-        <v>0.34</v>
+        <v>0.2</v>
       </c>
       <c r="I111" t="n">
-        <v>25022749</v>
+        <v>25582235</v>
       </c>
     </row>
     <row r="112">
@@ -4329,22 +4329,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>9406565</v>
+        <v>9391889</v>
       </c>
       <c r="E112" t="n">
-        <v>34255557</v>
+        <v>34200481</v>
       </c>
       <c r="F112" t="n">
-        <v>2594.713114021375</v>
+        <v>1078.792368528319</v>
       </c>
       <c r="G112" t="n">
-        <v>417.0318336445423</v>
+        <v>579.5563419266988</v>
       </c>
       <c r="H112" t="n">
-        <v>1.15</v>
+        <v>0.88</v>
       </c>
       <c r="I112" t="n">
-        <v>138701</v>
+        <v>142934</v>
       </c>
     </row>
     <row r="113">
@@ -4367,19 +4367,19 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>571337</v>
+        <v>569241</v>
       </c>
       <c r="F113" t="n">
-        <v>15.58971985430017</v>
+        <v>15.59124086597569</v>
       </c>
       <c r="G113" t="n">
-        <v>245.2046233023185</v>
+        <v>260.0103820207941</v>
       </c>
       <c r="H113" t="n">
-        <v>1.31</v>
+        <v>1.09</v>
       </c>
       <c r="I113" t="n">
-        <v>21940</v>
+        <v>21850</v>
       </c>
     </row>
     <row r="114">
@@ -4399,22 +4399,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>11982346</v>
+        <v>11972924</v>
       </c>
       <c r="E114" t="n">
-        <v>17372673</v>
+        <v>17359012</v>
       </c>
       <c r="F114" t="n">
-        <v>5805.922582526884</v>
+        <v>5330.03271077047</v>
       </c>
       <c r="G114" t="n">
-        <v>2764.609187317179</v>
+        <v>1837.470770814456</v>
       </c>
       <c r="H114" t="n">
-        <v>1.03</v>
+        <v>0.63</v>
       </c>
       <c r="I114" t="n">
-        <v>2327001</v>
+        <v>2190500</v>
       </c>
     </row>
     <row r="115">
@@ -4434,22 +4434,22 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1932575</v>
+        <v>1935308</v>
       </c>
       <c r="E115" t="n">
-        <v>13858302</v>
+        <v>13877900</v>
       </c>
       <c r="F115" t="n">
-        <v>819.3321419520231</v>
+        <v>754.6906581201894</v>
       </c>
       <c r="G115" t="n">
-        <v>645.7905387466412</v>
+        <v>1059.446444844773</v>
       </c>
       <c r="H115" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="I115" t="n">
-        <v>1882306</v>
+        <v>1859608</v>
       </c>
     </row>
     <row r="116">
@@ -4469,10 +4469,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2743095</v>
+        <v>2745652</v>
       </c>
       <c r="E116" t="n">
-        <v>5545056</v>
+        <v>5550226</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>2136.4</v>
+        <v>3034.26</v>
       </c>
     </row>
     <row r="117">
@@ -4502,22 +4502,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>199568498</v>
+        <v>196769797</v>
       </c>
       <c r="E117" t="n">
-        <v>1130079461</v>
+        <v>1114231497</v>
       </c>
       <c r="F117" t="n">
-        <v>290762.3336944903</v>
+        <v>362949.4931208472</v>
       </c>
       <c r="G117" t="n">
-        <v>442343.5192247471</v>
+        <v>364759.378363718</v>
       </c>
       <c r="H117" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I117" t="n">
-        <v>58066356</v>
+        <v>59567762</v>
       </c>
     </row>
     <row r="118">
@@ -4537,22 +4537,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>722485</v>
+        <v>720137</v>
       </c>
       <c r="E118" t="n">
-        <v>2395655</v>
+        <v>2387868</v>
       </c>
       <c r="F118" t="n">
-        <v>7801.077913959973</v>
+        <v>8480.769357467409</v>
       </c>
       <c r="G118" t="n">
-        <v>7640.928088906122</v>
+        <v>5330.307110421024</v>
       </c>
       <c r="H118" t="n">
         <v>0.85</v>
       </c>
       <c r="I118" t="n">
-        <v>19009.34</v>
+        <v>18551.27</v>
       </c>
     </row>
     <row r="119">
@@ -4572,22 +4572,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2803546</v>
+        <v>2829669</v>
       </c>
       <c r="E119" t="n">
-        <v>9926172</v>
+        <v>10018663</v>
       </c>
       <c r="F119" t="n">
-        <v>99.48837275859385</v>
+        <v>106.7026359516912</v>
       </c>
       <c r="G119" t="n">
-        <v>1495.675411593031</v>
+        <v>1503.094702591646</v>
       </c>
       <c r="H119" t="n">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
-        <v>11429.52</v>
+        <v>11295.58</v>
       </c>
     </row>
     <row r="120">
@@ -4607,22 +4607,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1036276</v>
+        <v>1034797</v>
       </c>
       <c r="E120" t="n">
-        <v>1036276</v>
+        <v>1034797</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9112233862891611</v>
+        <v>0.9113122898373012</v>
       </c>
       <c r="G120" t="n">
-        <v>121.5820947858289</v>
+        <v>97.0085408713061</v>
       </c>
       <c r="H120" t="n">
         <v>0.05</v>
       </c>
       <c r="I120" t="n">
-        <v>12423.56</v>
+        <v>12427.96</v>
       </c>
     </row>
     <row r="121">
@@ -4642,22 +4642,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>513244</v>
+        <v>505000</v>
       </c>
       <c r="E121" t="n">
-        <v>1727509</v>
+        <v>1699759</v>
       </c>
       <c r="F121" t="n">
-        <v>475.1965778595554</v>
+        <v>441.0467698780284</v>
       </c>
       <c r="G121" t="n">
-        <v>358.0037344788796</v>
+        <v>645.1800515096519</v>
       </c>
       <c r="H121" t="n">
-        <v>0.75</v>
+        <v>0.58</v>
       </c>
       <c r="I121" t="n">
-        <v>548574</v>
+        <v>632091</v>
       </c>
     </row>
     <row r="122">
@@ -4677,10 +4677,10 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>453881</v>
+        <v>458901</v>
       </c>
       <c r="E122" t="n">
-        <v>842036</v>
+        <v>851349</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -4689,10 +4689,10 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>4.55</v>
+        <v>5.62</v>
       </c>
       <c r="I122" t="n">
-        <v>204508</v>
+        <v>199706</v>
       </c>
     </row>
     <row r="123">
@@ -4715,19 +4715,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>11816736</v>
+        <v>11788592</v>
       </c>
       <c r="F123" t="n">
-        <v>114.800437499373</v>
+        <v>114.7943165346618</v>
       </c>
       <c r="G123" t="n">
-        <v>102.5705563958174</v>
+        <v>159.5844417878188</v>
       </c>
       <c r="H123" t="n">
-        <v>3.35</v>
+        <v>3.27</v>
       </c>
       <c r="I123" t="n">
-        <v>7359.48</v>
+        <v>7239.4</v>
       </c>
     </row>
     <row r="124">
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>1276337</v>
+        <v>1253712</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -4759,10 +4759,10 @@
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>5.42</v>
+        <v>4.37</v>
       </c>
       <c r="I124" t="n">
-        <v>51393</v>
+        <v>48272</v>
       </c>
     </row>
     <row r="125">
@@ -4782,22 +4782,22 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3316875</v>
+        <v>3502302</v>
       </c>
       <c r="E125" t="n">
-        <v>7745455</v>
+        <v>8178458</v>
       </c>
       <c r="F125" t="n">
-        <v>1434.139369819699</v>
+        <v>1569.908385292858</v>
       </c>
       <c r="G125" t="n">
-        <v>1208.565211722482</v>
+        <v>1539.1408361141</v>
       </c>
       <c r="H125" t="n">
-        <v>0.85</v>
+        <v>0.39</v>
       </c>
       <c r="I125" t="n">
-        <v>776869</v>
+        <v>785840</v>
       </c>
     </row>
     <row r="126">
@@ -4817,22 +4817,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>251240</v>
+        <v>255609</v>
       </c>
       <c r="E126" t="n">
-        <v>2217379</v>
+        <v>2255942</v>
       </c>
       <c r="F126" t="n">
-        <v>106.716307936025</v>
+        <v>1.290387137214506</v>
       </c>
       <c r="G126" t="n">
-        <v>10.69956707206748</v>
+        <v>27.49123409079564</v>
       </c>
       <c r="H126" t="n">
-        <v>1.73</v>
+        <v>2.56</v>
       </c>
       <c r="I126" t="n">
-        <v>86190</v>
+        <v>86694</v>
       </c>
     </row>
     <row r="127">
@@ -4855,19 +4855,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>647826</v>
+        <v>649886</v>
       </c>
       <c r="F127" t="n">
-        <v>627.6748531727594</v>
+        <v>732.4342802782721</v>
       </c>
       <c r="G127" t="n">
-        <v>653.7939294366234</v>
+        <v>651.8252878510243</v>
       </c>
       <c r="H127" t="n">
         <v>0.96</v>
       </c>
       <c r="I127" t="n">
-        <v>4965.37</v>
+        <v>6173.43</v>
       </c>
     </row>
     <row r="128">
@@ -4887,22 +4887,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>4912214</v>
+        <v>4901115</v>
       </c>
       <c r="E128" t="n">
-        <v>17358411</v>
+        <v>17319193</v>
       </c>
       <c r="F128" t="n">
-        <v>1909.711126257235</v>
+        <v>1742.59923417107</v>
       </c>
       <c r="G128" t="n">
-        <v>1909.456230388757</v>
+        <v>2133.523985103466</v>
       </c>
       <c r="H128" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="I128" t="n">
-        <v>107555</v>
+        <v>107410</v>
       </c>
     </row>
     <row r="129">
@@ -4925,19 +4925,19 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2176320</v>
+        <v>2250844</v>
       </c>
       <c r="F129" t="n">
-        <v>42.922778290567</v>
+        <v>128.2161572628939</v>
       </c>
       <c r="G129" t="n">
-        <v>124.1617857269211</v>
+        <v>9.136897393418978e-05</v>
       </c>
       <c r="H129" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="I129" t="n">
-        <v>5492.66</v>
+        <v>5446.17</v>
       </c>
     </row>
     <row r="130">
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>2442824</v>
+        <v>2490322</v>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
@@ -4970,7 +4970,7 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>2450.04</v>
+        <v>2515.49</v>
       </c>
     </row>
     <row r="131">
@@ -4990,22 +4990,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>84795</v>
+        <v>83821</v>
       </c>
       <c r="E131" t="n">
-        <v>84795</v>
+        <v>83821</v>
       </c>
       <c r="F131" t="n">
-        <v>10.15439361172547</v>
+        <v>15.14665615045328</v>
       </c>
       <c r="G131" t="n">
-        <v>44.78261149985654</v>
+        <v>215.8943753742326</v>
       </c>
       <c r="H131" t="n">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="I131" t="n">
-        <v>19433.54</v>
+        <v>19841.95</v>
       </c>
     </row>
     <row r="132">
@@ -5028,19 +5028,19 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>4371466</v>
+        <v>4362924</v>
       </c>
       <c r="F132" t="n">
-        <v>518.8878432680675</v>
+        <v>676.1926247437976</v>
       </c>
       <c r="G132" t="n">
-        <v>352.2501954559764</v>
+        <v>398.6520590509928</v>
       </c>
       <c r="H132" t="n">
-        <v>0.38</v>
+        <v>0.45</v>
       </c>
       <c r="I132" t="n">
-        <v>278840</v>
+        <v>312016</v>
       </c>
     </row>
     <row r="133">
@@ -5060,22 +5060,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2134684</v>
+        <v>2184180</v>
       </c>
       <c r="E133" t="n">
-        <v>8717495</v>
+        <v>8919624</v>
       </c>
       <c r="F133" t="n">
-        <v>235.9421860501473</v>
+        <v>450.7749113013236</v>
       </c>
       <c r="G133" t="n">
-        <v>591.4036861986923</v>
+        <v>546.2029770050052</v>
       </c>
       <c r="H133" t="n">
-        <v>0.97</v>
+        <v>0.14</v>
       </c>
       <c r="I133" t="n">
-        <v>558677</v>
+        <v>566877</v>
       </c>
     </row>
     <row r="134">
@@ -5095,22 +5095,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>7379313</v>
+        <v>7354410</v>
       </c>
       <c r="E134" t="n">
-        <v>7434165</v>
+        <v>7409077</v>
       </c>
       <c r="F134" t="n">
-        <v>263208.3274427141</v>
+        <v>354667.5296383427</v>
       </c>
       <c r="G134" t="n">
-        <v>241211.775017605</v>
+        <v>241777.2642273036</v>
       </c>
       <c r="H134" t="n">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="I134" t="n">
-        <v>5163525</v>
+        <v>4564268</v>
       </c>
     </row>
     <row r="135">
@@ -5130,22 +5130,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>13624184</v>
+        <v>13622200</v>
       </c>
       <c r="E135" t="n">
-        <v>13670548</v>
+        <v>13668558</v>
       </c>
       <c r="F135" t="n">
-        <v>13637.09842793061</v>
+        <v>11502.76112676245</v>
       </c>
       <c r="G135" t="n">
-        <v>12741.8352020306</v>
+        <v>12665.55729969828</v>
       </c>
       <c r="H135" t="n">
         <v>0.13</v>
       </c>
       <c r="I135" t="n">
-        <v>5555564</v>
+        <v>5772194</v>
       </c>
     </row>
     <row r="136">
@@ -5165,22 +5165,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>42835497</v>
+        <v>42869836</v>
       </c>
       <c r="E136" t="n">
-        <v>72724708</v>
+        <v>72783008</v>
       </c>
       <c r="F136" t="n">
-        <v>879.8700167555988</v>
+        <v>967.4863621339914</v>
       </c>
       <c r="G136" t="n">
-        <v>832.7361146716153</v>
+        <v>849.8555304039535</v>
       </c>
       <c r="H136" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="I136" t="n">
-        <v>1161968</v>
+        <v>1148404</v>
       </c>
     </row>
     <row r="137">
@@ -5200,22 +5200,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>25180630</v>
+        <v>25626304</v>
       </c>
       <c r="E137" t="n">
-        <v>75481114</v>
+        <v>76816629</v>
       </c>
       <c r="F137" t="n">
-        <v>87331.20461229925</v>
+        <v>71244.65734241143</v>
       </c>
       <c r="G137" t="n">
-        <v>94706.33261612011</v>
+        <v>87108.03658894658</v>
       </c>
       <c r="H137" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="I137" t="n">
-        <v>2173943</v>
+        <v>1923937</v>
       </c>
     </row>
     <row r="138">
@@ -5235,22 +5235,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>100855666</v>
+        <v>101122981</v>
       </c>
       <c r="E138" t="n">
-        <v>107218688</v>
+        <v>107502867</v>
       </c>
       <c r="F138" t="n">
-        <v>4739.201477358763</v>
+        <v>5689.42097160148</v>
       </c>
       <c r="G138" t="n">
-        <v>12664.14808629193</v>
+        <v>10007.26235995647</v>
       </c>
       <c r="H138" t="n">
-        <v>0.36</v>
+        <v>0.13</v>
       </c>
       <c r="I138" t="n">
-        <v>942442</v>
+        <v>984926</v>
       </c>
     </row>
     <row r="139">
@@ -5273,19 +5273,19 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1097761</v>
+        <v>1097805</v>
       </c>
       <c r="F139" t="n">
-        <v>3.440776318241765</v>
+        <v>3.453802207792346</v>
       </c>
       <c r="G139" t="n">
-        <v>397.0216593304648</v>
+        <v>372.1005304557789</v>
       </c>
       <c r="H139" t="n">
         <v>1.65</v>
       </c>
       <c r="I139" t="n">
-        <v>119.98</v>
+        <v>166.3</v>
       </c>
     </row>
     <row r="140">
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>253297</v>
+        <v>258588</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -5317,10 +5317,10 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>7.91</v>
+        <v>10.66</v>
       </c>
       <c r="I140" t="n">
-        <v>577.72</v>
+        <v>660.7</v>
       </c>
     </row>
     <row r="141">
@@ -5336,10 +5336,10 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>95153</v>
+        <v>97074</v>
       </c>
       <c r="E141" t="n">
-        <v>269926</v>
+        <v>275378</v>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
@@ -5349,7 +5349,7 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>14.13</v>
+        <v>47.72</v>
       </c>
     </row>
     <row r="142">
@@ -5369,22 +5369,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>46261305</v>
+        <v>46126753</v>
       </c>
       <c r="E142" t="n">
-        <v>199288641</v>
+        <v>198709010</v>
       </c>
       <c r="F142" t="n">
-        <v>64998.8297591224</v>
+        <v>57520.33241154902</v>
       </c>
       <c r="G142" t="n">
-        <v>58253.49360667355</v>
+        <v>77894.81062100771</v>
       </c>
       <c r="H142" t="n">
         <v>0.11</v>
       </c>
       <c r="I142" t="n">
-        <v>8570002</v>
+        <v>8565891</v>
       </c>
     </row>
     <row r="143">
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>280073</v>
+        <v>300023</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -5416,10 +5416,10 @@
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>13.04</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="I143" t="n">
-        <v>221425</v>
+        <v>235750</v>
       </c>
     </row>
     <row r="144">
@@ -5442,19 +5442,19 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>9671528</v>
+        <v>9619654</v>
       </c>
       <c r="F144" t="n">
-        <v>726.2725777526637</v>
+        <v>1065.656414895846</v>
       </c>
       <c r="G144" t="n">
-        <v>308.2698013363596</v>
+        <v>567.4952636773322</v>
       </c>
       <c r="H144" t="n">
-        <v>0.83</v>
+        <v>0.74</v>
       </c>
       <c r="I144" t="n">
-        <v>121204</v>
+        <v>121761</v>
       </c>
     </row>
     <row r="145">
@@ -5474,22 +5474,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1194232</v>
+        <v>1178295</v>
       </c>
       <c r="E145" t="n">
-        <v>7961549</v>
+        <v>7855301</v>
       </c>
       <c r="F145" t="n">
-        <v>51.73652000616497</v>
+        <v>51.74156768192282</v>
       </c>
       <c r="G145" t="n">
-        <v>120.6919672934835</v>
+        <v>120.7037426103661</v>
       </c>
       <c r="H145" t="n">
         <v>0.53</v>
       </c>
       <c r="I145" t="n">
-        <v>9745.879999999999</v>
+        <v>10833.14</v>
       </c>
     </row>
     <row r="146">
@@ -5512,19 +5512,19 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>7638903</v>
+        <v>7705590</v>
       </c>
       <c r="F146" t="n">
-        <v>170.4207516426002</v>
+        <v>181.1739492580237</v>
       </c>
       <c r="G146" t="n">
-        <v>183.0437539859961</v>
+        <v>263.429001055342</v>
       </c>
       <c r="H146" t="n">
-        <v>1.06</v>
+        <v>0.91</v>
       </c>
       <c r="I146" t="n">
-        <v>6428194</v>
+        <v>6393451</v>
       </c>
     </row>
     <row r="147">
@@ -5544,22 +5544,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>660643</v>
+        <v>662403</v>
       </c>
       <c r="E147" t="n">
-        <v>2385319</v>
+        <v>2391676</v>
       </c>
       <c r="F147" t="n">
-        <v>52.66820682197979</v>
+        <v>43.32047780256054</v>
       </c>
       <c r="G147" t="n">
-        <v>526.5268528872056</v>
+        <v>467.0604249162884</v>
       </c>
       <c r="H147" t="n">
-        <v>0.79</v>
+        <v>0.71</v>
       </c>
       <c r="I147" t="n">
-        <v>409948</v>
+        <v>369986</v>
       </c>
     </row>
     <row r="148">
@@ -5582,19 +5582,19 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>1567688</v>
+        <v>1648744</v>
       </c>
       <c r="F148" t="n">
-        <v>199.5592986222364</v>
+        <v>177.7851454118169</v>
       </c>
       <c r="G148" t="n">
-        <v>1216.061069107001</v>
+        <v>82.7562854066928</v>
       </c>
       <c r="H148" t="n">
-        <v>0.68</v>
+        <v>2.6</v>
       </c>
       <c r="I148" t="n">
-        <v>82349</v>
+        <v>91643</v>
       </c>
     </row>
     <row r="149">
@@ -5617,7 +5617,7 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>69310</v>
+        <v>67220</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
@@ -5626,10 +5626,10 @@
         <v>0</v>
       </c>
       <c r="H149" t="n">
-        <v>5.88</v>
+        <v>6.06</v>
       </c>
       <c r="I149" t="n">
-        <v>454.22</v>
+        <v>842.17</v>
       </c>
     </row>
     <row r="150">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>12915028</v>
+        <v>12959960</v>
       </c>
       <c r="E150" t="n">
-        <v>12915028</v>
+        <v>12959960</v>
       </c>
       <c r="F150" t="n">
-        <v>593.2903187456952</v>
+        <v>831.0587693232346</v>
       </c>
       <c r="G150" t="n">
-        <v>1303.814739679337</v>
+        <v>702.346318346145</v>
       </c>
       <c r="H150" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="I150" t="n">
-        <v>2820591</v>
+        <v>2820505</v>
       </c>
     </row>
     <row r="151">
@@ -5684,22 +5684,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1733099</v>
+        <v>1724686</v>
       </c>
       <c r="E151" t="n">
-        <v>6298400</v>
+        <v>6267553</v>
       </c>
       <c r="F151" t="n">
-        <v>49.33922151162825</v>
+        <v>65.78588655474697</v>
       </c>
       <c r="G151" t="n">
-        <v>37.26954383396202</v>
+        <v>21.22393323889688</v>
       </c>
       <c r="H151" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="I151" t="n">
-        <v>134389</v>
+        <v>135589</v>
       </c>
     </row>
     <row r="152">
@@ -5719,10 +5719,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1184643</v>
+        <v>1177703</v>
       </c>
       <c r="E152" t="n">
-        <v>1184643</v>
+        <v>1177703</v>
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>137.11</v>
+        <v>136.3</v>
       </c>
     </row>
     <row r="153">
@@ -5752,22 +5752,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>23793117</v>
+        <v>23819420</v>
       </c>
       <c r="E153" t="n">
-        <v>27419586</v>
+        <v>27453768</v>
       </c>
       <c r="F153" t="n">
-        <v>1490.669352484188</v>
+        <v>518.6498940396342</v>
       </c>
       <c r="G153" t="n">
-        <v>645.2157317667123</v>
+        <v>795.484228218903</v>
       </c>
       <c r="H153" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="I153" t="n">
-        <v>714165</v>
+        <v>723010</v>
       </c>
     </row>
     <row r="154">
@@ -5787,22 +5787,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2455330</v>
+        <v>2450802</v>
       </c>
       <c r="E154" t="n">
-        <v>18477469</v>
+        <v>18443389</v>
       </c>
       <c r="F154" t="n">
-        <v>5328.842008992067</v>
+        <v>6117.554288626303</v>
       </c>
       <c r="G154" t="n">
-        <v>2856.995076481262</v>
+        <v>2956.064658109713</v>
       </c>
       <c r="H154" t="n">
         <v>0.05</v>
       </c>
       <c r="I154" t="n">
-        <v>161891</v>
+        <v>163652</v>
       </c>
     </row>
     <row r="155">
@@ -5822,22 +5822,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>21013287</v>
+        <v>20664452</v>
       </c>
       <c r="E155" t="n">
-        <v>84053146</v>
+        <v>82657809</v>
       </c>
       <c r="F155" t="n">
-        <v>13154.63494008787</v>
+        <v>10330.0430341211</v>
       </c>
       <c r="G155" t="n">
-        <v>20461.33298647875</v>
+        <v>19208.18135954888</v>
       </c>
       <c r="H155" t="n">
-        <v>0.47</v>
+        <v>0.24</v>
       </c>
       <c r="I155" t="n">
-        <v>6014053</v>
+        <v>5341687</v>
       </c>
     </row>
     <row r="156">
@@ -5857,22 +5857,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>294929906</v>
+        <v>294808951</v>
       </c>
       <c r="E156" t="n">
-        <v>294929906</v>
+        <v>294808951</v>
       </c>
       <c r="F156" t="n">
-        <v>286432.3948346164</v>
+        <v>286730.659607688</v>
       </c>
       <c r="G156" t="n">
-        <v>399811.2515030237</v>
+        <v>392950.9961473366</v>
       </c>
       <c r="H156" t="n">
-        <v>0.09</v>
+        <v>0.2</v>
       </c>
       <c r="I156" t="n">
-        <v>12877305</v>
+        <v>12684841</v>
       </c>
     </row>
     <row r="157">
@@ -5892,22 +5892,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>12740695</v>
+        <v>12739833</v>
       </c>
       <c r="E157" t="n">
-        <v>40308096</v>
+        <v>40305257</v>
       </c>
       <c r="F157" t="n">
-        <v>8439.052094840252</v>
+        <v>10448.60703728798</v>
       </c>
       <c r="G157" t="n">
-        <v>10103.24632231877</v>
+        <v>13682.79784652774</v>
       </c>
       <c r="H157" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="I157" t="n">
-        <v>1527696</v>
+        <v>1600763</v>
       </c>
     </row>
     <row r="158">
@@ -5927,10 +5927,10 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1089674</v>
+        <v>1088251</v>
       </c>
       <c r="E158" t="n">
-        <v>2481839</v>
+        <v>2478598</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -5942,7 +5942,7 @@
         <v>6.77</v>
       </c>
       <c r="I158" t="n">
-        <v>4531.89</v>
+        <v>4845.42</v>
       </c>
     </row>
     <row r="159">
@@ -5962,22 +5962,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>17065426</v>
+        <v>17002003</v>
       </c>
       <c r="E159" t="n">
-        <v>17065426</v>
+        <v>17002003</v>
       </c>
       <c r="F159" t="n">
-        <v>17161.10783753676</v>
+        <v>14082.92706878322</v>
       </c>
       <c r="G159" t="n">
-        <v>19668.24738047483</v>
+        <v>15409.29107411718</v>
       </c>
       <c r="H159" t="n">
         <v>0.12</v>
       </c>
       <c r="I159" t="n">
-        <v>2500845</v>
+        <v>2497870</v>
       </c>
     </row>
     <row r="160">
@@ -5997,10 +5997,10 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>4861920</v>
+        <v>4863030</v>
       </c>
       <c r="E160" t="n">
-        <v>8951315</v>
+        <v>8953359</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -6009,10 +6009,10 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>10.5</v>
+        <v>10.1</v>
       </c>
       <c r="I160" t="n">
-        <v>14.55</v>
+        <v>14.56</v>
       </c>
     </row>
     <row r="161">
@@ -6032,22 +6032,22 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>113183</v>
+        <v>113520</v>
       </c>
       <c r="E161" t="n">
-        <v>135111</v>
+        <v>135619</v>
       </c>
       <c r="F161" t="n">
-        <v>20.51098819709924</v>
+        <v>0.1661873223250684</v>
       </c>
       <c r="G161" t="n">
-        <v>3.550258116605689</v>
+        <v>235.7996668008417</v>
       </c>
       <c r="H161" t="n">
         <v>0.03</v>
       </c>
       <c r="I161" t="n">
-        <v>3351.88</v>
+        <v>4229.28</v>
       </c>
     </row>
     <row r="162">
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>21696362</v>
+        <v>19906588</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -6079,10 +6079,10 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>8.73</v>
+        <v>6.46</v>
       </c>
       <c r="I162" t="n">
-        <v>1595.77</v>
+        <v>1608.16</v>
       </c>
     </row>
     <row r="163">
@@ -6102,22 +6102,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>436762</v>
+        <v>435772</v>
       </c>
       <c r="E163" t="n">
-        <v>550157</v>
+        <v>548909</v>
       </c>
       <c r="F163" t="n">
-        <v>137.1446834281962</v>
+        <v>187.7759243604316</v>
       </c>
       <c r="G163" t="n">
-        <v>222.859029082604</v>
+        <v>158.1143866601692</v>
       </c>
       <c r="H163" t="n">
-        <v>1.08</v>
+        <v>0.18</v>
       </c>
       <c r="I163" t="n">
-        <v>183595</v>
+        <v>186027</v>
       </c>
     </row>
     <row r="164">
@@ -6140,19 +6140,19 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>98214</v>
+        <v>118636</v>
       </c>
       <c r="F164" t="n">
-        <v>1.180620502351934</v>
+        <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>264.2087814984519</v>
+        <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>1.4</v>
+        <v>7.93</v>
       </c>
       <c r="I164" t="n">
-        <v>3039.65</v>
+        <v>3763.11</v>
       </c>
     </row>
     <row r="165">
@@ -6172,22 +6172,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>12027910</v>
+        <v>11986142</v>
       </c>
       <c r="E165" t="n">
-        <v>18331327</v>
+        <v>18267671</v>
       </c>
       <c r="F165" t="n">
-        <v>1921.299953917075</v>
+        <v>2103.808083513777</v>
       </c>
       <c r="G165" t="n">
-        <v>2018.561617203886</v>
+        <v>3617.792334637976</v>
       </c>
       <c r="H165" t="n">
-        <v>1.44</v>
+        <v>0.96</v>
       </c>
       <c r="I165" t="n">
-        <v>812080</v>
+        <v>660818</v>
       </c>
     </row>
     <row r="166">
@@ -6207,22 +6207,22 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>299511641</v>
+        <v>299981943</v>
       </c>
       <c r="E166" t="n">
-        <v>299511641</v>
+        <v>299981943</v>
       </c>
       <c r="F166" t="n">
-        <v>279732.5017873385</v>
+        <v>240587.5669120073</v>
       </c>
       <c r="G166" t="n">
-        <v>334759.4455880469</v>
+        <v>385669.3003605778</v>
       </c>
       <c r="H166" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I166" t="n">
-        <v>52965543</v>
+        <v>52522839</v>
       </c>
     </row>
     <row r="167">
@@ -6242,22 +6242,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>9696688</v>
+        <v>9359693</v>
       </c>
       <c r="E167" t="n">
-        <v>27530515</v>
+        <v>26573729</v>
       </c>
       <c r="F167" t="n">
-        <v>37.86093302485114</v>
+        <v>314.378839166415</v>
       </c>
       <c r="G167" t="n">
-        <v>1255.476418829272</v>
+        <v>1453.853593305813</v>
       </c>
       <c r="H167" t="n">
-        <v>0.37</v>
+        <v>0.75</v>
       </c>
       <c r="I167" t="n">
-        <v>101589</v>
+        <v>114261</v>
       </c>
     </row>
     <row r="168">
@@ -6280,19 +6280,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>12005784</v>
+        <v>11957931</v>
       </c>
       <c r="F168" t="n">
-        <v>114.1535369517926</v>
+        <v>206.6791853911952</v>
       </c>
       <c r="G168" t="n">
-        <v>1516.426814909036</v>
+        <v>983.9036591022464</v>
       </c>
       <c r="H168" t="n">
-        <v>1.74</v>
+        <v>1.25</v>
       </c>
       <c r="I168" t="n">
-        <v>160741</v>
+        <v>159496</v>
       </c>
     </row>
     <row r="169">
@@ -6312,22 +6312,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>4075003</v>
+        <v>4073355</v>
       </c>
       <c r="E169" t="n">
-        <v>27844209</v>
+        <v>27832946</v>
       </c>
       <c r="F169" t="n">
-        <v>2274.217892184408</v>
+        <v>4357.498753959763</v>
       </c>
       <c r="G169" t="n">
-        <v>1962.366433060688</v>
+        <v>4236.401289199413</v>
       </c>
       <c r="H169" t="n">
-        <v>0.36</v>
+        <v>1.06</v>
       </c>
       <c r="I169" t="n">
-        <v>2606423</v>
+        <v>2542719</v>
       </c>
     </row>
     <row r="170">
@@ -6347,22 +6347,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>3133560</v>
+        <v>3245981</v>
       </c>
       <c r="E170" t="n">
-        <v>4653511</v>
+        <v>4819550</v>
       </c>
       <c r="F170" t="n">
-        <v>362.1029673383398</v>
+        <v>828.499032215001</v>
       </c>
       <c r="G170" t="n">
-        <v>483.5085135834758</v>
+        <v>1613.743504121622</v>
       </c>
       <c r="H170" t="n">
-        <v>1.7</v>
+        <v>0.82</v>
       </c>
       <c r="I170" t="n">
-        <v>208751</v>
+        <v>216557</v>
       </c>
     </row>
     <row r="171">
@@ -6382,22 +6382,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>87760960</v>
+        <v>87628516</v>
       </c>
       <c r="E171" t="n">
-        <v>505716504</v>
+        <v>504953306</v>
       </c>
       <c r="F171" t="n">
-        <v>351966.1131852074</v>
+        <v>428366.1902557011</v>
       </c>
       <c r="G171" t="n">
-        <v>280595.2804821972</v>
+        <v>291703.5268577512</v>
       </c>
       <c r="H171" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="I171" t="n">
-        <v>15527942</v>
+        <v>15837556</v>
       </c>
     </row>
     <row r="172">
@@ -6417,22 +6417,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>13781347</v>
+        <v>13884677</v>
       </c>
       <c r="E172" t="n">
-        <v>13781347</v>
+        <v>13884677</v>
       </c>
       <c r="F172" t="n">
-        <v>5243.392707012845</v>
+        <v>5218.726583080267</v>
       </c>
       <c r="G172" t="n">
-        <v>5259.337334251728</v>
+        <v>5062.986496945413</v>
       </c>
       <c r="H172" t="n">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="I172" t="n">
-        <v>630590</v>
+        <v>617924</v>
       </c>
     </row>
     <row r="173">
@@ -6452,22 +6452,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>6743114</v>
+        <v>6705344</v>
       </c>
       <c r="E173" t="n">
-        <v>19155251</v>
+        <v>19047957</v>
       </c>
       <c r="F173" t="n">
-        <v>549.4212557376213</v>
+        <v>321.1135846422452</v>
       </c>
       <c r="G173" t="n">
-        <v>442.3199514560736</v>
+        <v>379.8961502093363</v>
       </c>
       <c r="H173" t="n">
-        <v>0.36</v>
+        <v>1.92</v>
       </c>
       <c r="I173" t="n">
-        <v>243395</v>
+        <v>227876</v>
       </c>
     </row>
     <row r="174">
@@ -6487,22 +6487,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>17563083</v>
+        <v>17333946</v>
       </c>
       <c r="E174" t="n">
-        <v>17563083</v>
+        <v>17333946</v>
       </c>
       <c r="F174" t="n">
-        <v>3.572483641296042</v>
+        <v>99.27401427901044</v>
       </c>
       <c r="G174" t="n">
-        <v>987.045097794858</v>
+        <v>3.59461577031863</v>
       </c>
       <c r="H174" t="n">
-        <v>3.6</v>
+        <v>2.46</v>
       </c>
       <c r="I174" t="n">
-        <v>94379</v>
+        <v>91823</v>
       </c>
     </row>
     <row r="175">
@@ -6525,19 +6525,19 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>1290921</v>
+        <v>1268053</v>
       </c>
       <c r="F175" t="n">
-        <v>255.9841959972671</v>
+        <v>115.0104395144762</v>
       </c>
       <c r="G175" t="n">
-        <v>152.1116291408629</v>
+        <v>923.625570003688</v>
       </c>
       <c r="H175" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I175" t="n">
-        <v>30882</v>
+        <v>95407</v>
       </c>
     </row>
     <row r="176">
@@ -6557,10 +6557,10 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>144884</v>
+        <v>128016</v>
       </c>
       <c r="E176" t="n">
-        <v>315409</v>
+        <v>278689</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -6569,10 +6569,10 @@
         <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>7.84</v>
+        <v>5.79</v>
       </c>
       <c r="I176" t="n">
-        <v>49121</v>
+        <v>45015</v>
       </c>
     </row>
     <row r="177">
@@ -6595,19 +6595,19 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>2380606</v>
+        <v>2272815</v>
       </c>
       <c r="F177" t="n">
-        <v>302.644847038447</v>
+        <v>238.3313830569675</v>
       </c>
       <c r="G177" t="n">
-        <v>225.1745968331194</v>
+        <v>94.71003908167206</v>
       </c>
       <c r="H177" t="n">
-        <v>2.09</v>
+        <v>1.75</v>
       </c>
       <c r="I177" t="n">
-        <v>169405</v>
+        <v>173115</v>
       </c>
     </row>
     <row r="178">
@@ -6627,22 +6627,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>246029466</v>
+        <v>244200008</v>
       </c>
       <c r="E178" t="n">
-        <v>246031910</v>
+        <v>244202435</v>
       </c>
       <c r="F178" t="n">
-        <v>45985.43701688527</v>
+        <v>46820.72854968372</v>
       </c>
       <c r="G178" t="n">
-        <v>82500.11442890504</v>
+        <v>57739.67303540147</v>
       </c>
       <c r="H178" t="n">
         <v>0.29</v>
       </c>
       <c r="I178" t="n">
-        <v>2469754</v>
+        <v>1591173</v>
       </c>
     </row>
     <row r="179">
@@ -6662,22 +6662,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>9270440</v>
+        <v>9285978</v>
       </c>
       <c r="E179" t="n">
-        <v>9270440</v>
+        <v>9285978</v>
       </c>
       <c r="F179" t="n">
-        <v>2435.508131792035</v>
+        <v>2549.915717611808</v>
       </c>
       <c r="G179" t="n">
-        <v>356.7260967844024</v>
+        <v>375.7588806948041</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="I179" t="n">
-        <v>2061233</v>
+        <v>2038622</v>
       </c>
     </row>
     <row r="180">
@@ -6697,22 +6697,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>178349</v>
+        <v>186534</v>
       </c>
       <c r="E180" t="n">
-        <v>1377216</v>
+        <v>1440418</v>
       </c>
       <c r="F180" t="n">
-        <v>276.5936188194284</v>
+        <v>700.7746790853519</v>
       </c>
       <c r="G180" t="n">
-        <v>178.221181798432</v>
+        <v>76.47478768042774</v>
       </c>
       <c r="H180" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="I180" t="n">
-        <v>139197</v>
+        <v>137199</v>
       </c>
     </row>
     <row r="181">
@@ -6732,22 +6732,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>30273577</v>
+        <v>30259407</v>
       </c>
       <c r="E181" t="n">
-        <v>135547224</v>
+        <v>135483779</v>
       </c>
       <c r="F181" t="n">
-        <v>55578.54870062156</v>
+        <v>67108.65615445124</v>
       </c>
       <c r="G181" t="n">
-        <v>78330.78443711284</v>
+        <v>82952.80881551988</v>
       </c>
       <c r="H181" t="n">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="I181" t="n">
-        <v>10091900</v>
+        <v>9866560</v>
       </c>
     </row>
     <row r="182">
@@ -6770,19 +6770,19 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>1449204</v>
+        <v>1548732</v>
       </c>
       <c r="F182" t="n">
-        <v>11.55788363938695</v>
+        <v>37.58567253047521</v>
       </c>
       <c r="G182" t="n">
-        <v>28.79374103173074</v>
+        <v>155.61864530737</v>
       </c>
       <c r="H182" t="n">
-        <v>2.93</v>
+        <v>2</v>
       </c>
       <c r="I182" t="n">
-        <v>60974</v>
+        <v>71028</v>
       </c>
     </row>
     <row r="183">
@@ -6802,22 +6802,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>2988561</v>
+        <v>2946035</v>
       </c>
       <c r="E183" t="n">
-        <v>2988561</v>
+        <v>2946035</v>
       </c>
       <c r="F183" t="n">
-        <v>508.3771814208602</v>
+        <v>107.6607532545497</v>
       </c>
       <c r="G183" t="n">
-        <v>442.597059542329</v>
+        <v>852.7927089531372</v>
       </c>
       <c r="H183" t="n">
-        <v>1.46</v>
+        <v>0.03</v>
       </c>
       <c r="I183" t="n">
-        <v>387468</v>
+        <v>375230</v>
       </c>
     </row>
     <row r="184">
@@ -6837,22 +6837,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>573021</v>
+        <v>571617</v>
       </c>
       <c r="E184" t="n">
-        <v>573021</v>
+        <v>571617</v>
       </c>
       <c r="F184" t="n">
-        <v>9.569696245259436</v>
+        <v>8.571289100156607</v>
       </c>
       <c r="G184" t="n">
-        <v>55.00435055609518</v>
+        <v>44.33446357657105</v>
       </c>
       <c r="H184" t="n">
         <v>1.79</v>
       </c>
       <c r="I184" t="n">
-        <v>1457280</v>
+        <v>1421189</v>
       </c>
     </row>
     <row r="185">
@@ -6872,22 +6872,22 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>13738585</v>
+        <v>13821833</v>
       </c>
       <c r="E185" t="n">
-        <v>17491411</v>
+        <v>17597400</v>
       </c>
       <c r="F185" t="n">
-        <v>266.1536892464729</v>
+        <v>3931.244302565209</v>
       </c>
       <c r="G185" t="n">
-        <v>2848.390992942141</v>
+        <v>328.4500238065988</v>
       </c>
       <c r="H185" t="n">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="I185" t="n">
-        <v>821489</v>
+        <v>781711</v>
       </c>
     </row>
     <row r="186">
@@ -6907,22 +6907,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1894302</v>
+        <v>1972334</v>
       </c>
       <c r="E186" t="n">
-        <v>1894302</v>
+        <v>1972334</v>
       </c>
       <c r="F186" t="n">
-        <v>2.284204884785487</v>
+        <v>0</v>
       </c>
       <c r="G186" t="n">
-        <v>320.9157882649477</v>
+        <v>0</v>
       </c>
       <c r="H186" t="n">
-        <v>3.7</v>
+        <v>4.12</v>
       </c>
       <c r="I186" t="n">
-        <v>3908.66</v>
+        <v>3928.07</v>
       </c>
     </row>
     <row r="187">
@@ -6942,22 +6942,22 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>47581850</v>
+        <v>47276084</v>
       </c>
       <c r="E187" t="n">
-        <v>308555633</v>
+        <v>306572825</v>
       </c>
       <c r="F187" t="n">
-        <v>135808.6255083182</v>
+        <v>143079.1384358304</v>
       </c>
       <c r="G187" t="n">
-        <v>162231.5205850682</v>
+        <v>214966.6294210622</v>
       </c>
       <c r="H187" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I187" t="n">
-        <v>16487862</v>
+        <v>17232612</v>
       </c>
     </row>
     <row r="188">
@@ -6980,19 +6980,19 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>9296634</v>
+        <v>9294050</v>
       </c>
       <c r="F188" t="n">
-        <v>537.4846928930045</v>
+        <v>510.3658681010359</v>
       </c>
       <c r="G188" t="n">
-        <v>935.7099916304655</v>
+        <v>935.5300054458522</v>
       </c>
       <c r="H188" t="n">
-        <v>1.6</v>
+        <v>1.18</v>
       </c>
       <c r="I188" t="n">
-        <v>293077</v>
+        <v>291714</v>
       </c>
     </row>
     <row r="189">
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>6985763</v>
+        <v>6747645</v>
       </c>
       <c r="E189" t="n">
-        <v>6995721</v>
+        <v>6757251</v>
       </c>
       <c r="F189" t="n">
-        <v>71.82537057424489</v>
+        <v>94.07944984745036</v>
       </c>
       <c r="G189" t="n">
-        <v>213.7378696738129</v>
+        <v>118.5742568398816</v>
       </c>
       <c r="H189" t="n">
-        <v>0.71</v>
+        <v>1.62</v>
       </c>
       <c r="I189" t="n">
-        <v>973553</v>
+        <v>446784</v>
       </c>
     </row>
     <row r="190">
@@ -7050,19 +7050,19 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>4775057</v>
+        <v>4762793</v>
       </c>
       <c r="F190" t="n">
-        <v>2131.616961929809</v>
+        <v>2481.661374227948</v>
       </c>
       <c r="G190" t="n">
-        <v>238.1453392063602</v>
+        <v>67.18879850438285</v>
       </c>
       <c r="H190" t="n">
-        <v>2.08</v>
+        <v>2.33</v>
       </c>
       <c r="I190" t="n">
-        <v>150093</v>
+        <v>153905</v>
       </c>
     </row>
     <row r="191">
@@ -7082,22 +7082,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>73529903</v>
+        <v>73350791</v>
       </c>
       <c r="E191" t="n">
-        <v>74321404</v>
+        <v>74140364</v>
       </c>
       <c r="F191" t="n">
-        <v>54960.95005440884</v>
+        <v>70986.39295890636</v>
       </c>
       <c r="G191" t="n">
-        <v>69814.44902509083</v>
+        <v>60038.70284689592</v>
       </c>
       <c r="H191" t="n">
         <v>0.15</v>
       </c>
       <c r="I191" t="n">
-        <v>8429610</v>
+        <v>8638083</v>
       </c>
     </row>
     <row r="192">
@@ -7117,22 +7117,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>235511961</v>
+        <v>233496197</v>
       </c>
       <c r="E192" t="n">
-        <v>235511961</v>
+        <v>233496197</v>
       </c>
       <c r="F192" t="n">
-        <v>117927.8956445216</v>
+        <v>113185.0445577051</v>
       </c>
       <c r="G192" t="n">
-        <v>105343.5965967072</v>
+        <v>109609.35488424</v>
       </c>
       <c r="H192" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="I192" t="n">
-        <v>42132293</v>
+        <v>42149101</v>
       </c>
     </row>
     <row r="193">
@@ -7152,22 +7152,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>23419471</v>
+        <v>23369213</v>
       </c>
       <c r="E193" t="n">
-        <v>140123401</v>
+        <v>139822700</v>
       </c>
       <c r="F193" t="n">
-        <v>81859.0232431645</v>
+        <v>109324.6851990006</v>
       </c>
       <c r="G193" t="n">
-        <v>127846.3943183281</v>
+        <v>96736.67773588021</v>
       </c>
       <c r="H193" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I193" t="n">
-        <v>14382490</v>
+        <v>13471867</v>
       </c>
     </row>
     <row r="194">
@@ -7187,22 +7187,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>14483810</v>
+        <v>14367592</v>
       </c>
       <c r="E194" t="n">
-        <v>44445730</v>
+        <v>44089097</v>
       </c>
       <c r="F194" t="n">
-        <v>749.8412961017425</v>
+        <v>953.5045578806653</v>
       </c>
       <c r="G194" t="n">
-        <v>1395.887436088124</v>
+        <v>973.8810092584491</v>
       </c>
       <c r="H194" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="I194" t="n">
-        <v>2500830</v>
+        <v>2529177</v>
       </c>
     </row>
     <row r="195">
@@ -7222,22 +7222,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>52269035</v>
+        <v>52289953</v>
       </c>
       <c r="E195" t="n">
-        <v>90279986</v>
+        <v>90316116</v>
       </c>
       <c r="F195" t="n">
-        <v>3983.835883186558</v>
+        <v>14619.79862338926</v>
       </c>
       <c r="G195" t="n">
-        <v>1305.464759869947</v>
+        <v>1537.468410654446</v>
       </c>
       <c r="H195" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="I195" t="n">
-        <v>2066020</v>
+        <v>1981442</v>
       </c>
     </row>
     <row r="196">
@@ -7257,22 +7257,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>4214588</v>
+        <v>4201684</v>
       </c>
       <c r="E196" t="n">
-        <v>4214588</v>
+        <v>4201684</v>
       </c>
       <c r="F196" t="n">
-        <v>19.16602546812241</v>
+        <v>2.426454717713482</v>
       </c>
       <c r="G196" t="n">
-        <v>10.42948529355217</v>
+        <v>415.5028501054879</v>
       </c>
       <c r="H196" t="n">
-        <v>1.74</v>
+        <v>2.72</v>
       </c>
       <c r="I196" t="n">
-        <v>1562048</v>
+        <v>1542349</v>
       </c>
     </row>
     <row r="197">
@@ -7295,19 +7295,19 @@
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>206708</v>
+        <v>204512</v>
       </c>
       <c r="F197" t="n">
-        <v>34.64673010036704</v>
+        <v>9.551274892096467</v>
       </c>
       <c r="G197" t="n">
-        <v>191.3941928753659</v>
+        <v>318.5519044799811</v>
       </c>
       <c r="H197" t="n">
-        <v>2.42</v>
+        <v>0.32</v>
       </c>
       <c r="I197" t="n">
-        <v>60893</v>
+        <v>61038</v>
       </c>
     </row>
     <row r="198">
@@ -7327,22 +7327,22 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>6768405</v>
+        <v>6809882</v>
       </c>
       <c r="E198" t="n">
-        <v>34821389</v>
+        <v>35034772</v>
       </c>
       <c r="F198" t="n">
-        <v>408.590200364896</v>
+        <v>396.7862146244192</v>
       </c>
       <c r="G198" t="n">
-        <v>110.1543624084677</v>
+        <v>429.0046388029366</v>
       </c>
       <c r="H198" t="n">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="I198" t="n">
-        <v>897078</v>
+        <v>839907</v>
       </c>
     </row>
     <row r="199">
@@ -7362,22 +7362,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>177269103</v>
+        <v>177247950</v>
       </c>
       <c r="E199" t="n">
-        <v>207102655</v>
+        <v>207077941</v>
       </c>
       <c r="F199" t="n">
-        <v>24297.04899014177</v>
+        <v>18798.24379762962</v>
       </c>
       <c r="G199" t="n">
-        <v>15484.40062746157</v>
+        <v>24884.14606155193</v>
       </c>
       <c r="H199" t="n">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="I199" t="n">
-        <v>4507425</v>
+        <v>4825369</v>
       </c>
     </row>
     <row r="200">
@@ -7400,19 +7400,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>304107</v>
+        <v>305306</v>
       </c>
       <c r="F200" t="n">
-        <v>70.39910383152873</v>
+        <v>211.5527160519652</v>
       </c>
       <c r="G200" t="n">
-        <v>222.7722674452574</v>
+        <v>214.1463697913692</v>
       </c>
       <c r="H200" t="n">
         <v>0.33</v>
       </c>
       <c r="I200" t="n">
-        <v>244591</v>
+        <v>253341</v>
       </c>
     </row>
     <row r="201">
@@ -7435,19 +7435,19 @@
         <v>0</v>
       </c>
       <c r="E201" t="n">
-        <v>8049969</v>
+        <v>8061464</v>
       </c>
       <c r="F201" t="n">
-        <v>878.9998158904243</v>
+        <v>864.4937722897741</v>
       </c>
       <c r="G201" t="n">
-        <v>807.2586584718414</v>
+        <v>768.5950319581121</v>
       </c>
       <c r="H201" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I201" t="n">
-        <v>702403</v>
+        <v>692302</v>
       </c>
     </row>
     <row r="202">
@@ -7470,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>34005</v>
+        <v>34013</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
@@ -7482,7 +7482,7 @@
         <v>5.56</v>
       </c>
       <c r="I202" t="n">
-        <v>338.76</v>
+        <v>375.1</v>
       </c>
     </row>
     <row r="203">
@@ -7502,22 +7502,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>34191677</v>
+        <v>33909263</v>
       </c>
       <c r="E203" t="n">
-        <v>170632228</v>
+        <v>169222854</v>
       </c>
       <c r="F203" t="n">
-        <v>114526.3876239349</v>
+        <v>120519.8425437585</v>
       </c>
       <c r="G203" t="n">
-        <v>119882.3137746287</v>
+        <v>95853.8743387845</v>
       </c>
       <c r="H203" t="n">
-        <v>0.23</v>
+        <v>0.06</v>
       </c>
       <c r="I203" t="n">
-        <v>9350745</v>
+        <v>9603868</v>
       </c>
     </row>
     <row r="204">
@@ -7537,10 +7537,10 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1922851</v>
+        <v>2007565</v>
       </c>
       <c r="E204" t="n">
-        <v>1922851</v>
+        <v>2007565</v>
       </c>
       <c r="F204" t="n">
         <v>0</v>
@@ -7549,10 +7549,10 @@
         <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>19.31</v>
+        <v>18.3</v>
       </c>
       <c r="I204" t="n">
-        <v>7081.53</v>
+        <v>8674.9</v>
       </c>
     </row>
     <row r="205">
@@ -7575,19 +7575,19 @@
         <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>176847</v>
+        <v>176155</v>
       </c>
       <c r="F205" t="n">
-        <v>586.5627516789912</v>
+        <v>50.18484499618226</v>
       </c>
       <c r="G205" t="n">
-        <v>95.01410933125057</v>
+        <v>614.4136310817554</v>
       </c>
       <c r="H205" t="n">
-        <v>1.18</v>
+        <v>1.78</v>
       </c>
       <c r="I205" t="n">
-        <v>19651.8</v>
+        <v>16391.24</v>
       </c>
     </row>
     <row r="206">
@@ -7607,10 +7607,10 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>3527.07</v>
+        <v>2889.05</v>
       </c>
       <c r="E206" t="n">
-        <v>42156</v>
+        <v>34531</v>
       </c>
       <c r="F206" t="n">
         <v>0</v>
@@ -7619,10 +7619,10 @@
         <v>0</v>
       </c>
       <c r="H206" t="n">
-        <v>5.24</v>
+        <v>15.53</v>
       </c>
       <c r="I206" t="n">
-        <v>606.46</v>
+        <v>5990.14</v>
       </c>
     </row>
     <row r="207">
@@ -7669,22 +7669,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>313787011</v>
+        <v>313408319</v>
       </c>
       <c r="E208" t="n">
-        <v>580577529</v>
+        <v>579876862</v>
       </c>
       <c r="F208" t="n">
-        <v>154436.3145914047</v>
+        <v>190204.9902586059</v>
       </c>
       <c r="G208" t="n">
-        <v>205257.6222656439</v>
+        <v>202026.0856713646</v>
       </c>
       <c r="H208" t="n">
         <v>0.02</v>
       </c>
       <c r="I208" t="n">
-        <v>12980021</v>
+        <v>12090503</v>
       </c>
     </row>
     <row r="209">
@@ -7704,22 +7704,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>70779526</v>
+        <v>72800818</v>
       </c>
       <c r="E209" t="n">
-        <v>675351673</v>
+        <v>694624989</v>
       </c>
       <c r="F209" t="n">
-        <v>152761.5864514635</v>
+        <v>244488.7309466791</v>
       </c>
       <c r="G209" t="n">
-        <v>246395.7014435826</v>
+        <v>219443.5293814593</v>
       </c>
       <c r="H209" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="I209" t="n">
-        <v>18859936</v>
+        <v>20554984</v>
       </c>
     </row>
     <row r="210">
@@ -7742,19 +7742,19 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>2176376</v>
+        <v>2168983</v>
       </c>
       <c r="F210" t="n">
-        <v>44.16567119207897</v>
+        <v>0</v>
       </c>
       <c r="G210" t="n">
-        <v>1435.791919011981</v>
+        <v>0</v>
       </c>
       <c r="H210" t="n">
-        <v>3.38</v>
+        <v>4.58</v>
       </c>
       <c r="I210" t="n">
-        <v>61455</v>
+        <v>64055</v>
       </c>
     </row>
     <row r="211">
@@ -7774,10 +7774,10 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>83701</v>
+        <v>81793</v>
       </c>
       <c r="E211" t="n">
-        <v>695828</v>
+        <v>679961</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -7789,7 +7789,7 @@
         <v>7.04</v>
       </c>
       <c r="I211" t="n">
-        <v>202.26</v>
+        <v>373.24</v>
       </c>
     </row>
     <row r="212">
@@ -7809,22 +7809,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1900348</v>
+        <v>1895424</v>
       </c>
       <c r="E212" t="n">
-        <v>5427151</v>
+        <v>5413088</v>
       </c>
       <c r="F212" t="n">
-        <v>756.2200798369931</v>
+        <v>757.6986784572002</v>
       </c>
       <c r="G212" t="n">
-        <v>305.7088820636749</v>
+        <v>331.1245318685256</v>
       </c>
       <c r="H212" t="n">
-        <v>1.15</v>
+        <v>0.77</v>
       </c>
       <c r="I212" t="n">
-        <v>75805</v>
+        <v>75145</v>
       </c>
     </row>
     <row r="213">
@@ -7844,22 +7844,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>9297879</v>
+        <v>9464376</v>
       </c>
       <c r="E213" t="n">
-        <v>27727978</v>
+        <v>28224501</v>
       </c>
       <c r="F213" t="n">
-        <v>981.5842527954162</v>
+        <v>2285.708492122043</v>
       </c>
       <c r="G213" t="n">
-        <v>2140.582665855849</v>
+        <v>3671.030918541483</v>
       </c>
       <c r="H213" t="n">
-        <v>0.18</v>
+        <v>0.61</v>
       </c>
       <c r="I213" t="n">
-        <v>3803042</v>
+        <v>4837941</v>
       </c>
     </row>
     <row r="214">
@@ -7882,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>14261095</v>
+        <v>14705517</v>
       </c>
       <c r="F214" t="n">
         <v>0</v>
@@ -7891,10 +7891,10 @@
         <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>8.380000000000001</v>
+        <v>10.78</v>
       </c>
       <c r="I214" t="n">
-        <v>2.02</v>
+        <v>845.55</v>
       </c>
     </row>
     <row r="215">
@@ -7914,22 +7914,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>2017715</v>
+        <v>2050035</v>
       </c>
       <c r="E215" t="n">
-        <v>5854040</v>
+        <v>5947811</v>
       </c>
       <c r="F215" t="n">
-        <v>25.83286197468552</v>
+        <v>35.6122536624766</v>
       </c>
       <c r="G215" t="n">
-        <v>517.5630210024027</v>
+        <v>71.50949662753817</v>
       </c>
       <c r="H215" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="I215" t="n">
-        <v>65152</v>
+        <v>68514</v>
       </c>
     </row>
     <row r="216">
@@ -7949,22 +7949,22 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>2123054</v>
+        <v>2116352</v>
       </c>
       <c r="E216" t="n">
-        <v>18726742</v>
+        <v>18667630</v>
       </c>
       <c r="F216" t="n">
-        <v>2902.388221684661</v>
+        <v>1540.522347101173</v>
       </c>
       <c r="G216" t="n">
-        <v>1256.744709767571</v>
+        <v>3311.497041908611</v>
       </c>
       <c r="H216" t="n">
-        <v>1.12</v>
+        <v>0.78</v>
       </c>
       <c r="I216" t="n">
-        <v>75652</v>
+        <v>77125</v>
       </c>
     </row>
     <row r="217">
@@ -7984,22 +7984,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>44598324</v>
+        <v>44414741</v>
       </c>
       <c r="E217" t="n">
-        <v>44598324</v>
+        <v>44414741</v>
       </c>
       <c r="F217" t="n">
-        <v>30823.7928788293</v>
+        <v>40115.66311641177</v>
       </c>
       <c r="G217" t="n">
-        <v>48148.46833057895</v>
+        <v>47577.84818866973</v>
       </c>
       <c r="H217" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I217" t="n">
-        <v>7683076</v>
+        <v>8584140</v>
       </c>
     </row>
     <row r="218">
@@ -8019,22 +8019,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>7863079</v>
+        <v>7858185</v>
       </c>
       <c r="E218" t="n">
-        <v>11203086</v>
+        <v>11196113</v>
       </c>
       <c r="F218" t="n">
-        <v>3560.17940536334</v>
+        <v>3789.757352327641</v>
       </c>
       <c r="G218" t="n">
-        <v>610.3195779014843</v>
+        <v>560.0787157304896</v>
       </c>
       <c r="H218" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="I218" t="n">
-        <v>346382</v>
+        <v>326560</v>
       </c>
     </row>
     <row r="219">
@@ -8057,19 +8057,19 @@
         <v>0</v>
       </c>
       <c r="E219" t="n">
-        <v>16224251</v>
+        <v>16251764</v>
       </c>
       <c r="F219" t="n">
-        <v>200.4745397671812</v>
+        <v>61.49286938993852</v>
       </c>
       <c r="G219" t="n">
-        <v>2.098087956768222</v>
+        <v>2.09829265680827</v>
       </c>
       <c r="H219" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="I219" t="n">
-        <v>1001629</v>
+        <v>997242</v>
       </c>
     </row>
     <row r="220">
@@ -8092,19 +8092,19 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>720593</v>
+        <v>719727</v>
       </c>
       <c r="F220" t="n">
-        <v>67.0210328887332</v>
+        <v>99.83160142322767</v>
       </c>
       <c r="G220" t="n">
-        <v>358.4708532176299</v>
+        <v>412.268866905212</v>
       </c>
       <c r="H220" t="n">
-        <v>1.53</v>
+        <v>0.83</v>
       </c>
       <c r="I220" t="n">
-        <v>230601</v>
+        <v>225265</v>
       </c>
     </row>
     <row r="221">
@@ -8124,22 +8124,22 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>2841572</v>
+        <v>2846070</v>
       </c>
       <c r="E221" t="n">
-        <v>2844033</v>
+        <v>2848535</v>
       </c>
       <c r="F221" t="n">
-        <v>4.518772986762666</v>
+        <v>524.8520090892163</v>
       </c>
       <c r="G221" t="n">
-        <v>5.380203556140387</v>
+        <v>54.28085127128497</v>
       </c>
       <c r="H221" t="n">
-        <v>2.48</v>
+        <v>3.11</v>
       </c>
       <c r="I221" t="n">
-        <v>73286</v>
+        <v>64494</v>
       </c>
     </row>
     <row r="222">
@@ -8159,22 +8159,22 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1252488</v>
+        <v>1258659</v>
       </c>
       <c r="E222" t="n">
-        <v>3789257</v>
+        <v>3808207</v>
       </c>
       <c r="F222" t="n">
-        <v>1810.404548618802</v>
+        <v>1810.581180814993</v>
       </c>
       <c r="G222" t="n">
-        <v>412.4075565880448</v>
+        <v>604.3235805030358</v>
       </c>
       <c r="H222" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="I222" t="n">
-        <v>21484</v>
+        <v>22454</v>
       </c>
     </row>
     <row r="223">
@@ -8194,22 +8194,22 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>37892207</v>
+        <v>38034184</v>
       </c>
       <c r="E223" t="n">
-        <v>268649565</v>
+        <v>269656162</v>
       </c>
       <c r="F223" t="n">
-        <v>54940.16457367031</v>
+        <v>81026.77063993135</v>
       </c>
       <c r="G223" t="n">
-        <v>34647.10519061497</v>
+        <v>64514.02978751919</v>
       </c>
       <c r="H223" t="n">
-        <v>0.26</v>
+        <v>0.37</v>
       </c>
       <c r="I223" t="n">
-        <v>1862998</v>
+        <v>1871728</v>
       </c>
     </row>
     <row r="224">
@@ -8229,22 +8229,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>82800</v>
+        <v>58518</v>
       </c>
       <c r="E224" t="n">
-        <v>432018</v>
+        <v>305322</v>
       </c>
       <c r="F224" t="n">
-        <v>118.5616192053923</v>
+        <v>0</v>
       </c>
       <c r="G224" t="n">
-        <v>40.33676357129497</v>
+        <v>0</v>
       </c>
       <c r="H224" t="n">
-        <v>1.59</v>
+        <v>4.27</v>
       </c>
       <c r="I224" t="n">
-        <v>239366</v>
+        <v>299844</v>
       </c>
     </row>
     <row r="225">
@@ -8264,22 +8264,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1263208</v>
+        <v>1264420</v>
       </c>
       <c r="E225" t="n">
-        <v>7833828</v>
+        <v>7841345</v>
       </c>
       <c r="F225" t="n">
-        <v>1618.286500834991</v>
+        <v>1984.069665134108</v>
       </c>
       <c r="G225" t="n">
-        <v>2111.384826157022</v>
+        <v>1669.603790519382</v>
       </c>
       <c r="H225" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="I225" t="n">
-        <v>904835</v>
+        <v>842255</v>
       </c>
     </row>
     <row r="226">
@@ -8299,22 +8299,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>596479550</v>
+        <v>595981616</v>
       </c>
       <c r="E226" t="n">
-        <v>2310077291</v>
+        <v>2308148870</v>
       </c>
       <c r="F226" t="n">
-        <v>412241.9651325942</v>
+        <v>446824.0455354032</v>
       </c>
       <c r="G226" t="n">
-        <v>411586.6691254647</v>
+        <v>458885.7539313095</v>
       </c>
       <c r="H226" t="n">
         <v>0.04</v>
       </c>
       <c r="I226" t="n">
-        <v>28871019</v>
+        <v>30339374</v>
       </c>
     </row>
     <row r="227">
@@ -8337,19 +8337,19 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>20605796</v>
+        <v>20735166</v>
       </c>
       <c r="F227" t="n">
-        <v>923.9144296775298</v>
+        <v>1498.260421785857</v>
       </c>
       <c r="G227" t="n">
-        <v>3005.425122488718</v>
+        <v>1232.421702056555</v>
       </c>
       <c r="H227" t="n">
-        <v>0.44</v>
+        <v>0.24</v>
       </c>
       <c r="I227" t="n">
-        <v>16124153</v>
+        <v>16097708</v>
       </c>
     </row>
     <row r="228">
@@ -8372,19 +8372,19 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>956905</v>
+        <v>904122</v>
       </c>
       <c r="F228" t="n">
-        <v>637.3457409649033</v>
+        <v>269.5446972171698</v>
       </c>
       <c r="G228" t="n">
-        <v>0.9999766609522027</v>
+        <v>412.2836524273931</v>
       </c>
       <c r="H228" t="n">
-        <v>0.21</v>
+        <v>1.54</v>
       </c>
       <c r="I228" t="n">
-        <v>522561</v>
+        <v>415486</v>
       </c>
     </row>
     <row r="229">
@@ -8404,22 +8404,22 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>5797276</v>
+        <v>5808669</v>
       </c>
       <c r="E229" t="n">
-        <v>25955151</v>
+        <v>26006156</v>
       </c>
       <c r="F229" t="n">
-        <v>1629.626156030136</v>
+        <v>1922.207562659415</v>
       </c>
       <c r="G229" t="n">
-        <v>2330.611701858891</v>
+        <v>2169.828237077393</v>
       </c>
       <c r="H229" t="n">
         <v>0.39</v>
       </c>
       <c r="I229" t="n">
-        <v>143214</v>
+        <v>144731</v>
       </c>
     </row>
     <row r="230">
@@ -8439,22 +8439,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>5968367</v>
+        <v>6114314</v>
       </c>
       <c r="E230" t="n">
-        <v>11426923</v>
+        <v>11706350</v>
       </c>
       <c r="F230" t="n">
-        <v>353.0983833866013</v>
+        <v>0</v>
       </c>
       <c r="G230" t="n">
-        <v>343.3506209436459</v>
+        <v>0</v>
       </c>
       <c r="H230" t="n">
-        <v>3.3</v>
+        <v>5.14</v>
       </c>
       <c r="I230" t="n">
-        <v>177336</v>
+        <v>176586</v>
       </c>
     </row>
     <row r="231">
@@ -8474,22 +8474,22 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>3292562</v>
+        <v>3300022</v>
       </c>
       <c r="E231" t="n">
-        <v>21651122</v>
+        <v>21700174</v>
       </c>
       <c r="F231" t="n">
-        <v>1099.341251628981</v>
+        <v>1116.344346353383</v>
       </c>
       <c r="G231" t="n">
-        <v>541.6277409984039</v>
+        <v>387.8061129309136</v>
       </c>
       <c r="H231" t="n">
-        <v>1.26</v>
+        <v>0.61</v>
       </c>
       <c r="I231" t="n">
-        <v>1455404</v>
+        <v>1444899</v>
       </c>
     </row>
     <row r="232">
@@ -8509,22 +8509,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>117107957</v>
+        <v>117360431</v>
       </c>
       <c r="E232" t="n">
-        <v>1018181708</v>
+        <v>1020376814</v>
       </c>
       <c r="F232" t="n">
-        <v>180239.6198075541</v>
+        <v>195075.8930136835</v>
       </c>
       <c r="G232" t="n">
-        <v>243618.3288888292</v>
+        <v>207281.6184821127</v>
       </c>
       <c r="H232" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I232" t="n">
-        <v>9541733</v>
+        <v>9843482</v>
       </c>
     </row>
     <row r="233">
@@ -8548,16 +8548,16 @@
       </c>
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="n">
-        <v>0</v>
+        <v>0.6963292909752135</v>
       </c>
       <c r="G233" t="n">
-        <v>0</v>
+        <v>49.004807477113</v>
       </c>
       <c r="H233" t="n">
-        <v>7.46</v>
+        <v>3.69</v>
       </c>
       <c r="I233" t="n">
-        <v>740.95</v>
+        <v>1200.71</v>
       </c>
     </row>
     <row r="234">
@@ -8577,22 +8577,22 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>102937193</v>
+        <v>102027589</v>
       </c>
       <c r="E234" t="n">
-        <v>157033100</v>
+        <v>155645479</v>
       </c>
       <c r="F234" t="n">
-        <v>104568.408886211</v>
+        <v>96140.54377381821</v>
       </c>
       <c r="G234" t="n">
-        <v>86304.49963413636</v>
+        <v>88581.37715085717</v>
       </c>
       <c r="H234" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="I234" t="n">
-        <v>6509575</v>
+        <v>7152932</v>
       </c>
     </row>
     <row r="235">
@@ -8612,22 +8612,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>15872979</v>
+        <v>15888388</v>
       </c>
       <c r="E235" t="n">
-        <v>21776352</v>
+        <v>21797492</v>
       </c>
       <c r="F235" t="n">
-        <v>1067.014747062207</v>
+        <v>729.734964661136</v>
       </c>
       <c r="G235" t="n">
-        <v>2686.519785102613</v>
+        <v>2026.783592743475</v>
       </c>
       <c r="H235" t="n">
-        <v>0.82</v>
+        <v>1.23</v>
       </c>
       <c r="I235" t="n">
-        <v>408039</v>
+        <v>415872</v>
       </c>
     </row>
     <row r="236">
@@ -8647,22 +8647,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>111383591</v>
+        <v>107662446</v>
       </c>
       <c r="E236" t="n">
-        <v>427285385</v>
+        <v>413010474</v>
       </c>
       <c r="F236" t="n">
-        <v>479366.8406229641</v>
+        <v>514454.103059034</v>
       </c>
       <c r="G236" t="n">
-        <v>408114.4471334385</v>
+        <v>426456.8426945049</v>
       </c>
       <c r="H236" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I236" t="n">
-        <v>18085683</v>
+        <v>18613779</v>
       </c>
     </row>
     <row r="237">
@@ -8685,19 +8685,19 @@
         <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>751825</v>
+        <v>665233</v>
       </c>
       <c r="F237" t="n">
-        <v>0</v>
+        <v>6.090272964852148</v>
       </c>
       <c r="G237" t="n">
-        <v>0</v>
+        <v>20.55217816151313</v>
       </c>
       <c r="H237" t="n">
-        <v>4.06</v>
+        <v>3.83</v>
       </c>
       <c r="I237" t="n">
-        <v>54038</v>
+        <v>47983</v>
       </c>
     </row>
     <row r="238">
@@ -8720,7 +8720,7 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>751710</v>
+        <v>770289</v>
       </c>
       <c r="F238" t="n">
         <v>0</v>
@@ -8729,10 +8729,10 @@
         <v>0</v>
       </c>
       <c r="H238" t="n">
-        <v>15.57</v>
+        <v>12.81</v>
       </c>
       <c r="I238" t="n">
-        <v>7772.33</v>
+        <v>15848.21</v>
       </c>
     </row>
     <row r="239">
@@ -8752,22 +8752,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>3323452</v>
+        <v>3237760</v>
       </c>
       <c r="E239" t="n">
-        <v>31490198</v>
+        <v>30678254</v>
       </c>
       <c r="F239" t="n">
-        <v>2111.022835077758</v>
+        <v>1550.175650581925</v>
       </c>
       <c r="G239" t="n">
-        <v>1355.894334722263</v>
+        <v>1406.310394524137</v>
       </c>
       <c r="H239" t="n">
-        <v>0.44</v>
+        <v>0.33</v>
       </c>
       <c r="I239" t="n">
-        <v>219955</v>
+        <v>233335</v>
       </c>
     </row>
     <row r="240">
@@ -8787,22 +8787,22 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>730439</v>
+        <v>730468</v>
       </c>
       <c r="E240" t="n">
-        <v>780835</v>
+        <v>780866</v>
       </c>
       <c r="F240" t="n">
-        <v>22.72577962400467</v>
+        <v>22.72799686565279</v>
       </c>
       <c r="G240" t="n">
-        <v>1377.643121877508</v>
+        <v>2547.792446371693</v>
       </c>
       <c r="H240" t="n">
         <v>1.09</v>
       </c>
       <c r="I240" t="n">
-        <v>12417.69</v>
+        <v>10213.64</v>
       </c>
     </row>
     <row r="241">
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="E241" t="n">
-        <v>343610</v>
+        <v>343899</v>
       </c>
       <c r="F241" t="n">
         <v>0</v>
@@ -8834,10 +8834,10 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>9.199999999999999</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="I241" t="n">
-        <v>666.09</v>
+        <v>685.83</v>
       </c>
     </row>
     <row r="242">
@@ -8860,19 +8860,19 @@
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>178063</v>
+        <v>149664</v>
       </c>
       <c r="F242" t="n">
-        <v>0</v>
+        <v>32.97212840465379</v>
       </c>
       <c r="G242" t="n">
-        <v>0</v>
+        <v>189.1628138957669</v>
       </c>
       <c r="H242" t="n">
-        <v>7.69</v>
+        <v>3.33</v>
       </c>
       <c r="I242" t="n">
-        <v>160950</v>
+        <v>167986</v>
       </c>
     </row>
     <row r="243">
@@ -8895,7 +8895,7 @@
         <v>0</v>
       </c>
       <c r="E243" t="n">
-        <v>575997</v>
+        <v>576143</v>
       </c>
       <c r="F243" t="n">
         <v>0</v>
@@ -8907,7 +8907,7 @@
         <v>5.05</v>
       </c>
       <c r="I243" t="n">
-        <v>454.57</v>
+        <v>454.8</v>
       </c>
     </row>
     <row r="244">
@@ -8927,22 +8927,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>6113472</v>
+        <v>6043205</v>
       </c>
       <c r="E244" t="n">
-        <v>38207450</v>
+        <v>37768299</v>
       </c>
       <c r="F244" t="n">
-        <v>627.9462940521731</v>
+        <v>657.655303554338</v>
       </c>
       <c r="G244" t="n">
-        <v>1413.479920264472</v>
+        <v>1506.504290469186</v>
       </c>
       <c r="H244" t="n">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
       <c r="I244" t="n">
-        <v>392099</v>
+        <v>326878</v>
       </c>
     </row>
     <row r="245">
@@ -8962,22 +8962,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>5099370</v>
+        <v>5087868</v>
       </c>
       <c r="E245" t="n">
-        <v>18989009</v>
+        <v>18946179</v>
       </c>
       <c r="F245" t="n">
-        <v>1369.968479504818</v>
+        <v>6619.873035278986</v>
       </c>
       <c r="G245" t="n">
-        <v>1177.515748299792</v>
+        <v>7394.659728059903</v>
       </c>
       <c r="H245" t="n">
-        <v>1.05</v>
+        <v>0.53</v>
       </c>
       <c r="I245" t="n">
-        <v>65685</v>
+        <v>57009</v>
       </c>
     </row>
     <row r="246">
@@ -9000,19 +9000,19 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>3675623</v>
+        <v>3799961</v>
       </c>
       <c r="F246" t="n">
-        <v>63.00105064165506</v>
+        <v>146.8157797213617</v>
       </c>
       <c r="G246" t="n">
-        <v>3017.248078303309</v>
+        <v>115.3518594475222</v>
       </c>
       <c r="H246" t="n">
-        <v>1.86</v>
+        <v>1.57</v>
       </c>
       <c r="I246" t="n">
-        <v>8486.48</v>
+        <v>8335.440000000001</v>
       </c>
     </row>
     <row r="247">
@@ -9032,22 +9032,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>31558943</v>
+        <v>31496661</v>
       </c>
       <c r="E247" t="n">
-        <v>113118622</v>
+        <v>112895379</v>
       </c>
       <c r="F247" t="n">
-        <v>3397.723412785188</v>
+        <v>3397.89247185908</v>
       </c>
       <c r="G247" t="n">
-        <v>2558.969246395835</v>
+        <v>2523.820066590196</v>
       </c>
       <c r="H247" t="n">
         <v>0.35</v>
       </c>
       <c r="I247" t="n">
-        <v>124182</v>
+        <v>90704</v>
       </c>
     </row>
     <row r="248">
@@ -9070,19 +9070,19 @@
         <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>1519353</v>
+        <v>1523306</v>
       </c>
       <c r="F248" t="n">
-        <v>33.39055607007668</v>
+        <v>66.9364382578247</v>
       </c>
       <c r="G248" t="n">
-        <v>441.4003877513678</v>
+        <v>521.808578174305</v>
       </c>
       <c r="H248" t="n">
         <v>1.94</v>
       </c>
       <c r="I248" t="n">
-        <v>617954</v>
+        <v>611838</v>
       </c>
     </row>
     <row r="249">
@@ -9102,22 +9102,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>2158086</v>
+        <v>2157515</v>
       </c>
       <c r="E249" t="n">
-        <v>16599383</v>
+        <v>16594996</v>
       </c>
       <c r="F249" t="n">
-        <v>4853.255586944839</v>
+        <v>2763.210199633805</v>
       </c>
       <c r="G249" t="n">
-        <v>4696.939586525022</v>
+        <v>4873.666337995777</v>
       </c>
       <c r="H249" t="n">
-        <v>0.48</v>
+        <v>0.18</v>
       </c>
       <c r="I249" t="n">
-        <v>167832</v>
+        <v>171056</v>
       </c>
     </row>
     <row r="250">
@@ -9137,22 +9137,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>103957</v>
+        <v>103183</v>
       </c>
       <c r="E250" t="n">
-        <v>825732</v>
+        <v>819580</v>
       </c>
       <c r="F250" t="n">
-        <v>214.7789243619164</v>
+        <v>177.1743823348496</v>
       </c>
       <c r="G250" t="n">
-        <v>483.3040343483216</v>
+        <v>340.6708599747665</v>
       </c>
       <c r="H250" t="n">
-        <v>0.6</v>
+        <v>0.72</v>
       </c>
       <c r="I250" t="n">
-        <v>135.65</v>
+        <v>1258.69</v>
       </c>
     </row>
     <row r="251">
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>86895588</v>
+        <v>87579488</v>
       </c>
       <c r="E251" t="n">
-        <v>321236499</v>
+        <v>323761935</v>
       </c>
       <c r="F251" t="n">
-        <v>5666.913412946324</v>
+        <v>6448.83075121692</v>
       </c>
       <c r="G251" t="n">
-        <v>5577.433788203188</v>
+        <v>6143.766094656245</v>
       </c>
       <c r="H251" t="n">
-        <v>0.63</v>
+        <v>0.43</v>
       </c>
       <c r="I251" t="n">
-        <v>436779</v>
+        <v>397396</v>
       </c>
     </row>
     <row r="252">
@@ -9207,10 +9207,10 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>2395203</v>
+        <v>2447600</v>
       </c>
       <c r="E252" t="n">
-        <v>9610832</v>
+        <v>9821079</v>
       </c>
       <c r="F252" t="n">
         <v>0</v>
@@ -9219,10 +9219,10 @@
         <v>0</v>
       </c>
       <c r="H252" t="n">
-        <v>4.83</v>
+        <v>4.01</v>
       </c>
       <c r="I252" t="n">
-        <v>39741</v>
+        <v>38610</v>
       </c>
     </row>
     <row r="253">
@@ -9245,19 +9245,19 @@
         <v>0</v>
       </c>
       <c r="E253" t="n">
-        <v>596990</v>
+        <v>587720</v>
       </c>
       <c r="F253" t="n">
-        <v>385.3763121492673</v>
+        <v>371.7728707151445</v>
       </c>
       <c r="G253" t="n">
-        <v>94.16798501698977</v>
+        <v>12.82125765612102</v>
       </c>
       <c r="H253" t="n">
-        <v>1.92</v>
+        <v>1.32</v>
       </c>
       <c r="I253" t="n">
-        <v>30397</v>
+        <v>30515</v>
       </c>
     </row>
     <row r="254">
@@ -9276,19 +9276,19 @@
         <v>0</v>
       </c>
       <c r="E254" t="n">
-        <v>39606</v>
+        <v>39507</v>
       </c>
       <c r="F254" t="n">
-        <v>3.080384656034543</v>
+        <v>0</v>
       </c>
       <c r="G254" t="n">
-        <v>66.5121203783585</v>
+        <v>0</v>
       </c>
       <c r="H254" t="n">
-        <v>3.05</v>
+        <v>5.61</v>
       </c>
       <c r="I254" t="n">
-        <v>888.27</v>
+        <v>1831.86</v>
       </c>
     </row>
     <row r="255">
@@ -9308,22 +9308,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>676015727</v>
+        <v>666446411</v>
       </c>
       <c r="E255" t="n">
-        <v>1042475938</v>
+        <v>1027719208</v>
       </c>
       <c r="F255" t="n">
-        <v>191961.7698725159</v>
+        <v>163703.4624102216</v>
       </c>
       <c r="G255" t="n">
-        <v>170718.658690507</v>
+        <v>186237.9179789396</v>
       </c>
       <c r="H255" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="I255" t="n">
-        <v>186432126</v>
+        <v>160387742</v>
       </c>
     </row>
     <row r="256">
@@ -9343,10 +9343,10 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>5806247</v>
+        <v>5829209</v>
       </c>
       <c r="E256" t="n">
-        <v>5806247</v>
+        <v>5829209</v>
       </c>
       <c r="F256" t="n">
         <v>0</v>
@@ -9355,10 +9355,10 @@
         <v>0</v>
       </c>
       <c r="H256" t="n">
-        <v>6.59</v>
+        <v>6.08</v>
       </c>
       <c r="I256" t="n">
-        <v>441.01</v>
+        <v>457.28</v>
       </c>
     </row>
     <row r="257">
@@ -9378,22 +9378,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>37615318</v>
+        <v>40054415</v>
       </c>
       <c r="E257" t="n">
-        <v>179545936</v>
+        <v>191188087</v>
       </c>
       <c r="F257" t="n">
-        <v>2340.799026442382</v>
+        <v>2469.867918953008</v>
       </c>
       <c r="G257" t="n">
-        <v>210.6161778304757</v>
+        <v>327.1204322701683</v>
       </c>
       <c r="H257" t="n">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="I257" t="n">
-        <v>224565</v>
+        <v>397999</v>
       </c>
     </row>
     <row r="258">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>546395</v>
+        <v>546520</v>
       </c>
       <c r="F258" t="n">
         <v>0</v>
@@ -9425,10 +9425,10 @@
         <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>8.630000000000001</v>
+        <v>5.06</v>
       </c>
       <c r="I258" t="n">
-        <v>105.55</v>
+        <v>105.62</v>
       </c>
     </row>
     <row r="259">
@@ -9448,22 +9448,22 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>23384718</v>
+        <v>23404981</v>
       </c>
       <c r="E259" t="n">
-        <v>38974530</v>
+        <v>39008301</v>
       </c>
       <c r="F259" t="n">
-        <v>1225.880703267462</v>
+        <v>15507.1085928044</v>
       </c>
       <c r="G259" t="n">
-        <v>1316.827100380086</v>
+        <v>1281.104669523693</v>
       </c>
       <c r="H259" t="n">
         <v>0.8</v>
       </c>
       <c r="I259" t="n">
-        <v>1007451</v>
+        <v>1011312</v>
       </c>
     </row>
     <row r="260">
@@ -9486,19 +9486,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>107669</v>
+        <v>107712</v>
       </c>
       <c r="F260" t="n">
-        <v>238.8736713577642</v>
+        <v>178.533009940399</v>
       </c>
       <c r="G260" t="n">
-        <v>221.6694407193246</v>
+        <v>184.7440976992486</v>
       </c>
       <c r="H260" t="n">
-        <v>0.74</v>
+        <v>0.33</v>
       </c>
       <c r="I260" t="n">
-        <v>51877</v>
+        <v>51499</v>
       </c>
     </row>
     <row r="261">
@@ -9518,22 +9518,22 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>803663</v>
+        <v>800805</v>
       </c>
       <c r="E261" t="n">
-        <v>3433533</v>
+        <v>3421131</v>
       </c>
       <c r="F261" t="n">
-        <v>3808.839868219856</v>
+        <v>2887.115349554959</v>
       </c>
       <c r="G261" t="n">
-        <v>2519.295044072472</v>
+        <v>2494.744121454743</v>
       </c>
       <c r="H261" t="n">
-        <v>0.31</v>
+        <v>0.26</v>
       </c>
       <c r="I261" t="n">
-        <v>1736.9</v>
+        <v>1664.36</v>
       </c>
     </row>
     <row r="262">
@@ -9553,22 +9553,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>3846864</v>
+        <v>3845732</v>
       </c>
       <c r="E262" t="n">
-        <v>8393806</v>
+        <v>8391337</v>
       </c>
       <c r="F262" t="n">
-        <v>1548.373158224535</v>
+        <v>1616.313565943912</v>
       </c>
       <c r="G262" t="n">
-        <v>1488.659400155674</v>
+        <v>1531.557191775647</v>
       </c>
       <c r="H262" t="n">
-        <v>1.07</v>
+        <v>0.6</v>
       </c>
       <c r="I262" t="n">
-        <v>1036802</v>
+        <v>987996</v>
       </c>
     </row>
     <row r="263">
@@ -9588,22 +9588,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>484906653</v>
+        <v>483771555</v>
       </c>
       <c r="E263" t="n">
-        <v>1688776050</v>
+        <v>1684822865</v>
       </c>
       <c r="F263" t="n">
-        <v>578338.0377417217</v>
+        <v>707239.9926663538</v>
       </c>
       <c r="G263" t="n">
-        <v>640448.465975704</v>
+        <v>466431.7791439465</v>
       </c>
       <c r="H263" t="n">
         <v>0.06</v>
       </c>
       <c r="I263" t="n">
-        <v>30423897</v>
+        <v>30848224</v>
       </c>
     </row>
     <row r="264">
@@ -9623,22 +9623,22 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>5576372911</v>
+        <v>5594736514</v>
       </c>
       <c r="E264" t="n">
-        <v>5576372911</v>
+        <v>5594736514</v>
       </c>
       <c r="F264" t="n">
-        <v>4202.775728898709</v>
+        <v>3789.645659457566</v>
       </c>
       <c r="G264" t="n">
-        <v>2312.889528745107</v>
+        <v>2022.84774487856</v>
       </c>
       <c r="H264" t="n">
         <v>0.18</v>
       </c>
       <c r="I264" t="n">
-        <v>30809166</v>
+        <v>29766056</v>
       </c>
     </row>
     <row r="265">
@@ -9658,22 +9658,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>23941796</v>
+        <v>23953857</v>
       </c>
       <c r="E265" t="n">
-        <v>23921000</v>
+        <v>23933050</v>
       </c>
       <c r="F265" t="n">
-        <v>106.6920596595977</v>
+        <v>72.69673238893472</v>
       </c>
       <c r="G265" t="n">
-        <v>80.47177198383632</v>
+        <v>939.1233105717984</v>
       </c>
       <c r="H265" t="n">
-        <v>1.8</v>
+        <v>1.31</v>
       </c>
       <c r="I265" t="n">
-        <v>85963</v>
+        <v>91494</v>
       </c>
     </row>
     <row r="266">
@@ -9693,22 +9693,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>12210871</v>
+        <v>12210657</v>
       </c>
       <c r="E266" t="n">
-        <v>24749480</v>
+        <v>24742901</v>
       </c>
       <c r="F266" t="n">
-        <v>752.1199695269529</v>
+        <v>742.742404105367</v>
       </c>
       <c r="G266" t="n">
-        <v>767.1376186531329</v>
+        <v>615.3612529837931</v>
       </c>
       <c r="H266" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="I266" t="n">
-        <v>14612.99</v>
+        <v>18158.79</v>
       </c>
     </row>
     <row r="267">
@@ -9731,19 +9731,19 @@
         <v>0</v>
       </c>
       <c r="E267" t="n">
-        <v>154435</v>
+        <v>153230</v>
       </c>
       <c r="F267" t="n">
-        <v>125.3193277320189</v>
+        <v>140.3984470338721</v>
       </c>
       <c r="G267" t="n">
-        <v>201.2003772869363</v>
+        <v>205.3024486730333</v>
       </c>
       <c r="H267" t="n">
-        <v>0.73</v>
+        <v>0.55</v>
       </c>
       <c r="I267" t="n">
-        <v>55550</v>
+        <v>56794</v>
       </c>
     </row>
     <row r="268">
@@ -9766,19 +9766,19 @@
         <v>0</v>
       </c>
       <c r="E268" t="n">
-        <v>49707</v>
+        <v>48018</v>
       </c>
       <c r="F268" t="n">
-        <v>0</v>
+        <v>50.37030230113618</v>
       </c>
       <c r="G268" t="n">
-        <v>0</v>
+        <v>76.25949263491756</v>
       </c>
       <c r="H268" t="n">
-        <v>4.84</v>
+        <v>3.06</v>
       </c>
       <c r="I268" t="n">
-        <v>70985</v>
+        <v>70995</v>
       </c>
     </row>
     <row r="269">
@@ -9798,22 +9798,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>2672544</v>
+        <v>2647699</v>
       </c>
       <c r="E269" t="n">
-        <v>10690174</v>
+        <v>10590797</v>
       </c>
       <c r="F269" t="n">
-        <v>41927.17436380502</v>
+        <v>43275.10378647437</v>
       </c>
       <c r="G269" t="n">
-        <v>37866.84501915876</v>
+        <v>50667.14031447165</v>
       </c>
       <c r="H269" t="n">
-        <v>0.37</v>
+        <v>0.57</v>
       </c>
       <c r="I269" t="n">
-        <v>5062908</v>
+        <v>4930649</v>
       </c>
     </row>
     <row r="270">
@@ -9833,22 +9833,22 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>212408608</v>
+        <v>212146489</v>
       </c>
       <c r="E270" t="n">
-        <v>653076535</v>
+        <v>652270617</v>
       </c>
       <c r="F270" t="n">
-        <v>264693.3389147286</v>
+        <v>237861.9885737183</v>
       </c>
       <c r="G270" t="n">
-        <v>260172.3452524982</v>
+        <v>178577.3234677154</v>
       </c>
       <c r="H270" t="n">
         <v>0.03</v>
       </c>
       <c r="I270" t="n">
-        <v>10976932</v>
+        <v>11169938</v>
       </c>
     </row>
     <row r="271">
@@ -9868,22 +9868,22 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>149197339</v>
+        <v>148008090</v>
       </c>
       <c r="E271" t="n">
-        <v>389773911</v>
+        <v>386667031</v>
       </c>
       <c r="F271" t="n">
-        <v>68291.72767362131</v>
+        <v>41437.42915925029</v>
       </c>
       <c r="G271" t="n">
-        <v>47165.05872657702</v>
+        <v>36149.21956619701</v>
       </c>
       <c r="H271" t="n">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="I271" t="n">
-        <v>7482809</v>
+        <v>7093048</v>
       </c>
     </row>
     <row r="272">
@@ -9903,22 +9903,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>2366480</v>
+        <v>2358684</v>
       </c>
       <c r="E272" t="n">
-        <v>3247763</v>
+        <v>3237028</v>
       </c>
       <c r="F272" t="n">
-        <v>16.74160836566119</v>
+        <v>6.914326500446353</v>
       </c>
       <c r="G272" t="n">
-        <v>284.1196511938921</v>
+        <v>176.3706856986373</v>
       </c>
       <c r="H272" t="n">
-        <v>1.09</v>
+        <v>1.97</v>
       </c>
       <c r="I272" t="n">
-        <v>184973</v>
+        <v>184883</v>
       </c>
     </row>
   </sheetData>

--- a/GateioData20250220.xlsx
+++ b/GateioData20250220.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>54618</v>
+        <v>54622</v>
       </c>
       <c r="F2" t="n">
-        <v>1.866048869547826</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>27.95123908822048</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.7</v>
+        <v>7.41</v>
       </c>
       <c r="I2" t="n">
-        <v>2106.7</v>
+        <v>2125.19</v>
       </c>
     </row>
     <row r="3">
@@ -535,19 +535,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>91000</v>
+        <v>91009</v>
       </c>
       <c r="F3" t="n">
-        <v>9.578541352655474</v>
+        <v>9.578818461249369</v>
       </c>
       <c r="G3" t="n">
-        <v>445.9443355816426</v>
+        <v>445.9572368161039</v>
       </c>
       <c r="H3" t="n">
         <v>3.06</v>
       </c>
       <c r="I3" t="n">
-        <v>1236.54</v>
+        <v>1227.65</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>607549787</v>
+        <v>612281908</v>
       </c>
       <c r="E4" t="n">
-        <v>1178776997</v>
+        <v>1187976556</v>
       </c>
       <c r="F4" t="n">
-        <v>44006.76690215015</v>
+        <v>44144.69621528867</v>
       </c>
       <c r="G4" t="n">
-        <v>57612.88316852613</v>
+        <v>52920.01789962241</v>
       </c>
       <c r="H4" t="n">
         <v>0.06</v>
       </c>
       <c r="I4" t="n">
-        <v>22220911</v>
+        <v>22658640</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1360786</v>
+        <v>1360892</v>
       </c>
       <c r="E5" t="n">
-        <v>4398619</v>
+        <v>4398962</v>
       </c>
       <c r="F5" t="n">
-        <v>4289.542026786493</v>
+        <v>4663.706289067132</v>
       </c>
       <c r="G5" t="n">
-        <v>3394.734012474844</v>
+        <v>4305.257612927026</v>
       </c>
       <c r="H5" t="n">
         <v>0.45</v>
       </c>
       <c r="I5" t="n">
-        <v>75686</v>
+        <v>76392</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>140753605</v>
+        <v>141395497</v>
       </c>
       <c r="E6" t="n">
-        <v>155977476</v>
+        <v>156688795</v>
       </c>
       <c r="F6" t="n">
-        <v>167856.0094218845</v>
+        <v>184617.075811228</v>
       </c>
       <c r="G6" t="n">
-        <v>455075.6087670454</v>
+        <v>391864.4736033067</v>
       </c>
       <c r="H6" t="n">
         <v>0.06</v>
       </c>
       <c r="I6" t="n">
-        <v>31758105</v>
+        <v>31936401</v>
       </c>
     </row>
     <row r="7">
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3822.86</v>
+        <v>4205.26</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>9.09</v>
       </c>
       <c r="I7" t="n">
-        <v>1560.09</v>
+        <v>1573.89</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8767452</v>
+        <v>8796760</v>
       </c>
       <c r="E8" t="n">
-        <v>8988534</v>
+        <v>9018582</v>
       </c>
       <c r="F8" t="n">
-        <v>892.0287443955747</v>
+        <v>1252.47694819656</v>
       </c>
       <c r="G8" t="n">
-        <v>55.55911449169101</v>
+        <v>10.68842603634725</v>
       </c>
       <c r="H8" t="n">
-        <v>3.35</v>
+        <v>1.73</v>
       </c>
       <c r="I8" t="n">
-        <v>71736</v>
+        <v>69075</v>
       </c>
     </row>
     <row r="9">
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>285538</v>
+        <v>285514</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>5.64</v>
+        <v>4.91</v>
       </c>
       <c r="I9" t="n">
         <v>25.72</v>
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5312150</v>
+        <v>5260897</v>
       </c>
       <c r="E10" t="n">
-        <v>8487219</v>
+        <v>8405333</v>
       </c>
       <c r="F10" t="n">
-        <v>242.9221982292028</v>
+        <v>253.3643776243431</v>
       </c>
       <c r="G10" t="n">
-        <v>389.7747494856602</v>
+        <v>430.5324561189069</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="I10" t="n">
-        <v>106160</v>
+        <v>105980</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>999111</v>
+        <v>999102</v>
       </c>
       <c r="E11" t="n">
-        <v>12226420</v>
+        <v>12226317</v>
       </c>
       <c r="F11" t="n">
-        <v>1227.079717714951</v>
+        <v>1226.337520626623</v>
       </c>
       <c r="G11" t="n">
-        <v>1688.647914601288</v>
+        <v>1687.537229761818</v>
       </c>
       <c r="H11" t="n">
         <v>0.49</v>
       </c>
       <c r="I11" t="n">
-        <v>2117.19</v>
+        <v>2091.18</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>561804</v>
+        <v>575818</v>
       </c>
       <c r="E12" t="n">
-        <v>561804</v>
+        <v>575818</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>72.58183640995183</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>462.7757526823626</v>
       </c>
       <c r="H12" t="n">
-        <v>8.02</v>
+        <v>1.3</v>
       </c>
       <c r="I12" t="n">
-        <v>24185</v>
+        <v>24479</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4683938</v>
+        <v>4707764</v>
       </c>
       <c r="E13" t="n">
-        <v>28770904</v>
+        <v>28917253</v>
       </c>
       <c r="F13" t="n">
-        <v>862.2821619182126</v>
+        <v>833.9779122621439</v>
       </c>
       <c r="G13" t="n">
-        <v>756.0711934569053</v>
+        <v>833.3740090174146</v>
       </c>
       <c r="H13" t="n">
-        <v>0.66</v>
+        <v>0.59</v>
       </c>
       <c r="I13" t="n">
-        <v>491661</v>
+        <v>481941</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>198332</v>
+        <v>197981</v>
       </c>
       <c r="E14" t="n">
-        <v>2181866</v>
+        <v>2178014</v>
       </c>
       <c r="F14" t="n">
-        <v>263.5391066898086</v>
+        <v>213.7517625639985</v>
       </c>
       <c r="G14" t="n">
-        <v>944.5026238261646</v>
+        <v>392.25766020621</v>
       </c>
       <c r="H14" t="n">
-        <v>1.82</v>
+        <v>2.27</v>
       </c>
       <c r="I14" t="n">
-        <v>47983</v>
+        <v>46706</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3360987</v>
+        <v>3361111</v>
       </c>
       <c r="E15" t="n">
-        <v>9561712</v>
+        <v>9562064</v>
       </c>
       <c r="F15" t="n">
-        <v>2312.390644829807</v>
+        <v>724.7614940911656</v>
       </c>
       <c r="G15" t="n">
-        <v>370.86864846498</v>
+        <v>369.3025458299762</v>
       </c>
       <c r="H15" t="n">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="I15" t="n">
-        <v>236597</v>
+        <v>235538</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>315119</v>
+        <v>315656</v>
       </c>
       <c r="E16" t="n">
-        <v>3637188</v>
+        <v>3643383</v>
       </c>
       <c r="F16" t="n">
-        <v>163.4704492307979</v>
+        <v>162.751138003098</v>
       </c>
       <c r="G16" t="n">
-        <v>131.5601056704298</v>
+        <v>131.5579289504754</v>
       </c>
       <c r="H16" t="n">
         <v>0.6</v>
       </c>
       <c r="I16" t="n">
-        <v>3164.56</v>
+        <v>3165.57</v>
       </c>
     </row>
     <row r="17">
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>928873</v>
+        <v>927691</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1034,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>4.66</v>
+        <v>4.85</v>
       </c>
       <c r="I17" t="n">
-        <v>14096.77</v>
+        <v>12546.65</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>22647566</v>
+        <v>22657422</v>
       </c>
       <c r="E18" t="n">
-        <v>22689970</v>
+        <v>22699844</v>
       </c>
       <c r="F18" t="n">
-        <v>1834.854299576517</v>
+        <v>989.2578545411518</v>
       </c>
       <c r="G18" t="n">
-        <v>2268.148641464647</v>
+        <v>3374.05209813925</v>
       </c>
       <c r="H18" t="n">
-        <v>0.58</v>
+        <v>0.42</v>
       </c>
       <c r="I18" t="n">
-        <v>844525</v>
+        <v>844646</v>
       </c>
     </row>
     <row r="19">
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>6963052</v>
+        <v>6540091</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>4.79</v>
+        <v>4.98</v>
       </c>
       <c r="I19" t="n">
-        <v>26228</v>
+        <v>26195</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2464956</v>
+        <v>2471166</v>
       </c>
       <c r="E20" t="n">
-        <v>2464956</v>
+        <v>2471166</v>
       </c>
       <c r="F20" t="n">
-        <v>288.9815954385993</v>
+        <v>33.6071822994622</v>
       </c>
       <c r="G20" t="n">
-        <v>2.448181056277805</v>
+        <v>302.060430989766</v>
       </c>
       <c r="H20" t="n">
-        <v>2.25</v>
+        <v>1.21</v>
       </c>
       <c r="I20" t="n">
-        <v>287116</v>
+        <v>284684</v>
       </c>
     </row>
     <row r="21">
@@ -1165,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>408124</v>
+        <v>408164</v>
       </c>
       <c r="F21" t="n">
-        <v>170.4771113908057</v>
+        <v>133.8636385443568</v>
       </c>
       <c r="G21" t="n">
-        <v>154.2859627794687</v>
+        <v>154.3224290244565</v>
       </c>
       <c r="H21" t="n">
         <v>1.21</v>
       </c>
       <c r="I21" t="n">
-        <v>2054.11</v>
+        <v>2033.41</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>19539802</v>
+        <v>19683651</v>
       </c>
       <c r="E22" t="n">
-        <v>25149326</v>
+        <v>25334470</v>
       </c>
       <c r="F22" t="n">
-        <v>1563.715186351649</v>
+        <v>2297.061820661154</v>
       </c>
       <c r="G22" t="n">
-        <v>2289.923368456066</v>
+        <v>3582.204938783734</v>
       </c>
       <c r="H22" t="n">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
       <c r="I22" t="n">
-        <v>2223187</v>
+        <v>2203327</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>466473491</v>
+        <v>471367118</v>
       </c>
       <c r="E23" t="n">
-        <v>466473491</v>
+        <v>471367118</v>
       </c>
       <c r="F23" t="n">
-        <v>94018.89599925764</v>
+        <v>75791.44303973374</v>
       </c>
       <c r="G23" t="n">
-        <v>95007.84664838493</v>
+        <v>104412.9970902689</v>
       </c>
       <c r="H23" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I23" t="n">
-        <v>54254551</v>
+        <v>55557796</v>
       </c>
     </row>
     <row r="24">
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>19578.55</v>
+        <v>19579.05</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1279,10 +1279,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>4.94</v>
+        <v>5.17</v>
       </c>
       <c r="I24" t="n">
-        <v>2385.7</v>
+        <v>1668.84</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4693889</v>
+        <v>4721017</v>
       </c>
       <c r="E25" t="n">
-        <v>4693889</v>
+        <v>4721017</v>
       </c>
       <c r="F25" t="n">
-        <v>857.5242869498813</v>
+        <v>676.0865373907989</v>
       </c>
       <c r="G25" t="n">
-        <v>1464.806643794621</v>
+        <v>1411.910492993195</v>
       </c>
       <c r="H25" t="n">
-        <v>0.62</v>
+        <v>0.11</v>
       </c>
       <c r="I25" t="n">
-        <v>1936468</v>
+        <v>1943579</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3510047</v>
+        <v>3408191</v>
       </c>
       <c r="E26" t="n">
-        <v>3510047</v>
+        <v>3408191</v>
       </c>
       <c r="F26" t="n">
-        <v>1118.399286850753</v>
+        <v>1250.313198225157</v>
       </c>
       <c r="G26" t="n">
-        <v>94.40204199319845</v>
+        <v>109.5728912803356</v>
       </c>
       <c r="H26" t="n">
-        <v>0.23</v>
+        <v>0.06</v>
       </c>
       <c r="I26" t="n">
-        <v>429542</v>
+        <v>500123</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>304507</v>
+        <v>303950</v>
       </c>
       <c r="E27" t="n">
-        <v>1421469</v>
+        <v>1418868</v>
       </c>
       <c r="F27" t="n">
-        <v>3126.080424303009</v>
+        <v>3287.73662273267</v>
       </c>
       <c r="G27" t="n">
-        <v>325.6177728595081</v>
+        <v>356.0339843600871</v>
       </c>
       <c r="H27" t="n">
-        <v>2.11</v>
+        <v>1.54</v>
       </c>
       <c r="I27" t="n">
-        <v>598327</v>
+        <v>599482</v>
       </c>
     </row>
     <row r="28">
@@ -1410,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1545516</v>
+        <v>1547097</v>
       </c>
       <c r="F28" t="n">
-        <v>575.8112782981763</v>
+        <v>498.9237237073974</v>
       </c>
       <c r="G28" t="n">
-        <v>194.9553469862424</v>
+        <v>195.4883721403223</v>
       </c>
       <c r="H28" t="n">
-        <v>0.45</v>
+        <v>0.77</v>
       </c>
       <c r="I28" t="n">
-        <v>158139</v>
+        <v>168176</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>12497993</v>
+        <v>12512195</v>
       </c>
       <c r="E29" t="n">
-        <v>32853638</v>
+        <v>32890972</v>
       </c>
       <c r="F29" t="n">
-        <v>989.4678813239168</v>
+        <v>1050.485397602434</v>
       </c>
       <c r="G29" t="n">
-        <v>1317.554855053718</v>
+        <v>1161.538365713682</v>
       </c>
       <c r="H29" t="n">
-        <v>0.49</v>
+        <v>0.43</v>
       </c>
       <c r="I29" t="n">
-        <v>1654849</v>
+        <v>1615620</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>919009</v>
+        <v>920556</v>
       </c>
       <c r="E30" t="n">
-        <v>6433060</v>
+        <v>6443895</v>
       </c>
       <c r="F30" t="n">
-        <v>273.858146057349</v>
+        <v>448.3567825212472</v>
       </c>
       <c r="G30" t="n">
-        <v>295.8929689649548</v>
+        <v>286.4716195880281</v>
       </c>
       <c r="H30" t="n">
-        <v>2.09</v>
+        <v>2.29</v>
       </c>
       <c r="I30" t="n">
-        <v>581595</v>
+        <v>534327</v>
       </c>
     </row>
     <row r="31">
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>190346</v>
+        <v>183011</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1524,10 +1524,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>7.89</v>
+        <v>8.85</v>
       </c>
       <c r="I31" t="n">
-        <v>12274.09</v>
+        <v>12434.53</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5460616</v>
+        <v>5543386</v>
       </c>
       <c r="E32" t="n">
-        <v>5721852</v>
+        <v>5808582</v>
       </c>
       <c r="F32" t="n">
-        <v>94.59567298430096</v>
+        <v>87.81994476579305</v>
       </c>
       <c r="G32" t="n">
-        <v>139.7087326888943</v>
+        <v>495.3969950187291</v>
       </c>
       <c r="H32" t="n">
-        <v>3.66</v>
+        <v>1.08</v>
       </c>
       <c r="I32" t="n">
-        <v>213781</v>
+        <v>158473</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>5243625</v>
+        <v>5308691</v>
       </c>
       <c r="E33" t="n">
-        <v>7718901</v>
+        <v>7814681</v>
       </c>
       <c r="F33" t="n">
-        <v>558.2335815632779</v>
+        <v>325.0700382792297</v>
       </c>
       <c r="G33" t="n">
-        <v>699.6648818048716</v>
+        <v>281.0139213197923</v>
       </c>
       <c r="H33" t="n">
-        <v>2.21</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I33" t="n">
-        <v>542494</v>
+        <v>544941</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7651581</v>
+        <v>7701421</v>
       </c>
       <c r="E34" t="n">
-        <v>7651581</v>
+        <v>7701421</v>
       </c>
       <c r="F34" t="n">
-        <v>32337.48394280507</v>
+        <v>31445.90977226002</v>
       </c>
       <c r="G34" t="n">
-        <v>33214.29060382827</v>
+        <v>32712.33942610776</v>
       </c>
       <c r="H34" t="n">
-        <v>0.68</v>
+        <v>1.12</v>
       </c>
       <c r="I34" t="n">
-        <v>207824</v>
+        <v>257478</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1489710</v>
+        <v>1487657</v>
       </c>
       <c r="E35" t="n">
-        <v>1489710</v>
+        <v>1487699</v>
       </c>
       <c r="F35" t="n">
-        <v>199.830565598439</v>
+        <v>147.3246564342575</v>
       </c>
       <c r="G35" t="n">
-        <v>212.6155667118413</v>
+        <v>69.91324367938225</v>
       </c>
       <c r="H35" t="n">
-        <v>1.07</v>
+        <v>3.08</v>
       </c>
       <c r="I35" t="n">
-        <v>275591</v>
+        <v>273710</v>
       </c>
     </row>
     <row r="36">
@@ -1690,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>16501463</v>
+        <v>16545122</v>
       </c>
       <c r="F36" t="n">
-        <v>250.2491827410031</v>
+        <v>250.0878094936595</v>
       </c>
       <c r="G36" t="n">
-        <v>170.9146780985618</v>
+        <v>170.8205098927335</v>
       </c>
       <c r="H36" t="n">
         <v>0.7</v>
       </c>
       <c r="I36" t="n">
-        <v>11371.42</v>
+        <v>11271.11</v>
       </c>
     </row>
     <row r="37">
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>61028</v>
+        <v>61029</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>8.51</v>
       </c>
       <c r="I37" t="n">
-        <v>377.25</v>
+        <v>377.2</v>
       </c>
     </row>
     <row r="38">
@@ -1753,22 +1753,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>134542892</v>
+        <v>135421734</v>
       </c>
       <c r="E38" t="n">
-        <v>134542892</v>
+        <v>135421734</v>
       </c>
       <c r="F38" t="n">
-        <v>307345.8921483443</v>
+        <v>303222.2793243154</v>
       </c>
       <c r="G38" t="n">
-        <v>406756.6746457807</v>
+        <v>352368.9540940776</v>
       </c>
       <c r="H38" t="n">
         <v>0.05</v>
       </c>
       <c r="I38" t="n">
-        <v>66564314</v>
+        <v>67094239</v>
       </c>
     </row>
     <row r="39">
@@ -1788,22 +1788,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>64425180</v>
+        <v>65162074</v>
       </c>
       <c r="E39" t="n">
-        <v>330385537</v>
+        <v>334164483</v>
       </c>
       <c r="F39" t="n">
-        <v>83634.10296956227</v>
+        <v>79657.31981514892</v>
       </c>
       <c r="G39" t="n">
-        <v>98555.73244692334</v>
+        <v>113765.3380950713</v>
       </c>
       <c r="H39" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I39" t="n">
-        <v>16791728</v>
+        <v>16971452</v>
       </c>
     </row>
     <row r="40">
@@ -1823,10 +1823,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>42391</v>
+        <v>42394</v>
       </c>
       <c r="E40" t="n">
-        <v>125273</v>
+        <v>125281</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -1835,10 +1835,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>8.75</v>
+        <v>7.26</v>
       </c>
       <c r="I40" t="n">
-        <v>733.08</v>
+        <v>732.98</v>
       </c>
     </row>
     <row r="41">
@@ -1861,19 +1861,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>50125</v>
+        <v>47139</v>
       </c>
       <c r="F41" t="n">
-        <v>273.6680631761004</v>
+        <v>261.7540868855612</v>
       </c>
       <c r="G41" t="n">
-        <v>8.167849067395792</v>
+        <v>6.88230781136303</v>
       </c>
       <c r="H41" t="n">
-        <v>1.11</v>
+        <v>0.12</v>
       </c>
       <c r="I41" t="n">
-        <v>25563</v>
+        <v>24381</v>
       </c>
     </row>
     <row r="42">
@@ -1896,19 +1896,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>591622</v>
+        <v>593013</v>
       </c>
       <c r="F42" t="n">
-        <v>289.0159961185836</v>
+        <v>423.0666524686474</v>
       </c>
       <c r="G42" t="n">
-        <v>381.787553809539</v>
+        <v>419.7861200560995</v>
       </c>
       <c r="H42" t="n">
-        <v>0.7</v>
+        <v>1.41</v>
       </c>
       <c r="I42" t="n">
-        <v>380.15</v>
+        <v>436.25</v>
       </c>
     </row>
     <row r="43">
@@ -1961,22 +1961,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2768252</v>
+        <v>2759933</v>
       </c>
       <c r="E44" t="n">
-        <v>11124974</v>
+        <v>11091543</v>
       </c>
       <c r="F44" t="n">
-        <v>32.73261488049115</v>
+        <v>60.05383104233618</v>
       </c>
       <c r="G44" t="n">
-        <v>307.7355246838008</v>
+        <v>160.7287649789692</v>
       </c>
       <c r="H44" t="n">
-        <v>0.88</v>
+        <v>2.63</v>
       </c>
       <c r="I44" t="n">
-        <v>27375</v>
+        <v>27977</v>
       </c>
     </row>
     <row r="45">
@@ -1996,22 +1996,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>17404273</v>
+        <v>17445294</v>
       </c>
       <c r="E45" t="n">
-        <v>122754481</v>
+        <v>123042531</v>
       </c>
       <c r="F45" t="n">
-        <v>34.94228113601638</v>
+        <v>35.52126924773885</v>
       </c>
       <c r="G45" t="n">
-        <v>967.3308250776976</v>
+        <v>291.83588756466</v>
       </c>
       <c r="H45" t="n">
-        <v>0.77</v>
+        <v>0.65</v>
       </c>
       <c r="I45" t="n">
-        <v>974899</v>
+        <v>947405</v>
       </c>
     </row>
     <row r="46">
@@ -2031,10 +2031,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>148048</v>
+        <v>149056</v>
       </c>
       <c r="E46" t="n">
-        <v>1980972</v>
+        <v>1994454</v>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>46833</v>
+        <v>47171</v>
       </c>
     </row>
     <row r="47">
@@ -2064,22 +2064,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>251194359</v>
+        <v>254851429</v>
       </c>
       <c r="E47" t="n">
-        <v>251194359</v>
+        <v>254851429</v>
       </c>
       <c r="F47" t="n">
-        <v>119970.9807261117</v>
+        <v>111531.4710316789</v>
       </c>
       <c r="G47" t="n">
-        <v>161189.5052916349</v>
+        <v>139080.0038487509</v>
       </c>
       <c r="H47" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I47" t="n">
-        <v>14345894</v>
+        <v>14362084</v>
       </c>
     </row>
     <row r="48">
@@ -2099,22 +2099,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>632965</v>
+        <v>633378</v>
       </c>
       <c r="E48" t="n">
-        <v>632965</v>
+        <v>633378</v>
       </c>
       <c r="F48" t="n">
-        <v>13.29054174952809</v>
+        <v>73.30129926975761</v>
       </c>
       <c r="G48" t="n">
-        <v>553.6372705247546</v>
+        <v>470.1728183086112</v>
       </c>
       <c r="H48" t="n">
-        <v>3.08</v>
+        <v>1.35</v>
       </c>
       <c r="I48" t="n">
-        <v>777.45</v>
+        <v>798.7</v>
       </c>
     </row>
     <row r="49">
@@ -2167,22 +2167,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>438189320</v>
+        <v>447034302</v>
       </c>
       <c r="E50" t="n">
-        <v>438189320</v>
+        <v>447034302</v>
       </c>
       <c r="F50" t="n">
-        <v>5409.967534773229</v>
+        <v>6680.659939194252</v>
       </c>
       <c r="G50" t="n">
-        <v>2825.729589437688</v>
+        <v>3361.985255583067</v>
       </c>
       <c r="H50" t="n">
-        <v>0.3</v>
+        <v>0.11</v>
       </c>
       <c r="I50" t="n">
-        <v>2612115</v>
+        <v>2728834</v>
       </c>
     </row>
     <row r="51">
@@ -2202,22 +2202,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2520765</v>
+        <v>2562204</v>
       </c>
       <c r="E51" t="n">
-        <v>2520765</v>
+        <v>2562204</v>
       </c>
       <c r="F51" t="n">
-        <v>299.2268886164948</v>
+        <v>300.6205357470384</v>
       </c>
       <c r="G51" t="n">
-        <v>35.78458387836247</v>
+        <v>1648.426088684036</v>
       </c>
       <c r="H51" t="n">
-        <v>2.25</v>
+        <v>2.62</v>
       </c>
       <c r="I51" t="n">
-        <v>111831</v>
+        <v>111214</v>
       </c>
     </row>
     <row r="52">
@@ -2237,10 +2237,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>24325</v>
+        <v>21569</v>
       </c>
       <c r="E52" t="n">
-        <v>48651</v>
+        <v>43138</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -2249,10 +2249,10 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>8.68</v>
+        <v>12.96</v>
       </c>
       <c r="I52" t="n">
-        <v>4727.86</v>
+        <v>4683.29</v>
       </c>
     </row>
     <row r="53">
@@ -2275,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>149907</v>
+        <v>151183</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>4.92</v>
       </c>
       <c r="I53" t="n">
-        <v>24209</v>
+        <v>23391</v>
       </c>
     </row>
     <row r="54">
@@ -2307,22 +2307,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2539030</v>
+        <v>2539764</v>
       </c>
       <c r="E54" t="n">
-        <v>6491250</v>
+        <v>6493126</v>
       </c>
       <c r="F54" t="n">
-        <v>236.6904308112144</v>
+        <v>193.8984948240121</v>
       </c>
       <c r="G54" t="n">
-        <v>332.5068890183234</v>
+        <v>331.2613611518684</v>
       </c>
       <c r="H54" t="n">
-        <v>1.52</v>
+        <v>1.22</v>
       </c>
       <c r="I54" t="n">
-        <v>84407</v>
+        <v>87624</v>
       </c>
     </row>
     <row r="55">
@@ -2345,19 +2345,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>3644.27</v>
+        <v>3822.62</v>
       </c>
       <c r="F55" t="n">
-        <v>1.414639590545117</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>1.095899612858024</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>3.83</v>
+        <v>6.22</v>
       </c>
       <c r="I55" t="n">
-        <v>1621.76</v>
+        <v>1629.68</v>
       </c>
     </row>
     <row r="56">
@@ -2377,22 +2377,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>74968959</v>
+        <v>75273704</v>
       </c>
       <c r="E56" t="n">
-        <v>74968959</v>
+        <v>75273704</v>
       </c>
       <c r="F56" t="n">
-        <v>10837.25651513341</v>
+        <v>10285.99366601111</v>
       </c>
       <c r="G56" t="n">
-        <v>16842.62031547517</v>
+        <v>20228.34694762788</v>
       </c>
       <c r="H56" t="n">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="I56" t="n">
-        <v>4748413</v>
+        <v>4596636</v>
       </c>
     </row>
     <row r="57">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3395903</v>
+        <v>3414066</v>
       </c>
       <c r="E57" t="n">
-        <v>4303203</v>
+        <v>4326217</v>
       </c>
       <c r="F57" t="n">
-        <v>233.3293808781839</v>
+        <v>89.25791096156053</v>
       </c>
       <c r="G57" t="n">
-        <v>107.7289643540001</v>
+        <v>168.1313484173922</v>
       </c>
       <c r="H57" t="n">
-        <v>1.29</v>
+        <v>1.08</v>
       </c>
       <c r="I57" t="n">
-        <v>243535</v>
+        <v>250480</v>
       </c>
     </row>
     <row r="58">
@@ -2447,22 +2447,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>4432742</v>
+        <v>4412606</v>
       </c>
       <c r="E58" t="n">
-        <v>8741740</v>
+        <v>8702030</v>
       </c>
       <c r="F58" t="n">
-        <v>2785.446131267568</v>
+        <v>2627.68323795335</v>
       </c>
       <c r="G58" t="n">
-        <v>2025.014780917098</v>
+        <v>2488.291551413563</v>
       </c>
       <c r="H58" t="n">
-        <v>0.36</v>
+        <v>0.09</v>
       </c>
       <c r="I58" t="n">
-        <v>1700038</v>
+        <v>1689712</v>
       </c>
     </row>
     <row r="59">
@@ -2482,22 +2482,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1574334</v>
+        <v>1581589</v>
       </c>
       <c r="E59" t="n">
-        <v>9039237</v>
+        <v>9080896</v>
       </c>
       <c r="F59" t="n">
-        <v>486.2871988913375</v>
+        <v>298.9551416142572</v>
       </c>
       <c r="G59" t="n">
-        <v>314.498372306533</v>
+        <v>359.6461851004826</v>
       </c>
       <c r="H59" t="n">
-        <v>0.27</v>
+        <v>0.82</v>
       </c>
       <c r="I59" t="n">
-        <v>324461</v>
+        <v>324206</v>
       </c>
     </row>
     <row r="60">
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>598741</v>
+        <v>543684</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>17.54</v>
       </c>
       <c r="I60" t="n">
-        <v>2647.84</v>
+        <v>2321.07</v>
       </c>
     </row>
     <row r="61">
@@ -2555,19 +2555,19 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>32150032</v>
+        <v>32170565</v>
       </c>
       <c r="F61" t="n">
-        <v>425.4206937006529</v>
+        <v>458.5017435135172</v>
       </c>
       <c r="G61" t="n">
-        <v>1857.827867915804</v>
+        <v>1817.667120997977</v>
       </c>
       <c r="H61" t="n">
-        <v>0.14</v>
+        <v>0.28</v>
       </c>
       <c r="I61" t="n">
-        <v>253787</v>
+        <v>249467</v>
       </c>
     </row>
     <row r="62">
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>1437254</v>
+        <v>1426267</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>5.79</v>
+        <v>5.93</v>
       </c>
       <c r="I62" t="n">
-        <v>28450</v>
+        <v>28398</v>
       </c>
     </row>
     <row r="63">
@@ -2622,22 +2622,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>7542066</v>
+        <v>7548791</v>
       </c>
       <c r="E63" t="n">
-        <v>17763065</v>
+        <v>17778904</v>
       </c>
       <c r="F63" t="n">
-        <v>1023.61073997987</v>
+        <v>1089.758273603457</v>
       </c>
       <c r="G63" t="n">
-        <v>1461.923738136607</v>
+        <v>1850.700995452045</v>
       </c>
       <c r="H63" t="n">
-        <v>1.45</v>
+        <v>1.82</v>
       </c>
       <c r="I63" t="n">
-        <v>21462</v>
+        <v>28131</v>
       </c>
     </row>
     <row r="64">
@@ -2657,22 +2657,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2923287</v>
+        <v>2943844</v>
       </c>
       <c r="E64" t="n">
-        <v>2923287</v>
+        <v>2943844</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>3.412376479429729</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>946.1400234385371</v>
       </c>
       <c r="H64" t="n">
-        <v>4.01</v>
+        <v>2.01</v>
       </c>
       <c r="I64" t="n">
-        <v>10407.82</v>
+        <v>10555.74</v>
       </c>
     </row>
     <row r="65">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3417978</v>
+        <v>3380160</v>
       </c>
       <c r="E65" t="n">
-        <v>8433686</v>
+        <v>8340373</v>
       </c>
       <c r="F65" t="n">
-        <v>659.8243689921959</v>
+        <v>588.3187755694927</v>
       </c>
       <c r="G65" t="n">
-        <v>1325.064505401719</v>
+        <v>1024.563322385783</v>
       </c>
       <c r="H65" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="I65" t="n">
-        <v>89273</v>
+        <v>100323</v>
       </c>
     </row>
     <row r="66">
@@ -2730,19 +2730,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>270106</v>
+        <v>272156</v>
       </c>
       <c r="F66" t="n">
-        <v>35.16913018631964</v>
+        <v>35.17021535783078</v>
       </c>
       <c r="G66" t="n">
-        <v>56.3110664717687</v>
+        <v>103.9989549621797</v>
       </c>
       <c r="H66" t="n">
         <v>3.33</v>
       </c>
       <c r="I66" t="n">
-        <v>2640.73</v>
+        <v>2666.73</v>
       </c>
     </row>
     <row r="67">
@@ -2762,22 +2762,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>71900741</v>
+        <v>73026766</v>
       </c>
       <c r="E67" t="n">
-        <v>149949558</v>
+        <v>152297892</v>
       </c>
       <c r="F67" t="n">
-        <v>68419.60624236532</v>
+        <v>57506.21846679237</v>
       </c>
       <c r="G67" t="n">
-        <v>93017.86875512813</v>
+        <v>67699.24442113245</v>
       </c>
       <c r="H67" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I67" t="n">
-        <v>14056762</v>
+        <v>13982734</v>
       </c>
     </row>
     <row r="68">
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>2080781</v>
+        <v>2010806</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>6.1</v>
       </c>
       <c r="I68" t="n">
-        <v>4367.69</v>
+        <v>4042.76</v>
       </c>
     </row>
     <row r="69">
@@ -2835,19 +2835,19 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>201799162</v>
+        <v>203622534</v>
       </c>
       <c r="F69" t="n">
-        <v>5157.660245562764</v>
+        <v>4827.652690040721</v>
       </c>
       <c r="G69" t="n">
-        <v>2818.233025079142</v>
+        <v>3214.691060420431</v>
       </c>
       <c r="H69" t="n">
-        <v>0.44</v>
+        <v>0.53</v>
       </c>
       <c r="I69" t="n">
-        <v>2983273</v>
+        <v>4256450</v>
       </c>
     </row>
     <row r="70">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>190484</v>
+        <v>190493</v>
       </c>
       <c r="E70" t="n">
-        <v>198920</v>
+        <v>198929</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>12.16</v>
       </c>
       <c r="I70" t="n">
-        <v>612.72</v>
+        <v>609.51</v>
       </c>
     </row>
     <row r="71">
@@ -2902,22 +2902,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>143780522</v>
+        <v>144733634</v>
       </c>
       <c r="E71" t="n">
-        <v>143820539</v>
+        <v>144773917</v>
       </c>
       <c r="F71" t="n">
-        <v>30056.92784636997</v>
+        <v>32685.02344178172</v>
       </c>
       <c r="G71" t="n">
-        <v>40315.82955974471</v>
+        <v>47232.87175157298</v>
       </c>
       <c r="H71" t="n">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="I71" t="n">
-        <v>3142421</v>
+        <v>3120364</v>
       </c>
     </row>
     <row r="72">
@@ -2937,22 +2937,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>26075548</v>
+        <v>26058784</v>
       </c>
       <c r="E72" t="n">
-        <v>85574964</v>
+        <v>85519947</v>
       </c>
       <c r="F72" t="n">
-        <v>6681.106091370991</v>
+        <v>20934.66458433321</v>
       </c>
       <c r="G72" t="n">
-        <v>35422.75253520065</v>
+        <v>32060.07919702734</v>
       </c>
       <c r="H72" t="n">
-        <v>0.7</v>
+        <v>0.58</v>
       </c>
       <c r="I72" t="n">
-        <v>100325</v>
+        <v>111751</v>
       </c>
     </row>
     <row r="73">
@@ -2972,10 +2972,10 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>110069</v>
+        <v>110421</v>
       </c>
       <c r="E73" t="n">
-        <v>110069</v>
+        <v>110421</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -2987,7 +2987,7 @@
         <v>4.49</v>
       </c>
       <c r="I73" t="n">
-        <v>126.78</v>
+        <v>127.09</v>
       </c>
     </row>
     <row r="74">
@@ -3007,22 +3007,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>196114298</v>
+        <v>197806872</v>
       </c>
       <c r="E74" t="n">
-        <v>681318796</v>
+        <v>687198951</v>
       </c>
       <c r="F74" t="n">
-        <v>106580.08709138</v>
+        <v>133723.3634132924</v>
       </c>
       <c r="G74" t="n">
-        <v>178076.5607885942</v>
+        <v>184473.9240388807</v>
       </c>
       <c r="H74" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="I74" t="n">
-        <v>26057526</v>
+        <v>25807099</v>
       </c>
     </row>
     <row r="75">
@@ -3042,22 +3042,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>4145190</v>
+        <v>4355830</v>
       </c>
       <c r="E75" t="n">
-        <v>4145190</v>
+        <v>4355824</v>
       </c>
       <c r="F75" t="n">
-        <v>122.398221195999</v>
+        <v>965.6035984979329</v>
       </c>
       <c r="G75" t="n">
-        <v>1603.622689641382</v>
+        <v>1315.127994636919</v>
       </c>
       <c r="H75" t="n">
-        <v>0.7</v>
+        <v>0.89</v>
       </c>
       <c r="I75" t="n">
-        <v>4192478</v>
+        <v>4082790</v>
       </c>
     </row>
     <row r="76">
@@ -3077,22 +3077,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>115215393</v>
+        <v>115003050</v>
       </c>
       <c r="E76" t="n">
-        <v>490368026</v>
+        <v>489434352</v>
       </c>
       <c r="F76" t="n">
-        <v>261623.2019062011</v>
+        <v>211484.3243197328</v>
       </c>
       <c r="G76" t="n">
-        <v>164562.7147779193</v>
+        <v>212681.2169645611</v>
       </c>
       <c r="H76" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="I76" t="n">
-        <v>11435955</v>
+        <v>11532186</v>
       </c>
     </row>
     <row r="77">
@@ -3115,19 +3115,19 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1866962</v>
+        <v>1856627</v>
       </c>
       <c r="F77" t="n">
-        <v>108.7098094891051</v>
+        <v>108.5370991924728</v>
       </c>
       <c r="G77" t="n">
-        <v>100.3235851241091</v>
+        <v>87.35894416525645</v>
       </c>
       <c r="H77" t="n">
-        <v>0.54</v>
+        <v>1.08</v>
       </c>
       <c r="I77" t="n">
-        <v>440.71</v>
+        <v>594.25</v>
       </c>
     </row>
     <row r="78">
@@ -3147,22 +3147,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3160494</v>
+        <v>3204490</v>
       </c>
       <c r="E78" t="n">
-        <v>15846001</v>
+        <v>16066585</v>
       </c>
       <c r="F78" t="n">
-        <v>67.83915291923367</v>
+        <v>76.16585759326156</v>
       </c>
       <c r="G78" t="n">
-        <v>246.5808442895772</v>
+        <v>3.120743788911354</v>
       </c>
       <c r="H78" t="n">
         <v>2.42</v>
       </c>
       <c r="I78" t="n">
-        <v>20551</v>
+        <v>22342</v>
       </c>
     </row>
     <row r="79">
@@ -3182,22 +3182,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>520817</v>
+        <v>516348</v>
       </c>
       <c r="E79" t="n">
-        <v>8908541</v>
+        <v>8832104</v>
       </c>
       <c r="F79" t="n">
-        <v>36.31726335185728</v>
+        <v>40.09348039498897</v>
       </c>
       <c r="G79" t="n">
-        <v>240.7789250457974</v>
+        <v>2.865402432451629</v>
       </c>
       <c r="H79" t="n">
-        <v>3.47</v>
+        <v>3.29</v>
       </c>
       <c r="I79" t="n">
-        <v>331870</v>
+        <v>330163</v>
       </c>
     </row>
     <row r="80">
@@ -3217,22 +3217,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>5889184</v>
+        <v>5879127</v>
       </c>
       <c r="E80" t="n">
-        <v>8003544</v>
+        <v>7988686</v>
       </c>
       <c r="F80" t="n">
-        <v>361.511224840948</v>
+        <v>262.7691923574388</v>
       </c>
       <c r="G80" t="n">
-        <v>991.6293368907172</v>
+        <v>997.164684591798</v>
       </c>
       <c r="H80" t="n">
-        <v>0.27</v>
+        <v>0.21</v>
       </c>
       <c r="I80" t="n">
-        <v>6446026</v>
+        <v>6436833</v>
       </c>
     </row>
     <row r="81">
@@ -3251,19 +3251,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>42940</v>
+        <v>43376</v>
       </c>
       <c r="F81" t="n">
-        <v>160.1063868749789</v>
+        <v>36.53595339787798</v>
       </c>
       <c r="G81" t="n">
-        <v>718.3105398195727</v>
+        <v>557.1225867423841</v>
       </c>
       <c r="H81" t="n">
-        <v>1.96</v>
+        <v>2.9</v>
       </c>
       <c r="I81" t="n">
-        <v>63368</v>
+        <v>64328</v>
       </c>
     </row>
     <row r="82">
@@ -3283,22 +3283,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>41863829</v>
+        <v>41384198</v>
       </c>
       <c r="E82" t="n">
-        <v>48895958</v>
+        <v>48335761</v>
       </c>
       <c r="F82" t="n">
-        <v>425.0295444833742</v>
+        <v>189.1114867869469</v>
       </c>
       <c r="G82" t="n">
-        <v>13.10158139051671</v>
+        <v>21.25869682260422</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>1.94</v>
       </c>
       <c r="I82" t="n">
-        <v>888515</v>
+        <v>862756</v>
       </c>
     </row>
     <row r="83">
@@ -3321,19 +3321,19 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>14420727</v>
+        <v>14459316</v>
       </c>
       <c r="F83" t="n">
-        <v>363.3094850404356</v>
+        <v>313.8018598640659</v>
       </c>
       <c r="G83" t="n">
-        <v>786.0444908406254</v>
+        <v>866.3679054815937</v>
       </c>
       <c r="H83" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="I83" t="n">
-        <v>496939</v>
+        <v>497923</v>
       </c>
     </row>
     <row r="84">
@@ -3353,22 +3353,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>35700566</v>
+        <v>35993427</v>
       </c>
       <c r="E84" t="n">
-        <v>35700566</v>
+        <v>35993427</v>
       </c>
       <c r="F84" t="n">
-        <v>172.3523711441378</v>
+        <v>184.6685346929355</v>
       </c>
       <c r="G84" t="n">
-        <v>315.6924549950686</v>
+        <v>2779.051785535525</v>
       </c>
       <c r="H84" t="n">
-        <v>2.18</v>
+        <v>1.86</v>
       </c>
       <c r="I84" t="n">
-        <v>301539</v>
+        <v>591995</v>
       </c>
     </row>
     <row r="85">
@@ -3388,22 +3388,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>531143</v>
+        <v>529854</v>
       </c>
       <c r="E85" t="n">
-        <v>6442242</v>
+        <v>6426612</v>
       </c>
       <c r="F85" t="n">
-        <v>698.2358606616765</v>
+        <v>629.0101784372835</v>
       </c>
       <c r="G85" t="n">
-        <v>742.814790744924</v>
+        <v>812.9782618542046</v>
       </c>
       <c r="H85" t="n">
-        <v>0.82</v>
+        <v>0.93</v>
       </c>
       <c r="I85" t="n">
-        <v>2919450</v>
+        <v>2906864</v>
       </c>
     </row>
     <row r="86">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>25185604</v>
+        <v>25323572</v>
       </c>
       <c r="E86" t="n">
-        <v>35598867</v>
+        <v>35793880</v>
       </c>
       <c r="F86" t="n">
-        <v>35.50684635559525</v>
+        <v>88.72120508987774</v>
       </c>
       <c r="G86" t="n">
-        <v>1373.102547226564</v>
+        <v>1833.108454083677</v>
       </c>
       <c r="H86" t="n">
-        <v>2.35</v>
+        <v>2.07</v>
       </c>
       <c r="I86" t="n">
-        <v>84785</v>
+        <v>87982</v>
       </c>
     </row>
     <row r="87">
@@ -3458,22 +3458,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1280657944</v>
+        <v>1294522002</v>
       </c>
       <c r="E87" t="n">
-        <v>6141017113</v>
+        <v>6207498112</v>
       </c>
       <c r="F87" t="n">
-        <v>547725.1213305825</v>
+        <v>792593.426043304</v>
       </c>
       <c r="G87" t="n">
-        <v>933893.5912680527</v>
+        <v>774863.7953770609</v>
       </c>
       <c r="H87" t="n">
         <v>0.02</v>
       </c>
       <c r="I87" t="n">
-        <v>197207231</v>
+        <v>200191454</v>
       </c>
     </row>
     <row r="88">
@@ -3493,22 +3493,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>268120972</v>
+        <v>271069507</v>
       </c>
       <c r="E88" t="n">
-        <v>1157358961</v>
+        <v>1170086475</v>
       </c>
       <c r="F88" t="n">
-        <v>1163791.088110847</v>
+        <v>1034883.739390853</v>
       </c>
       <c r="G88" t="n">
-        <v>1031321.82783537</v>
+        <v>909470.1002600554</v>
       </c>
       <c r="H88" t="n">
         <v>0.02</v>
       </c>
       <c r="I88" t="n">
-        <v>110916602</v>
+        <v>111752288</v>
       </c>
     </row>
     <row r="89">
@@ -3528,22 +3528,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>113155964</v>
+        <v>113671126</v>
       </c>
       <c r="E89" t="n">
-        <v>113155964</v>
+        <v>113671126</v>
       </c>
       <c r="F89" t="n">
-        <v>36174.86033984219</v>
+        <v>33679.85337803165</v>
       </c>
       <c r="G89" t="n">
-        <v>30675.79236666215</v>
+        <v>29215.60744505181</v>
       </c>
       <c r="H89" t="n">
-        <v>0.47</v>
+        <v>0.54</v>
       </c>
       <c r="I89" t="n">
-        <v>6009179</v>
+        <v>6013460</v>
       </c>
     </row>
     <row r="90">
@@ -3563,22 +3563,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>3861115</v>
+        <v>3861972</v>
       </c>
       <c r="E90" t="n">
-        <v>30046732</v>
+        <v>30053397</v>
       </c>
       <c r="F90" t="n">
-        <v>10693.749013423</v>
+        <v>10693.86973186546</v>
       </c>
       <c r="G90" t="n">
-        <v>13063.26073168851</v>
+        <v>13060.08167613887</v>
       </c>
       <c r="H90" t="n">
-        <v>0.23</v>
+        <v>0.27</v>
       </c>
       <c r="I90" t="n">
-        <v>9425.34</v>
+        <v>9437.07</v>
       </c>
     </row>
     <row r="91">
@@ -3601,19 +3601,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>3779486</v>
+        <v>3792380</v>
       </c>
       <c r="F91" t="n">
-        <v>1792.655166046041</v>
+        <v>1388.291320728721</v>
       </c>
       <c r="G91" t="n">
-        <v>1258.873932020728</v>
+        <v>2182.196687127859</v>
       </c>
       <c r="H91" t="n">
-        <v>0.92</v>
+        <v>1.34</v>
       </c>
       <c r="I91" t="n">
-        <v>306544</v>
+        <v>307977</v>
       </c>
     </row>
     <row r="92">
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>875164</v>
+        <v>896219</v>
       </c>
       <c r="F92" t="n">
-        <v>88.44973351682542</v>
+        <v>142.4992451269082</v>
       </c>
       <c r="G92" t="n">
-        <v>142.0413694158389</v>
+        <v>60.16498809918197</v>
       </c>
       <c r="H92" t="n">
-        <v>2.83</v>
+        <v>1.92</v>
       </c>
       <c r="I92" t="n">
-        <v>81078</v>
+        <v>81152</v>
       </c>
     </row>
     <row r="93">
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>132215</v>
+        <v>126936</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>3.040388057538455</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>89.97782169917306</v>
       </c>
       <c r="H93" t="n">
-        <v>5.06</v>
+        <v>2.75</v>
       </c>
       <c r="I93" t="n">
-        <v>98201</v>
+        <v>97707</v>
       </c>
     </row>
     <row r="94">
@@ -3699,22 +3699,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>10908210</v>
+        <v>10921033</v>
       </c>
       <c r="E94" t="n">
-        <v>131745335</v>
+        <v>131898063</v>
       </c>
       <c r="F94" t="n">
-        <v>3790.659859068629</v>
+        <v>2814.171799203913</v>
       </c>
       <c r="G94" t="n">
-        <v>1582.449312517926</v>
+        <v>1667.610751586331</v>
       </c>
       <c r="H94" t="n">
         <v>0.08</v>
       </c>
       <c r="I94" t="n">
-        <v>241357</v>
+        <v>238634</v>
       </c>
     </row>
     <row r="95">
@@ -3734,22 +3734,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>21550370</v>
+        <v>21659591</v>
       </c>
       <c r="E95" t="n">
-        <v>53875924</v>
+        <v>54148977</v>
       </c>
       <c r="F95" t="n">
-        <v>10250.83478061943</v>
+        <v>8325.5379597596</v>
       </c>
       <c r="G95" t="n">
-        <v>13272.51367230475</v>
+        <v>10317.09584601277</v>
       </c>
       <c r="H95" t="n">
-        <v>0.28</v>
+        <v>0.22</v>
       </c>
       <c r="I95" t="n">
-        <v>2186214</v>
+        <v>2208409</v>
       </c>
     </row>
     <row r="96">
@@ -3772,19 +3772,19 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>2391609</v>
+        <v>2393897</v>
       </c>
       <c r="F96" t="n">
-        <v>108.8405649314375</v>
+        <v>86.96337821025445</v>
       </c>
       <c r="G96" t="n">
-        <v>75.94619816425394</v>
+        <v>88.75596657648168</v>
       </c>
       <c r="H96" t="n">
-        <v>2.74</v>
+        <v>2.45</v>
       </c>
       <c r="I96" t="n">
-        <v>61765</v>
+        <v>65971</v>
       </c>
     </row>
     <row r="97">
@@ -3807,19 +3807,19 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>20257290</v>
+        <v>20209199</v>
       </c>
       <c r="F97" t="n">
-        <v>1631.659392056127</v>
+        <v>1358.502096275921</v>
       </c>
       <c r="G97" t="n">
-        <v>1237.365628331331</v>
+        <v>1696.788847851891</v>
       </c>
       <c r="H97" t="n">
         <v>0.49</v>
       </c>
       <c r="I97" t="n">
-        <v>126780</v>
+        <v>127689</v>
       </c>
     </row>
     <row r="98">
@@ -3839,22 +3839,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>3493748</v>
+        <v>3573474</v>
       </c>
       <c r="E98" t="n">
-        <v>10063423</v>
+        <v>10293067</v>
       </c>
       <c r="F98" t="n">
-        <v>1233.426244119088</v>
+        <v>2141.571618881761</v>
       </c>
       <c r="G98" t="n">
-        <v>2151.605073863407</v>
+        <v>453.3235895782973</v>
       </c>
       <c r="H98" t="n">
-        <v>0.99</v>
+        <v>1.45</v>
       </c>
       <c r="I98" t="n">
-        <v>357163</v>
+        <v>391327</v>
       </c>
     </row>
     <row r="99">
@@ -3877,19 +3877,19 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>1661723</v>
+        <v>1670169</v>
       </c>
       <c r="F99" t="n">
-        <v>68.83748097144827</v>
+        <v>19.99782908462318</v>
       </c>
       <c r="G99" t="n">
-        <v>61.75233709392942</v>
+        <v>288.7410763028143</v>
       </c>
       <c r="H99" t="n">
-        <v>2.61</v>
+        <v>2.36</v>
       </c>
       <c r="I99" t="n">
-        <v>289146</v>
+        <v>291997</v>
       </c>
     </row>
     <row r="100">
@@ -3909,22 +3909,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>79947401</v>
+        <v>80373000</v>
       </c>
       <c r="E100" t="n">
-        <v>101739281</v>
+        <v>102280889</v>
       </c>
       <c r="F100" t="n">
-        <v>10250.41280119941</v>
+        <v>7034.249124161003</v>
       </c>
       <c r="G100" t="n">
-        <v>9286.994371378145</v>
+        <v>11450.23766463407</v>
       </c>
       <c r="H100" t="n">
-        <v>0.67</v>
+        <v>0.48</v>
       </c>
       <c r="I100" t="n">
-        <v>6239734</v>
+        <v>6260989</v>
       </c>
     </row>
     <row r="101">
@@ -3944,22 +3944,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>22770101</v>
+        <v>23017369</v>
       </c>
       <c r="E101" t="n">
-        <v>29538030</v>
+        <v>29858793</v>
       </c>
       <c r="F101" t="n">
-        <v>7703.387404789334</v>
+        <v>6342.719710175963</v>
       </c>
       <c r="G101" t="n">
-        <v>6442.021412628012</v>
+        <v>7162.377996229139</v>
       </c>
       <c r="H101" t="n">
-        <v>0.46</v>
+        <v>0.38</v>
       </c>
       <c r="I101" t="n">
-        <v>186666</v>
+        <v>309589</v>
       </c>
     </row>
     <row r="102">
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>1666316</v>
+        <v>1678159</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>9.68</v>
+        <v>5.71</v>
       </c>
       <c r="I102" t="n">
-        <v>17509.76</v>
+        <v>16345.78</v>
       </c>
     </row>
     <row r="103">
@@ -4014,10 +4014,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>614095</v>
+        <v>615755</v>
       </c>
       <c r="E103" t="n">
-        <v>614095</v>
+        <v>615755</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -4026,10 +4026,10 @@
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>4.14</v>
+        <v>3.94</v>
       </c>
       <c r="I103" t="n">
-        <v>83216</v>
+        <v>82906</v>
       </c>
     </row>
     <row r="104">
@@ -4049,22 +4049,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>41205317</v>
+        <v>41243295</v>
       </c>
       <c r="E104" t="n">
-        <v>43074290</v>
+        <v>43113991</v>
       </c>
       <c r="F104" t="n">
-        <v>144.4157469987222</v>
+        <v>280.1413943569927</v>
       </c>
       <c r="G104" t="n">
-        <v>1604.927392234609</v>
+        <v>1876.189913531866</v>
       </c>
       <c r="H104" t="n">
-        <v>0.67</v>
+        <v>0.55</v>
       </c>
       <c r="I104" t="n">
-        <v>797421</v>
+        <v>805594</v>
       </c>
     </row>
     <row r="105">
@@ -4084,22 +4084,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>13651852</v>
+        <v>13781720</v>
       </c>
       <c r="E105" t="n">
-        <v>13651852</v>
+        <v>13781720</v>
       </c>
       <c r="F105" t="n">
-        <v>2219.756123466018</v>
+        <v>1568.407982829468</v>
       </c>
       <c r="G105" t="n">
-        <v>2276.080665671326</v>
+        <v>3488.725755616506</v>
       </c>
       <c r="H105" t="n">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="I105" t="n">
-        <v>4369697</v>
+        <v>4396271</v>
       </c>
     </row>
     <row r="106">
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>1088018</v>
+        <v>1075475</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -4131,10 +4131,10 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>5.35</v>
+        <v>7.61</v>
       </c>
       <c r="I106" t="n">
-        <v>4010.75</v>
+        <v>3943.47</v>
       </c>
     </row>
     <row r="107">
@@ -4154,22 +4154,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>50561299</v>
+        <v>50944878</v>
       </c>
       <c r="E107" t="n">
-        <v>128807801</v>
+        <v>129784990</v>
       </c>
       <c r="F107" t="n">
-        <v>1543.824938469899</v>
+        <v>1942.421134279025</v>
       </c>
       <c r="G107" t="n">
-        <v>3367.243249701979</v>
+        <v>3998.457211738915</v>
       </c>
       <c r="H107" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="I107" t="n">
-        <v>2450495</v>
+        <v>2230265</v>
       </c>
     </row>
     <row r="108">
@@ -4189,22 +4189,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>14060412</v>
+        <v>14153989</v>
       </c>
       <c r="E108" t="n">
-        <v>68096821</v>
+        <v>68550026</v>
       </c>
       <c r="F108" t="n">
-        <v>8850.014957851088</v>
+        <v>9033.987415864716</v>
       </c>
       <c r="G108" t="n">
-        <v>11643.62632737918</v>
+        <v>10916.6360780159</v>
       </c>
       <c r="H108" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="I108" t="n">
-        <v>3551823</v>
+        <v>3546958</v>
       </c>
     </row>
     <row r="109">
@@ -4227,7 +4227,7 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>492504</v>
+        <v>495729</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -4236,10 +4236,10 @@
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>5.88</v>
+        <v>4.81</v>
       </c>
       <c r="I109" t="n">
-        <v>6020.44</v>
+        <v>5522.17</v>
       </c>
     </row>
     <row r="110">
@@ -4259,22 +4259,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>4419817</v>
+        <v>4461298</v>
       </c>
       <c r="E110" t="n">
-        <v>10074778</v>
+        <v>10169331</v>
       </c>
       <c r="F110" t="n">
-        <v>259.051440206955</v>
+        <v>1270.977579640517</v>
       </c>
       <c r="G110" t="n">
-        <v>982.5759348979184</v>
+        <v>1708.246014608251</v>
       </c>
       <c r="H110" t="n">
-        <v>0.59</v>
+        <v>1.07</v>
       </c>
       <c r="I110" t="n">
-        <v>104514</v>
+        <v>105150</v>
       </c>
     </row>
     <row r="111">
@@ -4297,19 +4297,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>1864442747</v>
+        <v>1871282692</v>
       </c>
       <c r="F111" t="n">
-        <v>50166.17726500579</v>
+        <v>58029.80362596807</v>
       </c>
       <c r="G111" t="n">
-        <v>49233.83059359586</v>
+        <v>48358.99625207054</v>
       </c>
       <c r="H111" t="n">
-        <v>0.2</v>
+        <v>0.47</v>
       </c>
       <c r="I111" t="n">
-        <v>25582235</v>
+        <v>25517255</v>
       </c>
     </row>
     <row r="112">
@@ -4329,22 +4329,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>9391889</v>
+        <v>9471086</v>
       </c>
       <c r="E112" t="n">
-        <v>34200481</v>
+        <v>34488381</v>
       </c>
       <c r="F112" t="n">
-        <v>1078.792368528319</v>
+        <v>2846.082224826416</v>
       </c>
       <c r="G112" t="n">
-        <v>579.5563419266988</v>
+        <v>1858.487919766669</v>
       </c>
       <c r="H112" t="n">
-        <v>0.88</v>
+        <v>0.58</v>
       </c>
       <c r="I112" t="n">
-        <v>142934</v>
+        <v>150527</v>
       </c>
     </row>
     <row r="113">
@@ -4367,19 +4367,19 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>569241</v>
+        <v>562807</v>
       </c>
       <c r="F113" t="n">
-        <v>15.59124086597569</v>
+        <v>15.59172194612529</v>
       </c>
       <c r="G113" t="n">
-        <v>260.0103820207941</v>
+        <v>245.2277781479627</v>
       </c>
       <c r="H113" t="n">
-        <v>1.09</v>
+        <v>1.39</v>
       </c>
       <c r="I113" t="n">
-        <v>21850</v>
+        <v>21594</v>
       </c>
     </row>
     <row r="114">
@@ -4399,22 +4399,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>11972924</v>
+        <v>12292114</v>
       </c>
       <c r="E114" t="n">
-        <v>17359012</v>
+        <v>17821792</v>
       </c>
       <c r="F114" t="n">
-        <v>5330.03271077047</v>
+        <v>2652.470252669739</v>
       </c>
       <c r="G114" t="n">
-        <v>1837.470770814456</v>
+        <v>2555.447903165753</v>
       </c>
       <c r="H114" t="n">
-        <v>0.63</v>
+        <v>0.73</v>
       </c>
       <c r="I114" t="n">
-        <v>2190500</v>
+        <v>2211922</v>
       </c>
     </row>
     <row r="115">
@@ -4434,22 +4434,22 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1935308</v>
+        <v>1933366</v>
       </c>
       <c r="E115" t="n">
-        <v>13877900</v>
+        <v>13863975</v>
       </c>
       <c r="F115" t="n">
-        <v>754.6906581201894</v>
+        <v>774.9280905055202</v>
       </c>
       <c r="G115" t="n">
-        <v>1059.446444844773</v>
+        <v>1073.787931619509</v>
       </c>
       <c r="H115" t="n">
         <v>1.72</v>
       </c>
       <c r="I115" t="n">
-        <v>1859608</v>
+        <v>1851654</v>
       </c>
     </row>
     <row r="116">
@@ -4469,10 +4469,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2745652</v>
+        <v>2746697</v>
       </c>
       <c r="E116" t="n">
-        <v>5550226</v>
+        <v>5552338</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>3034.26</v>
+        <v>3166.42</v>
       </c>
     </row>
     <row r="117">
@@ -4502,22 +4502,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>196769797</v>
+        <v>199197380</v>
       </c>
       <c r="E117" t="n">
-        <v>1114231497</v>
+        <v>1127977962</v>
       </c>
       <c r="F117" t="n">
-        <v>362949.4931208472</v>
+        <v>285304.1881597073</v>
       </c>
       <c r="G117" t="n">
-        <v>364759.378363718</v>
+        <v>483283.8641082298</v>
       </c>
       <c r="H117" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I117" t="n">
-        <v>59567762</v>
+        <v>59465694</v>
       </c>
     </row>
     <row r="118">
@@ -4537,22 +4537,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>720137</v>
+        <v>726292</v>
       </c>
       <c r="E118" t="n">
-        <v>2387868</v>
+        <v>2408278</v>
       </c>
       <c r="F118" t="n">
-        <v>8480.769357467409</v>
+        <v>7429.518757017226</v>
       </c>
       <c r="G118" t="n">
-        <v>5330.307110421024</v>
+        <v>5300.471342812531</v>
       </c>
       <c r="H118" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="I118" t="n">
-        <v>18551.27</v>
+        <v>18757.5</v>
       </c>
     </row>
     <row r="119">
@@ -4572,22 +4572,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2829669</v>
+        <v>2835461</v>
       </c>
       <c r="E119" t="n">
-        <v>10018663</v>
+        <v>10039172</v>
       </c>
       <c r="F119" t="n">
-        <v>106.7026359516912</v>
+        <v>74.58962715197114</v>
       </c>
       <c r="G119" t="n">
-        <v>1503.094702591646</v>
+        <v>1530.503381379234</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>1.37</v>
       </c>
       <c r="I119" t="n">
-        <v>11295.58</v>
+        <v>12060.36</v>
       </c>
     </row>
     <row r="120">
@@ -4607,22 +4607,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1034797</v>
+        <v>1038698</v>
       </c>
       <c r="E120" t="n">
-        <v>1034797</v>
+        <v>1038698</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9113122898373012</v>
+        <v>169.9451921140075</v>
       </c>
       <c r="G120" t="n">
-        <v>97.0085408713061</v>
+        <v>35.85692712651083</v>
       </c>
       <c r="H120" t="n">
-        <v>0.05</v>
+        <v>3.74</v>
       </c>
       <c r="I120" t="n">
-        <v>12427.96</v>
+        <v>12642.08</v>
       </c>
     </row>
     <row r="121">
@@ -4642,22 +4642,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>505000</v>
+        <v>503589</v>
       </c>
       <c r="E121" t="n">
-        <v>1699759</v>
+        <v>1695010</v>
       </c>
       <c r="F121" t="n">
-        <v>441.0467698780284</v>
+        <v>459.2774388911552</v>
       </c>
       <c r="G121" t="n">
-        <v>645.1800515096519</v>
+        <v>695.4859150436744</v>
       </c>
       <c r="H121" t="n">
-        <v>0.58</v>
+        <v>0.7</v>
       </c>
       <c r="I121" t="n">
-        <v>632091</v>
+        <v>630851</v>
       </c>
     </row>
     <row r="122">
@@ -4677,10 +4677,10 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>458901</v>
+        <v>443785</v>
       </c>
       <c r="E122" t="n">
-        <v>851349</v>
+        <v>823306</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>5.62</v>
       </c>
       <c r="I122" t="n">
-        <v>199706</v>
+        <v>197517</v>
       </c>
     </row>
     <row r="123">
@@ -4715,19 +4715,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>11788592</v>
+        <v>11817681</v>
       </c>
       <c r="F123" t="n">
-        <v>114.7943165346618</v>
+        <v>91.02457569749397</v>
       </c>
       <c r="G123" t="n">
-        <v>159.5844417878188</v>
+        <v>170.4540478020915</v>
       </c>
       <c r="H123" t="n">
-        <v>3.27</v>
+        <v>2.32</v>
       </c>
       <c r="I123" t="n">
-        <v>7239.4</v>
+        <v>7265.53</v>
       </c>
     </row>
     <row r="124">
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>1253712</v>
+        <v>1265012</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -4759,10 +4759,10 @@
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>4.37</v>
+        <v>4.29</v>
       </c>
       <c r="I124" t="n">
-        <v>48272</v>
+        <v>48404</v>
       </c>
     </row>
     <row r="125">
@@ -4782,22 +4782,22 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3502302</v>
+        <v>3350587</v>
       </c>
       <c r="E125" t="n">
-        <v>8178458</v>
+        <v>7824179</v>
       </c>
       <c r="F125" t="n">
-        <v>1569.908385292858</v>
+        <v>891.5031531437959</v>
       </c>
       <c r="G125" t="n">
-        <v>1539.1408361141</v>
+        <v>1272.858846252289</v>
       </c>
       <c r="H125" t="n">
-        <v>0.39</v>
+        <v>1.55</v>
       </c>
       <c r="I125" t="n">
-        <v>785840</v>
+        <v>774525</v>
       </c>
     </row>
     <row r="126">
@@ -4817,22 +4817,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>255609</v>
+        <v>255384</v>
       </c>
       <c r="E126" t="n">
-        <v>2255942</v>
+        <v>2253958</v>
       </c>
       <c r="F126" t="n">
-        <v>1.290387137214506</v>
+        <v>26.7757342969264</v>
       </c>
       <c r="G126" t="n">
-        <v>27.49123409079564</v>
+        <v>373.4929839824575</v>
       </c>
       <c r="H126" t="n">
-        <v>2.56</v>
+        <v>3.05</v>
       </c>
       <c r="I126" t="n">
-        <v>86694</v>
+        <v>89897</v>
       </c>
     </row>
     <row r="127">
@@ -4855,19 +4855,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>649886</v>
+        <v>650791</v>
       </c>
       <c r="F127" t="n">
-        <v>732.4342802782721</v>
+        <v>708.6211012790567</v>
       </c>
       <c r="G127" t="n">
-        <v>651.8252878510243</v>
+        <v>651.8454004392195</v>
       </c>
       <c r="H127" t="n">
         <v>0.96</v>
       </c>
       <c r="I127" t="n">
-        <v>6173.43</v>
+        <v>6243.59</v>
       </c>
     </row>
     <row r="128">
@@ -4887,22 +4887,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>4901115</v>
+        <v>4920466</v>
       </c>
       <c r="E128" t="n">
-        <v>17319193</v>
+        <v>17387572</v>
       </c>
       <c r="F128" t="n">
-        <v>1742.59923417107</v>
+        <v>1785.800246896592</v>
       </c>
       <c r="G128" t="n">
-        <v>2133.523985103466</v>
+        <v>1907.790630880868</v>
       </c>
       <c r="H128" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I128" t="n">
-        <v>107410</v>
+        <v>103964</v>
       </c>
     </row>
     <row r="129">
@@ -4925,19 +4925,19 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2250844</v>
+        <v>2173871</v>
       </c>
       <c r="F129" t="n">
-        <v>128.2161572628939</v>
+        <v>32.31891266520778</v>
       </c>
       <c r="G129" t="n">
-        <v>9.136897393418978e-05</v>
+        <v>136.431445486682</v>
       </c>
       <c r="H129" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I129" t="n">
-        <v>5446.17</v>
+        <v>5728.96</v>
       </c>
     </row>
     <row r="130">
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>2490322</v>
+        <v>2534602</v>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
@@ -4970,7 +4970,7 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>2515.49</v>
+        <v>2520.86</v>
       </c>
     </row>
     <row r="131">
@@ -4990,22 +4990,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>83821</v>
+        <v>83698</v>
       </c>
       <c r="E131" t="n">
-        <v>83821</v>
+        <v>83698</v>
       </c>
       <c r="F131" t="n">
-        <v>15.14665615045328</v>
+        <v>15.14712351258753</v>
       </c>
       <c r="G131" t="n">
-        <v>215.8943753742326</v>
+        <v>73.69815699148566</v>
       </c>
       <c r="H131" t="n">
         <v>0.2</v>
       </c>
       <c r="I131" t="n">
-        <v>19841.95</v>
+        <v>19910.42</v>
       </c>
     </row>
     <row r="132">
@@ -5028,19 +5028,19 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>4362924</v>
+        <v>4369449</v>
       </c>
       <c r="F132" t="n">
-        <v>676.1926247437976</v>
+        <v>200.2657491279666</v>
       </c>
       <c r="G132" t="n">
-        <v>398.6520590509928</v>
+        <v>223.0817258059425</v>
       </c>
       <c r="H132" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="I132" t="n">
-        <v>312016</v>
+        <v>313243</v>
       </c>
     </row>
     <row r="133">
@@ -5060,22 +5060,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2184180</v>
+        <v>2106598</v>
       </c>
       <c r="E133" t="n">
-        <v>8919624</v>
+        <v>8602800</v>
       </c>
       <c r="F133" t="n">
-        <v>450.7749113013236</v>
+        <v>526.4121797940714</v>
       </c>
       <c r="G133" t="n">
-        <v>546.2029770050052</v>
+        <v>516.8586300342088</v>
       </c>
       <c r="H133" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="I133" t="n">
-        <v>566877</v>
+        <v>543490</v>
       </c>
     </row>
     <row r="134">
@@ -5095,22 +5095,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>7354410</v>
+        <v>7402163</v>
       </c>
       <c r="E134" t="n">
-        <v>7409077</v>
+        <v>7457185</v>
       </c>
       <c r="F134" t="n">
-        <v>354667.5296383427</v>
+        <v>252031.5098988168</v>
       </c>
       <c r="G134" t="n">
-        <v>241777.2642273036</v>
+        <v>353827.7240669988</v>
       </c>
       <c r="H134" t="n">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="I134" t="n">
-        <v>4564268</v>
+        <v>4839927</v>
       </c>
     </row>
     <row r="135">
@@ -5130,22 +5130,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>13622200</v>
+        <v>13702439</v>
       </c>
       <c r="E135" t="n">
-        <v>13668558</v>
+        <v>13749070</v>
       </c>
       <c r="F135" t="n">
-        <v>11502.76112676245</v>
+        <v>4457.422696956758</v>
       </c>
       <c r="G135" t="n">
-        <v>12665.55729969828</v>
+        <v>8677.877312920138</v>
       </c>
       <c r="H135" t="n">
-        <v>0.13</v>
+        <v>0.39</v>
       </c>
       <c r="I135" t="n">
-        <v>5772194</v>
+        <v>5787056</v>
       </c>
     </row>
     <row r="136">
@@ -5165,22 +5165,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>42869836</v>
+        <v>42891332</v>
       </c>
       <c r="E136" t="n">
-        <v>72783008</v>
+        <v>72819503</v>
       </c>
       <c r="F136" t="n">
-        <v>967.4863621339914</v>
+        <v>945.5782661035059</v>
       </c>
       <c r="G136" t="n">
-        <v>849.8555304039535</v>
+        <v>790.328395405784</v>
       </c>
       <c r="H136" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="I136" t="n">
-        <v>1148404</v>
+        <v>1136911</v>
       </c>
     </row>
     <row r="137">
@@ -5200,22 +5200,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>25626304</v>
+        <v>26374433</v>
       </c>
       <c r="E137" t="n">
-        <v>76816629</v>
+        <v>79059741</v>
       </c>
       <c r="F137" t="n">
-        <v>71244.65734241143</v>
+        <v>66651.62768584324</v>
       </c>
       <c r="G137" t="n">
-        <v>87108.03658894658</v>
+        <v>77390.76709167588</v>
       </c>
       <c r="H137" t="n">
         <v>0.22</v>
       </c>
       <c r="I137" t="n">
-        <v>1923937</v>
+        <v>2350535</v>
       </c>
     </row>
     <row r="138">
@@ -5235,22 +5235,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>101122981</v>
+        <v>101435953</v>
       </c>
       <c r="E138" t="n">
-        <v>107502867</v>
+        <v>107835585</v>
       </c>
       <c r="F138" t="n">
-        <v>5689.42097160148</v>
+        <v>8282.603413953295</v>
       </c>
       <c r="G138" t="n">
-        <v>10007.26235995647</v>
+        <v>9516.294003127543</v>
       </c>
       <c r="H138" t="n">
-        <v>0.13</v>
+        <v>0.28</v>
       </c>
       <c r="I138" t="n">
-        <v>984926</v>
+        <v>941154</v>
       </c>
     </row>
     <row r="139">
@@ -5273,19 +5273,19 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1097805</v>
+        <v>1097869</v>
       </c>
       <c r="F139" t="n">
-        <v>3.453802207792346</v>
+        <v>1.797098932398055</v>
       </c>
       <c r="G139" t="n">
-        <v>372.1005304557789</v>
+        <v>372.1120093624924</v>
       </c>
       <c r="H139" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="I139" t="n">
-        <v>166.3</v>
+        <v>136.13</v>
       </c>
     </row>
     <row r="140">
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>258588</v>
+        <v>258614</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -5317,10 +5317,10 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>10.66</v>
+        <v>10.02</v>
       </c>
       <c r="I140" t="n">
-        <v>660.7</v>
+        <v>660.66</v>
       </c>
     </row>
     <row r="141">
@@ -5336,10 +5336,10 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>97074</v>
+        <v>97161</v>
       </c>
       <c r="E141" t="n">
-        <v>275378</v>
+        <v>275624</v>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
@@ -5349,7 +5349,7 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>47.72</v>
+        <v>47.65</v>
       </c>
     </row>
     <row r="142">
@@ -5369,22 +5369,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>46126753</v>
+        <v>46340609</v>
       </c>
       <c r="E142" t="n">
-        <v>198709010</v>
+        <v>199630278</v>
       </c>
       <c r="F142" t="n">
-        <v>57520.33241154902</v>
+        <v>56781.17364520262</v>
       </c>
       <c r="G142" t="n">
-        <v>77894.81062100771</v>
+        <v>78227.94493424741</v>
       </c>
       <c r="H142" t="n">
         <v>0.11</v>
       </c>
       <c r="I142" t="n">
-        <v>8565891</v>
+        <v>8564798</v>
       </c>
     </row>
     <row r="143">
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>300023</v>
+        <v>300275</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -5416,10 +5416,10 @@
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>8.779999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="I143" t="n">
-        <v>235750</v>
+        <v>222807</v>
       </c>
     </row>
     <row r="144">
@@ -5442,19 +5442,19 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>9619654</v>
+        <v>9644410</v>
       </c>
       <c r="F144" t="n">
-        <v>1065.656414895846</v>
+        <v>1160.434357671306</v>
       </c>
       <c r="G144" t="n">
-        <v>567.4952636773322</v>
+        <v>609.7568887390493</v>
       </c>
       <c r="H144" t="n">
-        <v>0.74</v>
+        <v>0.64</v>
       </c>
       <c r="I144" t="n">
-        <v>121761</v>
+        <v>121277</v>
       </c>
     </row>
     <row r="145">
@@ -5474,22 +5474,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1178295</v>
+        <v>1182820</v>
       </c>
       <c r="E145" t="n">
-        <v>7855301</v>
+        <v>7885467</v>
       </c>
       <c r="F145" t="n">
-        <v>51.74156768192282</v>
+        <v>51.74316420918673</v>
       </c>
       <c r="G145" t="n">
-        <v>120.7037426103661</v>
+        <v>120.7074670204403</v>
       </c>
       <c r="H145" t="n">
         <v>0.53</v>
       </c>
       <c r="I145" t="n">
-        <v>10833.14</v>
+        <v>10816.96</v>
       </c>
     </row>
     <row r="146">
@@ -5512,19 +5512,19 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>7705590</v>
+        <v>7733518</v>
       </c>
       <c r="F146" t="n">
-        <v>181.1739492580237</v>
+        <v>279.0885713401922</v>
       </c>
       <c r="G146" t="n">
-        <v>263.429001055342</v>
+        <v>321.4888234879881</v>
       </c>
       <c r="H146" t="n">
-        <v>0.91</v>
+        <v>1.41</v>
       </c>
       <c r="I146" t="n">
-        <v>6393451</v>
+        <v>6385804</v>
       </c>
     </row>
     <row r="147">
@@ -5544,22 +5544,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>662403</v>
+        <v>665384</v>
       </c>
       <c r="E147" t="n">
-        <v>2391676</v>
+        <v>2402439</v>
       </c>
       <c r="F147" t="n">
-        <v>43.32047780256054</v>
+        <v>36.45159077270161</v>
       </c>
       <c r="G147" t="n">
-        <v>467.0604249162884</v>
+        <v>474.6745523795091</v>
       </c>
       <c r="H147" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="I147" t="n">
-        <v>369986</v>
+        <v>368714</v>
       </c>
     </row>
     <row r="148">
@@ -5582,19 +5582,19 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>1648744</v>
+        <v>1658188</v>
       </c>
       <c r="F148" t="n">
-        <v>177.7851454118169</v>
+        <v>176.3304415299178</v>
       </c>
       <c r="G148" t="n">
-        <v>82.7562854066928</v>
+        <v>29.51743817382305</v>
       </c>
       <c r="H148" t="n">
-        <v>2.6</v>
+        <v>1.66</v>
       </c>
       <c r="I148" t="n">
-        <v>91643</v>
+        <v>89304</v>
       </c>
     </row>
     <row r="149">
@@ -5617,19 +5617,19 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>67220</v>
+        <v>63041</v>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>8.127786009051187</v>
       </c>
       <c r="G149" t="n">
-        <v>0</v>
+        <v>2.857223980080971</v>
       </c>
       <c r="H149" t="n">
-        <v>6.06</v>
+        <v>3.23</v>
       </c>
       <c r="I149" t="n">
-        <v>842.17</v>
+        <v>892.1900000000001</v>
       </c>
     </row>
     <row r="150">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>12959960</v>
+        <v>13083328</v>
       </c>
       <c r="E150" t="n">
-        <v>12959960</v>
+        <v>13083328</v>
       </c>
       <c r="F150" t="n">
-        <v>831.0587693232346</v>
+        <v>697.4015444905975</v>
       </c>
       <c r="G150" t="n">
-        <v>702.346318346145</v>
+        <v>643.6636925405727</v>
       </c>
       <c r="H150" t="n">
-        <v>0.15</v>
+        <v>0.46</v>
       </c>
       <c r="I150" t="n">
-        <v>2820505</v>
+        <v>2798601</v>
       </c>
     </row>
     <row r="151">
@@ -5684,22 +5684,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1724686</v>
+        <v>1725908</v>
       </c>
       <c r="E151" t="n">
-        <v>6267553</v>
+        <v>6271884</v>
       </c>
       <c r="F151" t="n">
-        <v>65.78588655474697</v>
+        <v>110.5958621133816</v>
       </c>
       <c r="G151" t="n">
-        <v>21.22393323889688</v>
+        <v>560.6708757036905</v>
       </c>
       <c r="H151" t="n">
-        <v>1.67</v>
+        <v>1.32</v>
       </c>
       <c r="I151" t="n">
-        <v>135589</v>
+        <v>135722</v>
       </c>
     </row>
     <row r="152">
@@ -5719,10 +5719,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1177703</v>
+        <v>1185430</v>
       </c>
       <c r="E152" t="n">
-        <v>1177703</v>
+        <v>1185430</v>
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>136.3</v>
+        <v>137.2</v>
       </c>
     </row>
     <row r="153">
@@ -5752,22 +5752,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>23819420</v>
+        <v>23809203</v>
       </c>
       <c r="E153" t="n">
-        <v>27453768</v>
+        <v>27443716</v>
       </c>
       <c r="F153" t="n">
-        <v>518.6498940396342</v>
+        <v>1526.487298130434</v>
       </c>
       <c r="G153" t="n">
-        <v>795.484228218903</v>
+        <v>650.3752349875506</v>
       </c>
       <c r="H153" t="n">
-        <v>0.04</v>
+        <v>0.36</v>
       </c>
       <c r="I153" t="n">
-        <v>723010</v>
+        <v>728468</v>
       </c>
     </row>
     <row r="154">
@@ -5787,22 +5787,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2450802</v>
+        <v>2451201</v>
       </c>
       <c r="E154" t="n">
-        <v>18443389</v>
+        <v>18446392</v>
       </c>
       <c r="F154" t="n">
-        <v>6117.554288626303</v>
+        <v>5445.862665814843</v>
       </c>
       <c r="G154" t="n">
-        <v>2956.064658109713</v>
+        <v>2787.246196063678</v>
       </c>
       <c r="H154" t="n">
         <v>0.05</v>
       </c>
       <c r="I154" t="n">
-        <v>163652</v>
+        <v>163123</v>
       </c>
     </row>
     <row r="155">
@@ -5822,22 +5822,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>20664452</v>
+        <v>21037837</v>
       </c>
       <c r="E155" t="n">
-        <v>82657809</v>
+        <v>84151347</v>
       </c>
       <c r="F155" t="n">
-        <v>10330.0430341211</v>
+        <v>10809.23465850361</v>
       </c>
       <c r="G155" t="n">
-        <v>19208.18135954888</v>
+        <v>17435.16013134919</v>
       </c>
       <c r="H155" t="n">
-        <v>0.24</v>
+        <v>0.47</v>
       </c>
       <c r="I155" t="n">
-        <v>5341687</v>
+        <v>5824036</v>
       </c>
     </row>
     <row r="156">
@@ -5857,22 +5857,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>294808951</v>
+        <v>298339779</v>
       </c>
       <c r="E156" t="n">
-        <v>294808951</v>
+        <v>298339779</v>
       </c>
       <c r="F156" t="n">
-        <v>286730.659607688</v>
+        <v>290517.3196521325</v>
       </c>
       <c r="G156" t="n">
-        <v>392950.9961473366</v>
+        <v>396587.0376883193</v>
       </c>
       <c r="H156" t="n">
-        <v>0.2</v>
+        <v>0.09</v>
       </c>
       <c r="I156" t="n">
-        <v>12684841</v>
+        <v>12763448</v>
       </c>
     </row>
     <row r="157">
@@ -5892,22 +5892,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>12739833</v>
+        <v>12754544</v>
       </c>
       <c r="E157" t="n">
-        <v>40305257</v>
+        <v>40351799</v>
       </c>
       <c r="F157" t="n">
-        <v>10448.60703728798</v>
+        <v>7685.184541650325</v>
       </c>
       <c r="G157" t="n">
-        <v>13682.79784652774</v>
+        <v>8868.072881667635</v>
       </c>
       <c r="H157" t="n">
-        <v>0.42</v>
+        <v>0.47</v>
       </c>
       <c r="I157" t="n">
-        <v>1600763</v>
+        <v>1601831</v>
       </c>
     </row>
     <row r="158">
@@ -5927,10 +5927,10 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1088251</v>
+        <v>1088913</v>
       </c>
       <c r="E158" t="n">
-        <v>2478598</v>
+        <v>2480105</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -5939,10 +5939,10 @@
         <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>6.77</v>
+        <v>7.17</v>
       </c>
       <c r="I158" t="n">
-        <v>4845.42</v>
+        <v>4835.13</v>
       </c>
     </row>
     <row r="159">
@@ -5962,22 +5962,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>17002003</v>
+        <v>17135206</v>
       </c>
       <c r="E159" t="n">
-        <v>17002003</v>
+        <v>17135206</v>
       </c>
       <c r="F159" t="n">
-        <v>14082.92706878322</v>
+        <v>12829.8683793436</v>
       </c>
       <c r="G159" t="n">
-        <v>15409.29107411718</v>
+        <v>15991.52473866846</v>
       </c>
       <c r="H159" t="n">
-        <v>0.12</v>
+        <v>0.23</v>
       </c>
       <c r="I159" t="n">
-        <v>2497870</v>
+        <v>3351004</v>
       </c>
     </row>
     <row r="160">
@@ -5997,10 +5997,10 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>4863030</v>
+        <v>4864368</v>
       </c>
       <c r="E160" t="n">
-        <v>8953359</v>
+        <v>8955821</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -6009,10 +6009,10 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>10.1</v>
+        <v>10.51</v>
       </c>
       <c r="I160" t="n">
-        <v>14.56</v>
+        <v>14.55</v>
       </c>
     </row>
     <row r="161">
@@ -6032,22 +6032,22 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>113520</v>
+        <v>111532</v>
       </c>
       <c r="E161" t="n">
-        <v>135619</v>
+        <v>134022</v>
       </c>
       <c r="F161" t="n">
-        <v>0.1661873223250684</v>
+        <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>235.7996668008417</v>
+        <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>0.03</v>
+        <v>9.19</v>
       </c>
       <c r="I161" t="n">
-        <v>4229.28</v>
+        <v>4427.52</v>
       </c>
     </row>
     <row r="162">
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>19906588</v>
+        <v>20650906</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -6079,10 +6079,10 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>6.46</v>
+        <v>7.29</v>
       </c>
       <c r="I162" t="n">
-        <v>1608.16</v>
+        <v>1104.58</v>
       </c>
     </row>
     <row r="163">
@@ -6102,22 +6102,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>435772</v>
+        <v>438112</v>
       </c>
       <c r="E163" t="n">
-        <v>548909</v>
+        <v>551858</v>
       </c>
       <c r="F163" t="n">
-        <v>187.7759243604316</v>
+        <v>169.9290227900613</v>
       </c>
       <c r="G163" t="n">
-        <v>158.1143866601692</v>
+        <v>229.4842188244541</v>
       </c>
       <c r="H163" t="n">
         <v>0.18</v>
       </c>
       <c r="I163" t="n">
-        <v>186027</v>
+        <v>187570</v>
       </c>
     </row>
     <row r="164">
@@ -6140,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>118636</v>
+        <v>123580</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -6149,10 +6149,10 @@
         <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>7.93</v>
+        <v>4.77</v>
       </c>
       <c r="I164" t="n">
-        <v>3763.11</v>
+        <v>3780.58</v>
       </c>
     </row>
     <row r="165">
@@ -6172,22 +6172,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>11986142</v>
+        <v>12033148</v>
       </c>
       <c r="E165" t="n">
-        <v>18267671</v>
+        <v>18339311</v>
       </c>
       <c r="F165" t="n">
-        <v>2103.808083513777</v>
+        <v>2158.645297551434</v>
       </c>
       <c r="G165" t="n">
-        <v>3617.792334637976</v>
+        <v>3700.79779246126</v>
       </c>
       <c r="H165" t="n">
         <v>0.96</v>
       </c>
       <c r="I165" t="n">
-        <v>660818</v>
+        <v>664630</v>
       </c>
     </row>
     <row r="166">
@@ -6207,22 +6207,22 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>299981943</v>
+        <v>301107177</v>
       </c>
       <c r="E166" t="n">
-        <v>299981943</v>
+        <v>301107177</v>
       </c>
       <c r="F166" t="n">
-        <v>240587.5669120073</v>
+        <v>248972.999548901</v>
       </c>
       <c r="G166" t="n">
-        <v>385669.3003605778</v>
+        <v>391427.16364767</v>
       </c>
       <c r="H166" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I166" t="n">
-        <v>52522839</v>
+        <v>52093642</v>
       </c>
     </row>
     <row r="167">
@@ -6242,22 +6242,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>9359693</v>
+        <v>9498091</v>
       </c>
       <c r="E167" t="n">
-        <v>26573729</v>
+        <v>26966664</v>
       </c>
       <c r="F167" t="n">
-        <v>314.378839166415</v>
+        <v>330.7020021256998</v>
       </c>
       <c r="G167" t="n">
-        <v>1453.853593305813</v>
+        <v>831.3708105681142</v>
       </c>
       <c r="H167" t="n">
-        <v>0.75</v>
+        <v>1.48</v>
       </c>
       <c r="I167" t="n">
-        <v>114261</v>
+        <v>118011</v>
       </c>
     </row>
     <row r="168">
@@ -6280,19 +6280,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>11957931</v>
+        <v>11969342</v>
       </c>
       <c r="F168" t="n">
-        <v>206.6791853911952</v>
+        <v>164.0947864254364</v>
       </c>
       <c r="G168" t="n">
-        <v>983.9036591022464</v>
+        <v>1849.113122378061</v>
       </c>
       <c r="H168" t="n">
-        <v>1.25</v>
+        <v>0.84</v>
       </c>
       <c r="I168" t="n">
-        <v>159496</v>
+        <v>160823</v>
       </c>
     </row>
     <row r="169">
@@ -6312,22 +6312,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>4073355</v>
+        <v>4110392</v>
       </c>
       <c r="E169" t="n">
-        <v>27832946</v>
+        <v>28086021</v>
       </c>
       <c r="F169" t="n">
-        <v>4357.498753959763</v>
+        <v>4146.583536243061</v>
       </c>
       <c r="G169" t="n">
-        <v>4236.401289199413</v>
+        <v>3967.983504651145</v>
       </c>
       <c r="H169" t="n">
-        <v>1.06</v>
+        <v>0.7</v>
       </c>
       <c r="I169" t="n">
-        <v>2542719</v>
+        <v>2537719</v>
       </c>
     </row>
     <row r="170">
@@ -6347,22 +6347,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>3245981</v>
+        <v>3217336</v>
       </c>
       <c r="E170" t="n">
-        <v>4819550</v>
+        <v>4776810</v>
       </c>
       <c r="F170" t="n">
-        <v>828.499032215001</v>
+        <v>1312.82322278407</v>
       </c>
       <c r="G170" t="n">
-        <v>1613.743504121622</v>
+        <v>3446.064984545825</v>
       </c>
       <c r="H170" t="n">
-        <v>0.82</v>
+        <v>0.63</v>
       </c>
       <c r="I170" t="n">
-        <v>216557</v>
+        <v>216077</v>
       </c>
     </row>
     <row r="171">
@@ -6382,22 +6382,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>87628516</v>
+        <v>89121237</v>
       </c>
       <c r="E171" t="n">
-        <v>504953306</v>
+        <v>513555006</v>
       </c>
       <c r="F171" t="n">
-        <v>428366.1902557011</v>
+        <v>481770.1211314867</v>
       </c>
       <c r="G171" t="n">
-        <v>291703.5268577512</v>
+        <v>243181.4472747364</v>
       </c>
       <c r="H171" t="n">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
       <c r="I171" t="n">
-        <v>15837556</v>
+        <v>15887115</v>
       </c>
     </row>
     <row r="172">
@@ -6417,22 +6417,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>13884677</v>
+        <v>14013089</v>
       </c>
       <c r="E172" t="n">
-        <v>13884677</v>
+        <v>14013089</v>
       </c>
       <c r="F172" t="n">
-        <v>5218.726583080267</v>
+        <v>5132.901868315218</v>
       </c>
       <c r="G172" t="n">
-        <v>5062.986496945413</v>
+        <v>4983.75838682841</v>
       </c>
       <c r="H172" t="n">
         <v>1.49</v>
       </c>
       <c r="I172" t="n">
-        <v>617924</v>
+        <v>614768</v>
       </c>
     </row>
     <row r="173">
@@ -6452,22 +6452,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>6705344</v>
+        <v>6643317</v>
       </c>
       <c r="E173" t="n">
-        <v>19047957</v>
+        <v>18871755</v>
       </c>
       <c r="F173" t="n">
-        <v>321.1135846422452</v>
+        <v>222.9285934691669</v>
       </c>
       <c r="G173" t="n">
-        <v>379.8961502093363</v>
+        <v>144.1611911746069</v>
       </c>
       <c r="H173" t="n">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="I173" t="n">
-        <v>227876</v>
+        <v>221309</v>
       </c>
     </row>
     <row r="174">
@@ -6487,22 +6487,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>17333946</v>
+        <v>17410561</v>
       </c>
       <c r="E174" t="n">
-        <v>17333946</v>
+        <v>17410561</v>
       </c>
       <c r="F174" t="n">
-        <v>99.27401427901044</v>
+        <v>53.29957651846684</v>
       </c>
       <c r="G174" t="n">
-        <v>3.59461577031863</v>
+        <v>974.0418829126511</v>
       </c>
       <c r="H174" t="n">
-        <v>2.46</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I174" t="n">
-        <v>91823</v>
+        <v>91902</v>
       </c>
     </row>
     <row r="175">
@@ -6525,19 +6525,19 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>1268053</v>
+        <v>1301885</v>
       </c>
       <c r="F175" t="n">
-        <v>115.0104395144762</v>
+        <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>923.625570003688</v>
+        <v>0</v>
       </c>
       <c r="H175" t="n">
-        <v>2.22</v>
+        <v>5.11</v>
       </c>
       <c r="I175" t="n">
-        <v>95407</v>
+        <v>3080.21</v>
       </c>
     </row>
     <row r="176">
@@ -6557,10 +6557,10 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>128016</v>
+        <v>128411</v>
       </c>
       <c r="E176" t="n">
-        <v>278689</v>
+        <v>279549</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -6569,10 +6569,10 @@
         <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>5.79</v>
+        <v>7.55</v>
       </c>
       <c r="I176" t="n">
-        <v>45015</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="177">
@@ -6595,19 +6595,19 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>2272815</v>
+        <v>2274332</v>
       </c>
       <c r="F177" t="n">
-        <v>238.3313830569675</v>
+        <v>141.2606232601626</v>
       </c>
       <c r="G177" t="n">
-        <v>94.71003908167206</v>
+        <v>51.87959500806996</v>
       </c>
       <c r="H177" t="n">
-        <v>1.75</v>
+        <v>3.49</v>
       </c>
       <c r="I177" t="n">
-        <v>173115</v>
+        <v>154428</v>
       </c>
     </row>
     <row r="178">
@@ -6627,22 +6627,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>244200008</v>
+        <v>247299973</v>
       </c>
       <c r="E178" t="n">
-        <v>244202435</v>
+        <v>247302430</v>
       </c>
       <c r="F178" t="n">
-        <v>46820.72854968372</v>
+        <v>50933.21408334871</v>
       </c>
       <c r="G178" t="n">
-        <v>57739.67303540147</v>
+        <v>39451.89310744633</v>
       </c>
       <c r="H178" t="n">
-        <v>0.29</v>
+        <v>0.65</v>
       </c>
       <c r="I178" t="n">
-        <v>1591173</v>
+        <v>2445155</v>
       </c>
     </row>
     <row r="179">
@@ -6662,22 +6662,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>9285978</v>
+        <v>9316163</v>
       </c>
       <c r="E179" t="n">
-        <v>9285978</v>
+        <v>9316163</v>
       </c>
       <c r="F179" t="n">
-        <v>2549.915717611808</v>
+        <v>1415.951405357189</v>
       </c>
       <c r="G179" t="n">
-        <v>375.7588806948041</v>
+        <v>344.9444443726677</v>
       </c>
       <c r="H179" t="n">
-        <v>0.98</v>
+        <v>0.29</v>
       </c>
       <c r="I179" t="n">
-        <v>2038622</v>
+        <v>2037504</v>
       </c>
     </row>
     <row r="180">
@@ -6697,22 +6697,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>186534</v>
+        <v>183978</v>
       </c>
       <c r="E180" t="n">
-        <v>1440418</v>
+        <v>1420683</v>
       </c>
       <c r="F180" t="n">
-        <v>700.7746790853519</v>
+        <v>19.19156892204223</v>
       </c>
       <c r="G180" t="n">
-        <v>76.47478768042774</v>
+        <v>46.52774625436538</v>
       </c>
       <c r="H180" t="n">
-        <v>2.82</v>
+        <v>1.41</v>
       </c>
       <c r="I180" t="n">
-        <v>137199</v>
+        <v>138092</v>
       </c>
     </row>
     <row r="181">
@@ -6732,22 +6732,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>30259407</v>
+        <v>30400952</v>
       </c>
       <c r="E181" t="n">
-        <v>135483779</v>
+        <v>136117534</v>
       </c>
       <c r="F181" t="n">
-        <v>67108.65615445124</v>
+        <v>62128.54503102122</v>
       </c>
       <c r="G181" t="n">
-        <v>82952.80881551988</v>
+        <v>71973.51175455863</v>
       </c>
       <c r="H181" t="n">
-        <v>0.15</v>
+        <v>0.29</v>
       </c>
       <c r="I181" t="n">
-        <v>9866560</v>
+        <v>9442785</v>
       </c>
     </row>
     <row r="182">
@@ -6770,19 +6770,19 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>1548732</v>
+        <v>1495306</v>
       </c>
       <c r="F182" t="n">
-        <v>37.58567253047521</v>
+        <v>377.0027910870866</v>
       </c>
       <c r="G182" t="n">
-        <v>155.61864530737</v>
+        <v>16.23200103582112</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>3.39</v>
       </c>
       <c r="I182" t="n">
-        <v>71028</v>
+        <v>68904</v>
       </c>
     </row>
     <row r="183">
@@ -6802,22 +6802,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>2946035</v>
+        <v>2972924</v>
       </c>
       <c r="E183" t="n">
-        <v>2946035</v>
+        <v>2972924</v>
       </c>
       <c r="F183" t="n">
-        <v>107.6607532545497</v>
+        <v>789.8913780907279</v>
       </c>
       <c r="G183" t="n">
-        <v>852.7927089531372</v>
+        <v>608.4747310632133</v>
       </c>
       <c r="H183" t="n">
-        <v>0.03</v>
+        <v>1.72</v>
       </c>
       <c r="I183" t="n">
-        <v>375230</v>
+        <v>374239</v>
       </c>
     </row>
     <row r="184">
@@ -6837,22 +6837,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>571617</v>
+        <v>581590</v>
       </c>
       <c r="E184" t="n">
-        <v>571617</v>
+        <v>581590</v>
       </c>
       <c r="F184" t="n">
-        <v>8.571289100156607</v>
+        <v>8.726750186295934</v>
       </c>
       <c r="G184" t="n">
-        <v>44.33446357657105</v>
+        <v>4.75258020716741</v>
       </c>
       <c r="H184" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="I184" t="n">
-        <v>1421189</v>
+        <v>1385323</v>
       </c>
     </row>
     <row r="185">
@@ -6872,22 +6872,22 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>13821833</v>
+        <v>13926716</v>
       </c>
       <c r="E185" t="n">
-        <v>17597400</v>
+        <v>17730933</v>
       </c>
       <c r="F185" t="n">
-        <v>3931.244302565209</v>
+        <v>3919.393458880809</v>
       </c>
       <c r="G185" t="n">
-        <v>328.4500238065988</v>
+        <v>2936.276544993565</v>
       </c>
       <c r="H185" t="n">
         <v>0.95</v>
       </c>
       <c r="I185" t="n">
-        <v>781711</v>
+        <v>784565</v>
       </c>
     </row>
     <row r="186">
@@ -6907,22 +6907,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1972334</v>
+        <v>1959062</v>
       </c>
       <c r="E186" t="n">
-        <v>1972334</v>
+        <v>1959062</v>
       </c>
       <c r="F186" t="n">
-        <v>0</v>
+        <v>2.33526485852749</v>
       </c>
       <c r="G186" t="n">
-        <v>0</v>
+        <v>2.705285738471587</v>
       </c>
       <c r="H186" t="n">
-        <v>4.12</v>
+        <v>3.91</v>
       </c>
       <c r="I186" t="n">
-        <v>3928.07</v>
+        <v>4171.89</v>
       </c>
     </row>
     <row r="187">
@@ -6942,22 +6942,22 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>47276084</v>
+        <v>47637943</v>
       </c>
       <c r="E187" t="n">
-        <v>306572825</v>
+        <v>308919380</v>
       </c>
       <c r="F187" t="n">
-        <v>143079.1384358304</v>
+        <v>136658.9066479119</v>
       </c>
       <c r="G187" t="n">
-        <v>214966.6294210622</v>
+        <v>120153.7821905975</v>
       </c>
       <c r="H187" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="I187" t="n">
-        <v>17232612</v>
+        <v>16852175</v>
       </c>
     </row>
     <row r="188">
@@ -6980,19 +6980,19 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>9294050</v>
+        <v>9296358</v>
       </c>
       <c r="F188" t="n">
-        <v>510.3658681010359</v>
+        <v>543.9048759523788</v>
       </c>
       <c r="G188" t="n">
-        <v>935.5300054458522</v>
+        <v>569.6676044406418</v>
       </c>
       <c r="H188" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="I188" t="n">
-        <v>291714</v>
+        <v>57860</v>
       </c>
     </row>
     <row r="189">
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>6747645</v>
+        <v>6862606</v>
       </c>
       <c r="E189" t="n">
-        <v>6757251</v>
+        <v>6872389</v>
       </c>
       <c r="F189" t="n">
-        <v>94.07944984745036</v>
+        <v>908.3324434706952</v>
       </c>
       <c r="G189" t="n">
-        <v>118.5742568398816</v>
+        <v>125.3143543032783</v>
       </c>
       <c r="H189" t="n">
-        <v>1.62</v>
+        <v>2.49</v>
       </c>
       <c r="I189" t="n">
-        <v>446784</v>
+        <v>981066</v>
       </c>
     </row>
     <row r="190">
@@ -7050,19 +7050,19 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>4762793</v>
+        <v>4770969</v>
       </c>
       <c r="F190" t="n">
-        <v>2481.661374227948</v>
+        <v>2335.449802097832</v>
       </c>
       <c r="G190" t="n">
-        <v>67.18879850438285</v>
+        <v>256.7048779470451</v>
       </c>
       <c r="H190" t="n">
-        <v>2.33</v>
+        <v>2.16</v>
       </c>
       <c r="I190" t="n">
-        <v>153905</v>
+        <v>155131</v>
       </c>
     </row>
     <row r="191">
@@ -7082,22 +7082,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>73350791</v>
+        <v>74471669</v>
       </c>
       <c r="E191" t="n">
-        <v>74140364</v>
+        <v>75273308</v>
       </c>
       <c r="F191" t="n">
-        <v>70986.39295890636</v>
+        <v>54328.08540041794</v>
       </c>
       <c r="G191" t="n">
-        <v>60038.70284689592</v>
+        <v>40319.32439227643</v>
       </c>
       <c r="H191" t="n">
         <v>0.15</v>
       </c>
       <c r="I191" t="n">
-        <v>8638083</v>
+        <v>8932438</v>
       </c>
     </row>
     <row r="192">
@@ -7117,22 +7117,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>233496197</v>
+        <v>236167057</v>
       </c>
       <c r="E192" t="n">
-        <v>233496197</v>
+        <v>236167057</v>
       </c>
       <c r="F192" t="n">
-        <v>113185.0445577051</v>
+        <v>121589.1980659154</v>
       </c>
       <c r="G192" t="n">
-        <v>109609.35488424</v>
+        <v>90861.68418274907</v>
       </c>
       <c r="H192" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I192" t="n">
-        <v>42149101</v>
+        <v>43007210</v>
       </c>
     </row>
     <row r="193">
@@ -7152,22 +7152,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>23369213</v>
+        <v>23528163</v>
       </c>
       <c r="E193" t="n">
-        <v>139822700</v>
+        <v>140773731</v>
       </c>
       <c r="F193" t="n">
-        <v>109324.6851990006</v>
+        <v>83280.94723036536</v>
       </c>
       <c r="G193" t="n">
-        <v>96736.67773588021</v>
+        <v>125849.3817413285</v>
       </c>
       <c r="H193" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I193" t="n">
-        <v>13471867</v>
+        <v>13199090</v>
       </c>
     </row>
     <row r="194">
@@ -7187,22 +7187,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>14367592</v>
+        <v>14325436</v>
       </c>
       <c r="E194" t="n">
-        <v>44089097</v>
+        <v>43959736</v>
       </c>
       <c r="F194" t="n">
-        <v>953.5045578806653</v>
+        <v>871.3489424545528</v>
       </c>
       <c r="G194" t="n">
-        <v>973.8810092584491</v>
+        <v>897.071246326462</v>
       </c>
       <c r="H194" t="n">
-        <v>0.11</v>
+        <v>0.38</v>
       </c>
       <c r="I194" t="n">
-        <v>2529177</v>
+        <v>2535303</v>
       </c>
     </row>
     <row r="195">
@@ -7222,22 +7222,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>52289953</v>
+        <v>52697649</v>
       </c>
       <c r="E195" t="n">
-        <v>90316116</v>
+        <v>91020296</v>
       </c>
       <c r="F195" t="n">
-        <v>14619.79862338926</v>
+        <v>7092.219979357312</v>
       </c>
       <c r="G195" t="n">
-        <v>1537.468410654446</v>
+        <v>9252.970698651827</v>
       </c>
       <c r="H195" t="n">
-        <v>0.18</v>
+        <v>0.01</v>
       </c>
       <c r="I195" t="n">
-        <v>1981442</v>
+        <v>1924018</v>
       </c>
     </row>
     <row r="196">
@@ -7257,22 +7257,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>4201684</v>
+        <v>4222538</v>
       </c>
       <c r="E196" t="n">
-        <v>4201684</v>
+        <v>4222538</v>
       </c>
       <c r="F196" t="n">
-        <v>2.426454717713482</v>
+        <v>1.064204755035765</v>
       </c>
       <c r="G196" t="n">
-        <v>415.5028501054879</v>
+        <v>1093.881670483039</v>
       </c>
       <c r="H196" t="n">
-        <v>2.72</v>
+        <v>1.93</v>
       </c>
       <c r="I196" t="n">
-        <v>1542349</v>
+        <v>1548945</v>
       </c>
     </row>
     <row r="197">
@@ -7295,19 +7295,19 @@
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>204512</v>
+        <v>211650</v>
       </c>
       <c r="F197" t="n">
-        <v>9.551274892096467</v>
+        <v>225.6172141369613</v>
       </c>
       <c r="G197" t="n">
-        <v>318.5519044799811</v>
+        <v>175.6224368389978</v>
       </c>
       <c r="H197" t="n">
-        <v>0.32</v>
+        <v>2.26</v>
       </c>
       <c r="I197" t="n">
-        <v>61038</v>
+        <v>61462</v>
       </c>
     </row>
     <row r="198">
@@ -7327,22 +7327,22 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>6809882</v>
+        <v>6910197</v>
       </c>
       <c r="E198" t="n">
-        <v>35034772</v>
+        <v>35550862</v>
       </c>
       <c r="F198" t="n">
-        <v>396.7862146244192</v>
+        <v>294.1170999767333</v>
       </c>
       <c r="G198" t="n">
-        <v>429.0046388029366</v>
+        <v>328.6148895457504</v>
       </c>
       <c r="H198" t="n">
-        <v>0.99</v>
+        <v>1.37</v>
       </c>
       <c r="I198" t="n">
-        <v>839907</v>
+        <v>850731</v>
       </c>
     </row>
     <row r="199">
@@ -7362,22 +7362,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>177247950</v>
+        <v>174415767</v>
       </c>
       <c r="E199" t="n">
-        <v>207077941</v>
+        <v>203769115</v>
       </c>
       <c r="F199" t="n">
-        <v>18798.24379762962</v>
+        <v>22413.33919158114</v>
       </c>
       <c r="G199" t="n">
-        <v>24884.14606155193</v>
+        <v>34749.37569449353</v>
       </c>
       <c r="H199" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="I199" t="n">
-        <v>4825369</v>
+        <v>4546351</v>
       </c>
     </row>
     <row r="200">
@@ -7400,19 +7400,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>305306</v>
+        <v>306038</v>
       </c>
       <c r="F200" t="n">
-        <v>211.5527160519652</v>
+        <v>109.3819349339359</v>
       </c>
       <c r="G200" t="n">
-        <v>214.1463697913692</v>
+        <v>302.7256303646079</v>
       </c>
       <c r="H200" t="n">
         <v>0.33</v>
       </c>
       <c r="I200" t="n">
-        <v>253341</v>
+        <v>254766</v>
       </c>
     </row>
     <row r="201">
@@ -7435,19 +7435,19 @@
         <v>0</v>
       </c>
       <c r="E201" t="n">
-        <v>8061464</v>
+        <v>8068331</v>
       </c>
       <c r="F201" t="n">
-        <v>864.4937722897741</v>
+        <v>862.915144139761</v>
       </c>
       <c r="G201" t="n">
-        <v>768.5950319581121</v>
+        <v>759.8345268058035</v>
       </c>
       <c r="H201" t="n">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="I201" t="n">
-        <v>692302</v>
+        <v>723062</v>
       </c>
     </row>
     <row r="202">
@@ -7470,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>34013</v>
+        <v>34014</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
@@ -7482,7 +7482,7 @@
         <v>5.56</v>
       </c>
       <c r="I202" t="n">
-        <v>375.1</v>
+        <v>378.54</v>
       </c>
     </row>
     <row r="203">
@@ -7502,22 +7502,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>33909263</v>
+        <v>34231384</v>
       </c>
       <c r="E203" t="n">
-        <v>169222854</v>
+        <v>170830384</v>
       </c>
       <c r="F203" t="n">
-        <v>120519.8425437585</v>
+        <v>91440.0335950904</v>
       </c>
       <c r="G203" t="n">
-        <v>95853.8743387845</v>
+        <v>120859.1842373146</v>
       </c>
       <c r="H203" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I203" t="n">
-        <v>9603868</v>
+        <v>9818801</v>
       </c>
     </row>
     <row r="204">
@@ -7537,10 +7537,10 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>2007565</v>
+        <v>2016565</v>
       </c>
       <c r="E204" t="n">
-        <v>2007565</v>
+        <v>2016565</v>
       </c>
       <c r="F204" t="n">
         <v>0</v>
@@ -7549,10 +7549,10 @@
         <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>18.3</v>
+        <v>17.93</v>
       </c>
       <c r="I204" t="n">
-        <v>8674.9</v>
+        <v>7498.21</v>
       </c>
     </row>
     <row r="205">
@@ -7575,19 +7575,19 @@
         <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>176155</v>
+        <v>170051</v>
       </c>
       <c r="F205" t="n">
-        <v>50.18484499618226</v>
+        <v>50.18639348952835</v>
       </c>
       <c r="G205" t="n">
-        <v>614.4136310817554</v>
+        <v>597.0385822796064</v>
       </c>
       <c r="H205" t="n">
-        <v>1.78</v>
+        <v>2.96</v>
       </c>
       <c r="I205" t="n">
-        <v>16391.24</v>
+        <v>14114</v>
       </c>
     </row>
     <row r="206">
@@ -7607,10 +7607,10 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>2889.05</v>
+        <v>2778.85</v>
       </c>
       <c r="E206" t="n">
-        <v>34531</v>
+        <v>33213</v>
       </c>
       <c r="F206" t="n">
         <v>0</v>
@@ -7619,10 +7619,10 @@
         <v>0</v>
       </c>
       <c r="H206" t="n">
-        <v>15.53</v>
+        <v>11.41</v>
       </c>
       <c r="I206" t="n">
-        <v>5990.14</v>
+        <v>6191.81</v>
       </c>
     </row>
     <row r="207">
@@ -7669,22 +7669,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>313408319</v>
+        <v>313233258</v>
       </c>
       <c r="E208" t="n">
-        <v>579876862</v>
+        <v>579552959</v>
       </c>
       <c r="F208" t="n">
-        <v>190204.9902586059</v>
+        <v>166613.8631352362</v>
       </c>
       <c r="G208" t="n">
-        <v>202026.0856713646</v>
+        <v>188214.1997476871</v>
       </c>
       <c r="H208" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I208" t="n">
-        <v>12090503</v>
+        <v>12225452</v>
       </c>
     </row>
     <row r="209">
@@ -7704,22 +7704,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>72800818</v>
+        <v>71456336</v>
       </c>
       <c r="E209" t="n">
-        <v>694624989</v>
+        <v>681793436</v>
       </c>
       <c r="F209" t="n">
-        <v>244488.7309466791</v>
+        <v>232015.3476417983</v>
       </c>
       <c r="G209" t="n">
-        <v>219443.5293814593</v>
+        <v>203451.7860781514</v>
       </c>
       <c r="H209" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="I209" t="n">
-        <v>20554984</v>
+        <v>20924213</v>
       </c>
     </row>
     <row r="210">
@@ -7742,19 +7742,19 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>2168983</v>
+        <v>2236439</v>
       </c>
       <c r="F210" t="n">
-        <v>0</v>
+        <v>1082.780009535513</v>
       </c>
       <c r="G210" t="n">
-        <v>0</v>
+        <v>1.457835869423562</v>
       </c>
       <c r="H210" t="n">
-        <v>4.58</v>
+        <v>3</v>
       </c>
       <c r="I210" t="n">
-        <v>64055</v>
+        <v>63949</v>
       </c>
     </row>
     <row r="211">
@@ -7774,10 +7774,10 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>81793</v>
+        <v>81572</v>
       </c>
       <c r="E211" t="n">
-        <v>679961</v>
+        <v>678126</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -7789,7 +7789,7 @@
         <v>7.04</v>
       </c>
       <c r="I211" t="n">
-        <v>373.24</v>
+        <v>427.85</v>
       </c>
     </row>
     <row r="212">
@@ -7809,22 +7809,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1895424</v>
+        <v>1900767</v>
       </c>
       <c r="E212" t="n">
-        <v>5413088</v>
+        <v>5428347</v>
       </c>
       <c r="F212" t="n">
-        <v>757.6986784572002</v>
+        <v>223.5576561901465</v>
       </c>
       <c r="G212" t="n">
-        <v>331.1245318685256</v>
+        <v>340.1710340423917</v>
       </c>
       <c r="H212" t="n">
-        <v>0.77</v>
+        <v>0.39</v>
       </c>
       <c r="I212" t="n">
-        <v>75145</v>
+        <v>74606</v>
       </c>
     </row>
     <row r="213">
@@ -7844,22 +7844,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>9464376</v>
+        <v>10061201</v>
       </c>
       <c r="E213" t="n">
-        <v>28224501</v>
+        <v>30000420</v>
       </c>
       <c r="F213" t="n">
-        <v>2285.708492122043</v>
+        <v>1216.068706560954</v>
       </c>
       <c r="G213" t="n">
-        <v>3671.030918541483</v>
+        <v>2045.37859119878</v>
       </c>
       <c r="H213" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="I213" t="n">
-        <v>4837941</v>
+        <v>5288160</v>
       </c>
     </row>
     <row r="214">
@@ -7882,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>14705517</v>
+        <v>14883426</v>
       </c>
       <c r="F214" t="n">
         <v>0</v>
@@ -7891,10 +7891,10 @@
         <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>10.78</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="I214" t="n">
-        <v>845.55</v>
+        <v>1203.51</v>
       </c>
     </row>
     <row r="215">
@@ -7914,22 +7914,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>2050035</v>
+        <v>2025757</v>
       </c>
       <c r="E215" t="n">
-        <v>5947811</v>
+        <v>5877373</v>
       </c>
       <c r="F215" t="n">
-        <v>35.6122536624766</v>
+        <v>19.32567376894084</v>
       </c>
       <c r="G215" t="n">
-        <v>71.50949662753817</v>
+        <v>559.6163940995423</v>
       </c>
       <c r="H215" t="n">
-        <v>1.46</v>
+        <v>2.32</v>
       </c>
       <c r="I215" t="n">
-        <v>68514</v>
+        <v>68571</v>
       </c>
     </row>
     <row r="216">
@@ -7949,22 +7949,22 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>2116352</v>
+        <v>2114297</v>
       </c>
       <c r="E216" t="n">
-        <v>18667630</v>
+        <v>18649500</v>
       </c>
       <c r="F216" t="n">
-        <v>1540.522347101173</v>
+        <v>1372.74183924633</v>
       </c>
       <c r="G216" t="n">
-        <v>3311.497041908611</v>
+        <v>1754.560955649525</v>
       </c>
       <c r="H216" t="n">
-        <v>0.78</v>
+        <v>1.04</v>
       </c>
       <c r="I216" t="n">
-        <v>77125</v>
+        <v>77344</v>
       </c>
     </row>
     <row r="217">
@@ -7984,22 +7984,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>44414741</v>
+        <v>44796732</v>
       </c>
       <c r="E217" t="n">
-        <v>44414741</v>
+        <v>44796732</v>
       </c>
       <c r="F217" t="n">
-        <v>40115.66311641177</v>
+        <v>39711.83177066427</v>
       </c>
       <c r="G217" t="n">
-        <v>47577.84818866973</v>
+        <v>40200.65693719632</v>
       </c>
       <c r="H217" t="n">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="I217" t="n">
-        <v>8584140</v>
+        <v>8771186</v>
       </c>
     </row>
     <row r="218">
@@ -8019,22 +8019,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>7858185</v>
+        <v>7845812</v>
       </c>
       <c r="E218" t="n">
-        <v>11196113</v>
+        <v>11178485</v>
       </c>
       <c r="F218" t="n">
-        <v>3789.757352327641</v>
+        <v>3392.528404353021</v>
       </c>
       <c r="G218" t="n">
-        <v>560.0787157304896</v>
+        <v>413.8634057864357</v>
       </c>
       <c r="H218" t="n">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="I218" t="n">
-        <v>326560</v>
+        <v>311162</v>
       </c>
     </row>
     <row r="219">
@@ -8057,19 +8057,19 @@
         <v>0</v>
       </c>
       <c r="E219" t="n">
-        <v>16251764</v>
+        <v>16387199</v>
       </c>
       <c r="F219" t="n">
-        <v>61.49286938993852</v>
+        <v>1.057074323408063</v>
       </c>
       <c r="G219" t="n">
-        <v>2.09829265680827</v>
+        <v>1138.198921010953</v>
       </c>
       <c r="H219" t="n">
-        <v>1.83</v>
+        <v>2.03</v>
       </c>
       <c r="I219" t="n">
-        <v>997242</v>
+        <v>366920</v>
       </c>
     </row>
     <row r="220">
@@ -8092,19 +8092,19 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>719727</v>
+        <v>722712</v>
       </c>
       <c r="F220" t="n">
-        <v>99.83160142322767</v>
+        <v>49.06417618499862</v>
       </c>
       <c r="G220" t="n">
-        <v>412.268866905212</v>
+        <v>412.2803741567076</v>
       </c>
       <c r="H220" t="n">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="I220" t="n">
-        <v>225265</v>
+        <v>225302</v>
       </c>
     </row>
     <row r="221">
@@ -8124,22 +8124,22 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>2846070</v>
+        <v>2833406</v>
       </c>
       <c r="E221" t="n">
-        <v>2848535</v>
+        <v>2835859</v>
       </c>
       <c r="F221" t="n">
-        <v>524.8520090892163</v>
+        <v>71.56950669787264</v>
       </c>
       <c r="G221" t="n">
-        <v>54.28085127128497</v>
+        <v>119.4546162031878</v>
       </c>
       <c r="H221" t="n">
-        <v>3.11</v>
+        <v>3.12</v>
       </c>
       <c r="I221" t="n">
-        <v>64494</v>
+        <v>76477</v>
       </c>
     </row>
     <row r="222">
@@ -8159,22 +8159,22 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1258659</v>
+        <v>1256867</v>
       </c>
       <c r="E222" t="n">
-        <v>3808207</v>
+        <v>3802464</v>
       </c>
       <c r="F222" t="n">
-        <v>1810.581180814993</v>
+        <v>1809.550903451959</v>
       </c>
       <c r="G222" t="n">
-        <v>604.3235805030358</v>
+        <v>604.3468411933324</v>
       </c>
       <c r="H222" t="n">
         <v>1.57</v>
       </c>
       <c r="I222" t="n">
-        <v>22454</v>
+        <v>22426</v>
       </c>
     </row>
     <row r="223">
@@ -8194,22 +8194,22 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>38034184</v>
+        <v>38433700</v>
       </c>
       <c r="E223" t="n">
-        <v>269656162</v>
+        <v>272488665</v>
       </c>
       <c r="F223" t="n">
-        <v>81026.77063993135</v>
+        <v>75287.34169949222</v>
       </c>
       <c r="G223" t="n">
-        <v>64514.02978751919</v>
+        <v>69835.77845154679</v>
       </c>
       <c r="H223" t="n">
-        <v>0.37</v>
+        <v>0.29</v>
       </c>
       <c r="I223" t="n">
-        <v>1871728</v>
+        <v>1944191</v>
       </c>
     </row>
     <row r="224">
@@ -8229,22 +8229,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>58518</v>
+        <v>60895</v>
       </c>
       <c r="E224" t="n">
-        <v>305322</v>
+        <v>317727</v>
       </c>
       <c r="F224" t="n">
-        <v>0</v>
+        <v>30.54044178853099</v>
       </c>
       <c r="G224" t="n">
-        <v>0</v>
+        <v>195.7137893402671</v>
       </c>
       <c r="H224" t="n">
-        <v>4.27</v>
+        <v>1.18</v>
       </c>
       <c r="I224" t="n">
-        <v>299844</v>
+        <v>302190</v>
       </c>
     </row>
     <row r="225">
@@ -8264,22 +8264,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1264420</v>
+        <v>1260056</v>
       </c>
       <c r="E225" t="n">
-        <v>7841345</v>
+        <v>7814279</v>
       </c>
       <c r="F225" t="n">
-        <v>1984.069665134108</v>
+        <v>1758.625590201208</v>
       </c>
       <c r="G225" t="n">
-        <v>1669.603790519382</v>
+        <v>1884.38493058719</v>
       </c>
       <c r="H225" t="n">
         <v>0.08</v>
       </c>
       <c r="I225" t="n">
-        <v>842255</v>
+        <v>842039</v>
       </c>
     </row>
     <row r="226">
@@ -8299,22 +8299,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>595981616</v>
+        <v>598746822</v>
       </c>
       <c r="E226" t="n">
-        <v>2308148870</v>
+        <v>2318858104</v>
       </c>
       <c r="F226" t="n">
-        <v>446824.0455354032</v>
+        <v>238814.8592465688</v>
       </c>
       <c r="G226" t="n">
-        <v>458885.7539313095</v>
+        <v>255359.5734802276</v>
       </c>
       <c r="H226" t="n">
         <v>0.04</v>
       </c>
       <c r="I226" t="n">
-        <v>30339374</v>
+        <v>30482261</v>
       </c>
     </row>
     <row r="227">
@@ -8337,19 +8337,19 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>20735166</v>
+        <v>20814882</v>
       </c>
       <c r="F227" t="n">
-        <v>1498.260421785857</v>
+        <v>715.7492848169464</v>
       </c>
       <c r="G227" t="n">
-        <v>1232.421702056555</v>
+        <v>1018.28966469632</v>
       </c>
       <c r="H227" t="n">
-        <v>0.24</v>
+        <v>0.05</v>
       </c>
       <c r="I227" t="n">
-        <v>16097708</v>
+        <v>15859276</v>
       </c>
     </row>
     <row r="228">
@@ -8372,19 +8372,19 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>904122</v>
+        <v>957839</v>
       </c>
       <c r="F228" t="n">
-        <v>269.5446972171698</v>
+        <v>62.8658387485016</v>
       </c>
       <c r="G228" t="n">
-        <v>412.2836524273931</v>
+        <v>4.215874526811855</v>
       </c>
       <c r="H228" t="n">
-        <v>1.54</v>
+        <v>3.52</v>
       </c>
       <c r="I228" t="n">
-        <v>415486</v>
+        <v>402483</v>
       </c>
     </row>
     <row r="229">
@@ -8404,22 +8404,22 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>5808669</v>
+        <v>5810330</v>
       </c>
       <c r="E229" t="n">
-        <v>26006156</v>
+        <v>26013593</v>
       </c>
       <c r="F229" t="n">
-        <v>1922.207562659415</v>
+        <v>2122.711522508085</v>
       </c>
       <c r="G229" t="n">
-        <v>2169.828237077393</v>
+        <v>2032.16078230377</v>
       </c>
       <c r="H229" t="n">
-        <v>0.39</v>
+        <v>0.78</v>
       </c>
       <c r="I229" t="n">
-        <v>144731</v>
+        <v>142118</v>
       </c>
     </row>
     <row r="230">
@@ -8439,22 +8439,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>6114314</v>
+        <v>6028779</v>
       </c>
       <c r="E230" t="n">
-        <v>11706350</v>
+        <v>11542586</v>
       </c>
       <c r="F230" t="n">
-        <v>0</v>
+        <v>4195.943418002472</v>
       </c>
       <c r="G230" t="n">
-        <v>0</v>
+        <v>3978.629473299899</v>
       </c>
       <c r="H230" t="n">
-        <v>5.14</v>
+        <v>0.96</v>
       </c>
       <c r="I230" t="n">
-        <v>176586</v>
+        <v>174104</v>
       </c>
     </row>
     <row r="231">
@@ -8474,22 +8474,22 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>3300022</v>
+        <v>3292475</v>
       </c>
       <c r="E231" t="n">
-        <v>21700174</v>
+        <v>21650546</v>
       </c>
       <c r="F231" t="n">
-        <v>1116.344346353383</v>
+        <v>12.04010655740332</v>
       </c>
       <c r="G231" t="n">
-        <v>387.8061129309136</v>
+        <v>525.1034656294096</v>
       </c>
       <c r="H231" t="n">
-        <v>0.61</v>
+        <v>0.22</v>
       </c>
       <c r="I231" t="n">
-        <v>1444899</v>
+        <v>1421692</v>
       </c>
     </row>
     <row r="232">
@@ -8509,22 +8509,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>117360431</v>
+        <v>118273350</v>
       </c>
       <c r="E232" t="n">
-        <v>1020376814</v>
+        <v>1028314087</v>
       </c>
       <c r="F232" t="n">
-        <v>195075.8930136835</v>
+        <v>196738.2308864383</v>
       </c>
       <c r="G232" t="n">
-        <v>207281.6184821127</v>
+        <v>204527.2680050745</v>
       </c>
       <c r="H232" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I232" t="n">
-        <v>9843482</v>
+        <v>9622034</v>
       </c>
     </row>
     <row r="233">
@@ -8548,16 +8548,16 @@
       </c>
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="n">
-        <v>0.6963292909752135</v>
+        <v>0.6963487269232519</v>
       </c>
       <c r="G233" t="n">
-        <v>49.004807477113</v>
+        <v>4.02010368523131</v>
       </c>
       <c r="H233" t="n">
-        <v>3.69</v>
+        <v>3.83</v>
       </c>
       <c r="I233" t="n">
-        <v>1200.71</v>
+        <v>1113.67</v>
       </c>
     </row>
     <row r="234">
@@ -8577,22 +8577,22 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>102027589</v>
+        <v>104647553</v>
       </c>
       <c r="E234" t="n">
-        <v>155645479</v>
+        <v>159642296</v>
       </c>
       <c r="F234" t="n">
-        <v>96140.54377381821</v>
+        <v>99038.57821688797</v>
       </c>
       <c r="G234" t="n">
-        <v>88581.37715085717</v>
+        <v>64472.08952849961</v>
       </c>
       <c r="H234" t="n">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="I234" t="n">
-        <v>7152932</v>
+        <v>7195691</v>
       </c>
     </row>
     <row r="235">
@@ -8612,22 +8612,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>15888388</v>
+        <v>15863323</v>
       </c>
       <c r="E235" t="n">
-        <v>21797492</v>
+        <v>21763106</v>
       </c>
       <c r="F235" t="n">
-        <v>729.734964661136</v>
+        <v>1009.556874473905</v>
       </c>
       <c r="G235" t="n">
-        <v>2026.783592743475</v>
+        <v>2990.682974132719</v>
       </c>
       <c r="H235" t="n">
-        <v>1.23</v>
+        <v>1.09</v>
       </c>
       <c r="I235" t="n">
-        <v>415872</v>
+        <v>371244</v>
       </c>
     </row>
     <row r="236">
@@ -8647,22 +8647,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>107662446</v>
+        <v>108382510</v>
       </c>
       <c r="E236" t="n">
-        <v>413010474</v>
+        <v>415772755</v>
       </c>
       <c r="F236" t="n">
-        <v>514454.103059034</v>
+        <v>501084.443313287</v>
       </c>
       <c r="G236" t="n">
-        <v>426456.8426945049</v>
+        <v>358609.227335934</v>
       </c>
       <c r="H236" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I236" t="n">
-        <v>18613779</v>
+        <v>18903787</v>
       </c>
     </row>
     <row r="237">
@@ -8685,19 +8685,19 @@
         <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>665233</v>
+        <v>660814</v>
       </c>
       <c r="F237" t="n">
-        <v>6.090272964852148</v>
+        <v>6.090442956593726</v>
       </c>
       <c r="G237" t="n">
-        <v>20.55217816151313</v>
+        <v>20.55275181405367</v>
       </c>
       <c r="H237" t="n">
         <v>3.83</v>
       </c>
       <c r="I237" t="n">
-        <v>47983</v>
+        <v>46323</v>
       </c>
     </row>
     <row r="238">
@@ -8720,7 +8720,7 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>770289</v>
+        <v>830594</v>
       </c>
       <c r="F238" t="n">
         <v>0</v>
@@ -8729,10 +8729,10 @@
         <v>0</v>
       </c>
       <c r="H238" t="n">
-        <v>12.81</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="I238" t="n">
-        <v>15848.21</v>
+        <v>18545.25</v>
       </c>
     </row>
     <row r="239">
@@ -8752,22 +8752,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>3237760</v>
+        <v>3221421</v>
       </c>
       <c r="E239" t="n">
-        <v>30678254</v>
+        <v>30523436</v>
       </c>
       <c r="F239" t="n">
-        <v>1550.175650581925</v>
+        <v>1854.160302278547</v>
       </c>
       <c r="G239" t="n">
-        <v>1406.310394524137</v>
+        <v>1248.767711330116</v>
       </c>
       <c r="H239" t="n">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="I239" t="n">
-        <v>233335</v>
+        <v>238915</v>
       </c>
     </row>
     <row r="240">
@@ -8787,22 +8787,22 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>730468</v>
+        <v>731036</v>
       </c>
       <c r="E240" t="n">
-        <v>780866</v>
+        <v>781473</v>
       </c>
       <c r="F240" t="n">
-        <v>22.72799686565279</v>
+        <v>13.63435011123434</v>
       </c>
       <c r="G240" t="n">
-        <v>2547.792446371693</v>
+        <v>1777.56640671006</v>
       </c>
       <c r="H240" t="n">
-        <v>1.09</v>
+        <v>2.01</v>
       </c>
       <c r="I240" t="n">
-        <v>10213.64</v>
+        <v>12171.3</v>
       </c>
     </row>
     <row r="241">
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="E241" t="n">
-        <v>343899</v>
+        <v>343908</v>
       </c>
       <c r="F241" t="n">
         <v>0</v>
@@ -8834,10 +8834,10 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>8.029999999999999</v>
+        <v>7.83</v>
       </c>
       <c r="I241" t="n">
-        <v>685.83</v>
+        <v>583.64</v>
       </c>
     </row>
     <row r="242">
@@ -8860,19 +8860,19 @@
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>149664</v>
+        <v>147786</v>
       </c>
       <c r="F242" t="n">
-        <v>32.97212840465379</v>
+        <v>11.48354536117034</v>
       </c>
       <c r="G242" t="n">
-        <v>189.1628138957669</v>
+        <v>139.2093072618973</v>
       </c>
       <c r="H242" t="n">
-        <v>3.33</v>
+        <v>0.68</v>
       </c>
       <c r="I242" t="n">
-        <v>167986</v>
+        <v>107980</v>
       </c>
     </row>
     <row r="243">
@@ -8895,7 +8895,7 @@
         <v>0</v>
       </c>
       <c r="E243" t="n">
-        <v>576143</v>
+        <v>576295</v>
       </c>
       <c r="F243" t="n">
         <v>0</v>
@@ -8907,7 +8907,7 @@
         <v>5.05</v>
       </c>
       <c r="I243" t="n">
-        <v>454.8</v>
+        <v>454.59</v>
       </c>
     </row>
     <row r="244">
@@ -8927,22 +8927,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>6043205</v>
+        <v>6043797</v>
       </c>
       <c r="E244" t="n">
-        <v>37768299</v>
+        <v>37772000</v>
       </c>
       <c r="F244" t="n">
-        <v>657.655303554338</v>
+        <v>657.6430561738599</v>
       </c>
       <c r="G244" t="n">
-        <v>1506.504290469186</v>
+        <v>1491.204474035947</v>
       </c>
       <c r="H244" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="I244" t="n">
-        <v>326878</v>
+        <v>328314</v>
       </c>
     </row>
     <row r="245">
@@ -8962,22 +8962,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>5087868</v>
+        <v>5093623</v>
       </c>
       <c r="E245" t="n">
-        <v>18946179</v>
+        <v>18967608</v>
       </c>
       <c r="F245" t="n">
-        <v>6619.873035278986</v>
+        <v>6620.057809221432</v>
       </c>
       <c r="G245" t="n">
-        <v>7394.659728059903</v>
+        <v>7394.866127853935</v>
       </c>
       <c r="H245" t="n">
         <v>0.53</v>
       </c>
       <c r="I245" t="n">
-        <v>57009</v>
+        <v>59950</v>
       </c>
     </row>
     <row r="246">
@@ -9000,19 +9000,19 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>3799961</v>
+        <v>3800058</v>
       </c>
       <c r="F246" t="n">
-        <v>146.8157797213617</v>
+        <v>146.8198776444318</v>
       </c>
       <c r="G246" t="n">
-        <v>115.3518594475222</v>
+        <v>176.7635742905942</v>
       </c>
       <c r="H246" t="n">
-        <v>1.57</v>
+        <v>1.9</v>
       </c>
       <c r="I246" t="n">
-        <v>8335.440000000001</v>
+        <v>7604.75</v>
       </c>
     </row>
     <row r="247">
@@ -9032,22 +9032,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>31496661</v>
+        <v>31474315</v>
       </c>
       <c r="E247" t="n">
-        <v>112895379</v>
+        <v>112815282</v>
       </c>
       <c r="F247" t="n">
-        <v>3397.89247185908</v>
+        <v>30.08744977701365</v>
       </c>
       <c r="G247" t="n">
-        <v>2523.820066590196</v>
+        <v>700.8270757546129</v>
       </c>
       <c r="H247" t="n">
         <v>0.35</v>
       </c>
       <c r="I247" t="n">
-        <v>90704</v>
+        <v>93610</v>
       </c>
     </row>
     <row r="248">
@@ -9070,19 +9070,19 @@
         <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>1523306</v>
+        <v>1580409</v>
       </c>
       <c r="F248" t="n">
-        <v>66.9364382578247</v>
+        <v>33.80381450319489</v>
       </c>
       <c r="G248" t="n">
-        <v>521.808578174305</v>
+        <v>40.2014914096441</v>
       </c>
       <c r="H248" t="n">
-        <v>1.94</v>
+        <v>2.53</v>
       </c>
       <c r="I248" t="n">
-        <v>611838</v>
+        <v>613473</v>
       </c>
     </row>
     <row r="249">
@@ -9102,22 +9102,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>2157515</v>
+        <v>2146255</v>
       </c>
       <c r="E249" t="n">
-        <v>16594996</v>
+        <v>16508388</v>
       </c>
       <c r="F249" t="n">
-        <v>2763.210199633805</v>
+        <v>5471.679003743428</v>
       </c>
       <c r="G249" t="n">
-        <v>4873.666337995777</v>
+        <v>5186.099124605749</v>
       </c>
       <c r="H249" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="I249" t="n">
-        <v>171056</v>
+        <v>170437</v>
       </c>
     </row>
     <row r="250">
@@ -9137,22 +9137,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>103183</v>
+        <v>103181</v>
       </c>
       <c r="E250" t="n">
-        <v>819580</v>
+        <v>819571</v>
       </c>
       <c r="F250" t="n">
-        <v>177.1743823348496</v>
+        <v>174.3205454637937</v>
       </c>
       <c r="G250" t="n">
-        <v>340.6708599747665</v>
+        <v>340.680368782192</v>
       </c>
       <c r="H250" t="n">
         <v>0.72</v>
       </c>
       <c r="I250" t="n">
-        <v>1258.69</v>
+        <v>1256.83</v>
       </c>
     </row>
     <row r="251">
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>87579488</v>
+        <v>87494632</v>
       </c>
       <c r="E251" t="n">
-        <v>323761935</v>
+        <v>323447490</v>
       </c>
       <c r="F251" t="n">
-        <v>6448.83075121692</v>
+        <v>5800.007897096844</v>
       </c>
       <c r="G251" t="n">
-        <v>6143.766094656245</v>
+        <v>1257.538804873535</v>
       </c>
       <c r="H251" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="I251" t="n">
-        <v>397396</v>
+        <v>368242</v>
       </c>
     </row>
     <row r="252">
@@ -9207,22 +9207,22 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>2447600</v>
+        <v>2449191</v>
       </c>
       <c r="E252" t="n">
-        <v>9821079</v>
+        <v>9827462</v>
       </c>
       <c r="F252" t="n">
-        <v>0</v>
+        <v>28.24630836321129</v>
       </c>
       <c r="G252" t="n">
-        <v>0</v>
+        <v>3.540032886343117</v>
       </c>
       <c r="H252" t="n">
-        <v>4.01</v>
+        <v>3.44</v>
       </c>
       <c r="I252" t="n">
-        <v>38610</v>
+        <v>38066</v>
       </c>
     </row>
     <row r="253">
@@ -9245,19 +9245,19 @@
         <v>0</v>
       </c>
       <c r="E253" t="n">
-        <v>587720</v>
+        <v>586724</v>
       </c>
       <c r="F253" t="n">
-        <v>371.7728707151445</v>
+        <v>0</v>
       </c>
       <c r="G253" t="n">
-        <v>12.82125765612102</v>
+        <v>0</v>
       </c>
       <c r="H253" t="n">
-        <v>1.32</v>
+        <v>4.7</v>
       </c>
       <c r="I253" t="n">
-        <v>30515</v>
+        <v>30430</v>
       </c>
     </row>
     <row r="254">
@@ -9276,7 +9276,7 @@
         <v>0</v>
       </c>
       <c r="E254" t="n">
-        <v>39507</v>
+        <v>38109</v>
       </c>
       <c r="F254" t="n">
         <v>0</v>
@@ -9285,10 +9285,10 @@
         <v>0</v>
       </c>
       <c r="H254" t="n">
-        <v>5.61</v>
+        <v>4.09</v>
       </c>
       <c r="I254" t="n">
-        <v>1831.86</v>
+        <v>2331.92</v>
       </c>
     </row>
     <row r="255">
@@ -9308,22 +9308,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>666446411</v>
+        <v>682546292</v>
       </c>
       <c r="E255" t="n">
-        <v>1027719208</v>
+        <v>1052546645</v>
       </c>
       <c r="F255" t="n">
-        <v>163703.4624102216</v>
+        <v>175357.8446960702</v>
       </c>
       <c r="G255" t="n">
-        <v>186237.9179789396</v>
+        <v>145463.0329815155</v>
       </c>
       <c r="H255" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="I255" t="n">
-        <v>160387742</v>
+        <v>190339315</v>
       </c>
     </row>
     <row r="256">
@@ -9343,10 +9343,10 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>5829209</v>
+        <v>5831080</v>
       </c>
       <c r="E256" t="n">
-        <v>5829209</v>
+        <v>5831080</v>
       </c>
       <c r="F256" t="n">
         <v>0</v>
@@ -9355,10 +9355,10 @@
         <v>0</v>
       </c>
       <c r="H256" t="n">
-        <v>6.08</v>
+        <v>6.42</v>
       </c>
       <c r="I256" t="n">
-        <v>457.28</v>
+        <v>460.67</v>
       </c>
     </row>
     <row r="257">
@@ -9378,22 +9378,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>40054415</v>
+        <v>40521761</v>
       </c>
       <c r="E257" t="n">
-        <v>191188087</v>
+        <v>193418825</v>
       </c>
       <c r="F257" t="n">
-        <v>2469.867918953008</v>
+        <v>4428.527896869851</v>
       </c>
       <c r="G257" t="n">
-        <v>327.1204322701683</v>
+        <v>171.5230177258485</v>
       </c>
       <c r="H257" t="n">
-        <v>0.5</v>
+        <v>0.98</v>
       </c>
       <c r="I257" t="n">
-        <v>397999</v>
+        <v>412821</v>
       </c>
     </row>
     <row r="258">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>546520</v>
+        <v>546534</v>
       </c>
       <c r="F258" t="n">
         <v>0</v>
@@ -9428,7 +9428,7 @@
         <v>5.06</v>
       </c>
       <c r="I258" t="n">
-        <v>105.62</v>
+        <v>105.4</v>
       </c>
     </row>
     <row r="259">
@@ -9448,22 +9448,22 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>23404981</v>
+        <v>23449612</v>
       </c>
       <c r="E259" t="n">
-        <v>39008301</v>
+        <v>39082686</v>
       </c>
       <c r="F259" t="n">
-        <v>15507.1085928044</v>
+        <v>15645.65814128653</v>
       </c>
       <c r="G259" t="n">
-        <v>1281.104669523693</v>
+        <v>1957.937931753132</v>
       </c>
       <c r="H259" t="n">
-        <v>0.8</v>
+        <v>0.71</v>
       </c>
       <c r="I259" t="n">
-        <v>1011312</v>
+        <v>1014413</v>
       </c>
     </row>
     <row r="260">
@@ -9486,19 +9486,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>107712</v>
+        <v>107632</v>
       </c>
       <c r="F260" t="n">
-        <v>178.533009940399</v>
+        <v>239.9430239812489</v>
       </c>
       <c r="G260" t="n">
-        <v>184.7440976992486</v>
+        <v>208.9441442112059</v>
       </c>
       <c r="H260" t="n">
-        <v>0.33</v>
+        <v>1.01</v>
       </c>
       <c r="I260" t="n">
-        <v>51499</v>
+        <v>51146</v>
       </c>
     </row>
     <row r="261">
@@ -9518,22 +9518,22 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>800805</v>
+        <v>799834</v>
       </c>
       <c r="E261" t="n">
-        <v>3421131</v>
+        <v>3416833</v>
       </c>
       <c r="F261" t="n">
-        <v>2887.115349554959</v>
+        <v>3804.654908272858</v>
       </c>
       <c r="G261" t="n">
-        <v>2494.744121454743</v>
+        <v>2494.692997639621</v>
       </c>
       <c r="H261" t="n">
         <v>0.26</v>
       </c>
       <c r="I261" t="n">
-        <v>1664.36</v>
+        <v>1511.19</v>
       </c>
     </row>
     <row r="262">
@@ -9553,22 +9553,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>3845732</v>
+        <v>3842638</v>
       </c>
       <c r="E262" t="n">
-        <v>8391337</v>
+        <v>8384586</v>
       </c>
       <c r="F262" t="n">
-        <v>1616.313565943912</v>
+        <v>1940.330663137894</v>
       </c>
       <c r="G262" t="n">
-        <v>1531.557191775647</v>
+        <v>1468.627789653572</v>
       </c>
       <c r="H262" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="I262" t="n">
-        <v>987996</v>
+        <v>1005545</v>
       </c>
     </row>
     <row r="263">
@@ -9588,22 +9588,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>483771555</v>
+        <v>487600815</v>
       </c>
       <c r="E263" t="n">
-        <v>1684822865</v>
+        <v>1698158962</v>
       </c>
       <c r="F263" t="n">
-        <v>707239.9926663538</v>
+        <v>693280.2975218578</v>
       </c>
       <c r="G263" t="n">
-        <v>466431.7791439465</v>
+        <v>531825.1437854882</v>
       </c>
       <c r="H263" t="n">
         <v>0.06</v>
       </c>
       <c r="I263" t="n">
-        <v>30848224</v>
+        <v>31063627</v>
       </c>
     </row>
     <row r="264">
@@ -9623,22 +9623,22 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>5594736514</v>
+        <v>5607759735</v>
       </c>
       <c r="E264" t="n">
-        <v>5594736514</v>
+        <v>5607759735</v>
       </c>
       <c r="F264" t="n">
-        <v>3789.645659457566</v>
+        <v>3792.05729389983</v>
       </c>
       <c r="G264" t="n">
-        <v>2022.84774487856</v>
+        <v>2768.046063571536</v>
       </c>
       <c r="H264" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="I264" t="n">
-        <v>29766056</v>
+        <v>29764531</v>
       </c>
     </row>
     <row r="265">
@@ -9658,22 +9658,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>23953857</v>
+        <v>24067749</v>
       </c>
       <c r="E265" t="n">
-        <v>23933050</v>
+        <v>24046843</v>
       </c>
       <c r="F265" t="n">
-        <v>72.69673238893472</v>
+        <v>78.53744151125127</v>
       </c>
       <c r="G265" t="n">
-        <v>939.1233105717984</v>
+        <v>590.68785448951</v>
       </c>
       <c r="H265" t="n">
-        <v>1.31</v>
+        <v>0.83</v>
       </c>
       <c r="I265" t="n">
-        <v>91494</v>
+        <v>93302</v>
       </c>
     </row>
     <row r="266">
@@ -9693,22 +9693,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>12210657</v>
+        <v>12194873</v>
       </c>
       <c r="E266" t="n">
-        <v>24742901</v>
+        <v>24709138</v>
       </c>
       <c r="F266" t="n">
-        <v>742.742404105367</v>
+        <v>742.7638574275921</v>
       </c>
       <c r="G266" t="n">
-        <v>615.3612529837931</v>
+        <v>615.378428951389</v>
       </c>
       <c r="H266" t="n">
         <v>1.48</v>
       </c>
       <c r="I266" t="n">
-        <v>18158.79</v>
+        <v>16086.02</v>
       </c>
     </row>
     <row r="267">
@@ -9731,19 +9731,19 @@
         <v>0</v>
       </c>
       <c r="E267" t="n">
-        <v>153230</v>
+        <v>150479</v>
       </c>
       <c r="F267" t="n">
-        <v>140.3984470338721</v>
+        <v>193.3868475995096</v>
       </c>
       <c r="G267" t="n">
-        <v>205.3024486730333</v>
+        <v>140.0027417337518</v>
       </c>
       <c r="H267" t="n">
-        <v>0.55</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I267" t="n">
-        <v>56794</v>
+        <v>56523</v>
       </c>
     </row>
     <row r="268">
@@ -9766,19 +9766,19 @@
         <v>0</v>
       </c>
       <c r="E268" t="n">
-        <v>48018</v>
+        <v>47937</v>
       </c>
       <c r="F268" t="n">
-        <v>50.37030230113618</v>
+        <v>50.77428127185551</v>
       </c>
       <c r="G268" t="n">
-        <v>76.25949263491756</v>
+        <v>87.91858403784505</v>
       </c>
       <c r="H268" t="n">
         <v>3.06</v>
       </c>
       <c r="I268" t="n">
-        <v>70995</v>
+        <v>70873</v>
       </c>
     </row>
     <row r="269">
@@ -9798,22 +9798,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>2647699</v>
+        <v>2655841</v>
       </c>
       <c r="E269" t="n">
-        <v>10590797</v>
+        <v>10623365</v>
       </c>
       <c r="F269" t="n">
-        <v>43275.10378647437</v>
+        <v>39850.42464577871</v>
       </c>
       <c r="G269" t="n">
-        <v>50667.14031447165</v>
+        <v>55308.24503104443</v>
       </c>
       <c r="H269" t="n">
-        <v>0.57</v>
+        <v>0.38</v>
       </c>
       <c r="I269" t="n">
-        <v>4930649</v>
+        <v>4951460</v>
       </c>
     </row>
     <row r="270">
@@ -9833,22 +9833,22 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>212146489</v>
+        <v>213060929</v>
       </c>
       <c r="E270" t="n">
-        <v>652270617</v>
+        <v>655082177</v>
       </c>
       <c r="F270" t="n">
-        <v>237861.9885737183</v>
+        <v>303786.859578519</v>
       </c>
       <c r="G270" t="n">
-        <v>178577.3234677154</v>
+        <v>168175.0206990117</v>
       </c>
       <c r="H270" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I270" t="n">
-        <v>11169938</v>
+        <v>11150790</v>
       </c>
     </row>
     <row r="271">
@@ -9868,22 +9868,22 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>148008090</v>
+        <v>151153086</v>
       </c>
       <c r="E271" t="n">
-        <v>386667031</v>
+        <v>394883246</v>
       </c>
       <c r="F271" t="n">
-        <v>41437.42915925029</v>
+        <v>57698.77187863734</v>
       </c>
       <c r="G271" t="n">
-        <v>36149.21956619701</v>
+        <v>48283.69872334594</v>
       </c>
       <c r="H271" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="I271" t="n">
-        <v>7093048</v>
+        <v>7057467</v>
       </c>
     </row>
     <row r="272">
@@ -9903,22 +9903,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>2358684</v>
+        <v>2375530</v>
       </c>
       <c r="E272" t="n">
-        <v>3237028</v>
+        <v>3260148</v>
       </c>
       <c r="F272" t="n">
-        <v>6.914326500446353</v>
+        <v>48.72599836234985</v>
       </c>
       <c r="G272" t="n">
-        <v>176.3706856986373</v>
+        <v>85.11385957821396</v>
       </c>
       <c r="H272" t="n">
-        <v>1.97</v>
+        <v>1.75</v>
       </c>
       <c r="I272" t="n">
-        <v>184883</v>
+        <v>188554</v>
       </c>
     </row>
   </sheetData>

--- a/GateioData20250220.xlsx
+++ b/GateioData20250220.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>54622</v>
+        <v>56710</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>74.14181754945321</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1.200122767928271</v>
       </c>
       <c r="H2" t="n">
-        <v>7.41</v>
+        <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>2125.19</v>
+        <v>2195.9</v>
       </c>
     </row>
     <row r="3">
@@ -535,19 +535,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>91009</v>
+        <v>91588</v>
       </c>
       <c r="F3" t="n">
-        <v>9.578818461249369</v>
+        <v>9.578737600120313</v>
       </c>
       <c r="G3" t="n">
-        <v>445.9572368161039</v>
+        <v>445.9534721967174</v>
       </c>
       <c r="H3" t="n">
         <v>3.06</v>
       </c>
       <c r="I3" t="n">
-        <v>1227.65</v>
+        <v>1002.66</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>612281908</v>
+        <v>604417628</v>
       </c>
       <c r="E4" t="n">
-        <v>1187976556</v>
+        <v>1172738221</v>
       </c>
       <c r="F4" t="n">
-        <v>44144.69621528867</v>
+        <v>51395.10613626516</v>
       </c>
       <c r="G4" t="n">
-        <v>52920.01789962241</v>
+        <v>43587.70670041502</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>22658640</v>
+        <v>22069659</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1360892</v>
+        <v>1335791</v>
       </c>
       <c r="E5" t="n">
-        <v>4398962</v>
+        <v>4317824</v>
       </c>
       <c r="F5" t="n">
-        <v>4663.706289067132</v>
+        <v>4281.107472116388</v>
       </c>
       <c r="G5" t="n">
-        <v>4305.257612927026</v>
+        <v>4001.964576078998</v>
       </c>
       <c r="H5" t="n">
-        <v>0.45</v>
+        <v>1.15</v>
       </c>
       <c r="I5" t="n">
-        <v>76392</v>
+        <v>71256</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>141395497</v>
+        <v>138943050</v>
       </c>
       <c r="E6" t="n">
-        <v>156688795</v>
+        <v>153971092</v>
       </c>
       <c r="F6" t="n">
-        <v>184617.075811228</v>
+        <v>208021.4354523461</v>
       </c>
       <c r="G6" t="n">
-        <v>391864.4736033067</v>
+        <v>393260.2960783866</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>31936401</v>
+        <v>31929337</v>
       </c>
     </row>
     <row r="7">
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>4205.26</v>
+        <v>4204.44</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>9.09</v>
       </c>
       <c r="I7" t="n">
-        <v>1573.89</v>
+        <v>1573.56</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8796760</v>
+        <v>8674919</v>
       </c>
       <c r="E8" t="n">
-        <v>9018582</v>
+        <v>8893668</v>
       </c>
       <c r="F8" t="n">
-        <v>1252.47694819656</v>
+        <v>101.6755592786157</v>
       </c>
       <c r="G8" t="n">
-        <v>10.68842603634725</v>
+        <v>669.4814832440495</v>
       </c>
       <c r="H8" t="n">
-        <v>1.73</v>
+        <v>2.25</v>
       </c>
       <c r="I8" t="n">
-        <v>69075</v>
+        <v>62538</v>
       </c>
     </row>
     <row r="9">
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>285514</v>
+        <v>286279</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -754,10 +754,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>4.91</v>
+        <v>5.43</v>
       </c>
       <c r="I9" t="n">
-        <v>25.72</v>
+        <v>54.93</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5260897</v>
+        <v>5248475</v>
       </c>
       <c r="E10" t="n">
-        <v>8405333</v>
+        <v>8385486</v>
       </c>
       <c r="F10" t="n">
-        <v>253.3643776243431</v>
+        <v>239.0634634786938</v>
       </c>
       <c r="G10" t="n">
-        <v>430.5324561189069</v>
+        <v>370.5165076586881</v>
       </c>
       <c r="H10" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="I10" t="n">
-        <v>105980</v>
+        <v>106179</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>999102</v>
+        <v>998902</v>
       </c>
       <c r="E11" t="n">
-        <v>12226317</v>
+        <v>12223861</v>
       </c>
       <c r="F11" t="n">
-        <v>1226.337520626623</v>
+        <v>1226.37113040522</v>
       </c>
       <c r="G11" t="n">
-        <v>1687.537229761818</v>
+        <v>1684.769409989176</v>
       </c>
       <c r="H11" t="n">
         <v>0.49</v>
       </c>
       <c r="I11" t="n">
-        <v>2091.18</v>
+        <v>2090.86</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>575818</v>
+        <v>572760</v>
       </c>
       <c r="E12" t="n">
-        <v>575818</v>
+        <v>572760</v>
       </c>
       <c r="F12" t="n">
-        <v>72.58183640995183</v>
+        <v>578.753785579697</v>
       </c>
       <c r="G12" t="n">
-        <v>462.7757526823626</v>
+        <v>111.9209542560149</v>
       </c>
       <c r="H12" t="n">
-        <v>1.3</v>
+        <v>0.12</v>
       </c>
       <c r="I12" t="n">
-        <v>24479</v>
+        <v>23813</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4707764</v>
+        <v>4796770</v>
       </c>
       <c r="E13" t="n">
-        <v>28917253</v>
+        <v>29463972</v>
       </c>
       <c r="F13" t="n">
-        <v>833.9779122621439</v>
+        <v>841.1274297824974</v>
       </c>
       <c r="G13" t="n">
-        <v>833.3740090174146</v>
+        <v>864.4085712306974</v>
       </c>
       <c r="H13" t="n">
-        <v>0.59</v>
+        <v>0.31</v>
       </c>
       <c r="I13" t="n">
-        <v>481941</v>
+        <v>482187</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>197981</v>
+        <v>198766</v>
       </c>
       <c r="E14" t="n">
-        <v>2178014</v>
+        <v>2186647</v>
       </c>
       <c r="F14" t="n">
-        <v>213.7517625639985</v>
+        <v>258.6419627590266</v>
       </c>
       <c r="G14" t="n">
-        <v>392.25766020621</v>
+        <v>1240.134750077618</v>
       </c>
       <c r="H14" t="n">
-        <v>2.27</v>
+        <v>1.82</v>
       </c>
       <c r="I14" t="n">
-        <v>46706</v>
+        <v>43857</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3361111</v>
+        <v>3346401</v>
       </c>
       <c r="E15" t="n">
-        <v>9562064</v>
+        <v>9520216</v>
       </c>
       <c r="F15" t="n">
-        <v>724.7614940911656</v>
+        <v>717.8139370719196</v>
       </c>
       <c r="G15" t="n">
-        <v>369.3025458299762</v>
+        <v>456.5239635897167</v>
       </c>
       <c r="H15" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="I15" t="n">
-        <v>235538</v>
+        <v>233670</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>315656</v>
+        <v>314060</v>
       </c>
       <c r="E16" t="n">
-        <v>3643383</v>
+        <v>3624963</v>
       </c>
       <c r="F16" t="n">
-        <v>162.751138003098</v>
+        <v>131.9694030317551</v>
       </c>
       <c r="G16" t="n">
-        <v>131.5579289504754</v>
+        <v>129.8130710022664</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I16" t="n">
-        <v>3165.57</v>
+        <v>3267.57</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>927691</v>
+        <v>927679</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>12.99846744802024</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>29.32761453317379</v>
       </c>
       <c r="H17" t="n">
-        <v>4.85</v>
+        <v>3.56</v>
       </c>
       <c r="I17" t="n">
-        <v>12546.65</v>
+        <v>11921.13</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>22657422</v>
+        <v>22673060</v>
       </c>
       <c r="E18" t="n">
-        <v>22699844</v>
+        <v>22715512</v>
       </c>
       <c r="F18" t="n">
-        <v>989.2578545411518</v>
+        <v>891.4054668614039</v>
       </c>
       <c r="G18" t="n">
-        <v>3374.05209813925</v>
+        <v>1683.246344495442</v>
       </c>
       <c r="H18" t="n">
         <v>0.42</v>
       </c>
       <c r="I18" t="n">
-        <v>844646</v>
+        <v>847182</v>
       </c>
     </row>
     <row r="19">
@@ -1095,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>6540091</v>
+        <v>6527688</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>156.7807727520197</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>15.001808020005</v>
       </c>
       <c r="H19" t="n">
-        <v>4.98</v>
+        <v>0.43</v>
       </c>
       <c r="I19" t="n">
-        <v>26195</v>
+        <v>26719</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2471166</v>
+        <v>2466284</v>
       </c>
       <c r="E20" t="n">
-        <v>2471166</v>
+        <v>2466284</v>
       </c>
       <c r="F20" t="n">
-        <v>33.6071822994622</v>
+        <v>12.93631558493373</v>
       </c>
       <c r="G20" t="n">
-        <v>302.060430989766</v>
+        <v>98.50464326216009</v>
       </c>
       <c r="H20" t="n">
         <v>1.21</v>
       </c>
       <c r="I20" t="n">
-        <v>284684</v>
+        <v>292259</v>
       </c>
     </row>
     <row r="21">
@@ -1165,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>408164</v>
+        <v>408075</v>
       </c>
       <c r="F21" t="n">
-        <v>133.8636385443568</v>
+        <v>192.4890431911574</v>
       </c>
       <c r="G21" t="n">
-        <v>154.3224290244565</v>
+        <v>154.3211262869737</v>
       </c>
       <c r="H21" t="n">
-        <v>1.21</v>
+        <v>1.45</v>
       </c>
       <c r="I21" t="n">
-        <v>2033.41</v>
+        <v>1822.73</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>19683651</v>
+        <v>19473249</v>
       </c>
       <c r="E22" t="n">
-        <v>25334470</v>
+        <v>25063667</v>
       </c>
       <c r="F22" t="n">
-        <v>2297.061820661154</v>
+        <v>1670.652354330812</v>
       </c>
       <c r="G22" t="n">
-        <v>3582.204938783734</v>
+        <v>5208.691505515359</v>
       </c>
       <c r="H22" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="I22" t="n">
-        <v>2203327</v>
+        <v>2204186</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>471367118</v>
+        <v>459133012</v>
       </c>
       <c r="E23" t="n">
-        <v>471367118</v>
+        <v>459133010</v>
       </c>
       <c r="F23" t="n">
-        <v>75791.44303973374</v>
+        <v>83172.96691691961</v>
       </c>
       <c r="G23" t="n">
-        <v>104412.9970902689</v>
+        <v>106734.0146712455</v>
       </c>
       <c r="H23" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I23" t="n">
-        <v>55557796</v>
+        <v>56093206</v>
       </c>
     </row>
     <row r="24">
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>19579.05</v>
+        <v>19817.35</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1279,10 +1279,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>5.17</v>
+        <v>6.17</v>
       </c>
       <c r="I24" t="n">
-        <v>1668.84</v>
+        <v>1783.2</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4721017</v>
+        <v>4672687</v>
       </c>
       <c r="E25" t="n">
-        <v>4721017</v>
+        <v>4672687</v>
       </c>
       <c r="F25" t="n">
-        <v>676.0865373907989</v>
+        <v>886.2336307912353</v>
       </c>
       <c r="G25" t="n">
-        <v>1411.910492993195</v>
+        <v>1077.503986535051</v>
       </c>
       <c r="H25" t="n">
-        <v>0.11</v>
+        <v>0.47</v>
       </c>
       <c r="I25" t="n">
-        <v>1943579</v>
+        <v>1295382</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3408191</v>
+        <v>3321599</v>
       </c>
       <c r="E26" t="n">
-        <v>3408191</v>
+        <v>3321599</v>
       </c>
       <c r="F26" t="n">
-        <v>1250.313198225157</v>
+        <v>974.4492458730967</v>
       </c>
       <c r="G26" t="n">
-        <v>109.5728912803356</v>
+        <v>74.94442106558847</v>
       </c>
       <c r="H26" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="I26" t="n">
-        <v>500123</v>
+        <v>496236</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>303950</v>
+        <v>310880</v>
       </c>
       <c r="E27" t="n">
-        <v>1418868</v>
+        <v>1451220</v>
       </c>
       <c r="F27" t="n">
-        <v>3287.73662273267</v>
+        <v>2772.196132093996</v>
       </c>
       <c r="G27" t="n">
-        <v>356.0339843600871</v>
+        <v>346.6662862718454</v>
       </c>
       <c r="H27" t="n">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="I27" t="n">
-        <v>599482</v>
+        <v>610728</v>
       </c>
     </row>
     <row r="28">
@@ -1410,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1547097</v>
+        <v>1554344</v>
       </c>
       <c r="F28" t="n">
-        <v>498.9237237073974</v>
+        <v>612.033820170372</v>
       </c>
       <c r="G28" t="n">
-        <v>195.4883721403223</v>
+        <v>589.7902760850507</v>
       </c>
       <c r="H28" t="n">
-        <v>0.77</v>
+        <v>0.13</v>
       </c>
       <c r="I28" t="n">
-        <v>168176</v>
+        <v>174199</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>12512195</v>
+        <v>12673443</v>
       </c>
       <c r="E29" t="n">
-        <v>32890972</v>
+        <v>32586728</v>
       </c>
       <c r="F29" t="n">
-        <v>1050.485397602434</v>
+        <v>1031.632834253513</v>
       </c>
       <c r="G29" t="n">
-        <v>1161.538365713682</v>
+        <v>1410.159728729315</v>
       </c>
       <c r="H29" t="n">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="I29" t="n">
-        <v>1615620</v>
+        <v>1568476</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>920556</v>
+        <v>912807</v>
       </c>
       <c r="E30" t="n">
-        <v>6443895</v>
+        <v>6389647</v>
       </c>
       <c r="F30" t="n">
-        <v>448.3567825212472</v>
+        <v>674.1186917193752</v>
       </c>
       <c r="G30" t="n">
-        <v>286.4716195880281</v>
+        <v>122.0225559879802</v>
       </c>
       <c r="H30" t="n">
-        <v>2.29</v>
+        <v>1.89</v>
       </c>
       <c r="I30" t="n">
-        <v>534327</v>
+        <v>511377</v>
       </c>
     </row>
     <row r="31">
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>183011</v>
+        <v>178649</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         <v>8.85</v>
       </c>
       <c r="I31" t="n">
-        <v>12434.53</v>
+        <v>9079.77</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5543386</v>
+        <v>5532177</v>
       </c>
       <c r="E32" t="n">
-        <v>5808582</v>
+        <v>5796836</v>
       </c>
       <c r="F32" t="n">
-        <v>87.81994476579305</v>
+        <v>25.64584259642252</v>
       </c>
       <c r="G32" t="n">
-        <v>495.3969950187291</v>
+        <v>50.76581575847766</v>
       </c>
       <c r="H32" t="n">
-        <v>1.08</v>
+        <v>2.89</v>
       </c>
       <c r="I32" t="n">
-        <v>158473</v>
+        <v>152079</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>5308691</v>
+        <v>5262558</v>
       </c>
       <c r="E33" t="n">
-        <v>7814681</v>
+        <v>7746771</v>
       </c>
       <c r="F33" t="n">
-        <v>325.0700382792297</v>
+        <v>587.9092759509975</v>
       </c>
       <c r="G33" t="n">
-        <v>281.0139213197923</v>
+        <v>143.6838886787856</v>
       </c>
       <c r="H33" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="I33" t="n">
-        <v>544941</v>
+        <v>558760</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7701421</v>
+        <v>7658476</v>
       </c>
       <c r="E34" t="n">
-        <v>7701421</v>
+        <v>7658476</v>
       </c>
       <c r="F34" t="n">
-        <v>31445.90977226002</v>
+        <v>32274.76852084223</v>
       </c>
       <c r="G34" t="n">
-        <v>32712.33942610776</v>
+        <v>33088.82325531048</v>
       </c>
       <c r="H34" t="n">
-        <v>1.12</v>
+        <v>0.9</v>
       </c>
       <c r="I34" t="n">
-        <v>257478</v>
+        <v>217258</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1487657</v>
+        <v>1477012</v>
       </c>
       <c r="E35" t="n">
-        <v>1487699</v>
+        <v>1477057</v>
       </c>
       <c r="F35" t="n">
-        <v>147.3246564342575</v>
+        <v>221.6182654129054</v>
       </c>
       <c r="G35" t="n">
-        <v>69.91324367938225</v>
+        <v>186.8552315380558</v>
       </c>
       <c r="H35" t="n">
-        <v>3.08</v>
+        <v>1.64</v>
       </c>
       <c r="I35" t="n">
-        <v>273710</v>
+        <v>273936</v>
       </c>
     </row>
     <row r="36">
@@ -1690,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>16545122</v>
+        <v>16506558</v>
       </c>
       <c r="F36" t="n">
-        <v>250.0878094936595</v>
+        <v>294.8090827818858</v>
       </c>
       <c r="G36" t="n">
-        <v>170.8205098927335</v>
+        <v>170.598598779402</v>
       </c>
       <c r="H36" t="n">
         <v>0.7</v>
       </c>
       <c r="I36" t="n">
-        <v>11271.11</v>
+        <v>11821.07</v>
       </c>
     </row>
     <row r="37">
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>61029</v>
+        <v>61016</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>8.51</v>
       </c>
       <c r="I37" t="n">
-        <v>377.2</v>
+        <v>310.86</v>
       </c>
     </row>
     <row r="38">
@@ -1753,22 +1753,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>135421734</v>
+        <v>133066048</v>
       </c>
       <c r="E38" t="n">
-        <v>135421734</v>
+        <v>133066048</v>
       </c>
       <c r="F38" t="n">
-        <v>303222.2793243154</v>
+        <v>259943.9858784497</v>
       </c>
       <c r="G38" t="n">
-        <v>352368.9540940776</v>
+        <v>390059.1055235555</v>
       </c>
       <c r="H38" t="n">
         <v>0.05</v>
       </c>
       <c r="I38" t="n">
-        <v>67094239</v>
+        <v>63212317</v>
       </c>
     </row>
     <row r="39">
@@ -1788,22 +1788,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>65162074</v>
+        <v>63493172</v>
       </c>
       <c r="E39" t="n">
-        <v>334164483</v>
+        <v>325606008</v>
       </c>
       <c r="F39" t="n">
-        <v>79657.31981514892</v>
+        <v>86754.23137965397</v>
       </c>
       <c r="G39" t="n">
-        <v>113765.3380950713</v>
+        <v>88509.0228499362</v>
       </c>
       <c r="H39" t="n">
         <v>0.06</v>
       </c>
       <c r="I39" t="n">
-        <v>16971452</v>
+        <v>16787396</v>
       </c>
     </row>
     <row r="40">
@@ -1823,10 +1823,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>42394</v>
+        <v>42391</v>
       </c>
       <c r="E40" t="n">
-        <v>125281</v>
+        <v>125273</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -1835,10 +1835,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>7.26</v>
+        <v>4.94</v>
       </c>
       <c r="I40" t="n">
-        <v>732.98</v>
+        <v>732.83</v>
       </c>
     </row>
     <row r="41">
@@ -1861,19 +1861,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>47139</v>
+        <v>46709</v>
       </c>
       <c r="F41" t="n">
-        <v>261.7540868855612</v>
+        <v>258.8336124712712</v>
       </c>
       <c r="G41" t="n">
-        <v>6.88230781136303</v>
+        <v>6.443546393531949</v>
       </c>
       <c r="H41" t="n">
         <v>0.12</v>
       </c>
       <c r="I41" t="n">
-        <v>24381</v>
+        <v>23942</v>
       </c>
     </row>
     <row r="42">
@@ -1896,19 +1896,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>593013</v>
+        <v>592909</v>
       </c>
       <c r="F42" t="n">
-        <v>423.0666524686474</v>
+        <v>1225.551950389501</v>
       </c>
       <c r="G42" t="n">
-        <v>419.7861200560995</v>
+        <v>421.4731972999281</v>
       </c>
       <c r="H42" t="n">
-        <v>1.41</v>
+        <v>0.71</v>
       </c>
       <c r="I42" t="n">
-        <v>436.25</v>
+        <v>436.12</v>
       </c>
     </row>
     <row r="43">
@@ -1961,22 +1961,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2759933</v>
+        <v>2751913</v>
       </c>
       <c r="E44" t="n">
-        <v>11091543</v>
+        <v>11059311</v>
       </c>
       <c r="F44" t="n">
-        <v>60.05383104233618</v>
+        <v>29.91096692756485</v>
       </c>
       <c r="G44" t="n">
-        <v>160.7287649789692</v>
+        <v>205.9531456423878</v>
       </c>
       <c r="H44" t="n">
-        <v>2.63</v>
+        <v>0.89</v>
       </c>
       <c r="I44" t="n">
-        <v>27977</v>
+        <v>27087</v>
       </c>
     </row>
     <row r="45">
@@ -1996,22 +1996,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>17445294</v>
+        <v>17522452</v>
       </c>
       <c r="E45" t="n">
-        <v>123042531</v>
+        <v>123582285</v>
       </c>
       <c r="F45" t="n">
-        <v>35.52126924773885</v>
+        <v>228.7321826240555</v>
       </c>
       <c r="G45" t="n">
-        <v>291.83588756466</v>
+        <v>271.7684835697182</v>
       </c>
       <c r="H45" t="n">
-        <v>0.65</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I45" t="n">
-        <v>947405</v>
+        <v>1013944</v>
       </c>
     </row>
     <row r="46">
@@ -2031,10 +2031,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>149056</v>
+        <v>146916</v>
       </c>
       <c r="E46" t="n">
-        <v>1994454</v>
+        <v>1965825</v>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>47171</v>
+        <v>46037</v>
       </c>
     </row>
     <row r="47">
@@ -2064,22 +2064,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>254851429</v>
+        <v>249826839</v>
       </c>
       <c r="E47" t="n">
-        <v>254851429</v>
+        <v>249826839</v>
       </c>
       <c r="F47" t="n">
-        <v>111531.4710316789</v>
+        <v>124127.5765003509</v>
       </c>
       <c r="G47" t="n">
-        <v>139080.0038487509</v>
+        <v>151181.487969341</v>
       </c>
       <c r="H47" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I47" t="n">
-        <v>14362084</v>
+        <v>14584699</v>
       </c>
     </row>
     <row r="48">
@@ -2099,22 +2099,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>633378</v>
+        <v>637267</v>
       </c>
       <c r="E48" t="n">
-        <v>633378</v>
+        <v>637267</v>
       </c>
       <c r="F48" t="n">
-        <v>73.30129926975761</v>
+        <v>60.00480223523564</v>
       </c>
       <c r="G48" t="n">
-        <v>470.1728183086112</v>
+        <v>191.0572688896607</v>
       </c>
       <c r="H48" t="n">
-        <v>1.35</v>
+        <v>2.8</v>
       </c>
       <c r="I48" t="n">
-        <v>798.7</v>
+        <v>3271.07</v>
       </c>
     </row>
     <row r="49">
@@ -2167,22 +2167,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>447034302</v>
+        <v>436222095</v>
       </c>
       <c r="E50" t="n">
-        <v>447034302</v>
+        <v>436213381</v>
       </c>
       <c r="F50" t="n">
-        <v>6680.659939194252</v>
+        <v>4258.95398739471</v>
       </c>
       <c r="G50" t="n">
-        <v>3361.985255583067</v>
+        <v>1747.144821885364</v>
       </c>
       <c r="H50" t="n">
-        <v>0.11</v>
+        <v>0.3</v>
       </c>
       <c r="I50" t="n">
-        <v>2728834</v>
+        <v>2816464</v>
       </c>
     </row>
     <row r="51">
@@ -2202,22 +2202,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2562204</v>
+        <v>2427592</v>
       </c>
       <c r="E51" t="n">
-        <v>2562204</v>
+        <v>2427592</v>
       </c>
       <c r="F51" t="n">
-        <v>300.6205357470384</v>
+        <v>298.6632598452319</v>
       </c>
       <c r="G51" t="n">
-        <v>1648.426088684036</v>
+        <v>1627.075096546986</v>
       </c>
       <c r="H51" t="n">
-        <v>2.62</v>
+        <v>2.29</v>
       </c>
       <c r="I51" t="n">
-        <v>111214</v>
+        <v>62372</v>
       </c>
     </row>
     <row r="52">
@@ -2237,10 +2237,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>21569</v>
+        <v>21271</v>
       </c>
       <c r="E52" t="n">
-        <v>43138</v>
+        <v>42542</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -2249,10 +2249,10 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>12.96</v>
+        <v>11.52</v>
       </c>
       <c r="I52" t="n">
-        <v>4683.29</v>
+        <v>4705.87</v>
       </c>
     </row>
     <row r="53">
@@ -2275,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>151183</v>
+        <v>148644</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>4.92</v>
+        <v>4.13</v>
       </c>
       <c r="I53" t="n">
-        <v>23391</v>
+        <v>23458</v>
       </c>
     </row>
     <row r="54">
@@ -2307,22 +2307,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2539764</v>
+        <v>2536926</v>
       </c>
       <c r="E54" t="n">
-        <v>6493126</v>
+        <v>6485872</v>
       </c>
       <c r="F54" t="n">
-        <v>193.8984948240121</v>
+        <v>224.5391365046954</v>
       </c>
       <c r="G54" t="n">
-        <v>331.2613611518684</v>
+        <v>256.9533076906543</v>
       </c>
       <c r="H54" t="n">
-        <v>1.22</v>
+        <v>1.95</v>
       </c>
       <c r="I54" t="n">
-        <v>87624</v>
+        <v>121338</v>
       </c>
     </row>
     <row r="55">
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>3822.62</v>
+        <v>3821.23</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>6.22</v>
       </c>
       <c r="I55" t="n">
-        <v>1629.68</v>
+        <v>1629.31</v>
       </c>
     </row>
     <row r="56">
@@ -2377,22 +2377,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>75273704</v>
+        <v>72861291</v>
       </c>
       <c r="E56" t="n">
-        <v>75273704</v>
+        <v>72861291</v>
       </c>
       <c r="F56" t="n">
-        <v>10285.99366601111</v>
+        <v>6862.737415407134</v>
       </c>
       <c r="G56" t="n">
-        <v>20228.34694762788</v>
+        <v>11917.99093319596</v>
       </c>
       <c r="H56" t="n">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="I56" t="n">
-        <v>4596636</v>
+        <v>4537208</v>
       </c>
     </row>
     <row r="57">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3414066</v>
+        <v>3619139</v>
       </c>
       <c r="E57" t="n">
-        <v>4326217</v>
+        <v>4586082</v>
       </c>
       <c r="F57" t="n">
-        <v>89.25791096156053</v>
+        <v>1084.613212787947</v>
       </c>
       <c r="G57" t="n">
-        <v>168.1313484173922</v>
+        <v>262.3776623875042</v>
       </c>
       <c r="H57" t="n">
-        <v>1.08</v>
+        <v>0.41</v>
       </c>
       <c r="I57" t="n">
-        <v>250480</v>
+        <v>271194</v>
       </c>
     </row>
     <row r="58">
@@ -2447,22 +2447,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>4412606</v>
+        <v>4306616</v>
       </c>
       <c r="E58" t="n">
-        <v>8702030</v>
+        <v>8493010</v>
       </c>
       <c r="F58" t="n">
-        <v>2627.68323795335</v>
+        <v>2639.709185481698</v>
       </c>
       <c r="G58" t="n">
-        <v>2488.291551413563</v>
+        <v>2311.431275405527</v>
       </c>
       <c r="H58" t="n">
-        <v>0.09</v>
+        <v>0.47</v>
       </c>
       <c r="I58" t="n">
-        <v>1689712</v>
+        <v>1674695</v>
       </c>
     </row>
     <row r="59">
@@ -2482,22 +2482,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1581589</v>
+        <v>1578898</v>
       </c>
       <c r="E59" t="n">
-        <v>9080896</v>
+        <v>9065442</v>
       </c>
       <c r="F59" t="n">
-        <v>298.9551416142572</v>
+        <v>367.7658270087892</v>
       </c>
       <c r="G59" t="n">
-        <v>359.6461851004826</v>
+        <v>446.8735810872438</v>
       </c>
       <c r="H59" t="n">
-        <v>0.82</v>
+        <v>0.49</v>
       </c>
       <c r="I59" t="n">
-        <v>324206</v>
+        <v>327611</v>
       </c>
     </row>
     <row r="60">
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>543684</v>
+        <v>574214</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>17.54</v>
       </c>
       <c r="I60" t="n">
-        <v>2321.07</v>
+        <v>2364.65</v>
       </c>
     </row>
     <row r="61">
@@ -2555,19 +2555,19 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>32170565</v>
+        <v>32184086</v>
       </c>
       <c r="F61" t="n">
-        <v>458.5017435135172</v>
+        <v>488.7340091101788</v>
       </c>
       <c r="G61" t="n">
-        <v>1817.667120997977</v>
+        <v>1566.644085114828</v>
       </c>
       <c r="H61" t="n">
-        <v>0.28</v>
+        <v>0.14</v>
       </c>
       <c r="I61" t="n">
-        <v>249467</v>
+        <v>249462</v>
       </c>
     </row>
     <row r="62">
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>1426267</v>
+        <v>1421853</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>5.93</v>
+        <v>12.88</v>
       </c>
       <c r="I62" t="n">
-        <v>28398</v>
+        <v>28518</v>
       </c>
     </row>
     <row r="63">
@@ -2622,22 +2622,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>7548791</v>
+        <v>7553119</v>
       </c>
       <c r="E63" t="n">
-        <v>17778904</v>
+        <v>17789098</v>
       </c>
       <c r="F63" t="n">
-        <v>1089.758273603457</v>
+        <v>1170.787433147264</v>
       </c>
       <c r="G63" t="n">
-        <v>1850.700995452045</v>
+        <v>1829.472024638182</v>
       </c>
       <c r="H63" t="n">
-        <v>1.82</v>
+        <v>1.53</v>
       </c>
       <c r="I63" t="n">
-        <v>28131</v>
+        <v>28160</v>
       </c>
     </row>
     <row r="64">
@@ -2657,22 +2657,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2943844</v>
+        <v>2929739</v>
       </c>
       <c r="E64" t="n">
-        <v>2943844</v>
+        <v>2929739</v>
       </c>
       <c r="F64" t="n">
-        <v>3.412376479429729</v>
+        <v>176.5630253138556</v>
       </c>
       <c r="G64" t="n">
-        <v>946.1400234385371</v>
+        <v>19.87386741691382</v>
       </c>
       <c r="H64" t="n">
-        <v>2.01</v>
+        <v>2.13</v>
       </c>
       <c r="I64" t="n">
-        <v>10555.74</v>
+        <v>10709.82</v>
       </c>
     </row>
     <row r="65">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3380160</v>
+        <v>3368532</v>
       </c>
       <c r="E65" t="n">
-        <v>8340373</v>
+        <v>8311681</v>
       </c>
       <c r="F65" t="n">
-        <v>588.3187755694927</v>
+        <v>788.2805264874263</v>
       </c>
       <c r="G65" t="n">
-        <v>1024.563322385783</v>
+        <v>967.6301402007505</v>
       </c>
       <c r="H65" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="I65" t="n">
-        <v>100323</v>
+        <v>100368</v>
       </c>
     </row>
     <row r="66">
@@ -2730,19 +2730,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>272156</v>
+        <v>269910</v>
       </c>
       <c r="F66" t="n">
-        <v>35.17021535783078</v>
+        <v>35.16991846282912</v>
       </c>
       <c r="G66" t="n">
-        <v>103.9989549621797</v>
+        <v>103.9980770383572</v>
       </c>
       <c r="H66" t="n">
         <v>3.33</v>
       </c>
       <c r="I66" t="n">
-        <v>2666.73</v>
+        <v>2478.99</v>
       </c>
     </row>
     <row r="67">
@@ -2762,22 +2762,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>73026766</v>
+        <v>71142571</v>
       </c>
       <c r="E67" t="n">
-        <v>152297892</v>
+        <v>148368389</v>
       </c>
       <c r="F67" t="n">
-        <v>57506.21846679237</v>
+        <v>78879.53418659697</v>
       </c>
       <c r="G67" t="n">
-        <v>67699.24442113245</v>
+        <v>86640.44767908934</v>
       </c>
       <c r="H67" t="n">
         <v>0.1</v>
       </c>
       <c r="I67" t="n">
-        <v>13982734</v>
+        <v>13510372</v>
       </c>
     </row>
     <row r="68">
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>2010806</v>
+        <v>2090077</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>6.1</v>
+        <v>5.66</v>
       </c>
       <c r="I68" t="n">
-        <v>4042.76</v>
+        <v>4020.41</v>
       </c>
     </row>
     <row r="69">
@@ -2835,19 +2835,19 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>203622534</v>
+        <v>200957364</v>
       </c>
       <c r="F69" t="n">
-        <v>4827.652690040721</v>
+        <v>7201.803172426785</v>
       </c>
       <c r="G69" t="n">
-        <v>3214.691060420431</v>
+        <v>3766.728086766042</v>
       </c>
       <c r="H69" t="n">
-        <v>0.53</v>
+        <v>0.44</v>
       </c>
       <c r="I69" t="n">
-        <v>4256450</v>
+        <v>4183482</v>
       </c>
     </row>
     <row r="70">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>190493</v>
+        <v>196650</v>
       </c>
       <c r="E70" t="n">
-        <v>198929</v>
+        <v>205359</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>12.16</v>
       </c>
       <c r="I70" t="n">
-        <v>609.51</v>
+        <v>611.77</v>
       </c>
     </row>
     <row r="71">
@@ -2902,22 +2902,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>144733634</v>
+        <v>143028771</v>
       </c>
       <c r="E71" t="n">
-        <v>144773917</v>
+        <v>143069219</v>
       </c>
       <c r="F71" t="n">
-        <v>32685.02344178172</v>
+        <v>35381.7831318555</v>
       </c>
       <c r="G71" t="n">
-        <v>47232.87175157298</v>
+        <v>39461.14690221348</v>
       </c>
       <c r="H71" t="n">
-        <v>0.35</v>
+        <v>0.27</v>
       </c>
       <c r="I71" t="n">
-        <v>3120364</v>
+        <v>2927740</v>
       </c>
     </row>
     <row r="72">
@@ -2937,22 +2937,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>26058784</v>
+        <v>25970960</v>
       </c>
       <c r="E72" t="n">
-        <v>85519947</v>
+        <v>85231726</v>
       </c>
       <c r="F72" t="n">
-        <v>20934.66458433321</v>
+        <v>20793.12070044309</v>
       </c>
       <c r="G72" t="n">
-        <v>32060.07919702734</v>
+        <v>32234.73646714171</v>
       </c>
       <c r="H72" t="n">
-        <v>0.58</v>
+        <v>0.47</v>
       </c>
       <c r="I72" t="n">
-        <v>111751</v>
+        <v>72301</v>
       </c>
     </row>
     <row r="73">
@@ -2972,10 +2972,10 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>110421</v>
+        <v>110124</v>
       </c>
       <c r="E73" t="n">
-        <v>110421</v>
+        <v>110124</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -2987,7 +2987,7 @@
         <v>4.49</v>
       </c>
       <c r="I73" t="n">
-        <v>127.09</v>
+        <v>132.91</v>
       </c>
     </row>
     <row r="74">
@@ -3007,22 +3007,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>197806872</v>
+        <v>194796129</v>
       </c>
       <c r="E74" t="n">
-        <v>687198951</v>
+        <v>676739357</v>
       </c>
       <c r="F74" t="n">
-        <v>133723.3634132924</v>
+        <v>105975.600612352</v>
       </c>
       <c r="G74" t="n">
-        <v>184473.9240388807</v>
+        <v>147662.80704449</v>
       </c>
       <c r="H74" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I74" t="n">
-        <v>25807099</v>
+        <v>26228011</v>
       </c>
     </row>
     <row r="75">
@@ -3042,22 +3042,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>4355830</v>
+        <v>4172366</v>
       </c>
       <c r="E75" t="n">
-        <v>4355824</v>
+        <v>4172366</v>
       </c>
       <c r="F75" t="n">
-        <v>965.6035984979329</v>
+        <v>1031.931833879685</v>
       </c>
       <c r="G75" t="n">
-        <v>1315.127994636919</v>
+        <v>1693.321424808192</v>
       </c>
       <c r="H75" t="n">
-        <v>0.89</v>
+        <v>0.58</v>
       </c>
       <c r="I75" t="n">
-        <v>4082790</v>
+        <v>3993677</v>
       </c>
     </row>
     <row r="76">
@@ -3077,22 +3077,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>115003050</v>
+        <v>112624723</v>
       </c>
       <c r="E76" t="n">
-        <v>489434352</v>
+        <v>479262504</v>
       </c>
       <c r="F76" t="n">
-        <v>211484.3243197328</v>
+        <v>167807.5253489148</v>
       </c>
       <c r="G76" t="n">
-        <v>212681.2169645611</v>
+        <v>231741.2011527368</v>
       </c>
       <c r="H76" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="I76" t="n">
-        <v>11532186</v>
+        <v>11528505</v>
       </c>
     </row>
     <row r="77">
@@ -3115,19 +3115,19 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1856627</v>
+        <v>1847842</v>
       </c>
       <c r="F77" t="n">
-        <v>108.5370991924728</v>
+        <v>109.2971838568908</v>
       </c>
       <c r="G77" t="n">
-        <v>87.35894416525645</v>
+        <v>92.99640533311192</v>
       </c>
       <c r="H77" t="n">
-        <v>1.08</v>
+        <v>0.54</v>
       </c>
       <c r="I77" t="n">
-        <v>594.25</v>
+        <v>432.45</v>
       </c>
     </row>
     <row r="78">
@@ -3147,22 +3147,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3204490</v>
+        <v>3096553</v>
       </c>
       <c r="E78" t="n">
-        <v>16066585</v>
+        <v>15525413</v>
       </c>
       <c r="F78" t="n">
-        <v>76.16585759326156</v>
+        <v>869.3843447463109</v>
       </c>
       <c r="G78" t="n">
-        <v>3.120743788911354</v>
+        <v>14.37352984439752</v>
       </c>
       <c r="H78" t="n">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="I78" t="n">
-        <v>22342</v>
+        <v>24170</v>
       </c>
     </row>
     <row r="79">
@@ -3182,22 +3182,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>516348</v>
+        <v>513984</v>
       </c>
       <c r="E79" t="n">
-        <v>8832104</v>
+        <v>8791666</v>
       </c>
       <c r="F79" t="n">
-        <v>40.09348039498897</v>
+        <v>4.179229168224203</v>
       </c>
       <c r="G79" t="n">
-        <v>2.865402432451629</v>
+        <v>227.7759321259905</v>
       </c>
       <c r="H79" t="n">
-        <v>3.29</v>
+        <v>0.72</v>
       </c>
       <c r="I79" t="n">
-        <v>330163</v>
+        <v>326295</v>
       </c>
     </row>
     <row r="80">
@@ -3217,22 +3217,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>5879127</v>
+        <v>5878274</v>
       </c>
       <c r="E80" t="n">
-        <v>7988686</v>
+        <v>7987693</v>
       </c>
       <c r="F80" t="n">
-        <v>262.7691923574388</v>
+        <v>287.0467843644633</v>
       </c>
       <c r="G80" t="n">
-        <v>997.164684591798</v>
+        <v>970.3989331936019</v>
       </c>
       <c r="H80" t="n">
         <v>0.21</v>
       </c>
       <c r="I80" t="n">
-        <v>6436833</v>
+        <v>6401016</v>
       </c>
     </row>
     <row r="81">
@@ -3251,19 +3251,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>43376</v>
+        <v>43104</v>
       </c>
       <c r="F81" t="n">
-        <v>36.53595339787798</v>
+        <v>118.3851424220892</v>
       </c>
       <c r="G81" t="n">
-        <v>557.1225867423841</v>
+        <v>409.6755071772002</v>
       </c>
       <c r="H81" t="n">
-        <v>2.9</v>
+        <v>2.34</v>
       </c>
       <c r="I81" t="n">
-        <v>64328</v>
+        <v>64002</v>
       </c>
     </row>
     <row r="82">
@@ -3283,22 +3283,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>41384198</v>
+        <v>41341955</v>
       </c>
       <c r="E82" t="n">
-        <v>48335761</v>
+        <v>48286421</v>
       </c>
       <c r="F82" t="n">
-        <v>189.1114867869469</v>
+        <v>189.1766065198741</v>
       </c>
       <c r="G82" t="n">
-        <v>21.25869682260422</v>
+        <v>89.25197585157309</v>
       </c>
       <c r="H82" t="n">
-        <v>1.94</v>
+        <v>2.42</v>
       </c>
       <c r="I82" t="n">
-        <v>862756</v>
+        <v>861989</v>
       </c>
     </row>
     <row r="83">
@@ -3321,19 +3321,19 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>14459316</v>
+        <v>14231281</v>
       </c>
       <c r="F83" t="n">
-        <v>313.8018598640659</v>
+        <v>341.8108512498789</v>
       </c>
       <c r="G83" t="n">
-        <v>866.3679054815937</v>
+        <v>1016.577709574616</v>
       </c>
       <c r="H83" t="n">
-        <v>1.1</v>
+        <v>0.66</v>
       </c>
       <c r="I83" t="n">
-        <v>497923</v>
+        <v>472217</v>
       </c>
     </row>
     <row r="84">
@@ -3353,22 +3353,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>35993427</v>
+        <v>35641479</v>
       </c>
       <c r="E84" t="n">
-        <v>35993427</v>
+        <v>35641479</v>
       </c>
       <c r="F84" t="n">
-        <v>184.6685346929355</v>
+        <v>55.24748351129922</v>
       </c>
       <c r="G84" t="n">
-        <v>2779.051785535525</v>
+        <v>171.4218788196967</v>
       </c>
       <c r="H84" t="n">
-        <v>1.86</v>
+        <v>2.94</v>
       </c>
       <c r="I84" t="n">
-        <v>591995</v>
+        <v>609145</v>
       </c>
     </row>
     <row r="85">
@@ -3388,22 +3388,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>529854</v>
+        <v>532549</v>
       </c>
       <c r="E85" t="n">
-        <v>6426612</v>
+        <v>6459300</v>
       </c>
       <c r="F85" t="n">
-        <v>629.0101784372835</v>
+        <v>834.9224208471663</v>
       </c>
       <c r="G85" t="n">
-        <v>812.9782618542046</v>
+        <v>705.3812929819111</v>
       </c>
       <c r="H85" t="n">
-        <v>0.93</v>
+        <v>1.25</v>
       </c>
       <c r="I85" t="n">
-        <v>2906864</v>
+        <v>2857623</v>
       </c>
     </row>
     <row r="86">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>25323572</v>
+        <v>25086989</v>
       </c>
       <c r="E86" t="n">
-        <v>35793880</v>
+        <v>35459479</v>
       </c>
       <c r="F86" t="n">
-        <v>88.72120508987774</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>1833.108454083677</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>2.07</v>
+        <v>6.83</v>
       </c>
       <c r="I86" t="n">
-        <v>87982</v>
+        <v>88278</v>
       </c>
     </row>
     <row r="87">
@@ -3458,22 +3458,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1294522002</v>
+        <v>1264330886</v>
       </c>
       <c r="E87" t="n">
-        <v>6207498112</v>
+        <v>6062725528</v>
       </c>
       <c r="F87" t="n">
-        <v>792593.426043304</v>
+        <v>551134.8649096034</v>
       </c>
       <c r="G87" t="n">
-        <v>774863.7953770609</v>
+        <v>971297.4735663696</v>
       </c>
       <c r="H87" t="n">
         <v>0.02</v>
       </c>
       <c r="I87" t="n">
-        <v>200191454</v>
+        <v>189391051</v>
       </c>
     </row>
     <row r="88">
@@ -3493,22 +3493,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>271069507</v>
+        <v>265951665</v>
       </c>
       <c r="E88" t="n">
-        <v>1170086475</v>
+        <v>1147995025</v>
       </c>
       <c r="F88" t="n">
-        <v>1034883.739390853</v>
+        <v>1025361.613439767</v>
       </c>
       <c r="G88" t="n">
-        <v>909470.1002600554</v>
+        <v>1232885.002112926</v>
       </c>
       <c r="H88" t="n">
         <v>0.02</v>
       </c>
       <c r="I88" t="n">
-        <v>111752288</v>
+        <v>109005940</v>
       </c>
     </row>
     <row r="89">
@@ -3528,22 +3528,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>113671126</v>
+        <v>112477192</v>
       </c>
       <c r="E89" t="n">
-        <v>113671126</v>
+        <v>112477192</v>
       </c>
       <c r="F89" t="n">
-        <v>33679.85337803165</v>
+        <v>29686.49719687627</v>
       </c>
       <c r="G89" t="n">
-        <v>29215.60744505181</v>
+        <v>32516.43337321318</v>
       </c>
       <c r="H89" t="n">
         <v>0.54</v>
       </c>
       <c r="I89" t="n">
-        <v>6013460</v>
+        <v>5872444</v>
       </c>
     </row>
     <row r="90">
@@ -3563,22 +3563,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>3861972</v>
+        <v>3856931</v>
       </c>
       <c r="E90" t="n">
-        <v>30053397</v>
+        <v>30014171</v>
       </c>
       <c r="F90" t="n">
-        <v>10693.86973186546</v>
+        <v>10677.8674588164</v>
       </c>
       <c r="G90" t="n">
-        <v>13060.08167613887</v>
+        <v>12878.14155008767</v>
       </c>
       <c r="H90" t="n">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="I90" t="n">
-        <v>9437.07</v>
+        <v>9455.469999999999</v>
       </c>
     </row>
     <row r="91">
@@ -3601,19 +3601,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>3792380</v>
+        <v>3766776</v>
       </c>
       <c r="F91" t="n">
-        <v>1388.291320728721</v>
+        <v>2005.386608192065</v>
       </c>
       <c r="G91" t="n">
-        <v>2182.196687127859</v>
+        <v>1595.440177658338</v>
       </c>
       <c r="H91" t="n">
-        <v>1.34</v>
+        <v>0.84</v>
       </c>
       <c r="I91" t="n">
-        <v>307977</v>
+        <v>306569</v>
       </c>
     </row>
     <row r="92">
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>896219</v>
+        <v>895033</v>
       </c>
       <c r="F92" t="n">
-        <v>142.4992451269082</v>
+        <v>96.53987949389284</v>
       </c>
       <c r="G92" t="n">
-        <v>60.16498809918197</v>
+        <v>112.0189565777997</v>
       </c>
       <c r="H92" t="n">
-        <v>1.92</v>
+        <v>2.8</v>
       </c>
       <c r="I92" t="n">
-        <v>81152</v>
+        <v>82291</v>
       </c>
     </row>
     <row r="93">
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>126936</v>
+        <v>128787</v>
       </c>
       <c r="F93" t="n">
-        <v>3.040388057538455</v>
+        <v>50.92131197561303</v>
       </c>
       <c r="G93" t="n">
-        <v>89.97782169917306</v>
+        <v>127.8417496133366</v>
       </c>
       <c r="H93" t="n">
-        <v>2.75</v>
+        <v>0.96</v>
       </c>
       <c r="I93" t="n">
-        <v>97707</v>
+        <v>97957</v>
       </c>
     </row>
     <row r="94">
@@ -3699,22 +3699,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>10921033</v>
+        <v>10903692</v>
       </c>
       <c r="E94" t="n">
-        <v>131898063</v>
+        <v>131675187</v>
       </c>
       <c r="F94" t="n">
-        <v>2814.171799203913</v>
+        <v>3869.947844517612</v>
       </c>
       <c r="G94" t="n">
-        <v>1667.610751586331</v>
+        <v>805.2183245533431</v>
       </c>
       <c r="H94" t="n">
         <v>0.08</v>
       </c>
       <c r="I94" t="n">
-        <v>238634</v>
+        <v>230812</v>
       </c>
     </row>
     <row r="95">
@@ -3734,22 +3734,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>21659591</v>
+        <v>21259314</v>
       </c>
       <c r="E95" t="n">
-        <v>54148977</v>
+        <v>53148284</v>
       </c>
       <c r="F95" t="n">
-        <v>8325.5379597596</v>
+        <v>7093.361943291655</v>
       </c>
       <c r="G95" t="n">
-        <v>10317.09584601277</v>
+        <v>10231.16632578115</v>
       </c>
       <c r="H95" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="I95" t="n">
-        <v>2208409</v>
+        <v>2170212</v>
       </c>
     </row>
     <row r="96">
@@ -3772,19 +3772,19 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>2393897</v>
+        <v>2452571</v>
       </c>
       <c r="F96" t="n">
-        <v>86.96337821025445</v>
+        <v>243.3697411075939</v>
       </c>
       <c r="G96" t="n">
-        <v>88.75596657648168</v>
+        <v>117.8562487163364</v>
       </c>
       <c r="H96" t="n">
-        <v>2.45</v>
+        <v>2.64</v>
       </c>
       <c r="I96" t="n">
-        <v>65971</v>
+        <v>46874</v>
       </c>
     </row>
     <row r="97">
@@ -3807,19 +3807,19 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>20209199</v>
+        <v>20146593</v>
       </c>
       <c r="F97" t="n">
-        <v>1358.502096275921</v>
+        <v>1024.077115663884</v>
       </c>
       <c r="G97" t="n">
-        <v>1696.788847851891</v>
+        <v>1255.012570053323</v>
       </c>
       <c r="H97" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="I97" t="n">
-        <v>127689</v>
+        <v>127730</v>
       </c>
     </row>
     <row r="98">
@@ -3839,22 +3839,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>3573474</v>
+        <v>4058045</v>
       </c>
       <c r="E98" t="n">
-        <v>10293067</v>
+        <v>11688830</v>
       </c>
       <c r="F98" t="n">
-        <v>2141.571618881761</v>
+        <v>589.8121991295749</v>
       </c>
       <c r="G98" t="n">
-        <v>453.3235895782973</v>
+        <v>305.5564360393072</v>
       </c>
       <c r="H98" t="n">
         <v>1.45</v>
       </c>
       <c r="I98" t="n">
-        <v>391327</v>
+        <v>451009</v>
       </c>
     </row>
     <row r="99">
@@ -3877,19 +3877,19 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>1670169</v>
+        <v>1656961</v>
       </c>
       <c r="F99" t="n">
-        <v>19.99782908462318</v>
+        <v>94.34555967836158</v>
       </c>
       <c r="G99" t="n">
-        <v>288.7410763028143</v>
+        <v>61.51803977344692</v>
       </c>
       <c r="H99" t="n">
-        <v>2.36</v>
+        <v>2.5</v>
       </c>
       <c r="I99" t="n">
-        <v>291997</v>
+        <v>296826</v>
       </c>
     </row>
     <row r="100">
@@ -3909,22 +3909,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>80373000</v>
+        <v>80009189</v>
       </c>
       <c r="E100" t="n">
-        <v>102280889</v>
+        <v>101817911</v>
       </c>
       <c r="F100" t="n">
-        <v>7034.249124161003</v>
+        <v>7140.16565024046</v>
       </c>
       <c r="G100" t="n">
-        <v>11450.23766463407</v>
+        <v>12882.6725589624</v>
       </c>
       <c r="H100" t="n">
-        <v>0.48</v>
+        <v>0.29</v>
       </c>
       <c r="I100" t="n">
-        <v>6260989</v>
+        <v>6266893</v>
       </c>
     </row>
     <row r="101">
@@ -3944,22 +3944,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>23017369</v>
+        <v>22530380</v>
       </c>
       <c r="E101" t="n">
-        <v>29858793</v>
+        <v>29227057</v>
       </c>
       <c r="F101" t="n">
-        <v>6342.719710175963</v>
+        <v>6871.397290058423</v>
       </c>
       <c r="G101" t="n">
-        <v>7162.377996229139</v>
+        <v>5356.810474387031</v>
       </c>
       <c r="H101" t="n">
-        <v>0.38</v>
+        <v>0.17</v>
       </c>
       <c r="I101" t="n">
-        <v>309589</v>
+        <v>164995</v>
       </c>
     </row>
     <row r="102">
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>1678159</v>
+        <v>1704049</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>5.71</v>
+        <v>4.02</v>
       </c>
       <c r="I102" t="n">
-        <v>16345.78</v>
+        <v>13757.63</v>
       </c>
     </row>
     <row r="103">
@@ -4014,22 +4014,22 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>615755</v>
+        <v>611627</v>
       </c>
       <c r="E103" t="n">
-        <v>615755</v>
+        <v>611627</v>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>12.64497786052157</v>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>420.8685104695076</v>
       </c>
       <c r="H103" t="n">
-        <v>3.94</v>
+        <v>3.42</v>
       </c>
       <c r="I103" t="n">
-        <v>82906</v>
+        <v>81308</v>
       </c>
     </row>
     <row r="104">
@@ -4049,22 +4049,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>41243295</v>
+        <v>40894868</v>
       </c>
       <c r="E104" t="n">
-        <v>43113991</v>
+        <v>42749760</v>
       </c>
       <c r="F104" t="n">
-        <v>280.1413943569927</v>
+        <v>477.2052201200409</v>
       </c>
       <c r="G104" t="n">
-        <v>1876.189913531866</v>
+        <v>1731.578908206566</v>
       </c>
       <c r="H104" t="n">
-        <v>0.55</v>
+        <v>0.63</v>
       </c>
       <c r="I104" t="n">
-        <v>805594</v>
+        <v>743315</v>
       </c>
     </row>
     <row r="105">
@@ -4084,22 +4084,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>13781720</v>
+        <v>13615593</v>
       </c>
       <c r="E105" t="n">
-        <v>13781720</v>
+        <v>13615593</v>
       </c>
       <c r="F105" t="n">
-        <v>1568.407982829468</v>
+        <v>2058.34255704593</v>
       </c>
       <c r="G105" t="n">
-        <v>3488.725755616506</v>
+        <v>2486.830790777223</v>
       </c>
       <c r="H105" t="n">
         <v>0.15</v>
       </c>
       <c r="I105" t="n">
-        <v>4396271</v>
+        <v>4361988</v>
       </c>
     </row>
     <row r="106">
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>1075475</v>
+        <v>1095988</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -4131,10 +4131,10 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>7.61</v>
+        <v>6.89</v>
       </c>
       <c r="I106" t="n">
-        <v>3943.47</v>
+        <v>4073.06</v>
       </c>
     </row>
     <row r="107">
@@ -4154,22 +4154,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>50944878</v>
+        <v>50504653</v>
       </c>
       <c r="E107" t="n">
-        <v>129784990</v>
+        <v>128663491</v>
       </c>
       <c r="F107" t="n">
-        <v>1942.421134279025</v>
+        <v>2352.443704836427</v>
       </c>
       <c r="G107" t="n">
-        <v>3998.457211738915</v>
+        <v>4635.909836573811</v>
       </c>
       <c r="H107" t="n">
-        <v>0.35</v>
+        <v>0.18</v>
       </c>
       <c r="I107" t="n">
-        <v>2230265</v>
+        <v>2330474</v>
       </c>
     </row>
     <row r="108">
@@ -4189,22 +4189,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>14153989</v>
+        <v>13948075</v>
       </c>
       <c r="E108" t="n">
-        <v>68550026</v>
+        <v>67552753</v>
       </c>
       <c r="F108" t="n">
-        <v>9033.987415864716</v>
+        <v>7759.260656984818</v>
       </c>
       <c r="G108" t="n">
-        <v>10916.6360780159</v>
+        <v>11199.99086800975</v>
       </c>
       <c r="H108" t="n">
-        <v>0.04</v>
+        <v>0.22</v>
       </c>
       <c r="I108" t="n">
-        <v>3546958</v>
+        <v>3502604</v>
       </c>
     </row>
     <row r="109">
@@ -4227,19 +4227,19 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>495729</v>
+        <v>505525</v>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>14.67667419140725</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>254.1017900027623</v>
       </c>
       <c r="H109" t="n">
-        <v>4.81</v>
+        <v>3.3</v>
       </c>
       <c r="I109" t="n">
-        <v>5522.17</v>
+        <v>7473.28</v>
       </c>
     </row>
     <row r="110">
@@ -4259,22 +4259,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>4461298</v>
+        <v>4513153</v>
       </c>
       <c r="E110" t="n">
-        <v>10169331</v>
+        <v>10287533</v>
       </c>
       <c r="F110" t="n">
-        <v>1270.977579640517</v>
+        <v>1676.966708968084</v>
       </c>
       <c r="G110" t="n">
-        <v>1708.246014608251</v>
+        <v>1577.973204619315</v>
       </c>
       <c r="H110" t="n">
-        <v>1.07</v>
+        <v>0.87</v>
       </c>
       <c r="I110" t="n">
-        <v>105150</v>
+        <v>105498</v>
       </c>
     </row>
     <row r="111">
@@ -4297,19 +4297,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>1871282692</v>
+        <v>1859840620</v>
       </c>
       <c r="F111" t="n">
-        <v>58029.80362596807</v>
+        <v>68186.87694580138</v>
       </c>
       <c r="G111" t="n">
-        <v>48358.99625207054</v>
+        <v>31962.24605588005</v>
       </c>
       <c r="H111" t="n">
-        <v>0.47</v>
+        <v>0.06</v>
       </c>
       <c r="I111" t="n">
-        <v>25517255</v>
+        <v>25811253</v>
       </c>
     </row>
     <row r="112">
@@ -4329,22 +4329,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>9471086</v>
+        <v>9351643</v>
       </c>
       <c r="E112" t="n">
-        <v>34488381</v>
+        <v>34053088</v>
       </c>
       <c r="F112" t="n">
-        <v>2846.082224826416</v>
+        <v>968.7975301301832</v>
       </c>
       <c r="G112" t="n">
-        <v>1858.487919766669</v>
+        <v>481.2965179688415</v>
       </c>
       <c r="H112" t="n">
-        <v>0.58</v>
+        <v>0.87</v>
       </c>
       <c r="I112" t="n">
-        <v>150527</v>
+        <v>156652</v>
       </c>
     </row>
     <row r="113">
@@ -4367,19 +4367,19 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>562807</v>
+        <v>563380</v>
       </c>
       <c r="F113" t="n">
-        <v>15.59172194612529</v>
+        <v>15.59159032610915</v>
       </c>
       <c r="G113" t="n">
-        <v>245.2277781479627</v>
+        <v>183.4282540399149</v>
       </c>
       <c r="H113" t="n">
         <v>1.39</v>
       </c>
       <c r="I113" t="n">
-        <v>21594</v>
+        <v>21342</v>
       </c>
     </row>
     <row r="114">
@@ -4399,22 +4399,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>12292114</v>
+        <v>12142054</v>
       </c>
       <c r="E114" t="n">
-        <v>17821792</v>
+        <v>17604226</v>
       </c>
       <c r="F114" t="n">
-        <v>2652.470252669739</v>
+        <v>2948.934689601695</v>
       </c>
       <c r="G114" t="n">
-        <v>2555.447903165753</v>
+        <v>9114.42180006204</v>
       </c>
       <c r="H114" t="n">
-        <v>0.73</v>
+        <v>0.57</v>
       </c>
       <c r="I114" t="n">
-        <v>2211922</v>
+        <v>2250742</v>
       </c>
     </row>
     <row r="115">
@@ -4434,22 +4434,22 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1933366</v>
+        <v>1922972</v>
       </c>
       <c r="E115" t="n">
-        <v>13863975</v>
+        <v>13789444</v>
       </c>
       <c r="F115" t="n">
-        <v>774.9280905055202</v>
+        <v>834.3262288699593</v>
       </c>
       <c r="G115" t="n">
-        <v>1073.787931619509</v>
+        <v>625.7718138515679</v>
       </c>
       <c r="H115" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="I115" t="n">
-        <v>1851654</v>
+        <v>1843437</v>
       </c>
     </row>
     <row r="116">
@@ -4469,10 +4469,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2746697</v>
+        <v>2740789</v>
       </c>
       <c r="E116" t="n">
-        <v>5552338</v>
+        <v>5540394</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>3166.42</v>
+        <v>3246.87</v>
       </c>
     </row>
     <row r="117">
@@ -4502,22 +4502,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>199197380</v>
+        <v>194857125</v>
       </c>
       <c r="E117" t="n">
-        <v>1127977962</v>
+        <v>1103400772</v>
       </c>
       <c r="F117" t="n">
-        <v>285304.1881597073</v>
+        <v>389452.0774691183</v>
       </c>
       <c r="G117" t="n">
-        <v>483283.8641082298</v>
+        <v>422047.6745577406</v>
       </c>
       <c r="H117" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I117" t="n">
-        <v>59465694</v>
+        <v>58777451</v>
       </c>
     </row>
     <row r="118">
@@ -4537,22 +4537,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>726292</v>
+        <v>718275</v>
       </c>
       <c r="E118" t="n">
-        <v>2408278</v>
+        <v>2381696</v>
       </c>
       <c r="F118" t="n">
-        <v>7429.518757017226</v>
+        <v>8457.304971894677</v>
       </c>
       <c r="G118" t="n">
-        <v>5300.471342812531</v>
+        <v>4020.798546275606</v>
       </c>
       <c r="H118" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="I118" t="n">
-        <v>18757.5</v>
+        <v>18742.46</v>
       </c>
     </row>
     <row r="119">
@@ -4572,22 +4572,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2835461</v>
+        <v>2789140</v>
       </c>
       <c r="E119" t="n">
-        <v>10039172</v>
+        <v>9875169</v>
       </c>
       <c r="F119" t="n">
-        <v>74.58962715197114</v>
+        <v>279.005551166875</v>
       </c>
       <c r="G119" t="n">
-        <v>1530.503381379234</v>
+        <v>1757.302558293642</v>
       </c>
       <c r="H119" t="n">
-        <v>1.37</v>
+        <v>1.62</v>
       </c>
       <c r="I119" t="n">
-        <v>12060.36</v>
+        <v>11254.09</v>
       </c>
     </row>
     <row r="120">
@@ -4607,22 +4607,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1038698</v>
+        <v>1045847</v>
       </c>
       <c r="E120" t="n">
-        <v>1038698</v>
+        <v>1045847</v>
       </c>
       <c r="F120" t="n">
-        <v>169.9451921140075</v>
+        <v>207.1082071163943</v>
       </c>
       <c r="G120" t="n">
-        <v>35.85692712651083</v>
+        <v>102.6370751262599</v>
       </c>
       <c r="H120" t="n">
-        <v>3.74</v>
+        <v>2.21</v>
       </c>
       <c r="I120" t="n">
-        <v>12642.08</v>
+        <v>12280.15</v>
       </c>
     </row>
     <row r="121">
@@ -4642,22 +4642,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>503589</v>
+        <v>501325</v>
       </c>
       <c r="E121" t="n">
-        <v>1695010</v>
+        <v>1687391</v>
       </c>
       <c r="F121" t="n">
-        <v>459.2774388911552</v>
+        <v>449.5426887909484</v>
       </c>
       <c r="G121" t="n">
-        <v>695.4859150436744</v>
+        <v>709.5090819834155</v>
       </c>
       <c r="H121" t="n">
-        <v>0.7</v>
+        <v>0.88</v>
       </c>
       <c r="I121" t="n">
-        <v>630851</v>
+        <v>632431</v>
       </c>
     </row>
     <row r="122">
@@ -4677,10 +4677,10 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>443785</v>
+        <v>453609</v>
       </c>
       <c r="E122" t="n">
-        <v>823306</v>
+        <v>841531</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -4689,10 +4689,10 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>5.62</v>
+        <v>5.68</v>
       </c>
       <c r="I122" t="n">
-        <v>197517</v>
+        <v>200140</v>
       </c>
     </row>
     <row r="123">
@@ -4715,19 +4715,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>11817681</v>
+        <v>11525427</v>
       </c>
       <c r="F123" t="n">
-        <v>91.02457569749397</v>
+        <v>104.7918548615779</v>
       </c>
       <c r="G123" t="n">
-        <v>170.4540478020915</v>
+        <v>154.5754608140815</v>
       </c>
       <c r="H123" t="n">
-        <v>2.32</v>
+        <v>2.62</v>
       </c>
       <c r="I123" t="n">
-        <v>7265.53</v>
+        <v>7420.85</v>
       </c>
     </row>
     <row r="124">
@@ -4750,19 +4750,19 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>1265012</v>
+        <v>1264508</v>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>62.04454212511224</v>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>4.020058284178348</v>
       </c>
       <c r="H124" t="n">
-        <v>4.29</v>
+        <v>3.53</v>
       </c>
       <c r="I124" t="n">
-        <v>48404</v>
+        <v>48471</v>
       </c>
     </row>
     <row r="125">
@@ -4782,22 +4782,22 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3350587</v>
+        <v>3355411</v>
       </c>
       <c r="E125" t="n">
-        <v>7824179</v>
+        <v>7835443</v>
       </c>
       <c r="F125" t="n">
-        <v>891.5031531437959</v>
+        <v>873.1367563416944</v>
       </c>
       <c r="G125" t="n">
-        <v>1272.858846252289</v>
+        <v>1531.529585536471</v>
       </c>
       <c r="H125" t="n">
-        <v>1.55</v>
+        <v>1.08</v>
       </c>
       <c r="I125" t="n">
-        <v>774525</v>
+        <v>757827</v>
       </c>
     </row>
     <row r="126">
@@ -4817,22 +4817,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>255384</v>
+        <v>257931</v>
       </c>
       <c r="E126" t="n">
-        <v>2253958</v>
+        <v>2276433</v>
       </c>
       <c r="F126" t="n">
-        <v>26.7757342969264</v>
+        <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>373.4929839824575</v>
+        <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>3.05</v>
+        <v>4.13</v>
       </c>
       <c r="I126" t="n">
-        <v>89897</v>
+        <v>93908</v>
       </c>
     </row>
     <row r="127">
@@ -4855,19 +4855,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>650791</v>
+        <v>645274</v>
       </c>
       <c r="F127" t="n">
-        <v>708.6211012790567</v>
+        <v>589.6811773376501</v>
       </c>
       <c r="G127" t="n">
-        <v>651.8454004392195</v>
+        <v>651.8371789430061</v>
       </c>
       <c r="H127" t="n">
         <v>0.96</v>
       </c>
       <c r="I127" t="n">
-        <v>6243.59</v>
+        <v>6406.16</v>
       </c>
     </row>
     <row r="128">
@@ -4887,22 +4887,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>4920466</v>
+        <v>4915450</v>
       </c>
       <c r="E128" t="n">
-        <v>17387572</v>
+        <v>17369849</v>
       </c>
       <c r="F128" t="n">
-        <v>1785.800246896592</v>
+        <v>1832.001942364471</v>
       </c>
       <c r="G128" t="n">
-        <v>1907.790630880868</v>
+        <v>1873.876502952785</v>
       </c>
       <c r="H128" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="I128" t="n">
-        <v>103964</v>
+        <v>106077</v>
       </c>
     </row>
     <row r="129">
@@ -4925,19 +4925,19 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2173871</v>
+        <v>2281085</v>
       </c>
       <c r="F129" t="n">
-        <v>32.31891266520778</v>
+        <v>133.024354995607</v>
       </c>
       <c r="G129" t="n">
-        <v>136.431445486682</v>
+        <v>33.4901618758705</v>
       </c>
       <c r="H129" t="n">
-        <v>0.05</v>
+        <v>0.18</v>
       </c>
       <c r="I129" t="n">
-        <v>5728.96</v>
+        <v>5813.31</v>
       </c>
     </row>
     <row r="130">
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>2534602</v>
+        <v>2468196</v>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
@@ -4970,7 +4970,7 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>2520.86</v>
+        <v>2461.07</v>
       </c>
     </row>
     <row r="131">
@@ -4990,22 +4990,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>83698</v>
+        <v>83665</v>
       </c>
       <c r="E131" t="n">
-        <v>83698</v>
+        <v>83665</v>
       </c>
       <c r="F131" t="n">
-        <v>15.14712351258753</v>
+        <v>15.14693246725912</v>
       </c>
       <c r="G131" t="n">
-        <v>73.69815699148566</v>
+        <v>73.69722746261542</v>
       </c>
       <c r="H131" t="n">
         <v>0.2</v>
       </c>
       <c r="I131" t="n">
-        <v>19910.42</v>
+        <v>20169</v>
       </c>
     </row>
     <row r="132">
@@ -5028,19 +5028,19 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>4369449</v>
+        <v>4367394</v>
       </c>
       <c r="F132" t="n">
-        <v>200.2657491279666</v>
+        <v>328.7227206823863</v>
       </c>
       <c r="G132" t="n">
-        <v>223.0817258059425</v>
+        <v>190.3781922250066</v>
       </c>
       <c r="H132" t="n">
         <v>0.44</v>
       </c>
       <c r="I132" t="n">
-        <v>313243</v>
+        <v>317480</v>
       </c>
     </row>
     <row r="133">
@@ -5060,22 +5060,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2106598</v>
+        <v>2100669</v>
       </c>
       <c r="E133" t="n">
-        <v>8602800</v>
+        <v>8578586</v>
       </c>
       <c r="F133" t="n">
-        <v>526.4121797940714</v>
+        <v>498.6267311043256</v>
       </c>
       <c r="G133" t="n">
-        <v>516.8586300342088</v>
+        <v>197.3037658169624</v>
       </c>
       <c r="H133" t="n">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
       <c r="I133" t="n">
-        <v>543490</v>
+        <v>557295</v>
       </c>
     </row>
     <row r="134">
@@ -5095,22 +5095,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>7402163</v>
+        <v>7267938</v>
       </c>
       <c r="E134" t="n">
-        <v>7457185</v>
+        <v>7321963</v>
       </c>
       <c r="F134" t="n">
-        <v>252031.5098988168</v>
+        <v>339217.939406905</v>
       </c>
       <c r="G134" t="n">
-        <v>353827.7240669988</v>
+        <v>253467.4253623525</v>
       </c>
       <c r="H134" t="n">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
       <c r="I134" t="n">
-        <v>4839927</v>
+        <v>4876815</v>
       </c>
     </row>
     <row r="135">
@@ -5130,22 +5130,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>13702439</v>
+        <v>13475624</v>
       </c>
       <c r="E135" t="n">
-        <v>13749070</v>
+        <v>13521483</v>
       </c>
       <c r="F135" t="n">
-        <v>4457.422696956758</v>
+        <v>11358.83748304526</v>
       </c>
       <c r="G135" t="n">
-        <v>8677.877312920138</v>
+        <v>11309.32972978775</v>
       </c>
       <c r="H135" t="n">
-        <v>0.39</v>
+        <v>0.2</v>
       </c>
       <c r="I135" t="n">
-        <v>5787056</v>
+        <v>5741374</v>
       </c>
     </row>
     <row r="136">
@@ -5165,22 +5165,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>42891332</v>
+        <v>42857373</v>
       </c>
       <c r="E136" t="n">
-        <v>72819503</v>
+        <v>72761850</v>
       </c>
       <c r="F136" t="n">
-        <v>945.5782661035059</v>
+        <v>808.2125784626616</v>
       </c>
       <c r="G136" t="n">
-        <v>790.328395405784</v>
+        <v>910.010835378617</v>
       </c>
       <c r="H136" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I136" t="n">
-        <v>1136911</v>
+        <v>1151368</v>
       </c>
     </row>
     <row r="137">
@@ -5200,22 +5200,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>26374433</v>
+        <v>26091399</v>
       </c>
       <c r="E137" t="n">
-        <v>79059741</v>
+        <v>78209705</v>
       </c>
       <c r="F137" t="n">
-        <v>66651.62768584324</v>
+        <v>91246.58194298476</v>
       </c>
       <c r="G137" t="n">
-        <v>77390.76709167588</v>
+        <v>81171.61530996718</v>
       </c>
       <c r="H137" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="I137" t="n">
-        <v>2350535</v>
+        <v>2413888</v>
       </c>
     </row>
     <row r="138">
@@ -5235,22 +5235,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>101435953</v>
+        <v>100943033</v>
       </c>
       <c r="E138" t="n">
-        <v>107835585</v>
+        <v>107311566</v>
       </c>
       <c r="F138" t="n">
-        <v>8282.603413953295</v>
+        <v>7232.145309497409</v>
       </c>
       <c r="G138" t="n">
-        <v>9516.294003127543</v>
+        <v>11393.98704806035</v>
       </c>
       <c r="H138" t="n">
-        <v>0.28</v>
+        <v>0.49</v>
       </c>
       <c r="I138" t="n">
-        <v>941154</v>
+        <v>977395</v>
       </c>
     </row>
     <row r="139">
@@ -5273,19 +5273,19 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1097869</v>
+        <v>1097641</v>
       </c>
       <c r="F139" t="n">
-        <v>1.797098932398055</v>
+        <v>3.45386519099398</v>
       </c>
       <c r="G139" t="n">
-        <v>372.1120093624924</v>
+        <v>372.1073160449146</v>
       </c>
       <c r="H139" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="I139" t="n">
-        <v>136.13</v>
+        <v>136.31</v>
       </c>
     </row>
     <row r="140">
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>258614</v>
+        <v>258520</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -5317,10 +5317,10 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>10.02</v>
+        <v>8.85</v>
       </c>
       <c r="I140" t="n">
-        <v>660.66</v>
+        <v>534.65</v>
       </c>
     </row>
     <row r="141">
@@ -5336,10 +5336,10 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>97161</v>
+        <v>97031</v>
       </c>
       <c r="E141" t="n">
-        <v>275624</v>
+        <v>275255</v>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
@@ -5349,7 +5349,7 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>47.65</v>
+        <v>47.71</v>
       </c>
     </row>
     <row r="142">
@@ -5369,22 +5369,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>46340609</v>
+        <v>45811089</v>
       </c>
       <c r="E142" t="n">
-        <v>199630278</v>
+        <v>197349164</v>
       </c>
       <c r="F142" t="n">
-        <v>56781.17364520262</v>
+        <v>78669.00034568018</v>
       </c>
       <c r="G142" t="n">
-        <v>78227.94493424741</v>
+        <v>57125.37478933499</v>
       </c>
       <c r="H142" t="n">
         <v>0.11</v>
       </c>
       <c r="I142" t="n">
-        <v>8564798</v>
+        <v>8311632</v>
       </c>
     </row>
     <row r="143">
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>300275</v>
+        <v>300134</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -5416,10 +5416,10 @@
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>9.4</v>
+        <v>9.06</v>
       </c>
       <c r="I143" t="n">
-        <v>222807</v>
+        <v>209682</v>
       </c>
     </row>
     <row r="144">
@@ -5442,19 +5442,19 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>9644410</v>
+        <v>9530734</v>
       </c>
       <c r="F144" t="n">
-        <v>1160.434357671306</v>
+        <v>1332.911350340266</v>
       </c>
       <c r="G144" t="n">
-        <v>609.7568887390493</v>
+        <v>291.4754662365521</v>
       </c>
       <c r="H144" t="n">
-        <v>0.64</v>
+        <v>0.72</v>
       </c>
       <c r="I144" t="n">
-        <v>121277</v>
+        <v>121357</v>
       </c>
     </row>
     <row r="145">
@@ -5474,22 +5474,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1182820</v>
+        <v>1174470</v>
       </c>
       <c r="E145" t="n">
-        <v>7885467</v>
+        <v>7829798</v>
       </c>
       <c r="F145" t="n">
-        <v>51.74316420918673</v>
+        <v>51.74251159089974</v>
       </c>
       <c r="G145" t="n">
-        <v>120.7074670204403</v>
+        <v>120.7059445797169</v>
       </c>
       <c r="H145" t="n">
         <v>0.53</v>
       </c>
       <c r="I145" t="n">
-        <v>10816.96</v>
+        <v>9617.450000000001</v>
       </c>
     </row>
     <row r="146">
@@ -5512,19 +5512,19 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>7733518</v>
+        <v>7904244</v>
       </c>
       <c r="F146" t="n">
-        <v>279.0885713401922</v>
+        <v>550.7743185591704</v>
       </c>
       <c r="G146" t="n">
-        <v>321.4888234879881</v>
+        <v>270.7559324405124</v>
       </c>
       <c r="H146" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="I146" t="n">
-        <v>6385804</v>
+        <v>6383740</v>
       </c>
     </row>
     <row r="147">
@@ -5544,22 +5544,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>665384</v>
+        <v>664816</v>
       </c>
       <c r="E147" t="n">
-        <v>2402439</v>
+        <v>2400387</v>
       </c>
       <c r="F147" t="n">
-        <v>36.45159077270161</v>
+        <v>11.45780034176907</v>
       </c>
       <c r="G147" t="n">
-        <v>474.6745523795091</v>
+        <v>248.2516350661494</v>
       </c>
       <c r="H147" t="n">
         <v>0.83</v>
       </c>
       <c r="I147" t="n">
-        <v>368714</v>
+        <v>370063</v>
       </c>
     </row>
     <row r="148">
@@ -5582,19 +5582,19 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>1658188</v>
+        <v>1642377</v>
       </c>
       <c r="F148" t="n">
-        <v>176.3304415299178</v>
+        <v>39.01424776126333</v>
       </c>
       <c r="G148" t="n">
-        <v>29.51743817382305</v>
+        <v>16.82475107651799</v>
       </c>
       <c r="H148" t="n">
-        <v>1.66</v>
+        <v>1.48</v>
       </c>
       <c r="I148" t="n">
-        <v>89304</v>
+        <v>89408</v>
       </c>
     </row>
     <row r="149">
@@ -5617,19 +5617,19 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>63041</v>
+        <v>63006</v>
       </c>
       <c r="F149" t="n">
-        <v>8.127786009051187</v>
+        <v>8.127702548362633</v>
       </c>
       <c r="G149" t="n">
-        <v>2.857223980080971</v>
+        <v>2.857194640494463</v>
       </c>
       <c r="H149" t="n">
         <v>3.23</v>
       </c>
       <c r="I149" t="n">
-        <v>892.1900000000001</v>
+        <v>892.75</v>
       </c>
     </row>
     <row r="150">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>13083328</v>
+        <v>12986845</v>
       </c>
       <c r="E150" t="n">
-        <v>13083328</v>
+        <v>12986845</v>
       </c>
       <c r="F150" t="n">
-        <v>697.4015444905975</v>
+        <v>456.147862740103</v>
       </c>
       <c r="G150" t="n">
-        <v>643.6636925405727</v>
+        <v>1422.46945331385</v>
       </c>
       <c r="H150" t="n">
-        <v>0.46</v>
+        <v>0.38</v>
       </c>
       <c r="I150" t="n">
-        <v>2798601</v>
+        <v>2681352</v>
       </c>
     </row>
     <row r="151">
@@ -5684,22 +5684,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1725908</v>
+        <v>1728609</v>
       </c>
       <c r="E151" t="n">
-        <v>6271884</v>
+        <v>6281647</v>
       </c>
       <c r="F151" t="n">
-        <v>110.5958621133816</v>
+        <v>36.27836766476955</v>
       </c>
       <c r="G151" t="n">
-        <v>560.6708757036905</v>
+        <v>175.1522086944074</v>
       </c>
       <c r="H151" t="n">
         <v>1.32</v>
       </c>
       <c r="I151" t="n">
-        <v>135722</v>
+        <v>129931</v>
       </c>
     </row>
     <row r="152">
@@ -5719,10 +5719,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1185430</v>
+        <v>1173282</v>
       </c>
       <c r="E152" t="n">
-        <v>1185430</v>
+        <v>1173282</v>
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>137.2</v>
+        <v>135.7</v>
       </c>
     </row>
     <row r="153">
@@ -5752,22 +5752,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>23809203</v>
+        <v>23792136</v>
       </c>
       <c r="E153" t="n">
-        <v>27443716</v>
+        <v>27424044</v>
       </c>
       <c r="F153" t="n">
-        <v>1526.487298130434</v>
+        <v>264.5815113855745</v>
       </c>
       <c r="G153" t="n">
-        <v>650.3752349875506</v>
+        <v>234.9591799558755</v>
       </c>
       <c r="H153" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="I153" t="n">
-        <v>728468</v>
+        <v>735197</v>
       </c>
     </row>
     <row r="154">
@@ -5787,22 +5787,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2451201</v>
+        <v>2451130</v>
       </c>
       <c r="E154" t="n">
-        <v>18446392</v>
+        <v>18445862</v>
       </c>
       <c r="F154" t="n">
-        <v>5445.862665814843</v>
+        <v>5899.83403704045</v>
       </c>
       <c r="G154" t="n">
-        <v>2787.246196063678</v>
+        <v>2820.070196790808</v>
       </c>
       <c r="H154" t="n">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="I154" t="n">
-        <v>163123</v>
+        <v>162161</v>
       </c>
     </row>
     <row r="155">
@@ -5822,22 +5822,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>21037837</v>
+        <v>20776433</v>
       </c>
       <c r="E155" t="n">
-        <v>84151347</v>
+        <v>83105733</v>
       </c>
       <c r="F155" t="n">
-        <v>10809.23465850361</v>
+        <v>8210.24330321647</v>
       </c>
       <c r="G155" t="n">
-        <v>17435.16013134919</v>
+        <v>19790.85710398019</v>
       </c>
       <c r="H155" t="n">
         <v>0.47</v>
       </c>
       <c r="I155" t="n">
-        <v>5824036</v>
+        <v>5883378</v>
       </c>
     </row>
     <row r="156">
@@ -5857,22 +5857,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>298339779</v>
+        <v>290850271</v>
       </c>
       <c r="E156" t="n">
-        <v>298339779</v>
+        <v>290850271</v>
       </c>
       <c r="F156" t="n">
-        <v>290517.3196521325</v>
+        <v>342297.0745006787</v>
       </c>
       <c r="G156" t="n">
-        <v>396587.0376883193</v>
+        <v>304923.8868389558</v>
       </c>
       <c r="H156" t="n">
-        <v>0.09</v>
+        <v>0.23</v>
       </c>
       <c r="I156" t="n">
-        <v>12763448</v>
+        <v>12508731</v>
       </c>
     </row>
     <row r="157">
@@ -5892,22 +5892,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>12754544</v>
+        <v>12655688</v>
       </c>
       <c r="E157" t="n">
-        <v>40351799</v>
+        <v>40039048</v>
       </c>
       <c r="F157" t="n">
-        <v>7685.184541650325</v>
+        <v>11309.42644044659</v>
       </c>
       <c r="G157" t="n">
-        <v>8868.072881667635</v>
+        <v>14154.15230392063</v>
       </c>
       <c r="H157" t="n">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="I157" t="n">
-        <v>1601831</v>
+        <v>1579312</v>
       </c>
     </row>
     <row r="158">
@@ -5927,10 +5927,10 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1088913</v>
+        <v>1087719</v>
       </c>
       <c r="E158" t="n">
-        <v>2480105</v>
+        <v>2477387</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -5939,10 +5939,10 @@
         <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>7.17</v>
+        <v>5.98</v>
       </c>
       <c r="I158" t="n">
-        <v>4835.13</v>
+        <v>4841.04</v>
       </c>
     </row>
     <row r="159">
@@ -5962,22 +5962,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>17135206</v>
+        <v>16753935</v>
       </c>
       <c r="E159" t="n">
-        <v>17135206</v>
+        <v>16753935</v>
       </c>
       <c r="F159" t="n">
-        <v>12829.8683793436</v>
+        <v>14989.69833371248</v>
       </c>
       <c r="G159" t="n">
-        <v>15991.52473866846</v>
+        <v>17938.58496700861</v>
       </c>
       <c r="H159" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="I159" t="n">
-        <v>3351004</v>
+        <v>3293118</v>
       </c>
     </row>
     <row r="160">
@@ -5997,10 +5997,10 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>4864368</v>
+        <v>4861386</v>
       </c>
       <c r="E160" t="n">
-        <v>8955821</v>
+        <v>8950332</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -6009,10 +6009,10 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>10.51</v>
+        <v>10.4</v>
       </c>
       <c r="I160" t="n">
-        <v>14.55</v>
+        <v>12.48</v>
       </c>
     </row>
     <row r="161">
@@ -6032,10 +6032,10 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>111532</v>
+        <v>108631</v>
       </c>
       <c r="E161" t="n">
-        <v>134022</v>
+        <v>130466</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -6044,10 +6044,10 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>9.19</v>
+        <v>8.49</v>
       </c>
       <c r="I161" t="n">
-        <v>4427.52</v>
+        <v>4343.54</v>
       </c>
     </row>
     <row r="162">
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>20650906</v>
+        <v>20038217</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -6079,10 +6079,10 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>7.29</v>
+        <v>11.23</v>
       </c>
       <c r="I162" t="n">
-        <v>1104.58</v>
+        <v>1157.85</v>
       </c>
     </row>
     <row r="163">
@@ -6102,22 +6102,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>438112</v>
+        <v>435461</v>
       </c>
       <c r="E163" t="n">
-        <v>551858</v>
+        <v>548518</v>
       </c>
       <c r="F163" t="n">
-        <v>169.9290227900613</v>
+        <v>229.7447141345041</v>
       </c>
       <c r="G163" t="n">
-        <v>229.4842188244541</v>
+        <v>173.9306095078402</v>
       </c>
       <c r="H163" t="n">
-        <v>0.18</v>
+        <v>0.73</v>
       </c>
       <c r="I163" t="n">
-        <v>187570</v>
+        <v>189078</v>
       </c>
     </row>
     <row r="164">
@@ -6140,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>123580</v>
+        <v>110024</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -6149,10 +6149,10 @@
         <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>4.77</v>
+        <v>4.3</v>
       </c>
       <c r="I164" t="n">
-        <v>3780.58</v>
+        <v>4020.2</v>
       </c>
     </row>
     <row r="165">
@@ -6172,22 +6172,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>12033148</v>
+        <v>12074369</v>
       </c>
       <c r="E165" t="n">
-        <v>18339311</v>
+        <v>18402135</v>
       </c>
       <c r="F165" t="n">
-        <v>2158.645297551434</v>
+        <v>712.2632040803844</v>
       </c>
       <c r="G165" t="n">
-        <v>3700.79779246126</v>
+        <v>4067.862242286879</v>
       </c>
       <c r="H165" t="n">
-        <v>0.96</v>
+        <v>1.45</v>
       </c>
       <c r="I165" t="n">
-        <v>664630</v>
+        <v>668058</v>
       </c>
     </row>
     <row r="166">
@@ -6207,22 +6207,22 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>301107177</v>
+        <v>296907905</v>
       </c>
       <c r="E166" t="n">
-        <v>301107177</v>
+        <v>296907905</v>
       </c>
       <c r="F166" t="n">
-        <v>248972.999548901</v>
+        <v>272491.6020614338</v>
       </c>
       <c r="G166" t="n">
-        <v>391427.16364767</v>
+        <v>374851.5183290248</v>
       </c>
       <c r="H166" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I166" t="n">
-        <v>52093642</v>
+        <v>50494480</v>
       </c>
     </row>
     <row r="167">
@@ -6242,22 +6242,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>9498091</v>
+        <v>9488982</v>
       </c>
       <c r="E167" t="n">
-        <v>26966664</v>
+        <v>26940802</v>
       </c>
       <c r="F167" t="n">
-        <v>330.7020021256998</v>
+        <v>649.8003408388238</v>
       </c>
       <c r="G167" t="n">
-        <v>831.3708105681142</v>
+        <v>698.5543045822204</v>
       </c>
       <c r="H167" t="n">
         <v>1.48</v>
       </c>
       <c r="I167" t="n">
-        <v>118011</v>
+        <v>114259</v>
       </c>
     </row>
     <row r="168">
@@ -6280,19 +6280,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>11969342</v>
+        <v>11890632</v>
       </c>
       <c r="F168" t="n">
-        <v>164.0947864254364</v>
+        <v>120.0046370875065</v>
       </c>
       <c r="G168" t="n">
-        <v>1849.113122378061</v>
+        <v>2045.432424851483</v>
       </c>
       <c r="H168" t="n">
-        <v>0.84</v>
+        <v>0.76</v>
       </c>
       <c r="I168" t="n">
-        <v>160823</v>
+        <v>110631</v>
       </c>
     </row>
     <row r="169">
@@ -6312,22 +6312,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>4110392</v>
+        <v>4117603</v>
       </c>
       <c r="E169" t="n">
-        <v>28086021</v>
+        <v>28135294</v>
       </c>
       <c r="F169" t="n">
-        <v>4146.583536243061</v>
+        <v>1425.371337558764</v>
       </c>
       <c r="G169" t="n">
-        <v>3967.983504651145</v>
+        <v>488.2268994704843</v>
       </c>
       <c r="H169" t="n">
         <v>0.7</v>
       </c>
       <c r="I169" t="n">
-        <v>2537719</v>
+        <v>2526221</v>
       </c>
     </row>
     <row r="170">
@@ -6347,22 +6347,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>3217336</v>
+        <v>3156899</v>
       </c>
       <c r="E170" t="n">
-        <v>4776810</v>
+        <v>4686543</v>
       </c>
       <c r="F170" t="n">
-        <v>1312.82322278407</v>
+        <v>1174.092425354813</v>
       </c>
       <c r="G170" t="n">
-        <v>3446.064984545825</v>
+        <v>3565.049921241045</v>
       </c>
       <c r="H170" t="n">
-        <v>0.63</v>
+        <v>1.06</v>
       </c>
       <c r="I170" t="n">
-        <v>216077</v>
+        <v>221542</v>
       </c>
     </row>
     <row r="171">
@@ -6382,22 +6382,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>89121237</v>
+        <v>88692076</v>
       </c>
       <c r="E171" t="n">
-        <v>513555006</v>
+        <v>511081998</v>
       </c>
       <c r="F171" t="n">
-        <v>481770.1211314867</v>
+        <v>385304.6633442122</v>
       </c>
       <c r="G171" t="n">
-        <v>243181.4472747364</v>
+        <v>350044.9330714045</v>
       </c>
       <c r="H171" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="I171" t="n">
-        <v>15887115</v>
+        <v>15852364</v>
       </c>
     </row>
     <row r="172">
@@ -6417,22 +6417,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>14013089</v>
+        <v>13810729</v>
       </c>
       <c r="E172" t="n">
-        <v>14013089</v>
+        <v>13810729</v>
       </c>
       <c r="F172" t="n">
-        <v>5132.901868315218</v>
+        <v>4546.46612198875</v>
       </c>
       <c r="G172" t="n">
-        <v>4983.75838682841</v>
+        <v>4296.290968025241</v>
       </c>
       <c r="H172" t="n">
-        <v>1.49</v>
+        <v>1.39</v>
       </c>
       <c r="I172" t="n">
-        <v>614768</v>
+        <v>608953</v>
       </c>
     </row>
     <row r="173">
@@ -6452,22 +6452,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>6643317</v>
+        <v>6519886</v>
       </c>
       <c r="E173" t="n">
-        <v>18871755</v>
+        <v>18521124</v>
       </c>
       <c r="F173" t="n">
-        <v>222.9285934691669</v>
+        <v>1463.23813092223</v>
       </c>
       <c r="G173" t="n">
-        <v>144.1611911746069</v>
+        <v>136.6548089258913</v>
       </c>
       <c r="H173" t="n">
-        <v>2.08</v>
+        <v>2.61</v>
       </c>
       <c r="I173" t="n">
-        <v>221309</v>
+        <v>231732</v>
       </c>
     </row>
     <row r="174">
@@ -6487,22 +6487,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>17410561</v>
+        <v>17793062</v>
       </c>
       <c r="E174" t="n">
-        <v>17410561</v>
+        <v>17793062</v>
       </c>
       <c r="F174" t="n">
-        <v>53.29957651846684</v>
+        <v>89.56320245745503</v>
       </c>
       <c r="G174" t="n">
-        <v>974.0418829126511</v>
+        <v>3.59468134602973</v>
       </c>
       <c r="H174" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="I174" t="n">
-        <v>91902</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="175">
@@ -6525,19 +6525,19 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>1301885</v>
+        <v>1301382</v>
       </c>
       <c r="F175" t="n">
-        <v>0</v>
+        <v>152.0508648970574</v>
       </c>
       <c r="G175" t="n">
-        <v>0</v>
+        <v>16.36684463464648</v>
       </c>
       <c r="H175" t="n">
-        <v>5.11</v>
+        <v>2.89</v>
       </c>
       <c r="I175" t="n">
-        <v>3080.21</v>
+        <v>3549.85</v>
       </c>
     </row>
     <row r="176">
@@ -6557,10 +6557,10 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>128411</v>
+        <v>127824</v>
       </c>
       <c r="E176" t="n">
-        <v>279549</v>
+        <v>278270</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -6572,7 +6572,7 @@
         <v>7.55</v>
       </c>
       <c r="I176" t="n">
-        <v>45238</v>
+        <v>45838</v>
       </c>
     </row>
     <row r="177">
@@ -6595,19 +6595,19 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>2274332</v>
+        <v>2259011</v>
       </c>
       <c r="F177" t="n">
-        <v>141.2606232601626</v>
+        <v>199.5008452823827</v>
       </c>
       <c r="G177" t="n">
-        <v>51.87959500806996</v>
+        <v>93.59714804890838</v>
       </c>
       <c r="H177" t="n">
-        <v>3.49</v>
+        <v>1.76</v>
       </c>
       <c r="I177" t="n">
-        <v>154428</v>
+        <v>152369</v>
       </c>
     </row>
     <row r="178">
@@ -6627,22 +6627,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>247299973</v>
+        <v>244824428</v>
       </c>
       <c r="E178" t="n">
-        <v>247302430</v>
+        <v>244826860</v>
       </c>
       <c r="F178" t="n">
-        <v>50933.21408334871</v>
+        <v>43455.62489241861</v>
       </c>
       <c r="G178" t="n">
-        <v>39451.89310744633</v>
+        <v>52774.02178654693</v>
       </c>
       <c r="H178" t="n">
-        <v>0.65</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I178" t="n">
-        <v>2445155</v>
+        <v>2527653</v>
       </c>
     </row>
     <row r="179">
@@ -6662,22 +6662,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>9316163</v>
+        <v>9266978</v>
       </c>
       <c r="E179" t="n">
-        <v>9316163</v>
+        <v>9266978</v>
       </c>
       <c r="F179" t="n">
-        <v>1415.951405357189</v>
+        <v>2124.039199365525</v>
       </c>
       <c r="G179" t="n">
-        <v>344.9444443726677</v>
+        <v>673.9623136712011</v>
       </c>
       <c r="H179" t="n">
-        <v>0.29</v>
+        <v>0.8</v>
       </c>
       <c r="I179" t="n">
-        <v>2037504</v>
+        <v>2056940</v>
       </c>
     </row>
     <row r="180">
@@ -6697,22 +6697,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>183978</v>
+        <v>183794</v>
       </c>
       <c r="E180" t="n">
-        <v>1420683</v>
+        <v>1419256</v>
       </c>
       <c r="F180" t="n">
-        <v>19.19156892204223</v>
+        <v>6.133159590346231</v>
       </c>
       <c r="G180" t="n">
-        <v>46.52774625436538</v>
+        <v>216.9050773226708</v>
       </c>
       <c r="H180" t="n">
-        <v>1.41</v>
+        <v>2.78</v>
       </c>
       <c r="I180" t="n">
-        <v>138092</v>
+        <v>135976</v>
       </c>
     </row>
     <row r="181">
@@ -6732,22 +6732,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>30400952</v>
+        <v>29817122</v>
       </c>
       <c r="E181" t="n">
-        <v>136117534</v>
+        <v>133503485</v>
       </c>
       <c r="F181" t="n">
-        <v>62128.54503102122</v>
+        <v>73008.10768975104</v>
       </c>
       <c r="G181" t="n">
-        <v>71973.51175455863</v>
+        <v>80294.54618297312</v>
       </c>
       <c r="H181" t="n">
-        <v>0.29</v>
+        <v>0.22</v>
       </c>
       <c r="I181" t="n">
-        <v>9442785</v>
+        <v>8973466</v>
       </c>
     </row>
     <row r="182">
@@ -6770,19 +6770,19 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>1495306</v>
+        <v>1415210</v>
       </c>
       <c r="F182" t="n">
-        <v>377.0027910870866</v>
+        <v>109.8945619978612</v>
       </c>
       <c r="G182" t="n">
-        <v>16.23200103582112</v>
+        <v>324.409560784455</v>
       </c>
       <c r="H182" t="n">
-        <v>3.39</v>
+        <v>0.79</v>
       </c>
       <c r="I182" t="n">
-        <v>68904</v>
+        <v>50375</v>
       </c>
     </row>
     <row r="183">
@@ -6802,22 +6802,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>2972924</v>
+        <v>2911535</v>
       </c>
       <c r="E183" t="n">
-        <v>2972924</v>
+        <v>2911535</v>
       </c>
       <c r="F183" t="n">
-        <v>789.8913780907279</v>
+        <v>1128.350206750408</v>
       </c>
       <c r="G183" t="n">
-        <v>608.4747310632133</v>
+        <v>556.3268363890858</v>
       </c>
       <c r="H183" t="n">
-        <v>1.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I183" t="n">
-        <v>374239</v>
+        <v>363990</v>
       </c>
     </row>
     <row r="184">
@@ -6837,22 +6837,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>581590</v>
+        <v>573284</v>
       </c>
       <c r="E184" t="n">
-        <v>581590</v>
+        <v>573284</v>
       </c>
       <c r="F184" t="n">
-        <v>8.726750186295934</v>
+        <v>18.47267295322633</v>
       </c>
       <c r="G184" t="n">
-        <v>4.75258020716741</v>
+        <v>58.25607983192266</v>
       </c>
       <c r="H184" t="n">
-        <v>1.75</v>
+        <v>3.51</v>
       </c>
       <c r="I184" t="n">
-        <v>1385323</v>
+        <v>1355359</v>
       </c>
     </row>
     <row r="185">
@@ -6872,22 +6872,22 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>13926716</v>
+        <v>13992864</v>
       </c>
       <c r="E185" t="n">
-        <v>17730933</v>
+        <v>17815150</v>
       </c>
       <c r="F185" t="n">
-        <v>3919.393458880809</v>
+        <v>107.3581390444951</v>
       </c>
       <c r="G185" t="n">
-        <v>2936.276544993565</v>
+        <v>872.3543461225988</v>
       </c>
       <c r="H185" t="n">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="I185" t="n">
-        <v>784565</v>
+        <v>790115</v>
       </c>
     </row>
     <row r="186">
@@ -6907,22 +6907,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1959062</v>
+        <v>1942687</v>
       </c>
       <c r="E186" t="n">
-        <v>1959062</v>
+        <v>1942687</v>
       </c>
       <c r="F186" t="n">
-        <v>2.33526485852749</v>
+        <v>1.09686824805398</v>
       </c>
       <c r="G186" t="n">
-        <v>2.705285738471587</v>
+        <v>2.705251617656375</v>
       </c>
       <c r="H186" t="n">
         <v>3.91</v>
       </c>
       <c r="I186" t="n">
-        <v>4171.89</v>
+        <v>3099.47</v>
       </c>
     </row>
     <row r="187">
@@ -6942,22 +6942,22 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>47637943</v>
+        <v>46677730</v>
       </c>
       <c r="E187" t="n">
-        <v>308919380</v>
+        <v>302692655</v>
       </c>
       <c r="F187" t="n">
-        <v>136658.9066479119</v>
+        <v>167936.2710515927</v>
       </c>
       <c r="G187" t="n">
-        <v>120153.7821905975</v>
+        <v>194863.7887462004</v>
       </c>
       <c r="H187" t="n">
-        <v>0.15</v>
+        <v>0.03</v>
       </c>
       <c r="I187" t="n">
-        <v>16852175</v>
+        <v>17262738</v>
       </c>
     </row>
     <row r="188">
@@ -6980,19 +6980,19 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>9296358</v>
+        <v>9394886</v>
       </c>
       <c r="F188" t="n">
-        <v>543.9048759523788</v>
+        <v>73.11521358298873</v>
       </c>
       <c r="G188" t="n">
-        <v>569.6676044406418</v>
+        <v>894.0733125515268</v>
       </c>
       <c r="H188" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="I188" t="n">
-        <v>57860</v>
+        <v>291331</v>
       </c>
     </row>
     <row r="189">
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>6862606</v>
+        <v>6845065</v>
       </c>
       <c r="E189" t="n">
-        <v>6872389</v>
+        <v>6854823</v>
       </c>
       <c r="F189" t="n">
-        <v>908.3324434706952</v>
+        <v>66.71998751374748</v>
       </c>
       <c r="G189" t="n">
-        <v>125.3143543032783</v>
+        <v>550.3753669984437</v>
       </c>
       <c r="H189" t="n">
-        <v>2.49</v>
+        <v>0.55</v>
       </c>
       <c r="I189" t="n">
-        <v>981066</v>
+        <v>988214</v>
       </c>
     </row>
     <row r="190">
@@ -7050,19 +7050,19 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>4770969</v>
+        <v>4779855</v>
       </c>
       <c r="F190" t="n">
-        <v>2335.449802097832</v>
+        <v>1895.97113368107</v>
       </c>
       <c r="G190" t="n">
-        <v>256.7048779470451</v>
+        <v>131.9914302879955</v>
       </c>
       <c r="H190" t="n">
-        <v>2.16</v>
+        <v>1.83</v>
       </c>
       <c r="I190" t="n">
-        <v>155131</v>
+        <v>155207</v>
       </c>
     </row>
     <row r="191">
@@ -7082,22 +7082,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>74471669</v>
+        <v>72641743</v>
       </c>
       <c r="E191" t="n">
-        <v>75273308</v>
+        <v>73423683</v>
       </c>
       <c r="F191" t="n">
-        <v>54328.08540041794</v>
+        <v>60603.5720349387</v>
       </c>
       <c r="G191" t="n">
-        <v>40319.32439227643</v>
+        <v>71407.67118827485</v>
       </c>
       <c r="H191" t="n">
         <v>0.15</v>
       </c>
       <c r="I191" t="n">
-        <v>8932438</v>
+        <v>8620962</v>
       </c>
     </row>
     <row r="192">
@@ -7117,22 +7117,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>236167057</v>
+        <v>235097772</v>
       </c>
       <c r="E192" t="n">
-        <v>236167057</v>
+        <v>235097772</v>
       </c>
       <c r="F192" t="n">
-        <v>121589.1980659154</v>
+        <v>95205.30350196827</v>
       </c>
       <c r="G192" t="n">
-        <v>90861.68418274907</v>
+        <v>85209.88903436218</v>
       </c>
       <c r="H192" t="n">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="I192" t="n">
-        <v>43007210</v>
+        <v>42867737</v>
       </c>
     </row>
     <row r="193">
@@ -7152,22 +7152,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>23528163</v>
+        <v>23056015</v>
       </c>
       <c r="E193" t="n">
-        <v>140773731</v>
+        <v>137948774</v>
       </c>
       <c r="F193" t="n">
-        <v>83280.94723036536</v>
+        <v>95138.28223686865</v>
       </c>
       <c r="G193" t="n">
-        <v>125849.3817413285</v>
+        <v>95782.24684909565</v>
       </c>
       <c r="H193" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I193" t="n">
-        <v>13199090</v>
+        <v>12838977</v>
       </c>
     </row>
     <row r="194">
@@ -7187,22 +7187,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>14325436</v>
+        <v>14078547</v>
       </c>
       <c r="E194" t="n">
-        <v>43959736</v>
+        <v>43202119</v>
       </c>
       <c r="F194" t="n">
-        <v>871.3489424545528</v>
+        <v>698.3977666069243</v>
       </c>
       <c r="G194" t="n">
-        <v>897.071246326462</v>
+        <v>998.4601981598179</v>
       </c>
       <c r="H194" t="n">
-        <v>0.38</v>
+        <v>0.25</v>
       </c>
       <c r="I194" t="n">
-        <v>2535303</v>
+        <v>2507105</v>
       </c>
     </row>
     <row r="195">
@@ -7222,22 +7222,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>52697649</v>
+        <v>52205994</v>
       </c>
       <c r="E195" t="n">
-        <v>91020296</v>
+        <v>90171102</v>
       </c>
       <c r="F195" t="n">
-        <v>7092.219979357312</v>
+        <v>7083.754136197283</v>
       </c>
       <c r="G195" t="n">
-        <v>9252.970698651827</v>
+        <v>13229.05807224107</v>
       </c>
       <c r="H195" t="n">
-        <v>0.01</v>
+        <v>0.2</v>
       </c>
       <c r="I195" t="n">
-        <v>1924018</v>
+        <v>1906918</v>
       </c>
     </row>
     <row r="196">
@@ -7257,22 +7257,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>4222538</v>
+        <v>4213266</v>
       </c>
       <c r="E196" t="n">
-        <v>4222538</v>
+        <v>4213266</v>
       </c>
       <c r="F196" t="n">
-        <v>1.064204755035765</v>
+        <v>188.0892757245149</v>
       </c>
       <c r="G196" t="n">
-        <v>1093.881670483039</v>
+        <v>2.096236921593929</v>
       </c>
       <c r="H196" t="n">
-        <v>1.93</v>
+        <v>0.21</v>
       </c>
       <c r="I196" t="n">
-        <v>1548945</v>
+        <v>1541104</v>
       </c>
     </row>
     <row r="197">
@@ -7295,19 +7295,19 @@
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>211650</v>
+        <v>209930</v>
       </c>
       <c r="F197" t="n">
-        <v>225.6172141369613</v>
+        <v>5.92409855311471</v>
       </c>
       <c r="G197" t="n">
-        <v>175.6224368389978</v>
+        <v>301.0912605737129</v>
       </c>
       <c r="H197" t="n">
-        <v>2.26</v>
+        <v>3.27</v>
       </c>
       <c r="I197" t="n">
-        <v>61462</v>
+        <v>62325</v>
       </c>
     </row>
     <row r="198">
@@ -7327,22 +7327,22 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>6910197</v>
+        <v>6911662</v>
       </c>
       <c r="E198" t="n">
-        <v>35550862</v>
+        <v>35558399</v>
       </c>
       <c r="F198" t="n">
-        <v>294.1170999767333</v>
+        <v>283.9397076842482</v>
       </c>
       <c r="G198" t="n">
-        <v>328.6148895457504</v>
+        <v>290.5055491228542</v>
       </c>
       <c r="H198" t="n">
-        <v>1.37</v>
+        <v>1.62</v>
       </c>
       <c r="I198" t="n">
-        <v>850731</v>
+        <v>909771</v>
       </c>
     </row>
     <row r="199">
@@ -7362,22 +7362,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>174415767</v>
+        <v>174634242</v>
       </c>
       <c r="E199" t="n">
-        <v>203769115</v>
+        <v>204024359</v>
       </c>
       <c r="F199" t="n">
-        <v>22413.33919158114</v>
+        <v>19345.6979136564</v>
       </c>
       <c r="G199" t="n">
-        <v>34749.37569449353</v>
+        <v>36274.48160116623</v>
       </c>
       <c r="H199" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="I199" t="n">
-        <v>4546351</v>
+        <v>4439061</v>
       </c>
     </row>
     <row r="200">
@@ -7400,19 +7400,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>306038</v>
+        <v>302217</v>
       </c>
       <c r="F200" t="n">
-        <v>109.3819349339359</v>
+        <v>207.403806137988</v>
       </c>
       <c r="G200" t="n">
-        <v>302.7256303646079</v>
+        <v>99.19810281964746</v>
       </c>
       <c r="H200" t="n">
-        <v>0.33</v>
+        <v>1.64</v>
       </c>
       <c r="I200" t="n">
-        <v>254766</v>
+        <v>259757</v>
       </c>
     </row>
     <row r="201">
@@ -7435,19 +7435,19 @@
         <v>0</v>
       </c>
       <c r="E201" t="n">
-        <v>8068331</v>
+        <v>8053912</v>
       </c>
       <c r="F201" t="n">
-        <v>862.915144139761</v>
+        <v>821.4095087383939</v>
       </c>
       <c r="G201" t="n">
-        <v>759.8345268058035</v>
+        <v>614.4136466083665</v>
       </c>
       <c r="H201" t="n">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="I201" t="n">
-        <v>723062</v>
+        <v>715026</v>
       </c>
     </row>
     <row r="202">
@@ -7470,19 +7470,19 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>34014</v>
+        <v>36001</v>
       </c>
       <c r="F202" t="n">
-        <v>0</v>
+        <v>192.8780940562301</v>
       </c>
       <c r="G202" t="n">
-        <v>0</v>
+        <v>6.094836636770368</v>
       </c>
       <c r="H202" t="n">
-        <v>5.56</v>
+        <v>2.78</v>
       </c>
       <c r="I202" t="n">
-        <v>378.54</v>
+        <v>650.85</v>
       </c>
     </row>
     <row r="203">
@@ -7502,22 +7502,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>34231384</v>
+        <v>33568013</v>
       </c>
       <c r="E203" t="n">
-        <v>170830384</v>
+        <v>167519858</v>
       </c>
       <c r="F203" t="n">
-        <v>91440.0335950904</v>
+        <v>104858.9669124502</v>
       </c>
       <c r="G203" t="n">
-        <v>120859.1842373146</v>
+        <v>66317.84403009873</v>
       </c>
       <c r="H203" t="n">
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
       <c r="I203" t="n">
-        <v>9818801</v>
+        <v>9811765</v>
       </c>
     </row>
     <row r="204">
@@ -7537,10 +7537,10 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>2016565</v>
+        <v>1920265</v>
       </c>
       <c r="E204" t="n">
-        <v>2016565</v>
+        <v>1920265</v>
       </c>
       <c r="F204" t="n">
         <v>0</v>
@@ -7549,10 +7549,10 @@
         <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>17.93</v>
+        <v>17.63</v>
       </c>
       <c r="I204" t="n">
-        <v>7498.21</v>
+        <v>7316.09</v>
       </c>
     </row>
     <row r="205">
@@ -7575,19 +7575,19 @@
         <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>170051</v>
+        <v>168669</v>
       </c>
       <c r="F205" t="n">
-        <v>50.18639348952835</v>
+        <v>64.3536727796849</v>
       </c>
       <c r="G205" t="n">
-        <v>597.0385822796064</v>
+        <v>10.16118180138284</v>
       </c>
       <c r="H205" t="n">
-        <v>2.96</v>
+        <v>1.19</v>
       </c>
       <c r="I205" t="n">
-        <v>14114</v>
+        <v>13120.37</v>
       </c>
     </row>
     <row r="206">
@@ -7607,10 +7607,10 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>2778.85</v>
+        <v>2774.98</v>
       </c>
       <c r="E206" t="n">
-        <v>33213</v>
+        <v>33167</v>
       </c>
       <c r="F206" t="n">
         <v>0</v>
@@ -7619,10 +7619,10 @@
         <v>0</v>
       </c>
       <c r="H206" t="n">
-        <v>11.41</v>
+        <v>5.23</v>
       </c>
       <c r="I206" t="n">
-        <v>6191.81</v>
+        <v>6865.36</v>
       </c>
     </row>
     <row r="207">
@@ -7669,22 +7669,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>313233258</v>
+        <v>308623474</v>
       </c>
       <c r="E208" t="n">
-        <v>579552959</v>
+        <v>571023808</v>
       </c>
       <c r="F208" t="n">
-        <v>166613.8631352362</v>
+        <v>188366.4734611491</v>
       </c>
       <c r="G208" t="n">
-        <v>188214.1997476871</v>
+        <v>197727.6676693269</v>
       </c>
       <c r="H208" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I208" t="n">
-        <v>12225452</v>
+        <v>12440689</v>
       </c>
     </row>
     <row r="209">
@@ -7704,22 +7704,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>71456336</v>
+        <v>70324696</v>
       </c>
       <c r="E209" t="n">
-        <v>681793436</v>
+        <v>670988421</v>
       </c>
       <c r="F209" t="n">
-        <v>232015.3476417983</v>
+        <v>303891.6288413749</v>
       </c>
       <c r="G209" t="n">
-        <v>203451.7860781514</v>
+        <v>265209.9387343774</v>
       </c>
       <c r="H209" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="I209" t="n">
-        <v>20924213</v>
+        <v>20791638</v>
       </c>
     </row>
     <row r="210">
@@ -7742,19 +7742,19 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>2236439</v>
+        <v>2179343</v>
       </c>
       <c r="F210" t="n">
-        <v>1082.780009535513</v>
+        <v>30.26341842926798</v>
       </c>
       <c r="G210" t="n">
-        <v>1.457835869423562</v>
+        <v>732.3880027893188</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="I210" t="n">
-        <v>63949</v>
+        <v>64936</v>
       </c>
     </row>
     <row r="211">
@@ -7774,10 +7774,10 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>81572</v>
+        <v>81369</v>
       </c>
       <c r="E211" t="n">
-        <v>678126</v>
+        <v>676436</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -7786,10 +7786,10 @@
         <v>0</v>
       </c>
       <c r="H211" t="n">
-        <v>7.04</v>
+        <v>5.71</v>
       </c>
       <c r="I211" t="n">
-        <v>427.85</v>
+        <v>424.11</v>
       </c>
     </row>
     <row r="212">
@@ -7809,22 +7809,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1900767</v>
+        <v>1898048</v>
       </c>
       <c r="E212" t="n">
-        <v>5428347</v>
+        <v>5420581</v>
       </c>
       <c r="F212" t="n">
-        <v>223.5576561901465</v>
+        <v>63.52288768889377</v>
       </c>
       <c r="G212" t="n">
-        <v>340.1710340423917</v>
+        <v>253.5150336160826</v>
       </c>
       <c r="H212" t="n">
-        <v>0.39</v>
+        <v>1.16</v>
       </c>
       <c r="I212" t="n">
-        <v>74606</v>
+        <v>72839</v>
       </c>
     </row>
     <row r="213">
@@ -7844,22 +7844,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>10061201</v>
+        <v>10022002</v>
       </c>
       <c r="E213" t="n">
-        <v>30000420</v>
+        <v>29883536</v>
       </c>
       <c r="F213" t="n">
-        <v>1216.068706560954</v>
+        <v>2140.458747537871</v>
       </c>
       <c r="G213" t="n">
-        <v>2045.37859119878</v>
+        <v>1886.211302627321</v>
       </c>
       <c r="H213" t="n">
         <v>0.58</v>
       </c>
       <c r="I213" t="n">
-        <v>5288160</v>
+        <v>5387400</v>
       </c>
     </row>
     <row r="214">
@@ -7882,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>14883426</v>
+        <v>14878893</v>
       </c>
       <c r="F214" t="n">
         <v>0</v>
@@ -7891,10 +7891,10 @@
         <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>9.859999999999999</v>
+        <v>9.33</v>
       </c>
       <c r="I214" t="n">
-        <v>1203.51</v>
+        <v>1204.8</v>
       </c>
     </row>
     <row r="215">
@@ -7914,22 +7914,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>2025757</v>
+        <v>2029001</v>
       </c>
       <c r="E215" t="n">
-        <v>5877373</v>
+        <v>5886783</v>
       </c>
       <c r="F215" t="n">
-        <v>19.32567376894084</v>
+        <v>44.00724087030344</v>
       </c>
       <c r="G215" t="n">
-        <v>559.6163940995423</v>
+        <v>108.4514517102613</v>
       </c>
       <c r="H215" t="n">
-        <v>2.32</v>
+        <v>1.58</v>
       </c>
       <c r="I215" t="n">
-        <v>68571</v>
+        <v>68066</v>
       </c>
     </row>
     <row r="216">
@@ -7949,22 +7949,22 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>2114297</v>
+        <v>2258752</v>
       </c>
       <c r="E216" t="n">
-        <v>18649500</v>
+        <v>19923691</v>
       </c>
       <c r="F216" t="n">
-        <v>1372.74183924633</v>
+        <v>2976.226645412085</v>
       </c>
       <c r="G216" t="n">
-        <v>1754.560955649525</v>
+        <v>4288.710957079434</v>
       </c>
       <c r="H216" t="n">
-        <v>1.04</v>
+        <v>0.63</v>
       </c>
       <c r="I216" t="n">
-        <v>77344</v>
+        <v>80566</v>
       </c>
     </row>
     <row r="217">
@@ -7984,22 +7984,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>44796732</v>
+        <v>43981759</v>
       </c>
       <c r="E217" t="n">
-        <v>44796732</v>
+        <v>43981759</v>
       </c>
       <c r="F217" t="n">
-        <v>39711.83177066427</v>
+        <v>38846.86172629911</v>
       </c>
       <c r="G217" t="n">
-        <v>40200.65693719632</v>
+        <v>39207.88369505704</v>
       </c>
       <c r="H217" t="n">
-        <v>0.18</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I217" t="n">
-        <v>8771186</v>
+        <v>8846893</v>
       </c>
     </row>
     <row r="218">
@@ -8019,22 +8019,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>7845812</v>
+        <v>7865486</v>
       </c>
       <c r="E218" t="n">
-        <v>11178485</v>
+        <v>11206516</v>
       </c>
       <c r="F218" t="n">
-        <v>3392.528404353021</v>
+        <v>3282.898742543629</v>
       </c>
       <c r="G218" t="n">
-        <v>413.8634057864357</v>
+        <v>428.1748995909887</v>
       </c>
       <c r="H218" t="n">
-        <v>1.59</v>
+        <v>1.03</v>
       </c>
       <c r="I218" t="n">
-        <v>311162</v>
+        <v>303655</v>
       </c>
     </row>
     <row r="219">
@@ -8057,19 +8057,19 @@
         <v>0</v>
       </c>
       <c r="E219" t="n">
-        <v>16387199</v>
+        <v>16512570</v>
       </c>
       <c r="F219" t="n">
-        <v>1.057074323408063</v>
+        <v>199.6395884600056</v>
       </c>
       <c r="G219" t="n">
-        <v>1138.198921010953</v>
+        <v>2.098330935456632</v>
       </c>
       <c r="H219" t="n">
-        <v>2.03</v>
+        <v>1.43</v>
       </c>
       <c r="I219" t="n">
-        <v>366920</v>
+        <v>981801</v>
       </c>
     </row>
     <row r="220">
@@ -8092,19 +8092,19 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>722712</v>
+        <v>722391</v>
       </c>
       <c r="F220" t="n">
-        <v>49.06417618499862</v>
+        <v>80.61566838392132</v>
       </c>
       <c r="G220" t="n">
-        <v>412.2803741567076</v>
+        <v>411.5620550379144</v>
       </c>
       <c r="H220" t="n">
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
       <c r="I220" t="n">
-        <v>225302</v>
+        <v>225206</v>
       </c>
     </row>
     <row r="221">
@@ -8124,22 +8124,22 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>2833406</v>
+        <v>2772785</v>
       </c>
       <c r="E221" t="n">
-        <v>2835859</v>
+        <v>2775186</v>
       </c>
       <c r="F221" t="n">
-        <v>71.56950669787264</v>
+        <v>18.04423590280975</v>
       </c>
       <c r="G221" t="n">
-        <v>119.4546162031878</v>
+        <v>264.4046638023387</v>
       </c>
       <c r="H221" t="n">
-        <v>3.12</v>
+        <v>2.23</v>
       </c>
       <c r="I221" t="n">
-        <v>76477</v>
+        <v>74464</v>
       </c>
     </row>
     <row r="222">
@@ -8159,22 +8159,22 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1256867</v>
+        <v>1241554</v>
       </c>
       <c r="E222" t="n">
-        <v>3802464</v>
+        <v>3755705</v>
       </c>
       <c r="F222" t="n">
-        <v>1809.550903451959</v>
+        <v>1810.614210812084</v>
       </c>
       <c r="G222" t="n">
-        <v>604.3468411933324</v>
+        <v>604.3496467845114</v>
       </c>
       <c r="H222" t="n">
         <v>1.57</v>
       </c>
       <c r="I222" t="n">
-        <v>22426</v>
+        <v>15752.32</v>
       </c>
     </row>
     <row r="223">
@@ -8194,22 +8194,22 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>38433700</v>
+        <v>37304426</v>
       </c>
       <c r="E223" t="n">
-        <v>272488665</v>
+        <v>264482294</v>
       </c>
       <c r="F223" t="n">
-        <v>75287.34169949222</v>
+        <v>69845.24395193144</v>
       </c>
       <c r="G223" t="n">
-        <v>69835.77845154679</v>
+        <v>51178.11024237668</v>
       </c>
       <c r="H223" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="I223" t="n">
-        <v>1944191</v>
+        <v>1824788</v>
       </c>
     </row>
     <row r="224">
@@ -8229,22 +8229,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>60895</v>
+        <v>58595</v>
       </c>
       <c r="E224" t="n">
-        <v>317727</v>
+        <v>305725</v>
       </c>
       <c r="F224" t="n">
-        <v>30.54044178853099</v>
+        <v>8.689982655616083</v>
       </c>
       <c r="G224" t="n">
-        <v>195.7137893402671</v>
+        <v>165.6631783295005</v>
       </c>
       <c r="H224" t="n">
-        <v>1.18</v>
+        <v>2.26</v>
       </c>
       <c r="I224" t="n">
-        <v>302190</v>
+        <v>301881</v>
       </c>
     </row>
     <row r="225">
@@ -8264,22 +8264,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1260056</v>
+        <v>1257366</v>
       </c>
       <c r="E225" t="n">
-        <v>7814279</v>
+        <v>7797619</v>
       </c>
       <c r="F225" t="n">
-        <v>1758.625590201208</v>
+        <v>1850.080637333723</v>
       </c>
       <c r="G225" t="n">
-        <v>1884.38493058719</v>
+        <v>2646.63548100456</v>
       </c>
       <c r="H225" t="n">
         <v>0.08</v>
       </c>
       <c r="I225" t="n">
-        <v>842039</v>
+        <v>817575</v>
       </c>
     </row>
     <row r="226">
@@ -8299,22 +8299,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>598746822</v>
+        <v>590601980</v>
       </c>
       <c r="E226" t="n">
-        <v>2318858104</v>
+        <v>2287314332</v>
       </c>
       <c r="F226" t="n">
-        <v>238814.8592465688</v>
+        <v>176478.5132252224</v>
       </c>
       <c r="G226" t="n">
-        <v>255359.5734802276</v>
+        <v>338404.9994141244</v>
       </c>
       <c r="H226" t="n">
         <v>0.04</v>
       </c>
       <c r="I226" t="n">
-        <v>30482261</v>
+        <v>29773106</v>
       </c>
     </row>
     <row r="227">
@@ -8337,19 +8337,19 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>20814882</v>
+        <v>20707737</v>
       </c>
       <c r="F227" t="n">
-        <v>715.7492848169464</v>
+        <v>1304.053936290598</v>
       </c>
       <c r="G227" t="n">
-        <v>1018.28966469632</v>
+        <v>544.7423970993168</v>
       </c>
       <c r="H227" t="n">
-        <v>0.05</v>
+        <v>0.38</v>
       </c>
       <c r="I227" t="n">
-        <v>15859276</v>
+        <v>15642954</v>
       </c>
     </row>
     <row r="228">
@@ -8372,19 +8372,19 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>957839</v>
+        <v>954253</v>
       </c>
       <c r="F228" t="n">
-        <v>62.8658387485016</v>
+        <v>458.0925019070677</v>
       </c>
       <c r="G228" t="n">
-        <v>4.215874526811855</v>
+        <v>284.3446583436125</v>
       </c>
       <c r="H228" t="n">
-        <v>3.52</v>
+        <v>2.29</v>
       </c>
       <c r="I228" t="n">
-        <v>402483</v>
+        <v>392676</v>
       </c>
     </row>
     <row r="229">
@@ -8404,22 +8404,22 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>5810330</v>
+        <v>5793735</v>
       </c>
       <c r="E229" t="n">
-        <v>26013593</v>
+        <v>25939298</v>
       </c>
       <c r="F229" t="n">
-        <v>2122.711522508085</v>
+        <v>1499.221736059229</v>
       </c>
       <c r="G229" t="n">
-        <v>2032.16078230377</v>
+        <v>2607.075178616691</v>
       </c>
       <c r="H229" t="n">
-        <v>0.78</v>
+        <v>0.39</v>
       </c>
       <c r="I229" t="n">
-        <v>142118</v>
+        <v>143289</v>
       </c>
     </row>
     <row r="230">
@@ -8439,22 +8439,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>6028779</v>
+        <v>6006440</v>
       </c>
       <c r="E230" t="n">
-        <v>11542586</v>
+        <v>11499817</v>
       </c>
       <c r="F230" t="n">
-        <v>4195.943418002472</v>
+        <v>178.9578519057217</v>
       </c>
       <c r="G230" t="n">
-        <v>3978.629473299899</v>
+        <v>24.51261466709524</v>
       </c>
       <c r="H230" t="n">
-        <v>0.96</v>
+        <v>2.94</v>
       </c>
       <c r="I230" t="n">
-        <v>174104</v>
+        <v>207497</v>
       </c>
     </row>
     <row r="231">
@@ -8474,22 +8474,22 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>3292475</v>
+        <v>3281113</v>
       </c>
       <c r="E231" t="n">
-        <v>21650546</v>
+        <v>21575833</v>
       </c>
       <c r="F231" t="n">
-        <v>12.04010655740332</v>
+        <v>274.1154966854952</v>
       </c>
       <c r="G231" t="n">
-        <v>525.1034656294096</v>
+        <v>447.826786592019</v>
       </c>
       <c r="H231" t="n">
-        <v>0.22</v>
+        <v>0.83</v>
       </c>
       <c r="I231" t="n">
-        <v>1421692</v>
+        <v>1383039</v>
       </c>
     </row>
     <row r="232">
@@ -8509,22 +8509,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>118273350</v>
+        <v>116384642</v>
       </c>
       <c r="E232" t="n">
-        <v>1028314087</v>
+        <v>1011892932</v>
       </c>
       <c r="F232" t="n">
-        <v>196738.2308864383</v>
+        <v>187586.3103186413</v>
       </c>
       <c r="G232" t="n">
-        <v>204527.2680050745</v>
+        <v>219765.1214614577</v>
       </c>
       <c r="H232" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I232" t="n">
-        <v>9622034</v>
+        <v>9521061</v>
       </c>
     </row>
     <row r="233">
@@ -8548,16 +8548,16 @@
       </c>
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="n">
-        <v>0.6963487269232519</v>
+        <v>0.696344870236693</v>
       </c>
       <c r="G233" t="n">
-        <v>4.02010368523131</v>
+        <v>8.020557666114051</v>
       </c>
       <c r="H233" t="n">
         <v>3.83</v>
       </c>
       <c r="I233" t="n">
-        <v>1113.67</v>
+        <v>1115.15</v>
       </c>
     </row>
     <row r="234">
@@ -8577,22 +8577,22 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>104647553</v>
+        <v>101585954</v>
       </c>
       <c r="E234" t="n">
-        <v>159642296</v>
+        <v>154971754</v>
       </c>
       <c r="F234" t="n">
-        <v>99038.57821688797</v>
+        <v>98402.24658635333</v>
       </c>
       <c r="G234" t="n">
-        <v>64472.08952849961</v>
+        <v>89093.61889385559</v>
       </c>
       <c r="H234" t="n">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="I234" t="n">
-        <v>7195691</v>
+        <v>7072057</v>
       </c>
     </row>
     <row r="235">
@@ -8612,22 +8612,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>15863323</v>
+        <v>15724193</v>
       </c>
       <c r="E235" t="n">
-        <v>21763106</v>
+        <v>21572231</v>
       </c>
       <c r="F235" t="n">
-        <v>1009.556874473905</v>
+        <v>907.7455711478012</v>
       </c>
       <c r="G235" t="n">
-        <v>2990.682974132719</v>
+        <v>2298.417920055514</v>
       </c>
       <c r="H235" t="n">
-        <v>1.09</v>
+        <v>1.33</v>
       </c>
       <c r="I235" t="n">
-        <v>371244</v>
+        <v>356774</v>
       </c>
     </row>
     <row r="236">
@@ -8647,22 +8647,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>108382510</v>
+        <v>106731753</v>
       </c>
       <c r="E236" t="n">
-        <v>415772755</v>
+        <v>409440183</v>
       </c>
       <c r="F236" t="n">
-        <v>501084.443313287</v>
+        <v>473980.4277702409</v>
       </c>
       <c r="G236" t="n">
-        <v>358609.227335934</v>
+        <v>465546.1790724141</v>
       </c>
       <c r="H236" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I236" t="n">
-        <v>18903787</v>
+        <v>18623287</v>
       </c>
     </row>
     <row r="237">
@@ -8685,19 +8685,19 @@
         <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>660814</v>
+        <v>756417</v>
       </c>
       <c r="F237" t="n">
-        <v>6.090442956593726</v>
+        <v>650.1419948268435</v>
       </c>
       <c r="G237" t="n">
-        <v>20.55275181405367</v>
+        <v>20.55255308995715</v>
       </c>
       <c r="H237" t="n">
-        <v>3.83</v>
+        <v>3.6</v>
       </c>
       <c r="I237" t="n">
-        <v>46323</v>
+        <v>52532</v>
       </c>
     </row>
     <row r="238">
@@ -8720,7 +8720,7 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>830594</v>
+        <v>790929</v>
       </c>
       <c r="F238" t="n">
         <v>0</v>
@@ -8729,10 +8729,10 @@
         <v>0</v>
       </c>
       <c r="H238" t="n">
-        <v>9.720000000000001</v>
+        <v>8.99</v>
       </c>
       <c r="I238" t="n">
-        <v>18545.25</v>
+        <v>19368.41</v>
       </c>
     </row>
     <row r="239">
@@ -8752,22 +8752,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>3221421</v>
+        <v>3186978</v>
       </c>
       <c r="E239" t="n">
-        <v>30523436</v>
+        <v>30197091</v>
       </c>
       <c r="F239" t="n">
-        <v>1854.160302278547</v>
+        <v>1433.963807452567</v>
       </c>
       <c r="G239" t="n">
-        <v>1248.767711330116</v>
+        <v>1358.567646817185</v>
       </c>
       <c r="H239" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="I239" t="n">
-        <v>238915</v>
+        <v>239921</v>
       </c>
     </row>
     <row r="240">
@@ -8787,22 +8787,22 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>731036</v>
+        <v>721927</v>
       </c>
       <c r="E240" t="n">
-        <v>781473</v>
+        <v>771736</v>
       </c>
       <c r="F240" t="n">
-        <v>13.63435011123434</v>
+        <v>256.1773961239992</v>
       </c>
       <c r="G240" t="n">
-        <v>1777.56640671006</v>
+        <v>2547.838925136624</v>
       </c>
       <c r="H240" t="n">
-        <v>2.01</v>
+        <v>0.2</v>
       </c>
       <c r="I240" t="n">
-        <v>12171.3</v>
+        <v>16242.79</v>
       </c>
     </row>
     <row r="241">
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="E241" t="n">
-        <v>343908</v>
+        <v>343783</v>
       </c>
       <c r="F241" t="n">
         <v>0</v>
@@ -8834,10 +8834,10 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>7.83</v>
+        <v>5.65</v>
       </c>
       <c r="I241" t="n">
-        <v>583.64</v>
+        <v>570.3099999999999</v>
       </c>
     </row>
     <row r="242">
@@ -8860,19 +8860,19 @@
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>147786</v>
+        <v>145529</v>
       </c>
       <c r="F242" t="n">
-        <v>11.48354536117034</v>
+        <v>29.55206154627478</v>
       </c>
       <c r="G242" t="n">
-        <v>139.2093072618973</v>
+        <v>139.2079612502263</v>
       </c>
       <c r="H242" t="n">
-        <v>0.68</v>
+        <v>3.33</v>
       </c>
       <c r="I242" t="n">
-        <v>107980</v>
+        <v>117312</v>
       </c>
     </row>
     <row r="243">
@@ -8895,7 +8895,7 @@
         <v>0</v>
       </c>
       <c r="E243" t="n">
-        <v>576295</v>
+        <v>575941</v>
       </c>
       <c r="F243" t="n">
         <v>0</v>
@@ -8904,10 +8904,10 @@
         <v>0</v>
       </c>
       <c r="H243" t="n">
-        <v>5.05</v>
+        <v>7.84</v>
       </c>
       <c r="I243" t="n">
-        <v>454.59</v>
+        <v>454.4</v>
       </c>
     </row>
     <row r="244">
@@ -8927,22 +8927,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>6043797</v>
+        <v>6024989</v>
       </c>
       <c r="E244" t="n">
-        <v>37772000</v>
+        <v>37654458</v>
       </c>
       <c r="F244" t="n">
-        <v>657.6430561738599</v>
+        <v>693.3727611548945</v>
       </c>
       <c r="G244" t="n">
-        <v>1491.204474035947</v>
+        <v>1367.275528891551</v>
       </c>
       <c r="H244" t="n">
         <v>0.18</v>
       </c>
       <c r="I244" t="n">
-        <v>328314</v>
+        <v>317325</v>
       </c>
     </row>
     <row r="245">
@@ -8962,22 +8962,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>5093623</v>
+        <v>5091051</v>
       </c>
       <c r="E245" t="n">
-        <v>18967608</v>
+        <v>18958033</v>
       </c>
       <c r="F245" t="n">
-        <v>6620.057809221432</v>
+        <v>6619.429693336679</v>
       </c>
       <c r="G245" t="n">
-        <v>7394.866127853935</v>
+        <v>7394.485009001917</v>
       </c>
       <c r="H245" t="n">
         <v>0.53</v>
       </c>
       <c r="I245" t="n">
-        <v>59950</v>
+        <v>57926</v>
       </c>
     </row>
     <row r="246">
@@ -9000,19 +9000,19 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>3800058</v>
+        <v>3798676</v>
       </c>
       <c r="F246" t="n">
-        <v>146.8198776444318</v>
+        <v>146.8184580463264</v>
       </c>
       <c r="G246" t="n">
-        <v>176.7635742905942</v>
+        <v>176.8353807289635</v>
       </c>
       <c r="H246" t="n">
         <v>1.9</v>
       </c>
       <c r="I246" t="n">
-        <v>7604.75</v>
+        <v>7462.42</v>
       </c>
     </row>
     <row r="247">
@@ -9032,22 +9032,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>31474315</v>
+        <v>31444162</v>
       </c>
       <c r="E247" t="n">
-        <v>112815282</v>
+        <v>112707205</v>
       </c>
       <c r="F247" t="n">
-        <v>30.08744977701365</v>
+        <v>30.08715886213627</v>
       </c>
       <c r="G247" t="n">
-        <v>700.8270757546129</v>
+        <v>2834.022871978371</v>
       </c>
       <c r="H247" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="I247" t="n">
-        <v>93610</v>
+        <v>95010</v>
       </c>
     </row>
     <row r="248">
@@ -9070,19 +9070,19 @@
         <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>1580409</v>
+        <v>1541696</v>
       </c>
       <c r="F248" t="n">
-        <v>33.80381450319489</v>
+        <v>33.83466528572559</v>
       </c>
       <c r="G248" t="n">
-        <v>40.2014914096441</v>
+        <v>5.487939109267153</v>
       </c>
       <c r="H248" t="n">
-        <v>2.53</v>
+        <v>1.96</v>
       </c>
       <c r="I248" t="n">
-        <v>613473</v>
+        <v>613514</v>
       </c>
     </row>
     <row r="249">
@@ -9102,22 +9102,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>2146255</v>
+        <v>2151156</v>
       </c>
       <c r="E249" t="n">
-        <v>16508388</v>
+        <v>16546084</v>
       </c>
       <c r="F249" t="n">
-        <v>5471.679003743428</v>
+        <v>5140.239158852341</v>
       </c>
       <c r="G249" t="n">
-        <v>5186.099124605749</v>
+        <v>5192.7319801121</v>
       </c>
       <c r="H249" t="n">
-        <v>0.12</v>
+        <v>0.42</v>
       </c>
       <c r="I249" t="n">
-        <v>170437</v>
+        <v>169316</v>
       </c>
     </row>
     <row r="250">
@@ -9137,22 +9137,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>103181</v>
+        <v>103152</v>
       </c>
       <c r="E250" t="n">
-        <v>819571</v>
+        <v>819339</v>
       </c>
       <c r="F250" t="n">
-        <v>174.3205454637937</v>
+        <v>177.1776144845013</v>
       </c>
       <c r="G250" t="n">
-        <v>340.680368782192</v>
+        <v>340.6770747513438</v>
       </c>
       <c r="H250" t="n">
         <v>0.72</v>
       </c>
       <c r="I250" t="n">
-        <v>1256.83</v>
+        <v>1211.63</v>
       </c>
     </row>
     <row r="251">
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>87494632</v>
+        <v>87483142</v>
       </c>
       <c r="E251" t="n">
-        <v>323447490</v>
+        <v>323403917</v>
       </c>
       <c r="F251" t="n">
-        <v>5800.007897096844</v>
+        <v>5250.415041411969</v>
       </c>
       <c r="G251" t="n">
-        <v>1257.538804873535</v>
+        <v>4677.83210828561</v>
       </c>
       <c r="H251" t="n">
-        <v>0.45</v>
+        <v>0.54</v>
       </c>
       <c r="I251" t="n">
-        <v>368242</v>
+        <v>363042</v>
       </c>
     </row>
     <row r="252">
@@ -9207,22 +9207,22 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>2449191</v>
+        <v>2510953</v>
       </c>
       <c r="E252" t="n">
-        <v>9827462</v>
+        <v>10075283</v>
       </c>
       <c r="F252" t="n">
-        <v>28.24630836321129</v>
+        <v>5.160600988431197</v>
       </c>
       <c r="G252" t="n">
-        <v>3.540032886343117</v>
+        <v>257.1507453203873</v>
       </c>
       <c r="H252" t="n">
-        <v>3.44</v>
+        <v>2.42</v>
       </c>
       <c r="I252" t="n">
-        <v>38066</v>
+        <v>40936</v>
       </c>
     </row>
     <row r="253">
@@ -9245,19 +9245,19 @@
         <v>0</v>
       </c>
       <c r="E253" t="n">
-        <v>586724</v>
+        <v>587617</v>
       </c>
       <c r="F253" t="n">
-        <v>0</v>
+        <v>339.7540778468356</v>
       </c>
       <c r="G253" t="n">
-        <v>0</v>
+        <v>4.000465257432011</v>
       </c>
       <c r="H253" t="n">
-        <v>4.7</v>
+        <v>0.79</v>
       </c>
       <c r="I253" t="n">
-        <v>30430</v>
+        <v>30360</v>
       </c>
     </row>
     <row r="254">
@@ -9276,19 +9276,19 @@
         <v>0</v>
       </c>
       <c r="E254" t="n">
-        <v>38109</v>
+        <v>39108</v>
       </c>
       <c r="F254" t="n">
-        <v>0</v>
+        <v>77.11791852034513</v>
       </c>
       <c r="G254" t="n">
-        <v>0</v>
+        <v>1.348038275946179</v>
       </c>
       <c r="H254" t="n">
-        <v>4.09</v>
+        <v>3.25</v>
       </c>
       <c r="I254" t="n">
-        <v>2331.92</v>
+        <v>3190.6</v>
       </c>
     </row>
     <row r="255">
@@ -9308,22 +9308,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>682546292</v>
+        <v>659172379</v>
       </c>
       <c r="E255" t="n">
-        <v>1052546645</v>
+        <v>1016502008</v>
       </c>
       <c r="F255" t="n">
-        <v>175357.8446960702</v>
+        <v>122020.292786848</v>
       </c>
       <c r="G255" t="n">
-        <v>145463.0329815155</v>
+        <v>286314.6684081972</v>
       </c>
       <c r="H255" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I255" t="n">
-        <v>190339315</v>
+        <v>158345917</v>
       </c>
     </row>
     <row r="256">
@@ -9343,22 +9343,22 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>5831080</v>
+        <v>5685983</v>
       </c>
       <c r="E256" t="n">
-        <v>5831080</v>
+        <v>5685983</v>
       </c>
       <c r="F256" t="n">
-        <v>0</v>
+        <v>18.29820165481145</v>
       </c>
       <c r="G256" t="n">
-        <v>0</v>
+        <v>6.864226387640576</v>
       </c>
       <c r="H256" t="n">
-        <v>6.42</v>
+        <v>0.58</v>
       </c>
       <c r="I256" t="n">
-        <v>460.67</v>
+        <v>473.42</v>
       </c>
     </row>
     <row r="257">
@@ -9378,22 +9378,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>40521761</v>
+        <v>39866997</v>
       </c>
       <c r="E257" t="n">
-        <v>193418825</v>
+        <v>190293234</v>
       </c>
       <c r="F257" t="n">
-        <v>4428.527896869851</v>
+        <v>4110.571139409575</v>
       </c>
       <c r="G257" t="n">
-        <v>171.5230177258485</v>
+        <v>663.7644551385538</v>
       </c>
       <c r="H257" t="n">
-        <v>0.98</v>
+        <v>0.11</v>
       </c>
       <c r="I257" t="n">
-        <v>412821</v>
+        <v>410586</v>
       </c>
     </row>
     <row r="258">
@@ -9416,19 +9416,19 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>546534</v>
+        <v>546335</v>
       </c>
       <c r="F258" t="n">
-        <v>0</v>
+        <v>211.6746613092351</v>
       </c>
       <c r="G258" t="n">
-        <v>0</v>
+        <v>8.330920194492725</v>
       </c>
       <c r="H258" t="n">
-        <v>5.06</v>
+        <v>1.96</v>
       </c>
       <c r="I258" t="n">
-        <v>105.4</v>
+        <v>59.54</v>
       </c>
     </row>
     <row r="259">
@@ -9448,22 +9448,22 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>23449612</v>
+        <v>23528975</v>
       </c>
       <c r="E259" t="n">
-        <v>39082686</v>
+        <v>39214958</v>
       </c>
       <c r="F259" t="n">
-        <v>15645.65814128653</v>
+        <v>14741.37359306401</v>
       </c>
       <c r="G259" t="n">
-        <v>1957.937931753132</v>
+        <v>1621.289865655011</v>
       </c>
       <c r="H259" t="n">
-        <v>0.71</v>
+        <v>0.86</v>
       </c>
       <c r="I259" t="n">
-        <v>1014413</v>
+        <v>1027461</v>
       </c>
     </row>
     <row r="260">
@@ -9486,19 +9486,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>107632</v>
+        <v>107756</v>
       </c>
       <c r="F260" t="n">
-        <v>239.9430239812489</v>
+        <v>222.2600229453554</v>
       </c>
       <c r="G260" t="n">
-        <v>208.9441442112059</v>
+        <v>204.8563789861053</v>
       </c>
       <c r="H260" t="n">
-        <v>1.01</v>
+        <v>0.63</v>
       </c>
       <c r="I260" t="n">
-        <v>51146</v>
+        <v>50553</v>
       </c>
     </row>
     <row r="261">
@@ -9518,22 +9518,22 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>799834</v>
+        <v>833533</v>
       </c>
       <c r="E261" t="n">
-        <v>3416833</v>
+        <v>3560796</v>
       </c>
       <c r="F261" t="n">
-        <v>3804.654908272858</v>
+        <v>1424.674890812972</v>
       </c>
       <c r="G261" t="n">
-        <v>2494.692997639621</v>
+        <v>1237.716317255377</v>
       </c>
       <c r="H261" t="n">
-        <v>0.26</v>
+        <v>2.12</v>
       </c>
       <c r="I261" t="n">
-        <v>1511.19</v>
+        <v>7349.71</v>
       </c>
     </row>
     <row r="262">
@@ -9553,22 +9553,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>3842638</v>
+        <v>3830443</v>
       </c>
       <c r="E262" t="n">
-        <v>8384586</v>
+        <v>8357977</v>
       </c>
       <c r="F262" t="n">
-        <v>1940.330663137894</v>
+        <v>1660.361432682107</v>
       </c>
       <c r="G262" t="n">
-        <v>1468.627789653572</v>
+        <v>1550.486952159846</v>
       </c>
       <c r="H262" t="n">
-        <v>0.59</v>
+        <v>0.96</v>
       </c>
       <c r="I262" t="n">
-        <v>1005545</v>
+        <v>994575</v>
       </c>
     </row>
     <row r="263">
@@ -9588,22 +9588,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>487600815</v>
+        <v>480964723</v>
       </c>
       <c r="E263" t="n">
-        <v>1698158962</v>
+        <v>1675047557</v>
       </c>
       <c r="F263" t="n">
-        <v>693280.2975218578</v>
+        <v>585631.9595156375</v>
       </c>
       <c r="G263" t="n">
-        <v>531825.1437854882</v>
+        <v>639101.3977373398</v>
       </c>
       <c r="H263" t="n">
         <v>0.06</v>
       </c>
       <c r="I263" t="n">
-        <v>31063627</v>
+        <v>30691576</v>
       </c>
     </row>
     <row r="264">
@@ -9623,22 +9623,22 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>5607759735</v>
+        <v>5547734082</v>
       </c>
       <c r="E264" t="n">
-        <v>5607759735</v>
+        <v>5547734082</v>
       </c>
       <c r="F264" t="n">
-        <v>3792.05729389983</v>
+        <v>4965.560032534432</v>
       </c>
       <c r="G264" t="n">
-        <v>2768.046063571536</v>
+        <v>2156.04748995702</v>
       </c>
       <c r="H264" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="I264" t="n">
-        <v>29764531</v>
+        <v>28494610</v>
       </c>
     </row>
     <row r="265">
@@ -9658,22 +9658,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>24067749</v>
+        <v>23914083</v>
       </c>
       <c r="E265" t="n">
-        <v>24046843</v>
+        <v>23893310</v>
       </c>
       <c r="F265" t="n">
-        <v>78.53744151125127</v>
+        <v>68.97308490465088</v>
       </c>
       <c r="G265" t="n">
-        <v>590.68785448951</v>
+        <v>556.1230102742952</v>
       </c>
       <c r="H265" t="n">
-        <v>0.83</v>
+        <v>1.36</v>
       </c>
       <c r="I265" t="n">
-        <v>93302</v>
+        <v>93585</v>
       </c>
     </row>
     <row r="266">
@@ -9693,22 +9693,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>12194873</v>
+        <v>12143419</v>
       </c>
       <c r="E266" t="n">
-        <v>24709138</v>
+        <v>24602872</v>
       </c>
       <c r="F266" t="n">
-        <v>742.7638574275921</v>
+        <v>850.2394181849564</v>
       </c>
       <c r="G266" t="n">
-        <v>615.378428951389</v>
+        <v>420.0167043115322</v>
       </c>
       <c r="H266" t="n">
-        <v>1.48</v>
+        <v>1.86</v>
       </c>
       <c r="I266" t="n">
-        <v>16086.02</v>
+        <v>13031.53</v>
       </c>
     </row>
     <row r="267">
@@ -9731,19 +9731,19 @@
         <v>0</v>
       </c>
       <c r="E267" t="n">
-        <v>150479</v>
+        <v>153196</v>
       </c>
       <c r="F267" t="n">
-        <v>193.3868475995096</v>
+        <v>208.4178762336124</v>
       </c>
       <c r="G267" t="n">
-        <v>140.0027417337518</v>
+        <v>172.9461265978526</v>
       </c>
       <c r="H267" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.37</v>
       </c>
       <c r="I267" t="n">
-        <v>56523</v>
+        <v>58472</v>
       </c>
     </row>
     <row r="268">
@@ -9766,19 +9766,19 @@
         <v>0</v>
       </c>
       <c r="E268" t="n">
-        <v>47937</v>
+        <v>48002</v>
       </c>
       <c r="F268" t="n">
-        <v>50.77428127185551</v>
+        <v>159.0991682577614</v>
       </c>
       <c r="G268" t="n">
-        <v>87.91858403784505</v>
+        <v>8.282875089300912</v>
       </c>
       <c r="H268" t="n">
-        <v>3.06</v>
+        <v>2.67</v>
       </c>
       <c r="I268" t="n">
-        <v>70873</v>
+        <v>71106</v>
       </c>
     </row>
     <row r="269">
@@ -9798,22 +9798,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>2655841</v>
+        <v>2657950</v>
       </c>
       <c r="E269" t="n">
-        <v>10623365</v>
+        <v>10631802</v>
       </c>
       <c r="F269" t="n">
-        <v>39850.42464577871</v>
+        <v>31048.90721042365</v>
       </c>
       <c r="G269" t="n">
-        <v>55308.24503104443</v>
+        <v>48540.46620430041</v>
       </c>
       <c r="H269" t="n">
-        <v>0.38</v>
+        <v>0.47</v>
       </c>
       <c r="I269" t="n">
-        <v>4951460</v>
+        <v>4951666</v>
       </c>
     </row>
     <row r="270">
@@ -9833,22 +9833,22 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>213060929</v>
+        <v>210542923</v>
       </c>
       <c r="E270" t="n">
-        <v>655082177</v>
+        <v>647340256</v>
       </c>
       <c r="F270" t="n">
-        <v>303786.859578519</v>
+        <v>260306.6599022415</v>
       </c>
       <c r="G270" t="n">
-        <v>168175.0206990117</v>
+        <v>260653.7253664631</v>
       </c>
       <c r="H270" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="I270" t="n">
-        <v>11150790</v>
+        <v>11211313</v>
       </c>
     </row>
     <row r="271">
@@ -9868,22 +9868,22 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>151153086</v>
+        <v>146439046</v>
       </c>
       <c r="E271" t="n">
-        <v>394883246</v>
+        <v>382567948</v>
       </c>
       <c r="F271" t="n">
-        <v>57698.77187863734</v>
+        <v>41352.92807652436</v>
       </c>
       <c r="G271" t="n">
-        <v>48283.69872334594</v>
+        <v>17133.15178352592</v>
       </c>
       <c r="H271" t="n">
-        <v>0.25</v>
+        <v>0.39</v>
       </c>
       <c r="I271" t="n">
-        <v>7057467</v>
+        <v>6929429</v>
       </c>
     </row>
     <row r="272">
@@ -9903,22 +9903,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>2375530</v>
+        <v>2396199</v>
       </c>
       <c r="E272" t="n">
-        <v>3260148</v>
+        <v>3288498</v>
       </c>
       <c r="F272" t="n">
-        <v>48.72599836234985</v>
+        <v>91.74388402322413</v>
       </c>
       <c r="G272" t="n">
-        <v>85.11385957821396</v>
+        <v>48.14325112159877</v>
       </c>
       <c r="H272" t="n">
-        <v>1.75</v>
+        <v>1.49</v>
       </c>
       <c r="I272" t="n">
-        <v>188554</v>
+        <v>187779</v>
       </c>
     </row>
   </sheetData>

--- a/GateioData20250220.xlsx
+++ b/GateioData20250220.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>56710</v>
+        <v>54599</v>
       </c>
       <c r="F2" t="n">
-        <v>74.14181754945321</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.200122767928271</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.7</v>
+        <v>7.41</v>
       </c>
       <c r="I2" t="n">
-        <v>2195.9</v>
+        <v>1832.89</v>
       </c>
     </row>
     <row r="3">
@@ -535,19 +535,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>91588</v>
+        <v>92653</v>
       </c>
       <c r="F3" t="n">
-        <v>9.578737600120313</v>
+        <v>9.578409584146163</v>
       </c>
       <c r="G3" t="n">
-        <v>445.9534721967174</v>
+        <v>445.9382008876248</v>
       </c>
       <c r="H3" t="n">
         <v>3.06</v>
       </c>
       <c r="I3" t="n">
-        <v>1002.66</v>
+        <v>757.5599999999999</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>604417628</v>
+        <v>603718968</v>
       </c>
       <c r="E4" t="n">
-        <v>1172738221</v>
+        <v>1171364242</v>
       </c>
       <c r="F4" t="n">
-        <v>51395.10613626516</v>
+        <v>36442.0895472566</v>
       </c>
       <c r="G4" t="n">
-        <v>43587.70670041502</v>
+        <v>49308.33337050625</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>22069659</v>
+        <v>22229965</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1335791</v>
+        <v>1330863</v>
       </c>
       <c r="E5" t="n">
-        <v>4317824</v>
+        <v>4301896</v>
       </c>
       <c r="F5" t="n">
-        <v>4281.107472116388</v>
+        <v>3285.549411025429</v>
       </c>
       <c r="G5" t="n">
-        <v>4001.964576078998</v>
+        <v>5208.063892095162</v>
       </c>
       <c r="H5" t="n">
-        <v>1.15</v>
+        <v>0.46</v>
       </c>
       <c r="I5" t="n">
-        <v>71256</v>
+        <v>69896</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>138943050</v>
+        <v>139243652</v>
       </c>
       <c r="E6" t="n">
-        <v>153971092</v>
+        <v>154304207</v>
       </c>
       <c r="F6" t="n">
-        <v>208021.4354523461</v>
+        <v>210491.3426184625</v>
       </c>
       <c r="G6" t="n">
-        <v>393260.2960783866</v>
+        <v>355924.9129423765</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="I6" t="n">
-        <v>31929337</v>
+        <v>32880520</v>
       </c>
     </row>
     <row r="7">
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>4204.44</v>
+        <v>4203.53</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>9.09</v>
       </c>
       <c r="I7" t="n">
-        <v>1573.56</v>
+        <v>1564.65</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8674919</v>
+        <v>8689037</v>
       </c>
       <c r="E8" t="n">
-        <v>8893668</v>
+        <v>8908143</v>
       </c>
       <c r="F8" t="n">
-        <v>101.6755592786157</v>
+        <v>356.5754007586654</v>
       </c>
       <c r="G8" t="n">
-        <v>669.4814832440495</v>
+        <v>2246.722330212733</v>
       </c>
       <c r="H8" t="n">
-        <v>2.25</v>
+        <v>1.76</v>
       </c>
       <c r="I8" t="n">
-        <v>62538</v>
+        <v>62353</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>286279</v>
+        <v>286220</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>27.38880826004394</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>5.344530024610572</v>
       </c>
       <c r="H9" t="n">
-        <v>5.43</v>
+        <v>3.91</v>
       </c>
       <c r="I9" t="n">
-        <v>54.93</v>
+        <v>128.55</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5248475</v>
+        <v>5236750</v>
       </c>
       <c r="E10" t="n">
-        <v>8385486</v>
+        <v>8366753</v>
       </c>
       <c r="F10" t="n">
-        <v>239.0634634786938</v>
+        <v>274.4998716506818</v>
       </c>
       <c r="G10" t="n">
-        <v>370.5165076586881</v>
+        <v>394.0041476926836</v>
       </c>
       <c r="H10" t="n">
-        <v>0.37</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>106179</v>
+        <v>105764</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>998902</v>
+        <v>998601</v>
       </c>
       <c r="E11" t="n">
-        <v>12223861</v>
+        <v>12220180</v>
       </c>
       <c r="F11" t="n">
-        <v>1226.37113040522</v>
+        <v>1227.113317179375</v>
       </c>
       <c r="G11" t="n">
-        <v>1684.769409989176</v>
+        <v>1679.841313412852</v>
       </c>
       <c r="H11" t="n">
         <v>0.49</v>
       </c>
       <c r="I11" t="n">
-        <v>2090.86</v>
+        <v>2090.34</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>572760</v>
+        <v>569360</v>
       </c>
       <c r="E12" t="n">
-        <v>572760</v>
+        <v>569360</v>
       </c>
       <c r="F12" t="n">
-        <v>578.753785579697</v>
+        <v>82.48243238888573</v>
       </c>
       <c r="G12" t="n">
-        <v>111.9209542560149</v>
+        <v>10.97401114511527</v>
       </c>
       <c r="H12" t="n">
-        <v>0.12</v>
+        <v>2.12</v>
       </c>
       <c r="I12" t="n">
-        <v>23813</v>
+        <v>23739</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4796770</v>
+        <v>4737508</v>
       </c>
       <c r="E13" t="n">
-        <v>29463972</v>
+        <v>29099877</v>
       </c>
       <c r="F13" t="n">
-        <v>841.1274297824974</v>
+        <v>982.0711370720778</v>
       </c>
       <c r="G13" t="n">
-        <v>864.4085712306974</v>
+        <v>1063.426802793668</v>
       </c>
       <c r="H13" t="n">
-        <v>0.31</v>
+        <v>0.92</v>
       </c>
       <c r="I13" t="n">
-        <v>482187</v>
+        <v>468285</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>198766</v>
+        <v>199176</v>
       </c>
       <c r="E14" t="n">
-        <v>2186647</v>
+        <v>2191150</v>
       </c>
       <c r="F14" t="n">
-        <v>258.6419627590266</v>
+        <v>259.2984084512798</v>
       </c>
       <c r="G14" t="n">
-        <v>1240.134750077618</v>
+        <v>872.4636113745287</v>
       </c>
       <c r="H14" t="n">
-        <v>1.82</v>
+        <v>1.36</v>
       </c>
       <c r="I14" t="n">
-        <v>43857</v>
+        <v>40226</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3346401</v>
+        <v>3356058</v>
       </c>
       <c r="E15" t="n">
-        <v>9520216</v>
+        <v>9547689</v>
       </c>
       <c r="F15" t="n">
-        <v>717.8139370719196</v>
+        <v>938.0739871174894</v>
       </c>
       <c r="G15" t="n">
-        <v>456.5239635897167</v>
+        <v>517.4413712877939</v>
       </c>
       <c r="H15" t="n">
-        <v>1.15</v>
+        <v>1.04</v>
       </c>
       <c r="I15" t="n">
-        <v>233670</v>
+        <v>232436</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>314060</v>
+        <v>313647</v>
       </c>
       <c r="E16" t="n">
-        <v>3624963</v>
+        <v>3620195</v>
       </c>
       <c r="F16" t="n">
-        <v>131.9694030317551</v>
+        <v>131.5945489769341</v>
       </c>
       <c r="G16" t="n">
-        <v>129.8130710022664</v>
+        <v>130.023033219374</v>
       </c>
       <c r="H16" t="n">
         <v>0.8</v>
       </c>
       <c r="I16" t="n">
-        <v>3267.57</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>927679</v>
+        <v>914691</v>
       </c>
       <c r="F17" t="n">
-        <v>12.99846744802024</v>
+        <v>7.924244546813897</v>
       </c>
       <c r="G17" t="n">
-        <v>29.32761453317379</v>
+        <v>16.80110338652969</v>
       </c>
       <c r="H17" t="n">
-        <v>3.56</v>
+        <v>2.88</v>
       </c>
       <c r="I17" t="n">
-        <v>11921.13</v>
+        <v>11181.8</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>22673060</v>
+        <v>22318878</v>
       </c>
       <c r="E18" t="n">
-        <v>22715512</v>
+        <v>22360666</v>
       </c>
       <c r="F18" t="n">
-        <v>891.4054668614039</v>
+        <v>1490.491122474987</v>
       </c>
       <c r="G18" t="n">
-        <v>1683.246344495442</v>
+        <v>2019.227980889043</v>
       </c>
       <c r="H18" t="n">
-        <v>0.42</v>
+        <v>0.2</v>
       </c>
       <c r="I18" t="n">
-        <v>847182</v>
+        <v>864688</v>
       </c>
     </row>
     <row r="19">
@@ -1095,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>6527688</v>
+        <v>6844883</v>
       </c>
       <c r="F19" t="n">
-        <v>156.7807727520197</v>
+        <v>158.6493515174325</v>
       </c>
       <c r="G19" t="n">
-        <v>15.001808020005</v>
+        <v>7.194459935361913</v>
       </c>
       <c r="H19" t="n">
-        <v>0.43</v>
+        <v>2.96</v>
       </c>
       <c r="I19" t="n">
-        <v>26719</v>
+        <v>27274</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2466284</v>
+        <v>2457175</v>
       </c>
       <c r="E20" t="n">
-        <v>2466284</v>
+        <v>2457175</v>
       </c>
       <c r="F20" t="n">
-        <v>12.93631558493373</v>
+        <v>25.85444005057334</v>
       </c>
       <c r="G20" t="n">
-        <v>98.50464326216009</v>
+        <v>250.9648848054897</v>
       </c>
       <c r="H20" t="n">
-        <v>1.21</v>
+        <v>1.92</v>
       </c>
       <c r="I20" t="n">
-        <v>292259</v>
+        <v>295808</v>
       </c>
     </row>
     <row r="21">
@@ -1165,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>408075</v>
+        <v>407996</v>
       </c>
       <c r="F21" t="n">
-        <v>192.4890431911574</v>
+        <v>197.8422761783812</v>
       </c>
       <c r="G21" t="n">
-        <v>154.3211262869737</v>
+        <v>200.2458988186439</v>
       </c>
       <c r="H21" t="n">
-        <v>1.45</v>
+        <v>0.97</v>
       </c>
       <c r="I21" t="n">
-        <v>1822.73</v>
+        <v>1820.85</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>19473249</v>
+        <v>19358732</v>
       </c>
       <c r="E22" t="n">
-        <v>25063667</v>
+        <v>24916277</v>
       </c>
       <c r="F22" t="n">
-        <v>1670.652354330812</v>
+        <v>3918.567948881554</v>
       </c>
       <c r="G22" t="n">
-        <v>5208.691505515359</v>
+        <v>4373.265737626768</v>
       </c>
       <c r="H22" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="I22" t="n">
-        <v>2204186</v>
+        <v>2076066</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>459133012</v>
+        <v>468532009</v>
       </c>
       <c r="E23" t="n">
-        <v>459133010</v>
+        <v>468532009</v>
       </c>
       <c r="F23" t="n">
-        <v>83172.96691691961</v>
+        <v>83584.23766775703</v>
       </c>
       <c r="G23" t="n">
-        <v>106734.0146712455</v>
+        <v>109357.088386076</v>
       </c>
       <c r="H23" t="n">
         <v>0.04</v>
       </c>
       <c r="I23" t="n">
-        <v>56093206</v>
+        <v>58546967</v>
       </c>
     </row>
     <row r="24">
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>19817.35</v>
+        <v>21013</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1279,10 +1279,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>6.17</v>
+        <v>7.99</v>
       </c>
       <c r="I24" t="n">
-        <v>1783.2</v>
+        <v>2186.59</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4672687</v>
+        <v>4670590</v>
       </c>
       <c r="E25" t="n">
-        <v>4672687</v>
+        <v>4670590</v>
       </c>
       <c r="F25" t="n">
-        <v>886.2336307912353</v>
+        <v>115.629156673461</v>
       </c>
       <c r="G25" t="n">
-        <v>1077.503986535051</v>
+        <v>1213.85550603104</v>
       </c>
       <c r="H25" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="I25" t="n">
-        <v>1295382</v>
+        <v>1900742</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3321599</v>
+        <v>3256446</v>
       </c>
       <c r="E26" t="n">
-        <v>3321599</v>
+        <v>3256446</v>
       </c>
       <c r="F26" t="n">
-        <v>974.4492458730967</v>
+        <v>444.0743322747594</v>
       </c>
       <c r="G26" t="n">
-        <v>74.94442106558847</v>
+        <v>1120.222042128891</v>
       </c>
       <c r="H26" t="n">
-        <v>0.03</v>
+        <v>0.65</v>
       </c>
       <c r="I26" t="n">
-        <v>496236</v>
+        <v>498743</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>310880</v>
+        <v>308991</v>
       </c>
       <c r="E27" t="n">
-        <v>1451220</v>
+        <v>1442402</v>
       </c>
       <c r="F27" t="n">
-        <v>2772.196132093996</v>
+        <v>2982.364969998589</v>
       </c>
       <c r="G27" t="n">
-        <v>346.6662862718454</v>
+        <v>70.29484135699516</v>
       </c>
       <c r="H27" t="n">
-        <v>1.63</v>
+        <v>1.29</v>
       </c>
       <c r="I27" t="n">
-        <v>610728</v>
+        <v>621332</v>
       </c>
     </row>
     <row r="28">
@@ -1410,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1554344</v>
+        <v>1552604</v>
       </c>
       <c r="F28" t="n">
-        <v>612.033820170372</v>
+        <v>482.2177209440914</v>
       </c>
       <c r="G28" t="n">
-        <v>589.7902760850507</v>
+        <v>474.5981139138103</v>
       </c>
       <c r="H28" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I28" t="n">
-        <v>174199</v>
+        <v>190619</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>12673443</v>
+        <v>12845761</v>
       </c>
       <c r="E29" t="n">
-        <v>32586728</v>
+        <v>32349858</v>
       </c>
       <c r="F29" t="n">
-        <v>1031.632834253513</v>
+        <v>836.9498307675225</v>
       </c>
       <c r="G29" t="n">
-        <v>1410.159728729315</v>
+        <v>1400.683621889965</v>
       </c>
       <c r="H29" t="n">
-        <v>0.46</v>
+        <v>0.77</v>
       </c>
       <c r="I29" t="n">
-        <v>1568476</v>
+        <v>1586848</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>912807</v>
+        <v>917686</v>
       </c>
       <c r="E30" t="n">
-        <v>6389647</v>
+        <v>6423803</v>
       </c>
       <c r="F30" t="n">
-        <v>674.1186917193752</v>
+        <v>316.1270252698623</v>
       </c>
       <c r="G30" t="n">
-        <v>122.0225559879802</v>
+        <v>48.00119404946995</v>
       </c>
       <c r="H30" t="n">
-        <v>1.89</v>
+        <v>2.44</v>
       </c>
       <c r="I30" t="n">
-        <v>511377</v>
+        <v>432183</v>
       </c>
     </row>
     <row r="31">
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>178649</v>
+        <v>178751</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         <v>8.85</v>
       </c>
       <c r="I31" t="n">
-        <v>9079.77</v>
+        <v>6206.86</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5532177</v>
+        <v>5452573</v>
       </c>
       <c r="E32" t="n">
-        <v>5796836</v>
+        <v>5713424</v>
       </c>
       <c r="F32" t="n">
-        <v>25.64584259642252</v>
+        <v>16.40276897586125</v>
       </c>
       <c r="G32" t="n">
-        <v>50.76581575847766</v>
+        <v>711.3213154746512</v>
       </c>
       <c r="H32" t="n">
-        <v>2.89</v>
+        <v>2.16</v>
       </c>
       <c r="I32" t="n">
-        <v>152079</v>
+        <v>175380</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>5262558</v>
+        <v>5356871</v>
       </c>
       <c r="E33" t="n">
-        <v>7746771</v>
+        <v>7885604</v>
       </c>
       <c r="F33" t="n">
-        <v>587.9092759509975</v>
+        <v>34.47676042765359</v>
       </c>
       <c r="G33" t="n">
-        <v>143.6838886787856</v>
+        <v>107.6259145791569</v>
       </c>
       <c r="H33" t="n">
-        <v>0.18</v>
+        <v>1.89</v>
       </c>
       <c r="I33" t="n">
-        <v>558760</v>
+        <v>639498</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7658476</v>
+        <v>7658187</v>
       </c>
       <c r="E34" t="n">
-        <v>7658476</v>
+        <v>7658187</v>
       </c>
       <c r="F34" t="n">
-        <v>32274.76852084223</v>
+        <v>32400.23600115351</v>
       </c>
       <c r="G34" t="n">
-        <v>33088.82325531048</v>
+        <v>32992.32572164209</v>
       </c>
       <c r="H34" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="I34" t="n">
-        <v>217258</v>
+        <v>221097</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1477012</v>
+        <v>1490834</v>
       </c>
       <c r="E35" t="n">
-        <v>1477057</v>
+        <v>1490874</v>
       </c>
       <c r="F35" t="n">
-        <v>221.6182654129054</v>
+        <v>221.7614848722727</v>
       </c>
       <c r="G35" t="n">
-        <v>186.8552315380558</v>
+        <v>256.1191228042965</v>
       </c>
       <c r="H35" t="n">
-        <v>1.64</v>
+        <v>1.78</v>
       </c>
       <c r="I35" t="n">
-        <v>273936</v>
+        <v>277537</v>
       </c>
     </row>
     <row r="36">
@@ -1690,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>16506558</v>
+        <v>16513537</v>
       </c>
       <c r="F36" t="n">
-        <v>294.8090827818858</v>
+        <v>343.5557623792151</v>
       </c>
       <c r="G36" t="n">
-        <v>170.598598779402</v>
+        <v>190.8632311039296</v>
       </c>
       <c r="H36" t="n">
-        <v>0.7</v>
+        <v>0.58</v>
       </c>
       <c r="I36" t="n">
-        <v>11821.07</v>
+        <v>10791.39</v>
       </c>
     </row>
     <row r="37">
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>61016</v>
+        <v>61004</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1730,10 +1730,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>8.51</v>
+        <v>6.38</v>
       </c>
       <c r="I37" t="n">
-        <v>310.86</v>
+        <v>307.11</v>
       </c>
     </row>
     <row r="38">
@@ -1753,22 +1753,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>133066048</v>
+        <v>133555219</v>
       </c>
       <c r="E38" t="n">
-        <v>133066048</v>
+        <v>133555219</v>
       </c>
       <c r="F38" t="n">
-        <v>259943.9858784497</v>
+        <v>336479.6693610428</v>
       </c>
       <c r="G38" t="n">
-        <v>390059.1055235555</v>
+        <v>364136.0862339264</v>
       </c>
       <c r="H38" t="n">
         <v>0.05</v>
       </c>
       <c r="I38" t="n">
-        <v>63212317</v>
+        <v>63223387</v>
       </c>
     </row>
     <row r="39">
@@ -1788,22 +1788,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>63493172</v>
+        <v>63702129</v>
       </c>
       <c r="E39" t="n">
-        <v>325606008</v>
+        <v>326677584</v>
       </c>
       <c r="F39" t="n">
-        <v>86754.23137965397</v>
+        <v>86441.13430082002</v>
       </c>
       <c r="G39" t="n">
-        <v>88509.0228499362</v>
+        <v>93677.79474473119</v>
       </c>
       <c r="H39" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="I39" t="n">
-        <v>16787396</v>
+        <v>18023793</v>
       </c>
     </row>
     <row r="40">
@@ -1823,10 +1823,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>42391</v>
+        <v>44532</v>
       </c>
       <c r="E40" t="n">
-        <v>125273</v>
+        <v>131599</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -1835,10 +1835,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>4.94</v>
+        <v>7.01</v>
       </c>
       <c r="I40" t="n">
-        <v>732.83</v>
+        <v>751.55</v>
       </c>
     </row>
     <row r="41">
@@ -1861,19 +1861,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>46709</v>
+        <v>49697</v>
       </c>
       <c r="F41" t="n">
-        <v>258.8336124712712</v>
+        <v>14.53890524341748</v>
       </c>
       <c r="G41" t="n">
-        <v>6.443546393531949</v>
+        <v>0.5716582924914422</v>
       </c>
       <c r="H41" t="n">
-        <v>0.12</v>
+        <v>1.25</v>
       </c>
       <c r="I41" t="n">
-        <v>23942</v>
+        <v>25750</v>
       </c>
     </row>
     <row r="42">
@@ -1896,19 +1896,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>592909</v>
+        <v>593325</v>
       </c>
       <c r="F42" t="n">
-        <v>1225.551950389501</v>
+        <v>2180.997932519828</v>
       </c>
       <c r="G42" t="n">
-        <v>421.4731972999281</v>
+        <v>397.8007875706651</v>
       </c>
       <c r="H42" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="I42" t="n">
-        <v>436.12</v>
+        <v>436.53</v>
       </c>
     </row>
     <row r="43">
@@ -1961,22 +1961,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2751913</v>
+        <v>2726573</v>
       </c>
       <c r="E44" t="n">
-        <v>11059311</v>
+        <v>10957478</v>
       </c>
       <c r="F44" t="n">
-        <v>29.91096692756485</v>
+        <v>274.0542245528415</v>
       </c>
       <c r="G44" t="n">
-        <v>205.9531456423878</v>
+        <v>70.63708208193306</v>
       </c>
       <c r="H44" t="n">
-        <v>0.89</v>
+        <v>1.8</v>
       </c>
       <c r="I44" t="n">
-        <v>27087</v>
+        <v>24506</v>
       </c>
     </row>
     <row r="45">
@@ -1996,22 +1996,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>17522452</v>
+        <v>17433196</v>
       </c>
       <c r="E45" t="n">
-        <v>123582285</v>
+        <v>122948069</v>
       </c>
       <c r="F45" t="n">
-        <v>228.7321826240555</v>
+        <v>204.2375559034564</v>
       </c>
       <c r="G45" t="n">
-        <v>271.7684835697182</v>
+        <v>294.1998922241781</v>
       </c>
       <c r="H45" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="I45" t="n">
-        <v>1013944</v>
+        <v>1040635</v>
       </c>
     </row>
     <row r="46">
@@ -2031,10 +2031,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>146916</v>
+        <v>170158</v>
       </c>
       <c r="E46" t="n">
-        <v>1965825</v>
+        <v>2276810</v>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>46037</v>
+        <v>52419</v>
       </c>
     </row>
     <row r="47">
@@ -2064,22 +2064,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>249826839</v>
+        <v>249070807</v>
       </c>
       <c r="E47" t="n">
-        <v>249826839</v>
+        <v>249070807</v>
       </c>
       <c r="F47" t="n">
-        <v>124127.5765003509</v>
+        <v>113753.9297413915</v>
       </c>
       <c r="G47" t="n">
-        <v>151181.487969341</v>
+        <v>157002.5077221558</v>
       </c>
       <c r="H47" t="n">
         <v>0.04</v>
       </c>
       <c r="I47" t="n">
-        <v>14584699</v>
+        <v>14837512</v>
       </c>
     </row>
     <row r="48">
@@ -2099,22 +2099,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>637267</v>
+        <v>635622</v>
       </c>
       <c r="E48" t="n">
-        <v>637267</v>
+        <v>635622</v>
       </c>
       <c r="F48" t="n">
-        <v>60.00480223523564</v>
+        <v>59.99667953605756</v>
       </c>
       <c r="G48" t="n">
-        <v>191.0572688896607</v>
+        <v>191.1356040732449</v>
       </c>
       <c r="H48" t="n">
-        <v>2.8</v>
+        <v>2.73</v>
       </c>
       <c r="I48" t="n">
-        <v>3271.07</v>
+        <v>3264.05</v>
       </c>
     </row>
     <row r="49">
@@ -2167,22 +2167,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>436222095</v>
+        <v>439924918</v>
       </c>
       <c r="E50" t="n">
-        <v>436213381</v>
+        <v>439924918</v>
       </c>
       <c r="F50" t="n">
-        <v>4258.95398739471</v>
+        <v>3686.732516482298</v>
       </c>
       <c r="G50" t="n">
-        <v>1747.144821885364</v>
+        <v>2756.487481979697</v>
       </c>
       <c r="H50" t="n">
         <v>0.3</v>
       </c>
       <c r="I50" t="n">
-        <v>2816464</v>
+        <v>2855560</v>
       </c>
     </row>
     <row r="51">
@@ -2202,22 +2202,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2427592</v>
+        <v>2505908</v>
       </c>
       <c r="E51" t="n">
-        <v>2427592</v>
+        <v>2505908</v>
       </c>
       <c r="F51" t="n">
-        <v>298.6632598452319</v>
+        <v>298.270878948191</v>
       </c>
       <c r="G51" t="n">
-        <v>1627.075096546986</v>
+        <v>1118.053368279684</v>
       </c>
       <c r="H51" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="I51" t="n">
-        <v>62372</v>
+        <v>109214</v>
       </c>
     </row>
     <row r="52">
@@ -2237,10 +2237,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>21271</v>
+        <v>23843</v>
       </c>
       <c r="E52" t="n">
-        <v>42542</v>
+        <v>47686</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -2249,10 +2249,10 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>11.52</v>
+        <v>8.02</v>
       </c>
       <c r="I52" t="n">
-        <v>4705.87</v>
+        <v>4705.55</v>
       </c>
     </row>
     <row r="53">
@@ -2275,19 +2275,19 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>148644</v>
+        <v>147347</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>31.37293029393059</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>1.194732008575291</v>
       </c>
       <c r="H53" t="n">
-        <v>4.13</v>
+        <v>1.72</v>
       </c>
       <c r="I53" t="n">
-        <v>23458</v>
+        <v>23459</v>
       </c>
     </row>
     <row r="54">
@@ -2307,22 +2307,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2536926</v>
+        <v>2535808</v>
       </c>
       <c r="E54" t="n">
-        <v>6485872</v>
+        <v>6483012</v>
       </c>
       <c r="F54" t="n">
-        <v>224.5391365046954</v>
+        <v>215.0265419649242</v>
       </c>
       <c r="G54" t="n">
-        <v>256.9533076906543</v>
+        <v>206.26920395018</v>
       </c>
       <c r="H54" t="n">
-        <v>1.95</v>
+        <v>1.51</v>
       </c>
       <c r="I54" t="n">
-        <v>121338</v>
+        <v>121782</v>
       </c>
     </row>
     <row r="55">
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>3821.23</v>
+        <v>3822.75</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>6.22</v>
       </c>
       <c r="I55" t="n">
-        <v>1629.31</v>
+        <v>820.01</v>
       </c>
     </row>
     <row r="56">
@@ -2377,22 +2377,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>72861291</v>
+        <v>71852671</v>
       </c>
       <c r="E56" t="n">
-        <v>72861291</v>
+        <v>71852671</v>
       </c>
       <c r="F56" t="n">
-        <v>6862.737415407134</v>
+        <v>17262.24532446264</v>
       </c>
       <c r="G56" t="n">
-        <v>11917.99093319596</v>
+        <v>25740.13708148515</v>
       </c>
       <c r="H56" t="n">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
       <c r="I56" t="n">
-        <v>4537208</v>
+        <v>4544772</v>
       </c>
     </row>
     <row r="57">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3619139</v>
+        <v>3605319</v>
       </c>
       <c r="E57" t="n">
-        <v>4586082</v>
+        <v>4568569</v>
       </c>
       <c r="F57" t="n">
-        <v>1084.613212787947</v>
+        <v>139.0334760989317</v>
       </c>
       <c r="G57" t="n">
-        <v>262.3776623875042</v>
+        <v>1290.325853581671</v>
       </c>
       <c r="H57" t="n">
-        <v>0.41</v>
+        <v>0.21</v>
       </c>
       <c r="I57" t="n">
-        <v>271194</v>
+        <v>277005</v>
       </c>
     </row>
     <row r="58">
@@ -2447,22 +2447,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>4306616</v>
+        <v>4230041</v>
       </c>
       <c r="E58" t="n">
-        <v>8493010</v>
+        <v>8341997</v>
       </c>
       <c r="F58" t="n">
-        <v>2639.709185481698</v>
+        <v>2256.912665918962</v>
       </c>
       <c r="G58" t="n">
-        <v>2311.431275405527</v>
+        <v>2990.128277862665</v>
       </c>
       <c r="H58" t="n">
-        <v>0.47</v>
+        <v>0.28</v>
       </c>
       <c r="I58" t="n">
-        <v>1674695</v>
+        <v>1644562</v>
       </c>
     </row>
     <row r="59">
@@ -2482,22 +2482,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1578898</v>
+        <v>1573486</v>
       </c>
       <c r="E59" t="n">
-        <v>9065442</v>
+        <v>9034369</v>
       </c>
       <c r="F59" t="n">
-        <v>367.7658270087892</v>
+        <v>390.724538579119</v>
       </c>
       <c r="G59" t="n">
-        <v>446.8735810872438</v>
+        <v>431.8565267227457</v>
       </c>
       <c r="H59" t="n">
-        <v>0.49</v>
+        <v>0.76</v>
       </c>
       <c r="I59" t="n">
-        <v>327611</v>
+        <v>329303</v>
       </c>
     </row>
     <row r="60">
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>574214</v>
+        <v>577201</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>17.54</v>
+        <v>8.77</v>
       </c>
       <c r="I60" t="n">
-        <v>2364.65</v>
+        <v>2031.38</v>
       </c>
     </row>
     <row r="61">
@@ -2555,19 +2555,19 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>32184086</v>
+        <v>32132496</v>
       </c>
       <c r="F61" t="n">
-        <v>488.7340091101788</v>
+        <v>494.1088296739485</v>
       </c>
       <c r="G61" t="n">
-        <v>1566.644085114828</v>
+        <v>1434.052701023971</v>
       </c>
       <c r="H61" t="n">
-        <v>0.14</v>
+        <v>0.42</v>
       </c>
       <c r="I61" t="n">
-        <v>249462</v>
+        <v>249526</v>
       </c>
     </row>
     <row r="62">
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>1421853</v>
+        <v>1435837</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>12.88</v>
+        <v>5.64</v>
       </c>
       <c r="I62" t="n">
-        <v>28518</v>
+        <v>28643</v>
       </c>
     </row>
     <row r="63">
@@ -2622,22 +2622,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>7553119</v>
+        <v>7546682</v>
       </c>
       <c r="E63" t="n">
-        <v>17789098</v>
+        <v>17773936</v>
       </c>
       <c r="F63" t="n">
-        <v>1170.787433147264</v>
+        <v>1169.114357199081</v>
       </c>
       <c r="G63" t="n">
-        <v>1829.472024638182</v>
+        <v>2534.244260831971</v>
       </c>
       <c r="H63" t="n">
-        <v>1.53</v>
+        <v>1.41</v>
       </c>
       <c r="I63" t="n">
-        <v>28160</v>
+        <v>28882</v>
       </c>
     </row>
     <row r="64">
@@ -2657,22 +2657,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2929739</v>
+        <v>2914991</v>
       </c>
       <c r="E64" t="n">
-        <v>2929739</v>
+        <v>2914991</v>
       </c>
       <c r="F64" t="n">
-        <v>176.5630253138556</v>
+        <v>178.2331910304673</v>
       </c>
       <c r="G64" t="n">
-        <v>19.87386741691382</v>
+        <v>70.44579671748255</v>
       </c>
       <c r="H64" t="n">
-        <v>2.13</v>
+        <v>1.46</v>
       </c>
       <c r="I64" t="n">
-        <v>10709.82</v>
+        <v>11356.11</v>
       </c>
     </row>
     <row r="65">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3368532</v>
+        <v>3364315</v>
       </c>
       <c r="E65" t="n">
-        <v>8311681</v>
+        <v>8301275</v>
       </c>
       <c r="F65" t="n">
-        <v>788.2805264874263</v>
+        <v>687.6855065626415</v>
       </c>
       <c r="G65" t="n">
-        <v>967.6301402007505</v>
+        <v>990.246208786943</v>
       </c>
       <c r="H65" t="n">
-        <v>1.11</v>
+        <v>1.64</v>
       </c>
       <c r="I65" t="n">
-        <v>100368</v>
+        <v>100753</v>
       </c>
     </row>
     <row r="66">
@@ -2730,19 +2730,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>269910</v>
+        <v>269902</v>
       </c>
       <c r="F66" t="n">
-        <v>35.16991846282912</v>
+        <v>35.16871409795904</v>
       </c>
       <c r="G66" t="n">
-        <v>103.9980770383572</v>
+        <v>103.9945157099261</v>
       </c>
       <c r="H66" t="n">
         <v>3.33</v>
       </c>
       <c r="I66" t="n">
-        <v>2478.99</v>
+        <v>2486.64</v>
       </c>
     </row>
     <row r="67">
@@ -2762,22 +2762,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>71142571</v>
+        <v>71441000</v>
       </c>
       <c r="E67" t="n">
-        <v>148368389</v>
+        <v>148990763</v>
       </c>
       <c r="F67" t="n">
-        <v>78879.53418659697</v>
+        <v>55108.70945800877</v>
       </c>
       <c r="G67" t="n">
-        <v>86640.44767908934</v>
+        <v>88654.17250920333</v>
       </c>
       <c r="H67" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I67" t="n">
-        <v>13510372</v>
+        <v>13669581</v>
       </c>
     </row>
     <row r="68">
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>2090077</v>
+        <v>2089980</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>5.66</v>
+        <v>4.31</v>
       </c>
       <c r="I68" t="n">
-        <v>4020.41</v>
+        <v>3337.58</v>
       </c>
     </row>
     <row r="69">
@@ -2835,19 +2835,19 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>200957364</v>
+        <v>197593727</v>
       </c>
       <c r="F69" t="n">
-        <v>7201.803172426785</v>
+        <v>6298.166484913811</v>
       </c>
       <c r="G69" t="n">
-        <v>3766.728086766042</v>
+        <v>3893.893765893056</v>
       </c>
       <c r="H69" t="n">
-        <v>0.44</v>
+        <v>0.6</v>
       </c>
       <c r="I69" t="n">
-        <v>4183482</v>
+        <v>4251399</v>
       </c>
     </row>
     <row r="70">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>196650</v>
+        <v>185357</v>
       </c>
       <c r="E70" t="n">
-        <v>205359</v>
+        <v>193566</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -2879,10 +2879,10 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>12.16</v>
+        <v>13.74</v>
       </c>
       <c r="I70" t="n">
-        <v>611.77</v>
+        <v>602.28</v>
       </c>
     </row>
     <row r="71">
@@ -2902,22 +2902,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>143028771</v>
+        <v>142531991</v>
       </c>
       <c r="E71" t="n">
-        <v>143069219</v>
+        <v>142573428</v>
       </c>
       <c r="F71" t="n">
-        <v>35381.7831318555</v>
+        <v>28870.26973724054</v>
       </c>
       <c r="G71" t="n">
-        <v>39461.14690221348</v>
+        <v>52751.92828391075</v>
       </c>
       <c r="H71" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="I71" t="n">
-        <v>2927740</v>
+        <v>2617021</v>
       </c>
     </row>
     <row r="72">
@@ -2937,22 +2937,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>25970960</v>
+        <v>26015678</v>
       </c>
       <c r="E72" t="n">
-        <v>85231726</v>
+        <v>85378484</v>
       </c>
       <c r="F72" t="n">
-        <v>20793.12070044309</v>
+        <v>23502.82051462338</v>
       </c>
       <c r="G72" t="n">
-        <v>32234.73646714171</v>
+        <v>30326.76889883302</v>
       </c>
       <c r="H72" t="n">
         <v>0.47</v>
       </c>
       <c r="I72" t="n">
-        <v>72301</v>
+        <v>107107</v>
       </c>
     </row>
     <row r="73">
@@ -2972,10 +2972,10 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>110124</v>
+        <v>110177</v>
       </c>
       <c r="E73" t="n">
-        <v>110124</v>
+        <v>110177</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -2987,7 +2987,7 @@
         <v>4.49</v>
       </c>
       <c r="I73" t="n">
-        <v>132.91</v>
+        <v>132.88</v>
       </c>
     </row>
     <row r="74">
@@ -3007,22 +3007,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>194796129</v>
+        <v>196112339</v>
       </c>
       <c r="E74" t="n">
-        <v>676739357</v>
+        <v>681311989</v>
       </c>
       <c r="F74" t="n">
-        <v>105975.600612352</v>
+        <v>133653.6391382827</v>
       </c>
       <c r="G74" t="n">
-        <v>147662.80704449</v>
+        <v>198849.1458422082</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="I74" t="n">
-        <v>26228011</v>
+        <v>26306811</v>
       </c>
     </row>
     <row r="75">
@@ -3042,22 +3042,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>4172366</v>
+        <v>4168274</v>
       </c>
       <c r="E75" t="n">
-        <v>4172366</v>
+        <v>4168274</v>
       </c>
       <c r="F75" t="n">
-        <v>1031.931833879685</v>
+        <v>456.8957165677565</v>
       </c>
       <c r="G75" t="n">
-        <v>1693.321424808192</v>
+        <v>2773.559083413575</v>
       </c>
       <c r="H75" t="n">
-        <v>0.58</v>
+        <v>0.43</v>
       </c>
       <c r="I75" t="n">
-        <v>3993677</v>
+        <v>3921970</v>
       </c>
     </row>
     <row r="76">
@@ -3077,22 +3077,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>112624723</v>
+        <v>112123479</v>
       </c>
       <c r="E76" t="n">
-        <v>479262504</v>
+        <v>477079380</v>
       </c>
       <c r="F76" t="n">
-        <v>167807.5253489148</v>
+        <v>213069.4906683438</v>
       </c>
       <c r="G76" t="n">
-        <v>231741.2011527368</v>
+        <v>191894.0832245143</v>
       </c>
       <c r="H76" t="n">
-        <v>0.25</v>
+        <v>0.13</v>
       </c>
       <c r="I76" t="n">
-        <v>11528505</v>
+        <v>11621776</v>
       </c>
     </row>
     <row r="77">
@@ -3115,19 +3115,19 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1847842</v>
+        <v>1846334</v>
       </c>
       <c r="F77" t="n">
-        <v>109.2971838568908</v>
+        <v>109.2934410649143</v>
       </c>
       <c r="G77" t="n">
-        <v>92.99640533311192</v>
+        <v>92.99322074786059</v>
       </c>
       <c r="H77" t="n">
         <v>0.54</v>
       </c>
       <c r="I77" t="n">
-        <v>432.45</v>
+        <v>431.88</v>
       </c>
     </row>
     <row r="78">
@@ -3147,22 +3147,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3096553</v>
+        <v>3094465</v>
       </c>
       <c r="E78" t="n">
-        <v>15525413</v>
+        <v>15514946</v>
       </c>
       <c r="F78" t="n">
-        <v>869.3843447463109</v>
+        <v>138.2698546324362</v>
       </c>
       <c r="G78" t="n">
-        <v>14.37352984439752</v>
+        <v>379.600275294265</v>
       </c>
       <c r="H78" t="n">
-        <v>2.47</v>
+        <v>1.26</v>
       </c>
       <c r="I78" t="n">
-        <v>24170</v>
+        <v>25508</v>
       </c>
     </row>
     <row r="79">
@@ -3182,22 +3182,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>513984</v>
+        <v>534128</v>
       </c>
       <c r="E79" t="n">
-        <v>8791666</v>
+        <v>9136229</v>
       </c>
       <c r="F79" t="n">
-        <v>4.179229168224203</v>
+        <v>714.274693506293</v>
       </c>
       <c r="G79" t="n">
-        <v>227.7759321259905</v>
+        <v>341.0604657795706</v>
       </c>
       <c r="H79" t="n">
-        <v>0.72</v>
+        <v>1.97</v>
       </c>
       <c r="I79" t="n">
-        <v>326295</v>
+        <v>323024</v>
       </c>
     </row>
     <row r="80">
@@ -3217,22 +3217,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>5878274</v>
+        <v>5895750</v>
       </c>
       <c r="E80" t="n">
-        <v>7987693</v>
+        <v>8011397</v>
       </c>
       <c r="F80" t="n">
-        <v>287.0467843644633</v>
+        <v>246.0507512341072</v>
       </c>
       <c r="G80" t="n">
-        <v>970.3989331936019</v>
+        <v>980.4120511496481</v>
       </c>
       <c r="H80" t="n">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="I80" t="n">
-        <v>6401016</v>
+        <v>6394229</v>
       </c>
     </row>
     <row r="81">
@@ -3251,19 +3251,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>43104</v>
+        <v>42504</v>
       </c>
       <c r="F81" t="n">
-        <v>118.3851424220892</v>
+        <v>177.8710807390694</v>
       </c>
       <c r="G81" t="n">
-        <v>409.6755071772002</v>
+        <v>759.7835155487635</v>
       </c>
       <c r="H81" t="n">
-        <v>2.34</v>
+        <v>1.57</v>
       </c>
       <c r="I81" t="n">
-        <v>64002</v>
+        <v>57713</v>
       </c>
     </row>
     <row r="82">
@@ -3283,22 +3283,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>41341955</v>
+        <v>41137629</v>
       </c>
       <c r="E82" t="n">
-        <v>48286421</v>
+        <v>48047774</v>
       </c>
       <c r="F82" t="n">
-        <v>189.1766065198741</v>
+        <v>174.9774632699263</v>
       </c>
       <c r="G82" t="n">
-        <v>89.25197585157309</v>
+        <v>138.6289497533645</v>
       </c>
       <c r="H82" t="n">
-        <v>2.42</v>
+        <v>2</v>
       </c>
       <c r="I82" t="n">
-        <v>861989</v>
+        <v>812759</v>
       </c>
     </row>
     <row r="83">
@@ -3321,19 +3321,19 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>14231281</v>
+        <v>14300981</v>
       </c>
       <c r="F83" t="n">
-        <v>341.8108512498789</v>
+        <v>273.2689756180274</v>
       </c>
       <c r="G83" t="n">
-        <v>1016.577709574616</v>
+        <v>980.417079314013</v>
       </c>
       <c r="H83" t="n">
-        <v>0.66</v>
+        <v>0.87</v>
       </c>
       <c r="I83" t="n">
-        <v>472217</v>
+        <v>466310</v>
       </c>
     </row>
     <row r="84">
@@ -3353,22 +3353,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>35641479</v>
+        <v>35660955</v>
       </c>
       <c r="E84" t="n">
-        <v>35641479</v>
+        <v>35660955</v>
       </c>
       <c r="F84" t="n">
-        <v>55.24748351129922</v>
+        <v>229.3277667159839</v>
       </c>
       <c r="G84" t="n">
-        <v>171.4218788196967</v>
+        <v>437.0814373238671</v>
       </c>
       <c r="H84" t="n">
-        <v>2.94</v>
+        <v>2.19</v>
       </c>
       <c r="I84" t="n">
-        <v>609145</v>
+        <v>738764</v>
       </c>
     </row>
     <row r="85">
@@ -3388,22 +3388,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>532549</v>
+        <v>531521</v>
       </c>
       <c r="E85" t="n">
-        <v>6459300</v>
+        <v>6446832</v>
       </c>
       <c r="F85" t="n">
-        <v>834.9224208471663</v>
+        <v>904.9956725415811</v>
       </c>
       <c r="G85" t="n">
-        <v>705.3812929819111</v>
+        <v>1337.344784106949</v>
       </c>
       <c r="H85" t="n">
-        <v>1.25</v>
+        <v>0.71</v>
       </c>
       <c r="I85" t="n">
-        <v>2857623</v>
+        <v>2807993</v>
       </c>
     </row>
     <row r="86">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>25086989</v>
+        <v>24990670</v>
       </c>
       <c r="E86" t="n">
-        <v>35459479</v>
+        <v>35323336</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>215.0115370687055</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>2417.297239561956</v>
       </c>
       <c r="H86" t="n">
-        <v>6.83</v>
+        <v>1.89</v>
       </c>
       <c r="I86" t="n">
-        <v>88278</v>
+        <v>89982</v>
       </c>
     </row>
     <row r="87">
@@ -3458,22 +3458,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1264330886</v>
+        <v>1264311651</v>
       </c>
       <c r="E87" t="n">
-        <v>6062725528</v>
+        <v>6062633294</v>
       </c>
       <c r="F87" t="n">
-        <v>551134.8649096034</v>
+        <v>663093.7881460681</v>
       </c>
       <c r="G87" t="n">
-        <v>971297.4735663696</v>
+        <v>867761.0634454286</v>
       </c>
       <c r="H87" t="n">
         <v>0.02</v>
       </c>
       <c r="I87" t="n">
-        <v>189391051</v>
+        <v>184316891</v>
       </c>
     </row>
     <row r="88">
@@ -3493,22 +3493,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>265951665</v>
+        <v>265022372</v>
       </c>
       <c r="E88" t="n">
-        <v>1147995025</v>
+        <v>1143983682</v>
       </c>
       <c r="F88" t="n">
-        <v>1025361.613439767</v>
+        <v>1130736.088254293</v>
       </c>
       <c r="G88" t="n">
-        <v>1232885.002112926</v>
+        <v>1028932.725974183</v>
       </c>
       <c r="H88" t="n">
         <v>0.02</v>
       </c>
       <c r="I88" t="n">
-        <v>109005940</v>
+        <v>112613206</v>
       </c>
     </row>
     <row r="89">
@@ -3528,22 +3528,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>112477192</v>
+        <v>113075715</v>
       </c>
       <c r="E89" t="n">
-        <v>112477192</v>
+        <v>113075715</v>
       </c>
       <c r="F89" t="n">
-        <v>29686.49719687627</v>
+        <v>40520.09699872479</v>
       </c>
       <c r="G89" t="n">
-        <v>32516.43337321318</v>
+        <v>22796.20157119964</v>
       </c>
       <c r="H89" t="n">
-        <v>0.54</v>
+        <v>0.74</v>
       </c>
       <c r="I89" t="n">
-        <v>5872444</v>
+        <v>5922477</v>
       </c>
     </row>
     <row r="90">
@@ -3563,22 +3563,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>3856931</v>
+        <v>3852872</v>
       </c>
       <c r="E90" t="n">
-        <v>30014171</v>
+        <v>29982582</v>
       </c>
       <c r="F90" t="n">
-        <v>10677.8674588164</v>
+        <v>11033.98644282423</v>
       </c>
       <c r="G90" t="n">
-        <v>12878.14155008767</v>
+        <v>12355.46422875862</v>
       </c>
       <c r="H90" t="n">
-        <v>0.33</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I90" t="n">
-        <v>9455.469999999999</v>
+        <v>10273.99</v>
       </c>
     </row>
     <row r="91">
@@ -3601,19 +3601,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>3766776</v>
+        <v>3740278</v>
       </c>
       <c r="F91" t="n">
-        <v>2005.386608192065</v>
+        <v>1501.440560567326</v>
       </c>
       <c r="G91" t="n">
-        <v>1595.440177658338</v>
+        <v>1518.075893043506</v>
       </c>
       <c r="H91" t="n">
-        <v>0.84</v>
+        <v>1.34</v>
       </c>
       <c r="I91" t="n">
-        <v>306569</v>
+        <v>318763</v>
       </c>
     </row>
     <row r="92">
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>895033</v>
+        <v>887992</v>
       </c>
       <c r="F92" t="n">
-        <v>96.53987949389284</v>
+        <v>1.066606540279684</v>
       </c>
       <c r="G92" t="n">
-        <v>112.0189565777997</v>
+        <v>121.7407368117555</v>
       </c>
       <c r="H92" t="n">
-        <v>2.8</v>
+        <v>2.83</v>
       </c>
       <c r="I92" t="n">
-        <v>82291</v>
+        <v>68704</v>
       </c>
     </row>
     <row r="93">
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>128787</v>
+        <v>140496</v>
       </c>
       <c r="F93" t="n">
-        <v>50.92131197561303</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>127.8417496133366</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.96</v>
+        <v>4.96</v>
       </c>
       <c r="I93" t="n">
-        <v>97957</v>
+        <v>100001</v>
       </c>
     </row>
     <row r="94">
@@ -3699,22 +3699,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>10903692</v>
+        <v>10849896</v>
       </c>
       <c r="E94" t="n">
-        <v>131675187</v>
+        <v>131023429</v>
       </c>
       <c r="F94" t="n">
-        <v>3869.947844517612</v>
+        <v>1889.913952828059</v>
       </c>
       <c r="G94" t="n">
-        <v>805.2183245533431</v>
+        <v>7716.285742005211</v>
       </c>
       <c r="H94" t="n">
-        <v>0.08</v>
+        <v>0.46</v>
       </c>
       <c r="I94" t="n">
-        <v>230812</v>
+        <v>236925</v>
       </c>
     </row>
     <row r="95">
@@ -3734,22 +3734,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>21259314</v>
+        <v>21294121</v>
       </c>
       <c r="E95" t="n">
-        <v>53148284</v>
+        <v>53235304</v>
       </c>
       <c r="F95" t="n">
-        <v>7093.361943291655</v>
+        <v>7114.557540523136</v>
       </c>
       <c r="G95" t="n">
-        <v>10231.16632578115</v>
+        <v>9376.680346747269</v>
       </c>
       <c r="H95" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="I95" t="n">
-        <v>2170212</v>
+        <v>2049160</v>
       </c>
     </row>
     <row r="96">
@@ -3772,19 +3772,19 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>2452571</v>
+        <v>2331801</v>
       </c>
       <c r="F96" t="n">
-        <v>243.3697411075939</v>
+        <v>230.1520990070678</v>
       </c>
       <c r="G96" t="n">
-        <v>117.8562487163364</v>
+        <v>116.4906132025735</v>
       </c>
       <c r="H96" t="n">
-        <v>2.64</v>
+        <v>2.59</v>
       </c>
       <c r="I96" t="n">
-        <v>46874</v>
+        <v>71707</v>
       </c>
     </row>
     <row r="97">
@@ -3807,19 +3807,19 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>20146593</v>
+        <v>20099713</v>
       </c>
       <c r="F97" t="n">
-        <v>1024.077115663884</v>
+        <v>1549.816229616336</v>
       </c>
       <c r="G97" t="n">
-        <v>1255.012570053323</v>
+        <v>1466.00375505992</v>
       </c>
       <c r="H97" t="n">
-        <v>0.5</v>
+        <v>0.99</v>
       </c>
       <c r="I97" t="n">
-        <v>127730</v>
+        <v>128693</v>
       </c>
     </row>
     <row r="98">
@@ -3839,22 +3839,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4058045</v>
+        <v>3971062</v>
       </c>
       <c r="E98" t="n">
-        <v>11688830</v>
+        <v>11438268</v>
       </c>
       <c r="F98" t="n">
-        <v>589.8121991295749</v>
+        <v>972.4209612283042</v>
       </c>
       <c r="G98" t="n">
-        <v>305.5564360393072</v>
+        <v>310.932855464327</v>
       </c>
       <c r="H98" t="n">
-        <v>1.45</v>
+        <v>1.04</v>
       </c>
       <c r="I98" t="n">
-        <v>451009</v>
+        <v>513433</v>
       </c>
     </row>
     <row r="99">
@@ -3877,19 +3877,19 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>1656961</v>
+        <v>1679984</v>
       </c>
       <c r="F99" t="n">
-        <v>94.34555967836158</v>
+        <v>87.42406524866804</v>
       </c>
       <c r="G99" t="n">
-        <v>61.51803977344692</v>
+        <v>97.21937843033118</v>
       </c>
       <c r="H99" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="I99" t="n">
-        <v>296826</v>
+        <v>293366</v>
       </c>
     </row>
     <row r="100">
@@ -3909,22 +3909,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>80009189</v>
+        <v>79980383</v>
       </c>
       <c r="E100" t="n">
-        <v>101817911</v>
+        <v>101781253</v>
       </c>
       <c r="F100" t="n">
-        <v>7140.16565024046</v>
+        <v>8654.8061663888</v>
       </c>
       <c r="G100" t="n">
-        <v>12882.6725589624</v>
+        <v>13251.67948434175</v>
       </c>
       <c r="H100" t="n">
-        <v>0.29</v>
+        <v>0.23</v>
       </c>
       <c r="I100" t="n">
-        <v>6266893</v>
+        <v>6180673</v>
       </c>
     </row>
     <row r="101">
@@ -3944,22 +3944,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>22530380</v>
+        <v>22393754</v>
       </c>
       <c r="E101" t="n">
-        <v>29227057</v>
+        <v>29049822</v>
       </c>
       <c r="F101" t="n">
-        <v>6871.397290058423</v>
+        <v>4662.852640067853</v>
       </c>
       <c r="G101" t="n">
-        <v>5356.810474387031</v>
+        <v>3893.930587773966</v>
       </c>
       <c r="H101" t="n">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="I101" t="n">
-        <v>164995</v>
+        <v>160119</v>
       </c>
     </row>
     <row r="102">
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>1704049</v>
+        <v>1780160</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>4.02</v>
+        <v>7.34</v>
       </c>
       <c r="I102" t="n">
-        <v>13757.63</v>
+        <v>13102.08</v>
       </c>
     </row>
     <row r="103">
@@ -4014,22 +4014,22 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>611627</v>
+        <v>607592</v>
       </c>
       <c r="E103" t="n">
-        <v>611627</v>
+        <v>607592</v>
       </c>
       <c r="F103" t="n">
-        <v>12.64497786052157</v>
+        <v>12.69863915316862</v>
       </c>
       <c r="G103" t="n">
-        <v>420.8685104695076</v>
+        <v>225.1785427948426</v>
       </c>
       <c r="H103" t="n">
-        <v>3.42</v>
+        <v>3.83</v>
       </c>
       <c r="I103" t="n">
-        <v>81308</v>
+        <v>77825</v>
       </c>
     </row>
     <row r="104">
@@ -4049,22 +4049,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>40894868</v>
+        <v>40822814</v>
       </c>
       <c r="E104" t="n">
-        <v>42749760</v>
+        <v>42674437</v>
       </c>
       <c r="F104" t="n">
-        <v>477.2052201200409</v>
+        <v>253.1278728010321</v>
       </c>
       <c r="G104" t="n">
-        <v>1731.578908206566</v>
+        <v>1426.495597793167</v>
       </c>
       <c r="H104" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="I104" t="n">
-        <v>743315</v>
+        <v>740701</v>
       </c>
     </row>
     <row r="105">
@@ -4084,22 +4084,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>13615593</v>
+        <v>13567897</v>
       </c>
       <c r="E105" t="n">
-        <v>13615593</v>
+        <v>13567897</v>
       </c>
       <c r="F105" t="n">
-        <v>2058.34255704593</v>
+        <v>1458.064782420799</v>
       </c>
       <c r="G105" t="n">
-        <v>2486.830790777223</v>
+        <v>3344.759324475612</v>
       </c>
       <c r="H105" t="n">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="I105" t="n">
-        <v>4361988</v>
+        <v>4507621</v>
       </c>
     </row>
     <row r="106">
@@ -4122,19 +4122,19 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>1095988</v>
+        <v>1085030</v>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>7.910494786821881</v>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>333.6563561739323</v>
       </c>
       <c r="H106" t="n">
-        <v>6.89</v>
+        <v>0.73</v>
       </c>
       <c r="I106" t="n">
-        <v>4073.06</v>
+        <v>3343.95</v>
       </c>
     </row>
     <row r="107">
@@ -4154,22 +4154,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>50504653</v>
+        <v>51736400</v>
       </c>
       <c r="E107" t="n">
-        <v>128663491</v>
+        <v>131801437</v>
       </c>
       <c r="F107" t="n">
-        <v>2352.443704836427</v>
+        <v>1822.622933400372</v>
       </c>
       <c r="G107" t="n">
-        <v>4635.909836573811</v>
+        <v>2809.971687586696</v>
       </c>
       <c r="H107" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="I107" t="n">
-        <v>2330474</v>
+        <v>2757244</v>
       </c>
     </row>
     <row r="108">
@@ -4189,22 +4189,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>13948075</v>
+        <v>13825835</v>
       </c>
       <c r="E108" t="n">
-        <v>67552753</v>
+        <v>66960723</v>
       </c>
       <c r="F108" t="n">
-        <v>7759.260656984818</v>
+        <v>8586.382330501196</v>
       </c>
       <c r="G108" t="n">
-        <v>11199.99086800975</v>
+        <v>13501.27551633983</v>
       </c>
       <c r="H108" t="n">
-        <v>0.22</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I108" t="n">
-        <v>3502604</v>
+        <v>3598523</v>
       </c>
     </row>
     <row r="109">
@@ -4227,19 +4227,19 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>505525</v>
+        <v>535704</v>
       </c>
       <c r="F109" t="n">
-        <v>14.67667419140725</v>
+        <v>76.16555557235407</v>
       </c>
       <c r="G109" t="n">
-        <v>254.1017900027623</v>
+        <v>4.692078027143295</v>
       </c>
       <c r="H109" t="n">
-        <v>3.3</v>
+        <v>3.37</v>
       </c>
       <c r="I109" t="n">
-        <v>7473.28</v>
+        <v>7509.18</v>
       </c>
     </row>
     <row r="110">
@@ -4259,22 +4259,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>4513153</v>
+        <v>4484793</v>
       </c>
       <c r="E110" t="n">
-        <v>10287533</v>
+        <v>10222887</v>
       </c>
       <c r="F110" t="n">
-        <v>1676.966708968084</v>
+        <v>1206.754245032798</v>
       </c>
       <c r="G110" t="n">
-        <v>1577.973204619315</v>
+        <v>2227.484053487617</v>
       </c>
       <c r="H110" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="I110" t="n">
-        <v>105498</v>
+        <v>98964</v>
       </c>
     </row>
     <row r="111">
@@ -4297,19 +4297,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>1859840620</v>
+        <v>1874205379</v>
       </c>
       <c r="F111" t="n">
-        <v>68186.87694580138</v>
+        <v>61331.37098384719</v>
       </c>
       <c r="G111" t="n">
-        <v>31962.24605588005</v>
+        <v>46695.5469271187</v>
       </c>
       <c r="H111" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="I111" t="n">
-        <v>25811253</v>
+        <v>26016544</v>
       </c>
     </row>
     <row r="112">
@@ -4329,22 +4329,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>9351643</v>
+        <v>9412368</v>
       </c>
       <c r="E112" t="n">
-        <v>34053088</v>
+        <v>34274256</v>
       </c>
       <c r="F112" t="n">
-        <v>968.7975301301832</v>
+        <v>393.0806478148707</v>
       </c>
       <c r="G112" t="n">
-        <v>481.2965179688415</v>
+        <v>335.208411441771</v>
       </c>
       <c r="H112" t="n">
-        <v>0.87</v>
+        <v>0.59</v>
       </c>
       <c r="I112" t="n">
-        <v>156652</v>
+        <v>158168</v>
       </c>
     </row>
     <row r="113">
@@ -4367,19 +4367,19 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>563380</v>
+        <v>545156</v>
       </c>
       <c r="F113" t="n">
-        <v>15.59159032610915</v>
+        <v>20.56871010644179</v>
       </c>
       <c r="G113" t="n">
-        <v>183.4282540399149</v>
+        <v>154.2503643908516</v>
       </c>
       <c r="H113" t="n">
         <v>1.39</v>
       </c>
       <c r="I113" t="n">
-        <v>21342</v>
+        <v>20759</v>
       </c>
     </row>
     <row r="114">
@@ -4399,22 +4399,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>12142054</v>
+        <v>12196700</v>
       </c>
       <c r="E114" t="n">
-        <v>17604226</v>
+        <v>17683455</v>
       </c>
       <c r="F114" t="n">
-        <v>2948.934689601695</v>
+        <v>5515.942295296412</v>
       </c>
       <c r="G114" t="n">
-        <v>9114.42180006204</v>
+        <v>3279.307887542799</v>
       </c>
       <c r="H114" t="n">
-        <v>0.57</v>
+        <v>0.62</v>
       </c>
       <c r="I114" t="n">
-        <v>2250742</v>
+        <v>2277345</v>
       </c>
     </row>
     <row r="115">
@@ -4434,22 +4434,22 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1922972</v>
+        <v>2025891</v>
       </c>
       <c r="E115" t="n">
-        <v>13789444</v>
+        <v>14527464</v>
       </c>
       <c r="F115" t="n">
-        <v>834.3262288699593</v>
+        <v>3.656352859093619</v>
       </c>
       <c r="G115" t="n">
-        <v>625.7718138515679</v>
+        <v>48.05778543819525</v>
       </c>
       <c r="H115" t="n">
-        <v>1.65</v>
+        <v>2.72</v>
       </c>
       <c r="I115" t="n">
-        <v>1843437</v>
+        <v>612807</v>
       </c>
     </row>
     <row r="116">
@@ -4469,10 +4469,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2740789</v>
+        <v>2750425</v>
       </c>
       <c r="E116" t="n">
-        <v>5540394</v>
+        <v>5559872</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>3246.87</v>
+        <v>3688.07</v>
       </c>
     </row>
     <row r="117">
@@ -4502,22 +4502,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>194857125</v>
+        <v>196274156</v>
       </c>
       <c r="E117" t="n">
-        <v>1103400772</v>
+        <v>1111424870</v>
       </c>
       <c r="F117" t="n">
-        <v>389452.0774691183</v>
+        <v>388850.6734226883</v>
       </c>
       <c r="G117" t="n">
-        <v>422047.6745577406</v>
+        <v>419401.1374167312</v>
       </c>
       <c r="H117" t="n">
         <v>0.14</v>
       </c>
       <c r="I117" t="n">
-        <v>58777451</v>
+        <v>60522209</v>
       </c>
     </row>
     <row r="118">
@@ -4537,22 +4537,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>718275</v>
+        <v>700534</v>
       </c>
       <c r="E118" t="n">
-        <v>2381696</v>
+        <v>2322866</v>
       </c>
       <c r="F118" t="n">
-        <v>8457.304971894677</v>
+        <v>7376.741920043014</v>
       </c>
       <c r="G118" t="n">
-        <v>4020.798546275606</v>
+        <v>11111.26635619633</v>
       </c>
       <c r="H118" t="n">
-        <v>0.85</v>
+        <v>0.44</v>
       </c>
       <c r="I118" t="n">
-        <v>18742.46</v>
+        <v>21658</v>
       </c>
     </row>
     <row r="119">
@@ -4572,22 +4572,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2789140</v>
+        <v>2788024</v>
       </c>
       <c r="E119" t="n">
-        <v>9875169</v>
+        <v>9871217</v>
       </c>
       <c r="F119" t="n">
-        <v>279.005551166875</v>
+        <v>278.6485674414998</v>
       </c>
       <c r="G119" t="n">
-        <v>1757.302558293642</v>
+        <v>1677.811673079567</v>
       </c>
       <c r="H119" t="n">
-        <v>1.62</v>
+        <v>1.43</v>
       </c>
       <c r="I119" t="n">
-        <v>11254.09</v>
+        <v>11053.25</v>
       </c>
     </row>
     <row r="120">
@@ -4607,22 +4607,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1045847</v>
+        <v>1040437</v>
       </c>
       <c r="E120" t="n">
-        <v>1045847</v>
+        <v>1040437</v>
       </c>
       <c r="F120" t="n">
-        <v>207.1082071163943</v>
+        <v>10.11312252406228</v>
       </c>
       <c r="G120" t="n">
-        <v>102.6370751262599</v>
+        <v>36.9776156994232</v>
       </c>
       <c r="H120" t="n">
-        <v>2.21</v>
+        <v>1.16</v>
       </c>
       <c r="I120" t="n">
-        <v>12280.15</v>
+        <v>12113.63</v>
       </c>
     </row>
     <row r="121">
@@ -4642,22 +4642,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>501325</v>
+        <v>498998</v>
       </c>
       <c r="E121" t="n">
-        <v>1687391</v>
+        <v>1679557</v>
       </c>
       <c r="F121" t="n">
-        <v>449.5426887909484</v>
+        <v>480.7376663775327</v>
       </c>
       <c r="G121" t="n">
-        <v>709.5090819834155</v>
+        <v>746.4415122213717</v>
       </c>
       <c r="H121" t="n">
         <v>0.88</v>
       </c>
       <c r="I121" t="n">
-        <v>632431</v>
+        <v>630586</v>
       </c>
     </row>
     <row r="122">
@@ -4677,10 +4677,10 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>453609</v>
+        <v>458863</v>
       </c>
       <c r="E122" t="n">
-        <v>841531</v>
+        <v>851279</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -4689,10 +4689,10 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>5.68</v>
+        <v>6.74</v>
       </c>
       <c r="I122" t="n">
-        <v>200140</v>
+        <v>210434</v>
       </c>
     </row>
     <row r="123">
@@ -4715,19 +4715,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>11525427</v>
+        <v>11794888</v>
       </c>
       <c r="F123" t="n">
-        <v>104.7918548615779</v>
+        <v>104.7800507194533</v>
       </c>
       <c r="G123" t="n">
-        <v>154.5754608140815</v>
+        <v>155.1119971741901</v>
       </c>
       <c r="H123" t="n">
-        <v>2.62</v>
+        <v>2.74</v>
       </c>
       <c r="I123" t="n">
-        <v>7420.85</v>
+        <v>7645.96</v>
       </c>
     </row>
     <row r="124">
@@ -4750,19 +4750,19 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>1264508</v>
+        <v>1245250</v>
       </c>
       <c r="F124" t="n">
-        <v>62.04454212511224</v>
+        <v>84.38326316477863</v>
       </c>
       <c r="G124" t="n">
-        <v>4.020058284178348</v>
+        <v>4.019937387845491</v>
       </c>
       <c r="H124" t="n">
-        <v>3.53</v>
+        <v>2.9</v>
       </c>
       <c r="I124" t="n">
-        <v>48471</v>
+        <v>47948</v>
       </c>
     </row>
     <row r="125">
@@ -4782,22 +4782,22 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3355411</v>
+        <v>3274381</v>
       </c>
       <c r="E125" t="n">
-        <v>7835443</v>
+        <v>7646225</v>
       </c>
       <c r="F125" t="n">
-        <v>873.1367563416944</v>
+        <v>1108.784561286305</v>
       </c>
       <c r="G125" t="n">
-        <v>1531.529585536471</v>
+        <v>1150.661440878409</v>
       </c>
       <c r="H125" t="n">
-        <v>1.08</v>
+        <v>0.91</v>
       </c>
       <c r="I125" t="n">
-        <v>757827</v>
+        <v>755391</v>
       </c>
     </row>
     <row r="126">
@@ -4817,22 +4817,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>257931</v>
+        <v>262129</v>
       </c>
       <c r="E126" t="n">
-        <v>2276433</v>
+        <v>2313481</v>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>115.2343973826342</v>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>10.68803890100785</v>
       </c>
       <c r="H126" t="n">
-        <v>4.13</v>
+        <v>3.01</v>
       </c>
       <c r="I126" t="n">
-        <v>93908</v>
+        <v>80807</v>
       </c>
     </row>
     <row r="127">
@@ -4855,19 +4855,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>645274</v>
+        <v>643427</v>
       </c>
       <c r="F127" t="n">
-        <v>589.6811773376501</v>
+        <v>589.9244029346304</v>
       </c>
       <c r="G127" t="n">
-        <v>651.8371789430061</v>
+        <v>472.7634191211656</v>
       </c>
       <c r="H127" t="n">
-        <v>0.96</v>
+        <v>1.9</v>
       </c>
       <c r="I127" t="n">
-        <v>6406.16</v>
+        <v>5960.51</v>
       </c>
     </row>
     <row r="128">
@@ -4887,22 +4887,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>4915450</v>
+        <v>4899115</v>
       </c>
       <c r="E128" t="n">
-        <v>17369849</v>
+        <v>17312124</v>
       </c>
       <c r="F128" t="n">
-        <v>1832.001942364471</v>
+        <v>1882.571224716346</v>
       </c>
       <c r="G128" t="n">
-        <v>1873.876502952785</v>
+        <v>1709.449235934148</v>
       </c>
       <c r="H128" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="I128" t="n">
-        <v>106077</v>
+        <v>105486</v>
       </c>
     </row>
     <row r="129">
@@ -4925,19 +4925,19 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2281085</v>
+        <v>2249979</v>
       </c>
       <c r="F129" t="n">
-        <v>133.024354995607</v>
+        <v>92.65333859667136</v>
       </c>
       <c r="G129" t="n">
-        <v>33.4901618758705</v>
+        <v>21.7682068766276</v>
       </c>
       <c r="H129" t="n">
-        <v>0.18</v>
+        <v>0.04</v>
       </c>
       <c r="I129" t="n">
-        <v>5813.31</v>
+        <v>6687.46</v>
       </c>
     </row>
     <row r="130">
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>2468196</v>
+        <v>2481431</v>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
@@ -4970,7 +4970,7 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>2461.07</v>
+        <v>2451.39</v>
       </c>
     </row>
     <row r="131">
@@ -4990,22 +4990,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>83665</v>
+        <v>81633</v>
       </c>
       <c r="E131" t="n">
-        <v>83665</v>
+        <v>81633</v>
       </c>
       <c r="F131" t="n">
-        <v>15.14693246725912</v>
+        <v>15.60957015428511</v>
       </c>
       <c r="G131" t="n">
-        <v>73.69722746261542</v>
+        <v>73.52537829139177</v>
       </c>
       <c r="H131" t="n">
         <v>0.2</v>
       </c>
       <c r="I131" t="n">
-        <v>20169</v>
+        <v>19910.76</v>
       </c>
     </row>
     <row r="132">
@@ -5028,19 +5028,19 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>4367394</v>
+        <v>4380931</v>
       </c>
       <c r="F132" t="n">
-        <v>328.7227206823863</v>
+        <v>493.1267207631134</v>
       </c>
       <c r="G132" t="n">
-        <v>190.3781922250066</v>
+        <v>114.5829693181208</v>
       </c>
       <c r="H132" t="n">
         <v>0.44</v>
       </c>
       <c r="I132" t="n">
-        <v>317480</v>
+        <v>287646</v>
       </c>
     </row>
     <row r="133">
@@ -5060,22 +5060,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2100669</v>
+        <v>2143248</v>
       </c>
       <c r="E133" t="n">
-        <v>8578586</v>
+        <v>8752470</v>
       </c>
       <c r="F133" t="n">
-        <v>498.6267311043256</v>
+        <v>364.6665565243356</v>
       </c>
       <c r="G133" t="n">
-        <v>197.3037658169624</v>
+        <v>446.813023860416</v>
       </c>
       <c r="H133" t="n">
-        <v>0.03</v>
+        <v>0.49</v>
       </c>
       <c r="I133" t="n">
-        <v>557295</v>
+        <v>565986</v>
       </c>
     </row>
     <row r="134">
@@ -5095,22 +5095,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>7267938</v>
+        <v>7306582</v>
       </c>
       <c r="E134" t="n">
-        <v>7321963</v>
+        <v>7360894</v>
       </c>
       <c r="F134" t="n">
-        <v>339217.939406905</v>
+        <v>347587.8653136583</v>
       </c>
       <c r="G134" t="n">
-        <v>253467.4253623525</v>
+        <v>364250.7668901035</v>
       </c>
       <c r="H134" t="n">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="I134" t="n">
-        <v>4876815</v>
+        <v>4566203</v>
       </c>
     </row>
     <row r="135">
@@ -5130,22 +5130,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>13475624</v>
+        <v>13506817</v>
       </c>
       <c r="E135" t="n">
-        <v>13521483</v>
+        <v>13552782</v>
       </c>
       <c r="F135" t="n">
-        <v>11358.83748304526</v>
+        <v>12099.88594703563</v>
       </c>
       <c r="G135" t="n">
-        <v>11309.32972978775</v>
+        <v>13104.1316266062</v>
       </c>
       <c r="H135" t="n">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="I135" t="n">
-        <v>5741374</v>
+        <v>5745040</v>
       </c>
     </row>
     <row r="136">
@@ -5165,22 +5165,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>42857373</v>
+        <v>42854056</v>
       </c>
       <c r="E136" t="n">
-        <v>72761850</v>
+        <v>72756217</v>
       </c>
       <c r="F136" t="n">
-        <v>808.2125784626616</v>
+        <v>1045.731145499863</v>
       </c>
       <c r="G136" t="n">
-        <v>910.010835378617</v>
+        <v>745.1976558791231</v>
       </c>
       <c r="H136" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I136" t="n">
-        <v>1151368</v>
+        <v>1110320</v>
       </c>
     </row>
     <row r="137">
@@ -5200,22 +5200,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>26091399</v>
+        <v>26000024</v>
       </c>
       <c r="E137" t="n">
-        <v>78209705</v>
+        <v>77935336</v>
       </c>
       <c r="F137" t="n">
-        <v>91246.58194298476</v>
+        <v>95259.37066775253</v>
       </c>
       <c r="G137" t="n">
-        <v>81171.61530996718</v>
+        <v>78404.91211796332</v>
       </c>
       <c r="H137" t="n">
-        <v>0.24</v>
+        <v>0.14</v>
       </c>
       <c r="I137" t="n">
-        <v>2413888</v>
+        <v>2432370</v>
       </c>
     </row>
     <row r="138">
@@ -5235,22 +5235,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>100943033</v>
+        <v>101050209</v>
       </c>
       <c r="E138" t="n">
-        <v>107311566</v>
+        <v>107425505</v>
       </c>
       <c r="F138" t="n">
-        <v>7232.145309497409</v>
+        <v>8071.076097560282</v>
       </c>
       <c r="G138" t="n">
-        <v>11393.98704806035</v>
+        <v>12493.47152159929</v>
       </c>
       <c r="H138" t="n">
-        <v>0.49</v>
+        <v>0.31</v>
       </c>
       <c r="I138" t="n">
-        <v>977395</v>
+        <v>977633</v>
       </c>
     </row>
     <row r="139">
@@ -5273,19 +5273,19 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1097641</v>
+        <v>1161189</v>
       </c>
       <c r="F139" t="n">
-        <v>3.45386519099398</v>
+        <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>372.1073160449146</v>
+        <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>1.65</v>
+        <v>5.41</v>
       </c>
       <c r="I139" t="n">
-        <v>136.31</v>
+        <v>136.22</v>
       </c>
     </row>
     <row r="140">
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>258520</v>
+        <v>258508</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -5317,10 +5317,10 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>8.85</v>
+        <v>7.45</v>
       </c>
       <c r="I140" t="n">
-        <v>534.65</v>
+        <v>534.27</v>
       </c>
     </row>
     <row r="141">
@@ -5336,10 +5336,10 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>97031</v>
+        <v>97123</v>
       </c>
       <c r="E141" t="n">
-        <v>275255</v>
+        <v>275516</v>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
@@ -5349,7 +5349,7 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>47.71</v>
+        <v>40.77</v>
       </c>
     </row>
     <row r="142">
@@ -5369,22 +5369,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>45811089</v>
+        <v>46078350</v>
       </c>
       <c r="E142" t="n">
-        <v>197349164</v>
+        <v>198500493</v>
       </c>
       <c r="F142" t="n">
-        <v>78669.00034568018</v>
+        <v>66468.31145792281</v>
       </c>
       <c r="G142" t="n">
-        <v>57125.37478933499</v>
+        <v>68575.08337232549</v>
       </c>
       <c r="H142" t="n">
         <v>0.11</v>
       </c>
       <c r="I142" t="n">
-        <v>8311632</v>
+        <v>8375841</v>
       </c>
     </row>
     <row r="143">
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>300134</v>
+        <v>280273</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -5419,7 +5419,7 @@
         <v>9.06</v>
       </c>
       <c r="I143" t="n">
-        <v>209682</v>
+        <v>209737</v>
       </c>
     </row>
     <row r="144">
@@ -5442,19 +5442,19 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>9530734</v>
+        <v>9456946</v>
       </c>
       <c r="F144" t="n">
-        <v>1332.911350340266</v>
+        <v>1086.135893769869</v>
       </c>
       <c r="G144" t="n">
-        <v>291.4754662365521</v>
+        <v>575.7014845381734</v>
       </c>
       <c r="H144" t="n">
-        <v>0.72</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I144" t="n">
-        <v>121357</v>
+        <v>121666</v>
       </c>
     </row>
     <row r="145">
@@ -5474,22 +5474,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1174470</v>
+        <v>1189615</v>
       </c>
       <c r="E145" t="n">
-        <v>7829798</v>
+        <v>7930764</v>
       </c>
       <c r="F145" t="n">
-        <v>51.74251159089974</v>
+        <v>51.74095552393206</v>
       </c>
       <c r="G145" t="n">
-        <v>120.7059445797169</v>
+        <v>96.18174921329759</v>
       </c>
       <c r="H145" t="n">
         <v>0.53</v>
       </c>
       <c r="I145" t="n">
-        <v>9617.450000000001</v>
+        <v>4798.51</v>
       </c>
     </row>
     <row r="146">
@@ -5512,19 +5512,19 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>7904244</v>
+        <v>7945281</v>
       </c>
       <c r="F146" t="n">
-        <v>550.7743185591704</v>
+        <v>174.8933814063984</v>
       </c>
       <c r="G146" t="n">
-        <v>270.7559324405124</v>
+        <v>117.0101080798563</v>
       </c>
       <c r="H146" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="I146" t="n">
-        <v>6383740</v>
+        <v>657670</v>
       </c>
     </row>
     <row r="147">
@@ -5544,22 +5544,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>664816</v>
+        <v>663154</v>
       </c>
       <c r="E147" t="n">
-        <v>2400387</v>
+        <v>2394388</v>
       </c>
       <c r="F147" t="n">
-        <v>11.45780034176907</v>
+        <v>25.16911206852154</v>
       </c>
       <c r="G147" t="n">
-        <v>248.2516350661494</v>
+        <v>250.2030916797738</v>
       </c>
       <c r="H147" t="n">
-        <v>0.83</v>
+        <v>0.87</v>
       </c>
       <c r="I147" t="n">
-        <v>370063</v>
+        <v>382917</v>
       </c>
     </row>
     <row r="148">
@@ -5582,19 +5582,19 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>1642377</v>
+        <v>1658378</v>
       </c>
       <c r="F148" t="n">
-        <v>39.01424776126333</v>
+        <v>43.08667898229562</v>
       </c>
       <c r="G148" t="n">
-        <v>16.82475107651799</v>
+        <v>14.16642367608263</v>
       </c>
       <c r="H148" t="n">
-        <v>1.48</v>
+        <v>1.29</v>
       </c>
       <c r="I148" t="n">
-        <v>89408</v>
+        <v>88997</v>
       </c>
     </row>
     <row r="149">
@@ -5617,19 +5617,19 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>63006</v>
+        <v>62999</v>
       </c>
       <c r="F149" t="n">
-        <v>8.127702548362633</v>
+        <v>8.127458121699338</v>
       </c>
       <c r="G149" t="n">
-        <v>2.857194640494463</v>
+        <v>2.857108715283962</v>
       </c>
       <c r="H149" t="n">
         <v>3.23</v>
       </c>
       <c r="I149" t="n">
-        <v>892.75</v>
+        <v>892.0599999999999</v>
       </c>
     </row>
     <row r="150">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>12986845</v>
+        <v>12989507</v>
       </c>
       <c r="E150" t="n">
-        <v>12986845</v>
+        <v>12989507</v>
       </c>
       <c r="F150" t="n">
-        <v>456.147862740103</v>
+        <v>857.6726274349448</v>
       </c>
       <c r="G150" t="n">
-        <v>1422.46945331385</v>
+        <v>909.8208862343331</v>
       </c>
       <c r="H150" t="n">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="I150" t="n">
-        <v>2681352</v>
+        <v>2644804</v>
       </c>
     </row>
     <row r="151">
@@ -5684,22 +5684,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1728609</v>
+        <v>1730040</v>
       </c>
       <c r="E151" t="n">
-        <v>6281647</v>
+        <v>6286763</v>
       </c>
       <c r="F151" t="n">
-        <v>36.27836766476955</v>
+        <v>111.4678604563521</v>
       </c>
       <c r="G151" t="n">
-        <v>175.1522086944074</v>
+        <v>62.2827579872189</v>
       </c>
       <c r="H151" t="n">
-        <v>1.32</v>
+        <v>1.99</v>
       </c>
       <c r="I151" t="n">
-        <v>129931</v>
+        <v>135505</v>
       </c>
     </row>
     <row r="152">
@@ -5719,10 +5719,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1173282</v>
+        <v>1236452</v>
       </c>
       <c r="E152" t="n">
-        <v>1173282</v>
+        <v>1236452</v>
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>135.7</v>
+        <v>748.47</v>
       </c>
     </row>
     <row r="153">
@@ -5752,22 +5752,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>23792136</v>
+        <v>23738959</v>
       </c>
       <c r="E153" t="n">
-        <v>27424044</v>
+        <v>27366724</v>
       </c>
       <c r="F153" t="n">
-        <v>264.5815113855745</v>
+        <v>391.2096091585068</v>
       </c>
       <c r="G153" t="n">
-        <v>234.9591799558755</v>
+        <v>470.8522655502156</v>
       </c>
       <c r="H153" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I153" t="n">
-        <v>735197</v>
+        <v>776541</v>
       </c>
     </row>
     <row r="154">
@@ -5787,22 +5787,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2451130</v>
+        <v>2450925</v>
       </c>
       <c r="E154" t="n">
-        <v>18445862</v>
+        <v>18443043</v>
       </c>
       <c r="F154" t="n">
-        <v>5899.83403704045</v>
+        <v>4933.087834708519</v>
       </c>
       <c r="G154" t="n">
-        <v>2820.070196790808</v>
+        <v>3164.315405658369</v>
       </c>
       <c r="H154" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="I154" t="n">
-        <v>162161</v>
+        <v>162579</v>
       </c>
     </row>
     <row r="155">
@@ -5822,22 +5822,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>20776433</v>
+        <v>20202183</v>
       </c>
       <c r="E155" t="n">
-        <v>83105733</v>
+        <v>80808730</v>
       </c>
       <c r="F155" t="n">
-        <v>8210.24330321647</v>
+        <v>10925.2997407133</v>
       </c>
       <c r="G155" t="n">
-        <v>19790.85710398019</v>
+        <v>11283.10228648058</v>
       </c>
       <c r="H155" t="n">
-        <v>0.47</v>
+        <v>0.25</v>
       </c>
       <c r="I155" t="n">
-        <v>5883378</v>
+        <v>6009983</v>
       </c>
     </row>
     <row r="156">
@@ -5857,22 +5857,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>290850271</v>
+        <v>290573991</v>
       </c>
       <c r="E156" t="n">
-        <v>290850271</v>
+        <v>290573991</v>
       </c>
       <c r="F156" t="n">
-        <v>342297.0745006787</v>
+        <v>300515.7257175135</v>
       </c>
       <c r="G156" t="n">
-        <v>304923.8868389558</v>
+        <v>391703.4784275644</v>
       </c>
       <c r="H156" t="n">
-        <v>0.23</v>
+        <v>0.09</v>
       </c>
       <c r="I156" t="n">
-        <v>12508731</v>
+        <v>12147475</v>
       </c>
     </row>
     <row r="157">
@@ -5892,22 +5892,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>12655688</v>
+        <v>12658062</v>
       </c>
       <c r="E157" t="n">
-        <v>40039048</v>
+        <v>40046559</v>
       </c>
       <c r="F157" t="n">
-        <v>11309.42644044659</v>
+        <v>12661.70294580332</v>
       </c>
       <c r="G157" t="n">
-        <v>14154.15230392063</v>
+        <v>12797.91502707215</v>
       </c>
       <c r="H157" t="n">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="I157" t="n">
-        <v>1579312</v>
+        <v>1485529</v>
       </c>
     </row>
     <row r="158">
@@ -5927,10 +5927,10 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1087719</v>
+        <v>1088855</v>
       </c>
       <c r="E158" t="n">
-        <v>2477387</v>
+        <v>2479974</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -5942,7 +5942,7 @@
         <v>5.98</v>
       </c>
       <c r="I158" t="n">
-        <v>4841.04</v>
+        <v>4837.32</v>
       </c>
     </row>
     <row r="159">
@@ -5962,22 +5962,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>16753935</v>
+        <v>16770877</v>
       </c>
       <c r="E159" t="n">
-        <v>16753935</v>
+        <v>16770877</v>
       </c>
       <c r="F159" t="n">
-        <v>14989.69833371248</v>
+        <v>15967.66102055936</v>
       </c>
       <c r="G159" t="n">
-        <v>17938.58496700861</v>
+        <v>15958.51836185816</v>
       </c>
       <c r="H159" t="n">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="I159" t="n">
-        <v>3293118</v>
+        <v>3299919</v>
       </c>
     </row>
     <row r="160">
@@ -5997,10 +5997,10 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>4861386</v>
+        <v>4861160</v>
       </c>
       <c r="E160" t="n">
-        <v>8950332</v>
+        <v>8949915</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -6012,7 +6012,7 @@
         <v>10.4</v>
       </c>
       <c r="I160" t="n">
-        <v>12.48</v>
+        <v>12.47</v>
       </c>
     </row>
     <row r="161">
@@ -6032,10 +6032,10 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>108631</v>
+        <v>108204</v>
       </c>
       <c r="E161" t="n">
-        <v>130466</v>
+        <v>129953</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -6044,10 +6044,10 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>8.49</v>
+        <v>5.94</v>
       </c>
       <c r="I161" t="n">
-        <v>4343.54</v>
+        <v>4448</v>
       </c>
     </row>
     <row r="162">
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>20038217</v>
+        <v>19487801</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -6079,10 +6079,10 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>11.23</v>
+        <v>10.91</v>
       </c>
       <c r="I162" t="n">
-        <v>1157.85</v>
+        <v>1383.71</v>
       </c>
     </row>
     <row r="163">
@@ -6102,22 +6102,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>435461</v>
+        <v>435301</v>
       </c>
       <c r="E163" t="n">
-        <v>548518</v>
+        <v>548316</v>
       </c>
       <c r="F163" t="n">
-        <v>229.7447141345041</v>
+        <v>244.3756626292636</v>
       </c>
       <c r="G163" t="n">
-        <v>173.9306095078402</v>
+        <v>170.1631474085988</v>
       </c>
       <c r="H163" t="n">
-        <v>0.73</v>
+        <v>0.54</v>
       </c>
       <c r="I163" t="n">
-        <v>189078</v>
+        <v>188715</v>
       </c>
     </row>
     <row r="164">
@@ -6140,19 +6140,19 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>110024</v>
+        <v>108399</v>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>122.9195535864713</v>
       </c>
       <c r="G164" t="n">
-        <v>0</v>
+        <v>1.214278340112147</v>
       </c>
       <c r="H164" t="n">
-        <v>4.3</v>
+        <v>2.24</v>
       </c>
       <c r="I164" t="n">
-        <v>4020.2</v>
+        <v>3788.17</v>
       </c>
     </row>
     <row r="165">
@@ -6172,22 +6172,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>12074369</v>
+        <v>12015472</v>
       </c>
       <c r="E165" t="n">
-        <v>18402135</v>
+        <v>18312373</v>
       </c>
       <c r="F165" t="n">
-        <v>712.2632040803844</v>
+        <v>2346.92411193851</v>
       </c>
       <c r="G165" t="n">
-        <v>4067.862242286879</v>
+        <v>2291.437254803312</v>
       </c>
       <c r="H165" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="I165" t="n">
-        <v>668058</v>
+        <v>667548</v>
       </c>
     </row>
     <row r="166">
@@ -6207,22 +6207,22 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>296907905</v>
+        <v>295947514</v>
       </c>
       <c r="E166" t="n">
-        <v>296907905</v>
+        <v>295947514</v>
       </c>
       <c r="F166" t="n">
-        <v>272491.6020614338</v>
+        <v>303276.8448627125</v>
       </c>
       <c r="G166" t="n">
-        <v>374851.5183290248</v>
+        <v>325617.4683062517</v>
       </c>
       <c r="H166" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I166" t="n">
-        <v>50494480</v>
+        <v>49960576</v>
       </c>
     </row>
     <row r="167">
@@ -6242,22 +6242,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>9488982</v>
+        <v>9534482</v>
       </c>
       <c r="E167" t="n">
-        <v>26940802</v>
+        <v>27069985</v>
       </c>
       <c r="F167" t="n">
-        <v>649.8003408388238</v>
+        <v>1036.344514810055</v>
       </c>
       <c r="G167" t="n">
-        <v>698.5543045822204</v>
+        <v>1041.342046513098</v>
       </c>
       <c r="H167" t="n">
         <v>1.48</v>
       </c>
       <c r="I167" t="n">
-        <v>114259</v>
+        <v>111754</v>
       </c>
     </row>
     <row r="168">
@@ -6280,19 +6280,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>11890632</v>
+        <v>11909610</v>
       </c>
       <c r="F168" t="n">
-        <v>120.0046370875065</v>
+        <v>39.20385967958536</v>
       </c>
       <c r="G168" t="n">
-        <v>2045.432424851483</v>
+        <v>2840.780488347517</v>
       </c>
       <c r="H168" t="n">
-        <v>0.76</v>
+        <v>0.34</v>
       </c>
       <c r="I168" t="n">
-        <v>110631</v>
+        <v>115677</v>
       </c>
     </row>
     <row r="169">
@@ -6312,22 +6312,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>4117603</v>
+        <v>4102490</v>
       </c>
       <c r="E169" t="n">
-        <v>28135294</v>
+        <v>28032026</v>
       </c>
       <c r="F169" t="n">
-        <v>1425.371337558764</v>
+        <v>1305.060670469187</v>
       </c>
       <c r="G169" t="n">
-        <v>488.2268994704843</v>
+        <v>1161.953031918102</v>
       </c>
       <c r="H169" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="I169" t="n">
-        <v>2526221</v>
+        <v>2519086</v>
       </c>
     </row>
     <row r="170">
@@ -6347,22 +6347,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>3156899</v>
+        <v>3109960</v>
       </c>
       <c r="E170" t="n">
-        <v>4686543</v>
+        <v>4616413</v>
       </c>
       <c r="F170" t="n">
-        <v>1174.092425354813</v>
+        <v>3934.116369768321</v>
       </c>
       <c r="G170" t="n">
-        <v>3565.049921241045</v>
+        <v>4103.279400621154</v>
       </c>
       <c r="H170" t="n">
-        <v>1.06</v>
+        <v>0.43</v>
       </c>
       <c r="I170" t="n">
-        <v>221542</v>
+        <v>222661</v>
       </c>
     </row>
     <row r="171">
@@ -6382,22 +6382,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>88692076</v>
+        <v>88670869</v>
       </c>
       <c r="E171" t="n">
-        <v>511081998</v>
+        <v>510959795</v>
       </c>
       <c r="F171" t="n">
-        <v>385304.6633442122</v>
+        <v>384661.4375700463</v>
       </c>
       <c r="G171" t="n">
-        <v>350044.9330714045</v>
+        <v>238123.1830512832</v>
       </c>
       <c r="H171" t="n">
         <v>0.18</v>
       </c>
       <c r="I171" t="n">
-        <v>15852364</v>
+        <v>15941648</v>
       </c>
     </row>
     <row r="172">
@@ -6417,22 +6417,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>13810729</v>
+        <v>14014898</v>
       </c>
       <c r="E172" t="n">
-        <v>13810729</v>
+        <v>14014898</v>
       </c>
       <c r="F172" t="n">
-        <v>4546.46612198875</v>
+        <v>5313.593947654821</v>
       </c>
       <c r="G172" t="n">
-        <v>4296.290968025241</v>
+        <v>4076.736960555058</v>
       </c>
       <c r="H172" t="n">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="I172" t="n">
-        <v>608953</v>
+        <v>606933</v>
       </c>
     </row>
     <row r="173">
@@ -6452,22 +6452,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>6519886</v>
+        <v>6348068</v>
       </c>
       <c r="E173" t="n">
-        <v>18521124</v>
+        <v>18033038</v>
       </c>
       <c r="F173" t="n">
-        <v>1463.23813092223</v>
+        <v>747.7067483409495</v>
       </c>
       <c r="G173" t="n">
-        <v>136.6548089258913</v>
+        <v>620.5805899698927</v>
       </c>
       <c r="H173" t="n">
-        <v>2.61</v>
+        <v>1.75</v>
       </c>
       <c r="I173" t="n">
-        <v>231732</v>
+        <v>236091</v>
       </c>
     </row>
     <row r="174">
@@ -6487,22 +6487,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>17793062</v>
+        <v>17737906</v>
       </c>
       <c r="E174" t="n">
-        <v>17793062</v>
+        <v>17737906</v>
       </c>
       <c r="F174" t="n">
-        <v>89.56320245745503</v>
+        <v>171.5287930317829</v>
       </c>
       <c r="G174" t="n">
-        <v>3.59468134602973</v>
+        <v>212.7025750858344</v>
       </c>
       <c r="H174" t="n">
-        <v>0.88</v>
+        <v>0.62</v>
       </c>
       <c r="I174" t="n">
-        <v>45488</v>
+        <v>42576</v>
       </c>
     </row>
     <row r="175">
@@ -6525,19 +6525,19 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>1301382</v>
+        <v>1310270</v>
       </c>
       <c r="F175" t="n">
-        <v>152.0508648970574</v>
+        <v>115.864525717141</v>
       </c>
       <c r="G175" t="n">
-        <v>16.36684463464648</v>
+        <v>734.8570365404341</v>
       </c>
       <c r="H175" t="n">
-        <v>2.89</v>
+        <v>2.26</v>
       </c>
       <c r="I175" t="n">
-        <v>3549.85</v>
+        <v>16959.01</v>
       </c>
     </row>
     <row r="176">
@@ -6557,10 +6557,10 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>127824</v>
+        <v>135028</v>
       </c>
       <c r="E176" t="n">
-        <v>278270</v>
+        <v>293953</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -6569,10 +6569,10 @@
         <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>7.55</v>
+        <v>7.23</v>
       </c>
       <c r="I176" t="n">
-        <v>45838</v>
+        <v>660.29</v>
       </c>
     </row>
     <row r="177">
@@ -6595,19 +6595,19 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>2259011</v>
+        <v>2332355</v>
       </c>
       <c r="F177" t="n">
-        <v>199.5008452823827</v>
+        <v>717.4809215807352</v>
       </c>
       <c r="G177" t="n">
-        <v>93.59714804890838</v>
+        <v>1292.313296269654</v>
       </c>
       <c r="H177" t="n">
-        <v>1.76</v>
+        <v>0.86</v>
       </c>
       <c r="I177" t="n">
-        <v>152369</v>
+        <v>156782</v>
       </c>
     </row>
     <row r="178">
@@ -6627,22 +6627,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>244824428</v>
+        <v>244171345</v>
       </c>
       <c r="E178" t="n">
-        <v>244826860</v>
+        <v>244173770</v>
       </c>
       <c r="F178" t="n">
-        <v>43455.62489241861</v>
+        <v>47067.73000088838</v>
       </c>
       <c r="G178" t="n">
-        <v>52774.02178654693</v>
+        <v>55619.41131269412</v>
       </c>
       <c r="H178" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.39</v>
       </c>
       <c r="I178" t="n">
-        <v>2527653</v>
+        <v>2677997</v>
       </c>
     </row>
     <row r="179">
@@ -6662,22 +6662,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>9266978</v>
+        <v>9275208</v>
       </c>
       <c r="E179" t="n">
-        <v>9266978</v>
+        <v>9275208</v>
       </c>
       <c r="F179" t="n">
-        <v>2124.039199365525</v>
+        <v>2234.866864068956</v>
       </c>
       <c r="G179" t="n">
-        <v>673.9623136712011</v>
+        <v>203.0572927494219</v>
       </c>
       <c r="H179" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I179" t="n">
-        <v>2056940</v>
+        <v>2062334</v>
       </c>
     </row>
     <row r="180">
@@ -6697,22 +6697,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>183794</v>
+        <v>183405</v>
       </c>
       <c r="E180" t="n">
-        <v>1419256</v>
+        <v>1416253</v>
       </c>
       <c r="F180" t="n">
-        <v>6.133159590346231</v>
+        <v>19.19074261881647</v>
       </c>
       <c r="G180" t="n">
-        <v>216.9050773226708</v>
+        <v>193.1053886758094</v>
       </c>
       <c r="H180" t="n">
-        <v>2.78</v>
+        <v>1.41</v>
       </c>
       <c r="I180" t="n">
-        <v>135976</v>
+        <v>127064</v>
       </c>
     </row>
     <row r="181">
@@ -6732,22 +6732,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>29817122</v>
+        <v>30035680</v>
       </c>
       <c r="E181" t="n">
-        <v>133503485</v>
+        <v>134482061</v>
       </c>
       <c r="F181" t="n">
-        <v>73008.10768975104</v>
+        <v>60123.41700232106</v>
       </c>
       <c r="G181" t="n">
-        <v>80294.54618297312</v>
+        <v>94696.97492571012</v>
       </c>
       <c r="H181" t="n">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="I181" t="n">
-        <v>8973466</v>
+        <v>8867901</v>
       </c>
     </row>
     <row r="182">
@@ -6770,19 +6770,19 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>1415210</v>
+        <v>1444341</v>
       </c>
       <c r="F182" t="n">
-        <v>109.8945619978612</v>
+        <v>908.0688247800836</v>
       </c>
       <c r="G182" t="n">
-        <v>324.409560784455</v>
+        <v>4992.834437901386</v>
       </c>
       <c r="H182" t="n">
-        <v>0.79</v>
+        <v>0.88</v>
       </c>
       <c r="I182" t="n">
-        <v>50375</v>
+        <v>68010</v>
       </c>
     </row>
     <row r="183">
@@ -6802,22 +6802,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>2911535</v>
+        <v>3033634</v>
       </c>
       <c r="E183" t="n">
-        <v>2911535</v>
+        <v>3033634</v>
       </c>
       <c r="F183" t="n">
-        <v>1128.350206750408</v>
+        <v>1309.644930786848</v>
       </c>
       <c r="G183" t="n">
-        <v>556.3268363890858</v>
+        <v>454.3379709133642</v>
       </c>
       <c r="H183" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="I183" t="n">
-        <v>363990</v>
+        <v>391502</v>
       </c>
     </row>
     <row r="184">
@@ -6837,22 +6837,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>573284</v>
+        <v>560626</v>
       </c>
       <c r="E184" t="n">
-        <v>573284</v>
+        <v>560626</v>
       </c>
       <c r="F184" t="n">
-        <v>18.47267295322633</v>
+        <v>18.4738418183503</v>
       </c>
       <c r="G184" t="n">
-        <v>58.25607983192266</v>
+        <v>25.30849894964986</v>
       </c>
       <c r="H184" t="n">
-        <v>3.51</v>
+        <v>1.75</v>
       </c>
       <c r="I184" t="n">
-        <v>1355359</v>
+        <v>1384240</v>
       </c>
     </row>
     <row r="185">
@@ -6872,22 +6872,22 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>13992864</v>
+        <v>14024565</v>
       </c>
       <c r="E185" t="n">
-        <v>17815150</v>
+        <v>17855511</v>
       </c>
       <c r="F185" t="n">
-        <v>107.3581390444951</v>
+        <v>60.01229202708424</v>
       </c>
       <c r="G185" t="n">
-        <v>872.3543461225988</v>
+        <v>4134.769850658357</v>
       </c>
       <c r="H185" t="n">
-        <v>0.93</v>
+        <v>0.24</v>
       </c>
       <c r="I185" t="n">
-        <v>790115</v>
+        <v>782860</v>
       </c>
     </row>
     <row r="186">
@@ -6907,22 +6907,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1942687</v>
+        <v>1972008</v>
       </c>
       <c r="E186" t="n">
-        <v>1942687</v>
+        <v>1972008</v>
       </c>
       <c r="F186" t="n">
-        <v>1.09686824805398</v>
+        <v>99.30026090423878</v>
       </c>
       <c r="G186" t="n">
-        <v>2.705251617656375</v>
+        <v>7.383302491787068</v>
       </c>
       <c r="H186" t="n">
-        <v>3.91</v>
+        <v>3.71</v>
       </c>
       <c r="I186" t="n">
-        <v>3099.47</v>
+        <v>2865.02</v>
       </c>
     </row>
     <row r="187">
@@ -6942,22 +6942,22 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>46677730</v>
+        <v>46745228</v>
       </c>
       <c r="E187" t="n">
-        <v>302692655</v>
+        <v>303130360</v>
       </c>
       <c r="F187" t="n">
-        <v>167936.2710515927</v>
+        <v>146199.7289315932</v>
       </c>
       <c r="G187" t="n">
-        <v>194863.7887462004</v>
+        <v>203052.0715583703</v>
       </c>
       <c r="H187" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I187" t="n">
-        <v>17262738</v>
+        <v>17323736</v>
       </c>
     </row>
     <row r="188">
@@ -6980,19 +6980,19 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>9394886</v>
+        <v>9323046</v>
       </c>
       <c r="F188" t="n">
-        <v>73.11521358298873</v>
+        <v>439.7179781692026</v>
       </c>
       <c r="G188" t="n">
-        <v>894.0733125515268</v>
+        <v>573.4933242187187</v>
       </c>
       <c r="H188" t="n">
-        <v>1.29</v>
+        <v>2.12</v>
       </c>
       <c r="I188" t="n">
-        <v>291331</v>
+        <v>266765</v>
       </c>
     </row>
     <row r="189">
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>6845065</v>
+        <v>7021247</v>
       </c>
       <c r="E189" t="n">
-        <v>6854823</v>
+        <v>7031220</v>
       </c>
       <c r="F189" t="n">
-        <v>66.71998751374748</v>
+        <v>220.3774113176001</v>
       </c>
       <c r="G189" t="n">
-        <v>550.3753669984437</v>
+        <v>101.6747463953059</v>
       </c>
       <c r="H189" t="n">
-        <v>0.55</v>
+        <v>0.35</v>
       </c>
       <c r="I189" t="n">
-        <v>988214</v>
+        <v>984704</v>
       </c>
     </row>
     <row r="190">
@@ -7050,19 +7050,19 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>4779855</v>
+        <v>4800111</v>
       </c>
       <c r="F190" t="n">
-        <v>1895.97113368107</v>
+        <v>1962.583265226046</v>
       </c>
       <c r="G190" t="n">
-        <v>131.9914302879955</v>
+        <v>204.3695842094266</v>
       </c>
       <c r="H190" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="I190" t="n">
-        <v>155207</v>
+        <v>159060</v>
       </c>
     </row>
     <row r="191">
@@ -7082,22 +7082,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>72641743</v>
+        <v>72915019</v>
       </c>
       <c r="E191" t="n">
-        <v>73423683</v>
+        <v>73699902</v>
       </c>
       <c r="F191" t="n">
-        <v>60603.5720349387</v>
+        <v>60339.73169428773</v>
       </c>
       <c r="G191" t="n">
-        <v>71407.67118827485</v>
+        <v>58608.68798510168</v>
       </c>
       <c r="H191" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="I191" t="n">
-        <v>8620962</v>
+        <v>8626597</v>
       </c>
     </row>
     <row r="192">
@@ -7117,22 +7117,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>235097772</v>
+        <v>231601221</v>
       </c>
       <c r="E192" t="n">
-        <v>235097772</v>
+        <v>231601221</v>
       </c>
       <c r="F192" t="n">
-        <v>95205.30350196827</v>
+        <v>97005.29271324071</v>
       </c>
       <c r="G192" t="n">
-        <v>85209.88903436218</v>
+        <v>120643.1499131947</v>
       </c>
       <c r="H192" t="n">
-        <v>0.04</v>
+        <v>0.17</v>
       </c>
       <c r="I192" t="n">
-        <v>42867737</v>
+        <v>43116363</v>
       </c>
     </row>
     <row r="193">
@@ -7152,22 +7152,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>23056015</v>
+        <v>23103689</v>
       </c>
       <c r="E193" t="n">
-        <v>137948774</v>
+        <v>138234017</v>
       </c>
       <c r="F193" t="n">
-        <v>95138.28223686865</v>
+        <v>88803.89452812682</v>
       </c>
       <c r="G193" t="n">
-        <v>95782.24684909565</v>
+        <v>129183.9578916926</v>
       </c>
       <c r="H193" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="I193" t="n">
-        <v>12838977</v>
+        <v>12622070</v>
       </c>
     </row>
     <row r="194">
@@ -7187,22 +7187,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>14078547</v>
+        <v>14497724</v>
       </c>
       <c r="E194" t="n">
-        <v>43202119</v>
+        <v>44488428</v>
       </c>
       <c r="F194" t="n">
-        <v>698.3977666069243</v>
+        <v>851.5339256642507</v>
       </c>
       <c r="G194" t="n">
-        <v>998.4601981598179</v>
+        <v>813.0285125416915</v>
       </c>
       <c r="H194" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="I194" t="n">
-        <v>2507105</v>
+        <v>2556974</v>
       </c>
     </row>
     <row r="195">
@@ -7222,22 +7222,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>52205994</v>
+        <v>52245113</v>
       </c>
       <c r="E195" t="n">
-        <v>90171102</v>
+        <v>90238667</v>
       </c>
       <c r="F195" t="n">
-        <v>7083.754136197283</v>
+        <v>14114.84345125365</v>
       </c>
       <c r="G195" t="n">
-        <v>13229.05807224107</v>
+        <v>8174.694646291779</v>
       </c>
       <c r="H195" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="I195" t="n">
-        <v>1906918</v>
+        <v>1944241</v>
       </c>
     </row>
     <row r="196">
@@ -7257,22 +7257,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>4213266</v>
+        <v>4187517</v>
       </c>
       <c r="E196" t="n">
-        <v>4213266</v>
+        <v>4187517</v>
       </c>
       <c r="F196" t="n">
-        <v>188.0892757245149</v>
+        <v>34.08848848117662</v>
       </c>
       <c r="G196" t="n">
-        <v>2.096236921593929</v>
+        <v>1.048096941302402</v>
       </c>
       <c r="H196" t="n">
-        <v>0.21</v>
+        <v>1.72</v>
       </c>
       <c r="I196" t="n">
-        <v>1541104</v>
+        <v>1532589</v>
       </c>
     </row>
     <row r="197">
@@ -7295,19 +7295,19 @@
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>209930</v>
+        <v>211838</v>
       </c>
       <c r="F197" t="n">
-        <v>5.92409855311471</v>
+        <v>12.92813017438757</v>
       </c>
       <c r="G197" t="n">
-        <v>301.0912605737129</v>
+        <v>341.1270696332366</v>
       </c>
       <c r="H197" t="n">
-        <v>3.27</v>
+        <v>2.18</v>
       </c>
       <c r="I197" t="n">
-        <v>62325</v>
+        <v>60880</v>
       </c>
     </row>
     <row r="198">
@@ -7327,22 +7327,22 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>6911662</v>
+        <v>6840199</v>
       </c>
       <c r="E198" t="n">
-        <v>35558399</v>
+        <v>35190746</v>
       </c>
       <c r="F198" t="n">
-        <v>283.9397076842482</v>
+        <v>368.716591792228</v>
       </c>
       <c r="G198" t="n">
-        <v>290.5055491228542</v>
+        <v>132.985772159671</v>
       </c>
       <c r="H198" t="n">
-        <v>1.62</v>
+        <v>0.85</v>
       </c>
       <c r="I198" t="n">
-        <v>909771</v>
+        <v>898504</v>
       </c>
     </row>
     <row r="199">
@@ -7362,22 +7362,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>174634242</v>
+        <v>176347252</v>
       </c>
       <c r="E199" t="n">
-        <v>204024359</v>
+        <v>206025660</v>
       </c>
       <c r="F199" t="n">
-        <v>19345.6979136564</v>
+        <v>24284.63057724155</v>
       </c>
       <c r="G199" t="n">
-        <v>36274.48160116623</v>
+        <v>10640.61402176633</v>
       </c>
       <c r="H199" t="n">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
       <c r="I199" t="n">
-        <v>4439061</v>
+        <v>3829740</v>
       </c>
     </row>
     <row r="200">
@@ -7400,19 +7400,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>302217</v>
+        <v>300617</v>
       </c>
       <c r="F200" t="n">
-        <v>207.403806137988</v>
+        <v>241.8166877686847</v>
       </c>
       <c r="G200" t="n">
-        <v>99.19810281964746</v>
+        <v>81.18249246177902</v>
       </c>
       <c r="H200" t="n">
-        <v>1.64</v>
+        <v>1.32</v>
       </c>
       <c r="I200" t="n">
-        <v>259757</v>
+        <v>261664</v>
       </c>
     </row>
     <row r="201">
@@ -7435,19 +7435,19 @@
         <v>0</v>
       </c>
       <c r="E201" t="n">
-        <v>8053912</v>
+        <v>8051901</v>
       </c>
       <c r="F201" t="n">
-        <v>821.4095087383939</v>
+        <v>889.9671640431101</v>
       </c>
       <c r="G201" t="n">
-        <v>614.4136466083665</v>
+        <v>559.5698155116559</v>
       </c>
       <c r="H201" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I201" t="n">
-        <v>715026</v>
+        <v>707560</v>
       </c>
     </row>
     <row r="202">
@@ -7470,19 +7470,19 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>36001</v>
+        <v>35976</v>
       </c>
       <c r="F202" t="n">
-        <v>192.8780940562301</v>
+        <v>192.8722935795674</v>
       </c>
       <c r="G202" t="n">
-        <v>6.094836636770368</v>
+        <v>6.094653345050034</v>
       </c>
       <c r="H202" t="n">
         <v>2.78</v>
       </c>
       <c r="I202" t="n">
-        <v>650.85</v>
+        <v>718.83</v>
       </c>
     </row>
     <row r="203">
@@ -7502,22 +7502,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>33568013</v>
+        <v>33971483</v>
       </c>
       <c r="E203" t="n">
-        <v>167519858</v>
+        <v>169533359</v>
       </c>
       <c r="F203" t="n">
-        <v>104858.9669124502</v>
+        <v>95026.1245782668</v>
       </c>
       <c r="G203" t="n">
-        <v>66317.84403009873</v>
+        <v>110670.5009856382</v>
       </c>
       <c r="H203" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="I203" t="n">
-        <v>9811765</v>
+        <v>9899050</v>
       </c>
     </row>
     <row r="204">
@@ -7537,10 +7537,10 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1920265</v>
+        <v>1863817</v>
       </c>
       <c r="E204" t="n">
-        <v>1920265</v>
+        <v>1863817</v>
       </c>
       <c r="F204" t="n">
         <v>0</v>
@@ -7549,10 +7549,10 @@
         <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>17.63</v>
+        <v>16.77</v>
       </c>
       <c r="I204" t="n">
-        <v>7316.09</v>
+        <v>8535.690000000001</v>
       </c>
     </row>
     <row r="205">
@@ -7575,19 +7575,19 @@
         <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>168669</v>
+        <v>168507</v>
       </c>
       <c r="F205" t="n">
-        <v>64.3536727796849</v>
+        <v>25.51739589550115</v>
       </c>
       <c r="G205" t="n">
-        <v>10.16118180138284</v>
+        <v>47.3655575591335</v>
       </c>
       <c r="H205" t="n">
-        <v>1.19</v>
+        <v>2.4</v>
       </c>
       <c r="I205" t="n">
-        <v>13120.37</v>
+        <v>10651.05</v>
       </c>
     </row>
     <row r="206">
@@ -7607,10 +7607,10 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>2774.98</v>
+        <v>2677.31</v>
       </c>
       <c r="E206" t="n">
-        <v>33167</v>
+        <v>32000</v>
       </c>
       <c r="F206" t="n">
         <v>0</v>
@@ -7619,10 +7619,10 @@
         <v>0</v>
       </c>
       <c r="H206" t="n">
-        <v>5.23</v>
+        <v>12.54</v>
       </c>
       <c r="I206" t="n">
-        <v>6865.36</v>
+        <v>7368.18</v>
       </c>
     </row>
     <row r="207">
@@ -7669,22 +7669,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>308623474</v>
+        <v>309929773</v>
       </c>
       <c r="E208" t="n">
-        <v>571023808</v>
+        <v>573440759</v>
       </c>
       <c r="F208" t="n">
-        <v>188366.4734611491</v>
+        <v>178985.9914841231</v>
       </c>
       <c r="G208" t="n">
-        <v>197727.6676693269</v>
+        <v>191387.3703205643</v>
       </c>
       <c r="H208" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I208" t="n">
-        <v>12440689</v>
+        <v>12217140</v>
       </c>
     </row>
     <row r="209">
@@ -7704,22 +7704,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>70324696</v>
+        <v>70709569</v>
       </c>
       <c r="E209" t="n">
-        <v>670988421</v>
+        <v>674653472</v>
       </c>
       <c r="F209" t="n">
-        <v>303891.6288413749</v>
+        <v>238421.3648199943</v>
       </c>
       <c r="G209" t="n">
-        <v>265209.9387343774</v>
+        <v>183661.3977029198</v>
       </c>
       <c r="H209" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="I209" t="n">
-        <v>20791638</v>
+        <v>21062808</v>
       </c>
     </row>
     <row r="210">
@@ -7742,19 +7742,19 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>2179343</v>
+        <v>2142241</v>
       </c>
       <c r="F210" t="n">
-        <v>30.26341842926798</v>
+        <v>10.16871843879218</v>
       </c>
       <c r="G210" t="n">
-        <v>732.3880027893188</v>
+        <v>633.8403241721641</v>
       </c>
       <c r="H210" t="n">
-        <v>1.45</v>
+        <v>2.71</v>
       </c>
       <c r="I210" t="n">
-        <v>64936</v>
+        <v>64120</v>
       </c>
     </row>
     <row r="211">
@@ -7774,10 +7774,10 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>81369</v>
+        <v>81276</v>
       </c>
       <c r="E211" t="n">
-        <v>676436</v>
+        <v>675668</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -7786,10 +7786,10 @@
         <v>0</v>
       </c>
       <c r="H211" t="n">
-        <v>5.71</v>
+        <v>4.35</v>
       </c>
       <c r="I211" t="n">
-        <v>424.11</v>
+        <v>409.02</v>
       </c>
     </row>
     <row r="212">
@@ -7809,22 +7809,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1898048</v>
+        <v>1889980</v>
       </c>
       <c r="E212" t="n">
-        <v>5420581</v>
+        <v>5397539</v>
       </c>
       <c r="F212" t="n">
-        <v>63.52288768889377</v>
+        <v>59.91277546041952</v>
       </c>
       <c r="G212" t="n">
-        <v>253.5150336160826</v>
+        <v>399.8731823461383</v>
       </c>
       <c r="H212" t="n">
         <v>1.16</v>
       </c>
       <c r="I212" t="n">
-        <v>72839</v>
+        <v>71578</v>
       </c>
     </row>
     <row r="213">
@@ -7844,22 +7844,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>10022002</v>
+        <v>9759698</v>
       </c>
       <c r="E213" t="n">
-        <v>29883536</v>
+        <v>28964932</v>
       </c>
       <c r="F213" t="n">
-        <v>2140.458747537871</v>
+        <v>834.2264658058774</v>
       </c>
       <c r="G213" t="n">
-        <v>1886.211302627321</v>
+        <v>2803.541013764053</v>
       </c>
       <c r="H213" t="n">
-        <v>0.58</v>
+        <v>0.52</v>
       </c>
       <c r="I213" t="n">
-        <v>5387400</v>
+        <v>5474518</v>
       </c>
     </row>
     <row r="214">
@@ -7882,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>14878893</v>
+        <v>14232582</v>
       </c>
       <c r="F214" t="n">
         <v>0</v>
@@ -7891,10 +7891,10 @@
         <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>9.33</v>
+        <v>12.04</v>
       </c>
       <c r="I214" t="n">
-        <v>1204.8</v>
+        <v>1332.29</v>
       </c>
     </row>
     <row r="215">
@@ -7914,22 +7914,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>2029001</v>
+        <v>2016992</v>
       </c>
       <c r="E215" t="n">
-        <v>5886783</v>
+        <v>5851942</v>
       </c>
       <c r="F215" t="n">
-        <v>44.00724087030344</v>
+        <v>29.97495114757048</v>
       </c>
       <c r="G215" t="n">
-        <v>108.4514517102613</v>
+        <v>28.99769886628192</v>
       </c>
       <c r="H215" t="n">
-        <v>1.58</v>
+        <v>1.96</v>
       </c>
       <c r="I215" t="n">
-        <v>68066</v>
+        <v>55282</v>
       </c>
     </row>
     <row r="216">
@@ -7949,22 +7949,22 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>2258752</v>
+        <v>2253519</v>
       </c>
       <c r="E216" t="n">
-        <v>19923691</v>
+        <v>19877535</v>
       </c>
       <c r="F216" t="n">
-        <v>2976.226645412085</v>
+        <v>1116.629788607107</v>
       </c>
       <c r="G216" t="n">
-        <v>4288.710957079434</v>
+        <v>3031.360349852173</v>
       </c>
       <c r="H216" t="n">
-        <v>0.63</v>
+        <v>0.78</v>
       </c>
       <c r="I216" t="n">
-        <v>80566</v>
+        <v>79061</v>
       </c>
     </row>
     <row r="217">
@@ -7984,22 +7984,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>43981759</v>
+        <v>44280838</v>
       </c>
       <c r="E217" t="n">
-        <v>43981759</v>
+        <v>44280838</v>
       </c>
       <c r="F217" t="n">
-        <v>38846.86172629911</v>
+        <v>34580.39307413453</v>
       </c>
       <c r="G217" t="n">
-        <v>39207.88369505704</v>
+        <v>45144.02318251693</v>
       </c>
       <c r="H217" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="I217" t="n">
-        <v>8846893</v>
+        <v>8223735</v>
       </c>
     </row>
     <row r="218">
@@ -8019,22 +8019,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>7865486</v>
+        <v>8281955</v>
       </c>
       <c r="E218" t="n">
-        <v>11206516</v>
+        <v>11799888</v>
       </c>
       <c r="F218" t="n">
-        <v>3282.898742543629</v>
+        <v>75.02735994215193</v>
       </c>
       <c r="G218" t="n">
-        <v>428.1748995909887</v>
+        <v>2870.386918839922</v>
       </c>
       <c r="H218" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="I218" t="n">
-        <v>303655</v>
+        <v>334950</v>
       </c>
     </row>
     <row r="219">
@@ -8057,19 +8057,19 @@
         <v>0</v>
       </c>
       <c r="E219" t="n">
-        <v>16512570</v>
+        <v>15980961</v>
       </c>
       <c r="F219" t="n">
-        <v>199.6395884600056</v>
+        <v>3.521831378269634</v>
       </c>
       <c r="G219" t="n">
-        <v>2.098330935456632</v>
+        <v>1185.394435616149</v>
       </c>
       <c r="H219" t="n">
-        <v>1.43</v>
+        <v>1.72</v>
       </c>
       <c r="I219" t="n">
-        <v>981801</v>
+        <v>973965</v>
       </c>
     </row>
     <row r="220">
@@ -8092,19 +8092,19 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>722391</v>
+        <v>724210</v>
       </c>
       <c r="F220" t="n">
-        <v>80.61566838392132</v>
+        <v>51.51990694713828</v>
       </c>
       <c r="G220" t="n">
-        <v>411.5620550379144</v>
+        <v>411.69968968831</v>
       </c>
       <c r="H220" t="n">
-        <v>0.83</v>
+        <v>1.11</v>
       </c>
       <c r="I220" t="n">
-        <v>225206</v>
+        <v>228331</v>
       </c>
     </row>
     <row r="221">
@@ -8124,22 +8124,22 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>2772785</v>
+        <v>2847475</v>
       </c>
       <c r="E221" t="n">
-        <v>2775186</v>
+        <v>2849941</v>
       </c>
       <c r="F221" t="n">
-        <v>18.04423590280975</v>
+        <v>26.4180621608009</v>
       </c>
       <c r="G221" t="n">
-        <v>264.4046638023387</v>
+        <v>72.97990446988204</v>
       </c>
       <c r="H221" t="n">
-        <v>2.23</v>
+        <v>3.68</v>
       </c>
       <c r="I221" t="n">
-        <v>74464</v>
+        <v>79327</v>
       </c>
     </row>
     <row r="222">
@@ -8159,22 +8159,22 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1241554</v>
+        <v>1236231</v>
       </c>
       <c r="E222" t="n">
-        <v>3755705</v>
+        <v>3739462</v>
       </c>
       <c r="F222" t="n">
-        <v>1810.614210812084</v>
+        <v>2121.023362533735</v>
       </c>
       <c r="G222" t="n">
-        <v>604.3496467845114</v>
+        <v>449.3542420870637</v>
       </c>
       <c r="H222" t="n">
         <v>1.57</v>
       </c>
       <c r="I222" t="n">
-        <v>15752.32</v>
+        <v>12324.95</v>
       </c>
     </row>
     <row r="223">
@@ -8194,22 +8194,22 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>37304426</v>
+        <v>37194641</v>
       </c>
       <c r="E223" t="n">
-        <v>264482294</v>
+        <v>263703938</v>
       </c>
       <c r="F223" t="n">
-        <v>69845.24395193144</v>
+        <v>67454.67242401036</v>
       </c>
       <c r="G223" t="n">
-        <v>51178.11024237668</v>
+        <v>56670.94254034734</v>
       </c>
       <c r="H223" t="n">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
       <c r="I223" t="n">
-        <v>1824788</v>
+        <v>1848821</v>
       </c>
     </row>
     <row r="224">
@@ -8229,22 +8229,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>58595</v>
+        <v>61602</v>
       </c>
       <c r="E224" t="n">
-        <v>305725</v>
+        <v>321412</v>
       </c>
       <c r="F224" t="n">
-        <v>8.689982655616083</v>
+        <v>206.8899765376587</v>
       </c>
       <c r="G224" t="n">
-        <v>165.6631783295005</v>
+        <v>6.780904436533437</v>
       </c>
       <c r="H224" t="n">
-        <v>2.26</v>
+        <v>1.41</v>
       </c>
       <c r="I224" t="n">
-        <v>301881</v>
+        <v>312397</v>
       </c>
     </row>
     <row r="225">
@@ -8264,22 +8264,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1257366</v>
+        <v>1255374</v>
       </c>
       <c r="E225" t="n">
-        <v>7797619</v>
+        <v>7785267</v>
       </c>
       <c r="F225" t="n">
-        <v>1850.080637333723</v>
+        <v>1579.304100866836</v>
       </c>
       <c r="G225" t="n">
-        <v>2646.63548100456</v>
+        <v>2561.346969696923</v>
       </c>
       <c r="H225" t="n">
         <v>0.08</v>
       </c>
       <c r="I225" t="n">
-        <v>817575</v>
+        <v>785180</v>
       </c>
     </row>
     <row r="226">
@@ -8299,22 +8299,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>590601980</v>
+        <v>592809577</v>
       </c>
       <c r="E226" t="n">
-        <v>2287314332</v>
+        <v>2295864029</v>
       </c>
       <c r="F226" t="n">
-        <v>176478.5132252224</v>
+        <v>228186.8677228416</v>
       </c>
       <c r="G226" t="n">
-        <v>338404.9994141244</v>
+        <v>242072.15425936</v>
       </c>
       <c r="H226" t="n">
         <v>0.04</v>
       </c>
       <c r="I226" t="n">
-        <v>29773106</v>
+        <v>29379700</v>
       </c>
     </row>
     <row r="227">
@@ -8337,19 +8337,19 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>20707737</v>
+        <v>20620699</v>
       </c>
       <c r="F227" t="n">
-        <v>1304.053936290598</v>
+        <v>1048.689540057851</v>
       </c>
       <c r="G227" t="n">
-        <v>544.7423970993168</v>
+        <v>671.9458000921188</v>
       </c>
       <c r="H227" t="n">
-        <v>0.38</v>
+        <v>0.1</v>
       </c>
       <c r="I227" t="n">
-        <v>15642954</v>
+        <v>16536880</v>
       </c>
     </row>
     <row r="228">
@@ -8372,19 +8372,19 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>954253</v>
+        <v>912171</v>
       </c>
       <c r="F228" t="n">
-        <v>458.0925019070677</v>
+        <v>28.78234851288343</v>
       </c>
       <c r="G228" t="n">
-        <v>284.3446583436125</v>
+        <v>100.0086370713633</v>
       </c>
       <c r="H228" t="n">
-        <v>2.29</v>
+        <v>2.34</v>
       </c>
       <c r="I228" t="n">
-        <v>392676</v>
+        <v>371435</v>
       </c>
     </row>
     <row r="229">
@@ -8404,22 +8404,22 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>5793735</v>
+        <v>5830338</v>
       </c>
       <c r="E229" t="n">
-        <v>25939298</v>
+        <v>26103172</v>
       </c>
       <c r="F229" t="n">
-        <v>1499.221736059229</v>
+        <v>2142.244524805369</v>
       </c>
       <c r="G229" t="n">
-        <v>2607.075178616691</v>
+        <v>2207.490961393417</v>
       </c>
       <c r="H229" t="n">
         <v>0.39</v>
       </c>
       <c r="I229" t="n">
-        <v>143289</v>
+        <v>134653</v>
       </c>
     </row>
     <row r="230">
@@ -8439,22 +8439,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>6006440</v>
+        <v>6086947</v>
       </c>
       <c r="E230" t="n">
-        <v>11499817</v>
+        <v>11653954</v>
       </c>
       <c r="F230" t="n">
-        <v>178.9578519057217</v>
+        <v>33.6453753969634</v>
       </c>
       <c r="G230" t="n">
-        <v>24.51261466709524</v>
+        <v>24.62644031201532</v>
       </c>
       <c r="H230" t="n">
-        <v>2.94</v>
+        <v>2.7</v>
       </c>
       <c r="I230" t="n">
-        <v>207497</v>
+        <v>205973</v>
       </c>
     </row>
     <row r="231">
@@ -8474,22 +8474,22 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>3281113</v>
+        <v>3248478</v>
       </c>
       <c r="E231" t="n">
-        <v>21575833</v>
+        <v>21361232</v>
       </c>
       <c r="F231" t="n">
-        <v>274.1154966854952</v>
+        <v>1295.468291764747</v>
       </c>
       <c r="G231" t="n">
-        <v>447.826786592019</v>
+        <v>381.2075329466304</v>
       </c>
       <c r="H231" t="n">
-        <v>0.83</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I231" t="n">
-        <v>1383039</v>
+        <v>1417090</v>
       </c>
     </row>
     <row r="232">
@@ -8509,22 +8509,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>116384642</v>
+        <v>116677731</v>
       </c>
       <c r="E232" t="n">
-        <v>1011892932</v>
+        <v>1014441158</v>
       </c>
       <c r="F232" t="n">
-        <v>187586.3103186413</v>
+        <v>176218.1085227806</v>
       </c>
       <c r="G232" t="n">
-        <v>219765.1214614577</v>
+        <v>238841.9760901062</v>
       </c>
       <c r="H232" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I232" t="n">
-        <v>9521061</v>
+        <v>9100691</v>
       </c>
     </row>
     <row r="233">
@@ -8548,16 +8548,16 @@
       </c>
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="n">
-        <v>0.696344870236693</v>
+        <v>0</v>
       </c>
       <c r="G233" t="n">
-        <v>8.020557666114051</v>
+        <v>0</v>
       </c>
       <c r="H233" t="n">
-        <v>3.83</v>
+        <v>7.72</v>
       </c>
       <c r="I233" t="n">
-        <v>1115.15</v>
+        <v>1115.79</v>
       </c>
     </row>
     <row r="234">
@@ -8577,22 +8577,22 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>101585954</v>
+        <v>103910386</v>
       </c>
       <c r="E234" t="n">
-        <v>154971754</v>
+        <v>158517729</v>
       </c>
       <c r="F234" t="n">
-        <v>98402.24658635333</v>
+        <v>63229.74978320573</v>
       </c>
       <c r="G234" t="n">
-        <v>89093.61889385559</v>
+        <v>52605.07884254627</v>
       </c>
       <c r="H234" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="I234" t="n">
-        <v>7072057</v>
+        <v>7290291</v>
       </c>
     </row>
     <row r="235">
@@ -8612,22 +8612,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>15724193</v>
+        <v>15747787</v>
       </c>
       <c r="E235" t="n">
-        <v>21572231</v>
+        <v>21604599</v>
       </c>
       <c r="F235" t="n">
-        <v>907.7455711478012</v>
+        <v>931.8799624313023</v>
       </c>
       <c r="G235" t="n">
-        <v>2298.417920055514</v>
+        <v>2812.761627343148</v>
       </c>
       <c r="H235" t="n">
-        <v>1.33</v>
+        <v>0.74</v>
       </c>
       <c r="I235" t="n">
-        <v>356774</v>
+        <v>355742</v>
       </c>
     </row>
     <row r="236">
@@ -8647,22 +8647,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>106731753</v>
+        <v>109464630</v>
       </c>
       <c r="E236" t="n">
-        <v>409440183</v>
+        <v>419923938</v>
       </c>
       <c r="F236" t="n">
-        <v>473980.4277702409</v>
+        <v>526395.9840642849</v>
       </c>
       <c r="G236" t="n">
-        <v>465546.1790724141</v>
+        <v>414477.9040155002</v>
       </c>
       <c r="H236" t="n">
         <v>0.05</v>
       </c>
       <c r="I236" t="n">
-        <v>18623287</v>
+        <v>18904966</v>
       </c>
     </row>
     <row r="237">
@@ -8685,19 +8685,19 @@
         <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>756417</v>
+        <v>753349</v>
       </c>
       <c r="F237" t="n">
-        <v>650.1419948268435</v>
+        <v>69.92885088159318</v>
       </c>
       <c r="G237" t="n">
-        <v>20.55255308995715</v>
+        <v>20.55193494298861</v>
       </c>
       <c r="H237" t="n">
         <v>3.6</v>
       </c>
       <c r="I237" t="n">
-        <v>52532</v>
+        <v>52240</v>
       </c>
     </row>
     <row r="238">
@@ -8720,7 +8720,7 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>790929</v>
+        <v>790993</v>
       </c>
       <c r="F238" t="n">
         <v>0</v>
@@ -8729,10 +8729,10 @@
         <v>0</v>
       </c>
       <c r="H238" t="n">
-        <v>8.99</v>
+        <v>9.81</v>
       </c>
       <c r="I238" t="n">
-        <v>19368.41</v>
+        <v>19565.91</v>
       </c>
     </row>
     <row r="239">
@@ -8752,22 +8752,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>3186978</v>
+        <v>3172552</v>
       </c>
       <c r="E239" t="n">
-        <v>30197091</v>
+        <v>30060403</v>
       </c>
       <c r="F239" t="n">
-        <v>1433.963807452567</v>
+        <v>1497.826559505086</v>
       </c>
       <c r="G239" t="n">
-        <v>1358.567646817185</v>
+        <v>1332.788081457122</v>
       </c>
       <c r="H239" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="I239" t="n">
-        <v>239921</v>
+        <v>237673</v>
       </c>
     </row>
     <row r="240">
@@ -8787,22 +8787,22 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>721927</v>
+        <v>728795</v>
       </c>
       <c r="E240" t="n">
-        <v>771736</v>
+        <v>779078</v>
       </c>
       <c r="F240" t="n">
-        <v>256.1773961239992</v>
+        <v>49.4790909258123</v>
       </c>
       <c r="G240" t="n">
-        <v>2547.838925136624</v>
+        <v>2506.843040811747</v>
       </c>
       <c r="H240" t="n">
-        <v>0.2</v>
+        <v>1.14</v>
       </c>
       <c r="I240" t="n">
-        <v>16242.79</v>
+        <v>19556.37</v>
       </c>
     </row>
     <row r="241">
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="E241" t="n">
-        <v>343783</v>
+        <v>343767</v>
       </c>
       <c r="F241" t="n">
         <v>0</v>
@@ -8834,10 +8834,10 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>5.65</v>
+        <v>5.7</v>
       </c>
       <c r="I241" t="n">
-        <v>570.3099999999999</v>
+        <v>570.04</v>
       </c>
     </row>
     <row r="242">
@@ -8860,19 +8860,19 @@
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>145529</v>
+        <v>143144</v>
       </c>
       <c r="F242" t="n">
-        <v>29.55206154627478</v>
+        <v>317.7600844142565</v>
       </c>
       <c r="G242" t="n">
-        <v>139.2079612502263</v>
+        <v>1.370435840670654</v>
       </c>
       <c r="H242" t="n">
-        <v>3.33</v>
+        <v>3.42</v>
       </c>
       <c r="I242" t="n">
-        <v>117312</v>
+        <v>95593</v>
       </c>
     </row>
     <row r="243">
@@ -8895,7 +8895,7 @@
         <v>0</v>
       </c>
       <c r="E243" t="n">
-        <v>575941</v>
+        <v>575920</v>
       </c>
       <c r="F243" t="n">
         <v>0</v>
@@ -8907,7 +8907,7 @@
         <v>7.84</v>
       </c>
       <c r="I243" t="n">
-        <v>454.4</v>
+        <v>454.18</v>
       </c>
     </row>
     <row r="244">
@@ -8927,22 +8927,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>6024989</v>
+        <v>6005061</v>
       </c>
       <c r="E244" t="n">
-        <v>37654458</v>
+        <v>37529915</v>
       </c>
       <c r="F244" t="n">
-        <v>693.3727611548945</v>
+        <v>804.9208546815526</v>
       </c>
       <c r="G244" t="n">
-        <v>1367.275528891551</v>
+        <v>1135.257705253175</v>
       </c>
       <c r="H244" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="I244" t="n">
-        <v>317325</v>
+        <v>318566</v>
       </c>
     </row>
     <row r="245">
@@ -8962,22 +8962,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>5091051</v>
+        <v>5103785</v>
       </c>
       <c r="E245" t="n">
-        <v>18958033</v>
+        <v>19005451</v>
       </c>
       <c r="F245" t="n">
-        <v>6619.429693336679</v>
+        <v>6618.962417502788</v>
       </c>
       <c r="G245" t="n">
-        <v>7394.485009001917</v>
+        <v>7394.262609455147</v>
       </c>
       <c r="H245" t="n">
         <v>0.53</v>
       </c>
       <c r="I245" t="n">
-        <v>57926</v>
+        <v>59203</v>
       </c>
     </row>
     <row r="246">
@@ -9000,19 +9000,19 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>3798676</v>
+        <v>3798499</v>
       </c>
       <c r="F246" t="n">
-        <v>146.8184580463264</v>
+        <v>146.8140422745062</v>
       </c>
       <c r="G246" t="n">
-        <v>176.8353807289635</v>
+        <v>202.1990696133159</v>
       </c>
       <c r="H246" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="I246" t="n">
-        <v>7462.42</v>
+        <v>6687.56</v>
       </c>
     </row>
     <row r="247">
@@ -9032,22 +9032,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>31444162</v>
+        <v>31483718</v>
       </c>
       <c r="E247" t="n">
-        <v>112707205</v>
+        <v>112848989</v>
       </c>
       <c r="F247" t="n">
-        <v>30.08715886213627</v>
+        <v>26.2462587980074</v>
       </c>
       <c r="G247" t="n">
-        <v>2834.022871978371</v>
+        <v>2974.840140651679</v>
       </c>
       <c r="H247" t="n">
-        <v>0.33</v>
+        <v>0.46</v>
       </c>
       <c r="I247" t="n">
-        <v>95010</v>
+        <v>95113</v>
       </c>
     </row>
     <row r="248">
@@ -9070,19 +9070,19 @@
         <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>1541696</v>
+        <v>1572559</v>
       </c>
       <c r="F248" t="n">
-        <v>33.83466528572559</v>
+        <v>244.0480169011884</v>
       </c>
       <c r="G248" t="n">
-        <v>5.487939109267153</v>
+        <v>4.832549039653966</v>
       </c>
       <c r="H248" t="n">
-        <v>1.96</v>
+        <v>3.85</v>
       </c>
       <c r="I248" t="n">
-        <v>613514</v>
+        <v>614286</v>
       </c>
     </row>
     <row r="249">
@@ -9102,22 +9102,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>2151156</v>
+        <v>2164633</v>
       </c>
       <c r="E249" t="n">
-        <v>16546084</v>
+        <v>16649739</v>
       </c>
       <c r="F249" t="n">
-        <v>5140.239158852341</v>
+        <v>4841.97244117487</v>
       </c>
       <c r="G249" t="n">
-        <v>5192.7319801121</v>
+        <v>5190.333948868294</v>
       </c>
       <c r="H249" t="n">
-        <v>0.42</v>
+        <v>0.06</v>
       </c>
       <c r="I249" t="n">
-        <v>169316</v>
+        <v>170873</v>
       </c>
     </row>
     <row r="250">
@@ -9137,22 +9137,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>103152</v>
+        <v>103090</v>
       </c>
       <c r="E250" t="n">
-        <v>819339</v>
+        <v>818847</v>
       </c>
       <c r="F250" t="n">
-        <v>177.1776144845013</v>
+        <v>174.3147565982254</v>
       </c>
       <c r="G250" t="n">
-        <v>340.6770747513438</v>
+        <v>340.669055412036</v>
       </c>
       <c r="H250" t="n">
         <v>0.72</v>
       </c>
       <c r="I250" t="n">
-        <v>1211.63</v>
+        <v>1211.26</v>
       </c>
     </row>
     <row r="251">
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>87483142</v>
+        <v>86613036</v>
       </c>
       <c r="E251" t="n">
-        <v>323403917</v>
+        <v>320186888</v>
       </c>
       <c r="F251" t="n">
-        <v>5250.415041411969</v>
+        <v>8741.869568768105</v>
       </c>
       <c r="G251" t="n">
-        <v>4677.83210828561</v>
+        <v>2488.380452098232</v>
       </c>
       <c r="H251" t="n">
-        <v>0.54</v>
+        <v>0.43</v>
       </c>
       <c r="I251" t="n">
-        <v>363042</v>
+        <v>374532</v>
       </c>
     </row>
     <row r="252">
@@ -9207,22 +9207,22 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>2510953</v>
+        <v>2518991</v>
       </c>
       <c r="E252" t="n">
-        <v>10075283</v>
+        <v>10107538</v>
       </c>
       <c r="F252" t="n">
-        <v>5.160600988431197</v>
+        <v>4.072896452861798</v>
       </c>
       <c r="G252" t="n">
-        <v>257.1507453203873</v>
+        <v>164.0441921590839</v>
       </c>
       <c r="H252" t="n">
-        <v>2.42</v>
+        <v>3.77</v>
       </c>
       <c r="I252" t="n">
-        <v>40936</v>
+        <v>41106</v>
       </c>
     </row>
     <row r="253">
@@ -9245,19 +9245,19 @@
         <v>0</v>
       </c>
       <c r="E253" t="n">
-        <v>587617</v>
+        <v>582611</v>
       </c>
       <c r="F253" t="n">
-        <v>339.7540778468356</v>
+        <v>26.19296162022127</v>
       </c>
       <c r="G253" t="n">
-        <v>4.000465257432011</v>
+        <v>12.63853950815145</v>
       </c>
       <c r="H253" t="n">
-        <v>0.79</v>
+        <v>2.95</v>
       </c>
       <c r="I253" t="n">
-        <v>30360</v>
+        <v>2027.7</v>
       </c>
     </row>
     <row r="254">
@@ -9276,19 +9276,19 @@
         <v>0</v>
       </c>
       <c r="E254" t="n">
-        <v>39108</v>
+        <v>39074</v>
       </c>
       <c r="F254" t="n">
-        <v>77.11791852034513</v>
+        <v>0</v>
       </c>
       <c r="G254" t="n">
-        <v>1.348038275946179</v>
+        <v>0</v>
       </c>
       <c r="H254" t="n">
-        <v>3.25</v>
+        <v>4.19</v>
       </c>
       <c r="I254" t="n">
-        <v>3190.6</v>
+        <v>4019.94</v>
       </c>
     </row>
     <row r="255">
@@ -9308,22 +9308,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>659172379</v>
+        <v>673048761</v>
       </c>
       <c r="E255" t="n">
-        <v>1016502008</v>
+        <v>1037900614</v>
       </c>
       <c r="F255" t="n">
-        <v>122020.292786848</v>
+        <v>180671.3188699357</v>
       </c>
       <c r="G255" t="n">
-        <v>286314.6684081972</v>
+        <v>196236.2977841907</v>
       </c>
       <c r="H255" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I255" t="n">
-        <v>158345917</v>
+        <v>192595400</v>
       </c>
     </row>
     <row r="256">
@@ -9343,22 +9343,22 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>5685983</v>
+        <v>5658109</v>
       </c>
       <c r="E256" t="n">
-        <v>5685983</v>
+        <v>5658109</v>
       </c>
       <c r="F256" t="n">
-        <v>18.29820165481145</v>
+        <v>21.58704626475282</v>
       </c>
       <c r="G256" t="n">
-        <v>6.864226387640576</v>
+        <v>6.864064807761658</v>
       </c>
       <c r="H256" t="n">
-        <v>0.58</v>
+        <v>0.39</v>
       </c>
       <c r="I256" t="n">
-        <v>473.42</v>
+        <v>454.75</v>
       </c>
     </row>
     <row r="257">
@@ -9378,22 +9378,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>39866997</v>
+        <v>39803991</v>
       </c>
       <c r="E257" t="n">
-        <v>190293234</v>
+        <v>189991919</v>
       </c>
       <c r="F257" t="n">
-        <v>4110.571139409575</v>
+        <v>246.259264209921</v>
       </c>
       <c r="G257" t="n">
-        <v>663.7644551385538</v>
+        <v>115.2415454652603</v>
       </c>
       <c r="H257" t="n">
-        <v>0.11</v>
+        <v>0.28</v>
       </c>
       <c r="I257" t="n">
-        <v>410586</v>
+        <v>410139</v>
       </c>
     </row>
     <row r="258">
@@ -9416,19 +9416,19 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>546335</v>
+        <v>526745</v>
       </c>
       <c r="F258" t="n">
-        <v>211.6746613092351</v>
+        <v>0</v>
       </c>
       <c r="G258" t="n">
-        <v>8.330920194492725</v>
+        <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>1.96</v>
+        <v>9.09</v>
       </c>
       <c r="I258" t="n">
-        <v>59.54</v>
+        <v>272.7</v>
       </c>
     </row>
     <row r="259">
@@ -9448,22 +9448,22 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>23528975</v>
+        <v>23516332</v>
       </c>
       <c r="E259" t="n">
-        <v>39214958</v>
+        <v>39193886</v>
       </c>
       <c r="F259" t="n">
-        <v>14741.37359306401</v>
+        <v>13202.54815858165</v>
       </c>
       <c r="G259" t="n">
-        <v>1621.289865655011</v>
+        <v>8470.975409627838</v>
       </c>
       <c r="H259" t="n">
-        <v>0.86</v>
+        <v>0.48</v>
       </c>
       <c r="I259" t="n">
-        <v>1027461</v>
+        <v>952756</v>
       </c>
     </row>
     <row r="260">
@@ -9486,19 +9486,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>107756</v>
+        <v>107764</v>
       </c>
       <c r="F260" t="n">
-        <v>222.2600229453554</v>
+        <v>197.5140241383113</v>
       </c>
       <c r="G260" t="n">
-        <v>204.8563789861053</v>
+        <v>226.9116143785128</v>
       </c>
       <c r="H260" t="n">
-        <v>0.63</v>
+        <v>1.07</v>
       </c>
       <c r="I260" t="n">
-        <v>50553</v>
+        <v>50209</v>
       </c>
     </row>
     <row r="261">
@@ -9518,22 +9518,22 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>833533</v>
+        <v>814414</v>
       </c>
       <c r="E261" t="n">
-        <v>3560796</v>
+        <v>3479118</v>
       </c>
       <c r="F261" t="n">
-        <v>1424.674890812972</v>
+        <v>3294.461490914449</v>
       </c>
       <c r="G261" t="n">
-        <v>1237.716317255377</v>
+        <v>3059.55536937666</v>
       </c>
       <c r="H261" t="n">
-        <v>2.12</v>
+        <v>0.3</v>
       </c>
       <c r="I261" t="n">
-        <v>7349.71</v>
+        <v>7447.66</v>
       </c>
     </row>
     <row r="262">
@@ -9553,22 +9553,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>3830443</v>
+        <v>3829546</v>
       </c>
       <c r="E262" t="n">
-        <v>8357977</v>
+        <v>8356021</v>
       </c>
       <c r="F262" t="n">
-        <v>1660.361432682107</v>
+        <v>1292.186992200653</v>
       </c>
       <c r="G262" t="n">
-        <v>1550.486952159846</v>
+        <v>1752.015627601067</v>
       </c>
       <c r="H262" t="n">
-        <v>0.96</v>
+        <v>0.6</v>
       </c>
       <c r="I262" t="n">
-        <v>994575</v>
+        <v>984389</v>
       </c>
     </row>
     <row r="263">
@@ -9588,22 +9588,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>480964723</v>
+        <v>482634162</v>
       </c>
       <c r="E263" t="n">
-        <v>1675047557</v>
+        <v>1680861684</v>
       </c>
       <c r="F263" t="n">
-        <v>585631.9595156375</v>
+        <v>661051.9639396729</v>
       </c>
       <c r="G263" t="n">
-        <v>639101.3977373398</v>
+        <v>585963.2395178739</v>
       </c>
       <c r="H263" t="n">
         <v>0.06</v>
       </c>
       <c r="I263" t="n">
-        <v>30691576</v>
+        <v>31095373</v>
       </c>
     </row>
     <row r="264">
@@ -9623,22 +9623,22 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>5547734082</v>
+        <v>5538448179</v>
       </c>
       <c r="E264" t="n">
-        <v>5547734082</v>
+        <v>5538448179</v>
       </c>
       <c r="F264" t="n">
-        <v>4965.560032534432</v>
+        <v>4798.616565654118</v>
       </c>
       <c r="G264" t="n">
-        <v>2156.04748995702</v>
+        <v>2306.98922905592</v>
       </c>
       <c r="H264" t="n">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="I264" t="n">
-        <v>28494610</v>
+        <v>28105243</v>
       </c>
     </row>
     <row r="265">
@@ -9658,22 +9658,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>23914083</v>
+        <v>23959409</v>
       </c>
       <c r="E265" t="n">
-        <v>23893310</v>
+        <v>23938597</v>
       </c>
       <c r="F265" t="n">
-        <v>68.97308490465088</v>
+        <v>47.76973364187018</v>
       </c>
       <c r="G265" t="n">
-        <v>556.1230102742952</v>
+        <v>899.1906285208435</v>
       </c>
       <c r="H265" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="I265" t="n">
-        <v>93585</v>
+        <v>93870</v>
       </c>
     </row>
     <row r="266">
@@ -9693,22 +9693,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>12143419</v>
+        <v>12063773</v>
       </c>
       <c r="E266" t="n">
-        <v>24602872</v>
+        <v>24437446</v>
       </c>
       <c r="F266" t="n">
-        <v>850.2394181849564</v>
+        <v>254.0167217915908</v>
       </c>
       <c r="G266" t="n">
-        <v>420.0167043115322</v>
+        <v>57.7104021409799</v>
       </c>
       <c r="H266" t="n">
-        <v>1.86</v>
+        <v>3.58</v>
       </c>
       <c r="I266" t="n">
-        <v>13031.53</v>
+        <v>19121.34</v>
       </c>
     </row>
     <row r="267">
@@ -9731,19 +9731,19 @@
         <v>0</v>
       </c>
       <c r="E267" t="n">
-        <v>153196</v>
+        <v>150240</v>
       </c>
       <c r="F267" t="n">
-        <v>208.4178762336124</v>
+        <v>206.4929402318263</v>
       </c>
       <c r="G267" t="n">
-        <v>172.9461265978526</v>
+        <v>152.5309503196183</v>
       </c>
       <c r="H267" t="n">
         <v>0.37</v>
       </c>
       <c r="I267" t="n">
-        <v>58472</v>
+        <v>56284</v>
       </c>
     </row>
     <row r="268">
@@ -9766,19 +9766,19 @@
         <v>0</v>
       </c>
       <c r="E268" t="n">
-        <v>48002</v>
+        <v>48000</v>
       </c>
       <c r="F268" t="n">
-        <v>159.0991682577614</v>
+        <v>104.2991042354391</v>
       </c>
       <c r="G268" t="n">
-        <v>8.282875089300912</v>
+        <v>76.42134224242582</v>
       </c>
       <c r="H268" t="n">
-        <v>2.67</v>
+        <v>3.29</v>
       </c>
       <c r="I268" t="n">
-        <v>71106</v>
+        <v>71205</v>
       </c>
     </row>
     <row r="269">
@@ -9798,22 +9798,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>2657950</v>
+        <v>2659744</v>
       </c>
       <c r="E269" t="n">
-        <v>10631802</v>
+        <v>10638977</v>
       </c>
       <c r="F269" t="n">
-        <v>31048.90721042365</v>
+        <v>31184.4404849294</v>
       </c>
       <c r="G269" t="n">
-        <v>48540.46620430041</v>
+        <v>41646.42656273778</v>
       </c>
       <c r="H269" t="n">
-        <v>0.47</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I269" t="n">
-        <v>4951666</v>
+        <v>5064538</v>
       </c>
     </row>
     <row r="270">
@@ -9833,22 +9833,22 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>210542923</v>
+        <v>211875984</v>
       </c>
       <c r="E270" t="n">
-        <v>647340256</v>
+        <v>651438916</v>
       </c>
       <c r="F270" t="n">
-        <v>260306.6599022415</v>
+        <v>290914.2426975262</v>
       </c>
       <c r="G270" t="n">
-        <v>260653.7253664631</v>
+        <v>228274.2185134912</v>
       </c>
       <c r="H270" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I270" t="n">
-        <v>11211313</v>
+        <v>11408857</v>
       </c>
     </row>
     <row r="271">
@@ -9868,22 +9868,22 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>146439046</v>
+        <v>148182484</v>
       </c>
       <c r="E271" t="n">
-        <v>382567948</v>
+        <v>387122629</v>
       </c>
       <c r="F271" t="n">
-        <v>41352.92807652436</v>
+        <v>43331.77187304403</v>
       </c>
       <c r="G271" t="n">
-        <v>17133.15178352592</v>
+        <v>45494.25049819864</v>
       </c>
       <c r="H271" t="n">
-        <v>0.39</v>
+        <v>0.29</v>
       </c>
       <c r="I271" t="n">
-        <v>6929429</v>
+        <v>6987932</v>
       </c>
     </row>
     <row r="272">
@@ -9903,22 +9903,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>2396199</v>
+        <v>2395639</v>
       </c>
       <c r="E272" t="n">
-        <v>3288498</v>
+        <v>3287627</v>
       </c>
       <c r="F272" t="n">
-        <v>91.74388402322413</v>
+        <v>76.5184321800067</v>
       </c>
       <c r="G272" t="n">
-        <v>48.14325112159877</v>
+        <v>22.4006072607054</v>
       </c>
       <c r="H272" t="n">
-        <v>1.49</v>
+        <v>2.13</v>
       </c>
       <c r="I272" t="n">
-        <v>187779</v>
+        <v>252354</v>
       </c>
     </row>
   </sheetData>

--- a/GateioData20250220.xlsx
+++ b/GateioData20250220.xlsx
@@ -500,7 +500,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>54599</v>
+        <v>56717</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>7.41</v>
       </c>
       <c r="I2" t="n">
-        <v>1832.89</v>
+        <v>1812.03</v>
       </c>
     </row>
     <row r="3">
@@ -535,19 +535,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>92653</v>
+        <v>92635</v>
       </c>
       <c r="F3" t="n">
-        <v>9.578409584146163</v>
+        <v>9.578571320877556</v>
       </c>
       <c r="G3" t="n">
-        <v>445.9382008876248</v>
+        <v>445.9457308002246</v>
       </c>
       <c r="H3" t="n">
         <v>3.06</v>
       </c>
       <c r="I3" t="n">
-        <v>757.5599999999999</v>
+        <v>757.53</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>603718968</v>
+        <v>601027834</v>
       </c>
       <c r="E4" t="n">
-        <v>1171364242</v>
+        <v>1166185484</v>
       </c>
       <c r="F4" t="n">
-        <v>36442.0895472566</v>
+        <v>38370.76121015342</v>
       </c>
       <c r="G4" t="n">
-        <v>49308.33337050625</v>
+        <v>47303.83126077626</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I4" t="n">
-        <v>22229965</v>
+        <v>22511577</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1330863</v>
+        <v>1327448</v>
       </c>
       <c r="E5" t="n">
-        <v>4301896</v>
+        <v>4290858</v>
       </c>
       <c r="F5" t="n">
-        <v>3285.549411025429</v>
+        <v>3802.770898199546</v>
       </c>
       <c r="G5" t="n">
-        <v>5208.063892095162</v>
+        <v>5178.801195192641</v>
       </c>
       <c r="H5" t="n">
         <v>0.46</v>
       </c>
       <c r="I5" t="n">
-        <v>69896</v>
+        <v>74715</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>139243652</v>
+        <v>139486331</v>
       </c>
       <c r="E6" t="n">
-        <v>154304207</v>
+        <v>154573134</v>
       </c>
       <c r="F6" t="n">
-        <v>210491.3426184625</v>
+        <v>225030.6907961314</v>
       </c>
       <c r="G6" t="n">
-        <v>355924.9129423765</v>
+        <v>351673.4081405781</v>
       </c>
       <c r="H6" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I6" t="n">
-        <v>32880520</v>
+        <v>33042146</v>
       </c>
     </row>
     <row r="7">
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>4203.53</v>
+        <v>4204.8</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>9.09</v>
       </c>
       <c r="I7" t="n">
-        <v>1564.65</v>
+        <v>1564.66</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8689037</v>
+        <v>8708349</v>
       </c>
       <c r="E8" t="n">
-        <v>8908143</v>
+        <v>8927941</v>
       </c>
       <c r="F8" t="n">
-        <v>356.5754007586654</v>
+        <v>823.8066288947929</v>
       </c>
       <c r="G8" t="n">
-        <v>2246.722330212733</v>
+        <v>10.66688826142157</v>
       </c>
       <c r="H8" t="n">
-        <v>1.76</v>
+        <v>1.02</v>
       </c>
       <c r="I8" t="n">
-        <v>62353</v>
+        <v>61074</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>286220</v>
+        <v>286187</v>
       </c>
       <c r="F9" t="n">
-        <v>27.38880826004394</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>5.344530024610572</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>3.91</v>
+        <v>3.93</v>
       </c>
       <c r="I9" t="n">
-        <v>128.55</v>
+        <v>240.48</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5236750</v>
+        <v>5227348</v>
       </c>
       <c r="E10" t="n">
-        <v>8366753</v>
+        <v>8351731</v>
       </c>
       <c r="F10" t="n">
-        <v>274.4998716506818</v>
+        <v>231.377590841063</v>
       </c>
       <c r="G10" t="n">
-        <v>394.0041476926836</v>
+        <v>362.5892654822122</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.49</v>
       </c>
       <c r="I10" t="n">
-        <v>105764</v>
+        <v>104879</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>998601</v>
+        <v>998697</v>
       </c>
       <c r="E11" t="n">
-        <v>12220180</v>
+        <v>12221359</v>
       </c>
       <c r="F11" t="n">
-        <v>1227.113317179375</v>
+        <v>1227.141525586085</v>
       </c>
       <c r="G11" t="n">
-        <v>1679.841313412852</v>
+        <v>1665.264499960793</v>
       </c>
       <c r="H11" t="n">
         <v>0.49</v>
       </c>
       <c r="I11" t="n">
-        <v>2090.34</v>
+        <v>2110.2</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>569360</v>
+        <v>563218</v>
       </c>
       <c r="E12" t="n">
-        <v>569360</v>
+        <v>563218</v>
       </c>
       <c r="F12" t="n">
-        <v>82.48243238888573</v>
+        <v>66.81180962355471</v>
       </c>
       <c r="G12" t="n">
-        <v>10.97401114511527</v>
+        <v>187.8878687098181</v>
       </c>
       <c r="H12" t="n">
-        <v>2.12</v>
+        <v>1.34</v>
       </c>
       <c r="I12" t="n">
-        <v>23739</v>
+        <v>23833</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4737508</v>
+        <v>4721929</v>
       </c>
       <c r="E13" t="n">
-        <v>29099877</v>
+        <v>29003807</v>
       </c>
       <c r="F13" t="n">
-        <v>982.0711370720778</v>
+        <v>718.0135248401548</v>
       </c>
       <c r="G13" t="n">
-        <v>1063.426802793668</v>
+        <v>1198.208911666106</v>
       </c>
       <c r="H13" t="n">
-        <v>0.92</v>
+        <v>0.21</v>
       </c>
       <c r="I13" t="n">
-        <v>468285</v>
+        <v>467302</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>199176</v>
+        <v>199438</v>
       </c>
       <c r="E14" t="n">
-        <v>2191150</v>
+        <v>2194036</v>
       </c>
       <c r="F14" t="n">
-        <v>259.2984084512798</v>
+        <v>100.2158955145428</v>
       </c>
       <c r="G14" t="n">
-        <v>872.4636113745287</v>
+        <v>872.4783434040501</v>
       </c>
       <c r="H14" t="n">
         <v>1.36</v>
       </c>
       <c r="I14" t="n">
-        <v>40226</v>
+        <v>41150</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3356058</v>
+        <v>3343817</v>
       </c>
       <c r="E15" t="n">
-        <v>9547689</v>
+        <v>9512864</v>
       </c>
       <c r="F15" t="n">
-        <v>938.0739871174894</v>
+        <v>913.7006234367295</v>
       </c>
       <c r="G15" t="n">
-        <v>517.4413712877939</v>
+        <v>359.0458319311817</v>
       </c>
       <c r="H15" t="n">
-        <v>1.04</v>
+        <v>1.36</v>
       </c>
       <c r="I15" t="n">
-        <v>232436</v>
+        <v>232935</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>313647</v>
+        <v>313889</v>
       </c>
       <c r="E16" t="n">
-        <v>3620195</v>
+        <v>3622988</v>
       </c>
       <c r="F16" t="n">
-        <v>131.5945489769341</v>
+        <v>131.8375618750133</v>
       </c>
       <c r="G16" t="n">
-        <v>130.023033219374</v>
+        <v>130.1683142617781</v>
       </c>
       <c r="H16" t="n">
         <v>0.8</v>
       </c>
       <c r="I16" t="n">
-        <v>3108</v>
+        <v>3108.94</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>914691</v>
+        <v>918223</v>
       </c>
       <c r="F17" t="n">
-        <v>7.924244546813897</v>
+        <v>19.30669999238118</v>
       </c>
       <c r="G17" t="n">
-        <v>16.80110338652969</v>
+        <v>129.6373228082981</v>
       </c>
       <c r="H17" t="n">
-        <v>2.88</v>
+        <v>2.71</v>
       </c>
       <c r="I17" t="n">
-        <v>11181.8</v>
+        <v>11102.11</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>22318878</v>
+        <v>22341388</v>
       </c>
       <c r="E18" t="n">
-        <v>22360666</v>
+        <v>22383219</v>
       </c>
       <c r="F18" t="n">
-        <v>1490.491122474987</v>
+        <v>1571.940154007933</v>
       </c>
       <c r="G18" t="n">
-        <v>2019.227980889043</v>
+        <v>1974.85694974187</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2</v>
+        <v>0.54</v>
       </c>
       <c r="I18" t="n">
-        <v>864688</v>
+        <v>876137</v>
       </c>
     </row>
     <row r="19">
@@ -1095,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>6844883</v>
+        <v>6873251</v>
       </c>
       <c r="F19" t="n">
-        <v>158.6493515174325</v>
+        <v>152.5744174097754</v>
       </c>
       <c r="G19" t="n">
-        <v>7.194459935361913</v>
+        <v>11.01832553206972</v>
       </c>
       <c r="H19" t="n">
-        <v>2.96</v>
+        <v>2.14</v>
       </c>
       <c r="I19" t="n">
-        <v>27274</v>
+        <v>25311</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2457175</v>
+        <v>2443558</v>
       </c>
       <c r="E20" t="n">
-        <v>2457175</v>
+        <v>2443558</v>
       </c>
       <c r="F20" t="n">
-        <v>25.85444005057334</v>
+        <v>299.9487359199057</v>
       </c>
       <c r="G20" t="n">
-        <v>250.9648848054897</v>
+        <v>234.1044681325374</v>
       </c>
       <c r="H20" t="n">
-        <v>1.92</v>
+        <v>1.05</v>
       </c>
       <c r="I20" t="n">
-        <v>295808</v>
+        <v>301975</v>
       </c>
     </row>
     <row r="21">
@@ -1165,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>407996</v>
+        <v>408120</v>
       </c>
       <c r="F21" t="n">
-        <v>197.8422761783812</v>
+        <v>197.8456168543879</v>
       </c>
       <c r="G21" t="n">
-        <v>200.2458988186439</v>
+        <v>208.3611577962959</v>
       </c>
       <c r="H21" t="n">
         <v>0.97</v>
       </c>
       <c r="I21" t="n">
-        <v>1820.85</v>
+        <v>1765.09</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>19358732</v>
+        <v>19391032</v>
       </c>
       <c r="E22" t="n">
-        <v>24916277</v>
+        <v>24957849</v>
       </c>
       <c r="F22" t="n">
-        <v>3918.567948881554</v>
+        <v>2426.016698395161</v>
       </c>
       <c r="G22" t="n">
-        <v>4373.265737626768</v>
+        <v>4591.525323359939</v>
       </c>
       <c r="H22" t="n">
-        <v>0.34</v>
+        <v>0.23</v>
       </c>
       <c r="I22" t="n">
-        <v>2076066</v>
+        <v>2066279</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>468532009</v>
+        <v>467458882</v>
       </c>
       <c r="E23" t="n">
-        <v>468532009</v>
+        <v>467458885</v>
       </c>
       <c r="F23" t="n">
-        <v>83584.23766775703</v>
+        <v>98422.2463620545</v>
       </c>
       <c r="G23" t="n">
-        <v>109357.088386076</v>
+        <v>91663.82456905373</v>
       </c>
       <c r="H23" t="n">
         <v>0.04</v>
       </c>
       <c r="I23" t="n">
-        <v>58546967</v>
+        <v>59867181</v>
       </c>
     </row>
     <row r="24">
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>21013</v>
+        <v>24791</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1279,10 +1279,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>7.99</v>
+        <v>7.84</v>
       </c>
       <c r="I24" t="n">
-        <v>2186.59</v>
+        <v>3144.04</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4670590</v>
+        <v>4639057</v>
       </c>
       <c r="E25" t="n">
-        <v>4670590</v>
+        <v>4639057</v>
       </c>
       <c r="F25" t="n">
-        <v>115.629156673461</v>
+        <v>119.7369641250017</v>
       </c>
       <c r="G25" t="n">
-        <v>1213.85550603104</v>
+        <v>553.2394065674769</v>
       </c>
       <c r="H25" t="n">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="I25" t="n">
-        <v>1900742</v>
+        <v>1308053</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3256446</v>
+        <v>3261828</v>
       </c>
       <c r="E26" t="n">
-        <v>3256446</v>
+        <v>3261828</v>
       </c>
       <c r="F26" t="n">
-        <v>444.0743322747594</v>
+        <v>333.2730034662965</v>
       </c>
       <c r="G26" t="n">
-        <v>1120.222042128891</v>
+        <v>67.75178483967426</v>
       </c>
       <c r="H26" t="n">
-        <v>0.65</v>
+        <v>0.12</v>
       </c>
       <c r="I26" t="n">
-        <v>498743</v>
+        <v>512155</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>308991</v>
+        <v>314957</v>
       </c>
       <c r="E27" t="n">
-        <v>1442402</v>
+        <v>1470249</v>
       </c>
       <c r="F27" t="n">
-        <v>2982.364969998589</v>
+        <v>2578.344570842995</v>
       </c>
       <c r="G27" t="n">
-        <v>70.29484135699516</v>
+        <v>295.4455963127832</v>
       </c>
       <c r="H27" t="n">
-        <v>1.29</v>
+        <v>1.7</v>
       </c>
       <c r="I27" t="n">
-        <v>621332</v>
+        <v>617964</v>
       </c>
     </row>
     <row r="28">
@@ -1410,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1552604</v>
+        <v>1626435</v>
       </c>
       <c r="F28" t="n">
-        <v>482.2177209440914</v>
+        <v>265.014324352048</v>
       </c>
       <c r="G28" t="n">
-        <v>474.5981139138103</v>
+        <v>67.7522568203039</v>
       </c>
       <c r="H28" t="n">
-        <v>0.06</v>
+        <v>0.55</v>
       </c>
       <c r="I28" t="n">
-        <v>190619</v>
+        <v>207708</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>12845761</v>
+        <v>12778160</v>
       </c>
       <c r="E29" t="n">
-        <v>32349858</v>
+        <v>32179616</v>
       </c>
       <c r="F29" t="n">
-        <v>836.9498307675225</v>
+        <v>776.7196081609992</v>
       </c>
       <c r="G29" t="n">
-        <v>1400.683621889965</v>
+        <v>1351.664311599531</v>
       </c>
       <c r="H29" t="n">
-        <v>0.77</v>
+        <v>0.25</v>
       </c>
       <c r="I29" t="n">
-        <v>1586848</v>
+        <v>1578196</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>917686</v>
+        <v>912515</v>
       </c>
       <c r="E30" t="n">
-        <v>6423803</v>
+        <v>6387602</v>
       </c>
       <c r="F30" t="n">
-        <v>316.1270252698623</v>
+        <v>315.632234729462</v>
       </c>
       <c r="G30" t="n">
-        <v>48.00119404946995</v>
+        <v>241.1497396947891</v>
       </c>
       <c r="H30" t="n">
-        <v>2.44</v>
+        <v>1.75</v>
       </c>
       <c r="I30" t="n">
-        <v>432183</v>
+        <v>350733</v>
       </c>
     </row>
     <row r="31">
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>178751</v>
+        <v>178404</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1524,10 +1524,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>8.85</v>
+        <v>7.85</v>
       </c>
       <c r="I31" t="n">
-        <v>6206.86</v>
+        <v>6061.96</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5452573</v>
+        <v>5477857</v>
       </c>
       <c r="E32" t="n">
-        <v>5713424</v>
+        <v>5739918</v>
       </c>
       <c r="F32" t="n">
-        <v>16.40276897586125</v>
+        <v>40.7821666461511</v>
       </c>
       <c r="G32" t="n">
-        <v>711.3213154746512</v>
+        <v>306.7607386301644</v>
       </c>
       <c r="H32" t="n">
-        <v>2.16</v>
+        <v>2.83</v>
       </c>
       <c r="I32" t="n">
-        <v>175380</v>
+        <v>171440</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>5356871</v>
+        <v>5358638</v>
       </c>
       <c r="E33" t="n">
-        <v>7885604</v>
+        <v>7888206</v>
       </c>
       <c r="F33" t="n">
-        <v>34.47676042765359</v>
+        <v>221.2182913294202</v>
       </c>
       <c r="G33" t="n">
-        <v>107.6259145791569</v>
+        <v>204.5779186406991</v>
       </c>
       <c r="H33" t="n">
-        <v>1.89</v>
+        <v>2.4</v>
       </c>
       <c r="I33" t="n">
-        <v>639498</v>
+        <v>646400</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7658187</v>
+        <v>7660067</v>
       </c>
       <c r="E34" t="n">
-        <v>7658187</v>
+        <v>7660067</v>
       </c>
       <c r="F34" t="n">
-        <v>32400.23600115351</v>
+        <v>32160.84840358974</v>
       </c>
       <c r="G34" t="n">
-        <v>32992.32572164209</v>
+        <v>31215.17791325512</v>
       </c>
       <c r="H34" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="I34" t="n">
-        <v>221097</v>
+        <v>217070</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1490834</v>
+        <v>1490739</v>
       </c>
       <c r="E35" t="n">
-        <v>1490874</v>
+        <v>1490739</v>
       </c>
       <c r="F35" t="n">
-        <v>221.7614848722727</v>
+        <v>43.23918765371427</v>
       </c>
       <c r="G35" t="n">
-        <v>256.1191228042965</v>
+        <v>618.2152752273735</v>
       </c>
       <c r="H35" t="n">
-        <v>1.78</v>
+        <v>3.15</v>
       </c>
       <c r="I35" t="n">
-        <v>277537</v>
+        <v>275897</v>
       </c>
     </row>
     <row r="36">
@@ -1690,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>16513537</v>
+        <v>16425131</v>
       </c>
       <c r="F36" t="n">
-        <v>343.5557623792151</v>
+        <v>248.6776305031487</v>
       </c>
       <c r="G36" t="n">
-        <v>190.8632311039296</v>
+        <v>169.9403768625698</v>
       </c>
       <c r="H36" t="n">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
       <c r="I36" t="n">
-        <v>10791.39</v>
+        <v>10421.16</v>
       </c>
     </row>
     <row r="37">
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>61004</v>
+        <v>59636</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1730,10 +1730,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>6.38</v>
+        <v>8.51</v>
       </c>
       <c r="I37" t="n">
-        <v>307.11</v>
+        <v>254.32</v>
       </c>
     </row>
     <row r="38">
@@ -1753,22 +1753,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>133555219</v>
+        <v>133845167</v>
       </c>
       <c r="E38" t="n">
-        <v>133555219</v>
+        <v>133845167</v>
       </c>
       <c r="F38" t="n">
-        <v>336479.6693610428</v>
+        <v>322673.9135769728</v>
       </c>
       <c r="G38" t="n">
-        <v>364136.0862339264</v>
+        <v>340693.706221478</v>
       </c>
       <c r="H38" t="n">
         <v>0.05</v>
       </c>
       <c r="I38" t="n">
-        <v>63223387</v>
+        <v>63168736</v>
       </c>
     </row>
     <row r="39">
@@ -1788,22 +1788,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>63702129</v>
+        <v>64204911</v>
       </c>
       <c r="E39" t="n">
-        <v>326677584</v>
+        <v>329255953</v>
       </c>
       <c r="F39" t="n">
-        <v>86441.13430082002</v>
+        <v>85171.13039979509</v>
       </c>
       <c r="G39" t="n">
-        <v>93677.79474473119</v>
+        <v>98716.06607487197</v>
       </c>
       <c r="H39" t="n">
         <v>0.13</v>
       </c>
       <c r="I39" t="n">
-        <v>18023793</v>
+        <v>18006483</v>
       </c>
     </row>
     <row r="40">
@@ -1823,10 +1823,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>44532</v>
+        <v>44541</v>
       </c>
       <c r="E40" t="n">
-        <v>131599</v>
+        <v>131627</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -1835,10 +1835,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>7.01</v>
+        <v>6.46</v>
       </c>
       <c r="I40" t="n">
-        <v>751.55</v>
+        <v>749.54</v>
       </c>
     </row>
     <row r="41">
@@ -1861,19 +1861,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>49697</v>
+        <v>49783</v>
       </c>
       <c r="F41" t="n">
-        <v>14.53890524341748</v>
+        <v>14.46547261210104</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5716582924914422</v>
+        <v>0.5716679452571637</v>
       </c>
       <c r="H41" t="n">
-        <v>1.25</v>
+        <v>0.74</v>
       </c>
       <c r="I41" t="n">
-        <v>25750</v>
+        <v>25229</v>
       </c>
     </row>
     <row r="42">
@@ -1896,19 +1896,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>593325</v>
+        <v>592905</v>
       </c>
       <c r="F42" t="n">
-        <v>2180.997932519828</v>
+        <v>2180.196510377107</v>
       </c>
       <c r="G42" t="n">
-        <v>397.8007875706651</v>
+        <v>396.8153118265418</v>
       </c>
       <c r="H42" t="n">
         <v>0.7</v>
       </c>
       <c r="I42" t="n">
-        <v>436.53</v>
+        <v>436.17</v>
       </c>
     </row>
     <row r="43">
@@ -1961,22 +1961,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2726573</v>
+        <v>2715751</v>
       </c>
       <c r="E44" t="n">
-        <v>10957478</v>
+        <v>10913984</v>
       </c>
       <c r="F44" t="n">
-        <v>274.0542245528415</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>70.63708208193306</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1.8</v>
+        <v>9.09</v>
       </c>
       <c r="I44" t="n">
-        <v>24506</v>
+        <v>25051</v>
       </c>
     </row>
     <row r="45">
@@ -1996,22 +1996,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>17433196</v>
+        <v>17337767</v>
       </c>
       <c r="E45" t="n">
-        <v>122948069</v>
+        <v>122251701</v>
       </c>
       <c r="F45" t="n">
-        <v>204.2375559034564</v>
+        <v>249.2069016528187</v>
       </c>
       <c r="G45" t="n">
-        <v>294.1998922241781</v>
+        <v>388.8897521010796</v>
       </c>
       <c r="H45" t="n">
         <v>0.57</v>
       </c>
       <c r="I45" t="n">
-        <v>1040635</v>
+        <v>1040101</v>
       </c>
     </row>
     <row r="46">
@@ -2031,10 +2031,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>170158</v>
+        <v>169948</v>
       </c>
       <c r="E46" t="n">
-        <v>2276810</v>
+        <v>2273999</v>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>52419</v>
+        <v>52512</v>
       </c>
     </row>
     <row r="47">
@@ -2064,22 +2064,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>249070807</v>
+        <v>250379733</v>
       </c>
       <c r="E47" t="n">
-        <v>249070807</v>
+        <v>250379733</v>
       </c>
       <c r="F47" t="n">
-        <v>113753.9297413915</v>
+        <v>100754.5419150588</v>
       </c>
       <c r="G47" t="n">
-        <v>157002.5077221558</v>
+        <v>175814.08922705</v>
       </c>
       <c r="H47" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I47" t="n">
-        <v>14837512</v>
+        <v>14680883</v>
       </c>
     </row>
     <row r="48">
@@ -2099,22 +2099,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>635622</v>
+        <v>632116</v>
       </c>
       <c r="E48" t="n">
-        <v>635622</v>
+        <v>632116</v>
       </c>
       <c r="F48" t="n">
-        <v>59.99667953605756</v>
+        <v>60.01519358707971</v>
       </c>
       <c r="G48" t="n">
-        <v>191.1356040732449</v>
+        <v>150.3655760932936</v>
       </c>
       <c r="H48" t="n">
-        <v>2.73</v>
+        <v>2.42</v>
       </c>
       <c r="I48" t="n">
-        <v>3264.05</v>
+        <v>3326.92</v>
       </c>
     </row>
     <row r="49">
@@ -2167,22 +2167,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>439924918</v>
+        <v>442313874</v>
       </c>
       <c r="E50" t="n">
-        <v>439924918</v>
+        <v>442313874</v>
       </c>
       <c r="F50" t="n">
-        <v>3686.732516482298</v>
+        <v>8922.295850185192</v>
       </c>
       <c r="G50" t="n">
-        <v>2756.487481979697</v>
+        <v>2521.206494473007</v>
       </c>
       <c r="H50" t="n">
-        <v>0.3</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I50" t="n">
-        <v>2855560</v>
+        <v>2847236</v>
       </c>
     </row>
     <row r="51">
@@ -2202,22 +2202,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2505908</v>
+        <v>2517856</v>
       </c>
       <c r="E51" t="n">
-        <v>2505908</v>
+        <v>2517856</v>
       </c>
       <c r="F51" t="n">
-        <v>298.270878948191</v>
+        <v>298.2861124816985</v>
       </c>
       <c r="G51" t="n">
-        <v>1118.053368279684</v>
+        <v>1118.077760139304</v>
       </c>
       <c r="H51" t="n">
         <v>2.13</v>
       </c>
       <c r="I51" t="n">
-        <v>109214</v>
+        <v>109364</v>
       </c>
     </row>
     <row r="52">
@@ -2237,10 +2237,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>23843</v>
+        <v>23841</v>
       </c>
       <c r="E52" t="n">
-        <v>47686</v>
+        <v>47682</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -2249,10 +2249,10 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>8.02</v>
+        <v>5.93</v>
       </c>
       <c r="I52" t="n">
-        <v>4705.55</v>
+        <v>4392.81</v>
       </c>
     </row>
     <row r="53">
@@ -2275,19 +2275,19 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>147347</v>
+        <v>146111</v>
       </c>
       <c r="F53" t="n">
-        <v>31.37293029393059</v>
+        <v>7.301678045677051</v>
       </c>
       <c r="G53" t="n">
-        <v>1.194732008575291</v>
+        <v>1.194752182284533</v>
       </c>
       <c r="H53" t="n">
         <v>1.72</v>
       </c>
       <c r="I53" t="n">
-        <v>23459</v>
+        <v>23004</v>
       </c>
     </row>
     <row r="54">
@@ -2307,22 +2307,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2535808</v>
+        <v>2538323</v>
       </c>
       <c r="E54" t="n">
-        <v>6483012</v>
+        <v>6489444</v>
       </c>
       <c r="F54" t="n">
-        <v>215.0265419649242</v>
+        <v>214.0613013512023</v>
       </c>
       <c r="G54" t="n">
-        <v>206.26920395018</v>
+        <v>294.209997922303</v>
       </c>
       <c r="H54" t="n">
-        <v>1.51</v>
+        <v>2.41</v>
       </c>
       <c r="I54" t="n">
-        <v>121782</v>
+        <v>120233</v>
       </c>
     </row>
     <row r="55">
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>3822.75</v>
+        <v>3822.48</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>6.22</v>
       </c>
       <c r="I55" t="n">
-        <v>820.01</v>
+        <v>820.86</v>
       </c>
     </row>
     <row r="56">
@@ -2377,22 +2377,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>71852671</v>
+        <v>71841375</v>
       </c>
       <c r="E56" t="n">
-        <v>71852671</v>
+        <v>71841375</v>
       </c>
       <c r="F56" t="n">
-        <v>17262.24532446264</v>
+        <v>16209.80424477298</v>
       </c>
       <c r="G56" t="n">
-        <v>25740.13708148515</v>
+        <v>21526.70971596632</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="I56" t="n">
-        <v>4544772</v>
+        <v>4408563</v>
       </c>
     </row>
     <row r="57">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3605319</v>
+        <v>3620650</v>
       </c>
       <c r="E57" t="n">
-        <v>4568569</v>
+        <v>4587996</v>
       </c>
       <c r="F57" t="n">
-        <v>139.0334760989317</v>
+        <v>233.7833803518687</v>
       </c>
       <c r="G57" t="n">
-        <v>1290.325853581671</v>
+        <v>154.5060985194161</v>
       </c>
       <c r="H57" t="n">
         <v>0.21</v>
       </c>
       <c r="I57" t="n">
-        <v>277005</v>
+        <v>280378</v>
       </c>
     </row>
     <row r="58">
@@ -2447,22 +2447,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>4230041</v>
+        <v>4217825</v>
       </c>
       <c r="E58" t="n">
-        <v>8341997</v>
+        <v>8317906</v>
       </c>
       <c r="F58" t="n">
-        <v>2256.912665918962</v>
+        <v>2584.202298505182</v>
       </c>
       <c r="G58" t="n">
-        <v>2990.128277862665</v>
+        <v>2371.717345536417</v>
       </c>
       <c r="H58" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="I58" t="n">
-        <v>1644562</v>
+        <v>1634434</v>
       </c>
     </row>
     <row r="59">
@@ -2482,22 +2482,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1573486</v>
+        <v>1569436</v>
       </c>
       <c r="E59" t="n">
-        <v>9034369</v>
+        <v>9011116</v>
       </c>
       <c r="F59" t="n">
-        <v>390.724538579119</v>
+        <v>365.8229748080124</v>
       </c>
       <c r="G59" t="n">
-        <v>431.8565267227457</v>
+        <v>520.3495553973066</v>
       </c>
       <c r="H59" t="n">
-        <v>0.76</v>
+        <v>1.31</v>
       </c>
       <c r="I59" t="n">
-        <v>329303</v>
+        <v>324679</v>
       </c>
     </row>
     <row r="60">
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>577201</v>
+        <v>571678</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>8.77</v>
       </c>
       <c r="I60" t="n">
-        <v>2031.38</v>
+        <v>2307.37</v>
       </c>
     </row>
     <row r="61">
@@ -2555,19 +2555,19 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>32132496</v>
+        <v>32061411</v>
       </c>
       <c r="F61" t="n">
-        <v>494.1088296739485</v>
+        <v>479.069896339084</v>
       </c>
       <c r="G61" t="n">
-        <v>1434.052701023971</v>
+        <v>1695.832962091729</v>
       </c>
       <c r="H61" t="n">
-        <v>0.42</v>
+        <v>0.25</v>
       </c>
       <c r="I61" t="n">
-        <v>249526</v>
+        <v>250261</v>
       </c>
     </row>
     <row r="62">
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>1435837</v>
+        <v>1418572</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>5.64</v>
+        <v>4.75</v>
       </c>
       <c r="I62" t="n">
-        <v>28643</v>
+        <v>27658</v>
       </c>
     </row>
     <row r="63">
@@ -2622,22 +2622,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>7546682</v>
+        <v>7533062</v>
       </c>
       <c r="E63" t="n">
-        <v>17773936</v>
+        <v>17741859</v>
       </c>
       <c r="F63" t="n">
-        <v>1169.114357199081</v>
+        <v>1158.933350775279</v>
       </c>
       <c r="G63" t="n">
-        <v>2534.244260831971</v>
+        <v>2493.219758378899</v>
       </c>
       <c r="H63" t="n">
-        <v>1.41</v>
+        <v>1.09</v>
       </c>
       <c r="I63" t="n">
-        <v>28882</v>
+        <v>29618</v>
       </c>
     </row>
     <row r="64">
@@ -2657,22 +2657,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2914991</v>
+        <v>2903201</v>
       </c>
       <c r="E64" t="n">
-        <v>2914991</v>
+        <v>2903201</v>
       </c>
       <c r="F64" t="n">
-        <v>178.2331910304673</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>70.44579671748255</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>1.46</v>
+        <v>6.73</v>
       </c>
       <c r="I64" t="n">
-        <v>11356.11</v>
+        <v>13188.5</v>
       </c>
     </row>
     <row r="65">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3364315</v>
+        <v>3362602</v>
       </c>
       <c r="E65" t="n">
-        <v>8301275</v>
+        <v>8297049</v>
       </c>
       <c r="F65" t="n">
-        <v>687.6855065626415</v>
+        <v>896.1026451516192</v>
       </c>
       <c r="G65" t="n">
-        <v>990.246208786943</v>
+        <v>1000.422799132491</v>
       </c>
       <c r="H65" t="n">
-        <v>1.64</v>
+        <v>0.65</v>
       </c>
       <c r="I65" t="n">
-        <v>100753</v>
+        <v>65813</v>
       </c>
     </row>
     <row r="66">
@@ -2730,19 +2730,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>269902</v>
+        <v>269755</v>
       </c>
       <c r="F66" t="n">
-        <v>35.16871409795904</v>
+        <v>35.16948135143873</v>
       </c>
       <c r="G66" t="n">
-        <v>103.9945157099261</v>
+        <v>103.9967844921689</v>
       </c>
       <c r="H66" t="n">
         <v>3.33</v>
       </c>
       <c r="I66" t="n">
-        <v>2486.64</v>
+        <v>2178.33</v>
       </c>
     </row>
     <row r="67">
@@ -2762,22 +2762,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>71441000</v>
+        <v>71734940</v>
       </c>
       <c r="E67" t="n">
-        <v>148990763</v>
+        <v>149603779</v>
       </c>
       <c r="F67" t="n">
-        <v>55108.70945800877</v>
+        <v>60436.09975188733</v>
       </c>
       <c r="G67" t="n">
-        <v>88654.17250920333</v>
+        <v>93357.82104012067</v>
       </c>
       <c r="H67" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I67" t="n">
-        <v>13669581</v>
+        <v>13685250</v>
       </c>
     </row>
     <row r="68">
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>2089980</v>
+        <v>2090427</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>4.31</v>
       </c>
       <c r="I68" t="n">
-        <v>3337.58</v>
+        <v>3068.18</v>
       </c>
     </row>
     <row r="69">
@@ -2835,19 +2835,19 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>197593727</v>
+        <v>198280045</v>
       </c>
       <c r="F69" t="n">
-        <v>6298.166484913811</v>
+        <v>4724.193503058029</v>
       </c>
       <c r="G69" t="n">
-        <v>3893.893765893056</v>
+        <v>2281.623457937628</v>
       </c>
       <c r="H69" t="n">
-        <v>0.6</v>
+        <v>0.76</v>
       </c>
       <c r="I69" t="n">
-        <v>4251399</v>
+        <v>4268877</v>
       </c>
     </row>
     <row r="70">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>185357</v>
+        <v>184990</v>
       </c>
       <c r="E70" t="n">
-        <v>193566</v>
+        <v>193182</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>13.74</v>
       </c>
       <c r="I70" t="n">
-        <v>602.28</v>
+        <v>597.51</v>
       </c>
     </row>
     <row r="71">
@@ -2902,22 +2902,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>142531991</v>
+        <v>143310208</v>
       </c>
       <c r="E71" t="n">
-        <v>142573428</v>
+        <v>143351872</v>
       </c>
       <c r="F71" t="n">
-        <v>28870.26973724054</v>
+        <v>41762.18796917469</v>
       </c>
       <c r="G71" t="n">
-        <v>52751.92828391075</v>
+        <v>38564.03755067422</v>
       </c>
       <c r="H71" t="n">
-        <v>0.31</v>
+        <v>0.11</v>
       </c>
       <c r="I71" t="n">
-        <v>2617021</v>
+        <v>2605249</v>
       </c>
     </row>
     <row r="72">
@@ -2937,22 +2937,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>26015678</v>
+        <v>26071906</v>
       </c>
       <c r="E72" t="n">
-        <v>85378484</v>
+        <v>85563010</v>
       </c>
       <c r="F72" t="n">
-        <v>23502.82051462338</v>
+        <v>21490.55436726633</v>
       </c>
       <c r="G72" t="n">
-        <v>30326.76889883302</v>
+        <v>28202.42612437763</v>
       </c>
       <c r="H72" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="I72" t="n">
-        <v>107107</v>
+        <v>104261</v>
       </c>
     </row>
     <row r="73">
@@ -2972,10 +2972,10 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>110177</v>
+        <v>112415</v>
       </c>
       <c r="E73" t="n">
-        <v>110177</v>
+        <v>112415</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -2987,7 +2987,7 @@
         <v>4.49</v>
       </c>
       <c r="I73" t="n">
-        <v>132.88</v>
+        <v>148.13</v>
       </c>
     </row>
     <row r="74">
@@ -3007,22 +3007,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>196112339</v>
+        <v>196318411</v>
       </c>
       <c r="E74" t="n">
-        <v>681311989</v>
+        <v>682027904</v>
       </c>
       <c r="F74" t="n">
-        <v>133653.6391382827</v>
+        <v>116415.0100279586</v>
       </c>
       <c r="G74" t="n">
-        <v>198849.1458422082</v>
+        <v>240022.6947700938</v>
       </c>
       <c r="H74" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I74" t="n">
-        <v>26306811</v>
+        <v>26020270</v>
       </c>
     </row>
     <row r="75">
@@ -3042,22 +3042,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>4168274</v>
+        <v>4092638</v>
       </c>
       <c r="E75" t="n">
-        <v>4168274</v>
+        <v>4092638</v>
       </c>
       <c r="F75" t="n">
-        <v>456.8957165677565</v>
+        <v>560.4734825828795</v>
       </c>
       <c r="G75" t="n">
-        <v>2773.559083413575</v>
+        <v>2327.539435869123</v>
       </c>
       <c r="H75" t="n">
-        <v>0.43</v>
+        <v>0.68</v>
       </c>
       <c r="I75" t="n">
-        <v>3921970</v>
+        <v>3841222</v>
       </c>
     </row>
     <row r="76">
@@ -3077,22 +3077,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>112123479</v>
+        <v>111680813</v>
       </c>
       <c r="E76" t="n">
-        <v>477079380</v>
+        <v>475145916</v>
       </c>
       <c r="F76" t="n">
-        <v>213069.4906683438</v>
+        <v>172179.4266313301</v>
       </c>
       <c r="G76" t="n">
-        <v>191894.0832245143</v>
+        <v>145565.2880922815</v>
       </c>
       <c r="H76" t="n">
-        <v>0.13</v>
+        <v>0.21</v>
       </c>
       <c r="I76" t="n">
-        <v>11621776</v>
+        <v>12071176</v>
       </c>
     </row>
     <row r="77">
@@ -3115,19 +3115,19 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1846334</v>
+        <v>1847786</v>
       </c>
       <c r="F77" t="n">
-        <v>109.2934410649143</v>
+        <v>109.2958254504432</v>
       </c>
       <c r="G77" t="n">
-        <v>92.99322074786059</v>
+        <v>92.99524952184443</v>
       </c>
       <c r="H77" t="n">
         <v>0.54</v>
       </c>
       <c r="I77" t="n">
-        <v>431.88</v>
+        <v>432.44</v>
       </c>
     </row>
     <row r="78">
@@ -3147,22 +3147,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3094465</v>
+        <v>3094497</v>
       </c>
       <c r="E78" t="n">
-        <v>15514946</v>
+        <v>15515107</v>
       </c>
       <c r="F78" t="n">
-        <v>138.2698546324362</v>
+        <v>103.5952080414421</v>
       </c>
       <c r="G78" t="n">
-        <v>379.600275294265</v>
+        <v>132.2002791211591</v>
       </c>
       <c r="H78" t="n">
-        <v>1.26</v>
+        <v>1.89</v>
       </c>
       <c r="I78" t="n">
-        <v>25508</v>
+        <v>26076</v>
       </c>
     </row>
     <row r="79">
@@ -3182,22 +3182,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>534128</v>
+        <v>533316</v>
       </c>
       <c r="E79" t="n">
-        <v>9136229</v>
+        <v>9122342</v>
       </c>
       <c r="F79" t="n">
-        <v>714.274693506293</v>
+        <v>41.53707753810158</v>
       </c>
       <c r="G79" t="n">
-        <v>341.0604657795706</v>
+        <v>323.7287431086939</v>
       </c>
       <c r="H79" t="n">
-        <v>1.97</v>
+        <v>1.58</v>
       </c>
       <c r="I79" t="n">
-        <v>323024</v>
+        <v>312998</v>
       </c>
     </row>
     <row r="80">
@@ -3217,22 +3217,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>5895750</v>
+        <v>5904243</v>
       </c>
       <c r="E80" t="n">
-        <v>8011397</v>
+        <v>8022490</v>
       </c>
       <c r="F80" t="n">
-        <v>246.0507512341072</v>
+        <v>237.5665530926175</v>
       </c>
       <c r="G80" t="n">
-        <v>980.4120511496481</v>
+        <v>990.8757622394194</v>
       </c>
       <c r="H80" t="n">
-        <v>0.14</v>
+        <v>0.68</v>
       </c>
       <c r="I80" t="n">
-        <v>6394229</v>
+        <v>6448996</v>
       </c>
     </row>
     <row r="81">
@@ -3251,19 +3251,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>42504</v>
+        <v>45128</v>
       </c>
       <c r="F81" t="n">
-        <v>177.8710807390694</v>
+        <v>163.5796495014384</v>
       </c>
       <c r="G81" t="n">
-        <v>759.7835155487635</v>
+        <v>51.0982897300748</v>
       </c>
       <c r="H81" t="n">
-        <v>1.57</v>
+        <v>0.37</v>
       </c>
       <c r="I81" t="n">
-        <v>57713</v>
+        <v>59234</v>
       </c>
     </row>
     <row r="82">
@@ -3283,22 +3283,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>41137629</v>
+        <v>40769350</v>
       </c>
       <c r="E82" t="n">
-        <v>48047774</v>
+        <v>47617632</v>
       </c>
       <c r="F82" t="n">
-        <v>174.9774632699263</v>
+        <v>213.6259495100817</v>
       </c>
       <c r="G82" t="n">
-        <v>138.6289497533645</v>
+        <v>185.0155398527286</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1.14</v>
       </c>
       <c r="I82" t="n">
-        <v>812759</v>
+        <v>830344</v>
       </c>
     </row>
     <row r="83">
@@ -3321,19 +3321,19 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>14300981</v>
+        <v>14334335</v>
       </c>
       <c r="F83" t="n">
-        <v>273.2689756180274</v>
+        <v>308.9609980208817</v>
       </c>
       <c r="G83" t="n">
-        <v>980.417079314013</v>
+        <v>756.7030409065962</v>
       </c>
       <c r="H83" t="n">
-        <v>0.87</v>
+        <v>0.76</v>
       </c>
       <c r="I83" t="n">
-        <v>466310</v>
+        <v>461839</v>
       </c>
     </row>
     <row r="84">
@@ -3353,22 +3353,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>35660955</v>
+        <v>35320646</v>
       </c>
       <c r="E84" t="n">
-        <v>35660955</v>
+        <v>35320646</v>
       </c>
       <c r="F84" t="n">
-        <v>229.3277667159839</v>
+        <v>152.9217586232286</v>
       </c>
       <c r="G84" t="n">
-        <v>437.0814373238671</v>
+        <v>188.4033982203098</v>
       </c>
       <c r="H84" t="n">
-        <v>2.19</v>
+        <v>2.46</v>
       </c>
       <c r="I84" t="n">
-        <v>738764</v>
+        <v>741233</v>
       </c>
     </row>
     <row r="85">
@@ -3388,22 +3388,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>531521</v>
+        <v>536542</v>
       </c>
       <c r="E85" t="n">
-        <v>6446832</v>
+        <v>6507734</v>
       </c>
       <c r="F85" t="n">
-        <v>904.9956725415811</v>
+        <v>841.3554732693466</v>
       </c>
       <c r="G85" t="n">
-        <v>1337.344784106949</v>
+        <v>2086.353678950248</v>
       </c>
       <c r="H85" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="I85" t="n">
-        <v>2807993</v>
+        <v>2762111</v>
       </c>
     </row>
     <row r="86">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>24990670</v>
+        <v>24995723</v>
       </c>
       <c r="E86" t="n">
-        <v>35323336</v>
+        <v>35330478</v>
       </c>
       <c r="F86" t="n">
-        <v>215.0115370687055</v>
+        <v>230.4941371732752</v>
       </c>
       <c r="G86" t="n">
-        <v>2417.297239561956</v>
+        <v>2452.869083255587</v>
       </c>
       <c r="H86" t="n">
-        <v>1.89</v>
+        <v>1.66</v>
       </c>
       <c r="I86" t="n">
-        <v>89982</v>
+        <v>83698</v>
       </c>
     </row>
     <row r="87">
@@ -3458,22 +3458,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1264311651</v>
+        <v>1267063377</v>
       </c>
       <c r="E87" t="n">
-        <v>6062633294</v>
+        <v>6075828382</v>
       </c>
       <c r="F87" t="n">
-        <v>663093.7881460681</v>
+        <v>744162.3626153696</v>
       </c>
       <c r="G87" t="n">
-        <v>867761.0634454286</v>
+        <v>827126.8814909743</v>
       </c>
       <c r="H87" t="n">
         <v>0.02</v>
       </c>
       <c r="I87" t="n">
-        <v>184316891</v>
+        <v>180345046</v>
       </c>
     </row>
     <row r="88">
@@ -3493,22 +3493,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>265022372</v>
+        <v>266968518</v>
       </c>
       <c r="E88" t="n">
-        <v>1143983682</v>
+        <v>1152384329</v>
       </c>
       <c r="F88" t="n">
-        <v>1130736.088254293</v>
+        <v>1087898.629681883</v>
       </c>
       <c r="G88" t="n">
-        <v>1028932.725974183</v>
+        <v>1033434.537339734</v>
       </c>
       <c r="H88" t="n">
         <v>0.02</v>
       </c>
       <c r="I88" t="n">
-        <v>112613206</v>
+        <v>110614652</v>
       </c>
     </row>
     <row r="89">
@@ -3528,22 +3528,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>113075715</v>
+        <v>113298901</v>
       </c>
       <c r="E89" t="n">
-        <v>113075715</v>
+        <v>113298901</v>
       </c>
       <c r="F89" t="n">
-        <v>40520.09699872479</v>
+        <v>36082.65621381281</v>
       </c>
       <c r="G89" t="n">
-        <v>22796.20157119964</v>
+        <v>27843.8833171127</v>
       </c>
       <c r="H89" t="n">
-        <v>0.74</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I89" t="n">
-        <v>5922477</v>
+        <v>5960486</v>
       </c>
     </row>
     <row r="90">
@@ -3563,22 +3563,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>3852872</v>
+        <v>3853977</v>
       </c>
       <c r="E90" t="n">
-        <v>29982582</v>
+        <v>29991183</v>
       </c>
       <c r="F90" t="n">
-        <v>11033.98644282423</v>
+        <v>11034.2304548685</v>
       </c>
       <c r="G90" t="n">
-        <v>12355.46422875862</v>
+        <v>12354.63221087746</v>
       </c>
       <c r="H90" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I90" t="n">
-        <v>10273.99</v>
+        <v>9982.120000000001</v>
       </c>
     </row>
     <row r="91">
@@ -3601,19 +3601,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>3740278</v>
+        <v>3745588</v>
       </c>
       <c r="F91" t="n">
-        <v>1501.440560567326</v>
+        <v>866.3098498296814</v>
       </c>
       <c r="G91" t="n">
-        <v>1518.075893043506</v>
+        <v>1534.092736635439</v>
       </c>
       <c r="H91" t="n">
-        <v>1.34</v>
+        <v>1.14</v>
       </c>
       <c r="I91" t="n">
-        <v>318763</v>
+        <v>320293</v>
       </c>
     </row>
     <row r="92">
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>887992</v>
+        <v>900328</v>
       </c>
       <c r="F92" t="n">
-        <v>1.066606540279684</v>
+        <v>22.93039025706462</v>
       </c>
       <c r="G92" t="n">
-        <v>121.7407368117555</v>
+        <v>154.2140028645536</v>
       </c>
       <c r="H92" t="n">
-        <v>2.83</v>
+        <v>3.33</v>
       </c>
       <c r="I92" t="n">
-        <v>68704</v>
+        <v>66114</v>
       </c>
     </row>
     <row r="93">
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>140496</v>
+        <v>138320</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>1.64558265267733</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>113.2425097632071</v>
       </c>
       <c r="H93" t="n">
-        <v>4.96</v>
+        <v>3.63</v>
       </c>
       <c r="I93" t="n">
-        <v>100001</v>
+        <v>106163</v>
       </c>
     </row>
     <row r="94">
@@ -3699,22 +3699,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>10849896</v>
+        <v>10854371</v>
       </c>
       <c r="E94" t="n">
-        <v>131023429</v>
+        <v>131076515</v>
       </c>
       <c r="F94" t="n">
-        <v>1889.913952828059</v>
+        <v>3382.804211832742</v>
       </c>
       <c r="G94" t="n">
-        <v>7716.285742005211</v>
+        <v>4980.322333832282</v>
       </c>
       <c r="H94" t="n">
-        <v>0.46</v>
+        <v>0.08</v>
       </c>
       <c r="I94" t="n">
-        <v>236925</v>
+        <v>235644</v>
       </c>
     </row>
     <row r="95">
@@ -3734,22 +3734,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>21294121</v>
+        <v>21479383</v>
       </c>
       <c r="E95" t="n">
-        <v>53235304</v>
+        <v>53698457</v>
       </c>
       <c r="F95" t="n">
-        <v>7114.557540523136</v>
+        <v>8914.105491220203</v>
       </c>
       <c r="G95" t="n">
-        <v>9376.680346747269</v>
+        <v>9542.469772627659</v>
       </c>
       <c r="H95" t="n">
-        <v>0.23</v>
+        <v>0.11</v>
       </c>
       <c r="I95" t="n">
-        <v>2049160</v>
+        <v>2089203</v>
       </c>
     </row>
     <row r="96">
@@ -3772,19 +3772,19 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>2331801</v>
+        <v>2321694</v>
       </c>
       <c r="F96" t="n">
-        <v>230.1520990070678</v>
+        <v>167.6398556970052</v>
       </c>
       <c r="G96" t="n">
-        <v>116.4906132025735</v>
+        <v>214.0207631290675</v>
       </c>
       <c r="H96" t="n">
-        <v>2.59</v>
+        <v>2.16</v>
       </c>
       <c r="I96" t="n">
-        <v>71707</v>
+        <v>71542</v>
       </c>
     </row>
     <row r="97">
@@ -3807,19 +3807,19 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>20099713</v>
+        <v>20152452</v>
       </c>
       <c r="F97" t="n">
-        <v>1549.816229616336</v>
+        <v>1891.075362211431</v>
       </c>
       <c r="G97" t="n">
-        <v>1466.00375505992</v>
+        <v>3436.759019655982</v>
       </c>
       <c r="H97" t="n">
         <v>0.99</v>
       </c>
       <c r="I97" t="n">
-        <v>128693</v>
+        <v>128853</v>
       </c>
     </row>
     <row r="98">
@@ -3839,22 +3839,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>3971062</v>
+        <v>3894454</v>
       </c>
       <c r="E98" t="n">
-        <v>11438268</v>
+        <v>11217606</v>
       </c>
       <c r="F98" t="n">
-        <v>972.4209612283042</v>
+        <v>1201.609660528444</v>
       </c>
       <c r="G98" t="n">
-        <v>310.932855464327</v>
+        <v>802.550968224115</v>
       </c>
       <c r="H98" t="n">
-        <v>1.04</v>
+        <v>0.8</v>
       </c>
       <c r="I98" t="n">
-        <v>513433</v>
+        <v>527985</v>
       </c>
     </row>
     <row r="99">
@@ -3877,19 +3877,19 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>1679984</v>
+        <v>1655403</v>
       </c>
       <c r="F99" t="n">
-        <v>87.42406524866804</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>97.21937843033118</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>2.6</v>
+        <v>4.73</v>
       </c>
       <c r="I99" t="n">
-        <v>293366</v>
+        <v>294428</v>
       </c>
     </row>
     <row r="100">
@@ -3909,22 +3909,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>79980383</v>
+        <v>79947861</v>
       </c>
       <c r="E100" t="n">
-        <v>101781253</v>
+        <v>101739866</v>
       </c>
       <c r="F100" t="n">
-        <v>8654.8061663888</v>
+        <v>8629.610679001857</v>
       </c>
       <c r="G100" t="n">
-        <v>13251.67948434175</v>
+        <v>13609.20420954131</v>
       </c>
       <c r="H100" t="n">
-        <v>0.23</v>
+        <v>0.46</v>
       </c>
       <c r="I100" t="n">
-        <v>6180673</v>
+        <v>6202882</v>
       </c>
     </row>
     <row r="101">
@@ -3944,22 +3944,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>22393754</v>
+        <v>22401194</v>
       </c>
       <c r="E101" t="n">
-        <v>29049822</v>
+        <v>29059473</v>
       </c>
       <c r="F101" t="n">
-        <v>4662.852640067853</v>
+        <v>6286.947825478097</v>
       </c>
       <c r="G101" t="n">
-        <v>3893.930587773966</v>
+        <v>7753.668904864253</v>
       </c>
       <c r="H101" t="n">
-        <v>0.33</v>
+        <v>0.61</v>
       </c>
       <c r="I101" t="n">
-        <v>160119</v>
+        <v>157473</v>
       </c>
     </row>
     <row r="102">
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>1780160</v>
+        <v>1682544</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>7.34</v>
+        <v>6.29</v>
       </c>
       <c r="I102" t="n">
-        <v>13102.08</v>
+        <v>12224.36</v>
       </c>
     </row>
     <row r="103">
@@ -4014,22 +4014,22 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>607592</v>
+        <v>608783</v>
       </c>
       <c r="E103" t="n">
-        <v>607592</v>
+        <v>608783</v>
       </c>
       <c r="F103" t="n">
-        <v>12.69863915316862</v>
+        <v>10.77791181799823</v>
       </c>
       <c r="G103" t="n">
-        <v>225.1785427948426</v>
+        <v>225.1823450587958</v>
       </c>
       <c r="H103" t="n">
-        <v>3.83</v>
+        <v>3.73</v>
       </c>
       <c r="I103" t="n">
-        <v>77825</v>
+        <v>77836</v>
       </c>
     </row>
     <row r="104">
@@ -4049,22 +4049,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>40822814</v>
+        <v>39726803</v>
       </c>
       <c r="E104" t="n">
-        <v>42674437</v>
+        <v>41528714</v>
       </c>
       <c r="F104" t="n">
-        <v>253.1278728010321</v>
+        <v>251.782227934115</v>
       </c>
       <c r="G104" t="n">
-        <v>1426.495597793167</v>
+        <v>1672.901263561558</v>
       </c>
       <c r="H104" t="n">
-        <v>0.67</v>
+        <v>0.28</v>
       </c>
       <c r="I104" t="n">
-        <v>740701</v>
+        <v>838202</v>
       </c>
     </row>
     <row r="105">
@@ -4084,22 +4084,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>13567897</v>
+        <v>13602286</v>
       </c>
       <c r="E105" t="n">
-        <v>13567897</v>
+        <v>13602286</v>
       </c>
       <c r="F105" t="n">
-        <v>1458.064782420799</v>
+        <v>1263.03485171876</v>
       </c>
       <c r="G105" t="n">
-        <v>3344.759324475612</v>
+        <v>3826.129410230089</v>
       </c>
       <c r="H105" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="I105" t="n">
-        <v>4507621</v>
+        <v>4407747</v>
       </c>
     </row>
     <row r="106">
@@ -4122,19 +4122,19 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>1085030</v>
+        <v>1088462</v>
       </c>
       <c r="F106" t="n">
-        <v>7.910494786821881</v>
+        <v>7.910628359891531</v>
       </c>
       <c r="G106" t="n">
-        <v>333.6563561739323</v>
+        <v>333.6619901456247</v>
       </c>
       <c r="H106" t="n">
         <v>0.73</v>
       </c>
       <c r="I106" t="n">
-        <v>3343.95</v>
+        <v>3376.47</v>
       </c>
     </row>
     <row r="107">
@@ -4154,22 +4154,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>51736400</v>
+        <v>51980874</v>
       </c>
       <c r="E107" t="n">
-        <v>131801437</v>
+        <v>132424248</v>
       </c>
       <c r="F107" t="n">
-        <v>1822.622933400372</v>
+        <v>1364.870084569257</v>
       </c>
       <c r="G107" t="n">
-        <v>2809.971687586696</v>
+        <v>4733.130236516034</v>
       </c>
       <c r="H107" t="n">
-        <v>0.17</v>
+        <v>0.52</v>
       </c>
       <c r="I107" t="n">
-        <v>2757244</v>
+        <v>2338289</v>
       </c>
     </row>
     <row r="108">
@@ -4189,22 +4189,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>13825835</v>
+        <v>13751239</v>
       </c>
       <c r="E108" t="n">
-        <v>66960723</v>
+        <v>66599444</v>
       </c>
       <c r="F108" t="n">
-        <v>8586.382330501196</v>
+        <v>7811.302556947623</v>
       </c>
       <c r="G108" t="n">
-        <v>13501.27551633983</v>
+        <v>9012.852162078054</v>
       </c>
       <c r="H108" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="I108" t="n">
-        <v>3598523</v>
+        <v>3617891</v>
       </c>
     </row>
     <row r="109">
@@ -4227,19 +4227,19 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>535704</v>
+        <v>529034</v>
       </c>
       <c r="F109" t="n">
-        <v>76.16555557235407</v>
+        <v>122.9530424670222</v>
       </c>
       <c r="G109" t="n">
-        <v>4.692078027143295</v>
+        <v>23.46787556846229</v>
       </c>
       <c r="H109" t="n">
-        <v>3.37</v>
+        <v>2.2</v>
       </c>
       <c r="I109" t="n">
-        <v>7509.18</v>
+        <v>7532.31</v>
       </c>
     </row>
     <row r="110">
@@ -4259,22 +4259,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>4484793</v>
+        <v>4502425</v>
       </c>
       <c r="E110" t="n">
-        <v>10222887</v>
+        <v>10263079</v>
       </c>
       <c r="F110" t="n">
-        <v>1206.754245032798</v>
+        <v>1539.220157514354</v>
       </c>
       <c r="G110" t="n">
-        <v>2227.484053487617</v>
+        <v>1552.30963460082</v>
       </c>
       <c r="H110" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="I110" t="n">
-        <v>98964</v>
+        <v>99522</v>
       </c>
     </row>
     <row r="111">
@@ -4297,19 +4297,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>1874205379</v>
+        <v>1878984849</v>
       </c>
       <c r="F111" t="n">
-        <v>61331.37098384719</v>
+        <v>54883.24393293844</v>
       </c>
       <c r="G111" t="n">
-        <v>46695.5469271187</v>
+        <v>48134.91174301997</v>
       </c>
       <c r="H111" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="I111" t="n">
-        <v>26016544</v>
+        <v>26189735</v>
       </c>
     </row>
     <row r="112">
@@ -4329,22 +4329,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>9412368</v>
+        <v>9371093</v>
       </c>
       <c r="E112" t="n">
-        <v>34274256</v>
+        <v>34123282</v>
       </c>
       <c r="F112" t="n">
-        <v>393.0806478148707</v>
+        <v>519.3781412791865</v>
       </c>
       <c r="G112" t="n">
-        <v>335.208411441771</v>
+        <v>307.0940456603572</v>
       </c>
       <c r="H112" t="n">
-        <v>0.59</v>
+        <v>1.17</v>
       </c>
       <c r="I112" t="n">
-        <v>158168</v>
+        <v>154001</v>
       </c>
     </row>
     <row r="113">
@@ -4367,19 +4367,19 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>545156</v>
+        <v>540389</v>
       </c>
       <c r="F113" t="n">
-        <v>20.56871010644179</v>
+        <v>39.73625649074656</v>
       </c>
       <c r="G113" t="n">
-        <v>154.2503643908516</v>
+        <v>147.1472009293568</v>
       </c>
       <c r="H113" t="n">
         <v>1.39</v>
       </c>
       <c r="I113" t="n">
-        <v>20759</v>
+        <v>19802.64</v>
       </c>
     </row>
     <row r="114">
@@ -4399,22 +4399,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>12196700</v>
+        <v>12270559</v>
       </c>
       <c r="E114" t="n">
-        <v>17683455</v>
+        <v>17790540</v>
       </c>
       <c r="F114" t="n">
-        <v>5515.942295296412</v>
+        <v>2558.505269256341</v>
       </c>
       <c r="G114" t="n">
-        <v>3279.307887542799</v>
+        <v>5565.582144133316</v>
       </c>
       <c r="H114" t="n">
-        <v>0.62</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I114" t="n">
-        <v>2277345</v>
+        <v>2285411</v>
       </c>
     </row>
     <row r="115">
@@ -4434,22 +4434,22 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>2025891</v>
+        <v>2083867</v>
       </c>
       <c r="E115" t="n">
-        <v>14527464</v>
+        <v>14943202</v>
       </c>
       <c r="F115" t="n">
-        <v>3.656352859093619</v>
+        <v>596.5932043934034</v>
       </c>
       <c r="G115" t="n">
-        <v>48.05778543819525</v>
+        <v>1033.945751773946</v>
       </c>
       <c r="H115" t="n">
-        <v>2.72</v>
+        <v>2.26</v>
       </c>
       <c r="I115" t="n">
-        <v>612807</v>
+        <v>1989796</v>
       </c>
     </row>
     <row r="116">
@@ -4469,10 +4469,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2750425</v>
+        <v>2767965</v>
       </c>
       <c r="E116" t="n">
-        <v>5559872</v>
+        <v>5595330</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>3688.07</v>
+        <v>4258.89</v>
       </c>
     </row>
     <row r="117">
@@ -4502,22 +4502,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>196274156</v>
+        <v>198743429</v>
       </c>
       <c r="E117" t="n">
-        <v>1111424870</v>
+        <v>1125407413</v>
       </c>
       <c r="F117" t="n">
-        <v>388850.6734226883</v>
+        <v>264463.1214567268</v>
       </c>
       <c r="G117" t="n">
-        <v>419401.1374167312</v>
+        <v>474849.6189902415</v>
       </c>
       <c r="H117" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I117" t="n">
-        <v>60522209</v>
+        <v>60617647</v>
       </c>
     </row>
     <row r="118">
@@ -4537,22 +4537,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>700534</v>
+        <v>692574</v>
       </c>
       <c r="E118" t="n">
-        <v>2322866</v>
+        <v>2296474</v>
       </c>
       <c r="F118" t="n">
-        <v>7376.741920043014</v>
+        <v>7826.719603277979</v>
       </c>
       <c r="G118" t="n">
-        <v>11111.26635619633</v>
+        <v>7056.523501562892</v>
       </c>
       <c r="H118" t="n">
-        <v>0.44</v>
+        <v>0.88</v>
       </c>
       <c r="I118" t="n">
-        <v>21658</v>
+        <v>21744</v>
       </c>
     </row>
     <row r="119">
@@ -4572,22 +4572,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2788024</v>
+        <v>2779861</v>
       </c>
       <c r="E119" t="n">
-        <v>9871217</v>
+        <v>9842315</v>
       </c>
       <c r="F119" t="n">
-        <v>278.6485674414998</v>
+        <v>14.76909802209892</v>
       </c>
       <c r="G119" t="n">
-        <v>1677.811673079567</v>
+        <v>1682.675144099199</v>
       </c>
       <c r="H119" t="n">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="I119" t="n">
-        <v>11053.25</v>
+        <v>8812.610000000001</v>
       </c>
     </row>
     <row r="120">
@@ -4607,22 +4607,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1040437</v>
+        <v>1023697</v>
       </c>
       <c r="E120" t="n">
-        <v>1040437</v>
+        <v>1023697</v>
       </c>
       <c r="F120" t="n">
-        <v>10.11312252406228</v>
+        <v>22.79894609248839</v>
       </c>
       <c r="G120" t="n">
-        <v>36.9776156994232</v>
+        <v>47.98091980869158</v>
       </c>
       <c r="H120" t="n">
-        <v>1.16</v>
+        <v>3.19</v>
       </c>
       <c r="I120" t="n">
-        <v>12113.63</v>
+        <v>12263.75</v>
       </c>
     </row>
     <row r="121">
@@ -4642,22 +4642,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>498998</v>
+        <v>498986</v>
       </c>
       <c r="E121" t="n">
-        <v>1679557</v>
+        <v>1679516</v>
       </c>
       <c r="F121" t="n">
-        <v>480.7376663775327</v>
+        <v>469.6437494364865</v>
       </c>
       <c r="G121" t="n">
-        <v>746.4415122213717</v>
+        <v>617.7248905830116</v>
       </c>
       <c r="H121" t="n">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I121" t="n">
-        <v>630586</v>
+        <v>632276</v>
       </c>
     </row>
     <row r="122">
@@ -4677,10 +4677,10 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>458863</v>
+        <v>448203</v>
       </c>
       <c r="E122" t="n">
-        <v>851279</v>
+        <v>831503</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -4689,10 +4689,10 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>6.74</v>
+        <v>4.49</v>
       </c>
       <c r="I122" t="n">
-        <v>210434</v>
+        <v>213667</v>
       </c>
     </row>
     <row r="123">
@@ -4715,19 +4715,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>11794888</v>
+        <v>11778452</v>
       </c>
       <c r="F123" t="n">
-        <v>104.7800507194533</v>
+        <v>153.8949262182275</v>
       </c>
       <c r="G123" t="n">
-        <v>155.1119971741901</v>
+        <v>155.4175335081712</v>
       </c>
       <c r="H123" t="n">
-        <v>2.74</v>
+        <v>2.98</v>
       </c>
       <c r="I123" t="n">
-        <v>7645.96</v>
+        <v>7450.8</v>
       </c>
     </row>
     <row r="124">
@@ -4750,19 +4750,19 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>1245250</v>
+        <v>1238212</v>
       </c>
       <c r="F124" t="n">
-        <v>84.38326316477863</v>
+        <v>83.97678908094845</v>
       </c>
       <c r="G124" t="n">
-        <v>4.019937387845491</v>
+        <v>4.020025088264118</v>
       </c>
       <c r="H124" t="n">
-        <v>2.9</v>
+        <v>2.43</v>
       </c>
       <c r="I124" t="n">
-        <v>47948</v>
+        <v>47350</v>
       </c>
     </row>
     <row r="125">
@@ -4782,22 +4782,22 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3274381</v>
+        <v>3323866</v>
       </c>
       <c r="E125" t="n">
-        <v>7646225</v>
+        <v>7761780</v>
       </c>
       <c r="F125" t="n">
-        <v>1108.784561286305</v>
+        <v>991.6365644961489</v>
       </c>
       <c r="G125" t="n">
-        <v>1150.661440878409</v>
+        <v>2563.821099591362</v>
       </c>
       <c r="H125" t="n">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="I125" t="n">
-        <v>755391</v>
+        <v>760683</v>
       </c>
     </row>
     <row r="126">
@@ -4817,22 +4817,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>262129</v>
+        <v>262021</v>
       </c>
       <c r="E126" t="n">
-        <v>2313481</v>
+        <v>2312534</v>
       </c>
       <c r="F126" t="n">
-        <v>115.2343973826342</v>
+        <v>115.6612196885533</v>
       </c>
       <c r="G126" t="n">
-        <v>10.68803890100785</v>
+        <v>90.69284460074446</v>
       </c>
       <c r="H126" t="n">
-        <v>3.01</v>
+        <v>2.41</v>
       </c>
       <c r="I126" t="n">
-        <v>80807</v>
+        <v>75584</v>
       </c>
     </row>
     <row r="127">
@@ -4855,19 +4855,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>643427</v>
+        <v>643646</v>
       </c>
       <c r="F127" t="n">
-        <v>589.9244029346304</v>
+        <v>589.9372729403306</v>
       </c>
       <c r="G127" t="n">
-        <v>472.7634191211656</v>
+        <v>472.7737331001579</v>
       </c>
       <c r="H127" t="n">
         <v>1.9</v>
       </c>
       <c r="I127" t="n">
-        <v>5960.51</v>
+        <v>5673.65</v>
       </c>
     </row>
     <row r="128">
@@ -4887,22 +4887,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>4899115</v>
+        <v>4892251</v>
       </c>
       <c r="E128" t="n">
-        <v>17312124</v>
+        <v>17287868</v>
       </c>
       <c r="F128" t="n">
-        <v>1882.571224716346</v>
+        <v>1932.835178311328</v>
       </c>
       <c r="G128" t="n">
-        <v>1709.449235934148</v>
+        <v>1785.211061624999</v>
       </c>
       <c r="H128" t="n">
         <v>0.75</v>
       </c>
       <c r="I128" t="n">
-        <v>105486</v>
+        <v>105920</v>
       </c>
     </row>
     <row r="129">
@@ -4925,19 +4925,19 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2249979</v>
+        <v>2157787</v>
       </c>
       <c r="F129" t="n">
-        <v>92.65333859667136</v>
+        <v>31.61861259607067</v>
       </c>
       <c r="G129" t="n">
-        <v>21.7682068766276</v>
+        <v>73.97486608902534</v>
       </c>
       <c r="H129" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I129" t="n">
-        <v>6687.46</v>
+        <v>7326.18</v>
       </c>
     </row>
     <row r="130">
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>2481431</v>
+        <v>2499687</v>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
@@ -4970,7 +4970,7 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>2451.39</v>
+        <v>2443.44</v>
       </c>
     </row>
     <row r="131">
@@ -4990,22 +4990,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>81633</v>
+        <v>80961</v>
       </c>
       <c r="E131" t="n">
-        <v>81633</v>
+        <v>80961</v>
       </c>
       <c r="F131" t="n">
-        <v>15.60957015428511</v>
+        <v>49.90142479195526</v>
       </c>
       <c r="G131" t="n">
-        <v>73.52537829139177</v>
+        <v>72.06592803245549</v>
       </c>
       <c r="H131" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="I131" t="n">
-        <v>19910.76</v>
+        <v>20162</v>
       </c>
     </row>
     <row r="132">
@@ -5028,19 +5028,19 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>4380931</v>
+        <v>4380520</v>
       </c>
       <c r="F132" t="n">
-        <v>493.1267207631134</v>
+        <v>461.0748715488285</v>
       </c>
       <c r="G132" t="n">
-        <v>114.5829693181208</v>
+        <v>151.566672012335</v>
       </c>
       <c r="H132" t="n">
-        <v>0.44</v>
+        <v>0.29</v>
       </c>
       <c r="I132" t="n">
-        <v>287646</v>
+        <v>310619</v>
       </c>
     </row>
     <row r="133">
@@ -5060,22 +5060,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2143248</v>
+        <v>2102889</v>
       </c>
       <c r="E133" t="n">
-        <v>8752470</v>
+        <v>8587654</v>
       </c>
       <c r="F133" t="n">
-        <v>364.6665565243356</v>
+        <v>387.4116641913981</v>
       </c>
       <c r="G133" t="n">
-        <v>446.813023860416</v>
+        <v>325.7206457994284</v>
       </c>
       <c r="H133" t="n">
-        <v>0.49</v>
+        <v>0.14</v>
       </c>
       <c r="I133" t="n">
-        <v>565986</v>
+        <v>553100</v>
       </c>
     </row>
     <row r="134">
@@ -5095,22 +5095,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>7306582</v>
+        <v>7431630</v>
       </c>
       <c r="E134" t="n">
-        <v>7360894</v>
+        <v>7486871</v>
       </c>
       <c r="F134" t="n">
-        <v>347587.8653136583</v>
+        <v>256277.2425383899</v>
       </c>
       <c r="G134" t="n">
-        <v>364250.7668901035</v>
+        <v>257714.8097466087</v>
       </c>
       <c r="H134" t="n">
-        <v>0.22</v>
+        <v>0.28</v>
       </c>
       <c r="I134" t="n">
-        <v>4566203</v>
+        <v>4835728</v>
       </c>
     </row>
     <row r="135">
@@ -5130,22 +5130,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>13506817</v>
+        <v>13492407</v>
       </c>
       <c r="E135" t="n">
-        <v>13552782</v>
+        <v>13538323</v>
       </c>
       <c r="F135" t="n">
-        <v>12099.88594703563</v>
+        <v>11797.52113353772</v>
       </c>
       <c r="G135" t="n">
-        <v>13104.1316266062</v>
+        <v>12212.53263963093</v>
       </c>
       <c r="H135" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I135" t="n">
-        <v>5745040</v>
+        <v>5756248</v>
       </c>
     </row>
     <row r="136">
@@ -5165,22 +5165,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>42854056</v>
+        <v>42862837</v>
       </c>
       <c r="E136" t="n">
-        <v>72756217</v>
+        <v>72771125</v>
       </c>
       <c r="F136" t="n">
-        <v>1045.731145499863</v>
+        <v>890.5619281539042</v>
       </c>
       <c r="G136" t="n">
-        <v>745.1976558791231</v>
+        <v>885.0569265206054</v>
       </c>
       <c r="H136" t="n">
         <v>0.01</v>
       </c>
       <c r="I136" t="n">
-        <v>1110320</v>
+        <v>1110406</v>
       </c>
     </row>
     <row r="137">
@@ -5200,22 +5200,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>26000024</v>
+        <v>25349462</v>
       </c>
       <c r="E137" t="n">
-        <v>77935336</v>
+        <v>75985269</v>
       </c>
       <c r="F137" t="n">
-        <v>95259.37066775253</v>
+        <v>95029.03237453304</v>
       </c>
       <c r="G137" t="n">
-        <v>78404.91211796332</v>
+        <v>79202.84983958234</v>
       </c>
       <c r="H137" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I137" t="n">
-        <v>2432370</v>
+        <v>2501378</v>
       </c>
     </row>
     <row r="138">
@@ -5235,22 +5235,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>101050209</v>
+        <v>101034338</v>
       </c>
       <c r="E138" t="n">
-        <v>107425505</v>
+        <v>107408632</v>
       </c>
       <c r="F138" t="n">
-        <v>8071.076097560282</v>
+        <v>7184.494792205868</v>
       </c>
       <c r="G138" t="n">
-        <v>12493.47152159929</v>
+        <v>12482.29565350116</v>
       </c>
       <c r="H138" t="n">
-        <v>0.31</v>
+        <v>0.49</v>
       </c>
       <c r="I138" t="n">
-        <v>977633</v>
+        <v>977965</v>
       </c>
     </row>
     <row r="139">
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1161189</v>
+        <v>1161437</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -5282,10 +5282,10 @@
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>5.41</v>
+        <v>5.44</v>
       </c>
       <c r="I139" t="n">
-        <v>136.22</v>
+        <v>136.34</v>
       </c>
     </row>
     <row r="140">
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>258508</v>
+        <v>258604</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -5317,10 +5317,10 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>7.45</v>
+        <v>8.19</v>
       </c>
       <c r="I140" t="n">
-        <v>534.27</v>
+        <v>534.8200000000001</v>
       </c>
     </row>
     <row r="141">
@@ -5336,10 +5336,10 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>97123</v>
+        <v>97019</v>
       </c>
       <c r="E141" t="n">
-        <v>275516</v>
+        <v>275220</v>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
@@ -5349,7 +5349,7 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>40.77</v>
+        <v>40.73</v>
       </c>
     </row>
     <row r="142">
@@ -5369,22 +5369,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>46078350</v>
+        <v>46454550</v>
       </c>
       <c r="E142" t="n">
-        <v>198500493</v>
+        <v>200121120</v>
       </c>
       <c r="F142" t="n">
-        <v>66468.31145792281</v>
+        <v>68991.70425899452</v>
       </c>
       <c r="G142" t="n">
-        <v>68575.08337232549</v>
+        <v>67748.42136630628</v>
       </c>
       <c r="H142" t="n">
         <v>0.11</v>
       </c>
       <c r="I142" t="n">
-        <v>8375841</v>
+        <v>8645406</v>
       </c>
     </row>
     <row r="143">
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>280273</v>
+        <v>280242</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -5419,7 +5419,7 @@
         <v>9.06</v>
       </c>
       <c r="I143" t="n">
-        <v>209737</v>
+        <v>208941</v>
       </c>
     </row>
     <row r="144">
@@ -5442,19 +5442,19 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>9456946</v>
+        <v>9461588</v>
       </c>
       <c r="F144" t="n">
-        <v>1086.135893769869</v>
+        <v>1099.9550416695</v>
       </c>
       <c r="G144" t="n">
-        <v>575.7014845381734</v>
+        <v>349.4597360281418</v>
       </c>
       <c r="H144" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="I144" t="n">
-        <v>121666</v>
+        <v>112541</v>
       </c>
     </row>
     <row r="145">
@@ -5474,22 +5474,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1189615</v>
+        <v>1188234</v>
       </c>
       <c r="E145" t="n">
-        <v>7930764</v>
+        <v>7921561</v>
       </c>
       <c r="F145" t="n">
-        <v>51.74095552393206</v>
+        <v>51.74208432346843</v>
       </c>
       <c r="G145" t="n">
-        <v>96.18174921329759</v>
+        <v>96.18384754938009</v>
       </c>
       <c r="H145" t="n">
         <v>0.53</v>
       </c>
       <c r="I145" t="n">
-        <v>4798.51</v>
+        <v>4794.64</v>
       </c>
     </row>
     <row r="146">
@@ -5512,19 +5512,19 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>7945281</v>
+        <v>7927542</v>
       </c>
       <c r="F146" t="n">
-        <v>174.8933814063984</v>
+        <v>152.6062760578934</v>
       </c>
       <c r="G146" t="n">
-        <v>117.0101080798563</v>
+        <v>201.4041040016866</v>
       </c>
       <c r="H146" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="I146" t="n">
-        <v>657670</v>
+        <v>6351970</v>
       </c>
     </row>
     <row r="147">
@@ -5544,22 +5544,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>663154</v>
+        <v>663562</v>
       </c>
       <c r="E147" t="n">
-        <v>2394388</v>
+        <v>2395862</v>
       </c>
       <c r="F147" t="n">
-        <v>25.16911206852154</v>
+        <v>10.9841248323746</v>
       </c>
       <c r="G147" t="n">
-        <v>250.2030916797738</v>
+        <v>158.6073609033288</v>
       </c>
       <c r="H147" t="n">
-        <v>0.87</v>
+        <v>0.95</v>
       </c>
       <c r="I147" t="n">
-        <v>382917</v>
+        <v>389798</v>
       </c>
     </row>
     <row r="148">
@@ -5582,19 +5582,19 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>1658378</v>
+        <v>1612040</v>
       </c>
       <c r="F148" t="n">
-        <v>43.08667898229562</v>
+        <v>38.40517412581031</v>
       </c>
       <c r="G148" t="n">
-        <v>14.16642367608263</v>
+        <v>1119.214528893836</v>
       </c>
       <c r="H148" t="n">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="I148" t="n">
-        <v>88997</v>
+        <v>85044</v>
       </c>
     </row>
     <row r="149">
@@ -5617,19 +5617,19 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>62999</v>
+        <v>65119</v>
       </c>
       <c r="F149" t="n">
-        <v>8.127458121699338</v>
+        <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>2.857108715283962</v>
+        <v>0</v>
       </c>
       <c r="H149" t="n">
-        <v>3.23</v>
+        <v>6.25</v>
       </c>
       <c r="I149" t="n">
-        <v>892.0599999999999</v>
+        <v>874.42</v>
       </c>
     </row>
     <row r="150">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>12989507</v>
+        <v>12896882</v>
       </c>
       <c r="E150" t="n">
-        <v>12989507</v>
+        <v>12896882</v>
       </c>
       <c r="F150" t="n">
-        <v>857.6726274349448</v>
+        <v>684.4026699326982</v>
       </c>
       <c r="G150" t="n">
-        <v>909.8208862343331</v>
+        <v>648.6804084702381</v>
       </c>
       <c r="H150" t="n">
-        <v>0.31</v>
+        <v>0.7</v>
       </c>
       <c r="I150" t="n">
-        <v>2644804</v>
+        <v>2931998</v>
       </c>
     </row>
     <row r="151">
@@ -5684,22 +5684,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1730040</v>
+        <v>1664247</v>
       </c>
       <c r="E151" t="n">
-        <v>6286763</v>
+        <v>6047627</v>
       </c>
       <c r="F151" t="n">
-        <v>111.4678604563521</v>
+        <v>34.98845346415155</v>
       </c>
       <c r="G151" t="n">
-        <v>62.2827579872189</v>
+        <v>182.7572417039983</v>
       </c>
       <c r="H151" t="n">
-        <v>1.99</v>
+        <v>1.38</v>
       </c>
       <c r="I151" t="n">
-        <v>135505</v>
+        <v>134396</v>
       </c>
     </row>
     <row r="152">
@@ -5719,10 +5719,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1236452</v>
+        <v>1238874</v>
       </c>
       <c r="E152" t="n">
-        <v>1236452</v>
+        <v>1238874</v>
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>748.47</v>
+        <v>638.55</v>
       </c>
     </row>
     <row r="153">
@@ -5752,22 +5752,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>23738959</v>
+        <v>23698751</v>
       </c>
       <c r="E153" t="n">
-        <v>27366724</v>
+        <v>27320371</v>
       </c>
       <c r="F153" t="n">
-        <v>391.2096091585068</v>
+        <v>234.2721079323813</v>
       </c>
       <c r="G153" t="n">
-        <v>470.8522655502156</v>
+        <v>405.2390220183867</v>
       </c>
       <c r="H153" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="I153" t="n">
-        <v>776541</v>
+        <v>754567</v>
       </c>
     </row>
     <row r="154">
@@ -5787,22 +5787,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2450925</v>
+        <v>2450249</v>
       </c>
       <c r="E154" t="n">
-        <v>18443043</v>
+        <v>18437960</v>
       </c>
       <c r="F154" t="n">
-        <v>4933.087834708519</v>
+        <v>5585.822740667342</v>
       </c>
       <c r="G154" t="n">
-        <v>3164.315405658369</v>
+        <v>3396.115709007107</v>
       </c>
       <c r="H154" t="n">
         <v>0.05</v>
       </c>
       <c r="I154" t="n">
-        <v>162579</v>
+        <v>162603</v>
       </c>
     </row>
     <row r="155">
@@ -5822,22 +5822,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>20202183</v>
+        <v>20171901</v>
       </c>
       <c r="E155" t="n">
-        <v>80808730</v>
+        <v>80687603</v>
       </c>
       <c r="F155" t="n">
-        <v>10925.2997407133</v>
+        <v>12989.71942594893</v>
       </c>
       <c r="G155" t="n">
-        <v>11283.10228648058</v>
+        <v>18140.23173206578</v>
       </c>
       <c r="H155" t="n">
-        <v>0.25</v>
+        <v>0.62</v>
       </c>
       <c r="I155" t="n">
-        <v>6009983</v>
+        <v>5954078</v>
       </c>
     </row>
     <row r="156">
@@ -5857,22 +5857,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>290573991</v>
+        <v>292407722</v>
       </c>
       <c r="E156" t="n">
-        <v>290573991</v>
+        <v>292407722</v>
       </c>
       <c r="F156" t="n">
-        <v>300515.7257175135</v>
+        <v>329681.8629567652</v>
       </c>
       <c r="G156" t="n">
-        <v>391703.4784275644</v>
+        <v>396831.6656628468</v>
       </c>
       <c r="H156" t="n">
         <v>0.09</v>
       </c>
       <c r="I156" t="n">
-        <v>12147475</v>
+        <v>12056246</v>
       </c>
     </row>
     <row r="157">
@@ -5892,22 +5892,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>12658062</v>
+        <v>12702297</v>
       </c>
       <c r="E157" t="n">
-        <v>40046559</v>
+        <v>40186305</v>
       </c>
       <c r="F157" t="n">
-        <v>12661.70294580332</v>
+        <v>10612.40493223382</v>
       </c>
       <c r="G157" t="n">
-        <v>12797.91502707215</v>
+        <v>11178.63700700742</v>
       </c>
       <c r="H157" t="n">
-        <v>0.3</v>
+        <v>0.52</v>
       </c>
       <c r="I157" t="n">
-        <v>1485529</v>
+        <v>1493685</v>
       </c>
     </row>
     <row r="158">
@@ -5927,10 +5927,10 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1088855</v>
+        <v>1087810</v>
       </c>
       <c r="E158" t="n">
-        <v>2479974</v>
+        <v>2477594</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -5939,10 +5939,10 @@
         <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>5.98</v>
+        <v>6.37</v>
       </c>
       <c r="I158" t="n">
-        <v>4837.32</v>
+        <v>4841.45</v>
       </c>
     </row>
     <row r="159">
@@ -5962,22 +5962,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>16770877</v>
+        <v>16828047</v>
       </c>
       <c r="E159" t="n">
-        <v>16770877</v>
+        <v>16828047</v>
       </c>
       <c r="F159" t="n">
-        <v>15967.66102055936</v>
+        <v>15119.28730279468</v>
       </c>
       <c r="G159" t="n">
-        <v>15958.51836185816</v>
+        <v>17434.44021133711</v>
       </c>
       <c r="H159" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="I159" t="n">
-        <v>3299919</v>
+        <v>3256212</v>
       </c>
     </row>
     <row r="160">
@@ -5997,10 +5997,10 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>4861160</v>
+        <v>4862199</v>
       </c>
       <c r="E160" t="n">
-        <v>8949915</v>
+        <v>8951828</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -6009,10 +6009,10 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>10.4</v>
+        <v>10.28</v>
       </c>
       <c r="I160" t="n">
-        <v>12.47</v>
+        <v>12.48</v>
       </c>
     </row>
     <row r="161">
@@ -6032,10 +6032,10 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>108204</v>
+        <v>108464</v>
       </c>
       <c r="E161" t="n">
-        <v>129953</v>
+        <v>130386</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -6044,10 +6044,10 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>5.94</v>
+        <v>7.35</v>
       </c>
       <c r="I161" t="n">
-        <v>4448</v>
+        <v>4485.24</v>
       </c>
     </row>
     <row r="162">
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>19487801</v>
+        <v>19501883</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -6079,10 +6079,10 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>10.91</v>
+        <v>9.58</v>
       </c>
       <c r="I162" t="n">
-        <v>1383.71</v>
+        <v>1381.01</v>
       </c>
     </row>
     <row r="163">
@@ -6102,22 +6102,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>435301</v>
+        <v>435630</v>
       </c>
       <c r="E163" t="n">
-        <v>548316</v>
+        <v>548730</v>
       </c>
       <c r="F163" t="n">
-        <v>244.3756626292636</v>
+        <v>208.6050385135103</v>
       </c>
       <c r="G163" t="n">
-        <v>170.1631474085988</v>
+        <v>159.421856804569</v>
       </c>
       <c r="H163" t="n">
-        <v>0.54</v>
+        <v>1.09</v>
       </c>
       <c r="I163" t="n">
-        <v>188715</v>
+        <v>188510</v>
       </c>
     </row>
     <row r="164">
@@ -6140,19 +6140,19 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>108399</v>
+        <v>108422</v>
       </c>
       <c r="F164" t="n">
-        <v>122.9195535864713</v>
+        <v>119.0532299046577</v>
       </c>
       <c r="G164" t="n">
-        <v>1.214278340112147</v>
+        <v>1.214309293123522</v>
       </c>
       <c r="H164" t="n">
-        <v>2.24</v>
+        <v>2.33</v>
       </c>
       <c r="I164" t="n">
-        <v>3788.17</v>
+        <v>3711.46</v>
       </c>
     </row>
     <row r="165">
@@ -6172,22 +6172,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>12015472</v>
+        <v>12085288</v>
       </c>
       <c r="E165" t="n">
-        <v>18312373</v>
+        <v>18418776</v>
       </c>
       <c r="F165" t="n">
-        <v>2346.92411193851</v>
+        <v>1479.709696159497</v>
       </c>
       <c r="G165" t="n">
-        <v>2291.437254803312</v>
+        <v>1238.986863856252</v>
       </c>
       <c r="H165" t="n">
         <v>1.44</v>
       </c>
       <c r="I165" t="n">
-        <v>667548</v>
+        <v>673118</v>
       </c>
     </row>
     <row r="166">
@@ -6207,22 +6207,22 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>295947514</v>
+        <v>298594125</v>
       </c>
       <c r="E166" t="n">
-        <v>295947514</v>
+        <v>298594125</v>
       </c>
       <c r="F166" t="n">
-        <v>303276.8448627125</v>
+        <v>277584.2900162481</v>
       </c>
       <c r="G166" t="n">
-        <v>325617.4683062517</v>
+        <v>317906.2767433746</v>
       </c>
       <c r="H166" t="n">
         <v>0.03</v>
       </c>
       <c r="I166" t="n">
-        <v>49960576</v>
+        <v>50129658</v>
       </c>
     </row>
     <row r="167">
@@ -6242,22 +6242,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>9534482</v>
+        <v>9533496</v>
       </c>
       <c r="E167" t="n">
-        <v>27069985</v>
+        <v>27067184</v>
       </c>
       <c r="F167" t="n">
-        <v>1036.344514810055</v>
+        <v>1070.075315561617</v>
       </c>
       <c r="G167" t="n">
-        <v>1041.342046513098</v>
+        <v>1449.761625766736</v>
       </c>
       <c r="H167" t="n">
         <v>1.48</v>
       </c>
       <c r="I167" t="n">
-        <v>111754</v>
+        <v>110155</v>
       </c>
     </row>
     <row r="168">
@@ -6280,19 +6280,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>11909610</v>
+        <v>11910260</v>
       </c>
       <c r="F168" t="n">
-        <v>39.20385967958536</v>
+        <v>124.3506273518184</v>
       </c>
       <c r="G168" t="n">
-        <v>2840.780488347517</v>
+        <v>1469.309923366018</v>
       </c>
       <c r="H168" t="n">
-        <v>0.34</v>
+        <v>0.84</v>
       </c>
       <c r="I168" t="n">
-        <v>115677</v>
+        <v>116293</v>
       </c>
     </row>
     <row r="169">
@@ -6312,22 +6312,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>4102490</v>
+        <v>4159408</v>
       </c>
       <c r="E169" t="n">
-        <v>28032026</v>
+        <v>28420941</v>
       </c>
       <c r="F169" t="n">
-        <v>1305.060670469187</v>
+        <v>759.6225203136489</v>
       </c>
       <c r="G169" t="n">
-        <v>1161.953031918102</v>
+        <v>1654.505378796467</v>
       </c>
       <c r="H169" t="n">
-        <v>0.71</v>
+        <v>0.34</v>
       </c>
       <c r="I169" t="n">
-        <v>2519086</v>
+        <v>2539702</v>
       </c>
     </row>
     <row r="170">
@@ -6347,22 +6347,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>3109960</v>
+        <v>2947099</v>
       </c>
       <c r="E170" t="n">
-        <v>4616413</v>
+        <v>4374488</v>
       </c>
       <c r="F170" t="n">
-        <v>3934.116369768321</v>
+        <v>253.1437602524367</v>
       </c>
       <c r="G170" t="n">
-        <v>4103.279400621154</v>
+        <v>2280.249351858821</v>
       </c>
       <c r="H170" t="n">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="I170" t="n">
-        <v>222661</v>
+        <v>230883</v>
       </c>
     </row>
     <row r="171">
@@ -6382,22 +6382,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>88670869</v>
+        <v>88888807</v>
       </c>
       <c r="E171" t="n">
-        <v>510959795</v>
+        <v>512215643</v>
       </c>
       <c r="F171" t="n">
-        <v>384661.4375700463</v>
+        <v>381073.9879566866</v>
       </c>
       <c r="G171" t="n">
-        <v>238123.1830512832</v>
+        <v>225813.2880506096</v>
       </c>
       <c r="H171" t="n">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="I171" t="n">
-        <v>15941648</v>
+        <v>16082620</v>
       </c>
     </row>
     <row r="172">
@@ -6417,22 +6417,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>14014898</v>
+        <v>14014721</v>
       </c>
       <c r="E172" t="n">
-        <v>14014898</v>
+        <v>14014721</v>
       </c>
       <c r="F172" t="n">
-        <v>5313.593947654821</v>
+        <v>4176.181444993243</v>
       </c>
       <c r="G172" t="n">
-        <v>4076.736960555058</v>
+        <v>5822.700832761755</v>
       </c>
       <c r="H172" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="I172" t="n">
-        <v>606933</v>
+        <v>596032</v>
       </c>
     </row>
     <row r="173">
@@ -6452,22 +6452,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>6348068</v>
+        <v>6165318</v>
       </c>
       <c r="E173" t="n">
-        <v>18033038</v>
+        <v>17513900</v>
       </c>
       <c r="F173" t="n">
-        <v>747.7067483409495</v>
+        <v>454.312356772123</v>
       </c>
       <c r="G173" t="n">
-        <v>620.5805899698927</v>
+        <v>313.6593012572999</v>
       </c>
       <c r="H173" t="n">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="I173" t="n">
-        <v>236091</v>
+        <v>231497</v>
       </c>
     </row>
     <row r="174">
@@ -6487,22 +6487,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>17737906</v>
+        <v>17732731</v>
       </c>
       <c r="E174" t="n">
-        <v>17737906</v>
+        <v>17732731</v>
       </c>
       <c r="F174" t="n">
-        <v>171.5287930317829</v>
+        <v>946.9853774408629</v>
       </c>
       <c r="G174" t="n">
-        <v>212.7025750858344</v>
+        <v>212.7079970595357</v>
       </c>
       <c r="H174" t="n">
-        <v>0.62</v>
+        <v>0.85</v>
       </c>
       <c r="I174" t="n">
-        <v>42576</v>
+        <v>39127</v>
       </c>
     </row>
     <row r="175">
@@ -6525,19 +6525,19 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>1310270</v>
+        <v>1333464</v>
       </c>
       <c r="F175" t="n">
-        <v>115.864525717141</v>
+        <v>113.7253421544127</v>
       </c>
       <c r="G175" t="n">
-        <v>734.8570365404341</v>
+        <v>1453.18758788941</v>
       </c>
       <c r="H175" t="n">
-        <v>2.26</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I175" t="n">
-        <v>16959.01</v>
+        <v>17869.82</v>
       </c>
     </row>
     <row r="176">
@@ -6557,10 +6557,10 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>135028</v>
+        <v>144603</v>
       </c>
       <c r="E176" t="n">
-        <v>293953</v>
+        <v>314799</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -6569,10 +6569,10 @@
         <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>7.23</v>
+        <v>9.23</v>
       </c>
       <c r="I176" t="n">
-        <v>660.29</v>
+        <v>53420</v>
       </c>
     </row>
     <row r="177">
@@ -6595,19 +6595,19 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>2332355</v>
+        <v>2308538</v>
       </c>
       <c r="F177" t="n">
-        <v>717.4809215807352</v>
+        <v>407.9227333969924</v>
       </c>
       <c r="G177" t="n">
-        <v>1292.313296269654</v>
+        <v>761.6750875380686</v>
       </c>
       <c r="H177" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="I177" t="n">
-        <v>156782</v>
+        <v>155259</v>
       </c>
     </row>
     <row r="178">
@@ -6627,22 +6627,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>244171345</v>
+        <v>246156546</v>
       </c>
       <c r="E178" t="n">
-        <v>244173770</v>
+        <v>246158991</v>
       </c>
       <c r="F178" t="n">
-        <v>47067.73000088838</v>
+        <v>46952.08626983265</v>
       </c>
       <c r="G178" t="n">
-        <v>55619.41131269412</v>
+        <v>56821.62178938021</v>
       </c>
       <c r="H178" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="I178" t="n">
-        <v>2677997</v>
+        <v>2678688</v>
       </c>
     </row>
     <row r="179">
@@ -6662,22 +6662,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>9275208</v>
+        <v>9286076</v>
       </c>
       <c r="E179" t="n">
-        <v>9275208</v>
+        <v>9286076</v>
       </c>
       <c r="F179" t="n">
-        <v>2234.866864068956</v>
+        <v>1692.359548955538</v>
       </c>
       <c r="G179" t="n">
-        <v>203.0572927494219</v>
+        <v>343.9887747180192</v>
       </c>
       <c r="H179" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="I179" t="n">
-        <v>2062334</v>
+        <v>2069183</v>
       </c>
     </row>
     <row r="180">
@@ -6697,22 +6697,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>183405</v>
+        <v>185764</v>
       </c>
       <c r="E180" t="n">
-        <v>1416253</v>
+        <v>1434468</v>
       </c>
       <c r="F180" t="n">
-        <v>19.19074261881647</v>
+        <v>25.59515544265678</v>
       </c>
       <c r="G180" t="n">
-        <v>193.1053886758094</v>
+        <v>66.02328571547217</v>
       </c>
       <c r="H180" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="I180" t="n">
-        <v>127064</v>
+        <v>120434</v>
       </c>
     </row>
     <row r="181">
@@ -6732,22 +6732,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>30035680</v>
+        <v>30297940</v>
       </c>
       <c r="E181" t="n">
-        <v>134482061</v>
+        <v>135656306</v>
       </c>
       <c r="F181" t="n">
-        <v>60123.41700232106</v>
+        <v>61803.3101659828</v>
       </c>
       <c r="G181" t="n">
-        <v>94696.97492571012</v>
+        <v>94709.82695778389</v>
       </c>
       <c r="H181" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="I181" t="n">
-        <v>8867901</v>
+        <v>8799379</v>
       </c>
     </row>
     <row r="182">
@@ -6770,19 +6770,19 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>1444341</v>
+        <v>1448968</v>
       </c>
       <c r="F182" t="n">
-        <v>908.0688247800836</v>
+        <v>681.3584795710531</v>
       </c>
       <c r="G182" t="n">
-        <v>4992.834437901386</v>
+        <v>4856.527522102377</v>
       </c>
       <c r="H182" t="n">
-        <v>0.88</v>
+        <v>2</v>
       </c>
       <c r="I182" t="n">
-        <v>68010</v>
+        <v>68240</v>
       </c>
     </row>
     <row r="183">
@@ -6802,22 +6802,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>3033634</v>
+        <v>3061165</v>
       </c>
       <c r="E183" t="n">
-        <v>3033634</v>
+        <v>3061165</v>
       </c>
       <c r="F183" t="n">
-        <v>1309.644930786848</v>
+        <v>370.6729536142633</v>
       </c>
       <c r="G183" t="n">
-        <v>454.3379709133642</v>
+        <v>1120.217481558563</v>
       </c>
       <c r="H183" t="n">
-        <v>0.92</v>
+        <v>1.71</v>
       </c>
       <c r="I183" t="n">
-        <v>391502</v>
+        <v>401639</v>
       </c>
     </row>
     <row r="184">
@@ -6837,22 +6837,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>560626</v>
+        <v>574329</v>
       </c>
       <c r="E184" t="n">
-        <v>560626</v>
+        <v>574329</v>
       </c>
       <c r="F184" t="n">
-        <v>18.4738418183503</v>
+        <v>4.837364527253828</v>
       </c>
       <c r="G184" t="n">
-        <v>25.30849894964986</v>
+        <v>25.3091440853078</v>
       </c>
       <c r="H184" t="n">
         <v>1.75</v>
       </c>
       <c r="I184" t="n">
-        <v>1384240</v>
+        <v>1406952</v>
       </c>
     </row>
     <row r="185">
@@ -6872,22 +6872,22 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>14024565</v>
+        <v>13943304</v>
       </c>
       <c r="E185" t="n">
-        <v>17855511</v>
+        <v>17752052</v>
       </c>
       <c r="F185" t="n">
-        <v>60.01229202708424</v>
+        <v>188.151912481656</v>
       </c>
       <c r="G185" t="n">
-        <v>4134.769850658357</v>
+        <v>2928.070631271464</v>
       </c>
       <c r="H185" t="n">
-        <v>0.24</v>
+        <v>1.42</v>
       </c>
       <c r="I185" t="n">
-        <v>782860</v>
+        <v>787791</v>
       </c>
     </row>
     <row r="186">
@@ -6907,22 +6907,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1972008</v>
+        <v>1876872</v>
       </c>
       <c r="E186" t="n">
-        <v>1972008</v>
+        <v>1876872</v>
       </c>
       <c r="F186" t="n">
-        <v>99.30026090423878</v>
+        <v>2.28445894747396</v>
       </c>
       <c r="G186" t="n">
-        <v>7.383302491787068</v>
+        <v>184.8126208010554</v>
       </c>
       <c r="H186" t="n">
-        <v>3.71</v>
+        <v>3.7</v>
       </c>
       <c r="I186" t="n">
-        <v>2865.02</v>
+        <v>2178.43</v>
       </c>
     </row>
     <row r="187">
@@ -6942,22 +6942,22 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>46745228</v>
+        <v>47123479</v>
       </c>
       <c r="E187" t="n">
-        <v>303130360</v>
+        <v>305583220</v>
       </c>
       <c r="F187" t="n">
-        <v>146199.7289315932</v>
+        <v>138065.1793538942</v>
       </c>
       <c r="G187" t="n">
-        <v>203052.0715583703</v>
+        <v>173274.2922892767</v>
       </c>
       <c r="H187" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="I187" t="n">
-        <v>17323736</v>
+        <v>17323498</v>
       </c>
     </row>
     <row r="188">
@@ -6980,19 +6980,19 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>9323046</v>
+        <v>9368204</v>
       </c>
       <c r="F188" t="n">
-        <v>439.7179781692026</v>
+        <v>940.0913900680799</v>
       </c>
       <c r="G188" t="n">
-        <v>573.4933242187187</v>
+        <v>113.4362293295701</v>
       </c>
       <c r="H188" t="n">
-        <v>2.12</v>
+        <v>0.43</v>
       </c>
       <c r="I188" t="n">
-        <v>266765</v>
+        <v>299892</v>
       </c>
     </row>
     <row r="189">
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>7021247</v>
+        <v>7017146</v>
       </c>
       <c r="E189" t="n">
-        <v>7031220</v>
+        <v>7027114</v>
       </c>
       <c r="F189" t="n">
-        <v>220.3774113176001</v>
+        <v>62.99961698284151</v>
       </c>
       <c r="G189" t="n">
-        <v>101.6747463953059</v>
+        <v>125.8064241035816</v>
       </c>
       <c r="H189" t="n">
-        <v>0.35</v>
+        <v>0.18</v>
       </c>
       <c r="I189" t="n">
-        <v>984704</v>
+        <v>968067</v>
       </c>
     </row>
     <row r="190">
@@ -7050,19 +7050,19 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>4800111</v>
+        <v>4832314</v>
       </c>
       <c r="F190" t="n">
-        <v>1962.583265226046</v>
+        <v>2372.277328421358</v>
       </c>
       <c r="G190" t="n">
-        <v>204.3695842094266</v>
+        <v>190.4461184434253</v>
       </c>
       <c r="H190" t="n">
-        <v>1.98</v>
+        <v>1.4</v>
       </c>
       <c r="I190" t="n">
-        <v>159060</v>
+        <v>160181</v>
       </c>
     </row>
     <row r="191">
@@ -7082,22 +7082,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>72915019</v>
+        <v>73203884</v>
       </c>
       <c r="E191" t="n">
-        <v>73699902</v>
+        <v>73991876</v>
       </c>
       <c r="F191" t="n">
-        <v>60339.73169428773</v>
+        <v>55623.38617182451</v>
       </c>
       <c r="G191" t="n">
-        <v>58608.68798510168</v>
+        <v>64592.64086864002</v>
       </c>
       <c r="H191" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="I191" t="n">
-        <v>8626597</v>
+        <v>8601418</v>
       </c>
     </row>
     <row r="192">
@@ -7117,22 +7117,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>231601221</v>
+        <v>234947359</v>
       </c>
       <c r="E192" t="n">
-        <v>231601221</v>
+        <v>234947359</v>
       </c>
       <c r="F192" t="n">
-        <v>97005.29271324071</v>
+        <v>94279.66852734402</v>
       </c>
       <c r="G192" t="n">
-        <v>120643.1499131947</v>
+        <v>126628.1562629987</v>
       </c>
       <c r="H192" t="n">
-        <v>0.17</v>
+        <v>0.04</v>
       </c>
       <c r="I192" t="n">
-        <v>43116363</v>
+        <v>43661473</v>
       </c>
     </row>
     <row r="193">
@@ -7152,22 +7152,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>23103689</v>
+        <v>23164759</v>
       </c>
       <c r="E193" t="n">
-        <v>138234017</v>
+        <v>138599407</v>
       </c>
       <c r="F193" t="n">
-        <v>88803.89452812682</v>
+        <v>102717.4281126345</v>
       </c>
       <c r="G193" t="n">
-        <v>129183.9578916926</v>
+        <v>106588.9309926962</v>
       </c>
       <c r="H193" t="n">
-        <v>0.22</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I193" t="n">
-        <v>12622070</v>
+        <v>12658466</v>
       </c>
     </row>
     <row r="194">
@@ -7187,22 +7187,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>14497724</v>
+        <v>14283597</v>
       </c>
       <c r="E194" t="n">
-        <v>44488428</v>
+        <v>43831346</v>
       </c>
       <c r="F194" t="n">
-        <v>851.5339256642507</v>
+        <v>444.774744755147</v>
       </c>
       <c r="G194" t="n">
-        <v>813.0285125416915</v>
+        <v>1467.434158456249</v>
       </c>
       <c r="H194" t="n">
-        <v>0.3</v>
+        <v>0.41</v>
       </c>
       <c r="I194" t="n">
-        <v>2556974</v>
+        <v>2562182</v>
       </c>
     </row>
     <row r="195">
@@ -7222,22 +7222,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>52245113</v>
+        <v>52032977</v>
       </c>
       <c r="E195" t="n">
-        <v>90238667</v>
+        <v>89872264</v>
       </c>
       <c r="F195" t="n">
-        <v>14114.84345125365</v>
+        <v>14137.22041805123</v>
       </c>
       <c r="G195" t="n">
-        <v>8174.694646291779</v>
+        <v>14727.60407786892</v>
       </c>
       <c r="H195" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="I195" t="n">
-        <v>1944241</v>
+        <v>1969934</v>
       </c>
     </row>
     <row r="196">
@@ -7257,22 +7257,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>4187517</v>
+        <v>4178131</v>
       </c>
       <c r="E196" t="n">
-        <v>4187517</v>
+        <v>4178131</v>
       </c>
       <c r="F196" t="n">
-        <v>34.08848848117662</v>
+        <v>2.408426992728971</v>
       </c>
       <c r="G196" t="n">
-        <v>1.048096941302402</v>
+        <v>471.5546683968871</v>
       </c>
       <c r="H196" t="n">
-        <v>1.72</v>
+        <v>2.06</v>
       </c>
       <c r="I196" t="n">
-        <v>1532589</v>
+        <v>1530580</v>
       </c>
     </row>
     <row r="197">
@@ -7295,19 +7295,19 @@
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>211838</v>
+        <v>211461</v>
       </c>
       <c r="F197" t="n">
-        <v>12.92813017438757</v>
+        <v>12.94257376267351</v>
       </c>
       <c r="G197" t="n">
-        <v>341.1270696332366</v>
+        <v>314.2981145129666</v>
       </c>
       <c r="H197" t="n">
-        <v>2.18</v>
+        <v>2.62</v>
       </c>
       <c r="I197" t="n">
-        <v>60880</v>
+        <v>59167</v>
       </c>
     </row>
     <row r="198">
@@ -7327,22 +7327,22 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>6840199</v>
+        <v>6800540</v>
       </c>
       <c r="E198" t="n">
-        <v>35190746</v>
+        <v>34986713</v>
       </c>
       <c r="F198" t="n">
-        <v>368.716591792228</v>
+        <v>324.1809014438244</v>
       </c>
       <c r="G198" t="n">
-        <v>132.985772159671</v>
+        <v>100.0023294005953</v>
       </c>
       <c r="H198" t="n">
-        <v>0.85</v>
+        <v>1.02</v>
       </c>
       <c r="I198" t="n">
-        <v>898504</v>
+        <v>906968</v>
       </c>
     </row>
     <row r="199">
@@ -7362,22 +7362,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>176347252</v>
+        <v>175399677</v>
       </c>
       <c r="E199" t="n">
-        <v>206025660</v>
+        <v>204918612</v>
       </c>
       <c r="F199" t="n">
-        <v>24284.63057724155</v>
+        <v>18542.16217749459</v>
       </c>
       <c r="G199" t="n">
-        <v>10640.61402176633</v>
+        <v>34673.49543862438</v>
       </c>
       <c r="H199" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="I199" t="n">
-        <v>3829740</v>
+        <v>3974003</v>
       </c>
     </row>
     <row r="200">
@@ -7400,19 +7400,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>300617</v>
+        <v>300042</v>
       </c>
       <c r="F200" t="n">
-        <v>241.8166877686847</v>
+        <v>110.6785226588141</v>
       </c>
       <c r="G200" t="n">
-        <v>81.18249246177902</v>
+        <v>184.1109930804191</v>
       </c>
       <c r="H200" t="n">
-        <v>1.32</v>
+        <v>0.33</v>
       </c>
       <c r="I200" t="n">
-        <v>261664</v>
+        <v>268350</v>
       </c>
     </row>
     <row r="201">
@@ -7435,19 +7435,19 @@
         <v>0</v>
       </c>
       <c r="E201" t="n">
-        <v>8051901</v>
+        <v>8051309</v>
       </c>
       <c r="F201" t="n">
-        <v>889.9671640431101</v>
+        <v>879.8546195089815</v>
       </c>
       <c r="G201" t="n">
-        <v>559.5698155116559</v>
+        <v>648.2668160193757</v>
       </c>
       <c r="H201" t="n">
         <v>0.2</v>
       </c>
       <c r="I201" t="n">
-        <v>707560</v>
+        <v>686214</v>
       </c>
     </row>
     <row r="202">
@@ -7470,19 +7470,19 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>35976</v>
+        <v>36007</v>
       </c>
       <c r="F202" t="n">
-        <v>192.8722935795674</v>
+        <v>0</v>
       </c>
       <c r="G202" t="n">
-        <v>6.094653345050034</v>
+        <v>0</v>
       </c>
       <c r="H202" t="n">
-        <v>2.78</v>
+        <v>5.56</v>
       </c>
       <c r="I202" t="n">
-        <v>718.83</v>
+        <v>747.38</v>
       </c>
     </row>
     <row r="203">
@@ -7502,22 +7502,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>33971483</v>
+        <v>34005450</v>
       </c>
       <c r="E203" t="n">
-        <v>169533359</v>
+        <v>169702873</v>
       </c>
       <c r="F203" t="n">
-        <v>95026.1245782668</v>
+        <v>100033.9435151477</v>
       </c>
       <c r="G203" t="n">
-        <v>110670.5009856382</v>
+        <v>104643.9412559802</v>
       </c>
       <c r="H203" t="n">
         <v>0.18</v>
       </c>
       <c r="I203" t="n">
-        <v>9899050</v>
+        <v>9997434</v>
       </c>
     </row>
     <row r="204">
@@ -7537,10 +7537,10 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1863817</v>
+        <v>1865143</v>
       </c>
       <c r="E204" t="n">
-        <v>1863817</v>
+        <v>1865143</v>
       </c>
       <c r="F204" t="n">
         <v>0</v>
@@ -7549,10 +7549,10 @@
         <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>16.77</v>
+        <v>15.61</v>
       </c>
       <c r="I204" t="n">
-        <v>8535.690000000001</v>
+        <v>8622.75</v>
       </c>
     </row>
     <row r="205">
@@ -7575,19 +7575,19 @@
         <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>168507</v>
+        <v>174914</v>
       </c>
       <c r="F205" t="n">
-        <v>25.51739589550115</v>
+        <v>37.81248547912361</v>
       </c>
       <c r="G205" t="n">
-        <v>47.3655575591335</v>
+        <v>85.71647307899157</v>
       </c>
       <c r="H205" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="I205" t="n">
-        <v>10651.05</v>
+        <v>10938.38</v>
       </c>
     </row>
     <row r="206">
@@ -7607,22 +7607,22 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>2677.31</v>
+        <v>2859.47</v>
       </c>
       <c r="E206" t="n">
-        <v>32000</v>
+        <v>34177</v>
       </c>
       <c r="F206" t="n">
-        <v>0</v>
+        <v>9.541657957258499</v>
       </c>
       <c r="G206" t="n">
-        <v>0</v>
+        <v>147.389026964951</v>
       </c>
       <c r="H206" t="n">
-        <v>12.54</v>
+        <v>2.87</v>
       </c>
       <c r="I206" t="n">
-        <v>7368.18</v>
+        <v>7340.73</v>
       </c>
     </row>
     <row r="207">
@@ -7669,22 +7669,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>309929773</v>
+        <v>311019955</v>
       </c>
       <c r="E208" t="n">
-        <v>573440759</v>
+        <v>575457844</v>
       </c>
       <c r="F208" t="n">
-        <v>178985.9914841231</v>
+        <v>153836.9625066416</v>
       </c>
       <c r="G208" t="n">
-        <v>191387.3703205643</v>
+        <v>202926.310004963</v>
       </c>
       <c r="H208" t="n">
         <v>0.02</v>
       </c>
       <c r="I208" t="n">
-        <v>12217140</v>
+        <v>12267448</v>
       </c>
     </row>
     <row r="209">
@@ -7704,22 +7704,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>70709569</v>
+        <v>70966739</v>
       </c>
       <c r="E209" t="n">
-        <v>674653472</v>
+        <v>677103267</v>
       </c>
       <c r="F209" t="n">
-        <v>238421.3648199943</v>
+        <v>321537.0123096723</v>
       </c>
       <c r="G209" t="n">
-        <v>183661.3977029198</v>
+        <v>349255.0624573825</v>
       </c>
       <c r="H209" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="I209" t="n">
-        <v>21062808</v>
+        <v>21051483</v>
       </c>
     </row>
     <row r="210">
@@ -7742,19 +7742,19 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>2142241</v>
+        <v>2186750</v>
       </c>
       <c r="F210" t="n">
-        <v>10.16871843879218</v>
+        <v>1.037112215941532</v>
       </c>
       <c r="G210" t="n">
-        <v>633.8403241721641</v>
+        <v>457.9040143908618</v>
       </c>
       <c r="H210" t="n">
-        <v>2.71</v>
+        <v>2.89</v>
       </c>
       <c r="I210" t="n">
-        <v>64120</v>
+        <v>64181</v>
       </c>
     </row>
     <row r="211">
@@ -7774,10 +7774,10 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>81276</v>
+        <v>81279</v>
       </c>
       <c r="E211" t="n">
-        <v>675668</v>
+        <v>675691</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -7789,7 +7789,7 @@
         <v>4.35</v>
       </c>
       <c r="I211" t="n">
-        <v>409.02</v>
+        <v>409.24</v>
       </c>
     </row>
     <row r="212">
@@ -7809,22 +7809,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1889980</v>
+        <v>1895953</v>
       </c>
       <c r="E212" t="n">
-        <v>5397539</v>
+        <v>5414599</v>
       </c>
       <c r="F212" t="n">
-        <v>59.91277546041952</v>
+        <v>866.8195002040483</v>
       </c>
       <c r="G212" t="n">
-        <v>399.8731823461383</v>
+        <v>255.4186163927479</v>
       </c>
       <c r="H212" t="n">
-        <v>1.16</v>
+        <v>0.78</v>
       </c>
       <c r="I212" t="n">
-        <v>71578</v>
+        <v>71302</v>
       </c>
     </row>
     <row r="213">
@@ -7844,22 +7844,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>9759698</v>
+        <v>9607176</v>
       </c>
       <c r="E213" t="n">
-        <v>28964932</v>
+        <v>28512274</v>
       </c>
       <c r="F213" t="n">
-        <v>834.2264658058774</v>
+        <v>2296.084103031262</v>
       </c>
       <c r="G213" t="n">
-        <v>2803.541013764053</v>
+        <v>3137.880043446976</v>
       </c>
       <c r="H213" t="n">
-        <v>0.52</v>
+        <v>0.26</v>
       </c>
       <c r="I213" t="n">
-        <v>5474518</v>
+        <v>5525489</v>
       </c>
     </row>
     <row r="214">
@@ -7882,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>14232582</v>
+        <v>14236573</v>
       </c>
       <c r="F214" t="n">
         <v>0</v>
@@ -7891,10 +7891,10 @@
         <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>12.04</v>
+        <v>8.59</v>
       </c>
       <c r="I214" t="n">
-        <v>1332.29</v>
+        <v>1334.05</v>
       </c>
     </row>
     <row r="215">
@@ -7914,22 +7914,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>2016992</v>
+        <v>2000514</v>
       </c>
       <c r="E215" t="n">
-        <v>5851942</v>
+        <v>5804135</v>
       </c>
       <c r="F215" t="n">
-        <v>29.97495114757048</v>
+        <v>29.07643392859846</v>
       </c>
       <c r="G215" t="n">
-        <v>28.99769886628192</v>
+        <v>1137.66187963013</v>
       </c>
       <c r="H215" t="n">
-        <v>1.96</v>
+        <v>1.11</v>
       </c>
       <c r="I215" t="n">
-        <v>55282</v>
+        <v>61591</v>
       </c>
     </row>
     <row r="216">
@@ -7949,22 +7949,22 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>2253519</v>
+        <v>2153324</v>
       </c>
       <c r="E216" t="n">
-        <v>19877535</v>
+        <v>18993745</v>
       </c>
       <c r="F216" t="n">
-        <v>1116.629788607107</v>
+        <v>1600.606429983911</v>
       </c>
       <c r="G216" t="n">
-        <v>3031.360349852173</v>
+        <v>3018.808120347029</v>
       </c>
       <c r="H216" t="n">
-        <v>0.78</v>
+        <v>0.68</v>
       </c>
       <c r="I216" t="n">
-        <v>79061</v>
+        <v>29920</v>
       </c>
     </row>
     <row r="217">
@@ -7984,22 +7984,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>44280838</v>
+        <v>44422304</v>
       </c>
       <c r="E217" t="n">
-        <v>44280838</v>
+        <v>44422304</v>
       </c>
       <c r="F217" t="n">
-        <v>34580.39307413453</v>
+        <v>40013.23768265581</v>
       </c>
       <c r="G217" t="n">
-        <v>45144.02318251693</v>
+        <v>39280.74827384275</v>
       </c>
       <c r="H217" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I217" t="n">
-        <v>8223735</v>
+        <v>8135344</v>
       </c>
     </row>
     <row r="218">
@@ -8019,22 +8019,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>8281955</v>
+        <v>9181812</v>
       </c>
       <c r="E218" t="n">
-        <v>11799888</v>
+        <v>13081978</v>
       </c>
       <c r="F218" t="n">
-        <v>75.02735994215193</v>
+        <v>56.76751913213957</v>
       </c>
       <c r="G218" t="n">
-        <v>2870.386918839922</v>
+        <v>43.09632177513866</v>
       </c>
       <c r="H218" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="I218" t="n">
-        <v>334950</v>
+        <v>436007</v>
       </c>
     </row>
     <row r="219">
@@ -8057,19 +8057,19 @@
         <v>0</v>
       </c>
       <c r="E219" t="n">
-        <v>15980961</v>
+        <v>16061094</v>
       </c>
       <c r="F219" t="n">
-        <v>3.521831378269634</v>
+        <v>2.114552624306008</v>
       </c>
       <c r="G219" t="n">
-        <v>1185.394435616149</v>
+        <v>1156.320023728805</v>
       </c>
       <c r="H219" t="n">
-        <v>1.72</v>
+        <v>0.86</v>
       </c>
       <c r="I219" t="n">
-        <v>973965</v>
+        <v>974341</v>
       </c>
     </row>
     <row r="220">
@@ -8092,19 +8092,19 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>724210</v>
+        <v>722621</v>
       </c>
       <c r="F220" t="n">
-        <v>51.51990694713828</v>
+        <v>89.48816060347158</v>
       </c>
       <c r="G220" t="n">
-        <v>411.69968968831</v>
+        <v>424.0807085061275</v>
       </c>
       <c r="H220" t="n">
-        <v>1.11</v>
+        <v>0.49</v>
       </c>
       <c r="I220" t="n">
-        <v>228331</v>
+        <v>226283</v>
       </c>
     </row>
     <row r="221">
@@ -8124,22 +8124,22 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>2847475</v>
+        <v>2859637</v>
       </c>
       <c r="E221" t="n">
-        <v>2849941</v>
+        <v>2862114</v>
       </c>
       <c r="F221" t="n">
-        <v>26.4180621608009</v>
+        <v>10.96979723948375</v>
       </c>
       <c r="G221" t="n">
-        <v>72.97990446988204</v>
+        <v>110.9498324459295</v>
       </c>
       <c r="H221" t="n">
-        <v>3.68</v>
+        <v>2.8</v>
       </c>
       <c r="I221" t="n">
-        <v>79327</v>
+        <v>67017</v>
       </c>
     </row>
     <row r="222">
@@ -8159,22 +8159,22 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1236231</v>
+        <v>1237691</v>
       </c>
       <c r="E222" t="n">
-        <v>3739462</v>
+        <v>3743756</v>
       </c>
       <c r="F222" t="n">
-        <v>2121.023362533735</v>
+        <v>2119.991457772238</v>
       </c>
       <c r="G222" t="n">
-        <v>449.3542420870637</v>
+        <v>448.1291831834689</v>
       </c>
       <c r="H222" t="n">
         <v>1.57</v>
       </c>
       <c r="I222" t="n">
-        <v>12324.95</v>
+        <v>12262.74</v>
       </c>
     </row>
     <row r="223">
@@ -8194,22 +8194,22 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>37194641</v>
+        <v>37410002</v>
       </c>
       <c r="E223" t="n">
-        <v>263703938</v>
+        <v>265230812</v>
       </c>
       <c r="F223" t="n">
-        <v>67454.67242401036</v>
+        <v>76541.84136673987</v>
       </c>
       <c r="G223" t="n">
-        <v>56670.94254034734</v>
+        <v>65487.37029870924</v>
       </c>
       <c r="H223" t="n">
-        <v>0.3</v>
+        <v>0.19</v>
       </c>
       <c r="I223" t="n">
-        <v>1848821</v>
+        <v>1868025</v>
       </c>
     </row>
     <row r="224">
@@ -8229,22 +8229,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>61602</v>
+        <v>60215</v>
       </c>
       <c r="E224" t="n">
-        <v>321412</v>
+        <v>314179</v>
       </c>
       <c r="F224" t="n">
-        <v>206.8899765376587</v>
+        <v>179.2606064293196</v>
       </c>
       <c r="G224" t="n">
-        <v>6.780904436533437</v>
+        <v>166.2886874771698</v>
       </c>
       <c r="H224" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="I224" t="n">
-        <v>312397</v>
+        <v>312133</v>
       </c>
     </row>
     <row r="225">
@@ -8264,22 +8264,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1255374</v>
+        <v>1257390</v>
       </c>
       <c r="E225" t="n">
-        <v>7785267</v>
+        <v>7797767</v>
       </c>
       <c r="F225" t="n">
-        <v>1579.304100866836</v>
+        <v>1936.360761598291</v>
       </c>
       <c r="G225" t="n">
-        <v>2561.346969696923</v>
+        <v>2594.987243940795</v>
       </c>
       <c r="H225" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="I225" t="n">
-        <v>785180</v>
+        <v>767843</v>
       </c>
     </row>
     <row r="226">
@@ -8299,22 +8299,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>592809577</v>
+        <v>590282679</v>
       </c>
       <c r="E226" t="n">
-        <v>2295864029</v>
+        <v>2286077726</v>
       </c>
       <c r="F226" t="n">
-        <v>228186.8677228416</v>
+        <v>219339.479119612</v>
       </c>
       <c r="G226" t="n">
-        <v>242072.15425936</v>
+        <v>284952.7888552673</v>
       </c>
       <c r="H226" t="n">
         <v>0.04</v>
       </c>
       <c r="I226" t="n">
-        <v>29379700</v>
+        <v>30324100</v>
       </c>
     </row>
     <row r="227">
@@ -8337,19 +8337,19 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>20620699</v>
+        <v>20745581</v>
       </c>
       <c r="F227" t="n">
-        <v>1048.689540057851</v>
+        <v>1026.816387467207</v>
       </c>
       <c r="G227" t="n">
-        <v>671.9458000921188</v>
+        <v>759.9979923193541</v>
       </c>
       <c r="H227" t="n">
         <v>0.1</v>
       </c>
       <c r="I227" t="n">
-        <v>16536880</v>
+        <v>17054284</v>
       </c>
     </row>
     <row r="228">
@@ -8372,19 +8372,19 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>912171</v>
+        <v>931604</v>
       </c>
       <c r="F228" t="n">
-        <v>28.78234851288343</v>
+        <v>18.03493998745843</v>
       </c>
       <c r="G228" t="n">
-        <v>100.0086370713633</v>
+        <v>100.0108192091888</v>
       </c>
       <c r="H228" t="n">
         <v>2.34</v>
       </c>
       <c r="I228" t="n">
-        <v>371435</v>
+        <v>351189</v>
       </c>
     </row>
     <row r="229">
@@ -8404,22 +8404,22 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>5830338</v>
+        <v>5842698</v>
       </c>
       <c r="E229" t="n">
-        <v>26103172</v>
+        <v>26158508</v>
       </c>
       <c r="F229" t="n">
-        <v>2142.244524805369</v>
+        <v>1914.954012531085</v>
       </c>
       <c r="G229" t="n">
-        <v>2207.490961393417</v>
+        <v>2694.146328203847</v>
       </c>
       <c r="H229" t="n">
         <v>0.39</v>
       </c>
       <c r="I229" t="n">
-        <v>134653</v>
+        <v>143885</v>
       </c>
     </row>
     <row r="230">
@@ -8439,22 +8439,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>6086947</v>
+        <v>6174422</v>
       </c>
       <c r="E230" t="n">
-        <v>11653954</v>
+        <v>11821432</v>
       </c>
       <c r="F230" t="n">
-        <v>33.6453753969634</v>
+        <v>0</v>
       </c>
       <c r="G230" t="n">
-        <v>24.62644031201532</v>
+        <v>0</v>
       </c>
       <c r="H230" t="n">
-        <v>2.7</v>
+        <v>5.4</v>
       </c>
       <c r="I230" t="n">
-        <v>205973</v>
+        <v>202321</v>
       </c>
     </row>
     <row r="231">
@@ -8474,22 +8474,22 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>3248478</v>
+        <v>3199198</v>
       </c>
       <c r="E231" t="n">
-        <v>21361232</v>
+        <v>21037183</v>
       </c>
       <c r="F231" t="n">
-        <v>1295.468291764747</v>
+        <v>131.7642309405779</v>
       </c>
       <c r="G231" t="n">
-        <v>381.2075329466304</v>
+        <v>509.6091239036415</v>
       </c>
       <c r="H231" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.36</v>
       </c>
       <c r="I231" t="n">
-        <v>1417090</v>
+        <v>1421482</v>
       </c>
     </row>
     <row r="232">
@@ -8509,22 +8509,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>116677731</v>
+        <v>117444829</v>
       </c>
       <c r="E232" t="n">
-        <v>1014441158</v>
+        <v>1021110604</v>
       </c>
       <c r="F232" t="n">
-        <v>176218.1085227806</v>
+        <v>195825.6187645942</v>
       </c>
       <c r="G232" t="n">
-        <v>238841.9760901062</v>
+        <v>191280.0608700323</v>
       </c>
       <c r="H232" t="n">
-        <v>0.05</v>
+        <v>0.14</v>
       </c>
       <c r="I232" t="n">
-        <v>9100691</v>
+        <v>9246069</v>
       </c>
     </row>
     <row r="233">
@@ -8557,7 +8557,7 @@
         <v>7.72</v>
       </c>
       <c r="I233" t="n">
-        <v>1115.79</v>
+        <v>1116.65</v>
       </c>
     </row>
     <row r="234">
@@ -8577,22 +8577,22 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>103910386</v>
+        <v>103940014</v>
       </c>
       <c r="E234" t="n">
-        <v>158517729</v>
+        <v>158562928</v>
       </c>
       <c r="F234" t="n">
-        <v>63229.74978320573</v>
+        <v>94770.64622974047</v>
       </c>
       <c r="G234" t="n">
-        <v>52605.07884254627</v>
+        <v>100841.3069772865</v>
       </c>
       <c r="H234" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="I234" t="n">
-        <v>7290291</v>
+        <v>7199461</v>
       </c>
     </row>
     <row r="235">
@@ -8612,22 +8612,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>15747787</v>
+        <v>15779320</v>
       </c>
       <c r="E235" t="n">
-        <v>21604599</v>
+        <v>21647861</v>
       </c>
       <c r="F235" t="n">
-        <v>931.8799624313023</v>
+        <v>1039.107087181863</v>
       </c>
       <c r="G235" t="n">
-        <v>2812.761627343148</v>
+        <v>2416.625106383682</v>
       </c>
       <c r="H235" t="n">
-        <v>0.74</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I235" t="n">
-        <v>355742</v>
+        <v>351680</v>
       </c>
     </row>
     <row r="236">
@@ -8647,22 +8647,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>109464630</v>
+        <v>110884195</v>
       </c>
       <c r="E236" t="n">
-        <v>419923938</v>
+        <v>425369620</v>
       </c>
       <c r="F236" t="n">
-        <v>526395.9840642849</v>
+        <v>555733.5055475144</v>
       </c>
       <c r="G236" t="n">
-        <v>414477.9040155002</v>
+        <v>412885.9541153872</v>
       </c>
       <c r="H236" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I236" t="n">
-        <v>18904966</v>
+        <v>19300038</v>
       </c>
     </row>
     <row r="237">
@@ -8685,19 +8685,19 @@
         <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>753349</v>
+        <v>753460</v>
       </c>
       <c r="F237" t="n">
-        <v>69.92885088159318</v>
+        <v>69.76267794864492</v>
       </c>
       <c r="G237" t="n">
-        <v>20.55193494298861</v>
+        <v>20.55238337580343</v>
       </c>
       <c r="H237" t="n">
-        <v>3.6</v>
+        <v>3.37</v>
       </c>
       <c r="I237" t="n">
-        <v>52240</v>
+        <v>51178</v>
       </c>
     </row>
     <row r="238">
@@ -8720,19 +8720,19 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>790993</v>
+        <v>905230</v>
       </c>
       <c r="F238" t="n">
-        <v>0</v>
+        <v>322.0584168348429</v>
       </c>
       <c r="G238" t="n">
-        <v>0</v>
+        <v>345.1885221711561</v>
       </c>
       <c r="H238" t="n">
-        <v>9.81</v>
+        <v>2.73</v>
       </c>
       <c r="I238" t="n">
-        <v>19565.91</v>
+        <v>20771</v>
       </c>
     </row>
     <row r="239">
@@ -8752,22 +8752,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>3172552</v>
+        <v>3165944</v>
       </c>
       <c r="E239" t="n">
-        <v>30060403</v>
+        <v>29997788</v>
       </c>
       <c r="F239" t="n">
-        <v>1497.826559505086</v>
+        <v>1459.024240541424</v>
       </c>
       <c r="G239" t="n">
-        <v>1332.788081457122</v>
+        <v>1165.54836788427</v>
       </c>
       <c r="H239" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="I239" t="n">
-        <v>237673</v>
+        <v>246009</v>
       </c>
     </row>
     <row r="240">
@@ -8787,22 +8787,22 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>728795</v>
+        <v>724237</v>
       </c>
       <c r="E240" t="n">
-        <v>779078</v>
+        <v>774206</v>
       </c>
       <c r="F240" t="n">
-        <v>49.4790909258123</v>
+        <v>253.6145986533331</v>
       </c>
       <c r="G240" t="n">
-        <v>2506.843040811747</v>
+        <v>2506.897738857659</v>
       </c>
       <c r="H240" t="n">
-        <v>1.14</v>
+        <v>0.2</v>
       </c>
       <c r="I240" t="n">
-        <v>19556.37</v>
+        <v>23190</v>
       </c>
     </row>
     <row r="241">
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="E241" t="n">
-        <v>343767</v>
+        <v>373096</v>
       </c>
       <c r="F241" t="n">
         <v>0</v>
@@ -8834,10 +8834,10 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>5.7</v>
+        <v>7.51</v>
       </c>
       <c r="I241" t="n">
-        <v>570.04</v>
+        <v>581.1</v>
       </c>
     </row>
     <row r="242">
@@ -8860,19 +8860,19 @@
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>143144</v>
+        <v>140480</v>
       </c>
       <c r="F242" t="n">
-        <v>317.7600844142565</v>
+        <v>314.4184334764701</v>
       </c>
       <c r="G242" t="n">
-        <v>1.370435840670654</v>
+        <v>10.81213226533588</v>
       </c>
       <c r="H242" t="n">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="I242" t="n">
-        <v>95593</v>
+        <v>94241</v>
       </c>
     </row>
     <row r="243">
@@ -8895,7 +8895,7 @@
         <v>0</v>
       </c>
       <c r="E243" t="n">
-        <v>575920</v>
+        <v>576127</v>
       </c>
       <c r="F243" t="n">
         <v>0</v>
@@ -8907,7 +8907,7 @@
         <v>7.84</v>
       </c>
       <c r="I243" t="n">
-        <v>454.18</v>
+        <v>454.53</v>
       </c>
     </row>
     <row r="244">
@@ -8927,22 +8927,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>6005061</v>
+        <v>5976276</v>
       </c>
       <c r="E244" t="n">
-        <v>37529915</v>
+        <v>37350016</v>
       </c>
       <c r="F244" t="n">
-        <v>804.9208546815526</v>
+        <v>820.5583277720098</v>
       </c>
       <c r="G244" t="n">
-        <v>1135.257705253175</v>
+        <v>1212.608034933802</v>
       </c>
       <c r="H244" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="I244" t="n">
-        <v>318566</v>
+        <v>319634</v>
       </c>
     </row>
     <row r="245">
@@ -8962,22 +8962,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>5103785</v>
+        <v>5091633</v>
       </c>
       <c r="E245" t="n">
-        <v>19005451</v>
+        <v>18960197</v>
       </c>
       <c r="F245" t="n">
-        <v>6618.962417502788</v>
+        <v>6619.206265166526</v>
       </c>
       <c r="G245" t="n">
-        <v>7394.262609455147</v>
+        <v>7393.891773513493</v>
       </c>
       <c r="H245" t="n">
         <v>0.53</v>
       </c>
       <c r="I245" t="n">
-        <v>59203</v>
+        <v>58150</v>
       </c>
     </row>
     <row r="246">
@@ -9000,19 +9000,19 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>3798499</v>
+        <v>3736588</v>
       </c>
       <c r="F246" t="n">
-        <v>146.8140422745062</v>
+        <v>178.9430312676009</v>
       </c>
       <c r="G246" t="n">
-        <v>202.1990696133159</v>
+        <v>2686.234869468855</v>
       </c>
       <c r="H246" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="I246" t="n">
-        <v>6687.56</v>
+        <v>6884.29</v>
       </c>
     </row>
     <row r="247">
@@ -9032,22 +9032,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>31483718</v>
+        <v>31449629</v>
       </c>
       <c r="E247" t="n">
-        <v>112848989</v>
+        <v>112726799</v>
       </c>
       <c r="F247" t="n">
-        <v>26.2462587980074</v>
+        <v>26.24705414841334</v>
       </c>
       <c r="G247" t="n">
-        <v>2974.840140651679</v>
+        <v>2533.89964580152</v>
       </c>
       <c r="H247" t="n">
-        <v>0.46</v>
+        <v>0.55</v>
       </c>
       <c r="I247" t="n">
-        <v>95113</v>
+        <v>95686</v>
       </c>
     </row>
     <row r="248">
@@ -9070,19 +9070,19 @@
         <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>1572559</v>
+        <v>1521516</v>
       </c>
       <c r="F248" t="n">
-        <v>244.0480169011884</v>
+        <v>3.160741606070578</v>
       </c>
       <c r="G248" t="n">
-        <v>4.832549039653966</v>
+        <v>57.02859403973822</v>
       </c>
       <c r="H248" t="n">
-        <v>3.85</v>
+        <v>1.3</v>
       </c>
       <c r="I248" t="n">
-        <v>614286</v>
+        <v>613965</v>
       </c>
     </row>
     <row r="249">
@@ -9102,22 +9102,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>2164633</v>
+        <v>2194806</v>
       </c>
       <c r="E249" t="n">
-        <v>16649739</v>
+        <v>16881824</v>
       </c>
       <c r="F249" t="n">
-        <v>4841.97244117487</v>
+        <v>4633.430135516123</v>
       </c>
       <c r="G249" t="n">
-        <v>5190.333948868294</v>
+        <v>5394.190642741375</v>
       </c>
       <c r="H249" t="n">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
       <c r="I249" t="n">
-        <v>170873</v>
+        <v>180524</v>
       </c>
     </row>
     <row r="250">
@@ -9137,22 +9137,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>103090</v>
+        <v>103132</v>
       </c>
       <c r="E250" t="n">
-        <v>818847</v>
+        <v>819175</v>
       </c>
       <c r="F250" t="n">
-        <v>174.3147565982254</v>
+        <v>174.3180610284781</v>
       </c>
       <c r="G250" t="n">
-        <v>340.669055412036</v>
+        <v>340.675513368636</v>
       </c>
       <c r="H250" t="n">
         <v>0.72</v>
       </c>
       <c r="I250" t="n">
-        <v>1211.26</v>
+        <v>1212.16</v>
       </c>
     </row>
     <row r="251">
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>86613036</v>
+        <v>86701512</v>
       </c>
       <c r="E251" t="n">
-        <v>320186888</v>
+        <v>320513176</v>
       </c>
       <c r="F251" t="n">
-        <v>8741.869568768105</v>
+        <v>8852.059875186862</v>
       </c>
       <c r="G251" t="n">
-        <v>2488.380452098232</v>
+        <v>1494.439459317774</v>
       </c>
       <c r="H251" t="n">
-        <v>0.43</v>
+        <v>0.36</v>
       </c>
       <c r="I251" t="n">
-        <v>374532</v>
+        <v>369402</v>
       </c>
     </row>
     <row r="252">
@@ -9207,22 +9207,22 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>2518991</v>
+        <v>2457412</v>
       </c>
       <c r="E252" t="n">
-        <v>10107538</v>
+        <v>9860449</v>
       </c>
       <c r="F252" t="n">
-        <v>4.072896452861798</v>
+        <v>0</v>
       </c>
       <c r="G252" t="n">
-        <v>164.0441921590839</v>
+        <v>0</v>
       </c>
       <c r="H252" t="n">
-        <v>3.77</v>
+        <v>4.6</v>
       </c>
       <c r="I252" t="n">
-        <v>41106</v>
+        <v>44802</v>
       </c>
     </row>
     <row r="253">
@@ -9245,19 +9245,19 @@
         <v>0</v>
       </c>
       <c r="E253" t="n">
-        <v>582611</v>
+        <v>583059</v>
       </c>
       <c r="F253" t="n">
-        <v>26.19296162022127</v>
+        <v>77.01490417459031</v>
       </c>
       <c r="G253" t="n">
-        <v>12.63853950815145</v>
+        <v>4.237794140798392</v>
       </c>
       <c r="H253" t="n">
-        <v>2.95</v>
+        <v>2.66</v>
       </c>
       <c r="I253" t="n">
-        <v>2027.7</v>
+        <v>1514.66</v>
       </c>
     </row>
     <row r="254">
@@ -9276,7 +9276,7 @@
         <v>0</v>
       </c>
       <c r="E254" t="n">
-        <v>39074</v>
+        <v>37808</v>
       </c>
       <c r="F254" t="n">
         <v>0</v>
@@ -9285,10 +9285,10 @@
         <v>0</v>
       </c>
       <c r="H254" t="n">
-        <v>4.19</v>
+        <v>5.01</v>
       </c>
       <c r="I254" t="n">
-        <v>4019.94</v>
+        <v>4176.73</v>
       </c>
     </row>
     <row r="255">
@@ -9308,22 +9308,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>673048761</v>
+        <v>675163523</v>
       </c>
       <c r="E255" t="n">
-        <v>1037900614</v>
+        <v>1041161763</v>
       </c>
       <c r="F255" t="n">
-        <v>180671.3188699357</v>
+        <v>146598.1391738539</v>
       </c>
       <c r="G255" t="n">
-        <v>196236.2977841907</v>
+        <v>245450.8262649057</v>
       </c>
       <c r="H255" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I255" t="n">
-        <v>192595400</v>
+        <v>174233957</v>
       </c>
     </row>
     <row r="256">
@@ -9343,22 +9343,22 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>5658109</v>
+        <v>5685566</v>
       </c>
       <c r="E256" t="n">
-        <v>5658109</v>
+        <v>5685566</v>
       </c>
       <c r="F256" t="n">
-        <v>21.58704626475282</v>
+        <v>21.19539272184247</v>
       </c>
       <c r="G256" t="n">
-        <v>6.864064807761658</v>
+        <v>6.864194927688678</v>
       </c>
       <c r="H256" t="n">
-        <v>0.39</v>
+        <v>0.2</v>
       </c>
       <c r="I256" t="n">
-        <v>454.75</v>
+        <v>477.22</v>
       </c>
     </row>
     <row r="257">
@@ -9378,22 +9378,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>39803991</v>
+        <v>39799394</v>
       </c>
       <c r="E257" t="n">
-        <v>189991919</v>
+        <v>189969677</v>
       </c>
       <c r="F257" t="n">
-        <v>246.259264209921</v>
+        <v>251.8122727169103</v>
       </c>
       <c r="G257" t="n">
-        <v>115.2415454652603</v>
+        <v>121.197912033684</v>
       </c>
       <c r="H257" t="n">
-        <v>0.28</v>
+        <v>0.06</v>
       </c>
       <c r="I257" t="n">
-        <v>410139</v>
+        <v>408062</v>
       </c>
     </row>
     <row r="258">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>526745</v>
+        <v>526942</v>
       </c>
       <c r="F258" t="n">
         <v>0</v>
@@ -9425,10 +9425,10 @@
         <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>9.09</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="I258" t="n">
-        <v>272.7</v>
+        <v>254.25</v>
       </c>
     </row>
     <row r="259">
@@ -9448,22 +9448,22 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>23516332</v>
+        <v>23501732</v>
       </c>
       <c r="E259" t="n">
-        <v>39193886</v>
+        <v>39169552</v>
       </c>
       <c r="F259" t="n">
-        <v>13202.54815858165</v>
+        <v>6773.322216358625</v>
       </c>
       <c r="G259" t="n">
-        <v>8470.975409627838</v>
+        <v>7617.608599391113</v>
       </c>
       <c r="H259" t="n">
-        <v>0.48</v>
+        <v>0.79</v>
       </c>
       <c r="I259" t="n">
-        <v>952756</v>
+        <v>822538</v>
       </c>
     </row>
     <row r="260">
@@ -9486,19 +9486,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>107764</v>
+        <v>107601</v>
       </c>
       <c r="F260" t="n">
-        <v>197.5140241383113</v>
+        <v>110.2745569298863</v>
       </c>
       <c r="G260" t="n">
-        <v>226.9116143785128</v>
+        <v>201.371588459626</v>
       </c>
       <c r="H260" t="n">
-        <v>1.07</v>
+        <v>0.4</v>
       </c>
       <c r="I260" t="n">
-        <v>50209</v>
+        <v>49747</v>
       </c>
     </row>
     <row r="261">
@@ -9518,22 +9518,22 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>814414</v>
+        <v>815561</v>
       </c>
       <c r="E261" t="n">
-        <v>3479118</v>
+        <v>3484020</v>
       </c>
       <c r="F261" t="n">
-        <v>3294.461490914449</v>
+        <v>3290.819803690883</v>
       </c>
       <c r="G261" t="n">
-        <v>3059.55536937666</v>
+        <v>3060.108363987004</v>
       </c>
       <c r="H261" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="I261" t="n">
-        <v>7447.66</v>
+        <v>7449.77</v>
       </c>
     </row>
     <row r="262">
@@ -9553,22 +9553,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>3829546</v>
+        <v>3829066</v>
       </c>
       <c r="E262" t="n">
-        <v>8356021</v>
+        <v>8354972</v>
       </c>
       <c r="F262" t="n">
-        <v>1292.186992200653</v>
+        <v>1518.551249809866</v>
       </c>
       <c r="G262" t="n">
-        <v>1752.015627601067</v>
+        <v>1747.982226762743</v>
       </c>
       <c r="H262" t="n">
-        <v>0.6</v>
+        <v>0.73</v>
       </c>
       <c r="I262" t="n">
-        <v>984389</v>
+        <v>941486</v>
       </c>
     </row>
     <row r="263">
@@ -9588,22 +9588,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>482634162</v>
+        <v>486318893</v>
       </c>
       <c r="E263" t="n">
-        <v>1680861684</v>
+        <v>1693694434</v>
       </c>
       <c r="F263" t="n">
-        <v>661051.9639396729</v>
+        <v>465289.9709112988</v>
       </c>
       <c r="G263" t="n">
-        <v>585963.2395178739</v>
+        <v>573794.4901342785</v>
       </c>
       <c r="H263" t="n">
         <v>0.06</v>
       </c>
       <c r="I263" t="n">
-        <v>31095373</v>
+        <v>31384918</v>
       </c>
     </row>
     <row r="264">
@@ -9623,22 +9623,22 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>5538448179</v>
+        <v>5539096653</v>
       </c>
       <c r="E264" t="n">
-        <v>5538448179</v>
+        <v>5539096653</v>
       </c>
       <c r="F264" t="n">
-        <v>4798.616565654118</v>
+        <v>4355.067802597158</v>
       </c>
       <c r="G264" t="n">
-        <v>2306.98922905592</v>
+        <v>2464.926187138107</v>
       </c>
       <c r="H264" t="n">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="I264" t="n">
-        <v>28105243</v>
+        <v>28888031</v>
       </c>
     </row>
     <row r="265">
@@ -9658,22 +9658,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>23959409</v>
+        <v>23937055</v>
       </c>
       <c r="E265" t="n">
-        <v>23938597</v>
+        <v>23916262</v>
       </c>
       <c r="F265" t="n">
-        <v>47.76973364187018</v>
+        <v>64.48360592261228</v>
       </c>
       <c r="G265" t="n">
-        <v>899.1906285208435</v>
+        <v>638.3818849490123</v>
       </c>
       <c r="H265" t="n">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="I265" t="n">
-        <v>93870</v>
+        <v>92411</v>
       </c>
     </row>
     <row r="266">
@@ -9693,22 +9693,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>12063773</v>
+        <v>12005722</v>
       </c>
       <c r="E266" t="n">
-        <v>24437446</v>
+        <v>24318615</v>
       </c>
       <c r="F266" t="n">
-        <v>254.0167217915908</v>
+        <v>230.7892789353765</v>
       </c>
       <c r="G266" t="n">
-        <v>57.7104021409799</v>
+        <v>65.9831251064892</v>
       </c>
       <c r="H266" t="n">
-        <v>3.58</v>
+        <v>3.59</v>
       </c>
       <c r="I266" t="n">
-        <v>19121.34</v>
+        <v>19296.9</v>
       </c>
     </row>
     <row r="267">
@@ -9731,19 +9731,19 @@
         <v>0</v>
       </c>
       <c r="E267" t="n">
-        <v>150240</v>
+        <v>148654</v>
       </c>
       <c r="F267" t="n">
-        <v>206.4929402318263</v>
+        <v>206.5005475904844</v>
       </c>
       <c r="G267" t="n">
-        <v>152.5309503196183</v>
+        <v>152.5365696770851</v>
       </c>
       <c r="H267" t="n">
         <v>0.37</v>
       </c>
       <c r="I267" t="n">
-        <v>56284</v>
+        <v>56113</v>
       </c>
     </row>
     <row r="268">
@@ -9766,19 +9766,19 @@
         <v>0</v>
       </c>
       <c r="E268" t="n">
-        <v>48000</v>
+        <v>48010</v>
       </c>
       <c r="F268" t="n">
-        <v>104.2991042354391</v>
+        <v>0</v>
       </c>
       <c r="G268" t="n">
-        <v>76.42134224242582</v>
+        <v>0</v>
       </c>
       <c r="H268" t="n">
-        <v>3.29</v>
+        <v>4.08</v>
       </c>
       <c r="I268" t="n">
-        <v>71205</v>
+        <v>71203</v>
       </c>
     </row>
     <row r="269">
@@ -9798,22 +9798,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>2659744</v>
+        <v>2661320</v>
       </c>
       <c r="E269" t="n">
-        <v>10638977</v>
+        <v>10645279</v>
       </c>
       <c r="F269" t="n">
-        <v>31184.4404849294</v>
+        <v>28809.34408865223</v>
       </c>
       <c r="G269" t="n">
-        <v>41646.42656273778</v>
+        <v>30738.25998086909</v>
       </c>
       <c r="H269" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="I269" t="n">
-        <v>5064538</v>
+        <v>5045889</v>
       </c>
     </row>
     <row r="270">
@@ -9833,22 +9833,22 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>211875984</v>
+        <v>212948443</v>
       </c>
       <c r="E270" t="n">
-        <v>651438916</v>
+        <v>654736325</v>
       </c>
       <c r="F270" t="n">
-        <v>290914.2426975262</v>
+        <v>226232.7993963284</v>
       </c>
       <c r="G270" t="n">
-        <v>228274.2185134912</v>
+        <v>307581.1620894321</v>
       </c>
       <c r="H270" t="n">
         <v>0.06</v>
       </c>
       <c r="I270" t="n">
-        <v>11408857</v>
+        <v>11296898</v>
       </c>
     </row>
     <row r="271">
@@ -9868,22 +9868,22 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>148182484</v>
+        <v>147623161</v>
       </c>
       <c r="E271" t="n">
-        <v>387122629</v>
+        <v>385661415</v>
       </c>
       <c r="F271" t="n">
-        <v>43331.77187304403</v>
+        <v>53679.01313618707</v>
       </c>
       <c r="G271" t="n">
-        <v>45494.25049819864</v>
+        <v>55955.71766353937</v>
       </c>
       <c r="H271" t="n">
-        <v>0.29</v>
+        <v>0.15</v>
       </c>
       <c r="I271" t="n">
-        <v>6987932</v>
+        <v>6667837</v>
       </c>
     </row>
     <row r="272">
@@ -9903,22 +9903,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>2395639</v>
+        <v>2381748</v>
       </c>
       <c r="E272" t="n">
-        <v>3287627</v>
+        <v>3268550</v>
       </c>
       <c r="F272" t="n">
-        <v>76.5184321800067</v>
+        <v>27.83941181749205</v>
       </c>
       <c r="G272" t="n">
-        <v>22.4006072607054</v>
+        <v>5.500605476937095</v>
       </c>
       <c r="H272" t="n">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="I272" t="n">
-        <v>252354</v>
+        <v>252086</v>
       </c>
     </row>
   </sheetData>

--- a/GateioData20250220.xlsx
+++ b/GateioData20250220.xlsx
@@ -500,7 +500,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>56717</v>
+        <v>56700</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>7.41</v>
       </c>
       <c r="I2" t="n">
-        <v>1812.03</v>
+        <v>1812.66</v>
       </c>
     </row>
     <row r="3">
@@ -535,19 +535,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>92635</v>
+        <v>92662</v>
       </c>
       <c r="F3" t="n">
-        <v>9.578571320877556</v>
+        <v>9.578862332356223</v>
       </c>
       <c r="G3" t="n">
-        <v>445.9457308002246</v>
+        <v>445.9592793057562</v>
       </c>
       <c r="H3" t="n">
         <v>3.06</v>
       </c>
       <c r="I3" t="n">
-        <v>757.53</v>
+        <v>757.46</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>601027834</v>
+        <v>600379561</v>
       </c>
       <c r="E4" t="n">
-        <v>1166185484</v>
+        <v>1164927629</v>
       </c>
       <c r="F4" t="n">
-        <v>38370.76121015342</v>
+        <v>34801.24442980198</v>
       </c>
       <c r="G4" t="n">
-        <v>47303.83126077626</v>
+        <v>49060.16781665177</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="I4" t="n">
-        <v>22511577</v>
+        <v>22710582</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1327448</v>
+        <v>1346926</v>
       </c>
       <c r="E5" t="n">
-        <v>4290858</v>
+        <v>4353817</v>
       </c>
       <c r="F5" t="n">
-        <v>3802.770898199546</v>
+        <v>5866.761840281511</v>
       </c>
       <c r="G5" t="n">
-        <v>5178.801195192641</v>
+        <v>5834.925038168005</v>
       </c>
       <c r="H5" t="n">
-        <v>0.46</v>
+        <v>0.91</v>
       </c>
       <c r="I5" t="n">
-        <v>74715</v>
+        <v>90117</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>139486331</v>
+        <v>138596364</v>
       </c>
       <c r="E6" t="n">
-        <v>154573134</v>
+        <v>153586908</v>
       </c>
       <c r="F6" t="n">
-        <v>225030.6907961314</v>
+        <v>203084.9838350553</v>
       </c>
       <c r="G6" t="n">
-        <v>351673.4081405781</v>
+        <v>401902.0921596157</v>
       </c>
       <c r="H6" t="n">
         <v>0.06</v>
       </c>
       <c r="I6" t="n">
-        <v>33042146</v>
+        <v>33297637</v>
       </c>
     </row>
     <row r="7">
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>4204.8</v>
+        <v>4204.63</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>9.09</v>
       </c>
       <c r="I7" t="n">
-        <v>1564.66</v>
+        <v>772.8099999999999</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8708349</v>
+        <v>8679948</v>
       </c>
       <c r="E8" t="n">
-        <v>8927941</v>
+        <v>8898824</v>
       </c>
       <c r="F8" t="n">
-        <v>823.8066288947929</v>
+        <v>74.35776964164536</v>
       </c>
       <c r="G8" t="n">
-        <v>10.66688826142157</v>
+        <v>1573.769657253435</v>
       </c>
       <c r="H8" t="n">
-        <v>1.02</v>
+        <v>2.72</v>
       </c>
       <c r="I8" t="n">
-        <v>61074</v>
+        <v>53658</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>286187</v>
+        <v>286102</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>27.25018508280226</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>707.4076813574653</v>
       </c>
       <c r="H9" t="n">
-        <v>3.93</v>
+        <v>3.42</v>
       </c>
       <c r="I9" t="n">
-        <v>240.48</v>
+        <v>246.03</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5227348</v>
+        <v>5221403</v>
       </c>
       <c r="E10" t="n">
-        <v>8351731</v>
+        <v>8342233</v>
       </c>
       <c r="F10" t="n">
-        <v>231.377590841063</v>
+        <v>230.7476119643932</v>
       </c>
       <c r="G10" t="n">
-        <v>362.5892654822122</v>
+        <v>396.7215700945297</v>
       </c>
       <c r="H10" t="n">
-        <v>0.49</v>
+        <v>0.11</v>
       </c>
       <c r="I10" t="n">
-        <v>104879</v>
+        <v>104377</v>
       </c>
     </row>
     <row r="11">
@@ -812,16 +812,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>998697</v>
+        <v>998024</v>
       </c>
       <c r="E11" t="n">
-        <v>12221359</v>
+        <v>12213123</v>
       </c>
       <c r="F11" t="n">
-        <v>1227.141525586085</v>
+        <v>1226.674093444811</v>
       </c>
       <c r="G11" t="n">
-        <v>1665.264499960793</v>
+        <v>1665.985772137632</v>
       </c>
       <c r="H11" t="n">
         <v>0.49</v>
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>563218</v>
+        <v>564779</v>
       </c>
       <c r="E12" t="n">
-        <v>563218</v>
+        <v>564779</v>
       </c>
       <c r="F12" t="n">
-        <v>66.81180962355471</v>
+        <v>28.43936524851507</v>
       </c>
       <c r="G12" t="n">
-        <v>187.8878687098181</v>
+        <v>30.62385470789489</v>
       </c>
       <c r="H12" t="n">
-        <v>1.34</v>
+        <v>1.21</v>
       </c>
       <c r="I12" t="n">
-        <v>23833</v>
+        <v>23615</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4721929</v>
+        <v>4722096</v>
       </c>
       <c r="E13" t="n">
-        <v>29003807</v>
+        <v>29004833</v>
       </c>
       <c r="F13" t="n">
-        <v>718.0135248401548</v>
+        <v>638.5182990086292</v>
       </c>
       <c r="G13" t="n">
-        <v>1198.208911666106</v>
+        <v>1375.580762390696</v>
       </c>
       <c r="H13" t="n">
-        <v>0.21</v>
+        <v>0.52</v>
       </c>
       <c r="I13" t="n">
-        <v>467302</v>
+        <v>466825</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>199438</v>
+        <v>199586</v>
       </c>
       <c r="E14" t="n">
-        <v>2194036</v>
+        <v>2195661</v>
       </c>
       <c r="F14" t="n">
-        <v>100.2158955145428</v>
+        <v>100.2189402249659</v>
       </c>
       <c r="G14" t="n">
-        <v>872.4783434040501</v>
+        <v>872.5048506152316</v>
       </c>
       <c r="H14" t="n">
         <v>1.36</v>
       </c>
       <c r="I14" t="n">
-        <v>41150</v>
+        <v>38953</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3343817</v>
+        <v>3345671</v>
       </c>
       <c r="E15" t="n">
-        <v>9512864</v>
+        <v>9518139</v>
       </c>
       <c r="F15" t="n">
-        <v>913.7006234367295</v>
+        <v>833.3915473145051</v>
       </c>
       <c r="G15" t="n">
-        <v>359.0458319311817</v>
+        <v>311.8477053102324</v>
       </c>
       <c r="H15" t="n">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="I15" t="n">
-        <v>232935</v>
+        <v>232838</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>313889</v>
+        <v>313992</v>
       </c>
       <c r="E16" t="n">
-        <v>3622988</v>
+        <v>3624175</v>
       </c>
       <c r="F16" t="n">
-        <v>131.8375618750133</v>
+        <v>132.6639670606336</v>
       </c>
       <c r="G16" t="n">
-        <v>130.1683142617781</v>
+        <v>130.3384671207253</v>
       </c>
       <c r="H16" t="n">
         <v>0.8</v>
       </c>
       <c r="I16" t="n">
-        <v>3108.94</v>
+        <v>3109.49</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>918223</v>
+        <v>918887</v>
       </c>
       <c r="F17" t="n">
-        <v>19.30669999238118</v>
+        <v>24.85897072584431</v>
       </c>
       <c r="G17" t="n">
-        <v>129.6373228082981</v>
+        <v>159.3571793082823</v>
       </c>
       <c r="H17" t="n">
-        <v>2.71</v>
+        <v>2.7</v>
       </c>
       <c r="I17" t="n">
-        <v>11102.11</v>
+        <v>11105.99</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>22341388</v>
+        <v>22367029</v>
       </c>
       <c r="E18" t="n">
-        <v>22383219</v>
+        <v>22408908</v>
       </c>
       <c r="F18" t="n">
-        <v>1571.940154007933</v>
+        <v>1851.542593230191</v>
       </c>
       <c r="G18" t="n">
-        <v>1974.85694974187</v>
+        <v>2486.598868733449</v>
       </c>
       <c r="H18" t="n">
         <v>0.54</v>
       </c>
       <c r="I18" t="n">
-        <v>876137</v>
+        <v>877189</v>
       </c>
     </row>
     <row r="19">
@@ -1095,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>6873251</v>
+        <v>6716961</v>
       </c>
       <c r="F19" t="n">
-        <v>152.5744174097754</v>
+        <v>215.7972003588896</v>
       </c>
       <c r="G19" t="n">
-        <v>11.01832553206972</v>
+        <v>10.99264498283415</v>
       </c>
       <c r="H19" t="n">
-        <v>2.14</v>
+        <v>2.44</v>
       </c>
       <c r="I19" t="n">
-        <v>25311</v>
+        <v>27334</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2443558</v>
+        <v>2450133</v>
       </c>
       <c r="E20" t="n">
-        <v>2443558</v>
+        <v>2450133</v>
       </c>
       <c r="F20" t="n">
-        <v>299.9487359199057</v>
+        <v>9.055752962414489</v>
       </c>
       <c r="G20" t="n">
-        <v>234.1044681325374</v>
+        <v>264.6393206141752</v>
       </c>
       <c r="H20" t="n">
         <v>1.05</v>
       </c>
       <c r="I20" t="n">
-        <v>301975</v>
+        <v>303846</v>
       </c>
     </row>
     <row r="21">
@@ -1165,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>408120</v>
+        <v>408068</v>
       </c>
       <c r="F21" t="n">
-        <v>197.8456168543879</v>
+        <v>170.5058251013378</v>
       </c>
       <c r="G21" t="n">
-        <v>208.3611577962959</v>
+        <v>348.3522391550743</v>
       </c>
       <c r="H21" t="n">
         <v>0.97</v>
       </c>
       <c r="I21" t="n">
-        <v>1765.09</v>
+        <v>1765.02</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>19391032</v>
+        <v>19359243</v>
       </c>
       <c r="E22" t="n">
-        <v>24957849</v>
+        <v>24916935</v>
       </c>
       <c r="F22" t="n">
-        <v>2426.016698395161</v>
+        <v>2257.864055287173</v>
       </c>
       <c r="G22" t="n">
-        <v>4591.525323359939</v>
+        <v>4822.624339464286</v>
       </c>
       <c r="H22" t="n">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
       <c r="I22" t="n">
-        <v>2066279</v>
+        <v>2020326</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>467458882</v>
+        <v>468471329</v>
       </c>
       <c r="E23" t="n">
-        <v>467458885</v>
+        <v>468471327</v>
       </c>
       <c r="F23" t="n">
-        <v>98422.2463620545</v>
+        <v>80062.10609683035</v>
       </c>
       <c r="G23" t="n">
-        <v>91663.82456905373</v>
+        <v>110466.2550521213</v>
       </c>
       <c r="H23" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I23" t="n">
-        <v>59867181</v>
+        <v>60447548</v>
       </c>
     </row>
     <row r="24">
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>24791</v>
+        <v>24790</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1282,7 +1282,7 @@
         <v>7.84</v>
       </c>
       <c r="I24" t="n">
-        <v>3144.04</v>
+        <v>3143.92</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4639057</v>
+        <v>4623032</v>
       </c>
       <c r="E25" t="n">
-        <v>4639057</v>
+        <v>4623032</v>
       </c>
       <c r="F25" t="n">
-        <v>119.7369641250017</v>
+        <v>163.047137429324</v>
       </c>
       <c r="G25" t="n">
-        <v>553.2394065674769</v>
+        <v>1358.033714403618</v>
       </c>
       <c r="H25" t="n">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="I25" t="n">
-        <v>1308053</v>
+        <v>1909220</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3261828</v>
+        <v>3311144</v>
       </c>
       <c r="E26" t="n">
-        <v>3261828</v>
+        <v>3311144</v>
       </c>
       <c r="F26" t="n">
-        <v>333.2730034662965</v>
+        <v>343.4434451063285</v>
       </c>
       <c r="G26" t="n">
-        <v>67.75178483967426</v>
+        <v>88.66263955263992</v>
       </c>
       <c r="H26" t="n">
-        <v>0.12</v>
+        <v>0.45</v>
       </c>
       <c r="I26" t="n">
-        <v>512155</v>
+        <v>524000</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>314957</v>
+        <v>312847</v>
       </c>
       <c r="E27" t="n">
-        <v>1470249</v>
+        <v>1460400</v>
       </c>
       <c r="F27" t="n">
-        <v>2578.344570842995</v>
+        <v>2838.566094212919</v>
       </c>
       <c r="G27" t="n">
-        <v>295.4455963127832</v>
+        <v>265.1943333571162</v>
       </c>
       <c r="H27" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="I27" t="n">
-        <v>617964</v>
+        <v>613851</v>
       </c>
     </row>
     <row r="28">
@@ -1410,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1626435</v>
+        <v>1618345</v>
       </c>
       <c r="F28" t="n">
-        <v>265.014324352048</v>
+        <v>266.3929089700918</v>
       </c>
       <c r="G28" t="n">
-        <v>67.7522568203039</v>
+        <v>79.91546621546937</v>
       </c>
       <c r="H28" t="n">
-        <v>0.55</v>
+        <v>0.12</v>
       </c>
       <c r="I28" t="n">
-        <v>207708</v>
+        <v>168647</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>12778160</v>
+        <v>12729375</v>
       </c>
       <c r="E29" t="n">
-        <v>32179616</v>
+        <v>32056760</v>
       </c>
       <c r="F29" t="n">
-        <v>776.7196081609992</v>
+        <v>886.5981286074505</v>
       </c>
       <c r="G29" t="n">
-        <v>1351.664311599531</v>
+        <v>1272.908354785869</v>
       </c>
       <c r="H29" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="I29" t="n">
-        <v>1578196</v>
+        <v>1589746</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>912515</v>
+        <v>912494</v>
       </c>
       <c r="E30" t="n">
-        <v>6387602</v>
+        <v>6387456</v>
       </c>
       <c r="F30" t="n">
-        <v>315.632234729462</v>
+        <v>364.8919630282702</v>
       </c>
       <c r="G30" t="n">
-        <v>241.1497396947891</v>
+        <v>288.8076915925967</v>
       </c>
       <c r="H30" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="I30" t="n">
-        <v>350733</v>
+        <v>321970</v>
       </c>
     </row>
     <row r="31">
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>178404</v>
+        <v>178597</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1524,10 +1524,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>7.85</v>
+        <v>7.29</v>
       </c>
       <c r="I31" t="n">
-        <v>6061.96</v>
+        <v>6066.12</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5477857</v>
+        <v>5448622</v>
       </c>
       <c r="E32" t="n">
-        <v>5739918</v>
+        <v>5709285</v>
       </c>
       <c r="F32" t="n">
-        <v>40.7821666461511</v>
+        <v>166.3208614472408</v>
       </c>
       <c r="G32" t="n">
-        <v>306.7607386301644</v>
+        <v>24.2593771018798</v>
       </c>
       <c r="H32" t="n">
-        <v>2.83</v>
+        <v>2.7</v>
       </c>
       <c r="I32" t="n">
-        <v>171440</v>
+        <v>170966</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>5358638</v>
+        <v>5305376</v>
       </c>
       <c r="E33" t="n">
-        <v>7888206</v>
+        <v>7809801</v>
       </c>
       <c r="F33" t="n">
-        <v>221.2182913294202</v>
+        <v>0.0132439365663072</v>
       </c>
       <c r="G33" t="n">
-        <v>204.5779186406991</v>
+        <v>228.46990650611</v>
       </c>
       <c r="H33" t="n">
-        <v>2.4</v>
+        <v>0.65</v>
       </c>
       <c r="I33" t="n">
-        <v>646400</v>
+        <v>643987</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7660067</v>
+        <v>7660622</v>
       </c>
       <c r="E34" t="n">
-        <v>7660067</v>
+        <v>7660622</v>
       </c>
       <c r="F34" t="n">
-        <v>32160.84840358974</v>
+        <v>32309.67340563902</v>
       </c>
       <c r="G34" t="n">
-        <v>31215.17791325512</v>
+        <v>32008.44926074258</v>
       </c>
       <c r="H34" t="n">
-        <v>0.75</v>
+        <v>0.82</v>
       </c>
       <c r="I34" t="n">
-        <v>217070</v>
+        <v>258862</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1490739</v>
+        <v>1490924</v>
       </c>
       <c r="E35" t="n">
-        <v>1490739</v>
+        <v>1490961</v>
       </c>
       <c r="F35" t="n">
-        <v>43.23918765371427</v>
+        <v>160.2373114387081</v>
       </c>
       <c r="G35" t="n">
-        <v>618.2152752273735</v>
+        <v>109.8182377484372</v>
       </c>
       <c r="H35" t="n">
-        <v>3.15</v>
+        <v>3.07</v>
       </c>
       <c r="I35" t="n">
-        <v>275897</v>
+        <v>273601</v>
       </c>
     </row>
     <row r="36">
@@ -1690,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>16425131</v>
+        <v>16428001</v>
       </c>
       <c r="F36" t="n">
-        <v>248.6776305031487</v>
+        <v>248.6851947096775</v>
       </c>
       <c r="G36" t="n">
-        <v>169.9403768625698</v>
+        <v>169.9455460613657</v>
       </c>
       <c r="H36" t="n">
         <v>0.59</v>
       </c>
       <c r="I36" t="n">
-        <v>10421.16</v>
+        <v>10420.95</v>
       </c>
     </row>
     <row r="37">
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>59636</v>
+        <v>59628</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>8.51</v>
       </c>
       <c r="I37" t="n">
-        <v>254.32</v>
+        <v>254.31</v>
       </c>
     </row>
     <row r="38">
@@ -1753,22 +1753,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>133845167</v>
+        <v>134222001</v>
       </c>
       <c r="E38" t="n">
-        <v>133845167</v>
+        <v>134222001</v>
       </c>
       <c r="F38" t="n">
-        <v>322673.9135769728</v>
+        <v>247019.6285466886</v>
       </c>
       <c r="G38" t="n">
-        <v>340693.706221478</v>
+        <v>371069.8379517675</v>
       </c>
       <c r="H38" t="n">
         <v>0.05</v>
       </c>
       <c r="I38" t="n">
-        <v>63168736</v>
+        <v>65789938</v>
       </c>
     </row>
     <row r="39">
@@ -1788,22 +1788,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>64204911</v>
+        <v>64069156</v>
       </c>
       <c r="E39" t="n">
-        <v>329255953</v>
+        <v>328559773</v>
       </c>
       <c r="F39" t="n">
-        <v>85171.13039979509</v>
+        <v>75622.21599679126</v>
       </c>
       <c r="G39" t="n">
-        <v>98716.06607487197</v>
+        <v>102979.3885013667</v>
       </c>
       <c r="H39" t="n">
         <v>0.13</v>
       </c>
       <c r="I39" t="n">
-        <v>18006483</v>
+        <v>18026637</v>
       </c>
     </row>
     <row r="40">
@@ -1823,10 +1823,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>44541</v>
+        <v>44539</v>
       </c>
       <c r="E40" t="n">
-        <v>131627</v>
+        <v>131622</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -1838,7 +1838,7 @@
         <v>6.46</v>
       </c>
       <c r="I40" t="n">
-        <v>749.54</v>
+        <v>749.51</v>
       </c>
     </row>
     <row r="41">
@@ -1861,19 +1861,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>49783</v>
+        <v>49751</v>
       </c>
       <c r="F41" t="n">
-        <v>14.46547261210104</v>
+        <v>14.39530174312252</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5716679452571637</v>
+        <v>0.5716853133936511</v>
       </c>
       <c r="H41" t="n">
-        <v>0.74</v>
+        <v>0.26</v>
       </c>
       <c r="I41" t="n">
-        <v>25229</v>
+        <v>25005</v>
       </c>
     </row>
     <row r="42">
@@ -1896,19 +1896,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>592905</v>
+        <v>592896</v>
       </c>
       <c r="F42" t="n">
-        <v>2180.196510377107</v>
+        <v>1270.862337753747</v>
       </c>
       <c r="G42" t="n">
-        <v>396.8153118265418</v>
+        <v>398.1138029707013</v>
       </c>
       <c r="H42" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="I42" t="n">
-        <v>436.17</v>
+        <v>436.16</v>
       </c>
     </row>
     <row r="43">
@@ -1961,10 +1961,10 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2715751</v>
+        <v>2722460</v>
       </c>
       <c r="E44" t="n">
-        <v>10913984</v>
+        <v>10940946</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -1973,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>9.09</v>
+        <v>4.35</v>
       </c>
       <c r="I44" t="n">
-        <v>25051</v>
+        <v>24992</v>
       </c>
     </row>
     <row r="45">
@@ -1996,22 +1996,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>17337767</v>
+        <v>17331683</v>
       </c>
       <c r="E45" t="n">
-        <v>122251701</v>
+        <v>122208801</v>
       </c>
       <c r="F45" t="n">
-        <v>249.2069016528187</v>
+        <v>248.8704788656739</v>
       </c>
       <c r="G45" t="n">
-        <v>388.8897521010796</v>
+        <v>383.6320435316669</v>
       </c>
       <c r="H45" t="n">
-        <v>0.57</v>
+        <v>0.65</v>
       </c>
       <c r="I45" t="n">
-        <v>1040101</v>
+        <v>1039272</v>
       </c>
     </row>
     <row r="46">
@@ -2031,10 +2031,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>169948</v>
+        <v>170486</v>
       </c>
       <c r="E46" t="n">
-        <v>2273999</v>
+        <v>2281192</v>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>52512</v>
+        <v>52674</v>
       </c>
     </row>
     <row r="47">
@@ -2064,22 +2064,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>250379733</v>
+        <v>250286629</v>
       </c>
       <c r="E47" t="n">
-        <v>250379733</v>
+        <v>250286629</v>
       </c>
       <c r="F47" t="n">
-        <v>100754.5419150588</v>
+        <v>110342.5770440473</v>
       </c>
       <c r="G47" t="n">
-        <v>175814.08922705</v>
+        <v>163384.7000423709</v>
       </c>
       <c r="H47" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I47" t="n">
-        <v>14680883</v>
+        <v>14643201</v>
       </c>
     </row>
     <row r="48">
@@ -2099,22 +2099,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>632116</v>
+        <v>632507</v>
       </c>
       <c r="E48" t="n">
-        <v>632116</v>
+        <v>632507</v>
       </c>
       <c r="F48" t="n">
-        <v>60.01519358707971</v>
+        <v>90.14265604412329</v>
       </c>
       <c r="G48" t="n">
-        <v>150.3655760932936</v>
+        <v>133.3940277325795</v>
       </c>
       <c r="H48" t="n">
-        <v>2.42</v>
+        <v>2.27</v>
       </c>
       <c r="I48" t="n">
-        <v>3326.92</v>
+        <v>3328.53</v>
       </c>
     </row>
     <row r="49">
@@ -2167,22 +2167,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>442313874</v>
+        <v>439517690</v>
       </c>
       <c r="E50" t="n">
-        <v>442313874</v>
+        <v>439517690</v>
       </c>
       <c r="F50" t="n">
-        <v>8922.295850185192</v>
+        <v>8007.777712602648</v>
       </c>
       <c r="G50" t="n">
-        <v>2521.206494473007</v>
+        <v>1894.340316114904</v>
       </c>
       <c r="H50" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I50" t="n">
-        <v>2847236</v>
+        <v>2843819</v>
       </c>
     </row>
     <row r="51">
@@ -2202,22 +2202,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2517856</v>
+        <v>2524245</v>
       </c>
       <c r="E51" t="n">
-        <v>2517856</v>
+        <v>2524245</v>
       </c>
       <c r="F51" t="n">
-        <v>298.2861124816985</v>
+        <v>298.3272476113812</v>
       </c>
       <c r="G51" t="n">
-        <v>1118.077760139304</v>
+        <v>1118.103399199689</v>
       </c>
       <c r="H51" t="n">
         <v>2.13</v>
       </c>
       <c r="I51" t="n">
-        <v>109364</v>
+        <v>109383</v>
       </c>
     </row>
     <row r="52">
@@ -2237,10 +2237,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>23841</v>
+        <v>23835</v>
       </c>
       <c r="E52" t="n">
-        <v>47682</v>
+        <v>47671</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -2249,10 +2249,10 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>5.93</v>
+        <v>5.51</v>
       </c>
       <c r="I52" t="n">
-        <v>4392.81</v>
+        <v>4382.24</v>
       </c>
     </row>
     <row r="53">
@@ -2275,19 +2275,19 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>146111</v>
+        <v>146106</v>
       </c>
       <c r="F53" t="n">
-        <v>7.301678045677051</v>
+        <v>30.97836618556933</v>
       </c>
       <c r="G53" t="n">
-        <v>1.194752182284533</v>
+        <v>1.194788480662189</v>
       </c>
       <c r="H53" t="n">
-        <v>1.72</v>
+        <v>0.87</v>
       </c>
       <c r="I53" t="n">
-        <v>23004</v>
+        <v>23210</v>
       </c>
     </row>
     <row r="54">
@@ -2307,22 +2307,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2538323</v>
+        <v>2538970</v>
       </c>
       <c r="E54" t="n">
-        <v>6489444</v>
+        <v>6491096</v>
       </c>
       <c r="F54" t="n">
-        <v>214.0613013512023</v>
+        <v>215.0863219795897</v>
       </c>
       <c r="G54" t="n">
-        <v>294.209997922303</v>
+        <v>197.4367535564016</v>
       </c>
       <c r="H54" t="n">
-        <v>2.41</v>
+        <v>2.26</v>
       </c>
       <c r="I54" t="n">
-        <v>120233</v>
+        <v>118650</v>
       </c>
     </row>
     <row r="55">
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>3822.48</v>
+        <v>3821.92</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>6.22</v>
       </c>
       <c r="I55" t="n">
-        <v>820.86</v>
+        <v>813.49</v>
       </c>
     </row>
     <row r="56">
@@ -2377,22 +2377,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>71841375</v>
+        <v>71937950</v>
       </c>
       <c r="E56" t="n">
-        <v>71841375</v>
+        <v>71937950</v>
       </c>
       <c r="F56" t="n">
-        <v>16209.80424477298</v>
+        <v>13932.89167465929</v>
       </c>
       <c r="G56" t="n">
-        <v>21526.70971596632</v>
+        <v>20730.83527464023</v>
       </c>
       <c r="H56" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="I56" t="n">
-        <v>4408563</v>
+        <v>4399802</v>
       </c>
     </row>
     <row r="57">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3620650</v>
+        <v>3552495</v>
       </c>
       <c r="E57" t="n">
-        <v>4587996</v>
+        <v>4501632</v>
       </c>
       <c r="F57" t="n">
-        <v>233.7833803518687</v>
+        <v>113.4544690740446</v>
       </c>
       <c r="G57" t="n">
-        <v>154.5060985194161</v>
+        <v>2018.791887733495</v>
       </c>
       <c r="H57" t="n">
         <v>0.21</v>
       </c>
       <c r="I57" t="n">
-        <v>280378</v>
+        <v>277932</v>
       </c>
     </row>
     <row r="58">
@@ -2447,22 +2447,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>4217825</v>
+        <v>4214743</v>
       </c>
       <c r="E58" t="n">
-        <v>8317906</v>
+        <v>8311827</v>
       </c>
       <c r="F58" t="n">
-        <v>2584.202298505182</v>
+        <v>2887.264458284407</v>
       </c>
       <c r="G58" t="n">
-        <v>2371.717345536417</v>
+        <v>2393.732622218654</v>
       </c>
       <c r="H58" t="n">
         <v>0.29</v>
       </c>
       <c r="I58" t="n">
-        <v>1634434</v>
+        <v>1631240</v>
       </c>
     </row>
     <row r="59">
@@ -2482,22 +2482,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1569436</v>
+        <v>1570394</v>
       </c>
       <c r="E59" t="n">
-        <v>9011116</v>
+        <v>9016614</v>
       </c>
       <c r="F59" t="n">
-        <v>365.8229748080124</v>
+        <v>355.3413750365989</v>
       </c>
       <c r="G59" t="n">
-        <v>520.3495553973066</v>
+        <v>512.3800662872637</v>
       </c>
       <c r="H59" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="I59" t="n">
-        <v>324679</v>
+        <v>321236</v>
       </c>
     </row>
     <row r="60">
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>571678</v>
+        <v>571609</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>8.77</v>
       </c>
       <c r="I60" t="n">
-        <v>2307.37</v>
+        <v>2282.97</v>
       </c>
     </row>
     <row r="61">
@@ -2555,19 +2555,19 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>32061411</v>
+        <v>32076918</v>
       </c>
       <c r="F61" t="n">
-        <v>479.069896339084</v>
+        <v>500.7354916173262</v>
       </c>
       <c r="G61" t="n">
-        <v>1695.832962091729</v>
+        <v>1522.839675730607</v>
       </c>
       <c r="H61" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="I61" t="n">
-        <v>250261</v>
+        <v>250638</v>
       </c>
     </row>
     <row r="62">
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>1418572</v>
+        <v>1410694</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>4.75</v>
       </c>
       <c r="I62" t="n">
-        <v>27658</v>
+        <v>27725</v>
       </c>
     </row>
     <row r="63">
@@ -2622,22 +2622,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>7533062</v>
+        <v>7541087</v>
       </c>
       <c r="E63" t="n">
-        <v>17741859</v>
+        <v>17760760</v>
       </c>
       <c r="F63" t="n">
-        <v>1158.933350775279</v>
+        <v>1214.020175423123</v>
       </c>
       <c r="G63" t="n">
-        <v>2493.219758378899</v>
+        <v>2368.448212899726</v>
       </c>
       <c r="H63" t="n">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="I63" t="n">
-        <v>29618</v>
+        <v>29890</v>
       </c>
     </row>
     <row r="64">
@@ -2657,22 +2657,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2903201</v>
+        <v>2938146</v>
       </c>
       <c r="E64" t="n">
-        <v>2903201</v>
+        <v>2938146</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>47.97925259851269</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>21.42820188954004</v>
       </c>
       <c r="H64" t="n">
-        <v>6.73</v>
+        <v>0.09</v>
       </c>
       <c r="I64" t="n">
-        <v>13188.5</v>
+        <v>14457.61</v>
       </c>
     </row>
     <row r="65">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3362602</v>
+        <v>3377264</v>
       </c>
       <c r="E65" t="n">
-        <v>8297049</v>
+        <v>8333227</v>
       </c>
       <c r="F65" t="n">
-        <v>896.1026451516192</v>
+        <v>474.4175903857309</v>
       </c>
       <c r="G65" t="n">
-        <v>1000.422799132491</v>
+        <v>1038.665257710367</v>
       </c>
       <c r="H65" t="n">
-        <v>0.65</v>
+        <v>1.22</v>
       </c>
       <c r="I65" t="n">
-        <v>65813</v>
+        <v>58062</v>
       </c>
     </row>
     <row r="66">
@@ -2730,19 +2730,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>269755</v>
+        <v>272167</v>
       </c>
       <c r="F66" t="n">
-        <v>35.16948135143873</v>
+        <v>35.17090098226682</v>
       </c>
       <c r="G66" t="n">
-        <v>103.9967844921689</v>
+        <v>104.0009823658825</v>
       </c>
       <c r="H66" t="n">
         <v>3.33</v>
       </c>
       <c r="I66" t="n">
-        <v>2178.33</v>
+        <v>2228.24</v>
       </c>
     </row>
     <row r="67">
@@ -2762,22 +2762,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>71734940</v>
+        <v>72110728</v>
       </c>
       <c r="E67" t="n">
-        <v>149603779</v>
+        <v>150387487</v>
       </c>
       <c r="F67" t="n">
-        <v>60436.09975188733</v>
+        <v>53493.26676550398</v>
       </c>
       <c r="G67" t="n">
-        <v>93357.82104012067</v>
+        <v>94778.4813368184</v>
       </c>
       <c r="H67" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I67" t="n">
-        <v>13685250</v>
+        <v>13738659</v>
       </c>
     </row>
     <row r="68">
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>2090427</v>
+        <v>2090351</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>4.31</v>
       </c>
       <c r="I68" t="n">
-        <v>3068.18</v>
+        <v>3031.53</v>
       </c>
     </row>
     <row r="69">
@@ -2835,19 +2835,19 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>198280045</v>
+        <v>196290651</v>
       </c>
       <c r="F69" t="n">
-        <v>4724.193503058029</v>
+        <v>4742.90451387986</v>
       </c>
       <c r="G69" t="n">
-        <v>2281.623457937628</v>
+        <v>2621.653065773835</v>
       </c>
       <c r="H69" t="n">
-        <v>0.76</v>
+        <v>0.54</v>
       </c>
       <c r="I69" t="n">
-        <v>4268877</v>
+        <v>4220666</v>
       </c>
     </row>
     <row r="70">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>184990</v>
+        <v>184980</v>
       </c>
       <c r="E70" t="n">
-        <v>193182</v>
+        <v>193172</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -2879,10 +2879,10 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>13.74</v>
+        <v>11.37</v>
       </c>
       <c r="I70" t="n">
-        <v>597.51</v>
+        <v>597.7</v>
       </c>
     </row>
     <row r="71">
@@ -2902,22 +2902,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>143310208</v>
+        <v>142884924</v>
       </c>
       <c r="E71" t="n">
-        <v>143351872</v>
+        <v>142927106</v>
       </c>
       <c r="F71" t="n">
-        <v>41762.18796917469</v>
+        <v>39941.09173069727</v>
       </c>
       <c r="G71" t="n">
-        <v>38564.03755067422</v>
+        <v>38446.56279623045</v>
       </c>
       <c r="H71" t="n">
-        <v>0.11</v>
+        <v>0.31</v>
       </c>
       <c r="I71" t="n">
-        <v>2605249</v>
+        <v>2592304</v>
       </c>
     </row>
     <row r="72">
@@ -2937,22 +2937,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>26071906</v>
+        <v>26067221</v>
       </c>
       <c r="E72" t="n">
-        <v>85563010</v>
+        <v>85547636</v>
       </c>
       <c r="F72" t="n">
-        <v>21490.55436726633</v>
+        <v>23607.50767578734</v>
       </c>
       <c r="G72" t="n">
-        <v>28202.42612437763</v>
+        <v>27599.76482073884</v>
       </c>
       <c r="H72" t="n">
-        <v>0.46</v>
+        <v>0.58</v>
       </c>
       <c r="I72" t="n">
-        <v>104261</v>
+        <v>104093</v>
       </c>
     </row>
     <row r="73">
@@ -2972,10 +2972,10 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>112415</v>
+        <v>112436</v>
       </c>
       <c r="E73" t="n">
-        <v>112415</v>
+        <v>112436</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -2987,7 +2987,7 @@
         <v>4.49</v>
       </c>
       <c r="I73" t="n">
-        <v>148.13</v>
+        <v>148.14</v>
       </c>
     </row>
     <row r="74">
@@ -3007,22 +3007,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>196318411</v>
+        <v>196461786</v>
       </c>
       <c r="E74" t="n">
-        <v>682027904</v>
+        <v>682526001</v>
       </c>
       <c r="F74" t="n">
-        <v>116415.0100279586</v>
+        <v>120127.2014138741</v>
       </c>
       <c r="G74" t="n">
-        <v>240022.6947700938</v>
+        <v>193952.6759731366</v>
       </c>
       <c r="H74" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I74" t="n">
-        <v>26020270</v>
+        <v>25628025</v>
       </c>
     </row>
     <row r="75">
@@ -3042,22 +3042,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>4092638</v>
+        <v>4094564</v>
       </c>
       <c r="E75" t="n">
-        <v>4092638</v>
+        <v>4094564</v>
       </c>
       <c r="F75" t="n">
-        <v>560.4734825828795</v>
+        <v>929.2528175871608</v>
       </c>
       <c r="G75" t="n">
-        <v>2327.539435869123</v>
+        <v>1827.727833213688</v>
       </c>
       <c r="H75" t="n">
-        <v>0.68</v>
+        <v>0.58</v>
       </c>
       <c r="I75" t="n">
-        <v>3841222</v>
+        <v>3798614</v>
       </c>
     </row>
     <row r="76">
@@ -3077,22 +3077,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>111680813</v>
+        <v>111912876</v>
       </c>
       <c r="E76" t="n">
-        <v>475145916</v>
+        <v>476133227</v>
       </c>
       <c r="F76" t="n">
-        <v>172179.4266313301</v>
+        <v>168837.4283857988</v>
       </c>
       <c r="G76" t="n">
-        <v>145565.2880922815</v>
+        <v>172187.8135913788</v>
       </c>
       <c r="H76" t="n">
         <v>0.21</v>
       </c>
       <c r="I76" t="n">
-        <v>12071176</v>
+        <v>12214273</v>
       </c>
     </row>
     <row r="77">
@@ -3115,19 +3115,19 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1847786</v>
+        <v>1848045</v>
       </c>
       <c r="F77" t="n">
-        <v>109.2958254504432</v>
+        <v>109.3002372221619</v>
       </c>
       <c r="G77" t="n">
-        <v>92.99524952184443</v>
+        <v>92.99900331399641</v>
       </c>
       <c r="H77" t="n">
         <v>0.54</v>
       </c>
       <c r="I77" t="n">
-        <v>432.44</v>
+        <v>432.75</v>
       </c>
     </row>
     <row r="78">
@@ -3147,22 +3147,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3094497</v>
+        <v>3143821</v>
       </c>
       <c r="E78" t="n">
-        <v>15515107</v>
+        <v>15762405</v>
       </c>
       <c r="F78" t="n">
-        <v>103.5952080414421</v>
+        <v>261.2042014457905</v>
       </c>
       <c r="G78" t="n">
-        <v>132.2002791211591</v>
+        <v>1753.917811691842</v>
       </c>
       <c r="H78" t="n">
-        <v>1.89</v>
+        <v>1.24</v>
       </c>
       <c r="I78" t="n">
-        <v>26076</v>
+        <v>28206</v>
       </c>
     </row>
     <row r="79">
@@ -3182,22 +3182,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>533316</v>
+        <v>532217</v>
       </c>
       <c r="E79" t="n">
-        <v>9122342</v>
+        <v>9103533</v>
       </c>
       <c r="F79" t="n">
-        <v>41.53707753810158</v>
+        <v>36.8386879037437</v>
       </c>
       <c r="G79" t="n">
-        <v>323.7287431086939</v>
+        <v>345.8113976776041</v>
       </c>
       <c r="H79" t="n">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="I79" t="n">
-        <v>312998</v>
+        <v>311917</v>
       </c>
     </row>
     <row r="80">
@@ -3217,22 +3217,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>5904243</v>
+        <v>5937125</v>
       </c>
       <c r="E80" t="n">
-        <v>8022490</v>
+        <v>8067469</v>
       </c>
       <c r="F80" t="n">
-        <v>237.5665530926175</v>
+        <v>357.06769200746</v>
       </c>
       <c r="G80" t="n">
-        <v>990.8757622394194</v>
+        <v>556.6798192465851</v>
       </c>
       <c r="H80" t="n">
-        <v>0.68</v>
+        <v>0.34</v>
       </c>
       <c r="I80" t="n">
-        <v>6448996</v>
+        <v>6467890</v>
       </c>
     </row>
     <row r="81">
@@ -3251,19 +3251,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>45128</v>
+        <v>43862</v>
       </c>
       <c r="F81" t="n">
-        <v>163.5796495014384</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>51.0982897300748</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.37</v>
+        <v>4.36</v>
       </c>
       <c r="I81" t="n">
-        <v>59234</v>
+        <v>59710</v>
       </c>
     </row>
     <row r="82">
@@ -3283,22 +3283,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>40769350</v>
+        <v>40893482</v>
       </c>
       <c r="E82" t="n">
-        <v>47617632</v>
+        <v>47762615</v>
       </c>
       <c r="F82" t="n">
-        <v>213.6259495100817</v>
+        <v>350.3444687067032</v>
       </c>
       <c r="G82" t="n">
-        <v>185.0155398527286</v>
+        <v>143.264581658621</v>
       </c>
       <c r="H82" t="n">
-        <v>1.14</v>
+        <v>2.33</v>
       </c>
       <c r="I82" t="n">
-        <v>830344</v>
+        <v>852190</v>
       </c>
     </row>
     <row r="83">
@@ -3321,19 +3321,19 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>14334335</v>
+        <v>14294342</v>
       </c>
       <c r="F83" t="n">
-        <v>308.9609980208817</v>
+        <v>358.7004697916897</v>
       </c>
       <c r="G83" t="n">
-        <v>756.7030409065962</v>
+        <v>715.9210524499546</v>
       </c>
       <c r="H83" t="n">
-        <v>0.76</v>
+        <v>0.6</v>
       </c>
       <c r="I83" t="n">
-        <v>461839</v>
+        <v>458832</v>
       </c>
     </row>
     <row r="84">
@@ -3353,22 +3353,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>35320646</v>
+        <v>35294035</v>
       </c>
       <c r="E84" t="n">
-        <v>35320646</v>
+        <v>35294035</v>
       </c>
       <c r="F84" t="n">
-        <v>152.9217586232286</v>
+        <v>1.586943195975134</v>
       </c>
       <c r="G84" t="n">
-        <v>188.4033982203098</v>
+        <v>819.1820529577989</v>
       </c>
       <c r="H84" t="n">
-        <v>2.46</v>
+        <v>1.56</v>
       </c>
       <c r="I84" t="n">
-        <v>741233</v>
+        <v>739848</v>
       </c>
     </row>
     <row r="85">
@@ -3388,22 +3388,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>536542</v>
+        <v>536024</v>
       </c>
       <c r="E85" t="n">
-        <v>6507734</v>
+        <v>6501447</v>
       </c>
       <c r="F85" t="n">
-        <v>841.3554732693466</v>
+        <v>555.4605448216023</v>
       </c>
       <c r="G85" t="n">
-        <v>2086.353678950248</v>
+        <v>1716.77387926946</v>
       </c>
       <c r="H85" t="n">
-        <v>0.83</v>
+        <v>0.46</v>
       </c>
       <c r="I85" t="n">
-        <v>2762111</v>
+        <v>2759947</v>
       </c>
     </row>
     <row r="86">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>24995723</v>
+        <v>25021527</v>
       </c>
       <c r="E86" t="n">
-        <v>35330478</v>
+        <v>35366952</v>
       </c>
       <c r="F86" t="n">
-        <v>230.4941371732752</v>
+        <v>184.438099716977</v>
       </c>
       <c r="G86" t="n">
-        <v>2452.869083255587</v>
+        <v>1694.19773753137</v>
       </c>
       <c r="H86" t="n">
-        <v>1.66</v>
+        <v>1.9</v>
       </c>
       <c r="I86" t="n">
-        <v>83698</v>
+        <v>86584</v>
       </c>
     </row>
     <row r="87">
@@ -3458,22 +3458,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1267063377</v>
+        <v>1268186287</v>
       </c>
       <c r="E87" t="n">
-        <v>6075828382</v>
+        <v>6081212964</v>
       </c>
       <c r="F87" t="n">
-        <v>744162.3626153696</v>
+        <v>632648.308102095</v>
       </c>
       <c r="G87" t="n">
-        <v>827126.8814909743</v>
+        <v>826860.0505623707</v>
       </c>
       <c r="H87" t="n">
         <v>0.02</v>
       </c>
       <c r="I87" t="n">
-        <v>180345046</v>
+        <v>181687775</v>
       </c>
     </row>
     <row r="88">
@@ -3493,22 +3493,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>266968518</v>
+        <v>266306460</v>
       </c>
       <c r="E88" t="n">
-        <v>1152384329</v>
+        <v>1149526518</v>
       </c>
       <c r="F88" t="n">
-        <v>1087898.629681883</v>
+        <v>987185.7194378419</v>
       </c>
       <c r="G88" t="n">
-        <v>1033434.537339734</v>
+        <v>1140900.87296953</v>
       </c>
       <c r="H88" t="n">
         <v>0.02</v>
       </c>
       <c r="I88" t="n">
-        <v>110614652</v>
+        <v>110313754</v>
       </c>
     </row>
     <row r="89">
@@ -3528,22 +3528,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>113298901</v>
+        <v>113533535</v>
       </c>
       <c r="E89" t="n">
-        <v>113298901</v>
+        <v>113533535</v>
       </c>
       <c r="F89" t="n">
-        <v>36082.65621381281</v>
+        <v>442.8773769886648</v>
       </c>
       <c r="G89" t="n">
-        <v>27843.8833171127</v>
+        <v>307.0556063663728</v>
       </c>
       <c r="H89" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.97</v>
       </c>
       <c r="I89" t="n">
-        <v>5960486</v>
+        <v>5969720</v>
       </c>
     </row>
     <row r="90">
@@ -3563,22 +3563,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>3853977</v>
+        <v>3854552</v>
       </c>
       <c r="E90" t="n">
-        <v>29991183</v>
+        <v>29995661</v>
       </c>
       <c r="F90" t="n">
-        <v>11034.2304548685</v>
+        <v>11031.38362450373</v>
       </c>
       <c r="G90" t="n">
-        <v>12354.63221087746</v>
+        <v>12355.12956057469</v>
       </c>
       <c r="H90" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I90" t="n">
-        <v>9982.120000000001</v>
+        <v>9986.48</v>
       </c>
     </row>
     <row r="91">
@@ -3601,19 +3601,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>3745588</v>
+        <v>3750884</v>
       </c>
       <c r="F91" t="n">
-        <v>866.3098498296814</v>
+        <v>1731.721232652341</v>
       </c>
       <c r="G91" t="n">
-        <v>1534.092736635439</v>
+        <v>2665.72306593456</v>
       </c>
       <c r="H91" t="n">
-        <v>1.14</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I91" t="n">
-        <v>320293</v>
+        <v>317731</v>
       </c>
     </row>
     <row r="92">
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>900328</v>
+        <v>912784</v>
       </c>
       <c r="F92" t="n">
-        <v>22.93039025706462</v>
+        <v>10.34127955849678</v>
       </c>
       <c r="G92" t="n">
-        <v>154.2140028645536</v>
+        <v>165.8338839398151</v>
       </c>
       <c r="H92" t="n">
-        <v>3.33</v>
+        <v>3.18</v>
       </c>
       <c r="I92" t="n">
-        <v>66114</v>
+        <v>65905</v>
       </c>
     </row>
     <row r="93">
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>138320</v>
+        <v>142930</v>
       </c>
       <c r="F93" t="n">
-        <v>1.64558265267733</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>113.2425097632071</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>3.63</v>
+        <v>4.17</v>
       </c>
       <c r="I93" t="n">
-        <v>106163</v>
+        <v>106612</v>
       </c>
     </row>
     <row r="94">
@@ -3699,22 +3699,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>10854371</v>
+        <v>10911455</v>
       </c>
       <c r="E94" t="n">
-        <v>131076515</v>
+        <v>131765861</v>
       </c>
       <c r="F94" t="n">
-        <v>3382.804211832742</v>
+        <v>1932.287583677703</v>
       </c>
       <c r="G94" t="n">
-        <v>4980.322333832282</v>
+        <v>7400.288088047264</v>
       </c>
       <c r="H94" t="n">
-        <v>0.08</v>
+        <v>0.38</v>
       </c>
       <c r="I94" t="n">
-        <v>235644</v>
+        <v>235668</v>
       </c>
     </row>
     <row r="95">
@@ -3734,22 +3734,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>21479383</v>
+        <v>21399686</v>
       </c>
       <c r="E95" t="n">
-        <v>53698457</v>
+        <v>53499215</v>
       </c>
       <c r="F95" t="n">
-        <v>8914.105491220203</v>
+        <v>8504.398643032237</v>
       </c>
       <c r="G95" t="n">
-        <v>9542.469772627659</v>
+        <v>8783.213594177607</v>
       </c>
       <c r="H95" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="I95" t="n">
-        <v>2089203</v>
+        <v>2093111</v>
       </c>
     </row>
     <row r="96">
@@ -3772,19 +3772,19 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>2321694</v>
+        <v>2325525</v>
       </c>
       <c r="F96" t="n">
-        <v>167.6398556970052</v>
+        <v>167.527247815626</v>
       </c>
       <c r="G96" t="n">
-        <v>214.0207631290675</v>
+        <v>119.4980686100261</v>
       </c>
       <c r="H96" t="n">
-        <v>2.16</v>
+        <v>1.95</v>
       </c>
       <c r="I96" t="n">
-        <v>71542</v>
+        <v>71744</v>
       </c>
     </row>
     <row r="97">
@@ -3807,19 +3807,19 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>20152452</v>
+        <v>20200060</v>
       </c>
       <c r="F97" t="n">
-        <v>1891.075362211431</v>
+        <v>2718.378302348033</v>
       </c>
       <c r="G97" t="n">
-        <v>3436.759019655982</v>
+        <v>1395.379177535675</v>
       </c>
       <c r="H97" t="n">
         <v>0.99</v>
       </c>
       <c r="I97" t="n">
-        <v>128853</v>
+        <v>128456</v>
       </c>
     </row>
     <row r="98">
@@ -3839,22 +3839,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>3894454</v>
+        <v>3936016</v>
       </c>
       <c r="E98" t="n">
-        <v>11217606</v>
+        <v>11337321</v>
       </c>
       <c r="F98" t="n">
-        <v>1201.609660528444</v>
+        <v>1065.440346512396</v>
       </c>
       <c r="G98" t="n">
-        <v>802.550968224115</v>
+        <v>1120.71957548399</v>
       </c>
       <c r="H98" t="n">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="I98" t="n">
-        <v>527985</v>
+        <v>535174</v>
       </c>
     </row>
     <row r="99">
@@ -3877,7 +3877,7 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>1655403</v>
+        <v>1654121</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -3886,10 +3886,10 @@
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>4.73</v>
+        <v>4.11</v>
       </c>
       <c r="I99" t="n">
-        <v>294428</v>
+        <v>293241</v>
       </c>
     </row>
     <row r="100">
@@ -3909,22 +3909,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>79947861</v>
+        <v>80107206</v>
       </c>
       <c r="E100" t="n">
-        <v>101739866</v>
+        <v>101942645</v>
       </c>
       <c r="F100" t="n">
-        <v>8629.610679001857</v>
+        <v>8444.707612034188</v>
       </c>
       <c r="G100" t="n">
-        <v>13609.20420954131</v>
+        <v>17309.16481628684</v>
       </c>
       <c r="H100" t="n">
-        <v>0.46</v>
+        <v>0.38</v>
       </c>
       <c r="I100" t="n">
-        <v>6202882</v>
+        <v>6169139</v>
       </c>
     </row>
     <row r="101">
@@ -3944,22 +3944,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>22401194</v>
+        <v>22692978</v>
       </c>
       <c r="E101" t="n">
-        <v>29059473</v>
+        <v>29437984</v>
       </c>
       <c r="F101" t="n">
-        <v>6286.947825478097</v>
+        <v>6633.568717089252</v>
       </c>
       <c r="G101" t="n">
-        <v>7753.668904864253</v>
+        <v>7205.160982826012</v>
       </c>
       <c r="H101" t="n">
-        <v>0.61</v>
+        <v>0.39</v>
       </c>
       <c r="I101" t="n">
-        <v>157473</v>
+        <v>163085</v>
       </c>
     </row>
     <row r="102">
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>1682544</v>
+        <v>1625717</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>6.29</v>
+        <v>8</v>
       </c>
       <c r="I102" t="n">
-        <v>12224.36</v>
+        <v>12128.13</v>
       </c>
     </row>
     <row r="103">
@@ -4014,22 +4014,22 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>608783</v>
+        <v>609632</v>
       </c>
       <c r="E103" t="n">
-        <v>608783</v>
+        <v>609632</v>
       </c>
       <c r="F103" t="n">
-        <v>10.77791181799823</v>
+        <v>23.51077520571933</v>
       </c>
       <c r="G103" t="n">
-        <v>225.1823450587958</v>
+        <v>329.1370538499629</v>
       </c>
       <c r="H103" t="n">
-        <v>3.73</v>
+        <v>3.63</v>
       </c>
       <c r="I103" t="n">
-        <v>77836</v>
+        <v>77869</v>
       </c>
     </row>
     <row r="104">
@@ -4049,22 +4049,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>39726803</v>
+        <v>39830358</v>
       </c>
       <c r="E104" t="n">
-        <v>41528714</v>
+        <v>41636966</v>
       </c>
       <c r="F104" t="n">
-        <v>251.782227934115</v>
+        <v>518.1931026673927</v>
       </c>
       <c r="G104" t="n">
-        <v>1672.901263561558</v>
+        <v>1621.711231107728</v>
       </c>
       <c r="H104" t="n">
-        <v>0.28</v>
+        <v>0.33</v>
       </c>
       <c r="I104" t="n">
-        <v>838202</v>
+        <v>841259</v>
       </c>
     </row>
     <row r="105">
@@ -4084,22 +4084,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>13602286</v>
+        <v>13589701</v>
       </c>
       <c r="E105" t="n">
-        <v>13602286</v>
+        <v>13589701</v>
       </c>
       <c r="F105" t="n">
-        <v>1263.03485171876</v>
+        <v>1317.652738420428</v>
       </c>
       <c r="G105" t="n">
-        <v>3826.129410230089</v>
+        <v>3188.637040659169</v>
       </c>
       <c r="H105" t="n">
         <v>0.3</v>
       </c>
       <c r="I105" t="n">
-        <v>4407747</v>
+        <v>4385708</v>
       </c>
     </row>
     <row r="106">
@@ -4122,19 +4122,19 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>1088462</v>
+        <v>1087863</v>
       </c>
       <c r="F106" t="n">
-        <v>7.910628359891531</v>
+        <v>7.910868696741264</v>
       </c>
       <c r="G106" t="n">
-        <v>333.6619901456247</v>
+        <v>333.6721273013523</v>
       </c>
       <c r="H106" t="n">
         <v>0.73</v>
       </c>
       <c r="I106" t="n">
-        <v>3376.47</v>
+        <v>3377.22</v>
       </c>
     </row>
     <row r="107">
@@ -4154,22 +4154,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>51980874</v>
+        <v>52675407</v>
       </c>
       <c r="E107" t="n">
-        <v>132424248</v>
+        <v>134193610</v>
       </c>
       <c r="F107" t="n">
-        <v>1364.870084569257</v>
+        <v>2453.70483161656</v>
       </c>
       <c r="G107" t="n">
-        <v>4733.130236516034</v>
+        <v>3942.307370622661</v>
       </c>
       <c r="H107" t="n">
-        <v>0.52</v>
+        <v>0.34</v>
       </c>
       <c r="I107" t="n">
-        <v>2338289</v>
+        <v>2371968</v>
       </c>
     </row>
     <row r="108">
@@ -4189,22 +4189,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>13751239</v>
+        <v>13766886</v>
       </c>
       <c r="E108" t="n">
-        <v>66599444</v>
+        <v>66675224</v>
       </c>
       <c r="F108" t="n">
-        <v>7811.302556947623</v>
+        <v>7826.972452518025</v>
       </c>
       <c r="G108" t="n">
-        <v>9012.852162078054</v>
+        <v>8625.291585654481</v>
       </c>
       <c r="H108" t="n">
-        <v>0.19</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I108" t="n">
-        <v>3617891</v>
+        <v>3614667</v>
       </c>
     </row>
     <row r="109">
@@ -4227,19 +4227,19 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>529034</v>
+        <v>517964</v>
       </c>
       <c r="F109" t="n">
-        <v>122.9530424670222</v>
+        <v>126.5198634141119</v>
       </c>
       <c r="G109" t="n">
-        <v>23.46787556846229</v>
+        <v>8.005942375314147</v>
       </c>
       <c r="H109" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="I109" t="n">
-        <v>7532.31</v>
+        <v>7700.03</v>
       </c>
     </row>
     <row r="110">
@@ -4259,22 +4259,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>4502425</v>
+        <v>4499036</v>
       </c>
       <c r="E110" t="n">
-        <v>10263079</v>
+        <v>10255353</v>
       </c>
       <c r="F110" t="n">
-        <v>1539.220157514354</v>
+        <v>766.0782599385495</v>
       </c>
       <c r="G110" t="n">
-        <v>1552.30963460082</v>
+        <v>2142.733817822726</v>
       </c>
       <c r="H110" t="n">
         <v>0.87</v>
       </c>
       <c r="I110" t="n">
-        <v>99522</v>
+        <v>99842</v>
       </c>
     </row>
     <row r="111">
@@ -4297,19 +4297,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>1878984849</v>
+        <v>1880505224</v>
       </c>
       <c r="F111" t="n">
-        <v>54883.24393293844</v>
+        <v>54041.96762989274</v>
       </c>
       <c r="G111" t="n">
-        <v>48134.91174301997</v>
+        <v>46973.95821237441</v>
       </c>
       <c r="H111" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="I111" t="n">
-        <v>26189735</v>
+        <v>26181918</v>
       </c>
     </row>
     <row r="112">
@@ -4329,22 +4329,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>9371093</v>
+        <v>9372201</v>
       </c>
       <c r="E112" t="n">
-        <v>34123282</v>
+        <v>34127316</v>
       </c>
       <c r="F112" t="n">
-        <v>519.3781412791865</v>
+        <v>454.5736086905591</v>
       </c>
       <c r="G112" t="n">
-        <v>307.0940456603572</v>
+        <v>381.9204207633661</v>
       </c>
       <c r="H112" t="n">
-        <v>1.17</v>
+        <v>0.87</v>
       </c>
       <c r="I112" t="n">
-        <v>154001</v>
+        <v>160231</v>
       </c>
     </row>
     <row r="113">
@@ -4367,19 +4367,19 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>540389</v>
+        <v>540734</v>
       </c>
       <c r="F113" t="n">
-        <v>39.73625649074656</v>
+        <v>39.72346243705552</v>
       </c>
       <c r="G113" t="n">
-        <v>147.1472009293568</v>
+        <v>201.576984288473</v>
       </c>
       <c r="H113" t="n">
-        <v>1.39</v>
+        <v>1.24</v>
       </c>
       <c r="I113" t="n">
-        <v>19802.64</v>
+        <v>19811.78</v>
       </c>
     </row>
     <row r="114">
@@ -4399,22 +4399,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>12270559</v>
+        <v>12240668</v>
       </c>
       <c r="E114" t="n">
-        <v>17790540</v>
+        <v>17747203</v>
       </c>
       <c r="F114" t="n">
-        <v>2558.505269256341</v>
+        <v>2991.227763219611</v>
       </c>
       <c r="G114" t="n">
-        <v>5565.582144133316</v>
+        <v>5515.744418927101</v>
       </c>
       <c r="H114" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I114" t="n">
-        <v>2285411</v>
+        <v>2270415</v>
       </c>
     </row>
     <row r="115">
@@ -4434,22 +4434,22 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>2083867</v>
+        <v>2078575</v>
       </c>
       <c r="E115" t="n">
-        <v>14943202</v>
+        <v>14905256</v>
       </c>
       <c r="F115" t="n">
-        <v>596.5932043934034</v>
+        <v>862.4321294198032</v>
       </c>
       <c r="G115" t="n">
-        <v>1033.945751773946</v>
+        <v>1481.727909340002</v>
       </c>
       <c r="H115" t="n">
-        <v>2.26</v>
+        <v>1.33</v>
       </c>
       <c r="I115" t="n">
-        <v>1989796</v>
+        <v>1926833</v>
       </c>
     </row>
     <row r="116">
@@ -4469,10 +4469,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2767965</v>
+        <v>2755939</v>
       </c>
       <c r="E116" t="n">
-        <v>5595330</v>
+        <v>5571019</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>4258.89</v>
+        <v>4687.3</v>
       </c>
     </row>
     <row r="117">
@@ -4502,22 +4502,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>198743429</v>
+        <v>200274202</v>
       </c>
       <c r="E117" t="n">
-        <v>1125407413</v>
+        <v>1134075589</v>
       </c>
       <c r="F117" t="n">
-        <v>264463.1214567268</v>
+        <v>272216.4972627584</v>
       </c>
       <c r="G117" t="n">
-        <v>474849.6189902415</v>
+        <v>495858.2787393294</v>
       </c>
       <c r="H117" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I117" t="n">
-        <v>60617647</v>
+        <v>61656298</v>
       </c>
     </row>
     <row r="118">
@@ -4537,22 +4537,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>692574</v>
+        <v>695454</v>
       </c>
       <c r="E118" t="n">
-        <v>2296474</v>
+        <v>2306024</v>
       </c>
       <c r="F118" t="n">
-        <v>7826.719603277979</v>
+        <v>8897.255737296397</v>
       </c>
       <c r="G118" t="n">
-        <v>7056.523501562892</v>
+        <v>7542.886662387833</v>
       </c>
       <c r="H118" t="n">
-        <v>0.88</v>
+        <v>0.44</v>
       </c>
       <c r="I118" t="n">
-        <v>21744</v>
+        <v>21770</v>
       </c>
     </row>
     <row r="119">
@@ -4572,22 +4572,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2779861</v>
+        <v>2781351</v>
       </c>
       <c r="E119" t="n">
-        <v>9842315</v>
+        <v>9847590</v>
       </c>
       <c r="F119" t="n">
-        <v>14.76909802209892</v>
+        <v>281.1658329419158</v>
       </c>
       <c r="G119" t="n">
-        <v>1682.675144099199</v>
+        <v>1544.209069401532</v>
       </c>
       <c r="H119" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="I119" t="n">
-        <v>8812.610000000001</v>
+        <v>8817.35</v>
       </c>
     </row>
     <row r="120">
@@ -4607,22 +4607,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1023697</v>
+        <v>1023909</v>
       </c>
       <c r="E120" t="n">
-        <v>1023697</v>
+        <v>1023909</v>
       </c>
       <c r="F120" t="n">
-        <v>22.79894609248839</v>
+        <v>22.79963875894064</v>
       </c>
       <c r="G120" t="n">
-        <v>47.98091980869158</v>
+        <v>47.98237754157821</v>
       </c>
       <c r="H120" t="n">
         <v>3.19</v>
       </c>
       <c r="I120" t="n">
-        <v>12263.75</v>
+        <v>12185.32</v>
       </c>
     </row>
     <row r="121">
@@ -4642,22 +4642,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>498986</v>
+        <v>503030</v>
       </c>
       <c r="E121" t="n">
-        <v>1679516</v>
+        <v>1693130</v>
       </c>
       <c r="F121" t="n">
-        <v>469.6437494364865</v>
+        <v>443.4581274327081</v>
       </c>
       <c r="G121" t="n">
-        <v>617.7248905830116</v>
+        <v>617.7436803657552</v>
       </c>
       <c r="H121" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="I121" t="n">
-        <v>632276</v>
+        <v>632901</v>
       </c>
     </row>
     <row r="122">
@@ -4677,10 +4677,10 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>448203</v>
+        <v>448140</v>
       </c>
       <c r="E122" t="n">
-        <v>831503</v>
+        <v>831385</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>4.49</v>
       </c>
       <c r="I122" t="n">
-        <v>213667</v>
+        <v>213406</v>
       </c>
     </row>
     <row r="123">
@@ -4715,19 +4715,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>11778452</v>
+        <v>11776975</v>
       </c>
       <c r="F123" t="n">
-        <v>153.8949262182275</v>
+        <v>158.2455944704333</v>
       </c>
       <c r="G123" t="n">
-        <v>155.4175335081712</v>
+        <v>155.360631901991</v>
       </c>
       <c r="H123" t="n">
         <v>2.98</v>
       </c>
       <c r="I123" t="n">
-        <v>7450.8</v>
+        <v>7583.73</v>
       </c>
     </row>
     <row r="124">
@@ -4750,19 +4750,19 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>1238212</v>
+        <v>1251813</v>
       </c>
       <c r="F124" t="n">
-        <v>83.97678908094845</v>
+        <v>83.84266392998343</v>
       </c>
       <c r="G124" t="n">
-        <v>4.020025088264118</v>
+        <v>4.020187358258604</v>
       </c>
       <c r="H124" t="n">
-        <v>2.43</v>
+        <v>2.19</v>
       </c>
       <c r="I124" t="n">
-        <v>47350</v>
+        <v>48275</v>
       </c>
     </row>
     <row r="125">
@@ -4782,22 +4782,22 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3323866</v>
+        <v>3432245</v>
       </c>
       <c r="E125" t="n">
-        <v>7761780</v>
+        <v>8014863</v>
       </c>
       <c r="F125" t="n">
-        <v>991.6365644961489</v>
+        <v>912.1840687491404</v>
       </c>
       <c r="G125" t="n">
-        <v>2563.821099591362</v>
+        <v>1399.430847631827</v>
       </c>
       <c r="H125" t="n">
-        <v>0.97</v>
+        <v>0.82</v>
       </c>
       <c r="I125" t="n">
-        <v>760683</v>
+        <v>796312</v>
       </c>
     </row>
     <row r="126">
@@ -4817,22 +4817,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>262021</v>
+        <v>260598</v>
       </c>
       <c r="E126" t="n">
-        <v>2312534</v>
+        <v>2299976</v>
       </c>
       <c r="F126" t="n">
-        <v>115.6612196885533</v>
+        <v>29.40441351400067</v>
       </c>
       <c r="G126" t="n">
-        <v>90.69284460074446</v>
+        <v>102.8738979264356</v>
       </c>
       <c r="H126" t="n">
-        <v>2.41</v>
+        <v>3.61</v>
       </c>
       <c r="I126" t="n">
-        <v>75584</v>
+        <v>72086</v>
       </c>
     </row>
     <row r="127">
@@ -4855,19 +4855,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>643646</v>
+        <v>643837</v>
       </c>
       <c r="F127" t="n">
-        <v>589.9372729403306</v>
+        <v>589.9610860051561</v>
       </c>
       <c r="G127" t="n">
-        <v>472.7737331001579</v>
+        <v>472.7928168096818</v>
       </c>
       <c r="H127" t="n">
         <v>1.9</v>
       </c>
       <c r="I127" t="n">
-        <v>5673.65</v>
+        <v>5675.66</v>
       </c>
     </row>
     <row r="128">
@@ -4887,22 +4887,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>4892251</v>
+        <v>4899162</v>
       </c>
       <c r="E128" t="n">
-        <v>17287868</v>
+        <v>17312291</v>
       </c>
       <c r="F128" t="n">
-        <v>1932.835178311328</v>
+        <v>1859.343510813371</v>
       </c>
       <c r="G128" t="n">
-        <v>1785.211061624999</v>
+        <v>1831.023799642541</v>
       </c>
       <c r="H128" t="n">
         <v>0.75</v>
       </c>
       <c r="I128" t="n">
-        <v>105920</v>
+        <v>106019</v>
       </c>
     </row>
     <row r="129">
@@ -4925,19 +4925,19 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2157787</v>
+        <v>2301978</v>
       </c>
       <c r="F129" t="n">
-        <v>31.61861259607067</v>
+        <v>99.73613231058081</v>
       </c>
       <c r="G129" t="n">
-        <v>73.97486608902534</v>
+        <v>11.1690610035486</v>
       </c>
       <c r="H129" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I129" t="n">
-        <v>7326.18</v>
+        <v>7572.61</v>
       </c>
     </row>
     <row r="130">
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>2499687</v>
+        <v>2501188</v>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
@@ -4970,7 +4970,7 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>2443.44</v>
+        <v>2444.9</v>
       </c>
     </row>
     <row r="131">
@@ -4990,22 +4990,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>80961</v>
+        <v>80788</v>
       </c>
       <c r="E131" t="n">
-        <v>80961</v>
+        <v>80788</v>
       </c>
       <c r="F131" t="n">
-        <v>49.90142479195526</v>
+        <v>10.27261201036428</v>
       </c>
       <c r="G131" t="n">
-        <v>72.06592803245549</v>
+        <v>6.696041010086462</v>
       </c>
       <c r="H131" t="n">
-        <v>0.21</v>
+        <v>1.76</v>
       </c>
       <c r="I131" t="n">
-        <v>20162</v>
+        <v>19881.78</v>
       </c>
     </row>
     <row r="132">
@@ -5028,19 +5028,19 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>4380520</v>
+        <v>4363471</v>
       </c>
       <c r="F132" t="n">
-        <v>461.0748715488285</v>
+        <v>342.3564793425438</v>
       </c>
       <c r="G132" t="n">
-        <v>151.566672012335</v>
+        <v>261.1310456177749</v>
       </c>
       <c r="H132" t="n">
         <v>0.29</v>
       </c>
       <c r="I132" t="n">
-        <v>310619</v>
+        <v>282929</v>
       </c>
     </row>
     <row r="133">
@@ -5060,22 +5060,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2102889</v>
+        <v>2102382</v>
       </c>
       <c r="E133" t="n">
-        <v>8587654</v>
+        <v>8585584</v>
       </c>
       <c r="F133" t="n">
-        <v>387.4116641913981</v>
+        <v>392.7828222403194</v>
       </c>
       <c r="G133" t="n">
-        <v>325.7206457994284</v>
+        <v>636.8955869855702</v>
       </c>
       <c r="H133" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="I133" t="n">
-        <v>553100</v>
+        <v>547185</v>
       </c>
     </row>
     <row r="134">
@@ -5095,22 +5095,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>7431630</v>
+        <v>7482089</v>
       </c>
       <c r="E134" t="n">
-        <v>7486871</v>
+        <v>7537706</v>
       </c>
       <c r="F134" t="n">
-        <v>256277.2425383899</v>
+        <v>258034.1847764576</v>
       </c>
       <c r="G134" t="n">
-        <v>257714.8097466087</v>
+        <v>313425.4299943548</v>
       </c>
       <c r="H134" t="n">
-        <v>0.28</v>
+        <v>0.44</v>
       </c>
       <c r="I134" t="n">
-        <v>4835728</v>
+        <v>5051907</v>
       </c>
     </row>
     <row r="135">
@@ -5130,22 +5130,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>13492407</v>
+        <v>13513877</v>
       </c>
       <c r="E135" t="n">
-        <v>13538323</v>
+        <v>13559866</v>
       </c>
       <c r="F135" t="n">
-        <v>11797.52113353772</v>
+        <v>12023.02361710667</v>
       </c>
       <c r="G135" t="n">
-        <v>12212.53263963093</v>
+        <v>12270.12022621563</v>
       </c>
       <c r="H135" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="I135" t="n">
-        <v>5756248</v>
+        <v>5770605</v>
       </c>
     </row>
     <row r="136">
@@ -5165,22 +5165,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>42862837</v>
+        <v>42886871</v>
       </c>
       <c r="E136" t="n">
-        <v>72771125</v>
+        <v>72811929</v>
       </c>
       <c r="F136" t="n">
-        <v>890.5619281539042</v>
+        <v>991.2296291825414</v>
       </c>
       <c r="G136" t="n">
-        <v>885.0569265206054</v>
+        <v>772.6623593010811</v>
       </c>
       <c r="H136" t="n">
         <v>0.01</v>
       </c>
       <c r="I136" t="n">
-        <v>1110406</v>
+        <v>1108149</v>
       </c>
     </row>
     <row r="137">
@@ -5200,22 +5200,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>25349462</v>
+        <v>25092853</v>
       </c>
       <c r="E137" t="n">
-        <v>75985269</v>
+        <v>75216550</v>
       </c>
       <c r="F137" t="n">
-        <v>95029.03237453304</v>
+        <v>93137.22789341326</v>
       </c>
       <c r="G137" t="n">
-        <v>79202.84983958234</v>
+        <v>85044.88081989273</v>
       </c>
       <c r="H137" t="n">
         <v>0.15</v>
       </c>
       <c r="I137" t="n">
-        <v>2501378</v>
+        <v>2552911</v>
       </c>
     </row>
     <row r="138">
@@ -5235,22 +5235,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>101034338</v>
+        <v>101124305</v>
       </c>
       <c r="E138" t="n">
-        <v>107408632</v>
+        <v>107504275</v>
       </c>
       <c r="F138" t="n">
-        <v>7184.494792205868</v>
+        <v>5218.85366199351</v>
       </c>
       <c r="G138" t="n">
-        <v>12482.29565350116</v>
+        <v>11369.01883654571</v>
       </c>
       <c r="H138" t="n">
-        <v>0.49</v>
+        <v>0.36</v>
       </c>
       <c r="I138" t="n">
-        <v>977965</v>
+        <v>978010</v>
       </c>
     </row>
     <row r="139">
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1161437</v>
+        <v>1161395</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -5285,7 +5285,7 @@
         <v>5.44</v>
       </c>
       <c r="I139" t="n">
-        <v>136.34</v>
+        <v>136.33</v>
       </c>
     </row>
     <row r="140">
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>258604</v>
+        <v>258732</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -5320,7 +5320,7 @@
         <v>8.19</v>
       </c>
       <c r="I140" t="n">
-        <v>534.8200000000001</v>
+        <v>534.9400000000001</v>
       </c>
     </row>
     <row r="141">
@@ -5336,10 +5336,10 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>97019</v>
+        <v>97012</v>
       </c>
       <c r="E141" t="n">
-        <v>275220</v>
+        <v>275201</v>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
@@ -5369,22 +5369,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>46454550</v>
+        <v>46584987</v>
       </c>
       <c r="E142" t="n">
-        <v>200121120</v>
+        <v>200683030</v>
       </c>
       <c r="F142" t="n">
-        <v>68991.70425899452</v>
+        <v>63430.58844198564</v>
       </c>
       <c r="G142" t="n">
-        <v>67748.42136630628</v>
+        <v>70099.27500277497</v>
       </c>
       <c r="H142" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="I142" t="n">
-        <v>8645406</v>
+        <v>8668201</v>
       </c>
     </row>
     <row r="143">
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>280242</v>
+        <v>280515</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -5419,7 +5419,7 @@
         <v>9.06</v>
       </c>
       <c r="I143" t="n">
-        <v>208941</v>
+        <v>208893</v>
       </c>
     </row>
     <row r="144">
@@ -5442,19 +5442,19 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>9461588</v>
+        <v>9482659</v>
       </c>
       <c r="F144" t="n">
-        <v>1099.9550416695</v>
+        <v>1246.116647748862</v>
       </c>
       <c r="G144" t="n">
-        <v>349.4597360281418</v>
+        <v>349.4738421165848</v>
       </c>
       <c r="H144" t="n">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="I144" t="n">
-        <v>112541</v>
+        <v>121571</v>
       </c>
     </row>
     <row r="145">
@@ -5474,22 +5474,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1188234</v>
+        <v>1189718</v>
       </c>
       <c r="E145" t="n">
-        <v>7921561</v>
+        <v>7931456</v>
       </c>
       <c r="F145" t="n">
-        <v>51.74208432346843</v>
+        <v>51.74417291434871</v>
       </c>
       <c r="G145" t="n">
-        <v>96.18384754938009</v>
+        <v>96.18773005062542</v>
       </c>
       <c r="H145" t="n">
         <v>0.53</v>
       </c>
       <c r="I145" t="n">
-        <v>4794.64</v>
+        <v>4798.76</v>
       </c>
     </row>
     <row r="146">
@@ -5512,19 +5512,19 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>7927542</v>
+        <v>7897473</v>
       </c>
       <c r="F146" t="n">
-        <v>152.6062760578934</v>
+        <v>164.8082038749826</v>
       </c>
       <c r="G146" t="n">
-        <v>201.4041040016866</v>
+        <v>201.4122337626031</v>
       </c>
       <c r="H146" t="n">
         <v>1.14</v>
       </c>
       <c r="I146" t="n">
-        <v>6351970</v>
+        <v>6335776</v>
       </c>
     </row>
     <row r="147">
@@ -5544,22 +5544,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>663562</v>
+        <v>664369</v>
       </c>
       <c r="E147" t="n">
-        <v>2395862</v>
+        <v>2398774</v>
       </c>
       <c r="F147" t="n">
-        <v>10.9841248323746</v>
+        <v>24.96813108452238</v>
       </c>
       <c r="G147" t="n">
-        <v>158.6073609033288</v>
+        <v>253.5775198928152</v>
       </c>
       <c r="H147" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="I147" t="n">
-        <v>389798</v>
+        <v>393084</v>
       </c>
     </row>
     <row r="148">
@@ -5582,19 +5582,19 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>1612040</v>
+        <v>1647753</v>
       </c>
       <c r="F148" t="n">
-        <v>38.40517412581031</v>
+        <v>162.7693857773054</v>
       </c>
       <c r="G148" t="n">
-        <v>1119.214528893836</v>
+        <v>39.37782992613401</v>
       </c>
       <c r="H148" t="n">
-        <v>1.38</v>
+        <v>1.54</v>
       </c>
       <c r="I148" t="n">
-        <v>85044</v>
+        <v>86305</v>
       </c>
     </row>
     <row r="149">
@@ -5617,7 +5617,7 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>65119</v>
+        <v>65121</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
@@ -5629,7 +5629,7 @@
         <v>6.25</v>
       </c>
       <c r="I149" t="n">
-        <v>874.42</v>
+        <v>874.35</v>
       </c>
     </row>
     <row r="150">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>12896882</v>
+        <v>13039861</v>
       </c>
       <c r="E150" t="n">
-        <v>12896882</v>
+        <v>13039861</v>
       </c>
       <c r="F150" t="n">
-        <v>684.4026699326982</v>
+        <v>851.8009060783274</v>
       </c>
       <c r="G150" t="n">
-        <v>648.6804084702381</v>
+        <v>571.6390926933634</v>
       </c>
       <c r="H150" t="n">
-        <v>0.7</v>
+        <v>0.47</v>
       </c>
       <c r="I150" t="n">
-        <v>2931998</v>
+        <v>3015760</v>
       </c>
     </row>
     <row r="151">
@@ -5684,22 +5684,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1664247</v>
+        <v>1662424</v>
       </c>
       <c r="E151" t="n">
-        <v>6047627</v>
+        <v>6041004</v>
       </c>
       <c r="F151" t="n">
-        <v>34.98845346415155</v>
+        <v>44.04957129581624</v>
       </c>
       <c r="G151" t="n">
-        <v>182.7572417039983</v>
+        <v>149.6999293926392</v>
       </c>
       <c r="H151" t="n">
-        <v>1.38</v>
+        <v>2.73</v>
       </c>
       <c r="I151" t="n">
-        <v>134396</v>
+        <v>134459</v>
       </c>
     </row>
     <row r="152">
@@ -5719,10 +5719,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1238874</v>
+        <v>1238831</v>
       </c>
       <c r="E152" t="n">
-        <v>1238874</v>
+        <v>1238831</v>
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>638.55</v>
+        <v>638.59</v>
       </c>
     </row>
     <row r="153">
@@ -5752,22 +5752,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>23698751</v>
+        <v>23705291</v>
       </c>
       <c r="E153" t="n">
-        <v>27320371</v>
+        <v>27329859</v>
       </c>
       <c r="F153" t="n">
-        <v>234.2721079323813</v>
+        <v>341.6516866086711</v>
       </c>
       <c r="G153" t="n">
-        <v>405.2390220183867</v>
+        <v>522.0889700366978</v>
       </c>
       <c r="H153" t="n">
-        <v>0.4</v>
+        <v>0.14</v>
       </c>
       <c r="I153" t="n">
-        <v>754567</v>
+        <v>754989</v>
       </c>
     </row>
     <row r="154">
@@ -5787,22 +5787,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2450249</v>
+        <v>2451276</v>
       </c>
       <c r="E154" t="n">
-        <v>18437960</v>
+        <v>18445683</v>
       </c>
       <c r="F154" t="n">
-        <v>5585.822740667342</v>
+        <v>4704.02383037787</v>
       </c>
       <c r="G154" t="n">
-        <v>3396.115709007107</v>
+        <v>3121.410977852227</v>
       </c>
       <c r="H154" t="n">
         <v>0.05</v>
       </c>
       <c r="I154" t="n">
-        <v>162603</v>
+        <v>162410</v>
       </c>
     </row>
     <row r="155">
@@ -5822,22 +5822,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>20171901</v>
+        <v>20303653</v>
       </c>
       <c r="E155" t="n">
-        <v>80687603</v>
+        <v>81214612</v>
       </c>
       <c r="F155" t="n">
-        <v>12989.71942594893</v>
+        <v>10733.93549818745</v>
       </c>
       <c r="G155" t="n">
-        <v>18140.23173206578</v>
+        <v>28586.29581259273</v>
       </c>
       <c r="H155" t="n">
-        <v>0.62</v>
+        <v>0.49</v>
       </c>
       <c r="I155" t="n">
-        <v>5954078</v>
+        <v>5970251</v>
       </c>
     </row>
     <row r="156">
@@ -5857,22 +5857,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>292407722</v>
+        <v>294501901</v>
       </c>
       <c r="E156" t="n">
-        <v>292407722</v>
+        <v>294501901</v>
       </c>
       <c r="F156" t="n">
-        <v>329681.8629567652</v>
+        <v>384037.8757947907</v>
       </c>
       <c r="G156" t="n">
-        <v>396831.6656628468</v>
+        <v>348387.9347004607</v>
       </c>
       <c r="H156" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="I156" t="n">
-        <v>12056246</v>
+        <v>12209199</v>
       </c>
     </row>
     <row r="157">
@@ -5892,22 +5892,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>12702297</v>
+        <v>12778557</v>
       </c>
       <c r="E157" t="n">
-        <v>40186305</v>
+        <v>40427570</v>
       </c>
       <c r="F157" t="n">
-        <v>10612.40493223382</v>
+        <v>10012.05213622957</v>
       </c>
       <c r="G157" t="n">
-        <v>11178.63700700742</v>
+        <v>12272.84161653961</v>
       </c>
       <c r="H157" t="n">
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
       <c r="I157" t="n">
-        <v>1493685</v>
+        <v>1484479</v>
       </c>
     </row>
     <row r="158">
@@ -5927,10 +5927,10 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1087810</v>
+        <v>1087906</v>
       </c>
       <c r="E158" t="n">
-        <v>2477594</v>
+        <v>2477812</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -5942,7 +5942,7 @@
         <v>6.37</v>
       </c>
       <c r="I158" t="n">
-        <v>4841.45</v>
+        <v>4841.9</v>
       </c>
     </row>
     <row r="159">
@@ -5962,22 +5962,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>16828047</v>
+        <v>16897221</v>
       </c>
       <c r="E159" t="n">
-        <v>16828047</v>
+        <v>16897221</v>
       </c>
       <c r="F159" t="n">
-        <v>15119.28730279468</v>
+        <v>16667.89169685924</v>
       </c>
       <c r="G159" t="n">
-        <v>17434.44021133711</v>
+        <v>18385.61854907552</v>
       </c>
       <c r="H159" t="n">
-        <v>0.18</v>
+        <v>0.06</v>
       </c>
       <c r="I159" t="n">
-        <v>3256212</v>
+        <v>2413097</v>
       </c>
     </row>
     <row r="160">
@@ -5997,10 +5997,10 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>4862199</v>
+        <v>4862021</v>
       </c>
       <c r="E160" t="n">
-        <v>8951828</v>
+        <v>8951501</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -6009,7 +6009,7 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>10.28</v>
+        <v>10.21</v>
       </c>
       <c r="I160" t="n">
         <v>12.48</v>
@@ -6032,10 +6032,10 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>108464</v>
+        <v>108570</v>
       </c>
       <c r="E161" t="n">
-        <v>130386</v>
+        <v>130513</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -6044,10 +6044,10 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>7.35</v>
+        <v>7.22</v>
       </c>
       <c r="I161" t="n">
-        <v>4485.24</v>
+        <v>4489.12</v>
       </c>
     </row>
     <row r="162">
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>19501883</v>
+        <v>19494077</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -6079,10 +6079,10 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>9.58</v>
+        <v>10.9</v>
       </c>
       <c r="I162" t="n">
-        <v>1381.01</v>
+        <v>1381.04</v>
       </c>
     </row>
     <row r="163">
@@ -6102,22 +6102,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>435630</v>
+        <v>436670</v>
       </c>
       <c r="E163" t="n">
-        <v>548730</v>
+        <v>550041</v>
       </c>
       <c r="F163" t="n">
-        <v>208.6050385135103</v>
+        <v>157.8346217877537</v>
       </c>
       <c r="G163" t="n">
-        <v>159.421856804569</v>
+        <v>160.3736501599712</v>
       </c>
       <c r="H163" t="n">
-        <v>1.09</v>
+        <v>1.44</v>
       </c>
       <c r="I163" t="n">
-        <v>188510</v>
+        <v>188880</v>
       </c>
     </row>
     <row r="164">
@@ -6140,19 +6140,19 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>108422</v>
+        <v>108418</v>
       </c>
       <c r="F164" t="n">
-        <v>119.0532299046577</v>
+        <v>148.6667461556118</v>
       </c>
       <c r="G164" t="n">
-        <v>1.214309293123522</v>
+        <v>1.214339585285996</v>
       </c>
       <c r="H164" t="n">
-        <v>2.33</v>
+        <v>2.6</v>
       </c>
       <c r="I164" t="n">
-        <v>3711.46</v>
+        <v>3711.18</v>
       </c>
     </row>
     <row r="165">
@@ -6172,22 +6172,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>12085288</v>
+        <v>12089386</v>
       </c>
       <c r="E165" t="n">
-        <v>18418776</v>
+        <v>18425022</v>
       </c>
       <c r="F165" t="n">
-        <v>1479.709696159497</v>
+        <v>1042.610796058783</v>
       </c>
       <c r="G165" t="n">
-        <v>1238.986863856252</v>
+        <v>4107.305337488797</v>
       </c>
       <c r="H165" t="n">
         <v>1.44</v>
       </c>
       <c r="I165" t="n">
-        <v>673118</v>
+        <v>672468</v>
       </c>
     </row>
     <row r="166">
@@ -6207,22 +6207,22 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>298594125</v>
+        <v>298639305</v>
       </c>
       <c r="E166" t="n">
-        <v>298594125</v>
+        <v>298639305</v>
       </c>
       <c r="F166" t="n">
-        <v>277584.2900162481</v>
+        <v>240893.524286859</v>
       </c>
       <c r="G166" t="n">
-        <v>317906.2767433746</v>
+        <v>334113.5936705182</v>
       </c>
       <c r="H166" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I166" t="n">
-        <v>50129658</v>
+        <v>50119860</v>
       </c>
     </row>
     <row r="167">
@@ -6242,22 +6242,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>9533496</v>
+        <v>9580215</v>
       </c>
       <c r="E167" t="n">
-        <v>27067184</v>
+        <v>27199829</v>
       </c>
       <c r="F167" t="n">
-        <v>1070.075315561617</v>
+        <v>986.3775940651402</v>
       </c>
       <c r="G167" t="n">
-        <v>1449.761625766736</v>
+        <v>1413.535668586309</v>
       </c>
       <c r="H167" t="n">
         <v>1.48</v>
       </c>
       <c r="I167" t="n">
-        <v>110155</v>
+        <v>107049</v>
       </c>
     </row>
     <row r="168">
@@ -6280,19 +6280,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>11910260</v>
+        <v>11906274</v>
       </c>
       <c r="F168" t="n">
-        <v>124.3506273518184</v>
+        <v>125.3479147243023</v>
       </c>
       <c r="G168" t="n">
-        <v>1469.309923366018</v>
+        <v>1408.219819895972</v>
       </c>
       <c r="H168" t="n">
-        <v>0.84</v>
+        <v>0.76</v>
       </c>
       <c r="I168" t="n">
-        <v>116293</v>
+        <v>116172</v>
       </c>
     </row>
     <row r="169">
@@ -6312,22 +6312,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>4159408</v>
+        <v>4269883</v>
       </c>
       <c r="E169" t="n">
-        <v>28420941</v>
+        <v>29175809</v>
       </c>
       <c r="F169" t="n">
-        <v>759.6225203136489</v>
+        <v>2022.883024765069</v>
       </c>
       <c r="G169" t="n">
-        <v>1654.505378796467</v>
+        <v>1513.513411348142</v>
       </c>
       <c r="H169" t="n">
         <v>0.34</v>
       </c>
       <c r="I169" t="n">
-        <v>2539702</v>
+        <v>2569218</v>
       </c>
     </row>
     <row r="170">
@@ -6347,22 +6347,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2947099</v>
+        <v>2958892</v>
       </c>
       <c r="E170" t="n">
-        <v>4374488</v>
+        <v>4391747</v>
       </c>
       <c r="F170" t="n">
-        <v>253.1437602524367</v>
+        <v>373.8872006104142</v>
       </c>
       <c r="G170" t="n">
-        <v>2280.249351858821</v>
+        <v>2236.018626495911</v>
       </c>
       <c r="H170" t="n">
-        <v>0.46</v>
+        <v>1.14</v>
       </c>
       <c r="I170" t="n">
-        <v>230883</v>
+        <v>228670</v>
       </c>
     </row>
     <row r="171">
@@ -6382,22 +6382,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>88888807</v>
+        <v>88897159</v>
       </c>
       <c r="E171" t="n">
-        <v>512215643</v>
+        <v>512263772</v>
       </c>
       <c r="F171" t="n">
-        <v>381073.9879566866</v>
+        <v>336414.5107132302</v>
       </c>
       <c r="G171" t="n">
-        <v>225813.2880506096</v>
+        <v>306134.6846833149</v>
       </c>
       <c r="H171" t="n">
-        <v>0.22</v>
+        <v>0.08</v>
       </c>
       <c r="I171" t="n">
-        <v>16082620</v>
+        <v>15895670</v>
       </c>
     </row>
     <row r="172">
@@ -6417,22 +6417,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>14014721</v>
+        <v>14006493</v>
       </c>
       <c r="E172" t="n">
-        <v>14014721</v>
+        <v>14006493</v>
       </c>
       <c r="F172" t="n">
-        <v>4176.181444993243</v>
+        <v>3773.670442428384</v>
       </c>
       <c r="G172" t="n">
-        <v>5822.700832761755</v>
+        <v>5534.898842995546</v>
       </c>
       <c r="H172" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="I172" t="n">
-        <v>596032</v>
+        <v>588152</v>
       </c>
     </row>
     <row r="173">
@@ -6452,22 +6452,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>6165318</v>
+        <v>6168695</v>
       </c>
       <c r="E173" t="n">
-        <v>17513900</v>
+        <v>17523492</v>
       </c>
       <c r="F173" t="n">
-        <v>454.312356772123</v>
+        <v>447.2354316094655</v>
       </c>
       <c r="G173" t="n">
-        <v>313.6593012572999</v>
+        <v>504.2972284990064</v>
       </c>
       <c r="H173" t="n">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="I173" t="n">
-        <v>231497</v>
+        <v>232127</v>
       </c>
     </row>
     <row r="174">
@@ -6487,22 +6487,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>17732731</v>
+        <v>17744852</v>
       </c>
       <c r="E174" t="n">
-        <v>17732731</v>
+        <v>17744852</v>
       </c>
       <c r="F174" t="n">
-        <v>946.9853774408629</v>
+        <v>959.251184519008</v>
       </c>
       <c r="G174" t="n">
-        <v>212.7079970595357</v>
+        <v>212.713303273729</v>
       </c>
       <c r="H174" t="n">
-        <v>0.85</v>
+        <v>0.76</v>
       </c>
       <c r="I174" t="n">
-        <v>39127</v>
+        <v>38850</v>
       </c>
     </row>
     <row r="175">
@@ -6525,19 +6525,19 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>1333464</v>
+        <v>1320756</v>
       </c>
       <c r="F175" t="n">
-        <v>113.7253421544127</v>
+        <v>33.83393415700611</v>
       </c>
       <c r="G175" t="n">
-        <v>1453.18758788941</v>
+        <v>442.7412312222762</v>
       </c>
       <c r="H175" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="I175" t="n">
-        <v>17869.82</v>
+        <v>19763.14</v>
       </c>
     </row>
     <row r="176">
@@ -6557,10 +6557,10 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>144603</v>
+        <v>135858</v>
       </c>
       <c r="E176" t="n">
-        <v>314799</v>
+        <v>295761</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -6569,10 +6569,10 @@
         <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>9.23</v>
+        <v>7.67</v>
       </c>
       <c r="I176" t="n">
-        <v>53420</v>
+        <v>563.29</v>
       </c>
     </row>
     <row r="177">
@@ -6595,19 +6595,19 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>2308538</v>
+        <v>2323832</v>
       </c>
       <c r="F177" t="n">
-        <v>407.9227333969924</v>
+        <v>639.240271411436</v>
       </c>
       <c r="G177" t="n">
-        <v>761.6750875380686</v>
+        <v>1238.833755903854</v>
       </c>
       <c r="H177" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="I177" t="n">
-        <v>155259</v>
+        <v>154986</v>
       </c>
     </row>
     <row r="178">
@@ -6627,22 +6627,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>246156546</v>
+        <v>245618649</v>
       </c>
       <c r="E178" t="n">
-        <v>246158991</v>
+        <v>245621089</v>
       </c>
       <c r="F178" t="n">
-        <v>46952.08626983265</v>
+        <v>47360.50051782291</v>
       </c>
       <c r="G178" t="n">
-        <v>56821.62178938021</v>
+        <v>54984.81923114054</v>
       </c>
       <c r="H178" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="I178" t="n">
-        <v>2678688</v>
+        <v>2681456</v>
       </c>
     </row>
     <row r="179">
@@ -6662,22 +6662,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>9286076</v>
+        <v>9290383</v>
       </c>
       <c r="E179" t="n">
-        <v>9286076</v>
+        <v>9290383</v>
       </c>
       <c r="F179" t="n">
-        <v>1692.359548955538</v>
+        <v>1910.688918577245</v>
       </c>
       <c r="G179" t="n">
-        <v>343.9887747180192</v>
+        <v>323.449377577152</v>
       </c>
       <c r="H179" t="n">
-        <v>0.91</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I179" t="n">
-        <v>2069183</v>
+        <v>2069052</v>
       </c>
     </row>
     <row r="180">
@@ -6697,22 +6697,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>185764</v>
+        <v>179689</v>
       </c>
       <c r="E180" t="n">
-        <v>1434468</v>
+        <v>1387559</v>
       </c>
       <c r="F180" t="n">
-        <v>25.59515544265678</v>
+        <v>21.77914835750688</v>
       </c>
       <c r="G180" t="n">
-        <v>66.02328571547217</v>
+        <v>18.92140476963311</v>
       </c>
       <c r="H180" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="I180" t="n">
-        <v>120434</v>
+        <v>126196</v>
       </c>
     </row>
     <row r="181">
@@ -6732,22 +6732,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>30297940</v>
+        <v>30307749</v>
       </c>
       <c r="E181" t="n">
-        <v>135656306</v>
+        <v>135700224</v>
       </c>
       <c r="F181" t="n">
-        <v>61803.3101659828</v>
+        <v>60214.20188721937</v>
       </c>
       <c r="G181" t="n">
-        <v>94709.82695778389</v>
+        <v>93536.063950621</v>
       </c>
       <c r="H181" t="n">
         <v>0.22</v>
       </c>
       <c r="I181" t="n">
-        <v>8799379</v>
+        <v>8776301</v>
       </c>
     </row>
     <row r="182">
@@ -6770,19 +6770,19 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>1448968</v>
+        <v>1456112</v>
       </c>
       <c r="F182" t="n">
-        <v>681.3584795710531</v>
+        <v>686.6914240531883</v>
       </c>
       <c r="G182" t="n">
-        <v>4856.527522102377</v>
+        <v>4881.008262855067</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>1.47</v>
       </c>
       <c r="I182" t="n">
-        <v>68240</v>
+        <v>68195</v>
       </c>
     </row>
     <row r="183">
@@ -6802,22 +6802,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>3061165</v>
+        <v>3069443</v>
       </c>
       <c r="E183" t="n">
-        <v>3061165</v>
+        <v>3069443</v>
       </c>
       <c r="F183" t="n">
-        <v>370.6729536142633</v>
+        <v>368.9639504368434</v>
       </c>
       <c r="G183" t="n">
-        <v>1120.217481558563</v>
+        <v>199.809773071576</v>
       </c>
       <c r="H183" t="n">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="I183" t="n">
-        <v>401639</v>
+        <v>401351</v>
       </c>
     </row>
     <row r="184">
@@ -6837,22 +6837,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>574329</v>
+        <v>575305</v>
       </c>
       <c r="E184" t="n">
-        <v>574329</v>
+        <v>575305</v>
       </c>
       <c r="F184" t="n">
-        <v>4.837364527253828</v>
+        <v>18.47477359290021</v>
       </c>
       <c r="G184" t="n">
-        <v>25.3091440853078</v>
+        <v>25.30977544727549</v>
       </c>
       <c r="H184" t="n">
         <v>1.75</v>
       </c>
       <c r="I184" t="n">
-        <v>1406952</v>
+        <v>1406069</v>
       </c>
     </row>
     <row r="185">
@@ -6872,22 +6872,22 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>13943304</v>
+        <v>13778976</v>
       </c>
       <c r="E185" t="n">
-        <v>17752052</v>
+        <v>17542836</v>
       </c>
       <c r="F185" t="n">
-        <v>188.151912481656</v>
+        <v>106.1218897252708</v>
       </c>
       <c r="G185" t="n">
-        <v>2928.070631271464</v>
+        <v>3005.379760261362</v>
       </c>
       <c r="H185" t="n">
-        <v>1.42</v>
+        <v>1.2</v>
       </c>
       <c r="I185" t="n">
-        <v>787791</v>
+        <v>787277</v>
       </c>
     </row>
     <row r="186">
@@ -6907,22 +6907,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1876872</v>
+        <v>1929395</v>
       </c>
       <c r="E186" t="n">
-        <v>1876872</v>
+        <v>1929395</v>
       </c>
       <c r="F186" t="n">
-        <v>2.28445894747396</v>
+        <v>4.625578957786579</v>
       </c>
       <c r="G186" t="n">
-        <v>184.8126208010554</v>
+        <v>184.8172311371272</v>
       </c>
       <c r="H186" t="n">
         <v>3.7</v>
       </c>
       <c r="I186" t="n">
-        <v>2178.43</v>
+        <v>2220.41</v>
       </c>
     </row>
     <row r="187">
@@ -6942,22 +6942,22 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>47123479</v>
+        <v>47211715</v>
       </c>
       <c r="E187" t="n">
-        <v>305583220</v>
+        <v>306155404</v>
       </c>
       <c r="F187" t="n">
-        <v>138065.1793538942</v>
+        <v>124395.3834710972</v>
       </c>
       <c r="G187" t="n">
-        <v>173274.2922892767</v>
+        <v>119699.9070224424</v>
       </c>
       <c r="H187" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="I187" t="n">
-        <v>17323498</v>
+        <v>17204692</v>
       </c>
     </row>
     <row r="188">
@@ -6980,19 +6980,19 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>9368204</v>
+        <v>9317366</v>
       </c>
       <c r="F188" t="n">
-        <v>940.0913900680799</v>
+        <v>413.328856355185</v>
       </c>
       <c r="G188" t="n">
-        <v>113.4362293295701</v>
+        <v>169.9115102211891</v>
       </c>
       <c r="H188" t="n">
-        <v>0.43</v>
+        <v>0.21</v>
       </c>
       <c r="I188" t="n">
-        <v>299892</v>
+        <v>272354</v>
       </c>
     </row>
     <row r="189">
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>7017146</v>
+        <v>7033661</v>
       </c>
       <c r="E189" t="n">
-        <v>7027114</v>
+        <v>7043737</v>
       </c>
       <c r="F189" t="n">
-        <v>62.99961698284151</v>
+        <v>79.83179209563725</v>
       </c>
       <c r="G189" t="n">
-        <v>125.8064241035816</v>
+        <v>125.3092342156678</v>
       </c>
       <c r="H189" t="n">
-        <v>0.18</v>
+        <v>0.88</v>
       </c>
       <c r="I189" t="n">
-        <v>968067</v>
+        <v>966114</v>
       </c>
     </row>
     <row r="190">
@@ -7050,19 +7050,19 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>4832314</v>
+        <v>4840762</v>
       </c>
       <c r="F190" t="n">
-        <v>2372.277328421358</v>
+        <v>2373.730838395551</v>
       </c>
       <c r="G190" t="n">
-        <v>190.4461184434253</v>
+        <v>315.3461394616604</v>
       </c>
       <c r="H190" t="n">
         <v>1.4</v>
       </c>
       <c r="I190" t="n">
-        <v>160181</v>
+        <v>109249</v>
       </c>
     </row>
     <row r="191">
@@ -7082,22 +7082,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>73203884</v>
+        <v>73408929</v>
       </c>
       <c r="E191" t="n">
-        <v>73991876</v>
+        <v>74199127</v>
       </c>
       <c r="F191" t="n">
-        <v>55623.38617182451</v>
+        <v>55600.94951433659</v>
       </c>
       <c r="G191" t="n">
-        <v>64592.64086864002</v>
+        <v>60740.49202978146</v>
       </c>
       <c r="H191" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="I191" t="n">
-        <v>8601418</v>
+        <v>8601457</v>
       </c>
     </row>
     <row r="192">
@@ -7117,22 +7117,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>234947359</v>
+        <v>235235781</v>
       </c>
       <c r="E192" t="n">
-        <v>234947359</v>
+        <v>235235781</v>
       </c>
       <c r="F192" t="n">
-        <v>94279.66852734402</v>
+        <v>112403.0935268396</v>
       </c>
       <c r="G192" t="n">
-        <v>126628.1562629987</v>
+        <v>96114.48219507802</v>
       </c>
       <c r="H192" t="n">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
       <c r="I192" t="n">
-        <v>43661473</v>
+        <v>43979786</v>
       </c>
     </row>
     <row r="193">
@@ -7152,22 +7152,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>23164759</v>
+        <v>23148471</v>
       </c>
       <c r="E193" t="n">
-        <v>138599407</v>
+        <v>138501954</v>
       </c>
       <c r="F193" t="n">
-        <v>102717.4281126345</v>
+        <v>86389.70817177492</v>
       </c>
       <c r="G193" t="n">
-        <v>106588.9309926962</v>
+        <v>113845.9031977149</v>
       </c>
       <c r="H193" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I193" t="n">
-        <v>12658466</v>
+        <v>12477119</v>
       </c>
     </row>
     <row r="194">
@@ -7187,22 +7187,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>14283597</v>
+        <v>14371369</v>
       </c>
       <c r="E194" t="n">
-        <v>43831346</v>
+        <v>44100689</v>
       </c>
       <c r="F194" t="n">
-        <v>444.774744755147</v>
+        <v>652.0787486996186</v>
       </c>
       <c r="G194" t="n">
-        <v>1467.434158456249</v>
+        <v>846.0360263426513</v>
       </c>
       <c r="H194" t="n">
-        <v>0.41</v>
+        <v>0.33</v>
       </c>
       <c r="I194" t="n">
-        <v>2562182</v>
+        <v>2554573</v>
       </c>
     </row>
     <row r="195">
@@ -7222,22 +7222,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>52032977</v>
+        <v>52199577</v>
       </c>
       <c r="E195" t="n">
-        <v>89872264</v>
+        <v>90160018</v>
       </c>
       <c r="F195" t="n">
-        <v>14137.22041805123</v>
+        <v>6962.762117149789</v>
       </c>
       <c r="G195" t="n">
-        <v>14727.60407786892</v>
+        <v>7272.591389057954</v>
       </c>
       <c r="H195" t="n">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="I195" t="n">
-        <v>1969934</v>
+        <v>1972476</v>
       </c>
     </row>
     <row r="196">
@@ -7257,22 +7257,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>4178131</v>
+        <v>4190860</v>
       </c>
       <c r="E196" t="n">
-        <v>4178131</v>
+        <v>4190860</v>
       </c>
       <c r="F196" t="n">
-        <v>2.408426992728971</v>
+        <v>1.064241303482794</v>
       </c>
       <c r="G196" t="n">
-        <v>471.5546683968871</v>
+        <v>468.2249142029515</v>
       </c>
       <c r="H196" t="n">
-        <v>2.06</v>
+        <v>2.01</v>
       </c>
       <c r="I196" t="n">
-        <v>1530580</v>
+        <v>1534003</v>
       </c>
     </row>
     <row r="197">
@@ -7295,19 +7295,19 @@
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>211461</v>
+        <v>211519</v>
       </c>
       <c r="F197" t="n">
-        <v>12.94257376267351</v>
+        <v>62.1807306303547</v>
       </c>
       <c r="G197" t="n">
-        <v>314.2981145129666</v>
+        <v>361.76065493364</v>
       </c>
       <c r="H197" t="n">
-        <v>2.62</v>
+        <v>3.07</v>
       </c>
       <c r="I197" t="n">
-        <v>59167</v>
+        <v>59188</v>
       </c>
     </row>
     <row r="198">
@@ -7327,22 +7327,22 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>6800540</v>
+        <v>6699005</v>
       </c>
       <c r="E198" t="n">
-        <v>34986713</v>
+        <v>34464347</v>
       </c>
       <c r="F198" t="n">
-        <v>324.1809014438244</v>
+        <v>407.848009436726</v>
       </c>
       <c r="G198" t="n">
-        <v>100.0023294005953</v>
+        <v>319.0420542733124</v>
       </c>
       <c r="H198" t="n">
-        <v>1.02</v>
+        <v>0.55</v>
       </c>
       <c r="I198" t="n">
-        <v>906968</v>
+        <v>905860</v>
       </c>
     </row>
     <row r="199">
@@ -7362,22 +7362,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>175399677</v>
+        <v>175185436</v>
       </c>
       <c r="E199" t="n">
-        <v>204918612</v>
+        <v>204668316</v>
       </c>
       <c r="F199" t="n">
-        <v>18542.16217749459</v>
+        <v>21953.16213117717</v>
       </c>
       <c r="G199" t="n">
-        <v>34673.49543862438</v>
+        <v>23174.00637379921</v>
       </c>
       <c r="H199" t="n">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="I199" t="n">
-        <v>3974003</v>
+        <v>3835791</v>
       </c>
     </row>
     <row r="200">
@@ -7400,19 +7400,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>300042</v>
+        <v>300322</v>
       </c>
       <c r="F200" t="n">
-        <v>110.6785226588141</v>
+        <v>37.66377042247007</v>
       </c>
       <c r="G200" t="n">
-        <v>184.1109930804191</v>
+        <v>47.35138521265494</v>
       </c>
       <c r="H200" t="n">
-        <v>0.33</v>
+        <v>0.66</v>
       </c>
       <c r="I200" t="n">
-        <v>268350</v>
+        <v>271315</v>
       </c>
     </row>
     <row r="201">
@@ -7435,19 +7435,19 @@
         <v>0</v>
       </c>
       <c r="E201" t="n">
-        <v>8051309</v>
+        <v>8049032</v>
       </c>
       <c r="F201" t="n">
-        <v>879.8546195089815</v>
+        <v>869.2975191717942</v>
       </c>
       <c r="G201" t="n">
-        <v>648.2668160193757</v>
+        <v>648.3504792221515</v>
       </c>
       <c r="H201" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="I201" t="n">
-        <v>686214</v>
+        <v>684923</v>
       </c>
     </row>
     <row r="202">
@@ -7470,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>36007</v>
+        <v>36006</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
@@ -7482,7 +7482,7 @@
         <v>5.56</v>
       </c>
       <c r="I202" t="n">
-        <v>747.38</v>
+        <v>752.39</v>
       </c>
     </row>
     <row r="203">
@@ -7502,22 +7502,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>34005450</v>
+        <v>33933690</v>
       </c>
       <c r="E203" t="n">
-        <v>169702873</v>
+        <v>169344755</v>
       </c>
       <c r="F203" t="n">
-        <v>100033.9435151477</v>
+        <v>93433.44232617225</v>
       </c>
       <c r="G203" t="n">
-        <v>104643.9412559802</v>
+        <v>96314.31620724044</v>
       </c>
       <c r="H203" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="I203" t="n">
-        <v>9997434</v>
+        <v>10013180</v>
       </c>
     </row>
     <row r="204">
@@ -7537,10 +7537,10 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1865143</v>
+        <v>1861692</v>
       </c>
       <c r="E204" t="n">
-        <v>1865143</v>
+        <v>1861692</v>
       </c>
       <c r="F204" t="n">
         <v>0</v>
@@ -7549,10 +7549,10 @@
         <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>15.61</v>
+        <v>15.62</v>
       </c>
       <c r="I204" t="n">
-        <v>8622.75</v>
+        <v>11158.68</v>
       </c>
     </row>
     <row r="205">
@@ -7575,19 +7575,19 @@
         <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>174914</v>
+        <v>174987</v>
       </c>
       <c r="F205" t="n">
-        <v>37.81248547912361</v>
+        <v>11.28251519976089</v>
       </c>
       <c r="G205" t="n">
-        <v>85.71647307899157</v>
+        <v>85.41587128234369</v>
       </c>
       <c r="H205" t="n">
         <v>1.2</v>
       </c>
       <c r="I205" t="n">
-        <v>10938.38</v>
+        <v>10938.34</v>
       </c>
     </row>
     <row r="206">
@@ -7607,22 +7607,22 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>2859.47</v>
+        <v>2961.46</v>
       </c>
       <c r="E206" t="n">
-        <v>34177</v>
+        <v>35396</v>
       </c>
       <c r="F206" t="n">
-        <v>9.541657957258499</v>
+        <v>0</v>
       </c>
       <c r="G206" t="n">
-        <v>147.389026964951</v>
+        <v>0</v>
       </c>
       <c r="H206" t="n">
-        <v>2.87</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="I206" t="n">
-        <v>7340.73</v>
+        <v>7807.84</v>
       </c>
     </row>
     <row r="207">
@@ -7669,22 +7669,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>311019955</v>
+        <v>311241784</v>
       </c>
       <c r="E208" t="n">
-        <v>575457844</v>
+        <v>575868279</v>
       </c>
       <c r="F208" t="n">
-        <v>153836.9625066416</v>
+        <v>171944.6979801705</v>
       </c>
       <c r="G208" t="n">
-        <v>202926.310004963</v>
+        <v>199835.0218062991</v>
       </c>
       <c r="H208" t="n">
         <v>0.02</v>
       </c>
       <c r="I208" t="n">
-        <v>12267448</v>
+        <v>12310212</v>
       </c>
     </row>
     <row r="209">
@@ -7704,22 +7704,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>70966739</v>
+        <v>71028070</v>
       </c>
       <c r="E209" t="n">
-        <v>677103267</v>
+        <v>677684595</v>
       </c>
       <c r="F209" t="n">
-        <v>321537.0123096723</v>
+        <v>341598.0966113515</v>
       </c>
       <c r="G209" t="n">
-        <v>349255.0624573825</v>
+        <v>341257.7197570317</v>
       </c>
       <c r="H209" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I209" t="n">
-        <v>21051483</v>
+        <v>20941489</v>
       </c>
     </row>
     <row r="210">
@@ -7742,19 +7742,19 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>2186750</v>
+        <v>2156806</v>
       </c>
       <c r="F210" t="n">
-        <v>1.037112215941532</v>
+        <v>0</v>
       </c>
       <c r="G210" t="n">
-        <v>457.9040143908618</v>
+        <v>0</v>
       </c>
       <c r="H210" t="n">
-        <v>2.89</v>
+        <v>3.99</v>
       </c>
       <c r="I210" t="n">
-        <v>64181</v>
+        <v>64209</v>
       </c>
     </row>
     <row r="211">
@@ -7774,10 +7774,10 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>81279</v>
+        <v>81255</v>
       </c>
       <c r="E211" t="n">
-        <v>675691</v>
+        <v>675493</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -7786,10 +7786,10 @@
         <v>0</v>
       </c>
       <c r="H211" t="n">
-        <v>4.35</v>
+        <v>7.04</v>
       </c>
       <c r="I211" t="n">
-        <v>409.24</v>
+        <v>399.64</v>
       </c>
     </row>
     <row r="212">
@@ -7809,22 +7809,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1895953</v>
+        <v>1897494</v>
       </c>
       <c r="E212" t="n">
-        <v>5414599</v>
+        <v>5418999</v>
       </c>
       <c r="F212" t="n">
-        <v>866.8195002040483</v>
+        <v>60.10210875768567</v>
       </c>
       <c r="G212" t="n">
-        <v>255.4186163927479</v>
+        <v>338.2250766521569</v>
       </c>
       <c r="H212" t="n">
-        <v>0.78</v>
+        <v>1.16</v>
       </c>
       <c r="I212" t="n">
-        <v>71302</v>
+        <v>70796</v>
       </c>
     </row>
     <row r="213">
@@ -7844,22 +7844,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>9607176</v>
+        <v>9573715</v>
       </c>
       <c r="E213" t="n">
-        <v>28512274</v>
+        <v>28412970</v>
       </c>
       <c r="F213" t="n">
-        <v>2296.084103031262</v>
+        <v>1309.296560013387</v>
       </c>
       <c r="G213" t="n">
-        <v>3137.880043446976</v>
+        <v>2939.210483929207</v>
       </c>
       <c r="H213" t="n">
-        <v>0.26</v>
+        <v>0.44</v>
       </c>
       <c r="I213" t="n">
-        <v>5525489</v>
+        <v>5532890</v>
       </c>
     </row>
     <row r="214">
@@ -7882,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>14236573</v>
+        <v>14238225</v>
       </c>
       <c r="F214" t="n">
         <v>0</v>
@@ -7891,10 +7891,10 @@
         <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>8.59</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="I214" t="n">
-        <v>1334.05</v>
+        <v>1333.87</v>
       </c>
     </row>
     <row r="215">
@@ -7914,22 +7914,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>2000514</v>
+        <v>1995477</v>
       </c>
       <c r="E215" t="n">
-        <v>5804135</v>
+        <v>5789521</v>
       </c>
       <c r="F215" t="n">
-        <v>29.07643392859846</v>
+        <v>30.13216289180668</v>
       </c>
       <c r="G215" t="n">
-        <v>1137.66187963013</v>
+        <v>564.4844273898385</v>
       </c>
       <c r="H215" t="n">
-        <v>1.11</v>
+        <v>0.97</v>
       </c>
       <c r="I215" t="n">
-        <v>61591</v>
+        <v>61553</v>
       </c>
     </row>
     <row r="216">
@@ -7949,22 +7949,22 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>2153324</v>
+        <v>2276322</v>
       </c>
       <c r="E216" t="n">
-        <v>18993745</v>
+        <v>20078671</v>
       </c>
       <c r="F216" t="n">
-        <v>1600.606429983911</v>
+        <v>1556.400546536856</v>
       </c>
       <c r="G216" t="n">
-        <v>3018.808120347029</v>
+        <v>3316.338370931272</v>
       </c>
       <c r="H216" t="n">
-        <v>0.68</v>
+        <v>0.73</v>
       </c>
       <c r="I216" t="n">
-        <v>29920</v>
+        <v>79317</v>
       </c>
     </row>
     <row r="217">
@@ -7984,22 +7984,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>44422304</v>
+        <v>44439847</v>
       </c>
       <c r="E217" t="n">
-        <v>44422304</v>
+        <v>44439847</v>
       </c>
       <c r="F217" t="n">
-        <v>40013.23768265581</v>
+        <v>35284.25772441006</v>
       </c>
       <c r="G217" t="n">
-        <v>39280.74827384275</v>
+        <v>42490.64944632888</v>
       </c>
       <c r="H217" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="I217" t="n">
-        <v>8135344</v>
+        <v>8143189</v>
       </c>
     </row>
     <row r="218">
@@ -8019,22 +8019,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>9181812</v>
+        <v>8965060</v>
       </c>
       <c r="E218" t="n">
-        <v>13081978</v>
+        <v>12773156</v>
       </c>
       <c r="F218" t="n">
-        <v>56.76751913213957</v>
+        <v>447.8730747456564</v>
       </c>
       <c r="G218" t="n">
-        <v>43.09632177513866</v>
+        <v>29.84041157526994</v>
       </c>
       <c r="H218" t="n">
-        <v>1.3</v>
+        <v>1.05</v>
       </c>
       <c r="I218" t="n">
-        <v>436007</v>
+        <v>427402</v>
       </c>
     </row>
     <row r="219">
@@ -8057,19 +8057,19 @@
         <v>0</v>
       </c>
       <c r="E219" t="n">
-        <v>16061094</v>
+        <v>16340935</v>
       </c>
       <c r="F219" t="n">
-        <v>2.114552624306008</v>
+        <v>2.114605373940731</v>
       </c>
       <c r="G219" t="n">
-        <v>1156.320023728805</v>
+        <v>1162.121968048819</v>
       </c>
       <c r="H219" t="n">
-        <v>0.86</v>
+        <v>1.28</v>
       </c>
       <c r="I219" t="n">
-        <v>974341</v>
+        <v>971357</v>
       </c>
     </row>
     <row r="220">
@@ -8092,19 +8092,19 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>722621</v>
+        <v>723846</v>
       </c>
       <c r="F220" t="n">
-        <v>89.48816060347158</v>
+        <v>57.63954493967979</v>
       </c>
       <c r="G220" t="n">
-        <v>424.0807085061275</v>
+        <v>371.2754320265772</v>
       </c>
       <c r="H220" t="n">
-        <v>0.49</v>
+        <v>0.76</v>
       </c>
       <c r="I220" t="n">
-        <v>226283</v>
+        <v>226337</v>
       </c>
     </row>
     <row r="221">
@@ -8124,22 +8124,22 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>2859637</v>
+        <v>2815300</v>
       </c>
       <c r="E221" t="n">
-        <v>2862114</v>
+        <v>2817738</v>
       </c>
       <c r="F221" t="n">
-        <v>10.96979723948375</v>
+        <v>63.21326864909771</v>
       </c>
       <c r="G221" t="n">
-        <v>110.9498324459295</v>
+        <v>83.06972534972084</v>
       </c>
       <c r="H221" t="n">
-        <v>2.8</v>
+        <v>0.64</v>
       </c>
       <c r="I221" t="n">
-        <v>67017</v>
+        <v>81192</v>
       </c>
     </row>
     <row r="222">
@@ -8159,22 +8159,22 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1237691</v>
+        <v>1237602</v>
       </c>
       <c r="E222" t="n">
-        <v>3743756</v>
+        <v>3743662</v>
       </c>
       <c r="F222" t="n">
-        <v>2119.991457772238</v>
+        <v>2121.130341667171</v>
       </c>
       <c r="G222" t="n">
-        <v>448.1291831834689</v>
+        <v>448.1403622151232</v>
       </c>
       <c r="H222" t="n">
         <v>1.57</v>
       </c>
       <c r="I222" t="n">
-        <v>12262.74</v>
+        <v>12061.99</v>
       </c>
     </row>
     <row r="223">
@@ -8194,22 +8194,22 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>37410002</v>
+        <v>37501874</v>
       </c>
       <c r="E223" t="n">
-        <v>265230812</v>
+        <v>265882169</v>
       </c>
       <c r="F223" t="n">
-        <v>76541.84136673987</v>
+        <v>92243.20197229486</v>
       </c>
       <c r="G223" t="n">
-        <v>65487.37029870924</v>
+        <v>82967.37923785839</v>
       </c>
       <c r="H223" t="n">
-        <v>0.19</v>
+        <v>0.11</v>
       </c>
       <c r="I223" t="n">
-        <v>1868025</v>
+        <v>1872626</v>
       </c>
     </row>
     <row r="224">
@@ -8229,22 +8229,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>60215</v>
+        <v>59508</v>
       </c>
       <c r="E224" t="n">
-        <v>314179</v>
+        <v>310491</v>
       </c>
       <c r="F224" t="n">
-        <v>179.2606064293196</v>
+        <v>17.60888823233192</v>
       </c>
       <c r="G224" t="n">
-        <v>166.2886874771698</v>
+        <v>205.755337365824</v>
       </c>
       <c r="H224" t="n">
-        <v>1.45</v>
+        <v>1.34</v>
       </c>
       <c r="I224" t="n">
-        <v>312133</v>
+        <v>311973</v>
       </c>
     </row>
     <row r="225">
@@ -8264,22 +8264,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1257390</v>
+        <v>1258235</v>
       </c>
       <c r="E225" t="n">
-        <v>7797767</v>
+        <v>7803010</v>
       </c>
       <c r="F225" t="n">
-        <v>1936.360761598291</v>
+        <v>1936.40906605839</v>
       </c>
       <c r="G225" t="n">
-        <v>2594.987243940795</v>
+        <v>2488.664164538266</v>
       </c>
       <c r="H225" t="n">
         <v>0.16</v>
       </c>
       <c r="I225" t="n">
-        <v>767843</v>
+        <v>762815</v>
       </c>
     </row>
     <row r="226">
@@ -8299,22 +8299,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>590282679</v>
+        <v>589356139</v>
       </c>
       <c r="E226" t="n">
-        <v>2286077726</v>
+        <v>2282489374</v>
       </c>
       <c r="F226" t="n">
-        <v>219339.479119612</v>
+        <v>199475.085090574</v>
       </c>
       <c r="G226" t="n">
-        <v>284952.7888552673</v>
+        <v>314036.3120197282</v>
       </c>
       <c r="H226" t="n">
         <v>0.04</v>
       </c>
       <c r="I226" t="n">
-        <v>30324100</v>
+        <v>30349989</v>
       </c>
     </row>
     <row r="227">
@@ -8337,19 +8337,19 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>20745581</v>
+        <v>20713665</v>
       </c>
       <c r="F227" t="n">
-        <v>1026.816387467207</v>
+        <v>670.9065094086907</v>
       </c>
       <c r="G227" t="n">
-        <v>759.9979923193541</v>
+        <v>1909.600985857569</v>
       </c>
       <c r="H227" t="n">
         <v>0.1</v>
       </c>
       <c r="I227" t="n">
-        <v>17054284</v>
+        <v>17105152</v>
       </c>
     </row>
     <row r="228">
@@ -8372,19 +8372,19 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>931604</v>
+        <v>897075</v>
       </c>
       <c r="F228" t="n">
-        <v>18.03493998745843</v>
+        <v>89.14231556520825</v>
       </c>
       <c r="G228" t="n">
-        <v>100.0108192091888</v>
+        <v>271.3244501079801</v>
       </c>
       <c r="H228" t="n">
-        <v>2.34</v>
+        <v>2.63</v>
       </c>
       <c r="I228" t="n">
-        <v>351189</v>
+        <v>348419</v>
       </c>
     </row>
     <row r="229">
@@ -8404,22 +8404,22 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>5842698</v>
+        <v>5838290</v>
       </c>
       <c r="E229" t="n">
-        <v>26158508</v>
+        <v>26138775</v>
       </c>
       <c r="F229" t="n">
-        <v>1914.954012531085</v>
+        <v>1908.288520089954</v>
       </c>
       <c r="G229" t="n">
-        <v>2694.146328203847</v>
+        <v>2434.748532063757</v>
       </c>
       <c r="H229" t="n">
         <v>0.39</v>
       </c>
       <c r="I229" t="n">
-        <v>143885</v>
+        <v>144006</v>
       </c>
     </row>
     <row r="230">
@@ -8439,22 +8439,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>6174422</v>
+        <v>6182665</v>
       </c>
       <c r="E230" t="n">
-        <v>11821432</v>
+        <v>11837214</v>
       </c>
       <c r="F230" t="n">
-        <v>0</v>
+        <v>132.0912224465314</v>
       </c>
       <c r="G230" t="n">
-        <v>0</v>
+        <v>24.66466417775339</v>
       </c>
       <c r="H230" t="n">
-        <v>5.4</v>
+        <v>3.19</v>
       </c>
       <c r="I230" t="n">
-        <v>202321</v>
+        <v>200420</v>
       </c>
     </row>
     <row r="231">
@@ -8474,22 +8474,22 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>3199198</v>
+        <v>3199643</v>
       </c>
       <c r="E231" t="n">
-        <v>21037183</v>
+        <v>21040107</v>
       </c>
       <c r="F231" t="n">
-        <v>131.7642309405779</v>
+        <v>353.8429638424658</v>
       </c>
       <c r="G231" t="n">
-        <v>509.6091239036415</v>
+        <v>374.5846612250286</v>
       </c>
       <c r="H231" t="n">
-        <v>1.36</v>
+        <v>1.76</v>
       </c>
       <c r="I231" t="n">
-        <v>1421482</v>
+        <v>1420757</v>
       </c>
     </row>
     <row r="232">
@@ -8509,22 +8509,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>117444829</v>
+        <v>117706909</v>
       </c>
       <c r="E232" t="n">
-        <v>1021110604</v>
+        <v>1023389234</v>
       </c>
       <c r="F232" t="n">
-        <v>195825.6187645942</v>
+        <v>211748.1073695314</v>
       </c>
       <c r="G232" t="n">
-        <v>191280.0608700323</v>
+        <v>200084.7967854925</v>
       </c>
       <c r="H232" t="n">
-        <v>0.14</v>
+        <v>0.05</v>
       </c>
       <c r="I232" t="n">
-        <v>9246069</v>
+        <v>9264869</v>
       </c>
     </row>
     <row r="233">
@@ -8557,7 +8557,7 @@
         <v>7.72</v>
       </c>
       <c r="I233" t="n">
-        <v>1116.65</v>
+        <v>1116.58</v>
       </c>
     </row>
     <row r="234">
@@ -8577,22 +8577,22 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>103940014</v>
+        <v>104692875</v>
       </c>
       <c r="E234" t="n">
-        <v>158562928</v>
+        <v>159711434</v>
       </c>
       <c r="F234" t="n">
-        <v>94770.64622974047</v>
+        <v>89329.57063641444</v>
       </c>
       <c r="G234" t="n">
-        <v>100841.3069772865</v>
+        <v>94064.60937104723</v>
       </c>
       <c r="H234" t="n">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="I234" t="n">
-        <v>7199461</v>
+        <v>7209577</v>
       </c>
     </row>
     <row r="235">
@@ -8612,22 +8612,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>15779320</v>
+        <v>15787038</v>
       </c>
       <c r="E235" t="n">
-        <v>21647861</v>
+        <v>21658449</v>
       </c>
       <c r="F235" t="n">
-        <v>1039.107087181863</v>
+        <v>913.6774293950426</v>
       </c>
       <c r="G235" t="n">
-        <v>2416.625106383682</v>
+        <v>2212.177713794505</v>
       </c>
       <c r="H235" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="I235" t="n">
-        <v>351680</v>
+        <v>350972</v>
       </c>
     </row>
     <row r="236">
@@ -8647,22 +8647,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>110884195</v>
+        <v>111013832</v>
       </c>
       <c r="E236" t="n">
-        <v>425369620</v>
+        <v>425866928</v>
       </c>
       <c r="F236" t="n">
-        <v>555733.5055475144</v>
+        <v>479135.7737661438</v>
       </c>
       <c r="G236" t="n">
-        <v>412885.9541153872</v>
+        <v>503856.0029846288</v>
       </c>
       <c r="H236" t="n">
         <v>0.02</v>
       </c>
       <c r="I236" t="n">
-        <v>19300038</v>
+        <v>19562214</v>
       </c>
     </row>
     <row r="237">
@@ -8685,19 +8685,19 @@
         <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>753460</v>
+        <v>756729</v>
       </c>
       <c r="F237" t="n">
-        <v>69.76267794864492</v>
+        <v>69.75820856601089</v>
       </c>
       <c r="G237" t="n">
-        <v>20.55238337580343</v>
+        <v>20.55321298135659</v>
       </c>
       <c r="H237" t="n">
-        <v>3.37</v>
+        <v>3.25</v>
       </c>
       <c r="I237" t="n">
-        <v>51178</v>
+        <v>51282</v>
       </c>
     </row>
     <row r="238">
@@ -8720,19 +8720,19 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>905230</v>
+        <v>886262</v>
       </c>
       <c r="F238" t="n">
-        <v>322.0584168348429</v>
+        <v>0</v>
       </c>
       <c r="G238" t="n">
-        <v>345.1885221711561</v>
+        <v>0</v>
       </c>
       <c r="H238" t="n">
-        <v>2.73</v>
+        <v>10.82</v>
       </c>
       <c r="I238" t="n">
-        <v>20771</v>
+        <v>20833</v>
       </c>
     </row>
     <row r="239">
@@ -8752,22 +8752,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>3165944</v>
+        <v>3161739</v>
       </c>
       <c r="E239" t="n">
-        <v>29997788</v>
+        <v>29957945</v>
       </c>
       <c r="F239" t="n">
-        <v>1459.024240541424</v>
+        <v>1549.951784966714</v>
       </c>
       <c r="G239" t="n">
-        <v>1165.54836788427</v>
+        <v>1166.43644810299</v>
       </c>
       <c r="H239" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="I239" t="n">
-        <v>246009</v>
+        <v>259248</v>
       </c>
     </row>
     <row r="240">
@@ -8787,22 +8787,22 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>724237</v>
+        <v>721729</v>
       </c>
       <c r="E240" t="n">
-        <v>774206</v>
+        <v>771524</v>
       </c>
       <c r="F240" t="n">
-        <v>253.6145986533331</v>
+        <v>253.6248359127088</v>
       </c>
       <c r="G240" t="n">
-        <v>2506.897738857659</v>
+        <v>2506.998930833661</v>
       </c>
       <c r="H240" t="n">
         <v>0.2</v>
       </c>
       <c r="I240" t="n">
-        <v>23190</v>
+        <v>24157</v>
       </c>
     </row>
     <row r="241">
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="E241" t="n">
-        <v>373096</v>
+        <v>373281</v>
       </c>
       <c r="F241" t="n">
         <v>0</v>
@@ -8837,7 +8837,7 @@
         <v>7.51</v>
       </c>
       <c r="I241" t="n">
-        <v>581.1</v>
+        <v>581.0599999999999</v>
       </c>
     </row>
     <row r="242">
@@ -8860,19 +8860,19 @@
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>140480</v>
+        <v>141225</v>
       </c>
       <c r="F242" t="n">
-        <v>314.4184334764701</v>
+        <v>228.5036604597283</v>
       </c>
       <c r="G242" t="n">
-        <v>10.81213226533588</v>
+        <v>10.812406288993</v>
       </c>
       <c r="H242" t="n">
         <v>3.45</v>
       </c>
       <c r="I242" t="n">
-        <v>94241</v>
+        <v>94378</v>
       </c>
     </row>
     <row r="243">
@@ -8895,7 +8895,7 @@
         <v>0</v>
       </c>
       <c r="E243" t="n">
-        <v>576127</v>
+        <v>576218</v>
       </c>
       <c r="F243" t="n">
         <v>0</v>
@@ -8907,7 +8907,7 @@
         <v>7.84</v>
       </c>
       <c r="I243" t="n">
-        <v>454.53</v>
+        <v>454.5</v>
       </c>
     </row>
     <row r="244">
@@ -8927,22 +8927,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>5976276</v>
+        <v>5941073</v>
       </c>
       <c r="E244" t="n">
-        <v>37350016</v>
+        <v>37130006</v>
       </c>
       <c r="F244" t="n">
-        <v>820.5583277720098</v>
+        <v>815.0189540586292</v>
       </c>
       <c r="G244" t="n">
-        <v>1212.608034933802</v>
+        <v>1281.978729512812</v>
       </c>
       <c r="H244" t="n">
-        <v>0.02</v>
+        <v>0.13</v>
       </c>
       <c r="I244" t="n">
-        <v>319634</v>
+        <v>383227</v>
       </c>
     </row>
     <row r="245">
@@ -8962,22 +8962,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>5091633</v>
+        <v>5094756</v>
       </c>
       <c r="E245" t="n">
-        <v>18960197</v>
+        <v>18971829</v>
       </c>
       <c r="F245" t="n">
-        <v>6619.206265166526</v>
+        <v>6619.492790572323</v>
       </c>
       <c r="G245" t="n">
-        <v>7393.891773513493</v>
+        <v>7394.19730752595</v>
       </c>
       <c r="H245" t="n">
         <v>0.53</v>
       </c>
       <c r="I245" t="n">
-        <v>58150</v>
+        <v>58715</v>
       </c>
     </row>
     <row r="246">
@@ -9000,19 +9000,19 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>3736588</v>
+        <v>3738439</v>
       </c>
       <c r="F246" t="n">
-        <v>178.9430312676009</v>
+        <v>178.8318872306772</v>
       </c>
       <c r="G246" t="n">
-        <v>2686.234869468855</v>
+        <v>2686.302949648116</v>
       </c>
       <c r="H246" t="n">
         <v>1.58</v>
       </c>
       <c r="I246" t="n">
-        <v>6884.29</v>
+        <v>6883.88</v>
       </c>
     </row>
     <row r="247">
@@ -9032,22 +9032,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>31449629</v>
+        <v>31496114</v>
       </c>
       <c r="E247" t="n">
-        <v>112726799</v>
+        <v>112893419</v>
       </c>
       <c r="F247" t="n">
-        <v>26.24705414841334</v>
+        <v>26.24771935612537</v>
       </c>
       <c r="G247" t="n">
-        <v>2533.89964580152</v>
+        <v>2544.636793751317</v>
       </c>
       <c r="H247" t="n">
-        <v>0.55</v>
+        <v>0.53</v>
       </c>
       <c r="I247" t="n">
-        <v>95686</v>
+        <v>95659</v>
       </c>
     </row>
     <row r="248">
@@ -9070,19 +9070,19 @@
         <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>1521516</v>
+        <v>1522498</v>
       </c>
       <c r="F248" t="n">
-        <v>3.160741606070578</v>
+        <v>247.2195518347677</v>
       </c>
       <c r="G248" t="n">
-        <v>57.02859403973822</v>
+        <v>57.03001667517884</v>
       </c>
       <c r="H248" t="n">
         <v>1.3</v>
       </c>
       <c r="I248" t="n">
-        <v>613965</v>
+        <v>613941</v>
       </c>
     </row>
     <row r="249">
@@ -9102,22 +9102,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>2194806</v>
+        <v>2177700</v>
       </c>
       <c r="E249" t="n">
-        <v>16881824</v>
+        <v>16750253</v>
       </c>
       <c r="F249" t="n">
-        <v>4633.430135516123</v>
+        <v>4935.866614509576</v>
       </c>
       <c r="G249" t="n">
-        <v>5394.190642741375</v>
+        <v>3580.450465752911</v>
       </c>
       <c r="H249" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="I249" t="n">
-        <v>180524</v>
+        <v>180541</v>
       </c>
     </row>
     <row r="250">
@@ -9137,22 +9137,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>103132</v>
+        <v>103172</v>
       </c>
       <c r="E250" t="n">
-        <v>819175</v>
+        <v>819500</v>
       </c>
       <c r="F250" t="n">
-        <v>174.3180610284781</v>
+        <v>174.3224095672372</v>
       </c>
       <c r="G250" t="n">
-        <v>340.675513368636</v>
+        <v>340.6840118607911</v>
       </c>
       <c r="H250" t="n">
         <v>0.72</v>
       </c>
       <c r="I250" t="n">
-        <v>1212.16</v>
+        <v>1211.94</v>
       </c>
     </row>
     <row r="251">
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>86701512</v>
+        <v>86769215</v>
       </c>
       <c r="E251" t="n">
-        <v>320513176</v>
+        <v>320763131</v>
       </c>
       <c r="F251" t="n">
-        <v>8852.059875186862</v>
+        <v>8890.328646398915</v>
       </c>
       <c r="G251" t="n">
-        <v>1494.439459317774</v>
+        <v>1488.434708555532</v>
       </c>
       <c r="H251" t="n">
-        <v>0.36</v>
+        <v>0.2</v>
       </c>
       <c r="I251" t="n">
-        <v>369402</v>
+        <v>358831</v>
       </c>
     </row>
     <row r="252">
@@ -9207,10 +9207,10 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>2457412</v>
+        <v>2430335</v>
       </c>
       <c r="E252" t="n">
-        <v>9860449</v>
+        <v>9751799</v>
       </c>
       <c r="F252" t="n">
         <v>0</v>
@@ -9219,10 +9219,10 @@
         <v>0</v>
       </c>
       <c r="H252" t="n">
-        <v>4.6</v>
+        <v>3.93</v>
       </c>
       <c r="I252" t="n">
-        <v>44802</v>
+        <v>44384</v>
       </c>
     </row>
     <row r="253">
@@ -9245,19 +9245,19 @@
         <v>0</v>
       </c>
       <c r="E253" t="n">
-        <v>583059</v>
+        <v>583336</v>
       </c>
       <c r="F253" t="n">
-        <v>77.01490417459031</v>
+        <v>49.0898505057236</v>
       </c>
       <c r="G253" t="n">
-        <v>4.237794140798392</v>
+        <v>4.363266192984124</v>
       </c>
       <c r="H253" t="n">
-        <v>2.66</v>
+        <v>2.5</v>
       </c>
       <c r="I253" t="n">
-        <v>1514.66</v>
+        <v>1507.8</v>
       </c>
     </row>
     <row r="254">
@@ -9276,7 +9276,7 @@
         <v>0</v>
       </c>
       <c r="E254" t="n">
-        <v>37808</v>
+        <v>38206</v>
       </c>
       <c r="F254" t="n">
         <v>0</v>
@@ -9285,10 +9285,10 @@
         <v>0</v>
       </c>
       <c r="H254" t="n">
-        <v>5.01</v>
+        <v>4.96</v>
       </c>
       <c r="I254" t="n">
-        <v>4176.73</v>
+        <v>4467.42</v>
       </c>
     </row>
     <row r="255">
@@ -9308,22 +9308,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>675163523</v>
+        <v>674983629</v>
       </c>
       <c r="E255" t="n">
-        <v>1041161763</v>
+        <v>1040884351</v>
       </c>
       <c r="F255" t="n">
-        <v>146598.1391738539</v>
+        <v>188814.2081284852</v>
       </c>
       <c r="G255" t="n">
-        <v>245450.8262649057</v>
+        <v>158404.8005068893</v>
       </c>
       <c r="H255" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I255" t="n">
-        <v>174233957</v>
+        <v>160416376</v>
       </c>
     </row>
     <row r="256">
@@ -9343,19 +9343,19 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>5685566</v>
+        <v>5685074</v>
       </c>
       <c r="E256" t="n">
-        <v>5685566</v>
+        <v>5685074</v>
       </c>
       <c r="F256" t="n">
-        <v>21.19539272184247</v>
+        <v>18.00202298258503</v>
       </c>
       <c r="G256" t="n">
-        <v>6.864194927688678</v>
+        <v>7.864459991738209</v>
       </c>
       <c r="H256" t="n">
-        <v>0.2</v>
+        <v>0.58</v>
       </c>
       <c r="I256" t="n">
         <v>477.22</v>
@@ -9378,22 +9378,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>39799394</v>
+        <v>39823373</v>
       </c>
       <c r="E257" t="n">
-        <v>189969677</v>
+        <v>190083598</v>
       </c>
       <c r="F257" t="n">
-        <v>251.8122727169103</v>
+        <v>251.8185544264558</v>
       </c>
       <c r="G257" t="n">
-        <v>121.197912033684</v>
+        <v>222.5393816581898</v>
       </c>
       <c r="H257" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="I257" t="n">
-        <v>408062</v>
+        <v>410237</v>
       </c>
     </row>
     <row r="258">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>526942</v>
+        <v>527203</v>
       </c>
       <c r="F258" t="n">
         <v>0</v>
@@ -9428,7 +9428,7 @@
         <v>8.380000000000001</v>
       </c>
       <c r="I258" t="n">
-        <v>254.25</v>
+        <v>254.24</v>
       </c>
     </row>
     <row r="259">
@@ -9448,22 +9448,22 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>23501732</v>
+        <v>23465106</v>
       </c>
       <c r="E259" t="n">
-        <v>39169552</v>
+        <v>39108509</v>
       </c>
       <c r="F259" t="n">
-        <v>6773.322216358625</v>
+        <v>7970.264417581204</v>
       </c>
       <c r="G259" t="n">
-        <v>7617.608599391113</v>
+        <v>7077.068783243693</v>
       </c>
       <c r="H259" t="n">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
       <c r="I259" t="n">
-        <v>822538</v>
+        <v>800613</v>
       </c>
     </row>
     <row r="260">
@@ -9486,19 +9486,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>107601</v>
+        <v>107496</v>
       </c>
       <c r="F260" t="n">
-        <v>110.2745569298863</v>
+        <v>235.3956822215258</v>
       </c>
       <c r="G260" t="n">
-        <v>201.371588459626</v>
+        <v>214.159767320585</v>
       </c>
       <c r="H260" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="I260" t="n">
-        <v>49747</v>
+        <v>49501</v>
       </c>
     </row>
     <row r="261">
@@ -9518,22 +9518,22 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>815561</v>
+        <v>815830</v>
       </c>
       <c r="E261" t="n">
-        <v>3484020</v>
+        <v>3485168</v>
       </c>
       <c r="F261" t="n">
-        <v>3290.819803690883</v>
+        <v>3195.84173794473</v>
       </c>
       <c r="G261" t="n">
-        <v>3060.108363987004</v>
+        <v>3062.687644902613</v>
       </c>
       <c r="H261" t="n">
         <v>0.26</v>
       </c>
       <c r="I261" t="n">
-        <v>7449.77</v>
+        <v>7451.6</v>
       </c>
     </row>
     <row r="262">
@@ -9553,22 +9553,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>3829066</v>
+        <v>3832368</v>
       </c>
       <c r="E262" t="n">
-        <v>8354972</v>
+        <v>8362177</v>
       </c>
       <c r="F262" t="n">
-        <v>1518.551249809866</v>
+        <v>1149.157331346259</v>
       </c>
       <c r="G262" t="n">
-        <v>1747.982226762743</v>
+        <v>1933.721234517371</v>
       </c>
       <c r="H262" t="n">
-        <v>0.73</v>
+        <v>0.61</v>
       </c>
       <c r="I262" t="n">
-        <v>941486</v>
+        <v>930566</v>
       </c>
     </row>
     <row r="263">
@@ -9588,22 +9588,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>486318893</v>
+        <v>486424048</v>
       </c>
       <c r="E263" t="n">
-        <v>1693694434</v>
+        <v>1694060654</v>
       </c>
       <c r="F263" t="n">
-        <v>465289.9709112988</v>
+        <v>593471.9635472617</v>
       </c>
       <c r="G263" t="n">
-        <v>573794.4901342785</v>
+        <v>420321.7357844096</v>
       </c>
       <c r="H263" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I263" t="n">
-        <v>31384918</v>
+        <v>31451511</v>
       </c>
     </row>
     <row r="264">
@@ -9623,22 +9623,22 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>5539096653</v>
+        <v>5550963316</v>
       </c>
       <c r="E264" t="n">
-        <v>5539096653</v>
+        <v>5550963316</v>
       </c>
       <c r="F264" t="n">
-        <v>4355.067802597158</v>
+        <v>4008.831419245224</v>
       </c>
       <c r="G264" t="n">
-        <v>2464.926187138107</v>
+        <v>2365.591012040083</v>
       </c>
       <c r="H264" t="n">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
       <c r="I264" t="n">
-        <v>28888031</v>
+        <v>24711581</v>
       </c>
     </row>
     <row r="265">
@@ -9658,22 +9658,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>23937055</v>
+        <v>23897359</v>
       </c>
       <c r="E265" t="n">
-        <v>23916262</v>
+        <v>23876601</v>
       </c>
       <c r="F265" t="n">
-        <v>64.48360592261228</v>
+        <v>33.64172522058792</v>
       </c>
       <c r="G265" t="n">
-        <v>638.3818849490123</v>
+        <v>540.7363494303476</v>
       </c>
       <c r="H265" t="n">
-        <v>1.46</v>
+        <v>2.04</v>
       </c>
       <c r="I265" t="n">
-        <v>92411</v>
+        <v>92487</v>
       </c>
     </row>
     <row r="266">
@@ -9693,22 +9693,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>12005722</v>
+        <v>12011446</v>
       </c>
       <c r="E266" t="n">
-        <v>24318615</v>
+        <v>24328465</v>
       </c>
       <c r="F266" t="n">
-        <v>230.7892789353765</v>
+        <v>230.7927364904312</v>
       </c>
       <c r="G266" t="n">
-        <v>65.9831251064892</v>
+        <v>57.91009920902872</v>
       </c>
       <c r="H266" t="n">
         <v>3.59</v>
       </c>
       <c r="I266" t="n">
-        <v>19296.9</v>
+        <v>19298.37</v>
       </c>
     </row>
     <row r="267">
@@ -9731,19 +9731,19 @@
         <v>0</v>
       </c>
       <c r="E267" t="n">
-        <v>148654</v>
+        <v>148770</v>
       </c>
       <c r="F267" t="n">
-        <v>206.5005475904844</v>
+        <v>208.4414121776588</v>
       </c>
       <c r="G267" t="n">
-        <v>152.5365696770851</v>
+        <v>152.5388482443598</v>
       </c>
       <c r="H267" t="n">
         <v>0.37</v>
       </c>
       <c r="I267" t="n">
-        <v>56113</v>
+        <v>56188</v>
       </c>
     </row>
     <row r="268">
@@ -9766,19 +9766,19 @@
         <v>0</v>
       </c>
       <c r="E268" t="n">
-        <v>48010</v>
+        <v>48008</v>
       </c>
       <c r="F268" t="n">
-        <v>0</v>
+        <v>3.072420839368975</v>
       </c>
       <c r="G268" t="n">
-        <v>0</v>
+        <v>86.02695783536606</v>
       </c>
       <c r="H268" t="n">
-        <v>4.08</v>
+        <v>1.25</v>
       </c>
       <c r="I268" t="n">
-        <v>71203</v>
+        <v>71346</v>
       </c>
     </row>
     <row r="269">
@@ -9798,22 +9798,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>2661320</v>
+        <v>2653473</v>
       </c>
       <c r="E269" t="n">
-        <v>10645279</v>
+        <v>10613892</v>
       </c>
       <c r="F269" t="n">
-        <v>28809.34408865223</v>
+        <v>46614.07398184939</v>
       </c>
       <c r="G269" t="n">
-        <v>30738.25998086909</v>
+        <v>40316.005895992</v>
       </c>
       <c r="H269" t="n">
-        <v>0.66</v>
+        <v>0.28</v>
       </c>
       <c r="I269" t="n">
-        <v>5045889</v>
+        <v>5050056</v>
       </c>
     </row>
     <row r="270">
@@ -9833,22 +9833,22 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>212948443</v>
+        <v>213256182</v>
       </c>
       <c r="E270" t="n">
-        <v>654736325</v>
+        <v>655682506</v>
       </c>
       <c r="F270" t="n">
-        <v>226232.7993963284</v>
+        <v>270131.6515387659</v>
       </c>
       <c r="G270" t="n">
-        <v>307581.1620894321</v>
+        <v>260226.7945616672</v>
       </c>
       <c r="H270" t="n">
         <v>0.06</v>
       </c>
       <c r="I270" t="n">
-        <v>11296898</v>
+        <v>11286860</v>
       </c>
     </row>
     <row r="271">
@@ -9868,22 +9868,22 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>147623161</v>
+        <v>148588905</v>
       </c>
       <c r="E271" t="n">
-        <v>385661415</v>
+        <v>388184392</v>
       </c>
       <c r="F271" t="n">
-        <v>53679.01313618707</v>
+        <v>29646.66936033703</v>
       </c>
       <c r="G271" t="n">
-        <v>55955.71766353937</v>
+        <v>28478.36694221177</v>
       </c>
       <c r="H271" t="n">
-        <v>0.15</v>
+        <v>0.28</v>
       </c>
       <c r="I271" t="n">
-        <v>6667837</v>
+        <v>6664055</v>
       </c>
     </row>
     <row r="272">
@@ -9903,22 +9903,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>2381748</v>
+        <v>2396460</v>
       </c>
       <c r="E272" t="n">
-        <v>3268550</v>
+        <v>3288754</v>
       </c>
       <c r="F272" t="n">
-        <v>27.83941181749205</v>
+        <v>27.92537796613722</v>
       </c>
       <c r="G272" t="n">
-        <v>5.500605476937095</v>
+        <v>6.65087505270064</v>
       </c>
       <c r="H272" t="n">
-        <v>2.17</v>
+        <v>2.59</v>
       </c>
       <c r="I272" t="n">
-        <v>252086</v>
+        <v>253534</v>
       </c>
     </row>
   </sheetData>

--- a/GateioData20250220.xlsx
+++ b/GateioData20250220.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>56700</v>
+        <v>52529</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.325007034808061</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>29.80841246595463</v>
       </c>
       <c r="H2" t="n">
-        <v>7.41</v>
+        <v>3.85</v>
       </c>
       <c r="I2" t="n">
-        <v>1812.66</v>
+        <v>1849.57</v>
       </c>
     </row>
     <row r="3">
@@ -535,19 +535,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>92662</v>
+        <v>92666</v>
       </c>
       <c r="F3" t="n">
-        <v>9.578862332356223</v>
+        <v>9.579425969503758</v>
       </c>
       <c r="G3" t="n">
-        <v>445.9592793057562</v>
+        <v>445.9855203359938</v>
       </c>
       <c r="H3" t="n">
         <v>3.06</v>
       </c>
       <c r="I3" t="n">
-        <v>757.46</v>
+        <v>757.9299999999999</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>600379561</v>
+        <v>610500013</v>
       </c>
       <c r="E4" t="n">
-        <v>1164927629</v>
+        <v>1184570894</v>
       </c>
       <c r="F4" t="n">
-        <v>34801.24442980198</v>
+        <v>43789.56840198443</v>
       </c>
       <c r="G4" t="n">
-        <v>49060.16781665177</v>
+        <v>52159.88369218794</v>
       </c>
       <c r="H4" t="n">
         <v>0.06</v>
       </c>
       <c r="I4" t="n">
-        <v>22710582</v>
+        <v>23443704</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1346926</v>
+        <v>1349248</v>
       </c>
       <c r="E5" t="n">
-        <v>4353817</v>
+        <v>4361324</v>
       </c>
       <c r="F5" t="n">
-        <v>5866.761840281511</v>
+        <v>3779.002434027154</v>
       </c>
       <c r="G5" t="n">
-        <v>5834.925038168005</v>
+        <v>7443.316458949697</v>
       </c>
       <c r="H5" t="n">
-        <v>0.91</v>
+        <v>0.46</v>
       </c>
       <c r="I5" t="n">
-        <v>90117</v>
+        <v>97732</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>138596364</v>
+        <v>139633397</v>
       </c>
       <c r="E6" t="n">
-        <v>153586908</v>
+        <v>154736106</v>
       </c>
       <c r="F6" t="n">
-        <v>203084.9838350553</v>
+        <v>179679.4827785914</v>
       </c>
       <c r="G6" t="n">
-        <v>401902.0921596157</v>
+        <v>413016.0569060236</v>
       </c>
       <c r="H6" t="n">
         <v>0.06</v>
       </c>
       <c r="I6" t="n">
-        <v>33297637</v>
+        <v>33778228</v>
       </c>
     </row>
     <row r="7">
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>4204.63</v>
+        <v>4205.88</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>9.09</v>
       </c>
       <c r="I7" t="n">
-        <v>772.8099999999999</v>
+        <v>485.67</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8679948</v>
+        <v>8708867</v>
       </c>
       <c r="E8" t="n">
-        <v>8898824</v>
+        <v>8928472</v>
       </c>
       <c r="F8" t="n">
-        <v>74.35776964164536</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1573.769657253435</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>2.72</v>
+        <v>3.97</v>
       </c>
       <c r="I8" t="n">
-        <v>53658</v>
+        <v>43160</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>286102</v>
+        <v>303467</v>
       </c>
       <c r="F9" t="n">
-        <v>27.25018508280226</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>707.4076813574653</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>3.42</v>
+        <v>6.6</v>
       </c>
       <c r="I9" t="n">
-        <v>246.03</v>
+        <v>383.75</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5221403</v>
+        <v>5228441</v>
       </c>
       <c r="E10" t="n">
-        <v>8342233</v>
+        <v>8353477</v>
       </c>
       <c r="F10" t="n">
-        <v>230.7476119643932</v>
+        <v>288.2219630081494</v>
       </c>
       <c r="G10" t="n">
-        <v>396.7215700945297</v>
+        <v>372.1925692665837</v>
       </c>
       <c r="H10" t="n">
-        <v>0.11</v>
+        <v>0.49</v>
       </c>
       <c r="I10" t="n">
-        <v>104377</v>
+        <v>104532</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>998024</v>
+        <v>1004034</v>
       </c>
       <c r="E11" t="n">
-        <v>12213123</v>
+        <v>12286666</v>
       </c>
       <c r="F11" t="n">
-        <v>1226.674093444811</v>
+        <v>1582.620259506548</v>
       </c>
       <c r="G11" t="n">
-        <v>1665.985772137632</v>
+        <v>1315.724833587806</v>
       </c>
       <c r="H11" t="n">
         <v>0.49</v>
       </c>
       <c r="I11" t="n">
-        <v>2110.2</v>
+        <v>2129.06</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>564779</v>
+        <v>564997</v>
       </c>
       <c r="E12" t="n">
-        <v>564779</v>
+        <v>564997</v>
       </c>
       <c r="F12" t="n">
-        <v>28.43936524851507</v>
+        <v>95.51022641485758</v>
       </c>
       <c r="G12" t="n">
-        <v>30.62385470789489</v>
+        <v>293.3899630763445</v>
       </c>
       <c r="H12" t="n">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="I12" t="n">
-        <v>23615</v>
+        <v>23875</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4722096</v>
+        <v>4723882</v>
       </c>
       <c r="E13" t="n">
-        <v>29004833</v>
+        <v>29015801</v>
       </c>
       <c r="F13" t="n">
-        <v>638.5182990086292</v>
+        <v>867.5445116006074</v>
       </c>
       <c r="G13" t="n">
-        <v>1375.580762390696</v>
+        <v>1180.351699527081</v>
       </c>
       <c r="H13" t="n">
-        <v>0.52</v>
+        <v>0.35</v>
       </c>
       <c r="I13" t="n">
-        <v>466825</v>
+        <v>476530</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>199586</v>
+        <v>197828</v>
       </c>
       <c r="E14" t="n">
-        <v>2195661</v>
+        <v>2176323</v>
       </c>
       <c r="F14" t="n">
-        <v>100.2189402249659</v>
+        <v>623.0165267239386</v>
       </c>
       <c r="G14" t="n">
-        <v>872.5048506152316</v>
+        <v>775.2276569298072</v>
       </c>
       <c r="H14" t="n">
-        <v>1.36</v>
+        <v>1.82</v>
       </c>
       <c r="I14" t="n">
-        <v>38953</v>
+        <v>40007</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3345671</v>
+        <v>3354280</v>
       </c>
       <c r="E15" t="n">
-        <v>9518139</v>
+        <v>9542629</v>
       </c>
       <c r="F15" t="n">
-        <v>833.3915473145051</v>
+        <v>837.002554843457</v>
       </c>
       <c r="G15" t="n">
-        <v>311.8477053102324</v>
+        <v>227.4694190767017</v>
       </c>
       <c r="H15" t="n">
-        <v>1.46</v>
+        <v>0.84</v>
       </c>
       <c r="I15" t="n">
-        <v>232838</v>
+        <v>232837</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>313992</v>
+        <v>310895</v>
       </c>
       <c r="E16" t="n">
-        <v>3624175</v>
+        <v>3588432</v>
       </c>
       <c r="F16" t="n">
-        <v>132.6639670606336</v>
+        <v>130.1960098778099</v>
       </c>
       <c r="G16" t="n">
-        <v>130.3384671207253</v>
+        <v>129.7888305047065</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="I16" t="n">
-        <v>3109.49</v>
+        <v>3241.01</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>918887</v>
+        <v>921723</v>
       </c>
       <c r="F17" t="n">
-        <v>24.85897072584431</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>159.3571793082823</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>2.7</v>
+        <v>5.69</v>
       </c>
       <c r="I17" t="n">
-        <v>11105.99</v>
+        <v>11194.06</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>22367029</v>
+        <v>22333186</v>
       </c>
       <c r="E18" t="n">
-        <v>22408908</v>
+        <v>22375001</v>
       </c>
       <c r="F18" t="n">
-        <v>1851.542593230191</v>
+        <v>1431.238158220572</v>
       </c>
       <c r="G18" t="n">
-        <v>2486.598868733449</v>
+        <v>2488.154067914008</v>
       </c>
       <c r="H18" t="n">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="I18" t="n">
-        <v>877189</v>
+        <v>878843</v>
       </c>
     </row>
     <row r="19">
@@ -1095,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>6716961</v>
+        <v>6989425</v>
       </c>
       <c r="F19" t="n">
-        <v>215.7972003588896</v>
+        <v>83.81872041624817</v>
       </c>
       <c r="G19" t="n">
-        <v>10.99264498283415</v>
+        <v>25.51406055234989</v>
       </c>
       <c r="H19" t="n">
-        <v>2.44</v>
+        <v>2.49</v>
       </c>
       <c r="I19" t="n">
-        <v>27334</v>
+        <v>25377</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2450133</v>
+        <v>2442282</v>
       </c>
       <c r="E20" t="n">
-        <v>2450133</v>
+        <v>2442282</v>
       </c>
       <c r="F20" t="n">
-        <v>9.055752962414489</v>
+        <v>289.4780125842283</v>
       </c>
       <c r="G20" t="n">
-        <v>264.6393206141752</v>
+        <v>229.5901198655259</v>
       </c>
       <c r="H20" t="n">
-        <v>1.05</v>
+        <v>1.41</v>
       </c>
       <c r="I20" t="n">
-        <v>303846</v>
+        <v>311787</v>
       </c>
     </row>
     <row r="21">
@@ -1165,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>408068</v>
+        <v>408224</v>
       </c>
       <c r="F21" t="n">
-        <v>170.5058251013378</v>
+        <v>107.6537747917153</v>
       </c>
       <c r="G21" t="n">
-        <v>348.3522391550743</v>
+        <v>174.4447878975791</v>
       </c>
       <c r="H21" t="n">
-        <v>0.97</v>
+        <v>1.45</v>
       </c>
       <c r="I21" t="n">
-        <v>1765.02</v>
+        <v>1455.1</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>19359243</v>
+        <v>19379205</v>
       </c>
       <c r="E22" t="n">
-        <v>24916935</v>
+        <v>24942627</v>
       </c>
       <c r="F22" t="n">
-        <v>2257.864055287173</v>
+        <v>4117.450665622201</v>
       </c>
       <c r="G22" t="n">
-        <v>4822.624339464286</v>
+        <v>4583.26196133385</v>
       </c>
       <c r="H22" t="n">
-        <v>0.17</v>
+        <v>0.46</v>
       </c>
       <c r="I22" t="n">
-        <v>2020326</v>
+        <v>2037053</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>468471329</v>
+        <v>480264452</v>
       </c>
       <c r="E23" t="n">
-        <v>468471327</v>
+        <v>480264452</v>
       </c>
       <c r="F23" t="n">
-        <v>80062.10609683035</v>
+        <v>71069.03453820887</v>
       </c>
       <c r="G23" t="n">
-        <v>110466.2550521213</v>
+        <v>84650.17119309606</v>
       </c>
       <c r="H23" t="n">
         <v>0.06</v>
       </c>
       <c r="I23" t="n">
-        <v>60447548</v>
+        <v>62640598</v>
       </c>
     </row>
     <row r="24">
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>24790</v>
+        <v>22851</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1279,10 +1279,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>7.84</v>
+        <v>7.86</v>
       </c>
       <c r="I24" t="n">
-        <v>3143.92</v>
+        <v>3102.98</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4623032</v>
+        <v>4664471</v>
       </c>
       <c r="E25" t="n">
-        <v>4623032</v>
+        <v>4664471</v>
       </c>
       <c r="F25" t="n">
-        <v>163.047137429324</v>
+        <v>905.675377716449</v>
       </c>
       <c r="G25" t="n">
-        <v>1358.033714403618</v>
+        <v>1237.41633470241</v>
       </c>
       <c r="H25" t="n">
-        <v>0.67</v>
+        <v>0.59</v>
       </c>
       <c r="I25" t="n">
-        <v>1909220</v>
+        <v>1956499</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3311144</v>
+        <v>3352119</v>
       </c>
       <c r="E26" t="n">
-        <v>3311144</v>
+        <v>3352119</v>
       </c>
       <c r="F26" t="n">
-        <v>343.4434451063285</v>
+        <v>136.8717180052828</v>
       </c>
       <c r="G26" t="n">
-        <v>88.66263955263992</v>
+        <v>1110.470325894561</v>
       </c>
       <c r="H26" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="I26" t="n">
-        <v>524000</v>
+        <v>533401</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>312847</v>
+        <v>323672</v>
       </c>
       <c r="E27" t="n">
-        <v>1460400</v>
+        <v>1510934</v>
       </c>
       <c r="F27" t="n">
-        <v>2838.566094212919</v>
+        <v>2504.805453890785</v>
       </c>
       <c r="G27" t="n">
-        <v>265.1943333571162</v>
+        <v>179.0379654435674</v>
       </c>
       <c r="H27" t="n">
-        <v>1.63</v>
+        <v>1.13</v>
       </c>
       <c r="I27" t="n">
-        <v>613851</v>
+        <v>639267</v>
       </c>
     </row>
     <row r="28">
@@ -1410,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1618345</v>
+        <v>1602052</v>
       </c>
       <c r="F28" t="n">
-        <v>266.3929089700918</v>
+        <v>407.7911933653289</v>
       </c>
       <c r="G28" t="n">
-        <v>79.91546621546937</v>
+        <v>76.56559829923995</v>
       </c>
       <c r="H28" t="n">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="I28" t="n">
-        <v>168647</v>
+        <v>182443</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>12729375</v>
+        <v>12831588</v>
       </c>
       <c r="E29" t="n">
-        <v>32056760</v>
+        <v>31935502</v>
       </c>
       <c r="F29" t="n">
-        <v>886.5981286074505</v>
+        <v>865.4252467885885</v>
       </c>
       <c r="G29" t="n">
-        <v>1272.908354785869</v>
+        <v>1693.429488754073</v>
       </c>
       <c r="H29" t="n">
-        <v>0.5</v>
+        <v>0.34</v>
       </c>
       <c r="I29" t="n">
-        <v>1589746</v>
+        <v>1590521</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>912494</v>
+        <v>907606</v>
       </c>
       <c r="E30" t="n">
-        <v>6387456</v>
+        <v>6353242</v>
       </c>
       <c r="F30" t="n">
-        <v>364.8919630282702</v>
+        <v>450.6586649138827</v>
       </c>
       <c r="G30" t="n">
-        <v>288.8076915925967</v>
+        <v>391.9902335269407</v>
       </c>
       <c r="H30" t="n">
-        <v>1.77</v>
+        <v>1.62</v>
       </c>
       <c r="I30" t="n">
-        <v>321970</v>
+        <v>229069</v>
       </c>
     </row>
     <row r="31">
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>178597</v>
+        <v>178710</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1524,10 +1524,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>7.29</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="I31" t="n">
-        <v>6066.12</v>
+        <v>6072.13</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5448622</v>
+        <v>5592679</v>
       </c>
       <c r="E32" t="n">
-        <v>5709285</v>
+        <v>5860233</v>
       </c>
       <c r="F32" t="n">
-        <v>166.3208614472408</v>
+        <v>34.64897716854745</v>
       </c>
       <c r="G32" t="n">
-        <v>24.2593771018798</v>
+        <v>66.5240194154313</v>
       </c>
       <c r="H32" t="n">
-        <v>2.7</v>
+        <v>2.82</v>
       </c>
       <c r="I32" t="n">
-        <v>170966</v>
+        <v>125552</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>5305376</v>
+        <v>5489253</v>
       </c>
       <c r="E33" t="n">
-        <v>7809801</v>
+        <v>8080478</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0132439365663072</v>
+        <v>183.1192659458234</v>
       </c>
       <c r="G33" t="n">
-        <v>228.46990650611</v>
+        <v>88.60081974632477</v>
       </c>
       <c r="H33" t="n">
-        <v>0.65</v>
+        <v>0.47</v>
       </c>
       <c r="I33" t="n">
-        <v>643987</v>
+        <v>585536</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7660622</v>
+        <v>7672294</v>
       </c>
       <c r="E34" t="n">
-        <v>7660622</v>
+        <v>7672294</v>
       </c>
       <c r="F34" t="n">
-        <v>32309.67340563902</v>
+        <v>32140.61262736038</v>
       </c>
       <c r="G34" t="n">
-        <v>32008.44926074258</v>
+        <v>31878.15197543842</v>
       </c>
       <c r="H34" t="n">
-        <v>0.82</v>
+        <v>0.97</v>
       </c>
       <c r="I34" t="n">
-        <v>258862</v>
+        <v>229558</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1490924</v>
+        <v>1482295</v>
       </c>
       <c r="E35" t="n">
-        <v>1490961</v>
+        <v>1482334</v>
       </c>
       <c r="F35" t="n">
-        <v>160.2373114387081</v>
+        <v>165.8005653742377</v>
       </c>
       <c r="G35" t="n">
-        <v>109.8182377484372</v>
+        <v>88.96422286267197</v>
       </c>
       <c r="H35" t="n">
-        <v>3.07</v>
+        <v>2.42</v>
       </c>
       <c r="I35" t="n">
-        <v>273601</v>
+        <v>276139</v>
       </c>
     </row>
     <row r="36">
@@ -1690,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>16428001</v>
+        <v>16402125</v>
       </c>
       <c r="F36" t="n">
-        <v>248.6851947096775</v>
+        <v>248.6998277849757</v>
       </c>
       <c r="G36" t="n">
-        <v>169.9455460613657</v>
+        <v>169.9555459569165</v>
       </c>
       <c r="H36" t="n">
         <v>0.59</v>
       </c>
       <c r="I36" t="n">
-        <v>10420.95</v>
+        <v>10416.67</v>
       </c>
     </row>
     <row r="37">
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>59628</v>
+        <v>59651</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>8.51</v>
       </c>
       <c r="I37" t="n">
-        <v>254.31</v>
+        <v>254.48</v>
       </c>
     </row>
     <row r="38">
@@ -1753,22 +1753,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>134222001</v>
+        <v>135341363</v>
       </c>
       <c r="E38" t="n">
-        <v>134222001</v>
+        <v>135341363</v>
       </c>
       <c r="F38" t="n">
-        <v>247019.6285466886</v>
+        <v>313429.8558220937</v>
       </c>
       <c r="G38" t="n">
-        <v>371069.8379517675</v>
+        <v>325878.7747714925</v>
       </c>
       <c r="H38" t="n">
         <v>0.05</v>
       </c>
       <c r="I38" t="n">
-        <v>65789938</v>
+        <v>65618444</v>
       </c>
     </row>
     <row r="39">
@@ -1788,22 +1788,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>64069156</v>
+        <v>64703476</v>
       </c>
       <c r="E39" t="n">
-        <v>328559773</v>
+        <v>331812696</v>
       </c>
       <c r="F39" t="n">
-        <v>75622.21599679126</v>
+        <v>86727.90770602769</v>
       </c>
       <c r="G39" t="n">
-        <v>102979.3885013667</v>
+        <v>96386.60836517141</v>
       </c>
       <c r="H39" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I39" t="n">
-        <v>18026637</v>
+        <v>18624450</v>
       </c>
     </row>
     <row r="40">
@@ -1823,10 +1823,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>44539</v>
+        <v>44556</v>
       </c>
       <c r="E40" t="n">
-        <v>131622</v>
+        <v>131672</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -1838,7 +1838,7 @@
         <v>6.46</v>
       </c>
       <c r="I40" t="n">
-        <v>749.51</v>
+        <v>743.99</v>
       </c>
     </row>
     <row r="41">
@@ -1861,19 +1861,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>49751</v>
+        <v>47287</v>
       </c>
       <c r="F41" t="n">
-        <v>14.39530174312252</v>
+        <v>3.589601819660834</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5716853133936511</v>
+        <v>1.835396873663531</v>
       </c>
       <c r="H41" t="n">
-        <v>0.26</v>
+        <v>3.11</v>
       </c>
       <c r="I41" t="n">
-        <v>25005</v>
+        <v>25302</v>
       </c>
     </row>
     <row r="42">
@@ -1896,19 +1896,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>592896</v>
+        <v>593002</v>
       </c>
       <c r="F42" t="n">
-        <v>1270.862337753747</v>
+        <v>1023.181552019091</v>
       </c>
       <c r="G42" t="n">
-        <v>398.1138029707013</v>
+        <v>316.8210721111888</v>
       </c>
       <c r="H42" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="I42" t="n">
-        <v>436.16</v>
+        <v>792.88</v>
       </c>
     </row>
     <row r="43">
@@ -1961,22 +1961,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2722460</v>
+        <v>2727349</v>
       </c>
       <c r="E44" t="n">
-        <v>10940946</v>
+        <v>10960596</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>3.646081790817156</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>279.9996838011191</v>
       </c>
       <c r="H44" t="n">
-        <v>4.35</v>
+        <v>3.54</v>
       </c>
       <c r="I44" t="n">
-        <v>24992</v>
+        <v>24796</v>
       </c>
     </row>
     <row r="45">
@@ -1996,22 +1996,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>17331683</v>
+        <v>17378904</v>
       </c>
       <c r="E45" t="n">
-        <v>122208801</v>
+        <v>122533700</v>
       </c>
       <c r="F45" t="n">
-        <v>248.8704788656739</v>
+        <v>222.5999843172559</v>
       </c>
       <c r="G45" t="n">
-        <v>383.6320435316669</v>
+        <v>322.8439794888277</v>
       </c>
       <c r="H45" t="n">
-        <v>0.65</v>
+        <v>0.16</v>
       </c>
       <c r="I45" t="n">
-        <v>1039272</v>
+        <v>1034107</v>
       </c>
     </row>
     <row r="46">
@@ -2031,10 +2031,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>170486</v>
+        <v>147919</v>
       </c>
       <c r="E46" t="n">
-        <v>2281192</v>
+        <v>1979235</v>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>52674</v>
+        <v>46989</v>
       </c>
     </row>
     <row r="47">
@@ -2064,22 +2064,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>250286629</v>
+        <v>252359176</v>
       </c>
       <c r="E47" t="n">
-        <v>250286629</v>
+        <v>252359176</v>
       </c>
       <c r="F47" t="n">
-        <v>110342.5770440473</v>
+        <v>120962.3612818706</v>
       </c>
       <c r="G47" t="n">
-        <v>163384.7000423709</v>
+        <v>151459.3420115215</v>
       </c>
       <c r="H47" t="n">
         <v>0.04</v>
       </c>
       <c r="I47" t="n">
-        <v>14643201</v>
+        <v>14972278</v>
       </c>
     </row>
     <row r="48">
@@ -2099,22 +2099,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>632507</v>
+        <v>635148</v>
       </c>
       <c r="E48" t="n">
-        <v>632507</v>
+        <v>635148</v>
       </c>
       <c r="F48" t="n">
-        <v>90.14265604412329</v>
+        <v>101.3055705415593</v>
       </c>
       <c r="G48" t="n">
-        <v>133.3940277325795</v>
+        <v>129.0918769864325</v>
       </c>
       <c r="H48" t="n">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="I48" t="n">
-        <v>3328.53</v>
+        <v>3344.32</v>
       </c>
     </row>
     <row r="49">
@@ -2167,22 +2167,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>439517690</v>
+        <v>454405816</v>
       </c>
       <c r="E50" t="n">
-        <v>439517690</v>
+        <v>454423537</v>
       </c>
       <c r="F50" t="n">
-        <v>8007.777712602648</v>
+        <v>4046.425598223946</v>
       </c>
       <c r="G50" t="n">
-        <v>1894.340316114904</v>
+        <v>1833.305852187735</v>
       </c>
       <c r="H50" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I50" t="n">
-        <v>2843819</v>
+        <v>3071490</v>
       </c>
     </row>
     <row r="51">
@@ -2202,22 +2202,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2524245</v>
+        <v>2533712</v>
       </c>
       <c r="E51" t="n">
-        <v>2524245</v>
+        <v>2533712</v>
       </c>
       <c r="F51" t="n">
-        <v>298.3272476113812</v>
+        <v>298.8620821522797</v>
       </c>
       <c r="G51" t="n">
-        <v>1118.103399199689</v>
+        <v>65.58311190634188</v>
       </c>
       <c r="H51" t="n">
-        <v>2.13</v>
+        <v>2.12</v>
       </c>
       <c r="I51" t="n">
-        <v>109383</v>
+        <v>109784</v>
       </c>
     </row>
     <row r="52">
@@ -2237,10 +2237,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>23835</v>
+        <v>22519</v>
       </c>
       <c r="E52" t="n">
-        <v>47671</v>
+        <v>45039</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -2249,10 +2249,10 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>5.51</v>
+        <v>4.31</v>
       </c>
       <c r="I52" t="n">
-        <v>4382.24</v>
+        <v>4607.02</v>
       </c>
     </row>
     <row r="53">
@@ -2275,19 +2275,19 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>146106</v>
+        <v>147466</v>
       </c>
       <c r="F53" t="n">
-        <v>30.97836618556933</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>1.194788480662189</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.87</v>
+        <v>4.2</v>
       </c>
       <c r="I53" t="n">
-        <v>23210</v>
+        <v>23574</v>
       </c>
     </row>
     <row r="54">
@@ -2307,22 +2307,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2538970</v>
+        <v>2536935</v>
       </c>
       <c r="E54" t="n">
-        <v>6491096</v>
+        <v>6485895</v>
       </c>
       <c r="F54" t="n">
-        <v>215.0863219795897</v>
+        <v>311.4658427469308</v>
       </c>
       <c r="G54" t="n">
-        <v>197.4367535564016</v>
+        <v>222.8958137579382</v>
       </c>
       <c r="H54" t="n">
-        <v>2.26</v>
+        <v>1.81</v>
       </c>
       <c r="I54" t="n">
-        <v>118650</v>
+        <v>117602</v>
       </c>
     </row>
     <row r="55">
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>3821.92</v>
+        <v>3820.95</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>6.22</v>
       </c>
       <c r="I55" t="n">
-        <v>813.49</v>
+        <v>803.6799999999999</v>
       </c>
     </row>
     <row r="56">
@@ -2377,22 +2377,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>71937950</v>
+        <v>74069025</v>
       </c>
       <c r="E56" t="n">
-        <v>71937950</v>
+        <v>74069025</v>
       </c>
       <c r="F56" t="n">
-        <v>13932.89167465929</v>
+        <v>19728.71285264869</v>
       </c>
       <c r="G56" t="n">
-        <v>20730.83527464023</v>
+        <v>21175.84373088257</v>
       </c>
       <c r="H56" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="I56" t="n">
-        <v>4399802</v>
+        <v>4121445</v>
       </c>
     </row>
     <row r="57">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3552495</v>
+        <v>3674138</v>
       </c>
       <c r="E57" t="n">
-        <v>4501632</v>
+        <v>4655775</v>
       </c>
       <c r="F57" t="n">
-        <v>113.4544690740446</v>
+        <v>326.6767828194481</v>
       </c>
       <c r="G57" t="n">
-        <v>2018.791887733495</v>
+        <v>111.5853237287003</v>
       </c>
       <c r="H57" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="I57" t="n">
-        <v>277932</v>
+        <v>290677</v>
       </c>
     </row>
     <row r="58">
@@ -2447,22 +2447,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>4214743</v>
+        <v>4223778</v>
       </c>
       <c r="E58" t="n">
-        <v>8311827</v>
+        <v>8329646</v>
       </c>
       <c r="F58" t="n">
-        <v>2887.264458284407</v>
+        <v>2388.479665358755</v>
       </c>
       <c r="G58" t="n">
-        <v>2393.732622218654</v>
+        <v>2665.244925081127</v>
       </c>
       <c r="H58" t="n">
-        <v>0.29</v>
+        <v>0.19</v>
       </c>
       <c r="I58" t="n">
-        <v>1631240</v>
+        <v>1641930</v>
       </c>
     </row>
     <row r="59">
@@ -2482,22 +2482,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1570394</v>
+        <v>1572394</v>
       </c>
       <c r="E59" t="n">
-        <v>9016614</v>
+        <v>9028101</v>
       </c>
       <c r="F59" t="n">
-        <v>355.3413750365989</v>
+        <v>347.3396114610014</v>
       </c>
       <c r="G59" t="n">
-        <v>512.3800662872637</v>
+        <v>423.8531852466631</v>
       </c>
       <c r="H59" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="I59" t="n">
-        <v>321236</v>
+        <v>310010</v>
       </c>
     </row>
     <row r="60">
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>571609</v>
+        <v>540426</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>8.77</v>
       </c>
       <c r="I60" t="n">
-        <v>2282.97</v>
+        <v>2187.75</v>
       </c>
     </row>
     <row r="61">
@@ -2555,19 +2555,19 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>32076918</v>
+        <v>31954606</v>
       </c>
       <c r="F61" t="n">
-        <v>500.7354916173262</v>
+        <v>480.5485543342209</v>
       </c>
       <c r="G61" t="n">
-        <v>1522.839675730607</v>
+        <v>1987.500368131681</v>
       </c>
       <c r="H61" t="n">
         <v>0.22</v>
       </c>
       <c r="I61" t="n">
-        <v>250638</v>
+        <v>251577</v>
       </c>
     </row>
     <row r="62">
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>1410694</v>
+        <v>1439559</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>4.75</v>
+        <v>16.83</v>
       </c>
       <c r="I62" t="n">
-        <v>27725</v>
+        <v>27677</v>
       </c>
     </row>
     <row r="63">
@@ -2622,22 +2622,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>7541087</v>
+        <v>7552123</v>
       </c>
       <c r="E63" t="n">
-        <v>17760760</v>
+        <v>17786751</v>
       </c>
       <c r="F63" t="n">
-        <v>1214.020175423123</v>
+        <v>1271.024679548903</v>
       </c>
       <c r="G63" t="n">
-        <v>2368.448212899726</v>
+        <v>2369.19289069129</v>
       </c>
       <c r="H63" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="I63" t="n">
-        <v>29890</v>
+        <v>31599</v>
       </c>
     </row>
     <row r="64">
@@ -2657,22 +2657,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2938146</v>
+        <v>2861886</v>
       </c>
       <c r="E64" t="n">
-        <v>2938146</v>
+        <v>2861886</v>
       </c>
       <c r="F64" t="n">
-        <v>47.97925259851269</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>21.42820188954004</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.09</v>
+        <v>4.67</v>
       </c>
       <c r="I64" t="n">
-        <v>14457.61</v>
+        <v>17649.21</v>
       </c>
     </row>
     <row r="65">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3377264</v>
+        <v>3367613</v>
       </c>
       <c r="E65" t="n">
-        <v>8333227</v>
+        <v>8309413</v>
       </c>
       <c r="F65" t="n">
-        <v>474.4175903857309</v>
+        <v>674.8512882486505</v>
       </c>
       <c r="G65" t="n">
-        <v>1038.665257710367</v>
+        <v>1076.734789137564</v>
       </c>
       <c r="H65" t="n">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="I65" t="n">
-        <v>58062</v>
+        <v>53815</v>
       </c>
     </row>
     <row r="66">
@@ -2730,19 +2730,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>272167</v>
+        <v>272084</v>
       </c>
       <c r="F66" t="n">
-        <v>35.17090098226682</v>
+        <v>35.17280474012904</v>
       </c>
       <c r="G66" t="n">
-        <v>104.0009823658825</v>
+        <v>78.78410897519825</v>
       </c>
       <c r="H66" t="n">
         <v>3.33</v>
       </c>
       <c r="I66" t="n">
-        <v>2228.24</v>
+        <v>2287.07</v>
       </c>
     </row>
     <row r="67">
@@ -2762,22 +2762,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>72110728</v>
+        <v>72400003</v>
       </c>
       <c r="E67" t="n">
-        <v>150387487</v>
+        <v>150990773</v>
       </c>
       <c r="F67" t="n">
-        <v>53493.26676550398</v>
+        <v>64527.62224665952</v>
       </c>
       <c r="G67" t="n">
-        <v>94778.4813368184</v>
+        <v>92831.79166735319</v>
       </c>
       <c r="H67" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I67" t="n">
-        <v>13738659</v>
+        <v>13989136</v>
       </c>
     </row>
     <row r="68">
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>2090351</v>
+        <v>2181197</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>4.31</v>
+        <v>4.13</v>
       </c>
       <c r="I68" t="n">
-        <v>3031.53</v>
+        <v>3155.27</v>
       </c>
     </row>
     <row r="69">
@@ -2835,19 +2835,19 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>196290651</v>
+        <v>205890740</v>
       </c>
       <c r="F69" t="n">
-        <v>4742.90451387986</v>
+        <v>4542.46140383729</v>
       </c>
       <c r="G69" t="n">
-        <v>2621.653065773835</v>
+        <v>2811.24716136596</v>
       </c>
       <c r="H69" t="n">
-        <v>0.54</v>
+        <v>0.76</v>
       </c>
       <c r="I69" t="n">
-        <v>4220666</v>
+        <v>4522517</v>
       </c>
     </row>
     <row r="70">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>184980</v>
+        <v>189258</v>
       </c>
       <c r="E70" t="n">
-        <v>193172</v>
+        <v>197639</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -2879,10 +2879,10 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>11.37</v>
+        <v>13.74</v>
       </c>
       <c r="I70" t="n">
-        <v>597.7</v>
+        <v>434.77</v>
       </c>
     </row>
     <row r="71">
@@ -2902,22 +2902,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>142884924</v>
+        <v>143802055</v>
       </c>
       <c r="E71" t="n">
-        <v>142927106</v>
+        <v>143845093</v>
       </c>
       <c r="F71" t="n">
-        <v>39941.09173069727</v>
+        <v>32687.4086835874</v>
       </c>
       <c r="G71" t="n">
-        <v>38446.56279623045</v>
+        <v>47268.56139132202</v>
       </c>
       <c r="H71" t="n">
-        <v>0.31</v>
+        <v>0.22</v>
       </c>
       <c r="I71" t="n">
-        <v>2592304</v>
+        <v>2614847</v>
       </c>
     </row>
     <row r="72">
@@ -2937,22 +2937,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>26067221</v>
+        <v>26236262</v>
       </c>
       <c r="E72" t="n">
-        <v>85547636</v>
+        <v>86102395</v>
       </c>
       <c r="F72" t="n">
-        <v>23607.50767578734</v>
+        <v>18952.78639251748</v>
       </c>
       <c r="G72" t="n">
-        <v>27599.76482073884</v>
+        <v>17151.56470020328</v>
       </c>
       <c r="H72" t="n">
-        <v>0.58</v>
+        <v>0.35</v>
       </c>
       <c r="I72" t="n">
-        <v>104093</v>
+        <v>100093</v>
       </c>
     </row>
     <row r="73">
@@ -2972,10 +2972,10 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>112436</v>
+        <v>112844</v>
       </c>
       <c r="E73" t="n">
-        <v>112436</v>
+        <v>112844</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -2987,7 +2987,7 @@
         <v>4.49</v>
       </c>
       <c r="I73" t="n">
-        <v>148.14</v>
+        <v>145.19</v>
       </c>
     </row>
     <row r="74">
@@ -3007,22 +3007,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>196461786</v>
+        <v>197704503</v>
       </c>
       <c r="E74" t="n">
-        <v>682526001</v>
+        <v>686843311</v>
       </c>
       <c r="F74" t="n">
-        <v>120127.2014138741</v>
+        <v>150680.5021445937</v>
       </c>
       <c r="G74" t="n">
-        <v>193952.6759731366</v>
+        <v>179013.5133866989</v>
       </c>
       <c r="H74" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I74" t="n">
-        <v>25628025</v>
+        <v>26103952</v>
       </c>
     </row>
     <row r="75">
@@ -3042,22 +3042,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>4094564</v>
+        <v>4030439</v>
       </c>
       <c r="E75" t="n">
-        <v>4094564</v>
+        <v>4030439</v>
       </c>
       <c r="F75" t="n">
-        <v>929.2528175871608</v>
+        <v>574.5038378968802</v>
       </c>
       <c r="G75" t="n">
-        <v>1827.727833213688</v>
+        <v>1890.532476250757</v>
       </c>
       <c r="H75" t="n">
-        <v>0.58</v>
+        <v>0.5</v>
       </c>
       <c r="I75" t="n">
-        <v>3798614</v>
+        <v>3701454</v>
       </c>
     </row>
     <row r="76">
@@ -3077,22 +3077,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>111912876</v>
+        <v>114343840</v>
       </c>
       <c r="E76" t="n">
-        <v>476133227</v>
+        <v>486424928</v>
       </c>
       <c r="F76" t="n">
-        <v>168837.4283857988</v>
+        <v>176342.9009673469</v>
       </c>
       <c r="G76" t="n">
-        <v>172187.8135913788</v>
+        <v>235485.7963752507</v>
       </c>
       <c r="H76" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="I76" t="n">
-        <v>12214273</v>
+        <v>13231232</v>
       </c>
     </row>
     <row r="77">
@@ -3115,19 +3115,19 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1848045</v>
+        <v>1850791</v>
       </c>
       <c r="F77" t="n">
-        <v>109.3002372221619</v>
+        <v>123.7119062339318</v>
       </c>
       <c r="G77" t="n">
-        <v>92.99900331399641</v>
+        <v>93.00403723632405</v>
       </c>
       <c r="H77" t="n">
         <v>0.54</v>
       </c>
       <c r="I77" t="n">
-        <v>432.75</v>
+        <v>433.26</v>
       </c>
     </row>
     <row r="78">
@@ -3147,22 +3147,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3143821</v>
+        <v>3145231</v>
       </c>
       <c r="E78" t="n">
-        <v>15762405</v>
+        <v>15769475</v>
       </c>
       <c r="F78" t="n">
-        <v>261.2042014457905</v>
+        <v>837.3532967679454</v>
       </c>
       <c r="G78" t="n">
-        <v>1753.917811691842</v>
+        <v>139.6409851016239</v>
       </c>
       <c r="H78" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="I78" t="n">
-        <v>28206</v>
+        <v>31646</v>
       </c>
     </row>
     <row r="79">
@@ -3182,22 +3182,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>532217</v>
+        <v>531786</v>
       </c>
       <c r="E79" t="n">
-        <v>9103533</v>
+        <v>9096168</v>
       </c>
       <c r="F79" t="n">
-        <v>36.8386879037437</v>
+        <v>607.8735006504944</v>
       </c>
       <c r="G79" t="n">
-        <v>345.8113976776041</v>
+        <v>79.54577234731289</v>
       </c>
       <c r="H79" t="n">
-        <v>1.68</v>
+        <v>1.18</v>
       </c>
       <c r="I79" t="n">
-        <v>311917</v>
+        <v>305541</v>
       </c>
     </row>
     <row r="80">
@@ -3217,22 +3217,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>5937125</v>
+        <v>5944953</v>
       </c>
       <c r="E80" t="n">
-        <v>8067469</v>
+        <v>8077959</v>
       </c>
       <c r="F80" t="n">
-        <v>357.06769200746</v>
+        <v>333.0658259867893</v>
       </c>
       <c r="G80" t="n">
-        <v>556.6798192465851</v>
+        <v>593.7980935805788</v>
       </c>
       <c r="H80" t="n">
-        <v>0.34</v>
+        <v>1.07</v>
       </c>
       <c r="I80" t="n">
-        <v>6467890</v>
+        <v>6466820</v>
       </c>
     </row>
     <row r="81">
@@ -3251,19 +3251,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>43862</v>
+        <v>42756</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>83.24952671540966</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>150.0627177535276</v>
       </c>
       <c r="H81" t="n">
-        <v>4.36</v>
+        <v>1.96</v>
       </c>
       <c r="I81" t="n">
-        <v>59710</v>
+        <v>59965</v>
       </c>
     </row>
     <row r="82">
@@ -3283,22 +3283,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>40893482</v>
+        <v>40785714</v>
       </c>
       <c r="E82" t="n">
-        <v>47762615</v>
+        <v>47636745</v>
       </c>
       <c r="F82" t="n">
-        <v>350.3444687067032</v>
+        <v>313.4422296231077</v>
       </c>
       <c r="G82" t="n">
-        <v>143.264581658621</v>
+        <v>67.17302776896783</v>
       </c>
       <c r="H82" t="n">
-        <v>2.33</v>
+        <v>1.7</v>
       </c>
       <c r="I82" t="n">
-        <v>852190</v>
+        <v>854719</v>
       </c>
     </row>
     <row r="83">
@@ -3321,19 +3321,19 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>14294342</v>
+        <v>14441932</v>
       </c>
       <c r="F83" t="n">
-        <v>358.7004697916897</v>
+        <v>153.8760593024926</v>
       </c>
       <c r="G83" t="n">
-        <v>715.9210524499546</v>
+        <v>700.2359066725352</v>
       </c>
       <c r="H83" t="n">
-        <v>0.6</v>
+        <v>0.51</v>
       </c>
       <c r="I83" t="n">
-        <v>458832</v>
+        <v>431562</v>
       </c>
     </row>
     <row r="84">
@@ -3353,22 +3353,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>35294035</v>
+        <v>35613527</v>
       </c>
       <c r="E84" t="n">
-        <v>35294035</v>
+        <v>35613527</v>
       </c>
       <c r="F84" t="n">
-        <v>1.586943195975134</v>
+        <v>533.2487714884709</v>
       </c>
       <c r="G84" t="n">
-        <v>819.1820529577989</v>
+        <v>231.4158291780116</v>
       </c>
       <c r="H84" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="I84" t="n">
-        <v>739848</v>
+        <v>752747</v>
       </c>
     </row>
     <row r="85">
@@ -3388,22 +3388,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>536024</v>
+        <v>537238</v>
       </c>
       <c r="E85" t="n">
-        <v>6501447</v>
+        <v>6516169</v>
       </c>
       <c r="F85" t="n">
-        <v>555.4605448216023</v>
+        <v>1175.41158929594</v>
       </c>
       <c r="G85" t="n">
-        <v>1716.77387926946</v>
+        <v>1258.306877555144</v>
       </c>
       <c r="H85" t="n">
-        <v>0.46</v>
+        <v>0.99</v>
       </c>
       <c r="I85" t="n">
-        <v>2759947</v>
+        <v>2775267</v>
       </c>
     </row>
     <row r="86">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>25021527</v>
+        <v>25035686</v>
       </c>
       <c r="E86" t="n">
-        <v>35366952</v>
+        <v>35386965</v>
       </c>
       <c r="F86" t="n">
-        <v>184.438099716977</v>
+        <v>75.88168951974929</v>
       </c>
       <c r="G86" t="n">
-        <v>1694.19773753137</v>
+        <v>200.6505713789785</v>
       </c>
       <c r="H86" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="I86" t="n">
-        <v>86584</v>
+        <v>82261</v>
       </c>
     </row>
     <row r="87">
@@ -3458,22 +3458,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1268186287</v>
+        <v>1276117356</v>
       </c>
       <c r="E87" t="n">
-        <v>6081212964</v>
+        <v>6119244063</v>
       </c>
       <c r="F87" t="n">
-        <v>632648.308102095</v>
+        <v>855811.0576698777</v>
       </c>
       <c r="G87" t="n">
-        <v>826860.0505623707</v>
+        <v>728362.677585343</v>
       </c>
       <c r="H87" t="n">
         <v>0.02</v>
       </c>
       <c r="I87" t="n">
-        <v>181687775</v>
+        <v>177985645</v>
       </c>
     </row>
     <row r="88">
@@ -3493,22 +3493,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>266306460</v>
+        <v>264901472</v>
       </c>
       <c r="E88" t="n">
-        <v>1149526518</v>
+        <v>1143461812</v>
       </c>
       <c r="F88" t="n">
-        <v>987185.7194378419</v>
+        <v>1125136.669951261</v>
       </c>
       <c r="G88" t="n">
-        <v>1140900.87296953</v>
+        <v>978021.2442508546</v>
       </c>
       <c r="H88" t="n">
         <v>0.02</v>
       </c>
       <c r="I88" t="n">
-        <v>110313754</v>
+        <v>111201107</v>
       </c>
     </row>
     <row r="89">
@@ -3528,22 +3528,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>113533535</v>
+        <v>114097862</v>
       </c>
       <c r="E89" t="n">
-        <v>113533535</v>
+        <v>114097862</v>
       </c>
       <c r="F89" t="n">
-        <v>442.8773769886648</v>
+        <v>30737.51143208566</v>
       </c>
       <c r="G89" t="n">
-        <v>307.0556063663728</v>
+        <v>28549.79548659856</v>
       </c>
       <c r="H89" t="n">
-        <v>1.97</v>
+        <v>0.59</v>
       </c>
       <c r="I89" t="n">
-        <v>5969720</v>
+        <v>6026817</v>
       </c>
     </row>
     <row r="90">
@@ -3563,22 +3563,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>3854552</v>
+        <v>3854749</v>
       </c>
       <c r="E90" t="n">
-        <v>29995661</v>
+        <v>29997189</v>
       </c>
       <c r="F90" t="n">
-        <v>11031.38362450373</v>
+        <v>11030.58488714175</v>
       </c>
       <c r="G90" t="n">
-        <v>12355.12956057469</v>
+        <v>12355.79961889112</v>
       </c>
       <c r="H90" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I90" t="n">
-        <v>9986.48</v>
+        <v>9994.969999999999</v>
       </c>
     </row>
     <row r="91">
@@ -3601,19 +3601,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>3750884</v>
+        <v>3768338</v>
       </c>
       <c r="F91" t="n">
-        <v>1731.721232652341</v>
+        <v>4846.917746852343</v>
       </c>
       <c r="G91" t="n">
-        <v>2665.72306593456</v>
+        <v>3189.873481885058</v>
       </c>
       <c r="H91" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="I91" t="n">
-        <v>317731</v>
+        <v>294636</v>
       </c>
     </row>
     <row r="92">
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>912784</v>
+        <v>900494</v>
       </c>
       <c r="F92" t="n">
-        <v>10.34127955849678</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>165.8338839398151</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>3.18</v>
+        <v>4.83</v>
       </c>
       <c r="I92" t="n">
-        <v>65905</v>
+        <v>60330</v>
       </c>
     </row>
     <row r="93">
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>142930</v>
+        <v>140410</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>82.3031743209647</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>6.401276715488814</v>
       </c>
       <c r="H93" t="n">
-        <v>4.17</v>
+        <v>0.82</v>
       </c>
       <c r="I93" t="n">
-        <v>106612</v>
+        <v>110512</v>
       </c>
     </row>
     <row r="94">
@@ -3699,22 +3699,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>10911455</v>
+        <v>11111548</v>
       </c>
       <c r="E94" t="n">
-        <v>131765861</v>
+        <v>134180948</v>
       </c>
       <c r="F94" t="n">
-        <v>1932.287583677703</v>
+        <v>3644.282052389735</v>
       </c>
       <c r="G94" t="n">
-        <v>7400.288088047264</v>
+        <v>2662.11071624716</v>
       </c>
       <c r="H94" t="n">
-        <v>0.38</v>
+        <v>0.22</v>
       </c>
       <c r="I94" t="n">
-        <v>235668</v>
+        <v>229104</v>
       </c>
     </row>
     <row r="95">
@@ -3734,22 +3734,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>21399686</v>
+        <v>21304022</v>
       </c>
       <c r="E95" t="n">
-        <v>53499215</v>
+        <v>53260054</v>
       </c>
       <c r="F95" t="n">
-        <v>8504.398643032237</v>
+        <v>7407.181821465222</v>
       </c>
       <c r="G95" t="n">
-        <v>8783.213594177607</v>
+        <v>8090.258009186871</v>
       </c>
       <c r="H95" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="I95" t="n">
-        <v>2093111</v>
+        <v>2060157</v>
       </c>
     </row>
     <row r="96">
@@ -3772,19 +3772,19 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>2325525</v>
+        <v>2325580</v>
       </c>
       <c r="F96" t="n">
-        <v>167.527247815626</v>
+        <v>155.6295486255241</v>
       </c>
       <c r="G96" t="n">
-        <v>119.4980686100261</v>
+        <v>119.5045368943545</v>
       </c>
       <c r="H96" t="n">
         <v>1.95</v>
       </c>
       <c r="I96" t="n">
-        <v>71744</v>
+        <v>71345</v>
       </c>
     </row>
     <row r="97">
@@ -3807,19 +3807,19 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>20200060</v>
+        <v>20169242</v>
       </c>
       <c r="F97" t="n">
-        <v>2718.378302348033</v>
+        <v>2912.484996808857</v>
       </c>
       <c r="G97" t="n">
-        <v>1395.379177535675</v>
+        <v>1371.111563619721</v>
       </c>
       <c r="H97" t="n">
         <v>0.99</v>
       </c>
       <c r="I97" t="n">
-        <v>128456</v>
+        <v>125934</v>
       </c>
     </row>
     <row r="98">
@@ -3839,22 +3839,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>3936016</v>
+        <v>4045623</v>
       </c>
       <c r="E98" t="n">
-        <v>11337321</v>
+        <v>11652699</v>
       </c>
       <c r="F98" t="n">
-        <v>1065.440346512396</v>
+        <v>1261.22663280417</v>
       </c>
       <c r="G98" t="n">
-        <v>1120.71957548399</v>
+        <v>442.0509998417462</v>
       </c>
       <c r="H98" t="n">
-        <v>0.96</v>
+        <v>1.28</v>
       </c>
       <c r="I98" t="n">
-        <v>535174</v>
+        <v>567800</v>
       </c>
     </row>
     <row r="99">
@@ -3877,19 +3877,19 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>1654121</v>
+        <v>1651506</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>57.7446095396609</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>95.26842277658166</v>
       </c>
       <c r="H99" t="n">
-        <v>4.11</v>
+        <v>2.63</v>
       </c>
       <c r="I99" t="n">
-        <v>293241</v>
+        <v>292613</v>
       </c>
     </row>
     <row r="100">
@@ -3909,22 +3909,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>80107206</v>
+        <v>80353121</v>
       </c>
       <c r="E100" t="n">
-        <v>101942645</v>
+        <v>102255592</v>
       </c>
       <c r="F100" t="n">
-        <v>8444.707612034188</v>
+        <v>10524.57829681355</v>
       </c>
       <c r="G100" t="n">
-        <v>17309.16481628684</v>
+        <v>7227.031647727915</v>
       </c>
       <c r="H100" t="n">
-        <v>0.38</v>
+        <v>0.85</v>
       </c>
       <c r="I100" t="n">
-        <v>6169139</v>
+        <v>6165184</v>
       </c>
     </row>
     <row r="101">
@@ -3944,22 +3944,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>22692978</v>
+        <v>22374964</v>
       </c>
       <c r="E101" t="n">
-        <v>29437984</v>
+        <v>29025447</v>
       </c>
       <c r="F101" t="n">
-        <v>6633.568717089252</v>
+        <v>7621.225588515137</v>
       </c>
       <c r="G101" t="n">
-        <v>7205.160982826012</v>
+        <v>7923.364365281394</v>
       </c>
       <c r="H101" t="n">
-        <v>0.39</v>
+        <v>0.67</v>
       </c>
       <c r="I101" t="n">
-        <v>163085</v>
+        <v>162460</v>
       </c>
     </row>
     <row r="102">
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>1625717</v>
+        <v>1704700</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>8</v>
+        <v>7.43</v>
       </c>
       <c r="I102" t="n">
-        <v>12128.13</v>
+        <v>12613.25</v>
       </c>
     </row>
     <row r="103">
@@ -4014,22 +4014,22 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>609632</v>
+        <v>621800</v>
       </c>
       <c r="E103" t="n">
-        <v>609632</v>
+        <v>621800</v>
       </c>
       <c r="F103" t="n">
-        <v>23.51077520571933</v>
+        <v>55.59055844083457</v>
       </c>
       <c r="G103" t="n">
-        <v>329.1370538499629</v>
+        <v>41.20522046939341</v>
       </c>
       <c r="H103" t="n">
-        <v>3.63</v>
+        <v>3.72</v>
       </c>
       <c r="I103" t="n">
-        <v>77869</v>
+        <v>78695</v>
       </c>
     </row>
     <row r="104">
@@ -4049,22 +4049,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>39830358</v>
+        <v>40360459</v>
       </c>
       <c r="E104" t="n">
-        <v>41636966</v>
+        <v>42191111</v>
       </c>
       <c r="F104" t="n">
-        <v>518.1931026673927</v>
+        <v>438.1393870453992</v>
       </c>
       <c r="G104" t="n">
-        <v>1621.711231107728</v>
+        <v>163.114422641928</v>
       </c>
       <c r="H104" t="n">
-        <v>0.33</v>
+        <v>0.72</v>
       </c>
       <c r="I104" t="n">
-        <v>841259</v>
+        <v>748208</v>
       </c>
     </row>
     <row r="105">
@@ -4084,22 +4084,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>13589701</v>
+        <v>14113961</v>
       </c>
       <c r="E105" t="n">
-        <v>13589701</v>
+        <v>14113961</v>
       </c>
       <c r="F105" t="n">
-        <v>1317.652738420428</v>
+        <v>2041.514580923431</v>
       </c>
       <c r="G105" t="n">
-        <v>3188.637040659169</v>
+        <v>3499.000568055188</v>
       </c>
       <c r="H105" t="n">
-        <v>0.3</v>
+        <v>0.24</v>
       </c>
       <c r="I105" t="n">
-        <v>4385708</v>
+        <v>4511923</v>
       </c>
     </row>
     <row r="106">
@@ -4122,19 +4122,19 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>1087863</v>
+        <v>1086238</v>
       </c>
       <c r="F106" t="n">
-        <v>7.910868696741264</v>
+        <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>333.6721273013523</v>
+        <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>0.73</v>
+        <v>4.39</v>
       </c>
       <c r="I106" t="n">
-        <v>3377.22</v>
+        <v>3098.28</v>
       </c>
     </row>
     <row r="107">
@@ -4154,22 +4154,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>52675407</v>
+        <v>53056599</v>
       </c>
       <c r="E107" t="n">
-        <v>134193610</v>
+        <v>135164718</v>
       </c>
       <c r="F107" t="n">
-        <v>2453.70483161656</v>
+        <v>2285.818797098963</v>
       </c>
       <c r="G107" t="n">
-        <v>3942.307370622661</v>
+        <v>3717.021997048133</v>
       </c>
       <c r="H107" t="n">
-        <v>0.34</v>
+        <v>0.17</v>
       </c>
       <c r="I107" t="n">
-        <v>2371968</v>
+        <v>2450361</v>
       </c>
     </row>
     <row r="108">
@@ -4189,22 +4189,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>13766886</v>
+        <v>13932234</v>
       </c>
       <c r="E108" t="n">
-        <v>66675224</v>
+        <v>67476035</v>
       </c>
       <c r="F108" t="n">
-        <v>7826.972452518025</v>
+        <v>6067.726147255624</v>
       </c>
       <c r="G108" t="n">
-        <v>8625.291585654481</v>
+        <v>11955.23602670815</v>
       </c>
       <c r="H108" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="I108" t="n">
-        <v>3614667</v>
+        <v>3613566</v>
       </c>
     </row>
     <row r="109">
@@ -4227,19 +4227,19 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>517964</v>
+        <v>516285</v>
       </c>
       <c r="F109" t="n">
-        <v>126.5198634141119</v>
+        <v>227.9315599798453</v>
       </c>
       <c r="G109" t="n">
-        <v>8.005942375314147</v>
+        <v>21.45597882068525</v>
       </c>
       <c r="H109" t="n">
-        <v>2.18</v>
+        <v>1.67</v>
       </c>
       <c r="I109" t="n">
-        <v>7700.03</v>
+        <v>8022.58</v>
       </c>
     </row>
     <row r="110">
@@ -4259,22 +4259,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>4499036</v>
+        <v>4539025</v>
       </c>
       <c r="E110" t="n">
-        <v>10255353</v>
+        <v>10346507</v>
       </c>
       <c r="F110" t="n">
-        <v>766.0782599385495</v>
+        <v>985.642623194751</v>
       </c>
       <c r="G110" t="n">
-        <v>2142.733817822726</v>
+        <v>1079.740225272187</v>
       </c>
       <c r="H110" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="I110" t="n">
-        <v>99842</v>
+        <v>93225</v>
       </c>
     </row>
     <row r="111">
@@ -4297,19 +4297,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>1880505224</v>
+        <v>1884120105</v>
       </c>
       <c r="F111" t="n">
-        <v>54041.96762989274</v>
+        <v>57172.29427679579</v>
       </c>
       <c r="G111" t="n">
-        <v>46973.95821237441</v>
+        <v>51299.05206351569</v>
       </c>
       <c r="H111" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="I111" t="n">
-        <v>26181918</v>
+        <v>25866099</v>
       </c>
     </row>
     <row r="112">
@@ -4329,22 +4329,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>9372201</v>
+        <v>9381325</v>
       </c>
       <c r="E112" t="n">
-        <v>34127316</v>
+        <v>34160309</v>
       </c>
       <c r="F112" t="n">
-        <v>454.5736086905591</v>
+        <v>483.2239566783835</v>
       </c>
       <c r="G112" t="n">
-        <v>381.9204207633661</v>
+        <v>382.9908016617191</v>
       </c>
       <c r="H112" t="n">
         <v>0.87</v>
       </c>
       <c r="I112" t="n">
-        <v>160231</v>
+        <v>159827</v>
       </c>
     </row>
     <row r="113">
@@ -4367,19 +4367,19 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>540734</v>
+        <v>540172</v>
       </c>
       <c r="F113" t="n">
-        <v>39.72346243705552</v>
+        <v>39.74020737039458</v>
       </c>
       <c r="G113" t="n">
-        <v>201.576984288473</v>
+        <v>180.5429340510294</v>
       </c>
       <c r="H113" t="n">
-        <v>1.24</v>
+        <v>1.39</v>
       </c>
       <c r="I113" t="n">
-        <v>19811.78</v>
+        <v>19586.31</v>
       </c>
     </row>
     <row r="114">
@@ -4399,22 +4399,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>12240668</v>
+        <v>12163026</v>
       </c>
       <c r="E114" t="n">
-        <v>17747203</v>
+        <v>17634632</v>
       </c>
       <c r="F114" t="n">
-        <v>2991.227763219611</v>
+        <v>2751.777761749963</v>
       </c>
       <c r="G114" t="n">
-        <v>5515.744418927101</v>
+        <v>2880.346695794701</v>
       </c>
       <c r="H114" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="I114" t="n">
-        <v>2270415</v>
+        <v>2166697</v>
       </c>
     </row>
     <row r="115">
@@ -4434,22 +4434,22 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>2078575</v>
+        <v>2068869</v>
       </c>
       <c r="E115" t="n">
-        <v>14905256</v>
+        <v>14835654</v>
       </c>
       <c r="F115" t="n">
-        <v>862.4321294198032</v>
+        <v>363.0596082550028</v>
       </c>
       <c r="G115" t="n">
-        <v>1481.727909340002</v>
+        <v>1018.23936972555</v>
       </c>
       <c r="H115" t="n">
-        <v>1.33</v>
+        <v>2.19</v>
       </c>
       <c r="I115" t="n">
-        <v>1926833</v>
+        <v>1934690</v>
       </c>
     </row>
     <row r="116">
@@ -4469,10 +4469,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2755939</v>
+        <v>2745951</v>
       </c>
       <c r="E116" t="n">
-        <v>5571019</v>
+        <v>5550828</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>4687.3</v>
+        <v>4762.1</v>
       </c>
     </row>
     <row r="117">
@@ -4502,22 +4502,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>200274202</v>
+        <v>201898937</v>
       </c>
       <c r="E117" t="n">
-        <v>1134075589</v>
+        <v>1143275837</v>
       </c>
       <c r="F117" t="n">
-        <v>272216.4972627584</v>
+        <v>388985.7742584586</v>
       </c>
       <c r="G117" t="n">
-        <v>495858.2787393294</v>
+        <v>466700.1863600474</v>
       </c>
       <c r="H117" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I117" t="n">
-        <v>61656298</v>
+        <v>63124589</v>
       </c>
     </row>
     <row r="118">
@@ -4537,22 +4537,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>695454</v>
+        <v>691235</v>
       </c>
       <c r="E118" t="n">
-        <v>2306024</v>
+        <v>2292033</v>
       </c>
       <c r="F118" t="n">
-        <v>8897.255737296397</v>
+        <v>4058.496810848505</v>
       </c>
       <c r="G118" t="n">
-        <v>7542.886662387833</v>
+        <v>8184.728820305424</v>
       </c>
       <c r="H118" t="n">
-        <v>0.44</v>
+        <v>0.89</v>
       </c>
       <c r="I118" t="n">
-        <v>21770</v>
+        <v>24768</v>
       </c>
     </row>
     <row r="119">
@@ -4572,22 +4572,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2781351</v>
+        <v>2781194</v>
       </c>
       <c r="E119" t="n">
-        <v>9847590</v>
+        <v>9847035</v>
       </c>
       <c r="F119" t="n">
-        <v>281.1658329419158</v>
+        <v>280.4127073783601</v>
       </c>
       <c r="G119" t="n">
-        <v>1544.209069401532</v>
+        <v>1686.850489831812</v>
       </c>
       <c r="H119" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="I119" t="n">
-        <v>8817.35</v>
+        <v>8822.440000000001</v>
       </c>
     </row>
     <row r="120">
@@ -4607,22 +4607,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1023909</v>
+        <v>1044162</v>
       </c>
       <c r="E120" t="n">
-        <v>1023909</v>
+        <v>1044162</v>
       </c>
       <c r="F120" t="n">
-        <v>22.79963875894064</v>
+        <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>47.98237754157821</v>
+        <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>3.19</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="I120" t="n">
-        <v>12185.32</v>
+        <v>12325.32</v>
       </c>
     </row>
     <row r="121">
@@ -4642,22 +4642,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>503030</v>
+        <v>502746</v>
       </c>
       <c r="E121" t="n">
-        <v>1693130</v>
+        <v>1692173</v>
       </c>
       <c r="F121" t="n">
-        <v>443.4581274327081</v>
+        <v>438.745054980731</v>
       </c>
       <c r="G121" t="n">
-        <v>617.7436803657552</v>
+        <v>645.45479815819</v>
       </c>
       <c r="H121" t="n">
-        <v>0.82</v>
+        <v>0.76</v>
       </c>
       <c r="I121" t="n">
-        <v>632901</v>
+        <v>630084</v>
       </c>
     </row>
     <row r="122">
@@ -4677,22 +4677,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>448140</v>
+        <v>453156</v>
       </c>
       <c r="E122" t="n">
-        <v>831385</v>
+        <v>840692</v>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>4.45465035790405</v>
       </c>
       <c r="G122" t="n">
-        <v>0</v>
+        <v>3.497183800867149</v>
       </c>
       <c r="H122" t="n">
-        <v>4.49</v>
+        <v>2.3</v>
       </c>
       <c r="I122" t="n">
-        <v>213406</v>
+        <v>210079</v>
       </c>
     </row>
     <row r="123">
@@ -4715,19 +4715,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>11776975</v>
+        <v>11821488</v>
       </c>
       <c r="F123" t="n">
-        <v>158.2455944704333</v>
+        <v>57.33036192094209</v>
       </c>
       <c r="G123" t="n">
-        <v>155.360631901991</v>
+        <v>154.6237571441069</v>
       </c>
       <c r="H123" t="n">
-        <v>2.98</v>
+        <v>2.66</v>
       </c>
       <c r="I123" t="n">
-        <v>7583.73</v>
+        <v>7707.82</v>
       </c>
     </row>
     <row r="124">
@@ -4750,19 +4750,19 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>1251813</v>
+        <v>1245430</v>
       </c>
       <c r="F124" t="n">
-        <v>83.84266392998343</v>
+        <v>107.553492705238</v>
       </c>
       <c r="G124" t="n">
-        <v>4.020187358258604</v>
+        <v>14.02243055276158</v>
       </c>
       <c r="H124" t="n">
-        <v>2.19</v>
+        <v>1.39</v>
       </c>
       <c r="I124" t="n">
-        <v>48275</v>
+        <v>49031</v>
       </c>
     </row>
     <row r="125">
@@ -4782,22 +4782,22 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3432245</v>
+        <v>3447619</v>
       </c>
       <c r="E125" t="n">
-        <v>8014863</v>
+        <v>8050765</v>
       </c>
       <c r="F125" t="n">
-        <v>912.1840687491404</v>
+        <v>916.7886450347693</v>
       </c>
       <c r="G125" t="n">
-        <v>1399.430847631827</v>
+        <v>1821.007584871685</v>
       </c>
       <c r="H125" t="n">
-        <v>0.82</v>
+        <v>0.91</v>
       </c>
       <c r="I125" t="n">
-        <v>796312</v>
+        <v>777601</v>
       </c>
     </row>
     <row r="126">
@@ -4817,22 +4817,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>260598</v>
+        <v>260182</v>
       </c>
       <c r="E126" t="n">
-        <v>2299976</v>
+        <v>2296300</v>
       </c>
       <c r="F126" t="n">
-        <v>29.40441351400067</v>
+        <v>77.71340136673528</v>
       </c>
       <c r="G126" t="n">
-        <v>102.8738979264356</v>
+        <v>10.71031434095174</v>
       </c>
       <c r="H126" t="n">
         <v>3.61</v>
       </c>
       <c r="I126" t="n">
-        <v>72086</v>
+        <v>73038</v>
       </c>
     </row>
     <row r="127">
@@ -4855,19 +4855,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>643837</v>
+        <v>644677</v>
       </c>
       <c r="F127" t="n">
-        <v>589.9610860051561</v>
+        <v>589.9930198773209</v>
       </c>
       <c r="G127" t="n">
-        <v>472.7928168096818</v>
+        <v>472.8184085067116</v>
       </c>
       <c r="H127" t="n">
         <v>1.9</v>
       </c>
       <c r="I127" t="n">
-        <v>5675.66</v>
+        <v>5663.15</v>
       </c>
     </row>
     <row r="128">
@@ -4887,22 +4887,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>4899162</v>
+        <v>4928095</v>
       </c>
       <c r="E128" t="n">
-        <v>17312291</v>
+        <v>17414248</v>
       </c>
       <c r="F128" t="n">
-        <v>1859.343510813371</v>
+        <v>1643.705685245779</v>
       </c>
       <c r="G128" t="n">
-        <v>1831.023799642541</v>
+        <v>1932.404364005045</v>
       </c>
       <c r="H128" t="n">
         <v>0.75</v>
       </c>
       <c r="I128" t="n">
-        <v>106019</v>
+        <v>105384</v>
       </c>
     </row>
     <row r="129">
@@ -4925,19 +4925,19 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2301978</v>
+        <v>2181197</v>
       </c>
       <c r="F129" t="n">
-        <v>99.73613231058081</v>
+        <v>42.65274916741558</v>
       </c>
       <c r="G129" t="n">
-        <v>11.1690610035486</v>
+        <v>85.9926830917978</v>
       </c>
       <c r="H129" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="I129" t="n">
-        <v>7572.61</v>
+        <v>8576.32</v>
       </c>
     </row>
     <row r="130">
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>2501188</v>
+        <v>2505654</v>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
@@ -4970,7 +4970,7 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>2444.9</v>
+        <v>2447.08</v>
       </c>
     </row>
     <row r="131">
@@ -4990,22 +4990,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>80788</v>
+        <v>79682</v>
       </c>
       <c r="E131" t="n">
-        <v>80788</v>
+        <v>79682</v>
       </c>
       <c r="F131" t="n">
-        <v>10.27261201036428</v>
+        <v>15.31408942309903</v>
       </c>
       <c r="G131" t="n">
-        <v>6.696041010086462</v>
+        <v>6.331597573086514</v>
       </c>
       <c r="H131" t="n">
-        <v>1.76</v>
+        <v>0.42</v>
       </c>
       <c r="I131" t="n">
-        <v>19881.78</v>
+        <v>19662.04</v>
       </c>
     </row>
     <row r="132">
@@ -5028,19 +5028,19 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>4363471</v>
+        <v>4407565</v>
       </c>
       <c r="F132" t="n">
-        <v>342.3564793425438</v>
+        <v>513.188671775332</v>
       </c>
       <c r="G132" t="n">
-        <v>261.1310456177749</v>
+        <v>311.8590208521321</v>
       </c>
       <c r="H132" t="n">
-        <v>0.29</v>
+        <v>0.43</v>
       </c>
       <c r="I132" t="n">
-        <v>282929</v>
+        <v>277165</v>
       </c>
     </row>
     <row r="133">
@@ -5060,22 +5060,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2102382</v>
+        <v>2146584</v>
       </c>
       <c r="E133" t="n">
-        <v>8585584</v>
+        <v>8766094</v>
       </c>
       <c r="F133" t="n">
-        <v>392.7828222403194</v>
+        <v>508.3732333737683</v>
       </c>
       <c r="G133" t="n">
-        <v>636.8955869855702</v>
+        <v>439.9163906042399</v>
       </c>
       <c r="H133" t="n">
-        <v>0.11</v>
+        <v>0.97</v>
       </c>
       <c r="I133" t="n">
-        <v>547185</v>
+        <v>564355</v>
       </c>
     </row>
     <row r="134">
@@ -5095,22 +5095,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>7482089</v>
+        <v>7326890</v>
       </c>
       <c r="E134" t="n">
-        <v>7537706</v>
+        <v>7381353</v>
       </c>
       <c r="F134" t="n">
-        <v>258034.1847764576</v>
+        <v>349392.837587558</v>
       </c>
       <c r="G134" t="n">
-        <v>313425.4299943548</v>
+        <v>301982.0187792122</v>
       </c>
       <c r="H134" t="n">
-        <v>0.44</v>
+        <v>0.28</v>
       </c>
       <c r="I134" t="n">
-        <v>5051907</v>
+        <v>5021262</v>
       </c>
     </row>
     <row r="135">
@@ -5130,22 +5130,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>13513877</v>
+        <v>13643912</v>
       </c>
       <c r="E135" t="n">
-        <v>13559866</v>
+        <v>13690344</v>
       </c>
       <c r="F135" t="n">
-        <v>12023.02361710667</v>
+        <v>13098.79728414484</v>
       </c>
       <c r="G135" t="n">
-        <v>12270.12022621563</v>
+        <v>15219.69714379712</v>
       </c>
       <c r="H135" t="n">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="I135" t="n">
-        <v>5770605</v>
+        <v>5837902</v>
       </c>
     </row>
     <row r="136">
@@ -5165,22 +5165,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>42886871</v>
+        <v>42885557</v>
       </c>
       <c r="E136" t="n">
-        <v>72811929</v>
+        <v>72809698</v>
       </c>
       <c r="F136" t="n">
-        <v>991.2296291825414</v>
+        <v>1103.915863832918</v>
       </c>
       <c r="G136" t="n">
-        <v>772.6623593010811</v>
+        <v>803.2579250893782</v>
       </c>
       <c r="H136" t="n">
         <v>0.01</v>
       </c>
       <c r="I136" t="n">
-        <v>1108149</v>
+        <v>1098468</v>
       </c>
     </row>
     <row r="137">
@@ -5200,22 +5200,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>25092853</v>
+        <v>24419065</v>
       </c>
       <c r="E137" t="n">
-        <v>75216550</v>
+        <v>73195482</v>
       </c>
       <c r="F137" t="n">
-        <v>93137.22789341326</v>
+        <v>82336.04215423872</v>
       </c>
       <c r="G137" t="n">
-        <v>85044.88081989273</v>
+        <v>82883.625798585</v>
       </c>
       <c r="H137" t="n">
-        <v>0.15</v>
+        <v>0.28</v>
       </c>
       <c r="I137" t="n">
-        <v>2552911</v>
+        <v>2685593</v>
       </c>
     </row>
     <row r="138">
@@ -5235,22 +5235,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>101124305</v>
+        <v>101222856</v>
       </c>
       <c r="E138" t="n">
-        <v>107504275</v>
+        <v>107609043</v>
       </c>
       <c r="F138" t="n">
-        <v>5218.85366199351</v>
+        <v>6510.729849388796</v>
       </c>
       <c r="G138" t="n">
-        <v>11369.01883654571</v>
+        <v>11681.54221299913</v>
       </c>
       <c r="H138" t="n">
-        <v>0.36</v>
+        <v>0.52</v>
       </c>
       <c r="I138" t="n">
-        <v>978010</v>
+        <v>901267</v>
       </c>
     </row>
     <row r="139">
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1161395</v>
+        <v>1161838</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -5282,10 +5282,10 @@
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>5.44</v>
+        <v>5.51</v>
       </c>
       <c r="I139" t="n">
-        <v>136.33</v>
+        <v>136.42</v>
       </c>
     </row>
     <row r="140">
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>258732</v>
+        <v>258652</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -5317,10 +5317,10 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>8.19</v>
+        <v>7.9</v>
       </c>
       <c r="I140" t="n">
-        <v>534.9400000000001</v>
+        <v>465.55</v>
       </c>
     </row>
     <row r="141">
@@ -5336,10 +5336,10 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>97012</v>
+        <v>97024</v>
       </c>
       <c r="E141" t="n">
-        <v>275201</v>
+        <v>275234</v>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
@@ -5369,22 +5369,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>46584987</v>
+        <v>46781247</v>
       </c>
       <c r="E142" t="n">
-        <v>200683030</v>
+        <v>201528498</v>
       </c>
       <c r="F142" t="n">
-        <v>63430.58844198564</v>
+        <v>71587.87144194795</v>
       </c>
       <c r="G142" t="n">
-        <v>70099.27500277497</v>
+        <v>68627.98878599466</v>
       </c>
       <c r="H142" t="n">
         <v>0.1</v>
       </c>
       <c r="I142" t="n">
-        <v>8668201</v>
+        <v>8616209</v>
       </c>
     </row>
     <row r="143">
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>280515</v>
+        <v>280513</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -5416,10 +5416,10 @@
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>9.06</v>
+        <v>9.4</v>
       </c>
       <c r="I143" t="n">
-        <v>208893</v>
+        <v>208649</v>
       </c>
     </row>
     <row r="144">
@@ -5442,19 +5442,19 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>9482659</v>
+        <v>9452976</v>
       </c>
       <c r="F144" t="n">
-        <v>1246.116647748862</v>
+        <v>1235.516611718451</v>
       </c>
       <c r="G144" t="n">
-        <v>349.4738421165848</v>
+        <v>347.4568711694844</v>
       </c>
       <c r="H144" t="n">
         <v>0.88</v>
       </c>
       <c r="I144" t="n">
-        <v>121571</v>
+        <v>121600</v>
       </c>
     </row>
     <row r="145">
@@ -5474,22 +5474,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1189718</v>
+        <v>1178823</v>
       </c>
       <c r="E145" t="n">
-        <v>7931456</v>
+        <v>7858821</v>
       </c>
       <c r="F145" t="n">
-        <v>51.74417291434871</v>
+        <v>85.48917512200404</v>
       </c>
       <c r="G145" t="n">
-        <v>96.18773005062542</v>
+        <v>101.2676343124594</v>
       </c>
       <c r="H145" t="n">
         <v>0.53</v>
       </c>
       <c r="I145" t="n">
-        <v>4798.76</v>
+        <v>4945.07</v>
       </c>
     </row>
     <row r="146">
@@ -5512,19 +5512,19 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>7897473</v>
+        <v>7895709</v>
       </c>
       <c r="F146" t="n">
-        <v>164.8082038749826</v>
+        <v>205.5649714178508</v>
       </c>
       <c r="G146" t="n">
-        <v>201.4122337626031</v>
+        <v>196.5869357710108</v>
       </c>
       <c r="H146" t="n">
         <v>1.14</v>
       </c>
       <c r="I146" t="n">
-        <v>6335776</v>
+        <v>6282382</v>
       </c>
     </row>
     <row r="147">
@@ -5544,22 +5544,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>664369</v>
+        <v>664780</v>
       </c>
       <c r="E147" t="n">
-        <v>2398774</v>
+        <v>2400259</v>
       </c>
       <c r="F147" t="n">
-        <v>24.96813108452238</v>
+        <v>10.08979887635816</v>
       </c>
       <c r="G147" t="n">
-        <v>253.5775198928152</v>
+        <v>284.2743783526178</v>
       </c>
       <c r="H147" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
-        <v>393084</v>
+        <v>401614</v>
       </c>
     </row>
     <row r="148">
@@ -5582,19 +5582,19 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>1647753</v>
+        <v>1677646</v>
       </c>
       <c r="F148" t="n">
-        <v>162.7693857773054</v>
+        <v>38.25847365614136</v>
       </c>
       <c r="G148" t="n">
-        <v>39.37782992613401</v>
+        <v>14.24470878358296</v>
       </c>
       <c r="H148" t="n">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="I148" t="n">
-        <v>86305</v>
+        <v>88323</v>
       </c>
     </row>
     <row r="149">
@@ -5617,19 +5617,19 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>65121</v>
+        <v>65136</v>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>63.79051546944692</v>
       </c>
       <c r="G149" t="n">
-        <v>0</v>
+        <v>69.60858327154492</v>
       </c>
       <c r="H149" t="n">
-        <v>6.25</v>
+        <v>3.12</v>
       </c>
       <c r="I149" t="n">
-        <v>874.35</v>
+        <v>874.95</v>
       </c>
     </row>
     <row r="150">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>13039861</v>
+        <v>12908902</v>
       </c>
       <c r="E150" t="n">
-        <v>13039861</v>
+        <v>12908902</v>
       </c>
       <c r="F150" t="n">
-        <v>851.8009060783274</v>
+        <v>685.1771961790281</v>
       </c>
       <c r="G150" t="n">
-        <v>571.6390926933634</v>
+        <v>751.0606604823503</v>
       </c>
       <c r="H150" t="n">
-        <v>0.47</v>
+        <v>0.54</v>
       </c>
       <c r="I150" t="n">
-        <v>3015760</v>
+        <v>3167626</v>
       </c>
     </row>
     <row r="151">
@@ -5684,22 +5684,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1662424</v>
+        <v>1670289</v>
       </c>
       <c r="E151" t="n">
-        <v>6041004</v>
+        <v>6069451</v>
       </c>
       <c r="F151" t="n">
-        <v>44.04957129581624</v>
+        <v>25.78919489247798</v>
       </c>
       <c r="G151" t="n">
-        <v>149.6999293926392</v>
+        <v>16.43606182178734</v>
       </c>
       <c r="H151" t="n">
-        <v>2.73</v>
+        <v>3.38</v>
       </c>
       <c r="I151" t="n">
-        <v>134459</v>
+        <v>128884</v>
       </c>
     </row>
     <row r="152">
@@ -5719,10 +5719,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1238831</v>
+        <v>1249332</v>
       </c>
       <c r="E152" t="n">
-        <v>1238831</v>
+        <v>1249332</v>
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>638.59</v>
+        <v>643.9400000000001</v>
       </c>
     </row>
     <row r="153">
@@ -5752,22 +5752,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>23705291</v>
+        <v>23701816</v>
       </c>
       <c r="E153" t="n">
-        <v>27329859</v>
+        <v>27327608</v>
       </c>
       <c r="F153" t="n">
-        <v>341.6516866086711</v>
+        <v>312.2210709215762</v>
       </c>
       <c r="G153" t="n">
-        <v>522.0889700366978</v>
+        <v>560.8338422647874</v>
       </c>
       <c r="H153" t="n">
-        <v>0.14</v>
+        <v>0.04</v>
       </c>
       <c r="I153" t="n">
-        <v>754989</v>
+        <v>782256</v>
       </c>
     </row>
     <row r="154">
@@ -5787,22 +5787,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2451276</v>
+        <v>2451446</v>
       </c>
       <c r="E154" t="n">
-        <v>18445683</v>
+        <v>18446963</v>
       </c>
       <c r="F154" t="n">
-        <v>4704.02383037787</v>
+        <v>4547.074265761136</v>
       </c>
       <c r="G154" t="n">
-        <v>3121.410977852227</v>
+        <v>3293.440928547996</v>
       </c>
       <c r="H154" t="n">
         <v>0.05</v>
       </c>
       <c r="I154" t="n">
-        <v>162410</v>
+        <v>162272</v>
       </c>
     </row>
     <row r="155">
@@ -5822,22 +5822,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>20303653</v>
+        <v>21061348</v>
       </c>
       <c r="E155" t="n">
-        <v>81214612</v>
+        <v>84245391</v>
       </c>
       <c r="F155" t="n">
-        <v>10733.93549818745</v>
+        <v>4334.171162568248</v>
       </c>
       <c r="G155" t="n">
-        <v>28586.29581259273</v>
+        <v>7135.304697728586</v>
       </c>
       <c r="H155" t="n">
-        <v>0.49</v>
+        <v>0.95</v>
       </c>
       <c r="I155" t="n">
-        <v>5970251</v>
+        <v>6091156</v>
       </c>
     </row>
     <row r="156">
@@ -5857,22 +5857,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>294501901</v>
+        <v>300932263</v>
       </c>
       <c r="E156" t="n">
-        <v>294501901</v>
+        <v>300932263</v>
       </c>
       <c r="F156" t="n">
-        <v>384037.8757947907</v>
+        <v>382089.9245445255</v>
       </c>
       <c r="G156" t="n">
-        <v>348387.9347004607</v>
+        <v>306142.2123810704</v>
       </c>
       <c r="H156" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="I156" t="n">
-        <v>12209199</v>
+        <v>12539150</v>
       </c>
     </row>
     <row r="157">
@@ -5892,22 +5892,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>12778557</v>
+        <v>12770450</v>
       </c>
       <c r="E157" t="n">
-        <v>40427570</v>
+        <v>40401557</v>
       </c>
       <c r="F157" t="n">
-        <v>10012.05213622957</v>
+        <v>9350.884031360711</v>
       </c>
       <c r="G157" t="n">
-        <v>12272.84161653961</v>
+        <v>23391.24706743522</v>
       </c>
       <c r="H157" t="n">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
       <c r="I157" t="n">
-        <v>1484479</v>
+        <v>1400084</v>
       </c>
     </row>
     <row r="158">
@@ -5927,10 +5927,10 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1087906</v>
+        <v>1088142</v>
       </c>
       <c r="E158" t="n">
-        <v>2477812</v>
+        <v>2478351</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -5939,10 +5939,10 @@
         <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>6.37</v>
+        <v>5.98</v>
       </c>
       <c r="I158" t="n">
-        <v>4841.9</v>
+        <v>4844.38</v>
       </c>
     </row>
     <row r="159">
@@ -5962,22 +5962,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>16897221</v>
+        <v>17056526</v>
       </c>
       <c r="E159" t="n">
-        <v>16897221</v>
+        <v>17056526</v>
       </c>
       <c r="F159" t="n">
-        <v>16667.89169685924</v>
+        <v>14999.94515558856</v>
       </c>
       <c r="G159" t="n">
-        <v>18385.61854907552</v>
+        <v>20992.15667581979</v>
       </c>
       <c r="H159" t="n">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
       <c r="I159" t="n">
-        <v>2413097</v>
+        <v>2471101</v>
       </c>
     </row>
     <row r="160">
@@ -5997,10 +5997,10 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>4862021</v>
+        <v>4863876</v>
       </c>
       <c r="E160" t="n">
-        <v>8951501</v>
+        <v>8954915</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -6009,10 +6009,10 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>10.21</v>
+        <v>10</v>
       </c>
       <c r="I160" t="n">
-        <v>12.48</v>
+        <v>12.49</v>
       </c>
     </row>
     <row r="161">
@@ -6032,10 +6032,10 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>108570</v>
+        <v>109182</v>
       </c>
       <c r="E161" t="n">
-        <v>130513</v>
+        <v>131420</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -6044,10 +6044,10 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>7.22</v>
+        <v>6.78</v>
       </c>
       <c r="I161" t="n">
-        <v>4489.12</v>
+        <v>4366.19</v>
       </c>
     </row>
     <row r="162">
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>19494077</v>
+        <v>19509096</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -6079,10 +6079,10 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>10.9</v>
+        <v>5.69</v>
       </c>
       <c r="I162" t="n">
-        <v>1381.04</v>
+        <v>1329.05</v>
       </c>
     </row>
     <row r="163">
@@ -6102,22 +6102,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>436670</v>
+        <v>434918</v>
       </c>
       <c r="E163" t="n">
-        <v>550041</v>
+        <v>547834</v>
       </c>
       <c r="F163" t="n">
-        <v>157.8346217877537</v>
+        <v>171.3757518084088</v>
       </c>
       <c r="G163" t="n">
-        <v>160.3736501599712</v>
+        <v>107.6579518067594</v>
       </c>
       <c r="H163" t="n">
-        <v>1.44</v>
+        <v>1.09</v>
       </c>
       <c r="I163" t="n">
-        <v>188880</v>
+        <v>189838</v>
       </c>
     </row>
     <row r="164">
@@ -6140,19 +6140,19 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>108418</v>
+        <v>108460</v>
       </c>
       <c r="F164" t="n">
-        <v>148.6667461556118</v>
+        <v>149.9704000607979</v>
       </c>
       <c r="G164" t="n">
-        <v>1.214339585285996</v>
+        <v>1.214419578662136</v>
       </c>
       <c r="H164" t="n">
-        <v>2.6</v>
+        <v>0.95</v>
       </c>
       <c r="I164" t="n">
-        <v>3711.18</v>
+        <v>3713.71</v>
       </c>
     </row>
     <row r="165">
@@ -6172,22 +6172,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>12089386</v>
+        <v>12208763</v>
       </c>
       <c r="E165" t="n">
-        <v>18425022</v>
+        <v>18606960</v>
       </c>
       <c r="F165" t="n">
-        <v>1042.610796058783</v>
+        <v>2047.740470151803</v>
       </c>
       <c r="G165" t="n">
-        <v>4107.305337488797</v>
+        <v>2262.141055350769</v>
       </c>
       <c r="H165" t="n">
-        <v>1.44</v>
+        <v>0.95</v>
       </c>
       <c r="I165" t="n">
-        <v>672468</v>
+        <v>687239</v>
       </c>
     </row>
     <row r="166">
@@ -6207,22 +6207,22 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>298639305</v>
+        <v>301863140</v>
       </c>
       <c r="E166" t="n">
-        <v>298639305</v>
+        <v>301863140</v>
       </c>
       <c r="F166" t="n">
-        <v>240893.524286859</v>
+        <v>294309.1028766476</v>
       </c>
       <c r="G166" t="n">
-        <v>334113.5936705182</v>
+        <v>351397.954662822</v>
       </c>
       <c r="H166" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I166" t="n">
-        <v>50119860</v>
+        <v>49989573</v>
       </c>
     </row>
     <row r="167">
@@ -6242,22 +6242,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>9580215</v>
+        <v>9752804</v>
       </c>
       <c r="E167" t="n">
-        <v>27199829</v>
+        <v>27689836</v>
       </c>
       <c r="F167" t="n">
-        <v>986.3775940651402</v>
+        <v>129.9436256639547</v>
       </c>
       <c r="G167" t="n">
-        <v>1413.535668586309</v>
+        <v>844.6798917047232</v>
       </c>
       <c r="H167" t="n">
-        <v>1.48</v>
+        <v>1.06</v>
       </c>
       <c r="I167" t="n">
-        <v>107049</v>
+        <v>112053</v>
       </c>
     </row>
     <row r="168">
@@ -6280,19 +6280,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>11906274</v>
+        <v>11908406</v>
       </c>
       <c r="F168" t="n">
-        <v>125.3479147243023</v>
+        <v>164.4603061223801</v>
       </c>
       <c r="G168" t="n">
-        <v>1408.219819895972</v>
+        <v>1219.641948719637</v>
       </c>
       <c r="H168" t="n">
-        <v>0.76</v>
+        <v>1.09</v>
       </c>
       <c r="I168" t="n">
-        <v>116172</v>
+        <v>109704</v>
       </c>
     </row>
     <row r="169">
@@ -6312,22 +6312,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>4269883</v>
+        <v>4222191</v>
       </c>
       <c r="E169" t="n">
-        <v>29175809</v>
+        <v>28849936</v>
       </c>
       <c r="F169" t="n">
-        <v>2022.883024765069</v>
+        <v>1099.74200208458</v>
       </c>
       <c r="G169" t="n">
-        <v>1513.513411348142</v>
+        <v>1642.032583245458</v>
       </c>
       <c r="H169" t="n">
-        <v>0.34</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I169" t="n">
-        <v>2569218</v>
+        <v>2579867</v>
       </c>
     </row>
     <row r="170">
@@ -6347,22 +6347,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2958892</v>
+        <v>2869457</v>
       </c>
       <c r="E170" t="n">
-        <v>4391747</v>
+        <v>4258616</v>
       </c>
       <c r="F170" t="n">
-        <v>373.8872006104142</v>
+        <v>288.8245752756716</v>
       </c>
       <c r="G170" t="n">
-        <v>2236.018626495911</v>
+        <v>1182.27251417182</v>
       </c>
       <c r="H170" t="n">
-        <v>1.14</v>
+        <v>1.4</v>
       </c>
       <c r="I170" t="n">
-        <v>228670</v>
+        <v>231796</v>
       </c>
     </row>
     <row r="171">
@@ -6382,22 +6382,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>88897159</v>
+        <v>88994127</v>
       </c>
       <c r="E171" t="n">
-        <v>512263772</v>
+        <v>512822544</v>
       </c>
       <c r="F171" t="n">
-        <v>336414.5107132302</v>
+        <v>456029.1577143265</v>
       </c>
       <c r="G171" t="n">
-        <v>306134.6846833149</v>
+        <v>262532.4714082027</v>
       </c>
       <c r="H171" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="I171" t="n">
-        <v>15895670</v>
+        <v>16031626</v>
       </c>
     </row>
     <row r="172">
@@ -6417,22 +6417,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>14006493</v>
+        <v>13835116</v>
       </c>
       <c r="E172" t="n">
-        <v>14006493</v>
+        <v>13835116</v>
       </c>
       <c r="F172" t="n">
-        <v>3773.670442428384</v>
+        <v>4729.560653566734</v>
       </c>
       <c r="G172" t="n">
-        <v>5534.898842995546</v>
+        <v>4953.022426265561</v>
       </c>
       <c r="H172" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="I172" t="n">
-        <v>588152</v>
+        <v>598014</v>
       </c>
     </row>
     <row r="173">
@@ -6452,22 +6452,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>6168695</v>
+        <v>6110355</v>
       </c>
       <c r="E173" t="n">
-        <v>17523492</v>
+        <v>17357764</v>
       </c>
       <c r="F173" t="n">
-        <v>447.2354316094655</v>
+        <v>1092.714928863798</v>
       </c>
       <c r="G173" t="n">
-        <v>504.2972284990064</v>
+        <v>10452.04315675804</v>
       </c>
       <c r="H173" t="n">
-        <v>1.42</v>
+        <v>0.52</v>
       </c>
       <c r="I173" t="n">
-        <v>232127</v>
+        <v>217751</v>
       </c>
     </row>
     <row r="174">
@@ -6487,22 +6487,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>17744852</v>
+        <v>17763166</v>
       </c>
       <c r="E174" t="n">
-        <v>17744852</v>
+        <v>17763166</v>
       </c>
       <c r="F174" t="n">
-        <v>959.251184519008</v>
+        <v>209.7862984263352</v>
       </c>
       <c r="G174" t="n">
-        <v>212.713303273729</v>
+        <v>283.5752428835092</v>
       </c>
       <c r="H174" t="n">
-        <v>0.76</v>
+        <v>1.57</v>
       </c>
       <c r="I174" t="n">
-        <v>38850</v>
+        <v>36606</v>
       </c>
     </row>
     <row r="175">
@@ -6525,19 +6525,19 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>1320756</v>
+        <v>1321896</v>
       </c>
       <c r="F175" t="n">
-        <v>33.83393415700611</v>
+        <v>33.83616293275725</v>
       </c>
       <c r="G175" t="n">
-        <v>442.7412312222762</v>
+        <v>441.3930739949055</v>
       </c>
       <c r="H175" t="n">
         <v>0.08</v>
       </c>
       <c r="I175" t="n">
-        <v>19763.14</v>
+        <v>17479.45</v>
       </c>
     </row>
     <row r="176">
@@ -6557,10 +6557,10 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>135858</v>
+        <v>128779</v>
       </c>
       <c r="E176" t="n">
-        <v>295761</v>
+        <v>280350</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -6572,7 +6572,7 @@
         <v>7.67</v>
       </c>
       <c r="I176" t="n">
-        <v>563.29</v>
+        <v>47153</v>
       </c>
     </row>
     <row r="177">
@@ -6595,19 +6595,19 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>2323832</v>
+        <v>2469468</v>
       </c>
       <c r="F177" t="n">
-        <v>639.240271411436</v>
+        <v>111.3257382349599</v>
       </c>
       <c r="G177" t="n">
-        <v>1238.833755903854</v>
+        <v>97.84844869007691</v>
       </c>
       <c r="H177" t="n">
-        <v>0.86</v>
+        <v>1.99</v>
       </c>
       <c r="I177" t="n">
-        <v>154986</v>
+        <v>158918</v>
       </c>
     </row>
     <row r="178">
@@ -6627,22 +6627,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>245618649</v>
+        <v>248079598</v>
       </c>
       <c r="E178" t="n">
-        <v>245621089</v>
+        <v>248082062</v>
       </c>
       <c r="F178" t="n">
-        <v>47360.50051782291</v>
+        <v>52612.61197164071</v>
       </c>
       <c r="G178" t="n">
-        <v>54984.81923114054</v>
+        <v>68389.49773319722</v>
       </c>
       <c r="H178" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="I178" t="n">
-        <v>2681456</v>
+        <v>2704784</v>
       </c>
     </row>
     <row r="179">
@@ -6662,22 +6662,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>9290383</v>
+        <v>9316167</v>
       </c>
       <c r="E179" t="n">
-        <v>9290383</v>
+        <v>9316167</v>
       </c>
       <c r="F179" t="n">
-        <v>1910.688918577245</v>
+        <v>1839.908454254787</v>
       </c>
       <c r="G179" t="n">
-        <v>323.449377577152</v>
+        <v>340.1785705808899</v>
       </c>
       <c r="H179" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="I179" t="n">
-        <v>2069052</v>
+        <v>2071690</v>
       </c>
     </row>
     <row r="180">
@@ -6697,22 +6697,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>179689</v>
+        <v>185829</v>
       </c>
       <c r="E180" t="n">
-        <v>1387559</v>
+        <v>1434970</v>
       </c>
       <c r="F180" t="n">
-        <v>21.77914835750688</v>
+        <v>153.9742433321975</v>
       </c>
       <c r="G180" t="n">
-        <v>18.92140476963311</v>
+        <v>257.4577321187538</v>
       </c>
       <c r="H180" t="n">
-        <v>1.41</v>
+        <v>2.7</v>
       </c>
       <c r="I180" t="n">
-        <v>126196</v>
+        <v>115033</v>
       </c>
     </row>
     <row r="181">
@@ -6732,22 +6732,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>30307749</v>
+        <v>30554951</v>
       </c>
       <c r="E181" t="n">
-        <v>135700224</v>
+        <v>136807051</v>
       </c>
       <c r="F181" t="n">
-        <v>60214.20188721937</v>
+        <v>53073.64113193073</v>
       </c>
       <c r="G181" t="n">
-        <v>93536.063950621</v>
+        <v>88068.75209550919</v>
       </c>
       <c r="H181" t="n">
         <v>0.22</v>
       </c>
       <c r="I181" t="n">
-        <v>8776301</v>
+        <v>8776624</v>
       </c>
     </row>
     <row r="182">
@@ -6770,19 +6770,19 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>1456112</v>
+        <v>1476420</v>
       </c>
       <c r="F182" t="n">
-        <v>686.6914240531883</v>
+        <v>226.4343541745456</v>
       </c>
       <c r="G182" t="n">
-        <v>4881.008262855067</v>
+        <v>4884.254386023271</v>
       </c>
       <c r="H182" t="n">
-        <v>1.47</v>
+        <v>1.3</v>
       </c>
       <c r="I182" t="n">
-        <v>68195</v>
+        <v>47326</v>
       </c>
     </row>
     <row r="183">
@@ -6802,22 +6802,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>3069443</v>
+        <v>3173129</v>
       </c>
       <c r="E183" t="n">
-        <v>3069443</v>
+        <v>3173129</v>
       </c>
       <c r="F183" t="n">
-        <v>368.9639504368434</v>
+        <v>225.301021373358</v>
       </c>
       <c r="G183" t="n">
-        <v>199.809773071576</v>
+        <v>1248.39180727236</v>
       </c>
       <c r="H183" t="n">
-        <v>1.65</v>
+        <v>2.97</v>
       </c>
       <c r="I183" t="n">
-        <v>401351</v>
+        <v>419216</v>
       </c>
     </row>
     <row r="184">
@@ -6837,22 +6837,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>575305</v>
+        <v>575855</v>
       </c>
       <c r="E184" t="n">
-        <v>575305</v>
+        <v>575855</v>
       </c>
       <c r="F184" t="n">
-        <v>18.47477359290021</v>
+        <v>13.56519655166537</v>
       </c>
       <c r="G184" t="n">
-        <v>25.30977544727549</v>
+        <v>25.31144270280428</v>
       </c>
       <c r="H184" t="n">
         <v>1.75</v>
       </c>
       <c r="I184" t="n">
-        <v>1406069</v>
+        <v>1355817</v>
       </c>
     </row>
     <row r="185">
@@ -6872,22 +6872,22 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>13778976</v>
+        <v>13410128</v>
       </c>
       <c r="E185" t="n">
-        <v>17542836</v>
+        <v>17073234</v>
       </c>
       <c r="F185" t="n">
-        <v>106.1218897252708</v>
+        <v>532.7911668177483</v>
       </c>
       <c r="G185" t="n">
-        <v>3005.379760261362</v>
+        <v>1254.569973333214</v>
       </c>
       <c r="H185" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="I185" t="n">
-        <v>787277</v>
+        <v>787979</v>
       </c>
     </row>
     <row r="186">
@@ -6907,22 +6907,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1929395</v>
+        <v>1874173</v>
       </c>
       <c r="E186" t="n">
-        <v>1929395</v>
+        <v>1874173</v>
       </c>
       <c r="F186" t="n">
-        <v>4.625578957786579</v>
+        <v>5.160814831634409</v>
       </c>
       <c r="G186" t="n">
-        <v>184.8172311371272</v>
+        <v>48.50846032897984</v>
       </c>
       <c r="H186" t="n">
         <v>3.7</v>
       </c>
       <c r="I186" t="n">
-        <v>2220.41</v>
+        <v>2535.6</v>
       </c>
     </row>
     <row r="187">
@@ -6942,22 +6942,22 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>47211715</v>
+        <v>47612451</v>
       </c>
       <c r="E187" t="n">
-        <v>306155404</v>
+        <v>308754071</v>
       </c>
       <c r="F187" t="n">
-        <v>124395.3834710972</v>
+        <v>113713.2809702239</v>
       </c>
       <c r="G187" t="n">
-        <v>119699.9070224424</v>
+        <v>183461.869522305</v>
       </c>
       <c r="H187" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="I187" t="n">
-        <v>17204692</v>
+        <v>16855626</v>
       </c>
     </row>
     <row r="188">
@@ -6980,19 +6980,19 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>9317366</v>
+        <v>9289548</v>
       </c>
       <c r="F188" t="n">
-        <v>413.328856355185</v>
+        <v>370.0951447007402</v>
       </c>
       <c r="G188" t="n">
-        <v>169.9115102211891</v>
+        <v>160.8667724935597</v>
       </c>
       <c r="H188" t="n">
-        <v>0.21</v>
+        <v>2.23</v>
       </c>
       <c r="I188" t="n">
-        <v>272354</v>
+        <v>298653</v>
       </c>
     </row>
     <row r="189">
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>7033661</v>
+        <v>7080894</v>
       </c>
       <c r="E189" t="n">
-        <v>7043737</v>
+        <v>7091037</v>
       </c>
       <c r="F189" t="n">
-        <v>79.83179209563725</v>
+        <v>65.15214268080075</v>
       </c>
       <c r="G189" t="n">
-        <v>125.3092342156678</v>
+        <v>895.9981847738976</v>
       </c>
       <c r="H189" t="n">
-        <v>0.88</v>
+        <v>0.18</v>
       </c>
       <c r="I189" t="n">
-        <v>966114</v>
+        <v>939346</v>
       </c>
     </row>
     <row r="190">
@@ -7050,19 +7050,19 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>4840762</v>
+        <v>4854133</v>
       </c>
       <c r="F190" t="n">
-        <v>2373.730838395551</v>
+        <v>2315.243821592709</v>
       </c>
       <c r="G190" t="n">
-        <v>315.3461394616604</v>
+        <v>263.4189093159225</v>
       </c>
       <c r="H190" t="n">
-        <v>1.4</v>
+        <v>2.38</v>
       </c>
       <c r="I190" t="n">
-        <v>109249</v>
+        <v>188825</v>
       </c>
     </row>
     <row r="191">
@@ -7082,22 +7082,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>73408929</v>
+        <v>74378228</v>
       </c>
       <c r="E191" t="n">
-        <v>74199127</v>
+        <v>75178861</v>
       </c>
       <c r="F191" t="n">
-        <v>55600.94951433659</v>
+        <v>59187.65911050425</v>
       </c>
       <c r="G191" t="n">
-        <v>60740.49202978146</v>
+        <v>60367.59395088194</v>
       </c>
       <c r="H191" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I191" t="n">
-        <v>8601457</v>
+        <v>8663727</v>
       </c>
     </row>
     <row r="192">
@@ -7117,22 +7117,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>235235781</v>
+        <v>236098142</v>
       </c>
       <c r="E192" t="n">
-        <v>235235781</v>
+        <v>236098142</v>
       </c>
       <c r="F192" t="n">
-        <v>112403.0935268396</v>
+        <v>116401.968178131</v>
       </c>
       <c r="G192" t="n">
-        <v>96114.48219507802</v>
+        <v>107162.7874670327</v>
       </c>
       <c r="H192" t="n">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="I192" t="n">
-        <v>43979786</v>
+        <v>44752622</v>
       </c>
     </row>
     <row r="193">
@@ -7152,22 +7152,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>23148471</v>
+        <v>23418232</v>
       </c>
       <c r="E193" t="n">
-        <v>138501954</v>
+        <v>140115990</v>
       </c>
       <c r="F193" t="n">
-        <v>86389.70817177492</v>
+        <v>108376.4128907374</v>
       </c>
       <c r="G193" t="n">
-        <v>113845.9031977149</v>
+        <v>111953.6912699825</v>
       </c>
       <c r="H193" t="n">
         <v>0.14</v>
       </c>
       <c r="I193" t="n">
-        <v>12477119</v>
+        <v>12790604</v>
       </c>
     </row>
     <row r="194">
@@ -7187,22 +7187,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>14371369</v>
+        <v>14447252</v>
       </c>
       <c r="E194" t="n">
-        <v>44100689</v>
+        <v>44333546</v>
       </c>
       <c r="F194" t="n">
-        <v>652.0787486996186</v>
+        <v>519.5834515340332</v>
       </c>
       <c r="G194" t="n">
-        <v>846.0360263426513</v>
+        <v>1346.495764548308</v>
       </c>
       <c r="H194" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="I194" t="n">
-        <v>2554573</v>
+        <v>2591163</v>
       </c>
     </row>
     <row r="195">
@@ -7222,22 +7222,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>52199577</v>
+        <v>52524498</v>
       </c>
       <c r="E195" t="n">
-        <v>90160018</v>
+        <v>90721227</v>
       </c>
       <c r="F195" t="n">
-        <v>6962.762117149789</v>
+        <v>6875.022861227094</v>
       </c>
       <c r="G195" t="n">
-        <v>7272.591389057954</v>
+        <v>14564.2836442531</v>
       </c>
       <c r="H195" t="n">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="I195" t="n">
-        <v>1972476</v>
+        <v>1978021</v>
       </c>
     </row>
     <row r="196">
@@ -7257,22 +7257,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>4190860</v>
+        <v>4195881</v>
       </c>
       <c r="E196" t="n">
-        <v>4190860</v>
+        <v>4195881</v>
       </c>
       <c r="F196" t="n">
-        <v>1.064241303482794</v>
+        <v>1.064298909563168</v>
       </c>
       <c r="G196" t="n">
-        <v>468.2249142029515</v>
+        <v>1103.112842078386</v>
       </c>
       <c r="H196" t="n">
-        <v>2.01</v>
+        <v>2.29</v>
       </c>
       <c r="I196" t="n">
-        <v>1534003</v>
+        <v>1550338</v>
       </c>
     </row>
     <row r="197">
@@ -7295,19 +7295,19 @@
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>211519</v>
+        <v>211448</v>
       </c>
       <c r="F197" t="n">
-        <v>62.1807306303547</v>
+        <v>0</v>
       </c>
       <c r="G197" t="n">
-        <v>361.76065493364</v>
+        <v>0</v>
       </c>
       <c r="H197" t="n">
-        <v>3.07</v>
+        <v>4.69</v>
       </c>
       <c r="I197" t="n">
-        <v>59188</v>
+        <v>58596</v>
       </c>
     </row>
     <row r="198">
@@ -7327,22 +7327,22 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>6699005</v>
+        <v>6695600</v>
       </c>
       <c r="E198" t="n">
-        <v>34464347</v>
+        <v>34446830</v>
       </c>
       <c r="F198" t="n">
-        <v>407.848009436726</v>
+        <v>376.1203186686216</v>
       </c>
       <c r="G198" t="n">
-        <v>319.0420542733124</v>
+        <v>323.5723207658063</v>
       </c>
       <c r="H198" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="I198" t="n">
-        <v>905860</v>
+        <v>889170</v>
       </c>
     </row>
     <row r="199">
@@ -7362,22 +7362,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>175185436</v>
+        <v>175744174</v>
       </c>
       <c r="E199" t="n">
-        <v>204668316</v>
+        <v>205321087</v>
       </c>
       <c r="F199" t="n">
-        <v>21953.16213117717</v>
+        <v>23594.53238830753</v>
       </c>
       <c r="G199" t="n">
-        <v>23174.00637379921</v>
+        <v>9256.240884986159</v>
       </c>
       <c r="H199" t="n">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="I199" t="n">
-        <v>3835791</v>
+        <v>3950632</v>
       </c>
     </row>
     <row r="200">
@@ -7400,19 +7400,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>300322</v>
+        <v>302036</v>
       </c>
       <c r="F200" t="n">
-        <v>37.66377042247007</v>
+        <v>14.18488615887615</v>
       </c>
       <c r="G200" t="n">
-        <v>47.35138521265494</v>
+        <v>491.2939527859364</v>
       </c>
       <c r="H200" t="n">
-        <v>0.66</v>
+        <v>0.33</v>
       </c>
       <c r="I200" t="n">
-        <v>271315</v>
+        <v>279879</v>
       </c>
     </row>
     <row r="201">
@@ -7435,19 +7435,19 @@
         <v>0</v>
       </c>
       <c r="E201" t="n">
-        <v>8049032</v>
+        <v>8040529</v>
       </c>
       <c r="F201" t="n">
-        <v>869.2975191717942</v>
+        <v>866.2862043206034</v>
       </c>
       <c r="G201" t="n">
-        <v>648.3504792221515</v>
+        <v>647.8159461900385</v>
       </c>
       <c r="H201" t="n">
         <v>0.25</v>
       </c>
       <c r="I201" t="n">
-        <v>684923</v>
+        <v>683064</v>
       </c>
     </row>
     <row r="202">
@@ -7470,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>36006</v>
+        <v>34019</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
@@ -7482,7 +7482,7 @@
         <v>5.56</v>
       </c>
       <c r="I202" t="n">
-        <v>752.39</v>
+        <v>753.2</v>
       </c>
     </row>
     <row r="203">
@@ -7502,22 +7502,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>33933690</v>
+        <v>34004784</v>
       </c>
       <c r="E203" t="n">
-        <v>169344755</v>
+        <v>169699548</v>
       </c>
       <c r="F203" t="n">
-        <v>93433.44232617225</v>
+        <v>98886.44079263922</v>
       </c>
       <c r="G203" t="n">
-        <v>96314.31620724044</v>
+        <v>103265.6621016636</v>
       </c>
       <c r="H203" t="n">
         <v>0.12</v>
       </c>
       <c r="I203" t="n">
-        <v>10013180</v>
+        <v>10036949</v>
       </c>
     </row>
     <row r="204">
@@ -7537,10 +7537,10 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1861692</v>
+        <v>1862728</v>
       </c>
       <c r="E204" t="n">
-        <v>1861692</v>
+        <v>1862728</v>
       </c>
       <c r="F204" t="n">
         <v>0</v>
@@ -7549,10 +7549,10 @@
         <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>15.62</v>
+        <v>15.69</v>
       </c>
       <c r="I204" t="n">
-        <v>11158.68</v>
+        <v>10578.95</v>
       </c>
     </row>
     <row r="205">
@@ -7575,19 +7575,19 @@
         <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>174987</v>
+        <v>175068</v>
       </c>
       <c r="F205" t="n">
-        <v>11.28251519976089</v>
+        <v>37.65704145929895</v>
       </c>
       <c r="G205" t="n">
-        <v>85.41587128234369</v>
+        <v>86.25958298643154</v>
       </c>
       <c r="H205" t="n">
         <v>1.2</v>
       </c>
       <c r="I205" t="n">
-        <v>10938.34</v>
+        <v>11184.88</v>
       </c>
     </row>
     <row r="206">
@@ -7607,10 +7607,10 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>2961.46</v>
+        <v>2948.36</v>
       </c>
       <c r="E206" t="n">
-        <v>35396</v>
+        <v>35239</v>
       </c>
       <c r="F206" t="n">
         <v>0</v>
@@ -7619,10 +7619,10 @@
         <v>0</v>
       </c>
       <c r="H206" t="n">
-        <v>9.140000000000001</v>
+        <v>10.08</v>
       </c>
       <c r="I206" t="n">
-        <v>7807.84</v>
+        <v>7836.75</v>
       </c>
     </row>
     <row r="207">
@@ -7669,22 +7669,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>311241784</v>
+        <v>312656513</v>
       </c>
       <c r="E208" t="n">
-        <v>575868279</v>
+        <v>578485850</v>
       </c>
       <c r="F208" t="n">
-        <v>171944.6979801705</v>
+        <v>172499.1352190777</v>
       </c>
       <c r="G208" t="n">
-        <v>199835.0218062991</v>
+        <v>164053.8333204425</v>
       </c>
       <c r="H208" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I208" t="n">
-        <v>12310212</v>
+        <v>12813717</v>
       </c>
     </row>
     <row r="209">
@@ -7704,22 +7704,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>71028070</v>
+        <v>71381579</v>
       </c>
       <c r="E209" t="n">
-        <v>677684595</v>
+        <v>681049997</v>
       </c>
       <c r="F209" t="n">
-        <v>341598.0966113515</v>
+        <v>327613.4740561113</v>
       </c>
       <c r="G209" t="n">
-        <v>341257.7197570317</v>
+        <v>344416.6637785056</v>
       </c>
       <c r="H209" t="n">
         <v>0.08</v>
       </c>
       <c r="I209" t="n">
-        <v>20941489</v>
+        <v>21170465</v>
       </c>
     </row>
     <row r="210">
@@ -7742,19 +7742,19 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>2156806</v>
+        <v>2231678</v>
       </c>
       <c r="F210" t="n">
-        <v>0</v>
+        <v>13.53576339622367</v>
       </c>
       <c r="G210" t="n">
-        <v>0</v>
+        <v>265.2995522801505</v>
       </c>
       <c r="H210" t="n">
-        <v>3.99</v>
+        <v>2.45</v>
       </c>
       <c r="I210" t="n">
-        <v>64209</v>
+        <v>62309</v>
       </c>
     </row>
     <row r="211">
@@ -7774,10 +7774,10 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>81255</v>
+        <v>81275</v>
       </c>
       <c r="E211" t="n">
-        <v>675493</v>
+        <v>675652</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -7786,10 +7786,10 @@
         <v>0</v>
       </c>
       <c r="H211" t="n">
-        <v>7.04</v>
+        <v>5.71</v>
       </c>
       <c r="I211" t="n">
-        <v>399.64</v>
+        <v>400.2</v>
       </c>
     </row>
     <row r="212">
@@ -7809,22 +7809,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1897494</v>
+        <v>1965470</v>
       </c>
       <c r="E212" t="n">
-        <v>5418999</v>
+        <v>5613130</v>
       </c>
       <c r="F212" t="n">
-        <v>60.10210875768567</v>
+        <v>60.01112291118228</v>
       </c>
       <c r="G212" t="n">
-        <v>338.2250766521569</v>
+        <v>171.7380674616808</v>
       </c>
       <c r="H212" t="n">
-        <v>1.16</v>
+        <v>1.88</v>
       </c>
       <c r="I212" t="n">
-        <v>70796</v>
+        <v>73223</v>
       </c>
     </row>
     <row r="213">
@@ -7844,22 +7844,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>9573715</v>
+        <v>9372626</v>
       </c>
       <c r="E213" t="n">
-        <v>28412970</v>
+        <v>27815071</v>
       </c>
       <c r="F213" t="n">
-        <v>1309.296560013387</v>
+        <v>2163.524005882521</v>
       </c>
       <c r="G213" t="n">
-        <v>2939.210483929207</v>
+        <v>3947.784505542667</v>
       </c>
       <c r="H213" t="n">
-        <v>0.44</v>
+        <v>0.27</v>
       </c>
       <c r="I213" t="n">
-        <v>5532890</v>
+        <v>5801922</v>
       </c>
     </row>
     <row r="214">
@@ -7882,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>14238225</v>
+        <v>14239138</v>
       </c>
       <c r="F214" t="n">
         <v>0</v>
@@ -7894,7 +7894,7 @@
         <v>8.470000000000001</v>
       </c>
       <c r="I214" t="n">
-        <v>1333.87</v>
+        <v>1335.53</v>
       </c>
     </row>
     <row r="215">
@@ -7914,22 +7914,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>1995477</v>
+        <v>2040252</v>
       </c>
       <c r="E215" t="n">
-        <v>5789521</v>
+        <v>5919428</v>
       </c>
       <c r="F215" t="n">
-        <v>30.13216289180668</v>
+        <v>12.24822452091698</v>
       </c>
       <c r="G215" t="n">
-        <v>564.4844273898385</v>
+        <v>573.5809372955888</v>
       </c>
       <c r="H215" t="n">
-        <v>0.97</v>
+        <v>0.02</v>
       </c>
       <c r="I215" t="n">
-        <v>61553</v>
+        <v>32433</v>
       </c>
     </row>
     <row r="216">
@@ -7949,22 +7949,22 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>2276322</v>
+        <v>2100153</v>
       </c>
       <c r="E216" t="n">
-        <v>20078671</v>
+        <v>18524741</v>
       </c>
       <c r="F216" t="n">
-        <v>1556.400546536856</v>
+        <v>1541.391165683115</v>
       </c>
       <c r="G216" t="n">
-        <v>3316.338370931272</v>
+        <v>2411.881152316285</v>
       </c>
       <c r="H216" t="n">
-        <v>0.73</v>
+        <v>0.68</v>
       </c>
       <c r="I216" t="n">
-        <v>79317</v>
+        <v>73706</v>
       </c>
     </row>
     <row r="217">
@@ -7984,22 +7984,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>44439847</v>
+        <v>44738332</v>
       </c>
       <c r="E217" t="n">
-        <v>44439847</v>
+        <v>44738332</v>
       </c>
       <c r="F217" t="n">
-        <v>35284.25772441006</v>
+        <v>38475.38388028796</v>
       </c>
       <c r="G217" t="n">
-        <v>42490.64944632888</v>
+        <v>41369.55992338178</v>
       </c>
       <c r="H217" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I217" t="n">
-        <v>8143189</v>
+        <v>8161022</v>
       </c>
     </row>
     <row r="218">
@@ -8019,22 +8019,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>8965060</v>
+        <v>8662523</v>
       </c>
       <c r="E218" t="n">
-        <v>12773156</v>
+        <v>12342111</v>
       </c>
       <c r="F218" t="n">
-        <v>447.8730747456564</v>
+        <v>52.06052840366063</v>
       </c>
       <c r="G218" t="n">
-        <v>29.84041157526994</v>
+        <v>177.5104304904444</v>
       </c>
       <c r="H218" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="I218" t="n">
-        <v>427402</v>
+        <v>418498</v>
       </c>
     </row>
     <row r="219">
@@ -8057,19 +8057,19 @@
         <v>0</v>
       </c>
       <c r="E219" t="n">
-        <v>16340935</v>
+        <v>16408347</v>
       </c>
       <c r="F219" t="n">
-        <v>2.114605373940731</v>
+        <v>2.114744671403415</v>
       </c>
       <c r="G219" t="n">
-        <v>1162.121968048819</v>
+        <v>1013.534896494142</v>
       </c>
       <c r="H219" t="n">
-        <v>1.28</v>
+        <v>0.86</v>
       </c>
       <c r="I219" t="n">
-        <v>971357</v>
+        <v>970117</v>
       </c>
     </row>
     <row r="220">
@@ -8092,19 +8092,19 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>723846</v>
+        <v>722543</v>
       </c>
       <c r="F220" t="n">
-        <v>57.63954493967979</v>
+        <v>40.80122175425792</v>
       </c>
       <c r="G220" t="n">
-        <v>371.2754320265772</v>
+        <v>424.1207825981035</v>
       </c>
       <c r="H220" t="n">
-        <v>0.76</v>
+        <v>0.42</v>
       </c>
       <c r="I220" t="n">
-        <v>226337</v>
+        <v>225316</v>
       </c>
     </row>
     <row r="221">
@@ -8124,22 +8124,22 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>2815300</v>
+        <v>2775702</v>
       </c>
       <c r="E221" t="n">
-        <v>2817738</v>
+        <v>2778106</v>
       </c>
       <c r="F221" t="n">
-        <v>63.21326864909771</v>
+        <v>0</v>
       </c>
       <c r="G221" t="n">
-        <v>83.06972534972084</v>
+        <v>0</v>
       </c>
       <c r="H221" t="n">
-        <v>0.64</v>
+        <v>4.19</v>
       </c>
       <c r="I221" t="n">
-        <v>81192</v>
+        <v>83184</v>
       </c>
     </row>
     <row r="222">
@@ -8159,22 +8159,22 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1237602</v>
+        <v>1237026</v>
       </c>
       <c r="E222" t="n">
-        <v>3743662</v>
+        <v>3742665</v>
       </c>
       <c r="F222" t="n">
-        <v>2121.130341667171</v>
+        <v>2120.183998833318</v>
       </c>
       <c r="G222" t="n">
-        <v>448.1403622151232</v>
+        <v>595.1841675067345</v>
       </c>
       <c r="H222" t="n">
         <v>1.57</v>
       </c>
       <c r="I222" t="n">
-        <v>12061.99</v>
+        <v>9839.42</v>
       </c>
     </row>
     <row r="223">
@@ -8194,22 +8194,22 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>37501874</v>
+        <v>37400065</v>
       </c>
       <c r="E223" t="n">
-        <v>265882169</v>
+        <v>265160361</v>
       </c>
       <c r="F223" t="n">
-        <v>92243.20197229486</v>
+        <v>67599.92755199708</v>
       </c>
       <c r="G223" t="n">
-        <v>82967.37923785839</v>
+        <v>69829.56187896176</v>
       </c>
       <c r="H223" t="n">
-        <v>0.11</v>
+        <v>0.23</v>
       </c>
       <c r="I223" t="n">
-        <v>1872626</v>
+        <v>1830942</v>
       </c>
     </row>
     <row r="224">
@@ -8229,22 +8229,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>59508</v>
+        <v>63252</v>
       </c>
       <c r="E224" t="n">
-        <v>310491</v>
+        <v>330023</v>
       </c>
       <c r="F224" t="n">
-        <v>17.60888823233192</v>
+        <v>431.019735721459</v>
       </c>
       <c r="G224" t="n">
-        <v>205.755337365824</v>
+        <v>74.18210116123666</v>
       </c>
       <c r="H224" t="n">
-        <v>1.34</v>
+        <v>3.16</v>
       </c>
       <c r="I224" t="n">
-        <v>311973</v>
+        <v>322215</v>
       </c>
     </row>
     <row r="225">
@@ -8264,22 +8264,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1258235</v>
+        <v>1258792</v>
       </c>
       <c r="E225" t="n">
-        <v>7803010</v>
+        <v>7806464</v>
       </c>
       <c r="F225" t="n">
-        <v>1936.40906605839</v>
+        <v>1717.822260616405</v>
       </c>
       <c r="G225" t="n">
-        <v>2488.664164538266</v>
+        <v>2656.140494316826</v>
       </c>
       <c r="H225" t="n">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="I225" t="n">
-        <v>762815</v>
+        <v>760114</v>
       </c>
     </row>
     <row r="226">
@@ -8299,22 +8299,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>589356139</v>
+        <v>600020280</v>
       </c>
       <c r="E226" t="n">
-        <v>2282489374</v>
+        <v>2323790019</v>
       </c>
       <c r="F226" t="n">
-        <v>199475.085090574</v>
+        <v>209603.8483657922</v>
       </c>
       <c r="G226" t="n">
-        <v>314036.3120197282</v>
+        <v>295617.8750504588</v>
       </c>
       <c r="H226" t="n">
         <v>0.04</v>
       </c>
       <c r="I226" t="n">
-        <v>30349989</v>
+        <v>30926262</v>
       </c>
     </row>
     <row r="227">
@@ -8337,19 +8337,19 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>20713665</v>
+        <v>20769483</v>
       </c>
       <c r="F227" t="n">
-        <v>670.9065094086907</v>
+        <v>822.2876673021177</v>
       </c>
       <c r="G227" t="n">
-        <v>1909.600985857569</v>
+        <v>1853.695186516782</v>
       </c>
       <c r="H227" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I227" t="n">
-        <v>17105152</v>
+        <v>17373355</v>
       </c>
     </row>
     <row r="228">
@@ -8372,19 +8372,19 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>897075</v>
+        <v>773722</v>
       </c>
       <c r="F228" t="n">
-        <v>89.14231556520825</v>
+        <v>208.2250292520247</v>
       </c>
       <c r="G228" t="n">
-        <v>271.3244501079801</v>
+        <v>71.9728221798449</v>
       </c>
       <c r="H228" t="n">
-        <v>2.63</v>
+        <v>2.81</v>
       </c>
       <c r="I228" t="n">
-        <v>348419</v>
+        <v>355176</v>
       </c>
     </row>
     <row r="229">
@@ -8404,22 +8404,22 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>5838290</v>
+        <v>5840454</v>
       </c>
       <c r="E229" t="n">
-        <v>26138775</v>
+        <v>26148441</v>
       </c>
       <c r="F229" t="n">
-        <v>1908.288520089954</v>
+        <v>1890.779654208195</v>
       </c>
       <c r="G229" t="n">
-        <v>2434.748532063757</v>
+        <v>1851.74881012986</v>
       </c>
       <c r="H229" t="n">
         <v>0.39</v>
       </c>
       <c r="I229" t="n">
-        <v>144006</v>
+        <v>144847</v>
       </c>
     </row>
     <row r="230">
@@ -8439,22 +8439,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>6182665</v>
+        <v>6218921</v>
       </c>
       <c r="E230" t="n">
-        <v>11837214</v>
+        <v>11906628</v>
       </c>
       <c r="F230" t="n">
-        <v>132.0912224465314</v>
+        <v>23.18323872350045</v>
       </c>
       <c r="G230" t="n">
-        <v>24.66466417775339</v>
+        <v>1089.559465312326</v>
       </c>
       <c r="H230" t="n">
-        <v>3.19</v>
+        <v>2.86</v>
       </c>
       <c r="I230" t="n">
-        <v>200420</v>
+        <v>191188</v>
       </c>
     </row>
     <row r="231">
@@ -8474,22 +8474,22 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>3199643</v>
+        <v>3190185</v>
       </c>
       <c r="E231" t="n">
-        <v>21040107</v>
+        <v>20977912</v>
       </c>
       <c r="F231" t="n">
-        <v>353.8429638424658</v>
+        <v>250.8279262055125</v>
       </c>
       <c r="G231" t="n">
-        <v>374.5846612250286</v>
+        <v>367.6441922475458</v>
       </c>
       <c r="H231" t="n">
-        <v>1.76</v>
+        <v>1.93</v>
       </c>
       <c r="I231" t="n">
-        <v>1420757</v>
+        <v>1418102</v>
       </c>
     </row>
     <row r="232">
@@ -8509,22 +8509,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>117706909</v>
+        <v>118262597</v>
       </c>
       <c r="E232" t="n">
-        <v>1023389234</v>
+        <v>1028220592</v>
       </c>
       <c r="F232" t="n">
-        <v>211748.1073695314</v>
+        <v>206493.1720313361</v>
       </c>
       <c r="G232" t="n">
-        <v>200084.7967854925</v>
+        <v>216019.7248783331</v>
       </c>
       <c r="H232" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I232" t="n">
-        <v>9264869</v>
+        <v>9069314</v>
       </c>
     </row>
     <row r="233">
@@ -8554,10 +8554,10 @@
         <v>0</v>
       </c>
       <c r="H233" t="n">
-        <v>7.72</v>
+        <v>6.84</v>
       </c>
       <c r="I233" t="n">
-        <v>1116.58</v>
+        <v>1117.89</v>
       </c>
     </row>
     <row r="234">
@@ -8577,22 +8577,22 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>104692875</v>
+        <v>105749928</v>
       </c>
       <c r="E234" t="n">
-        <v>159711434</v>
+        <v>161323994</v>
       </c>
       <c r="F234" t="n">
-        <v>89329.57063641444</v>
+        <v>94855.64438694275</v>
       </c>
       <c r="G234" t="n">
-        <v>94064.60937104723</v>
+        <v>87140.06112493949</v>
       </c>
       <c r="H234" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="I234" t="n">
-        <v>7209577</v>
+        <v>7573583</v>
       </c>
     </row>
     <row r="235">
@@ -8612,22 +8612,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>15787038</v>
+        <v>15816573</v>
       </c>
       <c r="E235" t="n">
-        <v>21658449</v>
+        <v>21698968</v>
       </c>
       <c r="F235" t="n">
-        <v>913.6774293950426</v>
+        <v>805.6679440562713</v>
       </c>
       <c r="G235" t="n">
-        <v>2212.177713794505</v>
+        <v>2192.509745142983</v>
       </c>
       <c r="H235" t="n">
-        <v>0.51</v>
+        <v>0.87</v>
       </c>
       <c r="I235" t="n">
-        <v>350972</v>
+        <v>357622</v>
       </c>
     </row>
     <row r="236">
@@ -8647,22 +8647,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>111013832</v>
+        <v>111836884</v>
       </c>
       <c r="E236" t="n">
-        <v>425866928</v>
+        <v>429024287</v>
       </c>
       <c r="F236" t="n">
-        <v>479135.7737661438</v>
+        <v>429126.1367343351</v>
       </c>
       <c r="G236" t="n">
-        <v>503856.0029846288</v>
+        <v>472780.5888615161</v>
       </c>
       <c r="H236" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I236" t="n">
-        <v>19562214</v>
+        <v>20584873</v>
       </c>
     </row>
     <row r="237">
@@ -8685,19 +8685,19 @@
         <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>756729</v>
+        <v>758769</v>
       </c>
       <c r="F237" t="n">
-        <v>69.75820856601089</v>
+        <v>69.76198449253832</v>
       </c>
       <c r="G237" t="n">
-        <v>20.55321298135659</v>
+        <v>20.55432550164224</v>
       </c>
       <c r="H237" t="n">
         <v>3.25</v>
       </c>
       <c r="I237" t="n">
-        <v>51282</v>
+        <v>50828</v>
       </c>
     </row>
     <row r="238">
@@ -8720,7 +8720,7 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>886262</v>
+        <v>879583</v>
       </c>
       <c r="F238" t="n">
         <v>0</v>
@@ -8729,10 +8729,10 @@
         <v>0</v>
       </c>
       <c r="H238" t="n">
-        <v>10.82</v>
+        <v>10.39</v>
       </c>
       <c r="I238" t="n">
-        <v>20833</v>
+        <v>20596</v>
       </c>
     </row>
     <row r="239">
@@ -8752,22 +8752,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>3161739</v>
+        <v>3151929</v>
       </c>
       <c r="E239" t="n">
-        <v>29957945</v>
+        <v>29864997</v>
       </c>
       <c r="F239" t="n">
-        <v>1549.951784966714</v>
+        <v>1506.920739259347</v>
       </c>
       <c r="G239" t="n">
-        <v>1166.43644810299</v>
+        <v>1874.717248128062</v>
       </c>
       <c r="H239" t="n">
-        <v>0.03</v>
+        <v>0.13</v>
       </c>
       <c r="I239" t="n">
-        <v>259248</v>
+        <v>283432</v>
       </c>
     </row>
     <row r="240">
@@ -8787,22 +8787,22 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>721729</v>
+        <v>725850</v>
       </c>
       <c r="E240" t="n">
-        <v>771524</v>
+        <v>775930</v>
       </c>
       <c r="F240" t="n">
-        <v>253.6248359127088</v>
+        <v>38.68867059943121</v>
       </c>
       <c r="G240" t="n">
-        <v>2506.998930833661</v>
+        <v>2451.638818421176</v>
       </c>
       <c r="H240" t="n">
-        <v>0.2</v>
+        <v>1.09</v>
       </c>
       <c r="I240" t="n">
-        <v>24157</v>
+        <v>29243</v>
       </c>
     </row>
     <row r="241">
@@ -8825,19 +8825,19 @@
         <v>0</v>
       </c>
       <c r="E241" t="n">
-        <v>373281</v>
+        <v>374215</v>
       </c>
       <c r="F241" t="n">
-        <v>0</v>
+        <v>7.937480749656492</v>
       </c>
       <c r="G241" t="n">
-        <v>0</v>
+        <v>87.28575086768886</v>
       </c>
       <c r="H241" t="n">
-        <v>7.51</v>
+        <v>0.67</v>
       </c>
       <c r="I241" t="n">
-        <v>581.0599999999999</v>
+        <v>641.61</v>
       </c>
     </row>
     <row r="242">
@@ -8860,19 +8860,19 @@
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>141225</v>
+        <v>143128</v>
       </c>
       <c r="F242" t="n">
-        <v>228.5036604597283</v>
+        <v>222.2468789670635</v>
       </c>
       <c r="G242" t="n">
-        <v>10.812406288993</v>
+        <v>240.7442013602244</v>
       </c>
       <c r="H242" t="n">
-        <v>3.45</v>
+        <v>2.1</v>
       </c>
       <c r="I242" t="n">
-        <v>94378</v>
+        <v>22088</v>
       </c>
     </row>
     <row r="243">
@@ -8895,7 +8895,7 @@
         <v>0</v>
       </c>
       <c r="E243" t="n">
-        <v>576218</v>
+        <v>576230</v>
       </c>
       <c r="F243" t="n">
         <v>0</v>
@@ -8907,7 +8907,7 @@
         <v>7.84</v>
       </c>
       <c r="I243" t="n">
-        <v>454.5</v>
+        <v>455.03</v>
       </c>
     </row>
     <row r="244">
@@ -8927,22 +8927,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>5941073</v>
+        <v>5934373</v>
       </c>
       <c r="E244" t="n">
-        <v>37130006</v>
+        <v>37088132</v>
       </c>
       <c r="F244" t="n">
-        <v>815.0189540586292</v>
+        <v>875.644952629377</v>
       </c>
       <c r="G244" t="n">
-        <v>1281.978729512812</v>
+        <v>1165.157055251451</v>
       </c>
       <c r="H244" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="I244" t="n">
-        <v>383227</v>
+        <v>383485</v>
       </c>
     </row>
     <row r="245">
@@ -8962,22 +8962,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>5094756</v>
+        <v>5095018</v>
       </c>
       <c r="E245" t="n">
-        <v>18971829</v>
+        <v>18972803</v>
       </c>
       <c r="F245" t="n">
-        <v>6619.492790572323</v>
+        <v>6387.628557312685</v>
       </c>
       <c r="G245" t="n">
-        <v>7394.19730752595</v>
+        <v>12147.95980950454</v>
       </c>
       <c r="H245" t="n">
         <v>0.53</v>
       </c>
       <c r="I245" t="n">
-        <v>58715</v>
+        <v>60601</v>
       </c>
     </row>
     <row r="246">
@@ -9000,19 +9000,19 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>3738439</v>
+        <v>3737277</v>
       </c>
       <c r="F246" t="n">
-        <v>178.8318872306772</v>
+        <v>142.4761057171046</v>
       </c>
       <c r="G246" t="n">
-        <v>2686.302949648116</v>
+        <v>2649.451170440627</v>
       </c>
       <c r="H246" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="I246" t="n">
-        <v>6883.88</v>
+        <v>7081.98</v>
       </c>
     </row>
     <row r="247">
@@ -9032,22 +9032,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>31496114</v>
+        <v>31473523</v>
       </c>
       <c r="E247" t="n">
-        <v>112893419</v>
+        <v>112812445</v>
       </c>
       <c r="F247" t="n">
-        <v>26.24771935612537</v>
+        <v>46.27239837927997</v>
       </c>
       <c r="G247" t="n">
-        <v>2544.636793751317</v>
+        <v>2619.536174340606</v>
       </c>
       <c r="H247" t="n">
-        <v>0.53</v>
+        <v>0.46</v>
       </c>
       <c r="I247" t="n">
-        <v>95659</v>
+        <v>95202</v>
       </c>
     </row>
     <row r="248">
@@ -9070,19 +9070,19 @@
         <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>1522498</v>
+        <v>1524474</v>
       </c>
       <c r="F248" t="n">
-        <v>247.2195518347677</v>
+        <v>5.649403007519941</v>
       </c>
       <c r="G248" t="n">
-        <v>57.03001667517884</v>
+        <v>232.4957666871689</v>
       </c>
       <c r="H248" t="n">
-        <v>1.3</v>
+        <v>1.95</v>
       </c>
       <c r="I248" t="n">
-        <v>613941</v>
+        <v>615230</v>
       </c>
     </row>
     <row r="249">
@@ -9102,22 +9102,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>2177700</v>
+        <v>2206014</v>
       </c>
       <c r="E249" t="n">
-        <v>16750253</v>
+        <v>16968035</v>
       </c>
       <c r="F249" t="n">
-        <v>4935.866614509576</v>
+        <v>5263.478409043283</v>
       </c>
       <c r="G249" t="n">
-        <v>3580.450465752911</v>
+        <v>5675.415544978957</v>
       </c>
       <c r="H249" t="n">
-        <v>0.12</v>
+        <v>0.47</v>
       </c>
       <c r="I249" t="n">
-        <v>180541</v>
+        <v>170948</v>
       </c>
     </row>
     <row r="250">
@@ -9137,22 +9137,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>103172</v>
+        <v>103219</v>
       </c>
       <c r="E250" t="n">
-        <v>819500</v>
+        <v>819872</v>
       </c>
       <c r="F250" t="n">
-        <v>174.3224095672372</v>
+        <v>174.3338928773814</v>
       </c>
       <c r="G250" t="n">
-        <v>340.6840118607911</v>
+        <v>340.706454071056</v>
       </c>
       <c r="H250" t="n">
         <v>0.72</v>
       </c>
       <c r="I250" t="n">
-        <v>1211.94</v>
+        <v>1213.22</v>
       </c>
     </row>
     <row r="251">
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>86769215</v>
+        <v>86838047</v>
       </c>
       <c r="E251" t="n">
-        <v>320763131</v>
+        <v>321016418</v>
       </c>
       <c r="F251" t="n">
-        <v>8890.328646398915</v>
+        <v>9087.906732049252</v>
       </c>
       <c r="G251" t="n">
-        <v>1488.434708555532</v>
+        <v>2009.331920998718</v>
       </c>
       <c r="H251" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="I251" t="n">
-        <v>358831</v>
+        <v>347190</v>
       </c>
     </row>
     <row r="252">
@@ -9207,22 +9207,22 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>2430335</v>
+        <v>2415726</v>
       </c>
       <c r="E252" t="n">
-        <v>9751799</v>
+        <v>9693183</v>
       </c>
       <c r="F252" t="n">
-        <v>0</v>
+        <v>28.91920727591846</v>
       </c>
       <c r="G252" t="n">
-        <v>0</v>
+        <v>4.765965954606273</v>
       </c>
       <c r="H252" t="n">
-        <v>3.93</v>
+        <v>3.74</v>
       </c>
       <c r="I252" t="n">
-        <v>44384</v>
+        <v>44822</v>
       </c>
     </row>
     <row r="253">
@@ -9245,19 +9245,19 @@
         <v>0</v>
       </c>
       <c r="E253" t="n">
-        <v>583336</v>
+        <v>583704</v>
       </c>
       <c r="F253" t="n">
-        <v>49.0898505057236</v>
+        <v>0</v>
       </c>
       <c r="G253" t="n">
-        <v>4.363266192984124</v>
+        <v>0</v>
       </c>
       <c r="H253" t="n">
-        <v>2.5</v>
+        <v>4.56</v>
       </c>
       <c r="I253" t="n">
-        <v>1507.8</v>
+        <v>1509.56</v>
       </c>
     </row>
     <row r="254">
@@ -9276,7 +9276,7 @@
         <v>0</v>
       </c>
       <c r="E254" t="n">
-        <v>38206</v>
+        <v>38921</v>
       </c>
       <c r="F254" t="n">
         <v>0</v>
@@ -9285,10 +9285,10 @@
         <v>0</v>
       </c>
       <c r="H254" t="n">
-        <v>4.96</v>
+        <v>5.24</v>
       </c>
       <c r="I254" t="n">
-        <v>4467.42</v>
+        <v>4769.09</v>
       </c>
     </row>
     <row r="255">
@@ -9308,22 +9308,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>674983629</v>
+        <v>700055218</v>
       </c>
       <c r="E255" t="n">
-        <v>1040884351</v>
+        <v>1079546955</v>
       </c>
       <c r="F255" t="n">
-        <v>188814.2081284852</v>
+        <v>179110.8115678621</v>
       </c>
       <c r="G255" t="n">
-        <v>158404.8005068893</v>
+        <v>194224.4706282134</v>
       </c>
       <c r="H255" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I255" t="n">
-        <v>160416376</v>
+        <v>162666148</v>
       </c>
     </row>
     <row r="256">
@@ -9343,22 +9343,22 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>5685074</v>
+        <v>5688919</v>
       </c>
       <c r="E256" t="n">
-        <v>5685074</v>
+        <v>5688919</v>
       </c>
       <c r="F256" t="n">
-        <v>18.00202298258503</v>
+        <v>18.31098842743749</v>
       </c>
       <c r="G256" t="n">
-        <v>7.864459991738209</v>
+        <v>7.864978054983355</v>
       </c>
       <c r="H256" t="n">
-        <v>0.58</v>
+        <v>0.97</v>
       </c>
       <c r="I256" t="n">
-        <v>477.22</v>
+        <v>479.89</v>
       </c>
     </row>
     <row r="257">
@@ -9378,22 +9378,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>39823373</v>
+        <v>39835697</v>
       </c>
       <c r="E257" t="n">
-        <v>190083598</v>
+        <v>190142422</v>
       </c>
       <c r="F257" t="n">
-        <v>251.8185544264558</v>
+        <v>251.8351427157511</v>
       </c>
       <c r="G257" t="n">
-        <v>222.5393816581898</v>
+        <v>301.8411441727932</v>
       </c>
       <c r="H257" t="n">
         <v>0.03</v>
       </c>
       <c r="I257" t="n">
-        <v>410237</v>
+        <v>415314</v>
       </c>
     </row>
     <row r="258">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>527203</v>
+        <v>527039</v>
       </c>
       <c r="F258" t="n">
         <v>0</v>
@@ -9428,7 +9428,7 @@
         <v>8.380000000000001</v>
       </c>
       <c r="I258" t="n">
-        <v>254.24</v>
+        <v>357.63</v>
       </c>
     </row>
     <row r="259">
@@ -9448,22 +9448,22 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>23465106</v>
+        <v>23546941</v>
       </c>
       <c r="E259" t="n">
-        <v>39108509</v>
+        <v>39244900</v>
       </c>
       <c r="F259" t="n">
-        <v>7970.264417581204</v>
+        <v>4942.770827996087</v>
       </c>
       <c r="G259" t="n">
-        <v>7077.068783243693</v>
+        <v>7629.220727250778</v>
       </c>
       <c r="H259" t="n">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="I259" t="n">
-        <v>800613</v>
+        <v>740154</v>
       </c>
     </row>
     <row r="260">
@@ -9486,19 +9486,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>107496</v>
+        <v>107795</v>
       </c>
       <c r="F260" t="n">
-        <v>235.3956822215258</v>
+        <v>122.00239695167</v>
       </c>
       <c r="G260" t="n">
-        <v>214.159767320585</v>
+        <v>194.3198065846776</v>
       </c>
       <c r="H260" t="n">
-        <v>0.64</v>
+        <v>0.48</v>
       </c>
       <c r="I260" t="n">
-        <v>49501</v>
+        <v>49149</v>
       </c>
     </row>
     <row r="261">
@@ -9518,22 +9518,22 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>815830</v>
+        <v>824814</v>
       </c>
       <c r="E261" t="n">
-        <v>3485168</v>
+        <v>3523498</v>
       </c>
       <c r="F261" t="n">
-        <v>3195.84173794473</v>
+        <v>3175.252281855127</v>
       </c>
       <c r="G261" t="n">
-        <v>3062.687644902613</v>
+        <v>3180.016635983051</v>
       </c>
       <c r="H261" t="n">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="I261" t="n">
-        <v>7451.6</v>
+        <v>8466.360000000001</v>
       </c>
     </row>
     <row r="262">
@@ -9553,22 +9553,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>3832368</v>
+        <v>3831226</v>
       </c>
       <c r="E262" t="n">
-        <v>8362177</v>
+        <v>8359685</v>
       </c>
       <c r="F262" t="n">
-        <v>1149.157331346259</v>
+        <v>1063.501791805244</v>
       </c>
       <c r="G262" t="n">
-        <v>1933.721234517371</v>
+        <v>2071.494141989326</v>
       </c>
       <c r="H262" t="n">
-        <v>0.61</v>
+        <v>0.36</v>
       </c>
       <c r="I262" t="n">
-        <v>930566</v>
+        <v>877503</v>
       </c>
     </row>
     <row r="263">
@@ -9588,22 +9588,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>486424048</v>
+        <v>490872752</v>
       </c>
       <c r="E263" t="n">
-        <v>1694060654</v>
+        <v>1709554081</v>
       </c>
       <c r="F263" t="n">
-        <v>593471.9635472617</v>
+        <v>628716.8183953949</v>
       </c>
       <c r="G263" t="n">
-        <v>420321.7357844096</v>
+        <v>686755.4797237705</v>
       </c>
       <c r="H263" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I263" t="n">
-        <v>31451511</v>
+        <v>31229634</v>
       </c>
     </row>
     <row r="264">
@@ -9623,22 +9623,22 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>5550963316</v>
+        <v>5565222516</v>
       </c>
       <c r="E264" t="n">
-        <v>5550963316</v>
+        <v>5565223015</v>
       </c>
       <c r="F264" t="n">
-        <v>4008.831419245224</v>
+        <v>4005.248649238181</v>
       </c>
       <c r="G264" t="n">
-        <v>2365.591012040083</v>
+        <v>2262.087954588434</v>
       </c>
       <c r="H264" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="I264" t="n">
-        <v>24711581</v>
+        <v>28970518</v>
       </c>
     </row>
     <row r="265">
@@ -9658,22 +9658,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>23897359</v>
+        <v>24063119</v>
       </c>
       <c r="E265" t="n">
-        <v>23876601</v>
+        <v>24042217</v>
       </c>
       <c r="F265" t="n">
-        <v>33.64172522058792</v>
+        <v>39.4103860630991</v>
       </c>
       <c r="G265" t="n">
-        <v>540.7363494303476</v>
+        <v>721.5948386665012</v>
       </c>
       <c r="H265" t="n">
-        <v>2.04</v>
+        <v>1.89</v>
       </c>
       <c r="I265" t="n">
-        <v>92487</v>
+        <v>92587</v>
       </c>
     </row>
     <row r="266">
@@ -9693,22 +9693,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>12011446</v>
+        <v>11988226</v>
       </c>
       <c r="E266" t="n">
-        <v>24328465</v>
+        <v>24278425</v>
       </c>
       <c r="F266" t="n">
-        <v>230.7927364904312</v>
+        <v>1.118590713296388</v>
       </c>
       <c r="G266" t="n">
-        <v>57.91009920902872</v>
+        <v>555.419601719434</v>
       </c>
       <c r="H266" t="n">
-        <v>3.59</v>
+        <v>2.13</v>
       </c>
       <c r="I266" t="n">
-        <v>19298.37</v>
+        <v>19470.91</v>
       </c>
     </row>
     <row r="267">
@@ -9731,19 +9731,19 @@
         <v>0</v>
       </c>
       <c r="E267" t="n">
-        <v>148770</v>
+        <v>148825</v>
       </c>
       <c r="F267" t="n">
-        <v>208.4414121776588</v>
+        <v>206.5169590644352</v>
       </c>
       <c r="G267" t="n">
-        <v>152.5388482443598</v>
+        <v>152.5486924049374</v>
       </c>
       <c r="H267" t="n">
         <v>0.37</v>
       </c>
       <c r="I267" t="n">
-        <v>56188</v>
+        <v>55882</v>
       </c>
     </row>
     <row r="268">
@@ -9766,19 +9766,19 @@
         <v>0</v>
       </c>
       <c r="E268" t="n">
-        <v>48008</v>
+        <v>48058</v>
       </c>
       <c r="F268" t="n">
-        <v>3.072420839368975</v>
+        <v>38.55560377776534</v>
       </c>
       <c r="G268" t="n">
-        <v>86.02695783536606</v>
+        <v>125.1168301985683</v>
       </c>
       <c r="H268" t="n">
-        <v>1.25</v>
+        <v>3.06</v>
       </c>
       <c r="I268" t="n">
-        <v>71346</v>
+        <v>71575</v>
       </c>
     </row>
     <row r="269">
@@ -9798,22 +9798,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>2653473</v>
+        <v>2643615</v>
       </c>
       <c r="E269" t="n">
-        <v>10613892</v>
+        <v>10574461</v>
       </c>
       <c r="F269" t="n">
-        <v>46614.07398184939</v>
+        <v>47657.42814280724</v>
       </c>
       <c r="G269" t="n">
-        <v>40316.005895992</v>
+        <v>39809.66171213481</v>
       </c>
       <c r="H269" t="n">
-        <v>0.28</v>
+        <v>0.66</v>
       </c>
       <c r="I269" t="n">
-        <v>5050056</v>
+        <v>5150167</v>
       </c>
     </row>
     <row r="270">
@@ -9833,22 +9833,22 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>213256182</v>
+        <v>213930437</v>
       </c>
       <c r="E270" t="n">
-        <v>655682506</v>
+        <v>657755588</v>
       </c>
       <c r="F270" t="n">
-        <v>270131.6515387659</v>
+        <v>274790.8555168406</v>
       </c>
       <c r="G270" t="n">
-        <v>260226.7945616672</v>
+        <v>267627.9731569372</v>
       </c>
       <c r="H270" t="n">
         <v>0.06</v>
       </c>
       <c r="I270" t="n">
-        <v>11286860</v>
+        <v>11503774</v>
       </c>
     </row>
     <row r="271">
@@ -9868,22 +9868,22 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>148588905</v>
+        <v>150421392</v>
       </c>
       <c r="E271" t="n">
-        <v>388184392</v>
+        <v>392971714</v>
       </c>
       <c r="F271" t="n">
-        <v>29646.66936033703</v>
+        <v>62628.64664464616</v>
       </c>
       <c r="G271" t="n">
-        <v>28478.36694221177</v>
+        <v>45660.74244231432</v>
       </c>
       <c r="H271" t="n">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
       <c r="I271" t="n">
-        <v>6664055</v>
+        <v>6596303</v>
       </c>
     </row>
     <row r="272">
@@ -9903,22 +9903,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>2396460</v>
+        <v>2422733</v>
       </c>
       <c r="E272" t="n">
-        <v>3288754</v>
+        <v>3324803</v>
       </c>
       <c r="F272" t="n">
-        <v>27.92537796613722</v>
+        <v>290.5429462510002</v>
       </c>
       <c r="G272" t="n">
-        <v>6.65087505270064</v>
+        <v>42.47119776100978</v>
       </c>
       <c r="H272" t="n">
-        <v>2.59</v>
+        <v>1.5</v>
       </c>
       <c r="I272" t="n">
-        <v>253534</v>
+        <v>256982</v>
       </c>
     </row>
   </sheetData>

--- a/GateioData20250220.xlsx
+++ b/GateioData20250220.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>52529</v>
+        <v>52541</v>
       </c>
       <c r="F2" t="n">
-        <v>1.325007034808061</v>
+        <v>1.325046837001785</v>
       </c>
       <c r="G2" t="n">
-        <v>29.80841246595463</v>
+        <v>29.80930788777234</v>
       </c>
       <c r="H2" t="n">
         <v>3.85</v>
       </c>
       <c r="I2" t="n">
-        <v>1849.57</v>
+        <v>1780.24</v>
       </c>
     </row>
     <row r="3">
@@ -535,19 +535,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>92666</v>
+        <v>94094</v>
       </c>
       <c r="F3" t="n">
-        <v>9.579425969503758</v>
+        <v>8.579491327990068</v>
       </c>
       <c r="G3" t="n">
-        <v>445.9855203359938</v>
+        <v>445.9989173985093</v>
       </c>
       <c r="H3" t="n">
         <v>3.06</v>
       </c>
       <c r="I3" t="n">
-        <v>757.9299999999999</v>
+        <v>776.48</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>610500013</v>
+        <v>612923731</v>
       </c>
       <c r="E4" t="n">
-        <v>1184570894</v>
+        <v>1189276159</v>
       </c>
       <c r="F4" t="n">
-        <v>43789.56840198443</v>
+        <v>47327.7012294493</v>
       </c>
       <c r="G4" t="n">
-        <v>52159.88369218794</v>
+        <v>50618.75860568779</v>
       </c>
       <c r="H4" t="n">
         <v>0.06</v>
       </c>
       <c r="I4" t="n">
-        <v>23443704</v>
+        <v>23331424</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1349248</v>
+        <v>1343503</v>
       </c>
       <c r="E5" t="n">
-        <v>4361324</v>
+        <v>4342752</v>
       </c>
       <c r="F5" t="n">
-        <v>3779.002434027154</v>
+        <v>5457.929254257519</v>
       </c>
       <c r="G5" t="n">
-        <v>7443.316458949697</v>
+        <v>6579.074311046454</v>
       </c>
       <c r="H5" t="n">
         <v>0.46</v>
       </c>
       <c r="I5" t="n">
-        <v>97732</v>
+        <v>96333</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>139633397</v>
+        <v>140920535</v>
       </c>
       <c r="E6" t="n">
-        <v>154736106</v>
+        <v>156162461</v>
       </c>
       <c r="F6" t="n">
-        <v>179679.4827785914</v>
+        <v>243023.7676467829</v>
       </c>
       <c r="G6" t="n">
-        <v>413016.0569060236</v>
+        <v>267863.5841799206</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="I6" t="n">
-        <v>33778228</v>
+        <v>34001024</v>
       </c>
     </row>
     <row r="7">
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>4205.88</v>
+        <v>4205.02</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>9.09</v>
       </c>
       <c r="I7" t="n">
-        <v>485.67</v>
+        <v>485.66</v>
       </c>
     </row>
     <row r="8">
@@ -707,10 +707,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8708867</v>
+        <v>8793555</v>
       </c>
       <c r="E8" t="n">
-        <v>8928472</v>
+        <v>9015295</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>3.97</v>
+        <v>3.93</v>
       </c>
       <c r="I8" t="n">
-        <v>43160</v>
+        <v>45261</v>
       </c>
     </row>
     <row r="9">
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>303467</v>
+        <v>303565</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -757,7 +757,7 @@
         <v>6.6</v>
       </c>
       <c r="I9" t="n">
-        <v>383.75</v>
+        <v>383.74</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5228441</v>
+        <v>5236717</v>
       </c>
       <c r="E10" t="n">
-        <v>8353477</v>
+        <v>8366699</v>
       </c>
       <c r="F10" t="n">
-        <v>288.2219630081494</v>
+        <v>262.7663720139515</v>
       </c>
       <c r="G10" t="n">
-        <v>372.1925692665837</v>
+        <v>327.6299005167747</v>
       </c>
       <c r="H10" t="n">
-        <v>0.49</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>104532</v>
+        <v>105114</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1004034</v>
+        <v>1003379</v>
       </c>
       <c r="E11" t="n">
-        <v>12286666</v>
+        <v>12278658</v>
       </c>
       <c r="F11" t="n">
-        <v>1582.620259506548</v>
+        <v>1578.625506163521</v>
       </c>
       <c r="G11" t="n">
-        <v>1315.724833587806</v>
+        <v>1315.43432212737</v>
       </c>
       <c r="H11" t="n">
         <v>0.49</v>
       </c>
       <c r="I11" t="n">
-        <v>2129.06</v>
+        <v>2185.38</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>564997</v>
+        <v>566488</v>
       </c>
       <c r="E12" t="n">
-        <v>564997</v>
+        <v>566488</v>
       </c>
       <c r="F12" t="n">
-        <v>95.51022641485758</v>
+        <v>3.881829858393588</v>
       </c>
       <c r="G12" t="n">
-        <v>293.3899630763445</v>
+        <v>120.9480063566631</v>
       </c>
       <c r="H12" t="n">
-        <v>1.28</v>
+        <v>1.69</v>
       </c>
       <c r="I12" t="n">
-        <v>23875</v>
+        <v>23701</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4723882</v>
+        <v>4740834</v>
       </c>
       <c r="E13" t="n">
-        <v>29015801</v>
+        <v>29119905</v>
       </c>
       <c r="F13" t="n">
-        <v>867.5445116006074</v>
+        <v>969.188487479308</v>
       </c>
       <c r="G13" t="n">
-        <v>1180.351699527081</v>
+        <v>1238.061124014844</v>
       </c>
       <c r="H13" t="n">
-        <v>0.35</v>
+        <v>0.99</v>
       </c>
       <c r="I13" t="n">
-        <v>476530</v>
+        <v>472027</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>197828</v>
+        <v>199132</v>
       </c>
       <c r="E14" t="n">
-        <v>2176323</v>
+        <v>2190669</v>
       </c>
       <c r="F14" t="n">
-        <v>623.0165267239386</v>
+        <v>239.6555577578755</v>
       </c>
       <c r="G14" t="n">
-        <v>775.2276569298072</v>
+        <v>1213.689961333219</v>
       </c>
       <c r="H14" t="n">
         <v>1.82</v>
       </c>
       <c r="I14" t="n">
-        <v>40007</v>
+        <v>37099</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3354280</v>
+        <v>3351979</v>
       </c>
       <c r="E15" t="n">
-        <v>9542629</v>
+        <v>9536085</v>
       </c>
       <c r="F15" t="n">
-        <v>837.002554843457</v>
+        <v>730.7706281302611</v>
       </c>
       <c r="G15" t="n">
-        <v>227.4694190767017</v>
+        <v>317.0978324373436</v>
       </c>
       <c r="H15" t="n">
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
       <c r="I15" t="n">
-        <v>232837</v>
+        <v>232842</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>310895</v>
+        <v>312988</v>
       </c>
       <c r="E16" t="n">
-        <v>3588432</v>
+        <v>3612592</v>
       </c>
       <c r="F16" t="n">
-        <v>130.1960098778099</v>
+        <v>131.5111386775607</v>
       </c>
       <c r="G16" t="n">
-        <v>129.7888305047065</v>
+        <v>129.9236714727562</v>
       </c>
       <c r="H16" t="n">
         <v>0.82</v>
       </c>
       <c r="I16" t="n">
-        <v>3241.01</v>
+        <v>3576.37</v>
       </c>
     </row>
     <row r="17">
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>921723</v>
+        <v>923734</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1034,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.69</v>
+        <v>4.67</v>
       </c>
       <c r="I17" t="n">
-        <v>11194.06</v>
+        <v>11201.63</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>22333186</v>
+        <v>22258622</v>
       </c>
       <c r="E18" t="n">
-        <v>22375001</v>
+        <v>22300298</v>
       </c>
       <c r="F18" t="n">
-        <v>1431.238158220572</v>
+        <v>1586.413613366929</v>
       </c>
       <c r="G18" t="n">
-        <v>2488.154067914008</v>
+        <v>2425.746209458691</v>
       </c>
       <c r="H18" t="n">
-        <v>0.51</v>
+        <v>0.41</v>
       </c>
       <c r="I18" t="n">
-        <v>878843</v>
+        <v>872802</v>
       </c>
     </row>
     <row r="19">
@@ -1095,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>6989425</v>
+        <v>6866951</v>
       </c>
       <c r="F19" t="n">
-        <v>83.81872041624817</v>
+        <v>83.57156845196603</v>
       </c>
       <c r="G19" t="n">
-        <v>25.51406055234989</v>
+        <v>17.89421578306716</v>
       </c>
       <c r="H19" t="n">
-        <v>2.49</v>
+        <v>2.08</v>
       </c>
       <c r="I19" t="n">
-        <v>25377</v>
+        <v>27631</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2442282</v>
+        <v>2442143</v>
       </c>
       <c r="E20" t="n">
-        <v>2442282</v>
+        <v>2442143</v>
       </c>
       <c r="F20" t="n">
-        <v>289.4780125842283</v>
+        <v>288.4864857212643</v>
       </c>
       <c r="G20" t="n">
-        <v>229.5901198655259</v>
+        <v>229.5970165764022</v>
       </c>
       <c r="H20" t="n">
         <v>1.41</v>
       </c>
       <c r="I20" t="n">
-        <v>311787</v>
+        <v>314464</v>
       </c>
     </row>
     <row r="21">
@@ -1165,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>408224</v>
+        <v>409319</v>
       </c>
       <c r="F21" t="n">
-        <v>107.6537747917153</v>
+        <v>94.80824533751161</v>
       </c>
       <c r="G21" t="n">
-        <v>174.4447878975791</v>
+        <v>207.5576011969734</v>
       </c>
       <c r="H21" t="n">
-        <v>1.45</v>
+        <v>1.21</v>
       </c>
       <c r="I21" t="n">
-        <v>1455.1</v>
+        <v>1539.86</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>19379205</v>
+        <v>18559232</v>
       </c>
       <c r="E22" t="n">
-        <v>24942627</v>
+        <v>23887255</v>
       </c>
       <c r="F22" t="n">
-        <v>4117.450665622201</v>
+        <v>1417.383287135695</v>
       </c>
       <c r="G22" t="n">
-        <v>4583.26196133385</v>
+        <v>2743.965311162067</v>
       </c>
       <c r="H22" t="n">
-        <v>0.46</v>
+        <v>0.25</v>
       </c>
       <c r="I22" t="n">
-        <v>2037053</v>
+        <v>2048448</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>480264452</v>
+        <v>477668233</v>
       </c>
       <c r="E23" t="n">
-        <v>480264452</v>
+        <v>477668238</v>
       </c>
       <c r="F23" t="n">
-        <v>71069.03453820887</v>
+        <v>54459.22620894008</v>
       </c>
       <c r="G23" t="n">
-        <v>84650.17119309606</v>
+        <v>63000.56056959946</v>
       </c>
       <c r="H23" t="n">
         <v>0.06</v>
       </c>
       <c r="I23" t="n">
-        <v>62640598</v>
+        <v>63514633</v>
       </c>
     </row>
     <row r="24">
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>22851</v>
+        <v>22846</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1282,7 +1282,7 @@
         <v>7.86</v>
       </c>
       <c r="I24" t="n">
-        <v>3102.98</v>
+        <v>3133.3</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4664471</v>
+        <v>4665340</v>
       </c>
       <c r="E25" t="n">
-        <v>4664471</v>
+        <v>4665340</v>
       </c>
       <c r="F25" t="n">
-        <v>905.675377716449</v>
+        <v>913.1977801914368</v>
       </c>
       <c r="G25" t="n">
-        <v>1237.41633470241</v>
+        <v>1076.628593904007</v>
       </c>
       <c r="H25" t="n">
-        <v>0.59</v>
+        <v>0.28</v>
       </c>
       <c r="I25" t="n">
-        <v>1956499</v>
+        <v>1966325</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3352119</v>
+        <v>3372105</v>
       </c>
       <c r="E26" t="n">
-        <v>3352119</v>
+        <v>3372105</v>
       </c>
       <c r="F26" t="n">
-        <v>136.8717180052828</v>
+        <v>297.121725541284</v>
       </c>
       <c r="G26" t="n">
-        <v>1110.470325894561</v>
+        <v>375.1502368142088</v>
       </c>
       <c r="H26" t="n">
-        <v>0.42</v>
+        <v>0.98</v>
       </c>
       <c r="I26" t="n">
-        <v>533401</v>
+        <v>531846</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>323672</v>
+        <v>314491</v>
       </c>
       <c r="E27" t="n">
-        <v>1510934</v>
+        <v>1468076</v>
       </c>
       <c r="F27" t="n">
-        <v>2504.805453890785</v>
+        <v>1268.070755218135</v>
       </c>
       <c r="G27" t="n">
-        <v>179.0379654435674</v>
+        <v>59.9542417458896</v>
       </c>
       <c r="H27" t="n">
-        <v>1.13</v>
+        <v>2.96</v>
       </c>
       <c r="I27" t="n">
-        <v>639267</v>
+        <v>620451</v>
       </c>
     </row>
     <row r="28">
@@ -1410,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1602052</v>
+        <v>1610912</v>
       </c>
       <c r="F28" t="n">
-        <v>407.7911933653289</v>
+        <v>205.0204189218507</v>
       </c>
       <c r="G28" t="n">
-        <v>76.56559829923995</v>
+        <v>278.1652648273351</v>
       </c>
       <c r="H28" t="n">
         <v>0.19</v>
       </c>
       <c r="I28" t="n">
-        <v>182443</v>
+        <v>221016</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>12831588</v>
+        <v>12872061</v>
       </c>
       <c r="E29" t="n">
-        <v>31935502</v>
+        <v>32036232</v>
       </c>
       <c r="F29" t="n">
-        <v>865.4252467885885</v>
+        <v>803.4766991036607</v>
       </c>
       <c r="G29" t="n">
-        <v>1693.429488754073</v>
+        <v>1279.450628860948</v>
       </c>
       <c r="H29" t="n">
-        <v>0.34</v>
+        <v>0.5</v>
       </c>
       <c r="I29" t="n">
-        <v>1590521</v>
+        <v>1598765</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>907606</v>
+        <v>915792</v>
       </c>
       <c r="E30" t="n">
-        <v>6353242</v>
+        <v>6410547</v>
       </c>
       <c r="F30" t="n">
-        <v>450.6586649138827</v>
+        <v>444.6535380499177</v>
       </c>
       <c r="G30" t="n">
-        <v>391.9902335269407</v>
+        <v>663.7852944479484</v>
       </c>
       <c r="H30" t="n">
-        <v>1.62</v>
+        <v>0.95</v>
       </c>
       <c r="I30" t="n">
-        <v>229069</v>
+        <v>227714</v>
       </c>
     </row>
     <row r="31">
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>178710</v>
+        <v>178736</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1524,10 +1524,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>8.380000000000001</v>
+        <v>8.85</v>
       </c>
       <c r="I31" t="n">
-        <v>6072.13</v>
+        <v>6071.33</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5592679</v>
+        <v>5683747</v>
       </c>
       <c r="E32" t="n">
-        <v>5860233</v>
+        <v>5955657</v>
       </c>
       <c r="F32" t="n">
-        <v>34.64897716854745</v>
+        <v>204.3087168338095</v>
       </c>
       <c r="G32" t="n">
-        <v>66.5240194154313</v>
+        <v>242.5137993046487</v>
       </c>
       <c r="H32" t="n">
-        <v>2.82</v>
+        <v>0.42</v>
       </c>
       <c r="I32" t="n">
-        <v>125552</v>
+        <v>131734</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>5489253</v>
+        <v>5506705</v>
       </c>
       <c r="E33" t="n">
-        <v>8080478</v>
+        <v>8106169</v>
       </c>
       <c r="F33" t="n">
-        <v>183.1192659458234</v>
+        <v>93.15986625107375</v>
       </c>
       <c r="G33" t="n">
-        <v>88.60081974632477</v>
+        <v>121.7694497577232</v>
       </c>
       <c r="H33" t="n">
-        <v>0.47</v>
+        <v>0.82</v>
       </c>
       <c r="I33" t="n">
-        <v>585536</v>
+        <v>683732</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7672294</v>
+        <v>7662168</v>
       </c>
       <c r="E34" t="n">
-        <v>7672294</v>
+        <v>7662168</v>
       </c>
       <c r="F34" t="n">
-        <v>32140.61262736038</v>
+        <v>32050.4853555747</v>
       </c>
       <c r="G34" t="n">
-        <v>31878.15197543842</v>
+        <v>32110.90936655924</v>
       </c>
       <c r="H34" t="n">
-        <v>0.97</v>
+        <v>0.75</v>
       </c>
       <c r="I34" t="n">
-        <v>229558</v>
+        <v>191234</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1482295</v>
+        <v>1483651</v>
       </c>
       <c r="E35" t="n">
-        <v>1482334</v>
+        <v>1483651</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8005653742377</v>
+        <v>489.3965929424812</v>
       </c>
       <c r="G35" t="n">
-        <v>88.96422286267197</v>
+        <v>41.60549426459284</v>
       </c>
       <c r="H35" t="n">
-        <v>2.42</v>
+        <v>1.79</v>
       </c>
       <c r="I35" t="n">
-        <v>276139</v>
+        <v>272908</v>
       </c>
     </row>
     <row r="36">
@@ -1690,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>16402125</v>
+        <v>16537865</v>
       </c>
       <c r="F36" t="n">
-        <v>248.6998277849757</v>
+        <v>343.546938824575</v>
       </c>
       <c r="G36" t="n">
-        <v>169.9555459569165</v>
+        <v>169.9441476187493</v>
       </c>
       <c r="H36" t="n">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="I36" t="n">
-        <v>10416.67</v>
+        <v>10596.13</v>
       </c>
     </row>
     <row r="37">
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>59651</v>
+        <v>65215</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>8.51</v>
       </c>
       <c r="I37" t="n">
-        <v>254.48</v>
+        <v>256.92</v>
       </c>
     </row>
     <row r="38">
@@ -1753,22 +1753,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>135341363</v>
+        <v>136519323</v>
       </c>
       <c r="E38" t="n">
-        <v>135341363</v>
+        <v>136519323</v>
       </c>
       <c r="F38" t="n">
-        <v>313429.8558220937</v>
+        <v>316145.6177882655</v>
       </c>
       <c r="G38" t="n">
-        <v>325878.7747714925</v>
+        <v>333620.3631040929</v>
       </c>
       <c r="H38" t="n">
         <v>0.05</v>
       </c>
       <c r="I38" t="n">
-        <v>65618444</v>
+        <v>66592610</v>
       </c>
     </row>
     <row r="39">
@@ -1788,22 +1788,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>64703476</v>
+        <v>65138432</v>
       </c>
       <c r="E39" t="n">
-        <v>331812696</v>
+        <v>334043242</v>
       </c>
       <c r="F39" t="n">
-        <v>86727.90770602769</v>
+        <v>86490.49196222205</v>
       </c>
       <c r="G39" t="n">
-        <v>96386.60836517141</v>
+        <v>95609.24801725308</v>
       </c>
       <c r="H39" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="I39" t="n">
-        <v>18624450</v>
+        <v>18798705</v>
       </c>
     </row>
     <row r="40">
@@ -1823,22 +1823,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>44556</v>
+        <v>45377</v>
       </c>
       <c r="E40" t="n">
-        <v>131672</v>
+        <v>134096</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>9.372457031285466</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>356.5034483156186</v>
       </c>
       <c r="H40" t="n">
-        <v>6.46</v>
+        <v>0.52</v>
       </c>
       <c r="I40" t="n">
-        <v>743.99</v>
+        <v>781.33</v>
       </c>
     </row>
     <row r="41">
@@ -1861,19 +1861,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>47287</v>
+        <v>51689</v>
       </c>
       <c r="F41" t="n">
-        <v>3.589601819660834</v>
+        <v>17.10956338419469</v>
       </c>
       <c r="G41" t="n">
-        <v>1.835396873663531</v>
+        <v>1.835451980378392</v>
       </c>
       <c r="H41" t="n">
-        <v>3.11</v>
+        <v>3.08</v>
       </c>
       <c r="I41" t="n">
-        <v>25302</v>
+        <v>25208</v>
       </c>
     </row>
     <row r="42">
@@ -1896,19 +1896,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>593002</v>
+        <v>598631</v>
       </c>
       <c r="F42" t="n">
-        <v>1023.181552019091</v>
+        <v>1930.737290564046</v>
       </c>
       <c r="G42" t="n">
-        <v>316.8210721111888</v>
+        <v>397.7522320983386</v>
       </c>
       <c r="H42" t="n">
         <v>0.7</v>
       </c>
       <c r="I42" t="n">
-        <v>792.88</v>
+        <v>825.53</v>
       </c>
     </row>
     <row r="43">
@@ -1961,22 +1961,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2727349</v>
+        <v>2723645</v>
       </c>
       <c r="E44" t="n">
-        <v>10960596</v>
+        <v>10945707</v>
       </c>
       <c r="F44" t="n">
-        <v>3.646081790817156</v>
+        <v>3.646191316313973</v>
       </c>
       <c r="G44" t="n">
-        <v>279.9996838011191</v>
+        <v>149.6850065045685</v>
       </c>
       <c r="H44" t="n">
-        <v>3.54</v>
+        <v>2.65</v>
       </c>
       <c r="I44" t="n">
-        <v>24796</v>
+        <v>24992</v>
       </c>
     </row>
     <row r="45">
@@ -1996,22 +1996,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>17378904</v>
+        <v>17489415</v>
       </c>
       <c r="E45" t="n">
-        <v>122533700</v>
+        <v>123304922</v>
       </c>
       <c r="F45" t="n">
-        <v>222.5999843172559</v>
+        <v>193.3172251629474</v>
       </c>
       <c r="G45" t="n">
-        <v>322.8439794888277</v>
+        <v>269.4247140504714</v>
       </c>
       <c r="H45" t="n">
-        <v>0.16</v>
+        <v>0.93</v>
       </c>
       <c r="I45" t="n">
-        <v>1034107</v>
+        <v>1037914</v>
       </c>
     </row>
     <row r="46">
@@ -2031,10 +2031,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>147919</v>
+        <v>147069</v>
       </c>
       <c r="E46" t="n">
-        <v>1979235</v>
+        <v>1967862</v>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>46989</v>
+        <v>46798</v>
       </c>
     </row>
     <row r="47">
@@ -2064,22 +2064,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>252359176</v>
+        <v>254164077</v>
       </c>
       <c r="E47" t="n">
-        <v>252359176</v>
+        <v>254164077</v>
       </c>
       <c r="F47" t="n">
-        <v>120962.3612818706</v>
+        <v>113968.4097615523</v>
       </c>
       <c r="G47" t="n">
-        <v>151459.3420115215</v>
+        <v>174133.5570332626</v>
       </c>
       <c r="H47" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I47" t="n">
-        <v>14972278</v>
+        <v>14912091</v>
       </c>
     </row>
     <row r="48">
@@ -2099,22 +2099,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>635148</v>
+        <v>635712</v>
       </c>
       <c r="E48" t="n">
-        <v>635148</v>
+        <v>635712</v>
       </c>
       <c r="F48" t="n">
-        <v>101.3055705415593</v>
+        <v>60.00891923319997</v>
       </c>
       <c r="G48" t="n">
-        <v>129.0918769864325</v>
+        <v>146.0102630119998</v>
       </c>
       <c r="H48" t="n">
-        <v>2.19</v>
+        <v>2.4</v>
       </c>
       <c r="I48" t="n">
-        <v>3344.32</v>
+        <v>3346.01</v>
       </c>
     </row>
     <row r="49">
@@ -2167,22 +2167,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>454405816</v>
+        <v>461155316</v>
       </c>
       <c r="E50" t="n">
-        <v>454423537</v>
+        <v>461155316</v>
       </c>
       <c r="F50" t="n">
-        <v>4046.425598223946</v>
+        <v>4196.77215822828</v>
       </c>
       <c r="G50" t="n">
-        <v>1833.305852187735</v>
+        <v>2294.953820613358</v>
       </c>
       <c r="H50" t="n">
         <v>0.02</v>
       </c>
       <c r="I50" t="n">
-        <v>3071490</v>
+        <v>3221890</v>
       </c>
     </row>
     <row r="51">
@@ -2202,22 +2202,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2533712</v>
+        <v>2517015</v>
       </c>
       <c r="E51" t="n">
-        <v>2533712</v>
+        <v>2517015</v>
       </c>
       <c r="F51" t="n">
-        <v>298.8620821522797</v>
+        <v>299.695463531841</v>
       </c>
       <c r="G51" t="n">
-        <v>65.58311190634188</v>
+        <v>1980.575151882307</v>
       </c>
       <c r="H51" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="I51" t="n">
-        <v>109784</v>
+        <v>110129</v>
       </c>
     </row>
     <row r="52">
@@ -2237,10 +2237,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>22519</v>
+        <v>22335</v>
       </c>
       <c r="E52" t="n">
-        <v>45039</v>
+        <v>44671</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -2249,10 +2249,10 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>4.31</v>
+        <v>7.98</v>
       </c>
       <c r="I52" t="n">
-        <v>4607.02</v>
+        <v>4741.15</v>
       </c>
     </row>
     <row r="53">
@@ -2275,19 +2275,19 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>147466</v>
+        <v>148665</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>19.4212595489095</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>1.194894659057181</v>
       </c>
       <c r="H53" t="n">
-        <v>4.2</v>
+        <v>1.72</v>
       </c>
       <c r="I53" t="n">
-        <v>23574</v>
+        <v>23239</v>
       </c>
     </row>
     <row r="54">
@@ -2307,22 +2307,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2536935</v>
+        <v>2539254</v>
       </c>
       <c r="E54" t="n">
-        <v>6485895</v>
+        <v>6491822</v>
       </c>
       <c r="F54" t="n">
-        <v>311.4658427469308</v>
+        <v>235.1880776622649</v>
       </c>
       <c r="G54" t="n">
-        <v>222.8958137579382</v>
+        <v>214.1076244497143</v>
       </c>
       <c r="H54" t="n">
-        <v>1.81</v>
+        <v>1.96</v>
       </c>
       <c r="I54" t="n">
-        <v>117602</v>
+        <v>118058</v>
       </c>
     </row>
     <row r="55">
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>3820.95</v>
+        <v>3824.07</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>6.22</v>
       </c>
       <c r="I55" t="n">
-        <v>803.6799999999999</v>
+        <v>764.8200000000001</v>
       </c>
     </row>
     <row r="56">
@@ -2377,22 +2377,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>74069025</v>
+        <v>74531687</v>
       </c>
       <c r="E56" t="n">
-        <v>74069025</v>
+        <v>74531687</v>
       </c>
       <c r="F56" t="n">
-        <v>19728.71285264869</v>
+        <v>13702.53059830867</v>
       </c>
       <c r="G56" t="n">
-        <v>21175.84373088257</v>
+        <v>23253.47430565894</v>
       </c>
       <c r="H56" t="n">
-        <v>0.23</v>
+        <v>0.36</v>
       </c>
       <c r="I56" t="n">
-        <v>4121445</v>
+        <v>4095450</v>
       </c>
     </row>
     <row r="57">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3674138</v>
+        <v>3688476</v>
       </c>
       <c r="E57" t="n">
-        <v>4655775</v>
+        <v>4673944</v>
       </c>
       <c r="F57" t="n">
-        <v>326.6767828194481</v>
+        <v>1177.076248135378</v>
       </c>
       <c r="G57" t="n">
-        <v>111.5853237287003</v>
+        <v>151.0951315339495</v>
       </c>
       <c r="H57" t="n">
         <v>0.2</v>
       </c>
       <c r="I57" t="n">
-        <v>290677</v>
+        <v>288825</v>
       </c>
     </row>
     <row r="58">
@@ -2447,22 +2447,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>4223778</v>
+        <v>4230788</v>
       </c>
       <c r="E58" t="n">
-        <v>8329646</v>
+        <v>8343471</v>
       </c>
       <c r="F58" t="n">
-        <v>2388.479665358755</v>
+        <v>2156.965652878667</v>
       </c>
       <c r="G58" t="n">
-        <v>2665.244925081127</v>
+        <v>1804.071228119141</v>
       </c>
       <c r="H58" t="n">
-        <v>0.19</v>
+        <v>0.47</v>
       </c>
       <c r="I58" t="n">
-        <v>1641930</v>
+        <v>1646991</v>
       </c>
     </row>
     <row r="59">
@@ -2482,22 +2482,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1572394</v>
+        <v>1577330</v>
       </c>
       <c r="E59" t="n">
-        <v>9028101</v>
+        <v>9056440</v>
       </c>
       <c r="F59" t="n">
-        <v>347.3396114610014</v>
+        <v>201.1583972008854</v>
       </c>
       <c r="G59" t="n">
-        <v>423.8531852466631</v>
+        <v>708.0836408444912</v>
       </c>
       <c r="H59" t="n">
-        <v>1.31</v>
+        <v>1.47</v>
       </c>
       <c r="I59" t="n">
-        <v>310010</v>
+        <v>307780</v>
       </c>
     </row>
     <row r="60">
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>540426</v>
+        <v>565995</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>8.77</v>
       </c>
       <c r="I60" t="n">
-        <v>2187.75</v>
+        <v>2327.47</v>
       </c>
     </row>
     <row r="61">
@@ -2555,19 +2555,19 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>31954606</v>
+        <v>31979430</v>
       </c>
       <c r="F61" t="n">
-        <v>480.5485543342209</v>
+        <v>516.3840905974375</v>
       </c>
       <c r="G61" t="n">
-        <v>1987.500368131681</v>
+        <v>2140.290653106348</v>
       </c>
       <c r="H61" t="n">
-        <v>0.22</v>
+        <v>0.08</v>
       </c>
       <c r="I61" t="n">
-        <v>251577</v>
+        <v>251106</v>
       </c>
     </row>
     <row r="62">
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>1439559</v>
+        <v>1436859</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>16.83</v>
+        <v>14.95</v>
       </c>
       <c r="I62" t="n">
-        <v>27677</v>
+        <v>27687</v>
       </c>
     </row>
     <row r="63">
@@ -2622,22 +2622,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>7552123</v>
+        <v>7547687</v>
       </c>
       <c r="E63" t="n">
-        <v>17786751</v>
+        <v>17776304</v>
       </c>
       <c r="F63" t="n">
-        <v>1271.024679548903</v>
+        <v>1183.730961527805</v>
       </c>
       <c r="G63" t="n">
-        <v>2369.19289069129</v>
+        <v>2405.281611198112</v>
       </c>
       <c r="H63" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="I63" t="n">
-        <v>31599</v>
+        <v>31404</v>
       </c>
     </row>
     <row r="64">
@@ -2657,22 +2657,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2861886</v>
+        <v>2941963</v>
       </c>
       <c r="E64" t="n">
-        <v>2861886</v>
+        <v>2941963</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>17.29142965684527</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>209.0232889729733</v>
       </c>
       <c r="H64" t="n">
-        <v>4.67</v>
+        <v>1.93</v>
       </c>
       <c r="I64" t="n">
-        <v>17649.21</v>
+        <v>17987.62</v>
       </c>
     </row>
     <row r="65">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3367613</v>
+        <v>3371906</v>
       </c>
       <c r="E65" t="n">
-        <v>8309413</v>
+        <v>8320007</v>
       </c>
       <c r="F65" t="n">
-        <v>674.8512882486505</v>
+        <v>632.9275440277185</v>
       </c>
       <c r="G65" t="n">
-        <v>1076.734789137564</v>
+        <v>1307.176666033474</v>
       </c>
       <c r="H65" t="n">
-        <v>1.11</v>
+        <v>0.79</v>
       </c>
       <c r="I65" t="n">
-        <v>53815</v>
+        <v>54218</v>
       </c>
     </row>
     <row r="66">
@@ -2730,19 +2730,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>272084</v>
+        <v>269843</v>
       </c>
       <c r="F66" t="n">
-        <v>35.17280474012904</v>
+        <v>16.26790954173976</v>
       </c>
       <c r="G66" t="n">
-        <v>78.78410897519825</v>
+        <v>53.0789852519131</v>
       </c>
       <c r="H66" t="n">
         <v>3.33</v>
       </c>
       <c r="I66" t="n">
-        <v>2287.07</v>
+        <v>2354.64</v>
       </c>
     </row>
     <row r="67">
@@ -2762,22 +2762,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>72400003</v>
+        <v>73311299</v>
       </c>
       <c r="E67" t="n">
-        <v>150990773</v>
+        <v>152891288</v>
       </c>
       <c r="F67" t="n">
-        <v>64527.62224665952</v>
+        <v>58358.25606673876</v>
       </c>
       <c r="G67" t="n">
-        <v>92831.79166735319</v>
+        <v>105462.9180203696</v>
       </c>
       <c r="H67" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I67" t="n">
-        <v>13989136</v>
+        <v>14339612</v>
       </c>
     </row>
     <row r="68">
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>2181197</v>
+        <v>2101638</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>9.071750560900362</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>5.178046640401776</v>
       </c>
       <c r="H68" t="n">
-        <v>4.13</v>
+        <v>3.24</v>
       </c>
       <c r="I68" t="n">
-        <v>3155.27</v>
+        <v>3234.3</v>
       </c>
     </row>
     <row r="69">
@@ -2835,19 +2835,19 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>205890740</v>
+        <v>206555087</v>
       </c>
       <c r="F69" t="n">
-        <v>4542.46140383729</v>
+        <v>13999.05735142982</v>
       </c>
       <c r="G69" t="n">
-        <v>2811.24716136596</v>
+        <v>4893.243084592435</v>
       </c>
       <c r="H69" t="n">
-        <v>0.76</v>
+        <v>0.55</v>
       </c>
       <c r="I69" t="n">
-        <v>4522517</v>
+        <v>4641395</v>
       </c>
     </row>
     <row r="70">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>189258</v>
+        <v>184965</v>
       </c>
       <c r="E70" t="n">
-        <v>197639</v>
+        <v>193156</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -2879,10 +2879,10 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>13.74</v>
+        <v>9</v>
       </c>
       <c r="I70" t="n">
-        <v>434.77</v>
+        <v>432.98</v>
       </c>
     </row>
     <row r="71">
@@ -2902,22 +2902,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>143802055</v>
+        <v>144616254</v>
       </c>
       <c r="E71" t="n">
-        <v>143845093</v>
+        <v>144659536</v>
       </c>
       <c r="F71" t="n">
-        <v>32687.4086835874</v>
+        <v>25003.21507124893</v>
       </c>
       <c r="G71" t="n">
-        <v>47268.56139132202</v>
+        <v>55219.8779041253</v>
       </c>
       <c r="H71" t="n">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="I71" t="n">
-        <v>2614847</v>
+        <v>2624639</v>
       </c>
     </row>
     <row r="72">
@@ -2937,22 +2937,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>26236262</v>
+        <v>26257139</v>
       </c>
       <c r="E72" t="n">
-        <v>86102395</v>
+        <v>86170911</v>
       </c>
       <c r="F72" t="n">
-        <v>18952.78639251748</v>
+        <v>7288.178548174481</v>
       </c>
       <c r="G72" t="n">
-        <v>17151.56470020328</v>
+        <v>37082.73701204327</v>
       </c>
       <c r="H72" t="n">
         <v>0.35</v>
       </c>
       <c r="I72" t="n">
-        <v>100093</v>
+        <v>92818</v>
       </c>
     </row>
     <row r="73">
@@ -2972,10 +2972,10 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>112844</v>
+        <v>118493</v>
       </c>
       <c r="E73" t="n">
-        <v>112844</v>
+        <v>118493</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -2984,10 +2984,10 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>4.49</v>
+        <v>4.17</v>
       </c>
       <c r="I73" t="n">
-        <v>145.19</v>
+        <v>189.03</v>
       </c>
     </row>
     <row r="74">
@@ -3007,22 +3007,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>197704503</v>
+        <v>199034836</v>
       </c>
       <c r="E74" t="n">
-        <v>686843311</v>
+        <v>691465007</v>
       </c>
       <c r="F74" t="n">
-        <v>150680.5021445937</v>
+        <v>130847.1719237388</v>
       </c>
       <c r="G74" t="n">
-        <v>179013.5133866989</v>
+        <v>224750.3449004406</v>
       </c>
       <c r="H74" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="I74" t="n">
-        <v>26103952</v>
+        <v>26118350</v>
       </c>
     </row>
     <row r="75">
@@ -3042,22 +3042,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>4030439</v>
+        <v>4053334</v>
       </c>
       <c r="E75" t="n">
-        <v>4030439</v>
+        <v>4053334</v>
       </c>
       <c r="F75" t="n">
-        <v>574.5038378968802</v>
+        <v>1625.984603762792</v>
       </c>
       <c r="G75" t="n">
-        <v>1890.532476250757</v>
+        <v>1393.706166632233</v>
       </c>
       <c r="H75" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="I75" t="n">
-        <v>3701454</v>
+        <v>3554688</v>
       </c>
     </row>
     <row r="76">
@@ -3077,22 +3077,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>114343840</v>
+        <v>115068094</v>
       </c>
       <c r="E76" t="n">
-        <v>486424928</v>
+        <v>489476113</v>
       </c>
       <c r="F76" t="n">
-        <v>176342.9009673469</v>
+        <v>247370.2759670721</v>
       </c>
       <c r="G76" t="n">
-        <v>235485.7963752507</v>
+        <v>231170.6187682004</v>
       </c>
       <c r="H76" t="n">
-        <v>0.19</v>
+        <v>0.26</v>
       </c>
       <c r="I76" t="n">
-        <v>13231232</v>
+        <v>13798290</v>
       </c>
     </row>
     <row r="77">
@@ -3115,19 +3115,19 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1850791</v>
+        <v>1853137</v>
       </c>
       <c r="F77" t="n">
-        <v>123.7119062339318</v>
+        <v>174.1645415810657</v>
       </c>
       <c r="G77" t="n">
-        <v>93.00403723632405</v>
+        <v>93.00588081895489</v>
       </c>
       <c r="H77" t="n">
         <v>0.54</v>
       </c>
       <c r="I77" t="n">
-        <v>433.26</v>
+        <v>433.9</v>
       </c>
     </row>
     <row r="78">
@@ -3147,22 +3147,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3145231</v>
+        <v>3149234</v>
       </c>
       <c r="E78" t="n">
-        <v>15769475</v>
+        <v>15789546</v>
       </c>
       <c r="F78" t="n">
-        <v>837.3532967679454</v>
+        <v>816.5139660340926</v>
       </c>
       <c r="G78" t="n">
-        <v>139.6409851016239</v>
+        <v>180.11835424784</v>
       </c>
       <c r="H78" t="n">
-        <v>1.23</v>
+        <v>0.62</v>
       </c>
       <c r="I78" t="n">
-        <v>31646</v>
+        <v>31432</v>
       </c>
     </row>
     <row r="79">
@@ -3182,22 +3182,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>531786</v>
+        <v>524790</v>
       </c>
       <c r="E79" t="n">
-        <v>9096168</v>
+        <v>8976499</v>
       </c>
       <c r="F79" t="n">
-        <v>607.8735006504944</v>
+        <v>615.9678252866814</v>
       </c>
       <c r="G79" t="n">
-        <v>79.54577234731289</v>
+        <v>79.54735033075505</v>
       </c>
       <c r="H79" t="n">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="I79" t="n">
-        <v>305541</v>
+        <v>290894</v>
       </c>
     </row>
     <row r="80">
@@ -3217,22 +3217,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>5944953</v>
+        <v>5986383</v>
       </c>
       <c r="E80" t="n">
-        <v>8077959</v>
+        <v>8133895</v>
       </c>
       <c r="F80" t="n">
-        <v>333.0658259867893</v>
+        <v>210.2623613097352</v>
       </c>
       <c r="G80" t="n">
-        <v>593.7980935805788</v>
+        <v>441.5701672545403</v>
       </c>
       <c r="H80" t="n">
-        <v>1.07</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I80" t="n">
-        <v>6466820</v>
+        <v>6437249</v>
       </c>
     </row>
     <row r="81">
@@ -3251,19 +3251,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>42756</v>
+        <v>42435</v>
       </c>
       <c r="F81" t="n">
-        <v>83.24952671540966</v>
+        <v>143.0778201157371</v>
       </c>
       <c r="G81" t="n">
-        <v>150.0627177535276</v>
+        <v>23.5288200639208</v>
       </c>
       <c r="H81" t="n">
         <v>1.96</v>
       </c>
       <c r="I81" t="n">
-        <v>59965</v>
+        <v>60179</v>
       </c>
     </row>
     <row r="82">
@@ -3283,22 +3283,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>40785714</v>
+        <v>40398139</v>
       </c>
       <c r="E82" t="n">
-        <v>47636745</v>
+        <v>47184067</v>
       </c>
       <c r="F82" t="n">
-        <v>313.4422296231077</v>
+        <v>299.6057847322937</v>
       </c>
       <c r="G82" t="n">
-        <v>67.17302776896783</v>
+        <v>81.24580985241839</v>
       </c>
       <c r="H82" t="n">
-        <v>1.7</v>
+        <v>1.06</v>
       </c>
       <c r="I82" t="n">
-        <v>854719</v>
+        <v>846917</v>
       </c>
     </row>
     <row r="83">
@@ -3321,19 +3321,19 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>14441932</v>
+        <v>14440656</v>
       </c>
       <c r="F83" t="n">
-        <v>153.8760593024926</v>
+        <v>160.1631354868504</v>
       </c>
       <c r="G83" t="n">
-        <v>700.2359066725352</v>
+        <v>661.8981513365098</v>
       </c>
       <c r="H83" t="n">
-        <v>0.51</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I83" t="n">
-        <v>431562</v>
+        <v>283201</v>
       </c>
     </row>
     <row r="84">
@@ -3353,22 +3353,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>35613527</v>
+        <v>35401558</v>
       </c>
       <c r="E84" t="n">
-        <v>35613527</v>
+        <v>35401558</v>
       </c>
       <c r="F84" t="n">
-        <v>533.2487714884709</v>
+        <v>293.8370336493384</v>
       </c>
       <c r="G84" t="n">
-        <v>231.4158291780116</v>
+        <v>100.9861478749519</v>
       </c>
       <c r="H84" t="n">
-        <v>1.63</v>
+        <v>3.01</v>
       </c>
       <c r="I84" t="n">
-        <v>752747</v>
+        <v>752214</v>
       </c>
     </row>
     <row r="85">
@@ -3388,22 +3388,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>537238</v>
+        <v>535774</v>
       </c>
       <c r="E85" t="n">
-        <v>6516169</v>
+        <v>6498421</v>
       </c>
       <c r="F85" t="n">
-        <v>1175.41158929594</v>
+        <v>1069.915675456767</v>
       </c>
       <c r="G85" t="n">
-        <v>1258.306877555144</v>
+        <v>1288.92777541174</v>
       </c>
       <c r="H85" t="n">
-        <v>0.99</v>
+        <v>0.82</v>
       </c>
       <c r="I85" t="n">
-        <v>2775267</v>
+        <v>2757648</v>
       </c>
     </row>
     <row r="86">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>25035686</v>
+        <v>25148882</v>
       </c>
       <c r="E86" t="n">
-        <v>35386965</v>
+        <v>35546963</v>
       </c>
       <c r="F86" t="n">
-        <v>75.88168951974929</v>
+        <v>9.724099715519426</v>
       </c>
       <c r="G86" t="n">
-        <v>200.6505713789785</v>
+        <v>642.8487466773398</v>
       </c>
       <c r="H86" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="I86" t="n">
-        <v>82261</v>
+        <v>65011</v>
       </c>
     </row>
     <row r="87">
@@ -3458,22 +3458,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1276117356</v>
+        <v>1298681631</v>
       </c>
       <c r="E87" t="n">
-        <v>6119244063</v>
+        <v>6227444385</v>
       </c>
       <c r="F87" t="n">
-        <v>855811.0576698777</v>
+        <v>747523.1739747315</v>
       </c>
       <c r="G87" t="n">
-        <v>728362.677585343</v>
+        <v>976503.0670571873</v>
       </c>
       <c r="H87" t="n">
         <v>0.02</v>
       </c>
       <c r="I87" t="n">
-        <v>177985645</v>
+        <v>177944475</v>
       </c>
     </row>
     <row r="88">
@@ -3493,22 +3493,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>264901472</v>
+        <v>267352893</v>
       </c>
       <c r="E88" t="n">
-        <v>1143461812</v>
+        <v>1154043507</v>
       </c>
       <c r="F88" t="n">
-        <v>1125136.669951261</v>
+        <v>1056766.792199951</v>
       </c>
       <c r="G88" t="n">
-        <v>978021.2442508546</v>
+        <v>927864.1532310017</v>
       </c>
       <c r="H88" t="n">
         <v>0.02</v>
       </c>
       <c r="I88" t="n">
-        <v>111201107</v>
+        <v>111256551</v>
       </c>
     </row>
     <row r="89">
@@ -3528,22 +3528,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>114097862</v>
+        <v>114422426</v>
       </c>
       <c r="E89" t="n">
-        <v>114097862</v>
+        <v>114422426</v>
       </c>
       <c r="F89" t="n">
-        <v>30737.51143208566</v>
+        <v>29702.25789822211</v>
       </c>
       <c r="G89" t="n">
-        <v>28549.79548659856</v>
+        <v>33800.82905343742</v>
       </c>
       <c r="H89" t="n">
-        <v>0.59</v>
+        <v>0.47</v>
       </c>
       <c r="I89" t="n">
-        <v>6026817</v>
+        <v>6026047</v>
       </c>
     </row>
     <row r="90">
@@ -3563,22 +3563,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>3854749</v>
+        <v>3855684</v>
       </c>
       <c r="E90" t="n">
-        <v>29997189</v>
+        <v>30004470</v>
       </c>
       <c r="F90" t="n">
-        <v>11030.58488714175</v>
+        <v>11012.45070743005</v>
       </c>
       <c r="G90" t="n">
-        <v>12355.79961889112</v>
+        <v>12393.50955153871</v>
       </c>
       <c r="H90" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I90" t="n">
-        <v>9994.969999999999</v>
+        <v>9999.67</v>
       </c>
     </row>
     <row r="91">
@@ -3601,19 +3601,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>3768338</v>
+        <v>3774367</v>
       </c>
       <c r="F91" t="n">
-        <v>4846.917746852343</v>
+        <v>3012.205728868951</v>
       </c>
       <c r="G91" t="n">
-        <v>3189.873481885058</v>
+        <v>3030.587811835422</v>
       </c>
       <c r="H91" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="I91" t="n">
-        <v>294636</v>
+        <v>297326</v>
       </c>
     </row>
     <row r="92">
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>900494</v>
+        <v>913316</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
@@ -3645,10 +3645,10 @@
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>4.83</v>
+        <v>4.49</v>
       </c>
       <c r="I92" t="n">
-        <v>60330</v>
+        <v>52692</v>
       </c>
     </row>
     <row r="93">
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>140410</v>
+        <v>133284</v>
       </c>
       <c r="F93" t="n">
-        <v>82.3031743209647</v>
+        <v>210.0391830401987</v>
       </c>
       <c r="G93" t="n">
-        <v>6.401276715488814</v>
+        <v>3.20069698909214</v>
       </c>
       <c r="H93" t="n">
-        <v>0.82</v>
+        <v>0.74</v>
       </c>
       <c r="I93" t="n">
-        <v>110512</v>
+        <v>110757</v>
       </c>
     </row>
     <row r="94">
@@ -3699,22 +3699,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>11111548</v>
+        <v>10801410</v>
       </c>
       <c r="E94" t="n">
-        <v>134180948</v>
+        <v>130434321</v>
       </c>
       <c r="F94" t="n">
-        <v>3644.282052389735</v>
+        <v>2477.936144123748</v>
       </c>
       <c r="G94" t="n">
-        <v>2662.11071624716</v>
+        <v>1762.924448423414</v>
       </c>
       <c r="H94" t="n">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="I94" t="n">
-        <v>229104</v>
+        <v>247972</v>
       </c>
     </row>
     <row r="95">
@@ -3734,22 +3734,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>21304022</v>
+        <v>21262528</v>
       </c>
       <c r="E95" t="n">
-        <v>53260054</v>
+        <v>53156321</v>
       </c>
       <c r="F95" t="n">
-        <v>7407.181821465222</v>
+        <v>6900.858372395677</v>
       </c>
       <c r="G95" t="n">
-        <v>8090.258009186871</v>
+        <v>10183.47594298687</v>
       </c>
       <c r="H95" t="n">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="I95" t="n">
-        <v>2060157</v>
+        <v>1952641</v>
       </c>
     </row>
     <row r="96">
@@ -3772,19 +3772,19 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>2325580</v>
+        <v>2343209</v>
       </c>
       <c r="F96" t="n">
-        <v>155.6295486255241</v>
+        <v>200.6034984382347</v>
       </c>
       <c r="G96" t="n">
-        <v>119.5045368943545</v>
+        <v>119.2633095868843</v>
       </c>
       <c r="H96" t="n">
-        <v>1.95</v>
+        <v>2.58</v>
       </c>
       <c r="I96" t="n">
-        <v>71345</v>
+        <v>64641</v>
       </c>
     </row>
     <row r="97">
@@ -3807,19 +3807,19 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>20169242</v>
+        <v>20172248</v>
       </c>
       <c r="F97" t="n">
-        <v>2912.484996808857</v>
+        <v>2909.823943948646</v>
       </c>
       <c r="G97" t="n">
-        <v>1371.111563619721</v>
+        <v>1310.711948336728</v>
       </c>
       <c r="H97" t="n">
         <v>0.99</v>
       </c>
       <c r="I97" t="n">
-        <v>125934</v>
+        <v>121169</v>
       </c>
     </row>
     <row r="98">
@@ -3839,22 +3839,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4045623</v>
+        <v>4178640</v>
       </c>
       <c r="E98" t="n">
-        <v>11652699</v>
+        <v>12035831</v>
       </c>
       <c r="F98" t="n">
-        <v>1261.22663280417</v>
+        <v>394.660456998765</v>
       </c>
       <c r="G98" t="n">
-        <v>442.0509998417462</v>
+        <v>624.4601306637081</v>
       </c>
       <c r="H98" t="n">
-        <v>1.28</v>
+        <v>0.82</v>
       </c>
       <c r="I98" t="n">
-        <v>567800</v>
+        <v>574174</v>
       </c>
     </row>
     <row r="99">
@@ -3877,19 +3877,19 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>1651506</v>
+        <v>1660294</v>
       </c>
       <c r="F99" t="n">
-        <v>57.7446095396609</v>
+        <v>57.81811728894289</v>
       </c>
       <c r="G99" t="n">
-        <v>95.26842277658166</v>
+        <v>54.94772563882253</v>
       </c>
       <c r="H99" t="n">
-        <v>2.63</v>
+        <v>2.13</v>
       </c>
       <c r="I99" t="n">
-        <v>292613</v>
+        <v>290670</v>
       </c>
     </row>
     <row r="100">
@@ -3909,22 +3909,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>80353121</v>
+        <v>80333456</v>
       </c>
       <c r="E100" t="n">
-        <v>102255592</v>
+        <v>102230566</v>
       </c>
       <c r="F100" t="n">
-        <v>10524.57829681355</v>
+        <v>5667.224409295593</v>
       </c>
       <c r="G100" t="n">
-        <v>7227.031647727915</v>
+        <v>13741.50884256527</v>
       </c>
       <c r="H100" t="n">
-        <v>0.85</v>
+        <v>0.61</v>
       </c>
       <c r="I100" t="n">
-        <v>6165184</v>
+        <v>6193420</v>
       </c>
     </row>
     <row r="101">
@@ -3944,22 +3944,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>22374964</v>
+        <v>22403314</v>
       </c>
       <c r="E101" t="n">
-        <v>29025447</v>
+        <v>29062223</v>
       </c>
       <c r="F101" t="n">
-        <v>7621.225588515137</v>
+        <v>7448.996568538605</v>
       </c>
       <c r="G101" t="n">
-        <v>7923.364365281394</v>
+        <v>7624.29164285847</v>
       </c>
       <c r="H101" t="n">
-        <v>0.67</v>
+        <v>0.72</v>
       </c>
       <c r="I101" t="n">
-        <v>162460</v>
+        <v>154907</v>
       </c>
     </row>
     <row r="102">
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>1704700</v>
+        <v>1633897</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>7.43</v>
+        <v>4.68</v>
       </c>
       <c r="I102" t="n">
-        <v>12613.25</v>
+        <v>12461.17</v>
       </c>
     </row>
     <row r="103">
@@ -4014,22 +4014,22 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>621800</v>
+        <v>618813</v>
       </c>
       <c r="E103" t="n">
-        <v>621800</v>
+        <v>618813</v>
       </c>
       <c r="F103" t="n">
-        <v>55.59055844083457</v>
+        <v>57.56651882502666</v>
       </c>
       <c r="G103" t="n">
-        <v>41.20522046939341</v>
+        <v>296.6722903062483</v>
       </c>
       <c r="H103" t="n">
-        <v>3.72</v>
+        <v>3.4</v>
       </c>
       <c r="I103" t="n">
-        <v>78695</v>
+        <v>77680</v>
       </c>
     </row>
     <row r="104">
@@ -4049,22 +4049,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>40360459</v>
+        <v>40255259</v>
       </c>
       <c r="E104" t="n">
-        <v>42191111</v>
+        <v>42081140</v>
       </c>
       <c r="F104" t="n">
-        <v>438.1393870453992</v>
+        <v>356.8271635494259</v>
       </c>
       <c r="G104" t="n">
-        <v>163.114422641928</v>
+        <v>946.4278312286184</v>
       </c>
       <c r="H104" t="n">
-        <v>0.72</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I104" t="n">
-        <v>748208</v>
+        <v>759144</v>
       </c>
     </row>
     <row r="105">
@@ -4084,22 +4084,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>14113961</v>
+        <v>14138725</v>
       </c>
       <c r="E105" t="n">
-        <v>14113961</v>
+        <v>14138725</v>
       </c>
       <c r="F105" t="n">
-        <v>2041.514580923431</v>
+        <v>2677.837738891581</v>
       </c>
       <c r="G105" t="n">
-        <v>3499.000568055188</v>
+        <v>3325.321240468891</v>
       </c>
       <c r="H105" t="n">
         <v>0.24</v>
       </c>
       <c r="I105" t="n">
-        <v>4511923</v>
+        <v>4558414</v>
       </c>
     </row>
     <row r="106">
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>1086238</v>
+        <v>1147696</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -4131,10 +4131,10 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>4.39</v>
+        <v>5.79</v>
       </c>
       <c r="I106" t="n">
-        <v>3098.28</v>
+        <v>4430.27</v>
       </c>
     </row>
     <row r="107">
@@ -4154,22 +4154,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>53056599</v>
+        <v>52439793</v>
       </c>
       <c r="E107" t="n">
-        <v>135164718</v>
+        <v>133593370</v>
       </c>
       <c r="F107" t="n">
-        <v>2285.818797098963</v>
+        <v>2272.118327672473</v>
       </c>
       <c r="G107" t="n">
-        <v>3717.021997048133</v>
+        <v>3925.249028420311</v>
       </c>
       <c r="H107" t="n">
         <v>0.17</v>
       </c>
       <c r="I107" t="n">
-        <v>2450361</v>
+        <v>2485721</v>
       </c>
     </row>
     <row r="108">
@@ -4189,22 +4189,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>13932234</v>
+        <v>13974490</v>
       </c>
       <c r="E108" t="n">
-        <v>67476035</v>
+        <v>67680687</v>
       </c>
       <c r="F108" t="n">
-        <v>6067.726147255624</v>
+        <v>7766.295400254757</v>
       </c>
       <c r="G108" t="n">
-        <v>11955.23602670815</v>
+        <v>11264.71054880107</v>
       </c>
       <c r="H108" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="I108" t="n">
-        <v>3613566</v>
+        <v>3631051</v>
       </c>
     </row>
     <row r="109">
@@ -4227,19 +4227,19 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>516285</v>
+        <v>514654</v>
       </c>
       <c r="F109" t="n">
-        <v>227.9315599798453</v>
+        <v>219.1347983101434</v>
       </c>
       <c r="G109" t="n">
-        <v>21.45597882068525</v>
+        <v>16.06987334001429</v>
       </c>
       <c r="H109" t="n">
-        <v>1.67</v>
+        <v>0.79</v>
       </c>
       <c r="I109" t="n">
-        <v>8022.58</v>
+        <v>8086.62</v>
       </c>
     </row>
     <row r="110">
@@ -4259,22 +4259,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>4539025</v>
+        <v>4561768</v>
       </c>
       <c r="E110" t="n">
-        <v>10346507</v>
+        <v>10398349</v>
       </c>
       <c r="F110" t="n">
-        <v>985.642623194751</v>
+        <v>1756.781687993943</v>
       </c>
       <c r="G110" t="n">
-        <v>1079.740225272187</v>
+        <v>1664.408845054792</v>
       </c>
       <c r="H110" t="n">
         <v>0.86</v>
       </c>
       <c r="I110" t="n">
-        <v>93225</v>
+        <v>89536</v>
       </c>
     </row>
     <row r="111">
@@ -4297,19 +4297,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>1884120105</v>
+        <v>1891861931</v>
       </c>
       <c r="F111" t="n">
-        <v>57172.29427679579</v>
+        <v>49338.99081290991</v>
       </c>
       <c r="G111" t="n">
-        <v>51299.05206351569</v>
+        <v>51004.89806018603</v>
       </c>
       <c r="H111" t="n">
-        <v>0.02</v>
+        <v>0.18</v>
       </c>
       <c r="I111" t="n">
-        <v>25866099</v>
+        <v>25862975</v>
       </c>
     </row>
     <row r="112">
@@ -4329,22 +4329,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>9381325</v>
+        <v>9389359</v>
       </c>
       <c r="E112" t="n">
-        <v>34160309</v>
+        <v>34189464</v>
       </c>
       <c r="F112" t="n">
-        <v>483.2239566783835</v>
+        <v>486.9095983463567</v>
       </c>
       <c r="G112" t="n">
-        <v>382.9908016617191</v>
+        <v>379.1250487354917</v>
       </c>
       <c r="H112" t="n">
         <v>0.87</v>
       </c>
       <c r="I112" t="n">
-        <v>159827</v>
+        <v>158987</v>
       </c>
     </row>
     <row r="113">
@@ -4367,19 +4367,19 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>540172</v>
+        <v>541370</v>
       </c>
       <c r="F113" t="n">
-        <v>39.74020737039458</v>
+        <v>20.56424268787087</v>
       </c>
       <c r="G113" t="n">
-        <v>180.5429340510294</v>
+        <v>79.0177181113377</v>
       </c>
       <c r="H113" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="I113" t="n">
-        <v>19586.31</v>
+        <v>19327.45</v>
       </c>
     </row>
     <row r="114">
@@ -4399,22 +4399,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>12163026</v>
+        <v>12196756</v>
       </c>
       <c r="E114" t="n">
-        <v>17634632</v>
+        <v>17683537</v>
       </c>
       <c r="F114" t="n">
-        <v>2751.777761749963</v>
+        <v>2861.776083589138</v>
       </c>
       <c r="G114" t="n">
-        <v>2880.346695794701</v>
+        <v>2776.393073962176</v>
       </c>
       <c r="H114" t="n">
-        <v>0.68</v>
+        <v>0.73</v>
       </c>
       <c r="I114" t="n">
-        <v>2166697</v>
+        <v>2108962</v>
       </c>
     </row>
     <row r="115">
@@ -4434,22 +4434,22 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>2068869</v>
+        <v>2053023</v>
       </c>
       <c r="E115" t="n">
-        <v>14835654</v>
+        <v>14722022</v>
       </c>
       <c r="F115" t="n">
-        <v>363.0596082550028</v>
+        <v>651.1532120625234</v>
       </c>
       <c r="G115" t="n">
-        <v>1018.23936972555</v>
+        <v>533.5021161864374</v>
       </c>
       <c r="H115" t="n">
-        <v>2.19</v>
+        <v>2.13</v>
       </c>
       <c r="I115" t="n">
-        <v>1934690</v>
+        <v>1933088</v>
       </c>
     </row>
     <row r="116">
@@ -4469,10 +4469,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2745951</v>
+        <v>2752672</v>
       </c>
       <c r="E116" t="n">
-        <v>5550828</v>
+        <v>5564415</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>4762.1</v>
+        <v>4767.29</v>
       </c>
     </row>
     <row r="117">
@@ -4502,22 +4502,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>201898937</v>
+        <v>203473180</v>
       </c>
       <c r="E117" t="n">
-        <v>1143275837</v>
+        <v>1152190166</v>
       </c>
       <c r="F117" t="n">
-        <v>388985.7742584586</v>
+        <v>316247.8634851158</v>
       </c>
       <c r="G117" t="n">
-        <v>466700.1863600474</v>
+        <v>534445.2542307023</v>
       </c>
       <c r="H117" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I117" t="n">
-        <v>63124589</v>
+        <v>63596853</v>
       </c>
     </row>
     <row r="118">
@@ -4537,22 +4537,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>691235</v>
+        <v>687557</v>
       </c>
       <c r="E118" t="n">
-        <v>2292033</v>
+        <v>2279838</v>
       </c>
       <c r="F118" t="n">
-        <v>4058.496810848505</v>
+        <v>8439.152341051016</v>
       </c>
       <c r="G118" t="n">
-        <v>8184.728820305424</v>
+        <v>7822.749006690743</v>
       </c>
       <c r="H118" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="I118" t="n">
-        <v>24768</v>
+        <v>24707</v>
       </c>
     </row>
     <row r="119">
@@ -4572,22 +4572,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2781194</v>
+        <v>2783530</v>
       </c>
       <c r="E119" t="n">
-        <v>9847035</v>
+        <v>9855305</v>
       </c>
       <c r="F119" t="n">
-        <v>280.4127073783601</v>
+        <v>322.6854731663079</v>
       </c>
       <c r="G119" t="n">
-        <v>1686.850489831812</v>
+        <v>1518.134702613078</v>
       </c>
       <c r="H119" t="n">
-        <v>1.62</v>
+        <v>1.29</v>
       </c>
       <c r="I119" t="n">
-        <v>8822.440000000001</v>
+        <v>8827.290000000001</v>
       </c>
     </row>
     <row r="120">
@@ -4607,10 +4607,10 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1044162</v>
+        <v>1042827</v>
       </c>
       <c r="E120" t="n">
-        <v>1044162</v>
+        <v>1042827</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
@@ -4619,10 +4619,10 @@
         <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>9.029999999999999</v>
+        <v>11.08</v>
       </c>
       <c r="I120" t="n">
-        <v>12325.32</v>
+        <v>11922.45</v>
       </c>
     </row>
     <row r="121">
@@ -4642,22 +4642,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>502746</v>
+        <v>506409</v>
       </c>
       <c r="E121" t="n">
-        <v>1692173</v>
+        <v>1704503</v>
       </c>
       <c r="F121" t="n">
-        <v>438.745054980731</v>
+        <v>467.4465190177816</v>
       </c>
       <c r="G121" t="n">
-        <v>645.45479815819</v>
+        <v>666.2299404914227</v>
       </c>
       <c r="H121" t="n">
         <v>0.76</v>
       </c>
       <c r="I121" t="n">
-        <v>630084</v>
+        <v>628632</v>
       </c>
     </row>
     <row r="122">
@@ -4677,22 +4677,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>453156</v>
+        <v>453199</v>
       </c>
       <c r="E122" t="n">
-        <v>840692</v>
+        <v>840772</v>
       </c>
       <c r="F122" t="n">
-        <v>4.45465035790405</v>
+        <v>12.50899138350908</v>
       </c>
       <c r="G122" t="n">
-        <v>3.497183800867149</v>
+        <v>3.497253175995067</v>
       </c>
       <c r="H122" t="n">
-        <v>2.3</v>
+        <v>3.41</v>
       </c>
       <c r="I122" t="n">
-        <v>210079</v>
+        <v>208124</v>
       </c>
     </row>
     <row r="123">
@@ -4715,19 +4715,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>11821488</v>
+        <v>11819209</v>
       </c>
       <c r="F123" t="n">
-        <v>57.33036192094209</v>
+        <v>106.4920193282906</v>
       </c>
       <c r="G123" t="n">
-        <v>154.6237571441069</v>
+        <v>145.4309261019638</v>
       </c>
       <c r="H123" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="I123" t="n">
-        <v>7707.82</v>
+        <v>7685.61</v>
       </c>
     </row>
     <row r="124">
@@ -4750,19 +4750,19 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>1245430</v>
+        <v>1242433</v>
       </c>
       <c r="F124" t="n">
-        <v>107.553492705238</v>
+        <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>14.02243055276158</v>
+        <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>1.39</v>
+        <v>5.8</v>
       </c>
       <c r="I124" t="n">
-        <v>49031</v>
+        <v>48944</v>
       </c>
     </row>
     <row r="125">
@@ -4782,22 +4782,22 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3447619</v>
+        <v>3419051</v>
       </c>
       <c r="E125" t="n">
-        <v>8050765</v>
+        <v>7984053</v>
       </c>
       <c r="F125" t="n">
-        <v>916.7886450347693</v>
+        <v>860.4577615481744</v>
       </c>
       <c r="G125" t="n">
-        <v>1821.007584871685</v>
+        <v>1285.711860804209</v>
       </c>
       <c r="H125" t="n">
-        <v>0.91</v>
+        <v>1.26</v>
       </c>
       <c r="I125" t="n">
-        <v>777601</v>
+        <v>780281</v>
       </c>
     </row>
     <row r="126">
@@ -4817,22 +4817,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>260182</v>
+        <v>258955</v>
       </c>
       <c r="E126" t="n">
-        <v>2296300</v>
+        <v>2285472</v>
       </c>
       <c r="F126" t="n">
-        <v>77.71340136673528</v>
+        <v>11.04949462997214</v>
       </c>
       <c r="G126" t="n">
-        <v>10.71031434095174</v>
+        <v>134.6510301850795</v>
       </c>
       <c r="H126" t="n">
-        <v>3.61</v>
+        <v>3.2</v>
       </c>
       <c r="I126" t="n">
-        <v>73038</v>
+        <v>71866</v>
       </c>
     </row>
     <row r="127">
@@ -4855,19 +4855,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>644677</v>
+        <v>645281</v>
       </c>
       <c r="F127" t="n">
-        <v>589.9930198773209</v>
+        <v>590.0047238207095</v>
       </c>
       <c r="G127" t="n">
-        <v>472.8184085067116</v>
+        <v>472.8277880073156</v>
       </c>
       <c r="H127" t="n">
         <v>1.9</v>
       </c>
       <c r="I127" t="n">
-        <v>5663.15</v>
+        <v>5679.43</v>
       </c>
     </row>
     <row r="128">
@@ -4887,22 +4887,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>4928095</v>
+        <v>4914978</v>
       </c>
       <c r="E128" t="n">
-        <v>17414248</v>
+        <v>17366905</v>
       </c>
       <c r="F128" t="n">
-        <v>1643.705685245779</v>
+        <v>1634.06292945802</v>
       </c>
       <c r="G128" t="n">
-        <v>1932.404364005045</v>
+        <v>1842.357740581114</v>
       </c>
       <c r="H128" t="n">
         <v>0.75</v>
       </c>
       <c r="I128" t="n">
-        <v>105384</v>
+        <v>102004</v>
       </c>
     </row>
     <row r="129">
@@ -4925,19 +4925,19 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2181197</v>
+        <v>2199714</v>
       </c>
       <c r="F129" t="n">
-        <v>42.65274916741558</v>
+        <v>165.6223274341945</v>
       </c>
       <c r="G129" t="n">
-        <v>85.9926830917978</v>
+        <v>43.63415722723443</v>
       </c>
       <c r="H129" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="I129" t="n">
-        <v>8576.32</v>
+        <v>8743.719999999999</v>
       </c>
     </row>
     <row r="130">
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>2505654</v>
+        <v>2509991</v>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
@@ -4970,7 +4970,7 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>2447.08</v>
+        <v>2449.55</v>
       </c>
     </row>
     <row r="131">
@@ -4990,22 +4990,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>79682</v>
+        <v>79715</v>
       </c>
       <c r="E131" t="n">
-        <v>79682</v>
+        <v>79715</v>
       </c>
       <c r="F131" t="n">
-        <v>15.31408942309903</v>
+        <v>15.31308732465359</v>
       </c>
       <c r="G131" t="n">
-        <v>6.331597573086514</v>
+        <v>6.331723175690372</v>
       </c>
       <c r="H131" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="I131" t="n">
-        <v>19662.04</v>
+        <v>19039.13</v>
       </c>
     </row>
     <row r="132">
@@ -5028,19 +5028,19 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>4407565</v>
+        <v>4388233</v>
       </c>
       <c r="F132" t="n">
-        <v>513.188671775332</v>
+        <v>445.0600483167495</v>
       </c>
       <c r="G132" t="n">
-        <v>311.8590208521321</v>
+        <v>311.0559619387664</v>
       </c>
       <c r="H132" t="n">
-        <v>0.43</v>
+        <v>0.24</v>
       </c>
       <c r="I132" t="n">
-        <v>277165</v>
+        <v>275946</v>
       </c>
     </row>
     <row r="133">
@@ -5060,22 +5060,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2146584</v>
+        <v>2154266</v>
       </c>
       <c r="E133" t="n">
-        <v>8766094</v>
+        <v>8797463</v>
       </c>
       <c r="F133" t="n">
-        <v>508.3732333737683</v>
+        <v>639.7579974527937</v>
       </c>
       <c r="G133" t="n">
-        <v>439.9163906042399</v>
+        <v>504.3877822414034</v>
       </c>
       <c r="H133" t="n">
-        <v>0.97</v>
+        <v>0.1</v>
       </c>
       <c r="I133" t="n">
-        <v>564355</v>
+        <v>557497</v>
       </c>
     </row>
     <row r="134">
@@ -5095,22 +5095,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>7326890</v>
+        <v>7517731</v>
       </c>
       <c r="E134" t="n">
-        <v>7381353</v>
+        <v>7573612</v>
       </c>
       <c r="F134" t="n">
-        <v>349392.837587558</v>
+        <v>253901.6790920267</v>
       </c>
       <c r="G134" t="n">
-        <v>301982.0187792122</v>
+        <v>357181.6544050765</v>
       </c>
       <c r="H134" t="n">
-        <v>0.28</v>
+        <v>0.22</v>
       </c>
       <c r="I134" t="n">
-        <v>5021262</v>
+        <v>4879733</v>
       </c>
     </row>
     <row r="135">
@@ -5130,22 +5130,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>13643912</v>
+        <v>13627115</v>
       </c>
       <c r="E135" t="n">
-        <v>13690344</v>
+        <v>13673490</v>
       </c>
       <c r="F135" t="n">
-        <v>13098.79728414484</v>
+        <v>16929.83270912223</v>
       </c>
       <c r="G135" t="n">
-        <v>15219.69714379712</v>
+        <v>13211.3240250739</v>
       </c>
       <c r="H135" t="n">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="I135" t="n">
-        <v>5837902</v>
+        <v>5867084</v>
       </c>
     </row>
     <row r="136">
@@ -5165,22 +5165,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>42885557</v>
+        <v>42873956</v>
       </c>
       <c r="E136" t="n">
-        <v>72809698</v>
+        <v>72790002</v>
       </c>
       <c r="F136" t="n">
-        <v>1103.915863832918</v>
+        <v>1026.753177622769</v>
       </c>
       <c r="G136" t="n">
-        <v>803.2579250893782</v>
+        <v>756.4856102670458</v>
       </c>
       <c r="H136" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="I136" t="n">
-        <v>1098468</v>
+        <v>1092369</v>
       </c>
     </row>
     <row r="137">
@@ -5200,22 +5200,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>24419065</v>
+        <v>24666655</v>
       </c>
       <c r="E137" t="n">
-        <v>73195482</v>
+        <v>73937624</v>
       </c>
       <c r="F137" t="n">
-        <v>82336.04215423872</v>
+        <v>58408.03845272621</v>
       </c>
       <c r="G137" t="n">
-        <v>82883.625798585</v>
+        <v>89646.1117285801</v>
       </c>
       <c r="H137" t="n">
-        <v>0.28</v>
+        <v>0.11</v>
       </c>
       <c r="I137" t="n">
-        <v>2685593</v>
+        <v>2725175</v>
       </c>
     </row>
     <row r="138">
@@ -5235,22 +5235,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>101222856</v>
+        <v>101326383</v>
       </c>
       <c r="E138" t="n">
-        <v>107609043</v>
+        <v>107719103</v>
       </c>
       <c r="F138" t="n">
-        <v>6510.729849388796</v>
+        <v>7587.020648617461</v>
       </c>
       <c r="G138" t="n">
-        <v>11681.54221299913</v>
+        <v>11473.84720763003</v>
       </c>
       <c r="H138" t="n">
-        <v>0.52</v>
+        <v>0.44</v>
       </c>
       <c r="I138" t="n">
-        <v>901267</v>
+        <v>861007</v>
       </c>
     </row>
     <row r="139">
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1161838</v>
+        <v>1161601</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -5282,10 +5282,10 @@
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>5.51</v>
+        <v>5.44</v>
       </c>
       <c r="I139" t="n">
-        <v>136.42</v>
+        <v>136.35</v>
       </c>
     </row>
     <row r="140">
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>258652</v>
+        <v>258712</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -5317,10 +5317,10 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>7.9</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="I140" t="n">
-        <v>465.55</v>
+        <v>465.53</v>
       </c>
     </row>
     <row r="141">
@@ -5336,10 +5336,10 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>97024</v>
+        <v>97056</v>
       </c>
       <c r="E141" t="n">
-        <v>275234</v>
+        <v>275326</v>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
@@ -5369,22 +5369,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>46781247</v>
+        <v>47183072</v>
       </c>
       <c r="E142" t="n">
-        <v>201528498</v>
+        <v>203259515</v>
       </c>
       <c r="F142" t="n">
-        <v>71587.87144194795</v>
+        <v>64757.4005344019</v>
       </c>
       <c r="G142" t="n">
-        <v>68627.98878599466</v>
+        <v>77065.19682752959</v>
       </c>
       <c r="H142" t="n">
         <v>0.1</v>
       </c>
       <c r="I142" t="n">
-        <v>8616209</v>
+        <v>8746096</v>
       </c>
     </row>
     <row r="143">
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>280513</v>
+        <v>280512</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -5416,10 +5416,10 @@
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>9.4</v>
+        <v>9.73</v>
       </c>
       <c r="I143" t="n">
-        <v>208649</v>
+        <v>208591</v>
       </c>
     </row>
     <row r="144">
@@ -5442,19 +5442,19 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>9452976</v>
+        <v>9485774</v>
       </c>
       <c r="F144" t="n">
-        <v>1235.516611718451</v>
+        <v>1247.443724934253</v>
       </c>
       <c r="G144" t="n">
-        <v>347.4568711694844</v>
+        <v>353.0588345820131</v>
       </c>
       <c r="H144" t="n">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="I144" t="n">
-        <v>121600</v>
+        <v>121533</v>
       </c>
     </row>
     <row r="145">
@@ -5474,22 +5474,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1178823</v>
+        <v>1179693</v>
       </c>
       <c r="E145" t="n">
-        <v>7858821</v>
+        <v>7864622</v>
       </c>
       <c r="F145" t="n">
-        <v>85.48917512200404</v>
+        <v>85.49087100726413</v>
       </c>
       <c r="G145" t="n">
-        <v>101.2676343124594</v>
+        <v>101.2696432017498</v>
       </c>
       <c r="H145" t="n">
         <v>0.53</v>
       </c>
       <c r="I145" t="n">
-        <v>4945.07</v>
+        <v>4923.64</v>
       </c>
     </row>
     <row r="146">
@@ -5512,19 +5512,19 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>7895709</v>
+        <v>7876235</v>
       </c>
       <c r="F146" t="n">
-        <v>205.5649714178508</v>
+        <v>164.1683557715891</v>
       </c>
       <c r="G146" t="n">
-        <v>196.5869357710108</v>
+        <v>316.6841218907839</v>
       </c>
       <c r="H146" t="n">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="I146" t="n">
-        <v>6282382</v>
+        <v>6302465</v>
       </c>
     </row>
     <row r="147">
@@ -5544,22 +5544,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>664780</v>
+        <v>664655</v>
       </c>
       <c r="E147" t="n">
-        <v>2400259</v>
+        <v>2399807</v>
       </c>
       <c r="F147" t="n">
-        <v>10.08979887635816</v>
+        <v>10.08999903200556</v>
       </c>
       <c r="G147" t="n">
-        <v>284.2743783526178</v>
+        <v>290.4124547272321</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="I147" t="n">
-        <v>401614</v>
+        <v>404970</v>
       </c>
     </row>
     <row r="148">
@@ -5582,19 +5582,19 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>1677646</v>
+        <v>1675498</v>
       </c>
       <c r="F148" t="n">
-        <v>38.25847365614136</v>
+        <v>38.39062520206376</v>
       </c>
       <c r="G148" t="n">
-        <v>14.24470878358296</v>
+        <v>1154.286062474871</v>
       </c>
       <c r="H148" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="I148" t="n">
-        <v>88323</v>
+        <v>89863</v>
       </c>
     </row>
     <row r="149">
@@ -5617,19 +5617,19 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>65136</v>
+        <v>65151</v>
       </c>
       <c r="F149" t="n">
-        <v>63.79051546944692</v>
+        <v>63.79177996386916</v>
       </c>
       <c r="G149" t="n">
-        <v>69.60858327154492</v>
+        <v>69.60996309524818</v>
       </c>
       <c r="H149" t="n">
         <v>3.12</v>
       </c>
       <c r="I149" t="n">
-        <v>874.95</v>
+        <v>874.5</v>
       </c>
     </row>
     <row r="150">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>12908902</v>
+        <v>12974279</v>
       </c>
       <c r="E150" t="n">
-        <v>12908902</v>
+        <v>12974279</v>
       </c>
       <c r="F150" t="n">
-        <v>685.1771961790281</v>
+        <v>581.8401714210405</v>
       </c>
       <c r="G150" t="n">
-        <v>751.0606604823503</v>
+        <v>1012.344392184895</v>
       </c>
       <c r="H150" t="n">
-        <v>0.54</v>
+        <v>0.31</v>
       </c>
       <c r="I150" t="n">
-        <v>3167626</v>
+        <v>3291514</v>
       </c>
     </row>
     <row r="151">
@@ -5684,22 +5684,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1670289</v>
+        <v>1658179</v>
       </c>
       <c r="E151" t="n">
-        <v>6069451</v>
+        <v>6025421</v>
       </c>
       <c r="F151" t="n">
-        <v>25.78919489247798</v>
+        <v>1.05827147664923</v>
       </c>
       <c r="G151" t="n">
-        <v>16.43606182178734</v>
+        <v>31.98578397683038</v>
       </c>
       <c r="H151" t="n">
-        <v>3.38</v>
+        <v>1.72</v>
       </c>
       <c r="I151" t="n">
-        <v>128884</v>
+        <v>127821</v>
       </c>
     </row>
     <row r="152">
@@ -5719,10 +5719,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1249332</v>
+        <v>1255976</v>
       </c>
       <c r="E152" t="n">
-        <v>1249332</v>
+        <v>1255976</v>
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>643.9400000000001</v>
+        <v>647.36</v>
       </c>
     </row>
     <row r="153">
@@ -5752,22 +5752,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>23701816</v>
+        <v>23669677</v>
       </c>
       <c r="E153" t="n">
-        <v>27327608</v>
+        <v>27290552</v>
       </c>
       <c r="F153" t="n">
-        <v>312.2210709215762</v>
+        <v>174.6656522760966</v>
       </c>
       <c r="G153" t="n">
-        <v>560.8338422647874</v>
+        <v>558.4576087790206</v>
       </c>
       <c r="H153" t="n">
-        <v>0.04</v>
+        <v>0.18</v>
       </c>
       <c r="I153" t="n">
-        <v>782256</v>
+        <v>762113</v>
       </c>
     </row>
     <row r="154">
@@ -5787,22 +5787,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2451446</v>
+        <v>2451928</v>
       </c>
       <c r="E154" t="n">
-        <v>18446963</v>
+        <v>18450593</v>
       </c>
       <c r="F154" t="n">
-        <v>4547.074265761136</v>
+        <v>4800.385915477286</v>
       </c>
       <c r="G154" t="n">
-        <v>3293.440928547996</v>
+        <v>3133.145109181023</v>
       </c>
       <c r="H154" t="n">
         <v>0.05</v>
       </c>
       <c r="I154" t="n">
-        <v>162272</v>
+        <v>161879</v>
       </c>
     </row>
     <row r="155">
@@ -5822,22 +5822,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>21061348</v>
+        <v>20817886</v>
       </c>
       <c r="E155" t="n">
-        <v>84245391</v>
+        <v>83271542</v>
       </c>
       <c r="F155" t="n">
-        <v>4334.171162568248</v>
+        <v>5723.550244357991</v>
       </c>
       <c r="G155" t="n">
-        <v>7135.304697728586</v>
+        <v>9108.953527309701</v>
       </c>
       <c r="H155" t="n">
-        <v>0.95</v>
+        <v>0.6</v>
       </c>
       <c r="I155" t="n">
-        <v>6091156</v>
+        <v>5972902</v>
       </c>
     </row>
     <row r="156">
@@ -5857,22 +5857,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>300932263</v>
+        <v>304353513</v>
       </c>
       <c r="E156" t="n">
-        <v>300932263</v>
+        <v>304353513</v>
       </c>
       <c r="F156" t="n">
-        <v>382089.9245445255</v>
+        <v>277354.9358412551</v>
       </c>
       <c r="G156" t="n">
-        <v>306142.2123810704</v>
+        <v>401035.98561498</v>
       </c>
       <c r="H156" t="n">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="I156" t="n">
-        <v>12539150</v>
+        <v>12638667</v>
       </c>
     </row>
     <row r="157">
@@ -5892,22 +5892,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>12770450</v>
+        <v>12788656</v>
       </c>
       <c r="E157" t="n">
-        <v>40401557</v>
+        <v>40459155</v>
       </c>
       <c r="F157" t="n">
-        <v>9350.884031360711</v>
+        <v>10158.15915216694</v>
       </c>
       <c r="G157" t="n">
-        <v>23391.24706743522</v>
+        <v>18057.87669993572</v>
       </c>
       <c r="H157" t="n">
-        <v>0.47</v>
+        <v>0.3</v>
       </c>
       <c r="I157" t="n">
-        <v>1400084</v>
+        <v>1395065</v>
       </c>
     </row>
     <row r="158">
@@ -5927,10 +5927,10 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1088142</v>
+        <v>1088271</v>
       </c>
       <c r="E158" t="n">
-        <v>2478351</v>
+        <v>2478643</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -5939,10 +5939,10 @@
         <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>5.98</v>
+        <v>6.77</v>
       </c>
       <c r="I158" t="n">
-        <v>4844.38</v>
+        <v>5005.44</v>
       </c>
     </row>
     <row r="159">
@@ -5962,22 +5962,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>17056526</v>
+        <v>17092696</v>
       </c>
       <c r="E159" t="n">
-        <v>17056526</v>
+        <v>17092696</v>
       </c>
       <c r="F159" t="n">
-        <v>14999.94515558856</v>
+        <v>13162.70362422929</v>
       </c>
       <c r="G159" t="n">
-        <v>20992.15667581979</v>
+        <v>23402.17748827335</v>
       </c>
       <c r="H159" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="I159" t="n">
-        <v>2471101</v>
+        <v>3501174</v>
       </c>
     </row>
     <row r="160">
@@ -5997,10 +5997,10 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>4863876</v>
+        <v>4864997</v>
       </c>
       <c r="E160" t="n">
-        <v>8954915</v>
+        <v>8956979</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -6012,7 +6012,7 @@
         <v>10</v>
       </c>
       <c r="I160" t="n">
-        <v>12.49</v>
+        <v>12.48</v>
       </c>
     </row>
     <row r="161">
@@ -6032,10 +6032,10 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>109182</v>
+        <v>109070</v>
       </c>
       <c r="E161" t="n">
-        <v>131420</v>
+        <v>131276</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -6044,10 +6044,10 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>6.78</v>
+        <v>7.35</v>
       </c>
       <c r="I161" t="n">
-        <v>4366.19</v>
+        <v>4352.45</v>
       </c>
     </row>
     <row r="162">
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>19509096</v>
+        <v>19509347</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -6079,10 +6079,10 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>5.69</v>
+        <v>4.87</v>
       </c>
       <c r="I162" t="n">
-        <v>1329.05</v>
+        <v>1329.65</v>
       </c>
     </row>
     <row r="163">
@@ -6102,22 +6102,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>434918</v>
+        <v>437529</v>
       </c>
       <c r="E163" t="n">
-        <v>547834</v>
+        <v>551123</v>
       </c>
       <c r="F163" t="n">
-        <v>171.3757518084088</v>
+        <v>214.1002551919072</v>
       </c>
       <c r="G163" t="n">
-        <v>107.6579518067594</v>
+        <v>183.9857647477731</v>
       </c>
       <c r="H163" t="n">
-        <v>1.09</v>
+        <v>1.44</v>
       </c>
       <c r="I163" t="n">
-        <v>189838</v>
+        <v>190033</v>
       </c>
     </row>
     <row r="164">
@@ -6140,19 +6140,19 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>108460</v>
+        <v>108485</v>
       </c>
       <c r="F164" t="n">
-        <v>149.9704000607979</v>
+        <v>120.5098689871301</v>
       </c>
       <c r="G164" t="n">
-        <v>1.214419578662136</v>
+        <v>1.214443651626153</v>
       </c>
       <c r="H164" t="n">
-        <v>0.95</v>
+        <v>0.38</v>
       </c>
       <c r="I164" t="n">
-        <v>3713.71</v>
+        <v>3671.78</v>
       </c>
     </row>
     <row r="165">
@@ -6172,22 +6172,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>12208763</v>
+        <v>12419978</v>
       </c>
       <c r="E165" t="n">
-        <v>18606960</v>
+        <v>18928865</v>
       </c>
       <c r="F165" t="n">
-        <v>2047.740470151803</v>
+        <v>688.0566737281848</v>
       </c>
       <c r="G165" t="n">
-        <v>2262.141055350769</v>
+        <v>4113.881670441911</v>
       </c>
       <c r="H165" t="n">
-        <v>0.95</v>
+        <v>1.41</v>
       </c>
       <c r="I165" t="n">
-        <v>687239</v>
+        <v>699084</v>
       </c>
     </row>
     <row r="166">
@@ -6207,22 +6207,22 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>301863140</v>
+        <v>303599416</v>
       </c>
       <c r="E166" t="n">
-        <v>301863140</v>
+        <v>303599416</v>
       </c>
       <c r="F166" t="n">
-        <v>294309.1028766476</v>
+        <v>307386.4276387537</v>
       </c>
       <c r="G166" t="n">
-        <v>351397.954662822</v>
+        <v>363501.9839950695</v>
       </c>
       <c r="H166" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I166" t="n">
-        <v>49989573</v>
+        <v>50575470</v>
       </c>
     </row>
     <row r="167">
@@ -6242,22 +6242,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>9752804</v>
+        <v>10320199</v>
       </c>
       <c r="E167" t="n">
-        <v>27689836</v>
+        <v>29300767</v>
       </c>
       <c r="F167" t="n">
-        <v>129.9436256639547</v>
+        <v>264.9866554210138</v>
       </c>
       <c r="G167" t="n">
-        <v>844.6798917047232</v>
+        <v>581.9631563649126</v>
       </c>
       <c r="H167" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="I167" t="n">
-        <v>112053</v>
+        <v>129357</v>
       </c>
     </row>
     <row r="168">
@@ -6280,19 +6280,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>11908406</v>
+        <v>11902071</v>
       </c>
       <c r="F168" t="n">
-        <v>164.4603061223801</v>
+        <v>164.8625928364284</v>
       </c>
       <c r="G168" t="n">
-        <v>1219.641948719637</v>
+        <v>3384.610535568735</v>
       </c>
       <c r="H168" t="n">
-        <v>1.09</v>
+        <v>1.33</v>
       </c>
       <c r="I168" t="n">
-        <v>109704</v>
+        <v>107295</v>
       </c>
     </row>
     <row r="169">
@@ -6312,22 +6312,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>4222191</v>
+        <v>4234262</v>
       </c>
       <c r="E169" t="n">
-        <v>28849936</v>
+        <v>28932411</v>
       </c>
       <c r="F169" t="n">
-        <v>1099.74200208458</v>
+        <v>1590.572179648336</v>
       </c>
       <c r="G169" t="n">
-        <v>1642.032583245458</v>
+        <v>2516.920490267716</v>
       </c>
       <c r="H169" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="I169" t="n">
-        <v>2579867</v>
+        <v>2565984</v>
       </c>
     </row>
     <row r="170">
@@ -6347,22 +6347,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2869457</v>
+        <v>2872646</v>
       </c>
       <c r="E170" t="n">
-        <v>4258616</v>
+        <v>4263163</v>
       </c>
       <c r="F170" t="n">
-        <v>288.8245752756716</v>
+        <v>277.5739591555397</v>
       </c>
       <c r="G170" t="n">
-        <v>1182.27251417182</v>
+        <v>1588.807326513541</v>
       </c>
       <c r="H170" t="n">
         <v>1.4</v>
       </c>
       <c r="I170" t="n">
-        <v>231796</v>
+        <v>229607</v>
       </c>
     </row>
     <row r="171">
@@ -6382,22 +6382,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>88994127</v>
+        <v>89776982</v>
       </c>
       <c r="E171" t="n">
-        <v>512822544</v>
+        <v>517333694</v>
       </c>
       <c r="F171" t="n">
-        <v>456029.1577143265</v>
+        <v>288671.0086893213</v>
       </c>
       <c r="G171" t="n">
-        <v>262532.4714082027</v>
+        <v>361552.0806410898</v>
       </c>
       <c r="H171" t="n">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="I171" t="n">
-        <v>16031626</v>
+        <v>16055538</v>
       </c>
     </row>
     <row r="172">
@@ -6417,22 +6417,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>13835116</v>
+        <v>13909720</v>
       </c>
       <c r="E172" t="n">
-        <v>13835116</v>
+        <v>13909720</v>
       </c>
       <c r="F172" t="n">
-        <v>4729.560653566734</v>
+        <v>5023.39061797353</v>
       </c>
       <c r="G172" t="n">
-        <v>4953.022426265561</v>
+        <v>4015.339098032265</v>
       </c>
       <c r="H172" t="n">
-        <v>1.55</v>
+        <v>1.22</v>
       </c>
       <c r="I172" t="n">
-        <v>598014</v>
+        <v>604761</v>
       </c>
     </row>
     <row r="173">
@@ -6452,22 +6452,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>6110355</v>
+        <v>6090796</v>
       </c>
       <c r="E173" t="n">
-        <v>17357764</v>
+        <v>17302204</v>
       </c>
       <c r="F173" t="n">
-        <v>1092.714928863798</v>
+        <v>1153.887997463973</v>
       </c>
       <c r="G173" t="n">
-        <v>10452.04315675804</v>
+        <v>10914.9847963152</v>
       </c>
       <c r="H173" t="n">
-        <v>0.52</v>
+        <v>0.12</v>
       </c>
       <c r="I173" t="n">
-        <v>217751</v>
+        <v>217249</v>
       </c>
     </row>
     <row r="174">
@@ -6487,22 +6487,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>17763166</v>
+        <v>17115344</v>
       </c>
       <c r="E174" t="n">
-        <v>17763166</v>
+        <v>17115344</v>
       </c>
       <c r="F174" t="n">
-        <v>209.7862984263352</v>
+        <v>294.3856852320177</v>
       </c>
       <c r="G174" t="n">
-        <v>283.5752428835092</v>
+        <v>283.5808640845652</v>
       </c>
       <c r="H174" t="n">
-        <v>1.57</v>
+        <v>2.49</v>
       </c>
       <c r="I174" t="n">
-        <v>36606</v>
+        <v>79084</v>
       </c>
     </row>
     <row r="175">
@@ -6525,19 +6525,19 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>1321896</v>
+        <v>1332663</v>
       </c>
       <c r="F175" t="n">
-        <v>33.83616293275725</v>
+        <v>33.83683415516516</v>
       </c>
       <c r="G175" t="n">
-        <v>441.3930739949055</v>
+        <v>359.2278555151713</v>
       </c>
       <c r="H175" t="n">
         <v>0.08</v>
       </c>
       <c r="I175" t="n">
-        <v>17479.45</v>
+        <v>4171.98</v>
       </c>
     </row>
     <row r="176">
@@ -6557,10 +6557,10 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>128779</v>
+        <v>128324</v>
       </c>
       <c r="E176" t="n">
-        <v>280350</v>
+        <v>279360</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -6572,7 +6572,7 @@
         <v>7.67</v>
       </c>
       <c r="I176" t="n">
-        <v>47153</v>
+        <v>47602</v>
       </c>
     </row>
     <row r="177">
@@ -6595,19 +6595,19 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>2469468</v>
+        <v>2590594</v>
       </c>
       <c r="F177" t="n">
-        <v>111.3257382349599</v>
+        <v>79.60038993263007</v>
       </c>
       <c r="G177" t="n">
-        <v>97.84844869007691</v>
+        <v>38.91041798148074</v>
       </c>
       <c r="H177" t="n">
-        <v>1.99</v>
+        <v>3.76</v>
       </c>
       <c r="I177" t="n">
-        <v>158918</v>
+        <v>170429</v>
       </c>
     </row>
     <row r="178">
@@ -6627,22 +6627,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>248079598</v>
+        <v>248844952</v>
       </c>
       <c r="E178" t="n">
-        <v>248082062</v>
+        <v>248847424</v>
       </c>
       <c r="F178" t="n">
-        <v>52612.61197164071</v>
+        <v>52622.81549905361</v>
       </c>
       <c r="G178" t="n">
-        <v>68389.49773319722</v>
+        <v>71095.88029060082</v>
       </c>
       <c r="H178" t="n">
-        <v>0.34</v>
+        <v>0.5</v>
       </c>
       <c r="I178" t="n">
-        <v>2704784</v>
+        <v>2708494</v>
       </c>
     </row>
     <row r="179">
@@ -6662,22 +6662,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>9316167</v>
+        <v>9261298</v>
       </c>
       <c r="E179" t="n">
-        <v>9316167</v>
+        <v>9261298</v>
       </c>
       <c r="F179" t="n">
-        <v>1839.908454254787</v>
+        <v>1187.123636624066</v>
       </c>
       <c r="G179" t="n">
-        <v>340.1785705808899</v>
+        <v>299.4874571417045</v>
       </c>
       <c r="H179" t="n">
         <v>0.65</v>
       </c>
       <c r="I179" t="n">
-        <v>2071690</v>
+        <v>2065110</v>
       </c>
     </row>
     <row r="180">
@@ -6697,22 +6697,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>185829</v>
+        <v>190464</v>
       </c>
       <c r="E180" t="n">
-        <v>1434970</v>
+        <v>1470761</v>
       </c>
       <c r="F180" t="n">
-        <v>153.9742433321975</v>
+        <v>89.47986389495698</v>
       </c>
       <c r="G180" t="n">
-        <v>257.4577321187538</v>
+        <v>1.629702001869896</v>
       </c>
       <c r="H180" t="n">
-        <v>2.7</v>
+        <v>1.33</v>
       </c>
       <c r="I180" t="n">
-        <v>115033</v>
+        <v>100369</v>
       </c>
     </row>
     <row r="181">
@@ -6732,22 +6732,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>30554951</v>
+        <v>30550764</v>
       </c>
       <c r="E181" t="n">
-        <v>136807051</v>
+        <v>136788303</v>
       </c>
       <c r="F181" t="n">
-        <v>53073.64113193073</v>
+        <v>62287.93674405114</v>
       </c>
       <c r="G181" t="n">
-        <v>88068.75209550919</v>
+        <v>81271.88049102627</v>
       </c>
       <c r="H181" t="n">
-        <v>0.22</v>
+        <v>0.29</v>
       </c>
       <c r="I181" t="n">
-        <v>8776624</v>
+        <v>8938125</v>
       </c>
     </row>
     <row r="182">
@@ -6770,19 +6770,19 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>1476420</v>
+        <v>1493520</v>
       </c>
       <c r="F182" t="n">
-        <v>226.4343541745456</v>
+        <v>497.0077925152663</v>
       </c>
       <c r="G182" t="n">
-        <v>4884.254386023271</v>
+        <v>281.2855460230587</v>
       </c>
       <c r="H182" t="n">
-        <v>1.3</v>
+        <v>0.91</v>
       </c>
       <c r="I182" t="n">
-        <v>47326</v>
+        <v>27025</v>
       </c>
     </row>
     <row r="183">
@@ -6802,22 +6802,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>3173129</v>
+        <v>3195308</v>
       </c>
       <c r="E183" t="n">
-        <v>3173129</v>
+        <v>3195308</v>
       </c>
       <c r="F183" t="n">
-        <v>225.301021373358</v>
+        <v>525.3760727590749</v>
       </c>
       <c r="G183" t="n">
-        <v>1248.39180727236</v>
+        <v>1088.118106641567</v>
       </c>
       <c r="H183" t="n">
-        <v>2.97</v>
+        <v>1.82</v>
       </c>
       <c r="I183" t="n">
-        <v>419216</v>
+        <v>428550</v>
       </c>
     </row>
     <row r="184">
@@ -6837,22 +6837,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>575855</v>
+        <v>574727</v>
       </c>
       <c r="E184" t="n">
-        <v>575855</v>
+        <v>574727</v>
       </c>
       <c r="F184" t="n">
-        <v>13.56519655166537</v>
+        <v>13.56546544924756</v>
       </c>
       <c r="G184" t="n">
-        <v>25.31144270280428</v>
+        <v>25.31194444162675</v>
       </c>
       <c r="H184" t="n">
         <v>1.75</v>
       </c>
       <c r="I184" t="n">
-        <v>1355817</v>
+        <v>1386876</v>
       </c>
     </row>
     <row r="185">
@@ -6872,22 +6872,22 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>13410128</v>
+        <v>13471883</v>
       </c>
       <c r="E185" t="n">
-        <v>17073234</v>
+        <v>17151858</v>
       </c>
       <c r="F185" t="n">
-        <v>532.7911668177483</v>
+        <v>1727.072016260173</v>
       </c>
       <c r="G185" t="n">
-        <v>1254.569973333214</v>
+        <v>164.4718634813777</v>
       </c>
       <c r="H185" t="n">
-        <v>1.23</v>
+        <v>1.48</v>
       </c>
       <c r="I185" t="n">
-        <v>787979</v>
+        <v>781590</v>
       </c>
     </row>
     <row r="186">
@@ -6907,22 +6907,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1874173</v>
+        <v>1872622</v>
       </c>
       <c r="E186" t="n">
-        <v>1874173</v>
+        <v>1872622</v>
       </c>
       <c r="F186" t="n">
-        <v>5.160814831634409</v>
+        <v>5.365833404952397</v>
       </c>
       <c r="G186" t="n">
-        <v>48.50846032897984</v>
+        <v>22.2545214175021</v>
       </c>
       <c r="H186" t="n">
         <v>3.7</v>
       </c>
       <c r="I186" t="n">
-        <v>2535.6</v>
+        <v>2662.4</v>
       </c>
     </row>
     <row r="187">
@@ -6942,22 +6942,22 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>47612451</v>
+        <v>47735490</v>
       </c>
       <c r="E187" t="n">
-        <v>308754071</v>
+        <v>309551947</v>
       </c>
       <c r="F187" t="n">
-        <v>113713.2809702239</v>
+        <v>153072.0710721417</v>
       </c>
       <c r="G187" t="n">
-        <v>183461.869522305</v>
+        <v>170470.7204539738</v>
       </c>
       <c r="H187" t="n">
         <v>0.05</v>
       </c>
       <c r="I187" t="n">
-        <v>16855626</v>
+        <v>17240464</v>
       </c>
     </row>
     <row r="188">
@@ -6980,19 +6980,19 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>9289548</v>
+        <v>9243309</v>
       </c>
       <c r="F188" t="n">
-        <v>370.0951447007402</v>
+        <v>222.7591008591261</v>
       </c>
       <c r="G188" t="n">
-        <v>160.8667724935597</v>
+        <v>542.0736470407401</v>
       </c>
       <c r="H188" t="n">
-        <v>2.23</v>
+        <v>2.03</v>
       </c>
       <c r="I188" t="n">
-        <v>298653</v>
+        <v>297425</v>
       </c>
     </row>
     <row r="189">
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>7080894</v>
+        <v>7097641</v>
       </c>
       <c r="E189" t="n">
-        <v>7091037</v>
+        <v>7107750</v>
       </c>
       <c r="F189" t="n">
-        <v>65.15214268080075</v>
+        <v>60.28036192806271</v>
       </c>
       <c r="G189" t="n">
-        <v>895.9981847738976</v>
+        <v>620.4918969483261</v>
       </c>
       <c r="H189" t="n">
         <v>0.18</v>
       </c>
       <c r="I189" t="n">
-        <v>939346</v>
+        <v>903602</v>
       </c>
     </row>
     <row r="190">
@@ -7050,19 +7050,19 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>4854133</v>
+        <v>4805589</v>
       </c>
       <c r="F190" t="n">
-        <v>2315.243821592709</v>
+        <v>2269.949124773259</v>
       </c>
       <c r="G190" t="n">
-        <v>263.4189093159225</v>
+        <v>271.7260024975126</v>
       </c>
       <c r="H190" t="n">
-        <v>2.38</v>
+        <v>1.74</v>
       </c>
       <c r="I190" t="n">
-        <v>188825</v>
+        <v>170632</v>
       </c>
     </row>
     <row r="191">
@@ -7082,22 +7082,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>74378228</v>
+        <v>74974567</v>
       </c>
       <c r="E191" t="n">
-        <v>75178861</v>
+        <v>75781619</v>
       </c>
       <c r="F191" t="n">
-        <v>59187.65911050425</v>
+        <v>58419.44073835591</v>
       </c>
       <c r="G191" t="n">
-        <v>60367.59395088194</v>
+        <v>65060.52518921742</v>
       </c>
       <c r="H191" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="I191" t="n">
-        <v>8663727</v>
+        <v>8631059</v>
       </c>
     </row>
     <row r="192">
@@ -7117,22 +7117,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>236098142</v>
+        <v>236070156</v>
       </c>
       <c r="E192" t="n">
-        <v>236098142</v>
+        <v>236070156</v>
       </c>
       <c r="F192" t="n">
-        <v>116401.968178131</v>
+        <v>97854.1035618849</v>
       </c>
       <c r="G192" t="n">
-        <v>107162.7874670327</v>
+        <v>117333.4152357284</v>
       </c>
       <c r="H192" t="n">
         <v>0.08</v>
       </c>
       <c r="I192" t="n">
-        <v>44752622</v>
+        <v>44603821</v>
       </c>
     </row>
     <row r="193">
@@ -7152,22 +7152,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>23418232</v>
+        <v>23518870</v>
       </c>
       <c r="E193" t="n">
-        <v>140115990</v>
+        <v>140718128</v>
       </c>
       <c r="F193" t="n">
-        <v>108376.4128907374</v>
+        <v>95152.94240582387</v>
       </c>
       <c r="G193" t="n">
-        <v>111953.6912699825</v>
+        <v>142030.1748681857</v>
       </c>
       <c r="H193" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I193" t="n">
-        <v>12790604</v>
+        <v>12872817</v>
       </c>
     </row>
     <row r="194">
@@ -7187,22 +7187,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>14447252</v>
+        <v>13305865</v>
       </c>
       <c r="E194" t="n">
-        <v>44333546</v>
+        <v>40831031</v>
       </c>
       <c r="F194" t="n">
-        <v>519.5834515340332</v>
+        <v>764.6884447409781</v>
       </c>
       <c r="G194" t="n">
-        <v>1346.495764548308</v>
+        <v>1022.929275576354</v>
       </c>
       <c r="H194" t="n">
-        <v>0.38</v>
+        <v>0.15</v>
       </c>
       <c r="I194" t="n">
-        <v>2591163</v>
+        <v>2543780</v>
       </c>
     </row>
     <row r="195">
@@ -7222,22 +7222,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>52524498</v>
+        <v>52956022</v>
       </c>
       <c r="E195" t="n">
-        <v>90721227</v>
+        <v>91466563</v>
       </c>
       <c r="F195" t="n">
-        <v>6875.022861227094</v>
+        <v>14240.32135382538</v>
       </c>
       <c r="G195" t="n">
-        <v>14564.2836442531</v>
+        <v>4536.718165000952</v>
       </c>
       <c r="H195" t="n">
-        <v>0.25</v>
+        <v>0.28</v>
       </c>
       <c r="I195" t="n">
-        <v>1978021</v>
+        <v>1936103</v>
       </c>
     </row>
     <row r="196">
@@ -7257,22 +7257,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>4195881</v>
+        <v>4210962</v>
       </c>
       <c r="E196" t="n">
-        <v>4195881</v>
+        <v>4210962</v>
       </c>
       <c r="F196" t="n">
-        <v>1.064298909563168</v>
+        <v>1.06432002251496</v>
       </c>
       <c r="G196" t="n">
-        <v>1103.112842078386</v>
+        <v>1037.577454309355</v>
       </c>
       <c r="H196" t="n">
-        <v>2.29</v>
+        <v>1.13</v>
       </c>
       <c r="I196" t="n">
-        <v>1550338</v>
+        <v>1558723</v>
       </c>
     </row>
     <row r="197">
@@ -7295,19 +7295,19 @@
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>211448</v>
+        <v>208710</v>
       </c>
       <c r="F197" t="n">
-        <v>0</v>
+        <v>124.5838362074409</v>
       </c>
       <c r="G197" t="n">
-        <v>0</v>
+        <v>70.75344652370995</v>
       </c>
       <c r="H197" t="n">
-        <v>4.69</v>
+        <v>2.84</v>
       </c>
       <c r="I197" t="n">
-        <v>58596</v>
+        <v>58034</v>
       </c>
     </row>
     <row r="198">
@@ -7327,22 +7327,22 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>6695600</v>
+        <v>6752691</v>
       </c>
       <c r="E198" t="n">
-        <v>34446830</v>
+        <v>34740544</v>
       </c>
       <c r="F198" t="n">
-        <v>376.1203186686216</v>
+        <v>461.2818446122176</v>
       </c>
       <c r="G198" t="n">
-        <v>323.5723207658063</v>
+        <v>353.562572129416</v>
       </c>
       <c r="H198" t="n">
-        <v>0.58</v>
+        <v>1.09</v>
       </c>
       <c r="I198" t="n">
-        <v>889170</v>
+        <v>894295</v>
       </c>
     </row>
     <row r="199">
@@ -7362,22 +7362,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>175744174</v>
+        <v>175823728</v>
       </c>
       <c r="E199" t="n">
-        <v>205321087</v>
+        <v>205414029</v>
       </c>
       <c r="F199" t="n">
-        <v>23594.53238830753</v>
+        <v>24822.80396349617</v>
       </c>
       <c r="G199" t="n">
-        <v>9256.240884986159</v>
+        <v>17103.36157008172</v>
       </c>
       <c r="H199" t="n">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="I199" t="n">
-        <v>3950632</v>
+        <v>3775655</v>
       </c>
     </row>
     <row r="200">
@@ -7400,19 +7400,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>302036</v>
+        <v>302550</v>
       </c>
       <c r="F200" t="n">
-        <v>14.18488615887615</v>
+        <v>64.18668842025055</v>
       </c>
       <c r="G200" t="n">
-        <v>491.2939527859364</v>
+        <v>571.984822401156</v>
       </c>
       <c r="H200" t="n">
-        <v>0.33</v>
+        <v>2.29</v>
       </c>
       <c r="I200" t="n">
-        <v>279879</v>
+        <v>285608</v>
       </c>
     </row>
     <row r="201">
@@ -7435,19 +7435,19 @@
         <v>0</v>
       </c>
       <c r="E201" t="n">
-        <v>8040529</v>
+        <v>8057917</v>
       </c>
       <c r="F201" t="n">
-        <v>866.2862043206034</v>
+        <v>867.9103903268646</v>
       </c>
       <c r="G201" t="n">
-        <v>647.8159461900385</v>
+        <v>731.0661734617432</v>
       </c>
       <c r="H201" t="n">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="I201" t="n">
-        <v>683064</v>
+        <v>697522</v>
       </c>
     </row>
     <row r="202">
@@ -7470,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>34019</v>
+        <v>34012</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
@@ -7482,7 +7482,7 @@
         <v>5.56</v>
       </c>
       <c r="I202" t="n">
-        <v>753.2</v>
+        <v>752.51</v>
       </c>
     </row>
     <row r="203">
@@ -7502,22 +7502,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>34004784</v>
+        <v>34066306</v>
       </c>
       <c r="E203" t="n">
-        <v>169699548</v>
+        <v>170006573</v>
       </c>
       <c r="F203" t="n">
-        <v>98886.44079263922</v>
+        <v>89885.79678232428</v>
       </c>
       <c r="G203" t="n">
-        <v>103265.6621016636</v>
+        <v>117908.007610771</v>
       </c>
       <c r="H203" t="n">
         <v>0.12</v>
       </c>
       <c r="I203" t="n">
-        <v>10036949</v>
+        <v>10096619</v>
       </c>
     </row>
     <row r="204">
@@ -7537,10 +7537,10 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1862728</v>
+        <v>1867758</v>
       </c>
       <c r="E204" t="n">
-        <v>1862728</v>
+        <v>1867758</v>
       </c>
       <c r="F204" t="n">
         <v>0</v>
@@ -7549,10 +7549,10 @@
         <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>15.69</v>
+        <v>15.43</v>
       </c>
       <c r="I204" t="n">
-        <v>10578.95</v>
+        <v>10343.82</v>
       </c>
     </row>
     <row r="205">
@@ -7575,19 +7575,19 @@
         <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>175068</v>
+        <v>175827</v>
       </c>
       <c r="F205" t="n">
-        <v>37.65704145929895</v>
+        <v>3.517992150637307</v>
       </c>
       <c r="G205" t="n">
-        <v>86.25958298643154</v>
+        <v>59.83653883574132</v>
       </c>
       <c r="H205" t="n">
-        <v>1.2</v>
+        <v>2.38</v>
       </c>
       <c r="I205" t="n">
-        <v>11184.88</v>
+        <v>10741.98</v>
       </c>
     </row>
     <row r="206">
@@ -7607,10 +7607,10 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>2948.36</v>
+        <v>2949.04</v>
       </c>
       <c r="E206" t="n">
-        <v>35239</v>
+        <v>35247</v>
       </c>
       <c r="F206" t="n">
         <v>0</v>
@@ -7619,10 +7619,10 @@
         <v>0</v>
       </c>
       <c r="H206" t="n">
-        <v>10.08</v>
+        <v>10.14</v>
       </c>
       <c r="I206" t="n">
-        <v>7836.75</v>
+        <v>7829.6</v>
       </c>
     </row>
     <row r="207">
@@ -7669,22 +7669,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>312656513</v>
+        <v>313491392</v>
       </c>
       <c r="E208" t="n">
-        <v>578485850</v>
+        <v>580030566</v>
       </c>
       <c r="F208" t="n">
-        <v>172499.1352190777</v>
+        <v>132081.4713861997</v>
       </c>
       <c r="G208" t="n">
-        <v>164053.8333204425</v>
+        <v>155334.1232688568</v>
       </c>
       <c r="H208" t="n">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="I208" t="n">
-        <v>12813717</v>
+        <v>12898452</v>
       </c>
     </row>
     <row r="209">
@@ -7704,22 +7704,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>71381579</v>
+        <v>71522643</v>
       </c>
       <c r="E209" t="n">
-        <v>681049997</v>
+        <v>682389148</v>
       </c>
       <c r="F209" t="n">
-        <v>327613.4740561113</v>
+        <v>337404.1802719939</v>
       </c>
       <c r="G209" t="n">
-        <v>344416.6637785056</v>
+        <v>357641.0907188122</v>
       </c>
       <c r="H209" t="n">
         <v>0.08</v>
       </c>
       <c r="I209" t="n">
-        <v>21170465</v>
+        <v>21200962</v>
       </c>
     </row>
     <row r="210">
@@ -7742,19 +7742,19 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>2231678</v>
+        <v>2282709</v>
       </c>
       <c r="F210" t="n">
-        <v>13.53576339622367</v>
+        <v>0</v>
       </c>
       <c r="G210" t="n">
-        <v>265.2995522801505</v>
+        <v>0</v>
       </c>
       <c r="H210" t="n">
-        <v>2.45</v>
+        <v>5.12</v>
       </c>
       <c r="I210" t="n">
-        <v>62309</v>
+        <v>63649</v>
       </c>
     </row>
     <row r="211">
@@ -7774,10 +7774,10 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>81275</v>
+        <v>82638</v>
       </c>
       <c r="E211" t="n">
-        <v>675652</v>
+        <v>686983</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -7786,10 +7786,10 @@
         <v>0</v>
       </c>
       <c r="H211" t="n">
-        <v>5.71</v>
+        <v>7.04</v>
       </c>
       <c r="I211" t="n">
-        <v>400.2</v>
+        <v>235.56</v>
       </c>
     </row>
     <row r="212">
@@ -7809,22 +7809,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1965470</v>
+        <v>1910565</v>
       </c>
       <c r="E212" t="n">
-        <v>5613130</v>
+        <v>5456329</v>
       </c>
       <c r="F212" t="n">
-        <v>60.01112291118228</v>
+        <v>59.90863030685973</v>
       </c>
       <c r="G212" t="n">
-        <v>171.7380674616808</v>
+        <v>324.7097613724195</v>
       </c>
       <c r="H212" t="n">
-        <v>1.88</v>
+        <v>1.51</v>
       </c>
       <c r="I212" t="n">
-        <v>73223</v>
+        <v>72798</v>
       </c>
     </row>
     <row r="213">
@@ -7844,22 +7844,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>9372626</v>
+        <v>9292905</v>
       </c>
       <c r="E213" t="n">
-        <v>27815071</v>
+        <v>27578485</v>
       </c>
       <c r="F213" t="n">
-        <v>2163.524005882521</v>
+        <v>2584.837731863005</v>
       </c>
       <c r="G213" t="n">
-        <v>3947.784505542667</v>
+        <v>3667.991021980137</v>
       </c>
       <c r="H213" t="n">
-        <v>0.27</v>
+        <v>0.36</v>
       </c>
       <c r="I213" t="n">
-        <v>5801922</v>
+        <v>3116697</v>
       </c>
     </row>
     <row r="214">
@@ -7882,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>14239138</v>
+        <v>14237785</v>
       </c>
       <c r="F214" t="n">
         <v>0</v>
@@ -7891,10 +7891,10 @@
         <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>8.470000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="I214" t="n">
-        <v>1335.53</v>
+        <v>1334.09</v>
       </c>
     </row>
     <row r="215">
@@ -7914,22 +7914,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>2040252</v>
+        <v>2044826</v>
       </c>
       <c r="E215" t="n">
-        <v>5919428</v>
+        <v>5932698</v>
       </c>
       <c r="F215" t="n">
-        <v>12.24822452091698</v>
+        <v>12.24846731267803</v>
       </c>
       <c r="G215" t="n">
-        <v>573.5809372955888</v>
+        <v>573.6003803422724</v>
       </c>
       <c r="H215" t="n">
         <v>0.02</v>
       </c>
       <c r="I215" t="n">
-        <v>32433</v>
+        <v>10857.3</v>
       </c>
     </row>
     <row r="216">
@@ -7949,22 +7949,22 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>2100153</v>
+        <v>2098589</v>
       </c>
       <c r="E216" t="n">
-        <v>18524741</v>
+        <v>18510947</v>
       </c>
       <c r="F216" t="n">
-        <v>1541.391165683115</v>
+        <v>1404.727667222675</v>
       </c>
       <c r="G216" t="n">
-        <v>2411.881152316285</v>
+        <v>3037.736787812636</v>
       </c>
       <c r="H216" t="n">
-        <v>0.68</v>
+        <v>0.89</v>
       </c>
       <c r="I216" t="n">
-        <v>73706</v>
+        <v>70180</v>
       </c>
     </row>
     <row r="217">
@@ -7984,22 +7984,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>44738332</v>
+        <v>44916895</v>
       </c>
       <c r="E217" t="n">
-        <v>44738332</v>
+        <v>44916895</v>
       </c>
       <c r="F217" t="n">
-        <v>38475.38388028796</v>
+        <v>33621.93327883654</v>
       </c>
       <c r="G217" t="n">
-        <v>41369.55992338178</v>
+        <v>51183.38571692004</v>
       </c>
       <c r="H217" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I217" t="n">
-        <v>8161022</v>
+        <v>8043921</v>
       </c>
     </row>
     <row r="218">
@@ -8019,22 +8019,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>8662523</v>
+        <v>8640395</v>
       </c>
       <c r="E218" t="n">
-        <v>12342111</v>
+        <v>12310584</v>
       </c>
       <c r="F218" t="n">
-        <v>52.06052840366063</v>
+        <v>38.525134505587</v>
       </c>
       <c r="G218" t="n">
-        <v>177.5104304904444</v>
+        <v>61.46416605995725</v>
       </c>
       <c r="H218" t="n">
-        <v>1.04</v>
+        <v>0.89</v>
       </c>
       <c r="I218" t="n">
-        <v>418498</v>
+        <v>417243</v>
       </c>
     </row>
     <row r="219">
@@ -8057,19 +8057,19 @@
         <v>0</v>
       </c>
       <c r="E219" t="n">
-        <v>16408347</v>
+        <v>16497791</v>
       </c>
       <c r="F219" t="n">
-        <v>2.114744671403415</v>
+        <v>2.114786622496193</v>
       </c>
       <c r="G219" t="n">
-        <v>1013.534896494142</v>
+        <v>1020.795537854612</v>
       </c>
       <c r="H219" t="n">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="I219" t="n">
-        <v>970117</v>
+        <v>968155</v>
       </c>
     </row>
     <row r="220">
@@ -8092,19 +8092,19 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>722543</v>
+        <v>726548</v>
       </c>
       <c r="F220" t="n">
-        <v>40.80122175425792</v>
+        <v>72.51470195175858</v>
       </c>
       <c r="G220" t="n">
-        <v>424.1207825981035</v>
+        <v>279.8886592809147</v>
       </c>
       <c r="H220" t="n">
-        <v>0.42</v>
+        <v>1.44</v>
       </c>
       <c r="I220" t="n">
-        <v>225316</v>
+        <v>223572</v>
       </c>
     </row>
     <row r="221">
@@ -8124,22 +8124,22 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>2775702</v>
+        <v>2780583</v>
       </c>
       <c r="E221" t="n">
-        <v>2778106</v>
+        <v>2782991</v>
       </c>
       <c r="F221" t="n">
-        <v>0</v>
+        <v>33.1541773406998</v>
       </c>
       <c r="G221" t="n">
-        <v>0</v>
+        <v>146.1483677241768</v>
       </c>
       <c r="H221" t="n">
-        <v>4.19</v>
+        <v>1.92</v>
       </c>
       <c r="I221" t="n">
-        <v>83184</v>
+        <v>81014</v>
       </c>
     </row>
     <row r="222">
@@ -8159,22 +8159,22 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1237026</v>
+        <v>1243428</v>
       </c>
       <c r="E222" t="n">
-        <v>3742665</v>
+        <v>3761827</v>
       </c>
       <c r="F222" t="n">
-        <v>2120.183998833318</v>
+        <v>2202.497531766277</v>
       </c>
       <c r="G222" t="n">
-        <v>595.1841675067345</v>
+        <v>456.2799706840347</v>
       </c>
       <c r="H222" t="n">
-        <v>1.57</v>
+        <v>0.26</v>
       </c>
       <c r="I222" t="n">
-        <v>9839.42</v>
+        <v>11207.11</v>
       </c>
     </row>
     <row r="223">
@@ -8194,22 +8194,22 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>37400065</v>
+        <v>37859253</v>
       </c>
       <c r="E223" t="n">
-        <v>265160361</v>
+        <v>268415924</v>
       </c>
       <c r="F223" t="n">
-        <v>67599.92755199708</v>
+        <v>66208.66050966823</v>
       </c>
       <c r="G223" t="n">
-        <v>69829.56187896176</v>
+        <v>74731.72266530157</v>
       </c>
       <c r="H223" t="n">
-        <v>0.23</v>
+        <v>0.15</v>
       </c>
       <c r="I223" t="n">
-        <v>1830942</v>
+        <v>1810809</v>
       </c>
     </row>
     <row r="224">
@@ -8229,22 +8229,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>63252</v>
+        <v>63163</v>
       </c>
       <c r="E224" t="n">
-        <v>330023</v>
+        <v>329558</v>
       </c>
       <c r="F224" t="n">
-        <v>431.019735721459</v>
+        <v>18.17414339266944</v>
       </c>
       <c r="G224" t="n">
-        <v>74.18210116123666</v>
+        <v>49.1006892975889</v>
       </c>
       <c r="H224" t="n">
-        <v>3.16</v>
+        <v>1.45</v>
       </c>
       <c r="I224" t="n">
-        <v>322215</v>
+        <v>320403</v>
       </c>
     </row>
     <row r="225">
@@ -8264,22 +8264,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1258792</v>
+        <v>1260728</v>
       </c>
       <c r="E225" t="n">
-        <v>7806464</v>
+        <v>7818472</v>
       </c>
       <c r="F225" t="n">
-        <v>1717.822260616405</v>
+        <v>1472.471234838413</v>
       </c>
       <c r="G225" t="n">
-        <v>2656.140494316826</v>
+        <v>2085.056016612362</v>
       </c>
       <c r="H225" t="n">
         <v>0.24</v>
       </c>
       <c r="I225" t="n">
-        <v>760114</v>
+        <v>747539</v>
       </c>
     </row>
     <row r="226">
@@ -8299,22 +8299,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>600020280</v>
+        <v>603062715</v>
       </c>
       <c r="E226" t="n">
-        <v>2323790019</v>
+        <v>2335572919</v>
       </c>
       <c r="F226" t="n">
-        <v>209603.8483657922</v>
+        <v>221596.5060142439</v>
       </c>
       <c r="G226" t="n">
-        <v>295617.8750504588</v>
+        <v>304797.4744200692</v>
       </c>
       <c r="H226" t="n">
         <v>0.04</v>
       </c>
       <c r="I226" t="n">
-        <v>30926262</v>
+        <v>31532845</v>
       </c>
     </row>
     <row r="227">
@@ -8337,19 +8337,19 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>20769483</v>
+        <v>20854200</v>
       </c>
       <c r="F227" t="n">
-        <v>822.2876673021177</v>
+        <v>944.4994513565916</v>
       </c>
       <c r="G227" t="n">
-        <v>1853.695186516782</v>
+        <v>1895.40383445919</v>
       </c>
       <c r="H227" t="n">
-        <v>0.05</v>
+        <v>0.14</v>
       </c>
       <c r="I227" t="n">
-        <v>17373355</v>
+        <v>17311030</v>
       </c>
     </row>
     <row r="228">
@@ -8372,19 +8372,19 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>773722</v>
+        <v>909054</v>
       </c>
       <c r="F228" t="n">
-        <v>208.2250292520247</v>
+        <v>2.13977893028196</v>
       </c>
       <c r="G228" t="n">
-        <v>71.9728221798449</v>
+        <v>51.40254317540388</v>
       </c>
       <c r="H228" t="n">
-        <v>2.81</v>
+        <v>2.83</v>
       </c>
       <c r="I228" t="n">
-        <v>355176</v>
+        <v>382097</v>
       </c>
     </row>
     <row r="229">
@@ -8404,22 +8404,22 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>5840454</v>
+        <v>5843451</v>
       </c>
       <c r="E229" t="n">
-        <v>26148441</v>
+        <v>26161858</v>
       </c>
       <c r="F229" t="n">
-        <v>1890.779654208195</v>
+        <v>1702.342213377581</v>
       </c>
       <c r="G229" t="n">
-        <v>1851.74881012986</v>
+        <v>2407.675239837467</v>
       </c>
       <c r="H229" t="n">
         <v>0.39</v>
       </c>
       <c r="I229" t="n">
-        <v>144847</v>
+        <v>144758</v>
       </c>
     </row>
     <row r="230">
@@ -8439,22 +8439,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>6218921</v>
+        <v>6238982</v>
       </c>
       <c r="E230" t="n">
-        <v>11906628</v>
+        <v>11945036</v>
       </c>
       <c r="F230" t="n">
-        <v>23.18323872350045</v>
+        <v>0</v>
       </c>
       <c r="G230" t="n">
-        <v>1089.559465312326</v>
+        <v>0</v>
       </c>
       <c r="H230" t="n">
-        <v>2.86</v>
+        <v>3.98</v>
       </c>
       <c r="I230" t="n">
-        <v>191188</v>
+        <v>188239</v>
       </c>
     </row>
     <row r="231">
@@ -8474,22 +8474,22 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>3190185</v>
+        <v>3191218</v>
       </c>
       <c r="E231" t="n">
-        <v>20977912</v>
+        <v>20984707</v>
       </c>
       <c r="F231" t="n">
-        <v>250.8279262055125</v>
+        <v>226.7714854714133</v>
       </c>
       <c r="G231" t="n">
-        <v>367.6441922475458</v>
+        <v>371.393126394684</v>
       </c>
       <c r="H231" t="n">
-        <v>1.93</v>
+        <v>2.16</v>
       </c>
       <c r="I231" t="n">
-        <v>1418102</v>
+        <v>1415339</v>
       </c>
     </row>
     <row r="232">
@@ -8509,22 +8509,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>118262597</v>
+        <v>118659390</v>
       </c>
       <c r="E232" t="n">
-        <v>1028220592</v>
+        <v>1031670465</v>
       </c>
       <c r="F232" t="n">
-        <v>206493.1720313361</v>
+        <v>218507.0193830025</v>
       </c>
       <c r="G232" t="n">
-        <v>216019.7248783331</v>
+        <v>199129.6349205533</v>
       </c>
       <c r="H232" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I232" t="n">
-        <v>9069314</v>
+        <v>8984515</v>
       </c>
     </row>
     <row r="233">
@@ -8557,7 +8557,7 @@
         <v>6.84</v>
       </c>
       <c r="I233" t="n">
-        <v>1117.89</v>
+        <v>1116.87</v>
       </c>
     </row>
     <row r="234">
@@ -8577,22 +8577,22 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>105749928</v>
+        <v>103302275</v>
       </c>
       <c r="E234" t="n">
-        <v>161323994</v>
+        <v>157590042</v>
       </c>
       <c r="F234" t="n">
-        <v>94855.64438694275</v>
+        <v>100843.3486760077</v>
       </c>
       <c r="G234" t="n">
-        <v>87140.06112493949</v>
+        <v>87678.72760496504</v>
       </c>
       <c r="H234" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="I234" t="n">
-        <v>7573583</v>
+        <v>7702062</v>
       </c>
     </row>
     <row r="235">
@@ -8612,22 +8612,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>15816573</v>
+        <v>15806516</v>
       </c>
       <c r="E235" t="n">
-        <v>21698968</v>
+        <v>21685171</v>
       </c>
       <c r="F235" t="n">
-        <v>805.6679440562713</v>
+        <v>920.0619030738862</v>
       </c>
       <c r="G235" t="n">
-        <v>2192.509745142983</v>
+        <v>2731.302837408996</v>
       </c>
       <c r="H235" t="n">
-        <v>0.87</v>
+        <v>0.6</v>
       </c>
       <c r="I235" t="n">
-        <v>357622</v>
+        <v>354797</v>
       </c>
     </row>
     <row r="236">
@@ -8647,22 +8647,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>111836884</v>
+        <v>113431989</v>
       </c>
       <c r="E236" t="n">
-        <v>429024287</v>
+        <v>435143366</v>
       </c>
       <c r="F236" t="n">
-        <v>429126.1367343351</v>
+        <v>515646.228093724</v>
       </c>
       <c r="G236" t="n">
-        <v>472780.5888615161</v>
+        <v>443453.6492593407</v>
       </c>
       <c r="H236" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="I236" t="n">
-        <v>20584873</v>
+        <v>20609358</v>
       </c>
     </row>
     <row r="237">
@@ -8685,19 +8685,19 @@
         <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>758769</v>
+        <v>761499</v>
       </c>
       <c r="F237" t="n">
-        <v>69.76198449253832</v>
+        <v>69.76322512517399</v>
       </c>
       <c r="G237" t="n">
-        <v>20.55432550164224</v>
+        <v>20.55469103549577</v>
       </c>
       <c r="H237" t="n">
         <v>3.25</v>
       </c>
       <c r="I237" t="n">
-        <v>50828</v>
+        <v>50908</v>
       </c>
     </row>
     <row r="238">
@@ -8720,7 +8720,7 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>879583</v>
+        <v>792518</v>
       </c>
       <c r="F238" t="n">
         <v>0</v>
@@ -8729,10 +8729,10 @@
         <v>0</v>
       </c>
       <c r="H238" t="n">
-        <v>10.39</v>
+        <v>7.27</v>
       </c>
       <c r="I238" t="n">
-        <v>20596</v>
+        <v>20500</v>
       </c>
     </row>
     <row r="239">
@@ -8752,22 +8752,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>3151929</v>
+        <v>3150849</v>
       </c>
       <c r="E239" t="n">
-        <v>29864997</v>
+        <v>29854761</v>
       </c>
       <c r="F239" t="n">
-        <v>1506.920739259347</v>
+        <v>1640.016105136307</v>
       </c>
       <c r="G239" t="n">
-        <v>1874.717248128062</v>
+        <v>2164.81093254423</v>
       </c>
       <c r="H239" t="n">
-        <v>0.13</v>
+        <v>0.37</v>
       </c>
       <c r="I239" t="n">
-        <v>283432</v>
+        <v>280828</v>
       </c>
     </row>
     <row r="240">
@@ -8787,22 +8787,22 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>725850</v>
+        <v>726479</v>
       </c>
       <c r="E240" t="n">
-        <v>775930</v>
+        <v>776602</v>
       </c>
       <c r="F240" t="n">
-        <v>38.68867059943121</v>
+        <v>38.68934492082573</v>
       </c>
       <c r="G240" t="n">
-        <v>2451.638818421176</v>
+        <v>2331.894494544532</v>
       </c>
       <c r="H240" t="n">
         <v>1.09</v>
       </c>
       <c r="I240" t="n">
-        <v>29243</v>
+        <v>32961</v>
       </c>
     </row>
     <row r="241">
@@ -8825,19 +8825,19 @@
         <v>0</v>
       </c>
       <c r="E241" t="n">
-        <v>374215</v>
+        <v>374139</v>
       </c>
       <c r="F241" t="n">
-        <v>7.937480749656492</v>
+        <v>7.937621908164736</v>
       </c>
       <c r="G241" t="n">
-        <v>87.28575086768886</v>
+        <v>127.5401874890021</v>
       </c>
       <c r="H241" t="n">
-        <v>0.67</v>
+        <v>0.61</v>
       </c>
       <c r="I241" t="n">
-        <v>641.61</v>
+        <v>641.02</v>
       </c>
     </row>
     <row r="242">
@@ -8860,19 +8860,19 @@
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>143128</v>
+        <v>135479</v>
       </c>
       <c r="F242" t="n">
-        <v>222.2468789670635</v>
+        <v>105.9637665054914</v>
       </c>
       <c r="G242" t="n">
-        <v>240.7442013602244</v>
+        <v>226.1701058927837</v>
       </c>
       <c r="H242" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="I242" t="n">
-        <v>22088</v>
+        <v>90893</v>
       </c>
     </row>
     <row r="243">
@@ -8895,7 +8895,7 @@
         <v>0</v>
       </c>
       <c r="E243" t="n">
-        <v>576230</v>
+        <v>576367</v>
       </c>
       <c r="F243" t="n">
         <v>0</v>
@@ -8907,7 +8907,7 @@
         <v>7.84</v>
       </c>
       <c r="I243" t="n">
-        <v>455.03</v>
+        <v>454.59</v>
       </c>
     </row>
     <row r="244">
@@ -8927,22 +8927,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>5934373</v>
+        <v>5935188</v>
       </c>
       <c r="E244" t="n">
-        <v>37088132</v>
+        <v>37093227</v>
       </c>
       <c r="F244" t="n">
-        <v>875.644952629377</v>
+        <v>821.0474910651508</v>
       </c>
       <c r="G244" t="n">
-        <v>1165.157055251451</v>
+        <v>1100.886825741147</v>
       </c>
       <c r="H244" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="I244" t="n">
-        <v>383485</v>
+        <v>384588</v>
       </c>
     </row>
     <row r="245">
@@ -8962,22 +8962,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>5095018</v>
+        <v>5110371</v>
       </c>
       <c r="E245" t="n">
-        <v>18972803</v>
+        <v>19029976</v>
       </c>
       <c r="F245" t="n">
-        <v>6387.628557312685</v>
+        <v>6445.494082907007</v>
       </c>
       <c r="G245" t="n">
-        <v>12147.95980950454</v>
+        <v>12148.1715414941</v>
       </c>
       <c r="H245" t="n">
         <v>0.53</v>
       </c>
       <c r="I245" t="n">
-        <v>60601</v>
+        <v>62191</v>
       </c>
     </row>
     <row r="246">
@@ -9000,19 +9000,19 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>3737277</v>
+        <v>3738139</v>
       </c>
       <c r="F246" t="n">
-        <v>142.4761057171046</v>
+        <v>212.3330544112109</v>
       </c>
       <c r="G246" t="n">
-        <v>2649.451170440627</v>
+        <v>2649.498287729686</v>
       </c>
       <c r="H246" t="n">
         <v>1.67</v>
       </c>
       <c r="I246" t="n">
-        <v>7081.98</v>
+        <v>7078.31</v>
       </c>
     </row>
     <row r="247">
@@ -9032,22 +9032,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>31473523</v>
+        <v>31472394</v>
       </c>
       <c r="E247" t="n">
-        <v>112812445</v>
+        <v>112808398</v>
       </c>
       <c r="F247" t="n">
-        <v>46.27239837927997</v>
+        <v>27.86395981851069</v>
       </c>
       <c r="G247" t="n">
-        <v>2619.536174340606</v>
+        <v>2445.883563339587</v>
       </c>
       <c r="H247" t="n">
         <v>0.46</v>
       </c>
       <c r="I247" t="n">
-        <v>95202</v>
+        <v>96536</v>
       </c>
     </row>
     <row r="248">
@@ -9070,19 +9070,19 @@
         <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>1524474</v>
+        <v>1543343</v>
       </c>
       <c r="F248" t="n">
-        <v>5.649403007519941</v>
+        <v>222.7642491252455</v>
       </c>
       <c r="G248" t="n">
-        <v>232.4957666871689</v>
+        <v>50.61125770004104</v>
       </c>
       <c r="H248" t="n">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="I248" t="n">
-        <v>615230</v>
+        <v>616368</v>
       </c>
     </row>
     <row r="249">
@@ -9102,22 +9102,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>2206014</v>
+        <v>2176367</v>
       </c>
       <c r="E249" t="n">
-        <v>16968035</v>
+        <v>16739996</v>
       </c>
       <c r="F249" t="n">
-        <v>5263.478409043283</v>
+        <v>4350.196370864654</v>
       </c>
       <c r="G249" t="n">
-        <v>5675.415544978957</v>
+        <v>5567.533799834629</v>
       </c>
       <c r="H249" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="I249" t="n">
-        <v>170948</v>
+        <v>176991</v>
       </c>
     </row>
     <row r="250">
@@ -9137,22 +9137,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>103219</v>
+        <v>103119</v>
       </c>
       <c r="E250" t="n">
-        <v>819872</v>
+        <v>819076</v>
       </c>
       <c r="F250" t="n">
-        <v>174.3338928773814</v>
+        <v>174.3369314173968</v>
       </c>
       <c r="G250" t="n">
-        <v>340.706454071056</v>
+        <v>340.7123923896302</v>
       </c>
       <c r="H250" t="n">
         <v>0.72</v>
       </c>
       <c r="I250" t="n">
-        <v>1213.22</v>
+        <v>1214.46</v>
       </c>
     </row>
     <row r="251">
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>86838047</v>
+        <v>86922234</v>
       </c>
       <c r="E251" t="n">
-        <v>321016418</v>
+        <v>321327141</v>
       </c>
       <c r="F251" t="n">
-        <v>9087.906732049252</v>
+        <v>9346.650098644976</v>
       </c>
       <c r="G251" t="n">
-        <v>2009.331920998718</v>
+        <v>2204.732574906436</v>
       </c>
       <c r="H251" t="n">
-        <v>0.14</v>
+        <v>0.32</v>
       </c>
       <c r="I251" t="n">
-        <v>347190</v>
+        <v>340962</v>
       </c>
     </row>
     <row r="252">
@@ -9207,22 +9207,22 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>2415726</v>
+        <v>2459361</v>
       </c>
       <c r="E252" t="n">
-        <v>9693183</v>
+        <v>9868270</v>
       </c>
       <c r="F252" t="n">
-        <v>28.91920727591846</v>
+        <v>10.82767984306929</v>
       </c>
       <c r="G252" t="n">
-        <v>4.765965954606273</v>
+        <v>64.33804610384993</v>
       </c>
       <c r="H252" t="n">
-        <v>3.74</v>
+        <v>2.54</v>
       </c>
       <c r="I252" t="n">
-        <v>44822</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="253">
@@ -9245,19 +9245,19 @@
         <v>0</v>
       </c>
       <c r="E253" t="n">
-        <v>583704</v>
+        <v>583171</v>
       </c>
       <c r="F253" t="n">
-        <v>0</v>
+        <v>54.69051524345758</v>
       </c>
       <c r="G253" t="n">
-        <v>0</v>
+        <v>5.167406103354809</v>
       </c>
       <c r="H253" t="n">
-        <v>4.56</v>
+        <v>2.99</v>
       </c>
       <c r="I253" t="n">
-        <v>1509.56</v>
+        <v>1508.18</v>
       </c>
     </row>
     <row r="254">
@@ -9276,7 +9276,7 @@
         <v>0</v>
       </c>
       <c r="E254" t="n">
-        <v>38921</v>
+        <v>38913</v>
       </c>
       <c r="F254" t="n">
         <v>0</v>
@@ -9285,10 +9285,10 @@
         <v>0</v>
       </c>
       <c r="H254" t="n">
-        <v>5.24</v>
+        <v>5.06</v>
       </c>
       <c r="I254" t="n">
-        <v>4769.09</v>
+        <v>4764.74</v>
       </c>
     </row>
     <row r="255">
@@ -9308,22 +9308,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>700055218</v>
+        <v>730249512</v>
       </c>
       <c r="E255" t="n">
-        <v>1079546955</v>
+        <v>1126109223</v>
       </c>
       <c r="F255" t="n">
-        <v>179110.8115678621</v>
+        <v>157322.6182337887</v>
       </c>
       <c r="G255" t="n">
-        <v>194224.4706282134</v>
+        <v>285088.5300884168</v>
       </c>
       <c r="H255" t="n">
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
       <c r="I255" t="n">
-        <v>162666148</v>
+        <v>204296644</v>
       </c>
     </row>
     <row r="256">
@@ -9343,22 +9343,22 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>5688919</v>
+        <v>5668119</v>
       </c>
       <c r="E256" t="n">
-        <v>5688919</v>
+        <v>5668119</v>
       </c>
       <c r="F256" t="n">
-        <v>18.31098842743749</v>
+        <v>21.37481613821351</v>
       </c>
       <c r="G256" t="n">
-        <v>7.864978054983355</v>
+        <v>7.865117924118743</v>
       </c>
       <c r="H256" t="n">
-        <v>0.97</v>
+        <v>0.58</v>
       </c>
       <c r="I256" t="n">
-        <v>479.89</v>
+        <v>498.91</v>
       </c>
     </row>
     <row r="257">
@@ -9378,22 +9378,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>39835697</v>
+        <v>39948269</v>
       </c>
       <c r="E257" t="n">
-        <v>190142422</v>
+        <v>190679748</v>
       </c>
       <c r="F257" t="n">
-        <v>251.8351427157511</v>
+        <v>306.7887258218851</v>
       </c>
       <c r="G257" t="n">
-        <v>301.8411441727932</v>
+        <v>250.0039975711884</v>
       </c>
       <c r="H257" t="n">
-        <v>0.03</v>
+        <v>0.31</v>
       </c>
       <c r="I257" t="n">
-        <v>415314</v>
+        <v>419792</v>
       </c>
     </row>
     <row r="258">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>527039</v>
+        <v>571345</v>
       </c>
       <c r="F258" t="n">
         <v>0</v>
@@ -9425,10 +9425,10 @@
         <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>8.380000000000001</v>
+        <v>7.41</v>
       </c>
       <c r="I258" t="n">
-        <v>357.63</v>
+        <v>378.27</v>
       </c>
     </row>
     <row r="259">
@@ -9448,22 +9448,22 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>23546941</v>
+        <v>23555546</v>
       </c>
       <c r="E259" t="n">
-        <v>39244900</v>
+        <v>39259243</v>
       </c>
       <c r="F259" t="n">
-        <v>4942.770827996087</v>
+        <v>4153.47738918026</v>
       </c>
       <c r="G259" t="n">
-        <v>7629.220727250778</v>
+        <v>6810.396572902016</v>
       </c>
       <c r="H259" t="n">
-        <v>0.86</v>
+        <v>0.96</v>
       </c>
       <c r="I259" t="n">
-        <v>740154</v>
+        <v>624207</v>
       </c>
     </row>
     <row r="260">
@@ -9486,19 +9486,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>107795</v>
+        <v>107826</v>
       </c>
       <c r="F260" t="n">
-        <v>122.00239695167</v>
+        <v>242.2377092962462</v>
       </c>
       <c r="G260" t="n">
-        <v>194.3198065846776</v>
+        <v>193.0273665760826</v>
       </c>
       <c r="H260" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="I260" t="n">
-        <v>49149</v>
+        <v>48770</v>
       </c>
     </row>
     <row r="261">
@@ -9518,22 +9518,22 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>824814</v>
+        <v>858842</v>
       </c>
       <c r="E261" t="n">
-        <v>3523498</v>
+        <v>3668862</v>
       </c>
       <c r="F261" t="n">
-        <v>3175.252281855127</v>
+        <v>353.2240138376136</v>
       </c>
       <c r="G261" t="n">
-        <v>3180.016635983051</v>
+        <v>3683.148966892992</v>
       </c>
       <c r="H261" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="I261" t="n">
-        <v>8466.360000000001</v>
+        <v>14559.01</v>
       </c>
     </row>
     <row r="262">
@@ -9553,22 +9553,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>3831226</v>
+        <v>3816721</v>
       </c>
       <c r="E262" t="n">
-        <v>8359685</v>
+        <v>8328037</v>
       </c>
       <c r="F262" t="n">
-        <v>1063.501791805244</v>
+        <v>1399.337238768675</v>
       </c>
       <c r="G262" t="n">
-        <v>2071.494141989326</v>
+        <v>1748.195318843718</v>
       </c>
       <c r="H262" t="n">
-        <v>0.36</v>
+        <v>0.73</v>
       </c>
       <c r="I262" t="n">
-        <v>877503</v>
+        <v>853795</v>
       </c>
     </row>
     <row r="263">
@@ -9588,22 +9588,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>490872752</v>
+        <v>491700476</v>
       </c>
       <c r="E263" t="n">
-        <v>1709554081</v>
+        <v>1712436779</v>
       </c>
       <c r="F263" t="n">
-        <v>628716.8183953949</v>
+        <v>592733.5373554254</v>
       </c>
       <c r="G263" t="n">
-        <v>686755.4797237705</v>
+        <v>609549.8776288201</v>
       </c>
       <c r="H263" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I263" t="n">
-        <v>31229634</v>
+        <v>31374082</v>
       </c>
     </row>
     <row r="264">
@@ -9623,22 +9623,22 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>5565222516</v>
+        <v>5589367290</v>
       </c>
       <c r="E264" t="n">
-        <v>5565223015</v>
+        <v>5589367290</v>
       </c>
       <c r="F264" t="n">
-        <v>4005.248649238181</v>
+        <v>3788.950936245567</v>
       </c>
       <c r="G264" t="n">
-        <v>2262.087954588434</v>
+        <v>2829.266396602371</v>
       </c>
       <c r="H264" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="I264" t="n">
-        <v>28970518</v>
+        <v>27923605</v>
       </c>
     </row>
     <row r="265">
@@ -9658,22 +9658,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>24063119</v>
+        <v>23982439</v>
       </c>
       <c r="E265" t="n">
-        <v>24042217</v>
+        <v>23961607</v>
       </c>
       <c r="F265" t="n">
-        <v>39.4103860630991</v>
+        <v>63.83711699137751</v>
       </c>
       <c r="G265" t="n">
-        <v>721.5948386665012</v>
+        <v>723.0272557234638</v>
       </c>
       <c r="H265" t="n">
-        <v>1.89</v>
+        <v>1.72</v>
       </c>
       <c r="I265" t="n">
-        <v>92587</v>
+        <v>92812</v>
       </c>
     </row>
     <row r="266">
@@ -9693,22 +9693,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>11988226</v>
+        <v>11749267</v>
       </c>
       <c r="E266" t="n">
-        <v>24278425</v>
+        <v>23793266</v>
       </c>
       <c r="F266" t="n">
-        <v>1.118590713296388</v>
+        <v>0</v>
       </c>
       <c r="G266" t="n">
-        <v>555.419601719434</v>
+        <v>0</v>
       </c>
       <c r="H266" t="n">
-        <v>2.13</v>
+        <v>5.6</v>
       </c>
       <c r="I266" t="n">
-        <v>19470.91</v>
+        <v>24189</v>
       </c>
     </row>
     <row r="267">
@@ -9731,19 +9731,19 @@
         <v>0</v>
       </c>
       <c r="E267" t="n">
-        <v>148825</v>
+        <v>150169</v>
       </c>
       <c r="F267" t="n">
-        <v>206.5169590644352</v>
+        <v>212.2280250567035</v>
       </c>
       <c r="G267" t="n">
-        <v>152.5486924049374</v>
+        <v>119.5575515571589</v>
       </c>
       <c r="H267" t="n">
-        <v>0.37</v>
+        <v>0.57</v>
       </c>
       <c r="I267" t="n">
-        <v>55882</v>
+        <v>56660</v>
       </c>
     </row>
     <row r="268">
@@ -9766,19 +9766,19 @@
         <v>0</v>
       </c>
       <c r="E268" t="n">
-        <v>48058</v>
+        <v>48017</v>
       </c>
       <c r="F268" t="n">
-        <v>38.55560377776534</v>
+        <v>118.2313480226597</v>
       </c>
       <c r="G268" t="n">
-        <v>125.1168301985683</v>
+        <v>241.3341268368507</v>
       </c>
       <c r="H268" t="n">
-        <v>3.06</v>
+        <v>3.08</v>
       </c>
       <c r="I268" t="n">
-        <v>71575</v>
+        <v>71414</v>
       </c>
     </row>
     <row r="269">
@@ -9798,22 +9798,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>2643615</v>
+        <v>2651647</v>
       </c>
       <c r="E269" t="n">
-        <v>10574461</v>
+        <v>10606587</v>
       </c>
       <c r="F269" t="n">
-        <v>47657.42814280724</v>
+        <v>28256.45954941433</v>
       </c>
       <c r="G269" t="n">
-        <v>39809.66171213481</v>
+        <v>36838.14450089794</v>
       </c>
       <c r="H269" t="n">
-        <v>0.66</v>
+        <v>0.84</v>
       </c>
       <c r="I269" t="n">
-        <v>5150167</v>
+        <v>5311538</v>
       </c>
     </row>
     <row r="270">
@@ -9833,22 +9833,22 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>213930437</v>
+        <v>215537507</v>
       </c>
       <c r="E270" t="n">
-        <v>657755588</v>
+        <v>662696722</v>
       </c>
       <c r="F270" t="n">
-        <v>274790.8555168406</v>
+        <v>246579.0080700213</v>
       </c>
       <c r="G270" t="n">
-        <v>267627.9731569372</v>
+        <v>273001.2298127164</v>
       </c>
       <c r="H270" t="n">
         <v>0.06</v>
       </c>
       <c r="I270" t="n">
-        <v>11503774</v>
+        <v>11649017</v>
       </c>
     </row>
     <row r="271">
@@ -9868,22 +9868,22 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>150421392</v>
+        <v>151417437</v>
       </c>
       <c r="E271" t="n">
-        <v>392971714</v>
+        <v>395573854</v>
       </c>
       <c r="F271" t="n">
-        <v>62628.64664464616</v>
+        <v>47796.52887455935</v>
       </c>
       <c r="G271" t="n">
-        <v>45660.74244231432</v>
+        <v>52029.68382625467</v>
       </c>
       <c r="H271" t="n">
-        <v>0.31</v>
+        <v>0.2</v>
       </c>
       <c r="I271" t="n">
-        <v>6596303</v>
+        <v>6487997</v>
       </c>
     </row>
     <row r="272">
@@ -9903,22 +9903,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>2422733</v>
+        <v>2433278</v>
       </c>
       <c r="E272" t="n">
-        <v>3324803</v>
+        <v>3339255</v>
       </c>
       <c r="F272" t="n">
-        <v>290.5429462510002</v>
+        <v>123.4288712901902</v>
       </c>
       <c r="G272" t="n">
-        <v>42.47119776100978</v>
+        <v>113.7009909525477</v>
       </c>
       <c r="H272" t="n">
-        <v>1.5</v>
+        <v>1.08</v>
       </c>
       <c r="I272" t="n">
-        <v>256982</v>
+        <v>260599</v>
       </c>
     </row>
   </sheetData>

--- a/GateioData20250220.xlsx
+++ b/GateioData20250220.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>52541</v>
+        <v>52509</v>
       </c>
       <c r="F2" t="n">
-        <v>1.325046837001785</v>
+        <v>1.325054209209361</v>
       </c>
       <c r="G2" t="n">
-        <v>29.80930788777234</v>
+        <v>29.80947373881948</v>
       </c>
       <c r="H2" t="n">
         <v>3.85</v>
       </c>
       <c r="I2" t="n">
-        <v>1780.24</v>
+        <v>1778.9</v>
       </c>
     </row>
     <row r="3">
@@ -535,19 +535,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>94094</v>
+        <v>93189</v>
       </c>
       <c r="F3" t="n">
-        <v>8.579491327990068</v>
+        <v>8.579539061994026</v>
       </c>
       <c r="G3" t="n">
-        <v>445.9989173985093</v>
+        <v>446.0013988176604</v>
       </c>
       <c r="H3" t="n">
         <v>3.06</v>
       </c>
       <c r="I3" t="n">
-        <v>776.48</v>
+        <v>827.21</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>612923731</v>
+        <v>613967647</v>
       </c>
       <c r="E4" t="n">
-        <v>1189276159</v>
+        <v>1191301677</v>
       </c>
       <c r="F4" t="n">
-        <v>47327.7012294493</v>
+        <v>56739.17580821268</v>
       </c>
       <c r="G4" t="n">
-        <v>50618.75860568779</v>
+        <v>39077.28674657983</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>23331424</v>
+        <v>23496607</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1343503</v>
+        <v>1343188</v>
       </c>
       <c r="E5" t="n">
-        <v>4342752</v>
+        <v>4341733</v>
       </c>
       <c r="F5" t="n">
-        <v>5457.929254257519</v>
+        <v>5427.797045349961</v>
       </c>
       <c r="G5" t="n">
-        <v>6579.074311046454</v>
+        <v>7252.873310835313</v>
       </c>
       <c r="H5" t="n">
         <v>0.46</v>
       </c>
       <c r="I5" t="n">
-        <v>96333</v>
+        <v>98077</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>140920535</v>
+        <v>140810553</v>
       </c>
       <c r="E6" t="n">
-        <v>156162461</v>
+        <v>156040584</v>
       </c>
       <c r="F6" t="n">
-        <v>243023.7676467829</v>
+        <v>234498.8049753085</v>
       </c>
       <c r="G6" t="n">
-        <v>267863.5841799206</v>
+        <v>249458.7007369773</v>
       </c>
       <c r="H6" t="n">
         <v>0.13</v>
       </c>
       <c r="I6" t="n">
-        <v>34001024</v>
+        <v>34064683</v>
       </c>
     </row>
     <row r="7">
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>4205.02</v>
+        <v>4204.63</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>9.09</v>
       </c>
       <c r="I7" t="n">
-        <v>485.66</v>
+        <v>260.81</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8793555</v>
+        <v>8793532</v>
       </c>
       <c r="E8" t="n">
-        <v>9015295</v>
+        <v>9015273</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>305.9193555730508</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>92.52565361182471</v>
       </c>
       <c r="H8" t="n">
-        <v>3.93</v>
+        <v>2.61</v>
       </c>
       <c r="I8" t="n">
-        <v>45261</v>
+        <v>45875</v>
       </c>
     </row>
     <row r="9">
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>303565</v>
+        <v>303546</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -757,7 +757,7 @@
         <v>6.6</v>
       </c>
       <c r="I9" t="n">
-        <v>383.74</v>
+        <v>383.5</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5236717</v>
+        <v>5221782</v>
       </c>
       <c r="E10" t="n">
-        <v>8366699</v>
+        <v>8342839</v>
       </c>
       <c r="F10" t="n">
-        <v>262.7663720139515</v>
+        <v>228.6962518099928</v>
       </c>
       <c r="G10" t="n">
-        <v>327.6299005167747</v>
+        <v>327.631277805922</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="I10" t="n">
-        <v>105114</v>
+        <v>104504</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1003379</v>
+        <v>1003236</v>
       </c>
       <c r="E11" t="n">
-        <v>12278658</v>
+        <v>12276908</v>
       </c>
       <c r="F11" t="n">
-        <v>1578.625506163521</v>
+        <v>1577.688625721652</v>
       </c>
       <c r="G11" t="n">
-        <v>1315.43432212737</v>
+        <v>1315.656428028358</v>
       </c>
       <c r="H11" t="n">
         <v>0.49</v>
       </c>
       <c r="I11" t="n">
-        <v>2185.38</v>
+        <v>2183.19</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>566488</v>
+        <v>566641</v>
       </c>
       <c r="E12" t="n">
-        <v>566488</v>
+        <v>566641</v>
       </c>
       <c r="F12" t="n">
-        <v>3.881829858393588</v>
+        <v>3.673836363215531</v>
       </c>
       <c r="G12" t="n">
-        <v>120.9480063566631</v>
+        <v>295.7930552164272</v>
       </c>
       <c r="H12" t="n">
-        <v>1.69</v>
+        <v>1.39</v>
       </c>
       <c r="I12" t="n">
-        <v>23701</v>
+        <v>22380</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4740834</v>
+        <v>4751789</v>
       </c>
       <c r="E13" t="n">
-        <v>29119905</v>
+        <v>29187196</v>
       </c>
       <c r="F13" t="n">
-        <v>969.188487479308</v>
+        <v>475.524830017874</v>
       </c>
       <c r="G13" t="n">
-        <v>1238.061124014844</v>
+        <v>1500.508629241284</v>
       </c>
       <c r="H13" t="n">
-        <v>0.99</v>
+        <v>0.55</v>
       </c>
       <c r="I13" t="n">
-        <v>472027</v>
+        <v>477050</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>199132</v>
+        <v>198579</v>
       </c>
       <c r="E14" t="n">
-        <v>2190669</v>
+        <v>2184590</v>
       </c>
       <c r="F14" t="n">
-        <v>239.6555577578755</v>
+        <v>332.2847593121796</v>
       </c>
       <c r="G14" t="n">
-        <v>1213.689961333219</v>
+        <v>783.8401050356787</v>
       </c>
       <c r="H14" t="n">
         <v>1.82</v>
       </c>
       <c r="I14" t="n">
-        <v>37099</v>
+        <v>36573</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3351979</v>
+        <v>3352290</v>
       </c>
       <c r="E15" t="n">
-        <v>9536085</v>
+        <v>9536967</v>
       </c>
       <c r="F15" t="n">
-        <v>730.7706281302611</v>
+        <v>730.9632399456103</v>
       </c>
       <c r="G15" t="n">
-        <v>317.0978324373436</v>
+        <v>332.2519339255923</v>
       </c>
       <c r="H15" t="n">
         <v>0.63</v>
       </c>
       <c r="I15" t="n">
-        <v>232842</v>
+        <v>232687</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>312988</v>
+        <v>326392</v>
       </c>
       <c r="E16" t="n">
-        <v>3612592</v>
+        <v>3767301</v>
       </c>
       <c r="F16" t="n">
-        <v>131.5111386775607</v>
+        <v>142.8925439441916</v>
       </c>
       <c r="G16" t="n">
-        <v>129.9236714727562</v>
+        <v>131.1726619544789</v>
       </c>
       <c r="H16" t="n">
-        <v>0.82</v>
+        <v>0.57</v>
       </c>
       <c r="I16" t="n">
-        <v>3576.37</v>
+        <v>4898.2</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>923734</v>
+        <v>926446</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>21.31256382231008</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>105.4849572802708</v>
       </c>
       <c r="H17" t="n">
-        <v>4.67</v>
+        <v>3.33</v>
       </c>
       <c r="I17" t="n">
-        <v>11201.63</v>
+        <v>11374.68</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>22258622</v>
+        <v>22296973</v>
       </c>
       <c r="E18" t="n">
-        <v>22300298</v>
+        <v>22338720</v>
       </c>
       <c r="F18" t="n">
-        <v>1586.413613366929</v>
+        <v>1370.276706614131</v>
       </c>
       <c r="G18" t="n">
-        <v>2425.746209458691</v>
+        <v>2201.971230395015</v>
       </c>
       <c r="H18" t="n">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
       <c r="I18" t="n">
-        <v>872802</v>
+        <v>871130</v>
       </c>
     </row>
     <row r="19">
@@ -1095,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>6866951</v>
+        <v>6929008</v>
       </c>
       <c r="F19" t="n">
-        <v>83.57156845196603</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>17.89421578306716</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>2.08</v>
+        <v>5.42</v>
       </c>
       <c r="I19" t="n">
-        <v>27631</v>
+        <v>28025</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2442143</v>
+        <v>2445115</v>
       </c>
       <c r="E20" t="n">
-        <v>2442143</v>
+        <v>2445115</v>
       </c>
       <c r="F20" t="n">
-        <v>288.4864857212643</v>
+        <v>297.1250760194588</v>
       </c>
       <c r="G20" t="n">
-        <v>229.5970165764022</v>
+        <v>246.0990651572527</v>
       </c>
       <c r="H20" t="n">
-        <v>1.41</v>
+        <v>0.18</v>
       </c>
       <c r="I20" t="n">
-        <v>314464</v>
+        <v>313739</v>
       </c>
     </row>
     <row r="21">
@@ -1165,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>409319</v>
+        <v>409071</v>
       </c>
       <c r="F21" t="n">
-        <v>94.80824533751161</v>
+        <v>81.93170731774653</v>
       </c>
       <c r="G21" t="n">
-        <v>207.5576011969734</v>
+        <v>207.5587590677641</v>
       </c>
       <c r="H21" t="n">
         <v>1.21</v>
       </c>
       <c r="I21" t="n">
-        <v>1539.86</v>
+        <v>1538.7</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>18559232</v>
+        <v>17869618</v>
       </c>
       <c r="E22" t="n">
-        <v>23887255</v>
+        <v>22999665</v>
       </c>
       <c r="F22" t="n">
-        <v>1417.383287135695</v>
+        <v>1731.087265897824</v>
       </c>
       <c r="G22" t="n">
-        <v>2743.965311162067</v>
+        <v>993.7093748326457</v>
       </c>
       <c r="H22" t="n">
-        <v>0.25</v>
+        <v>0.41</v>
       </c>
       <c r="I22" t="n">
-        <v>2048448</v>
+        <v>2052158</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>477668233</v>
+        <v>473270552</v>
       </c>
       <c r="E23" t="n">
-        <v>477668238</v>
+        <v>473270552</v>
       </c>
       <c r="F23" t="n">
-        <v>54459.22620894008</v>
+        <v>50197.165948402</v>
       </c>
       <c r="G23" t="n">
-        <v>63000.56056959946</v>
+        <v>69856.6461660245</v>
       </c>
       <c r="H23" t="n">
         <v>0.06</v>
       </c>
       <c r="I23" t="n">
-        <v>63514633</v>
+        <v>63488189</v>
       </c>
     </row>
     <row r="24">
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>22846</v>
+        <v>22844</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1282,7 +1282,7 @@
         <v>7.86</v>
       </c>
       <c r="I24" t="n">
-        <v>3133.3</v>
+        <v>3130.94</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4665340</v>
+        <v>4663309</v>
       </c>
       <c r="E25" t="n">
-        <v>4665340</v>
+        <v>4663309</v>
       </c>
       <c r="F25" t="n">
-        <v>913.1977801914368</v>
+        <v>929.2207392373062</v>
       </c>
       <c r="G25" t="n">
-        <v>1076.628593904007</v>
+        <v>1291.993316763426</v>
       </c>
       <c r="H25" t="n">
-        <v>0.28</v>
+        <v>0.34</v>
       </c>
       <c r="I25" t="n">
-        <v>1966325</v>
+        <v>1966428</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3372105</v>
+        <v>3357173</v>
       </c>
       <c r="E26" t="n">
-        <v>3372105</v>
+        <v>3357173</v>
       </c>
       <c r="F26" t="n">
-        <v>297.121725541284</v>
+        <v>296.8833238973755</v>
       </c>
       <c r="G26" t="n">
-        <v>375.1502368142088</v>
+        <v>290.7360448684455</v>
       </c>
       <c r="H26" t="n">
-        <v>0.98</v>
+        <v>0.86</v>
       </c>
       <c r="I26" t="n">
-        <v>531846</v>
+        <v>531097</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>314491</v>
+        <v>318941</v>
       </c>
       <c r="E27" t="n">
-        <v>1468076</v>
+        <v>1488850</v>
       </c>
       <c r="F27" t="n">
-        <v>1268.070755218135</v>
+        <v>1938.945334635932</v>
       </c>
       <c r="G27" t="n">
-        <v>59.9542417458896</v>
+        <v>27.63811232971103</v>
       </c>
       <c r="H27" t="n">
-        <v>2.96</v>
+        <v>1.96</v>
       </c>
       <c r="I27" t="n">
-        <v>620451</v>
+        <v>629738</v>
       </c>
     </row>
     <row r="28">
@@ -1410,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1610912</v>
+        <v>1599824</v>
       </c>
       <c r="F28" t="n">
-        <v>205.0204189218507</v>
+        <v>399.9579903551679</v>
       </c>
       <c r="G28" t="n">
-        <v>278.1652648273351</v>
+        <v>148.0808055470527</v>
       </c>
       <c r="H28" t="n">
-        <v>0.19</v>
+        <v>0.57</v>
       </c>
       <c r="I28" t="n">
-        <v>221016</v>
+        <v>186338</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>12872061</v>
+        <v>12914228</v>
       </c>
       <c r="E29" t="n">
-        <v>32036232</v>
+        <v>32141178</v>
       </c>
       <c r="F29" t="n">
-        <v>803.4766991036607</v>
+        <v>748.9458263896863</v>
       </c>
       <c r="G29" t="n">
-        <v>1279.450628860948</v>
+        <v>1284.683120150289</v>
       </c>
       <c r="H29" t="n">
-        <v>0.5</v>
+        <v>0.37</v>
       </c>
       <c r="I29" t="n">
-        <v>1598765</v>
+        <v>1597683</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>915792</v>
+        <v>919309</v>
       </c>
       <c r="E30" t="n">
-        <v>6410547</v>
+        <v>6435164</v>
       </c>
       <c r="F30" t="n">
-        <v>444.6535380499177</v>
+        <v>292.0505207650264</v>
       </c>
       <c r="G30" t="n">
-        <v>663.7852944479484</v>
+        <v>1602.373651411764</v>
       </c>
       <c r="H30" t="n">
-        <v>0.95</v>
+        <v>0.87</v>
       </c>
       <c r="I30" t="n">
-        <v>227714</v>
+        <v>200889</v>
       </c>
     </row>
     <row r="31">
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>178736</v>
+        <v>178999</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         <v>8.85</v>
       </c>
       <c r="I31" t="n">
-        <v>6071.33</v>
+        <v>6076.44</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5683747</v>
+        <v>5396416</v>
       </c>
       <c r="E32" t="n">
-        <v>5955657</v>
+        <v>5654581</v>
       </c>
       <c r="F32" t="n">
-        <v>204.3087168338095</v>
+        <v>24.110805025831</v>
       </c>
       <c r="G32" t="n">
-        <v>242.5137993046487</v>
+        <v>24.5951814990705</v>
       </c>
       <c r="H32" t="n">
-        <v>0.42</v>
+        <v>3.44</v>
       </c>
       <c r="I32" t="n">
-        <v>131734</v>
+        <v>121365</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>5506705</v>
+        <v>5444221</v>
       </c>
       <c r="E33" t="n">
-        <v>8106169</v>
+        <v>8014188</v>
       </c>
       <c r="F33" t="n">
-        <v>93.15986625107375</v>
+        <v>32.46802773085974</v>
       </c>
       <c r="G33" t="n">
-        <v>121.7694497577232</v>
+        <v>500.1744057780938</v>
       </c>
       <c r="H33" t="n">
-        <v>0.82</v>
+        <v>1.01</v>
       </c>
       <c r="I33" t="n">
-        <v>683732</v>
+        <v>617564</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7662168</v>
+        <v>7669935</v>
       </c>
       <c r="E34" t="n">
-        <v>7662168</v>
+        <v>7669935</v>
       </c>
       <c r="F34" t="n">
-        <v>32050.4853555747</v>
+        <v>32796.03503608629</v>
       </c>
       <c r="G34" t="n">
-        <v>32110.90936655924</v>
+        <v>27515.54731492925</v>
       </c>
       <c r="H34" t="n">
-        <v>0.75</v>
+        <v>0.52</v>
       </c>
       <c r="I34" t="n">
-        <v>191234</v>
+        <v>285948</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1483651</v>
+        <v>1441669</v>
       </c>
       <c r="E35" t="n">
-        <v>1483651</v>
+        <v>1441703</v>
       </c>
       <c r="F35" t="n">
-        <v>489.3965929424812</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>41.60549426459284</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.79</v>
+        <v>4.12</v>
       </c>
       <c r="I35" t="n">
-        <v>272908</v>
+        <v>277205</v>
       </c>
     </row>
     <row r="36">
@@ -1690,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>16537865</v>
+        <v>16533441</v>
       </c>
       <c r="F36" t="n">
-        <v>343.546938824575</v>
+        <v>340.7866229184924</v>
       </c>
       <c r="G36" t="n">
-        <v>169.9441476187493</v>
+        <v>169.843069873947</v>
       </c>
       <c r="H36" t="n">
-        <v>0.58</v>
+        <v>0.52</v>
       </c>
       <c r="I36" t="n">
-        <v>10596.13</v>
+        <v>10590.57</v>
       </c>
     </row>
     <row r="37">
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>65215</v>
+        <v>65181</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>8.51</v>
       </c>
       <c r="I37" t="n">
-        <v>256.92</v>
+        <v>256.73</v>
       </c>
     </row>
     <row r="38">
@@ -1753,22 +1753,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>136519323</v>
+        <v>136725727</v>
       </c>
       <c r="E38" t="n">
-        <v>136519323</v>
+        <v>136725727</v>
       </c>
       <c r="F38" t="n">
-        <v>316145.6177882655</v>
+        <v>351074.0505361085</v>
       </c>
       <c r="G38" t="n">
-        <v>333620.3631040929</v>
+        <v>276476.761570527</v>
       </c>
       <c r="H38" t="n">
         <v>0.05</v>
       </c>
       <c r="I38" t="n">
-        <v>66592610</v>
+        <v>65812586</v>
       </c>
     </row>
     <row r="39">
@@ -1788,22 +1788,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>65138432</v>
+        <v>65046262</v>
       </c>
       <c r="E39" t="n">
-        <v>334043242</v>
+        <v>333570575</v>
       </c>
       <c r="F39" t="n">
-        <v>86490.49196222205</v>
+        <v>101493.4905111067</v>
       </c>
       <c r="G39" t="n">
-        <v>95609.24801725308</v>
+        <v>87309.74199974045</v>
       </c>
       <c r="H39" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I39" t="n">
-        <v>18798705</v>
+        <v>18890594</v>
       </c>
     </row>
     <row r="40">
@@ -1823,22 +1823,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>45377</v>
+        <v>45372</v>
       </c>
       <c r="E40" t="n">
-        <v>134096</v>
+        <v>134084</v>
       </c>
       <c r="F40" t="n">
-        <v>9.372457031285466</v>
+        <v>9.372509177139332</v>
       </c>
       <c r="G40" t="n">
-        <v>356.5034483156186</v>
+        <v>356.5054318058237</v>
       </c>
       <c r="H40" t="n">
         <v>0.52</v>
       </c>
       <c r="I40" t="n">
-        <v>781.33</v>
+        <v>780.74</v>
       </c>
     </row>
     <row r="41">
@@ -1861,19 +1861,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>51689</v>
+        <v>51677</v>
       </c>
       <c r="F41" t="n">
-        <v>17.10956338419469</v>
+        <v>17.10965883077709</v>
       </c>
       <c r="G41" t="n">
-        <v>1.835451980378392</v>
+        <v>1.835462219541997</v>
       </c>
       <c r="H41" t="n">
         <v>3.08</v>
       </c>
       <c r="I41" t="n">
-        <v>25208</v>
+        <v>25172</v>
       </c>
     </row>
     <row r="42">
@@ -1896,19 +1896,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>598631</v>
+        <v>598388</v>
       </c>
       <c r="F42" t="n">
-        <v>1930.737290564046</v>
+        <v>1929.479333315751</v>
       </c>
       <c r="G42" t="n">
-        <v>397.7522320983386</v>
+        <v>396.9201468047991</v>
       </c>
       <c r="H42" t="n">
         <v>0.7</v>
       </c>
       <c r="I42" t="n">
-        <v>825.53</v>
+        <v>824.84</v>
       </c>
     </row>
     <row r="43">
@@ -1961,22 +1961,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2723645</v>
+        <v>2723608</v>
       </c>
       <c r="E44" t="n">
-        <v>10945707</v>
+        <v>10945561</v>
       </c>
       <c r="F44" t="n">
-        <v>3.646191316313973</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>149.6850065045685</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>2.65</v>
+        <v>4.39</v>
       </c>
       <c r="I44" t="n">
-        <v>24992</v>
+        <v>24847</v>
       </c>
     </row>
     <row r="45">
@@ -1996,22 +1996,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>17489415</v>
+        <v>17467264</v>
       </c>
       <c r="E45" t="n">
-        <v>123304922</v>
+        <v>123130808</v>
       </c>
       <c r="F45" t="n">
-        <v>193.3172251629474</v>
+        <v>193.5069971589903</v>
       </c>
       <c r="G45" t="n">
-        <v>269.4247140504714</v>
+        <v>249.4811567785961</v>
       </c>
       <c r="H45" t="n">
         <v>0.93</v>
       </c>
       <c r="I45" t="n">
-        <v>1037914</v>
+        <v>1036642</v>
       </c>
     </row>
     <row r="46">
@@ -2031,10 +2031,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>147069</v>
+        <v>148315</v>
       </c>
       <c r="E46" t="n">
-        <v>1967862</v>
+        <v>1984539</v>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>46798</v>
+        <v>46701</v>
       </c>
     </row>
     <row r="47">
@@ -2064,22 +2064,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>254164077</v>
+        <v>253887415</v>
       </c>
       <c r="E47" t="n">
-        <v>254164077</v>
+        <v>253887415</v>
       </c>
       <c r="F47" t="n">
-        <v>113968.4097615523</v>
+        <v>141085.1751991152</v>
       </c>
       <c r="G47" t="n">
-        <v>174133.5570332626</v>
+        <v>132687.8277501254</v>
       </c>
       <c r="H47" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I47" t="n">
-        <v>14912091</v>
+        <v>14834415</v>
       </c>
     </row>
     <row r="48">
@@ -2099,22 +2099,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>635712</v>
+        <v>635923</v>
       </c>
       <c r="E48" t="n">
-        <v>635712</v>
+        <v>635923</v>
       </c>
       <c r="F48" t="n">
-        <v>60.00891923319997</v>
+        <v>60.01886818879175</v>
       </c>
       <c r="G48" t="n">
-        <v>146.0102630119998</v>
+        <v>146.160418198374</v>
       </c>
       <c r="H48" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="I48" t="n">
-        <v>3346.01</v>
+        <v>3337.89</v>
       </c>
     </row>
     <row r="49">
@@ -2167,22 +2167,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>461155316</v>
+        <v>462768459</v>
       </c>
       <c r="E50" t="n">
-        <v>461155316</v>
+        <v>462768459</v>
       </c>
       <c r="F50" t="n">
-        <v>4196.77215822828</v>
+        <v>6175.430459513734</v>
       </c>
       <c r="G50" t="n">
-        <v>2294.953820613358</v>
+        <v>3049.570103880098</v>
       </c>
       <c r="H50" t="n">
-        <v>0.02</v>
+        <v>0.15</v>
       </c>
       <c r="I50" t="n">
-        <v>3221890</v>
+        <v>3269920</v>
       </c>
     </row>
     <row r="51">
@@ -2202,22 +2202,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2517015</v>
+        <v>2449372</v>
       </c>
       <c r="E51" t="n">
-        <v>2517015</v>
+        <v>2449372</v>
       </c>
       <c r="F51" t="n">
-        <v>299.695463531841</v>
+        <v>963.6162937043333</v>
       </c>
       <c r="G51" t="n">
-        <v>1980.575151882307</v>
+        <v>25.01023131473492</v>
       </c>
       <c r="H51" t="n">
-        <v>2.08</v>
+        <v>1.7</v>
       </c>
       <c r="I51" t="n">
-        <v>110129</v>
+        <v>60550</v>
       </c>
     </row>
     <row r="52">
@@ -2237,10 +2237,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>22335</v>
+        <v>22151</v>
       </c>
       <c r="E52" t="n">
-        <v>44671</v>
+        <v>44301</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -2249,10 +2249,10 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>7.98</v>
+        <v>6.3</v>
       </c>
       <c r="I52" t="n">
-        <v>4741.15</v>
+        <v>4510.91</v>
       </c>
     </row>
     <row r="53">
@@ -2275,19 +2275,19 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>148665</v>
+        <v>147373</v>
       </c>
       <c r="F53" t="n">
-        <v>19.4212595489095</v>
+        <v>23.25369874295166</v>
       </c>
       <c r="G53" t="n">
-        <v>1.194894659057181</v>
+        <v>1.194901324838708</v>
       </c>
       <c r="H53" t="n">
         <v>1.72</v>
       </c>
       <c r="I53" t="n">
-        <v>23239</v>
+        <v>23205</v>
       </c>
     </row>
     <row r="54">
@@ -2307,22 +2307,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2539254</v>
+        <v>2533870</v>
       </c>
       <c r="E54" t="n">
-        <v>6491822</v>
+        <v>6478057</v>
       </c>
       <c r="F54" t="n">
-        <v>235.1880776622649</v>
+        <v>112.7464378285854</v>
       </c>
       <c r="G54" t="n">
-        <v>214.1076244497143</v>
+        <v>254.7228302232611</v>
       </c>
       <c r="H54" t="n">
         <v>1.96</v>
       </c>
       <c r="I54" t="n">
-        <v>118058</v>
+        <v>117820</v>
       </c>
     </row>
     <row r="55">
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>3824.07</v>
+        <v>3821.75</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>6.22</v>
       </c>
       <c r="I55" t="n">
-        <v>764.8200000000001</v>
+        <v>764.65</v>
       </c>
     </row>
     <row r="56">
@@ -2377,22 +2377,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>74531687</v>
+        <v>73597204</v>
       </c>
       <c r="E56" t="n">
-        <v>74531687</v>
+        <v>73597204</v>
       </c>
       <c r="F56" t="n">
-        <v>13702.53059830867</v>
+        <v>9036.204238305581</v>
       </c>
       <c r="G56" t="n">
-        <v>23253.47430565894</v>
+        <v>14014.88901098977</v>
       </c>
       <c r="H56" t="n">
-        <v>0.36</v>
+        <v>0.17</v>
       </c>
       <c r="I56" t="n">
-        <v>4095450</v>
+        <v>4092533</v>
       </c>
     </row>
     <row r="57">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3688476</v>
+        <v>3661257</v>
       </c>
       <c r="E57" t="n">
-        <v>4673944</v>
+        <v>4639452</v>
       </c>
       <c r="F57" t="n">
-        <v>1177.076248135378</v>
+        <v>135.4032805447381</v>
       </c>
       <c r="G57" t="n">
-        <v>151.0951315339495</v>
+        <v>270.0321008559367</v>
       </c>
       <c r="H57" t="n">
         <v>0.2</v>
       </c>
       <c r="I57" t="n">
-        <v>288825</v>
+        <v>286122</v>
       </c>
     </row>
     <row r="58">
@@ -2447,22 +2447,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>4230788</v>
+        <v>4218808</v>
       </c>
       <c r="E58" t="n">
-        <v>8343471</v>
+        <v>8319845</v>
       </c>
       <c r="F58" t="n">
-        <v>2156.965652878667</v>
+        <v>2396.418244116488</v>
       </c>
       <c r="G58" t="n">
-        <v>1804.071228119141</v>
+        <v>2259.190976469374</v>
       </c>
       <c r="H58" t="n">
-        <v>0.47</v>
+        <v>0.1</v>
       </c>
       <c r="I58" t="n">
-        <v>1646991</v>
+        <v>1644719</v>
       </c>
     </row>
     <row r="59">
@@ -2482,22 +2482,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1577330</v>
+        <v>1588547</v>
       </c>
       <c r="E59" t="n">
-        <v>9056440</v>
+        <v>9120844</v>
       </c>
       <c r="F59" t="n">
-        <v>201.1583972008854</v>
+        <v>201.1595193733864</v>
       </c>
       <c r="G59" t="n">
-        <v>708.0836408444912</v>
+        <v>601.3658509685085</v>
       </c>
       <c r="H59" t="n">
         <v>1.47</v>
       </c>
       <c r="I59" t="n">
-        <v>307780</v>
+        <v>188930</v>
       </c>
     </row>
     <row r="60">
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>565995</v>
+        <v>565086</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>8.77</v>
       </c>
       <c r="I60" t="n">
-        <v>2327.47</v>
+        <v>2323.73</v>
       </c>
     </row>
     <row r="61">
@@ -2555,19 +2555,19 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>31979430</v>
+        <v>31977645</v>
       </c>
       <c r="F61" t="n">
-        <v>516.3840905974375</v>
+        <v>495.5932820917719</v>
       </c>
       <c r="G61" t="n">
-        <v>2140.290653106348</v>
+        <v>1716.958233371564</v>
       </c>
       <c r="H61" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="I61" t="n">
-        <v>251106</v>
+        <v>250897</v>
       </c>
     </row>
     <row r="62">
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>1436859</v>
+        <v>1432767</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>14.95</v>
+        <v>13.69</v>
       </c>
       <c r="I62" t="n">
-        <v>27687</v>
+        <v>27605</v>
       </c>
     </row>
     <row r="63">
@@ -2622,22 +2622,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>7547687</v>
+        <v>7537241</v>
       </c>
       <c r="E63" t="n">
-        <v>17776304</v>
+        <v>17751701</v>
       </c>
       <c r="F63" t="n">
-        <v>1183.730961527805</v>
+        <v>1182.118776333358</v>
       </c>
       <c r="G63" t="n">
-        <v>2405.281611198112</v>
+        <v>2489.333169510732</v>
       </c>
       <c r="H63" t="n">
-        <v>1.03</v>
+        <v>0.87</v>
       </c>
       <c r="I63" t="n">
-        <v>31404</v>
+        <v>32491</v>
       </c>
     </row>
     <row r="64">
@@ -2657,22 +2657,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2941963</v>
+        <v>2931979</v>
       </c>
       <c r="E64" t="n">
-        <v>2941963</v>
+        <v>2931979</v>
       </c>
       <c r="F64" t="n">
-        <v>17.29142965684527</v>
+        <v>17.29152586175302</v>
       </c>
       <c r="G64" t="n">
-        <v>209.0232889729733</v>
+        <v>209.0244519228642</v>
       </c>
       <c r="H64" t="n">
         <v>1.93</v>
       </c>
       <c r="I64" t="n">
-        <v>17987.62</v>
+        <v>16054.82</v>
       </c>
     </row>
     <row r="65">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3371906</v>
+        <v>3369763</v>
       </c>
       <c r="E65" t="n">
-        <v>8320007</v>
+        <v>8314717</v>
       </c>
       <c r="F65" t="n">
-        <v>632.9275440277185</v>
+        <v>647.1512316818147</v>
       </c>
       <c r="G65" t="n">
-        <v>1307.176666033474</v>
+        <v>1089.305446160251</v>
       </c>
       <c r="H65" t="n">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="I65" t="n">
-        <v>54218</v>
+        <v>55576</v>
       </c>
     </row>
     <row r="66">
@@ -2730,19 +2730,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>269843</v>
+        <v>269846</v>
       </c>
       <c r="F66" t="n">
-        <v>16.26790954173976</v>
+        <v>16.26800029311276</v>
       </c>
       <c r="G66" t="n">
-        <v>53.0789852519131</v>
+        <v>92.72500147770867</v>
       </c>
       <c r="H66" t="n">
         <v>3.33</v>
       </c>
       <c r="I66" t="n">
-        <v>2354.64</v>
+        <v>2347.29</v>
       </c>
     </row>
     <row r="67">
@@ -2762,22 +2762,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>73311299</v>
+        <v>73342922</v>
       </c>
       <c r="E67" t="n">
-        <v>152891288</v>
+        <v>152957238</v>
       </c>
       <c r="F67" t="n">
-        <v>58358.25606673876</v>
+        <v>70279.55159199226</v>
       </c>
       <c r="G67" t="n">
-        <v>105462.9180203696</v>
+        <v>97663.46692219784</v>
       </c>
       <c r="H67" t="n">
         <v>0.05</v>
       </c>
       <c r="I67" t="n">
-        <v>14339612</v>
+        <v>14370675</v>
       </c>
     </row>
     <row r="68">
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>2101638</v>
+        <v>2100529</v>
       </c>
       <c r="F68" t="n">
-        <v>9.071750560900362</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>5.178046640401776</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>3.24</v>
+        <v>4.13</v>
       </c>
       <c r="I68" t="n">
-        <v>3234.3</v>
+        <v>3231.87</v>
       </c>
     </row>
     <row r="69">
@@ -2835,19 +2835,19 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>206555087</v>
+        <v>207204002</v>
       </c>
       <c r="F69" t="n">
-        <v>13999.05735142982</v>
+        <v>3280.750202739844</v>
       </c>
       <c r="G69" t="n">
-        <v>4893.243084592435</v>
+        <v>3826.241657962203</v>
       </c>
       <c r="H69" t="n">
         <v>0.55</v>
       </c>
       <c r="I69" t="n">
-        <v>4641395</v>
+        <v>4636074</v>
       </c>
     </row>
     <row r="70">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>184965</v>
+        <v>184886</v>
       </c>
       <c r="E70" t="n">
-        <v>193156</v>
+        <v>193073</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>9</v>
       </c>
       <c r="I70" t="n">
-        <v>432.98</v>
+        <v>432.56</v>
       </c>
     </row>
     <row r="71">
@@ -2902,22 +2902,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>144616254</v>
+        <v>144793707</v>
       </c>
       <c r="E71" t="n">
-        <v>144659536</v>
+        <v>144837651</v>
       </c>
       <c r="F71" t="n">
-        <v>25003.21507124893</v>
+        <v>36500.4907732571</v>
       </c>
       <c r="G71" t="n">
-        <v>55219.8779041253</v>
+        <v>48947.42651136552</v>
       </c>
       <c r="H71" t="n">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="I71" t="n">
-        <v>2624639</v>
+        <v>2616675</v>
       </c>
     </row>
     <row r="72">
@@ -2937,22 +2937,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>26257139</v>
+        <v>26325643</v>
       </c>
       <c r="E72" t="n">
-        <v>86170911</v>
+        <v>86395730</v>
       </c>
       <c r="F72" t="n">
-        <v>7288.178548174481</v>
+        <v>23432.8090651965</v>
       </c>
       <c r="G72" t="n">
-        <v>37082.73701204327</v>
+        <v>24052.94478546713</v>
       </c>
       <c r="H72" t="n">
-        <v>0.35</v>
+        <v>0.46</v>
       </c>
       <c r="I72" t="n">
-        <v>92818</v>
+        <v>91085</v>
       </c>
     </row>
     <row r="73">
@@ -2972,10 +2972,10 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>118493</v>
+        <v>118518</v>
       </c>
       <c r="E73" t="n">
-        <v>118493</v>
+        <v>118518</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -2987,7 +2987,7 @@
         <v>4.17</v>
       </c>
       <c r="I73" t="n">
-        <v>189.03</v>
+        <v>157.55</v>
       </c>
     </row>
     <row r="74">
@@ -3007,22 +3007,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>199034836</v>
+        <v>198562951</v>
       </c>
       <c r="E74" t="n">
-        <v>691465007</v>
+        <v>689825636</v>
       </c>
       <c r="F74" t="n">
-        <v>130847.1719237388</v>
+        <v>150107.8827588183</v>
       </c>
       <c r="G74" t="n">
-        <v>224750.3449004406</v>
+        <v>199683.6417134064</v>
       </c>
       <c r="H74" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I74" t="n">
-        <v>26118350</v>
+        <v>25953794</v>
       </c>
     </row>
     <row r="75">
@@ -3042,22 +3042,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>4053334</v>
+        <v>4328943</v>
       </c>
       <c r="E75" t="n">
-        <v>4053334</v>
+        <v>4328943</v>
       </c>
       <c r="F75" t="n">
-        <v>1625.984603762792</v>
+        <v>6071.978983875907</v>
       </c>
       <c r="G75" t="n">
-        <v>1393.706166632233</v>
+        <v>1815.880991820863</v>
       </c>
       <c r="H75" t="n">
-        <v>0.44</v>
+        <v>0.58</v>
       </c>
       <c r="I75" t="n">
-        <v>3554688</v>
+        <v>3626090</v>
       </c>
     </row>
     <row r="76">
@@ -3077,22 +3077,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>115068094</v>
+        <v>115009986</v>
       </c>
       <c r="E76" t="n">
-        <v>489476113</v>
+        <v>489207559</v>
       </c>
       <c r="F76" t="n">
-        <v>247370.2759670721</v>
+        <v>207154.0649499257</v>
       </c>
       <c r="G76" t="n">
-        <v>231170.6187682004</v>
+        <v>168818.1980232561</v>
       </c>
       <c r="H76" t="n">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
       <c r="I76" t="n">
-        <v>13798290</v>
+        <v>13849042</v>
       </c>
     </row>
     <row r="77">
@@ -3115,19 +3115,19 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1853137</v>
+        <v>1854525</v>
       </c>
       <c r="F77" t="n">
-        <v>174.1645415810657</v>
+        <v>174.1655131669499</v>
       </c>
       <c r="G77" t="n">
-        <v>93.00588081895489</v>
+        <v>93.00639965706127</v>
       </c>
       <c r="H77" t="n">
         <v>0.54</v>
       </c>
       <c r="I77" t="n">
-        <v>433.9</v>
+        <v>433.55</v>
       </c>
     </row>
     <row r="78">
@@ -3147,22 +3147,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3149234</v>
+        <v>3148969</v>
       </c>
       <c r="E78" t="n">
-        <v>15789546</v>
+        <v>15788216</v>
       </c>
       <c r="F78" t="n">
-        <v>816.5139660340926</v>
+        <v>299.6953744504374</v>
       </c>
       <c r="G78" t="n">
-        <v>180.11835424784</v>
+        <v>697.1214526445723</v>
       </c>
       <c r="H78" t="n">
-        <v>0.62</v>
+        <v>1.24</v>
       </c>
       <c r="I78" t="n">
-        <v>31432</v>
+        <v>31359</v>
       </c>
     </row>
     <row r="79">
@@ -3182,22 +3182,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>524790</v>
+        <v>522392</v>
       </c>
       <c r="E79" t="n">
-        <v>8976499</v>
+        <v>8935483</v>
       </c>
       <c r="F79" t="n">
-        <v>615.9678252866814</v>
+        <v>723.850754178996</v>
       </c>
       <c r="G79" t="n">
-        <v>79.54735033075505</v>
+        <v>29.2847278584045</v>
       </c>
       <c r="H79" t="n">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="I79" t="n">
-        <v>290894</v>
+        <v>285145</v>
       </c>
     </row>
     <row r="80">
@@ -3217,22 +3217,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>5986383</v>
+        <v>5969303</v>
       </c>
       <c r="E80" t="n">
-        <v>8133895</v>
+        <v>8110993</v>
       </c>
       <c r="F80" t="n">
-        <v>210.2623613097352</v>
+        <v>260.0967834773912</v>
       </c>
       <c r="G80" t="n">
-        <v>441.5701672545403</v>
+        <v>606.1928172696335</v>
       </c>
       <c r="H80" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="I80" t="n">
-        <v>6437249</v>
+        <v>1377593</v>
       </c>
     </row>
     <row r="81">
@@ -3251,19 +3251,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>42435</v>
+        <v>41841</v>
       </c>
       <c r="F81" t="n">
-        <v>143.0778201157371</v>
+        <v>131.2327945691102</v>
       </c>
       <c r="G81" t="n">
-        <v>23.5288200639208</v>
+        <v>3.990841703603406</v>
       </c>
       <c r="H81" t="n">
-        <v>1.96</v>
+        <v>0.98</v>
       </c>
       <c r="I81" t="n">
-        <v>60179</v>
+        <v>60199</v>
       </c>
     </row>
     <row r="82">
@@ -3283,22 +3283,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>40398139</v>
+        <v>40477635</v>
       </c>
       <c r="E82" t="n">
-        <v>47184067</v>
+        <v>47276916</v>
       </c>
       <c r="F82" t="n">
-        <v>299.6057847322937</v>
+        <v>215.066188110312</v>
       </c>
       <c r="G82" t="n">
-        <v>81.24580985241839</v>
+        <v>11.05699800371292</v>
       </c>
       <c r="H82" t="n">
-        <v>1.06</v>
+        <v>1.23</v>
       </c>
       <c r="I82" t="n">
-        <v>846917</v>
+        <v>848099</v>
       </c>
     </row>
     <row r="83">
@@ -3321,19 +3321,19 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>14440656</v>
+        <v>14464442</v>
       </c>
       <c r="F83" t="n">
-        <v>160.1631354868504</v>
+        <v>210.8388199813957</v>
       </c>
       <c r="G83" t="n">
-        <v>661.8981513365098</v>
+        <v>792.3370410081307</v>
       </c>
       <c r="H83" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="I83" t="n">
-        <v>283201</v>
+        <v>426664</v>
       </c>
     </row>
     <row r="84">
@@ -3353,22 +3353,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>35401558</v>
+        <v>35667689</v>
       </c>
       <c r="E84" t="n">
-        <v>35401558</v>
+        <v>35667689</v>
       </c>
       <c r="F84" t="n">
-        <v>293.8370336493384</v>
+        <v>361.8496888870557</v>
       </c>
       <c r="G84" t="n">
-        <v>100.9861478749519</v>
+        <v>212.421572004542</v>
       </c>
       <c r="H84" t="n">
-        <v>3.01</v>
+        <v>2.38</v>
       </c>
       <c r="I84" t="n">
-        <v>752214</v>
+        <v>753002</v>
       </c>
     </row>
     <row r="85">
@@ -3388,22 +3388,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>535774</v>
+        <v>537914</v>
       </c>
       <c r="E85" t="n">
-        <v>6498421</v>
+        <v>6524375</v>
       </c>
       <c r="F85" t="n">
-        <v>1069.915675456767</v>
+        <v>565.770319655653</v>
       </c>
       <c r="G85" t="n">
-        <v>1288.92777541174</v>
+        <v>1294.772487653522</v>
       </c>
       <c r="H85" t="n">
-        <v>0.82</v>
+        <v>0.9</v>
       </c>
       <c r="I85" t="n">
-        <v>2757648</v>
+        <v>2762912</v>
       </c>
     </row>
     <row r="86">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>25148882</v>
+        <v>25172662</v>
       </c>
       <c r="E86" t="n">
-        <v>35546963</v>
+        <v>35580575</v>
       </c>
       <c r="F86" t="n">
-        <v>9.724099715519426</v>
+        <v>17.88954012271403</v>
       </c>
       <c r="G86" t="n">
-        <v>642.8487466773398</v>
+        <v>458.3564587743754</v>
       </c>
       <c r="H86" t="n">
-        <v>1.87</v>
+        <v>3.68</v>
       </c>
       <c r="I86" t="n">
-        <v>65011</v>
+        <v>74955</v>
       </c>
     </row>
     <row r="87">
@@ -3458,22 +3458,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1298681631</v>
+        <v>1301304652</v>
       </c>
       <c r="E87" t="n">
-        <v>6227444385</v>
+        <v>6240022309</v>
       </c>
       <c r="F87" t="n">
-        <v>747523.1739747315</v>
+        <v>870826.5425313612</v>
       </c>
       <c r="G87" t="n">
-        <v>976503.0670571873</v>
+        <v>771930.0509398257</v>
       </c>
       <c r="H87" t="n">
         <v>0.02</v>
       </c>
       <c r="I87" t="n">
-        <v>177944475</v>
+        <v>178763221</v>
       </c>
     </row>
     <row r="88">
@@ -3493,22 +3493,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>267352893</v>
+        <v>267040847</v>
       </c>
       <c r="E88" t="n">
-        <v>1154043507</v>
+        <v>1152696540</v>
       </c>
       <c r="F88" t="n">
-        <v>1056766.792199951</v>
+        <v>1231372.201143201</v>
       </c>
       <c r="G88" t="n">
-        <v>927864.1532310017</v>
+        <v>992727.8100152449</v>
       </c>
       <c r="H88" t="n">
         <v>0.02</v>
       </c>
       <c r="I88" t="n">
-        <v>111256551</v>
+        <v>111144223</v>
       </c>
     </row>
     <row r="89">
@@ -3528,22 +3528,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>114422426</v>
+        <v>114516771</v>
       </c>
       <c r="E89" t="n">
-        <v>114422426</v>
+        <v>114516771</v>
       </c>
       <c r="F89" t="n">
-        <v>29702.25789822211</v>
+        <v>39103.05735386191</v>
       </c>
       <c r="G89" t="n">
-        <v>33800.82905343742</v>
+        <v>23409.38021148541</v>
       </c>
       <c r="H89" t="n">
-        <v>0.47</v>
+        <v>0.52</v>
       </c>
       <c r="I89" t="n">
-        <v>6026047</v>
+        <v>5987336</v>
       </c>
     </row>
     <row r="90">
@@ -3563,22 +3563,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>3855684</v>
+        <v>3854105</v>
       </c>
       <c r="E90" t="n">
-        <v>30004470</v>
+        <v>29992178</v>
       </c>
       <c r="F90" t="n">
-        <v>11012.45070743005</v>
+        <v>11012.51214095469</v>
       </c>
       <c r="G90" t="n">
-        <v>12393.50955153871</v>
+        <v>12283.49645117505</v>
       </c>
       <c r="H90" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I90" t="n">
-        <v>9999.67</v>
+        <v>9968.16</v>
       </c>
     </row>
     <row r="91">
@@ -3601,19 +3601,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>3774367</v>
+        <v>3770882</v>
       </c>
       <c r="F91" t="n">
-        <v>3012.205728868951</v>
+        <v>4831.177522531186</v>
       </c>
       <c r="G91" t="n">
-        <v>3030.587811835422</v>
+        <v>3150.451365781334</v>
       </c>
       <c r="H91" t="n">
         <v>0.82</v>
       </c>
       <c r="I91" t="n">
-        <v>297326</v>
+        <v>297421</v>
       </c>
     </row>
     <row r="92">
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>913316</v>
+        <v>913024</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>9.349490277147657</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>15.00341947625692</v>
       </c>
       <c r="H92" t="n">
-        <v>4.49</v>
+        <v>3.4</v>
       </c>
       <c r="I92" t="n">
-        <v>52692</v>
+        <v>47003</v>
       </c>
     </row>
     <row r="93">
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>133284</v>
+        <v>154114</v>
       </c>
       <c r="F93" t="n">
-        <v>210.0391830401987</v>
+        <v>1021.194962621734</v>
       </c>
       <c r="G93" t="n">
-        <v>3.20069698909214</v>
+        <v>6.601488821961444</v>
       </c>
       <c r="H93" t="n">
-        <v>0.74</v>
+        <v>0.86</v>
       </c>
       <c r="I93" t="n">
-        <v>110757</v>
+        <v>111708</v>
       </c>
     </row>
     <row r="94">
@@ -3699,22 +3699,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>10801410</v>
+        <v>10990700</v>
       </c>
       <c r="E94" t="n">
-        <v>130434321</v>
+        <v>132720127</v>
       </c>
       <c r="F94" t="n">
-        <v>2477.936144123748</v>
+        <v>2766.016673972849</v>
       </c>
       <c r="G94" t="n">
-        <v>1762.924448423414</v>
+        <v>2994.767897971598</v>
       </c>
       <c r="H94" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="I94" t="n">
-        <v>247972</v>
+        <v>216452</v>
       </c>
     </row>
     <row r="95">
@@ -3734,22 +3734,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>21262528</v>
+        <v>21188102</v>
       </c>
       <c r="E95" t="n">
-        <v>53156321</v>
+        <v>52970256</v>
       </c>
       <c r="F95" t="n">
-        <v>6900.858372395677</v>
+        <v>8614.440013541929</v>
       </c>
       <c r="G95" t="n">
-        <v>10183.47594298687</v>
+        <v>9264.819246103882</v>
       </c>
       <c r="H95" t="n">
-        <v>0.23</v>
+        <v>0.19</v>
       </c>
       <c r="I95" t="n">
-        <v>1952641</v>
+        <v>2047554</v>
       </c>
     </row>
     <row r="96">
@@ -3772,19 +3772,19 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>2343209</v>
+        <v>2341670</v>
       </c>
       <c r="F96" t="n">
-        <v>200.6034984382347</v>
+        <v>137.6546623243397</v>
       </c>
       <c r="G96" t="n">
-        <v>119.2633095868843</v>
+        <v>119.4640205284364</v>
       </c>
       <c r="H96" t="n">
-        <v>2.58</v>
+        <v>2.37</v>
       </c>
       <c r="I96" t="n">
-        <v>64641</v>
+        <v>63966</v>
       </c>
     </row>
     <row r="97">
@@ -3807,19 +3807,19 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>20172248</v>
+        <v>20107947</v>
       </c>
       <c r="F97" t="n">
-        <v>2909.823943948646</v>
+        <v>2903.900808433608</v>
       </c>
       <c r="G97" t="n">
-        <v>1310.711948336728</v>
+        <v>1254.030550824052</v>
       </c>
       <c r="H97" t="n">
         <v>0.99</v>
       </c>
       <c r="I97" t="n">
-        <v>121169</v>
+        <v>126131</v>
       </c>
     </row>
     <row r="98">
@@ -3839,22 +3839,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4178640</v>
+        <v>4167912</v>
       </c>
       <c r="E98" t="n">
-        <v>12035831</v>
+        <v>12004930</v>
       </c>
       <c r="F98" t="n">
-        <v>394.660456998765</v>
+        <v>1703.274363449052</v>
       </c>
       <c r="G98" t="n">
-        <v>624.4601306637081</v>
+        <v>411.2627241607508</v>
       </c>
       <c r="H98" t="n">
-        <v>0.82</v>
+        <v>1.07</v>
       </c>
       <c r="I98" t="n">
-        <v>574174</v>
+        <v>576475</v>
       </c>
     </row>
     <row r="99">
@@ -3877,19 +3877,19 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>1660294</v>
+        <v>1661518</v>
       </c>
       <c r="F99" t="n">
-        <v>57.81811728894289</v>
+        <v>57.8184398302943</v>
       </c>
       <c r="G99" t="n">
-        <v>54.94772563882253</v>
+        <v>54.97992644177167</v>
       </c>
       <c r="H99" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="I99" t="n">
-        <v>290670</v>
+        <v>290744</v>
       </c>
     </row>
     <row r="100">
@@ -3909,22 +3909,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>80333456</v>
+        <v>80354964</v>
       </c>
       <c r="E100" t="n">
-        <v>102230566</v>
+        <v>102257937</v>
       </c>
       <c r="F100" t="n">
-        <v>5667.224409295593</v>
+        <v>10618.33014307798</v>
       </c>
       <c r="G100" t="n">
-        <v>13741.50884256527</v>
+        <v>8835.027562946178</v>
       </c>
       <c r="H100" t="n">
-        <v>0.61</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I100" t="n">
-        <v>6193420</v>
+        <v>6175963</v>
       </c>
     </row>
     <row r="101">
@@ -3944,22 +3944,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>22403314</v>
+        <v>22397079</v>
       </c>
       <c r="E101" t="n">
-        <v>29062223</v>
+        <v>29054135</v>
       </c>
       <c r="F101" t="n">
-        <v>7448.996568538605</v>
+        <v>4571.639887940609</v>
       </c>
       <c r="G101" t="n">
-        <v>7624.29164285847</v>
+        <v>4770.659443845912</v>
       </c>
       <c r="H101" t="n">
-        <v>0.72</v>
+        <v>0.83</v>
       </c>
       <c r="I101" t="n">
-        <v>154907</v>
+        <v>154892</v>
       </c>
     </row>
     <row r="102">
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>1633897</v>
+        <v>1632741</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>4.68</v>
+        <v>5.92</v>
       </c>
       <c r="I102" t="n">
-        <v>12461.17</v>
+        <v>12381.08</v>
       </c>
     </row>
     <row r="103">
@@ -4014,22 +4014,22 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>618813</v>
+        <v>619066</v>
       </c>
       <c r="E103" t="n">
-        <v>618813</v>
+        <v>619066</v>
       </c>
       <c r="F103" t="n">
-        <v>57.56651882502666</v>
+        <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>296.6722903062483</v>
+        <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>3.4</v>
+        <v>4.77</v>
       </c>
       <c r="I103" t="n">
-        <v>77680</v>
+        <v>77918</v>
       </c>
     </row>
     <row r="104">
@@ -4049,22 +4049,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>40255259</v>
+        <v>40267600</v>
       </c>
       <c r="E104" t="n">
-        <v>42081140</v>
+        <v>42094041</v>
       </c>
       <c r="F104" t="n">
-        <v>356.8271635494259</v>
+        <v>791.2049475580781</v>
       </c>
       <c r="G104" t="n">
-        <v>946.4278312286184</v>
+        <v>417.7139593138937</v>
       </c>
       <c r="H104" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.64</v>
       </c>
       <c r="I104" t="n">
-        <v>759144</v>
+        <v>769708</v>
       </c>
     </row>
     <row r="105">
@@ -4084,22 +4084,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>14138725</v>
+        <v>14108697</v>
       </c>
       <c r="E105" t="n">
-        <v>14138725</v>
+        <v>14108697</v>
       </c>
       <c r="F105" t="n">
-        <v>2677.837738891581</v>
+        <v>2764.832794011687</v>
       </c>
       <c r="G105" t="n">
-        <v>3325.321240468891</v>
+        <v>2302.190720663949</v>
       </c>
       <c r="H105" t="n">
-        <v>0.24</v>
+        <v>0.29</v>
       </c>
       <c r="I105" t="n">
-        <v>4558414</v>
+        <v>4597922</v>
       </c>
     </row>
     <row r="106">
@@ -4122,19 +4122,19 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>1147696</v>
+        <v>1188510</v>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>9.9062595410347</v>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>88.05963689258667</v>
       </c>
       <c r="H106" t="n">
-        <v>5.79</v>
+        <v>0.39</v>
       </c>
       <c r="I106" t="n">
-        <v>4430.27</v>
+        <v>5135.33</v>
       </c>
     </row>
     <row r="107">
@@ -4154,22 +4154,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>52439793</v>
+        <v>52692950</v>
       </c>
       <c r="E107" t="n">
-        <v>133593370</v>
+        <v>134238302</v>
       </c>
       <c r="F107" t="n">
-        <v>2272.118327672473</v>
+        <v>2587.707549523724</v>
       </c>
       <c r="G107" t="n">
-        <v>3925.249028420311</v>
+        <v>3804.807261824525</v>
       </c>
       <c r="H107" t="n">
         <v>0.17</v>
       </c>
       <c r="I107" t="n">
-        <v>2485721</v>
+        <v>2475290</v>
       </c>
     </row>
     <row r="108">
@@ -4189,22 +4189,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>13974490</v>
+        <v>13906184</v>
       </c>
       <c r="E108" t="n">
-        <v>67680687</v>
+        <v>67349867</v>
       </c>
       <c r="F108" t="n">
-        <v>7766.295400254757</v>
+        <v>8081.250444043728</v>
       </c>
       <c r="G108" t="n">
-        <v>11264.71054880107</v>
+        <v>9507.079440858617</v>
       </c>
       <c r="H108" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="I108" t="n">
-        <v>3631051</v>
+        <v>3652131</v>
       </c>
     </row>
     <row r="109">
@@ -4227,19 +4227,19 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>514654</v>
+        <v>496558</v>
       </c>
       <c r="F109" t="n">
-        <v>219.1347983101434</v>
+        <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>16.06987334001429</v>
+        <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>0.79</v>
+        <v>5.13</v>
       </c>
       <c r="I109" t="n">
-        <v>8086.62</v>
+        <v>8077.07</v>
       </c>
     </row>
     <row r="110">
@@ -4259,22 +4259,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>4561768</v>
+        <v>4531526</v>
       </c>
       <c r="E110" t="n">
-        <v>10398349</v>
+        <v>10329414</v>
       </c>
       <c r="F110" t="n">
-        <v>1756.781687993943</v>
+        <v>1756.791462259204</v>
       </c>
       <c r="G110" t="n">
-        <v>1664.408845054792</v>
+        <v>1664.418105382166</v>
       </c>
       <c r="H110" t="n">
         <v>0.86</v>
       </c>
       <c r="I110" t="n">
-        <v>89536</v>
+        <v>96758</v>
       </c>
     </row>
     <row r="111">
@@ -4297,19 +4297,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>1891861931</v>
+        <v>1887314756</v>
       </c>
       <c r="F111" t="n">
-        <v>49338.99081290991</v>
+        <v>93310.99405763202</v>
       </c>
       <c r="G111" t="n">
-        <v>51004.89806018603</v>
+        <v>46365.62821910802</v>
       </c>
       <c r="H111" t="n">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="I111" t="n">
-        <v>25862975</v>
+        <v>25825212</v>
       </c>
     </row>
     <row r="112">
@@ -4329,22 +4329,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>9389359</v>
+        <v>9394052</v>
       </c>
       <c r="E112" t="n">
-        <v>34189464</v>
+        <v>34206546</v>
       </c>
       <c r="F112" t="n">
-        <v>486.9095983463567</v>
+        <v>486.9123145966815</v>
       </c>
       <c r="G112" t="n">
-        <v>379.1250487354917</v>
+        <v>379.1271637041435</v>
       </c>
       <c r="H112" t="n">
         <v>0.87</v>
       </c>
       <c r="I112" t="n">
-        <v>158987</v>
+        <v>158506</v>
       </c>
     </row>
     <row r="113">
@@ -4367,19 +4367,19 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>541370</v>
+        <v>541259</v>
       </c>
       <c r="F113" t="n">
-        <v>20.56424268787087</v>
+        <v>20.56435663604021</v>
       </c>
       <c r="G113" t="n">
-        <v>79.0177181113377</v>
+        <v>180.54751330611</v>
       </c>
       <c r="H113" t="n">
         <v>1.32</v>
       </c>
       <c r="I113" t="n">
-        <v>19327.45</v>
+        <v>19309.69</v>
       </c>
     </row>
     <row r="114">
@@ -4399,22 +4399,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>12196756</v>
+        <v>12211006</v>
       </c>
       <c r="E114" t="n">
-        <v>17683537</v>
+        <v>17704197</v>
       </c>
       <c r="F114" t="n">
-        <v>2861.776083589138</v>
+        <v>2747.879742490803</v>
       </c>
       <c r="G114" t="n">
-        <v>2776.393073962176</v>
+        <v>2544.709596458367</v>
       </c>
       <c r="H114" t="n">
-        <v>0.73</v>
+        <v>0.68</v>
       </c>
       <c r="I114" t="n">
-        <v>2108962</v>
+        <v>2093002</v>
       </c>
     </row>
     <row r="115">
@@ -4434,22 +4434,22 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>2053023</v>
+        <v>2063490</v>
       </c>
       <c r="E115" t="n">
-        <v>14722022</v>
+        <v>14797082</v>
       </c>
       <c r="F115" t="n">
-        <v>651.1532120625234</v>
+        <v>726.4181170136336</v>
       </c>
       <c r="G115" t="n">
-        <v>533.5021161864374</v>
+        <v>729.9658945333188</v>
       </c>
       <c r="H115" t="n">
         <v>2.13</v>
       </c>
       <c r="I115" t="n">
-        <v>1933088</v>
+        <v>1931051</v>
       </c>
     </row>
     <row r="116">
@@ -4469,10 +4469,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2752672</v>
+        <v>2745694</v>
       </c>
       <c r="E116" t="n">
-        <v>5564415</v>
+        <v>5550309</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>4767.29</v>
+        <v>4756.13</v>
       </c>
     </row>
     <row r="117">
@@ -4502,22 +4502,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>203473180</v>
+        <v>201990167</v>
       </c>
       <c r="E117" t="n">
-        <v>1152190166</v>
+        <v>1143792439</v>
       </c>
       <c r="F117" t="n">
-        <v>316247.8634851158</v>
+        <v>431401.3141208506</v>
       </c>
       <c r="G117" t="n">
-        <v>534445.2542307023</v>
+        <v>403382.1791397267</v>
       </c>
       <c r="H117" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I117" t="n">
-        <v>63596853</v>
+        <v>63951183</v>
       </c>
     </row>
     <row r="118">
@@ -4537,22 +4537,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>687557</v>
+        <v>687889</v>
       </c>
       <c r="E118" t="n">
-        <v>2279838</v>
+        <v>2280939</v>
       </c>
       <c r="F118" t="n">
-        <v>8439.152341051016</v>
+        <v>3303.938235440079</v>
       </c>
       <c r="G118" t="n">
-        <v>7822.749006690743</v>
+        <v>8021.149449475512</v>
       </c>
       <c r="H118" t="n">
         <v>0.88</v>
       </c>
       <c r="I118" t="n">
-        <v>24707</v>
+        <v>24676</v>
       </c>
     </row>
     <row r="119">
@@ -4572,22 +4572,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2783530</v>
+        <v>2782749</v>
       </c>
       <c r="E119" t="n">
-        <v>9855305</v>
+        <v>9852540</v>
       </c>
       <c r="F119" t="n">
-        <v>322.6854731663079</v>
+        <v>233.6565380160679</v>
       </c>
       <c r="G119" t="n">
-        <v>1518.134702613078</v>
+        <v>1549.932379808132</v>
       </c>
       <c r="H119" t="n">
-        <v>1.29</v>
+        <v>1.6</v>
       </c>
       <c r="I119" t="n">
-        <v>8827.290000000001</v>
+        <v>8822.790000000001</v>
       </c>
     </row>
     <row r="120">
@@ -4607,22 +4607,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1042827</v>
+        <v>1040533</v>
       </c>
       <c r="E120" t="n">
-        <v>1042827</v>
+        <v>1040533</v>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>113.4463133406395</v>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>75.35749211726042</v>
       </c>
       <c r="H120" t="n">
-        <v>11.08</v>
+        <v>3.6</v>
       </c>
       <c r="I120" t="n">
-        <v>11922.45</v>
+        <v>11845.29</v>
       </c>
     </row>
     <row r="121">
@@ -4642,22 +4642,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>506409</v>
+        <v>508526</v>
       </c>
       <c r="E121" t="n">
-        <v>1704503</v>
+        <v>1711629</v>
       </c>
       <c r="F121" t="n">
-        <v>467.4465190177816</v>
+        <v>465.4341922896962</v>
       </c>
       <c r="G121" t="n">
-        <v>666.2299404914227</v>
+        <v>586.3716404769968</v>
       </c>
       <c r="H121" t="n">
-        <v>0.76</v>
+        <v>0.53</v>
       </c>
       <c r="I121" t="n">
-        <v>628632</v>
+        <v>628800</v>
       </c>
     </row>
     <row r="122">
@@ -4677,22 +4677,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>453199</v>
+        <v>453057</v>
       </c>
       <c r="E122" t="n">
-        <v>840772</v>
+        <v>840509</v>
       </c>
       <c r="F122" t="n">
-        <v>12.50899138350908</v>
+        <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>3.497253175995067</v>
+        <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>3.41</v>
+        <v>4.49</v>
       </c>
       <c r="I122" t="n">
-        <v>208124</v>
+        <v>209493</v>
       </c>
     </row>
     <row r="123">
@@ -4715,19 +4715,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>11819209</v>
+        <v>11822041</v>
       </c>
       <c r="F123" t="n">
-        <v>106.4920193282906</v>
+        <v>127.1261015407728</v>
       </c>
       <c r="G123" t="n">
-        <v>145.4309261019638</v>
+        <v>155.2390147966844</v>
       </c>
       <c r="H123" t="n">
-        <v>2.74</v>
+        <v>2.66</v>
       </c>
       <c r="I123" t="n">
-        <v>7685.61</v>
+        <v>7725.24</v>
       </c>
     </row>
     <row r="124">
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>1242433</v>
+        <v>1228095</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -4759,10 +4759,10 @@
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>5.8</v>
+        <v>3.99</v>
       </c>
       <c r="I124" t="n">
-        <v>48944</v>
+        <v>48499</v>
       </c>
     </row>
     <row r="125">
@@ -4782,22 +4782,22 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3419051</v>
+        <v>3449260</v>
       </c>
       <c r="E125" t="n">
-        <v>7984053</v>
+        <v>8054598</v>
       </c>
       <c r="F125" t="n">
-        <v>860.4577615481744</v>
+        <v>840.2251150642385</v>
       </c>
       <c r="G125" t="n">
-        <v>1285.711860804209</v>
+        <v>1087.648372382828</v>
       </c>
       <c r="H125" t="n">
-        <v>1.26</v>
+        <v>1.41</v>
       </c>
       <c r="I125" t="n">
-        <v>780281</v>
+        <v>777037</v>
       </c>
     </row>
     <row r="126">
@@ -4817,22 +4817,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>258955</v>
+        <v>257350</v>
       </c>
       <c r="E126" t="n">
-        <v>2285472</v>
+        <v>2271307</v>
       </c>
       <c r="F126" t="n">
-        <v>11.04949462997214</v>
+        <v>590.5129125845947</v>
       </c>
       <c r="G126" t="n">
-        <v>134.6510301850795</v>
+        <v>10.73983286456338</v>
       </c>
       <c r="H126" t="n">
-        <v>3.2</v>
+        <v>3.04</v>
       </c>
       <c r="I126" t="n">
-        <v>71866</v>
+        <v>71327</v>
       </c>
     </row>
     <row r="127">
@@ -4855,19 +4855,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>645281</v>
+        <v>645269</v>
       </c>
       <c r="F127" t="n">
-        <v>590.0047238207095</v>
+        <v>590.0079843429645</v>
       </c>
       <c r="G127" t="n">
-        <v>472.8277880073156</v>
+        <v>472.8304009788111</v>
       </c>
       <c r="H127" t="n">
         <v>1.9</v>
       </c>
       <c r="I127" t="n">
-        <v>5679.43</v>
+        <v>5682.73</v>
       </c>
     </row>
     <row r="128">
@@ -4887,22 +4887,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>4914978</v>
+        <v>4918148</v>
       </c>
       <c r="E128" t="n">
-        <v>17366905</v>
+        <v>17378104</v>
       </c>
       <c r="F128" t="n">
-        <v>1634.06292945802</v>
+        <v>1595.533020078906</v>
       </c>
       <c r="G128" t="n">
-        <v>1842.357740581114</v>
+        <v>1924.858042318134</v>
       </c>
       <c r="H128" t="n">
         <v>0.75</v>
       </c>
       <c r="I128" t="n">
-        <v>102004</v>
+        <v>98772</v>
       </c>
     </row>
     <row r="129">
@@ -4925,19 +4925,19 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2199714</v>
+        <v>2198058</v>
       </c>
       <c r="F129" t="n">
-        <v>165.6223274341945</v>
+        <v>165.875878170535</v>
       </c>
       <c r="G129" t="n">
-        <v>43.63415722723443</v>
+        <v>43.64915994372742</v>
       </c>
       <c r="H129" t="n">
         <v>0.04</v>
       </c>
       <c r="I129" t="n">
-        <v>8743.719999999999</v>
+        <v>8741.379999999999</v>
       </c>
     </row>
     <row r="130">
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>2509991</v>
+        <v>2512726</v>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
@@ -4970,7 +4970,7 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>2449.55</v>
+        <v>2458.51</v>
       </c>
     </row>
     <row r="131">
@@ -4990,22 +4990,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>79715</v>
+        <v>84065</v>
       </c>
       <c r="E131" t="n">
-        <v>79715</v>
+        <v>84065</v>
       </c>
       <c r="F131" t="n">
-        <v>15.31308732465359</v>
+        <v>156.9056825863254</v>
       </c>
       <c r="G131" t="n">
-        <v>6.331723175690372</v>
+        <v>5.300216638245179</v>
       </c>
       <c r="H131" t="n">
-        <v>0.62</v>
+        <v>1.63</v>
       </c>
       <c r="I131" t="n">
-        <v>19039.13</v>
+        <v>20213</v>
       </c>
     </row>
     <row r="132">
@@ -5028,19 +5028,19 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>4388233</v>
+        <v>4384952</v>
       </c>
       <c r="F132" t="n">
-        <v>445.0600483167495</v>
+        <v>573.3893966628377</v>
       </c>
       <c r="G132" t="n">
-        <v>311.0559619387664</v>
+        <v>278.841691731104</v>
       </c>
       <c r="H132" t="n">
-        <v>0.24</v>
+        <v>0.38</v>
       </c>
       <c r="I132" t="n">
-        <v>275946</v>
+        <v>275491</v>
       </c>
     </row>
     <row r="133">
@@ -5060,22 +5060,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2154266</v>
+        <v>2139879</v>
       </c>
       <c r="E133" t="n">
-        <v>8797463</v>
+        <v>8738712</v>
       </c>
       <c r="F133" t="n">
-        <v>639.7579974527937</v>
+        <v>760.0174035481373</v>
       </c>
       <c r="G133" t="n">
-        <v>504.3877822414034</v>
+        <v>617.5616833681063</v>
       </c>
       <c r="H133" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="I133" t="n">
-        <v>557497</v>
+        <v>564148</v>
       </c>
     </row>
     <row r="134">
@@ -5095,22 +5095,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>7517731</v>
+        <v>7393206</v>
       </c>
       <c r="E134" t="n">
-        <v>7573612</v>
+        <v>7448162</v>
       </c>
       <c r="F134" t="n">
-        <v>253901.6790920267</v>
+        <v>341639.1114924102</v>
       </c>
       <c r="G134" t="n">
-        <v>357181.6544050765</v>
+        <v>255713.7438443255</v>
       </c>
       <c r="H134" t="n">
         <v>0.22</v>
       </c>
       <c r="I134" t="n">
-        <v>4879733</v>
+        <v>4786193</v>
       </c>
     </row>
     <row r="135">
@@ -5130,22 +5130,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>13627115</v>
+        <v>13635211</v>
       </c>
       <c r="E135" t="n">
-        <v>13673490</v>
+        <v>13681613</v>
       </c>
       <c r="F135" t="n">
-        <v>16929.83270912223</v>
+        <v>12873.76504282401</v>
       </c>
       <c r="G135" t="n">
-        <v>13211.3240250739</v>
+        <v>13192.13139336562</v>
       </c>
       <c r="H135" t="n">
         <v>0.13</v>
       </c>
       <c r="I135" t="n">
-        <v>5867084</v>
+        <v>5738229</v>
       </c>
     </row>
     <row r="136">
@@ -5165,22 +5165,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>42873956</v>
+        <v>42866152</v>
       </c>
       <c r="E136" t="n">
-        <v>72790002</v>
+        <v>72776754</v>
       </c>
       <c r="F136" t="n">
-        <v>1026.753177622769</v>
+        <v>1036.399285154888</v>
       </c>
       <c r="G136" t="n">
-        <v>756.4856102670458</v>
+        <v>784.7271607932211</v>
       </c>
       <c r="H136" t="n">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="I136" t="n">
-        <v>1092369</v>
+        <v>1087980</v>
       </c>
     </row>
     <row r="137">
@@ -5200,22 +5200,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>24666655</v>
+        <v>24443206</v>
       </c>
       <c r="E137" t="n">
-        <v>73937624</v>
+        <v>73267844</v>
       </c>
       <c r="F137" t="n">
-        <v>58408.03845272621</v>
+        <v>94780.36033576915</v>
       </c>
       <c r="G137" t="n">
-        <v>89646.1117285801</v>
+        <v>82455.40579658456</v>
       </c>
       <c r="H137" t="n">
-        <v>0.11</v>
+        <v>0.3</v>
       </c>
       <c r="I137" t="n">
-        <v>2725175</v>
+        <v>2728083</v>
       </c>
     </row>
     <row r="138">
@@ -5235,22 +5235,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>101326383</v>
+        <v>101402625</v>
       </c>
       <c r="E138" t="n">
-        <v>107719103</v>
+        <v>107800154</v>
       </c>
       <c r="F138" t="n">
-        <v>7587.020648617461</v>
+        <v>8545.755690090578</v>
       </c>
       <c r="G138" t="n">
-        <v>11473.84720763003</v>
+        <v>10224.5451374014</v>
       </c>
       <c r="H138" t="n">
-        <v>0.44</v>
+        <v>0.31</v>
       </c>
       <c r="I138" t="n">
-        <v>861007</v>
+        <v>900152</v>
       </c>
     </row>
     <row r="139">
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1161601</v>
+        <v>1161231</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -5285,7 +5285,7 @@
         <v>5.44</v>
       </c>
       <c r="I139" t="n">
-        <v>136.35</v>
+        <v>136.31</v>
       </c>
     </row>
     <row r="140">
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>258712</v>
+        <v>258575</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -5317,10 +5317,10 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>8.050000000000001</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="I140" t="n">
-        <v>465.53</v>
+        <v>465.24</v>
       </c>
     </row>
     <row r="141">
@@ -5336,10 +5336,10 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>97056</v>
+        <v>97042</v>
       </c>
       <c r="E141" t="n">
-        <v>275326</v>
+        <v>275285</v>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
@@ -5369,22 +5369,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>47183072</v>
+        <v>47023130</v>
       </c>
       <c r="E142" t="n">
-        <v>203259515</v>
+        <v>202570500</v>
       </c>
       <c r="F142" t="n">
-        <v>64757.4005344019</v>
+        <v>76514.75848022568</v>
       </c>
       <c r="G142" t="n">
-        <v>77065.19682752959</v>
+        <v>60486.30190801834</v>
       </c>
       <c r="H142" t="n">
         <v>0.1</v>
       </c>
       <c r="I142" t="n">
-        <v>8746096</v>
+        <v>8747618</v>
       </c>
     </row>
     <row r="143">
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>280512</v>
+        <v>280177</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -5416,10 +5416,10 @@
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>9.73</v>
+        <v>9.4</v>
       </c>
       <c r="I143" t="n">
-        <v>208591</v>
+        <v>208473</v>
       </c>
     </row>
     <row r="144">
@@ -5442,19 +5442,19 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>9485774</v>
+        <v>9440344</v>
       </c>
       <c r="F144" t="n">
-        <v>1247.443724934253</v>
+        <v>742.7188537124114</v>
       </c>
       <c r="G144" t="n">
-        <v>353.0588345820131</v>
+        <v>364.897086297299</v>
       </c>
       <c r="H144" t="n">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="I144" t="n">
-        <v>121533</v>
+        <v>121670</v>
       </c>
     </row>
     <row r="145">
@@ -5474,22 +5474,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1179693</v>
+        <v>1181379</v>
       </c>
       <c r="E145" t="n">
-        <v>7864622</v>
+        <v>7875863</v>
       </c>
       <c r="F145" t="n">
-        <v>85.49087100726413</v>
+        <v>85.4913434524434</v>
       </c>
       <c r="G145" t="n">
-        <v>101.2696432017498</v>
+        <v>101.2702028446003</v>
       </c>
       <c r="H145" t="n">
         <v>0.53</v>
       </c>
       <c r="I145" t="n">
-        <v>4923.64</v>
+        <v>4908.06</v>
       </c>
     </row>
     <row r="146">
@@ -5512,19 +5512,19 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>7876235</v>
+        <v>7873386</v>
       </c>
       <c r="F146" t="n">
-        <v>164.1683557715891</v>
+        <v>285.2685563952427</v>
       </c>
       <c r="G146" t="n">
-        <v>316.6841218907839</v>
+        <v>268.7781699995766</v>
       </c>
       <c r="H146" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="I146" t="n">
-        <v>6302465</v>
+        <v>6320343</v>
       </c>
     </row>
     <row r="147">
@@ -5544,22 +5544,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>664655</v>
+        <v>664658</v>
       </c>
       <c r="E147" t="n">
-        <v>2399807</v>
+        <v>2399816</v>
       </c>
       <c r="F147" t="n">
-        <v>10.08999903200556</v>
+        <v>10.09005479201064</v>
       </c>
       <c r="G147" t="n">
-        <v>290.4124547272321</v>
+        <v>290.4140596233177</v>
       </c>
       <c r="H147" t="n">
         <v>0.95</v>
       </c>
       <c r="I147" t="n">
-        <v>404970</v>
+        <v>405157</v>
       </c>
     </row>
     <row r="148">
@@ -5582,19 +5582,19 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>1675498</v>
+        <v>1642684</v>
       </c>
       <c r="F148" t="n">
-        <v>38.39062520206376</v>
+        <v>182.1513393255882</v>
       </c>
       <c r="G148" t="n">
-        <v>1154.286062474871</v>
+        <v>208.1184508122396</v>
       </c>
       <c r="H148" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="I148" t="n">
-        <v>89863</v>
+        <v>88745</v>
       </c>
     </row>
     <row r="149">
@@ -5617,19 +5617,19 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>65151</v>
+        <v>67202</v>
       </c>
       <c r="F149" t="n">
-        <v>63.79177996386916</v>
+        <v>11.00485106815664</v>
       </c>
       <c r="G149" t="n">
-        <v>69.60996309524818</v>
+        <v>292.1337135356826</v>
       </c>
       <c r="H149" t="n">
-        <v>3.12</v>
+        <v>3.03</v>
       </c>
       <c r="I149" t="n">
-        <v>874.5</v>
+        <v>930.54</v>
       </c>
     </row>
     <row r="150">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>12974279</v>
+        <v>13051941</v>
       </c>
       <c r="E150" t="n">
-        <v>12974279</v>
+        <v>13051941</v>
       </c>
       <c r="F150" t="n">
-        <v>581.8401714210405</v>
+        <v>396.4473134132455</v>
       </c>
       <c r="G150" t="n">
-        <v>1012.344392184895</v>
+        <v>1500.775529594778</v>
       </c>
       <c r="H150" t="n">
-        <v>0.31</v>
+        <v>0.7</v>
       </c>
       <c r="I150" t="n">
-        <v>3291514</v>
+        <v>3362696</v>
       </c>
     </row>
     <row r="151">
@@ -5684,22 +5684,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1658179</v>
+        <v>1662434</v>
       </c>
       <c r="E151" t="n">
-        <v>6025421</v>
+        <v>6040777</v>
       </c>
       <c r="F151" t="n">
-        <v>1.05827147664923</v>
+        <v>48.98604116280342</v>
       </c>
       <c r="G151" t="n">
-        <v>31.98578397683038</v>
+        <v>171.5938186046895</v>
       </c>
       <c r="H151" t="n">
-        <v>1.72</v>
+        <v>1.38</v>
       </c>
       <c r="I151" t="n">
-        <v>127821</v>
+        <v>127866</v>
       </c>
     </row>
     <row r="152">
@@ -5719,10 +5719,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1255976</v>
+        <v>1251816</v>
       </c>
       <c r="E152" t="n">
-        <v>1255976</v>
+        <v>1251816</v>
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>647.36</v>
+        <v>645.22</v>
       </c>
     </row>
     <row r="153">
@@ -5752,22 +5752,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>23669677</v>
+        <v>23661280</v>
       </c>
       <c r="E153" t="n">
-        <v>27290552</v>
+        <v>27282886</v>
       </c>
       <c r="F153" t="n">
-        <v>174.6656522760966</v>
+        <v>424.9618483432089</v>
       </c>
       <c r="G153" t="n">
-        <v>558.4576087790206</v>
+        <v>689.4494543413165</v>
       </c>
       <c r="H153" t="n">
         <v>0.18</v>
       </c>
       <c r="I153" t="n">
-        <v>762113</v>
+        <v>783862</v>
       </c>
     </row>
     <row r="154">
@@ -5787,22 +5787,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2451928</v>
+        <v>2451016</v>
       </c>
       <c r="E154" t="n">
-        <v>18450593</v>
+        <v>18443732</v>
       </c>
       <c r="F154" t="n">
-        <v>4800.385915477286</v>
+        <v>4328.140773011937</v>
       </c>
       <c r="G154" t="n">
-        <v>3133.145109181023</v>
+        <v>3317.417155014009</v>
       </c>
       <c r="H154" t="n">
         <v>0.05</v>
       </c>
       <c r="I154" t="n">
-        <v>161879</v>
+        <v>161832</v>
       </c>
     </row>
     <row r="155">
@@ -5822,22 +5822,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>20817886</v>
+        <v>20710798</v>
       </c>
       <c r="E155" t="n">
-        <v>83271542</v>
+        <v>82843192</v>
       </c>
       <c r="F155" t="n">
-        <v>5723.550244357991</v>
+        <v>5134.269990396635</v>
       </c>
       <c r="G155" t="n">
-        <v>9108.953527309701</v>
+        <v>7736.838907041588</v>
       </c>
       <c r="H155" t="n">
-        <v>0.6</v>
+        <v>0.72</v>
       </c>
       <c r="I155" t="n">
-        <v>5972902</v>
+        <v>5963802</v>
       </c>
     </row>
     <row r="156">
@@ -5857,22 +5857,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>304353513</v>
+        <v>304238901</v>
       </c>
       <c r="E156" t="n">
-        <v>304353513</v>
+        <v>304238901</v>
       </c>
       <c r="F156" t="n">
-        <v>277354.9358412551</v>
+        <v>320987.0875777691</v>
       </c>
       <c r="G156" t="n">
-        <v>401035.98561498</v>
+        <v>155021.5662014499</v>
       </c>
       <c r="H156" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="I156" t="n">
-        <v>12638667</v>
+        <v>12629677</v>
       </c>
     </row>
     <row r="157">
@@ -5892,22 +5892,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>12788656</v>
+        <v>12740472</v>
       </c>
       <c r="E157" t="n">
-        <v>40459155</v>
+        <v>40306716</v>
       </c>
       <c r="F157" t="n">
-        <v>10158.15915216694</v>
+        <v>9158.934389928409</v>
       </c>
       <c r="G157" t="n">
-        <v>18057.87669993572</v>
+        <v>11519.38186679926</v>
       </c>
       <c r="H157" t="n">
-        <v>0.3</v>
+        <v>0.49</v>
       </c>
       <c r="I157" t="n">
-        <v>1395065</v>
+        <v>1395793</v>
       </c>
     </row>
     <row r="158">
@@ -5927,10 +5927,10 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1088271</v>
+        <v>1087114</v>
       </c>
       <c r="E158" t="n">
-        <v>2478643</v>
+        <v>2476008</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -5942,7 +5942,7 @@
         <v>6.77</v>
       </c>
       <c r="I158" t="n">
-        <v>5005.44</v>
+        <v>5001.47</v>
       </c>
     </row>
     <row r="159">
@@ -5962,22 +5962,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>17092696</v>
+        <v>17194603</v>
       </c>
       <c r="E159" t="n">
-        <v>17092696</v>
+        <v>17194603</v>
       </c>
       <c r="F159" t="n">
-        <v>13162.70362422929</v>
+        <v>14261.25915332891</v>
       </c>
       <c r="G159" t="n">
-        <v>23402.17748827335</v>
+        <v>18453.6414642743</v>
       </c>
       <c r="H159" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I159" t="n">
-        <v>3501174</v>
+        <v>2546668</v>
       </c>
     </row>
     <row r="160">
@@ -5997,10 +5997,10 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>4864997</v>
+        <v>4861334</v>
       </c>
       <c r="E160" t="n">
-        <v>8956979</v>
+        <v>8950236</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -6032,10 +6032,10 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>109070</v>
+        <v>109151</v>
       </c>
       <c r="E161" t="n">
-        <v>131276</v>
+        <v>131374</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -6044,10 +6044,10 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>7.35</v>
+        <v>7.41</v>
       </c>
       <c r="I161" t="n">
-        <v>4352.45</v>
+        <v>4352.79</v>
       </c>
     </row>
     <row r="162">
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>19509347</v>
+        <v>19467164</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -6082,7 +6082,7 @@
         <v>4.87</v>
       </c>
       <c r="I162" t="n">
-        <v>1329.65</v>
+        <v>1326.25</v>
       </c>
     </row>
     <row r="163">
@@ -6102,22 +6102,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>437529</v>
+        <v>436057</v>
       </c>
       <c r="E163" t="n">
-        <v>551123</v>
+        <v>549268</v>
       </c>
       <c r="F163" t="n">
-        <v>214.1002551919072</v>
+        <v>135.9156068311572</v>
       </c>
       <c r="G163" t="n">
-        <v>183.9857647477731</v>
+        <v>97.47759373458899</v>
       </c>
       <c r="H163" t="n">
-        <v>1.44</v>
+        <v>0.91</v>
       </c>
       <c r="I163" t="n">
-        <v>190033</v>
+        <v>190170</v>
       </c>
     </row>
     <row r="164">
@@ -6140,19 +6140,19 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>108485</v>
+        <v>108403</v>
       </c>
       <c r="F164" t="n">
-        <v>120.5098689871301</v>
+        <v>120.51053674228</v>
       </c>
       <c r="G164" t="n">
-        <v>1.214443651626153</v>
+        <v>1.214450380958858</v>
       </c>
       <c r="H164" t="n">
         <v>0.38</v>
       </c>
       <c r="I164" t="n">
-        <v>3671.78</v>
+        <v>3670.8</v>
       </c>
     </row>
     <row r="165">
@@ -6172,22 +6172,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>12419978</v>
+        <v>12403441</v>
       </c>
       <c r="E165" t="n">
-        <v>18928865</v>
+        <v>18903662</v>
       </c>
       <c r="F165" t="n">
-        <v>688.0566737281848</v>
+        <v>1956.409167998986</v>
       </c>
       <c r="G165" t="n">
-        <v>4113.881670441911</v>
+        <v>4536.633501082727</v>
       </c>
       <c r="H165" t="n">
-        <v>1.41</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I165" t="n">
-        <v>699084</v>
+        <v>695516</v>
       </c>
     </row>
     <row r="166">
@@ -6207,22 +6207,22 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>303599416</v>
+        <v>302562674</v>
       </c>
       <c r="E166" t="n">
-        <v>303599416</v>
+        <v>302562674</v>
       </c>
       <c r="F166" t="n">
-        <v>307386.4276387537</v>
+        <v>361077.845166048</v>
       </c>
       <c r="G166" t="n">
-        <v>363501.9839950695</v>
+        <v>302920.2854715795</v>
       </c>
       <c r="H166" t="n">
         <v>0.03</v>
       </c>
       <c r="I166" t="n">
-        <v>50575470</v>
+        <v>50309575</v>
       </c>
     </row>
     <row r="167">
@@ -6242,22 +6242,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>10320199</v>
+        <v>10164249</v>
       </c>
       <c r="E167" t="n">
-        <v>29300767</v>
+        <v>28857998</v>
       </c>
       <c r="F167" t="n">
-        <v>264.9866554210138</v>
+        <v>239.2114967445864</v>
       </c>
       <c r="G167" t="n">
-        <v>581.9631563649126</v>
+        <v>618.2844378818879</v>
       </c>
       <c r="H167" t="n">
         <v>1.03</v>
       </c>
       <c r="I167" t="n">
-        <v>129357</v>
+        <v>127649</v>
       </c>
     </row>
     <row r="168">
@@ -6280,19 +6280,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>11902071</v>
+        <v>11888465</v>
       </c>
       <c r="F168" t="n">
-        <v>164.8625928364284</v>
+        <v>161.3524418058696</v>
       </c>
       <c r="G168" t="n">
-        <v>3384.610535568735</v>
+        <v>3093.399835483209</v>
       </c>
       <c r="H168" t="n">
-        <v>1.33</v>
+        <v>0.59</v>
       </c>
       <c r="I168" t="n">
-        <v>107295</v>
+        <v>106005</v>
       </c>
     </row>
     <row r="169">
@@ -6312,22 +6312,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>4234262</v>
+        <v>4235825</v>
       </c>
       <c r="E169" t="n">
-        <v>28932411</v>
+        <v>28943091</v>
       </c>
       <c r="F169" t="n">
-        <v>1590.572179648336</v>
+        <v>1448.040094736618</v>
       </c>
       <c r="G169" t="n">
-        <v>2516.920490267716</v>
+        <v>1464.339273530138</v>
       </c>
       <c r="H169" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="I169" t="n">
-        <v>2565984</v>
+        <v>2576587</v>
       </c>
     </row>
     <row r="170">
@@ -6347,22 +6347,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2872646</v>
+        <v>2854145</v>
       </c>
       <c r="E170" t="n">
-        <v>4263163</v>
+        <v>4235518</v>
       </c>
       <c r="F170" t="n">
-        <v>277.5739591555397</v>
+        <v>201.6928311520062</v>
       </c>
       <c r="G170" t="n">
-        <v>1588.807326513541</v>
+        <v>1114.02621867165</v>
       </c>
       <c r="H170" t="n">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="I170" t="n">
-        <v>229607</v>
+        <v>223863</v>
       </c>
     </row>
     <row r="171">
@@ -6382,22 +6382,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>89776982</v>
+        <v>89673383</v>
       </c>
       <c r="E171" t="n">
-        <v>517333694</v>
+        <v>516736708</v>
       </c>
       <c r="F171" t="n">
-        <v>288671.0086893213</v>
+        <v>382352.6007470498</v>
       </c>
       <c r="G171" t="n">
-        <v>361552.0806410898</v>
+        <v>216085.107720174</v>
       </c>
       <c r="H171" t="n">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
       <c r="I171" t="n">
-        <v>16055538</v>
+        <v>16009050</v>
       </c>
     </row>
     <row r="172">
@@ -6417,22 +6417,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>13909720</v>
+        <v>13919228</v>
       </c>
       <c r="E172" t="n">
-        <v>13909720</v>
+        <v>13919228</v>
       </c>
       <c r="F172" t="n">
-        <v>5023.39061797353</v>
+        <v>5033.408185311276</v>
       </c>
       <c r="G172" t="n">
-        <v>4015.339098032265</v>
+        <v>5219.067521955246</v>
       </c>
       <c r="H172" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="I172" t="n">
-        <v>604761</v>
+        <v>587007</v>
       </c>
     </row>
     <row r="173">
@@ -6452,22 +6452,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>6090796</v>
+        <v>6078639</v>
       </c>
       <c r="E173" t="n">
-        <v>17302204</v>
+        <v>17267669</v>
       </c>
       <c r="F173" t="n">
-        <v>1153.887997463973</v>
+        <v>890.1199179496815</v>
       </c>
       <c r="G173" t="n">
-        <v>10914.9847963152</v>
+        <v>10815.59367276174</v>
       </c>
       <c r="H173" t="n">
         <v>0.12</v>
       </c>
       <c r="I173" t="n">
-        <v>217249</v>
+        <v>218516</v>
       </c>
     </row>
     <row r="174">
@@ -6487,22 +6487,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>17115344</v>
+        <v>17147654</v>
       </c>
       <c r="E174" t="n">
-        <v>17115344</v>
+        <v>17147654</v>
       </c>
       <c r="F174" t="n">
-        <v>294.3856852320177</v>
+        <v>298.0872901232761</v>
       </c>
       <c r="G174" t="n">
-        <v>283.5808640845652</v>
+        <v>291.6670794364814</v>
       </c>
       <c r="H174" t="n">
-        <v>2.49</v>
+        <v>2.29</v>
       </c>
       <c r="I174" t="n">
-        <v>79084</v>
+        <v>77635</v>
       </c>
     </row>
     <row r="175">
@@ -6525,19 +6525,19 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>1332663</v>
+        <v>1321499</v>
       </c>
       <c r="F175" t="n">
-        <v>33.83683415516516</v>
+        <v>33.83702114646599</v>
       </c>
       <c r="G175" t="n">
-        <v>359.2278555151713</v>
+        <v>378.105467818913</v>
       </c>
       <c r="H175" t="n">
         <v>0.08</v>
       </c>
       <c r="I175" t="n">
-        <v>4171.98</v>
+        <v>17458.17</v>
       </c>
     </row>
     <row r="176">
@@ -6557,10 +6557,10 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>128324</v>
+        <v>129426</v>
       </c>
       <c r="E176" t="n">
-        <v>279360</v>
+        <v>281757</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -6572,7 +6572,7 @@
         <v>7.67</v>
       </c>
       <c r="I176" t="n">
-        <v>47602</v>
+        <v>47895</v>
       </c>
     </row>
     <row r="177">
@@ -6595,19 +6595,19 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>2590594</v>
+        <v>2624467</v>
       </c>
       <c r="F177" t="n">
-        <v>79.60038993263007</v>
+        <v>291.8695456559935</v>
       </c>
       <c r="G177" t="n">
-        <v>38.91041798148074</v>
+        <v>311.8753516925953</v>
       </c>
       <c r="H177" t="n">
-        <v>3.76</v>
+        <v>1.52</v>
       </c>
       <c r="I177" t="n">
-        <v>170429</v>
+        <v>179477</v>
       </c>
     </row>
     <row r="178">
@@ -6627,22 +6627,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>248844952</v>
+        <v>249066857</v>
       </c>
       <c r="E178" t="n">
-        <v>248847424</v>
+        <v>249069331</v>
       </c>
       <c r="F178" t="n">
-        <v>52622.81549905361</v>
+        <v>50414.34380869845</v>
       </c>
       <c r="G178" t="n">
-        <v>71095.88029060082</v>
+        <v>83744.86343777135</v>
       </c>
       <c r="H178" t="n">
-        <v>0.5</v>
+        <v>0.36</v>
       </c>
       <c r="I178" t="n">
-        <v>2708494</v>
+        <v>2713770</v>
       </c>
     </row>
     <row r="179">
@@ -6662,22 +6662,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>9261298</v>
+        <v>9271652</v>
       </c>
       <c r="E179" t="n">
-        <v>9261298</v>
+        <v>9271652</v>
       </c>
       <c r="F179" t="n">
-        <v>1187.123636624066</v>
+        <v>1884.746723408219</v>
       </c>
       <c r="G179" t="n">
-        <v>299.4874571417045</v>
+        <v>398.2596353872303</v>
       </c>
       <c r="H179" t="n">
         <v>0.65</v>
       </c>
       <c r="I179" t="n">
-        <v>2065110</v>
+        <v>2062877</v>
       </c>
     </row>
     <row r="180">
@@ -6697,22 +6697,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>190464</v>
+        <v>188684</v>
       </c>
       <c r="E180" t="n">
-        <v>1470761</v>
+        <v>1457022</v>
       </c>
       <c r="F180" t="n">
-        <v>89.47986389495698</v>
+        <v>26.02683624602452</v>
       </c>
       <c r="G180" t="n">
-        <v>1.629702001869896</v>
+        <v>200.3620258809866</v>
       </c>
       <c r="H180" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="I180" t="n">
-        <v>100369</v>
+        <v>106929</v>
       </c>
     </row>
     <row r="181">
@@ -6732,22 +6732,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>30550764</v>
+        <v>30413545</v>
       </c>
       <c r="E181" t="n">
-        <v>136788303</v>
+        <v>136173918</v>
       </c>
       <c r="F181" t="n">
-        <v>62287.93674405114</v>
+        <v>68000.81417556443</v>
       </c>
       <c r="G181" t="n">
-        <v>81271.88049102627</v>
+        <v>73766.86518564448</v>
       </c>
       <c r="H181" t="n">
         <v>0.29</v>
       </c>
       <c r="I181" t="n">
-        <v>8938125</v>
+        <v>8903408</v>
       </c>
     </row>
     <row r="182">
@@ -6770,19 +6770,19 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>1493520</v>
+        <v>1496054</v>
       </c>
       <c r="F182" t="n">
-        <v>497.0077925152663</v>
+        <v>327.9430737057223</v>
       </c>
       <c r="G182" t="n">
-        <v>281.2855460230587</v>
+        <v>281.0826718644227</v>
       </c>
       <c r="H182" t="n">
-        <v>0.91</v>
+        <v>1.55</v>
       </c>
       <c r="I182" t="n">
-        <v>27025</v>
+        <v>53297</v>
       </c>
     </row>
     <row r="183">
@@ -6802,22 +6802,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>3195308</v>
+        <v>3288009</v>
       </c>
       <c r="E183" t="n">
-        <v>3195308</v>
+        <v>3288009</v>
       </c>
       <c r="F183" t="n">
-        <v>525.3760727590749</v>
+        <v>12.13402949107075</v>
       </c>
       <c r="G183" t="n">
-        <v>1088.118106641567</v>
+        <v>179.914243758089</v>
       </c>
       <c r="H183" t="n">
-        <v>1.82</v>
+        <v>2.71</v>
       </c>
       <c r="I183" t="n">
-        <v>428550</v>
+        <v>436823</v>
       </c>
     </row>
     <row r="184">
@@ -6837,22 +6837,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>574727</v>
+        <v>574854</v>
       </c>
       <c r="E184" t="n">
-        <v>574727</v>
+        <v>574854</v>
       </c>
       <c r="F184" t="n">
-        <v>13.56546544924756</v>
+        <v>4.837926569637711</v>
       </c>
       <c r="G184" t="n">
-        <v>25.31194444162675</v>
+        <v>25.31208469720413</v>
       </c>
       <c r="H184" t="n">
         <v>1.75</v>
       </c>
       <c r="I184" t="n">
-        <v>1386876</v>
+        <v>1374781</v>
       </c>
     </row>
     <row r="185">
@@ -6872,22 +6872,22 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>13471883</v>
+        <v>13409676</v>
       </c>
       <c r="E185" t="n">
-        <v>17151858</v>
+        <v>17072658</v>
       </c>
       <c r="F185" t="n">
-        <v>1727.072016260173</v>
+        <v>226.6241067400649</v>
       </c>
       <c r="G185" t="n">
-        <v>164.4718634813777</v>
+        <v>1025.321907151706</v>
       </c>
       <c r="H185" t="n">
-        <v>1.48</v>
+        <v>0.98</v>
       </c>
       <c r="I185" t="n">
-        <v>781590</v>
+        <v>791152</v>
       </c>
     </row>
     <row r="186">
@@ -6907,22 +6907,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1872622</v>
+        <v>1867588</v>
       </c>
       <c r="E186" t="n">
-        <v>1872622</v>
+        <v>1867588</v>
       </c>
       <c r="F186" t="n">
-        <v>5.365833404952397</v>
+        <v>5.447007111703408</v>
       </c>
       <c r="G186" t="n">
-        <v>22.2545214175021</v>
+        <v>22.25464440187735</v>
       </c>
       <c r="H186" t="n">
         <v>3.7</v>
       </c>
       <c r="I186" t="n">
-        <v>2662.4</v>
+        <v>2778.45</v>
       </c>
     </row>
     <row r="187">
@@ -6942,22 +6942,22 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>47735490</v>
+        <v>47657788</v>
       </c>
       <c r="E187" t="n">
-        <v>309551947</v>
+        <v>309048072</v>
       </c>
       <c r="F187" t="n">
-        <v>153072.0710721417</v>
+        <v>156485.2680887221</v>
       </c>
       <c r="G187" t="n">
-        <v>170470.7204539738</v>
+        <v>168861.326272571</v>
       </c>
       <c r="H187" t="n">
         <v>0.05</v>
       </c>
       <c r="I187" t="n">
-        <v>17240464</v>
+        <v>16888996</v>
       </c>
     </row>
     <row r="188">
@@ -6980,19 +6980,19 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>9243309</v>
+        <v>9282826</v>
       </c>
       <c r="F188" t="n">
-        <v>222.7591008591261</v>
+        <v>365.7498641707581</v>
       </c>
       <c r="G188" t="n">
-        <v>542.0736470407401</v>
+        <v>502.9820407241432</v>
       </c>
       <c r="H188" t="n">
-        <v>2.03</v>
+        <v>1.92</v>
       </c>
       <c r="I188" t="n">
-        <v>297425</v>
+        <v>297055</v>
       </c>
     </row>
     <row r="189">
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>7097641</v>
+        <v>7070257</v>
       </c>
       <c r="E189" t="n">
-        <v>7107750</v>
+        <v>7080385</v>
       </c>
       <c r="F189" t="n">
-        <v>60.28036192806271</v>
+        <v>848.3809338815284</v>
       </c>
       <c r="G189" t="n">
-        <v>620.4918969483261</v>
+        <v>95.39111267256359</v>
       </c>
       <c r="H189" t="n">
-        <v>0.18</v>
+        <v>1.05</v>
       </c>
       <c r="I189" t="n">
-        <v>903602</v>
+        <v>434742</v>
       </c>
     </row>
     <row r="190">
@@ -7050,19 +7050,19 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>4805589</v>
+        <v>4809378</v>
       </c>
       <c r="F190" t="n">
-        <v>2269.949124773259</v>
+        <v>2078.75646044101</v>
       </c>
       <c r="G190" t="n">
-        <v>271.7260024975126</v>
+        <v>127.74814922981</v>
       </c>
       <c r="H190" t="n">
-        <v>1.74</v>
+        <v>1.17</v>
       </c>
       <c r="I190" t="n">
-        <v>170632</v>
+        <v>172267</v>
       </c>
     </row>
     <row r="191">
@@ -7082,22 +7082,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>74974567</v>
+        <v>74628632</v>
       </c>
       <c r="E191" t="n">
-        <v>75781619</v>
+        <v>75431959</v>
       </c>
       <c r="F191" t="n">
-        <v>58419.44073835591</v>
+        <v>57619.01912537994</v>
       </c>
       <c r="G191" t="n">
-        <v>65060.52518921742</v>
+        <v>64541.76165334007</v>
       </c>
       <c r="H191" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I191" t="n">
-        <v>8631059</v>
+        <v>8608662</v>
       </c>
     </row>
     <row r="192">
@@ -7117,22 +7117,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>236070156</v>
+        <v>236070208</v>
       </c>
       <c r="E192" t="n">
-        <v>236070156</v>
+        <v>236070208</v>
       </c>
       <c r="F192" t="n">
-        <v>97854.1035618849</v>
+        <v>91839.51093181985</v>
       </c>
       <c r="G192" t="n">
-        <v>117333.4152357284</v>
+        <v>100944.0287112761</v>
       </c>
       <c r="H192" t="n">
         <v>0.08</v>
       </c>
       <c r="I192" t="n">
-        <v>44603821</v>
+        <v>44597318</v>
       </c>
     </row>
     <row r="193">
@@ -7152,22 +7152,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>23518870</v>
+        <v>23494180</v>
       </c>
       <c r="E193" t="n">
-        <v>140718128</v>
+        <v>140570403</v>
       </c>
       <c r="F193" t="n">
-        <v>95152.94240582387</v>
+        <v>113523.2614175428</v>
       </c>
       <c r="G193" t="n">
-        <v>142030.1748681857</v>
+        <v>96444.00158375077</v>
       </c>
       <c r="H193" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I193" t="n">
-        <v>12872817</v>
+        <v>13032539</v>
       </c>
     </row>
     <row r="194">
@@ -7187,22 +7187,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>13305865</v>
+        <v>13357280</v>
       </c>
       <c r="E194" t="n">
-        <v>40831031</v>
+        <v>40988806</v>
       </c>
       <c r="F194" t="n">
-        <v>764.6884447409781</v>
+        <v>833.7848947195589</v>
       </c>
       <c r="G194" t="n">
-        <v>1022.929275576354</v>
+        <v>1534.924438894413</v>
       </c>
       <c r="H194" t="n">
-        <v>0.15</v>
+        <v>0.32</v>
       </c>
       <c r="I194" t="n">
-        <v>2543780</v>
+        <v>2559460</v>
       </c>
     </row>
     <row r="195">
@@ -7222,22 +7222,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>52956022</v>
+        <v>52912943</v>
       </c>
       <c r="E195" t="n">
-        <v>91466563</v>
+        <v>91392156</v>
       </c>
       <c r="F195" t="n">
-        <v>14240.32135382538</v>
+        <v>6817.491750032593</v>
       </c>
       <c r="G195" t="n">
-        <v>4536.718165000952</v>
+        <v>7797.725904346432</v>
       </c>
       <c r="H195" t="n">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
       <c r="I195" t="n">
-        <v>1936103</v>
+        <v>1940547</v>
       </c>
     </row>
     <row r="196">
@@ -7257,22 +7257,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>4210962</v>
+        <v>4206439</v>
       </c>
       <c r="E196" t="n">
-        <v>4210962</v>
+        <v>4206439</v>
       </c>
       <c r="F196" t="n">
-        <v>1.06432002251496</v>
+        <v>1.064325904229088</v>
       </c>
       <c r="G196" t="n">
-        <v>1037.577454309355</v>
+        <v>444.1172816645322</v>
       </c>
       <c r="H196" t="n">
         <v>1.13</v>
       </c>
       <c r="I196" t="n">
-        <v>1558723</v>
+        <v>1557733</v>
       </c>
     </row>
     <row r="197">
@@ -7295,19 +7295,19 @@
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>208710</v>
+        <v>208497</v>
       </c>
       <c r="F197" t="n">
-        <v>124.5838362074409</v>
+        <v>125.6745962258425</v>
       </c>
       <c r="G197" t="n">
-        <v>70.75344652370995</v>
+        <v>8.295182597197249</v>
       </c>
       <c r="H197" t="n">
-        <v>2.84</v>
+        <v>3.15</v>
       </c>
       <c r="I197" t="n">
-        <v>58034</v>
+        <v>57875</v>
       </c>
     </row>
     <row r="198">
@@ -7327,22 +7327,22 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>6752691</v>
+        <v>6747490</v>
       </c>
       <c r="E198" t="n">
-        <v>34740544</v>
+        <v>34713784</v>
       </c>
       <c r="F198" t="n">
-        <v>461.2818446122176</v>
+        <v>260.6358044501113</v>
       </c>
       <c r="G198" t="n">
-        <v>353.562572129416</v>
+        <v>273.6707443808625</v>
       </c>
       <c r="H198" t="n">
-        <v>1.09</v>
+        <v>1.48</v>
       </c>
       <c r="I198" t="n">
-        <v>894295</v>
+        <v>897821</v>
       </c>
     </row>
     <row r="199">
@@ -7362,22 +7362,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>175823728</v>
+        <v>175765609</v>
       </c>
       <c r="E199" t="n">
-        <v>205414029</v>
+        <v>205346130</v>
       </c>
       <c r="F199" t="n">
-        <v>24822.80396349617</v>
+        <v>26620.96435093268</v>
       </c>
       <c r="G199" t="n">
-        <v>17103.36157008172</v>
+        <v>10859.52275652911</v>
       </c>
       <c r="H199" t="n">
-        <v>0.29</v>
+        <v>0.2</v>
       </c>
       <c r="I199" t="n">
-        <v>3775655</v>
+        <v>3742648</v>
       </c>
     </row>
     <row r="200">
@@ -7400,19 +7400,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>302550</v>
+        <v>302053</v>
       </c>
       <c r="F200" t="n">
-        <v>64.18668842025055</v>
+        <v>5.101158045793458</v>
       </c>
       <c r="G200" t="n">
-        <v>571.984822401156</v>
+        <v>480.9721251820266</v>
       </c>
       <c r="H200" t="n">
-        <v>2.29</v>
+        <v>0.66</v>
       </c>
       <c r="I200" t="n">
-        <v>285608</v>
+        <v>288643</v>
       </c>
     </row>
     <row r="201">
@@ -7435,19 +7435,19 @@
         <v>0</v>
       </c>
       <c r="E201" t="n">
-        <v>8057917</v>
+        <v>8054798</v>
       </c>
       <c r="F201" t="n">
-        <v>867.9103903268646</v>
+        <v>790.2047955491187</v>
       </c>
       <c r="G201" t="n">
-        <v>731.0661734617432</v>
+        <v>671.203954717298</v>
       </c>
       <c r="H201" t="n">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="I201" t="n">
-        <v>697522</v>
+        <v>691035</v>
       </c>
     </row>
     <row r="202">
@@ -7470,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>34012</v>
+        <v>34001</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
@@ -7482,7 +7482,7 @@
         <v>5.56</v>
       </c>
       <c r="I202" t="n">
-        <v>752.51</v>
+        <v>752.3099999999999</v>
       </c>
     </row>
     <row r="203">
@@ -7502,22 +7502,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>34066306</v>
+        <v>34046133</v>
       </c>
       <c r="E203" t="n">
-        <v>170006573</v>
+        <v>169905899</v>
       </c>
       <c r="F203" t="n">
-        <v>89885.79678232428</v>
+        <v>117168.722281511</v>
       </c>
       <c r="G203" t="n">
-        <v>117908.007610771</v>
+        <v>98093.96482525954</v>
       </c>
       <c r="H203" t="n">
         <v>0.12</v>
       </c>
       <c r="I203" t="n">
-        <v>10096619</v>
+        <v>10022816</v>
       </c>
     </row>
     <row r="204">
@@ -7537,10 +7537,10 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1867758</v>
+        <v>1869802</v>
       </c>
       <c r="E204" t="n">
-        <v>1867758</v>
+        <v>1869802</v>
       </c>
       <c r="F204" t="n">
         <v>0</v>
@@ -7549,10 +7549,10 @@
         <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>15.43</v>
+        <v>14.98</v>
       </c>
       <c r="I204" t="n">
-        <v>10343.82</v>
+        <v>10335.67</v>
       </c>
     </row>
     <row r="205">
@@ -7575,19 +7575,19 @@
         <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>175827</v>
+        <v>175666</v>
       </c>
       <c r="F205" t="n">
-        <v>3.517992150637307</v>
+        <v>800.5942577166788</v>
       </c>
       <c r="G205" t="n">
-        <v>59.83653883574132</v>
+        <v>58.93384651687372</v>
       </c>
       <c r="H205" t="n">
-        <v>2.38</v>
+        <v>1.82</v>
       </c>
       <c r="I205" t="n">
-        <v>10741.98</v>
+        <v>10981.41</v>
       </c>
     </row>
     <row r="206">
@@ -7607,10 +7607,10 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>2949.04</v>
+        <v>2947.25</v>
       </c>
       <c r="E206" t="n">
-        <v>35247</v>
+        <v>35226</v>
       </c>
       <c r="F206" t="n">
         <v>0</v>
@@ -7619,10 +7619,10 @@
         <v>0</v>
       </c>
       <c r="H206" t="n">
-        <v>10.14</v>
+        <v>5.62</v>
       </c>
       <c r="I206" t="n">
-        <v>7829.6</v>
+        <v>7850.31</v>
       </c>
     </row>
     <row r="207">
@@ -7669,22 +7669,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>313491392</v>
+        <v>312636832</v>
       </c>
       <c r="E208" t="n">
-        <v>580030566</v>
+        <v>578449436</v>
       </c>
       <c r="F208" t="n">
-        <v>132081.4713861997</v>
+        <v>142717.894638149</v>
       </c>
       <c r="G208" t="n">
-        <v>155334.1232688568</v>
+        <v>139070.8871985066</v>
       </c>
       <c r="H208" t="n">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="I208" t="n">
-        <v>12898452</v>
+        <v>12697220</v>
       </c>
     </row>
     <row r="209">
@@ -7704,22 +7704,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>71522643</v>
+        <v>71203783</v>
       </c>
       <c r="E209" t="n">
-        <v>682389148</v>
+        <v>679346364</v>
       </c>
       <c r="F209" t="n">
-        <v>337404.1802719939</v>
+        <v>383797.147170605</v>
       </c>
       <c r="G209" t="n">
-        <v>357641.0907188122</v>
+        <v>304130.0391583648</v>
       </c>
       <c r="H209" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I209" t="n">
-        <v>21200962</v>
+        <v>21246273</v>
       </c>
     </row>
     <row r="210">
@@ -7742,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>2282709</v>
+        <v>2285150</v>
       </c>
       <c r="F210" t="n">
         <v>0</v>
@@ -7751,10 +7751,10 @@
         <v>0</v>
       </c>
       <c r="H210" t="n">
-        <v>5.12</v>
+        <v>4.06</v>
       </c>
       <c r="I210" t="n">
-        <v>63649</v>
+        <v>63552</v>
       </c>
     </row>
     <row r="211">
@@ -7774,10 +7774,10 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>82638</v>
+        <v>82175</v>
       </c>
       <c r="E211" t="n">
-        <v>686983</v>
+        <v>683134</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -7786,10 +7786,10 @@
         <v>0</v>
       </c>
       <c r="H211" t="n">
-        <v>7.04</v>
+        <v>4.35</v>
       </c>
       <c r="I211" t="n">
-        <v>235.56</v>
+        <v>174.83</v>
       </c>
     </row>
     <row r="212">
@@ -7809,22 +7809,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1910565</v>
+        <v>1906865</v>
       </c>
       <c r="E212" t="n">
-        <v>5456329</v>
+        <v>5445761</v>
       </c>
       <c r="F212" t="n">
-        <v>59.90863030685973</v>
+        <v>2001.506384771266</v>
       </c>
       <c r="G212" t="n">
-        <v>324.7097613724195</v>
+        <v>252.4567091249483</v>
       </c>
       <c r="H212" t="n">
-        <v>1.51</v>
+        <v>1.14</v>
       </c>
       <c r="I212" t="n">
-        <v>72798</v>
+        <v>71832</v>
       </c>
     </row>
     <row r="213">
@@ -7844,22 +7844,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>9292905</v>
+        <v>9249766</v>
       </c>
       <c r="E213" t="n">
-        <v>27578485</v>
+        <v>27450460</v>
       </c>
       <c r="F213" t="n">
-        <v>2584.837731863005</v>
+        <v>2052.19715707351</v>
       </c>
       <c r="G213" t="n">
-        <v>3667.991021980137</v>
+        <v>2570.028629099951</v>
       </c>
       <c r="H213" t="n">
         <v>0.36</v>
       </c>
       <c r="I213" t="n">
-        <v>3116697</v>
+        <v>5794125</v>
       </c>
     </row>
     <row r="214">
@@ -7882,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>14237785</v>
+        <v>14234101</v>
       </c>
       <c r="F214" t="n">
         <v>0</v>
@@ -7891,10 +7891,10 @@
         <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>8.6</v>
+        <v>8.59</v>
       </c>
       <c r="I214" t="n">
-        <v>1334.09</v>
+        <v>1333.82</v>
       </c>
     </row>
     <row r="215">
@@ -7914,22 +7914,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>2044826</v>
+        <v>2042453</v>
       </c>
       <c r="E215" t="n">
-        <v>5932698</v>
+        <v>5925812</v>
       </c>
       <c r="F215" t="n">
-        <v>12.24846731267803</v>
+        <v>12.24853518244832</v>
       </c>
       <c r="G215" t="n">
-        <v>573.6003803422724</v>
+        <v>573.6035587094151</v>
       </c>
       <c r="H215" t="n">
         <v>0.02</v>
       </c>
       <c r="I215" t="n">
-        <v>10857.3</v>
+        <v>39760</v>
       </c>
     </row>
     <row r="216">
@@ -7949,22 +7949,22 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>2098589</v>
+        <v>2166461</v>
       </c>
       <c r="E216" t="n">
-        <v>18510947</v>
+        <v>19109621</v>
       </c>
       <c r="F216" t="n">
-        <v>1404.727667222675</v>
+        <v>1481.754446954522</v>
       </c>
       <c r="G216" t="n">
-        <v>3037.736787812636</v>
+        <v>3643.024027333985</v>
       </c>
       <c r="H216" t="n">
         <v>0.89</v>
       </c>
       <c r="I216" t="n">
-        <v>70180</v>
+        <v>25549</v>
       </c>
     </row>
     <row r="217">
@@ -7984,22 +7984,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>44916895</v>
+        <v>44867454</v>
       </c>
       <c r="E217" t="n">
-        <v>44916895</v>
+        <v>44867454</v>
       </c>
       <c r="F217" t="n">
-        <v>33621.93327883654</v>
+        <v>41849.59786185268</v>
       </c>
       <c r="G217" t="n">
-        <v>51183.38571692004</v>
+        <v>40125.881725656</v>
       </c>
       <c r="H217" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="I217" t="n">
-        <v>8043921</v>
+        <v>8003732</v>
       </c>
     </row>
     <row r="218">
@@ -8019,22 +8019,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>8640395</v>
+        <v>8687873</v>
       </c>
       <c r="E218" t="n">
-        <v>12310584</v>
+        <v>12378228</v>
       </c>
       <c r="F218" t="n">
-        <v>38.525134505587</v>
+        <v>38.27892385855348</v>
       </c>
       <c r="G218" t="n">
-        <v>61.46416605995725</v>
+        <v>55.18112536273763</v>
       </c>
       <c r="H218" t="n">
-        <v>0.89</v>
+        <v>1.01</v>
       </c>
       <c r="I218" t="n">
-        <v>417243</v>
+        <v>417146</v>
       </c>
     </row>
     <row r="219">
@@ -8057,19 +8057,19 @@
         <v>0</v>
       </c>
       <c r="E219" t="n">
-        <v>16497791</v>
+        <v>16528231</v>
       </c>
       <c r="F219" t="n">
-        <v>2.114786622496193</v>
+        <v>2.11479830936677</v>
       </c>
       <c r="G219" t="n">
-        <v>1020.795537854612</v>
+        <v>1020.801179040919</v>
       </c>
       <c r="H219" t="n">
         <v>0.84</v>
       </c>
       <c r="I219" t="n">
-        <v>968155</v>
+        <v>964737</v>
       </c>
     </row>
     <row r="220">
@@ -8092,19 +8092,19 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>726548</v>
+        <v>723968</v>
       </c>
       <c r="F220" t="n">
-        <v>72.51470195175858</v>
+        <v>59.78156747745783</v>
       </c>
       <c r="G220" t="n">
-        <v>279.8886592809147</v>
+        <v>342.5624277593477</v>
       </c>
       <c r="H220" t="n">
-        <v>1.44</v>
+        <v>0.42</v>
       </c>
       <c r="I220" t="n">
-        <v>223572</v>
+        <v>222821</v>
       </c>
     </row>
     <row r="221">
@@ -8124,22 +8124,22 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>2780583</v>
+        <v>2766857</v>
       </c>
       <c r="E221" t="n">
-        <v>2782991</v>
+        <v>2769253</v>
       </c>
       <c r="F221" t="n">
-        <v>33.1541773406998</v>
+        <v>30.89504517111827</v>
       </c>
       <c r="G221" t="n">
-        <v>146.1483677241768</v>
+        <v>146.1495272996682</v>
       </c>
       <c r="H221" t="n">
         <v>1.92</v>
       </c>
       <c r="I221" t="n">
-        <v>81014</v>
+        <v>91979</v>
       </c>
     </row>
     <row r="222">
@@ -8159,22 +8159,22 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1243428</v>
+        <v>1252623</v>
       </c>
       <c r="E222" t="n">
-        <v>3761827</v>
+        <v>3789537</v>
       </c>
       <c r="F222" t="n">
-        <v>2202.497531766277</v>
+        <v>2201.409628833651</v>
       </c>
       <c r="G222" t="n">
-        <v>456.2799706840347</v>
+        <v>456.2835909165386</v>
       </c>
       <c r="H222" t="n">
         <v>0.26</v>
       </c>
       <c r="I222" t="n">
-        <v>11207.11</v>
+        <v>11363.19</v>
       </c>
     </row>
     <row r="223">
@@ -8194,22 +8194,22 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>37859253</v>
+        <v>38103680</v>
       </c>
       <c r="E223" t="n">
-        <v>268415924</v>
+        <v>270148878</v>
       </c>
       <c r="F223" t="n">
-        <v>66208.66050966823</v>
+        <v>76438.91346585994</v>
       </c>
       <c r="G223" t="n">
-        <v>74731.72266530157</v>
+        <v>60480.7637391185</v>
       </c>
       <c r="H223" t="n">
         <v>0.15</v>
       </c>
       <c r="I223" t="n">
-        <v>1810809</v>
+        <v>1744039</v>
       </c>
     </row>
     <row r="224">
@@ -8229,22 +8229,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>63163</v>
+        <v>63304</v>
       </c>
       <c r="E224" t="n">
-        <v>329558</v>
+        <v>330294</v>
       </c>
       <c r="F224" t="n">
-        <v>18.17414339266944</v>
+        <v>160.5197483946399</v>
       </c>
       <c r="G224" t="n">
-        <v>49.1006892975889</v>
+        <v>62.10908359126784</v>
       </c>
       <c r="H224" t="n">
-        <v>1.45</v>
+        <v>1.98</v>
       </c>
       <c r="I224" t="n">
-        <v>320403</v>
+        <v>320430</v>
       </c>
     </row>
     <row r="225">
@@ -8264,22 +8264,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1260728</v>
+        <v>1260350</v>
       </c>
       <c r="E225" t="n">
-        <v>7818472</v>
+        <v>7816124</v>
       </c>
       <c r="F225" t="n">
-        <v>1472.471234838413</v>
+        <v>1555.422197582191</v>
       </c>
       <c r="G225" t="n">
-        <v>2085.056016612362</v>
+        <v>2054.585415481523</v>
       </c>
       <c r="H225" t="n">
-        <v>0.24</v>
+        <v>0.08</v>
       </c>
       <c r="I225" t="n">
-        <v>747539</v>
+        <v>742089</v>
       </c>
     </row>
     <row r="226">
@@ -8299,22 +8299,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>603062715</v>
+        <v>603932146</v>
       </c>
       <c r="E226" t="n">
-        <v>2335572919</v>
+        <v>2338940097</v>
       </c>
       <c r="F226" t="n">
-        <v>221596.5060142439</v>
+        <v>249780.322330397</v>
       </c>
       <c r="G226" t="n">
-        <v>304797.4744200692</v>
+        <v>254990.9175817727</v>
       </c>
       <c r="H226" t="n">
         <v>0.04</v>
       </c>
       <c r="I226" t="n">
-        <v>31532845</v>
+        <v>32090033</v>
       </c>
     </row>
     <row r="227">
@@ -8337,19 +8337,19 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>20854200</v>
+        <v>20847346</v>
       </c>
       <c r="F227" t="n">
-        <v>944.4994513565916</v>
+        <v>832.7910860407397</v>
       </c>
       <c r="G227" t="n">
-        <v>1895.40383445919</v>
+        <v>1950.848754026477</v>
       </c>
       <c r="H227" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="I227" t="n">
-        <v>17311030</v>
+        <v>17253171</v>
       </c>
     </row>
     <row r="228">
@@ -8372,19 +8372,19 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>909054</v>
+        <v>911887</v>
       </c>
       <c r="F228" t="n">
-        <v>2.13977893028196</v>
+        <v>36.7272935315529</v>
       </c>
       <c r="G228" t="n">
-        <v>51.40254317540388</v>
+        <v>60.1594837058234</v>
       </c>
       <c r="H228" t="n">
-        <v>2.83</v>
+        <v>3.08</v>
       </c>
       <c r="I228" t="n">
-        <v>382097</v>
+        <v>379957</v>
       </c>
     </row>
     <row r="229">
@@ -8404,22 +8404,22 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>5843451</v>
+        <v>5843088</v>
       </c>
       <c r="E229" t="n">
-        <v>26161858</v>
+        <v>26160238</v>
       </c>
       <c r="F229" t="n">
-        <v>1702.342213377581</v>
+        <v>1703.548239097526</v>
       </c>
       <c r="G229" t="n">
-        <v>2407.675239837467</v>
+        <v>2616.725658086418</v>
       </c>
       <c r="H229" t="n">
         <v>0.39</v>
       </c>
       <c r="I229" t="n">
-        <v>144758</v>
+        <v>144320</v>
       </c>
     </row>
     <row r="230">
@@ -8439,22 +8439,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>6238982</v>
+        <v>6247920</v>
       </c>
       <c r="E230" t="n">
-        <v>11945036</v>
+        <v>11962150</v>
       </c>
       <c r="F230" t="n">
-        <v>0</v>
+        <v>26.35529694676766</v>
       </c>
       <c r="G230" t="n">
-        <v>0</v>
+        <v>1089.107845394677</v>
       </c>
       <c r="H230" t="n">
-        <v>3.98</v>
+        <v>2.76</v>
       </c>
       <c r="I230" t="n">
-        <v>188239</v>
+        <v>191331</v>
       </c>
     </row>
     <row r="231">
@@ -8474,22 +8474,22 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>3191218</v>
+        <v>3187675</v>
       </c>
       <c r="E231" t="n">
-        <v>20984707</v>
+        <v>20961407</v>
       </c>
       <c r="F231" t="n">
-        <v>226.7714854714133</v>
+        <v>193.4140342913408</v>
       </c>
       <c r="G231" t="n">
-        <v>371.393126394684</v>
+        <v>437.4615378177847</v>
       </c>
       <c r="H231" t="n">
-        <v>2.16</v>
+        <v>1.2</v>
       </c>
       <c r="I231" t="n">
-        <v>1415339</v>
+        <v>1428736</v>
       </c>
     </row>
     <row r="232">
@@ -8509,22 +8509,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>118659390</v>
+        <v>117759007</v>
       </c>
       <c r="E232" t="n">
-        <v>1031670465</v>
+        <v>1023842192</v>
       </c>
       <c r="F232" t="n">
-        <v>218507.0193830025</v>
+        <v>212206.3622166959</v>
       </c>
       <c r="G232" t="n">
-        <v>199129.6349205533</v>
+        <v>198357.6984789229</v>
       </c>
       <c r="H232" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I232" t="n">
-        <v>8984515</v>
+        <v>9088394</v>
       </c>
     </row>
     <row r="233">
@@ -8557,7 +8557,7 @@
         <v>6.84</v>
       </c>
       <c r="I233" t="n">
-        <v>1116.87</v>
+        <v>1116.8</v>
       </c>
     </row>
     <row r="234">
@@ -8577,22 +8577,22 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>103302275</v>
+        <v>102498085</v>
       </c>
       <c r="E234" t="n">
-        <v>157590042</v>
+        <v>156363231</v>
       </c>
       <c r="F234" t="n">
-        <v>100843.3486760077</v>
+        <v>102767.5973949471</v>
       </c>
       <c r="G234" t="n">
-        <v>87678.72760496504</v>
+        <v>100431.0083533097</v>
       </c>
       <c r="H234" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="I234" t="n">
-        <v>7702062</v>
+        <v>7759634</v>
       </c>
     </row>
     <row r="235">
@@ -8612,22 +8612,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>15806516</v>
+        <v>15787185</v>
       </c>
       <c r="E235" t="n">
-        <v>21685171</v>
+        <v>21658650</v>
       </c>
       <c r="F235" t="n">
-        <v>920.0619030738862</v>
+        <v>780.38428272228</v>
       </c>
       <c r="G235" t="n">
-        <v>2731.302837408996</v>
+        <v>2784.104847005367</v>
       </c>
       <c r="H235" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="I235" t="n">
-        <v>354797</v>
+        <v>352900</v>
       </c>
     </row>
     <row r="236">
@@ -8647,22 +8647,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>113431989</v>
+        <v>113215005</v>
       </c>
       <c r="E236" t="n">
-        <v>435143366</v>
+        <v>434310981</v>
       </c>
       <c r="F236" t="n">
-        <v>515646.228093724</v>
+        <v>471198.8317899016</v>
       </c>
       <c r="G236" t="n">
-        <v>443453.6492593407</v>
+        <v>480412.094154998</v>
       </c>
       <c r="H236" t="n">
         <v>0.02</v>
       </c>
       <c r="I236" t="n">
-        <v>20609358</v>
+        <v>21039313</v>
       </c>
     </row>
     <row r="237">
@@ -8685,19 +8685,19 @@
         <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>761499</v>
+        <v>764058</v>
       </c>
       <c r="F237" t="n">
-        <v>69.76322512517399</v>
+        <v>69.76375392164171</v>
       </c>
       <c r="G237" t="n">
-        <v>20.55469103549577</v>
+        <v>20.5548468374673</v>
       </c>
       <c r="H237" t="n">
         <v>3.25</v>
       </c>
       <c r="I237" t="n">
-        <v>50908</v>
+        <v>51312</v>
       </c>
     </row>
     <row r="238">
@@ -8720,7 +8720,7 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>792518</v>
+        <v>830022</v>
       </c>
       <c r="F238" t="n">
         <v>0</v>
@@ -8729,10 +8729,10 @@
         <v>0</v>
       </c>
       <c r="H238" t="n">
-        <v>7.27</v>
+        <v>7.25</v>
       </c>
       <c r="I238" t="n">
-        <v>20500</v>
+        <v>21541</v>
       </c>
     </row>
     <row r="239">
@@ -8752,22 +8752,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>3150849</v>
+        <v>3185777</v>
       </c>
       <c r="E239" t="n">
-        <v>29854761</v>
+        <v>30185704</v>
       </c>
       <c r="F239" t="n">
-        <v>1640.016105136307</v>
+        <v>1724.103760038713</v>
       </c>
       <c r="G239" t="n">
-        <v>2164.81093254423</v>
+        <v>1901.897568702047</v>
       </c>
       <c r="H239" t="n">
-        <v>0.37</v>
+        <v>0.26</v>
       </c>
       <c r="I239" t="n">
-        <v>280828</v>
+        <v>310383</v>
       </c>
     </row>
     <row r="240">
@@ -8787,22 +8787,22 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>726479</v>
+        <v>728188</v>
       </c>
       <c r="E240" t="n">
-        <v>776602</v>
+        <v>778429</v>
       </c>
       <c r="F240" t="n">
-        <v>38.68934492082573</v>
+        <v>38.68965189117954</v>
       </c>
       <c r="G240" t="n">
-        <v>2331.894494544532</v>
+        <v>2331.9129963434</v>
       </c>
       <c r="H240" t="n">
         <v>1.09</v>
       </c>
       <c r="I240" t="n">
-        <v>32961</v>
+        <v>34222</v>
       </c>
     </row>
     <row r="241">
@@ -8825,19 +8825,19 @@
         <v>0</v>
       </c>
       <c r="E241" t="n">
-        <v>374139</v>
+        <v>374020</v>
       </c>
       <c r="F241" t="n">
-        <v>7.937621908164736</v>
+        <v>7.93768207433996</v>
       </c>
       <c r="G241" t="n">
-        <v>127.5401874890021</v>
+        <v>127.5411542275741</v>
       </c>
       <c r="H241" t="n">
         <v>0.61</v>
       </c>
       <c r="I241" t="n">
-        <v>641.02</v>
+        <v>603.38</v>
       </c>
     </row>
     <row r="242">
@@ -8860,19 +8860,19 @@
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>135479</v>
+        <v>136852</v>
       </c>
       <c r="F242" t="n">
-        <v>105.9637665054914</v>
+        <v>122.3111524008077</v>
       </c>
       <c r="G242" t="n">
-        <v>226.1701058927837</v>
+        <v>228.2828184165285</v>
       </c>
       <c r="H242" t="n">
         <v>3.5</v>
       </c>
       <c r="I242" t="n">
-        <v>90893</v>
+        <v>90962</v>
       </c>
     </row>
     <row r="243">
@@ -8895,7 +8895,7 @@
         <v>0</v>
       </c>
       <c r="E243" t="n">
-        <v>576367</v>
+        <v>571264</v>
       </c>
       <c r="F243" t="n">
         <v>0</v>
@@ -8907,7 +8907,7 @@
         <v>7.84</v>
       </c>
       <c r="I243" t="n">
-        <v>454.59</v>
+        <v>8.73</v>
       </c>
     </row>
     <row r="244">
@@ -8927,22 +8927,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>5935188</v>
+        <v>5930444</v>
       </c>
       <c r="E244" t="n">
-        <v>37093227</v>
+        <v>37063579</v>
       </c>
       <c r="F244" t="n">
-        <v>821.0474910651508</v>
+        <v>821.0346121457977</v>
       </c>
       <c r="G244" t="n">
-        <v>1100.886825741147</v>
+        <v>1151.635618954972</v>
       </c>
       <c r="H244" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="I244" t="n">
-        <v>384588</v>
+        <v>385014</v>
       </c>
     </row>
     <row r="245">
@@ -8962,22 +8962,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>5110371</v>
+        <v>5097566</v>
       </c>
       <c r="E245" t="n">
-        <v>19029976</v>
+        <v>18982293</v>
       </c>
       <c r="F245" t="n">
-        <v>6445.494082907007</v>
+        <v>6540.840438676259</v>
       </c>
       <c r="G245" t="n">
-        <v>12148.1715414941</v>
+        <v>12148.26792794168</v>
       </c>
       <c r="H245" t="n">
         <v>0.53</v>
       </c>
       <c r="I245" t="n">
-        <v>62191</v>
+        <v>108246</v>
       </c>
     </row>
     <row r="246">
@@ -9000,19 +9000,19 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>3738139</v>
+        <v>3808132</v>
       </c>
       <c r="F246" t="n">
-        <v>212.3330544112109</v>
+        <v>225.1520126812674</v>
       </c>
       <c r="G246" t="n">
-        <v>2649.498287729686</v>
+        <v>104.9467105893635</v>
       </c>
       <c r="H246" t="n">
-        <v>1.67</v>
+        <v>1.82</v>
       </c>
       <c r="I246" t="n">
-        <v>7078.31</v>
+        <v>7197.22</v>
       </c>
     </row>
     <row r="247">
@@ -9032,22 +9032,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>31472394</v>
+        <v>31521342</v>
       </c>
       <c r="E247" t="n">
-        <v>112808398</v>
+        <v>112983846</v>
       </c>
       <c r="F247" t="n">
-        <v>27.86395981851069</v>
+        <v>26.24980589104821</v>
       </c>
       <c r="G247" t="n">
-        <v>2445.883563339587</v>
+        <v>2412.227721870509</v>
       </c>
       <c r="H247" t="n">
-        <v>0.46</v>
+        <v>0.53</v>
       </c>
       <c r="I247" t="n">
-        <v>96536</v>
+        <v>96592</v>
       </c>
     </row>
     <row r="248">
@@ -9070,19 +9070,19 @@
         <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>1543343</v>
+        <v>1541644</v>
       </c>
       <c r="F248" t="n">
-        <v>222.7642491252455</v>
+        <v>5.649546297854511</v>
       </c>
       <c r="G248" t="n">
-        <v>50.61125770004104</v>
+        <v>43.82951269057984</v>
       </c>
       <c r="H248" t="n">
         <v>2.6</v>
       </c>
       <c r="I248" t="n">
-        <v>616368</v>
+        <v>615811</v>
       </c>
     </row>
     <row r="249">
@@ -9102,22 +9102,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>2176367</v>
+        <v>2173398</v>
       </c>
       <c r="E249" t="n">
-        <v>16739996</v>
+        <v>16717161</v>
       </c>
       <c r="F249" t="n">
-        <v>4350.196370864654</v>
+        <v>4531.109948215863</v>
       </c>
       <c r="G249" t="n">
-        <v>5567.533799834629</v>
+        <v>4980.213185956035</v>
       </c>
       <c r="H249" t="n">
-        <v>0.48</v>
+        <v>0.65</v>
       </c>
       <c r="I249" t="n">
-        <v>176991</v>
+        <v>176723</v>
       </c>
     </row>
     <row r="250">
@@ -9137,22 +9137,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>103119</v>
+        <v>103053</v>
       </c>
       <c r="E250" t="n">
-        <v>819076</v>
+        <v>818551</v>
       </c>
       <c r="F250" t="n">
-        <v>174.3369314173968</v>
+        <v>174.3383146475763</v>
       </c>
       <c r="G250" t="n">
-        <v>340.7123923896302</v>
+        <v>340.7150956818119</v>
       </c>
       <c r="H250" t="n">
         <v>0.72</v>
       </c>
       <c r="I250" t="n">
-        <v>1214.46</v>
+        <v>1214.21</v>
       </c>
     </row>
     <row r="251">
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>86922234</v>
+        <v>87240919</v>
       </c>
       <c r="E251" t="n">
-        <v>321327141</v>
+        <v>322504226</v>
       </c>
       <c r="F251" t="n">
-        <v>9346.650098644976</v>
+        <v>9759.075980848605</v>
       </c>
       <c r="G251" t="n">
-        <v>2204.732574906436</v>
+        <v>2703.180676411069</v>
       </c>
       <c r="H251" t="n">
-        <v>0.32</v>
+        <v>0.05</v>
       </c>
       <c r="I251" t="n">
-        <v>340962</v>
+        <v>342251</v>
       </c>
     </row>
     <row r="252">
@@ -9207,22 +9207,22 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>2459361</v>
+        <v>2457878</v>
       </c>
       <c r="E252" t="n">
-        <v>9868270</v>
+        <v>9862319</v>
       </c>
       <c r="F252" t="n">
-        <v>10.82767984306929</v>
+        <v>0</v>
       </c>
       <c r="G252" t="n">
-        <v>64.33804610384993</v>
+        <v>0</v>
       </c>
       <c r="H252" t="n">
-        <v>2.54</v>
+        <v>5.17</v>
       </c>
       <c r="I252" t="n">
-        <v>45253</v>
+        <v>45237</v>
       </c>
     </row>
     <row r="253">
@@ -9245,19 +9245,19 @@
         <v>0</v>
       </c>
       <c r="E253" t="n">
-        <v>583171</v>
+        <v>583015</v>
       </c>
       <c r="F253" t="n">
-        <v>54.69051524345758</v>
+        <v>51.45077866677521</v>
       </c>
       <c r="G253" t="n">
-        <v>5.167406103354809</v>
+        <v>5.89815971457185</v>
       </c>
       <c r="H253" t="n">
-        <v>2.99</v>
+        <v>3.41</v>
       </c>
       <c r="I253" t="n">
-        <v>1508.18</v>
+        <v>1508.1</v>
       </c>
     </row>
     <row r="254">
@@ -9276,7 +9276,7 @@
         <v>0</v>
       </c>
       <c r="E254" t="n">
-        <v>38913</v>
+        <v>37001</v>
       </c>
       <c r="F254" t="n">
         <v>0</v>
@@ -9285,10 +9285,10 @@
         <v>0</v>
       </c>
       <c r="H254" t="n">
-        <v>5.06</v>
+        <v>4.13</v>
       </c>
       <c r="I254" t="n">
-        <v>4764.74</v>
+        <v>4974.28</v>
       </c>
     </row>
     <row r="255">
@@ -9308,22 +9308,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>730249512</v>
+        <v>740293268</v>
       </c>
       <c r="E255" t="n">
-        <v>1126109223</v>
+        <v>1141597580</v>
       </c>
       <c r="F255" t="n">
-        <v>157322.6182337887</v>
+        <v>184196.1759662018</v>
       </c>
       <c r="G255" t="n">
-        <v>285088.5300884168</v>
+        <v>154179.5246891894</v>
       </c>
       <c r="H255" t="n">
-        <v>0.13</v>
+        <v>0.04</v>
       </c>
       <c r="I255" t="n">
-        <v>204296644</v>
+        <v>210640610</v>
       </c>
     </row>
     <row r="256">
@@ -9343,22 +9343,22 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>5668119</v>
+        <v>5654412</v>
       </c>
       <c r="E256" t="n">
-        <v>5668119</v>
+        <v>5654412</v>
       </c>
       <c r="F256" t="n">
-        <v>21.37481613821351</v>
+        <v>23.07381105106104</v>
       </c>
       <c r="G256" t="n">
-        <v>7.865117924118743</v>
+        <v>2.886901316363115</v>
       </c>
       <c r="H256" t="n">
         <v>0.58</v>
       </c>
       <c r="I256" t="n">
-        <v>498.91</v>
+        <v>512.46</v>
       </c>
     </row>
     <row r="257">
@@ -9378,22 +9378,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>39948269</v>
+        <v>39928504</v>
       </c>
       <c r="E257" t="n">
-        <v>190679748</v>
+        <v>190585410</v>
       </c>
       <c r="F257" t="n">
-        <v>306.7887258218851</v>
+        <v>280.0085735717408</v>
       </c>
       <c r="G257" t="n">
-        <v>250.0039975711884</v>
+        <v>121.2674005982069</v>
       </c>
       <c r="H257" t="n">
-        <v>0.31</v>
+        <v>0.49</v>
       </c>
       <c r="I257" t="n">
-        <v>419792</v>
+        <v>420164</v>
       </c>
     </row>
     <row r="258">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>571345</v>
+        <v>571163</v>
       </c>
       <c r="F258" t="n">
         <v>0</v>
@@ -9425,10 +9425,10 @@
         <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>7.41</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="I258" t="n">
-        <v>378.27</v>
+        <v>378.24</v>
       </c>
     </row>
     <row r="259">
@@ -9448,22 +9448,22 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>23555546</v>
+        <v>23423090</v>
       </c>
       <c r="E259" t="n">
-        <v>39259243</v>
+        <v>39038483</v>
       </c>
       <c r="F259" t="n">
-        <v>4153.47738918026</v>
+        <v>1046.101284366399</v>
       </c>
       <c r="G259" t="n">
-        <v>6810.396572902016</v>
+        <v>8282.741807253866</v>
       </c>
       <c r="H259" t="n">
-        <v>0.96</v>
+        <v>0.03</v>
       </c>
       <c r="I259" t="n">
-        <v>624207</v>
+        <v>605873</v>
       </c>
     </row>
     <row r="260">
@@ -9486,19 +9486,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>107826</v>
+        <v>107725</v>
       </c>
       <c r="F260" t="n">
-        <v>242.2377092962462</v>
+        <v>241.8112851029649</v>
       </c>
       <c r="G260" t="n">
-        <v>193.0273665760826</v>
+        <v>195.4110351466908</v>
       </c>
       <c r="H260" t="n">
-        <v>0.05</v>
+        <v>0.32</v>
       </c>
       <c r="I260" t="n">
-        <v>48770</v>
+        <v>48537</v>
       </c>
     </row>
     <row r="261">
@@ -9518,22 +9518,22 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>858842</v>
+        <v>858740</v>
       </c>
       <c r="E261" t="n">
-        <v>3668862</v>
+        <v>3668426</v>
       </c>
       <c r="F261" t="n">
-        <v>353.2240138376136</v>
+        <v>1096.797285360972</v>
       </c>
       <c r="G261" t="n">
-        <v>3683.148966892992</v>
+        <v>3974.023638487742</v>
       </c>
       <c r="H261" t="n">
-        <v>0.29</v>
+        <v>0.08</v>
       </c>
       <c r="I261" t="n">
-        <v>14559.01</v>
+        <v>14560.27</v>
       </c>
     </row>
     <row r="262">
@@ -9553,22 +9553,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>3816721</v>
+        <v>3810243</v>
       </c>
       <c r="E262" t="n">
-        <v>8328037</v>
+        <v>8313901</v>
       </c>
       <c r="F262" t="n">
-        <v>1399.337238768675</v>
+        <v>1119.823191087912</v>
       </c>
       <c r="G262" t="n">
-        <v>1748.195318843718</v>
+        <v>1772.345355491369</v>
       </c>
       <c r="H262" t="n">
-        <v>0.73</v>
+        <v>0.85</v>
       </c>
       <c r="I262" t="n">
-        <v>853795</v>
+        <v>858145</v>
       </c>
     </row>
     <row r="263">
@@ -9588,22 +9588,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>491700476</v>
+        <v>491310578</v>
       </c>
       <c r="E263" t="n">
-        <v>1712436779</v>
+        <v>1711078888</v>
       </c>
       <c r="F263" t="n">
-        <v>592733.5373554254</v>
+        <v>699187.9305178759</v>
       </c>
       <c r="G263" t="n">
-        <v>609549.8776288201</v>
+        <v>528719.9357761409</v>
       </c>
       <c r="H263" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I263" t="n">
-        <v>31374082</v>
+        <v>31129964</v>
       </c>
     </row>
     <row r="264">
@@ -9623,22 +9623,22 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>5589367290</v>
+        <v>5584547398</v>
       </c>
       <c r="E264" t="n">
-        <v>5589367290</v>
+        <v>5584547398</v>
       </c>
       <c r="F264" t="n">
-        <v>3788.950936245567</v>
+        <v>5044.518364928094</v>
       </c>
       <c r="G264" t="n">
-        <v>2829.266396602371</v>
+        <v>2686.899643855538</v>
       </c>
       <c r="H264" t="n">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
       <c r="I264" t="n">
-        <v>27923605</v>
+        <v>27824356</v>
       </c>
     </row>
     <row r="265">
@@ -9658,22 +9658,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>23982439</v>
+        <v>23942697</v>
       </c>
       <c r="E265" t="n">
-        <v>23961607</v>
+        <v>23921899</v>
       </c>
       <c r="F265" t="n">
-        <v>63.83711699137751</v>
+        <v>40.4885641404693</v>
       </c>
       <c r="G265" t="n">
-        <v>723.0272557234638</v>
+        <v>880.3146985169951</v>
       </c>
       <c r="H265" t="n">
-        <v>1.72</v>
+        <v>1.86</v>
       </c>
       <c r="I265" t="n">
-        <v>92812</v>
+        <v>92125</v>
       </c>
     </row>
     <row r="266">
@@ -9693,10 +9693,10 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>11749267</v>
+        <v>11748165</v>
       </c>
       <c r="E266" t="n">
-        <v>23793266</v>
+        <v>23789316</v>
       </c>
       <c r="F266" t="n">
         <v>0</v>
@@ -9705,10 +9705,10 @@
         <v>0</v>
       </c>
       <c r="H266" t="n">
-        <v>5.6</v>
+        <v>5.48</v>
       </c>
       <c r="I266" t="n">
-        <v>24189</v>
+        <v>24440</v>
       </c>
     </row>
     <row r="267">
@@ -9731,19 +9731,19 @@
         <v>0</v>
       </c>
       <c r="E267" t="n">
-        <v>150169</v>
+        <v>149688</v>
       </c>
       <c r="F267" t="n">
-        <v>212.2280250567035</v>
+        <v>210.2657494828467</v>
       </c>
       <c r="G267" t="n">
-        <v>119.5575515571589</v>
+        <v>119.558457788355</v>
       </c>
       <c r="H267" t="n">
         <v>0.57</v>
       </c>
       <c r="I267" t="n">
-        <v>56660</v>
+        <v>56173</v>
       </c>
     </row>
     <row r="268">
@@ -9766,19 +9766,19 @@
         <v>0</v>
       </c>
       <c r="E268" t="n">
-        <v>48017</v>
+        <v>48001</v>
       </c>
       <c r="F268" t="n">
-        <v>118.2313480226597</v>
+        <v>38.55658169443327</v>
       </c>
       <c r="G268" t="n">
-        <v>241.3341268368507</v>
+        <v>79.87343380987355</v>
       </c>
       <c r="H268" t="n">
-        <v>3.08</v>
+        <v>3.47</v>
       </c>
       <c r="I268" t="n">
-        <v>71414</v>
+        <v>71504</v>
       </c>
     </row>
     <row r="269">
@@ -9798,22 +9798,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>2651647</v>
+        <v>2648123</v>
       </c>
       <c r="E269" t="n">
-        <v>10606587</v>
+        <v>10592491</v>
       </c>
       <c r="F269" t="n">
-        <v>28256.45954941433</v>
+        <v>34841.98791379685</v>
       </c>
       <c r="G269" t="n">
-        <v>36838.14450089794</v>
+        <v>37083.1246066166</v>
       </c>
       <c r="H269" t="n">
-        <v>0.84</v>
+        <v>0.66</v>
       </c>
       <c r="I269" t="n">
-        <v>5311538</v>
+        <v>5343458</v>
       </c>
     </row>
     <row r="270">
@@ -9833,22 +9833,22 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>215537507</v>
+        <v>215760777</v>
       </c>
       <c r="E270" t="n">
-        <v>662696722</v>
+        <v>663383195</v>
       </c>
       <c r="F270" t="n">
-        <v>246579.0080700213</v>
+        <v>270356.8038013317</v>
       </c>
       <c r="G270" t="n">
-        <v>273001.2298127164</v>
+        <v>266261.2660968071</v>
       </c>
       <c r="H270" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="I270" t="n">
-        <v>11649017</v>
+        <v>11543510</v>
       </c>
     </row>
     <row r="271">
@@ -9868,22 +9868,22 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>151417437</v>
+        <v>149801927</v>
       </c>
       <c r="E271" t="n">
-        <v>395573854</v>
+        <v>391353380</v>
       </c>
       <c r="F271" t="n">
-        <v>47796.52887455935</v>
+        <v>45918.00290076261</v>
       </c>
       <c r="G271" t="n">
-        <v>52029.68382625467</v>
+        <v>42675.67174873268</v>
       </c>
       <c r="H271" t="n">
-        <v>0.2</v>
+        <v>0.31</v>
       </c>
       <c r="I271" t="n">
-        <v>6487997</v>
+        <v>6450148</v>
       </c>
     </row>
     <row r="272">
@@ -9903,22 +9903,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>2433278</v>
+        <v>2436852</v>
       </c>
       <c r="E272" t="n">
-        <v>3339255</v>
+        <v>3344154</v>
       </c>
       <c r="F272" t="n">
-        <v>123.4288712901902</v>
+        <v>123.4298506038583</v>
       </c>
       <c r="G272" t="n">
-        <v>113.7009909525477</v>
+        <v>113.7018930829273</v>
       </c>
       <c r="H272" t="n">
         <v>1.08</v>
       </c>
       <c r="I272" t="n">
-        <v>260599</v>
+        <v>287913</v>
       </c>
     </row>
   </sheetData>

--- a/GateioData20250220.xlsx
+++ b/GateioData20250220.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>52509</v>
+        <v>52522</v>
       </c>
       <c r="F2" t="n">
-        <v>1.325054209209361</v>
+        <v>1.325142792577859</v>
       </c>
       <c r="G2" t="n">
-        <v>29.80947373881948</v>
+        <v>29.81146658075652</v>
       </c>
       <c r="H2" t="n">
         <v>3.85</v>
       </c>
       <c r="I2" t="n">
-        <v>1778.9</v>
+        <v>1712.24</v>
       </c>
     </row>
     <row r="3">
@@ -535,19 +535,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>93189</v>
+        <v>93442</v>
       </c>
       <c r="F3" t="n">
-        <v>8.579539061994026</v>
+        <v>3.732041369245406</v>
       </c>
       <c r="G3" t="n">
-        <v>446.0013988176604</v>
+        <v>446.0302095178906</v>
       </c>
       <c r="H3" t="n">
         <v>3.06</v>
       </c>
       <c r="I3" t="n">
-        <v>827.21</v>
+        <v>1171.69</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>613967647</v>
+        <v>615124667</v>
       </c>
       <c r="E4" t="n">
-        <v>1191301677</v>
+        <v>1193593651</v>
       </c>
       <c r="F4" t="n">
-        <v>56739.17580821268</v>
+        <v>42054.71028494576</v>
       </c>
       <c r="G4" t="n">
-        <v>39077.28674657983</v>
+        <v>45672.58754270403</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>23496607</v>
+        <v>16417099</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1343188</v>
+        <v>1343375</v>
       </c>
       <c r="E5" t="n">
-        <v>4341733</v>
+        <v>4342340</v>
       </c>
       <c r="F5" t="n">
-        <v>5427.797045349961</v>
+        <v>5161.402983976443</v>
       </c>
       <c r="G5" t="n">
-        <v>7252.873310835313</v>
+        <v>6031.088686019555</v>
       </c>
       <c r="H5" t="n">
         <v>0.46</v>
       </c>
       <c r="I5" t="n">
-        <v>98077</v>
+        <v>99002</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>140810553</v>
+        <v>140940761</v>
       </c>
       <c r="E6" t="n">
-        <v>156040584</v>
+        <v>156184808</v>
       </c>
       <c r="F6" t="n">
-        <v>234498.8049753085</v>
+        <v>232572.3765003138</v>
       </c>
       <c r="G6" t="n">
-        <v>249458.7007369773</v>
+        <v>252692.1527664017</v>
       </c>
       <c r="H6" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I6" t="n">
-        <v>34064683</v>
+        <v>34015660</v>
       </c>
     </row>
     <row r="7">
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>4204.63</v>
+        <v>4202.34</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>9.09</v>
       </c>
       <c r="I7" t="n">
-        <v>260.81</v>
+        <v>260.91</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8793532</v>
+        <v>8917230</v>
       </c>
       <c r="E8" t="n">
-        <v>9015273</v>
+        <v>9142090</v>
       </c>
       <c r="F8" t="n">
-        <v>305.9193555730508</v>
+        <v>1819.636460233933</v>
       </c>
       <c r="G8" t="n">
-        <v>92.52565361182471</v>
+        <v>112.538503381362</v>
       </c>
       <c r="H8" t="n">
-        <v>2.61</v>
+        <v>1.65</v>
       </c>
       <c r="I8" t="n">
-        <v>45875</v>
+        <v>47161</v>
       </c>
     </row>
     <row r="9">
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>303546</v>
+        <v>303563</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -754,10 +754,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>6.6</v>
+        <v>5.85</v>
       </c>
       <c r="I9" t="n">
-        <v>383.5</v>
+        <v>383.61</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5221782</v>
+        <v>5237573</v>
       </c>
       <c r="E10" t="n">
-        <v>8342839</v>
+        <v>8368068</v>
       </c>
       <c r="F10" t="n">
-        <v>228.6962518099928</v>
+        <v>218.3304948343401</v>
       </c>
       <c r="G10" t="n">
-        <v>327.631277805922</v>
+        <v>334.6107440886694</v>
       </c>
       <c r="H10" t="n">
-        <v>0.57</v>
+        <v>0.19</v>
       </c>
       <c r="I10" t="n">
-        <v>104504</v>
+        <v>102603</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1003236</v>
+        <v>1003233</v>
       </c>
       <c r="E11" t="n">
-        <v>12276908</v>
+        <v>12276868</v>
       </c>
       <c r="F11" t="n">
-        <v>1577.688625721652</v>
+        <v>1577.256023185569</v>
       </c>
       <c r="G11" t="n">
-        <v>1315.656428028358</v>
+        <v>1665.455574363572</v>
       </c>
       <c r="H11" t="n">
-        <v>0.49</v>
+        <v>0.41</v>
       </c>
       <c r="I11" t="n">
-        <v>2183.19</v>
+        <v>2164.95</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>566641</v>
+        <v>565871</v>
       </c>
       <c r="E12" t="n">
-        <v>566641</v>
+        <v>565871</v>
       </c>
       <c r="F12" t="n">
-        <v>3.673836363215531</v>
+        <v>3.541226847000253</v>
       </c>
       <c r="G12" t="n">
-        <v>295.7930552164272</v>
+        <v>198.8157341855612</v>
       </c>
       <c r="H12" t="n">
-        <v>1.39</v>
+        <v>0.82</v>
       </c>
       <c r="I12" t="n">
-        <v>22380</v>
+        <v>22221</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4751789</v>
+        <v>4723626</v>
       </c>
       <c r="E13" t="n">
-        <v>29187196</v>
+        <v>29014162</v>
       </c>
       <c r="F13" t="n">
-        <v>475.524830017874</v>
+        <v>840.3543845612132</v>
       </c>
       <c r="G13" t="n">
-        <v>1500.508629241284</v>
+        <v>980.6659532865497</v>
       </c>
       <c r="H13" t="n">
-        <v>0.55</v>
+        <v>0.41</v>
       </c>
       <c r="I13" t="n">
-        <v>477050</v>
+        <v>482420</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>198579</v>
+        <v>198039</v>
       </c>
       <c r="E14" t="n">
-        <v>2184590</v>
+        <v>2178648</v>
       </c>
       <c r="F14" t="n">
-        <v>332.2847593121796</v>
+        <v>588.41486308137</v>
       </c>
       <c r="G14" t="n">
-        <v>783.8401050356787</v>
+        <v>783.8925068139498</v>
       </c>
       <c r="H14" t="n">
         <v>1.82</v>
       </c>
       <c r="I14" t="n">
-        <v>36573</v>
+        <v>37188</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3352290</v>
+        <v>3344746</v>
       </c>
       <c r="E15" t="n">
-        <v>9536967</v>
+        <v>9515506</v>
       </c>
       <c r="F15" t="n">
-        <v>730.9632399456103</v>
+        <v>483.2097449594179</v>
       </c>
       <c r="G15" t="n">
-        <v>332.2519339255923</v>
+        <v>322.8422377172129</v>
       </c>
       <c r="H15" t="n">
-        <v>0.63</v>
+        <v>0.32</v>
       </c>
       <c r="I15" t="n">
-        <v>232687</v>
+        <v>132204</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>326392</v>
+        <v>326517</v>
       </c>
       <c r="E16" t="n">
-        <v>3767301</v>
+        <v>3768750</v>
       </c>
       <c r="F16" t="n">
-        <v>142.8925439441916</v>
+        <v>142.9749381690007</v>
       </c>
       <c r="G16" t="n">
-        <v>131.1726619544789</v>
+        <v>132.5089466851782</v>
       </c>
       <c r="H16" t="n">
-        <v>0.57</v>
+        <v>0.38</v>
       </c>
       <c r="I16" t="n">
-        <v>4898.2</v>
+        <v>4901.36</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>926446</v>
+        <v>935975</v>
       </c>
       <c r="F17" t="n">
-        <v>21.31256382231008</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>105.4849572802708</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>3.33</v>
+        <v>5.92</v>
       </c>
       <c r="I17" t="n">
-        <v>11374.68</v>
+        <v>11196.18</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>22296973</v>
+        <v>22307701</v>
       </c>
       <c r="E18" t="n">
-        <v>22338720</v>
+        <v>22349406</v>
       </c>
       <c r="F18" t="n">
-        <v>1370.276706614131</v>
+        <v>2272.253311385006</v>
       </c>
       <c r="G18" t="n">
-        <v>2201.971230395015</v>
+        <v>2439.645066870256</v>
       </c>
       <c r="H18" t="n">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="I18" t="n">
-        <v>871130</v>
+        <v>856295</v>
       </c>
     </row>
     <row r="19">
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>6929008</v>
+        <v>6762507</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>5.42</v>
+        <v>5.31</v>
       </c>
       <c r="I19" t="n">
-        <v>28025</v>
+        <v>27839</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2445115</v>
+        <v>2440254</v>
       </c>
       <c r="E20" t="n">
-        <v>2445115</v>
+        <v>2440254</v>
       </c>
       <c r="F20" t="n">
-        <v>297.1250760194588</v>
+        <v>280.7292042312707</v>
       </c>
       <c r="G20" t="n">
-        <v>246.0990651572527</v>
+        <v>493.7930239273616</v>
       </c>
       <c r="H20" t="n">
-        <v>0.18</v>
+        <v>1.58</v>
       </c>
       <c r="I20" t="n">
-        <v>313739</v>
+        <v>318780</v>
       </c>
     </row>
     <row r="21">
@@ -1165,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>409071</v>
+        <v>409166</v>
       </c>
       <c r="F21" t="n">
-        <v>81.93170731774653</v>
+        <v>95.30413685221089</v>
       </c>
       <c r="G21" t="n">
-        <v>207.5587590677641</v>
+        <v>114.7326049766205</v>
       </c>
       <c r="H21" t="n">
-        <v>1.21</v>
+        <v>1.44</v>
       </c>
       <c r="I21" t="n">
-        <v>1538.7</v>
+        <v>1539.28</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>17869618</v>
+        <v>18278549</v>
       </c>
       <c r="E22" t="n">
-        <v>22999665</v>
+        <v>23525992</v>
       </c>
       <c r="F22" t="n">
-        <v>1731.087265897824</v>
+        <v>2936.904628545045</v>
       </c>
       <c r="G22" t="n">
-        <v>993.7093748326457</v>
+        <v>1317.399406947496</v>
       </c>
       <c r="H22" t="n">
         <v>0.41</v>
       </c>
       <c r="I22" t="n">
-        <v>2052158</v>
+        <v>2064221</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>473270552</v>
+        <v>480262984</v>
       </c>
       <c r="E23" t="n">
-        <v>473270552</v>
+        <v>480262988</v>
       </c>
       <c r="F23" t="n">
-        <v>50197.165948402</v>
+        <v>52327.48023087489</v>
       </c>
       <c r="G23" t="n">
-        <v>69856.6461660245</v>
+        <v>76293.60147094128</v>
       </c>
       <c r="H23" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I23" t="n">
-        <v>63488189</v>
+        <v>77877627</v>
       </c>
     </row>
     <row r="24">
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>22844</v>
+        <v>22831</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1282,7 +1282,7 @@
         <v>7.86</v>
       </c>
       <c r="I24" t="n">
-        <v>3130.94</v>
+        <v>3132.17</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4663309</v>
+        <v>4674854</v>
       </c>
       <c r="E25" t="n">
-        <v>4663309</v>
+        <v>4674854</v>
       </c>
       <c r="F25" t="n">
-        <v>929.2207392373062</v>
+        <v>407.5032118968775</v>
       </c>
       <c r="G25" t="n">
-        <v>1291.993316763426</v>
+        <v>1353.345151959635</v>
       </c>
       <c r="H25" t="n">
-        <v>0.34</v>
+        <v>0.66</v>
       </c>
       <c r="I25" t="n">
-        <v>1966428</v>
+        <v>1916739</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3357173</v>
+        <v>3361779</v>
       </c>
       <c r="E26" t="n">
-        <v>3357173</v>
+        <v>3361779</v>
       </c>
       <c r="F26" t="n">
-        <v>296.8833238973755</v>
+        <v>425.2037755210281</v>
       </c>
       <c r="G26" t="n">
-        <v>290.7360448684455</v>
+        <v>103.9932886404133</v>
       </c>
       <c r="H26" t="n">
-        <v>0.86</v>
+        <v>1.01</v>
       </c>
       <c r="I26" t="n">
-        <v>531097</v>
+        <v>530072</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>318941</v>
+        <v>315109</v>
       </c>
       <c r="E27" t="n">
-        <v>1488850</v>
+        <v>1470959</v>
       </c>
       <c r="F27" t="n">
-        <v>1938.945334635932</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>27.63811232971103</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1.96</v>
+        <v>5.23</v>
       </c>
       <c r="I27" t="n">
-        <v>629738</v>
+        <v>632579</v>
       </c>
     </row>
     <row r="28">
@@ -1410,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1599824</v>
+        <v>1581238</v>
       </c>
       <c r="F28" t="n">
-        <v>399.9579903551679</v>
+        <v>268.8369696389129</v>
       </c>
       <c r="G28" t="n">
-        <v>148.0808055470527</v>
+        <v>315.074103747794</v>
       </c>
       <c r="H28" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="I28" t="n">
-        <v>186338</v>
+        <v>223414</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>12914228</v>
+        <v>12870014</v>
       </c>
       <c r="E29" t="n">
-        <v>32141178</v>
+        <v>32031138</v>
       </c>
       <c r="F29" t="n">
-        <v>748.9458263896863</v>
+        <v>733.7248504202742</v>
       </c>
       <c r="G29" t="n">
-        <v>1284.683120150289</v>
+        <v>1744.765617088753</v>
       </c>
       <c r="H29" t="n">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="I29" t="n">
-        <v>1597683</v>
+        <v>1600815</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>919309</v>
+        <v>923459</v>
       </c>
       <c r="E30" t="n">
-        <v>6435164</v>
+        <v>6464213</v>
       </c>
       <c r="F30" t="n">
-        <v>292.0505207650264</v>
+        <v>322.8160740013757</v>
       </c>
       <c r="G30" t="n">
-        <v>1602.373651411764</v>
+        <v>245.9205308433112</v>
       </c>
       <c r="H30" t="n">
-        <v>0.87</v>
+        <v>1.31</v>
       </c>
       <c r="I30" t="n">
-        <v>200889</v>
+        <v>153656</v>
       </c>
     </row>
     <row r="31">
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>178999</v>
+        <v>191396</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1524,10 +1524,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>8.85</v>
+        <v>6.77</v>
       </c>
       <c r="I31" t="n">
-        <v>6076.44</v>
+        <v>6081.76</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5396416</v>
+        <v>5338451</v>
       </c>
       <c r="E32" t="n">
-        <v>5654581</v>
+        <v>5593843</v>
       </c>
       <c r="F32" t="n">
-        <v>24.110805025831</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>24.5951814990705</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>3.44</v>
+        <v>4.01</v>
       </c>
       <c r="I32" t="n">
-        <v>121365</v>
+        <v>171336</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>5444221</v>
+        <v>5383902</v>
       </c>
       <c r="E33" t="n">
-        <v>8014188</v>
+        <v>7925395</v>
       </c>
       <c r="F33" t="n">
-        <v>32.46802773085974</v>
+        <v>22.65028671436248</v>
       </c>
       <c r="G33" t="n">
-        <v>500.1744057780938</v>
+        <v>122.4068070101359</v>
       </c>
       <c r="H33" t="n">
-        <v>1.01</v>
+        <v>0.77</v>
       </c>
       <c r="I33" t="n">
-        <v>617564</v>
+        <v>632024</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7669935</v>
+        <v>7670428</v>
       </c>
       <c r="E34" t="n">
-        <v>7669935</v>
+        <v>7670428</v>
       </c>
       <c r="F34" t="n">
-        <v>32796.03503608629</v>
+        <v>31991.62430976268</v>
       </c>
       <c r="G34" t="n">
-        <v>27515.54731492925</v>
+        <v>32397.41271653786</v>
       </c>
       <c r="H34" t="n">
-        <v>0.52</v>
+        <v>0.75</v>
       </c>
       <c r="I34" t="n">
-        <v>285948</v>
+        <v>275174</v>
       </c>
     </row>
     <row r="35">
@@ -1652,10 +1652,10 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1441669</v>
+        <v>1448281</v>
       </c>
       <c r="E35" t="n">
-        <v>1441703</v>
+        <v>1448281</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -1664,10 +1664,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>4.12</v>
+        <v>4.23</v>
       </c>
       <c r="I35" t="n">
-        <v>277205</v>
+        <v>276054</v>
       </c>
     </row>
     <row r="36">
@@ -1690,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>16533441</v>
+        <v>16553944</v>
       </c>
       <c r="F36" t="n">
-        <v>340.7866229184924</v>
+        <v>172.9827839118657</v>
       </c>
       <c r="G36" t="n">
-        <v>169.843069873947</v>
+        <v>170.4917279794487</v>
       </c>
       <c r="H36" t="n">
-        <v>0.52</v>
+        <v>0.7</v>
       </c>
       <c r="I36" t="n">
-        <v>10590.57</v>
+        <v>10264.73</v>
       </c>
     </row>
     <row r="37">
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>65181</v>
+        <v>65191</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>8.51</v>
       </c>
       <c r="I37" t="n">
-        <v>256.73</v>
+        <v>256.83</v>
       </c>
     </row>
     <row r="38">
@@ -1753,22 +1753,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>136725727</v>
+        <v>137031385</v>
       </c>
       <c r="E38" t="n">
-        <v>136725727</v>
+        <v>137031385</v>
       </c>
       <c r="F38" t="n">
-        <v>351074.0505361085</v>
+        <v>382211.5711147687</v>
       </c>
       <c r="G38" t="n">
-        <v>276476.761570527</v>
+        <v>276474.201179535</v>
       </c>
       <c r="H38" t="n">
         <v>0.05</v>
       </c>
       <c r="I38" t="n">
-        <v>65812586</v>
+        <v>66099989</v>
       </c>
     </row>
     <row r="39">
@@ -1788,22 +1788,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>65046262</v>
+        <v>65343514</v>
       </c>
       <c r="E39" t="n">
-        <v>333570575</v>
+        <v>335094945</v>
       </c>
       <c r="F39" t="n">
-        <v>101493.4905111067</v>
+        <v>96079.39922757538</v>
       </c>
       <c r="G39" t="n">
-        <v>87309.74199974045</v>
+        <v>79844.45164390921</v>
       </c>
       <c r="H39" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="I39" t="n">
-        <v>18890594</v>
+        <v>19164328</v>
       </c>
     </row>
     <row r="40">
@@ -1823,22 +1823,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>45372</v>
+        <v>45348</v>
       </c>
       <c r="E40" t="n">
-        <v>134084</v>
+        <v>134011</v>
       </c>
       <c r="F40" t="n">
-        <v>9.372509177139332</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>356.5054318058237</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.52</v>
+        <v>6.9</v>
       </c>
       <c r="I40" t="n">
-        <v>780.74</v>
+        <v>781.04</v>
       </c>
     </row>
     <row r="41">
@@ -1861,19 +1861,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>51677</v>
+        <v>51696</v>
       </c>
       <c r="F41" t="n">
-        <v>17.10965883077709</v>
+        <v>11.81123978363536</v>
       </c>
       <c r="G41" t="n">
-        <v>1.835462219541997</v>
+        <v>1.835584925032103</v>
       </c>
       <c r="H41" t="n">
         <v>3.08</v>
       </c>
       <c r="I41" t="n">
-        <v>25172</v>
+        <v>25784</v>
       </c>
     </row>
     <row r="42">
@@ -1896,19 +1896,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>598388</v>
+        <v>599570</v>
       </c>
       <c r="F42" t="n">
-        <v>1929.479333315751</v>
+        <v>1930.057988265537</v>
       </c>
       <c r="G42" t="n">
-        <v>396.9201468047991</v>
+        <v>397.5812809436732</v>
       </c>
       <c r="H42" t="n">
         <v>0.7</v>
       </c>
       <c r="I42" t="n">
-        <v>824.84</v>
+        <v>831.23</v>
       </c>
     </row>
     <row r="43">
@@ -1961,22 +1961,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2723608</v>
+        <v>2708151</v>
       </c>
       <c r="E44" t="n">
-        <v>10945561</v>
+        <v>10883442</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>3.581916328664047</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>955.8522965899807</v>
       </c>
       <c r="H44" t="n">
-        <v>4.39</v>
+        <v>0.9</v>
       </c>
       <c r="I44" t="n">
-        <v>24847</v>
+        <v>25342</v>
       </c>
     </row>
     <row r="45">
@@ -1996,22 +1996,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>17467264</v>
+        <v>17303080</v>
       </c>
       <c r="E45" t="n">
-        <v>123130808</v>
+        <v>121967805</v>
       </c>
       <c r="F45" t="n">
-        <v>193.5069971589903</v>
+        <v>191.4424434377485</v>
       </c>
       <c r="G45" t="n">
-        <v>249.4811567785961</v>
+        <v>416.6414480283655</v>
       </c>
       <c r="H45" t="n">
-        <v>0.93</v>
+        <v>0.82</v>
       </c>
       <c r="I45" t="n">
-        <v>1036642</v>
+        <v>1025182</v>
       </c>
     </row>
     <row r="46">
@@ -2031,10 +2031,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>148315</v>
+        <v>148629</v>
       </c>
       <c r="E46" t="n">
-        <v>1984539</v>
+        <v>1988746</v>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>46701</v>
+        <v>46374</v>
       </c>
     </row>
     <row r="47">
@@ -2064,22 +2064,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>253887415</v>
+        <v>254904492</v>
       </c>
       <c r="E47" t="n">
-        <v>253887415</v>
+        <v>254904492</v>
       </c>
       <c r="F47" t="n">
-        <v>141085.1751991152</v>
+        <v>121676.1620429477</v>
       </c>
       <c r="G47" t="n">
-        <v>132687.8277501254</v>
+        <v>150764.1979428463</v>
       </c>
       <c r="H47" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I47" t="n">
-        <v>14834415</v>
+        <v>14923689</v>
       </c>
     </row>
     <row r="48">
@@ -2099,22 +2099,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>635923</v>
+        <v>635383</v>
       </c>
       <c r="E48" t="n">
-        <v>635923</v>
+        <v>635383</v>
       </c>
       <c r="F48" t="n">
-        <v>60.01886818879175</v>
+        <v>101.6020969193337</v>
       </c>
       <c r="G48" t="n">
-        <v>146.160418198374</v>
+        <v>120.9470700582372</v>
       </c>
       <c r="H48" t="n">
-        <v>2.25</v>
+        <v>2.39</v>
       </c>
       <c r="I48" t="n">
-        <v>3337.89</v>
+        <v>3344.98</v>
       </c>
     </row>
     <row r="49">
@@ -2167,22 +2167,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>462768459</v>
+        <v>464843019</v>
       </c>
       <c r="E50" t="n">
-        <v>462768459</v>
+        <v>464843019</v>
       </c>
       <c r="F50" t="n">
-        <v>6175.430459513734</v>
+        <v>4555.597289034183</v>
       </c>
       <c r="G50" t="n">
-        <v>3049.570103880098</v>
+        <v>1713.30977335461</v>
       </c>
       <c r="H50" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="I50" t="n">
-        <v>3269920</v>
+        <v>3194035</v>
       </c>
     </row>
     <row r="51">
@@ -2202,22 +2202,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2449372</v>
+        <v>2411588</v>
       </c>
       <c r="E51" t="n">
-        <v>2449372</v>
+        <v>2411588</v>
       </c>
       <c r="F51" t="n">
-        <v>963.6162937043333</v>
+        <v>935.3458424645501</v>
       </c>
       <c r="G51" t="n">
-        <v>25.01023131473492</v>
+        <v>51.41992873975288</v>
       </c>
       <c r="H51" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="I51" t="n">
-        <v>60550</v>
+        <v>104174</v>
       </c>
     </row>
     <row r="52">
@@ -2237,10 +2237,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>22151</v>
+        <v>22111</v>
       </c>
       <c r="E52" t="n">
-        <v>44301</v>
+        <v>44222</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -2249,10 +2249,10 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>6.3</v>
+        <v>8.02</v>
       </c>
       <c r="I52" t="n">
-        <v>4510.91</v>
+        <v>4257.34</v>
       </c>
     </row>
     <row r="53">
@@ -2275,19 +2275,19 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>147373</v>
+        <v>146111</v>
       </c>
       <c r="F53" t="n">
-        <v>23.25369874295166</v>
+        <v>42.18731429266502</v>
       </c>
       <c r="G53" t="n">
-        <v>1.194901324838708</v>
+        <v>1.194981207143629</v>
       </c>
       <c r="H53" t="n">
-        <v>1.72</v>
+        <v>2.56</v>
       </c>
       <c r="I53" t="n">
-        <v>23205</v>
+        <v>22989</v>
       </c>
     </row>
     <row r="54">
@@ -2307,22 +2307,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2533870</v>
+        <v>2542091</v>
       </c>
       <c r="E54" t="n">
-        <v>6478057</v>
+        <v>6499075</v>
       </c>
       <c r="F54" t="n">
-        <v>112.7464378285854</v>
+        <v>302.9195632885293</v>
       </c>
       <c r="G54" t="n">
-        <v>254.7228302232611</v>
+        <v>222.7118351108425</v>
       </c>
       <c r="H54" t="n">
-        <v>1.96</v>
+        <v>1.36</v>
       </c>
       <c r="I54" t="n">
-        <v>117820</v>
+        <v>119447</v>
       </c>
     </row>
     <row r="55">
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>3821.75</v>
+        <v>3820.33</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -2354,10 +2354,10 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>6.22</v>
+        <v>4.16</v>
       </c>
       <c r="I55" t="n">
-        <v>764.65</v>
+        <v>738.41</v>
       </c>
     </row>
     <row r="56">
@@ -2377,22 +2377,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>73597204</v>
+        <v>73903525</v>
       </c>
       <c r="E56" t="n">
-        <v>73597204</v>
+        <v>73903525</v>
       </c>
       <c r="F56" t="n">
-        <v>9036.204238305581</v>
+        <v>11161.87143958123</v>
       </c>
       <c r="G56" t="n">
-        <v>14014.88901098977</v>
+        <v>17565.32916782838</v>
       </c>
       <c r="H56" t="n">
-        <v>0.17</v>
+        <v>0.35</v>
       </c>
       <c r="I56" t="n">
-        <v>4092533</v>
+        <v>3980326</v>
       </c>
     </row>
     <row r="57">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3661257</v>
+        <v>3582355</v>
       </c>
       <c r="E57" t="n">
-        <v>4639452</v>
+        <v>4539470</v>
       </c>
       <c r="F57" t="n">
-        <v>135.4032805447381</v>
+        <v>305.2160306427569</v>
       </c>
       <c r="G57" t="n">
-        <v>270.0321008559367</v>
+        <v>170.5812738433931</v>
       </c>
       <c r="H57" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="I57" t="n">
-        <v>286122</v>
+        <v>267653</v>
       </c>
     </row>
     <row r="58">
@@ -2447,22 +2447,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>4218808</v>
+        <v>4217531</v>
       </c>
       <c r="E58" t="n">
-        <v>8319845</v>
+        <v>8317325</v>
       </c>
       <c r="F58" t="n">
-        <v>2396.418244116488</v>
+        <v>1988.323585404113</v>
       </c>
       <c r="G58" t="n">
-        <v>2259.190976469374</v>
+        <v>2117.524811829169</v>
       </c>
       <c r="H58" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="I58" t="n">
-        <v>1644719</v>
+        <v>1645887</v>
       </c>
     </row>
     <row r="59">
@@ -2482,22 +2482,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1588547</v>
+        <v>1573320</v>
       </c>
       <c r="E59" t="n">
-        <v>9120844</v>
+        <v>9033414</v>
       </c>
       <c r="F59" t="n">
-        <v>201.1595193733864</v>
+        <v>275.2257445270443</v>
       </c>
       <c r="G59" t="n">
-        <v>601.3658509685085</v>
+        <v>684.6710793183447</v>
       </c>
       <c r="H59" t="n">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="I59" t="n">
-        <v>188930</v>
+        <v>224690</v>
       </c>
     </row>
     <row r="60">
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>565086</v>
+        <v>558281</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>8.77</v>
       </c>
       <c r="I60" t="n">
-        <v>2323.73</v>
+        <v>1913.85</v>
       </c>
     </row>
     <row r="61">
@@ -2555,19 +2555,19 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>31977645</v>
+        <v>31872259</v>
       </c>
       <c r="F61" t="n">
-        <v>495.5932820917719</v>
+        <v>502.5411082947086</v>
       </c>
       <c r="G61" t="n">
-        <v>1716.958233371564</v>
+        <v>1797.877794872679</v>
       </c>
       <c r="H61" t="n">
-        <v>0.03</v>
+        <v>0.25</v>
       </c>
       <c r="I61" t="n">
-        <v>250897</v>
+        <v>249008</v>
       </c>
     </row>
     <row r="62">
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>1432767</v>
+        <v>1436730</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>13.69</v>
+        <v>9.16</v>
       </c>
       <c r="I62" t="n">
-        <v>27605</v>
+        <v>27569</v>
       </c>
     </row>
     <row r="63">
@@ -2622,22 +2622,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>7537241</v>
+        <v>7605913</v>
       </c>
       <c r="E63" t="n">
-        <v>17751701</v>
+        <v>17913437</v>
       </c>
       <c r="F63" t="n">
-        <v>1182.118776333358</v>
+        <v>1159.487928015567</v>
       </c>
       <c r="G63" t="n">
-        <v>2489.333169510732</v>
+        <v>1884.238496171394</v>
       </c>
       <c r="H63" t="n">
-        <v>0.87</v>
+        <v>0.65</v>
       </c>
       <c r="I63" t="n">
-        <v>32491</v>
+        <v>36200</v>
       </c>
     </row>
     <row r="64">
@@ -2657,22 +2657,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2931979</v>
+        <v>2956424</v>
       </c>
       <c r="E64" t="n">
-        <v>2931979</v>
+        <v>2956424</v>
       </c>
       <c r="F64" t="n">
-        <v>17.29152586175302</v>
+        <v>11.76999973369665</v>
       </c>
       <c r="G64" t="n">
-        <v>209.0244519228642</v>
+        <v>207.3742325981727</v>
       </c>
       <c r="H64" t="n">
-        <v>1.93</v>
+        <v>3.57</v>
       </c>
       <c r="I64" t="n">
-        <v>16054.82</v>
+        <v>16146.26</v>
       </c>
     </row>
     <row r="65">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3369763</v>
+        <v>3373968</v>
       </c>
       <c r="E65" t="n">
-        <v>8314717</v>
+        <v>8325093</v>
       </c>
       <c r="F65" t="n">
-        <v>647.1512316818147</v>
+        <v>662.5679934854226</v>
       </c>
       <c r="G65" t="n">
-        <v>1089.305446160251</v>
+        <v>1251.220039113352</v>
       </c>
       <c r="H65" t="n">
         <v>0.76</v>
       </c>
       <c r="I65" t="n">
-        <v>55576</v>
+        <v>52819</v>
       </c>
     </row>
     <row r="66">
@@ -2730,19 +2730,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>269846</v>
+        <v>272201</v>
       </c>
       <c r="F66" t="n">
-        <v>16.26800029311276</v>
+        <v>9.541427824439793</v>
       </c>
       <c r="G66" t="n">
-        <v>92.72500147770867</v>
+        <v>5.38876838019898</v>
       </c>
       <c r="H66" t="n">
         <v>3.33</v>
       </c>
       <c r="I66" t="n">
-        <v>2347.29</v>
+        <v>1776.18</v>
       </c>
     </row>
     <row r="67">
@@ -2762,22 +2762,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>73342922</v>
+        <v>73907796</v>
       </c>
       <c r="E67" t="n">
-        <v>152957238</v>
+        <v>154135286</v>
       </c>
       <c r="F67" t="n">
-        <v>70279.55159199226</v>
+        <v>60944.55728016277</v>
       </c>
       <c r="G67" t="n">
-        <v>97663.46692219784</v>
+        <v>89090.8896443561</v>
       </c>
       <c r="H67" t="n">
         <v>0.05</v>
       </c>
       <c r="I67" t="n">
-        <v>14370675</v>
+        <v>14465492</v>
       </c>
     </row>
     <row r="68">
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>2100529</v>
+        <v>2100878</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>9.072407507528032</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>3.322399435571751</v>
       </c>
       <c r="H68" t="n">
-        <v>4.13</v>
+        <v>3.24</v>
       </c>
       <c r="I68" t="n">
-        <v>3231.87</v>
+        <v>3226.7</v>
       </c>
     </row>
     <row r="69">
@@ -2835,19 +2835,19 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>207204002</v>
+        <v>204973612</v>
       </c>
       <c r="F69" t="n">
-        <v>3280.750202739844</v>
+        <v>5720.385411355541</v>
       </c>
       <c r="G69" t="n">
-        <v>3826.241657962203</v>
+        <v>5250.54582983772</v>
       </c>
       <c r="H69" t="n">
-        <v>0.55</v>
+        <v>0.31</v>
       </c>
       <c r="I69" t="n">
-        <v>4636074</v>
+        <v>4630626</v>
       </c>
     </row>
     <row r="70">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>184886</v>
+        <v>184812</v>
       </c>
       <c r="E70" t="n">
-        <v>193073</v>
+        <v>192997</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -2879,10 +2879,10 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>9</v>
+        <v>8.42</v>
       </c>
       <c r="I70" t="n">
-        <v>432.56</v>
+        <v>432.59</v>
       </c>
     </row>
     <row r="71">
@@ -2902,22 +2902,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>144793707</v>
+        <v>145283566</v>
       </c>
       <c r="E71" t="n">
-        <v>144837651</v>
+        <v>145328271</v>
       </c>
       <c r="F71" t="n">
-        <v>36500.4907732571</v>
+        <v>37610.44678720957</v>
       </c>
       <c r="G71" t="n">
-        <v>48947.42651136552</v>
+        <v>39238.09568325961</v>
       </c>
       <c r="H71" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="I71" t="n">
-        <v>2616675</v>
+        <v>2609052</v>
       </c>
     </row>
     <row r="72">
@@ -2937,22 +2937,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>26325643</v>
+        <v>26453618</v>
       </c>
       <c r="E72" t="n">
-        <v>86395730</v>
+        <v>86815719</v>
       </c>
       <c r="F72" t="n">
-        <v>23432.8090651965</v>
+        <v>23239.70838683303</v>
       </c>
       <c r="G72" t="n">
-        <v>24052.94478546713</v>
+        <v>23162.39857446666</v>
       </c>
       <c r="H72" t="n">
-        <v>0.46</v>
+        <v>0.57</v>
       </c>
       <c r="I72" t="n">
-        <v>91085</v>
+        <v>82857</v>
       </c>
     </row>
     <row r="73">
@@ -2972,10 +2972,10 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>118518</v>
+        <v>119166</v>
       </c>
       <c r="E73" t="n">
-        <v>118518</v>
+        <v>119166</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -2987,7 +2987,7 @@
         <v>4.17</v>
       </c>
       <c r="I73" t="n">
-        <v>157.55</v>
+        <v>157.71</v>
       </c>
     </row>
     <row r="74">
@@ -3007,22 +3007,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>198562951</v>
+        <v>198518192</v>
       </c>
       <c r="E74" t="n">
-        <v>689825636</v>
+        <v>689670141</v>
       </c>
       <c r="F74" t="n">
-        <v>150107.8827588183</v>
+        <v>143405.1045026392</v>
       </c>
       <c r="G74" t="n">
-        <v>199683.6417134064</v>
+        <v>178480.6686644263</v>
       </c>
       <c r="H74" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I74" t="n">
-        <v>25953794</v>
+        <v>25957953</v>
       </c>
     </row>
     <row r="75">
@@ -3042,22 +3042,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>4328943</v>
+        <v>4098603</v>
       </c>
       <c r="E75" t="n">
-        <v>4328943</v>
+        <v>4098603</v>
       </c>
       <c r="F75" t="n">
-        <v>6071.978983875907</v>
+        <v>357.3146393718367</v>
       </c>
       <c r="G75" t="n">
-        <v>1815.880991820863</v>
+        <v>1054.353742466017</v>
       </c>
       <c r="H75" t="n">
-        <v>0.58</v>
+        <v>0.61</v>
       </c>
       <c r="I75" t="n">
-        <v>3626090</v>
+        <v>3589726</v>
       </c>
     </row>
     <row r="76">
@@ -3077,22 +3077,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>115009986</v>
+        <v>115510665</v>
       </c>
       <c r="E76" t="n">
-        <v>489207559</v>
+        <v>491257031</v>
       </c>
       <c r="F76" t="n">
-        <v>207154.0649499257</v>
+        <v>274985.0484551618</v>
       </c>
       <c r="G76" t="n">
-        <v>168818.1980232561</v>
+        <v>169414.7414832327</v>
       </c>
       <c r="H76" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="I76" t="n">
-        <v>13849042</v>
+        <v>14039683</v>
       </c>
     </row>
     <row r="77">
@@ -3115,19 +3115,19 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1854525</v>
+        <v>1854250</v>
       </c>
       <c r="F77" t="n">
-        <v>174.1655131669499</v>
+        <v>109.3159911397664</v>
       </c>
       <c r="G77" t="n">
-        <v>93.00639965706127</v>
+        <v>93.01240766400274</v>
       </c>
       <c r="H77" t="n">
         <v>0.54</v>
       </c>
       <c r="I77" t="n">
-        <v>433.55</v>
+        <v>433.92</v>
       </c>
     </row>
     <row r="78">
@@ -3147,22 +3147,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3148969</v>
+        <v>3116776</v>
       </c>
       <c r="E78" t="n">
-        <v>15788216</v>
+        <v>15626807</v>
       </c>
       <c r="F78" t="n">
-        <v>299.6953744504374</v>
+        <v>136.2541990592854</v>
       </c>
       <c r="G78" t="n">
-        <v>697.1214526445723</v>
+        <v>730.1023518889556</v>
       </c>
       <c r="H78" t="n">
-        <v>1.24</v>
+        <v>1.86</v>
       </c>
       <c r="I78" t="n">
-        <v>31359</v>
+        <v>32244</v>
       </c>
     </row>
     <row r="79">
@@ -3182,22 +3182,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>522392</v>
+        <v>542163</v>
       </c>
       <c r="E79" t="n">
-        <v>8935483</v>
+        <v>9273670</v>
       </c>
       <c r="F79" t="n">
-        <v>723.850754178996</v>
+        <v>717.290852278402</v>
       </c>
       <c r="G79" t="n">
-        <v>29.2847278584045</v>
+        <v>29.28661958681138</v>
       </c>
       <c r="H79" t="n">
         <v>1.28</v>
       </c>
       <c r="I79" t="n">
-        <v>285145</v>
+        <v>272662</v>
       </c>
     </row>
     <row r="80">
@@ -3217,22 +3217,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>5969303</v>
+        <v>5948754</v>
       </c>
       <c r="E80" t="n">
-        <v>8110993</v>
+        <v>8082954</v>
       </c>
       <c r="F80" t="n">
-        <v>260.0967834773912</v>
+        <v>238.0129537589469</v>
       </c>
       <c r="G80" t="n">
-        <v>606.1928172696335</v>
+        <v>706.5706486897417</v>
       </c>
       <c r="H80" t="n">
-        <v>0.2</v>
+        <v>0.47</v>
       </c>
       <c r="I80" t="n">
-        <v>1377593</v>
+        <v>6129018</v>
       </c>
     </row>
     <row r="81">
@@ -3251,19 +3251,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>41841</v>
+        <v>42914</v>
       </c>
       <c r="F81" t="n">
-        <v>131.2327945691102</v>
+        <v>202.4981236740861</v>
       </c>
       <c r="G81" t="n">
-        <v>3.990841703603406</v>
+        <v>5.941606222744679</v>
       </c>
       <c r="H81" t="n">
-        <v>0.98</v>
+        <v>0.39</v>
       </c>
       <c r="I81" t="n">
-        <v>60199</v>
+        <v>59688</v>
       </c>
     </row>
     <row r="82">
@@ -3283,22 +3283,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>40477635</v>
+        <v>40199126</v>
       </c>
       <c r="E82" t="n">
-        <v>47276916</v>
+        <v>46951624</v>
       </c>
       <c r="F82" t="n">
-        <v>215.066188110312</v>
+        <v>170.6297286256091</v>
       </c>
       <c r="G82" t="n">
-        <v>11.05699800371292</v>
+        <v>3.640628437071052</v>
       </c>
       <c r="H82" t="n">
-        <v>1.23</v>
+        <v>0.62</v>
       </c>
       <c r="I82" t="n">
-        <v>848099</v>
+        <v>857708</v>
       </c>
     </row>
     <row r="83">
@@ -3321,19 +3321,19 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>14464442</v>
+        <v>14561401</v>
       </c>
       <c r="F83" t="n">
-        <v>210.8388199813957</v>
+        <v>405.1768332769994</v>
       </c>
       <c r="G83" t="n">
-        <v>792.3370410081307</v>
+        <v>803.3245692548525</v>
       </c>
       <c r="H83" t="n">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>426664</v>
+        <v>412536</v>
       </c>
     </row>
     <row r="84">
@@ -3353,22 +3353,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>35667689</v>
+        <v>35777164</v>
       </c>
       <c r="E84" t="n">
-        <v>35667689</v>
+        <v>35777164</v>
       </c>
       <c r="F84" t="n">
-        <v>361.8496888870557</v>
+        <v>298.0667185713091</v>
       </c>
       <c r="G84" t="n">
-        <v>212.421572004542</v>
+        <v>337.1990436031796</v>
       </c>
       <c r="H84" t="n">
-        <v>2.38</v>
+        <v>1.66</v>
       </c>
       <c r="I84" t="n">
-        <v>753002</v>
+        <v>760965</v>
       </c>
     </row>
     <row r="85">
@@ -3388,22 +3388,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>537914</v>
+        <v>535108</v>
       </c>
       <c r="E85" t="n">
-        <v>6524375</v>
+        <v>6490345</v>
       </c>
       <c r="F85" t="n">
-        <v>565.770319655653</v>
+        <v>609.7212099910616</v>
       </c>
       <c r="G85" t="n">
-        <v>1294.772487653522</v>
+        <v>1135.361961330562</v>
       </c>
       <c r="H85" t="n">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="I85" t="n">
-        <v>2762912</v>
+        <v>2790027</v>
       </c>
     </row>
     <row r="86">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>25172662</v>
+        <v>25200114</v>
       </c>
       <c r="E86" t="n">
-        <v>35580575</v>
+        <v>35619377</v>
       </c>
       <c r="F86" t="n">
-        <v>17.88954012271403</v>
+        <v>16.51988657729159</v>
       </c>
       <c r="G86" t="n">
-        <v>458.3564587743754</v>
+        <v>351.3225892465848</v>
       </c>
       <c r="H86" t="n">
-        <v>3.68</v>
+        <v>2.34</v>
       </c>
       <c r="I86" t="n">
-        <v>74955</v>
+        <v>72377</v>
       </c>
     </row>
     <row r="87">
@@ -3458,22 +3458,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1301304652</v>
+        <v>1313298556</v>
       </c>
       <c r="E87" t="n">
-        <v>6240022309</v>
+        <v>6297535534</v>
       </c>
       <c r="F87" t="n">
-        <v>870826.5425313612</v>
+        <v>783762.0177516872</v>
       </c>
       <c r="G87" t="n">
-        <v>771930.0509398257</v>
+        <v>874214.2951475321</v>
       </c>
       <c r="H87" t="n">
         <v>0.02</v>
       </c>
       <c r="I87" t="n">
-        <v>178763221</v>
+        <v>179615255</v>
       </c>
     </row>
     <row r="88">
@@ -3493,22 +3493,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>267040847</v>
+        <v>268775505</v>
       </c>
       <c r="E88" t="n">
-        <v>1152696540</v>
+        <v>1160184289</v>
       </c>
       <c r="F88" t="n">
-        <v>1231372.201143201</v>
+        <v>1211588.714380736</v>
       </c>
       <c r="G88" t="n">
-        <v>992727.8100152449</v>
+        <v>802186.6631373889</v>
       </c>
       <c r="H88" t="n">
         <v>0.02</v>
       </c>
       <c r="I88" t="n">
-        <v>111144223</v>
+        <v>111041089</v>
       </c>
     </row>
     <row r="89">
@@ -3528,22 +3528,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>114516771</v>
+        <v>114892898</v>
       </c>
       <c r="E89" t="n">
-        <v>114516771</v>
+        <v>114892898</v>
       </c>
       <c r="F89" t="n">
-        <v>39103.05735386191</v>
+        <v>31585.80762421165</v>
       </c>
       <c r="G89" t="n">
-        <v>23409.38021148541</v>
+        <v>29947.34123416071</v>
       </c>
       <c r="H89" t="n">
-        <v>0.52</v>
+        <v>0.75</v>
       </c>
       <c r="I89" t="n">
-        <v>5987336</v>
+        <v>6036800</v>
       </c>
     </row>
     <row r="90">
@@ -3563,22 +3563,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>3854105</v>
+        <v>3853239</v>
       </c>
       <c r="E90" t="n">
-        <v>29992178</v>
+        <v>29985440</v>
       </c>
       <c r="F90" t="n">
-        <v>11012.51214095469</v>
+        <v>11013.22352479096</v>
       </c>
       <c r="G90" t="n">
-        <v>12283.49645117505</v>
+        <v>12310.48381464573</v>
       </c>
       <c r="H90" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I90" t="n">
-        <v>9968.16</v>
+        <v>10004.34</v>
       </c>
     </row>
     <row r="91">
@@ -3601,19 +3601,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>3770882</v>
+        <v>3766112</v>
       </c>
       <c r="F91" t="n">
-        <v>4831.177522531186</v>
+        <v>4132.020331145127</v>
       </c>
       <c r="G91" t="n">
-        <v>3150.451365781334</v>
+        <v>3127.765641895548</v>
       </c>
       <c r="H91" t="n">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="I91" t="n">
-        <v>297421</v>
+        <v>304481</v>
       </c>
     </row>
     <row r="92">
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>913024</v>
+        <v>919730</v>
       </c>
       <c r="F92" t="n">
-        <v>9.349490277147657</v>
+        <v>122.7271050586263</v>
       </c>
       <c r="G92" t="n">
-        <v>15.00341947625692</v>
+        <v>4.996054435154704</v>
       </c>
       <c r="H92" t="n">
-        <v>3.4</v>
+        <v>3.22</v>
       </c>
       <c r="I92" t="n">
-        <v>47003</v>
+        <v>43556</v>
       </c>
     </row>
     <row r="93">
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>154114</v>
+        <v>151096</v>
       </c>
       <c r="F93" t="n">
-        <v>1021.194962621734</v>
+        <v>171.9745986144559</v>
       </c>
       <c r="G93" t="n">
-        <v>6.601488821961444</v>
+        <v>6.401858446462991</v>
       </c>
       <c r="H93" t="n">
-        <v>0.86</v>
+        <v>2.21</v>
       </c>
       <c r="I93" t="n">
-        <v>111708</v>
+        <v>114998</v>
       </c>
     </row>
     <row r="94">
@@ -3699,22 +3699,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>10990700</v>
+        <v>10953853</v>
       </c>
       <c r="E94" t="n">
-        <v>132720127</v>
+        <v>132275170</v>
       </c>
       <c r="F94" t="n">
-        <v>2766.016673972849</v>
+        <v>1700.51166608297</v>
       </c>
       <c r="G94" t="n">
-        <v>2994.767897971598</v>
+        <v>2394.977142770322</v>
       </c>
       <c r="H94" t="n">
-        <v>0.6</v>
+        <v>0.68</v>
       </c>
       <c r="I94" t="n">
-        <v>216452</v>
+        <v>219549</v>
       </c>
     </row>
     <row r="95">
@@ -3734,22 +3734,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>21188102</v>
+        <v>21123650</v>
       </c>
       <c r="E95" t="n">
-        <v>52970256</v>
+        <v>52809125</v>
       </c>
       <c r="F95" t="n">
-        <v>8614.440013541929</v>
+        <v>7783.264313146276</v>
       </c>
       <c r="G95" t="n">
-        <v>9264.819246103882</v>
+        <v>9395.180275042201</v>
       </c>
       <c r="H95" t="n">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="I95" t="n">
-        <v>2047554</v>
+        <v>2070438</v>
       </c>
     </row>
     <row r="96">
@@ -3772,19 +3772,19 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>2341670</v>
+        <v>2345576</v>
       </c>
       <c r="F96" t="n">
-        <v>137.6546623243397</v>
+        <v>137.6093756543807</v>
       </c>
       <c r="G96" t="n">
-        <v>119.4640205284364</v>
+        <v>216.9516743341083</v>
       </c>
       <c r="H96" t="n">
-        <v>2.37</v>
+        <v>2.16</v>
       </c>
       <c r="I96" t="n">
-        <v>63966</v>
+        <v>62759</v>
       </c>
     </row>
     <row r="97">
@@ -3807,19 +3807,19 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>20107947</v>
+        <v>19911138</v>
       </c>
       <c r="F97" t="n">
-        <v>2903.900808433608</v>
+        <v>1826.770633618096</v>
       </c>
       <c r="G97" t="n">
-        <v>1254.030550824052</v>
+        <v>1551.964521068878</v>
       </c>
       <c r="H97" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>126131</v>
+        <v>117423</v>
       </c>
     </row>
     <row r="98">
@@ -3839,22 +3839,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4167912</v>
+        <v>4202860</v>
       </c>
       <c r="E98" t="n">
-        <v>12004930</v>
+        <v>12105592</v>
       </c>
       <c r="F98" t="n">
-        <v>1703.274363449052</v>
+        <v>601.6690065178813</v>
       </c>
       <c r="G98" t="n">
-        <v>411.2627241607508</v>
+        <v>454.1303413373956</v>
       </c>
       <c r="H98" t="n">
         <v>1.07</v>
       </c>
       <c r="I98" t="n">
-        <v>576475</v>
+        <v>576198</v>
       </c>
     </row>
     <row r="99">
@@ -3877,19 +3877,19 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>1661518</v>
+        <v>1642865</v>
       </c>
       <c r="F99" t="n">
-        <v>57.8184398302943</v>
+        <v>108.1312868337216</v>
       </c>
       <c r="G99" t="n">
-        <v>54.97992644177167</v>
+        <v>8.011492579057084</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>2.53</v>
       </c>
       <c r="I99" t="n">
-        <v>290744</v>
+        <v>286435</v>
       </c>
     </row>
     <row r="100">
@@ -3909,22 +3909,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>80354964</v>
+        <v>80186002</v>
       </c>
       <c r="E100" t="n">
-        <v>102257937</v>
+        <v>102042919</v>
       </c>
       <c r="F100" t="n">
-        <v>10618.33014307798</v>
+        <v>7123.200587659059</v>
       </c>
       <c r="G100" t="n">
-        <v>8835.027562946178</v>
+        <v>10040.54493291838</v>
       </c>
       <c r="H100" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="I100" t="n">
-        <v>6175963</v>
+        <v>6118259</v>
       </c>
     </row>
     <row r="101">
@@ -3944,22 +3944,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>22397079</v>
+        <v>22426225</v>
       </c>
       <c r="E101" t="n">
-        <v>29054135</v>
+        <v>29091944</v>
       </c>
       <c r="F101" t="n">
-        <v>4571.639887940609</v>
+        <v>6464.63918877068</v>
       </c>
       <c r="G101" t="n">
-        <v>4770.659443845912</v>
+        <v>6324.614082547997</v>
       </c>
       <c r="H101" t="n">
-        <v>0.83</v>
+        <v>0.39</v>
       </c>
       <c r="I101" t="n">
-        <v>154892</v>
+        <v>157494</v>
       </c>
     </row>
     <row r="102">
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>1632741</v>
+        <v>1676249</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>5.92</v>
+        <v>7.56</v>
       </c>
       <c r="I102" t="n">
-        <v>12381.08</v>
+        <v>13162.1</v>
       </c>
     </row>
     <row r="103">
@@ -4014,10 +4014,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>619066</v>
+        <v>620466</v>
       </c>
       <c r="E103" t="n">
-        <v>619066</v>
+        <v>620466</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -4026,10 +4026,10 @@
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>4.77</v>
+        <v>6.25</v>
       </c>
       <c r="I103" t="n">
-        <v>77918</v>
+        <v>78084</v>
       </c>
     </row>
     <row r="104">
@@ -4049,22 +4049,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>40267600</v>
+        <v>40572939</v>
       </c>
       <c r="E104" t="n">
-        <v>42094041</v>
+        <v>42413229</v>
       </c>
       <c r="F104" t="n">
-        <v>791.2049475580781</v>
+        <v>618.8152875107302</v>
       </c>
       <c r="G104" t="n">
-        <v>417.7139593138937</v>
+        <v>729.8352977350324</v>
       </c>
       <c r="H104" t="n">
-        <v>0.64</v>
+        <v>0.52</v>
       </c>
       <c r="I104" t="n">
-        <v>769708</v>
+        <v>749116</v>
       </c>
     </row>
     <row r="105">
@@ -4084,22 +4084,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>14108697</v>
+        <v>14210350</v>
       </c>
       <c r="E105" t="n">
-        <v>14108697</v>
+        <v>14210350</v>
       </c>
       <c r="F105" t="n">
-        <v>2764.832794011687</v>
+        <v>3656.164782142987</v>
       </c>
       <c r="G105" t="n">
-        <v>2302.190720663949</v>
+        <v>3282.527873516957</v>
       </c>
       <c r="H105" t="n">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
       <c r="I105" t="n">
-        <v>4597922</v>
+        <v>4666190</v>
       </c>
     </row>
     <row r="106">
@@ -4122,19 +4122,19 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>1188510</v>
+        <v>1189523</v>
       </c>
       <c r="F106" t="n">
-        <v>9.9062595410347</v>
+        <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>88.05963689258667</v>
+        <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>0.39</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="I106" t="n">
-        <v>5135.33</v>
+        <v>5428.37</v>
       </c>
     </row>
     <row r="107">
@@ -4154,22 +4154,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>52692950</v>
+        <v>52825138</v>
       </c>
       <c r="E107" t="n">
-        <v>134238302</v>
+        <v>134575058</v>
       </c>
       <c r="F107" t="n">
-        <v>2587.707549523724</v>
+        <v>2398.282154388471</v>
       </c>
       <c r="G107" t="n">
-        <v>3804.807261824525</v>
+        <v>3873.828886241067</v>
       </c>
       <c r="H107" t="n">
-        <v>0.17</v>
+        <v>0.34</v>
       </c>
       <c r="I107" t="n">
-        <v>2475290</v>
+        <v>2447780</v>
       </c>
     </row>
     <row r="108">
@@ -4189,22 +4189,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>13906184</v>
+        <v>13966283</v>
       </c>
       <c r="E108" t="n">
-        <v>67349867</v>
+        <v>67640940</v>
       </c>
       <c r="F108" t="n">
-        <v>8081.250444043728</v>
+        <v>6381.515485043315</v>
       </c>
       <c r="G108" t="n">
-        <v>9507.079440858617</v>
+        <v>9207.638723129803</v>
       </c>
       <c r="H108" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="I108" t="n">
-        <v>3652131</v>
+        <v>3619780</v>
       </c>
     </row>
     <row r="109">
@@ -4227,7 +4227,7 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>496558</v>
+        <v>510124</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -4236,10 +4236,10 @@
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>5.13</v>
+        <v>6.04</v>
       </c>
       <c r="I109" t="n">
-        <v>8077.07</v>
+        <v>8401.719999999999</v>
       </c>
     </row>
     <row r="110">
@@ -4259,22 +4259,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>4531526</v>
+        <v>4585532</v>
       </c>
       <c r="E110" t="n">
-        <v>10329414</v>
+        <v>10452517</v>
       </c>
       <c r="F110" t="n">
-        <v>1756.791462259204</v>
+        <v>1274.460927696594</v>
       </c>
       <c r="G110" t="n">
-        <v>1664.418105382166</v>
+        <v>1547.854184770878</v>
       </c>
       <c r="H110" t="n">
-        <v>0.86</v>
+        <v>0.76</v>
       </c>
       <c r="I110" t="n">
-        <v>96758</v>
+        <v>93261</v>
       </c>
     </row>
     <row r="111">
@@ -4297,19 +4297,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>1887314756</v>
+        <v>1900476956</v>
       </c>
       <c r="F111" t="n">
-        <v>93310.99405763202</v>
+        <v>98931.87747347866</v>
       </c>
       <c r="G111" t="n">
-        <v>46365.62821910802</v>
+        <v>41116.40295384358</v>
       </c>
       <c r="H111" t="n">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
       <c r="I111" t="n">
-        <v>25825212</v>
+        <v>26396377</v>
       </c>
     </row>
     <row r="112">
@@ -4329,22 +4329,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>9394052</v>
+        <v>9359741</v>
       </c>
       <c r="E112" t="n">
-        <v>34206546</v>
+        <v>34078721</v>
       </c>
       <c r="F112" t="n">
-        <v>486.9123145966815</v>
+        <v>552.5454115012028</v>
       </c>
       <c r="G112" t="n">
-        <v>379.1271637041435</v>
+        <v>379.4628455479265</v>
       </c>
       <c r="H112" t="n">
         <v>0.87</v>
       </c>
       <c r="I112" t="n">
-        <v>158506</v>
+        <v>158063</v>
       </c>
     </row>
     <row r="113">
@@ -4367,19 +4367,19 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>541259</v>
+        <v>534262</v>
       </c>
       <c r="F113" t="n">
-        <v>20.56435663604021</v>
+        <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>180.54751330611</v>
+        <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>1.32</v>
+        <v>4.19</v>
       </c>
       <c r="I113" t="n">
-        <v>19309.69</v>
+        <v>1953.8</v>
       </c>
     </row>
     <row r="114">
@@ -4399,22 +4399,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>12211006</v>
+        <v>12235820</v>
       </c>
       <c r="E114" t="n">
-        <v>17704197</v>
+        <v>17740173</v>
       </c>
       <c r="F114" t="n">
-        <v>2747.879742490803</v>
+        <v>1212.043201091661</v>
       </c>
       <c r="G114" t="n">
-        <v>2544.709596458367</v>
+        <v>2439.895457828962</v>
       </c>
       <c r="H114" t="n">
-        <v>0.68</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I114" t="n">
-        <v>2093002</v>
+        <v>2075834</v>
       </c>
     </row>
     <row r="115">
@@ -4434,22 +4434,22 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>2063490</v>
+        <v>2070923</v>
       </c>
       <c r="E115" t="n">
-        <v>14797082</v>
+        <v>14850381</v>
       </c>
       <c r="F115" t="n">
-        <v>726.4181170136336</v>
+        <v>794.1688539767723</v>
       </c>
       <c r="G115" t="n">
-        <v>729.9658945333188</v>
+        <v>887.2465824570404</v>
       </c>
       <c r="H115" t="n">
         <v>2.13</v>
       </c>
       <c r="I115" t="n">
-        <v>1931051</v>
+        <v>1928291</v>
       </c>
     </row>
     <row r="116">
@@ -4469,10 +4469,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2745694</v>
+        <v>2749092</v>
       </c>
       <c r="E116" t="n">
-        <v>5550309</v>
+        <v>5557179</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>4756.13</v>
+        <v>4769.05</v>
       </c>
     </row>
     <row r="117">
@@ -4502,22 +4502,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>201990167</v>
+        <v>202521829</v>
       </c>
       <c r="E117" t="n">
-        <v>1143792439</v>
+        <v>1146803034</v>
       </c>
       <c r="F117" t="n">
-        <v>431401.3141208506</v>
+        <v>435399.4855956304</v>
       </c>
       <c r="G117" t="n">
-        <v>403382.1791397267</v>
+        <v>377710.0904607036</v>
       </c>
       <c r="H117" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I117" t="n">
-        <v>63951183</v>
+        <v>65010496</v>
       </c>
     </row>
     <row r="118">
@@ -4537,22 +4537,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>687889</v>
+        <v>687729</v>
       </c>
       <c r="E118" t="n">
-        <v>2280939</v>
+        <v>2280408</v>
       </c>
       <c r="F118" t="n">
-        <v>3303.938235440079</v>
+        <v>7141.068525446189</v>
       </c>
       <c r="G118" t="n">
-        <v>8021.149449475512</v>
+        <v>8254.327452060179</v>
       </c>
       <c r="H118" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="I118" t="n">
-        <v>24676</v>
+        <v>25488</v>
       </c>
     </row>
     <row r="119">
@@ -4572,22 +4572,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2782749</v>
+        <v>2787631</v>
       </c>
       <c r="E119" t="n">
-        <v>9852540</v>
+        <v>9869824</v>
       </c>
       <c r="F119" t="n">
-        <v>233.6565380160679</v>
+        <v>22.51408879235685</v>
       </c>
       <c r="G119" t="n">
-        <v>1549.932379808132</v>
+        <v>1556.813988675109</v>
       </c>
       <c r="H119" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="I119" t="n">
-        <v>8822.790000000001</v>
+        <v>8273.24</v>
       </c>
     </row>
     <row r="120">
@@ -4607,22 +4607,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1040533</v>
+        <v>1106040</v>
       </c>
       <c r="E120" t="n">
-        <v>1040533</v>
+        <v>1106040</v>
       </c>
       <c r="F120" t="n">
-        <v>113.4463133406395</v>
+        <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>75.35749211726042</v>
+        <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>3.6</v>
+        <v>12.05</v>
       </c>
       <c r="I120" t="n">
-        <v>11845.29</v>
+        <v>11833.63</v>
       </c>
     </row>
     <row r="121">
@@ -4642,22 +4642,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>508526</v>
+        <v>498453</v>
       </c>
       <c r="E121" t="n">
-        <v>1711629</v>
+        <v>1677722</v>
       </c>
       <c r="F121" t="n">
-        <v>465.4341922896962</v>
+        <v>414.8439145473426</v>
       </c>
       <c r="G121" t="n">
-        <v>586.3716404769968</v>
+        <v>633.2327193104968</v>
       </c>
       <c r="H121" t="n">
-        <v>0.53</v>
+        <v>0.71</v>
       </c>
       <c r="I121" t="n">
-        <v>628800</v>
+        <v>213515</v>
       </c>
     </row>
     <row r="122">
@@ -4677,10 +4677,10 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>453057</v>
+        <v>448121</v>
       </c>
       <c r="E122" t="n">
-        <v>840509</v>
+        <v>831351</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -4689,10 +4689,10 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>4.49</v>
+        <v>5.62</v>
       </c>
       <c r="I122" t="n">
-        <v>209493</v>
+        <v>205949</v>
       </c>
     </row>
     <row r="123">
@@ -4715,19 +4715,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>11822041</v>
+        <v>11804778</v>
       </c>
       <c r="F123" t="n">
-        <v>127.1261015407728</v>
+        <v>72.08498152159042</v>
       </c>
       <c r="G123" t="n">
-        <v>155.2390147966844</v>
+        <v>154.6826766194812</v>
       </c>
       <c r="H123" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="I123" t="n">
-        <v>7725.24</v>
+        <v>7987.76</v>
       </c>
     </row>
     <row r="124">
@@ -4750,19 +4750,19 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>1228095</v>
+        <v>1233634</v>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>65.88982570705912</v>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>4.020766805312022</v>
       </c>
       <c r="H124" t="n">
-        <v>3.99</v>
+        <v>2.82</v>
       </c>
       <c r="I124" t="n">
-        <v>48499</v>
+        <v>48885</v>
       </c>
     </row>
     <row r="125">
@@ -4782,22 +4782,22 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3449260</v>
+        <v>3367684</v>
       </c>
       <c r="E125" t="n">
-        <v>8054598</v>
+        <v>7864103</v>
       </c>
       <c r="F125" t="n">
-        <v>840.2251150642385</v>
+        <v>739.2686543253884</v>
       </c>
       <c r="G125" t="n">
-        <v>1087.648372382828</v>
+        <v>1412.634688219316</v>
       </c>
       <c r="H125" t="n">
-        <v>1.41</v>
+        <v>1.1</v>
       </c>
       <c r="I125" t="n">
-        <v>777037</v>
+        <v>723133</v>
       </c>
     </row>
     <row r="126">
@@ -4817,22 +4817,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>257350</v>
+        <v>252180</v>
       </c>
       <c r="E126" t="n">
-        <v>2271307</v>
+        <v>2225674</v>
       </c>
       <c r="F126" t="n">
-        <v>590.5129125845947</v>
+        <v>47.48758783595992</v>
       </c>
       <c r="G126" t="n">
-        <v>10.73983286456338</v>
+        <v>1.251907573213055</v>
       </c>
       <c r="H126" t="n">
-        <v>3.04</v>
+        <v>3.68</v>
       </c>
       <c r="I126" t="n">
-        <v>71327</v>
+        <v>72086</v>
       </c>
     </row>
     <row r="127">
@@ -4855,19 +4855,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>645269</v>
+        <v>645316</v>
       </c>
       <c r="F127" t="n">
-        <v>590.0079843429645</v>
+        <v>590.0471312080529</v>
       </c>
       <c r="G127" t="n">
-        <v>472.8304009788111</v>
+        <v>472.8617731439478</v>
       </c>
       <c r="H127" t="n">
         <v>1.9</v>
       </c>
       <c r="I127" t="n">
-        <v>5682.73</v>
+        <v>5419.92</v>
       </c>
     </row>
     <row r="128">
@@ -4887,22 +4887,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>4918148</v>
+        <v>4913257</v>
       </c>
       <c r="E128" t="n">
-        <v>17378104</v>
+        <v>17360822</v>
       </c>
       <c r="F128" t="n">
-        <v>1595.533020078906</v>
+        <v>1785.845351153707</v>
       </c>
       <c r="G128" t="n">
-        <v>1924.858042318134</v>
+        <v>1867.870519180424</v>
       </c>
       <c r="H128" t="n">
-        <v>0.75</v>
+        <v>0.63</v>
       </c>
       <c r="I128" t="n">
-        <v>98772</v>
+        <v>104808</v>
       </c>
     </row>
     <row r="129">
@@ -4925,19 +4925,19 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2198058</v>
+        <v>2249911</v>
       </c>
       <c r="F129" t="n">
-        <v>165.875878170535</v>
+        <v>166.4457182467443</v>
       </c>
       <c r="G129" t="n">
-        <v>43.64915994372742</v>
+        <v>43.9502915992605</v>
       </c>
       <c r="H129" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="I129" t="n">
-        <v>8741.379999999999</v>
+        <v>8765.969999999999</v>
       </c>
     </row>
     <row r="130">
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>2512726</v>
+        <v>2549608</v>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
@@ -4970,7 +4970,7 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>2458.51</v>
+        <v>2483.57</v>
       </c>
     </row>
     <row r="131">
@@ -4990,22 +4990,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>84065</v>
+        <v>80923</v>
       </c>
       <c r="E131" t="n">
-        <v>84065</v>
+        <v>80923</v>
       </c>
       <c r="F131" t="n">
-        <v>156.9056825863254</v>
+        <v>40.50220154892695</v>
       </c>
       <c r="G131" t="n">
-        <v>5.300216638245179</v>
+        <v>6.795285053533184</v>
       </c>
       <c r="H131" t="n">
-        <v>1.63</v>
+        <v>0.21</v>
       </c>
       <c r="I131" t="n">
-        <v>20213</v>
+        <v>20470</v>
       </c>
     </row>
     <row r="132">
@@ -5028,19 +5028,19 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>4384952</v>
+        <v>4384917</v>
       </c>
       <c r="F132" t="n">
-        <v>573.3893966628377</v>
+        <v>330.8862000370965</v>
       </c>
       <c r="G132" t="n">
-        <v>278.841691731104</v>
+        <v>450.3695354301516</v>
       </c>
       <c r="H132" t="n">
-        <v>0.38</v>
+        <v>0.29</v>
       </c>
       <c r="I132" t="n">
-        <v>275491</v>
+        <v>275236</v>
       </c>
     </row>
     <row r="133">
@@ -5060,22 +5060,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2139879</v>
+        <v>2108030</v>
       </c>
       <c r="E133" t="n">
-        <v>8738712</v>
+        <v>8608648</v>
       </c>
       <c r="F133" t="n">
-        <v>760.0174035481373</v>
+        <v>2.3155214103604</v>
       </c>
       <c r="G133" t="n">
-        <v>617.5616833681063</v>
+        <v>500.5633505415142</v>
       </c>
       <c r="H133" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I133" t="n">
-        <v>564148</v>
+        <v>564872</v>
       </c>
     </row>
     <row r="134">
@@ -5095,22 +5095,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>7393206</v>
+        <v>7537959</v>
       </c>
       <c r="E134" t="n">
-        <v>7448162</v>
+        <v>7593991</v>
       </c>
       <c r="F134" t="n">
-        <v>341639.1114924102</v>
+        <v>268028.4035379372</v>
       </c>
       <c r="G134" t="n">
-        <v>255713.7438443255</v>
+        <v>366664.899043136</v>
       </c>
       <c r="H134" t="n">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="I134" t="n">
-        <v>4786193</v>
+        <v>4862262</v>
       </c>
     </row>
     <row r="135">
@@ -5130,22 +5130,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>13635211</v>
+        <v>13691190</v>
       </c>
       <c r="E135" t="n">
-        <v>13681613</v>
+        <v>13737782</v>
       </c>
       <c r="F135" t="n">
-        <v>12873.76504282401</v>
+        <v>14908.79628600981</v>
       </c>
       <c r="G135" t="n">
-        <v>13192.13139336562</v>
+        <v>15469.86249491912</v>
       </c>
       <c r="H135" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="I135" t="n">
-        <v>5738229</v>
+        <v>5770339</v>
       </c>
     </row>
     <row r="136">
@@ -5165,22 +5165,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>42866152</v>
+        <v>42883456</v>
       </c>
       <c r="E136" t="n">
-        <v>72776754</v>
+        <v>72806132</v>
       </c>
       <c r="F136" t="n">
-        <v>1036.399285154888</v>
+        <v>983.6292858547168</v>
       </c>
       <c r="G136" t="n">
-        <v>784.7271607932211</v>
+        <v>887.3542951393686</v>
       </c>
       <c r="H136" t="n">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="I136" t="n">
-        <v>1087980</v>
+        <v>1076009</v>
       </c>
     </row>
     <row r="137">
@@ -5200,22 +5200,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>24443206</v>
+        <v>23700770</v>
       </c>
       <c r="E137" t="n">
-        <v>73267844</v>
+        <v>71042412</v>
       </c>
       <c r="F137" t="n">
-        <v>94780.36033576915</v>
+        <v>82489.41621666324</v>
       </c>
       <c r="G137" t="n">
-        <v>82455.40579658456</v>
+        <v>76138.17817336078</v>
       </c>
       <c r="H137" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="I137" t="n">
-        <v>2728083</v>
+        <v>2860931</v>
       </c>
     </row>
     <row r="138">
@@ -5235,22 +5235,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>101402625</v>
+        <v>101587000</v>
       </c>
       <c r="E138" t="n">
-        <v>107800154</v>
+        <v>107996162</v>
       </c>
       <c r="F138" t="n">
-        <v>8545.755690090578</v>
+        <v>9905.205566686715</v>
       </c>
       <c r="G138" t="n">
-        <v>10224.5451374014</v>
+        <v>14104.65635891887</v>
       </c>
       <c r="H138" t="n">
-        <v>0.31</v>
+        <v>0.52</v>
       </c>
       <c r="I138" t="n">
-        <v>900152</v>
+        <v>795413</v>
       </c>
     </row>
     <row r="139">
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1161231</v>
+        <v>1160859</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -5285,7 +5285,7 @@
         <v>5.44</v>
       </c>
       <c r="I139" t="n">
-        <v>136.31</v>
+        <v>136.36</v>
       </c>
     </row>
     <row r="140">
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>258575</v>
+        <v>258615</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -5317,10 +5317,10 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>8.119999999999999</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="I140" t="n">
-        <v>465.24</v>
+        <v>465.36</v>
       </c>
     </row>
     <row r="141">
@@ -5336,10 +5336,10 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>97042</v>
+        <v>97068</v>
       </c>
       <c r="E141" t="n">
-        <v>275285</v>
+        <v>275360</v>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
@@ -5349,7 +5349,7 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>40.73</v>
+        <v>40.72</v>
       </c>
     </row>
     <row r="142">
@@ -5369,22 +5369,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>47023130</v>
+        <v>47344773</v>
       </c>
       <c r="E142" t="n">
-        <v>202570500</v>
+        <v>203956104</v>
       </c>
       <c r="F142" t="n">
-        <v>76514.75848022568</v>
+        <v>78240.22438651852</v>
       </c>
       <c r="G142" t="n">
-        <v>60486.30190801834</v>
+        <v>62386.486109837</v>
       </c>
       <c r="H142" t="n">
         <v>0.1</v>
       </c>
       <c r="I142" t="n">
-        <v>8747618</v>
+        <v>8774637</v>
       </c>
     </row>
     <row r="143">
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>280177</v>
+        <v>280331</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -5419,7 +5419,7 @@
         <v>9.4</v>
       </c>
       <c r="I143" t="n">
-        <v>208473</v>
+        <v>208342</v>
       </c>
     </row>
     <row r="144">
@@ -5442,19 +5442,19 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>9440344</v>
+        <v>9481766</v>
       </c>
       <c r="F144" t="n">
-        <v>742.7188537124114</v>
+        <v>1022.853892943113</v>
       </c>
       <c r="G144" t="n">
-        <v>364.897086297299</v>
+        <v>573.7946065899299</v>
       </c>
       <c r="H144" t="n">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="I144" t="n">
-        <v>121670</v>
+        <v>121719</v>
       </c>
     </row>
     <row r="145">
@@ -5474,22 +5474,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1181379</v>
+        <v>1176186</v>
       </c>
       <c r="E145" t="n">
-        <v>7875863</v>
+        <v>7841241</v>
       </c>
       <c r="F145" t="n">
-        <v>85.4913434524434</v>
+        <v>85.49686920689469</v>
       </c>
       <c r="G145" t="n">
-        <v>101.2702028446003</v>
+        <v>101.2767484695905</v>
       </c>
       <c r="H145" t="n">
         <v>0.53</v>
       </c>
       <c r="I145" t="n">
-        <v>4908.06</v>
+        <v>4911.39</v>
       </c>
     </row>
     <row r="146">
@@ -5512,19 +5512,19 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>7873386</v>
+        <v>7922609</v>
       </c>
       <c r="F146" t="n">
-        <v>285.2685563952427</v>
+        <v>345.3362713388775</v>
       </c>
       <c r="G146" t="n">
-        <v>268.7781699995766</v>
+        <v>299.4313711795784</v>
       </c>
       <c r="H146" t="n">
-        <v>2.24</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
-        <v>6320343</v>
+        <v>6319764</v>
       </c>
     </row>
     <row r="147">
@@ -5544,22 +5544,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>664658</v>
+        <v>670059</v>
       </c>
       <c r="E147" t="n">
-        <v>2399816</v>
+        <v>2419319</v>
       </c>
       <c r="F147" t="n">
-        <v>10.09005479201064</v>
+        <v>27.28783716920645</v>
       </c>
       <c r="G147" t="n">
-        <v>290.4140596233177</v>
+        <v>60.54094100543312</v>
       </c>
       <c r="H147" t="n">
-        <v>0.95</v>
+        <v>0.41</v>
       </c>
       <c r="I147" t="n">
-        <v>405157</v>
+        <v>408904</v>
       </c>
     </row>
     <row r="148">
@@ -5582,19 +5582,19 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>1642684</v>
+        <v>1640511</v>
       </c>
       <c r="F148" t="n">
-        <v>182.1513393255882</v>
+        <v>212.1013223790709</v>
       </c>
       <c r="G148" t="n">
-        <v>208.1184508122396</v>
+        <v>226.4319350010345</v>
       </c>
       <c r="H148" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="I148" t="n">
-        <v>88745</v>
+        <v>90916</v>
       </c>
     </row>
     <row r="149">
@@ -5617,19 +5617,19 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>67202</v>
+        <v>67227</v>
       </c>
       <c r="F149" t="n">
-        <v>11.00485106815664</v>
+        <v>11.0055623694688</v>
       </c>
       <c r="G149" t="n">
-        <v>292.1337135356826</v>
+        <v>320.7444011997238</v>
       </c>
       <c r="H149" t="n">
         <v>3.03</v>
       </c>
       <c r="I149" t="n">
-        <v>930.54</v>
+        <v>924.92</v>
       </c>
     </row>
     <row r="150">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>13051941</v>
+        <v>12980393</v>
       </c>
       <c r="E150" t="n">
-        <v>13051941</v>
+        <v>12980393</v>
       </c>
       <c r="F150" t="n">
-        <v>396.4473134132455</v>
+        <v>921.8563063607976</v>
       </c>
       <c r="G150" t="n">
-        <v>1500.775529594778</v>
+        <v>640.4292644835931</v>
       </c>
       <c r="H150" t="n">
-        <v>0.7</v>
+        <v>0.62</v>
       </c>
       <c r="I150" t="n">
-        <v>3362696</v>
+        <v>3432863</v>
       </c>
     </row>
     <row r="151">
@@ -5684,22 +5684,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1662434</v>
+        <v>1691777</v>
       </c>
       <c r="E151" t="n">
-        <v>6040777</v>
+        <v>6147401</v>
       </c>
       <c r="F151" t="n">
-        <v>48.98604116280342</v>
+        <v>42.12100619528992</v>
       </c>
       <c r="G151" t="n">
-        <v>171.5938186046895</v>
+        <v>145.0022942065324</v>
       </c>
       <c r="H151" t="n">
-        <v>1.38</v>
+        <v>2.7</v>
       </c>
       <c r="I151" t="n">
-        <v>127866</v>
+        <v>128671</v>
       </c>
     </row>
     <row r="152">
@@ -5719,10 +5719,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1251816</v>
+        <v>1250400</v>
       </c>
       <c r="E152" t="n">
-        <v>1251816</v>
+        <v>1250400</v>
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>645.22</v>
+        <v>648.74</v>
       </c>
     </row>
     <row r="153">
@@ -5752,22 +5752,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>23661280</v>
+        <v>23599415</v>
       </c>
       <c r="E153" t="n">
-        <v>27282886</v>
+        <v>27213264</v>
       </c>
       <c r="F153" t="n">
-        <v>424.9618483432089</v>
+        <v>385.9368468771459</v>
       </c>
       <c r="G153" t="n">
-        <v>689.4494543413165</v>
+        <v>663.6674850945507</v>
       </c>
       <c r="H153" t="n">
-        <v>0.18</v>
+        <v>0.29</v>
       </c>
       <c r="I153" t="n">
-        <v>783862</v>
+        <v>763837</v>
       </c>
     </row>
     <row r="154">
@@ -5787,22 +5787,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2451016</v>
+        <v>2450361</v>
       </c>
       <c r="E154" t="n">
-        <v>18443732</v>
+        <v>18438414</v>
       </c>
       <c r="F154" t="n">
-        <v>4328.140773011937</v>
+        <v>4503.5369628543</v>
       </c>
       <c r="G154" t="n">
-        <v>3317.417155014009</v>
+        <v>3369.859149354275</v>
       </c>
       <c r="H154" t="n">
         <v>0.05</v>
       </c>
       <c r="I154" t="n">
-        <v>161832</v>
+        <v>161869</v>
       </c>
     </row>
     <row r="155">
@@ -5822,22 +5822,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>20710798</v>
+        <v>20909372</v>
       </c>
       <c r="E155" t="n">
-        <v>82843192</v>
+        <v>83637487</v>
       </c>
       <c r="F155" t="n">
-        <v>5134.269990396635</v>
+        <v>10483.90018720536</v>
       </c>
       <c r="G155" t="n">
-        <v>7736.838907041588</v>
+        <v>17623.235918746</v>
       </c>
       <c r="H155" t="n">
-        <v>0.72</v>
+        <v>0.48</v>
       </c>
       <c r="I155" t="n">
-        <v>5963802</v>
+        <v>5404465</v>
       </c>
     </row>
     <row r="156">
@@ -5857,22 +5857,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>304238901</v>
+        <v>301954043</v>
       </c>
       <c r="E156" t="n">
-        <v>304238901</v>
+        <v>301954043</v>
       </c>
       <c r="F156" t="n">
-        <v>320987.0875777691</v>
+        <v>338431.3206082401</v>
       </c>
       <c r="G156" t="n">
-        <v>155021.5662014499</v>
+        <v>304178.5257507986</v>
       </c>
       <c r="H156" t="n">
-        <v>0.24</v>
+        <v>0.09</v>
       </c>
       <c r="I156" t="n">
-        <v>12629677</v>
+        <v>12829940</v>
       </c>
     </row>
     <row r="157">
@@ -5892,22 +5892,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>12740472</v>
+        <v>12805918</v>
       </c>
       <c r="E157" t="n">
-        <v>40306716</v>
+        <v>40513767</v>
       </c>
       <c r="F157" t="n">
-        <v>9158.934389928409</v>
+        <v>9907.505357024882</v>
       </c>
       <c r="G157" t="n">
-        <v>11519.38186679926</v>
+        <v>17419.46043785082</v>
       </c>
       <c r="H157" t="n">
-        <v>0.49</v>
+        <v>0.34</v>
       </c>
       <c r="I157" t="n">
-        <v>1395793</v>
+        <v>1398500</v>
       </c>
     </row>
     <row r="158">
@@ -5927,10 +5927,10 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1087114</v>
+        <v>1084929</v>
       </c>
       <c r="E158" t="n">
-        <v>2476008</v>
+        <v>2471033</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -5942,7 +5942,7 @@
         <v>6.77</v>
       </c>
       <c r="I158" t="n">
-        <v>5001.47</v>
+        <v>1741.96</v>
       </c>
     </row>
     <row r="159">
@@ -5962,22 +5962,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>17194603</v>
+        <v>17245158</v>
       </c>
       <c r="E159" t="n">
-        <v>17194603</v>
+        <v>17245158</v>
       </c>
       <c r="F159" t="n">
-        <v>14261.25915332891</v>
+        <v>15529.83975803765</v>
       </c>
       <c r="G159" t="n">
-        <v>18453.6414642743</v>
+        <v>22150.76544803114</v>
       </c>
       <c r="H159" t="n">
         <v>0.06</v>
       </c>
       <c r="I159" t="n">
-        <v>2546668</v>
+        <v>3514253</v>
       </c>
     </row>
     <row r="160">
@@ -5997,10 +5997,10 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>4861334</v>
+        <v>4863174</v>
       </c>
       <c r="E160" t="n">
-        <v>8950236</v>
+        <v>8953624</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -6012,7 +6012,7 @@
         <v>10</v>
       </c>
       <c r="I160" t="n">
-        <v>12.48</v>
+        <v>12.49</v>
       </c>
     </row>
     <row r="161">
@@ -6032,10 +6032,10 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>109151</v>
+        <v>116191</v>
       </c>
       <c r="E161" t="n">
-        <v>131374</v>
+        <v>139821</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -6044,10 +6044,10 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>7.41</v>
+        <v>10.47</v>
       </c>
       <c r="I161" t="n">
-        <v>4352.79</v>
+        <v>4051.33</v>
       </c>
     </row>
     <row r="162">
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>19467164</v>
+        <v>20699333</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -6082,7 +6082,7 @@
         <v>4.87</v>
       </c>
       <c r="I162" t="n">
-        <v>1326.25</v>
+        <v>1531.58</v>
       </c>
     </row>
     <row r="163">
@@ -6102,22 +6102,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>436057</v>
+        <v>437098</v>
       </c>
       <c r="E163" t="n">
-        <v>549268</v>
+        <v>550580</v>
       </c>
       <c r="F163" t="n">
-        <v>135.9156068311572</v>
+        <v>151.2602133288692</v>
       </c>
       <c r="G163" t="n">
-        <v>97.47759373458899</v>
+        <v>121.1924951320137</v>
       </c>
       <c r="H163" t="n">
-        <v>0.91</v>
+        <v>1.26</v>
       </c>
       <c r="I163" t="n">
-        <v>190170</v>
+        <v>190432</v>
       </c>
     </row>
     <row r="164">
@@ -6140,19 +6140,19 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>108403</v>
+        <v>105143</v>
       </c>
       <c r="F164" t="n">
-        <v>120.51053674228</v>
+        <v>128.2713711489999</v>
       </c>
       <c r="G164" t="n">
-        <v>1.214450380958858</v>
+        <v>1.214528877264184</v>
       </c>
       <c r="H164" t="n">
-        <v>0.38</v>
+        <v>1.97</v>
       </c>
       <c r="I164" t="n">
-        <v>3670.8</v>
+        <v>3983.97</v>
       </c>
     </row>
     <row r="165">
@@ -6172,22 +6172,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>12403441</v>
+        <v>12488018</v>
       </c>
       <c r="E165" t="n">
-        <v>18903662</v>
+        <v>19032563</v>
       </c>
       <c r="F165" t="n">
-        <v>1956.409167998986</v>
+        <v>1392.416711488669</v>
       </c>
       <c r="G165" t="n">
-        <v>4536.633501082727</v>
+        <v>1977.504887693955</v>
       </c>
       <c r="H165" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.47</v>
       </c>
       <c r="I165" t="n">
-        <v>695516</v>
+        <v>696992</v>
       </c>
     </row>
     <row r="166">
@@ -6207,22 +6207,22 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>302562674</v>
+        <v>304921170</v>
       </c>
       <c r="E166" t="n">
-        <v>302562674</v>
+        <v>304921170</v>
       </c>
       <c r="F166" t="n">
-        <v>361077.845166048</v>
+        <v>338545.5154667085</v>
       </c>
       <c r="G166" t="n">
-        <v>302920.2854715795</v>
+        <v>333439.3885518259</v>
       </c>
       <c r="H166" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I166" t="n">
-        <v>50309575</v>
+        <v>50304424</v>
       </c>
     </row>
     <row r="167">
@@ -6242,22 +6242,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>10164249</v>
+        <v>10252947</v>
       </c>
       <c r="E167" t="n">
-        <v>28857998</v>
+        <v>29109828</v>
       </c>
       <c r="F167" t="n">
-        <v>239.2114967445864</v>
+        <v>950.7972746920891</v>
       </c>
       <c r="G167" t="n">
-        <v>618.2844378818879</v>
+        <v>778.9949063911732</v>
       </c>
       <c r="H167" t="n">
-        <v>1.03</v>
+        <v>1.7</v>
       </c>
       <c r="I167" t="n">
-        <v>127649</v>
+        <v>127799</v>
       </c>
     </row>
     <row r="168">
@@ -6280,19 +6280,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>11888465</v>
+        <v>11908912</v>
       </c>
       <c r="F168" t="n">
-        <v>161.3524418058696</v>
+        <v>290.9877438354326</v>
       </c>
       <c r="G168" t="n">
-        <v>3093.399835483209</v>
+        <v>728.7016546721609</v>
       </c>
       <c r="H168" t="n">
-        <v>0.59</v>
+        <v>0.84</v>
       </c>
       <c r="I168" t="n">
-        <v>106005</v>
+        <v>107730</v>
       </c>
     </row>
     <row r="169">
@@ -6312,22 +6312,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>4235825</v>
+        <v>4224834</v>
       </c>
       <c r="E169" t="n">
-        <v>28943091</v>
+        <v>28867994</v>
       </c>
       <c r="F169" t="n">
-        <v>1448.040094736618</v>
+        <v>1942.276101920524</v>
       </c>
       <c r="G169" t="n">
-        <v>1464.339273530138</v>
+        <v>2073.002440240494</v>
       </c>
       <c r="H169" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="I169" t="n">
-        <v>2576587</v>
+        <v>2581297</v>
       </c>
     </row>
     <row r="170">
@@ -6347,22 +6347,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2854145</v>
+        <v>2786344</v>
       </c>
       <c r="E170" t="n">
-        <v>4235518</v>
+        <v>4134537</v>
       </c>
       <c r="F170" t="n">
-        <v>201.6928311520062</v>
+        <v>333.919984602887</v>
       </c>
       <c r="G170" t="n">
-        <v>1114.02621867165</v>
+        <v>1086.043253594993</v>
       </c>
       <c r="H170" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="I170" t="n">
-        <v>223863</v>
+        <v>227248</v>
       </c>
     </row>
     <row r="171">
@@ -6382,22 +6382,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>89673383</v>
+        <v>90760527</v>
       </c>
       <c r="E171" t="n">
-        <v>516736708</v>
+        <v>523001303</v>
       </c>
       <c r="F171" t="n">
-        <v>382352.6007470498</v>
+        <v>370675.4102698127</v>
       </c>
       <c r="G171" t="n">
-        <v>216085.107720174</v>
+        <v>327759.1971134419</v>
       </c>
       <c r="H171" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="I171" t="n">
-        <v>16009050</v>
+        <v>16230697</v>
       </c>
     </row>
     <row r="172">
@@ -6417,22 +6417,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>13919228</v>
+        <v>13789739</v>
       </c>
       <c r="E172" t="n">
-        <v>13919228</v>
+        <v>13789739</v>
       </c>
       <c r="F172" t="n">
-        <v>5033.408185311276</v>
+        <v>4726.362433660145</v>
       </c>
       <c r="G172" t="n">
-        <v>5219.067521955246</v>
+        <v>4540.467440424829</v>
       </c>
       <c r="H172" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="I172" t="n">
-        <v>587007</v>
+        <v>593770</v>
       </c>
     </row>
     <row r="173">
@@ -6452,22 +6452,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>6078639</v>
+        <v>6078902</v>
       </c>
       <c r="E173" t="n">
-        <v>17267669</v>
+        <v>17268414</v>
       </c>
       <c r="F173" t="n">
-        <v>890.1199179496815</v>
+        <v>572.8807107861549</v>
       </c>
       <c r="G173" t="n">
-        <v>10815.59367276174</v>
+        <v>11729.32109789052</v>
       </c>
       <c r="H173" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I173" t="n">
-        <v>218516</v>
+        <v>216869</v>
       </c>
     </row>
     <row r="174">
@@ -6487,22 +6487,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>17147654</v>
+        <v>18841398</v>
       </c>
       <c r="E174" t="n">
-        <v>17147654</v>
+        <v>18841398</v>
       </c>
       <c r="F174" t="n">
-        <v>298.0872901232761</v>
+        <v>1.062612775718339</v>
       </c>
       <c r="G174" t="n">
-        <v>291.6670794364814</v>
+        <v>3.867835969802287</v>
       </c>
       <c r="H174" t="n">
-        <v>2.29</v>
+        <v>2.14</v>
       </c>
       <c r="I174" t="n">
-        <v>77635</v>
+        <v>119470</v>
       </c>
     </row>
     <row r="175">
@@ -6525,19 +6525,19 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>1321499</v>
+        <v>1323989</v>
       </c>
       <c r="F175" t="n">
-        <v>33.83702114646599</v>
+        <v>533.056523939935</v>
       </c>
       <c r="G175" t="n">
-        <v>378.105467818913</v>
+        <v>489.2855884896042</v>
       </c>
       <c r="H175" t="n">
         <v>0.08</v>
       </c>
       <c r="I175" t="n">
-        <v>17458.17</v>
+        <v>20569</v>
       </c>
     </row>
     <row r="176">
@@ -6557,10 +6557,10 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>129426</v>
+        <v>129657</v>
       </c>
       <c r="E176" t="n">
-        <v>281757</v>
+        <v>282262</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -6572,7 +6572,7 @@
         <v>7.67</v>
       </c>
       <c r="I176" t="n">
-        <v>47895</v>
+        <v>47814</v>
       </c>
     </row>
     <row r="177">
@@ -6595,19 +6595,19 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>2624467</v>
+        <v>2773464</v>
       </c>
       <c r="F177" t="n">
-        <v>291.8695456559935</v>
+        <v>216.7802791749779</v>
       </c>
       <c r="G177" t="n">
-        <v>311.8753516925953</v>
+        <v>626.1354527714882</v>
       </c>
       <c r="H177" t="n">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
       <c r="I177" t="n">
-        <v>179477</v>
+        <v>227530</v>
       </c>
     </row>
     <row r="178">
@@ -6627,22 +6627,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>249066857</v>
+        <v>250500699</v>
       </c>
       <c r="E178" t="n">
-        <v>249069331</v>
+        <v>250503188</v>
       </c>
       <c r="F178" t="n">
-        <v>50414.34380869845</v>
+        <v>49039.87906904172</v>
       </c>
       <c r="G178" t="n">
-        <v>83744.86343777135</v>
+        <v>67919.67912065212</v>
       </c>
       <c r="H178" t="n">
-        <v>0.36</v>
+        <v>0.18</v>
       </c>
       <c r="I178" t="n">
-        <v>2713770</v>
+        <v>2744021</v>
       </c>
     </row>
     <row r="179">
@@ -6662,22 +6662,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>9271652</v>
+        <v>9292729</v>
       </c>
       <c r="E179" t="n">
-        <v>9271652</v>
+        <v>9292729</v>
       </c>
       <c r="F179" t="n">
-        <v>1884.746723408219</v>
+        <v>1956.423861290124</v>
       </c>
       <c r="G179" t="n">
-        <v>398.2596353872303</v>
+        <v>417.263451969727</v>
       </c>
       <c r="H179" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="I179" t="n">
-        <v>2062877</v>
+        <v>2069798</v>
       </c>
     </row>
     <row r="180">
@@ -6697,22 +6697,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>188684</v>
+        <v>196698</v>
       </c>
       <c r="E180" t="n">
-        <v>1457022</v>
+        <v>1518902</v>
       </c>
       <c r="F180" t="n">
-        <v>26.02683624602452</v>
+        <v>19.73540530517032</v>
       </c>
       <c r="G180" t="n">
-        <v>200.3620258809866</v>
+        <v>23.62133533023346</v>
       </c>
       <c r="H180" t="n">
-        <v>1.35</v>
+        <v>2.74</v>
       </c>
       <c r="I180" t="n">
-        <v>106929</v>
+        <v>94335</v>
       </c>
     </row>
     <row r="181">
@@ -6732,22 +6732,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>30413545</v>
+        <v>30601285</v>
       </c>
       <c r="E181" t="n">
-        <v>136173918</v>
+        <v>137014508</v>
       </c>
       <c r="F181" t="n">
-        <v>68000.81417556443</v>
+        <v>73777.52102660475</v>
       </c>
       <c r="G181" t="n">
-        <v>73766.86518564448</v>
+        <v>88635.26008815743</v>
       </c>
       <c r="H181" t="n">
-        <v>0.29</v>
+        <v>0.22</v>
       </c>
       <c r="I181" t="n">
-        <v>8903408</v>
+        <v>8599482</v>
       </c>
     </row>
     <row r="182">
@@ -6770,19 +6770,19 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>1496054</v>
+        <v>1457244</v>
       </c>
       <c r="F182" t="n">
-        <v>327.9430737057223</v>
+        <v>261.8861504969166</v>
       </c>
       <c r="G182" t="n">
-        <v>281.0826718644227</v>
+        <v>4733.161905138842</v>
       </c>
       <c r="H182" t="n">
-        <v>1.55</v>
+        <v>1.89</v>
       </c>
       <c r="I182" t="n">
-        <v>53297</v>
+        <v>57807</v>
       </c>
     </row>
     <row r="183">
@@ -6802,22 +6802,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>3288009</v>
+        <v>3115151</v>
       </c>
       <c r="E183" t="n">
-        <v>3288009</v>
+        <v>3115151</v>
       </c>
       <c r="F183" t="n">
-        <v>12.13402949107075</v>
+        <v>189.6032380604547</v>
       </c>
       <c r="G183" t="n">
-        <v>179.914243758089</v>
+        <v>605.77775215037</v>
       </c>
       <c r="H183" t="n">
-        <v>2.71</v>
+        <v>1.08</v>
       </c>
       <c r="I183" t="n">
-        <v>436823</v>
+        <v>442864</v>
       </c>
     </row>
     <row r="184">
@@ -6837,22 +6837,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>574854</v>
+        <v>581402</v>
       </c>
       <c r="E184" t="n">
-        <v>574854</v>
+        <v>581402</v>
       </c>
       <c r="F184" t="n">
-        <v>4.837926569637711</v>
+        <v>13.56641742873756</v>
       </c>
       <c r="G184" t="n">
-        <v>25.31208469720413</v>
+        <v>25.09855786231228</v>
       </c>
       <c r="H184" t="n">
         <v>1.75</v>
       </c>
       <c r="I184" t="n">
-        <v>1374781</v>
+        <v>1400826</v>
       </c>
     </row>
     <row r="185">
@@ -6872,22 +6872,22 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>13409676</v>
+        <v>13559561</v>
       </c>
       <c r="E185" t="n">
-        <v>17072658</v>
+        <v>17263486</v>
       </c>
       <c r="F185" t="n">
-        <v>226.6241067400649</v>
+        <v>230.6865179008355</v>
       </c>
       <c r="G185" t="n">
-        <v>1025.321907151706</v>
+        <v>2475.360491409784</v>
       </c>
       <c r="H185" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="I185" t="n">
-        <v>791152</v>
+        <v>813284</v>
       </c>
     </row>
     <row r="186">
@@ -6907,22 +6907,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1867588</v>
+        <v>1863099</v>
       </c>
       <c r="E186" t="n">
-        <v>1867588</v>
+        <v>1863099</v>
       </c>
       <c r="F186" t="n">
-        <v>5.447007111703408</v>
+        <v>3.912158549892506</v>
       </c>
       <c r="G186" t="n">
-        <v>22.25464440187735</v>
+        <v>1.752771902143818</v>
       </c>
       <c r="H186" t="n">
-        <v>3.7</v>
+        <v>3.42</v>
       </c>
       <c r="I186" t="n">
-        <v>2778.45</v>
+        <v>2912.16</v>
       </c>
     </row>
     <row r="187">
@@ -6942,22 +6942,22 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>47657788</v>
+        <v>48222510</v>
       </c>
       <c r="E187" t="n">
-        <v>309048072</v>
+        <v>312710143</v>
       </c>
       <c r="F187" t="n">
-        <v>156485.2680887221</v>
+        <v>254570.2397374875</v>
       </c>
       <c r="G187" t="n">
-        <v>168861.326272571</v>
+        <v>187330.6220870834</v>
       </c>
       <c r="H187" t="n">
         <v>0.05</v>
       </c>
       <c r="I187" t="n">
-        <v>16888996</v>
+        <v>16730063</v>
       </c>
     </row>
     <row r="188">
@@ -6980,19 +6980,19 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>9282826</v>
+        <v>8651383</v>
       </c>
       <c r="F188" t="n">
-        <v>365.7498641707581</v>
+        <v>126.8310676248301</v>
       </c>
       <c r="G188" t="n">
-        <v>502.9820407241432</v>
+        <v>102.6544439294722</v>
       </c>
       <c r="H188" t="n">
-        <v>1.92</v>
+        <v>3.61</v>
       </c>
       <c r="I188" t="n">
-        <v>297055</v>
+        <v>301794</v>
       </c>
     </row>
     <row r="189">
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>7070257</v>
+        <v>7157216</v>
       </c>
       <c r="E189" t="n">
-        <v>7080385</v>
+        <v>7167468</v>
       </c>
       <c r="F189" t="n">
-        <v>848.3809338815284</v>
+        <v>1022.092579603267</v>
       </c>
       <c r="G189" t="n">
-        <v>95.39111267256359</v>
+        <v>74.91019611619703</v>
       </c>
       <c r="H189" t="n">
-        <v>1.05</v>
+        <v>1.21</v>
       </c>
       <c r="I189" t="n">
-        <v>434742</v>
+        <v>824831</v>
       </c>
     </row>
     <row r="190">
@@ -7050,19 +7050,19 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>4809378</v>
+        <v>4809986</v>
       </c>
       <c r="F190" t="n">
-        <v>2078.75646044101</v>
+        <v>2264.133413095541</v>
       </c>
       <c r="G190" t="n">
-        <v>127.74814922981</v>
+        <v>391.806155841956</v>
       </c>
       <c r="H190" t="n">
-        <v>1.17</v>
+        <v>2.07</v>
       </c>
       <c r="I190" t="n">
-        <v>172267</v>
+        <v>173510</v>
       </c>
     </row>
     <row r="191">
@@ -7082,22 +7082,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>74628632</v>
+        <v>76838646</v>
       </c>
       <c r="E191" t="n">
-        <v>75431959</v>
+        <v>77665762</v>
       </c>
       <c r="F191" t="n">
-        <v>57619.01912537994</v>
+        <v>46377.35946017259</v>
       </c>
       <c r="G191" t="n">
-        <v>64541.76165334007</v>
+        <v>62120.24123058315</v>
       </c>
       <c r="H191" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="I191" t="n">
-        <v>8608662</v>
+        <v>8757850</v>
       </c>
     </row>
     <row r="192">
@@ -7117,22 +7117,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>236070208</v>
+        <v>235115582</v>
       </c>
       <c r="E192" t="n">
-        <v>236070208</v>
+        <v>235115582</v>
       </c>
       <c r="F192" t="n">
-        <v>91839.51093181985</v>
+        <v>110993.2372939889</v>
       </c>
       <c r="G192" t="n">
-        <v>100944.0287112761</v>
+        <v>87687.97536379599</v>
       </c>
       <c r="H192" t="n">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="I192" t="n">
-        <v>44597318</v>
+        <v>44782925</v>
       </c>
     </row>
     <row r="193">
@@ -7152,22 +7152,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>23494180</v>
+        <v>23716014</v>
       </c>
       <c r="E193" t="n">
-        <v>140570403</v>
+        <v>141897678</v>
       </c>
       <c r="F193" t="n">
-        <v>113523.2614175428</v>
+        <v>114804.460020977</v>
       </c>
       <c r="G193" t="n">
-        <v>96444.00158375077</v>
+        <v>99609.56901624516</v>
       </c>
       <c r="H193" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I193" t="n">
-        <v>13032539</v>
+        <v>13122552</v>
       </c>
     </row>
     <row r="194">
@@ -7187,22 +7187,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>13357280</v>
+        <v>13447137</v>
       </c>
       <c r="E194" t="n">
-        <v>40988806</v>
+        <v>41264544</v>
       </c>
       <c r="F194" t="n">
-        <v>833.7848947195589</v>
+        <v>673.2837827229611</v>
       </c>
       <c r="G194" t="n">
-        <v>1534.924438894413</v>
+        <v>2125.931129725552</v>
       </c>
       <c r="H194" t="n">
         <v>0.32</v>
       </c>
       <c r="I194" t="n">
-        <v>2559460</v>
+        <v>1455939</v>
       </c>
     </row>
     <row r="195">
@@ -7222,22 +7222,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>52912943</v>
+        <v>52666628</v>
       </c>
       <c r="E195" t="n">
-        <v>91392156</v>
+        <v>90966716</v>
       </c>
       <c r="F195" t="n">
-        <v>6817.491750032593</v>
+        <v>14278.28656363971</v>
       </c>
       <c r="G195" t="n">
-        <v>7797.725904346432</v>
+        <v>14433.1459095318</v>
       </c>
       <c r="H195" t="n">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="I195" t="n">
-        <v>1940547</v>
+        <v>2049550</v>
       </c>
     </row>
     <row r="196">
@@ -7257,22 +7257,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>4206439</v>
+        <v>4215545</v>
       </c>
       <c r="E196" t="n">
-        <v>4206439</v>
+        <v>4215545</v>
       </c>
       <c r="F196" t="n">
-        <v>1.064325904229088</v>
+        <v>1.064394697201165</v>
       </c>
       <c r="G196" t="n">
-        <v>444.1172816645322</v>
+        <v>442.2869359415176</v>
       </c>
       <c r="H196" t="n">
-        <v>1.13</v>
+        <v>0.99</v>
       </c>
       <c r="I196" t="n">
-        <v>1557733</v>
+        <v>1554166</v>
       </c>
     </row>
     <row r="197">
@@ -7295,19 +7295,19 @@
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>208497</v>
+        <v>210725</v>
       </c>
       <c r="F197" t="n">
-        <v>125.6745962258425</v>
+        <v>0</v>
       </c>
       <c r="G197" t="n">
-        <v>8.295182597197249</v>
+        <v>0</v>
       </c>
       <c r="H197" t="n">
-        <v>3.15</v>
+        <v>7.3</v>
       </c>
       <c r="I197" t="n">
-        <v>57875</v>
+        <v>58152</v>
       </c>
     </row>
     <row r="198">
@@ -7327,22 +7327,22 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>6747490</v>
+        <v>6871633</v>
       </c>
       <c r="E198" t="n">
-        <v>34713784</v>
+        <v>35352463</v>
       </c>
       <c r="F198" t="n">
-        <v>260.6358044501113</v>
+        <v>228.7344061356424</v>
       </c>
       <c r="G198" t="n">
-        <v>273.6707443808625</v>
+        <v>332.4722801486047</v>
       </c>
       <c r="H198" t="n">
-        <v>1.48</v>
+        <v>1.08</v>
       </c>
       <c r="I198" t="n">
-        <v>897821</v>
+        <v>910863</v>
       </c>
     </row>
     <row r="199">
@@ -7362,22 +7362,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>175765609</v>
+        <v>176314554</v>
       </c>
       <c r="E199" t="n">
-        <v>205346130</v>
+        <v>205987460</v>
       </c>
       <c r="F199" t="n">
-        <v>26620.96435093268</v>
+        <v>25789.7069125522</v>
       </c>
       <c r="G199" t="n">
-        <v>10859.52275652911</v>
+        <v>16604.71325519309</v>
       </c>
       <c r="H199" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="I199" t="n">
-        <v>3742648</v>
+        <v>3750845</v>
       </c>
     </row>
     <row r="200">
@@ -7400,19 +7400,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>302053</v>
+        <v>303922</v>
       </c>
       <c r="F200" t="n">
-        <v>5.101158045793458</v>
+        <v>60.54911641798368</v>
       </c>
       <c r="G200" t="n">
-        <v>480.9721251820266</v>
+        <v>356.9645003629673</v>
       </c>
       <c r="H200" t="n">
-        <v>0.66</v>
+        <v>2.61</v>
       </c>
       <c r="I200" t="n">
-        <v>288643</v>
+        <v>294293</v>
       </c>
     </row>
     <row r="201">
@@ -7435,19 +7435,19 @@
         <v>0</v>
       </c>
       <c r="E201" t="n">
-        <v>8054798</v>
+        <v>8054673</v>
       </c>
       <c r="F201" t="n">
-        <v>790.2047955491187</v>
+        <v>850.6717569624385</v>
       </c>
       <c r="G201" t="n">
-        <v>671.203954717298</v>
+        <v>729.0893411293649</v>
       </c>
       <c r="H201" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="I201" t="n">
-        <v>691035</v>
+        <v>688882</v>
       </c>
     </row>
     <row r="202">
@@ -7470,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>34001</v>
+        <v>33990</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
@@ -7482,7 +7482,7 @@
         <v>5.56</v>
       </c>
       <c r="I202" t="n">
-        <v>752.3099999999999</v>
+        <v>633.6900000000001</v>
       </c>
     </row>
     <row r="203">
@@ -7502,22 +7502,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>34046133</v>
+        <v>34152094</v>
       </c>
       <c r="E203" t="n">
-        <v>169905899</v>
+        <v>170434694</v>
       </c>
       <c r="F203" t="n">
-        <v>117168.722281511</v>
+        <v>114905.9207235511</v>
       </c>
       <c r="G203" t="n">
-        <v>98093.96482525954</v>
+        <v>95868.99899977437</v>
       </c>
       <c r="H203" t="n">
         <v>0.12</v>
       </c>
       <c r="I203" t="n">
-        <v>10022816</v>
+        <v>10088832</v>
       </c>
     </row>
     <row r="204">
@@ -7537,10 +7537,10 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1869802</v>
+        <v>1872070</v>
       </c>
       <c r="E204" t="n">
-        <v>1869802</v>
+        <v>1872070</v>
       </c>
       <c r="F204" t="n">
         <v>0</v>
@@ -7549,10 +7549,10 @@
         <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>14.98</v>
+        <v>14.57</v>
       </c>
       <c r="I204" t="n">
-        <v>10335.67</v>
+        <v>10346.18</v>
       </c>
     </row>
     <row r="205">
@@ -7575,19 +7575,19 @@
         <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>175666</v>
+        <v>168242</v>
       </c>
       <c r="F205" t="n">
-        <v>800.5942577166788</v>
+        <v>20.2441589729316</v>
       </c>
       <c r="G205" t="n">
-        <v>58.93384651687372</v>
+        <v>58.93765572084188</v>
       </c>
       <c r="H205" t="n">
-        <v>1.82</v>
+        <v>2.41</v>
       </c>
       <c r="I205" t="n">
-        <v>10981.41</v>
+        <v>10865.11</v>
       </c>
     </row>
     <row r="206">
@@ -7607,10 +7607,10 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>2947.25</v>
+        <v>2770.49</v>
       </c>
       <c r="E206" t="n">
-        <v>35226</v>
+        <v>33113</v>
       </c>
       <c r="F206" t="n">
         <v>0</v>
@@ -7619,10 +7619,10 @@
         <v>0</v>
       </c>
       <c r="H206" t="n">
-        <v>5.62</v>
+        <v>4.53</v>
       </c>
       <c r="I206" t="n">
-        <v>7850.31</v>
+        <v>7860.67</v>
       </c>
     </row>
     <row r="207">
@@ -7669,22 +7669,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>312636832</v>
+        <v>313058053</v>
       </c>
       <c r="E208" t="n">
-        <v>578449436</v>
+        <v>579228790</v>
       </c>
       <c r="F208" t="n">
-        <v>142717.894638149</v>
+        <v>143764.8740170807</v>
       </c>
       <c r="G208" t="n">
-        <v>139070.8871985066</v>
+        <v>137761.2126307705</v>
       </c>
       <c r="H208" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I208" t="n">
-        <v>12697220</v>
+        <v>12935689</v>
       </c>
     </row>
     <row r="209">
@@ -7704,22 +7704,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>71203783</v>
+        <v>71587611</v>
       </c>
       <c r="E209" t="n">
-        <v>679346364</v>
+        <v>682997706</v>
       </c>
       <c r="F209" t="n">
-        <v>383797.147170605</v>
+        <v>360272.8866947329</v>
       </c>
       <c r="G209" t="n">
-        <v>304130.0391583648</v>
+        <v>341719.6774765722</v>
       </c>
       <c r="H209" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="I209" t="n">
-        <v>21246273</v>
+        <v>21205343</v>
       </c>
     </row>
     <row r="210">
@@ -7742,19 +7742,19 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>2285150</v>
+        <v>2250688</v>
       </c>
       <c r="F210" t="n">
-        <v>0</v>
+        <v>10.14381260670618</v>
       </c>
       <c r="G210" t="n">
-        <v>0</v>
+        <v>983.4096367639786</v>
       </c>
       <c r="H210" t="n">
-        <v>4.06</v>
+        <v>1.89</v>
       </c>
       <c r="I210" t="n">
-        <v>63552</v>
+        <v>56421</v>
       </c>
     </row>
     <row r="211">
@@ -7774,10 +7774,10 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>82175</v>
+        <v>82321</v>
       </c>
       <c r="E211" t="n">
-        <v>683134</v>
+        <v>684348</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -7786,10 +7786,10 @@
         <v>0</v>
       </c>
       <c r="H211" t="n">
-        <v>4.35</v>
+        <v>7.04</v>
       </c>
       <c r="I211" t="n">
-        <v>174.83</v>
+        <v>175.11</v>
       </c>
     </row>
     <row r="212">
@@ -7809,22 +7809,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1906865</v>
+        <v>1921759</v>
       </c>
       <c r="E212" t="n">
-        <v>5445761</v>
+        <v>5488298</v>
       </c>
       <c r="F212" t="n">
-        <v>2001.506384771266</v>
+        <v>728.5556221652981</v>
       </c>
       <c r="G212" t="n">
-        <v>252.4567091249483</v>
+        <v>270.8122254038188</v>
       </c>
       <c r="H212" t="n">
-        <v>1.14</v>
+        <v>1.51</v>
       </c>
       <c r="I212" t="n">
-        <v>71832</v>
+        <v>64275</v>
       </c>
     </row>
     <row r="213">
@@ -7844,22 +7844,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>9249766</v>
+        <v>9293497</v>
       </c>
       <c r="E213" t="n">
-        <v>27450460</v>
+        <v>27580240</v>
       </c>
       <c r="F213" t="n">
-        <v>2052.19715707351</v>
+        <v>2284.275201708807</v>
       </c>
       <c r="G213" t="n">
-        <v>2570.028629099951</v>
+        <v>2591.868424731752</v>
       </c>
       <c r="H213" t="n">
         <v>0.36</v>
       </c>
       <c r="I213" t="n">
-        <v>5794125</v>
+        <v>5882285</v>
       </c>
     </row>
     <row r="214">
@@ -7882,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>14234101</v>
+        <v>14228533</v>
       </c>
       <c r="F214" t="n">
         <v>0</v>
@@ -7891,10 +7891,10 @@
         <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>8.59</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="I214" t="n">
-        <v>1333.82</v>
+        <v>1333.99</v>
       </c>
     </row>
     <row r="215">
@@ -7914,22 +7914,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>2042453</v>
+        <v>2056257</v>
       </c>
       <c r="E215" t="n">
-        <v>5925812</v>
+        <v>5965864</v>
       </c>
       <c r="F215" t="n">
-        <v>12.24853518244832</v>
+        <v>12.2493268695955</v>
       </c>
       <c r="G215" t="n">
-        <v>573.6035587094151</v>
+        <v>1121.239600293835</v>
       </c>
       <c r="H215" t="n">
         <v>0.02</v>
       </c>
       <c r="I215" t="n">
-        <v>39760</v>
+        <v>38877</v>
       </c>
     </row>
     <row r="216">
@@ -7949,22 +7949,22 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>2166461</v>
+        <v>2285482</v>
       </c>
       <c r="E216" t="n">
-        <v>19109621</v>
+        <v>20159464</v>
       </c>
       <c r="F216" t="n">
-        <v>1481.754446954522</v>
+        <v>265.4904428001467</v>
       </c>
       <c r="G216" t="n">
-        <v>3643.024027333985</v>
+        <v>4116.188061030145</v>
       </c>
       <c r="H216" t="n">
-        <v>0.89</v>
+        <v>0.68</v>
       </c>
       <c r="I216" t="n">
-        <v>25549</v>
+        <v>72480</v>
       </c>
     </row>
     <row r="217">
@@ -7984,22 +7984,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>44867454</v>
+        <v>45122576</v>
       </c>
       <c r="E217" t="n">
-        <v>44867454</v>
+        <v>45122576</v>
       </c>
       <c r="F217" t="n">
-        <v>41849.59786185268</v>
+        <v>38562.6366843556</v>
       </c>
       <c r="G217" t="n">
-        <v>40125.881725656</v>
+        <v>40645.80043809223</v>
       </c>
       <c r="H217" t="n">
         <v>0.09</v>
       </c>
       <c r="I217" t="n">
-        <v>8003732</v>
+        <v>8928556</v>
       </c>
     </row>
     <row r="218">
@@ -8019,22 +8019,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>8687873</v>
+        <v>8937493</v>
       </c>
       <c r="E218" t="n">
-        <v>12378228</v>
+        <v>12733880</v>
       </c>
       <c r="F218" t="n">
-        <v>38.27892385855348</v>
+        <v>31.59132366658988</v>
       </c>
       <c r="G218" t="n">
-        <v>55.18112536273763</v>
+        <v>32.96515988275578</v>
       </c>
       <c r="H218" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="I218" t="n">
-        <v>417146</v>
+        <v>427714</v>
       </c>
     </row>
     <row r="219">
@@ -8057,19 +8057,19 @@
         <v>0</v>
       </c>
       <c r="E219" t="n">
-        <v>16528231</v>
+        <v>16502733</v>
       </c>
       <c r="F219" t="n">
-        <v>2.11479830936677</v>
+        <v>1.068172702841945</v>
       </c>
       <c r="G219" t="n">
-        <v>1020.801179040919</v>
+        <v>1.041455654045078</v>
       </c>
       <c r="H219" t="n">
-        <v>0.84</v>
+        <v>2.02</v>
       </c>
       <c r="I219" t="n">
-        <v>964737</v>
+        <v>956756</v>
       </c>
     </row>
     <row r="220">
@@ -8092,19 +8092,19 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>723968</v>
+        <v>716630</v>
       </c>
       <c r="F220" t="n">
-        <v>59.78156747745783</v>
+        <v>56.30223656024224</v>
       </c>
       <c r="G220" t="n">
-        <v>342.5624277593477</v>
+        <v>343.7520019993401</v>
       </c>
       <c r="H220" t="n">
-        <v>0.42</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I220" t="n">
-        <v>222821</v>
+        <v>219304</v>
       </c>
     </row>
     <row r="221">
@@ -8124,22 +8124,22 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>2766857</v>
+        <v>2794776</v>
       </c>
       <c r="E221" t="n">
-        <v>2769253</v>
+        <v>2797196</v>
       </c>
       <c r="F221" t="n">
-        <v>30.89504517111827</v>
+        <v>5.440158848520965</v>
       </c>
       <c r="G221" t="n">
-        <v>146.1495272996682</v>
+        <v>55.15880824631097</v>
       </c>
       <c r="H221" t="n">
-        <v>1.92</v>
+        <v>3.73</v>
       </c>
       <c r="I221" t="n">
-        <v>91979</v>
+        <v>91783</v>
       </c>
     </row>
     <row r="222">
@@ -8159,22 +8159,22 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1252623</v>
+        <v>1253112</v>
       </c>
       <c r="E222" t="n">
-        <v>3789537</v>
+        <v>3791593</v>
       </c>
       <c r="F222" t="n">
-        <v>2201.409628833651</v>
+        <v>2203.240118553153</v>
       </c>
       <c r="G222" t="n">
-        <v>456.2835909165386</v>
+        <v>668.5828590884155</v>
       </c>
       <c r="H222" t="n">
-        <v>0.26</v>
+        <v>1.31</v>
       </c>
       <c r="I222" t="n">
-        <v>11363.19</v>
+        <v>11626.32</v>
       </c>
     </row>
     <row r="223">
@@ -8194,22 +8194,22 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>38103680</v>
+        <v>38292598</v>
       </c>
       <c r="E223" t="n">
-        <v>270148878</v>
+        <v>271488270</v>
       </c>
       <c r="F223" t="n">
-        <v>76438.91346585994</v>
+        <v>71913.60866898812</v>
       </c>
       <c r="G223" t="n">
-        <v>60480.7637391185</v>
+        <v>65608.58598170045</v>
       </c>
       <c r="H223" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="I223" t="n">
-        <v>1744039</v>
+        <v>1689692</v>
       </c>
     </row>
     <row r="224">
@@ -8229,22 +8229,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>63304</v>
+        <v>62339</v>
       </c>
       <c r="E224" t="n">
-        <v>330294</v>
+        <v>325259</v>
       </c>
       <c r="F224" t="n">
-        <v>160.5197483946399</v>
+        <v>137.3561619508925</v>
       </c>
       <c r="G224" t="n">
-        <v>62.10908359126784</v>
+        <v>132.214484568896</v>
       </c>
       <c r="H224" t="n">
-        <v>1.98</v>
+        <v>1.16</v>
       </c>
       <c r="I224" t="n">
-        <v>320430</v>
+        <v>295728</v>
       </c>
     </row>
     <row r="225">
@@ -8264,22 +8264,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1260350</v>
+        <v>1262354</v>
       </c>
       <c r="E225" t="n">
-        <v>7816124</v>
+        <v>7828479</v>
       </c>
       <c r="F225" t="n">
-        <v>1555.422197582191</v>
+        <v>1473.985154553929</v>
       </c>
       <c r="G225" t="n">
-        <v>2054.585415481523</v>
+        <v>1987.897751786068</v>
       </c>
       <c r="H225" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="I225" t="n">
-        <v>742089</v>
+        <v>734127</v>
       </c>
     </row>
     <row r="226">
@@ -8299,22 +8299,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>603932146</v>
+        <v>602267516</v>
       </c>
       <c r="E226" t="n">
-        <v>2338940097</v>
+        <v>2332493232</v>
       </c>
       <c r="F226" t="n">
-        <v>249780.322330397</v>
+        <v>270014.9798413881</v>
       </c>
       <c r="G226" t="n">
-        <v>254990.9175817727</v>
+        <v>224878.067835157</v>
       </c>
       <c r="H226" t="n">
         <v>0.04</v>
       </c>
       <c r="I226" t="n">
-        <v>32090033</v>
+        <v>32974827</v>
       </c>
     </row>
     <row r="227">
@@ -8337,19 +8337,19 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>20847346</v>
+        <v>20800223</v>
       </c>
       <c r="F227" t="n">
-        <v>832.7910860407397</v>
+        <v>788.3690852903563</v>
       </c>
       <c r="G227" t="n">
-        <v>1950.848754026477</v>
+        <v>629.1095188144507</v>
       </c>
       <c r="H227" t="n">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="I227" t="n">
-        <v>17253171</v>
+        <v>17079981</v>
       </c>
     </row>
     <row r="228">
@@ -8372,19 +8372,19 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>911887</v>
+        <v>902967</v>
       </c>
       <c r="F228" t="n">
-        <v>36.7272935315529</v>
+        <v>49.22738329052084</v>
       </c>
       <c r="G228" t="n">
-        <v>60.1594837058234</v>
+        <v>42.94897530207714</v>
       </c>
       <c r="H228" t="n">
-        <v>3.08</v>
+        <v>2.4</v>
       </c>
       <c r="I228" t="n">
-        <v>379957</v>
+        <v>376399</v>
       </c>
     </row>
     <row r="229">
@@ -8404,22 +8404,22 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>5843088</v>
+        <v>5857905</v>
       </c>
       <c r="E229" t="n">
-        <v>26160238</v>
+        <v>26226572</v>
       </c>
       <c r="F229" t="n">
-        <v>1703.548239097526</v>
+        <v>2286.582872273914</v>
       </c>
       <c r="G229" t="n">
-        <v>2616.725658086418</v>
+        <v>2148.053113067477</v>
       </c>
       <c r="H229" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="I229" t="n">
-        <v>144320</v>
+        <v>143149</v>
       </c>
     </row>
     <row r="230">
@@ -8439,22 +8439,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>6247920</v>
+        <v>6359047</v>
       </c>
       <c r="E230" t="n">
-        <v>11962150</v>
+        <v>12174911</v>
       </c>
       <c r="F230" t="n">
-        <v>26.35529694676766</v>
+        <v>32.94142129331783</v>
       </c>
       <c r="G230" t="n">
-        <v>1089.107845394677</v>
+        <v>24.54145444626191</v>
       </c>
       <c r="H230" t="n">
-        <v>2.76</v>
+        <v>3.05</v>
       </c>
       <c r="I230" t="n">
-        <v>191331</v>
+        <v>192702</v>
       </c>
     </row>
     <row r="231">
@@ -8474,22 +8474,22 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>3187675</v>
+        <v>3182316</v>
       </c>
       <c r="E231" t="n">
-        <v>20961407</v>
+        <v>20926169</v>
       </c>
       <c r="F231" t="n">
-        <v>193.4140342913408</v>
+        <v>317.1524923005213</v>
       </c>
       <c r="G231" t="n">
-        <v>437.4615378177847</v>
+        <v>338.3741718667767</v>
       </c>
       <c r="H231" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="I231" t="n">
-        <v>1428736</v>
+        <v>1442422</v>
       </c>
     </row>
     <row r="232">
@@ -8509,22 +8509,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>117759007</v>
+        <v>118226249</v>
       </c>
       <c r="E232" t="n">
-        <v>1023842192</v>
+        <v>1027904570</v>
       </c>
       <c r="F232" t="n">
-        <v>212206.3622166959</v>
+        <v>217211.1561079596</v>
       </c>
       <c r="G232" t="n">
-        <v>198357.6984789229</v>
+        <v>198738.0716204588</v>
       </c>
       <c r="H232" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I232" t="n">
-        <v>9088394</v>
+        <v>8855222</v>
       </c>
     </row>
     <row r="233">
@@ -8548,16 +8548,16 @@
       </c>
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="n">
-        <v>0</v>
+        <v>4.089795826790897</v>
       </c>
       <c r="G233" t="n">
-        <v>0</v>
+        <v>4.020774447548538</v>
       </c>
       <c r="H233" t="n">
-        <v>6.84</v>
+        <v>2.9</v>
       </c>
       <c r="I233" t="n">
-        <v>1116.8</v>
+        <v>1116.91</v>
       </c>
     </row>
     <row r="234">
@@ -8577,22 +8577,22 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>102498085</v>
+        <v>102679129</v>
       </c>
       <c r="E234" t="n">
-        <v>156363231</v>
+        <v>156639419</v>
       </c>
       <c r="F234" t="n">
-        <v>102767.5973949471</v>
+        <v>103257.2140645413</v>
       </c>
       <c r="G234" t="n">
-        <v>100431.0083533097</v>
+        <v>85685.85537796926</v>
       </c>
       <c r="H234" t="n">
         <v>0.1</v>
       </c>
       <c r="I234" t="n">
-        <v>7759634</v>
+        <v>7772154</v>
       </c>
     </row>
     <row r="235">
@@ -8612,22 +8612,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>15787185</v>
+        <v>15804647</v>
       </c>
       <c r="E235" t="n">
-        <v>21658650</v>
+        <v>21682607</v>
       </c>
       <c r="F235" t="n">
-        <v>780.38428272228</v>
+        <v>897.2606415102928</v>
       </c>
       <c r="G235" t="n">
-        <v>2784.104847005367</v>
+        <v>2350.792439710335</v>
       </c>
       <c r="H235" t="n">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="I235" t="n">
-        <v>352900</v>
+        <v>346777</v>
       </c>
     </row>
     <row r="236">
@@ -8647,22 +8647,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>113215005</v>
+        <v>115171797</v>
       </c>
       <c r="E236" t="n">
-        <v>434310981</v>
+        <v>441817551</v>
       </c>
       <c r="F236" t="n">
-        <v>471198.8317899016</v>
+        <v>396541.4441493906</v>
       </c>
       <c r="G236" t="n">
-        <v>480412.094154998</v>
+        <v>588096.5218815635</v>
       </c>
       <c r="H236" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="I236" t="n">
-        <v>21039313</v>
+        <v>22497617</v>
       </c>
     </row>
     <row r="237">
@@ -8685,19 +8685,19 @@
         <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>764058</v>
+        <v>664840</v>
       </c>
       <c r="F237" t="n">
-        <v>69.76375392164171</v>
+        <v>69.76809346816015</v>
       </c>
       <c r="G237" t="n">
-        <v>20.5548468374673</v>
+        <v>20.55612541995485</v>
       </c>
       <c r="H237" t="n">
         <v>3.25</v>
       </c>
       <c r="I237" t="n">
-        <v>51312</v>
+        <v>45379</v>
       </c>
     </row>
     <row r="238">
@@ -8720,19 +8720,19 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>830022</v>
+        <v>870352</v>
       </c>
       <c r="F238" t="n">
-        <v>0</v>
+        <v>25.94010992417802</v>
       </c>
       <c r="G238" t="n">
-        <v>0</v>
+        <v>576.6410841271785</v>
       </c>
       <c r="H238" t="n">
-        <v>7.25</v>
+        <v>1.36</v>
       </c>
       <c r="I238" t="n">
-        <v>21541</v>
+        <v>28868</v>
       </c>
     </row>
     <row r="239">
@@ -8752,22 +8752,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>3185777</v>
+        <v>3186849</v>
       </c>
       <c r="E239" t="n">
-        <v>30185704</v>
+        <v>30195869</v>
       </c>
       <c r="F239" t="n">
-        <v>1724.103760038713</v>
+        <v>1745.696312598624</v>
       </c>
       <c r="G239" t="n">
-        <v>1901.897568702047</v>
+        <v>2038.059516195061</v>
       </c>
       <c r="H239" t="n">
-        <v>0.26</v>
+        <v>0.33</v>
       </c>
       <c r="I239" t="n">
-        <v>310383</v>
+        <v>264658</v>
       </c>
     </row>
     <row r="240">
@@ -8787,22 +8787,22 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>728188</v>
+        <v>725346</v>
       </c>
       <c r="E240" t="n">
-        <v>778429</v>
+        <v>775391</v>
       </c>
       <c r="F240" t="n">
-        <v>38.68965189117954</v>
+        <v>44.32429181175875</v>
       </c>
       <c r="G240" t="n">
-        <v>2331.9129963434</v>
+        <v>2332.058049388223</v>
       </c>
       <c r="H240" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="I240" t="n">
-        <v>34222</v>
+        <v>38566</v>
       </c>
     </row>
     <row r="241">
@@ -8825,19 +8825,19 @@
         <v>0</v>
       </c>
       <c r="E241" t="n">
-        <v>374020</v>
+        <v>373900</v>
       </c>
       <c r="F241" t="n">
-        <v>7.93768207433996</v>
+        <v>7.93819512841402</v>
       </c>
       <c r="G241" t="n">
-        <v>127.5411542275741</v>
+        <v>127.5623106610538</v>
       </c>
       <c r="H241" t="n">
-        <v>0.61</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I241" t="n">
-        <v>603.38</v>
+        <v>594.49</v>
       </c>
     </row>
     <row r="242">
@@ -8860,19 +8860,19 @@
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>136852</v>
+        <v>136402</v>
       </c>
       <c r="F242" t="n">
-        <v>122.3111524008077</v>
+        <v>42.66766277541305</v>
       </c>
       <c r="G242" t="n">
-        <v>228.2828184165285</v>
+        <v>127.0286411816313</v>
       </c>
       <c r="H242" t="n">
-        <v>3.5</v>
+        <v>2.78</v>
       </c>
       <c r="I242" t="n">
-        <v>90962</v>
+        <v>93190</v>
       </c>
     </row>
     <row r="243">
@@ -8895,7 +8895,7 @@
         <v>0</v>
       </c>
       <c r="E243" t="n">
-        <v>571264</v>
+        <v>571764</v>
       </c>
       <c r="F243" t="n">
         <v>0</v>
@@ -8927,22 +8927,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>5930444</v>
+        <v>5934769</v>
       </c>
       <c r="E244" t="n">
-        <v>37063579</v>
+        <v>37090606</v>
       </c>
       <c r="F244" t="n">
-        <v>821.0346121457977</v>
+        <v>825.5067671786937</v>
       </c>
       <c r="G244" t="n">
-        <v>1151.635618954972</v>
+        <v>1178.711104122443</v>
       </c>
       <c r="H244" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="I244" t="n">
-        <v>385014</v>
+        <v>386343</v>
       </c>
     </row>
     <row r="245">
@@ -8962,22 +8962,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>5097566</v>
+        <v>5014257</v>
       </c>
       <c r="E245" t="n">
-        <v>18982293</v>
+        <v>18672066</v>
       </c>
       <c r="F245" t="n">
-        <v>6540.840438676259</v>
+        <v>6541.263207540445</v>
       </c>
       <c r="G245" t="n">
-        <v>12148.26792794168</v>
+        <v>12149.33652822548</v>
       </c>
       <c r="H245" t="n">
         <v>0.53</v>
       </c>
       <c r="I245" t="n">
-        <v>108246</v>
+        <v>109082</v>
       </c>
     </row>
     <row r="246">
@@ -9000,19 +9000,19 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>3808132</v>
+        <v>3809573</v>
       </c>
       <c r="F246" t="n">
-        <v>225.1520126812674</v>
+        <v>224.7276900003838</v>
       </c>
       <c r="G246" t="n">
-        <v>104.9467105893635</v>
+        <v>115.0228576654771</v>
       </c>
       <c r="H246" t="n">
-        <v>1.82</v>
+        <v>1.57</v>
       </c>
       <c r="I246" t="n">
-        <v>7197.22</v>
+        <v>7198.43</v>
       </c>
     </row>
     <row r="247">
@@ -9032,22 +9032,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>31521342</v>
+        <v>31553159</v>
       </c>
       <c r="E247" t="n">
-        <v>112983846</v>
+        <v>113097890</v>
       </c>
       <c r="F247" t="n">
-        <v>26.24980589104821</v>
+        <v>50.61873867340962</v>
       </c>
       <c r="G247" t="n">
-        <v>2412.227721870509</v>
+        <v>2363.70641332986</v>
       </c>
       <c r="H247" t="n">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
       <c r="I247" t="n">
-        <v>96592</v>
+        <v>97501</v>
       </c>
     </row>
     <row r="248">
@@ -9070,19 +9070,19 @@
         <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>1541644</v>
+        <v>1540458</v>
       </c>
       <c r="F248" t="n">
-        <v>5.649546297854511</v>
+        <v>5.649911457698098</v>
       </c>
       <c r="G248" t="n">
-        <v>43.82951269057984</v>
+        <v>26.67842549368126</v>
       </c>
       <c r="H248" t="n">
         <v>2.6</v>
       </c>
       <c r="I248" t="n">
-        <v>615811</v>
+        <v>614929</v>
       </c>
     </row>
     <row r="249">
@@ -9102,22 +9102,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>2173398</v>
+        <v>2200157</v>
       </c>
       <c r="E249" t="n">
-        <v>16717161</v>
+        <v>16922983</v>
       </c>
       <c r="F249" t="n">
-        <v>4531.109948215863</v>
+        <v>4498.462450181836</v>
       </c>
       <c r="G249" t="n">
-        <v>4980.213185956035</v>
+        <v>5390.420899075853</v>
       </c>
       <c r="H249" t="n">
-        <v>0.65</v>
+        <v>0.06</v>
       </c>
       <c r="I249" t="n">
-        <v>176723</v>
+        <v>176486</v>
       </c>
     </row>
     <row r="250">
@@ -9137,22 +9137,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>103053</v>
+        <v>103069</v>
       </c>
       <c r="E250" t="n">
-        <v>818551</v>
+        <v>818675</v>
       </c>
       <c r="F250" t="n">
-        <v>174.3383146475763</v>
+        <v>172.6466165718326</v>
       </c>
       <c r="G250" t="n">
-        <v>340.7150956818119</v>
+        <v>346.3924507318539</v>
       </c>
       <c r="H250" t="n">
-        <v>0.72</v>
+        <v>0.61</v>
       </c>
       <c r="I250" t="n">
-        <v>1214.21</v>
+        <v>1355.5</v>
       </c>
     </row>
     <row r="251">
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>87240919</v>
+        <v>86925447</v>
       </c>
       <c r="E251" t="n">
-        <v>322504226</v>
+        <v>321337927</v>
       </c>
       <c r="F251" t="n">
-        <v>9759.075980848605</v>
+        <v>7297.66986683669</v>
       </c>
       <c r="G251" t="n">
-        <v>2703.180676411069</v>
+        <v>2027.695954008207</v>
       </c>
       <c r="H251" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I251" t="n">
-        <v>342251</v>
+        <v>351750</v>
       </c>
     </row>
     <row r="252">
@@ -9207,22 +9207,22 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>2457878</v>
+        <v>2457333</v>
       </c>
       <c r="E252" t="n">
-        <v>9862319</v>
+        <v>9860132</v>
       </c>
       <c r="F252" t="n">
-        <v>0</v>
+        <v>4.946447587613224</v>
       </c>
       <c r="G252" t="n">
-        <v>0</v>
+        <v>31.86160496134469</v>
       </c>
       <c r="H252" t="n">
-        <v>5.17</v>
+        <v>3.64</v>
       </c>
       <c r="I252" t="n">
-        <v>45237</v>
+        <v>45221</v>
       </c>
     </row>
     <row r="253">
@@ -9245,19 +9245,19 @@
         <v>0</v>
       </c>
       <c r="E253" t="n">
-        <v>583015</v>
+        <v>584744</v>
       </c>
       <c r="F253" t="n">
-        <v>51.45077866677521</v>
+        <v>0</v>
       </c>
       <c r="G253" t="n">
-        <v>5.89815971457185</v>
+        <v>0</v>
       </c>
       <c r="H253" t="n">
-        <v>3.41</v>
+        <v>3.99</v>
       </c>
       <c r="I253" t="n">
-        <v>1508.1</v>
+        <v>1513.28</v>
       </c>
     </row>
     <row r="254">
@@ -9276,7 +9276,7 @@
         <v>0</v>
       </c>
       <c r="E254" t="n">
-        <v>37001</v>
+        <v>36989</v>
       </c>
       <c r="F254" t="n">
         <v>0</v>
@@ -9288,7 +9288,7 @@
         <v>4.13</v>
       </c>
       <c r="I254" t="n">
-        <v>4974.28</v>
+        <v>4974.74</v>
       </c>
     </row>
     <row r="255">
@@ -9308,22 +9308,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>740293268</v>
+        <v>736746227</v>
       </c>
       <c r="E255" t="n">
-        <v>1141597580</v>
+        <v>1136127731</v>
       </c>
       <c r="F255" t="n">
-        <v>184196.1759662018</v>
+        <v>192158.0713644451</v>
       </c>
       <c r="G255" t="n">
-        <v>154179.5246891894</v>
+        <v>142405.0435480201</v>
       </c>
       <c r="H255" t="n">
         <v>0.04</v>
       </c>
       <c r="I255" t="n">
-        <v>210640610</v>
+        <v>214278821</v>
       </c>
     </row>
     <row r="256">
@@ -9343,22 +9343,22 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>5654412</v>
+        <v>5672498</v>
       </c>
       <c r="E256" t="n">
-        <v>5654412</v>
+        <v>5672498</v>
       </c>
       <c r="F256" t="n">
-        <v>23.07381105106104</v>
+        <v>21.5987158066526</v>
       </c>
       <c r="G256" t="n">
-        <v>2.886901316363115</v>
+        <v>2.887087911954612</v>
       </c>
       <c r="H256" t="n">
-        <v>0.58</v>
+        <v>0.78</v>
       </c>
       <c r="I256" t="n">
-        <v>512.46</v>
+        <v>527.4</v>
       </c>
     </row>
     <row r="257">
@@ -9378,22 +9378,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>39928504</v>
+        <v>39895588</v>
       </c>
       <c r="E257" t="n">
-        <v>190585410</v>
+        <v>190428284</v>
       </c>
       <c r="F257" t="n">
-        <v>280.0085735717408</v>
+        <v>890.091895589446</v>
       </c>
       <c r="G257" t="n">
-        <v>121.2674005982069</v>
+        <v>320.5207778312557</v>
       </c>
       <c r="H257" t="n">
-        <v>0.49</v>
+        <v>0.17</v>
       </c>
       <c r="I257" t="n">
-        <v>420164</v>
+        <v>418901</v>
       </c>
     </row>
     <row r="258">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>571163</v>
+        <v>571379</v>
       </c>
       <c r="F258" t="n">
         <v>0</v>
@@ -9425,10 +9425,10 @@
         <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>8.380000000000001</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="I258" t="n">
-        <v>378.24</v>
+        <v>362.91</v>
       </c>
     </row>
     <row r="259">
@@ -9448,22 +9448,22 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>23423090</v>
+        <v>24122759</v>
       </c>
       <c r="E259" t="n">
-        <v>39038483</v>
+        <v>40204598</v>
       </c>
       <c r="F259" t="n">
-        <v>1046.101284366399</v>
+        <v>7930.87145412634</v>
       </c>
       <c r="G259" t="n">
-        <v>8282.741807253866</v>
+        <v>7603.928992772122</v>
       </c>
       <c r="H259" t="n">
-        <v>0.03</v>
+        <v>0.42</v>
       </c>
       <c r="I259" t="n">
-        <v>605873</v>
+        <v>653587</v>
       </c>
     </row>
     <row r="260">
@@ -9486,19 +9486,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>107725</v>
+        <v>107598</v>
       </c>
       <c r="F260" t="n">
-        <v>241.8112851029649</v>
+        <v>241.7856116779974</v>
       </c>
       <c r="G260" t="n">
-        <v>195.4110351466908</v>
+        <v>195.4231903881961</v>
       </c>
       <c r="H260" t="n">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="I260" t="n">
-        <v>48537</v>
+        <v>48354</v>
       </c>
     </row>
     <row r="261">
@@ -9518,22 +9518,22 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>858740</v>
+        <v>878222</v>
       </c>
       <c r="E261" t="n">
-        <v>3668426</v>
+        <v>3751636</v>
       </c>
       <c r="F261" t="n">
-        <v>1096.797285360972</v>
+        <v>2421.494897050544</v>
       </c>
       <c r="G261" t="n">
-        <v>3974.023638487742</v>
+        <v>4126.072433103968</v>
       </c>
       <c r="H261" t="n">
-        <v>0.08</v>
+        <v>0.28</v>
       </c>
       <c r="I261" t="n">
-        <v>14560.27</v>
+        <v>17054.82</v>
       </c>
     </row>
     <row r="262">
@@ -9553,22 +9553,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>3810243</v>
+        <v>3813691</v>
       </c>
       <c r="E262" t="n">
-        <v>8313901</v>
+        <v>8321424</v>
       </c>
       <c r="F262" t="n">
-        <v>1119.823191087912</v>
+        <v>1117.200257852326</v>
       </c>
       <c r="G262" t="n">
-        <v>1772.345355491369</v>
+        <v>1939.450513806607</v>
       </c>
       <c r="H262" t="n">
         <v>0.85</v>
       </c>
       <c r="I262" t="n">
-        <v>858145</v>
+        <v>877499</v>
       </c>
     </row>
     <row r="263">
@@ -9588,22 +9588,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>491310578</v>
+        <v>493394219</v>
       </c>
       <c r="E263" t="n">
-        <v>1711078888</v>
+        <v>1718335549</v>
       </c>
       <c r="F263" t="n">
-        <v>699187.9305178759</v>
+        <v>637176.8798628382</v>
       </c>
       <c r="G263" t="n">
-        <v>528719.9357761409</v>
+        <v>600761.9781812549</v>
       </c>
       <c r="H263" t="n">
         <v>0.06</v>
       </c>
       <c r="I263" t="n">
-        <v>31129964</v>
+        <v>31016062</v>
       </c>
     </row>
     <row r="264">
@@ -9623,22 +9623,22 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>5584547398</v>
+        <v>5600144980</v>
       </c>
       <c r="E264" t="n">
-        <v>5584547398</v>
+        <v>5600261725</v>
       </c>
       <c r="F264" t="n">
-        <v>5044.518364928094</v>
+        <v>5154.775821280465</v>
       </c>
       <c r="G264" t="n">
-        <v>2686.899643855538</v>
+        <v>2421.559873258671</v>
       </c>
       <c r="H264" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="I264" t="n">
-        <v>27824356</v>
+        <v>28025531</v>
       </c>
     </row>
     <row r="265">
@@ -9658,22 +9658,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>23942697</v>
+        <v>24084092</v>
       </c>
       <c r="E265" t="n">
-        <v>23921899</v>
+        <v>24063172</v>
       </c>
       <c r="F265" t="n">
-        <v>40.4885641404693</v>
+        <v>41.46932632639483</v>
       </c>
       <c r="G265" t="n">
-        <v>880.3146985169951</v>
+        <v>679.7193362628594</v>
       </c>
       <c r="H265" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="I265" t="n">
-        <v>92125</v>
+        <v>93115</v>
       </c>
     </row>
     <row r="266">
@@ -9693,22 +9693,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>11748165</v>
+        <v>12057730</v>
       </c>
       <c r="E266" t="n">
-        <v>23789316</v>
+        <v>24414910</v>
       </c>
       <c r="F266" t="n">
-        <v>0</v>
+        <v>1021.519571311263</v>
       </c>
       <c r="G266" t="n">
-        <v>0</v>
+        <v>713.5327296564268</v>
       </c>
       <c r="H266" t="n">
-        <v>5.48</v>
+        <v>1.15</v>
       </c>
       <c r="I266" t="n">
-        <v>24440</v>
+        <v>28727</v>
       </c>
     </row>
     <row r="267">
@@ -9731,19 +9731,19 @@
         <v>0</v>
       </c>
       <c r="E267" t="n">
-        <v>149688</v>
+        <v>148883</v>
       </c>
       <c r="F267" t="n">
-        <v>210.2657494828467</v>
+        <v>182.5924141290451</v>
       </c>
       <c r="G267" t="n">
-        <v>119.558457788355</v>
+        <v>132.1601305220773</v>
       </c>
       <c r="H267" t="n">
-        <v>0.57</v>
+        <v>0.75</v>
       </c>
       <c r="I267" t="n">
-        <v>56173</v>
+        <v>56494</v>
       </c>
     </row>
     <row r="268">
@@ -9766,19 +9766,19 @@
         <v>0</v>
       </c>
       <c r="E268" t="n">
-        <v>48001</v>
+        <v>47990</v>
       </c>
       <c r="F268" t="n">
-        <v>38.55658169443327</v>
+        <v>104.1364400519554</v>
       </c>
       <c r="G268" t="n">
-        <v>79.87343380987355</v>
+        <v>204.6826113166903</v>
       </c>
       <c r="H268" t="n">
-        <v>3.47</v>
+        <v>2.46</v>
       </c>
       <c r="I268" t="n">
-        <v>71504</v>
+        <v>71467</v>
       </c>
     </row>
     <row r="269">
@@ -9798,22 +9798,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>2648123</v>
+        <v>2630907</v>
       </c>
       <c r="E269" t="n">
-        <v>10592491</v>
+        <v>10523628</v>
       </c>
       <c r="F269" t="n">
-        <v>34841.98791379685</v>
+        <v>35586.0318127865</v>
       </c>
       <c r="G269" t="n">
-        <v>37083.1246066166</v>
+        <v>55920.44936446864</v>
       </c>
       <c r="H269" t="n">
-        <v>0.66</v>
+        <v>0.47</v>
       </c>
       <c r="I269" t="n">
-        <v>5343458</v>
+        <v>5613220</v>
       </c>
     </row>
     <row r="270">
@@ -9833,22 +9833,22 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>215760777</v>
+        <v>216885292</v>
       </c>
       <c r="E270" t="n">
-        <v>663383195</v>
+        <v>666840655</v>
       </c>
       <c r="F270" t="n">
-        <v>270356.8038013317</v>
+        <v>303109.7162609803</v>
       </c>
       <c r="G270" t="n">
-        <v>266261.2660968071</v>
+        <v>210312.702717846</v>
       </c>
       <c r="H270" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I270" t="n">
-        <v>11543510</v>
+        <v>11600741</v>
       </c>
     </row>
     <row r="271">
@@ -9868,22 +9868,22 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>149801927</v>
+        <v>148266118</v>
       </c>
       <c r="E271" t="n">
-        <v>391353380</v>
+        <v>387341121</v>
       </c>
       <c r="F271" t="n">
-        <v>45918.00290076261</v>
+        <v>69995.0091840761</v>
       </c>
       <c r="G271" t="n">
-        <v>42675.67174873268</v>
+        <v>43164.60011510268</v>
       </c>
       <c r="H271" t="n">
-        <v>0.31</v>
+        <v>0.15</v>
       </c>
       <c r="I271" t="n">
-        <v>6450148</v>
+        <v>6518252</v>
       </c>
     </row>
     <row r="272">
@@ -9903,22 +9903,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>2436852</v>
+        <v>2436262</v>
       </c>
       <c r="E272" t="n">
-        <v>3344154</v>
+        <v>3343359</v>
       </c>
       <c r="F272" t="n">
-        <v>123.4298506038583</v>
+        <v>124.4022057501376</v>
       </c>
       <c r="G272" t="n">
-        <v>113.7018930829273</v>
+        <v>113.7092422333378</v>
       </c>
       <c r="H272" t="n">
         <v>1.08</v>
       </c>
       <c r="I272" t="n">
-        <v>287913</v>
+        <v>1060816</v>
       </c>
     </row>
   </sheetData>

--- a/GateioData20250220.xlsx
+++ b/GateioData20250220.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>52522</v>
+        <v>52520</v>
       </c>
       <c r="F2" t="n">
-        <v>1.325142792577859</v>
+        <v>1.325248196198313</v>
       </c>
       <c r="G2" t="n">
-        <v>29.81146658075652</v>
+        <v>29.81383782446417</v>
       </c>
       <c r="H2" t="n">
         <v>3.85</v>
       </c>
       <c r="I2" t="n">
-        <v>1712.24</v>
+        <v>1710.32</v>
       </c>
     </row>
     <row r="3">
@@ -535,19 +535,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>93442</v>
+        <v>90033</v>
       </c>
       <c r="F3" t="n">
-        <v>3.732041369245406</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>446.0302095178906</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.06</v>
+        <v>4.04</v>
       </c>
       <c r="I3" t="n">
-        <v>1171.69</v>
+        <v>1316.73</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>615124667</v>
+        <v>607867355</v>
       </c>
       <c r="E4" t="n">
-        <v>1193593651</v>
+        <v>1179519794</v>
       </c>
       <c r="F4" t="n">
-        <v>42054.71028494576</v>
+        <v>57773.63011171894</v>
       </c>
       <c r="G4" t="n">
-        <v>45672.58754270403</v>
+        <v>44440.52044730807</v>
       </c>
       <c r="H4" t="n">
         <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>16417099</v>
+        <v>23080960</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1343375</v>
+        <v>1318773</v>
       </c>
       <c r="E5" t="n">
-        <v>4342340</v>
+        <v>4262816</v>
       </c>
       <c r="F5" t="n">
-        <v>5161.402983976443</v>
+        <v>4544.835269039916</v>
       </c>
       <c r="G5" t="n">
-        <v>6031.088686019555</v>
+        <v>6147.713900448844</v>
       </c>
       <c r="H5" t="n">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="I5" t="n">
-        <v>99002</v>
+        <v>99266</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>140940761</v>
+        <v>139490303</v>
       </c>
       <c r="E6" t="n">
-        <v>156184808</v>
+        <v>154577055</v>
       </c>
       <c r="F6" t="n">
-        <v>232572.3765003138</v>
+        <v>220758.6979003994</v>
       </c>
       <c r="G6" t="n">
-        <v>252692.1527664017</v>
+        <v>276576.7950302274</v>
       </c>
       <c r="H6" t="n">
         <v>0.06</v>
       </c>
       <c r="I6" t="n">
-        <v>34015660</v>
+        <v>34086653</v>
       </c>
     </row>
     <row r="7">
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>4202.34</v>
+        <v>4204.26</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>9.09</v>
       </c>
       <c r="I7" t="n">
-        <v>260.91</v>
+        <v>260.84</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8917230</v>
+        <v>8930880</v>
       </c>
       <c r="E8" t="n">
-        <v>9142090</v>
+        <v>9156084</v>
       </c>
       <c r="F8" t="n">
-        <v>1819.636460233933</v>
+        <v>121.4557430631763</v>
       </c>
       <c r="G8" t="n">
-        <v>112.538503381362</v>
+        <v>207.2727195462665</v>
       </c>
       <c r="H8" t="n">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="I8" t="n">
-        <v>47161</v>
+        <v>47363</v>
       </c>
     </row>
     <row r="9">
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>303563</v>
+        <v>303584</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -754,10 +754,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>5.85</v>
+        <v>6.09</v>
       </c>
       <c r="I9" t="n">
-        <v>383.61</v>
+        <v>383.55</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5237573</v>
+        <v>5195636</v>
       </c>
       <c r="E10" t="n">
-        <v>8368068</v>
+        <v>8301064</v>
       </c>
       <c r="F10" t="n">
-        <v>218.3304948343401</v>
+        <v>280.5356876295616</v>
       </c>
       <c r="G10" t="n">
-        <v>334.6107440886694</v>
+        <v>248.7198000918834</v>
       </c>
       <c r="H10" t="n">
-        <v>0.19</v>
+        <v>0.59</v>
       </c>
       <c r="I10" t="n">
-        <v>102603</v>
+        <v>101624</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1003233</v>
+        <v>1002375</v>
       </c>
       <c r="E11" t="n">
-        <v>12276868</v>
+        <v>12266365</v>
       </c>
       <c r="F11" t="n">
-        <v>1577.256023185569</v>
+        <v>1580.370317379731</v>
       </c>
       <c r="G11" t="n">
-        <v>1665.455574363572</v>
+        <v>1665.628741514785</v>
       </c>
       <c r="H11" t="n">
-        <v>0.41</v>
+        <v>0.49</v>
       </c>
       <c r="I11" t="n">
-        <v>2164.95</v>
+        <v>2109.17</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>565871</v>
+        <v>592193</v>
       </c>
       <c r="E12" t="n">
-        <v>565871</v>
+        <v>592193</v>
       </c>
       <c r="F12" t="n">
-        <v>3.541226847000253</v>
+        <v>408.8842195625201</v>
       </c>
       <c r="G12" t="n">
-        <v>198.8157341855612</v>
+        <v>115.7375428185832</v>
       </c>
       <c r="H12" t="n">
-        <v>0.82</v>
+        <v>1.82</v>
       </c>
       <c r="I12" t="n">
-        <v>22221</v>
+        <v>22747</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4723626</v>
+        <v>4720957</v>
       </c>
       <c r="E13" t="n">
-        <v>29014162</v>
+        <v>28997728</v>
       </c>
       <c r="F13" t="n">
-        <v>840.3543845612132</v>
+        <v>897.5514474244756</v>
       </c>
       <c r="G13" t="n">
-        <v>980.6659532865497</v>
+        <v>856.6386678613076</v>
       </c>
       <c r="H13" t="n">
-        <v>0.41</v>
+        <v>0.79</v>
       </c>
       <c r="I13" t="n">
-        <v>482420</v>
+        <v>492299</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>198039</v>
+        <v>198077</v>
       </c>
       <c r="E14" t="n">
-        <v>2178648</v>
+        <v>2179062</v>
       </c>
       <c r="F14" t="n">
-        <v>588.41486308137</v>
+        <v>641.3222154722647</v>
       </c>
       <c r="G14" t="n">
-        <v>783.8925068139498</v>
+        <v>783.9519214515635</v>
       </c>
       <c r="H14" t="n">
         <v>1.82</v>
       </c>
       <c r="I14" t="n">
-        <v>37188</v>
+        <v>35076</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3344746</v>
+        <v>3348246</v>
       </c>
       <c r="E15" t="n">
-        <v>9515506</v>
+        <v>9525465</v>
       </c>
       <c r="F15" t="n">
-        <v>483.2097449594179</v>
+        <v>2842.238747801818</v>
       </c>
       <c r="G15" t="n">
-        <v>322.8422377172129</v>
+        <v>381.2024338858226</v>
       </c>
       <c r="H15" t="n">
-        <v>0.32</v>
+        <v>1.35</v>
       </c>
       <c r="I15" t="n">
-        <v>132204</v>
+        <v>122078</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>326517</v>
+        <v>326159</v>
       </c>
       <c r="E16" t="n">
-        <v>3768750</v>
+        <v>3764613</v>
       </c>
       <c r="F16" t="n">
-        <v>142.9749381690007</v>
+        <v>137.9050125663863</v>
       </c>
       <c r="G16" t="n">
-        <v>132.5089466851782</v>
+        <v>130.2921326827898</v>
       </c>
       <c r="H16" t="n">
-        <v>0.38</v>
+        <v>0.76</v>
       </c>
       <c r="I16" t="n">
-        <v>4901.36</v>
+        <v>4896.79</v>
       </c>
     </row>
     <row r="17">
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>935975</v>
+        <v>935339</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1034,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.92</v>
+        <v>4.42</v>
       </c>
       <c r="I17" t="n">
-        <v>11196.18</v>
+        <v>11487.04</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>22307701</v>
+        <v>22487790</v>
       </c>
       <c r="E18" t="n">
-        <v>22349406</v>
+        <v>22529738</v>
       </c>
       <c r="F18" t="n">
-        <v>2272.253311385006</v>
+        <v>2481.919324952069</v>
       </c>
       <c r="G18" t="n">
-        <v>2439.645066870256</v>
+        <v>1631.085323209696</v>
       </c>
       <c r="H18" t="n">
         <v>0.53</v>
       </c>
       <c r="I18" t="n">
-        <v>856295</v>
+        <v>872621</v>
       </c>
     </row>
     <row r="19">
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>6762507</v>
+        <v>6872908</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>5.31</v>
+        <v>5.45</v>
       </c>
       <c r="I19" t="n">
-        <v>27839</v>
+        <v>25571</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2440254</v>
+        <v>2441559</v>
       </c>
       <c r="E20" t="n">
-        <v>2440254</v>
+        <v>2441559</v>
       </c>
       <c r="F20" t="n">
-        <v>280.7292042312707</v>
+        <v>295.6966238533664</v>
       </c>
       <c r="G20" t="n">
-        <v>493.7930239273616</v>
+        <v>492.4794100420926</v>
       </c>
       <c r="H20" t="n">
         <v>1.58</v>
       </c>
       <c r="I20" t="n">
-        <v>318780</v>
+        <v>323931</v>
       </c>
     </row>
     <row r="21">
@@ -1165,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>409166</v>
+        <v>409067</v>
       </c>
       <c r="F21" t="n">
-        <v>95.30413685221089</v>
+        <v>199.2856390635829</v>
       </c>
       <c r="G21" t="n">
-        <v>114.7326049766205</v>
+        <v>98.00825404366387</v>
       </c>
       <c r="H21" t="n">
-        <v>1.44</v>
+        <v>0.96</v>
       </c>
       <c r="I21" t="n">
-        <v>1539.28</v>
+        <v>1539.14</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>18278549</v>
+        <v>18368011</v>
       </c>
       <c r="E22" t="n">
-        <v>23525992</v>
+        <v>23641137</v>
       </c>
       <c r="F22" t="n">
-        <v>2936.904628545045</v>
+        <v>3351.853381460425</v>
       </c>
       <c r="G22" t="n">
-        <v>1317.399406947496</v>
+        <v>1310.504737140463</v>
       </c>
       <c r="H22" t="n">
-        <v>0.41</v>
+        <v>0.11</v>
       </c>
       <c r="I22" t="n">
-        <v>2064221</v>
+        <v>2065088</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>480262984</v>
+        <v>468103128</v>
       </c>
       <c r="E23" t="n">
-        <v>480262988</v>
+        <v>468103132</v>
       </c>
       <c r="F23" t="n">
-        <v>52327.48023087489</v>
+        <v>59901.94671853348</v>
       </c>
       <c r="G23" t="n">
-        <v>76293.60147094128</v>
+        <v>72074.31882231709</v>
       </c>
       <c r="H23" t="n">
         <v>0.04</v>
       </c>
       <c r="I23" t="n">
-        <v>77877627</v>
+        <v>65495606</v>
       </c>
     </row>
     <row r="24">
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>22831</v>
+        <v>22847</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1279,10 +1279,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>7.86</v>
+        <v>7.75</v>
       </c>
       <c r="I24" t="n">
-        <v>3132.17</v>
+        <v>3074.9</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4674854</v>
+        <v>4681450</v>
       </c>
       <c r="E25" t="n">
-        <v>4674854</v>
+        <v>4681450</v>
       </c>
       <c r="F25" t="n">
-        <v>407.5032118968775</v>
+        <v>322.9602611475854</v>
       </c>
       <c r="G25" t="n">
-        <v>1353.345151959635</v>
+        <v>1419.87533340298</v>
       </c>
       <c r="H25" t="n">
-        <v>0.66</v>
+        <v>0.77</v>
       </c>
       <c r="I25" t="n">
-        <v>1916739</v>
+        <v>2008898</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3361779</v>
+        <v>3421139</v>
       </c>
       <c r="E26" t="n">
-        <v>3361779</v>
+        <v>3421139</v>
       </c>
       <c r="F26" t="n">
-        <v>425.2037755210281</v>
+        <v>229.9956676170786</v>
       </c>
       <c r="G26" t="n">
-        <v>103.9932886404133</v>
+        <v>1190.254140853262</v>
       </c>
       <c r="H26" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="I26" t="n">
-        <v>530072</v>
+        <v>546359</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>315109</v>
+        <v>324105</v>
       </c>
       <c r="E27" t="n">
-        <v>1470959</v>
+        <v>1512953</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1405.54563785063</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>450.535048254243</v>
       </c>
       <c r="H27" t="n">
-        <v>5.23</v>
+        <v>1.43</v>
       </c>
       <c r="I27" t="n">
-        <v>632579</v>
+        <v>647234</v>
       </c>
     </row>
     <row r="28">
@@ -1410,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1581238</v>
+        <v>1595212</v>
       </c>
       <c r="F28" t="n">
-        <v>268.8369696389129</v>
+        <v>460.90337891933</v>
       </c>
       <c r="G28" t="n">
-        <v>315.074103747794</v>
+        <v>339.6225901621183</v>
       </c>
       <c r="H28" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="I28" t="n">
-        <v>223414</v>
+        <v>234730</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>12870014</v>
+        <v>12874821</v>
       </c>
       <c r="E29" t="n">
-        <v>32031138</v>
+        <v>32043101</v>
       </c>
       <c r="F29" t="n">
-        <v>733.7248504202742</v>
+        <v>795.4988766497574</v>
       </c>
       <c r="G29" t="n">
-        <v>1744.765617088753</v>
+        <v>1165.543781760861</v>
       </c>
       <c r="H29" t="n">
-        <v>0.34</v>
+        <v>0.62</v>
       </c>
       <c r="I29" t="n">
-        <v>1600815</v>
+        <v>1595999</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>923459</v>
+        <v>924116</v>
       </c>
       <c r="E30" t="n">
-        <v>6464213</v>
+        <v>6468816</v>
       </c>
       <c r="F30" t="n">
-        <v>322.8160740013757</v>
+        <v>18.32805560228498</v>
       </c>
       <c r="G30" t="n">
-        <v>245.9205308433112</v>
+        <v>41.08304714703983</v>
       </c>
       <c r="H30" t="n">
-        <v>1.31</v>
+        <v>2.68</v>
       </c>
       <c r="I30" t="n">
-        <v>153656</v>
+        <v>172039</v>
       </c>
     </row>
     <row r="31">
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>191396</v>
+        <v>191077</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1524,10 +1524,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>6.77</v>
+        <v>7.89</v>
       </c>
       <c r="I31" t="n">
-        <v>6081.76</v>
+        <v>6072.21</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5338451</v>
+        <v>5250366</v>
       </c>
       <c r="E32" t="n">
-        <v>5593843</v>
+        <v>5501544</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>319.0470278914651</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>33.58524111813217</v>
       </c>
       <c r="H32" t="n">
-        <v>4.01</v>
+        <v>2.33</v>
       </c>
       <c r="I32" t="n">
-        <v>171336</v>
+        <v>171428</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>5383902</v>
+        <v>5386905</v>
       </c>
       <c r="E33" t="n">
-        <v>7925395</v>
+        <v>7929816</v>
       </c>
       <c r="F33" t="n">
-        <v>22.65028671436248</v>
+        <v>61.8899202536315</v>
       </c>
       <c r="G33" t="n">
-        <v>122.4068070101359</v>
+        <v>202.4869499528012</v>
       </c>
       <c r="H33" t="n">
-        <v>0.77</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I33" t="n">
-        <v>632024</v>
+        <v>628438</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7670428</v>
+        <v>7664064</v>
       </c>
       <c r="E34" t="n">
-        <v>7670428</v>
+        <v>7664064</v>
       </c>
       <c r="F34" t="n">
-        <v>31991.62430976268</v>
+        <v>32484.34933087098</v>
       </c>
       <c r="G34" t="n">
-        <v>32397.41271653786</v>
+        <v>32033.74720252077</v>
       </c>
       <c r="H34" t="n">
-        <v>0.75</v>
+        <v>0.82</v>
       </c>
       <c r="I34" t="n">
-        <v>275174</v>
+        <v>248233</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1448281</v>
+        <v>1458072</v>
       </c>
       <c r="E35" t="n">
-        <v>1448281</v>
+        <v>1458072</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>479.9284194286093</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>115.3932092440458</v>
       </c>
       <c r="H35" t="n">
-        <v>4.23</v>
+        <v>1.01</v>
       </c>
       <c r="I35" t="n">
-        <v>276054</v>
+        <v>276626</v>
       </c>
     </row>
     <row r="36">
@@ -1690,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>16553944</v>
+        <v>16545908</v>
       </c>
       <c r="F36" t="n">
-        <v>172.9827839118657</v>
+        <v>266.5690946104377</v>
       </c>
       <c r="G36" t="n">
-        <v>170.4917279794487</v>
+        <v>170.199558943868</v>
       </c>
       <c r="H36" t="n">
         <v>0.7</v>
       </c>
       <c r="I36" t="n">
-        <v>10264.73</v>
+        <v>10258.2</v>
       </c>
     </row>
     <row r="37">
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>65191</v>
+        <v>65175</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>8.51</v>
       </c>
       <c r="I37" t="n">
-        <v>256.83</v>
+        <v>256.8</v>
       </c>
     </row>
     <row r="38">
@@ -1753,22 +1753,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>137031385</v>
+        <v>136175177</v>
       </c>
       <c r="E38" t="n">
-        <v>137031385</v>
+        <v>136175177</v>
       </c>
       <c r="F38" t="n">
-        <v>382211.5711147687</v>
+        <v>333538.354084381</v>
       </c>
       <c r="G38" t="n">
-        <v>276474.201179535</v>
+        <v>356949.0232320419</v>
       </c>
       <c r="H38" t="n">
         <v>0.05</v>
       </c>
       <c r="I38" t="n">
-        <v>66099989</v>
+        <v>66458389</v>
       </c>
     </row>
     <row r="39">
@@ -1788,22 +1788,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>65343514</v>
+        <v>64931280</v>
       </c>
       <c r="E39" t="n">
-        <v>335094945</v>
+        <v>332980923</v>
       </c>
       <c r="F39" t="n">
-        <v>96079.39922757538</v>
+        <v>81315.34790597038</v>
       </c>
       <c r="G39" t="n">
-        <v>79844.45164390921</v>
+        <v>99028.27595451829</v>
       </c>
       <c r="H39" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I39" t="n">
-        <v>19164328</v>
+        <v>19322875</v>
       </c>
     </row>
     <row r="40">
@@ -1823,10 +1823,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>45348</v>
+        <v>45379</v>
       </c>
       <c r="E40" t="n">
-        <v>134011</v>
+        <v>134102</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -1835,10 +1835,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>6.9</v>
+        <v>7.05</v>
       </c>
       <c r="I40" t="n">
-        <v>781.04</v>
+        <v>781.02</v>
       </c>
     </row>
     <row r="41">
@@ -1861,19 +1861,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>51696</v>
+        <v>51945</v>
       </c>
       <c r="F41" t="n">
-        <v>11.81123978363536</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.835584925032103</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>3.08</v>
+        <v>6.04</v>
       </c>
       <c r="I41" t="n">
-        <v>25784</v>
+        <v>25513</v>
       </c>
     </row>
     <row r="42">
@@ -1896,19 +1896,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>599570</v>
+        <v>595476</v>
       </c>
       <c r="F42" t="n">
-        <v>1930.057988265537</v>
+        <v>1305.614028627009</v>
       </c>
       <c r="G42" t="n">
-        <v>397.5812809436732</v>
+        <v>398.1777077550986</v>
       </c>
       <c r="H42" t="n">
         <v>0.7</v>
       </c>
       <c r="I42" t="n">
-        <v>831.23</v>
+        <v>1422.49</v>
       </c>
     </row>
     <row r="43">
@@ -1961,22 +1961,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2708151</v>
+        <v>2715809</v>
       </c>
       <c r="E44" t="n">
-        <v>10883442</v>
+        <v>10914218</v>
       </c>
       <c r="F44" t="n">
-        <v>3.581916328664047</v>
+        <v>180.0587928045097</v>
       </c>
       <c r="G44" t="n">
-        <v>955.8522965899807</v>
+        <v>249.9969669474626</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9</v>
+        <v>3.54</v>
       </c>
       <c r="I44" t="n">
-        <v>25342</v>
+        <v>28066</v>
       </c>
     </row>
     <row r="45">
@@ -1996,22 +1996,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>17303080</v>
+        <v>17540396</v>
       </c>
       <c r="E45" t="n">
-        <v>121967805</v>
+        <v>123638895</v>
       </c>
       <c r="F45" t="n">
-        <v>191.4424434377485</v>
+        <v>190.6253606283699</v>
       </c>
       <c r="G45" t="n">
-        <v>416.6414480283655</v>
+        <v>268.0636678928192</v>
       </c>
       <c r="H45" t="n">
-        <v>0.82</v>
+        <v>0.68</v>
       </c>
       <c r="I45" t="n">
-        <v>1025182</v>
+        <v>1049295</v>
       </c>
     </row>
     <row r="46">
@@ -2031,10 +2031,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>148629</v>
+        <v>147560</v>
       </c>
       <c r="E46" t="n">
-        <v>1988746</v>
+        <v>1974439</v>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>46374</v>
+        <v>46139</v>
       </c>
     </row>
     <row r="47">
@@ -2064,22 +2064,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>254904492</v>
+        <v>253870462</v>
       </c>
       <c r="E47" t="n">
-        <v>254904492</v>
+        <v>253870462</v>
       </c>
       <c r="F47" t="n">
-        <v>121676.1620429477</v>
+        <v>106783.3336450877</v>
       </c>
       <c r="G47" t="n">
-        <v>150764.1979428463</v>
+        <v>153225.2437657213</v>
       </c>
       <c r="H47" t="n">
         <v>0.03</v>
       </c>
       <c r="I47" t="n">
-        <v>14923689</v>
+        <v>14992943</v>
       </c>
     </row>
     <row r="48">
@@ -2099,22 +2099,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>635383</v>
+        <v>630841</v>
       </c>
       <c r="E48" t="n">
-        <v>635383</v>
+        <v>630841</v>
       </c>
       <c r="F48" t="n">
-        <v>101.6020969193337</v>
+        <v>568.8917766158509</v>
       </c>
       <c r="G48" t="n">
-        <v>120.9470700582372</v>
+        <v>111.4156994921301</v>
       </c>
       <c r="H48" t="n">
-        <v>2.39</v>
+        <v>2.64</v>
       </c>
       <c r="I48" t="n">
-        <v>3344.98</v>
+        <v>3346.14</v>
       </c>
     </row>
     <row r="49">
@@ -2167,22 +2167,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>464843019</v>
+        <v>459928254</v>
       </c>
       <c r="E50" t="n">
-        <v>464843019</v>
+        <v>459928254</v>
       </c>
       <c r="F50" t="n">
-        <v>4555.597289034183</v>
+        <v>3738.981109678693</v>
       </c>
       <c r="G50" t="n">
-        <v>1713.30977335461</v>
+        <v>1904.909490157101</v>
       </c>
       <c r="H50" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="I50" t="n">
-        <v>3194035</v>
+        <v>3062029</v>
       </c>
     </row>
     <row r="51">
@@ -2202,22 +2202,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2411588</v>
+        <v>2393759</v>
       </c>
       <c r="E51" t="n">
-        <v>2411588</v>
+        <v>2393759</v>
       </c>
       <c r="F51" t="n">
-        <v>935.3458424645501</v>
+        <v>984.7410635440726</v>
       </c>
       <c r="G51" t="n">
-        <v>51.41992873975288</v>
+        <v>37.14592456730929</v>
       </c>
       <c r="H51" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="I51" t="n">
-        <v>104174</v>
+        <v>59364</v>
       </c>
     </row>
     <row r="52">
@@ -2237,10 +2237,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>22111</v>
+        <v>21935</v>
       </c>
       <c r="E52" t="n">
-        <v>44222</v>
+        <v>43869</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -2249,10 +2249,10 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>8.02</v>
+        <v>5.63</v>
       </c>
       <c r="I52" t="n">
-        <v>4257.34</v>
+        <v>3991.63</v>
       </c>
     </row>
     <row r="53">
@@ -2275,19 +2275,19 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>146111</v>
+        <v>147344</v>
       </c>
       <c r="F53" t="n">
-        <v>42.18731429266502</v>
+        <v>42.19051185351527</v>
       </c>
       <c r="G53" t="n">
-        <v>1.194981207143629</v>
+        <v>1.195071779989728</v>
       </c>
       <c r="H53" t="n">
         <v>2.56</v>
       </c>
       <c r="I53" t="n">
-        <v>22989</v>
+        <v>22722</v>
       </c>
     </row>
     <row r="54">
@@ -2307,22 +2307,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2542091</v>
+        <v>2542772</v>
       </c>
       <c r="E54" t="n">
-        <v>6499075</v>
+        <v>6500817</v>
       </c>
       <c r="F54" t="n">
-        <v>302.9195632885293</v>
+        <v>295.0520534194029</v>
       </c>
       <c r="G54" t="n">
-        <v>222.7118351108425</v>
+        <v>291.4342307928161</v>
       </c>
       <c r="H54" t="n">
-        <v>1.36</v>
+        <v>1.65</v>
       </c>
       <c r="I54" t="n">
-        <v>119447</v>
+        <v>119820</v>
       </c>
     </row>
     <row r="55">
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>3820.33</v>
+        <v>3822.42</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>4.16</v>
       </c>
       <c r="I55" t="n">
-        <v>738.41</v>
+        <v>713.37</v>
       </c>
     </row>
     <row r="56">
@@ -2377,22 +2377,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>73903525</v>
+        <v>73188396</v>
       </c>
       <c r="E56" t="n">
-        <v>73903525</v>
+        <v>73188396</v>
       </c>
       <c r="F56" t="n">
-        <v>11161.87143958123</v>
+        <v>17135.92869158504</v>
       </c>
       <c r="G56" t="n">
-        <v>17565.32916782838</v>
+        <v>17541.52519407537</v>
       </c>
       <c r="H56" t="n">
-        <v>0.35</v>
+        <v>0.29</v>
       </c>
       <c r="I56" t="n">
-        <v>3980326</v>
+        <v>3993770</v>
       </c>
     </row>
     <row r="57">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3582355</v>
+        <v>3587400</v>
       </c>
       <c r="E57" t="n">
-        <v>4539470</v>
+        <v>4545863</v>
       </c>
       <c r="F57" t="n">
-        <v>305.2160306427569</v>
+        <v>133.866798042188</v>
       </c>
       <c r="G57" t="n">
-        <v>170.5812738433931</v>
+        <v>1412.037067120425</v>
       </c>
       <c r="H57" t="n">
         <v>0.21</v>
       </c>
       <c r="I57" t="n">
-        <v>267653</v>
+        <v>266655</v>
       </c>
     </row>
     <row r="58">
@@ -2447,22 +2447,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>4217531</v>
+        <v>4183615</v>
       </c>
       <c r="E58" t="n">
-        <v>8317325</v>
+        <v>8250440</v>
       </c>
       <c r="F58" t="n">
-        <v>1988.323585404113</v>
+        <v>2259.029634972611</v>
       </c>
       <c r="G58" t="n">
-        <v>2117.524811829169</v>
+        <v>2105.295337847712</v>
       </c>
       <c r="H58" t="n">
-        <v>0.09</v>
+        <v>0.29</v>
       </c>
       <c r="I58" t="n">
-        <v>1645887</v>
+        <v>1648517</v>
       </c>
     </row>
     <row r="59">
@@ -2482,22 +2482,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1573320</v>
+        <v>1571831</v>
       </c>
       <c r="E59" t="n">
-        <v>9033414</v>
+        <v>9024866</v>
       </c>
       <c r="F59" t="n">
-        <v>275.2257445270443</v>
+        <v>357.0488704213429</v>
       </c>
       <c r="G59" t="n">
-        <v>684.6710793183447</v>
+        <v>496.0285645423989</v>
       </c>
       <c r="H59" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="I59" t="n">
-        <v>224690</v>
+        <v>335030</v>
       </c>
     </row>
     <row r="60">
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>558281</v>
+        <v>536715</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>8.77</v>
       </c>
       <c r="I60" t="n">
-        <v>1913.85</v>
+        <v>2022.56</v>
       </c>
     </row>
     <row r="61">
@@ -2555,19 +2555,19 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>31872259</v>
+        <v>31834532</v>
       </c>
       <c r="F61" t="n">
-        <v>502.5411082947086</v>
+        <v>487.7114364134947</v>
       </c>
       <c r="G61" t="n">
-        <v>1797.877794872679</v>
+        <v>1789.192223473223</v>
       </c>
       <c r="H61" t="n">
-        <v>0.25</v>
+        <v>0.06</v>
       </c>
       <c r="I61" t="n">
-        <v>249008</v>
+        <v>248998</v>
       </c>
     </row>
     <row r="62">
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>1436730</v>
+        <v>1436559</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>9.16</v>
+        <v>7.85</v>
       </c>
       <c r="I62" t="n">
-        <v>27569</v>
+        <v>27496</v>
       </c>
     </row>
     <row r="63">
@@ -2622,22 +2622,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>7605913</v>
+        <v>7612535</v>
       </c>
       <c r="E63" t="n">
-        <v>17913437</v>
+        <v>17929034</v>
       </c>
       <c r="F63" t="n">
-        <v>1159.487928015567</v>
+        <v>1088.258994620335</v>
       </c>
       <c r="G63" t="n">
-        <v>1884.238496171394</v>
+        <v>2313.797890553557</v>
       </c>
       <c r="H63" t="n">
-        <v>0.65</v>
+        <v>1.74</v>
       </c>
       <c r="I63" t="n">
-        <v>36200</v>
+        <v>36400</v>
       </c>
     </row>
     <row r="64">
@@ -2657,22 +2657,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2956424</v>
+        <v>2931561</v>
       </c>
       <c r="E64" t="n">
-        <v>2956424</v>
+        <v>2931561</v>
       </c>
       <c r="F64" t="n">
-        <v>11.76999973369665</v>
+        <v>199.0848494063341</v>
       </c>
       <c r="G64" t="n">
-        <v>207.3742325981727</v>
+        <v>47.97872314335943</v>
       </c>
       <c r="H64" t="n">
-        <v>3.57</v>
+        <v>3.9</v>
       </c>
       <c r="I64" t="n">
-        <v>16146.26</v>
+        <v>17146.59</v>
       </c>
     </row>
     <row r="65">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3373968</v>
+        <v>3370396</v>
       </c>
       <c r="E65" t="n">
-        <v>8325093</v>
+        <v>8316280</v>
       </c>
       <c r="F65" t="n">
-        <v>662.5679934854226</v>
+        <v>621.8796871658338</v>
       </c>
       <c r="G65" t="n">
-        <v>1251.220039113352</v>
+        <v>1233.065799319763</v>
       </c>
       <c r="H65" t="n">
         <v>0.76</v>
       </c>
       <c r="I65" t="n">
-        <v>52819</v>
+        <v>50263</v>
       </c>
     </row>
     <row r="66">
@@ -2730,19 +2730,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>272201</v>
+        <v>269561</v>
       </c>
       <c r="F66" t="n">
-        <v>9.541427824439793</v>
+        <v>85.01259581330751</v>
       </c>
       <c r="G66" t="n">
-        <v>5.38876838019898</v>
+        <v>5.389176818495954</v>
       </c>
       <c r="H66" t="n">
         <v>3.33</v>
       </c>
       <c r="I66" t="n">
-        <v>1776.18</v>
+        <v>1580.91</v>
       </c>
     </row>
     <row r="67">
@@ -2762,22 +2762,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>73907796</v>
+        <v>73051907</v>
       </c>
       <c r="E67" t="n">
-        <v>154135286</v>
+        <v>152350324</v>
       </c>
       <c r="F67" t="n">
-        <v>60944.55728016277</v>
+        <v>53249.98871361632</v>
       </c>
       <c r="G67" t="n">
-        <v>89090.8896443561</v>
+        <v>99170.23060581196</v>
       </c>
       <c r="H67" t="n">
         <v>0.05</v>
       </c>
       <c r="I67" t="n">
-        <v>14465492</v>
+        <v>14457450</v>
       </c>
     </row>
     <row r="68">
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>2100878</v>
+        <v>2080802</v>
       </c>
       <c r="F68" t="n">
-        <v>9.072407507528032</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>3.322399435571751</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>3.24</v>
+        <v>5.58</v>
       </c>
       <c r="I68" t="n">
-        <v>3226.7</v>
+        <v>4286.16</v>
       </c>
     </row>
     <row r="69">
@@ -2835,19 +2835,19 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>204973612</v>
+        <v>206759762</v>
       </c>
       <c r="F69" t="n">
-        <v>5720.385411355541</v>
+        <v>5106.288792831903</v>
       </c>
       <c r="G69" t="n">
-        <v>5250.54582983772</v>
+        <v>1438.529188743959</v>
       </c>
       <c r="H69" t="n">
-        <v>0.31</v>
+        <v>0.6</v>
       </c>
       <c r="I69" t="n">
-        <v>4630626</v>
+        <v>4702647</v>
       </c>
     </row>
     <row r="70">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>184812</v>
+        <v>179122</v>
       </c>
       <c r="E70" t="n">
-        <v>192997</v>
+        <v>187054</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -2879,10 +2879,10 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>8.42</v>
+        <v>14.22</v>
       </c>
       <c r="I70" t="n">
-        <v>432.59</v>
+        <v>460.83</v>
       </c>
     </row>
     <row r="71">
@@ -2902,22 +2902,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>145283566</v>
+        <v>144965046</v>
       </c>
       <c r="E71" t="n">
-        <v>145328271</v>
+        <v>145009653</v>
       </c>
       <c r="F71" t="n">
-        <v>37610.44678720957</v>
+        <v>32576.95492389675</v>
       </c>
       <c r="G71" t="n">
-        <v>39238.09568325961</v>
+        <v>47434.87049723249</v>
       </c>
       <c r="H71" t="n">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="I71" t="n">
-        <v>2609052</v>
+        <v>2536106</v>
       </c>
     </row>
     <row r="72">
@@ -2937,22 +2937,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>26453618</v>
+        <v>26263241</v>
       </c>
       <c r="E72" t="n">
-        <v>86815719</v>
+        <v>86190938</v>
       </c>
       <c r="F72" t="n">
-        <v>23239.70838683303</v>
+        <v>23134.54109350705</v>
       </c>
       <c r="G72" t="n">
-        <v>23162.39857446666</v>
+        <v>27901.63486501775</v>
       </c>
       <c r="H72" t="n">
-        <v>0.57</v>
+        <v>0.46</v>
       </c>
       <c r="I72" t="n">
-        <v>82857</v>
+        <v>85752</v>
       </c>
     </row>
     <row r="73">
@@ -2972,10 +2972,10 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>119166</v>
+        <v>118908</v>
       </c>
       <c r="E73" t="n">
-        <v>119166</v>
+        <v>118908</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -2987,7 +2987,7 @@
         <v>4.17</v>
       </c>
       <c r="I73" t="n">
-        <v>157.71</v>
+        <v>158.26</v>
       </c>
     </row>
     <row r="74">
@@ -3007,22 +3007,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>198518192</v>
+        <v>197831519</v>
       </c>
       <c r="E74" t="n">
-        <v>689670141</v>
+        <v>687284577</v>
       </c>
       <c r="F74" t="n">
-        <v>143405.1045026392</v>
+        <v>134250.8340786895</v>
       </c>
       <c r="G74" t="n">
-        <v>178480.6686644263</v>
+        <v>206685.837151932</v>
       </c>
       <c r="H74" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I74" t="n">
-        <v>25957953</v>
+        <v>25855084</v>
       </c>
     </row>
     <row r="75">
@@ -3042,22 +3042,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>4098603</v>
+        <v>4128072</v>
       </c>
       <c r="E75" t="n">
-        <v>4098603</v>
+        <v>4128072</v>
       </c>
       <c r="F75" t="n">
-        <v>357.3146393718367</v>
+        <v>1279.253176280906</v>
       </c>
       <c r="G75" t="n">
-        <v>1054.353742466017</v>
+        <v>749.5805336398533</v>
       </c>
       <c r="H75" t="n">
-        <v>0.61</v>
+        <v>0.75</v>
       </c>
       <c r="I75" t="n">
-        <v>3589726</v>
+        <v>3447771</v>
       </c>
     </row>
     <row r="76">
@@ -3077,22 +3077,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>115510665</v>
+        <v>115604708</v>
       </c>
       <c r="E76" t="n">
-        <v>491257031</v>
+        <v>491605592</v>
       </c>
       <c r="F76" t="n">
-        <v>274985.0484551618</v>
+        <v>220995.395699558</v>
       </c>
       <c r="G76" t="n">
-        <v>169414.7414832327</v>
+        <v>214760.9014271815</v>
       </c>
       <c r="H76" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="I76" t="n">
-        <v>14039683</v>
+        <v>14381304</v>
       </c>
     </row>
     <row r="77">
@@ -3115,19 +3115,19 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1854250</v>
+        <v>1850257</v>
       </c>
       <c r="F77" t="n">
-        <v>109.3159911397664</v>
+        <v>109.3245231710208</v>
       </c>
       <c r="G77" t="n">
-        <v>93.01240766400274</v>
+        <v>93.01966721277473</v>
       </c>
       <c r="H77" t="n">
         <v>0.54</v>
       </c>
       <c r="I77" t="n">
-        <v>433.92</v>
+        <v>433.04</v>
       </c>
     </row>
     <row r="78">
@@ -3147,22 +3147,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3116776</v>
+        <v>3130211</v>
       </c>
       <c r="E78" t="n">
-        <v>15626807</v>
+        <v>15694171</v>
       </c>
       <c r="F78" t="n">
-        <v>136.2541990592854</v>
+        <v>156.3704151794019</v>
       </c>
       <c r="G78" t="n">
-        <v>730.1023518889556</v>
+        <v>313.3000166336592</v>
       </c>
       <c r="H78" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="I78" t="n">
-        <v>32244</v>
+        <v>32987</v>
       </c>
     </row>
     <row r="79">
@@ -3182,22 +3182,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>542163</v>
+        <v>543913</v>
       </c>
       <c r="E79" t="n">
-        <v>9273670</v>
+        <v>9303599</v>
       </c>
       <c r="F79" t="n">
-        <v>717.290852278402</v>
+        <v>297.3669700824574</v>
       </c>
       <c r="G79" t="n">
-        <v>29.28661958681138</v>
+        <v>259.0896994761294</v>
       </c>
       <c r="H79" t="n">
-        <v>1.28</v>
+        <v>2.36</v>
       </c>
       <c r="I79" t="n">
-        <v>272662</v>
+        <v>270683</v>
       </c>
     </row>
     <row r="80">
@@ -3217,22 +3217,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>5948754</v>
+        <v>5781752</v>
       </c>
       <c r="E80" t="n">
-        <v>8082954</v>
+        <v>7855649</v>
       </c>
       <c r="F80" t="n">
-        <v>238.0129537589469</v>
+        <v>333.6304467606885</v>
       </c>
       <c r="G80" t="n">
-        <v>706.5706486897417</v>
+        <v>802.1043540552701</v>
       </c>
       <c r="H80" t="n">
         <v>0.47</v>
       </c>
       <c r="I80" t="n">
-        <v>6129018</v>
+        <v>5972659</v>
       </c>
     </row>
     <row r="81">
@@ -3251,19 +3251,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>42914</v>
+        <v>42343</v>
       </c>
       <c r="F81" t="n">
-        <v>202.4981236740861</v>
+        <v>125.335784801986</v>
       </c>
       <c r="G81" t="n">
-        <v>5.941606222744679</v>
+        <v>23.68946402780721</v>
       </c>
       <c r="H81" t="n">
-        <v>0.39</v>
+        <v>2.94</v>
       </c>
       <c r="I81" t="n">
-        <v>59688</v>
+        <v>58979</v>
       </c>
     </row>
     <row r="82">
@@ -3283,22 +3283,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>40199126</v>
+        <v>39892229</v>
       </c>
       <c r="E82" t="n">
-        <v>46951624</v>
+        <v>46593177</v>
       </c>
       <c r="F82" t="n">
-        <v>170.6297286256091</v>
+        <v>226.6018411601145</v>
       </c>
       <c r="G82" t="n">
-        <v>3.640628437071052</v>
+        <v>17.09739486544667</v>
       </c>
       <c r="H82" t="n">
-        <v>0.62</v>
+        <v>2.42</v>
       </c>
       <c r="I82" t="n">
-        <v>857708</v>
+        <v>857617</v>
       </c>
     </row>
     <row r="83">
@@ -3321,19 +3321,19 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>14561401</v>
+        <v>14445467</v>
       </c>
       <c r="F83" t="n">
-        <v>405.1768332769994</v>
+        <v>341.6212042130277</v>
       </c>
       <c r="G83" t="n">
-        <v>803.3245692548525</v>
+        <v>751.1197937717118</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="I83" t="n">
-        <v>412536</v>
+        <v>388151</v>
       </c>
     </row>
     <row r="84">
@@ -3353,22 +3353,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>35777164</v>
+        <v>35947424</v>
       </c>
       <c r="E84" t="n">
-        <v>35777164</v>
+        <v>35947424</v>
       </c>
       <c r="F84" t="n">
-        <v>298.0667185713091</v>
+        <v>185.6321514040877</v>
       </c>
       <c r="G84" t="n">
-        <v>337.1990436031796</v>
+        <v>120.0082611966276</v>
       </c>
       <c r="H84" t="n">
-        <v>1.66</v>
+        <v>2.01</v>
       </c>
       <c r="I84" t="n">
-        <v>760965</v>
+        <v>768519</v>
       </c>
     </row>
     <row r="85">
@@ -3388,22 +3388,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>535108</v>
+        <v>535219</v>
       </c>
       <c r="E85" t="n">
-        <v>6490345</v>
+        <v>6491689</v>
       </c>
       <c r="F85" t="n">
-        <v>609.7212099910616</v>
+        <v>837.0769677839804</v>
       </c>
       <c r="G85" t="n">
-        <v>1135.361961330562</v>
+        <v>1070.784629227319</v>
       </c>
       <c r="H85" t="n">
-        <v>0.88</v>
+        <v>0.42</v>
       </c>
       <c r="I85" t="n">
-        <v>2790027</v>
+        <v>2777611</v>
       </c>
     </row>
     <row r="86">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>25200114</v>
+        <v>25118766</v>
       </c>
       <c r="E86" t="n">
-        <v>35619377</v>
+        <v>35504396</v>
       </c>
       <c r="F86" t="n">
-        <v>16.51988657729159</v>
+        <v>67.83298537294121</v>
       </c>
       <c r="G86" t="n">
-        <v>351.3225892465848</v>
+        <v>863.7201378465148</v>
       </c>
       <c r="H86" t="n">
-        <v>2.34</v>
+        <v>2.53</v>
       </c>
       <c r="I86" t="n">
-        <v>72377</v>
+        <v>72033</v>
       </c>
     </row>
     <row r="87">
@@ -3458,22 +3458,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1313298556</v>
+        <v>1286617032</v>
       </c>
       <c r="E87" t="n">
-        <v>6297535534</v>
+        <v>6169592163</v>
       </c>
       <c r="F87" t="n">
-        <v>783762.0177516872</v>
+        <v>571461.0498488535</v>
       </c>
       <c r="G87" t="n">
-        <v>874214.2951475321</v>
+        <v>923619.4470453185</v>
       </c>
       <c r="H87" t="n">
         <v>0.02</v>
       </c>
       <c r="I87" t="n">
-        <v>179615255</v>
+        <v>176205940</v>
       </c>
     </row>
     <row r="88">
@@ -3493,22 +3493,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>268775505</v>
+        <v>266515875</v>
       </c>
       <c r="E88" t="n">
-        <v>1160184289</v>
+        <v>1150430471</v>
       </c>
       <c r="F88" t="n">
-        <v>1211588.714380736</v>
+        <v>964904.5145990911</v>
       </c>
       <c r="G88" t="n">
-        <v>802186.6631373889</v>
+        <v>1078662.048363286</v>
       </c>
       <c r="H88" t="n">
         <v>0.02</v>
       </c>
       <c r="I88" t="n">
-        <v>111041089</v>
+        <v>109654067</v>
       </c>
     </row>
     <row r="89">
@@ -3528,22 +3528,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>114892898</v>
+        <v>114863044</v>
       </c>
       <c r="E89" t="n">
-        <v>114892898</v>
+        <v>114863044</v>
       </c>
       <c r="F89" t="n">
-        <v>31585.80762421165</v>
+        <v>35089.46422070965</v>
       </c>
       <c r="G89" t="n">
-        <v>29947.34123416071</v>
+        <v>27708.86950025575</v>
       </c>
       <c r="H89" t="n">
-        <v>0.75</v>
+        <v>0.57</v>
       </c>
       <c r="I89" t="n">
-        <v>6036800</v>
+        <v>6040137</v>
       </c>
     </row>
     <row r="90">
@@ -3563,22 +3563,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>3853239</v>
+        <v>3853310</v>
       </c>
       <c r="E90" t="n">
-        <v>29985440</v>
+        <v>29985990</v>
       </c>
       <c r="F90" t="n">
-        <v>11013.22352479096</v>
+        <v>10999.29092764241</v>
       </c>
       <c r="G90" t="n">
-        <v>12310.48381464573</v>
+        <v>12605.40611201016</v>
       </c>
       <c r="H90" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I90" t="n">
-        <v>10004.34</v>
+        <v>10263.28</v>
       </c>
     </row>
     <row r="91">
@@ -3601,19 +3601,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>3766112</v>
+        <v>3778833</v>
       </c>
       <c r="F91" t="n">
-        <v>4132.020331145127</v>
+        <v>1732.967102879189</v>
       </c>
       <c r="G91" t="n">
-        <v>3127.765641895548</v>
+        <v>2924.317516451517</v>
       </c>
       <c r="H91" t="n">
-        <v>0.79</v>
+        <v>0.6</v>
       </c>
       <c r="I91" t="n">
-        <v>304481</v>
+        <v>293741</v>
       </c>
     </row>
     <row r="92">
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>919730</v>
+        <v>913352</v>
       </c>
       <c r="F92" t="n">
-        <v>122.7271050586263</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>4.996054435154704</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>3.22</v>
+        <v>4.93</v>
       </c>
       <c r="I92" t="n">
-        <v>43556</v>
+        <v>40352</v>
       </c>
     </row>
     <row r="93">
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>151096</v>
+        <v>140025</v>
       </c>
       <c r="F93" t="n">
-        <v>171.9745986144559</v>
+        <v>9.063312818889692</v>
       </c>
       <c r="G93" t="n">
-        <v>6.401858446462991</v>
+        <v>114.233261494281</v>
       </c>
       <c r="H93" t="n">
-        <v>2.21</v>
+        <v>0.82</v>
       </c>
       <c r="I93" t="n">
-        <v>114998</v>
+        <v>114921</v>
       </c>
     </row>
     <row r="94">
@@ -3699,22 +3699,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>10953853</v>
+        <v>10802006</v>
       </c>
       <c r="E94" t="n">
-        <v>132275170</v>
+        <v>130439942</v>
       </c>
       <c r="F94" t="n">
-        <v>1700.51166608297</v>
+        <v>1260.706053745471</v>
       </c>
       <c r="G94" t="n">
-        <v>2394.977142770322</v>
+        <v>352.4461753041655</v>
       </c>
       <c r="H94" t="n">
-        <v>0.68</v>
+        <v>0.89</v>
       </c>
       <c r="I94" t="n">
-        <v>219549</v>
+        <v>265557</v>
       </c>
     </row>
     <row r="95">
@@ -3734,22 +3734,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>21123650</v>
+        <v>21031918</v>
       </c>
       <c r="E95" t="n">
-        <v>52809125</v>
+        <v>52579794</v>
       </c>
       <c r="F95" t="n">
-        <v>7783.264313146276</v>
+        <v>6505.101841416236</v>
       </c>
       <c r="G95" t="n">
-        <v>9395.180275042201</v>
+        <v>8566.290193686555</v>
       </c>
       <c r="H95" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="I95" t="n">
-        <v>2070438</v>
+        <v>2081292</v>
       </c>
     </row>
     <row r="96">
@@ -3772,19 +3772,19 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>2345576</v>
+        <v>2327514</v>
       </c>
       <c r="F96" t="n">
-        <v>137.6093756543807</v>
+        <v>199.5253672495641</v>
       </c>
       <c r="G96" t="n">
-        <v>216.9516743341083</v>
+        <v>74.40115047168756</v>
       </c>
       <c r="H96" t="n">
-        <v>2.16</v>
+        <v>1.95</v>
       </c>
       <c r="I96" t="n">
-        <v>62759</v>
+        <v>62318</v>
       </c>
     </row>
     <row r="97">
@@ -3807,19 +3807,19 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>19911138</v>
+        <v>19904324</v>
       </c>
       <c r="F97" t="n">
-        <v>1826.770633618096</v>
+        <v>793.4029884087577</v>
       </c>
       <c r="G97" t="n">
-        <v>1551.964521068878</v>
+        <v>1824.82350642316</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="I97" t="n">
-        <v>117423</v>
+        <v>89173</v>
       </c>
     </row>
     <row r="98">
@@ -3839,22 +3839,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4202860</v>
+        <v>4265086</v>
       </c>
       <c r="E98" t="n">
-        <v>12105592</v>
+        <v>12284812</v>
       </c>
       <c r="F98" t="n">
-        <v>601.6690065178813</v>
+        <v>522.3013062126766</v>
       </c>
       <c r="G98" t="n">
-        <v>454.1303413373956</v>
+        <v>394.0531551227893</v>
       </c>
       <c r="H98" t="n">
-        <v>1.07</v>
+        <v>1.38</v>
       </c>
       <c r="I98" t="n">
-        <v>576198</v>
+        <v>594165</v>
       </c>
     </row>
     <row r="99">
@@ -3877,19 +3877,19 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>1642865</v>
+        <v>1629867</v>
       </c>
       <c r="F99" t="n">
-        <v>108.1312868337216</v>
+        <v>107.9408586849414</v>
       </c>
       <c r="G99" t="n">
-        <v>8.011492579057084</v>
+        <v>94.58464090515227</v>
       </c>
       <c r="H99" t="n">
-        <v>2.53</v>
+        <v>2.54</v>
       </c>
       <c r="I99" t="n">
-        <v>286435</v>
+        <v>276122</v>
       </c>
     </row>
     <row r="100">
@@ -3909,22 +3909,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>80186002</v>
+        <v>80125164</v>
       </c>
       <c r="E100" t="n">
-        <v>102042919</v>
+        <v>101965498</v>
       </c>
       <c r="F100" t="n">
-        <v>7123.200587659059</v>
+        <v>5323.895076463339</v>
       </c>
       <c r="G100" t="n">
-        <v>10040.54493291838</v>
+        <v>13248.45760017688</v>
       </c>
       <c r="H100" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="I100" t="n">
-        <v>6118259</v>
+        <v>6136188</v>
       </c>
     </row>
     <row r="101">
@@ -3944,22 +3944,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>22426225</v>
+        <v>22562335</v>
       </c>
       <c r="E101" t="n">
-        <v>29091944</v>
+        <v>29268510</v>
       </c>
       <c r="F101" t="n">
-        <v>6464.63918877068</v>
+        <v>7155.668472050671</v>
       </c>
       <c r="G101" t="n">
-        <v>6324.614082547997</v>
+        <v>6646.04708865455</v>
       </c>
       <c r="H101" t="n">
-        <v>0.39</v>
+        <v>0.11</v>
       </c>
       <c r="I101" t="n">
-        <v>157494</v>
+        <v>157131</v>
       </c>
     </row>
     <row r="102">
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>1676249</v>
+        <v>1667534</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>7.56</v>
+        <v>5.78</v>
       </c>
       <c r="I102" t="n">
-        <v>13162.1</v>
+        <v>13157.22</v>
       </c>
     </row>
     <row r="103">
@@ -4014,10 +4014,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>620466</v>
+        <v>623354</v>
       </c>
       <c r="E103" t="n">
-        <v>620466</v>
+        <v>623354</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -4026,10 +4026,10 @@
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>6.25</v>
+        <v>6.24</v>
       </c>
       <c r="I103" t="n">
-        <v>78084</v>
+        <v>78587</v>
       </c>
     </row>
     <row r="104">
@@ -4049,22 +4049,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>40572939</v>
+        <v>40611514</v>
       </c>
       <c r="E104" t="n">
-        <v>42413229</v>
+        <v>42453554</v>
       </c>
       <c r="F104" t="n">
-        <v>618.8152875107302</v>
+        <v>840.0590779356104</v>
       </c>
       <c r="G104" t="n">
-        <v>729.8352977350324</v>
+        <v>220.0845995703156</v>
       </c>
       <c r="H104" t="n">
-        <v>0.52</v>
+        <v>0.55</v>
       </c>
       <c r="I104" t="n">
-        <v>749116</v>
+        <v>719585</v>
       </c>
     </row>
     <row r="105">
@@ -4084,22 +4084,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>14210350</v>
+        <v>13809797</v>
       </c>
       <c r="E105" t="n">
-        <v>14210350</v>
+        <v>13809797</v>
       </c>
       <c r="F105" t="n">
-        <v>3656.164782142987</v>
+        <v>2435.899652564936</v>
       </c>
       <c r="G105" t="n">
-        <v>3282.527873516957</v>
+        <v>2517.14743543642</v>
       </c>
       <c r="H105" t="n">
-        <v>0.24</v>
+        <v>0.15</v>
       </c>
       <c r="I105" t="n">
-        <v>4666190</v>
+        <v>4711000</v>
       </c>
     </row>
     <row r="106">
@@ -4122,19 +4122,19 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>1189523</v>
+        <v>1189087</v>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>25.03784681793968</v>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>282.3018098413569</v>
       </c>
       <c r="H106" t="n">
-        <v>9.640000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I106" t="n">
-        <v>5428.37</v>
+        <v>5484.21</v>
       </c>
     </row>
     <row r="107">
@@ -4154,22 +4154,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>52825138</v>
+        <v>51700607</v>
       </c>
       <c r="E107" t="n">
-        <v>134575058</v>
+        <v>131710253</v>
       </c>
       <c r="F107" t="n">
-        <v>2398.282154388471</v>
+        <v>2168.527279028619</v>
       </c>
       <c r="G107" t="n">
-        <v>3873.828886241067</v>
+        <v>3951.969639402932</v>
       </c>
       <c r="H107" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="I107" t="n">
-        <v>2447780</v>
+        <v>2461710</v>
       </c>
     </row>
     <row r="108">
@@ -4189,22 +4189,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>13966283</v>
+        <v>13875245</v>
       </c>
       <c r="E108" t="n">
-        <v>67640940</v>
+        <v>67200028</v>
       </c>
       <c r="F108" t="n">
-        <v>6381.515485043315</v>
+        <v>6632.135888175038</v>
       </c>
       <c r="G108" t="n">
-        <v>9207.638723129803</v>
+        <v>10978.41465514328</v>
       </c>
       <c r="H108" t="n">
         <v>0.11</v>
       </c>
       <c r="I108" t="n">
-        <v>3619780</v>
+        <v>3600883</v>
       </c>
     </row>
     <row r="109">
@@ -4227,19 +4227,19 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>510124</v>
+        <v>515132</v>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>137.0451938557186</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>239.2005858409874</v>
       </c>
       <c r="H109" t="n">
-        <v>6.04</v>
+        <v>3.34</v>
       </c>
       <c r="I109" t="n">
-        <v>8401.719999999999</v>
+        <v>8928.32</v>
       </c>
     </row>
     <row r="110">
@@ -4259,22 +4259,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>4585532</v>
+        <v>4589267</v>
       </c>
       <c r="E110" t="n">
-        <v>10452517</v>
+        <v>10461031</v>
       </c>
       <c r="F110" t="n">
-        <v>1274.460927696594</v>
+        <v>1451.883071568793</v>
       </c>
       <c r="G110" t="n">
-        <v>1547.854184770878</v>
+        <v>2150.799950429844</v>
       </c>
       <c r="H110" t="n">
         <v>0.76</v>
       </c>
       <c r="I110" t="n">
-        <v>93261</v>
+        <v>91768</v>
       </c>
     </row>
     <row r="111">
@@ -4297,19 +4297,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>1900476956</v>
+        <v>1903191267</v>
       </c>
       <c r="F111" t="n">
-        <v>98931.87747347866</v>
+        <v>92178.95685786501</v>
       </c>
       <c r="G111" t="n">
-        <v>41116.40295384358</v>
+        <v>45461.20076743687</v>
       </c>
       <c r="H111" t="n">
-        <v>0.17</v>
+        <v>0.49</v>
       </c>
       <c r="I111" t="n">
-        <v>26396377</v>
+        <v>26316546</v>
       </c>
     </row>
     <row r="112">
@@ -4329,22 +4329,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>9359741</v>
+        <v>9371850</v>
       </c>
       <c r="E112" t="n">
-        <v>34078721</v>
+        <v>34122670</v>
       </c>
       <c r="F112" t="n">
-        <v>552.5454115012028</v>
+        <v>551.8580164730238</v>
       </c>
       <c r="G112" t="n">
-        <v>379.4628455479265</v>
+        <v>383.7074477171553</v>
       </c>
       <c r="H112" t="n">
-        <v>0.87</v>
+        <v>1.17</v>
       </c>
       <c r="I112" t="n">
-        <v>158063</v>
+        <v>156935</v>
       </c>
     </row>
     <row r="113">
@@ -4367,19 +4367,19 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>534262</v>
+        <v>534717</v>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>23.939727883683</v>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>46.75116875263794</v>
       </c>
       <c r="H113" t="n">
-        <v>4.19</v>
+        <v>3.68</v>
       </c>
       <c r="I113" t="n">
-        <v>1953.8</v>
+        <v>1132.08</v>
       </c>
     </row>
     <row r="114">
@@ -4399,22 +4399,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>12235820</v>
+        <v>12313774</v>
       </c>
       <c r="E114" t="n">
-        <v>17740173</v>
+        <v>17853195</v>
       </c>
       <c r="F114" t="n">
-        <v>1212.043201091661</v>
+        <v>2871.375071480325</v>
       </c>
       <c r="G114" t="n">
-        <v>2439.895457828962</v>
+        <v>2566.965171373748</v>
       </c>
       <c r="H114" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="I114" t="n">
-        <v>2075834</v>
+        <v>2063843</v>
       </c>
     </row>
     <row r="115">
@@ -4434,22 +4434,22 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>2070923</v>
+        <v>2050689</v>
       </c>
       <c r="E115" t="n">
-        <v>14850381</v>
+        <v>14705289</v>
       </c>
       <c r="F115" t="n">
-        <v>794.1688539767723</v>
+        <v>813.8517227793002</v>
       </c>
       <c r="G115" t="n">
-        <v>887.2465824570404</v>
+        <v>793.2420288369137</v>
       </c>
       <c r="H115" t="n">
-        <v>2.13</v>
+        <v>2.07</v>
       </c>
       <c r="I115" t="n">
-        <v>1928291</v>
+        <v>1931529</v>
       </c>
     </row>
     <row r="116">
@@ -4469,10 +4469,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2749092</v>
+        <v>2748823</v>
       </c>
       <c r="E116" t="n">
-        <v>5557179</v>
+        <v>5556635</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>4769.05</v>
+        <v>5704.07</v>
       </c>
     </row>
     <row r="117">
@@ -4502,22 +4502,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>202521829</v>
+        <v>200526505</v>
       </c>
       <c r="E117" t="n">
-        <v>1146803034</v>
+        <v>1135504281</v>
       </c>
       <c r="F117" t="n">
-        <v>435399.4855956304</v>
+        <v>319831.2595143942</v>
       </c>
       <c r="G117" t="n">
-        <v>377710.0904607036</v>
+        <v>457081.16640126</v>
       </c>
       <c r="H117" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I117" t="n">
-        <v>65010496</v>
+        <v>64866377</v>
       </c>
     </row>
     <row r="118">
@@ -4537,22 +4537,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>687729</v>
+        <v>683941</v>
       </c>
       <c r="E118" t="n">
-        <v>2280408</v>
+        <v>2267846</v>
       </c>
       <c r="F118" t="n">
-        <v>7141.068525446189</v>
+        <v>5254.17438203409</v>
       </c>
       <c r="G118" t="n">
-        <v>8254.327452060179</v>
+        <v>8134.726952943156</v>
       </c>
       <c r="H118" t="n">
         <v>0.89</v>
       </c>
       <c r="I118" t="n">
-        <v>25488</v>
+        <v>25292</v>
       </c>
     </row>
     <row r="119">
@@ -4572,22 +4572,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2787631</v>
+        <v>2784872</v>
       </c>
       <c r="E119" t="n">
-        <v>9869824</v>
+        <v>9860055</v>
       </c>
       <c r="F119" t="n">
-        <v>22.51408879235685</v>
+        <v>22.26818117682392</v>
       </c>
       <c r="G119" t="n">
-        <v>1556.813988675109</v>
+        <v>1769.134447845518</v>
       </c>
       <c r="H119" t="n">
-        <v>1.3</v>
+        <v>1.52</v>
       </c>
       <c r="I119" t="n">
-        <v>8273.24</v>
+        <v>8266.1</v>
       </c>
     </row>
     <row r="120">
@@ -4607,10 +4607,10 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1106040</v>
+        <v>1041797</v>
       </c>
       <c r="E120" t="n">
-        <v>1106040</v>
+        <v>1041797</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
@@ -4619,10 +4619,10 @@
         <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>12.05</v>
+        <v>4.53</v>
       </c>
       <c r="I120" t="n">
-        <v>11833.63</v>
+        <v>11518.83</v>
       </c>
     </row>
     <row r="121">
@@ -4642,22 +4642,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>498453</v>
+        <v>501707</v>
       </c>
       <c r="E121" t="n">
-        <v>1677722</v>
+        <v>1688674</v>
       </c>
       <c r="F121" t="n">
-        <v>414.8439145473426</v>
+        <v>468.3403265899162</v>
       </c>
       <c r="G121" t="n">
-        <v>633.2327193104968</v>
+        <v>425.7597907353124</v>
       </c>
       <c r="H121" t="n">
-        <v>0.71</v>
+        <v>0.59</v>
       </c>
       <c r="I121" t="n">
-        <v>213515</v>
+        <v>624654</v>
       </c>
     </row>
     <row r="122">
@@ -4677,10 +4677,10 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>448121</v>
+        <v>447704</v>
       </c>
       <c r="E122" t="n">
-        <v>831351</v>
+        <v>830577</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -4689,10 +4689,10 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>5.62</v>
+        <v>5.68</v>
       </c>
       <c r="I122" t="n">
-        <v>205949</v>
+        <v>202620</v>
       </c>
     </row>
     <row r="123">
@@ -4715,19 +4715,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>11804778</v>
+        <v>11778667</v>
       </c>
       <c r="F123" t="n">
-        <v>72.08498152159042</v>
+        <v>127.7638956353816</v>
       </c>
       <c r="G123" t="n">
-        <v>154.6826766194812</v>
+        <v>168.5209514564711</v>
       </c>
       <c r="H123" t="n">
-        <v>2.62</v>
+        <v>2.36</v>
       </c>
       <c r="I123" t="n">
-        <v>7987.76</v>
+        <v>8374.110000000001</v>
       </c>
     </row>
     <row r="124">
@@ -4750,19 +4750,19 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>1233634</v>
+        <v>1234096</v>
       </c>
       <c r="F124" t="n">
-        <v>65.88982570705912</v>
+        <v>65.62812804831026</v>
       </c>
       <c r="G124" t="n">
-        <v>4.020766805312022</v>
+        <v>4.021080623150492</v>
       </c>
       <c r="H124" t="n">
-        <v>2.82</v>
+        <v>2.35</v>
       </c>
       <c r="I124" t="n">
-        <v>48885</v>
+        <v>48883</v>
       </c>
     </row>
     <row r="125">
@@ -4782,22 +4782,22 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3367684</v>
+        <v>3466343</v>
       </c>
       <c r="E125" t="n">
-        <v>7864103</v>
+        <v>8094490</v>
       </c>
       <c r="F125" t="n">
-        <v>739.2686543253884</v>
+        <v>909.4971759981788</v>
       </c>
       <c r="G125" t="n">
-        <v>1412.634688219316</v>
+        <v>1256.926318052808</v>
       </c>
       <c r="H125" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="I125" t="n">
-        <v>723133</v>
+        <v>795327</v>
       </c>
     </row>
     <row r="126">
@@ -4817,22 +4817,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>252180</v>
+        <v>251627</v>
       </c>
       <c r="E126" t="n">
-        <v>2225674</v>
+        <v>2220799</v>
       </c>
       <c r="F126" t="n">
-        <v>47.48758783595992</v>
+        <v>96.21275210432279</v>
       </c>
       <c r="G126" t="n">
-        <v>1.251907573213055</v>
+        <v>1.252001176633406</v>
       </c>
       <c r="H126" t="n">
-        <v>3.68</v>
+        <v>2.22</v>
       </c>
       <c r="I126" t="n">
-        <v>72086</v>
+        <v>72608</v>
       </c>
     </row>
     <row r="127">
@@ -4855,19 +4855,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>645316</v>
+        <v>644218</v>
       </c>
       <c r="F127" t="n">
-        <v>590.0471312080529</v>
+        <v>590.0902366001186</v>
       </c>
       <c r="G127" t="n">
-        <v>472.8617731439478</v>
+        <v>472.8963176592013</v>
       </c>
       <c r="H127" t="n">
         <v>1.9</v>
       </c>
       <c r="I127" t="n">
-        <v>5419.92</v>
+        <v>5406.18</v>
       </c>
     </row>
     <row r="128">
@@ -4887,22 +4887,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>4913257</v>
+        <v>4912405</v>
       </c>
       <c r="E128" t="n">
-        <v>17360822</v>
+        <v>17357813</v>
       </c>
       <c r="F128" t="n">
-        <v>1785.845351153707</v>
+        <v>1764.05344431972</v>
       </c>
       <c r="G128" t="n">
-        <v>1867.870519180424</v>
+        <v>1893.391836356643</v>
       </c>
       <c r="H128" t="n">
-        <v>0.63</v>
+        <v>0.75</v>
       </c>
       <c r="I128" t="n">
-        <v>104808</v>
+        <v>104749</v>
       </c>
     </row>
     <row r="129">
@@ -4925,19 +4925,19 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2249911</v>
+        <v>2249867</v>
       </c>
       <c r="F129" t="n">
-        <v>166.4457182467443</v>
+        <v>166.4581631658932</v>
       </c>
       <c r="G129" t="n">
-        <v>43.9502915992605</v>
+        <v>43.95357770256965</v>
       </c>
       <c r="H129" t="n">
         <v>0.09</v>
       </c>
       <c r="I129" t="n">
-        <v>8765.969999999999</v>
+        <v>8765.799999999999</v>
       </c>
     </row>
     <row r="130">
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>2549608</v>
+        <v>2519258</v>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
@@ -4970,7 +4970,7 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>2483.57</v>
+        <v>2475.09</v>
       </c>
     </row>
     <row r="131">
@@ -4990,22 +4990,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>80923</v>
+        <v>81115</v>
       </c>
       <c r="E131" t="n">
-        <v>80923</v>
+        <v>81115</v>
       </c>
       <c r="F131" t="n">
-        <v>40.50220154892695</v>
+        <v>40.50536271543044</v>
       </c>
       <c r="G131" t="n">
-        <v>6.795285053533184</v>
+        <v>6.795815420443413</v>
       </c>
       <c r="H131" t="n">
         <v>0.21</v>
       </c>
       <c r="I131" t="n">
-        <v>20470</v>
+        <v>21095</v>
       </c>
     </row>
     <row r="132">
@@ -5028,19 +5028,19 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>4384917</v>
+        <v>4378340</v>
       </c>
       <c r="F132" t="n">
-        <v>330.8862000370965</v>
+        <v>353.2443975486827</v>
       </c>
       <c r="G132" t="n">
-        <v>450.3695354301516</v>
+        <v>367.7040560033503</v>
       </c>
       <c r="H132" t="n">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
       <c r="I132" t="n">
-        <v>275236</v>
+        <v>272437</v>
       </c>
     </row>
     <row r="133">
@@ -5060,22 +5060,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2108030</v>
+        <v>2092190</v>
       </c>
       <c r="E133" t="n">
-        <v>8608648</v>
+        <v>8543961</v>
       </c>
       <c r="F133" t="n">
-        <v>2.3155214103604</v>
+        <v>385.097049611136</v>
       </c>
       <c r="G133" t="n">
-        <v>500.5633505415142</v>
+        <v>490.651495289518</v>
       </c>
       <c r="H133" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I133" t="n">
-        <v>564872</v>
+        <v>90658</v>
       </c>
     </row>
     <row r="134">
@@ -5095,22 +5095,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>7537959</v>
+        <v>7413489</v>
       </c>
       <c r="E134" t="n">
-        <v>7593991</v>
+        <v>7468596</v>
       </c>
       <c r="F134" t="n">
-        <v>268028.4035379372</v>
+        <v>258389.2996837707</v>
       </c>
       <c r="G134" t="n">
-        <v>366664.899043136</v>
+        <v>302499.9209131895</v>
       </c>
       <c r="H134" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="I134" t="n">
-        <v>4862262</v>
+        <v>5027472</v>
       </c>
     </row>
     <row r="135">
@@ -5130,22 +5130,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>13691190</v>
+        <v>13609452</v>
       </c>
       <c r="E135" t="n">
-        <v>13737782</v>
+        <v>13655766</v>
       </c>
       <c r="F135" t="n">
-        <v>14908.79628600981</v>
+        <v>15715.74918819233</v>
       </c>
       <c r="G135" t="n">
-        <v>15469.86249491912</v>
+        <v>13833.85128431253</v>
       </c>
       <c r="H135" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="I135" t="n">
-        <v>5770339</v>
+        <v>5927118</v>
       </c>
     </row>
     <row r="136">
@@ -5165,22 +5165,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>42883456</v>
+        <v>42874897</v>
       </c>
       <c r="E136" t="n">
-        <v>72806132</v>
+        <v>72791601</v>
       </c>
       <c r="F136" t="n">
-        <v>983.6292858547168</v>
+        <v>1039.436921105841</v>
       </c>
       <c r="G136" t="n">
-        <v>887.3542951393686</v>
+        <v>887.2450625922946</v>
       </c>
       <c r="H136" t="n">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="I136" t="n">
-        <v>1076009</v>
+        <v>1087955</v>
       </c>
     </row>
     <row r="137">
@@ -5200,22 +5200,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>23700770</v>
+        <v>23560251</v>
       </c>
       <c r="E137" t="n">
-        <v>71042412</v>
+        <v>70621210</v>
       </c>
       <c r="F137" t="n">
-        <v>82489.41621666324</v>
+        <v>78643.3145161218</v>
       </c>
       <c r="G137" t="n">
-        <v>76138.17817336078</v>
+        <v>86857.63489931372</v>
       </c>
       <c r="H137" t="n">
-        <v>0.31</v>
+        <v>0.09</v>
       </c>
       <c r="I137" t="n">
-        <v>2860931</v>
+        <v>2924086</v>
       </c>
     </row>
     <row r="138">
@@ -5235,22 +5235,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>101587000</v>
+        <v>101166581</v>
       </c>
       <c r="E138" t="n">
-        <v>107996162</v>
+        <v>107549218</v>
       </c>
       <c r="F138" t="n">
-        <v>9905.205566686715</v>
+        <v>6594.379227337163</v>
       </c>
       <c r="G138" t="n">
-        <v>14104.65635891887</v>
+        <v>12512.77364209692</v>
       </c>
       <c r="H138" t="n">
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
       <c r="I138" t="n">
-        <v>795413</v>
+        <v>390951</v>
       </c>
     </row>
     <row r="139">
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1160859</v>
+        <v>1161390</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -5285,7 +5285,7 @@
         <v>5.44</v>
       </c>
       <c r="I139" t="n">
-        <v>136.36</v>
+        <v>136.35</v>
       </c>
     </row>
     <row r="140">
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>258615</v>
+        <v>258610</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -5317,10 +5317,10 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>8.050000000000001</v>
+        <v>7.68</v>
       </c>
       <c r="I140" t="n">
-        <v>465.36</v>
+        <v>465.35</v>
       </c>
     </row>
     <row r="141">
@@ -5336,10 +5336,10 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>97068</v>
+        <v>97009</v>
       </c>
       <c r="E141" t="n">
-        <v>275360</v>
+        <v>275193</v>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
@@ -5349,7 +5349,7 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>40.72</v>
+        <v>40.73</v>
       </c>
     </row>
     <row r="142">
@@ -5369,22 +5369,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>47344773</v>
+        <v>47474121</v>
       </c>
       <c r="E142" t="n">
-        <v>203956104</v>
+        <v>204513321</v>
       </c>
       <c r="F142" t="n">
-        <v>78240.22438651852</v>
+        <v>64090.05722308002</v>
       </c>
       <c r="G142" t="n">
-        <v>62386.486109837</v>
+        <v>73991.50066176329</v>
       </c>
       <c r="H142" t="n">
         <v>0.1</v>
       </c>
       <c r="I142" t="n">
-        <v>8774637</v>
+        <v>8521112</v>
       </c>
     </row>
     <row r="143">
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>280331</v>
+        <v>280294</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -5416,10 +5416,10 @@
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>9.4</v>
+        <v>8.81</v>
       </c>
       <c r="I143" t="n">
-        <v>208342</v>
+        <v>207900</v>
       </c>
     </row>
     <row r="144">
@@ -5442,19 +5442,19 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>9481766</v>
+        <v>9443387</v>
       </c>
       <c r="F144" t="n">
-        <v>1022.853892943113</v>
+        <v>1072.753605856996</v>
       </c>
       <c r="G144" t="n">
-        <v>573.7946065899299</v>
+        <v>610.7141903890931</v>
       </c>
       <c r="H144" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="I144" t="n">
-        <v>121719</v>
+        <v>121475</v>
       </c>
     </row>
     <row r="145">
@@ -5474,22 +5474,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1176186</v>
+        <v>1174723</v>
       </c>
       <c r="E145" t="n">
-        <v>7841241</v>
+        <v>7831487</v>
       </c>
       <c r="F145" t="n">
-        <v>85.49686920689469</v>
+        <v>263.5332982103284</v>
       </c>
       <c r="G145" t="n">
-        <v>101.2767484695905</v>
+        <v>105.0366187436806</v>
       </c>
       <c r="H145" t="n">
-        <v>0.53</v>
+        <v>1.01</v>
       </c>
       <c r="I145" t="n">
-        <v>4911.39</v>
+        <v>4974.88</v>
       </c>
     </row>
     <row r="146">
@@ -5512,19 +5512,19 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>7922609</v>
+        <v>7803017</v>
       </c>
       <c r="F146" t="n">
-        <v>345.3362713388775</v>
+        <v>139.6082369044469</v>
       </c>
       <c r="G146" t="n">
-        <v>299.4313711795784</v>
+        <v>207.7210984546066</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="I146" t="n">
-        <v>6319764</v>
+        <v>6434246</v>
       </c>
     </row>
     <row r="147">
@@ -5544,22 +5544,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>670059</v>
+        <v>670117</v>
       </c>
       <c r="E147" t="n">
-        <v>2419319</v>
+        <v>2419518</v>
       </c>
       <c r="F147" t="n">
-        <v>27.28783716920645</v>
+        <v>28.9254280536037</v>
       </c>
       <c r="G147" t="n">
-        <v>60.54094100543312</v>
+        <v>273.415077951793</v>
       </c>
       <c r="H147" t="n">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
       <c r="I147" t="n">
-        <v>408904</v>
+        <v>409186</v>
       </c>
     </row>
     <row r="148">
@@ -5582,19 +5582,19 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>1640511</v>
+        <v>1645018</v>
       </c>
       <c r="F148" t="n">
-        <v>212.1013223790709</v>
+        <v>213.0027672837723</v>
       </c>
       <c r="G148" t="n">
-        <v>226.4319350010345</v>
+        <v>85.66798477923024</v>
       </c>
       <c r="H148" t="n">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="I148" t="n">
-        <v>90916</v>
+        <v>91304</v>
       </c>
     </row>
     <row r="149">
@@ -5617,19 +5617,19 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>67227</v>
+        <v>69311</v>
       </c>
       <c r="F149" t="n">
-        <v>11.0055623694688</v>
+        <v>65.46975738469419</v>
       </c>
       <c r="G149" t="n">
-        <v>320.7444011997238</v>
+        <v>20.71564302477511</v>
       </c>
       <c r="H149" t="n">
-        <v>3.03</v>
+        <v>2.94</v>
       </c>
       <c r="I149" t="n">
-        <v>924.92</v>
+        <v>963.61</v>
       </c>
     </row>
     <row r="150">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>12980393</v>
+        <v>12951221</v>
       </c>
       <c r="E150" t="n">
-        <v>12980393</v>
+        <v>12951221</v>
       </c>
       <c r="F150" t="n">
-        <v>921.8563063607976</v>
+        <v>670.0614639798065</v>
       </c>
       <c r="G150" t="n">
-        <v>640.4292644835931</v>
+        <v>1211.500809576711</v>
       </c>
       <c r="H150" t="n">
-        <v>0.62</v>
+        <v>0.54</v>
       </c>
       <c r="I150" t="n">
-        <v>3432863</v>
+        <v>3432794</v>
       </c>
     </row>
     <row r="151">
@@ -5684,22 +5684,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1691777</v>
+        <v>1723487</v>
       </c>
       <c r="E151" t="n">
-        <v>6147401</v>
+        <v>6262544</v>
       </c>
       <c r="F151" t="n">
-        <v>42.12100619528992</v>
+        <v>52.46264471534889</v>
       </c>
       <c r="G151" t="n">
-        <v>145.0022942065324</v>
+        <v>40.48462687386034</v>
       </c>
       <c r="H151" t="n">
-        <v>2.7</v>
+        <v>1.65</v>
       </c>
       <c r="I151" t="n">
-        <v>128671</v>
+        <v>129116</v>
       </c>
     </row>
     <row r="152">
@@ -5719,10 +5719,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1250400</v>
+        <v>1243264</v>
       </c>
       <c r="E152" t="n">
-        <v>1250400</v>
+        <v>1243264</v>
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>648.74</v>
+        <v>645.03</v>
       </c>
     </row>
     <row r="153">
@@ -5752,22 +5752,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>23599415</v>
+        <v>23585587</v>
       </c>
       <c r="E153" t="n">
-        <v>27213264</v>
+        <v>27197318</v>
       </c>
       <c r="F153" t="n">
-        <v>385.9368468771459</v>
+        <v>476.8099073851876</v>
       </c>
       <c r="G153" t="n">
-        <v>663.6674850945507</v>
+        <v>685.8649122581638</v>
       </c>
       <c r="H153" t="n">
-        <v>0.29</v>
+        <v>0.04</v>
       </c>
       <c r="I153" t="n">
-        <v>763837</v>
+        <v>762022</v>
       </c>
     </row>
     <row r="154">
@@ -5787,22 +5787,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2450361</v>
+        <v>2449677</v>
       </c>
       <c r="E154" t="n">
-        <v>18438414</v>
+        <v>18433270</v>
       </c>
       <c r="F154" t="n">
-        <v>4503.5369628543</v>
+        <v>5299.315195406481</v>
       </c>
       <c r="G154" t="n">
-        <v>3369.859149354275</v>
+        <v>3795.694673353719</v>
       </c>
       <c r="H154" t="n">
         <v>0.05</v>
       </c>
       <c r="I154" t="n">
-        <v>161869</v>
+        <v>161813</v>
       </c>
     </row>
     <row r="155">
@@ -5822,22 +5822,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>20909372</v>
+        <v>20890811</v>
       </c>
       <c r="E155" t="n">
-        <v>83637487</v>
+        <v>83563245</v>
       </c>
       <c r="F155" t="n">
-        <v>10483.90018720536</v>
+        <v>9476.25028876601</v>
       </c>
       <c r="G155" t="n">
-        <v>17623.235918746</v>
+        <v>15249.18130420776</v>
       </c>
       <c r="H155" t="n">
         <v>0.48</v>
       </c>
       <c r="I155" t="n">
-        <v>5404465</v>
+        <v>4637942</v>
       </c>
     </row>
     <row r="156">
@@ -5857,22 +5857,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>301954043</v>
+        <v>294759352</v>
       </c>
       <c r="E156" t="n">
-        <v>301954043</v>
+        <v>294759352</v>
       </c>
       <c r="F156" t="n">
-        <v>338431.3206082401</v>
+        <v>287413.095053688</v>
       </c>
       <c r="G156" t="n">
-        <v>304178.5257507986</v>
+        <v>408701.9494840133</v>
       </c>
       <c r="H156" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="I156" t="n">
-        <v>12829940</v>
+        <v>12684871</v>
       </c>
     </row>
     <row r="157">
@@ -5892,22 +5892,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>12805918</v>
+        <v>12860885</v>
       </c>
       <c r="E157" t="n">
-        <v>40513767</v>
+        <v>40687663</v>
       </c>
       <c r="F157" t="n">
-        <v>9907.505357024882</v>
+        <v>10121.72539075935</v>
       </c>
       <c r="G157" t="n">
-        <v>17419.46043785082</v>
+        <v>13167.3920766993</v>
       </c>
       <c r="H157" t="n">
-        <v>0.34</v>
+        <v>0.27</v>
       </c>
       <c r="I157" t="n">
-        <v>1398500</v>
+        <v>1384569</v>
       </c>
     </row>
     <row r="158">
@@ -5927,10 +5927,10 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1084929</v>
+        <v>1084705</v>
       </c>
       <c r="E158" t="n">
-        <v>2471033</v>
+        <v>2470523</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -5942,7 +5942,7 @@
         <v>6.77</v>
       </c>
       <c r="I158" t="n">
-        <v>1741.96</v>
+        <v>1741.4</v>
       </c>
     </row>
     <row r="159">
@@ -5962,22 +5962,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>17245158</v>
+        <v>17195898</v>
       </c>
       <c r="E159" t="n">
-        <v>17245158</v>
+        <v>17195898</v>
       </c>
       <c r="F159" t="n">
-        <v>15529.83975803765</v>
+        <v>14870.04716239826</v>
       </c>
       <c r="G159" t="n">
-        <v>22150.76544803114</v>
+        <v>18008.53785222218</v>
       </c>
       <c r="H159" t="n">
         <v>0.06</v>
       </c>
       <c r="I159" t="n">
-        <v>3514253</v>
+        <v>3509390</v>
       </c>
     </row>
     <row r="160">
@@ -5997,10 +5997,10 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>4863174</v>
+        <v>4889165</v>
       </c>
       <c r="E160" t="n">
-        <v>8953624</v>
+        <v>9001475</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -6009,10 +6009,10 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>10</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="I160" t="n">
-        <v>12.49</v>
+        <v>20.53</v>
       </c>
     </row>
     <row r="161">
@@ -6032,10 +6032,10 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>116191</v>
+        <v>116787</v>
       </c>
       <c r="E161" t="n">
-        <v>139821</v>
+        <v>140473</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -6044,10 +6044,10 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>10.47</v>
+        <v>10.57</v>
       </c>
       <c r="I161" t="n">
-        <v>4051.33</v>
+        <v>3756.92</v>
       </c>
     </row>
     <row r="162">
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>20699333</v>
+        <v>20139819</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -6079,10 +6079,10 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>4.87</v>
+        <v>10.1</v>
       </c>
       <c r="I162" t="n">
-        <v>1531.58</v>
+        <v>1533.83</v>
       </c>
     </row>
     <row r="163">
@@ -6102,22 +6102,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>437098</v>
+        <v>436893</v>
       </c>
       <c r="E163" t="n">
-        <v>550580</v>
+        <v>550322</v>
       </c>
       <c r="F163" t="n">
-        <v>151.2602133288692</v>
+        <v>180.3068003300732</v>
       </c>
       <c r="G163" t="n">
-        <v>121.1924951320137</v>
+        <v>165.6811429139893</v>
       </c>
       <c r="H163" t="n">
-        <v>1.26</v>
+        <v>0.36</v>
       </c>
       <c r="I163" t="n">
-        <v>190432</v>
+        <v>189790</v>
       </c>
     </row>
     <row r="164">
@@ -6140,19 +6140,19 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>105143</v>
+        <v>105117</v>
       </c>
       <c r="F164" t="n">
-        <v>128.2713711489999</v>
+        <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>1.214528877264184</v>
+        <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>1.97</v>
+        <v>4.99</v>
       </c>
       <c r="I164" t="n">
-        <v>3983.97</v>
+        <v>3983.6</v>
       </c>
     </row>
     <row r="165">
@@ -6172,22 +6172,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>12488018</v>
+        <v>12553724</v>
       </c>
       <c r="E165" t="n">
-        <v>19032563</v>
+        <v>19132703</v>
       </c>
       <c r="F165" t="n">
-        <v>1392.416711488669</v>
+        <v>1027.808552909525</v>
       </c>
       <c r="G165" t="n">
-        <v>1977.504887693955</v>
+        <v>3625.379212044455</v>
       </c>
       <c r="H165" t="n">
-        <v>0.47</v>
+        <v>1.38</v>
       </c>
       <c r="I165" t="n">
-        <v>696992</v>
+        <v>697523</v>
       </c>
     </row>
     <row r="166">
@@ -6207,22 +6207,22 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>304921170</v>
+        <v>305870016</v>
       </c>
       <c r="E166" t="n">
-        <v>304921170</v>
+        <v>305870016</v>
       </c>
       <c r="F166" t="n">
-        <v>338545.5154667085</v>
+        <v>308695.9050641268</v>
       </c>
       <c r="G166" t="n">
-        <v>333439.3885518259</v>
+        <v>363661.2778438054</v>
       </c>
       <c r="H166" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I166" t="n">
-        <v>50304424</v>
+        <v>50492353</v>
       </c>
     </row>
     <row r="167">
@@ -6242,22 +6242,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>10252947</v>
+        <v>10373498</v>
       </c>
       <c r="E167" t="n">
-        <v>29109828</v>
+        <v>29452091</v>
       </c>
       <c r="F167" t="n">
-        <v>950.7972746920891</v>
+        <v>676.5073880215238</v>
       </c>
       <c r="G167" t="n">
-        <v>778.9949063911732</v>
+        <v>564.8940563800576</v>
       </c>
       <c r="H167" t="n">
-        <v>1.7</v>
+        <v>1.35</v>
       </c>
       <c r="I167" t="n">
-        <v>127799</v>
+        <v>133047</v>
       </c>
     </row>
     <row r="168">
@@ -6280,19 +6280,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>11908912</v>
+        <v>11877773</v>
       </c>
       <c r="F168" t="n">
-        <v>290.9877438354326</v>
+        <v>121.1723731349837</v>
       </c>
       <c r="G168" t="n">
-        <v>728.7016546721609</v>
+        <v>2445.332542515987</v>
       </c>
       <c r="H168" t="n">
-        <v>0.84</v>
+        <v>0.76</v>
       </c>
       <c r="I168" t="n">
-        <v>107730</v>
+        <v>107871</v>
       </c>
     </row>
     <row r="169">
@@ -6312,22 +6312,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>4224834</v>
+        <v>4266158</v>
       </c>
       <c r="E169" t="n">
-        <v>28867994</v>
+        <v>29150355</v>
       </c>
       <c r="F169" t="n">
-        <v>1942.276101920524</v>
+        <v>1608.249499839848</v>
       </c>
       <c r="G169" t="n">
-        <v>2073.002440240494</v>
+        <v>1465.687223391035</v>
       </c>
       <c r="H169" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="I169" t="n">
-        <v>2581297</v>
+        <v>2598460</v>
       </c>
     </row>
     <row r="170">
@@ -6347,22 +6347,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2786344</v>
+        <v>2834569</v>
       </c>
       <c r="E170" t="n">
-        <v>4134537</v>
+        <v>4205743</v>
       </c>
       <c r="F170" t="n">
-        <v>333.919984602887</v>
+        <v>917.4959637156004</v>
       </c>
       <c r="G170" t="n">
-        <v>1086.043253594993</v>
+        <v>345.9187131594049</v>
       </c>
       <c r="H170" t="n">
-        <v>1.21</v>
+        <v>2.13</v>
       </c>
       <c r="I170" t="n">
-        <v>227248</v>
+        <v>228214</v>
       </c>
     </row>
     <row r="171">
@@ -6382,22 +6382,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>90760527</v>
+        <v>89712868</v>
       </c>
       <c r="E171" t="n">
-        <v>523001303</v>
+        <v>516964243</v>
       </c>
       <c r="F171" t="n">
-        <v>370675.4102698127</v>
+        <v>420448.2433611235</v>
       </c>
       <c r="G171" t="n">
-        <v>327759.1971134419</v>
+        <v>277243.7393013771</v>
       </c>
       <c r="H171" t="n">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="I171" t="n">
-        <v>16230697</v>
+        <v>16156727</v>
       </c>
     </row>
     <row r="172">
@@ -6417,22 +6417,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>13789739</v>
+        <v>13721315</v>
       </c>
       <c r="E172" t="n">
-        <v>13789739</v>
+        <v>13721315</v>
       </c>
       <c r="F172" t="n">
-        <v>4726.362433660145</v>
+        <v>5142.433807297485</v>
       </c>
       <c r="G172" t="n">
-        <v>4540.467440424829</v>
+        <v>6173.344315385761</v>
       </c>
       <c r="H172" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="I172" t="n">
-        <v>593770</v>
+        <v>593446</v>
       </c>
     </row>
     <row r="173">
@@ -6452,22 +6452,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>6078902</v>
+        <v>6148033</v>
       </c>
       <c r="E173" t="n">
-        <v>17268414</v>
+        <v>17464797</v>
       </c>
       <c r="F173" t="n">
-        <v>572.8807107861549</v>
+        <v>101.3404245553443</v>
       </c>
       <c r="G173" t="n">
-        <v>11729.32109789052</v>
+        <v>10716.27851660778</v>
       </c>
       <c r="H173" t="n">
-        <v>0.06</v>
+        <v>1.97</v>
       </c>
       <c r="I173" t="n">
-        <v>216869</v>
+        <v>217135</v>
       </c>
     </row>
     <row r="174">
@@ -6487,22 +6487,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>18841398</v>
+        <v>18674678</v>
       </c>
       <c r="E174" t="n">
-        <v>18841398</v>
+        <v>18674678</v>
       </c>
       <c r="F174" t="n">
-        <v>1.062612775718339</v>
+        <v>0</v>
       </c>
       <c r="G174" t="n">
-        <v>3.867835969802287</v>
+        <v>0</v>
       </c>
       <c r="H174" t="n">
-        <v>2.14</v>
+        <v>3.98</v>
       </c>
       <c r="I174" t="n">
-        <v>119470</v>
+        <v>67248</v>
       </c>
     </row>
     <row r="175">
@@ -6525,19 +6525,19 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>1323989</v>
+        <v>1331518</v>
       </c>
       <c r="F175" t="n">
-        <v>533.056523939935</v>
+        <v>124.8678229805564</v>
       </c>
       <c r="G175" t="n">
-        <v>489.2855884896042</v>
+        <v>1293.040740187191</v>
       </c>
       <c r="H175" t="n">
-        <v>0.08</v>
+        <v>0.3</v>
       </c>
       <c r="I175" t="n">
-        <v>20569</v>
+        <v>4213.3</v>
       </c>
     </row>
     <row r="176">
@@ -6557,10 +6557,10 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>129657</v>
+        <v>128786</v>
       </c>
       <c r="E176" t="n">
-        <v>282262</v>
+        <v>280366</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -6572,7 +6572,7 @@
         <v>7.67</v>
       </c>
       <c r="I176" t="n">
-        <v>47814</v>
+        <v>47878</v>
       </c>
     </row>
     <row r="177">
@@ -6595,19 +6595,19 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>2773464</v>
+        <v>3458284</v>
       </c>
       <c r="F177" t="n">
-        <v>216.7802791749779</v>
+        <v>414.8703725254881</v>
       </c>
       <c r="G177" t="n">
-        <v>626.1354527714882</v>
+        <v>554.3372386942438</v>
       </c>
       <c r="H177" t="n">
-        <v>1.43</v>
+        <v>1.7</v>
       </c>
       <c r="I177" t="n">
-        <v>227530</v>
+        <v>294037</v>
       </c>
     </row>
     <row r="178">
@@ -6627,22 +6627,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>250500699</v>
+        <v>249258397</v>
       </c>
       <c r="E178" t="n">
-        <v>250503188</v>
+        <v>249260873</v>
       </c>
       <c r="F178" t="n">
-        <v>49039.87906904172</v>
+        <v>48768.52346170842</v>
       </c>
       <c r="G178" t="n">
-        <v>67919.67912065212</v>
+        <v>54639.81481050845</v>
       </c>
       <c r="H178" t="n">
-        <v>0.18</v>
+        <v>0.36</v>
       </c>
       <c r="I178" t="n">
-        <v>2744021</v>
+        <v>2774619</v>
       </c>
     </row>
     <row r="179">
@@ -6662,22 +6662,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>9292729</v>
+        <v>9263567</v>
       </c>
       <c r="E179" t="n">
-        <v>9292729</v>
+        <v>9263567</v>
       </c>
       <c r="F179" t="n">
-        <v>1956.423861290124</v>
+        <v>1234.127987146343</v>
       </c>
       <c r="G179" t="n">
-        <v>417.263451969727</v>
+        <v>297.8471840097562</v>
       </c>
       <c r="H179" t="n">
-        <v>0.64</v>
+        <v>0.02</v>
       </c>
       <c r="I179" t="n">
-        <v>2069798</v>
+        <v>2054328</v>
       </c>
     </row>
     <row r="180">
@@ -6697,22 +6697,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>196698</v>
+        <v>179477</v>
       </c>
       <c r="E180" t="n">
-        <v>1518902</v>
+        <v>1385921</v>
       </c>
       <c r="F180" t="n">
-        <v>19.73540530517032</v>
+        <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>23.62133533023346</v>
+        <v>0</v>
       </c>
       <c r="H180" t="n">
-        <v>2.74</v>
+        <v>4.29</v>
       </c>
       <c r="I180" t="n">
-        <v>94335</v>
+        <v>122375</v>
       </c>
     </row>
     <row r="181">
@@ -6732,22 +6732,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>30601285</v>
+        <v>30361862</v>
       </c>
       <c r="E181" t="n">
-        <v>137014508</v>
+        <v>135942510</v>
       </c>
       <c r="F181" t="n">
-        <v>73777.52102660475</v>
+        <v>67162.12050979807</v>
       </c>
       <c r="G181" t="n">
-        <v>88635.26008815743</v>
+        <v>96701.22519398102</v>
       </c>
       <c r="H181" t="n">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="I181" t="n">
-        <v>8599482</v>
+        <v>8679147</v>
       </c>
     </row>
     <row r="182">
@@ -6770,19 +6770,19 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>1457244</v>
+        <v>1456469</v>
       </c>
       <c r="F182" t="n">
-        <v>261.8861504969166</v>
+        <v>195.7145811929398</v>
       </c>
       <c r="G182" t="n">
-        <v>4733.161905138842</v>
+        <v>4870.617369369542</v>
       </c>
       <c r="H182" t="n">
-        <v>1.89</v>
+        <v>2.31</v>
       </c>
       <c r="I182" t="n">
-        <v>57807</v>
+        <v>26366</v>
       </c>
     </row>
     <row r="183">
@@ -6802,22 +6802,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>3115151</v>
+        <v>3059686</v>
       </c>
       <c r="E183" t="n">
-        <v>3115151</v>
+        <v>3059686</v>
       </c>
       <c r="F183" t="n">
-        <v>189.6032380604547</v>
+        <v>219.2341498191423</v>
       </c>
       <c r="G183" t="n">
-        <v>605.77775215037</v>
+        <v>995.5370761704389</v>
       </c>
       <c r="H183" t="n">
-        <v>1.08</v>
+        <v>1.56</v>
       </c>
       <c r="I183" t="n">
-        <v>442864</v>
+        <v>426908</v>
       </c>
     </row>
     <row r="184">
@@ -6837,22 +6837,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>581402</v>
+        <v>576951</v>
       </c>
       <c r="E184" t="n">
-        <v>581402</v>
+        <v>576951</v>
       </c>
       <c r="F184" t="n">
-        <v>13.56641742873756</v>
+        <v>14.61916972109643</v>
       </c>
       <c r="G184" t="n">
-        <v>25.09855786231228</v>
+        <v>25.11599034478114</v>
       </c>
       <c r="H184" t="n">
         <v>1.75</v>
       </c>
       <c r="I184" t="n">
-        <v>1400826</v>
+        <v>1380042</v>
       </c>
     </row>
     <row r="185">
@@ -6872,22 +6872,22 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>13559561</v>
+        <v>13414504</v>
       </c>
       <c r="E185" t="n">
-        <v>17263486</v>
+        <v>17078806</v>
       </c>
       <c r="F185" t="n">
-        <v>230.6865179008355</v>
+        <v>726.2136310903431</v>
       </c>
       <c r="G185" t="n">
-        <v>2475.360491409784</v>
+        <v>796.5557525913647</v>
       </c>
       <c r="H185" t="n">
-        <v>0.97</v>
+        <v>0.75</v>
       </c>
       <c r="I185" t="n">
-        <v>813284</v>
+        <v>809637</v>
       </c>
     </row>
     <row r="186">
@@ -6907,22 +6907,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1863099</v>
+        <v>1867638</v>
       </c>
       <c r="E186" t="n">
-        <v>1863099</v>
+        <v>1867638</v>
       </c>
       <c r="F186" t="n">
-        <v>3.912158549892506</v>
+        <v>0</v>
       </c>
       <c r="G186" t="n">
-        <v>1.752771902143818</v>
+        <v>0</v>
       </c>
       <c r="H186" t="n">
-        <v>3.42</v>
+        <v>4.44</v>
       </c>
       <c r="I186" t="n">
-        <v>2912.16</v>
+        <v>2901.16</v>
       </c>
     </row>
     <row r="187">
@@ -6942,22 +6942,22 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>48222510</v>
+        <v>48215854</v>
       </c>
       <c r="E187" t="n">
-        <v>312710143</v>
+        <v>312666979</v>
       </c>
       <c r="F187" t="n">
-        <v>254570.2397374875</v>
+        <v>124270.4354168582</v>
       </c>
       <c r="G187" t="n">
-        <v>187330.6220870834</v>
+        <v>185947.7908564528</v>
       </c>
       <c r="H187" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="I187" t="n">
-        <v>16730063</v>
+        <v>17115257</v>
       </c>
     </row>
     <row r="188">
@@ -6980,19 +6980,19 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>8651383</v>
+        <v>8537228</v>
       </c>
       <c r="F188" t="n">
-        <v>126.8310676248301</v>
+        <v>98.62442648348186</v>
       </c>
       <c r="G188" t="n">
-        <v>102.6544439294722</v>
+        <v>777.8106998000167</v>
       </c>
       <c r="H188" t="n">
-        <v>3.61</v>
+        <v>1.28</v>
       </c>
       <c r="I188" t="n">
-        <v>301794</v>
+        <v>298940</v>
       </c>
     </row>
     <row r="189">
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>7157216</v>
+        <v>7065818</v>
       </c>
       <c r="E189" t="n">
-        <v>7167468</v>
+        <v>7075914</v>
       </c>
       <c r="F189" t="n">
-        <v>1022.092579603267</v>
+        <v>166.0910023935471</v>
       </c>
       <c r="G189" t="n">
-        <v>74.91019611619703</v>
+        <v>468.8933709040561</v>
       </c>
       <c r="H189" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="I189" t="n">
-        <v>824831</v>
+        <v>825577</v>
       </c>
     </row>
     <row r="190">
@@ -7050,19 +7050,19 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>4809986</v>
+        <v>4811150</v>
       </c>
       <c r="F190" t="n">
-        <v>2264.133413095541</v>
+        <v>2134.44770972892</v>
       </c>
       <c r="G190" t="n">
-        <v>391.806155841956</v>
+        <v>250.6716661485009</v>
       </c>
       <c r="H190" t="n">
         <v>2.07</v>
       </c>
       <c r="I190" t="n">
-        <v>173510</v>
+        <v>174890</v>
       </c>
     </row>
     <row r="191">
@@ -7082,22 +7082,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>76838646</v>
+        <v>77900018</v>
       </c>
       <c r="E191" t="n">
-        <v>77665762</v>
+        <v>78738559</v>
       </c>
       <c r="F191" t="n">
-        <v>46377.35946017259</v>
+        <v>51559.6734769176</v>
       </c>
       <c r="G191" t="n">
-        <v>62120.24123058315</v>
+        <v>56716.21301312751</v>
       </c>
       <c r="H191" t="n">
-        <v>0.22</v>
+        <v>0.14</v>
       </c>
       <c r="I191" t="n">
-        <v>8757850</v>
+        <v>9412034</v>
       </c>
     </row>
     <row r="192">
@@ -7117,22 +7117,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>235115582</v>
+        <v>234245870</v>
       </c>
       <c r="E192" t="n">
-        <v>235115582</v>
+        <v>234245870</v>
       </c>
       <c r="F192" t="n">
-        <v>110993.2372939889</v>
+        <v>104079.781243797</v>
       </c>
       <c r="G192" t="n">
-        <v>87687.97536379599</v>
+        <v>125932.3305213156</v>
       </c>
       <c r="H192" t="n">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="I192" t="n">
-        <v>44782925</v>
+        <v>42619654</v>
       </c>
     </row>
     <row r="193">
@@ -7152,22 +7152,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>23716014</v>
+        <v>23627724</v>
       </c>
       <c r="E193" t="n">
-        <v>141897678</v>
+        <v>141369424</v>
       </c>
       <c r="F193" t="n">
-        <v>114804.460020977</v>
+        <v>74709.74266734082</v>
       </c>
       <c r="G193" t="n">
-        <v>99609.56901624516</v>
+        <v>149257.1081974366</v>
       </c>
       <c r="H193" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I193" t="n">
-        <v>13122552</v>
+        <v>13336809</v>
       </c>
     </row>
     <row r="194">
@@ -7187,22 +7187,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>13447137</v>
+        <v>13467909</v>
       </c>
       <c r="E194" t="n">
-        <v>41264544</v>
+        <v>41328285</v>
       </c>
       <c r="F194" t="n">
-        <v>673.2837827229611</v>
+        <v>667.4225269820744</v>
       </c>
       <c r="G194" t="n">
-        <v>2125.931129725552</v>
+        <v>1936.806125727836</v>
       </c>
       <c r="H194" t="n">
-        <v>0.32</v>
+        <v>0.18</v>
       </c>
       <c r="I194" t="n">
-        <v>1455939</v>
+        <v>2576397</v>
       </c>
     </row>
     <row r="195">
@@ -7222,22 +7222,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>52666628</v>
+        <v>52819295</v>
       </c>
       <c r="E195" t="n">
-        <v>90966716</v>
+        <v>91230405</v>
       </c>
       <c r="F195" t="n">
-        <v>14278.28656363971</v>
+        <v>4172.359717303887</v>
       </c>
       <c r="G195" t="n">
-        <v>14433.1459095318</v>
+        <v>9282.921349547643</v>
       </c>
       <c r="H195" t="n">
-        <v>0.26</v>
+        <v>0.01</v>
       </c>
       <c r="I195" t="n">
-        <v>2049550</v>
+        <v>2030239</v>
       </c>
     </row>
     <row r="196">
@@ -7257,22 +7257,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>4215545</v>
+        <v>4192931</v>
       </c>
       <c r="E196" t="n">
-        <v>4215545</v>
+        <v>4192931</v>
       </c>
       <c r="F196" t="n">
-        <v>1.064394697201165</v>
+        <v>1.064474280539738</v>
       </c>
       <c r="G196" t="n">
-        <v>442.2869359415176</v>
+        <v>1111.182726902132</v>
       </c>
       <c r="H196" t="n">
-        <v>0.99</v>
+        <v>2.27</v>
       </c>
       <c r="I196" t="n">
-        <v>1554166</v>
+        <v>1546075</v>
       </c>
     </row>
     <row r="197">
@@ -7295,7 +7295,7 @@
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>210725</v>
+        <v>212606</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>
@@ -7304,10 +7304,10 @@
         <v>0</v>
       </c>
       <c r="H197" t="n">
-        <v>7.3</v>
+        <v>5.8</v>
       </c>
       <c r="I197" t="n">
-        <v>58152</v>
+        <v>57294</v>
       </c>
     </row>
     <row r="198">
@@ -7327,22 +7327,22 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>6871633</v>
+        <v>6887750</v>
       </c>
       <c r="E198" t="n">
-        <v>35352463</v>
+        <v>35435382</v>
       </c>
       <c r="F198" t="n">
-        <v>228.7344061356424</v>
+        <v>145.9419158575401</v>
       </c>
       <c r="G198" t="n">
-        <v>332.4722801486047</v>
+        <v>458.0211735334137</v>
       </c>
       <c r="H198" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="I198" t="n">
-        <v>910863</v>
+        <v>917218</v>
       </c>
     </row>
     <row r="199">
@@ -7362,22 +7362,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>176314554</v>
+        <v>176502486</v>
       </c>
       <c r="E199" t="n">
-        <v>205987460</v>
+        <v>206207019</v>
       </c>
       <c r="F199" t="n">
-        <v>25789.7069125522</v>
+        <v>19904.87933559936</v>
       </c>
       <c r="G199" t="n">
-        <v>16604.71325519309</v>
+        <v>19057.37762536523</v>
       </c>
       <c r="H199" t="n">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="I199" t="n">
-        <v>3750845</v>
+        <v>4216444</v>
       </c>
     </row>
     <row r="200">
@@ -7400,19 +7400,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>303922</v>
+        <v>302845</v>
       </c>
       <c r="F200" t="n">
-        <v>60.54911641798368</v>
+        <v>78.54547686874213</v>
       </c>
       <c r="G200" t="n">
-        <v>356.9645003629673</v>
+        <v>288.8840919312861</v>
       </c>
       <c r="H200" t="n">
         <v>2.61</v>
       </c>
       <c r="I200" t="n">
-        <v>294293</v>
+        <v>298391</v>
       </c>
     </row>
     <row r="201">
@@ -7435,19 +7435,19 @@
         <v>0</v>
       </c>
       <c r="E201" t="n">
-        <v>8054673</v>
+        <v>8054046</v>
       </c>
       <c r="F201" t="n">
-        <v>850.6717569624385</v>
+        <v>863.0591794149265</v>
       </c>
       <c r="G201" t="n">
-        <v>729.0893411293649</v>
+        <v>646.2701056981754</v>
       </c>
       <c r="H201" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="I201" t="n">
-        <v>688882</v>
+        <v>675706</v>
       </c>
     </row>
     <row r="202">
@@ -7470,19 +7470,19 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>33990</v>
+        <v>34006</v>
       </c>
       <c r="F202" t="n">
-        <v>0</v>
+        <v>199.1971723206228</v>
       </c>
       <c r="G202" t="n">
-        <v>0</v>
+        <v>5.018229180630793</v>
       </c>
       <c r="H202" t="n">
-        <v>5.56</v>
+        <v>2.78</v>
       </c>
       <c r="I202" t="n">
-        <v>633.6900000000001</v>
+        <v>535.08</v>
       </c>
     </row>
     <row r="203">
@@ -7502,22 +7502,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>34152094</v>
+        <v>34266548</v>
       </c>
       <c r="E203" t="n">
-        <v>170434694</v>
+        <v>171005868</v>
       </c>
       <c r="F203" t="n">
-        <v>114905.9207235511</v>
+        <v>94746.27098800716</v>
       </c>
       <c r="G203" t="n">
-        <v>95868.99899977437</v>
+        <v>115494.8051742</v>
       </c>
       <c r="H203" t="n">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="I203" t="n">
-        <v>10088832</v>
+        <v>10096727</v>
       </c>
     </row>
     <row r="204">
@@ -7537,10 +7537,10 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1872070</v>
+        <v>1977391</v>
       </c>
       <c r="E204" t="n">
-        <v>1872070</v>
+        <v>1977391</v>
       </c>
       <c r="F204" t="n">
         <v>0</v>
@@ -7549,10 +7549,10 @@
         <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>14.57</v>
+        <v>16.64</v>
       </c>
       <c r="I204" t="n">
-        <v>10346.18</v>
+        <v>12565.11</v>
       </c>
     </row>
     <row r="205">
@@ -7575,19 +7575,19 @@
         <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>168242</v>
+        <v>175957</v>
       </c>
       <c r="F205" t="n">
-        <v>20.2441589729316</v>
+        <v>17.79966384861693</v>
       </c>
       <c r="G205" t="n">
-        <v>58.93765572084188</v>
+        <v>94.65664023845841</v>
       </c>
       <c r="H205" t="n">
-        <v>2.41</v>
+        <v>0.6</v>
       </c>
       <c r="I205" t="n">
-        <v>10865.11</v>
+        <v>12540.2</v>
       </c>
     </row>
     <row r="206">
@@ -7607,10 +7607,10 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>2770.49</v>
+        <v>2768.15</v>
       </c>
       <c r="E206" t="n">
-        <v>33113</v>
+        <v>33085</v>
       </c>
       <c r="F206" t="n">
         <v>0</v>
@@ -7619,10 +7619,10 @@
         <v>0</v>
       </c>
       <c r="H206" t="n">
-        <v>4.53</v>
+        <v>7.97</v>
       </c>
       <c r="I206" t="n">
-        <v>7860.67</v>
+        <v>7867.37</v>
       </c>
     </row>
     <row r="207">
@@ -7669,22 +7669,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>313058053</v>
+        <v>311975093</v>
       </c>
       <c r="E208" t="n">
-        <v>579228790</v>
+        <v>577225067</v>
       </c>
       <c r="F208" t="n">
-        <v>143764.8740170807</v>
+        <v>136906.3611556283</v>
       </c>
       <c r="G208" t="n">
-        <v>137761.2126307705</v>
+        <v>141543.571661676</v>
       </c>
       <c r="H208" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="I208" t="n">
-        <v>12935689</v>
+        <v>12988061</v>
       </c>
     </row>
     <row r="209">
@@ -7704,22 +7704,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>71587611</v>
+        <v>71095975</v>
       </c>
       <c r="E209" t="n">
-        <v>682997706</v>
+        <v>678303519</v>
       </c>
       <c r="F209" t="n">
-        <v>360272.8866947329</v>
+        <v>257512.7940582867</v>
       </c>
       <c r="G209" t="n">
-        <v>341719.6774765722</v>
+        <v>229712.9914283655</v>
       </c>
       <c r="H209" t="n">
         <v>0.06</v>
       </c>
       <c r="I209" t="n">
-        <v>21205343</v>
+        <v>21223638</v>
       </c>
     </row>
     <row r="210">
@@ -7742,19 +7742,19 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>2250688</v>
+        <v>2270104</v>
       </c>
       <c r="F210" t="n">
-        <v>10.14381260670618</v>
+        <v>0</v>
       </c>
       <c r="G210" t="n">
-        <v>983.4096367639786</v>
+        <v>0</v>
       </c>
       <c r="H210" t="n">
-        <v>1.89</v>
+        <v>4.77</v>
       </c>
       <c r="I210" t="n">
-        <v>56421</v>
+        <v>49635</v>
       </c>
     </row>
     <row r="211">
@@ -7774,10 +7774,10 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>82321</v>
+        <v>82212</v>
       </c>
       <c r="E211" t="n">
-        <v>684348</v>
+        <v>683449</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -7789,7 +7789,7 @@
         <v>7.04</v>
       </c>
       <c r="I211" t="n">
-        <v>175.11</v>
+        <v>174.91</v>
       </c>
     </row>
     <row r="212">
@@ -7809,22 +7809,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1921759</v>
+        <v>1903865</v>
       </c>
       <c r="E212" t="n">
-        <v>5488298</v>
+        <v>5437194</v>
       </c>
       <c r="F212" t="n">
-        <v>728.5556221652981</v>
+        <v>724.3478604290166</v>
       </c>
       <c r="G212" t="n">
-        <v>270.8122254038188</v>
+        <v>220.4797927615798</v>
       </c>
       <c r="H212" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="I212" t="n">
-        <v>64275</v>
+        <v>71208</v>
       </c>
     </row>
     <row r="213">
@@ -7844,22 +7844,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>9293497</v>
+        <v>9427967</v>
       </c>
       <c r="E213" t="n">
-        <v>27580240</v>
+        <v>27979306</v>
       </c>
       <c r="F213" t="n">
-        <v>2284.275201708807</v>
+        <v>1329.629894891331</v>
       </c>
       <c r="G213" t="n">
-        <v>2591.868424731752</v>
+        <v>3003.190307492714</v>
       </c>
       <c r="H213" t="n">
-        <v>0.36</v>
+        <v>0.18</v>
       </c>
       <c r="I213" t="n">
-        <v>5882285</v>
+        <v>6037795</v>
       </c>
     </row>
     <row r="214">
@@ -7882,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>14228533</v>
+        <v>14237649</v>
       </c>
       <c r="F214" t="n">
         <v>0</v>
@@ -7891,10 +7891,10 @@
         <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>8.449999999999999</v>
+        <v>8.33</v>
       </c>
       <c r="I214" t="n">
-        <v>1333.99</v>
+        <v>1334.29</v>
       </c>
     </row>
     <row r="215">
@@ -7914,22 +7914,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>2056257</v>
+        <v>2002226</v>
       </c>
       <c r="E215" t="n">
-        <v>5965864</v>
+        <v>5809102</v>
       </c>
       <c r="F215" t="n">
-        <v>12.2493268695955</v>
+        <v>12.25024961599011</v>
       </c>
       <c r="G215" t="n">
-        <v>1121.239600293835</v>
+        <v>573.5063604371578</v>
       </c>
       <c r="H215" t="n">
         <v>0.02</v>
       </c>
       <c r="I215" t="n">
-        <v>38877</v>
+        <v>52592</v>
       </c>
     </row>
     <row r="216">
@@ -7949,22 +7949,22 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>2285482</v>
+        <v>2311800</v>
       </c>
       <c r="E216" t="n">
-        <v>20159464</v>
+        <v>20391609</v>
       </c>
       <c r="F216" t="n">
-        <v>265.4904428001467</v>
+        <v>306.9855187410906</v>
       </c>
       <c r="G216" t="n">
-        <v>4116.188061030145</v>
+        <v>1369.617231693372</v>
       </c>
       <c r="H216" t="n">
-        <v>0.68</v>
+        <v>1.55</v>
       </c>
       <c r="I216" t="n">
-        <v>72480</v>
+        <v>81823</v>
       </c>
     </row>
     <row r="217">
@@ -7984,22 +7984,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>45122576</v>
+        <v>44799163</v>
       </c>
       <c r="E217" t="n">
-        <v>45122576</v>
+        <v>44799163</v>
       </c>
       <c r="F217" t="n">
-        <v>38562.6366843556</v>
+        <v>33649.93567605572</v>
       </c>
       <c r="G217" t="n">
-        <v>40645.80043809223</v>
+        <v>42955.76411421039</v>
       </c>
       <c r="H217" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I217" t="n">
-        <v>8928556</v>
+        <v>7882145</v>
       </c>
     </row>
     <row r="218">
@@ -8019,22 +8019,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>8937493</v>
+        <v>9498036</v>
       </c>
       <c r="E218" t="n">
-        <v>12733880</v>
+        <v>13532525</v>
       </c>
       <c r="F218" t="n">
-        <v>31.59132366658988</v>
+        <v>598.7579256495447</v>
       </c>
       <c r="G218" t="n">
-        <v>32.96515988275578</v>
+        <v>192.1558222293386</v>
       </c>
       <c r="H218" t="n">
-        <v>1.28</v>
+        <v>1.03</v>
       </c>
       <c r="I218" t="n">
-        <v>427714</v>
+        <v>466215</v>
       </c>
     </row>
     <row r="219">
@@ -8057,19 +8057,19 @@
         <v>0</v>
       </c>
       <c r="E219" t="n">
-        <v>16502733</v>
+        <v>16106221</v>
       </c>
       <c r="F219" t="n">
-        <v>1.068172702841945</v>
+        <v>6.662970209492915</v>
       </c>
       <c r="G219" t="n">
-        <v>1.041455654045078</v>
+        <v>990.2644740365099</v>
       </c>
       <c r="H219" t="n">
         <v>2.02</v>
       </c>
       <c r="I219" t="n">
-        <v>956756</v>
+        <v>958105</v>
       </c>
     </row>
     <row r="220">
@@ -8092,19 +8092,19 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>716630</v>
+        <v>715573</v>
       </c>
       <c r="F220" t="n">
-        <v>56.30223656024224</v>
+        <v>61.39853283405684</v>
       </c>
       <c r="G220" t="n">
-        <v>343.7520019993401</v>
+        <v>290.4497478377269</v>
       </c>
       <c r="H220" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I220" t="n">
-        <v>219304</v>
+        <v>220380</v>
       </c>
     </row>
     <row r="221">
@@ -8124,22 +8124,22 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>2794776</v>
+        <v>2759465</v>
       </c>
       <c r="E221" t="n">
-        <v>2797196</v>
+        <v>2761855</v>
       </c>
       <c r="F221" t="n">
-        <v>5.440158848520965</v>
+        <v>30.9983885950693</v>
       </c>
       <c r="G221" t="n">
-        <v>55.15880824631097</v>
+        <v>83.72679064783871</v>
       </c>
       <c r="H221" t="n">
-        <v>3.73</v>
+        <v>2.24</v>
       </c>
       <c r="I221" t="n">
-        <v>91783</v>
+        <v>93236</v>
       </c>
     </row>
     <row r="222">
@@ -8159,22 +8159,22 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1253112</v>
+        <v>1236660</v>
       </c>
       <c r="E222" t="n">
-        <v>3791593</v>
+        <v>3741568</v>
       </c>
       <c r="F222" t="n">
-        <v>2203.240118553153</v>
+        <v>2114.738501401146</v>
       </c>
       <c r="G222" t="n">
-        <v>668.5828590884155</v>
+        <v>570.3317919832698</v>
       </c>
       <c r="H222" t="n">
         <v>1.31</v>
       </c>
       <c r="I222" t="n">
-        <v>11626.32</v>
+        <v>9494.799999999999</v>
       </c>
     </row>
     <row r="223">
@@ -8194,22 +8194,22 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>38292598</v>
+        <v>37877007</v>
       </c>
       <c r="E223" t="n">
-        <v>271488270</v>
+        <v>268541803</v>
       </c>
       <c r="F223" t="n">
-        <v>71913.60866898812</v>
+        <v>75016.14983920037</v>
       </c>
       <c r="G223" t="n">
-        <v>65608.58598170045</v>
+        <v>68567.03711835468</v>
       </c>
       <c r="H223" t="n">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="I223" t="n">
-        <v>1689692</v>
+        <v>1510695</v>
       </c>
     </row>
     <row r="224">
@@ -8229,22 +8229,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>62339</v>
+        <v>60056</v>
       </c>
       <c r="E224" t="n">
-        <v>325259</v>
+        <v>313348</v>
       </c>
       <c r="F224" t="n">
-        <v>137.3561619508925</v>
+        <v>200.1180986749262</v>
       </c>
       <c r="G224" t="n">
-        <v>132.214484568896</v>
+        <v>134.7632148087287</v>
       </c>
       <c r="H224" t="n">
-        <v>1.16</v>
+        <v>1.27</v>
       </c>
       <c r="I224" t="n">
-        <v>295728</v>
+        <v>286454</v>
       </c>
     </row>
     <row r="225">
@@ -8264,22 +8264,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1262354</v>
+        <v>1263077</v>
       </c>
       <c r="E225" t="n">
-        <v>7828479</v>
+        <v>7832960</v>
       </c>
       <c r="F225" t="n">
-        <v>1473.985154553929</v>
+        <v>1471.786505153593</v>
       </c>
       <c r="G225" t="n">
-        <v>1987.897751786068</v>
+        <v>2007.904326559058</v>
       </c>
       <c r="H225" t="n">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="I225" t="n">
-        <v>734127</v>
+        <v>730446</v>
       </c>
     </row>
     <row r="226">
@@ -8299,22 +8299,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>602267516</v>
+        <v>600494220</v>
       </c>
       <c r="E226" t="n">
-        <v>2332493232</v>
+        <v>2325625519</v>
       </c>
       <c r="F226" t="n">
-        <v>270014.9798413881</v>
+        <v>181924.2136626231</v>
       </c>
       <c r="G226" t="n">
-        <v>224878.067835157</v>
+        <v>315122.181738275</v>
       </c>
       <c r="H226" t="n">
         <v>0.04</v>
       </c>
       <c r="I226" t="n">
-        <v>32974827</v>
+        <v>33351961</v>
       </c>
     </row>
     <row r="227">
@@ -8337,19 +8337,19 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>20800223</v>
+        <v>20808327</v>
       </c>
       <c r="F227" t="n">
-        <v>788.3690852903563</v>
+        <v>889.1205767933305</v>
       </c>
       <c r="G227" t="n">
-        <v>629.1095188144507</v>
+        <v>563.9117342981699</v>
       </c>
       <c r="H227" t="n">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
       <c r="I227" t="n">
-        <v>17079981</v>
+        <v>17008179</v>
       </c>
     </row>
     <row r="228">
@@ -8372,19 +8372,19 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>902967</v>
+        <v>905184</v>
       </c>
       <c r="F228" t="n">
-        <v>49.22738329052084</v>
+        <v>98.70786311464812</v>
       </c>
       <c r="G228" t="n">
-        <v>42.94897530207714</v>
+        <v>75.22484633003917</v>
       </c>
       <c r="H228" t="n">
-        <v>2.4</v>
+        <v>1.31</v>
       </c>
       <c r="I228" t="n">
-        <v>376399</v>
+        <v>369535</v>
       </c>
     </row>
     <row r="229">
@@ -8404,22 +8404,22 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>5857905</v>
+        <v>5881922</v>
       </c>
       <c r="E229" t="n">
-        <v>26226572</v>
+        <v>26334099</v>
       </c>
       <c r="F229" t="n">
-        <v>2286.582872273914</v>
+        <v>2047.038935545619</v>
       </c>
       <c r="G229" t="n">
-        <v>2148.053113067477</v>
+        <v>2442.368182995965</v>
       </c>
       <c r="H229" t="n">
         <v>0.38</v>
       </c>
       <c r="I229" t="n">
-        <v>143149</v>
+        <v>144181</v>
       </c>
     </row>
     <row r="230">
@@ -8439,22 +8439,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>6359047</v>
+        <v>6495818</v>
       </c>
       <c r="E230" t="n">
-        <v>12174911</v>
+        <v>12436770</v>
       </c>
       <c r="F230" t="n">
-        <v>32.94142129331783</v>
+        <v>1.787950880873779</v>
       </c>
       <c r="G230" t="n">
-        <v>24.54145444626191</v>
+        <v>1262.129641761931</v>
       </c>
       <c r="H230" t="n">
-        <v>3.05</v>
+        <v>2.52</v>
       </c>
       <c r="I230" t="n">
-        <v>192702</v>
+        <v>194780</v>
       </c>
     </row>
     <row r="231">
@@ -8474,22 +8474,22 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>3182316</v>
+        <v>3194903</v>
       </c>
       <c r="E231" t="n">
-        <v>20926169</v>
+        <v>21008940</v>
       </c>
       <c r="F231" t="n">
-        <v>317.1524923005213</v>
+        <v>214.7409889398208</v>
       </c>
       <c r="G231" t="n">
-        <v>338.3741718667767</v>
+        <v>517.4549789521644</v>
       </c>
       <c r="H231" t="n">
-        <v>1.14</v>
+        <v>1.65</v>
       </c>
       <c r="I231" t="n">
-        <v>1442422</v>
+        <v>1460062</v>
       </c>
     </row>
     <row r="232">
@@ -8509,22 +8509,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>118226249</v>
+        <v>118942116</v>
       </c>
       <c r="E232" t="n">
-        <v>1027904570</v>
+        <v>1034128597</v>
       </c>
       <c r="F232" t="n">
-        <v>217211.1561079596</v>
+        <v>208931.0867004275</v>
       </c>
       <c r="G232" t="n">
-        <v>198738.0716204588</v>
+        <v>217305.3581573318</v>
       </c>
       <c r="H232" t="n">
-        <v>0.03</v>
+        <v>0.13</v>
       </c>
       <c r="I232" t="n">
-        <v>8855222</v>
+        <v>8881254</v>
       </c>
     </row>
     <row r="233">
@@ -8548,16 +8548,16 @@
       </c>
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="n">
-        <v>4.089795826790897</v>
+        <v>4.090101615242148</v>
       </c>
       <c r="G233" t="n">
-        <v>4.020774447548538</v>
+        <v>4.021075075365479</v>
       </c>
       <c r="H233" t="n">
         <v>2.9</v>
       </c>
       <c r="I233" t="n">
-        <v>1116.91</v>
+        <v>1116.99</v>
       </c>
     </row>
     <row r="234">
@@ -8577,22 +8577,22 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>102679129</v>
+        <v>101876658</v>
       </c>
       <c r="E234" t="n">
-        <v>156639419</v>
+        <v>155415230</v>
       </c>
       <c r="F234" t="n">
-        <v>103257.2140645413</v>
+        <v>96592.74388024054</v>
       </c>
       <c r="G234" t="n">
-        <v>85685.85537796926</v>
+        <v>93633.4843790482</v>
       </c>
       <c r="H234" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="I234" t="n">
-        <v>7772154</v>
+        <v>7679792</v>
       </c>
     </row>
     <row r="235">
@@ -8612,22 +8612,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>15804647</v>
+        <v>15695143</v>
       </c>
       <c r="E235" t="n">
-        <v>21682607</v>
+        <v>21532376</v>
       </c>
       <c r="F235" t="n">
-        <v>897.2606415102928</v>
+        <v>1047.346020134504</v>
       </c>
       <c r="G235" t="n">
-        <v>2350.792439710335</v>
+        <v>2707.836005450671</v>
       </c>
       <c r="H235" t="n">
-        <v>1.19</v>
+        <v>0.74</v>
       </c>
       <c r="I235" t="n">
-        <v>346777</v>
+        <v>342465</v>
       </c>
     </row>
     <row r="236">
@@ -8647,22 +8647,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>115171797</v>
+        <v>114838005</v>
       </c>
       <c r="E236" t="n">
-        <v>441817551</v>
+        <v>440537069</v>
       </c>
       <c r="F236" t="n">
-        <v>396541.4441493906</v>
+        <v>442591.9767064689</v>
       </c>
       <c r="G236" t="n">
-        <v>588096.5218815635</v>
+        <v>532949.0573883285</v>
       </c>
       <c r="H236" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I236" t="n">
-        <v>22497617</v>
+        <v>23118176</v>
       </c>
     </row>
     <row r="237">
@@ -8685,19 +8685,19 @@
         <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>664840</v>
+        <v>657491</v>
       </c>
       <c r="F237" t="n">
-        <v>69.76809346816015</v>
+        <v>69.77347959719165</v>
       </c>
       <c r="G237" t="n">
-        <v>20.55612541995485</v>
+        <v>20.55771236232917</v>
       </c>
       <c r="H237" t="n">
         <v>3.25</v>
       </c>
       <c r="I237" t="n">
-        <v>45379</v>
+        <v>45819</v>
       </c>
     </row>
     <row r="238">
@@ -8720,19 +8720,19 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>870352</v>
+        <v>850139</v>
       </c>
       <c r="F238" t="n">
-        <v>25.94010992417802</v>
+        <v>0</v>
       </c>
       <c r="G238" t="n">
-        <v>576.6410841271785</v>
+        <v>0</v>
       </c>
       <c r="H238" t="n">
-        <v>1.36</v>
+        <v>6.95</v>
       </c>
       <c r="I238" t="n">
-        <v>28868</v>
+        <v>40041</v>
       </c>
     </row>
     <row r="239">
@@ -8752,22 +8752,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>3186849</v>
+        <v>3198222</v>
       </c>
       <c r="E239" t="n">
-        <v>30195869</v>
+        <v>30303627</v>
       </c>
       <c r="F239" t="n">
-        <v>1745.696312598624</v>
+        <v>1604.102700005674</v>
       </c>
       <c r="G239" t="n">
-        <v>2038.059516195061</v>
+        <v>2000.222643050336</v>
       </c>
       <c r="H239" t="n">
-        <v>0.33</v>
+        <v>0.23</v>
       </c>
       <c r="I239" t="n">
-        <v>264658</v>
+        <v>234727</v>
       </c>
     </row>
     <row r="240">
@@ -8787,22 +8787,22 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>725346</v>
+        <v>727133</v>
       </c>
       <c r="E240" t="n">
-        <v>775391</v>
+        <v>777301</v>
       </c>
       <c r="F240" t="n">
-        <v>44.32429181175875</v>
+        <v>38.69504556597888</v>
       </c>
       <c r="G240" t="n">
-        <v>2332.058049388223</v>
+        <v>2332.238085346475</v>
       </c>
       <c r="H240" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="I240" t="n">
-        <v>38566</v>
+        <v>42458</v>
       </c>
     </row>
     <row r="241">
@@ -8825,19 +8825,19 @@
         <v>0</v>
       </c>
       <c r="E241" t="n">
-        <v>373900</v>
+        <v>374154</v>
       </c>
       <c r="F241" t="n">
-        <v>7.93819512841402</v>
+        <v>7.93878865642785</v>
       </c>
       <c r="G241" t="n">
-        <v>127.5623106610538</v>
+        <v>127.5718483208948</v>
       </c>
       <c r="H241" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I241" t="n">
-        <v>594.49</v>
+        <v>594.54</v>
       </c>
     </row>
     <row r="242">
@@ -8860,19 +8860,19 @@
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>136402</v>
+        <v>140439</v>
       </c>
       <c r="F242" t="n">
-        <v>42.66766277541305</v>
+        <v>314.7026315854303</v>
       </c>
       <c r="G242" t="n">
-        <v>127.0286411816313</v>
+        <v>83.0956027537415</v>
       </c>
       <c r="H242" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="I242" t="n">
-        <v>93190</v>
+        <v>94019</v>
       </c>
     </row>
     <row r="243">
@@ -8927,22 +8927,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>5934769</v>
+        <v>5934890</v>
       </c>
       <c r="E244" t="n">
-        <v>37090606</v>
+        <v>37091364</v>
       </c>
       <c r="F244" t="n">
-        <v>825.5067671786937</v>
+        <v>791.765924933124</v>
       </c>
       <c r="G244" t="n">
-        <v>1178.711104122443</v>
+        <v>1146.592098864502</v>
       </c>
       <c r="H244" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="I244" t="n">
-        <v>386343</v>
+        <v>383055</v>
       </c>
     </row>
     <row r="245">
@@ -8962,22 +8962,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>5014257</v>
+        <v>5106494</v>
       </c>
       <c r="E245" t="n">
-        <v>18672066</v>
+        <v>19015537</v>
       </c>
       <c r="F245" t="n">
-        <v>6541.263207540445</v>
+        <v>1311.553347118562</v>
       </c>
       <c r="G245" t="n">
-        <v>12149.33652822548</v>
+        <v>5950.761309139411</v>
       </c>
       <c r="H245" t="n">
-        <v>0.53</v>
+        <v>1.05</v>
       </c>
       <c r="I245" t="n">
-        <v>109082</v>
+        <v>108823</v>
       </c>
     </row>
     <row r="246">
@@ -9000,19 +9000,19 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>3809573</v>
+        <v>3808656</v>
       </c>
       <c r="F246" t="n">
-        <v>224.7276900003838</v>
+        <v>159.7401411235485</v>
       </c>
       <c r="G246" t="n">
-        <v>115.0228576654771</v>
+        <v>2666.678592718641</v>
       </c>
       <c r="H246" t="n">
-        <v>1.57</v>
+        <v>1.08</v>
       </c>
       <c r="I246" t="n">
-        <v>7198.43</v>
+        <v>7197.76</v>
       </c>
     </row>
     <row r="247">
@@ -9032,22 +9032,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>31553159</v>
+        <v>31510839</v>
       </c>
       <c r="E247" t="n">
-        <v>113097890</v>
+        <v>112946197</v>
       </c>
       <c r="F247" t="n">
-        <v>50.61873867340962</v>
+        <v>51.56878201633242</v>
       </c>
       <c r="G247" t="n">
-        <v>2363.70641332986</v>
+        <v>2345.285526794851</v>
       </c>
       <c r="H247" t="n">
         <v>0.55</v>
       </c>
       <c r="I247" t="n">
-        <v>97501</v>
+        <v>97654</v>
       </c>
     </row>
     <row r="248">
@@ -9070,19 +9070,19 @@
         <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>1540458</v>
+        <v>1542616</v>
       </c>
       <c r="F248" t="n">
-        <v>5.649911457698098</v>
+        <v>9.244244271854937</v>
       </c>
       <c r="G248" t="n">
-        <v>26.67842549368126</v>
+        <v>472.459825494978</v>
       </c>
       <c r="H248" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="I248" t="n">
-        <v>614929</v>
+        <v>617897</v>
       </c>
     </row>
     <row r="249">
@@ -9102,22 +9102,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>2200157</v>
+        <v>2198880</v>
       </c>
       <c r="E249" t="n">
-        <v>16922983</v>
+        <v>16913161</v>
       </c>
       <c r="F249" t="n">
-        <v>4498.462450181836</v>
+        <v>5193.270342255762</v>
       </c>
       <c r="G249" t="n">
-        <v>5390.420899075853</v>
+        <v>4769.705156915763</v>
       </c>
       <c r="H249" t="n">
-        <v>0.06</v>
+        <v>0.35</v>
       </c>
       <c r="I249" t="n">
-        <v>176486</v>
+        <v>180881</v>
       </c>
     </row>
     <row r="250">
@@ -9137,22 +9137,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>103069</v>
+        <v>103471</v>
       </c>
       <c r="E250" t="n">
-        <v>818675</v>
+        <v>821868</v>
       </c>
       <c r="F250" t="n">
-        <v>172.6466165718326</v>
+        <v>172.6595251236848</v>
       </c>
       <c r="G250" t="n">
-        <v>346.3924507318539</v>
+        <v>346.418350022557</v>
       </c>
       <c r="H250" t="n">
         <v>0.61</v>
       </c>
       <c r="I250" t="n">
-        <v>1355.5</v>
+        <v>1355.8</v>
       </c>
     </row>
     <row r="251">
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>86925447</v>
+        <v>87018234</v>
       </c>
       <c r="E251" t="n">
-        <v>321337927</v>
+        <v>321679837</v>
       </c>
       <c r="F251" t="n">
-        <v>7297.66986683669</v>
+        <v>7432.88774040589</v>
       </c>
       <c r="G251" t="n">
-        <v>2027.695954008207</v>
+        <v>2238.933014712354</v>
       </c>
       <c r="H251" t="n">
-        <v>0.02</v>
+        <v>0.27</v>
       </c>
       <c r="I251" t="n">
-        <v>351750</v>
+        <v>348852</v>
       </c>
     </row>
     <row r="252">
@@ -9207,22 +9207,22 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>2457333</v>
+        <v>2458670</v>
       </c>
       <c r="E252" t="n">
-        <v>9860132</v>
+        <v>9865495</v>
       </c>
       <c r="F252" t="n">
-        <v>4.946447587613224</v>
+        <v>4.946820205368157</v>
       </c>
       <c r="G252" t="n">
-        <v>31.86160496134469</v>
+        <v>31.86400510801541</v>
       </c>
       <c r="H252" t="n">
         <v>3.64</v>
       </c>
       <c r="I252" t="n">
-        <v>45221</v>
+        <v>40485</v>
       </c>
     </row>
     <row r="253">
@@ -9245,19 +9245,19 @@
         <v>0</v>
       </c>
       <c r="E253" t="n">
-        <v>584744</v>
+        <v>584703</v>
       </c>
       <c r="F253" t="n">
-        <v>0</v>
+        <v>37.02024351320743</v>
       </c>
       <c r="G253" t="n">
-        <v>0</v>
+        <v>3.064826200096333</v>
       </c>
       <c r="H253" t="n">
-        <v>3.99</v>
+        <v>2.76</v>
       </c>
       <c r="I253" t="n">
-        <v>1513.28</v>
+        <v>1513.4</v>
       </c>
     </row>
     <row r="254">
@@ -9276,7 +9276,7 @@
         <v>0</v>
       </c>
       <c r="E254" t="n">
-        <v>36989</v>
+        <v>37006</v>
       </c>
       <c r="F254" t="n">
         <v>0</v>
@@ -9288,7 +9288,7 @@
         <v>4.13</v>
       </c>
       <c r="I254" t="n">
-        <v>4974.74</v>
+        <v>4974.65</v>
       </c>
     </row>
     <row r="255">
@@ -9308,22 +9308,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>736746227</v>
+        <v>720653788</v>
       </c>
       <c r="E255" t="n">
-        <v>1136127731</v>
+        <v>1111311769</v>
       </c>
       <c r="F255" t="n">
-        <v>192158.0713644451</v>
+        <v>195411.4129449555</v>
       </c>
       <c r="G255" t="n">
-        <v>142405.0435480201</v>
+        <v>210762.6468304462</v>
       </c>
       <c r="H255" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I255" t="n">
-        <v>214278821</v>
+        <v>214380699</v>
       </c>
     </row>
     <row r="256">
@@ -9343,22 +9343,22 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>5672498</v>
+        <v>5666043</v>
       </c>
       <c r="E256" t="n">
-        <v>5672498</v>
+        <v>5666043</v>
       </c>
       <c r="F256" t="n">
-        <v>21.5987158066526</v>
+        <v>18.31262881644874</v>
       </c>
       <c r="G256" t="n">
-        <v>2.887087911954612</v>
+        <v>2.887305397371569</v>
       </c>
       <c r="H256" t="n">
-        <v>0.78</v>
+        <v>0.97</v>
       </c>
       <c r="I256" t="n">
-        <v>527.4</v>
+        <v>520.58</v>
       </c>
     </row>
     <row r="257">
@@ -9378,22 +9378,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>39895588</v>
+        <v>39884478</v>
       </c>
       <c r="E257" t="n">
-        <v>190428284</v>
+        <v>190375256</v>
       </c>
       <c r="F257" t="n">
-        <v>890.091895589446</v>
+        <v>502.6588119752006</v>
       </c>
       <c r="G257" t="n">
-        <v>320.5207778312557</v>
+        <v>206.7395348351874</v>
       </c>
       <c r="H257" t="n">
-        <v>0.17</v>
+        <v>0.31</v>
       </c>
       <c r="I257" t="n">
-        <v>418901</v>
+        <v>418951</v>
       </c>
     </row>
     <row r="258">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>571379</v>
+        <v>526200</v>
       </c>
       <c r="F258" t="n">
         <v>0</v>
@@ -9425,10 +9425,10 @@
         <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>8.140000000000001</v>
+        <v>8.51</v>
       </c>
       <c r="I258" t="n">
-        <v>362.91</v>
+        <v>365.01</v>
       </c>
     </row>
     <row r="259">
@@ -9448,22 +9448,22 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>24122759</v>
+        <v>23942555</v>
       </c>
       <c r="E259" t="n">
-        <v>40204598</v>
+        <v>39904257</v>
       </c>
       <c r="F259" t="n">
-        <v>7930.87145412634</v>
+        <v>7680.213113927794</v>
       </c>
       <c r="G259" t="n">
-        <v>7603.928992772122</v>
+        <v>3014.035634348252</v>
       </c>
       <c r="H259" t="n">
-        <v>0.42</v>
+        <v>0.05</v>
       </c>
       <c r="I259" t="n">
-        <v>653587</v>
+        <v>699144</v>
       </c>
     </row>
     <row r="260">
@@ -9486,19 +9486,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>107598</v>
+        <v>107752</v>
       </c>
       <c r="F260" t="n">
-        <v>241.7856116779974</v>
+        <v>72.91187144380126</v>
       </c>
       <c r="G260" t="n">
-        <v>195.4231903881961</v>
+        <v>138.0270127765085</v>
       </c>
       <c r="H260" t="n">
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="I260" t="n">
-        <v>48354</v>
+        <v>48900</v>
       </c>
     </row>
     <row r="261">
@@ -9518,22 +9518,22 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>878222</v>
+        <v>873808</v>
       </c>
       <c r="E261" t="n">
-        <v>3751636</v>
+        <v>3732783</v>
       </c>
       <c r="F261" t="n">
-        <v>2421.494897050544</v>
+        <v>2523.741819611173</v>
       </c>
       <c r="G261" t="n">
-        <v>4126.072433103968</v>
+        <v>4055.231129265095</v>
       </c>
       <c r="H261" t="n">
         <v>0.28</v>
       </c>
       <c r="I261" t="n">
-        <v>17054.82</v>
+        <v>17579.8</v>
       </c>
     </row>
     <row r="262">
@@ -9553,22 +9553,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>3813691</v>
+        <v>3788981</v>
       </c>
       <c r="E262" t="n">
-        <v>8321424</v>
+        <v>8267507</v>
       </c>
       <c r="F262" t="n">
-        <v>1117.200257852326</v>
+        <v>1422.528330977009</v>
       </c>
       <c r="G262" t="n">
-        <v>1939.450513806607</v>
+        <v>1628.823635488192</v>
       </c>
       <c r="H262" t="n">
         <v>0.85</v>
       </c>
       <c r="I262" t="n">
-        <v>877499</v>
+        <v>961962</v>
       </c>
     </row>
     <row r="263">
@@ -9588,22 +9588,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>493394219</v>
+        <v>491708959</v>
       </c>
       <c r="E263" t="n">
-        <v>1718335549</v>
+        <v>1712466322</v>
       </c>
       <c r="F263" t="n">
-        <v>637176.8798628382</v>
+        <v>413472.7031963759</v>
       </c>
       <c r="G263" t="n">
-        <v>600761.9781812549</v>
+        <v>647952.9177677719</v>
       </c>
       <c r="H263" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I263" t="n">
-        <v>31016062</v>
+        <v>31138903</v>
       </c>
     </row>
     <row r="264">
@@ -9623,22 +9623,22 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>5600144980</v>
+        <v>5573156315</v>
       </c>
       <c r="E264" t="n">
-        <v>5600261725</v>
+        <v>5573156315</v>
       </c>
       <c r="F264" t="n">
-        <v>5154.775821280465</v>
+        <v>4078.497463956664</v>
       </c>
       <c r="G264" t="n">
-        <v>2421.559873258671</v>
+        <v>1989.130714963097</v>
       </c>
       <c r="H264" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="I264" t="n">
-        <v>28025531</v>
+        <v>27812819</v>
       </c>
     </row>
     <row r="265">
@@ -9658,22 +9658,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>24084092</v>
+        <v>24091281</v>
       </c>
       <c r="E265" t="n">
-        <v>24063172</v>
+        <v>24070354</v>
       </c>
       <c r="F265" t="n">
-        <v>41.46932632639483</v>
+        <v>49.46101002187808</v>
       </c>
       <c r="G265" t="n">
-        <v>679.7193362628594</v>
+        <v>667.5721191484125</v>
       </c>
       <c r="H265" t="n">
-        <v>1.92</v>
+        <v>2.7</v>
       </c>
       <c r="I265" t="n">
-        <v>93115</v>
+        <v>92935</v>
       </c>
     </row>
     <row r="266">
@@ -9693,22 +9693,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>12057730</v>
+        <v>12096759</v>
       </c>
       <c r="E266" t="n">
-        <v>24414910</v>
+        <v>24490897</v>
       </c>
       <c r="F266" t="n">
-        <v>1021.519571311263</v>
+        <v>0</v>
       </c>
       <c r="G266" t="n">
-        <v>713.5327296564268</v>
+        <v>0</v>
       </c>
       <c r="H266" t="n">
-        <v>1.15</v>
+        <v>5.89</v>
       </c>
       <c r="I266" t="n">
-        <v>28727</v>
+        <v>28466</v>
       </c>
     </row>
     <row r="267">
@@ -9731,19 +9731,19 @@
         <v>0</v>
       </c>
       <c r="E267" t="n">
-        <v>148883</v>
+        <v>150266</v>
       </c>
       <c r="F267" t="n">
-        <v>182.5924141290451</v>
+        <v>182.6060663146044</v>
       </c>
       <c r="G267" t="n">
-        <v>132.1601305220773</v>
+        <v>132.1700119546332</v>
       </c>
       <c r="H267" t="n">
         <v>0.75</v>
       </c>
       <c r="I267" t="n">
-        <v>56494</v>
+        <v>57395</v>
       </c>
     </row>
     <row r="268">
@@ -9766,19 +9766,19 @@
         <v>0</v>
       </c>
       <c r="E268" t="n">
-        <v>47990</v>
+        <v>47718</v>
       </c>
       <c r="F268" t="n">
-        <v>104.1364400519554</v>
+        <v>67.67597857372151</v>
       </c>
       <c r="G268" t="n">
-        <v>204.6826113166903</v>
+        <v>1.328676448601712</v>
       </c>
       <c r="H268" t="n">
-        <v>2.46</v>
+        <v>2.09</v>
       </c>
       <c r="I268" t="n">
-        <v>71467</v>
+        <v>71884</v>
       </c>
     </row>
     <row r="269">
@@ -9798,22 +9798,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>2630907</v>
+        <v>2640308</v>
       </c>
       <c r="E269" t="n">
-        <v>10523628</v>
+        <v>10561232</v>
       </c>
       <c r="F269" t="n">
-        <v>35586.0318127865</v>
+        <v>53307.53899256095</v>
       </c>
       <c r="G269" t="n">
-        <v>55920.44936446864</v>
+        <v>54895.70759284094</v>
       </c>
       <c r="H269" t="n">
-        <v>0.47</v>
+        <v>0.57</v>
       </c>
       <c r="I269" t="n">
-        <v>5613220</v>
+        <v>5829476</v>
       </c>
     </row>
     <row r="270">
@@ -9833,22 +9833,22 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>216885292</v>
+        <v>216346590</v>
       </c>
       <c r="E270" t="n">
-        <v>666840655</v>
+        <v>665184348</v>
       </c>
       <c r="F270" t="n">
-        <v>303109.7162609803</v>
+        <v>238753.4269462739</v>
       </c>
       <c r="G270" t="n">
-        <v>210312.702717846</v>
+        <v>291959.9561496747</v>
       </c>
       <c r="H270" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="I270" t="n">
-        <v>11600741</v>
+        <v>11719434</v>
       </c>
     </row>
     <row r="271">
@@ -9868,22 +9868,22 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>148266118</v>
+        <v>154483301</v>
       </c>
       <c r="E271" t="n">
-        <v>387341121</v>
+        <v>403583339</v>
       </c>
       <c r="F271" t="n">
-        <v>69995.0091840761</v>
+        <v>45997.47848489617</v>
       </c>
       <c r="G271" t="n">
-        <v>43164.60011510268</v>
+        <v>41049.94614249391</v>
       </c>
       <c r="H271" t="n">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="I271" t="n">
-        <v>6518252</v>
+        <v>7221240</v>
       </c>
     </row>
     <row r="272">
@@ -9903,22 +9903,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>2436262</v>
+        <v>2431072</v>
       </c>
       <c r="E272" t="n">
-        <v>3343359</v>
+        <v>3336236</v>
       </c>
       <c r="F272" t="n">
-        <v>124.4022057501376</v>
+        <v>124.5405455410729</v>
       </c>
       <c r="G272" t="n">
-        <v>113.7092422333378</v>
+        <v>111.5542592686877</v>
       </c>
       <c r="H272" t="n">
         <v>1.08</v>
       </c>
       <c r="I272" t="n">
-        <v>1060816</v>
+        <v>1058527</v>
       </c>
     </row>
   </sheetData>

--- a/GateioData20250220.xlsx
+++ b/GateioData20250220.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>52520</v>
+        <v>52518</v>
       </c>
       <c r="F2" t="n">
-        <v>1.325248196198313</v>
+        <v>1.325105721172152</v>
       </c>
       <c r="G2" t="n">
-        <v>29.81383782446417</v>
+        <v>29.81063259291872</v>
       </c>
       <c r="H2" t="n">
         <v>3.85</v>
       </c>
       <c r="I2" t="n">
-        <v>1710.32</v>
+        <v>1710.2</v>
       </c>
     </row>
     <row r="3">
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>90033</v>
+        <v>89620</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>4.04</v>
       </c>
       <c r="I3" t="n">
-        <v>1316.73</v>
+        <v>1333.67</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>607867355</v>
+        <v>606518936</v>
       </c>
       <c r="E4" t="n">
-        <v>1179519794</v>
+        <v>1176903289</v>
       </c>
       <c r="F4" t="n">
-        <v>57773.63011171894</v>
+        <v>54224.82284690042</v>
       </c>
       <c r="G4" t="n">
-        <v>44440.52044730807</v>
+        <v>46682.16487929208</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I4" t="n">
-        <v>23080960</v>
+        <v>23261155</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1318773</v>
+        <v>1319354</v>
       </c>
       <c r="E5" t="n">
-        <v>4262816</v>
+        <v>4264693</v>
       </c>
       <c r="F5" t="n">
-        <v>4544.835269039916</v>
+        <v>4549.246550823055</v>
       </c>
       <c r="G5" t="n">
-        <v>6147.713900448844</v>
+        <v>6056.144014733306</v>
       </c>
       <c r="H5" t="n">
         <v>0.47</v>
       </c>
       <c r="I5" t="n">
-        <v>99266</v>
+        <v>99735</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>139490303</v>
+        <v>139954361</v>
       </c>
       <c r="E6" t="n">
-        <v>154577055</v>
+        <v>155091304</v>
       </c>
       <c r="F6" t="n">
-        <v>220758.6979003994</v>
+        <v>188704.0792989248</v>
       </c>
       <c r="G6" t="n">
-        <v>276576.7950302274</v>
+        <v>314985.0468724867</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="I6" t="n">
-        <v>34086653</v>
+        <v>34396078</v>
       </c>
     </row>
     <row r="7">
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>4204.26</v>
+        <v>4205.04</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>9.09</v>
       </c>
       <c r="I7" t="n">
-        <v>260.84</v>
+        <v>260.88</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8930880</v>
+        <v>8939246</v>
       </c>
       <c r="E8" t="n">
-        <v>9156084</v>
+        <v>9164660</v>
       </c>
       <c r="F8" t="n">
-        <v>121.4557430631763</v>
+        <v>2450.736556201919</v>
       </c>
       <c r="G8" t="n">
-        <v>207.2727195462665</v>
+        <v>172.4540647563024</v>
       </c>
       <c r="H8" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="I8" t="n">
-        <v>47363</v>
+        <v>50705</v>
       </c>
     </row>
     <row r="9">
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>303584</v>
+        <v>303545</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5195636</v>
+        <v>5199013</v>
       </c>
       <c r="E10" t="n">
-        <v>8301064</v>
+        <v>8306460</v>
       </c>
       <c r="F10" t="n">
-        <v>280.5356876295616</v>
+        <v>258.0322343110179</v>
       </c>
       <c r="G10" t="n">
-        <v>248.7198000918834</v>
+        <v>225.3294083776543</v>
       </c>
       <c r="H10" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="I10" t="n">
-        <v>101624</v>
+        <v>101464</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1002375</v>
+        <v>1002380</v>
       </c>
       <c r="E11" t="n">
-        <v>12266365</v>
+        <v>12266422</v>
       </c>
       <c r="F11" t="n">
-        <v>1580.370317379731</v>
+        <v>1579.928903782323</v>
       </c>
       <c r="G11" t="n">
-        <v>1665.628741514785</v>
+        <v>1665.174292422384</v>
       </c>
       <c r="H11" t="n">
-        <v>0.49</v>
+        <v>0.41</v>
       </c>
       <c r="I11" t="n">
-        <v>2109.17</v>
+        <v>2109.16</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>592193</v>
+        <v>582595</v>
       </c>
       <c r="E12" t="n">
-        <v>592193</v>
+        <v>582595</v>
       </c>
       <c r="F12" t="n">
-        <v>408.8842195625201</v>
+        <v>15.43300085556048</v>
       </c>
       <c r="G12" t="n">
-        <v>115.7375428185832</v>
+        <v>94.11052095142576</v>
       </c>
       <c r="H12" t="n">
-        <v>1.82</v>
+        <v>1.98</v>
       </c>
       <c r="I12" t="n">
-        <v>22747</v>
+        <v>22893</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4720957</v>
+        <v>4690865</v>
       </c>
       <c r="E13" t="n">
-        <v>28997728</v>
+        <v>28812896</v>
       </c>
       <c r="F13" t="n">
-        <v>897.5514474244756</v>
+        <v>857.9523567516993</v>
       </c>
       <c r="G13" t="n">
-        <v>856.6386678613076</v>
+        <v>1099.794620660404</v>
       </c>
       <c r="H13" t="n">
-        <v>0.79</v>
+        <v>0.52</v>
       </c>
       <c r="I13" t="n">
-        <v>492299</v>
+        <v>491292</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>198077</v>
+        <v>197868</v>
       </c>
       <c r="E14" t="n">
-        <v>2179062</v>
+        <v>2176769</v>
       </c>
       <c r="F14" t="n">
-        <v>641.3222154722647</v>
+        <v>641.2555301503447</v>
       </c>
       <c r="G14" t="n">
-        <v>783.9519214515635</v>
+        <v>783.8704053509349</v>
       </c>
       <c r="H14" t="n">
         <v>1.82</v>
       </c>
       <c r="I14" t="n">
-        <v>35076</v>
+        <v>34553</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3348246</v>
+        <v>3349456</v>
       </c>
       <c r="E15" t="n">
-        <v>9525465</v>
+        <v>9528907</v>
       </c>
       <c r="F15" t="n">
-        <v>2842.238747801818</v>
+        <v>1498.455763098876</v>
       </c>
       <c r="G15" t="n">
-        <v>381.2024338858226</v>
+        <v>380.7574620644741</v>
       </c>
       <c r="H15" t="n">
-        <v>1.35</v>
+        <v>1.15</v>
       </c>
       <c r="I15" t="n">
-        <v>122078</v>
+        <v>118823</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>326159</v>
+        <v>325756</v>
       </c>
       <c r="E16" t="n">
-        <v>3764613</v>
+        <v>3759957</v>
       </c>
       <c r="F16" t="n">
-        <v>137.9050125663863</v>
+        <v>137.4744600540696</v>
       </c>
       <c r="G16" t="n">
-        <v>130.2921326827898</v>
+        <v>131.210918448354</v>
       </c>
       <c r="H16" t="n">
         <v>0.76</v>
       </c>
       <c r="I16" t="n">
-        <v>4896.79</v>
+        <v>4892.69</v>
       </c>
     </row>
     <row r="17">
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>935339</v>
+        <v>936343</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>4.42</v>
       </c>
       <c r="I17" t="n">
-        <v>11487.04</v>
+        <v>11660.73</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>22487790</v>
+        <v>22472407</v>
       </c>
       <c r="E18" t="n">
-        <v>22529738</v>
+        <v>22514327</v>
       </c>
       <c r="F18" t="n">
-        <v>2481.919324952069</v>
+        <v>2713.838037325171</v>
       </c>
       <c r="G18" t="n">
-        <v>1631.085323209696</v>
+        <v>1690.758496750671</v>
       </c>
       <c r="H18" t="n">
-        <v>0.53</v>
+        <v>0.39</v>
       </c>
       <c r="I18" t="n">
-        <v>872621</v>
+        <v>876292</v>
       </c>
     </row>
     <row r="19">
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>6872908</v>
+        <v>6740017</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>5.45</v>
+        <v>5.31</v>
       </c>
       <c r="I19" t="n">
-        <v>25571</v>
+        <v>27550</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2441559</v>
+        <v>2443062</v>
       </c>
       <c r="E20" t="n">
-        <v>2441559</v>
+        <v>2443062</v>
       </c>
       <c r="F20" t="n">
-        <v>295.6966238533664</v>
+        <v>295.6648340464909</v>
       </c>
       <c r="G20" t="n">
-        <v>492.4794100420926</v>
+        <v>492.4264644753445</v>
       </c>
       <c r="H20" t="n">
         <v>1.58</v>
       </c>
       <c r="I20" t="n">
-        <v>323931</v>
+        <v>322463</v>
       </c>
     </row>
     <row r="21">
@@ -1165,13 +1165,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>409067</v>
+        <v>409143</v>
       </c>
       <c r="F21" t="n">
-        <v>199.2856390635829</v>
+        <v>153.6947444794343</v>
       </c>
       <c r="G21" t="n">
-        <v>98.00825404366387</v>
+        <v>97.99808452016644</v>
       </c>
       <c r="H21" t="n">
         <v>0.96</v>
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>18368011</v>
+        <v>18139727</v>
       </c>
       <c r="E22" t="n">
-        <v>23641137</v>
+        <v>23347317</v>
       </c>
       <c r="F22" t="n">
-        <v>3351.853381460425</v>
+        <v>5682.835619833768</v>
       </c>
       <c r="G22" t="n">
-        <v>1310.504737140463</v>
+        <v>4329.540871962553</v>
       </c>
       <c r="H22" t="n">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="I22" t="n">
-        <v>2065088</v>
+        <v>2088458</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>468103128</v>
+        <v>471974051</v>
       </c>
       <c r="E23" t="n">
-        <v>468103132</v>
+        <v>471974051</v>
       </c>
       <c r="F23" t="n">
-        <v>59901.94671853348</v>
+        <v>57914.40853590671</v>
       </c>
       <c r="G23" t="n">
-        <v>72074.31882231709</v>
+        <v>73224.45971281648</v>
       </c>
       <c r="H23" t="n">
         <v>0.04</v>
       </c>
       <c r="I23" t="n">
-        <v>65495606</v>
+        <v>79020817</v>
       </c>
     </row>
     <row r="24">
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>22847</v>
+        <v>22846</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1282,7 +1282,7 @@
         <v>7.75</v>
       </c>
       <c r="I24" t="n">
-        <v>3074.9</v>
+        <v>3074.78</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4681450</v>
+        <v>4700034</v>
       </c>
       <c r="E25" t="n">
-        <v>4681450</v>
+        <v>4700034</v>
       </c>
       <c r="F25" t="n">
-        <v>322.9602611475854</v>
+        <v>870.328295618207</v>
       </c>
       <c r="G25" t="n">
-        <v>1419.87533340298</v>
+        <v>1108.101115690158</v>
       </c>
       <c r="H25" t="n">
-        <v>0.77</v>
+        <v>0.13</v>
       </c>
       <c r="I25" t="n">
-        <v>2008898</v>
+        <v>1940608</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3421139</v>
+        <v>3421529</v>
       </c>
       <c r="E26" t="n">
-        <v>3421139</v>
+        <v>3421529</v>
       </c>
       <c r="F26" t="n">
-        <v>229.9956676170786</v>
+        <v>264.8118078545797</v>
       </c>
       <c r="G26" t="n">
-        <v>1190.254140853262</v>
+        <v>313.9030141667578</v>
       </c>
       <c r="H26" t="n">
-        <v>1.42</v>
+        <v>1.05</v>
       </c>
       <c r="I26" t="n">
-        <v>546359</v>
+        <v>547441</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>324105</v>
+        <v>324272</v>
       </c>
       <c r="E27" t="n">
-        <v>1512953</v>
+        <v>1513736</v>
       </c>
       <c r="F27" t="n">
-        <v>1405.54563785063</v>
+        <v>2166.529735419898</v>
       </c>
       <c r="G27" t="n">
-        <v>450.535048254243</v>
+        <v>489.2305865416562</v>
       </c>
       <c r="H27" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="I27" t="n">
-        <v>647234</v>
+        <v>645630</v>
       </c>
     </row>
     <row r="28">
@@ -1410,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1595212</v>
+        <v>1595852</v>
       </c>
       <c r="F28" t="n">
-        <v>460.90337891933</v>
+        <v>501.4633320572125</v>
       </c>
       <c r="G28" t="n">
-        <v>339.6225901621183</v>
+        <v>318.8542768472931</v>
       </c>
       <c r="H28" t="n">
         <v>0.13</v>
       </c>
       <c r="I28" t="n">
-        <v>234730</v>
+        <v>240745</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>12874821</v>
+        <v>12860611</v>
       </c>
       <c r="E29" t="n">
-        <v>32043101</v>
+        <v>32007735</v>
       </c>
       <c r="F29" t="n">
-        <v>795.4988766497574</v>
+        <v>857.5978149109823</v>
       </c>
       <c r="G29" t="n">
-        <v>1165.543781760861</v>
+        <v>1063.699400871868</v>
       </c>
       <c r="H29" t="n">
-        <v>0.62</v>
+        <v>0.22</v>
       </c>
       <c r="I29" t="n">
-        <v>1595999</v>
+        <v>1596675</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>924116</v>
+        <v>897625</v>
       </c>
       <c r="E30" t="n">
-        <v>6468816</v>
+        <v>6283377</v>
       </c>
       <c r="F30" t="n">
-        <v>18.32805560228498</v>
+        <v>49.49426270327569</v>
       </c>
       <c r="G30" t="n">
-        <v>41.08304714703983</v>
+        <v>280.8816240003888</v>
       </c>
       <c r="H30" t="n">
-        <v>2.68</v>
+        <v>2.97</v>
       </c>
       <c r="I30" t="n">
-        <v>172039</v>
+        <v>169240</v>
       </c>
     </row>
     <row r="31">
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>191077</v>
+        <v>178572</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         <v>7.89</v>
       </c>
       <c r="I31" t="n">
-        <v>6072.21</v>
+        <v>6073.29</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5250366</v>
+        <v>5220606</v>
       </c>
       <c r="E32" t="n">
-        <v>5501544</v>
+        <v>5470360</v>
       </c>
       <c r="F32" t="n">
-        <v>319.0470278914651</v>
+        <v>108.7420794014922</v>
       </c>
       <c r="G32" t="n">
-        <v>33.58524111813217</v>
+        <v>428.9727251540533</v>
       </c>
       <c r="H32" t="n">
-        <v>2.33</v>
+        <v>1.88</v>
       </c>
       <c r="I32" t="n">
-        <v>171428</v>
+        <v>172640</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>5386905</v>
+        <v>5383604</v>
       </c>
       <c r="E33" t="n">
-        <v>7929816</v>
+        <v>7924956</v>
       </c>
       <c r="F33" t="n">
-        <v>61.8899202536315</v>
+        <v>68.68769609264362</v>
       </c>
       <c r="G33" t="n">
-        <v>202.4869499528012</v>
+        <v>326.0056392701758</v>
       </c>
       <c r="H33" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.53</v>
       </c>
       <c r="I33" t="n">
-        <v>628438</v>
+        <v>628502</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7664064</v>
+        <v>7656074</v>
       </c>
       <c r="E34" t="n">
-        <v>7664064</v>
+        <v>7656074</v>
       </c>
       <c r="F34" t="n">
-        <v>32484.34933087098</v>
+        <v>31852.39125804912</v>
       </c>
       <c r="G34" t="n">
-        <v>32033.74720252077</v>
+        <v>32360.66475459855</v>
       </c>
       <c r="H34" t="n">
-        <v>0.82</v>
+        <v>0.38</v>
       </c>
       <c r="I34" t="n">
-        <v>248233</v>
+        <v>247163</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1458072</v>
+        <v>1459508</v>
       </c>
       <c r="E35" t="n">
-        <v>1458072</v>
+        <v>1459547</v>
       </c>
       <c r="F35" t="n">
-        <v>479.9284194286093</v>
+        <v>468.2635852806731</v>
       </c>
       <c r="G35" t="n">
-        <v>115.3932092440458</v>
+        <v>235.629849878854</v>
       </c>
       <c r="H35" t="n">
-        <v>1.01</v>
+        <v>0.58</v>
       </c>
       <c r="I35" t="n">
-        <v>276626</v>
+        <v>276329</v>
       </c>
     </row>
     <row r="36">
@@ -1690,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>16545908</v>
+        <v>16544153</v>
       </c>
       <c r="F36" t="n">
-        <v>266.5690946104377</v>
+        <v>172.4596962195544</v>
       </c>
       <c r="G36" t="n">
-        <v>170.199558943868</v>
+        <v>169.9772066285584</v>
       </c>
       <c r="H36" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="I36" t="n">
-        <v>10258.2</v>
+        <v>10262.53</v>
       </c>
     </row>
     <row r="37">
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>65175</v>
+        <v>65187</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1753,22 +1753,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>136175177</v>
+        <v>136864091</v>
       </c>
       <c r="E38" t="n">
-        <v>136175177</v>
+        <v>136864091</v>
       </c>
       <c r="F38" t="n">
-        <v>333538.354084381</v>
+        <v>306104.980033927</v>
       </c>
       <c r="G38" t="n">
-        <v>356949.0232320419</v>
+        <v>345583.6126811824</v>
       </c>
       <c r="H38" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I38" t="n">
-        <v>66458389</v>
+        <v>66733766</v>
       </c>
     </row>
     <row r="39">
@@ -1788,22 +1788,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>64931280</v>
+        <v>65248334</v>
       </c>
       <c r="E39" t="n">
-        <v>332980923</v>
+        <v>334606842</v>
       </c>
       <c r="F39" t="n">
-        <v>81315.34790597038</v>
+        <v>85536.96357851327</v>
       </c>
       <c r="G39" t="n">
-        <v>99028.27595451829</v>
+        <v>85873.95701789371</v>
       </c>
       <c r="H39" t="n">
         <v>0.06</v>
       </c>
       <c r="I39" t="n">
-        <v>19322875</v>
+        <v>19407748</v>
       </c>
     </row>
     <row r="40">
@@ -1823,10 +1823,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>45379</v>
+        <v>45631</v>
       </c>
       <c r="E40" t="n">
-        <v>134102</v>
+        <v>134847</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -1835,10 +1835,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>7.05</v>
+        <v>8.42</v>
       </c>
       <c r="I40" t="n">
-        <v>781.02</v>
+        <v>791.66</v>
       </c>
     </row>
     <row r="41">
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>51945</v>
+        <v>51997</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -1870,10 +1870,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>6.04</v>
+        <v>5.95</v>
       </c>
       <c r="I41" t="n">
-        <v>25513</v>
+        <v>25642</v>
       </c>
     </row>
     <row r="42">
@@ -1896,19 +1896,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>595476</v>
+        <v>596121</v>
       </c>
       <c r="F42" t="n">
-        <v>1305.614028627009</v>
+        <v>2190.033342287502</v>
       </c>
       <c r="G42" t="n">
-        <v>398.1777077550986</v>
+        <v>398.1649933974019</v>
       </c>
       <c r="H42" t="n">
         <v>0.7</v>
       </c>
       <c r="I42" t="n">
-        <v>1422.49</v>
+        <v>1424.16</v>
       </c>
     </row>
     <row r="43">
@@ -1961,22 +1961,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2715809</v>
+        <v>2731731</v>
       </c>
       <c r="E44" t="n">
-        <v>10914218</v>
+        <v>10978205</v>
       </c>
       <c r="F44" t="n">
-        <v>180.0587928045097</v>
+        <v>211.1384408892516</v>
       </c>
       <c r="G44" t="n">
-        <v>249.9969669474626</v>
+        <v>154.7483682317319</v>
       </c>
       <c r="H44" t="n">
-        <v>3.54</v>
+        <v>1.79</v>
       </c>
       <c r="I44" t="n">
-        <v>28066</v>
+        <v>32426</v>
       </c>
     </row>
     <row r="45">
@@ -1996,22 +1996,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>17540396</v>
+        <v>17553803</v>
       </c>
       <c r="E45" t="n">
-        <v>123638895</v>
+        <v>123733396</v>
       </c>
       <c r="F45" t="n">
-        <v>190.6253606283699</v>
+        <v>191.2973239696687</v>
       </c>
       <c r="G45" t="n">
-        <v>268.0636678928192</v>
+        <v>267.9881051092588</v>
       </c>
       <c r="H45" t="n">
         <v>0.68</v>
       </c>
       <c r="I45" t="n">
-        <v>1049295</v>
+        <v>1068143</v>
       </c>
     </row>
     <row r="46">
@@ -2031,10 +2031,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>147560</v>
+        <v>147523</v>
       </c>
       <c r="E46" t="n">
-        <v>1974439</v>
+        <v>1973935</v>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>46139</v>
+        <v>46127</v>
       </c>
     </row>
     <row r="47">
@@ -2064,22 +2064,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>253870462</v>
+        <v>253917060</v>
       </c>
       <c r="E47" t="n">
-        <v>253870462</v>
+        <v>253917060</v>
       </c>
       <c r="F47" t="n">
-        <v>106783.3336450877</v>
+        <v>107633.4112314436</v>
       </c>
       <c r="G47" t="n">
-        <v>153225.2437657213</v>
+        <v>157245.3644739054</v>
       </c>
       <c r="H47" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I47" t="n">
-        <v>14992943</v>
+        <v>15065684</v>
       </c>
     </row>
     <row r="48">
@@ -2099,22 +2099,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>630841</v>
+        <v>632188</v>
       </c>
       <c r="E48" t="n">
-        <v>630841</v>
+        <v>632188</v>
       </c>
       <c r="F48" t="n">
-        <v>568.8917766158509</v>
+        <v>569.9002981792994</v>
       </c>
       <c r="G48" t="n">
-        <v>111.4156994921301</v>
+        <v>160.218459337329</v>
       </c>
       <c r="H48" t="n">
-        <v>2.64</v>
+        <v>2.48</v>
       </c>
       <c r="I48" t="n">
-        <v>3346.14</v>
+        <v>3349.78</v>
       </c>
     </row>
     <row r="49">
@@ -2167,22 +2167,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>459928254</v>
+        <v>459041424</v>
       </c>
       <c r="E50" t="n">
-        <v>459928254</v>
+        <v>459041424</v>
       </c>
       <c r="F50" t="n">
-        <v>3738.981109678693</v>
+        <v>3107.785070406637</v>
       </c>
       <c r="G50" t="n">
-        <v>1904.909490157101</v>
+        <v>2110.682441164658</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="I50" t="n">
-        <v>3062029</v>
+        <v>3079892</v>
       </c>
     </row>
     <row r="51">
@@ -2202,22 +2202,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2393759</v>
+        <v>2475155</v>
       </c>
       <c r="E51" t="n">
-        <v>2393759</v>
+        <v>2475155</v>
       </c>
       <c r="F51" t="n">
-        <v>984.7410635440726</v>
+        <v>984.6348241226449</v>
       </c>
       <c r="G51" t="n">
-        <v>37.14592456730929</v>
+        <v>37.14207023527975</v>
       </c>
       <c r="H51" t="n">
         <v>1.7</v>
       </c>
       <c r="I51" t="n">
-        <v>59364</v>
+        <v>59433</v>
       </c>
     </row>
     <row r="52">
@@ -2237,10 +2237,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>21935</v>
+        <v>21934</v>
       </c>
       <c r="E52" t="n">
-        <v>43869</v>
+        <v>43867</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -2252,7 +2252,7 @@
         <v>5.63</v>
       </c>
       <c r="I52" t="n">
-        <v>3991.63</v>
+        <v>3991.33</v>
       </c>
     </row>
     <row r="53">
@@ -2275,19 +2275,19 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>147344</v>
+        <v>146079</v>
       </c>
       <c r="F53" t="n">
-        <v>42.19051185351527</v>
+        <v>49.72784665572662</v>
       </c>
       <c r="G53" t="n">
-        <v>1.195071779989728</v>
+        <v>25.87402336202333</v>
       </c>
       <c r="H53" t="n">
-        <v>2.56</v>
+        <v>1.72</v>
       </c>
       <c r="I53" t="n">
-        <v>22722</v>
+        <v>22955</v>
       </c>
     </row>
     <row r="54">
@@ -2307,22 +2307,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2542772</v>
+        <v>2540708</v>
       </c>
       <c r="E54" t="n">
-        <v>6500817</v>
+        <v>6495539</v>
       </c>
       <c r="F54" t="n">
-        <v>295.0520534194029</v>
+        <v>271.1213443208537</v>
       </c>
       <c r="G54" t="n">
-        <v>291.4342307928161</v>
+        <v>283.5551417511924</v>
       </c>
       <c r="H54" t="n">
         <v>1.65</v>
       </c>
       <c r="I54" t="n">
-        <v>119820</v>
+        <v>119024</v>
       </c>
     </row>
     <row r="55">
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>3822.42</v>
+        <v>3824.67</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>4.16</v>
       </c>
       <c r="I55" t="n">
-        <v>713.37</v>
+        <v>715.38</v>
       </c>
     </row>
     <row r="56">
@@ -2377,22 +2377,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>73188396</v>
+        <v>72940248</v>
       </c>
       <c r="E56" t="n">
-        <v>73188396</v>
+        <v>72940248</v>
       </c>
       <c r="F56" t="n">
-        <v>17135.92869158504</v>
+        <v>21352.98732251731</v>
       </c>
       <c r="G56" t="n">
-        <v>17541.52519407537</v>
+        <v>25283.16403060061</v>
       </c>
       <c r="H56" t="n">
-        <v>0.29</v>
+        <v>0.18</v>
       </c>
       <c r="I56" t="n">
-        <v>3993770</v>
+        <v>3986905</v>
       </c>
     </row>
     <row r="57">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3587400</v>
+        <v>3579869</v>
       </c>
       <c r="E57" t="n">
-        <v>4545863</v>
+        <v>4536319</v>
       </c>
       <c r="F57" t="n">
-        <v>133.866798042188</v>
+        <v>109.1294603082063</v>
       </c>
       <c r="G57" t="n">
-        <v>1412.037067120425</v>
+        <v>343.660083061486</v>
       </c>
       <c r="H57" t="n">
         <v>0.21</v>
       </c>
       <c r="I57" t="n">
-        <v>266655</v>
+        <v>265950</v>
       </c>
     </row>
     <row r="58">
@@ -2447,22 +2447,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>4183615</v>
+        <v>4171322</v>
       </c>
       <c r="E58" t="n">
-        <v>8250440</v>
+        <v>8226199</v>
       </c>
       <c r="F58" t="n">
-        <v>2259.029634972611</v>
+        <v>2730.222036418372</v>
       </c>
       <c r="G58" t="n">
-        <v>2105.295337847712</v>
+        <v>2032.152256114069</v>
       </c>
       <c r="H58" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="I58" t="n">
-        <v>1648517</v>
+        <v>1639911</v>
       </c>
     </row>
     <row r="59">
@@ -2482,22 +2482,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1571831</v>
+        <v>1569662</v>
       </c>
       <c r="E59" t="n">
-        <v>9024866</v>
+        <v>9012416</v>
       </c>
       <c r="F59" t="n">
-        <v>357.0488704213429</v>
+        <v>357.0117441246222</v>
       </c>
       <c r="G59" t="n">
-        <v>496.0285645423989</v>
+        <v>495.9769869988334</v>
       </c>
       <c r="H59" t="n">
         <v>1.31</v>
       </c>
       <c r="I59" t="n">
-        <v>335030</v>
+        <v>335414</v>
       </c>
     </row>
     <row r="60">
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>536715</v>
+        <v>540280</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>8.77</v>
       </c>
       <c r="I60" t="n">
-        <v>2022.56</v>
+        <v>2023.45</v>
       </c>
     </row>
     <row r="61">
@@ -2555,19 +2555,19 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>31834532</v>
+        <v>31747112</v>
       </c>
       <c r="F61" t="n">
-        <v>487.7114364134947</v>
+        <v>686.3236022021159</v>
       </c>
       <c r="G61" t="n">
-        <v>1789.192223473223</v>
+        <v>955.9709038341027</v>
       </c>
       <c r="H61" t="n">
-        <v>0.06</v>
+        <v>0.39</v>
       </c>
       <c r="I61" t="n">
-        <v>248998</v>
+        <v>250964</v>
       </c>
     </row>
     <row r="62">
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>1436559</v>
+        <v>1433393</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>7.85</v>
       </c>
       <c r="I62" t="n">
-        <v>27496</v>
+        <v>27468</v>
       </c>
     </row>
     <row r="63">
@@ -2622,22 +2622,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>7612535</v>
+        <v>7659380</v>
       </c>
       <c r="E63" t="n">
-        <v>17929034</v>
+        <v>18039363</v>
       </c>
       <c r="F63" t="n">
-        <v>1088.258994620335</v>
+        <v>1088.149644312819</v>
       </c>
       <c r="G63" t="n">
-        <v>2313.797890553557</v>
+        <v>2283.045119852482</v>
       </c>
       <c r="H63" t="n">
-        <v>1.74</v>
+        <v>1.54</v>
       </c>
       <c r="I63" t="n">
-        <v>36400</v>
+        <v>29362</v>
       </c>
     </row>
     <row r="64">
@@ -2657,22 +2657,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2931561</v>
+        <v>2979356</v>
       </c>
       <c r="E64" t="n">
-        <v>2931561</v>
+        <v>2979356</v>
       </c>
       <c r="F64" t="n">
-        <v>199.0848494063341</v>
+        <v>91.43309819534571</v>
       </c>
       <c r="G64" t="n">
-        <v>47.97872314335943</v>
+        <v>261.037422047293</v>
       </c>
       <c r="H64" t="n">
-        <v>3.9</v>
+        <v>3.29</v>
       </c>
       <c r="I64" t="n">
-        <v>17146.59</v>
+        <v>17944.27</v>
       </c>
     </row>
     <row r="65">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3370396</v>
+        <v>3363802</v>
       </c>
       <c r="E65" t="n">
-        <v>8316280</v>
+        <v>8300009</v>
       </c>
       <c r="F65" t="n">
-        <v>621.8796871658338</v>
+        <v>613.6254189889358</v>
       </c>
       <c r="G65" t="n">
-        <v>1233.065799319763</v>
+        <v>1203.090736426839</v>
       </c>
       <c r="H65" t="n">
         <v>0.76</v>
       </c>
       <c r="I65" t="n">
-        <v>50263</v>
+        <v>50142</v>
       </c>
     </row>
     <row r="66">
@@ -2730,19 +2730,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>269561</v>
+        <v>269805</v>
       </c>
       <c r="F66" t="n">
-        <v>85.01259581330751</v>
+        <v>85.0037747441115</v>
       </c>
       <c r="G66" t="n">
-        <v>5.389176818495954</v>
+        <v>5.388617627223522</v>
       </c>
       <c r="H66" t="n">
         <v>3.33</v>
       </c>
       <c r="I66" t="n">
-        <v>1580.91</v>
+        <v>1417.66</v>
       </c>
     </row>
     <row r="67">
@@ -2762,22 +2762,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>73051907</v>
+        <v>73307726</v>
       </c>
       <c r="E67" t="n">
-        <v>152350324</v>
+        <v>152883835</v>
       </c>
       <c r="F67" t="n">
-        <v>53249.98871361632</v>
+        <v>65727.28237500999</v>
       </c>
       <c r="G67" t="n">
-        <v>99170.23060581196</v>
+        <v>89263.35674726742</v>
       </c>
       <c r="H67" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I67" t="n">
-        <v>14457450</v>
+        <v>14500784</v>
       </c>
     </row>
     <row r="68">
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>2080802</v>
+        <v>2160755</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>5.58</v>
       </c>
       <c r="I68" t="n">
-        <v>4286.16</v>
+        <v>4289.82</v>
       </c>
     </row>
     <row r="69">
@@ -2835,19 +2835,19 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>206759762</v>
+        <v>206606598</v>
       </c>
       <c r="F69" t="n">
-        <v>5106.288792831903</v>
+        <v>3118.325395882567</v>
       </c>
       <c r="G69" t="n">
-        <v>1438.529188743959</v>
+        <v>3072.093834718563</v>
       </c>
       <c r="H69" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="I69" t="n">
-        <v>4702647</v>
+        <v>4713424</v>
       </c>
     </row>
     <row r="70">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>179122</v>
+        <v>179130</v>
       </c>
       <c r="E70" t="n">
-        <v>187054</v>
+        <v>187062</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -2879,10 +2879,10 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>14.22</v>
+        <v>13.27</v>
       </c>
       <c r="I70" t="n">
-        <v>460.83</v>
+        <v>460.89</v>
       </c>
     </row>
     <row r="71">
@@ -2902,22 +2902,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>144965046</v>
+        <v>145070212</v>
       </c>
       <c r="E71" t="n">
-        <v>145009653</v>
+        <v>145115437</v>
       </c>
       <c r="F71" t="n">
-        <v>32576.95492389675</v>
+        <v>32600.9696014121</v>
       </c>
       <c r="G71" t="n">
-        <v>47434.87049723249</v>
+        <v>47862.77326772419</v>
       </c>
       <c r="H71" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="I71" t="n">
-        <v>2536106</v>
+        <v>2525349</v>
       </c>
     </row>
     <row r="72">
@@ -2937,22 +2937,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>26263241</v>
+        <v>26319399</v>
       </c>
       <c r="E72" t="n">
-        <v>86190938</v>
+        <v>86375236</v>
       </c>
       <c r="F72" t="n">
-        <v>23134.54109350705</v>
+        <v>22984.70865991482</v>
       </c>
       <c r="G72" t="n">
-        <v>27901.63486501775</v>
+        <v>12015.72439135481</v>
       </c>
       <c r="H72" t="n">
-        <v>0.46</v>
+        <v>0.57</v>
       </c>
       <c r="I72" t="n">
-        <v>85752</v>
+        <v>86552</v>
       </c>
     </row>
     <row r="73">
@@ -2972,10 +2972,10 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>118908</v>
+        <v>118902</v>
       </c>
       <c r="E73" t="n">
-        <v>118908</v>
+        <v>118902</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -2987,7 +2987,7 @@
         <v>4.17</v>
       </c>
       <c r="I73" t="n">
-        <v>158.26</v>
+        <v>158.24</v>
       </c>
     </row>
     <row r="74">
@@ -3007,22 +3007,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>197831519</v>
+        <v>197738432</v>
       </c>
       <c r="E74" t="n">
-        <v>687284577</v>
+        <v>686961183</v>
       </c>
       <c r="F74" t="n">
-        <v>134250.8340786895</v>
+        <v>144192.6662809589</v>
       </c>
       <c r="G74" t="n">
-        <v>206685.837151932</v>
+        <v>201427.2251199952</v>
       </c>
       <c r="H74" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I74" t="n">
-        <v>25855084</v>
+        <v>25923138</v>
       </c>
     </row>
     <row r="75">
@@ -3042,22 +3042,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>4128072</v>
+        <v>4105581</v>
       </c>
       <c r="E75" t="n">
-        <v>4128072</v>
+        <v>4105581</v>
       </c>
       <c r="F75" t="n">
-        <v>1279.253176280906</v>
+        <v>205.8582922165222</v>
       </c>
       <c r="G75" t="n">
-        <v>749.5805336398533</v>
+        <v>743.8735039121716</v>
       </c>
       <c r="H75" t="n">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="I75" t="n">
-        <v>3447771</v>
+        <v>3512161</v>
       </c>
     </row>
     <row r="76">
@@ -3077,22 +3077,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>115604708</v>
+        <v>116102736</v>
       </c>
       <c r="E76" t="n">
-        <v>491605592</v>
+        <v>493723442</v>
       </c>
       <c r="F76" t="n">
-        <v>220995.395699558</v>
+        <v>189204.5672092047</v>
       </c>
       <c r="G76" t="n">
-        <v>214760.9014271815</v>
+        <v>281065.9511313186</v>
       </c>
       <c r="H76" t="n">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="I76" t="n">
-        <v>14381304</v>
+        <v>14496802</v>
       </c>
     </row>
     <row r="77">
@@ -3115,19 +3115,19 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1850257</v>
+        <v>1849826</v>
       </c>
       <c r="F77" t="n">
-        <v>109.3245231710208</v>
+        <v>109.3131794498405</v>
       </c>
       <c r="G77" t="n">
-        <v>93.01966721277473</v>
+        <v>93.01001531456805</v>
       </c>
       <c r="H77" t="n">
         <v>0.54</v>
       </c>
       <c r="I77" t="n">
-        <v>433.04</v>
+        <v>432.83</v>
       </c>
     </row>
     <row r="78">
@@ -3147,22 +3147,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3130211</v>
+        <v>3129825</v>
       </c>
       <c r="E78" t="n">
-        <v>15694171</v>
+        <v>15692233</v>
       </c>
       <c r="F78" t="n">
-        <v>156.3704151794019</v>
+        <v>156.3541898866754</v>
       </c>
       <c r="G78" t="n">
-        <v>313.3000166336592</v>
+        <v>313.2675080259711</v>
       </c>
       <c r="H78" t="n">
         <v>1.85</v>
       </c>
       <c r="I78" t="n">
-        <v>32987</v>
+        <v>33217</v>
       </c>
     </row>
     <row r="79">
@@ -3182,22 +3182,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>543913</v>
+        <v>544121</v>
       </c>
       <c r="E79" t="n">
-        <v>9303599</v>
+        <v>9307145</v>
       </c>
       <c r="F79" t="n">
-        <v>297.3669700824574</v>
+        <v>296.9286676673561</v>
       </c>
       <c r="G79" t="n">
-        <v>259.0896994761294</v>
+        <v>258.8191915971238</v>
       </c>
       <c r="H79" t="n">
-        <v>2.36</v>
+        <v>2.16</v>
       </c>
       <c r="I79" t="n">
-        <v>270683</v>
+        <v>265646</v>
       </c>
     </row>
     <row r="80">
@@ -3217,22 +3217,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>5781752</v>
+        <v>5798425</v>
       </c>
       <c r="E80" t="n">
-        <v>7855649</v>
+        <v>7878648</v>
       </c>
       <c r="F80" t="n">
-        <v>333.6304467606885</v>
+        <v>314.7037256071294</v>
       </c>
       <c r="G80" t="n">
-        <v>802.1043540552701</v>
+        <v>693.6649725934058</v>
       </c>
       <c r="H80" t="n">
-        <v>0.47</v>
+        <v>0.4</v>
       </c>
       <c r="I80" t="n">
-        <v>5972659</v>
+        <v>5972513</v>
       </c>
     </row>
     <row r="81">
@@ -3251,19 +3251,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>42343</v>
+        <v>42351</v>
       </c>
       <c r="F81" t="n">
-        <v>125.335784801986</v>
+        <v>127.1153083158747</v>
       </c>
       <c r="G81" t="n">
-        <v>23.68946402780721</v>
+        <v>83.46822114638802</v>
       </c>
       <c r="H81" t="n">
-        <v>2.94</v>
+        <v>2.74</v>
       </c>
       <c r="I81" t="n">
-        <v>58979</v>
+        <v>58521</v>
       </c>
     </row>
     <row r="82">
@@ -3283,22 +3283,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>39892229</v>
+        <v>39663321</v>
       </c>
       <c r="E82" t="n">
-        <v>46593177</v>
+        <v>46325817</v>
       </c>
       <c r="F82" t="n">
-        <v>226.6018411601145</v>
+        <v>293.8355695016818</v>
       </c>
       <c r="G82" t="n">
-        <v>17.09739486544667</v>
+        <v>46.85492036230838</v>
       </c>
       <c r="H82" t="n">
-        <v>2.42</v>
+        <v>2.92</v>
       </c>
       <c r="I82" t="n">
-        <v>857617</v>
+        <v>862477</v>
       </c>
     </row>
     <row r="83">
@@ -3321,19 +3321,19 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>14445467</v>
+        <v>14446839</v>
       </c>
       <c r="F83" t="n">
-        <v>341.6212042130277</v>
+        <v>335.1096534603354</v>
       </c>
       <c r="G83" t="n">
-        <v>751.1197937717118</v>
+        <v>752.5203731908956</v>
       </c>
       <c r="H83" t="n">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="I83" t="n">
-        <v>388151</v>
+        <v>393504</v>
       </c>
     </row>
     <row r="84">
@@ -3353,22 +3353,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>35947424</v>
+        <v>36050116</v>
       </c>
       <c r="E84" t="n">
-        <v>35947424</v>
+        <v>36050116</v>
       </c>
       <c r="F84" t="n">
-        <v>185.6321514040877</v>
+        <v>287.8764578978937</v>
       </c>
       <c r="G84" t="n">
-        <v>120.0082611966276</v>
+        <v>249.3806293554756</v>
       </c>
       <c r="H84" t="n">
-        <v>2.01</v>
+        <v>1.65</v>
       </c>
       <c r="I84" t="n">
-        <v>768519</v>
+        <v>767768</v>
       </c>
     </row>
     <row r="85">
@@ -3388,22 +3388,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>535219</v>
+        <v>534234</v>
       </c>
       <c r="E85" t="n">
-        <v>6491689</v>
+        <v>6479732</v>
       </c>
       <c r="F85" t="n">
-        <v>837.0769677839804</v>
+        <v>857.1746371787326</v>
       </c>
       <c r="G85" t="n">
-        <v>1070.784629227319</v>
+        <v>966.9569576001614</v>
       </c>
       <c r="H85" t="n">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="I85" t="n">
-        <v>2777611</v>
+        <v>2722199</v>
       </c>
     </row>
     <row r="86">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>25118766</v>
+        <v>25035680</v>
       </c>
       <c r="E86" t="n">
-        <v>35504396</v>
+        <v>35386955</v>
       </c>
       <c r="F86" t="n">
-        <v>67.83298537294121</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>863.7201378465148</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>2.53</v>
+        <v>4.29</v>
       </c>
       <c r="I86" t="n">
-        <v>72033</v>
+        <v>68331</v>
       </c>
     </row>
     <row r="87">
@@ -3458,22 +3458,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1286617032</v>
+        <v>1288184466</v>
       </c>
       <c r="E87" t="n">
-        <v>6169592163</v>
+        <v>6177108326</v>
       </c>
       <c r="F87" t="n">
-        <v>571461.0498488535</v>
+        <v>770970.1482392834</v>
       </c>
       <c r="G87" t="n">
-        <v>923619.4470453185</v>
+        <v>743419.5589269705</v>
       </c>
       <c r="H87" t="n">
         <v>0.02</v>
       </c>
       <c r="I87" t="n">
-        <v>176205940</v>
+        <v>181709001</v>
       </c>
     </row>
     <row r="88">
@@ -3493,22 +3493,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>266515875</v>
+        <v>266806946</v>
       </c>
       <c r="E88" t="n">
-        <v>1150430471</v>
+        <v>1151686895</v>
       </c>
       <c r="F88" t="n">
-        <v>964904.5145990911</v>
+        <v>950866.9723154416</v>
       </c>
       <c r="G88" t="n">
-        <v>1078662.048363286</v>
+        <v>975949.0464820702</v>
       </c>
       <c r="H88" t="n">
         <v>0.02</v>
       </c>
       <c r="I88" t="n">
-        <v>109654067</v>
+        <v>109830307</v>
       </c>
     </row>
     <row r="89">
@@ -3528,22 +3528,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>114863044</v>
+        <v>114643297</v>
       </c>
       <c r="E89" t="n">
-        <v>114863044</v>
+        <v>114643297</v>
       </c>
       <c r="F89" t="n">
-        <v>35089.46422070965</v>
+        <v>38156.42815953277</v>
       </c>
       <c r="G89" t="n">
-        <v>27708.86950025575</v>
+        <v>19888.73644210661</v>
       </c>
       <c r="H89" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="I89" t="n">
-        <v>6040137</v>
+        <v>6051508</v>
       </c>
     </row>
     <row r="90">
@@ -3563,22 +3563,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>3853310</v>
+        <v>3853268</v>
       </c>
       <c r="E90" t="n">
-        <v>29985990</v>
+        <v>29985665</v>
       </c>
       <c r="F90" t="n">
-        <v>10999.29092764241</v>
+        <v>10209.15779632316</v>
       </c>
       <c r="G90" t="n">
-        <v>12605.40611201016</v>
+        <v>11465.96809576681</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I90" t="n">
-        <v>10263.28</v>
+        <v>10257.57</v>
       </c>
     </row>
     <row r="91">
@@ -3601,19 +3601,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>3778833</v>
+        <v>3752672</v>
       </c>
       <c r="F91" t="n">
-        <v>1732.967102879189</v>
+        <v>3019.612979630062</v>
       </c>
       <c r="G91" t="n">
-        <v>2924.317516451517</v>
+        <v>3354.718243134471</v>
       </c>
       <c r="H91" t="n">
-        <v>0.6</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I91" t="n">
-        <v>293741</v>
+        <v>290956</v>
       </c>
     </row>
     <row r="92">
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>913352</v>
+        <v>871304</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
@@ -3645,10 +3645,10 @@
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>4.93</v>
+        <v>4.17</v>
       </c>
       <c r="I92" t="n">
-        <v>40352</v>
+        <v>39842</v>
       </c>
     </row>
     <row r="93">
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>140025</v>
+        <v>141867</v>
       </c>
       <c r="F93" t="n">
-        <v>9.063312818889692</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>114.233261494281</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.82</v>
+        <v>4.13</v>
       </c>
       <c r="I93" t="n">
-        <v>114921</v>
+        <v>115669</v>
       </c>
     </row>
     <row r="94">
@@ -3699,22 +3699,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>10802006</v>
+        <v>11033490</v>
       </c>
       <c r="E94" t="n">
-        <v>130439942</v>
+        <v>133235230</v>
       </c>
       <c r="F94" t="n">
-        <v>1260.706053745471</v>
+        <v>2976.982391356707</v>
       </c>
       <c r="G94" t="n">
-        <v>352.4461753041655</v>
+        <v>1923.222213777906</v>
       </c>
       <c r="H94" t="n">
-        <v>0.89</v>
+        <v>0.52</v>
       </c>
       <c r="I94" t="n">
-        <v>265557</v>
+        <v>237270</v>
       </c>
     </row>
     <row r="95">
@@ -3734,22 +3734,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>21031918</v>
+        <v>21014317</v>
       </c>
       <c r="E95" t="n">
-        <v>52579794</v>
+        <v>52535793</v>
       </c>
       <c r="F95" t="n">
-        <v>6505.101841416236</v>
+        <v>6098.82961091418</v>
       </c>
       <c r="G95" t="n">
-        <v>8566.290193686555</v>
+        <v>9380.18515813918</v>
       </c>
       <c r="H95" t="n">
-        <v>0.19</v>
+        <v>0.29</v>
       </c>
       <c r="I95" t="n">
-        <v>2081292</v>
+        <v>2104790</v>
       </c>
     </row>
     <row r="96">
@@ -3772,19 +3772,19 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>2327514</v>
+        <v>2323856</v>
       </c>
       <c r="F96" t="n">
-        <v>199.5253672495641</v>
+        <v>199.5055688977366</v>
       </c>
       <c r="G96" t="n">
-        <v>74.40115047168756</v>
+        <v>74.39376785075208</v>
       </c>
       <c r="H96" t="n">
         <v>1.95</v>
       </c>
       <c r="I96" t="n">
-        <v>62318</v>
+        <v>61770</v>
       </c>
     </row>
     <row r="97">
@@ -3807,19 +3807,19 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>19904324</v>
+        <v>19921025</v>
       </c>
       <c r="F97" t="n">
-        <v>793.4029884087577</v>
+        <v>1538.057630724597</v>
       </c>
       <c r="G97" t="n">
-        <v>1824.82350642316</v>
+        <v>1331.571383261208</v>
       </c>
       <c r="H97" t="n">
         <v>1.01</v>
       </c>
       <c r="I97" t="n">
-        <v>89173</v>
+        <v>75302</v>
       </c>
     </row>
     <row r="98">
@@ -3839,22 +3839,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4265086</v>
+        <v>4228064</v>
       </c>
       <c r="E98" t="n">
-        <v>12284812</v>
+        <v>12178176</v>
       </c>
       <c r="F98" t="n">
-        <v>522.3013062126766</v>
+        <v>94.91881961574384</v>
       </c>
       <c r="G98" t="n">
-        <v>394.0531551227893</v>
+        <v>1116.906073834726</v>
       </c>
       <c r="H98" t="n">
-        <v>1.38</v>
+        <v>0.74</v>
       </c>
       <c r="I98" t="n">
-        <v>594165</v>
+        <v>599433</v>
       </c>
     </row>
     <row r="99">
@@ -3877,19 +3877,19 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>1629867</v>
+        <v>1628069</v>
       </c>
       <c r="F99" t="n">
-        <v>107.9408586849414</v>
+        <v>107.8524052064266</v>
       </c>
       <c r="G99" t="n">
-        <v>94.58464090515227</v>
+        <v>8.641038461727135</v>
       </c>
       <c r="H99" t="n">
-        <v>2.54</v>
+        <v>2.42</v>
       </c>
       <c r="I99" t="n">
-        <v>276122</v>
+        <v>276413</v>
       </c>
     </row>
     <row r="100">
@@ -3909,22 +3909,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>80125164</v>
+        <v>80096869</v>
       </c>
       <c r="E100" t="n">
-        <v>101965498</v>
+        <v>101929491</v>
       </c>
       <c r="F100" t="n">
-        <v>5323.895076463339</v>
+        <v>9770.007079345662</v>
       </c>
       <c r="G100" t="n">
-        <v>13248.45760017688</v>
+        <v>13288.30518231757</v>
       </c>
       <c r="H100" t="n">
         <v>0.65</v>
       </c>
       <c r="I100" t="n">
-        <v>6136188</v>
+        <v>6136678</v>
       </c>
     </row>
     <row r="101">
@@ -3944,22 +3944,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>22562335</v>
+        <v>22575408</v>
       </c>
       <c r="E101" t="n">
-        <v>29268510</v>
+        <v>29285468</v>
       </c>
       <c r="F101" t="n">
-        <v>7155.668472050671</v>
+        <v>6974.580601223623</v>
       </c>
       <c r="G101" t="n">
-        <v>6646.04708865455</v>
+        <v>6272.607603428828</v>
       </c>
       <c r="H101" t="n">
-        <v>0.11</v>
+        <v>0.63</v>
       </c>
       <c r="I101" t="n">
-        <v>157131</v>
+        <v>149586</v>
       </c>
     </row>
     <row r="102">
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>1667534</v>
+        <v>1667412</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>5.78</v>
+        <v>5.2</v>
       </c>
       <c r="I102" t="n">
-        <v>13157.22</v>
+        <v>13157.97</v>
       </c>
     </row>
     <row r="103">
@@ -4014,10 +4014,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>623354</v>
+        <v>618876</v>
       </c>
       <c r="E103" t="n">
-        <v>623354</v>
+        <v>618876</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -4026,10 +4026,10 @@
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>6.24</v>
+        <v>6.14</v>
       </c>
       <c r="I103" t="n">
-        <v>78587</v>
+        <v>77759</v>
       </c>
     </row>
     <row r="104">
@@ -4049,22 +4049,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>40611514</v>
+        <v>40538220</v>
       </c>
       <c r="E104" t="n">
-        <v>42453554</v>
+        <v>42376935</v>
       </c>
       <c r="F104" t="n">
-        <v>840.0590779356104</v>
+        <v>754.4978136565908</v>
       </c>
       <c r="G104" t="n">
-        <v>220.0845995703156</v>
+        <v>532.3424062419866</v>
       </c>
       <c r="H104" t="n">
         <v>0.55</v>
       </c>
       <c r="I104" t="n">
-        <v>719585</v>
+        <v>717578</v>
       </c>
     </row>
     <row r="105">
@@ -4084,22 +4084,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>13809797</v>
+        <v>13769437</v>
       </c>
       <c r="E105" t="n">
-        <v>13809797</v>
+        <v>13769437</v>
       </c>
       <c r="F105" t="n">
-        <v>2435.899652564936</v>
+        <v>3124.034163219364</v>
       </c>
       <c r="G105" t="n">
-        <v>2517.14743543642</v>
+        <v>3179.320207681969</v>
       </c>
       <c r="H105" t="n">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="I105" t="n">
-        <v>4711000</v>
+        <v>4720218</v>
       </c>
     </row>
     <row r="106">
@@ -4122,19 +4122,19 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>1189087</v>
+        <v>1189253</v>
       </c>
       <c r="F106" t="n">
-        <v>25.03784681793968</v>
+        <v>25.03528025645664</v>
       </c>
       <c r="G106" t="n">
-        <v>282.3018098413569</v>
+        <v>280.769127972487</v>
       </c>
       <c r="H106" t="n">
         <v>0.04</v>
       </c>
       <c r="I106" t="n">
-        <v>5484.21</v>
+        <v>5440.2</v>
       </c>
     </row>
     <row r="107">
@@ -4154,22 +4154,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>51700607</v>
+        <v>51830808</v>
       </c>
       <c r="E107" t="n">
-        <v>131710253</v>
+        <v>132041947</v>
       </c>
       <c r="F107" t="n">
-        <v>2168.527279028619</v>
+        <v>2861.521466302305</v>
       </c>
       <c r="G107" t="n">
-        <v>3951.969639402932</v>
+        <v>3677.080527327618</v>
       </c>
       <c r="H107" t="n">
         <v>0.35</v>
       </c>
       <c r="I107" t="n">
-        <v>2461710</v>
+        <v>2467606</v>
       </c>
     </row>
     <row r="108">
@@ -4189,22 +4189,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>13875245</v>
+        <v>13877011</v>
       </c>
       <c r="E108" t="n">
-        <v>67200028</v>
+        <v>67208579</v>
       </c>
       <c r="F108" t="n">
-        <v>6632.135888175038</v>
+        <v>6238.309788912132</v>
       </c>
       <c r="G108" t="n">
-        <v>10978.41465514328</v>
+        <v>11178.32682944342</v>
       </c>
       <c r="H108" t="n">
-        <v>0.11</v>
+        <v>0.26</v>
       </c>
       <c r="I108" t="n">
-        <v>3600883</v>
+        <v>3609319</v>
       </c>
     </row>
     <row r="109">
@@ -4227,19 +4227,19 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>515132</v>
+        <v>509002</v>
       </c>
       <c r="F109" t="n">
-        <v>137.0451938557186</v>
+        <v>137.0311457261592</v>
       </c>
       <c r="G109" t="n">
-        <v>239.2005858409874</v>
+        <v>238.7225042519599</v>
       </c>
       <c r="H109" t="n">
-        <v>3.34</v>
+        <v>3.17</v>
       </c>
       <c r="I109" t="n">
-        <v>8928.32</v>
+        <v>8821.610000000001</v>
       </c>
     </row>
     <row r="110">
@@ -4259,22 +4259,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>4589267</v>
+        <v>4593961</v>
       </c>
       <c r="E110" t="n">
-        <v>10461031</v>
+        <v>10471732</v>
       </c>
       <c r="F110" t="n">
-        <v>1451.883071568793</v>
+        <v>1451.73900521643</v>
       </c>
       <c r="G110" t="n">
-        <v>2150.799950429844</v>
+        <v>2150.914180956327</v>
       </c>
       <c r="H110" t="n">
         <v>0.76</v>
       </c>
       <c r="I110" t="n">
-        <v>91768</v>
+        <v>91560</v>
       </c>
     </row>
     <row r="111">
@@ -4297,19 +4297,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>1903191267</v>
+        <v>1904305983</v>
       </c>
       <c r="F111" t="n">
-        <v>92178.95685786501</v>
+        <v>95490.66339716123</v>
       </c>
       <c r="G111" t="n">
-        <v>45461.20076743687</v>
+        <v>45524.0824948119</v>
       </c>
       <c r="H111" t="n">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="I111" t="n">
-        <v>26316546</v>
+        <v>26596838</v>
       </c>
     </row>
     <row r="112">
@@ -4329,22 +4329,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>9371850</v>
+        <v>9360018</v>
       </c>
       <c r="E112" t="n">
-        <v>34122670</v>
+        <v>34079607</v>
       </c>
       <c r="F112" t="n">
-        <v>551.8580164730238</v>
+        <v>551.8014470108219</v>
       </c>
       <c r="G112" t="n">
-        <v>383.7074477171553</v>
+        <v>383.6681149117737</v>
       </c>
       <c r="H112" t="n">
         <v>1.17</v>
       </c>
       <c r="I112" t="n">
-        <v>156935</v>
+        <v>156846</v>
       </c>
     </row>
     <row r="113">
@@ -4367,19 +4367,19 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>534717</v>
+        <v>534633</v>
       </c>
       <c r="F113" t="n">
-        <v>23.939727883683</v>
+        <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>46.75116875263794</v>
+        <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>3.68</v>
+        <v>4.11</v>
       </c>
       <c r="I113" t="n">
-        <v>1132.08</v>
+        <v>1128.01</v>
       </c>
     </row>
     <row r="114">
@@ -4399,22 +4399,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>12313774</v>
+        <v>12316759</v>
       </c>
       <c r="E114" t="n">
-        <v>17853195</v>
+        <v>17857523</v>
       </c>
       <c r="F114" t="n">
-        <v>2871.375071480325</v>
+        <v>2589.354389432928</v>
       </c>
       <c r="G114" t="n">
-        <v>2566.965171373748</v>
+        <v>5312.061850159729</v>
       </c>
       <c r="H114" t="n">
-        <v>0.78</v>
+        <v>0.67</v>
       </c>
       <c r="I114" t="n">
-        <v>2063843</v>
+        <v>2058561</v>
       </c>
     </row>
     <row r="115">
@@ -4434,22 +4434,22 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>2050689</v>
+        <v>2049250</v>
       </c>
       <c r="E115" t="n">
-        <v>14705289</v>
+        <v>14694968</v>
       </c>
       <c r="F115" t="n">
-        <v>813.8517227793002</v>
+        <v>823.5034689559552</v>
       </c>
       <c r="G115" t="n">
-        <v>793.2420288369137</v>
+        <v>791.1674491778979</v>
       </c>
       <c r="H115" t="n">
         <v>2.07</v>
       </c>
       <c r="I115" t="n">
-        <v>1931529</v>
+        <v>1933847</v>
       </c>
     </row>
     <row r="116">
@@ -4469,10 +4469,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2748823</v>
+        <v>2747574</v>
       </c>
       <c r="E116" t="n">
-        <v>5556635</v>
+        <v>5554110</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>5704.07</v>
+        <v>5705.07</v>
       </c>
     </row>
     <row r="117">
@@ -4502,22 +4502,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>200526505</v>
+        <v>200756382</v>
       </c>
       <c r="E117" t="n">
-        <v>1135504281</v>
+        <v>1136805990</v>
       </c>
       <c r="F117" t="n">
-        <v>319831.2595143942</v>
+        <v>321863.8414790318</v>
       </c>
       <c r="G117" t="n">
-        <v>457081.16640126</v>
+        <v>451234.3529202131</v>
       </c>
       <c r="H117" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I117" t="n">
-        <v>64866377</v>
+        <v>64966848</v>
       </c>
     </row>
     <row r="118">
@@ -4537,22 +4537,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>683941</v>
+        <v>683214</v>
       </c>
       <c r="E118" t="n">
-        <v>2267846</v>
+        <v>2265438</v>
       </c>
       <c r="F118" t="n">
-        <v>5254.17438203409</v>
+        <v>4024.135601196299</v>
       </c>
       <c r="G118" t="n">
-        <v>8134.726952943156</v>
+        <v>4562.001778172181</v>
       </c>
       <c r="H118" t="n">
-        <v>0.89</v>
+        <v>0.45</v>
       </c>
       <c r="I118" t="n">
-        <v>25292</v>
+        <v>25278</v>
       </c>
     </row>
     <row r="119">
@@ -4572,22 +4572,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2784872</v>
+        <v>2784585</v>
       </c>
       <c r="E119" t="n">
-        <v>9860055</v>
+        <v>9859041</v>
       </c>
       <c r="F119" t="n">
-        <v>22.26818117682392</v>
+        <v>279.8237946436761</v>
       </c>
       <c r="G119" t="n">
-        <v>1769.134447845518</v>
+        <v>1762.179593354565</v>
       </c>
       <c r="H119" t="n">
-        <v>1.52</v>
+        <v>1.42</v>
       </c>
       <c r="I119" t="n">
-        <v>8266.1</v>
+        <v>8265.08</v>
       </c>
     </row>
     <row r="120">
@@ -4607,10 +4607,10 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1041797</v>
+        <v>1045272</v>
       </c>
       <c r="E120" t="n">
-        <v>1041797</v>
+        <v>1045272</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
@@ -4619,10 +4619,10 @@
         <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>4.53</v>
+        <v>4.17</v>
       </c>
       <c r="I120" t="n">
-        <v>11518.83</v>
+        <v>11536.52</v>
       </c>
     </row>
     <row r="121">
@@ -4642,22 +4642,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>501707</v>
+        <v>502072</v>
       </c>
       <c r="E121" t="n">
-        <v>1688674</v>
+        <v>1689903</v>
       </c>
       <c r="F121" t="n">
-        <v>468.3403265899162</v>
+        <v>444.5342194546536</v>
       </c>
       <c r="G121" t="n">
-        <v>425.7597907353124</v>
+        <v>425.7161472587838</v>
       </c>
       <c r="H121" t="n">
-        <v>0.59</v>
+        <v>0.65</v>
       </c>
       <c r="I121" t="n">
-        <v>624654</v>
+        <v>473779</v>
       </c>
     </row>
     <row r="122">
@@ -4677,10 +4677,10 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>447704</v>
+        <v>447499</v>
       </c>
       <c r="E122" t="n">
-        <v>830577</v>
+        <v>830197</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -4689,10 +4689,10 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>5.68</v>
+        <v>5.62</v>
       </c>
       <c r="I122" t="n">
-        <v>202620</v>
+        <v>201667</v>
       </c>
     </row>
     <row r="123">
@@ -4715,19 +4715,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>11778667</v>
+        <v>11779116</v>
       </c>
       <c r="F123" t="n">
-        <v>127.7638956353816</v>
+        <v>110.83540751528</v>
       </c>
       <c r="G123" t="n">
-        <v>168.5209514564711</v>
+        <v>168.503676832729</v>
       </c>
       <c r="H123" t="n">
-        <v>2.36</v>
+        <v>2.19</v>
       </c>
       <c r="I123" t="n">
-        <v>8374.110000000001</v>
+        <v>8252.620000000001</v>
       </c>
     </row>
     <row r="124">
@@ -4750,19 +4750,19 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>1234096</v>
+        <v>1235072</v>
       </c>
       <c r="F124" t="n">
-        <v>65.62812804831026</v>
+        <v>65.51596385028267</v>
       </c>
       <c r="G124" t="n">
-        <v>4.021080623150492</v>
+        <v>4.02066843312782</v>
       </c>
       <c r="H124" t="n">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
       <c r="I124" t="n">
-        <v>48883</v>
+        <v>48899</v>
       </c>
     </row>
     <row r="125">
@@ -4782,22 +4782,22 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3466343</v>
+        <v>3482969</v>
       </c>
       <c r="E125" t="n">
-        <v>8094490</v>
+        <v>8133313</v>
       </c>
       <c r="F125" t="n">
-        <v>909.4971759981788</v>
+        <v>938.9140085973683</v>
       </c>
       <c r="G125" t="n">
-        <v>1256.926318052808</v>
+        <v>1434.901569442399</v>
       </c>
       <c r="H125" t="n">
-        <v>1.11</v>
+        <v>1.22</v>
       </c>
       <c r="I125" t="n">
-        <v>795327</v>
+        <v>772496</v>
       </c>
     </row>
     <row r="126">
@@ -4817,22 +4817,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>251627</v>
+        <v>251211</v>
       </c>
       <c r="E126" t="n">
-        <v>2220799</v>
+        <v>2217130</v>
       </c>
       <c r="F126" t="n">
-        <v>96.21275210432279</v>
+        <v>71.26130504771471</v>
       </c>
       <c r="G126" t="n">
-        <v>1.252001176633406</v>
+        <v>117.5213709505437</v>
       </c>
       <c r="H126" t="n">
-        <v>2.22</v>
+        <v>3.08</v>
       </c>
       <c r="I126" t="n">
-        <v>72608</v>
+        <v>69853</v>
       </c>
     </row>
     <row r="127">
@@ -4855,19 +4855,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>644218</v>
+        <v>643933</v>
       </c>
       <c r="F127" t="n">
-        <v>590.0902366001186</v>
+        <v>590.0315728673869</v>
       </c>
       <c r="G127" t="n">
-        <v>472.8963176592013</v>
+        <v>472.8493047424162</v>
       </c>
       <c r="H127" t="n">
         <v>1.9</v>
       </c>
       <c r="I127" t="n">
-        <v>5406.18</v>
+        <v>5404.12</v>
       </c>
     </row>
     <row r="128">
@@ -4887,22 +4887,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>4912405</v>
+        <v>4913666</v>
       </c>
       <c r="E128" t="n">
-        <v>17357813</v>
+        <v>17362269</v>
       </c>
       <c r="F128" t="n">
-        <v>1764.05344431972</v>
+        <v>1834.598172774589</v>
       </c>
       <c r="G128" t="n">
-        <v>1893.391836356643</v>
+        <v>1930.730260279684</v>
       </c>
       <c r="H128" t="n">
         <v>0.75</v>
       </c>
       <c r="I128" t="n">
-        <v>104749</v>
+        <v>104419</v>
       </c>
     </row>
     <row r="129">
@@ -4925,19 +4925,19 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2249867</v>
+        <v>2249786</v>
       </c>
       <c r="F129" t="n">
-        <v>166.4581631658932</v>
+        <v>166.4416459815153</v>
       </c>
       <c r="G129" t="n">
-        <v>43.95357770256965</v>
+        <v>43.94921631029441</v>
       </c>
       <c r="H129" t="n">
         <v>0.09</v>
       </c>
       <c r="I129" t="n">
-        <v>8765.799999999999</v>
+        <v>8765.16</v>
       </c>
     </row>
     <row r="130">
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>2519258</v>
+        <v>2531564</v>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
@@ -4970,7 +4970,7 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>2475.09</v>
+        <v>2475.1</v>
       </c>
     </row>
     <row r="131">
@@ -4990,22 +4990,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>81115</v>
+        <v>81162</v>
       </c>
       <c r="E131" t="n">
-        <v>81115</v>
+        <v>81162</v>
       </c>
       <c r="F131" t="n">
-        <v>40.50536271543044</v>
+        <v>164.8341668876748</v>
       </c>
       <c r="G131" t="n">
-        <v>6.795815420443413</v>
+        <v>6.79511879991407</v>
       </c>
       <c r="H131" t="n">
-        <v>0.21</v>
+        <v>1.34</v>
       </c>
       <c r="I131" t="n">
-        <v>21095</v>
+        <v>21152</v>
       </c>
     </row>
     <row r="132">
@@ -5028,19 +5028,19 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>4378340</v>
+        <v>4377578</v>
       </c>
       <c r="F132" t="n">
-        <v>353.2443975486827</v>
+        <v>327.680985053323</v>
       </c>
       <c r="G132" t="n">
-        <v>367.7040560033503</v>
+        <v>285.4913603523052</v>
       </c>
       <c r="H132" t="n">
         <v>0.24</v>
       </c>
       <c r="I132" t="n">
-        <v>272437</v>
+        <v>271888</v>
       </c>
     </row>
     <row r="133">
@@ -5060,22 +5060,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2092190</v>
+        <v>2115915</v>
       </c>
       <c r="E133" t="n">
-        <v>8543961</v>
+        <v>8640851</v>
       </c>
       <c r="F133" t="n">
-        <v>385.097049611136</v>
+        <v>519.8679246641179</v>
       </c>
       <c r="G133" t="n">
-        <v>490.651495289518</v>
+        <v>428.6000143146573</v>
       </c>
       <c r="H133" t="n">
-        <v>0.14</v>
+        <v>1.46</v>
       </c>
       <c r="I133" t="n">
-        <v>90658</v>
+        <v>570461</v>
       </c>
     </row>
     <row r="134">
@@ -5095,22 +5095,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>7413489</v>
+        <v>7394421</v>
       </c>
       <c r="E134" t="n">
-        <v>7468596</v>
+        <v>7449386</v>
       </c>
       <c r="F134" t="n">
-        <v>258389.2996837707</v>
+        <v>255914.6927767096</v>
       </c>
       <c r="G134" t="n">
-        <v>302499.9209131895</v>
+        <v>252031.4275260852</v>
       </c>
       <c r="H134" t="n">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="I134" t="n">
-        <v>5027472</v>
+        <v>4866968</v>
       </c>
     </row>
     <row r="135">
@@ -5130,22 +5130,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>13609452</v>
+        <v>13581452</v>
       </c>
       <c r="E135" t="n">
-        <v>13655766</v>
+        <v>13627671</v>
       </c>
       <c r="F135" t="n">
-        <v>15715.74918819233</v>
+        <v>14484.59906450728</v>
       </c>
       <c r="G135" t="n">
-        <v>13833.85128431253</v>
+        <v>10918.34515077647</v>
       </c>
       <c r="H135" t="n">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="I135" t="n">
-        <v>5927118</v>
+        <v>5922279</v>
       </c>
     </row>
     <row r="136">
@@ -5165,22 +5165,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>42874897</v>
+        <v>42853322</v>
       </c>
       <c r="E136" t="n">
-        <v>72791601</v>
+        <v>72754971</v>
       </c>
       <c r="F136" t="n">
-        <v>1039.436921105841</v>
+        <v>1171.660640859066</v>
       </c>
       <c r="G136" t="n">
-        <v>887.2450625922946</v>
+        <v>750.3136142156727</v>
       </c>
       <c r="H136" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="I136" t="n">
-        <v>1087955</v>
+        <v>1089039</v>
       </c>
     </row>
     <row r="137">
@@ -5200,22 +5200,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>23560251</v>
+        <v>23605537</v>
       </c>
       <c r="E137" t="n">
-        <v>70621210</v>
+        <v>70758546</v>
       </c>
       <c r="F137" t="n">
-        <v>78643.3145161218</v>
+        <v>88808.45729348295</v>
       </c>
       <c r="G137" t="n">
-        <v>86857.63489931372</v>
+        <v>89103.66928082456</v>
       </c>
       <c r="H137" t="n">
-        <v>0.09</v>
+        <v>0.35</v>
       </c>
       <c r="I137" t="n">
-        <v>2924086</v>
+        <v>2926849</v>
       </c>
     </row>
     <row r="138">
@@ -5235,22 +5235,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>101166581</v>
+        <v>101129650</v>
       </c>
       <c r="E138" t="n">
-        <v>107549218</v>
+        <v>107509957</v>
       </c>
       <c r="F138" t="n">
-        <v>6594.379227337163</v>
+        <v>8438.209246552387</v>
       </c>
       <c r="G138" t="n">
-        <v>12512.77364209692</v>
+        <v>11401.67682793839</v>
       </c>
       <c r="H138" t="n">
-        <v>0.49</v>
+        <v>0.52</v>
       </c>
       <c r="I138" t="n">
-        <v>390951</v>
+        <v>391260</v>
       </c>
     </row>
     <row r="139">
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1161390</v>
+        <v>1161374</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>258610</v>
+        <v>258600</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -5317,10 +5317,10 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>7.68</v>
+        <v>7.61</v>
       </c>
       <c r="I140" t="n">
-        <v>465.35</v>
+        <v>465.32</v>
       </c>
     </row>
     <row r="141">
@@ -5336,10 +5336,10 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>97009</v>
+        <v>97049</v>
       </c>
       <c r="E141" t="n">
-        <v>275193</v>
+        <v>275306</v>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
@@ -5349,7 +5349,7 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>40.73</v>
+        <v>40.74</v>
       </c>
     </row>
     <row r="142">
@@ -5369,22 +5369,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>47474121</v>
+        <v>47335486</v>
       </c>
       <c r="E142" t="n">
-        <v>204513321</v>
+        <v>203916100</v>
       </c>
       <c r="F142" t="n">
-        <v>64090.05722308002</v>
+        <v>75038.94471334926</v>
       </c>
       <c r="G142" t="n">
-        <v>73991.50066176329</v>
+        <v>63207.73941879662</v>
       </c>
       <c r="H142" t="n">
         <v>0.1</v>
       </c>
       <c r="I142" t="n">
-        <v>8521112</v>
+        <v>8814440</v>
       </c>
     </row>
     <row r="143">
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>280294</v>
+        <v>280309</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -5416,10 +5416,10 @@
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>8.81</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="I143" t="n">
-        <v>207900</v>
+        <v>208005</v>
       </c>
     </row>
     <row r="144">
@@ -5442,19 +5442,19 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>9443387</v>
+        <v>9471896</v>
       </c>
       <c r="F144" t="n">
-        <v>1072.753605856996</v>
+        <v>1066.639888100595</v>
       </c>
       <c r="G144" t="n">
-        <v>610.7141903890931</v>
+        <v>590.9194348618669</v>
       </c>
       <c r="H144" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="I144" t="n">
-        <v>121475</v>
+        <v>121750</v>
       </c>
     </row>
     <row r="145">
@@ -5474,22 +5474,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1174723</v>
+        <v>1174478</v>
       </c>
       <c r="E145" t="n">
-        <v>7831487</v>
+        <v>7829855</v>
       </c>
       <c r="F145" t="n">
-        <v>263.5332982103284</v>
+        <v>263.5062841297007</v>
       </c>
       <c r="G145" t="n">
-        <v>105.0366187436806</v>
+        <v>105.0258517259759</v>
       </c>
       <c r="H145" t="n">
         <v>1.01</v>
       </c>
       <c r="I145" t="n">
-        <v>4974.88</v>
+        <v>4978.43</v>
       </c>
     </row>
     <row r="146">
@@ -5512,19 +5512,19 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>7803017</v>
+        <v>7820983</v>
       </c>
       <c r="F146" t="n">
-        <v>139.6082369044469</v>
+        <v>102.4571522400332</v>
       </c>
       <c r="G146" t="n">
-        <v>207.7210984546066</v>
+        <v>255.3074465429327</v>
       </c>
       <c r="H146" t="n">
-        <v>1.15</v>
+        <v>1.02</v>
       </c>
       <c r="I146" t="n">
-        <v>6434246</v>
+        <v>6456078</v>
       </c>
     </row>
     <row r="147">
@@ -5544,22 +5544,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>670117</v>
+        <v>669898</v>
       </c>
       <c r="E147" t="n">
-        <v>2419518</v>
+        <v>2418727</v>
       </c>
       <c r="F147" t="n">
-        <v>28.9254280536037</v>
+        <v>28.96193388351837</v>
       </c>
       <c r="G147" t="n">
-        <v>273.415077951793</v>
+        <v>273.810958336061</v>
       </c>
       <c r="H147" t="n">
-        <v>0.37</v>
+        <v>0.41</v>
       </c>
       <c r="I147" t="n">
-        <v>409186</v>
+        <v>404720</v>
       </c>
     </row>
     <row r="148">
@@ -5582,19 +5582,19 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>1645018</v>
+        <v>1647419</v>
       </c>
       <c r="F148" t="n">
-        <v>213.0027672837723</v>
+        <v>192.9969591173933</v>
       </c>
       <c r="G148" t="n">
-        <v>85.66798477923024</v>
+        <v>85.65948418140451</v>
       </c>
       <c r="H148" t="n">
         <v>1.41</v>
       </c>
       <c r="I148" t="n">
-        <v>91304</v>
+        <v>91043</v>
       </c>
     </row>
     <row r="149">
@@ -5617,13 +5617,13 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>69311</v>
+        <v>69312</v>
       </c>
       <c r="F149" t="n">
-        <v>65.46975738469419</v>
+        <v>59.57415712226837</v>
       </c>
       <c r="G149" t="n">
-        <v>20.71564302477511</v>
+        <v>20.71351952063075</v>
       </c>
       <c r="H149" t="n">
         <v>2.94</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>12951221</v>
+        <v>13014160</v>
       </c>
       <c r="E150" t="n">
-        <v>12951221</v>
+        <v>13014160</v>
       </c>
       <c r="F150" t="n">
-        <v>670.0614639798065</v>
+        <v>460.9057991795859</v>
       </c>
       <c r="G150" t="n">
-        <v>1211.500809576711</v>
+        <v>1307.406883523558</v>
       </c>
       <c r="H150" t="n">
-        <v>0.54</v>
+        <v>0.77</v>
       </c>
       <c r="I150" t="n">
-        <v>3432794</v>
+        <v>3486994</v>
       </c>
     </row>
     <row r="151">
@@ -5684,22 +5684,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1723487</v>
+        <v>1727535</v>
       </c>
       <c r="E151" t="n">
-        <v>6262544</v>
+        <v>6277228</v>
       </c>
       <c r="F151" t="n">
-        <v>52.46264471534889</v>
+        <v>59.25224500785291</v>
       </c>
       <c r="G151" t="n">
-        <v>40.48462687386034</v>
+        <v>25.64839940841619</v>
       </c>
       <c r="H151" t="n">
-        <v>1.65</v>
+        <v>1.32</v>
       </c>
       <c r="I151" t="n">
-        <v>129116</v>
+        <v>129229</v>
       </c>
     </row>
     <row r="152">
@@ -5719,10 +5719,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1243264</v>
+        <v>1249004</v>
       </c>
       <c r="E152" t="n">
-        <v>1243264</v>
+        <v>1249004</v>
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>645.03</v>
+        <v>648.01</v>
       </c>
     </row>
     <row r="153">
@@ -5752,22 +5752,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>23585587</v>
+        <v>23562718</v>
       </c>
       <c r="E153" t="n">
-        <v>27197318</v>
+        <v>27172821</v>
       </c>
       <c r="F153" t="n">
-        <v>476.8099073851876</v>
+        <v>414.6351613414432</v>
       </c>
       <c r="G153" t="n">
-        <v>685.8649122581638</v>
+        <v>657.0977158806483</v>
       </c>
       <c r="H153" t="n">
         <v>0.04</v>
       </c>
       <c r="I153" t="n">
-        <v>762022</v>
+        <v>762020</v>
       </c>
     </row>
     <row r="154">
@@ -5787,22 +5787,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2449677</v>
+        <v>2450335</v>
       </c>
       <c r="E154" t="n">
-        <v>18433270</v>
+        <v>18438220</v>
       </c>
       <c r="F154" t="n">
-        <v>5299.315195406481</v>
+        <v>5231.10290217689</v>
       </c>
       <c r="G154" t="n">
-        <v>3795.694673353719</v>
+        <v>3256.174003453765</v>
       </c>
       <c r="H154" t="n">
         <v>0.05</v>
       </c>
       <c r="I154" t="n">
-        <v>161813</v>
+        <v>161892</v>
       </c>
     </row>
     <row r="155">
@@ -5822,22 +5822,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>20890811</v>
+        <v>20885334</v>
       </c>
       <c r="E155" t="n">
-        <v>83563245</v>
+        <v>83541337</v>
       </c>
       <c r="F155" t="n">
-        <v>9476.25028876601</v>
+        <v>9544.963958467961</v>
       </c>
       <c r="G155" t="n">
-        <v>15249.18130420776</v>
+        <v>20912.2192008952</v>
       </c>
       <c r="H155" t="n">
-        <v>0.48</v>
+        <v>0.36</v>
       </c>
       <c r="I155" t="n">
-        <v>4637942</v>
+        <v>5235291</v>
       </c>
     </row>
     <row r="156">
@@ -5857,22 +5857,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>294759352</v>
+        <v>294471569</v>
       </c>
       <c r="E156" t="n">
-        <v>294759352</v>
+        <v>294471569</v>
       </c>
       <c r="F156" t="n">
-        <v>287413.095053688</v>
+        <v>386697.4096017294</v>
       </c>
       <c r="G156" t="n">
-        <v>408701.9494840133</v>
+        <v>390961.1065066232</v>
       </c>
       <c r="H156" t="n">
         <v>0.11</v>
       </c>
       <c r="I156" t="n">
-        <v>12684871</v>
+        <v>12694487</v>
       </c>
     </row>
     <row r="157">
@@ -5892,22 +5892,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>12860885</v>
+        <v>12847753</v>
       </c>
       <c r="E157" t="n">
-        <v>40687663</v>
+        <v>40646118</v>
       </c>
       <c r="F157" t="n">
-        <v>10121.72539075935</v>
+        <v>9796.184552947805</v>
       </c>
       <c r="G157" t="n">
-        <v>13167.3920766993</v>
+        <v>14114.9260086254</v>
       </c>
       <c r="H157" t="n">
-        <v>0.27</v>
+        <v>0.37</v>
       </c>
       <c r="I157" t="n">
-        <v>1384569</v>
+        <v>1383297</v>
       </c>
     </row>
     <row r="158">
@@ -5927,10 +5927,10 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1084705</v>
+        <v>1084965</v>
       </c>
       <c r="E158" t="n">
-        <v>2470523</v>
+        <v>2471113</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -5942,7 +5942,7 @@
         <v>6.77</v>
       </c>
       <c r="I158" t="n">
-        <v>1741.4</v>
+        <v>1741.77</v>
       </c>
     </row>
     <row r="159">
@@ -5962,22 +5962,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>17195898</v>
+        <v>17314796</v>
       </c>
       <c r="E159" t="n">
-        <v>17195898</v>
+        <v>17314796</v>
       </c>
       <c r="F159" t="n">
-        <v>14870.04716239826</v>
+        <v>16092.09663156215</v>
       </c>
       <c r="G159" t="n">
-        <v>18008.53785222218</v>
+        <v>16442.24945982533</v>
       </c>
       <c r="H159" t="n">
         <v>0.06</v>
       </c>
       <c r="I159" t="n">
-        <v>3509390</v>
+        <v>3564532</v>
       </c>
     </row>
     <row r="160">
@@ -5997,10 +5997,10 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>4889165</v>
+        <v>4851071</v>
       </c>
       <c r="E160" t="n">
-        <v>9001475</v>
+        <v>8931341</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -6009,10 +6009,10 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>8.880000000000001</v>
+        <v>8.67</v>
       </c>
       <c r="I160" t="n">
-        <v>20.53</v>
+        <v>22.61</v>
       </c>
     </row>
     <row r="161">
@@ -6032,10 +6032,10 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>116787</v>
+        <v>116923</v>
       </c>
       <c r="E161" t="n">
-        <v>140473</v>
+        <v>140637</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -6044,10 +6044,10 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>10.57</v>
+        <v>10.32</v>
       </c>
       <c r="I161" t="n">
-        <v>3756.92</v>
+        <v>3760.05</v>
       </c>
     </row>
     <row r="162">
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>20139819</v>
+        <v>20146869</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -6079,10 +6079,10 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>10.1</v>
+        <v>9.99</v>
       </c>
       <c r="I162" t="n">
-        <v>1533.83</v>
+        <v>1548.7</v>
       </c>
     </row>
     <row r="163">
@@ -6102,22 +6102,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>436893</v>
+        <v>436453</v>
       </c>
       <c r="E163" t="n">
-        <v>550322</v>
+        <v>549768</v>
       </c>
       <c r="F163" t="n">
-        <v>180.3068003300732</v>
+        <v>150.7467721040175</v>
       </c>
       <c r="G163" t="n">
-        <v>165.6811429139893</v>
+        <v>150.8401985402872</v>
       </c>
       <c r="H163" t="n">
-        <v>0.36</v>
+        <v>0.18</v>
       </c>
       <c r="I163" t="n">
-        <v>189790</v>
+        <v>113666</v>
       </c>
     </row>
     <row r="164">
@@ -6140,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>105117</v>
+        <v>105116</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -6149,10 +6149,10 @@
         <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>4.99</v>
+        <v>4.82</v>
       </c>
       <c r="I164" t="n">
-        <v>3983.6</v>
+        <v>3983.61</v>
       </c>
     </row>
     <row r="165">
@@ -6172,22 +6172,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>12553724</v>
+        <v>12554413</v>
       </c>
       <c r="E165" t="n">
-        <v>19132703</v>
+        <v>19133754</v>
       </c>
       <c r="F165" t="n">
-        <v>1027.808552909525</v>
+        <v>1032.29800058385</v>
       </c>
       <c r="G165" t="n">
-        <v>3625.379212044455</v>
+        <v>3565.42149631269</v>
       </c>
       <c r="H165" t="n">
         <v>1.38</v>
       </c>
       <c r="I165" t="n">
-        <v>697523</v>
+        <v>700035</v>
       </c>
     </row>
     <row r="166">
@@ -6207,22 +6207,22 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>305870016</v>
+        <v>306665973</v>
       </c>
       <c r="E166" t="n">
-        <v>305870016</v>
+        <v>306665973</v>
       </c>
       <c r="F166" t="n">
-        <v>308695.9050641268</v>
+        <v>311220.2293358481</v>
       </c>
       <c r="G166" t="n">
-        <v>363661.2778438054</v>
+        <v>383866.2705568721</v>
       </c>
       <c r="H166" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I166" t="n">
-        <v>50492353</v>
+        <v>50871948</v>
       </c>
     </row>
     <row r="167">
@@ -6242,22 +6242,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>10373498</v>
+        <v>10373781</v>
       </c>
       <c r="E167" t="n">
-        <v>29452091</v>
+        <v>29452895</v>
       </c>
       <c r="F167" t="n">
-        <v>676.5073880215238</v>
+        <v>503.3871096485396</v>
       </c>
       <c r="G167" t="n">
-        <v>564.8940563800576</v>
+        <v>83.10345972480967</v>
       </c>
       <c r="H167" t="n">
-        <v>1.35</v>
+        <v>2.02</v>
       </c>
       <c r="I167" t="n">
-        <v>133047</v>
+        <v>133120</v>
       </c>
     </row>
     <row r="168">
@@ -6280,19 +6280,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>11877773</v>
+        <v>11884152</v>
       </c>
       <c r="F168" t="n">
-        <v>121.1723731349837</v>
+        <v>98.79153314847673</v>
       </c>
       <c r="G168" t="n">
-        <v>2445.332542515987</v>
+        <v>2557.032415921974</v>
       </c>
       <c r="H168" t="n">
-        <v>0.76</v>
+        <v>0.42</v>
       </c>
       <c r="I168" t="n">
-        <v>107871</v>
+        <v>107305</v>
       </c>
     </row>
     <row r="169">
@@ -6312,22 +6312,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>4266158</v>
+        <v>4279760</v>
       </c>
       <c r="E169" t="n">
-        <v>29150355</v>
+        <v>29243301</v>
       </c>
       <c r="F169" t="n">
-        <v>1608.249499839848</v>
+        <v>1387.509521650514</v>
       </c>
       <c r="G169" t="n">
-        <v>1465.687223391035</v>
+        <v>3214.628295206312</v>
       </c>
       <c r="H169" t="n">
-        <v>0.68</v>
+        <v>1.02</v>
       </c>
       <c r="I169" t="n">
-        <v>2598460</v>
+        <v>2601312</v>
       </c>
     </row>
     <row r="170">
@@ -6347,22 +6347,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2834569</v>
+        <v>2834228</v>
       </c>
       <c r="E170" t="n">
-        <v>4205743</v>
+        <v>4205087</v>
       </c>
       <c r="F170" t="n">
-        <v>917.4959637156004</v>
+        <v>2030.239157919939</v>
       </c>
       <c r="G170" t="n">
-        <v>345.9187131594049</v>
+        <v>1004.137938266273</v>
       </c>
       <c r="H170" t="n">
-        <v>2.13</v>
+        <v>1.19</v>
       </c>
       <c r="I170" t="n">
-        <v>228214</v>
+        <v>228224</v>
       </c>
     </row>
     <row r="171">
@@ -6382,22 +6382,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>89712868</v>
+        <v>89963515</v>
       </c>
       <c r="E171" t="n">
-        <v>516964243</v>
+        <v>518408576</v>
       </c>
       <c r="F171" t="n">
-        <v>420448.2433611235</v>
+        <v>365048.4836501745</v>
       </c>
       <c r="G171" t="n">
-        <v>277243.7393013771</v>
+        <v>374704.0265098748</v>
       </c>
       <c r="H171" t="n">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="I171" t="n">
-        <v>16156727</v>
+        <v>16362592</v>
       </c>
     </row>
     <row r="172">
@@ -6417,22 +6417,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>13721315</v>
+        <v>13705160</v>
       </c>
       <c r="E172" t="n">
-        <v>13721315</v>
+        <v>13705160</v>
       </c>
       <c r="F172" t="n">
-        <v>5142.433807297485</v>
+        <v>5012.578881172893</v>
       </c>
       <c r="G172" t="n">
-        <v>6173.344315385761</v>
+        <v>6141.558241872634</v>
       </c>
       <c r="H172" t="n">
-        <v>1.49</v>
+        <v>1.33</v>
       </c>
       <c r="I172" t="n">
-        <v>593446</v>
+        <v>593686</v>
       </c>
     </row>
     <row r="173">
@@ -6452,22 +6452,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>6148033</v>
+        <v>6179590</v>
       </c>
       <c r="E173" t="n">
-        <v>17464797</v>
+        <v>17554440</v>
       </c>
       <c r="F173" t="n">
-        <v>101.3404245553443</v>
+        <v>969.7924080014515</v>
       </c>
       <c r="G173" t="n">
-        <v>10716.27851660778</v>
+        <v>237.2428248608535</v>
       </c>
       <c r="H173" t="n">
-        <v>1.97</v>
+        <v>0.62</v>
       </c>
       <c r="I173" t="n">
-        <v>217135</v>
+        <v>218020</v>
       </c>
     </row>
     <row r="174">
@@ -6487,22 +6487,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>18674678</v>
+        <v>18662304</v>
       </c>
       <c r="E174" t="n">
-        <v>18674678</v>
+        <v>18662304</v>
       </c>
       <c r="F174" t="n">
-        <v>0</v>
+        <v>1060.626250478073</v>
       </c>
       <c r="G174" t="n">
-        <v>0</v>
+        <v>17.41303918655131</v>
       </c>
       <c r="H174" t="n">
-        <v>3.98</v>
+        <v>1.96</v>
       </c>
       <c r="I174" t="n">
-        <v>67248</v>
+        <v>69058</v>
       </c>
     </row>
     <row r="175">
@@ -6525,19 +6525,19 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>1331518</v>
+        <v>1338165</v>
       </c>
       <c r="F175" t="n">
-        <v>124.8678229805564</v>
+        <v>515.3974481312703</v>
       </c>
       <c r="G175" t="n">
-        <v>1293.040740187191</v>
+        <v>613.1000211287993</v>
       </c>
       <c r="H175" t="n">
-        <v>0.3</v>
+        <v>0.08</v>
       </c>
       <c r="I175" t="n">
-        <v>4213.3</v>
+        <v>23194</v>
       </c>
     </row>
     <row r="176">
@@ -6557,10 +6557,10 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>128786</v>
+        <v>129493</v>
       </c>
       <c r="E176" t="n">
-        <v>280366</v>
+        <v>281904</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -6572,7 +6572,7 @@
         <v>7.67</v>
       </c>
       <c r="I176" t="n">
-        <v>47878</v>
+        <v>48095</v>
       </c>
     </row>
     <row r="177">
@@ -6595,19 +6595,19 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>3458284</v>
+        <v>3376291</v>
       </c>
       <c r="F177" t="n">
-        <v>414.8703725254881</v>
+        <v>328.7012432089107</v>
       </c>
       <c r="G177" t="n">
-        <v>554.3372386942438</v>
+        <v>118.6137433166219</v>
       </c>
       <c r="H177" t="n">
-        <v>1.7</v>
+        <v>2.12</v>
       </c>
       <c r="I177" t="n">
-        <v>294037</v>
+        <v>297995</v>
       </c>
     </row>
     <row r="178">
@@ -6627,22 +6627,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>249258397</v>
+        <v>249188044</v>
       </c>
       <c r="E178" t="n">
-        <v>249260873</v>
+        <v>249190519</v>
       </c>
       <c r="F178" t="n">
-        <v>48768.52346170842</v>
+        <v>46734.12952513807</v>
       </c>
       <c r="G178" t="n">
-        <v>54639.81481050845</v>
+        <v>54134.79357974922</v>
       </c>
       <c r="H178" t="n">
         <v>0.36</v>
       </c>
       <c r="I178" t="n">
-        <v>2774619</v>
+        <v>2778410</v>
       </c>
     </row>
     <row r="179">
@@ -6662,22 +6662,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>9263567</v>
+        <v>9250337</v>
       </c>
       <c r="E179" t="n">
-        <v>9263567</v>
+        <v>9250337</v>
       </c>
       <c r="F179" t="n">
-        <v>1234.127987146343</v>
+        <v>1566.425706629858</v>
       </c>
       <c r="G179" t="n">
-        <v>297.8471840097562</v>
+        <v>297.8176294552594</v>
       </c>
       <c r="H179" t="n">
         <v>0.02</v>
       </c>
       <c r="I179" t="n">
-        <v>2054328</v>
+        <v>2068802</v>
       </c>
     </row>
     <row r="180">
@@ -6697,10 +6697,10 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>179477</v>
+        <v>184161</v>
       </c>
       <c r="E180" t="n">
-        <v>1385921</v>
+        <v>1422091</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
@@ -6709,10 +6709,10 @@
         <v>0</v>
       </c>
       <c r="H180" t="n">
-        <v>4.29</v>
+        <v>5.63</v>
       </c>
       <c r="I180" t="n">
-        <v>122375</v>
+        <v>131958</v>
       </c>
     </row>
     <row r="181">
@@ -6732,22 +6732,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>30361862</v>
+        <v>30343122</v>
       </c>
       <c r="E181" t="n">
-        <v>135942510</v>
+        <v>135858603</v>
       </c>
       <c r="F181" t="n">
-        <v>67162.12050979807</v>
+        <v>70316.51483106241</v>
       </c>
       <c r="G181" t="n">
-        <v>96701.22519398102</v>
+        <v>73838.94613572804</v>
       </c>
       <c r="H181" t="n">
         <v>0.15</v>
       </c>
       <c r="I181" t="n">
-        <v>8679147</v>
+        <v>8706809</v>
       </c>
     </row>
     <row r="182">
@@ -6770,19 +6770,19 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>1456469</v>
+        <v>1456387</v>
       </c>
       <c r="F182" t="n">
-        <v>195.7145811929398</v>
+        <v>19.92540884525667</v>
       </c>
       <c r="G182" t="n">
-        <v>4870.617369369542</v>
+        <v>4871.772298803235</v>
       </c>
       <c r="H182" t="n">
         <v>2.31</v>
       </c>
       <c r="I182" t="n">
-        <v>26366</v>
+        <v>26194</v>
       </c>
     </row>
     <row r="183">
@@ -6802,22 +6802,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>3059686</v>
+        <v>3045076</v>
       </c>
       <c r="E183" t="n">
-        <v>3059686</v>
+        <v>3045076</v>
       </c>
       <c r="F183" t="n">
-        <v>219.2341498191423</v>
+        <v>107.968010210822</v>
       </c>
       <c r="G183" t="n">
-        <v>995.5370761704389</v>
+        <v>649.2956923364314</v>
       </c>
       <c r="H183" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="I183" t="n">
-        <v>426908</v>
+        <v>430678</v>
       </c>
     </row>
     <row r="184">
@@ -6837,22 +6837,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>576951</v>
+        <v>576353</v>
       </c>
       <c r="E184" t="n">
-        <v>576951</v>
+        <v>576353</v>
       </c>
       <c r="F184" t="n">
-        <v>14.61916972109643</v>
+        <v>9.569758897584723</v>
       </c>
       <c r="G184" t="n">
-        <v>25.11599034478114</v>
+        <v>25.11348404812722</v>
       </c>
       <c r="H184" t="n">
         <v>1.75</v>
       </c>
       <c r="I184" t="n">
-        <v>1380042</v>
+        <v>1368496</v>
       </c>
     </row>
     <row r="185">
@@ -6872,22 +6872,22 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>13414504</v>
+        <v>13391556</v>
       </c>
       <c r="E185" t="n">
-        <v>17078806</v>
+        <v>17049588</v>
       </c>
       <c r="F185" t="n">
-        <v>726.2136310903431</v>
+        <v>65.33970391104101</v>
       </c>
       <c r="G185" t="n">
-        <v>796.5557525913647</v>
+        <v>2940.564352094507</v>
       </c>
       <c r="H185" t="n">
         <v>0.75</v>
       </c>
       <c r="I185" t="n">
-        <v>809637</v>
+        <v>810555</v>
       </c>
     </row>
     <row r="186">
@@ -6907,10 +6907,10 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1867638</v>
+        <v>1867648</v>
       </c>
       <c r="E186" t="n">
-        <v>1867638</v>
+        <v>1867648</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
@@ -6922,7 +6922,7 @@
         <v>4.44</v>
       </c>
       <c r="I186" t="n">
-        <v>2901.16</v>
+        <v>2901.32</v>
       </c>
     </row>
     <row r="187">
@@ -6942,22 +6942,22 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>48215854</v>
+        <v>48387509</v>
       </c>
       <c r="E187" t="n">
-        <v>312666979</v>
+        <v>313780120</v>
       </c>
       <c r="F187" t="n">
-        <v>124270.4354168582</v>
+        <v>154661.5593607926</v>
       </c>
       <c r="G187" t="n">
-        <v>185947.7908564528</v>
+        <v>198830.6246409155</v>
       </c>
       <c r="H187" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I187" t="n">
-        <v>17115257</v>
+        <v>16592988</v>
       </c>
     </row>
     <row r="188">
@@ -6980,19 +6980,19 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>8537228</v>
+        <v>8553950</v>
       </c>
       <c r="F188" t="n">
-        <v>98.62442648348186</v>
+        <v>98.614646610961</v>
       </c>
       <c r="G188" t="n">
-        <v>777.8106998000167</v>
+        <v>749.5083300237153</v>
       </c>
       <c r="H188" t="n">
         <v>1.28</v>
       </c>
       <c r="I188" t="n">
-        <v>298940</v>
+        <v>297633</v>
       </c>
     </row>
     <row r="189">
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>7065818</v>
+        <v>7052095</v>
       </c>
       <c r="E189" t="n">
-        <v>7075914</v>
+        <v>7062197</v>
       </c>
       <c r="F189" t="n">
-        <v>166.0910023935471</v>
+        <v>80.57048860094582</v>
       </c>
       <c r="G189" t="n">
-        <v>468.8933709040561</v>
+        <v>962.5375632576047</v>
       </c>
       <c r="H189" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="I189" t="n">
-        <v>825577</v>
+        <v>821393</v>
       </c>
     </row>
     <row r="190">
@@ -7050,19 +7050,19 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>4811150</v>
+        <v>4800175</v>
       </c>
       <c r="F190" t="n">
-        <v>2134.44770972892</v>
+        <v>1901.021384481945</v>
       </c>
       <c r="G190" t="n">
-        <v>250.6716661485009</v>
+        <v>366.544783162585</v>
       </c>
       <c r="H190" t="n">
-        <v>2.07</v>
+        <v>1.82</v>
       </c>
       <c r="I190" t="n">
-        <v>174890</v>
+        <v>174603</v>
       </c>
     </row>
     <row r="191">
@@ -7082,22 +7082,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>77900018</v>
+        <v>77747041</v>
       </c>
       <c r="E191" t="n">
-        <v>78738559</v>
+        <v>78583935</v>
       </c>
       <c r="F191" t="n">
-        <v>51559.6734769176</v>
+        <v>50856.79616542029</v>
       </c>
       <c r="G191" t="n">
-        <v>56716.21301312751</v>
+        <v>62821.35400412543</v>
       </c>
       <c r="H191" t="n">
         <v>0.14</v>
       </c>
       <c r="I191" t="n">
-        <v>9412034</v>
+        <v>9482709</v>
       </c>
     </row>
     <row r="192">
@@ -7117,22 +7117,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>234245870</v>
+        <v>234539705</v>
       </c>
       <c r="E192" t="n">
-        <v>234245870</v>
+        <v>234539705</v>
       </c>
       <c r="F192" t="n">
-        <v>104079.781243797</v>
+        <v>112327.1371249767</v>
       </c>
       <c r="G192" t="n">
-        <v>125932.3305213156</v>
+        <v>111236.1577374849</v>
       </c>
       <c r="H192" t="n">
         <v>0.08</v>
       </c>
       <c r="I192" t="n">
-        <v>42619654</v>
+        <v>42901657</v>
       </c>
     </row>
     <row r="193">
@@ -7152,22 +7152,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>23627724</v>
+        <v>23691747</v>
       </c>
       <c r="E193" t="n">
-        <v>141369424</v>
+        <v>141752485</v>
       </c>
       <c r="F193" t="n">
-        <v>74709.74266734082</v>
+        <v>107896.4510511919</v>
       </c>
       <c r="G193" t="n">
-        <v>149257.1081974366</v>
+        <v>110725.4543586678</v>
       </c>
       <c r="H193" t="n">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
       <c r="I193" t="n">
-        <v>13336809</v>
+        <v>13353651</v>
       </c>
     </row>
     <row r="194">
@@ -7187,22 +7187,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>13467909</v>
+        <v>13358146</v>
       </c>
       <c r="E194" t="n">
-        <v>41328285</v>
+        <v>40991462</v>
       </c>
       <c r="F194" t="n">
-        <v>667.4225269820744</v>
+        <v>709.2239841984272</v>
       </c>
       <c r="G194" t="n">
-        <v>1936.806125727836</v>
+        <v>1589.367499668375</v>
       </c>
       <c r="H194" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="I194" t="n">
-        <v>2576397</v>
+        <v>2557092</v>
       </c>
     </row>
     <row r="195">
@@ -7222,22 +7222,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>52819295</v>
+        <v>52560452</v>
       </c>
       <c r="E195" t="n">
-        <v>91230405</v>
+        <v>90783328</v>
       </c>
       <c r="F195" t="n">
-        <v>4172.359717303887</v>
+        <v>14587.3516593428</v>
       </c>
       <c r="G195" t="n">
-        <v>9282.921349547643</v>
+        <v>1957.521077475986</v>
       </c>
       <c r="H195" t="n">
-        <v>0.01</v>
+        <v>0.2</v>
       </c>
       <c r="I195" t="n">
-        <v>2030239</v>
+        <v>2054704</v>
       </c>
     </row>
     <row r="196">
@@ -7257,22 +7257,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>4192931</v>
+        <v>4183065</v>
       </c>
       <c r="E196" t="n">
-        <v>4192931</v>
+        <v>4183065</v>
       </c>
       <c r="F196" t="n">
-        <v>1.064474280539738</v>
+        <v>1.064368655693092</v>
       </c>
       <c r="G196" t="n">
-        <v>1111.182726902132</v>
+        <v>389.627698527416</v>
       </c>
       <c r="H196" t="n">
-        <v>2.27</v>
+        <v>1.16</v>
       </c>
       <c r="I196" t="n">
-        <v>1546075</v>
+        <v>1551319</v>
       </c>
     </row>
     <row r="197">
@@ -7304,10 +7304,10 @@
         <v>0</v>
       </c>
       <c r="H197" t="n">
-        <v>5.8</v>
+        <v>5.33</v>
       </c>
       <c r="I197" t="n">
-        <v>57294</v>
+        <v>57082</v>
       </c>
     </row>
     <row r="198">
@@ -7327,22 +7327,22 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>6887750</v>
+        <v>6902501</v>
       </c>
       <c r="E198" t="n">
-        <v>35435382</v>
+        <v>35511271</v>
       </c>
       <c r="F198" t="n">
-        <v>145.9419158575401</v>
+        <v>112.4879528255419</v>
       </c>
       <c r="G198" t="n">
-        <v>458.0211735334137</v>
+        <v>550.5888276954134</v>
       </c>
       <c r="H198" t="n">
-        <v>1.07</v>
+        <v>1.35</v>
       </c>
       <c r="I198" t="n">
-        <v>917218</v>
+        <v>918505</v>
       </c>
     </row>
     <row r="199">
@@ -7362,22 +7362,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>176502486</v>
+        <v>177123490</v>
       </c>
       <c r="E199" t="n">
-        <v>206207019</v>
+        <v>206932535</v>
       </c>
       <c r="F199" t="n">
-        <v>19904.87933559936</v>
+        <v>21728.35634910326</v>
       </c>
       <c r="G199" t="n">
-        <v>19057.37762536523</v>
+        <v>20930.71980977119</v>
       </c>
       <c r="H199" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="I199" t="n">
-        <v>4216444</v>
+        <v>3945303</v>
       </c>
     </row>
     <row r="200">
@@ -7400,19 +7400,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>302845</v>
+        <v>304802</v>
       </c>
       <c r="F200" t="n">
-        <v>78.54547686874213</v>
+        <v>111.7854626229366</v>
       </c>
       <c r="G200" t="n">
-        <v>288.8840919312861</v>
+        <v>129.3601417201</v>
       </c>
       <c r="H200" t="n">
-        <v>2.61</v>
+        <v>0.99</v>
       </c>
       <c r="I200" t="n">
-        <v>298391</v>
+        <v>298539</v>
       </c>
     </row>
     <row r="201">
@@ -7435,19 +7435,19 @@
         <v>0</v>
       </c>
       <c r="E201" t="n">
-        <v>8054046</v>
+        <v>8049396</v>
       </c>
       <c r="F201" t="n">
-        <v>863.0591794149265</v>
+        <v>863.0469544222702</v>
       </c>
       <c r="G201" t="n">
-        <v>646.2701056981754</v>
+        <v>646.2084505613345</v>
       </c>
       <c r="H201" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="I201" t="n">
-        <v>675706</v>
+        <v>682285</v>
       </c>
     </row>
     <row r="202">
@@ -7470,13 +7470,13 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>34006</v>
+        <v>34012</v>
       </c>
       <c r="F202" t="n">
-        <v>199.1971723206228</v>
+        <v>199.1772946570465</v>
       </c>
       <c r="G202" t="n">
-        <v>5.018229180630793</v>
+        <v>5.017728417139829</v>
       </c>
       <c r="H202" t="n">
         <v>2.78</v>
@@ -7502,22 +7502,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>34266548</v>
+        <v>34417877</v>
       </c>
       <c r="E203" t="n">
-        <v>171005868</v>
+        <v>171761072</v>
       </c>
       <c r="F203" t="n">
-        <v>94746.27098800716</v>
+        <v>80120.65374831107</v>
       </c>
       <c r="G203" t="n">
-        <v>115494.8051742</v>
+        <v>93165.03169927414</v>
       </c>
       <c r="H203" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="I203" t="n">
-        <v>10096727</v>
+        <v>10214375</v>
       </c>
     </row>
     <row r="204">
@@ -7537,10 +7537,10 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1977391</v>
+        <v>1976773</v>
       </c>
       <c r="E204" t="n">
-        <v>1977391</v>
+        <v>1976773</v>
       </c>
       <c r="F204" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>16.64</v>
       </c>
       <c r="I204" t="n">
-        <v>12565.11</v>
+        <v>12560.07</v>
       </c>
     </row>
     <row r="205">
@@ -7575,19 +7575,19 @@
         <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>175957</v>
+        <v>176203</v>
       </c>
       <c r="F205" t="n">
-        <v>17.79966384861693</v>
+        <v>17.77282203761441</v>
       </c>
       <c r="G205" t="n">
-        <v>94.65664023845841</v>
+        <v>77.94271454164549</v>
       </c>
       <c r="H205" t="n">
         <v>0.6</v>
       </c>
       <c r="I205" t="n">
-        <v>12540.2</v>
+        <v>12445.26</v>
       </c>
     </row>
     <row r="206">
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>2768.15</v>
+        <v>2768.11</v>
       </c>
       <c r="E206" t="n">
         <v>33085</v>
@@ -7622,7 +7622,7 @@
         <v>7.97</v>
       </c>
       <c r="I206" t="n">
-        <v>7867.37</v>
+        <v>7867.38</v>
       </c>
     </row>
     <row r="207">
@@ -7669,22 +7669,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>311975093</v>
+        <v>311808654</v>
       </c>
       <c r="E208" t="n">
-        <v>577225067</v>
+        <v>576917117</v>
       </c>
       <c r="F208" t="n">
-        <v>136906.3611556283</v>
+        <v>136477.5069570924</v>
       </c>
       <c r="G208" t="n">
-        <v>141543.571661676</v>
+        <v>138303.0143024753</v>
       </c>
       <c r="H208" t="n">
         <v>0.09</v>
       </c>
       <c r="I208" t="n">
-        <v>12988061</v>
+        <v>13055973</v>
       </c>
     </row>
     <row r="209">
@@ -7704,22 +7704,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>71095975</v>
+        <v>71390532</v>
       </c>
       <c r="E209" t="n">
-        <v>678303519</v>
+        <v>681112799</v>
       </c>
       <c r="F209" t="n">
-        <v>257512.7940582867</v>
+        <v>243779.707814838</v>
       </c>
       <c r="G209" t="n">
-        <v>229712.9914283655</v>
+        <v>292449.5491693753</v>
       </c>
       <c r="H209" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="I209" t="n">
-        <v>21223638</v>
+        <v>21160308</v>
       </c>
     </row>
     <row r="210">
@@ -7742,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>2270104</v>
+        <v>2273082</v>
       </c>
       <c r="F210" t="n">
         <v>0</v>
@@ -7751,10 +7751,10 @@
         <v>0</v>
       </c>
       <c r="H210" t="n">
-        <v>4.77</v>
+        <v>4.6</v>
       </c>
       <c r="I210" t="n">
-        <v>49635</v>
+        <v>49720</v>
       </c>
     </row>
     <row r="211">
@@ -7774,10 +7774,10 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>82212</v>
+        <v>82232</v>
       </c>
       <c r="E211" t="n">
-        <v>683449</v>
+        <v>683613</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -7789,7 +7789,7 @@
         <v>7.04</v>
       </c>
       <c r="I211" t="n">
-        <v>174.91</v>
+        <v>174.97</v>
       </c>
     </row>
     <row r="212">
@@ -7809,22 +7809,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1903865</v>
+        <v>1902949</v>
       </c>
       <c r="E212" t="n">
-        <v>5437194</v>
+        <v>5434579</v>
       </c>
       <c r="F212" t="n">
-        <v>724.3478604290166</v>
+        <v>724.174578192195</v>
       </c>
       <c r="G212" t="n">
-        <v>220.4797927615798</v>
+        <v>190.7780852520592</v>
       </c>
       <c r="H212" t="n">
-        <v>1.52</v>
+        <v>1.14</v>
       </c>
       <c r="I212" t="n">
-        <v>71208</v>
+        <v>71263</v>
       </c>
     </row>
     <row r="213">
@@ -7844,22 +7844,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>9427967</v>
+        <v>9412665</v>
       </c>
       <c r="E213" t="n">
-        <v>27979306</v>
+        <v>27929551</v>
       </c>
       <c r="F213" t="n">
-        <v>1329.629894891331</v>
+        <v>1904.425266577601</v>
       </c>
       <c r="G213" t="n">
-        <v>3003.190307492714</v>
+        <v>1974.190486086392</v>
       </c>
       <c r="H213" t="n">
-        <v>0.18</v>
+        <v>0.53</v>
       </c>
       <c r="I213" t="n">
-        <v>6037795</v>
+        <v>6042763</v>
       </c>
     </row>
     <row r="214">
@@ -7882,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>14237649</v>
+        <v>14235155</v>
       </c>
       <c r="F214" t="n">
         <v>0</v>
@@ -7891,10 +7891,10 @@
         <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>8.33</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="I214" t="n">
-        <v>1334.29</v>
+        <v>1334.11</v>
       </c>
     </row>
     <row r="215">
@@ -7914,22 +7914,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>2002226</v>
+        <v>2002608</v>
       </c>
       <c r="E215" t="n">
-        <v>5809102</v>
+        <v>5810210</v>
       </c>
       <c r="F215" t="n">
-        <v>12.25024961599011</v>
+        <v>12.24902717724886</v>
       </c>
       <c r="G215" t="n">
-        <v>573.5063604371578</v>
+        <v>572.4676441599474</v>
       </c>
       <c r="H215" t="n">
         <v>0.02</v>
       </c>
       <c r="I215" t="n">
-        <v>52592</v>
+        <v>38714</v>
       </c>
     </row>
     <row r="216">
@@ -7949,22 +7949,22 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>2311800</v>
+        <v>2176371</v>
       </c>
       <c r="E216" t="n">
-        <v>20391609</v>
+        <v>19197033</v>
       </c>
       <c r="F216" t="n">
-        <v>306.9855187410906</v>
+        <v>400.0598458511107</v>
       </c>
       <c r="G216" t="n">
-        <v>1369.617231693372</v>
+        <v>2652.884065915831</v>
       </c>
       <c r="H216" t="n">
-        <v>1.55</v>
+        <v>1.41</v>
       </c>
       <c r="I216" t="n">
-        <v>81823</v>
+        <v>76689</v>
       </c>
     </row>
     <row r="217">
@@ -7984,22 +7984,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>44799163</v>
+        <v>44773216</v>
       </c>
       <c r="E217" t="n">
-        <v>44799163</v>
+        <v>44773216</v>
       </c>
       <c r="F217" t="n">
-        <v>33649.93567605572</v>
+        <v>38902.0971681825</v>
       </c>
       <c r="G217" t="n">
-        <v>42955.76411421039</v>
+        <v>41283.27777836867</v>
       </c>
       <c r="H217" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I217" t="n">
-        <v>7882145</v>
+        <v>7857009</v>
       </c>
     </row>
     <row r="218">
@@ -8019,22 +8019,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>9498036</v>
+        <v>9648445</v>
       </c>
       <c r="E218" t="n">
-        <v>13532525</v>
+        <v>13746824</v>
       </c>
       <c r="F218" t="n">
-        <v>598.7579256495447</v>
+        <v>267.7837566656001</v>
       </c>
       <c r="G218" t="n">
-        <v>192.1558222293386</v>
+        <v>125.164905110997</v>
       </c>
       <c r="H218" t="n">
-        <v>1.03</v>
+        <v>0.73</v>
       </c>
       <c r="I218" t="n">
-        <v>466215</v>
+        <v>477388</v>
       </c>
     </row>
     <row r="219">
@@ -8057,19 +8057,19 @@
         <v>0</v>
       </c>
       <c r="E219" t="n">
-        <v>16106221</v>
+        <v>16133909</v>
       </c>
       <c r="F219" t="n">
-        <v>6.662970209492915</v>
+        <v>11.69101376223479</v>
       </c>
       <c r="G219" t="n">
-        <v>990.2644740365099</v>
+        <v>611.4783756056287</v>
       </c>
       <c r="H219" t="n">
-        <v>2.02</v>
+        <v>1.74</v>
       </c>
       <c r="I219" t="n">
-        <v>958105</v>
+        <v>959683</v>
       </c>
     </row>
     <row r="220">
@@ -8092,19 +8092,19 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>715573</v>
+        <v>715271</v>
       </c>
       <c r="F220" t="n">
-        <v>61.39853283405684</v>
+        <v>49.76205259940399</v>
       </c>
       <c r="G220" t="n">
-        <v>290.4497478377269</v>
+        <v>344.3861318784504</v>
       </c>
       <c r="H220" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="I220" t="n">
-        <v>220380</v>
+        <v>222460</v>
       </c>
     </row>
     <row r="221">
@@ -8124,22 +8124,22 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>2759465</v>
+        <v>2752378</v>
       </c>
       <c r="E221" t="n">
-        <v>2761855</v>
+        <v>2754762</v>
       </c>
       <c r="F221" t="n">
-        <v>30.9983885950693</v>
+        <v>1.76015205958521</v>
       </c>
       <c r="G221" t="n">
-        <v>83.72679064783871</v>
+        <v>53.37831566404411</v>
       </c>
       <c r="H221" t="n">
-        <v>2.24</v>
+        <v>3.85</v>
       </c>
       <c r="I221" t="n">
-        <v>93236</v>
+        <v>85497</v>
       </c>
     </row>
     <row r="222">
@@ -8159,22 +8159,22 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1236660</v>
+        <v>1236176</v>
       </c>
       <c r="E222" t="n">
-        <v>3741568</v>
+        <v>3739879</v>
       </c>
       <c r="F222" t="n">
-        <v>2114.738501401146</v>
+        <v>2115.902154093234</v>
       </c>
       <c r="G222" t="n">
-        <v>570.3317919832698</v>
+        <v>570.2751995327368</v>
       </c>
       <c r="H222" t="n">
         <v>1.31</v>
       </c>
       <c r="I222" t="n">
-        <v>9494.799999999999</v>
+        <v>9492.52</v>
       </c>
     </row>
     <row r="223">
@@ -8194,22 +8194,22 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>37877007</v>
+        <v>37751731</v>
       </c>
       <c r="E223" t="n">
-        <v>268541803</v>
+        <v>267653614</v>
       </c>
       <c r="F223" t="n">
-        <v>75016.14983920037</v>
+        <v>74683.84017597482</v>
       </c>
       <c r="G223" t="n">
-        <v>68567.03711835468</v>
+        <v>65908.45214269991</v>
       </c>
       <c r="H223" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="I223" t="n">
-        <v>1510695</v>
+        <v>1447246</v>
       </c>
     </row>
     <row r="224">
@@ -8229,22 +8229,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>60056</v>
+        <v>60165</v>
       </c>
       <c r="E224" t="n">
-        <v>313348</v>
+        <v>313917</v>
       </c>
       <c r="F224" t="n">
-        <v>200.1180986749262</v>
+        <v>180.5394669131135</v>
       </c>
       <c r="G224" t="n">
-        <v>134.7632148087287</v>
+        <v>134.7122067862214</v>
       </c>
       <c r="H224" t="n">
-        <v>1.27</v>
+        <v>1.11</v>
       </c>
       <c r="I224" t="n">
-        <v>286454</v>
+        <v>285117</v>
       </c>
     </row>
     <row r="225">
@@ -8264,22 +8264,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1263077</v>
+        <v>1261600</v>
       </c>
       <c r="E225" t="n">
-        <v>7832960</v>
+        <v>7823090</v>
       </c>
       <c r="F225" t="n">
-        <v>1471.786505153593</v>
+        <v>1464.835303445423</v>
       </c>
       <c r="G225" t="n">
-        <v>2007.904326559058</v>
+        <v>1569.264157581121</v>
       </c>
       <c r="H225" t="n">
-        <v>0.24</v>
+        <v>0.32</v>
       </c>
       <c r="I225" t="n">
-        <v>730446</v>
+        <v>729650</v>
       </c>
     </row>
     <row r="226">
@@ -8299,22 +8299,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>600494220</v>
+        <v>602375619</v>
       </c>
       <c r="E226" t="n">
-        <v>2325625519</v>
+        <v>2332911897</v>
       </c>
       <c r="F226" t="n">
-        <v>181924.2136626231</v>
+        <v>201459.3126651663</v>
       </c>
       <c r="G226" t="n">
-        <v>315122.181738275</v>
+        <v>301459.7967492196</v>
       </c>
       <c r="H226" t="n">
         <v>0.04</v>
       </c>
       <c r="I226" t="n">
-        <v>33351961</v>
+        <v>33410757</v>
       </c>
     </row>
     <row r="227">
@@ -8337,19 +8337,19 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>20808327</v>
+        <v>20776368</v>
       </c>
       <c r="F227" t="n">
-        <v>889.1205767933305</v>
+        <v>826.6346472144872</v>
       </c>
       <c r="G227" t="n">
-        <v>563.9117342981699</v>
+        <v>580.0808803428096</v>
       </c>
       <c r="H227" t="n">
-        <v>0.14</v>
+        <v>0.05</v>
       </c>
       <c r="I227" t="n">
-        <v>17008179</v>
+        <v>17005953</v>
       </c>
     </row>
     <row r="228">
@@ -8372,19 +8372,19 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>905184</v>
+        <v>907561</v>
       </c>
       <c r="F228" t="n">
-        <v>98.70786311464812</v>
+        <v>2.549406131609701</v>
       </c>
       <c r="G228" t="n">
-        <v>75.22484633003917</v>
+        <v>24.6772700588059</v>
       </c>
       <c r="H228" t="n">
-        <v>1.31</v>
+        <v>2.16</v>
       </c>
       <c r="I228" t="n">
-        <v>369535</v>
+        <v>370554</v>
       </c>
     </row>
     <row r="229">
@@ -8404,22 +8404,22 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>5881922</v>
+        <v>5888766</v>
       </c>
       <c r="E229" t="n">
-        <v>26334099</v>
+        <v>26364740</v>
       </c>
       <c r="F229" t="n">
-        <v>2047.038935545619</v>
+        <v>2125.997437472544</v>
       </c>
       <c r="G229" t="n">
-        <v>2442.368182995965</v>
+        <v>2138.912262331739</v>
       </c>
       <c r="H229" t="n">
         <v>0.38</v>
       </c>
       <c r="I229" t="n">
-        <v>144181</v>
+        <v>144464</v>
       </c>
     </row>
     <row r="230">
@@ -8439,22 +8439,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>6495818</v>
+        <v>6461860</v>
       </c>
       <c r="E230" t="n">
-        <v>12436770</v>
+        <v>12371754</v>
       </c>
       <c r="F230" t="n">
-        <v>1.787950880873779</v>
+        <v>115.1551331428121</v>
       </c>
       <c r="G230" t="n">
-        <v>1262.129641761931</v>
+        <v>39.5028809666476</v>
       </c>
       <c r="H230" t="n">
-        <v>2.52</v>
+        <v>3.17</v>
       </c>
       <c r="I230" t="n">
-        <v>194780</v>
+        <v>195165</v>
       </c>
     </row>
     <row r="231">
@@ -8474,22 +8474,22 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>3194903</v>
+        <v>3181785</v>
       </c>
       <c r="E231" t="n">
-        <v>21008940</v>
+        <v>20922675</v>
       </c>
       <c r="F231" t="n">
-        <v>214.7409889398208</v>
+        <v>218.2763350764873</v>
       </c>
       <c r="G231" t="n">
-        <v>517.4549789521644</v>
+        <v>347.6594646617604</v>
       </c>
       <c r="H231" t="n">
-        <v>1.65</v>
+        <v>1.19</v>
       </c>
       <c r="I231" t="n">
-        <v>1460062</v>
+        <v>1462467</v>
       </c>
     </row>
     <row r="232">
@@ -8509,22 +8509,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>118942116</v>
+        <v>118969492</v>
       </c>
       <c r="E232" t="n">
-        <v>1034128597</v>
+        <v>1034366612</v>
       </c>
       <c r="F232" t="n">
-        <v>208931.0867004275</v>
+        <v>193248.1957111641</v>
       </c>
       <c r="G232" t="n">
-        <v>217305.3581573318</v>
+        <v>225087.6768402786</v>
       </c>
       <c r="H232" t="n">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="I232" t="n">
-        <v>8881254</v>
+        <v>8877715</v>
       </c>
     </row>
     <row r="233">
@@ -8548,16 +8548,16 @@
       </c>
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="n">
-        <v>4.090101615242148</v>
+        <v>4.089695765740877</v>
       </c>
       <c r="G233" t="n">
-        <v>4.021075075365479</v>
+        <v>4.020676075177359</v>
       </c>
       <c r="H233" t="n">
         <v>2.9</v>
       </c>
       <c r="I233" t="n">
-        <v>1116.99</v>
+        <v>1117.15</v>
       </c>
     </row>
     <row r="234">
@@ -8577,22 +8577,22 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>101876658</v>
+        <v>101830973</v>
       </c>
       <c r="E234" t="n">
-        <v>155415230</v>
+        <v>155345537</v>
       </c>
       <c r="F234" t="n">
-        <v>96592.74388024054</v>
+        <v>91315.1562616318</v>
       </c>
       <c r="G234" t="n">
-        <v>93633.4843790482</v>
+        <v>91521.6786730837</v>
       </c>
       <c r="H234" t="n">
         <v>0.08</v>
       </c>
       <c r="I234" t="n">
-        <v>7679792</v>
+        <v>7692839</v>
       </c>
     </row>
     <row r="235">
@@ -8612,22 +8612,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>15695143</v>
+        <v>15713732</v>
       </c>
       <c r="E235" t="n">
-        <v>21532376</v>
+        <v>21557879</v>
       </c>
       <c r="F235" t="n">
-        <v>1047.346020134504</v>
+        <v>995.5152790337174</v>
       </c>
       <c r="G235" t="n">
-        <v>2707.836005450671</v>
+        <v>2776.571441442571</v>
       </c>
       <c r="H235" t="n">
-        <v>0.74</v>
+        <v>0.65</v>
       </c>
       <c r="I235" t="n">
-        <v>342465</v>
+        <v>343365</v>
       </c>
     </row>
     <row r="236">
@@ -8647,22 +8647,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>114838005</v>
+        <v>116231337</v>
       </c>
       <c r="E236" t="n">
-        <v>440537069</v>
+        <v>445882118</v>
       </c>
       <c r="F236" t="n">
-        <v>442591.9767064689</v>
+        <v>428294.6269326997</v>
       </c>
       <c r="G236" t="n">
-        <v>532949.0573883285</v>
+        <v>566403.7277820406</v>
       </c>
       <c r="H236" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I236" t="n">
-        <v>23118176</v>
+        <v>23389733</v>
       </c>
     </row>
     <row r="237">
@@ -8685,19 +8685,19 @@
         <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>657491</v>
+        <v>657325</v>
       </c>
       <c r="F237" t="n">
-        <v>69.77347959719165</v>
+        <v>69.76655616727223</v>
       </c>
       <c r="G237" t="n">
-        <v>20.55771236232917</v>
+        <v>20.55567247723721</v>
       </c>
       <c r="H237" t="n">
         <v>3.25</v>
       </c>
       <c r="I237" t="n">
-        <v>45819</v>
+        <v>45807</v>
       </c>
     </row>
     <row r="238">
@@ -8720,7 +8720,7 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>850139</v>
+        <v>840294</v>
       </c>
       <c r="F238" t="n">
         <v>0</v>
@@ -8729,10 +8729,10 @@
         <v>0</v>
       </c>
       <c r="H238" t="n">
-        <v>6.95</v>
+        <v>6.56</v>
       </c>
       <c r="I238" t="n">
-        <v>40041</v>
+        <v>42580</v>
       </c>
     </row>
     <row r="239">
@@ -8752,22 +8752,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>3198222</v>
+        <v>3200816</v>
       </c>
       <c r="E239" t="n">
-        <v>30303627</v>
+        <v>30328201</v>
       </c>
       <c r="F239" t="n">
-        <v>1604.102700005674</v>
+        <v>1606.392189750972</v>
       </c>
       <c r="G239" t="n">
-        <v>2000.222643050336</v>
+        <v>2109.011497230728</v>
       </c>
       <c r="H239" t="n">
-        <v>0.23</v>
+        <v>0.13</v>
       </c>
       <c r="I239" t="n">
-        <v>234727</v>
+        <v>257951</v>
       </c>
     </row>
     <row r="240">
@@ -8787,22 +8787,22 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>727133</v>
+        <v>726587</v>
       </c>
       <c r="E240" t="n">
-        <v>777301</v>
+        <v>776717</v>
       </c>
       <c r="F240" t="n">
-        <v>38.69504556597888</v>
+        <v>38.69119870380369</v>
       </c>
       <c r="G240" t="n">
-        <v>2332.238085346475</v>
+        <v>2332.006226245579</v>
       </c>
       <c r="H240" t="n">
         <v>1.09</v>
       </c>
       <c r="I240" t="n">
-        <v>42458</v>
+        <v>43213</v>
       </c>
     </row>
     <row r="241">
@@ -8825,19 +8825,19 @@
         <v>0</v>
       </c>
       <c r="E241" t="n">
-        <v>374154</v>
+        <v>374141</v>
       </c>
       <c r="F241" t="n">
-        <v>7.93878865642785</v>
+        <v>7.938000912327581</v>
       </c>
       <c r="G241" t="n">
-        <v>127.5718483208948</v>
+        <v>127.5591897182762</v>
       </c>
       <c r="H241" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I241" t="n">
-        <v>594.54</v>
+        <v>594.62</v>
       </c>
     </row>
     <row r="242">
@@ -8860,19 +8860,19 @@
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>140439</v>
+        <v>138953</v>
       </c>
       <c r="F242" t="n">
-        <v>314.7026315854303</v>
+        <v>314.671404511364</v>
       </c>
       <c r="G242" t="n">
-        <v>83.0956027537415</v>
+        <v>83.08735740628858</v>
       </c>
       <c r="H242" t="n">
         <v>2.76</v>
       </c>
       <c r="I242" t="n">
-        <v>94019</v>
+        <v>94230</v>
       </c>
     </row>
     <row r="243">
@@ -8927,22 +8927,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>5934890</v>
+        <v>5937442</v>
       </c>
       <c r="E244" t="n">
-        <v>37091364</v>
+        <v>37107316</v>
       </c>
       <c r="F244" t="n">
-        <v>791.765924933124</v>
+        <v>825.4942763755786</v>
       </c>
       <c r="G244" t="n">
-        <v>1146.592098864502</v>
+        <v>1137.712533971333</v>
       </c>
       <c r="H244" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="I244" t="n">
-        <v>383055</v>
+        <v>384251</v>
       </c>
     </row>
     <row r="245">
@@ -8962,22 +8962,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>5106494</v>
+        <v>5005204</v>
       </c>
       <c r="E245" t="n">
-        <v>19015537</v>
+        <v>18638354</v>
       </c>
       <c r="F245" t="n">
-        <v>1311.553347118562</v>
+        <v>1364.865040570471</v>
       </c>
       <c r="G245" t="n">
-        <v>5950.761309139411</v>
+        <v>5950.167489307795</v>
       </c>
       <c r="H245" t="n">
         <v>1.05</v>
       </c>
       <c r="I245" t="n">
-        <v>108823</v>
+        <v>108352</v>
       </c>
     </row>
     <row r="246">
@@ -9000,19 +9000,19 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>3808656</v>
+        <v>3809363</v>
       </c>
       <c r="F246" t="n">
-        <v>159.7401411235485</v>
+        <v>159.6595664986483</v>
       </c>
       <c r="G246" t="n">
-        <v>2666.678592718641</v>
+        <v>2666.412487837158</v>
       </c>
       <c r="H246" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="I246" t="n">
-        <v>7197.76</v>
+        <v>7197.77</v>
       </c>
     </row>
     <row r="247">
@@ -9032,22 +9032,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>31510839</v>
+        <v>31476757</v>
       </c>
       <c r="E247" t="n">
-        <v>112946197</v>
+        <v>112824038</v>
       </c>
       <c r="F247" t="n">
-        <v>51.56878201633242</v>
+        <v>77.57116500484551</v>
       </c>
       <c r="G247" t="n">
-        <v>2345.285526794851</v>
+        <v>2353.155952783174</v>
       </c>
       <c r="H247" t="n">
-        <v>0.55</v>
+        <v>0.44</v>
       </c>
       <c r="I247" t="n">
-        <v>97654</v>
+        <v>97505</v>
       </c>
     </row>
     <row r="248">
@@ -9070,19 +9070,19 @@
         <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>1542616</v>
+        <v>1534317</v>
       </c>
       <c r="F248" t="n">
-        <v>9.244244271854937</v>
+        <v>12.00709821371476</v>
       </c>
       <c r="G248" t="n">
-        <v>472.459825494978</v>
+        <v>454.1005453615361</v>
       </c>
       <c r="H248" t="n">
-        <v>1.3</v>
+        <v>0.65</v>
       </c>
       <c r="I248" t="n">
-        <v>617897</v>
+        <v>617591</v>
       </c>
     </row>
     <row r="249">
@@ -9102,22 +9102,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>2198880</v>
+        <v>2218484</v>
       </c>
       <c r="E249" t="n">
-        <v>16913161</v>
+        <v>17063949</v>
       </c>
       <c r="F249" t="n">
-        <v>5193.270342255762</v>
+        <v>5175.003213060891</v>
       </c>
       <c r="G249" t="n">
-        <v>4769.705156915763</v>
+        <v>5128.782502412845</v>
       </c>
       <c r="H249" t="n">
-        <v>0.35</v>
+        <v>0.18</v>
       </c>
       <c r="I249" t="n">
-        <v>180881</v>
+        <v>173123</v>
       </c>
     </row>
     <row r="250">
@@ -9137,22 +9137,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>103471</v>
+        <v>103815</v>
       </c>
       <c r="E250" t="n">
-        <v>821868</v>
+        <v>824603</v>
       </c>
       <c r="F250" t="n">
-        <v>172.6595251236848</v>
+        <v>158.3073654484651</v>
       </c>
       <c r="G250" t="n">
-        <v>346.418350022557</v>
+        <v>359.6174690088683</v>
       </c>
       <c r="H250" t="n">
         <v>0.61</v>
       </c>
       <c r="I250" t="n">
-        <v>1355.8</v>
+        <v>1384.57</v>
       </c>
     </row>
     <row r="251">
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>87018234</v>
+        <v>87040092</v>
       </c>
       <c r="E251" t="n">
-        <v>321679837</v>
+        <v>321760304</v>
       </c>
       <c r="F251" t="n">
-        <v>7432.88774040589</v>
+        <v>7798.622757351439</v>
       </c>
       <c r="G251" t="n">
-        <v>2238.933014712354</v>
+        <v>2182.495300375768</v>
       </c>
       <c r="H251" t="n">
         <v>0.27</v>
       </c>
       <c r="I251" t="n">
-        <v>348852</v>
+        <v>347023</v>
       </c>
     </row>
     <row r="252">
@@ -9207,22 +9207,22 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>2458670</v>
+        <v>2459243</v>
       </c>
       <c r="E252" t="n">
-        <v>9865495</v>
+        <v>9867796</v>
       </c>
       <c r="F252" t="n">
-        <v>4.946820205368157</v>
+        <v>4.931322543732432</v>
       </c>
       <c r="G252" t="n">
-        <v>31.86400510801541</v>
+        <v>81.92397999719016</v>
       </c>
       <c r="H252" t="n">
-        <v>3.64</v>
+        <v>3.14</v>
       </c>
       <c r="I252" t="n">
-        <v>40485</v>
+        <v>40287</v>
       </c>
     </row>
     <row r="253">
@@ -9245,19 +9245,19 @@
         <v>0</v>
       </c>
       <c r="E253" t="n">
-        <v>584703</v>
+        <v>584615</v>
       </c>
       <c r="F253" t="n">
-        <v>37.02024351320743</v>
+        <v>29.43391882834175</v>
       </c>
       <c r="G253" t="n">
-        <v>3.064826200096333</v>
+        <v>33.74949829839851</v>
       </c>
       <c r="H253" t="n">
-        <v>2.76</v>
+        <v>3.26</v>
       </c>
       <c r="I253" t="n">
-        <v>1513.4</v>
+        <v>1513.62</v>
       </c>
     </row>
     <row r="254">
@@ -9276,7 +9276,7 @@
         <v>0</v>
       </c>
       <c r="E254" t="n">
-        <v>37006</v>
+        <v>37010</v>
       </c>
       <c r="F254" t="n">
         <v>0</v>
@@ -9288,7 +9288,7 @@
         <v>4.13</v>
       </c>
       <c r="I254" t="n">
-        <v>4974.65</v>
+        <v>4975.85</v>
       </c>
     </row>
     <row r="255">
@@ -9308,22 +9308,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>720653788</v>
+        <v>718304512</v>
       </c>
       <c r="E255" t="n">
-        <v>1111311769</v>
+        <v>1107688978</v>
       </c>
       <c r="F255" t="n">
-        <v>195411.4129449555</v>
+        <v>177325.5031163945</v>
       </c>
       <c r="G255" t="n">
-        <v>210762.6468304462</v>
+        <v>197519.9037262254</v>
       </c>
       <c r="H255" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I255" t="n">
-        <v>214380699</v>
+        <v>177690387</v>
       </c>
     </row>
     <row r="256">
@@ -9343,22 +9343,22 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>5666043</v>
+        <v>5664663</v>
       </c>
       <c r="E256" t="n">
-        <v>5666043</v>
+        <v>5664663</v>
       </c>
       <c r="F256" t="n">
-        <v>18.31262881644874</v>
+        <v>21.29180580267575</v>
       </c>
       <c r="G256" t="n">
-        <v>2.887305397371569</v>
+        <v>2.887017276387408</v>
       </c>
       <c r="H256" t="n">
         <v>0.97</v>
       </c>
       <c r="I256" t="n">
-        <v>520.58</v>
+        <v>516.15</v>
       </c>
     </row>
     <row r="257">
@@ -9378,22 +9378,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>39884478</v>
+        <v>39907120</v>
       </c>
       <c r="E257" t="n">
-        <v>190375256</v>
+        <v>190483328</v>
       </c>
       <c r="F257" t="n">
-        <v>502.6588119752006</v>
+        <v>508.8369963472905</v>
       </c>
       <c r="G257" t="n">
-        <v>206.7395348351874</v>
+        <v>288.4918648651185</v>
       </c>
       <c r="H257" t="n">
-        <v>0.31</v>
+        <v>0.15</v>
       </c>
       <c r="I257" t="n">
-        <v>418951</v>
+        <v>417101</v>
       </c>
     </row>
     <row r="258">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>526200</v>
+        <v>526181</v>
       </c>
       <c r="F258" t="n">
         <v>0</v>
@@ -9425,10 +9425,10 @@
         <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>8.51</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="I258" t="n">
-        <v>365.01</v>
+        <v>364.97</v>
       </c>
     </row>
     <row r="259">
@@ -9448,22 +9448,22 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>23942555</v>
+        <v>23988528</v>
       </c>
       <c r="E259" t="n">
-        <v>39904257</v>
+        <v>39980879</v>
       </c>
       <c r="F259" t="n">
-        <v>7680.213113927794</v>
+        <v>7258.378561708781</v>
       </c>
       <c r="G259" t="n">
-        <v>3014.035634348252</v>
+        <v>7339.888379030646</v>
       </c>
       <c r="H259" t="n">
-        <v>0.05</v>
+        <v>0.85</v>
       </c>
       <c r="I259" t="n">
-        <v>699144</v>
+        <v>700877</v>
       </c>
     </row>
     <row r="260">
@@ -9486,19 +9486,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>107752</v>
+        <v>108587</v>
       </c>
       <c r="F260" t="n">
-        <v>72.91187144380126</v>
+        <v>69.30995676873701</v>
       </c>
       <c r="G260" t="n">
-        <v>138.0270127765085</v>
+        <v>180.8359548602317</v>
       </c>
       <c r="H260" t="n">
-        <v>0.44</v>
+        <v>0.25</v>
       </c>
       <c r="I260" t="n">
-        <v>48900</v>
+        <v>48884</v>
       </c>
     </row>
     <row r="261">
@@ -9518,22 +9518,22 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>873808</v>
+        <v>873825</v>
       </c>
       <c r="E261" t="n">
-        <v>3732783</v>
+        <v>3732856</v>
       </c>
       <c r="F261" t="n">
-        <v>2523.741819611173</v>
+        <v>2506.780175932843</v>
       </c>
       <c r="G261" t="n">
-        <v>4055.231129265095</v>
+        <v>4067.132014410164</v>
       </c>
       <c r="H261" t="n">
         <v>0.28</v>
       </c>
       <c r="I261" t="n">
-        <v>17579.8</v>
+        <v>17584.56</v>
       </c>
     </row>
     <row r="262">
@@ -9553,22 +9553,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>3788981</v>
+        <v>3783457</v>
       </c>
       <c r="E262" t="n">
-        <v>8267507</v>
+        <v>8255454</v>
       </c>
       <c r="F262" t="n">
-        <v>1422.528330977009</v>
+        <v>1346.50933990918</v>
       </c>
       <c r="G262" t="n">
-        <v>1628.823635488192</v>
+        <v>1901.338264766861</v>
       </c>
       <c r="H262" t="n">
         <v>0.85</v>
       </c>
       <c r="I262" t="n">
-        <v>961962</v>
+        <v>975749</v>
       </c>
     </row>
     <row r="263">
@@ -9588,22 +9588,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>491708959</v>
+        <v>492897607</v>
       </c>
       <c r="E263" t="n">
-        <v>1712466322</v>
+        <v>1716606007</v>
       </c>
       <c r="F263" t="n">
-        <v>413472.7031963759</v>
+        <v>586506.2027541047</v>
       </c>
       <c r="G263" t="n">
-        <v>647952.9177677719</v>
+        <v>664245.8125945921</v>
       </c>
       <c r="H263" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I263" t="n">
-        <v>31138903</v>
+        <v>31162391</v>
       </c>
     </row>
     <row r="264">
@@ -9623,22 +9623,22 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>5573156315</v>
+        <v>5567731228</v>
       </c>
       <c r="E264" t="n">
-        <v>5573156315</v>
+        <v>5572623577</v>
       </c>
       <c r="F264" t="n">
-        <v>4078.497463956664</v>
+        <v>5107.133102806192</v>
       </c>
       <c r="G264" t="n">
-        <v>1989.130714963097</v>
+        <v>2117.933561901576</v>
       </c>
       <c r="H264" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="I264" t="n">
-        <v>27812819</v>
+        <v>27934834</v>
       </c>
     </row>
     <row r="265">
@@ -9658,22 +9658,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>24091281</v>
+        <v>24047421</v>
       </c>
       <c r="E265" t="n">
-        <v>24070354</v>
+        <v>24026533</v>
       </c>
       <c r="F265" t="n">
-        <v>49.46101002187808</v>
+        <v>108.7922724703799</v>
       </c>
       <c r="G265" t="n">
-        <v>667.5721191484125</v>
+        <v>110.5120404444561</v>
       </c>
       <c r="H265" t="n">
-        <v>2.7</v>
+        <v>2.26</v>
       </c>
       <c r="I265" t="n">
-        <v>92935</v>
+        <v>92905</v>
       </c>
     </row>
     <row r="266">
@@ -9693,10 +9693,10 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>12096759</v>
+        <v>12096888</v>
       </c>
       <c r="E266" t="n">
-        <v>24490897</v>
+        <v>24489406</v>
       </c>
       <c r="F266" t="n">
         <v>0</v>
@@ -9705,10 +9705,10 @@
         <v>0</v>
       </c>
       <c r="H266" t="n">
-        <v>5.89</v>
+        <v>5.5</v>
       </c>
       <c r="I266" t="n">
-        <v>28466</v>
+        <v>28472</v>
       </c>
     </row>
     <row r="267">
@@ -9731,19 +9731,19 @@
         <v>0</v>
       </c>
       <c r="E267" t="n">
-        <v>150266</v>
+        <v>152509</v>
       </c>
       <c r="F267" t="n">
-        <v>182.6060663146044</v>
+        <v>184.6142142480711</v>
       </c>
       <c r="G267" t="n">
-        <v>132.1700119546332</v>
+        <v>132.1568970889206</v>
       </c>
       <c r="H267" t="n">
         <v>0.75</v>
       </c>
       <c r="I267" t="n">
-        <v>57395</v>
+        <v>58013</v>
       </c>
     </row>
     <row r="268">
@@ -9766,19 +9766,19 @@
         <v>0</v>
       </c>
       <c r="E268" t="n">
-        <v>47718</v>
+        <v>47717</v>
       </c>
       <c r="F268" t="n">
-        <v>67.67597857372151</v>
+        <v>117.8028753439114</v>
       </c>
       <c r="G268" t="n">
-        <v>1.328676448601712</v>
+        <v>1.328544607702698</v>
       </c>
       <c r="H268" t="n">
         <v>2.09</v>
       </c>
       <c r="I268" t="n">
-        <v>71884</v>
+        <v>71881</v>
       </c>
     </row>
     <row r="269">
@@ -9798,22 +9798,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>2640308</v>
+        <v>2640200</v>
       </c>
       <c r="E269" t="n">
-        <v>10561232</v>
+        <v>10560798</v>
       </c>
       <c r="F269" t="n">
-        <v>53307.53899256095</v>
+        <v>45122.76679793623</v>
       </c>
       <c r="G269" t="n">
-        <v>54895.70759284094</v>
+        <v>55276.24340263341</v>
       </c>
       <c r="H269" t="n">
         <v>0.57</v>
       </c>
       <c r="I269" t="n">
-        <v>5829476</v>
+        <v>5849786</v>
       </c>
     </row>
     <row r="270">
@@ -9833,22 +9833,22 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>216346590</v>
+        <v>216224828</v>
       </c>
       <c r="E270" t="n">
-        <v>665184348</v>
+        <v>664809976</v>
       </c>
       <c r="F270" t="n">
-        <v>238753.4269462739</v>
+        <v>228048.3385135411</v>
       </c>
       <c r="G270" t="n">
-        <v>291959.9561496747</v>
+        <v>305751.4912044945</v>
       </c>
       <c r="H270" t="n">
         <v>0.03</v>
       </c>
       <c r="I270" t="n">
-        <v>11719434</v>
+        <v>11760538</v>
       </c>
     </row>
     <row r="271">
@@ -9868,22 +9868,22 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>154483301</v>
+        <v>155300521</v>
       </c>
       <c r="E271" t="n">
-        <v>403583339</v>
+        <v>405718303</v>
       </c>
       <c r="F271" t="n">
-        <v>45997.47848489617</v>
+        <v>35218.52741199237</v>
       </c>
       <c r="G271" t="n">
-        <v>41049.94614249391</v>
+        <v>55246.15251688347</v>
       </c>
       <c r="H271" t="n">
-        <v>0.25</v>
+        <v>0.32</v>
       </c>
       <c r="I271" t="n">
-        <v>7221240</v>
+        <v>7317944</v>
       </c>
     </row>
     <row r="272">
@@ -9903,22 +9903,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>2431072</v>
+        <v>2442064</v>
       </c>
       <c r="E272" t="n">
-        <v>3336236</v>
+        <v>3351359</v>
       </c>
       <c r="F272" t="n">
-        <v>124.5405455410729</v>
+        <v>123.2895450315839</v>
       </c>
       <c r="G272" t="n">
-        <v>111.5542592686877</v>
+        <v>88.08172785899747</v>
       </c>
       <c r="H272" t="n">
-        <v>1.08</v>
+        <v>0.86</v>
       </c>
       <c r="I272" t="n">
-        <v>1058527</v>
+        <v>1060298</v>
       </c>
     </row>
   </sheetData>

--- a/GateioData20250220.xlsx
+++ b/GateioData20250220.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>52518</v>
+        <v>50440</v>
       </c>
       <c r="F2" t="n">
-        <v>1.325105721172152</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>29.81063259291872</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>1710.2</v>
+        <v>1383.52</v>
       </c>
     </row>
     <row r="3">
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>89620</v>
+        <v>90410</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>4.04</v>
       </c>
       <c r="I3" t="n">
-        <v>1333.67</v>
+        <v>1552.59</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>606518936</v>
+        <v>607195061</v>
       </c>
       <c r="E4" t="n">
-        <v>1176903289</v>
+        <v>1178218158</v>
       </c>
       <c r="F4" t="n">
-        <v>54224.82284690042</v>
+        <v>40284.27098274195</v>
       </c>
       <c r="G4" t="n">
-        <v>46682.16487929208</v>
+        <v>49109.33876428951</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>23261155</v>
+        <v>23118159</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1319354</v>
+        <v>1320208</v>
       </c>
       <c r="E5" t="n">
-        <v>4264693</v>
+        <v>4267454</v>
       </c>
       <c r="F5" t="n">
-        <v>4549.246550823055</v>
+        <v>4626.899533868683</v>
       </c>
       <c r="G5" t="n">
-        <v>6056.144014733306</v>
+        <v>6128.885291251991</v>
       </c>
       <c r="H5" t="n">
         <v>0.47</v>
       </c>
       <c r="I5" t="n">
-        <v>99735</v>
+        <v>100659</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>139954361</v>
+        <v>140095170</v>
       </c>
       <c r="E6" t="n">
-        <v>155091304</v>
+        <v>155247342</v>
       </c>
       <c r="F6" t="n">
-        <v>188704.0792989248</v>
+        <v>188322.195654041</v>
       </c>
       <c r="G6" t="n">
-        <v>314985.0468724867</v>
+        <v>328428.3598841667</v>
       </c>
       <c r="H6" t="n">
         <v>0.13</v>
       </c>
       <c r="I6" t="n">
-        <v>34396078</v>
+        <v>34541563</v>
       </c>
     </row>
     <row r="7">
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>4205.04</v>
+        <v>4206.23</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>9.09</v>
       </c>
       <c r="I7" t="n">
-        <v>260.88</v>
+        <v>260.97</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8939246</v>
+        <v>8313628</v>
       </c>
       <c r="E8" t="n">
-        <v>9164660</v>
+        <v>8523267</v>
       </c>
       <c r="F8" t="n">
-        <v>2450.736556201919</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>172.4540647563024</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>2.28</v>
+        <v>4.17</v>
       </c>
       <c r="I8" t="n">
-        <v>50705</v>
+        <v>75959</v>
       </c>
     </row>
     <row r="9">
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>303545</v>
+        <v>306764</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -754,10 +754,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>6.09</v>
+        <v>5.84</v>
       </c>
       <c r="I9" t="n">
-        <v>383.55</v>
+        <v>376.06</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5199013</v>
+        <v>5202923</v>
       </c>
       <c r="E10" t="n">
-        <v>8306460</v>
+        <v>8312708</v>
       </c>
       <c r="F10" t="n">
-        <v>258.0322343110179</v>
+        <v>244.4164610497851</v>
       </c>
       <c r="G10" t="n">
-        <v>225.3294083776543</v>
+        <v>223.5396230334458</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6</v>
+        <v>0.49</v>
       </c>
       <c r="I10" t="n">
-        <v>101464</v>
+        <v>101313</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1002380</v>
+        <v>1001107</v>
       </c>
       <c r="E11" t="n">
-        <v>12266422</v>
+        <v>12250844</v>
       </c>
       <c r="F11" t="n">
-        <v>1579.928903782323</v>
+        <v>1230.991724516467</v>
       </c>
       <c r="G11" t="n">
-        <v>1665.174292422384</v>
+        <v>1665.186981036633</v>
       </c>
       <c r="H11" t="n">
         <v>0.41</v>
       </c>
       <c r="I11" t="n">
-        <v>2109.16</v>
+        <v>2110.62</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>582595</v>
+        <v>609533</v>
       </c>
       <c r="E12" t="n">
-        <v>582595</v>
+        <v>609533</v>
       </c>
       <c r="F12" t="n">
-        <v>15.43300085556048</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>94.11052095142576</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1.98</v>
+        <v>6.84</v>
       </c>
       <c r="I12" t="n">
-        <v>22893</v>
+        <v>28575</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4690865</v>
+        <v>4670193</v>
       </c>
       <c r="E13" t="n">
-        <v>28812896</v>
+        <v>28685922</v>
       </c>
       <c r="F13" t="n">
-        <v>857.9523567516993</v>
+        <v>223.9053908932784</v>
       </c>
       <c r="G13" t="n">
-        <v>1099.794620660404</v>
+        <v>1233.70373142796</v>
       </c>
       <c r="H13" t="n">
-        <v>0.52</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>491292</v>
+        <v>516181</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>197868</v>
+        <v>198022</v>
       </c>
       <c r="E14" t="n">
-        <v>2176769</v>
+        <v>2178459</v>
       </c>
       <c r="F14" t="n">
-        <v>641.2555301503447</v>
+        <v>641.2519128874084</v>
       </c>
       <c r="G14" t="n">
-        <v>783.8704053509349</v>
+        <v>783.8659836107224</v>
       </c>
       <c r="H14" t="n">
         <v>1.82</v>
       </c>
       <c r="I14" t="n">
-        <v>34553</v>
+        <v>31535</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3349456</v>
+        <v>3369369</v>
       </c>
       <c r="E15" t="n">
-        <v>9528907</v>
+        <v>9585556</v>
       </c>
       <c r="F15" t="n">
-        <v>1498.455763098876</v>
+        <v>2862.176380931521</v>
       </c>
       <c r="G15" t="n">
-        <v>380.7574620644741</v>
+        <v>382.5405225766112</v>
       </c>
       <c r="H15" t="n">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="I15" t="n">
-        <v>118823</v>
+        <v>114215</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>325756</v>
+        <v>325692</v>
       </c>
       <c r="E16" t="n">
-        <v>3759957</v>
+        <v>3759221</v>
       </c>
       <c r="F16" t="n">
-        <v>137.4744600540696</v>
+        <v>143.8641479929768</v>
       </c>
       <c r="G16" t="n">
-        <v>131.210918448354</v>
+        <v>131.0356497338929</v>
       </c>
       <c r="H16" t="n">
-        <v>0.76</v>
+        <v>0.38</v>
       </c>
       <c r="I16" t="n">
-        <v>4892.69</v>
+        <v>4897.14</v>
       </c>
     </row>
     <row r="17">
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>936343</v>
+        <v>942172</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1034,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>4.42</v>
+        <v>4.65</v>
       </c>
       <c r="I17" t="n">
-        <v>11660.73</v>
+        <v>10898.13</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>22472407</v>
+        <v>22667414</v>
       </c>
       <c r="E18" t="n">
-        <v>22514327</v>
+        <v>22709697</v>
       </c>
       <c r="F18" t="n">
-        <v>2713.838037325171</v>
+        <v>3075.954559474337</v>
       </c>
       <c r="G18" t="n">
-        <v>1690.758496750671</v>
+        <v>1546.32370333292</v>
       </c>
       <c r="H18" t="n">
-        <v>0.39</v>
+        <v>0.27</v>
       </c>
       <c r="I18" t="n">
-        <v>876292</v>
+        <v>887200</v>
       </c>
     </row>
     <row r="19">
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>6740017</v>
+        <v>6750565</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>5.31</v>
+        <v>4.21</v>
       </c>
       <c r="I19" t="n">
-        <v>27550</v>
+        <v>28244</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2443062</v>
+        <v>2446535</v>
       </c>
       <c r="E20" t="n">
-        <v>2443062</v>
+        <v>2446535</v>
       </c>
       <c r="F20" t="n">
-        <v>295.6648340464909</v>
+        <v>282.6034868367757</v>
       </c>
       <c r="G20" t="n">
-        <v>492.4264644753445</v>
+        <v>542.5274578477633</v>
       </c>
       <c r="H20" t="n">
-        <v>1.58</v>
+        <v>2.76</v>
       </c>
       <c r="I20" t="n">
-        <v>322463</v>
+        <v>327385</v>
       </c>
     </row>
     <row r="21">
@@ -1165,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>409143</v>
+        <v>412269</v>
       </c>
       <c r="F21" t="n">
-        <v>153.6947444794343</v>
+        <v>95.30091882494793</v>
       </c>
       <c r="G21" t="n">
-        <v>97.99808452016644</v>
+        <v>113.5112593732178</v>
       </c>
       <c r="H21" t="n">
-        <v>0.96</v>
+        <v>1.2</v>
       </c>
       <c r="I21" t="n">
-        <v>1539.14</v>
+        <v>1542.25</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>18139727</v>
+        <v>17780731</v>
       </c>
       <c r="E22" t="n">
-        <v>23347317</v>
+        <v>22885261</v>
       </c>
       <c r="F22" t="n">
-        <v>5682.835619833768</v>
+        <v>1286.857019909631</v>
       </c>
       <c r="G22" t="n">
-        <v>4329.540871962553</v>
+        <v>1614.077653039184</v>
       </c>
       <c r="H22" t="n">
-        <v>0.4</v>
+        <v>0.71</v>
       </c>
       <c r="I22" t="n">
-        <v>2088458</v>
+        <v>2076125</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>471974051</v>
+        <v>474585403</v>
       </c>
       <c r="E23" t="n">
-        <v>471974051</v>
+        <v>474585401</v>
       </c>
       <c r="F23" t="n">
-        <v>57914.40853590671</v>
+        <v>48831.01127463246</v>
       </c>
       <c r="G23" t="n">
-        <v>73224.45971281648</v>
+        <v>57004.25611814131</v>
       </c>
       <c r="H23" t="n">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="I23" t="n">
-        <v>79020817</v>
+        <v>66636579</v>
       </c>
     </row>
     <row r="24">
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>22846</v>
+        <v>22853</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1279,10 +1279,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>7.75</v>
+        <v>7.86</v>
       </c>
       <c r="I24" t="n">
-        <v>3074.78</v>
+        <v>3075.66</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4700034</v>
+        <v>4633486</v>
       </c>
       <c r="E25" t="n">
-        <v>4700034</v>
+        <v>4633486</v>
       </c>
       <c r="F25" t="n">
-        <v>870.328295618207</v>
+        <v>983.3564197512806</v>
       </c>
       <c r="G25" t="n">
-        <v>1108.101115690158</v>
+        <v>1182.380730457</v>
       </c>
       <c r="H25" t="n">
-        <v>0.13</v>
+        <v>0.52</v>
       </c>
       <c r="I25" t="n">
-        <v>1940608</v>
+        <v>1366206</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3421529</v>
+        <v>3423013</v>
       </c>
       <c r="E26" t="n">
-        <v>3421529</v>
+        <v>3423013</v>
       </c>
       <c r="F26" t="n">
-        <v>264.8118078545797</v>
+        <v>46.63297902106944</v>
       </c>
       <c r="G26" t="n">
-        <v>313.9030141667578</v>
+        <v>1036.336448299589</v>
       </c>
       <c r="H26" t="n">
-        <v>1.05</v>
+        <v>1.37</v>
       </c>
       <c r="I26" t="n">
-        <v>547441</v>
+        <v>495635</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>324272</v>
+        <v>327911</v>
       </c>
       <c r="E27" t="n">
-        <v>1513736</v>
+        <v>1530724</v>
       </c>
       <c r="F27" t="n">
-        <v>2166.529735419898</v>
+        <v>1036.013843813022</v>
       </c>
       <c r="G27" t="n">
-        <v>489.2305865416562</v>
+        <v>324.5378350976309</v>
       </c>
       <c r="H27" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="I27" t="n">
-        <v>645630</v>
+        <v>658304</v>
       </c>
     </row>
     <row r="28">
@@ -1410,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1595852</v>
+        <v>1596402</v>
       </c>
       <c r="F28" t="n">
-        <v>501.4633320572125</v>
+        <v>376.6332134917693</v>
       </c>
       <c r="G28" t="n">
-        <v>318.8542768472931</v>
+        <v>446.0258114651197</v>
       </c>
       <c r="H28" t="n">
-        <v>0.13</v>
+        <v>0.25</v>
       </c>
       <c r="I28" t="n">
-        <v>240745</v>
+        <v>246426</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>12860611</v>
+        <v>12847148</v>
       </c>
       <c r="E29" t="n">
-        <v>32007735</v>
+        <v>31974229</v>
       </c>
       <c r="F29" t="n">
-        <v>857.5978149109823</v>
+        <v>745.541671724671</v>
       </c>
       <c r="G29" t="n">
-        <v>1063.699400871868</v>
+        <v>1358.197438857369</v>
       </c>
       <c r="H29" t="n">
-        <v>0.22</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I29" t="n">
-        <v>1596675</v>
+        <v>1595264</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>897625</v>
+        <v>887427</v>
       </c>
       <c r="E30" t="n">
-        <v>6283377</v>
+        <v>6211986</v>
       </c>
       <c r="F30" t="n">
-        <v>49.49426270327569</v>
+        <v>820.2867508017107</v>
       </c>
       <c r="G30" t="n">
-        <v>280.8816240003888</v>
+        <v>77.58976609636754</v>
       </c>
       <c r="H30" t="n">
-        <v>2.97</v>
+        <v>2.55</v>
       </c>
       <c r="I30" t="n">
-        <v>169240</v>
+        <v>193096</v>
       </c>
     </row>
     <row r="31">
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>178572</v>
+        <v>190183</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         <v>7.89</v>
       </c>
       <c r="I31" t="n">
-        <v>6073.29</v>
+        <v>5954.45</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5220606</v>
+        <v>5110844</v>
       </c>
       <c r="E32" t="n">
-        <v>5470360</v>
+        <v>5355347</v>
       </c>
       <c r="F32" t="n">
-        <v>108.7420794014922</v>
+        <v>9.655842954974784</v>
       </c>
       <c r="G32" t="n">
-        <v>428.9727251540533</v>
+        <v>634.6888610605723</v>
       </c>
       <c r="H32" t="n">
-        <v>1.88</v>
+        <v>3.49</v>
       </c>
       <c r="I32" t="n">
-        <v>172640</v>
+        <v>174388</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>5383604</v>
+        <v>5381797</v>
       </c>
       <c r="E33" t="n">
-        <v>7924956</v>
+        <v>7922297</v>
       </c>
       <c r="F33" t="n">
-        <v>68.68769609264362</v>
+        <v>69.59575281670277</v>
       </c>
       <c r="G33" t="n">
-        <v>326.0056392701758</v>
+        <v>305.1564603602668</v>
       </c>
       <c r="H33" t="n">
-        <v>0.53</v>
+        <v>0.6</v>
       </c>
       <c r="I33" t="n">
-        <v>628502</v>
+        <v>677143</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7656074</v>
+        <v>7662080</v>
       </c>
       <c r="E34" t="n">
-        <v>7656074</v>
+        <v>7662080</v>
       </c>
       <c r="F34" t="n">
-        <v>31852.39125804912</v>
+        <v>31878.71913903074</v>
       </c>
       <c r="G34" t="n">
-        <v>32360.66475459855</v>
+        <v>32470.80353450364</v>
       </c>
       <c r="H34" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="I34" t="n">
-        <v>247163</v>
+        <v>238332</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1459508</v>
+        <v>1455227</v>
       </c>
       <c r="E35" t="n">
-        <v>1459547</v>
+        <v>1455227</v>
       </c>
       <c r="F35" t="n">
-        <v>468.2635852806731</v>
+        <v>483.3235973769812</v>
       </c>
       <c r="G35" t="n">
-        <v>235.629849878854</v>
+        <v>269.5147566101343</v>
       </c>
       <c r="H35" t="n">
-        <v>0.58</v>
+        <v>2.11</v>
       </c>
       <c r="I35" t="n">
-        <v>276329</v>
+        <v>276956</v>
       </c>
     </row>
     <row r="36">
@@ -1690,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>16544153</v>
+        <v>16548916</v>
       </c>
       <c r="F36" t="n">
-        <v>172.4596962195544</v>
+        <v>173.1218589493338</v>
       </c>
       <c r="G36" t="n">
-        <v>169.9772066285584</v>
+        <v>170.6308816830553</v>
       </c>
       <c r="H36" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="I36" t="n">
-        <v>10262.53</v>
+        <v>10195.07</v>
       </c>
     </row>
     <row r="37">
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>65187</v>
+        <v>65197</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>8.51</v>
       </c>
       <c r="I37" t="n">
-        <v>256.8</v>
+        <v>250.38</v>
       </c>
     </row>
     <row r="38">
@@ -1753,22 +1753,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>136864091</v>
+        <v>136350976</v>
       </c>
       <c r="E38" t="n">
-        <v>136864091</v>
+        <v>136350976</v>
       </c>
       <c r="F38" t="n">
-        <v>306104.980033927</v>
+        <v>256836.7674461344</v>
       </c>
       <c r="G38" t="n">
-        <v>345583.6126811824</v>
+        <v>366267.1015917271</v>
       </c>
       <c r="H38" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I38" t="n">
-        <v>66733766</v>
+        <v>66426396</v>
       </c>
     </row>
     <row r="39">
@@ -1788,22 +1788,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>65248334</v>
+        <v>65374757</v>
       </c>
       <c r="E39" t="n">
-        <v>334606842</v>
+        <v>335255164</v>
       </c>
       <c r="F39" t="n">
-        <v>85536.96357851327</v>
+        <v>71243.05819594176</v>
       </c>
       <c r="G39" t="n">
-        <v>85873.95701789371</v>
+        <v>93740.62456903592</v>
       </c>
       <c r="H39" t="n">
-        <v>0.06</v>
+        <v>0.19</v>
       </c>
       <c r="I39" t="n">
-        <v>19407748</v>
+        <v>19609135</v>
       </c>
     </row>
     <row r="40">
@@ -1823,10 +1823,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>45631</v>
+        <v>45644</v>
       </c>
       <c r="E40" t="n">
-        <v>134847</v>
+        <v>134885</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -1835,10 +1835,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>8.42</v>
+        <v>8.17</v>
       </c>
       <c r="I40" t="n">
-        <v>791.66</v>
+        <v>287.35</v>
       </c>
     </row>
     <row r="41">
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>51997</v>
+        <v>52280</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -1873,7 +1873,7 @@
         <v>5.95</v>
       </c>
       <c r="I41" t="n">
-        <v>25642</v>
+        <v>25894</v>
       </c>
     </row>
     <row r="42">
@@ -1896,19 +1896,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>596121</v>
+        <v>595283</v>
       </c>
       <c r="F42" t="n">
-        <v>2190.033342287502</v>
+        <v>1232.226477391693</v>
       </c>
       <c r="G42" t="n">
-        <v>398.1649933974019</v>
+        <v>398.2197605148126</v>
       </c>
       <c r="H42" t="n">
         <v>0.7</v>
       </c>
       <c r="I42" t="n">
-        <v>1424.16</v>
+        <v>1508.44</v>
       </c>
     </row>
     <row r="43">
@@ -1961,22 +1961,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2731731</v>
+        <v>2746192</v>
       </c>
       <c r="E44" t="n">
-        <v>10978205</v>
+        <v>11036321</v>
       </c>
       <c r="F44" t="n">
-        <v>211.1384408892516</v>
+        <v>213.1065180151639</v>
       </c>
       <c r="G44" t="n">
-        <v>154.7483682317319</v>
+        <v>7.270018061959535</v>
       </c>
       <c r="H44" t="n">
-        <v>1.79</v>
+        <v>2.68</v>
       </c>
       <c r="I44" t="n">
-        <v>32426</v>
+        <v>33484</v>
       </c>
     </row>
     <row r="45">
@@ -1996,22 +1996,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>17553803</v>
+        <v>17594128</v>
       </c>
       <c r="E45" t="n">
-        <v>123733396</v>
+        <v>124015319</v>
       </c>
       <c r="F45" t="n">
-        <v>191.2973239696687</v>
+        <v>101.5583505830128</v>
       </c>
       <c r="G45" t="n">
-        <v>267.9881051092588</v>
+        <v>269.3179114193924</v>
       </c>
       <c r="H45" t="n">
-        <v>0.68</v>
+        <v>0.76</v>
       </c>
       <c r="I45" t="n">
-        <v>1068143</v>
+        <v>1047629</v>
       </c>
     </row>
     <row r="46">
@@ -2031,10 +2031,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>147523</v>
+        <v>170777</v>
       </c>
       <c r="E46" t="n">
-        <v>1973935</v>
+        <v>2285093</v>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>46127</v>
+        <v>54411</v>
       </c>
     </row>
     <row r="47">
@@ -2064,22 +2064,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>253917060</v>
+        <v>253911109</v>
       </c>
       <c r="E47" t="n">
-        <v>253917060</v>
+        <v>253911109</v>
       </c>
       <c r="F47" t="n">
-        <v>107633.4112314436</v>
+        <v>114442.1919560778</v>
       </c>
       <c r="G47" t="n">
-        <v>157245.3644739054</v>
+        <v>137329.5642338252</v>
       </c>
       <c r="H47" t="n">
-        <v>0.04</v>
+        <v>0.14</v>
       </c>
       <c r="I47" t="n">
-        <v>15065684</v>
+        <v>14965301</v>
       </c>
     </row>
     <row r="48">
@@ -2099,22 +2099,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>632188</v>
+        <v>630490</v>
       </c>
       <c r="E48" t="n">
-        <v>632188</v>
+        <v>630490</v>
       </c>
       <c r="F48" t="n">
-        <v>569.9002981792994</v>
+        <v>105.2290062005199</v>
       </c>
       <c r="G48" t="n">
-        <v>160.218459337329</v>
+        <v>160.2175186037383</v>
       </c>
       <c r="H48" t="n">
-        <v>2.48</v>
+        <v>2.34</v>
       </c>
       <c r="I48" t="n">
-        <v>3349.78</v>
+        <v>3341.73</v>
       </c>
     </row>
     <row r="49">
@@ -2167,22 +2167,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>459041424</v>
+        <v>452574341</v>
       </c>
       <c r="E50" t="n">
-        <v>459041424</v>
+        <v>452574341</v>
       </c>
       <c r="F50" t="n">
-        <v>3107.785070406637</v>
+        <v>4409.254439673789</v>
       </c>
       <c r="G50" t="n">
-        <v>2110.682441164658</v>
+        <v>1951.440850510229</v>
       </c>
       <c r="H50" t="n">
-        <v>0.11</v>
+        <v>0.02</v>
       </c>
       <c r="I50" t="n">
-        <v>3079892</v>
+        <v>3031150</v>
       </c>
     </row>
     <row r="51">
@@ -2202,22 +2202,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2475155</v>
+        <v>2465414</v>
       </c>
       <c r="E51" t="n">
-        <v>2475155</v>
+        <v>2465414</v>
       </c>
       <c r="F51" t="n">
-        <v>984.6348241226449</v>
+        <v>984.6166933460963</v>
       </c>
       <c r="G51" t="n">
-        <v>37.14207023527975</v>
+        <v>37.14185215308594</v>
       </c>
       <c r="H51" t="n">
         <v>1.7</v>
       </c>
       <c r="I51" t="n">
-        <v>59433</v>
+        <v>58556</v>
       </c>
     </row>
     <row r="52">
@@ -2237,10 +2237,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>21934</v>
+        <v>23168</v>
       </c>
       <c r="E52" t="n">
-        <v>43867</v>
+        <v>46336</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -2249,10 +2249,10 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>5.63</v>
+        <v>5.22</v>
       </c>
       <c r="I52" t="n">
-        <v>3991.33</v>
+        <v>3883.61</v>
       </c>
     </row>
     <row r="53">
@@ -2275,19 +2275,19 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>146079</v>
+        <v>146146</v>
       </c>
       <c r="F53" t="n">
-        <v>49.72784665572662</v>
+        <v>49.90882917672928</v>
       </c>
       <c r="G53" t="n">
-        <v>25.87402336202333</v>
+        <v>1.194940774649206</v>
       </c>
       <c r="H53" t="n">
-        <v>1.72</v>
+        <v>0.87</v>
       </c>
       <c r="I53" t="n">
-        <v>22955</v>
+        <v>22945</v>
       </c>
     </row>
     <row r="54">
@@ -2307,22 +2307,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2540708</v>
+        <v>2541296</v>
       </c>
       <c r="E54" t="n">
-        <v>6495539</v>
+        <v>6497043</v>
       </c>
       <c r="F54" t="n">
-        <v>271.1213443208537</v>
+        <v>238.3395783065282</v>
       </c>
       <c r="G54" t="n">
-        <v>283.5551417511924</v>
+        <v>275.5422636324198</v>
       </c>
       <c r="H54" t="n">
         <v>1.65</v>
       </c>
       <c r="I54" t="n">
-        <v>119024</v>
+        <v>117787</v>
       </c>
     </row>
     <row r="55">
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>3824.67</v>
+        <v>3823.51</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>4.16</v>
       </c>
       <c r="I55" t="n">
-        <v>715.38</v>
+        <v>698.92</v>
       </c>
     </row>
     <row r="56">
@@ -2377,22 +2377,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>72940248</v>
+        <v>73295446</v>
       </c>
       <c r="E56" t="n">
-        <v>72940248</v>
+        <v>73295446</v>
       </c>
       <c r="F56" t="n">
-        <v>21352.98732251731</v>
+        <v>19524.84511242978</v>
       </c>
       <c r="G56" t="n">
-        <v>25283.16403060061</v>
+        <v>22283.87394256681</v>
       </c>
       <c r="H56" t="n">
-        <v>0.18</v>
+        <v>0.37</v>
       </c>
       <c r="I56" t="n">
-        <v>3986905</v>
+        <v>3924375</v>
       </c>
     </row>
     <row r="57">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3579869</v>
+        <v>3556661</v>
       </c>
       <c r="E57" t="n">
-        <v>4536319</v>
+        <v>4506911</v>
       </c>
       <c r="F57" t="n">
-        <v>109.1294603082063</v>
+        <v>190.0989703336594</v>
       </c>
       <c r="G57" t="n">
-        <v>343.660083061486</v>
+        <v>1259.036596605079</v>
       </c>
       <c r="H57" t="n">
         <v>0.21</v>
       </c>
       <c r="I57" t="n">
-        <v>265950</v>
+        <v>262501</v>
       </c>
     </row>
     <row r="58">
@@ -2447,22 +2447,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>4171322</v>
+        <v>4175101</v>
       </c>
       <c r="E58" t="n">
-        <v>8226199</v>
+        <v>8233651</v>
       </c>
       <c r="F58" t="n">
-        <v>2730.222036418372</v>
+        <v>2103.443817557099</v>
       </c>
       <c r="G58" t="n">
-        <v>2032.152256114069</v>
+        <v>2286.247189775398</v>
       </c>
       <c r="H58" t="n">
-        <v>0.38</v>
+        <v>0.1</v>
       </c>
       <c r="I58" t="n">
-        <v>1639911</v>
+        <v>1637895</v>
       </c>
     </row>
     <row r="59">
@@ -2482,22 +2482,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1569662</v>
+        <v>1572917</v>
       </c>
       <c r="E59" t="n">
-        <v>9012416</v>
+        <v>9031102</v>
       </c>
       <c r="F59" t="n">
-        <v>357.0117441246222</v>
+        <v>194.5602096199065</v>
       </c>
       <c r="G59" t="n">
-        <v>495.9769869988334</v>
+        <v>661.2706972337604</v>
       </c>
       <c r="H59" t="n">
-        <v>1.31</v>
+        <v>2.07</v>
       </c>
       <c r="I59" t="n">
-        <v>335414</v>
+        <v>312524</v>
       </c>
     </row>
     <row r="60">
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>540280</v>
+        <v>569308</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>8.77</v>
       </c>
       <c r="I60" t="n">
-        <v>2023.45</v>
+        <v>2149.17</v>
       </c>
     </row>
     <row r="61">
@@ -2555,19 +2555,19 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>31747112</v>
+        <v>31594265</v>
       </c>
       <c r="F61" t="n">
-        <v>686.3236022021159</v>
+        <v>1097.942431261347</v>
       </c>
       <c r="G61" t="n">
-        <v>955.9709038341027</v>
+        <v>977.9129062019871</v>
       </c>
       <c r="H61" t="n">
-        <v>0.39</v>
+        <v>0.31</v>
       </c>
       <c r="I61" t="n">
-        <v>250964</v>
+        <v>253840</v>
       </c>
     </row>
     <row r="62">
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>1433393</v>
+        <v>1435555</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>7.85</v>
+        <v>7.56</v>
       </c>
       <c r="I62" t="n">
-        <v>27468</v>
+        <v>27412</v>
       </c>
     </row>
     <row r="63">
@@ -2622,22 +2622,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>7659380</v>
+        <v>7701333</v>
       </c>
       <c r="E63" t="n">
-        <v>18039363</v>
+        <v>18138171</v>
       </c>
       <c r="F63" t="n">
-        <v>1088.149644312819</v>
+        <v>1100.121210779515</v>
       </c>
       <c r="G63" t="n">
-        <v>2283.045119852482</v>
+        <v>1726.889624621566</v>
       </c>
       <c r="H63" t="n">
-        <v>1.54</v>
+        <v>1.36</v>
       </c>
       <c r="I63" t="n">
-        <v>29362</v>
+        <v>34245</v>
       </c>
     </row>
     <row r="64">
@@ -2657,22 +2657,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2979356</v>
+        <v>2940100</v>
       </c>
       <c r="E64" t="n">
-        <v>2979356</v>
+        <v>2940100</v>
       </c>
       <c r="F64" t="n">
-        <v>91.43309819534571</v>
+        <v>221.7858062159816</v>
       </c>
       <c r="G64" t="n">
-        <v>261.037422047293</v>
+        <v>115.5268550097365</v>
       </c>
       <c r="H64" t="n">
-        <v>3.29</v>
+        <v>2.46</v>
       </c>
       <c r="I64" t="n">
-        <v>17944.27</v>
+        <v>17323.01</v>
       </c>
     </row>
     <row r="65">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3363802</v>
+        <v>3365896</v>
       </c>
       <c r="E65" t="n">
-        <v>8300009</v>
+        <v>8305177</v>
       </c>
       <c r="F65" t="n">
-        <v>613.6254189889358</v>
+        <v>647.7704573644129</v>
       </c>
       <c r="G65" t="n">
-        <v>1203.090736426839</v>
+        <v>1232.288958664558</v>
       </c>
       <c r="H65" t="n">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="I65" t="n">
-        <v>50142</v>
+        <v>50166</v>
       </c>
     </row>
     <row r="66">
@@ -2730,19 +2730,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>269805</v>
+        <v>269867</v>
       </c>
       <c r="F66" t="n">
-        <v>85.0037747441115</v>
+        <v>85.00327562428251</v>
       </c>
       <c r="G66" t="n">
-        <v>5.388617627223522</v>
+        <v>20.10750422333935</v>
       </c>
       <c r="H66" t="n">
         <v>3.33</v>
       </c>
       <c r="I66" t="n">
-        <v>1417.66</v>
+        <v>1426.57</v>
       </c>
     </row>
     <row r="67">
@@ -2762,22 +2762,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>73307726</v>
+        <v>73852666</v>
       </c>
       <c r="E67" t="n">
-        <v>152883835</v>
+        <v>154020313</v>
       </c>
       <c r="F67" t="n">
-        <v>65727.28237500999</v>
+        <v>60312.7183840944</v>
       </c>
       <c r="G67" t="n">
-        <v>89263.35674726742</v>
+        <v>72966.49262376822</v>
       </c>
       <c r="H67" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I67" t="n">
-        <v>14500784</v>
+        <v>14426887</v>
       </c>
     </row>
     <row r="68">
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>2160755</v>
+        <v>2111337</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>41.34704682252091</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>0.7949219887264565</v>
       </c>
       <c r="H68" t="n">
-        <v>5.58</v>
+        <v>2.88</v>
       </c>
       <c r="I68" t="n">
-        <v>4289.82</v>
+        <v>4192.83</v>
       </c>
     </row>
     <row r="69">
@@ -2835,19 +2835,19 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>206606598</v>
+        <v>205528625</v>
       </c>
       <c r="F69" t="n">
-        <v>3118.325395882567</v>
+        <v>5592.652466624243</v>
       </c>
       <c r="G69" t="n">
-        <v>3072.093834718563</v>
+        <v>3178.424638294233</v>
       </c>
       <c r="H69" t="n">
-        <v>0.59</v>
+        <v>0.39</v>
       </c>
       <c r="I69" t="n">
-        <v>4713424</v>
+        <v>4643323</v>
       </c>
     </row>
     <row r="70">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>179130</v>
+        <v>179196</v>
       </c>
       <c r="E70" t="n">
-        <v>187062</v>
+        <v>187132</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>13.27</v>
       </c>
       <c r="I70" t="n">
-        <v>460.89</v>
+        <v>452.59</v>
       </c>
     </row>
     <row r="71">
@@ -2902,22 +2902,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>145070212</v>
+        <v>145104422</v>
       </c>
       <c r="E71" t="n">
-        <v>145115437</v>
+        <v>145149658</v>
       </c>
       <c r="F71" t="n">
-        <v>32600.9696014121</v>
+        <v>25840.70198915001</v>
       </c>
       <c r="G71" t="n">
-        <v>47862.77326772419</v>
+        <v>43710.61344562931</v>
       </c>
       <c r="H71" t="n">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="I71" t="n">
-        <v>2525349</v>
+        <v>2512179</v>
       </c>
     </row>
     <row r="72">
@@ -2937,22 +2937,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>26319399</v>
+        <v>26394610</v>
       </c>
       <c r="E72" t="n">
-        <v>86375236</v>
+        <v>86622065</v>
       </c>
       <c r="F72" t="n">
-        <v>22984.70865991482</v>
+        <v>22985.76294310568</v>
       </c>
       <c r="G72" t="n">
-        <v>12015.72439135481</v>
+        <v>33354.38783269493</v>
       </c>
       <c r="H72" t="n">
         <v>0.57</v>
       </c>
       <c r="I72" t="n">
-        <v>86552</v>
+        <v>88970</v>
       </c>
     </row>
     <row r="73">
@@ -2972,10 +2972,10 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>118902</v>
+        <v>118746</v>
       </c>
       <c r="E73" t="n">
-        <v>118902</v>
+        <v>118746</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -2987,7 +2987,7 @@
         <v>4.17</v>
       </c>
       <c r="I73" t="n">
-        <v>158.24</v>
+        <v>131.16</v>
       </c>
     </row>
     <row r="74">
@@ -3007,22 +3007,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>197738432</v>
+        <v>198730625</v>
       </c>
       <c r="E74" t="n">
-        <v>686961183</v>
+        <v>690408153</v>
       </c>
       <c r="F74" t="n">
-        <v>144192.6662809589</v>
+        <v>116536.9123997327</v>
       </c>
       <c r="G74" t="n">
-        <v>201427.2251199952</v>
+        <v>215540.0561858048</v>
       </c>
       <c r="H74" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="I74" t="n">
-        <v>25923138</v>
+        <v>26027762</v>
       </c>
     </row>
     <row r="75">
@@ -3042,22 +3042,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>4105581</v>
+        <v>3821947</v>
       </c>
       <c r="E75" t="n">
-        <v>4105581</v>
+        <v>3821947</v>
       </c>
       <c r="F75" t="n">
-        <v>205.8582922165222</v>
+        <v>1003.209143796025</v>
       </c>
       <c r="G75" t="n">
-        <v>743.8735039121716</v>
+        <v>506.7804964114864</v>
       </c>
       <c r="H75" t="n">
-        <v>0.73</v>
+        <v>0.5</v>
       </c>
       <c r="I75" t="n">
-        <v>3512161</v>
+        <v>3395048</v>
       </c>
     </row>
     <row r="76">
@@ -3077,22 +3077,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>116102736</v>
+        <v>115513491</v>
       </c>
       <c r="E76" t="n">
-        <v>493723442</v>
+        <v>491166279</v>
       </c>
       <c r="F76" t="n">
-        <v>189204.5672092047</v>
+        <v>156657.6059703205</v>
       </c>
       <c r="G76" t="n">
-        <v>281065.9511313186</v>
+        <v>181362.6242490487</v>
       </c>
       <c r="H76" t="n">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="I76" t="n">
-        <v>14496802</v>
+        <v>14473854</v>
       </c>
     </row>
     <row r="77">
@@ -3115,19 +3115,19 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1849826</v>
+        <v>1849015</v>
       </c>
       <c r="F77" t="n">
-        <v>109.3131794498405</v>
+        <v>109.3125375915749</v>
       </c>
       <c r="G77" t="n">
-        <v>93.01001531456805</v>
+        <v>93.00946918419822</v>
       </c>
       <c r="H77" t="n">
         <v>0.54</v>
       </c>
       <c r="I77" t="n">
-        <v>432.83</v>
+        <v>432.73</v>
       </c>
     </row>
     <row r="78">
@@ -3147,22 +3147,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3129825</v>
+        <v>3129714</v>
       </c>
       <c r="E78" t="n">
-        <v>15692233</v>
+        <v>15691675</v>
       </c>
       <c r="F78" t="n">
-        <v>156.3541898866754</v>
+        <v>1152.246357504604</v>
       </c>
       <c r="G78" t="n">
-        <v>313.2675080259711</v>
+        <v>699.4614899227386</v>
       </c>
       <c r="H78" t="n">
-        <v>1.85</v>
+        <v>1.24</v>
       </c>
       <c r="I78" t="n">
-        <v>33217</v>
+        <v>33479</v>
       </c>
     </row>
     <row r="79">
@@ -3182,22 +3182,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>544121</v>
+        <v>542396</v>
       </c>
       <c r="E79" t="n">
-        <v>9307145</v>
+        <v>9277639</v>
       </c>
       <c r="F79" t="n">
-        <v>296.9286676673561</v>
+        <v>4.633456047293978</v>
       </c>
       <c r="G79" t="n">
-        <v>258.8191915971238</v>
+        <v>958.1968752812569</v>
       </c>
       <c r="H79" t="n">
-        <v>2.16</v>
+        <v>1.58</v>
       </c>
       <c r="I79" t="n">
-        <v>265646</v>
+        <v>247842</v>
       </c>
     </row>
     <row r="80">
@@ -3217,22 +3217,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>5798425</v>
+        <v>5795732</v>
       </c>
       <c r="E80" t="n">
-        <v>7878648</v>
+        <v>7874769</v>
       </c>
       <c r="F80" t="n">
-        <v>314.7037256071294</v>
+        <v>294.395189875542</v>
       </c>
       <c r="G80" t="n">
-        <v>693.6649725934058</v>
+        <v>676.6537258627416</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4</v>
+        <v>0.27</v>
       </c>
       <c r="I80" t="n">
-        <v>5972513</v>
+        <v>6097671</v>
       </c>
     </row>
     <row r="81">
@@ -3251,19 +3251,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>42351</v>
+        <v>42026</v>
       </c>
       <c r="F81" t="n">
-        <v>127.1153083158747</v>
+        <v>727.0806896293715</v>
       </c>
       <c r="G81" t="n">
-        <v>83.46822114638802</v>
+        <v>101.1157698638813</v>
       </c>
       <c r="H81" t="n">
-        <v>2.74</v>
+        <v>1.4</v>
       </c>
       <c r="I81" t="n">
-        <v>58521</v>
+        <v>53573</v>
       </c>
     </row>
     <row r="82">
@@ -3283,22 +3283,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>39663321</v>
+        <v>39556131</v>
       </c>
       <c r="E82" t="n">
-        <v>46325817</v>
+        <v>46200622</v>
       </c>
       <c r="F82" t="n">
-        <v>293.8355695016818</v>
+        <v>114.8496141637955</v>
       </c>
       <c r="G82" t="n">
-        <v>46.85492036230838</v>
+        <v>5.747942704142359</v>
       </c>
       <c r="H82" t="n">
-        <v>2.92</v>
+        <v>1.82</v>
       </c>
       <c r="I82" t="n">
-        <v>862477</v>
+        <v>880868</v>
       </c>
     </row>
     <row r="83">
@@ -3321,19 +3321,19 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>14446839</v>
+        <v>14469499</v>
       </c>
       <c r="F83" t="n">
-        <v>335.1096534603354</v>
+        <v>418.3611485077148</v>
       </c>
       <c r="G83" t="n">
-        <v>752.5203731908956</v>
+        <v>291.1174066335766</v>
       </c>
       <c r="H83" t="n">
-        <v>0.89</v>
+        <v>1.31</v>
       </c>
       <c r="I83" t="n">
-        <v>393504</v>
+        <v>377993</v>
       </c>
     </row>
     <row r="84">
@@ -3353,22 +3353,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>36050116</v>
+        <v>36054423</v>
       </c>
       <c r="E84" t="n">
-        <v>36050116</v>
+        <v>36054423</v>
       </c>
       <c r="F84" t="n">
-        <v>287.8764578978937</v>
+        <v>63.54071860019198</v>
       </c>
       <c r="G84" t="n">
-        <v>249.3806293554756</v>
+        <v>254.8594214368204</v>
       </c>
       <c r="H84" t="n">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="I84" t="n">
-        <v>767768</v>
+        <v>747576</v>
       </c>
     </row>
     <row r="85">
@@ -3388,22 +3388,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>534234</v>
+        <v>528533</v>
       </c>
       <c r="E85" t="n">
-        <v>6479732</v>
+        <v>6410590</v>
       </c>
       <c r="F85" t="n">
-        <v>857.1746371787326</v>
+        <v>770.799117885466</v>
       </c>
       <c r="G85" t="n">
-        <v>966.9569576001614</v>
+        <v>393.1551511086761</v>
       </c>
       <c r="H85" t="n">
-        <v>0.46</v>
+        <v>0.7</v>
       </c>
       <c r="I85" t="n">
-        <v>2722199</v>
+        <v>2756475</v>
       </c>
     </row>
     <row r="86">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>25035680</v>
+        <v>25132851</v>
       </c>
       <c r="E86" t="n">
-        <v>35386955</v>
+        <v>35524303</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>49.95676411454911</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>1162.958641334421</v>
       </c>
       <c r="H86" t="n">
-        <v>4.29</v>
+        <v>2.55</v>
       </c>
       <c r="I86" t="n">
-        <v>68331</v>
+        <v>66789</v>
       </c>
     </row>
     <row r="87">
@@ -3458,22 +3458,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1288184466</v>
+        <v>1293184352</v>
       </c>
       <c r="E87" t="n">
-        <v>6177108326</v>
+        <v>6201083805</v>
       </c>
       <c r="F87" t="n">
-        <v>770970.1482392834</v>
+        <v>585768.4920057701</v>
       </c>
       <c r="G87" t="n">
-        <v>743419.5589269705</v>
+        <v>916101.9260443174</v>
       </c>
       <c r="H87" t="n">
         <v>0.02</v>
       </c>
       <c r="I87" t="n">
-        <v>181709001</v>
+        <v>169526521</v>
       </c>
     </row>
     <row r="88">
@@ -3493,22 +3493,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>266806946</v>
+        <v>266597628</v>
       </c>
       <c r="E88" t="n">
-        <v>1151686895</v>
+        <v>1150783360</v>
       </c>
       <c r="F88" t="n">
-        <v>950866.9723154416</v>
+        <v>872748.8567604424</v>
       </c>
       <c r="G88" t="n">
-        <v>975949.0464820702</v>
+        <v>1097865.32674629</v>
       </c>
       <c r="H88" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I88" t="n">
-        <v>109830307</v>
+        <v>108453094</v>
       </c>
     </row>
     <row r="89">
@@ -3528,22 +3528,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>114643297</v>
+        <v>115094058</v>
       </c>
       <c r="E89" t="n">
-        <v>114643297</v>
+        <v>115094058</v>
       </c>
       <c r="F89" t="n">
-        <v>38156.42815953277</v>
+        <v>29982.18904064195</v>
       </c>
       <c r="G89" t="n">
-        <v>19888.73644210661</v>
+        <v>31794.44937250683</v>
       </c>
       <c r="H89" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="I89" t="n">
-        <v>6051508</v>
+        <v>6062061</v>
       </c>
     </row>
     <row r="90">
@@ -3563,22 +3563,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>3853268</v>
+        <v>3853530</v>
       </c>
       <c r="E90" t="n">
-        <v>29985665</v>
+        <v>29987706</v>
       </c>
       <c r="F90" t="n">
-        <v>10209.15779632316</v>
+        <v>11011.16381589809</v>
       </c>
       <c r="G90" t="n">
-        <v>11465.96809576681</v>
+        <v>12566.91993391032</v>
       </c>
       <c r="H90" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I90" t="n">
-        <v>10257.57</v>
+        <v>10260.94</v>
       </c>
     </row>
     <row r="91">
@@ -3601,19 +3601,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>3752672</v>
+        <v>3745031</v>
       </c>
       <c r="F91" t="n">
-        <v>3019.612979630062</v>
+        <v>496.6423279096949</v>
       </c>
       <c r="G91" t="n">
-        <v>3354.718243134471</v>
+        <v>2705.991492208214</v>
       </c>
       <c r="H91" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I91" t="n">
-        <v>290956</v>
+        <v>288569</v>
       </c>
     </row>
     <row r="92">
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>871304</v>
+        <v>925586</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>131.3635657587899</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>20.75856125692425</v>
       </c>
       <c r="H92" t="n">
-        <v>4.17</v>
+        <v>1.76</v>
       </c>
       <c r="I92" t="n">
-        <v>39842</v>
+        <v>38528</v>
       </c>
     </row>
     <row r="93">
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>141867</v>
+        <v>176497</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>4.13</v>
+        <v>5.93</v>
       </c>
       <c r="I93" t="n">
-        <v>115669</v>
+        <v>122596</v>
       </c>
     </row>
     <row r="94">
@@ -3699,22 +3699,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>11033490</v>
+        <v>10787728</v>
       </c>
       <c r="E94" t="n">
-        <v>133235230</v>
+        <v>130232927</v>
       </c>
       <c r="F94" t="n">
-        <v>2976.982391356707</v>
+        <v>3337.103547086121</v>
       </c>
       <c r="G94" t="n">
-        <v>1923.222213777906</v>
+        <v>3893.035492150027</v>
       </c>
       <c r="H94" t="n">
-        <v>0.52</v>
+        <v>0.08</v>
       </c>
       <c r="I94" t="n">
-        <v>237270</v>
+        <v>224907</v>
       </c>
     </row>
     <row r="95">
@@ -3734,22 +3734,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>21014317</v>
+        <v>20770419</v>
       </c>
       <c r="E95" t="n">
-        <v>52535793</v>
+        <v>51926048</v>
       </c>
       <c r="F95" t="n">
-        <v>6098.82961091418</v>
+        <v>5856.051610982898</v>
       </c>
       <c r="G95" t="n">
-        <v>9380.18515813918</v>
+        <v>8579.522626706077</v>
       </c>
       <c r="H95" t="n">
-        <v>0.29</v>
+        <v>0.23</v>
       </c>
       <c r="I95" t="n">
-        <v>2104790</v>
+        <v>2118281</v>
       </c>
     </row>
     <row r="96">
@@ -3772,19 +3772,19 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>2323856</v>
+        <v>2318553</v>
       </c>
       <c r="F96" t="n">
-        <v>199.5055688977366</v>
+        <v>199.5050713981876</v>
       </c>
       <c r="G96" t="n">
-        <v>74.39376785075208</v>
+        <v>73.05472625427927</v>
       </c>
       <c r="H96" t="n">
         <v>1.95</v>
       </c>
       <c r="I96" t="n">
-        <v>61770</v>
+        <v>62118</v>
       </c>
     </row>
     <row r="97">
@@ -3807,19 +3807,19 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>19921025</v>
+        <v>19872104</v>
       </c>
       <c r="F97" t="n">
-        <v>1538.057630724597</v>
+        <v>2324.582700952207</v>
       </c>
       <c r="G97" t="n">
-        <v>1331.571383261208</v>
+        <v>1296.70733794465</v>
       </c>
       <c r="H97" t="n">
         <v>1.01</v>
       </c>
       <c r="I97" t="n">
-        <v>75302</v>
+        <v>89487</v>
       </c>
     </row>
     <row r="98">
@@ -3839,22 +3839,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4228064</v>
+        <v>4207944</v>
       </c>
       <c r="E98" t="n">
-        <v>12178176</v>
+        <v>12120916</v>
       </c>
       <c r="F98" t="n">
-        <v>94.91881961574384</v>
+        <v>380.4396256278349</v>
       </c>
       <c r="G98" t="n">
-        <v>1116.906073834726</v>
+        <v>1864.846508024878</v>
       </c>
       <c r="H98" t="n">
-        <v>0.74</v>
+        <v>0.98</v>
       </c>
       <c r="I98" t="n">
-        <v>599433</v>
+        <v>598169</v>
       </c>
     </row>
     <row r="99">
@@ -3877,19 +3877,19 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>1628069</v>
+        <v>1632734</v>
       </c>
       <c r="F99" t="n">
-        <v>107.8524052064266</v>
+        <v>107.611743969003</v>
       </c>
       <c r="G99" t="n">
-        <v>8.641038461727135</v>
+        <v>8.647355546711236</v>
       </c>
       <c r="H99" t="n">
-        <v>2.42</v>
+        <v>1.66</v>
       </c>
       <c r="I99" t="n">
-        <v>276413</v>
+        <v>267589</v>
       </c>
     </row>
     <row r="100">
@@ -3909,22 +3909,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>80096869</v>
+        <v>80228584</v>
       </c>
       <c r="E100" t="n">
-        <v>101929491</v>
+        <v>102097109</v>
       </c>
       <c r="F100" t="n">
-        <v>9770.007079345662</v>
+        <v>5059.436580441708</v>
       </c>
       <c r="G100" t="n">
-        <v>13288.30518231757</v>
+        <v>13450.67111458521</v>
       </c>
       <c r="H100" t="n">
-        <v>0.65</v>
+        <v>0.71</v>
       </c>
       <c r="I100" t="n">
-        <v>6136678</v>
+        <v>6158613</v>
       </c>
     </row>
     <row r="101">
@@ -3944,22 +3944,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>22575408</v>
+        <v>22578339</v>
       </c>
       <c r="E101" t="n">
-        <v>29285468</v>
+        <v>29289271</v>
       </c>
       <c r="F101" t="n">
-        <v>6974.580601223623</v>
+        <v>4081.719741987248</v>
       </c>
       <c r="G101" t="n">
-        <v>6272.607603428828</v>
+        <v>4400.663800633934</v>
       </c>
       <c r="H101" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="I101" t="n">
-        <v>149586</v>
+        <v>149782</v>
       </c>
     </row>
     <row r="102">
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>1667412</v>
+        <v>1651630</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>5.2</v>
+        <v>4.22</v>
       </c>
       <c r="I102" t="n">
-        <v>13157.97</v>
+        <v>13160.83</v>
       </c>
     </row>
     <row r="103">
@@ -4014,10 +4014,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>618876</v>
+        <v>630542</v>
       </c>
       <c r="E103" t="n">
-        <v>618876</v>
+        <v>630542</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -4026,10 +4026,10 @@
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>6.14</v>
+        <v>5.03</v>
       </c>
       <c r="I103" t="n">
-        <v>77759</v>
+        <v>79490</v>
       </c>
     </row>
     <row r="104">
@@ -4049,22 +4049,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>40538220</v>
+        <v>40588129</v>
       </c>
       <c r="E104" t="n">
-        <v>42376935</v>
+        <v>42429108</v>
       </c>
       <c r="F104" t="n">
-        <v>754.4978136565908</v>
+        <v>510.3620852298635</v>
       </c>
       <c r="G104" t="n">
-        <v>532.3424062419866</v>
+        <v>120.6510321286194</v>
       </c>
       <c r="H104" t="n">
-        <v>0.55</v>
+        <v>0.67</v>
       </c>
       <c r="I104" t="n">
-        <v>717578</v>
+        <v>663600</v>
       </c>
     </row>
     <row r="105">
@@ -4084,22 +4084,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>13769437</v>
+        <v>13777600</v>
       </c>
       <c r="E105" t="n">
-        <v>13769437</v>
+        <v>13777600</v>
       </c>
       <c r="F105" t="n">
-        <v>3124.034163219364</v>
+        <v>1635.21248044258</v>
       </c>
       <c r="G105" t="n">
-        <v>3179.320207681969</v>
+        <v>4759.371600185843</v>
       </c>
       <c r="H105" t="n">
-        <v>0.25</v>
+        <v>0.45</v>
       </c>
       <c r="I105" t="n">
-        <v>4720218</v>
+        <v>4742507</v>
       </c>
     </row>
     <row r="106">
@@ -4122,19 +4122,19 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>1189253</v>
+        <v>1189514</v>
       </c>
       <c r="F106" t="n">
-        <v>25.03528025645664</v>
+        <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>280.769127972487</v>
+        <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>0.04</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="I106" t="n">
-        <v>5440.2</v>
+        <v>5496.18</v>
       </c>
     </row>
     <row r="107">
@@ -4154,22 +4154,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>51830808</v>
+        <v>51794878</v>
       </c>
       <c r="E107" t="n">
-        <v>132041947</v>
+        <v>131950411</v>
       </c>
       <c r="F107" t="n">
-        <v>2861.521466302305</v>
+        <v>3011.003221512909</v>
       </c>
       <c r="G107" t="n">
-        <v>3677.080527327618</v>
+        <v>2750.477204295928</v>
       </c>
       <c r="H107" t="n">
         <v>0.35</v>
       </c>
       <c r="I107" t="n">
-        <v>2467606</v>
+        <v>2407783</v>
       </c>
     </row>
     <row r="108">
@@ -4189,22 +4189,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>13877011</v>
+        <v>13901521</v>
       </c>
       <c r="E108" t="n">
-        <v>67208579</v>
+        <v>67327283</v>
       </c>
       <c r="F108" t="n">
-        <v>6238.309788912132</v>
+        <v>9277.871594763201</v>
       </c>
       <c r="G108" t="n">
-        <v>11178.32682944342</v>
+        <v>12918.03197630345</v>
       </c>
       <c r="H108" t="n">
-        <v>0.26</v>
+        <v>0.33</v>
       </c>
       <c r="I108" t="n">
-        <v>3609319</v>
+        <v>3589654</v>
       </c>
     </row>
     <row r="109">
@@ -4227,19 +4227,19 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>509002</v>
+        <v>515663</v>
       </c>
       <c r="F109" t="n">
-        <v>137.0311457261592</v>
+        <v>161.1063808545873</v>
       </c>
       <c r="G109" t="n">
-        <v>238.7225042519599</v>
+        <v>248.1096305739755</v>
       </c>
       <c r="H109" t="n">
-        <v>3.17</v>
+        <v>2.3</v>
       </c>
       <c r="I109" t="n">
-        <v>8821.610000000001</v>
+        <v>8614.16</v>
       </c>
     </row>
     <row r="110">
@@ -4259,22 +4259,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>4593961</v>
+        <v>4587700</v>
       </c>
       <c r="E110" t="n">
-        <v>10471732</v>
+        <v>10457460</v>
       </c>
       <c r="F110" t="n">
-        <v>1451.73900521643</v>
+        <v>1451.727482550139</v>
       </c>
       <c r="G110" t="n">
-        <v>2150.914180956327</v>
+        <v>2150.898852850205</v>
       </c>
       <c r="H110" t="n">
-        <v>0.76</v>
+        <v>0.66</v>
       </c>
       <c r="I110" t="n">
-        <v>91560</v>
+        <v>91442</v>
       </c>
     </row>
     <row r="111">
@@ -4297,19 +4297,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>1904305983</v>
+        <v>1921186747</v>
       </c>
       <c r="F111" t="n">
-        <v>95490.66339716123</v>
+        <v>81470.51289665805</v>
       </c>
       <c r="G111" t="n">
-        <v>45524.0824948119</v>
+        <v>52775.12044057307</v>
       </c>
       <c r="H111" t="n">
-        <v>0.48</v>
+        <v>0.24</v>
       </c>
       <c r="I111" t="n">
-        <v>26596838</v>
+        <v>26567697</v>
       </c>
     </row>
     <row r="112">
@@ -4329,22 +4329,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>9360018</v>
+        <v>9383161</v>
       </c>
       <c r="E112" t="n">
-        <v>34079607</v>
+        <v>34161312</v>
       </c>
       <c r="F112" t="n">
-        <v>551.8014470108219</v>
+        <v>551.4226161913301</v>
       </c>
       <c r="G112" t="n">
-        <v>383.6681149117737</v>
+        <v>379.6423668740259</v>
       </c>
       <c r="H112" t="n">
         <v>1.17</v>
       </c>
       <c r="I112" t="n">
-        <v>156846</v>
+        <v>156735</v>
       </c>
     </row>
     <row r="113">
@@ -4367,19 +4367,19 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>534633</v>
+        <v>533290</v>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>6.445204125725879</v>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>40.87193198830979</v>
       </c>
       <c r="H113" t="n">
-        <v>4.11</v>
+        <v>3.04</v>
       </c>
       <c r="I113" t="n">
-        <v>1128.01</v>
+        <v>902.63</v>
       </c>
     </row>
     <row r="114">
@@ -4399,22 +4399,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>12316759</v>
+        <v>12291209</v>
       </c>
       <c r="E114" t="n">
-        <v>17857523</v>
+        <v>17820479</v>
       </c>
       <c r="F114" t="n">
-        <v>2589.354389432928</v>
+        <v>2717.950725071712</v>
       </c>
       <c r="G114" t="n">
-        <v>5312.061850159729</v>
+        <v>2697.762090464421</v>
       </c>
       <c r="H114" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="I114" t="n">
-        <v>2058561</v>
+        <v>2067344</v>
       </c>
     </row>
     <row r="115">
@@ -4434,22 +4434,22 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>2049250</v>
+        <v>2044778</v>
       </c>
       <c r="E115" t="n">
-        <v>14694968</v>
+        <v>14662896</v>
       </c>
       <c r="F115" t="n">
-        <v>823.5034689559552</v>
+        <v>818.8602826080063</v>
       </c>
       <c r="G115" t="n">
-        <v>791.1674491778979</v>
+        <v>791.1618202047592</v>
       </c>
       <c r="H115" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="I115" t="n">
-        <v>1933847</v>
+        <v>1935984</v>
       </c>
     </row>
     <row r="116">
@@ -4469,10 +4469,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2747574</v>
+        <v>2752898</v>
       </c>
       <c r="E116" t="n">
-        <v>5554110</v>
+        <v>5564872</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>5705.07</v>
+        <v>5713.32</v>
       </c>
     </row>
     <row r="117">
@@ -4502,22 +4502,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>200756382</v>
+        <v>201628482</v>
       </c>
       <c r="E117" t="n">
-        <v>1136805990</v>
+        <v>1141744355</v>
       </c>
       <c r="F117" t="n">
-        <v>321863.8414790318</v>
+        <v>294812.3945595146</v>
       </c>
       <c r="G117" t="n">
-        <v>451234.3529202131</v>
+        <v>453465.3319035725</v>
       </c>
       <c r="H117" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I117" t="n">
-        <v>64966848</v>
+        <v>64893245</v>
       </c>
     </row>
     <row r="118">
@@ -4537,22 +4537,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>683214</v>
+        <v>682073</v>
       </c>
       <c r="E118" t="n">
-        <v>2265438</v>
+        <v>2261653</v>
       </c>
       <c r="F118" t="n">
-        <v>4024.135601196299</v>
+        <v>6539.200218485795</v>
       </c>
       <c r="G118" t="n">
-        <v>4562.001778172181</v>
+        <v>6516.347153084641</v>
       </c>
       <c r="H118" t="n">
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
       <c r="I118" t="n">
-        <v>25278</v>
+        <v>25289</v>
       </c>
     </row>
     <row r="119">
@@ -4572,22 +4572,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2784585</v>
+        <v>2785016</v>
       </c>
       <c r="E119" t="n">
-        <v>9859041</v>
+        <v>9860567</v>
       </c>
       <c r="F119" t="n">
-        <v>279.8237946436761</v>
+        <v>229.7051536356532</v>
       </c>
       <c r="G119" t="n">
-        <v>1762.179593354565</v>
+        <v>1689.310900802063</v>
       </c>
       <c r="H119" t="n">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="I119" t="n">
-        <v>8265.08</v>
+        <v>8251.059999999999</v>
       </c>
     </row>
     <row r="120">
@@ -4607,22 +4607,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1045272</v>
+        <v>1047225</v>
       </c>
       <c r="E120" t="n">
-        <v>1045272</v>
+        <v>1047225</v>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>102.4667018921451</v>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>95.10839704091151</v>
       </c>
       <c r="H120" t="n">
-        <v>4.17</v>
+        <v>3.2</v>
       </c>
       <c r="I120" t="n">
-        <v>11536.52</v>
+        <v>11256.93</v>
       </c>
     </row>
     <row r="121">
@@ -4642,22 +4642,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>502072</v>
+        <v>504998</v>
       </c>
       <c r="E121" t="n">
-        <v>1689903</v>
+        <v>1699752</v>
       </c>
       <c r="F121" t="n">
-        <v>444.5342194546536</v>
+        <v>376.4115618291095</v>
       </c>
       <c r="G121" t="n">
-        <v>425.7161472587838</v>
+        <v>439.3415435661706</v>
       </c>
       <c r="H121" t="n">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="I121" t="n">
-        <v>473779</v>
+        <v>628299</v>
       </c>
     </row>
     <row r="122">
@@ -4677,10 +4677,10 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>447499</v>
+        <v>454171</v>
       </c>
       <c r="E122" t="n">
-        <v>830197</v>
+        <v>842575</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -4689,10 +4689,10 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>5.62</v>
+        <v>6.74</v>
       </c>
       <c r="I122" t="n">
-        <v>201667</v>
+        <v>195473</v>
       </c>
     </row>
     <row r="123">
@@ -4715,19 +4715,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>11779116</v>
+        <v>11799260</v>
       </c>
       <c r="F123" t="n">
-        <v>110.83540751528</v>
+        <v>106.9975509829472</v>
       </c>
       <c r="G123" t="n">
-        <v>168.503676832729</v>
+        <v>179.4409958489406</v>
       </c>
       <c r="H123" t="n">
-        <v>2.19</v>
+        <v>1.86</v>
       </c>
       <c r="I123" t="n">
-        <v>8252.620000000001</v>
+        <v>8739.98</v>
       </c>
     </row>
     <row r="124">
@@ -4750,19 +4750,19 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>1235072</v>
+        <v>1234359</v>
       </c>
       <c r="F124" t="n">
-        <v>65.51596385028267</v>
+        <v>65.19642797271457</v>
       </c>
       <c r="G124" t="n">
-        <v>4.02066843312782</v>
+        <v>4.020639779871516</v>
       </c>
       <c r="H124" t="n">
-        <v>2.27</v>
+        <v>1.79</v>
       </c>
       <c r="I124" t="n">
-        <v>48899</v>
+        <v>48681</v>
       </c>
     </row>
     <row r="125">
@@ -4782,22 +4782,22 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3482969</v>
+        <v>3481077</v>
       </c>
       <c r="E125" t="n">
-        <v>8133313</v>
+        <v>8128894</v>
       </c>
       <c r="F125" t="n">
-        <v>938.9140085973683</v>
+        <v>1384.780287171569</v>
       </c>
       <c r="G125" t="n">
-        <v>1434.901569442399</v>
+        <v>1127.238179883427</v>
       </c>
       <c r="H125" t="n">
-        <v>1.22</v>
+        <v>1.02</v>
       </c>
       <c r="I125" t="n">
-        <v>772496</v>
+        <v>753840</v>
       </c>
     </row>
     <row r="126">
@@ -4817,22 +4817,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>251211</v>
+        <v>249493</v>
       </c>
       <c r="E126" t="n">
-        <v>2217130</v>
+        <v>2201960</v>
       </c>
       <c r="F126" t="n">
-        <v>71.26130504771471</v>
+        <v>71.2909720944357</v>
       </c>
       <c r="G126" t="n">
-        <v>117.5213709505437</v>
+        <v>1.251868022732461</v>
       </c>
       <c r="H126" t="n">
-        <v>3.08</v>
+        <v>3.09</v>
       </c>
       <c r="I126" t="n">
-        <v>69853</v>
+        <v>68302</v>
       </c>
     </row>
     <row r="127">
@@ -4855,19 +4855,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>643933</v>
+        <v>643665</v>
       </c>
       <c r="F127" t="n">
-        <v>590.0315728673869</v>
+        <v>590.0274788181141</v>
       </c>
       <c r="G127" t="n">
-        <v>472.8493047424162</v>
+        <v>472.8460237851908</v>
       </c>
       <c r="H127" t="n">
         <v>1.9</v>
       </c>
       <c r="I127" t="n">
-        <v>5404.12</v>
+        <v>5264.42</v>
       </c>
     </row>
     <row r="128">
@@ -4887,22 +4887,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>4913666</v>
+        <v>4915159</v>
       </c>
       <c r="E128" t="n">
-        <v>17362269</v>
+        <v>17367543</v>
       </c>
       <c r="F128" t="n">
-        <v>1834.598172774589</v>
+        <v>1755.409029499868</v>
       </c>
       <c r="G128" t="n">
-        <v>1930.730260279684</v>
+        <v>1770.651216645231</v>
       </c>
       <c r="H128" t="n">
         <v>0.75</v>
       </c>
       <c r="I128" t="n">
-        <v>104419</v>
+        <v>105080</v>
       </c>
     </row>
     <row r="129">
@@ -4925,19 +4925,19 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2249786</v>
+        <v>2250425</v>
       </c>
       <c r="F129" t="n">
-        <v>166.4416459815153</v>
+        <v>166.4404598648235</v>
       </c>
       <c r="G129" t="n">
-        <v>43.94921631029441</v>
+        <v>69.56392117663566</v>
       </c>
       <c r="H129" t="n">
         <v>0.09</v>
       </c>
       <c r="I129" t="n">
-        <v>8765.16</v>
+        <v>8767.969999999999</v>
       </c>
     </row>
     <row r="130">
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>2531564</v>
+        <v>2532655</v>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
@@ -4970,7 +4970,7 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>2475.1</v>
+        <v>2478.1</v>
       </c>
     </row>
     <row r="131">
@@ -4990,22 +4990,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>81162</v>
+        <v>80093</v>
       </c>
       <c r="E131" t="n">
-        <v>81162</v>
+        <v>80093</v>
       </c>
       <c r="F131" t="n">
-        <v>164.8341668876748</v>
+        <v>64.57285920986479</v>
       </c>
       <c r="G131" t="n">
-        <v>6.79511879991407</v>
+        <v>6.602805181414745</v>
       </c>
       <c r="H131" t="n">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="I131" t="n">
-        <v>21152</v>
+        <v>20857</v>
       </c>
     </row>
     <row r="132">
@@ -5028,19 +5028,19 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>4377578</v>
+        <v>4510650</v>
       </c>
       <c r="F132" t="n">
-        <v>327.680985053323</v>
+        <v>154.9854406854051</v>
       </c>
       <c r="G132" t="n">
-        <v>285.4913603523052</v>
+        <v>1677.038867011928</v>
       </c>
       <c r="H132" t="n">
-        <v>0.24</v>
+        <v>0.05</v>
       </c>
       <c r="I132" t="n">
-        <v>271888</v>
+        <v>309781</v>
       </c>
     </row>
     <row r="133">
@@ -5060,22 +5060,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2115915</v>
+        <v>2076339</v>
       </c>
       <c r="E133" t="n">
-        <v>8640851</v>
+        <v>8479231</v>
       </c>
       <c r="F133" t="n">
-        <v>519.8679246641179</v>
+        <v>309.6757005285259</v>
       </c>
       <c r="G133" t="n">
-        <v>428.6000143146573</v>
+        <v>625.755498862321</v>
       </c>
       <c r="H133" t="n">
-        <v>1.46</v>
+        <v>0.18</v>
       </c>
       <c r="I133" t="n">
-        <v>570461</v>
+        <v>566447</v>
       </c>
     </row>
     <row r="134">
@@ -5095,22 +5095,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>7394421</v>
+        <v>7374710</v>
       </c>
       <c r="E134" t="n">
-        <v>7449386</v>
+        <v>7429528</v>
       </c>
       <c r="F134" t="n">
-        <v>255914.6927767096</v>
+        <v>360885.5415514545</v>
       </c>
       <c r="G134" t="n">
-        <v>252031.4275260852</v>
+        <v>54923.46614861098</v>
       </c>
       <c r="H134" t="n">
         <v>0.22</v>
       </c>
       <c r="I134" t="n">
-        <v>4866968</v>
+        <v>5022011</v>
       </c>
     </row>
     <row r="135">
@@ -5130,22 +5130,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>13581452</v>
+        <v>13549577</v>
       </c>
       <c r="E135" t="n">
-        <v>13627671</v>
+        <v>13595687</v>
       </c>
       <c r="F135" t="n">
-        <v>14484.59906450728</v>
+        <v>13362.78712850998</v>
       </c>
       <c r="G135" t="n">
-        <v>10918.34515077647</v>
+        <v>6374.19607224446</v>
       </c>
       <c r="H135" t="n">
         <v>0.2</v>
       </c>
       <c r="I135" t="n">
-        <v>5922279</v>
+        <v>5848049</v>
       </c>
     </row>
     <row r="136">
@@ -5165,22 +5165,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>42853322</v>
+        <v>42838329</v>
       </c>
       <c r="E136" t="n">
-        <v>72754971</v>
+        <v>72729517</v>
       </c>
       <c r="F136" t="n">
-        <v>1171.660640859066</v>
+        <v>1009.726696160654</v>
       </c>
       <c r="G136" t="n">
-        <v>750.3136142156727</v>
+        <v>893.1872664600265</v>
       </c>
       <c r="H136" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I136" t="n">
-        <v>1089039</v>
+        <v>1089935</v>
       </c>
     </row>
     <row r="137">
@@ -5200,22 +5200,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>23605537</v>
+        <v>23605928</v>
       </c>
       <c r="E137" t="n">
-        <v>70758546</v>
+        <v>70759717</v>
       </c>
       <c r="F137" t="n">
-        <v>88808.45729348295</v>
+        <v>83415.27280367205</v>
       </c>
       <c r="G137" t="n">
-        <v>89103.66928082456</v>
+        <v>91792.53512733705</v>
       </c>
       <c r="H137" t="n">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="I137" t="n">
-        <v>2926849</v>
+        <v>2949803</v>
       </c>
     </row>
     <row r="138">
@@ -5235,22 +5235,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>101129650</v>
+        <v>101354693</v>
       </c>
       <c r="E138" t="n">
-        <v>107509957</v>
+        <v>107749198</v>
       </c>
       <c r="F138" t="n">
-        <v>8438.209246552387</v>
+        <v>8764.025072258122</v>
       </c>
       <c r="G138" t="n">
-        <v>11401.67682793839</v>
+        <v>10893.85809099228</v>
       </c>
       <c r="H138" t="n">
         <v>0.52</v>
       </c>
       <c r="I138" t="n">
-        <v>391260</v>
+        <v>389404</v>
       </c>
     </row>
     <row r="139">
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1161374</v>
+        <v>1161957</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -5285,7 +5285,7 @@
         <v>5.44</v>
       </c>
       <c r="I139" t="n">
-        <v>136.35</v>
+        <v>136.4</v>
       </c>
     </row>
     <row r="140">
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>258600</v>
+        <v>258674</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -5317,10 +5317,10 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>7.61</v>
+        <v>7.53</v>
       </c>
       <c r="I140" t="n">
-        <v>465.32</v>
+        <v>463.18</v>
       </c>
     </row>
     <row r="141">
@@ -5336,10 +5336,10 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>97049</v>
+        <v>97073</v>
       </c>
       <c r="E141" t="n">
-        <v>275306</v>
+        <v>275373</v>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
@@ -5349,7 +5349,7 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>40.74</v>
+        <v>40.75</v>
       </c>
     </row>
     <row r="142">
@@ -5369,22 +5369,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>47335486</v>
+        <v>47235914</v>
       </c>
       <c r="E142" t="n">
-        <v>203916100</v>
+        <v>203487154</v>
       </c>
       <c r="F142" t="n">
-        <v>75038.94471334926</v>
+        <v>59575.12216444419</v>
       </c>
       <c r="G142" t="n">
-        <v>63207.73941879662</v>
+        <v>76063.13646503996</v>
       </c>
       <c r="H142" t="n">
-        <v>0.1</v>
+        <v>0.31</v>
       </c>
       <c r="I142" t="n">
-        <v>8814440</v>
+        <v>8851301</v>
       </c>
     </row>
     <row r="143">
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>280309</v>
+        <v>280167</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -5419,7 +5419,7 @@
         <v>8.470000000000001</v>
       </c>
       <c r="I143" t="n">
-        <v>208005</v>
+        <v>205748</v>
       </c>
     </row>
     <row r="144">
@@ -5442,19 +5442,19 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>9471896</v>
+        <v>9502086</v>
       </c>
       <c r="F144" t="n">
-        <v>1066.639888100595</v>
+        <v>1032.278619462521</v>
       </c>
       <c r="G144" t="n">
-        <v>590.9194348618669</v>
+        <v>353.9105123343429</v>
       </c>
       <c r="H144" t="n">
         <v>0.88</v>
       </c>
       <c r="I144" t="n">
-        <v>121750</v>
+        <v>121556</v>
       </c>
     </row>
     <row r="145">
@@ -5474,22 +5474,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1174478</v>
+        <v>1181713</v>
       </c>
       <c r="E145" t="n">
-        <v>7829855</v>
+        <v>7878088</v>
       </c>
       <c r="F145" t="n">
-        <v>263.5062841297007</v>
+        <v>263.5044062991845</v>
       </c>
       <c r="G145" t="n">
-        <v>105.0258517259759</v>
+        <v>105.0251032779834</v>
       </c>
       <c r="H145" t="n">
         <v>1.01</v>
       </c>
       <c r="I145" t="n">
-        <v>4978.43</v>
+        <v>4980.4</v>
       </c>
     </row>
     <row r="146">
@@ -5512,19 +5512,19 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>7820983</v>
+        <v>7820512</v>
       </c>
       <c r="F146" t="n">
-        <v>102.4571522400332</v>
+        <v>177.4709949750045</v>
       </c>
       <c r="G146" t="n">
-        <v>255.3074465429327</v>
+        <v>71.91691219522953</v>
       </c>
       <c r="H146" t="n">
-        <v>1.02</v>
+        <v>1.52</v>
       </c>
       <c r="I146" t="n">
-        <v>6456078</v>
+        <v>6513526</v>
       </c>
     </row>
     <row r="147">
@@ -5544,22 +5544,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>669898</v>
+        <v>669701</v>
       </c>
       <c r="E147" t="n">
-        <v>2418727</v>
+        <v>2418016</v>
       </c>
       <c r="F147" t="n">
-        <v>28.96193388351837</v>
+        <v>29.76261454747914</v>
       </c>
       <c r="G147" t="n">
-        <v>273.810958336061</v>
+        <v>60.56869989183521</v>
       </c>
       <c r="H147" t="n">
-        <v>0.41</v>
+        <v>0.5</v>
       </c>
       <c r="I147" t="n">
-        <v>404720</v>
+        <v>364165</v>
       </c>
     </row>
     <row r="148">
@@ -5582,19 +5582,19 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>1647419</v>
+        <v>1652566</v>
       </c>
       <c r="F148" t="n">
-        <v>192.9969591173933</v>
+        <v>187.8543693722317</v>
       </c>
       <c r="G148" t="n">
-        <v>85.65948418140451</v>
+        <v>40.38766055742798</v>
       </c>
       <c r="H148" t="n">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="I148" t="n">
-        <v>91043</v>
+        <v>89371</v>
       </c>
     </row>
     <row r="149">
@@ -5617,19 +5617,19 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>69312</v>
+        <v>69354</v>
       </c>
       <c r="F149" t="n">
-        <v>59.57415712226837</v>
+        <v>65.46257973638913</v>
       </c>
       <c r="G149" t="n">
-        <v>20.71351952063075</v>
+        <v>20.71337190592597</v>
       </c>
       <c r="H149" t="n">
         <v>2.94</v>
       </c>
       <c r="I149" t="n">
-        <v>963.61</v>
+        <v>963.92</v>
       </c>
     </row>
     <row r="150">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>13014160</v>
+        <v>12934557</v>
       </c>
       <c r="E150" t="n">
-        <v>13014160</v>
+        <v>12934557</v>
       </c>
       <c r="F150" t="n">
-        <v>460.9057991795859</v>
+        <v>537.459684647063</v>
       </c>
       <c r="G150" t="n">
-        <v>1307.406883523558</v>
+        <v>705.3069423018297</v>
       </c>
       <c r="H150" t="n">
-        <v>0.77</v>
+        <v>0.46</v>
       </c>
       <c r="I150" t="n">
-        <v>3486994</v>
+        <v>3624353</v>
       </c>
     </row>
     <row r="151">
@@ -5684,22 +5684,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1727535</v>
+        <v>1734320</v>
       </c>
       <c r="E151" t="n">
-        <v>6277228</v>
+        <v>6301852</v>
       </c>
       <c r="F151" t="n">
-        <v>59.25224500785291</v>
+        <v>59.44517943655076</v>
       </c>
       <c r="G151" t="n">
-        <v>25.64839940841619</v>
+        <v>25.64821662967426</v>
       </c>
       <c r="H151" t="n">
         <v>1.32</v>
       </c>
       <c r="I151" t="n">
-        <v>129229</v>
+        <v>128587</v>
       </c>
     </row>
     <row r="152">
@@ -5719,10 +5719,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1249004</v>
+        <v>1238045</v>
       </c>
       <c r="E152" t="n">
-        <v>1249004</v>
+        <v>1238045</v>
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>648.01</v>
+        <v>618.37</v>
       </c>
     </row>
     <row r="153">
@@ -5752,22 +5752,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>23562718</v>
+        <v>23588618</v>
       </c>
       <c r="E153" t="n">
-        <v>27172821</v>
+        <v>27204666</v>
       </c>
       <c r="F153" t="n">
-        <v>414.6351613414432</v>
+        <v>404.4888518122058</v>
       </c>
       <c r="G153" t="n">
-        <v>657.0977158806483</v>
+        <v>758.4635334889647</v>
       </c>
       <c r="H153" t="n">
-        <v>0.04</v>
+        <v>0.14</v>
       </c>
       <c r="I153" t="n">
-        <v>762020</v>
+        <v>766433</v>
       </c>
     </row>
     <row r="154">
@@ -5787,22 +5787,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2450335</v>
+        <v>2446928</v>
       </c>
       <c r="E154" t="n">
-        <v>18438220</v>
+        <v>18412586</v>
       </c>
       <c r="F154" t="n">
-        <v>5231.10290217689</v>
+        <v>4398.397474412804</v>
       </c>
       <c r="G154" t="n">
-        <v>3256.174003453765</v>
+        <v>2410.182207847795</v>
       </c>
       <c r="H154" t="n">
         <v>0.05</v>
       </c>
       <c r="I154" t="n">
-        <v>161892</v>
+        <v>162378</v>
       </c>
     </row>
     <row r="155">
@@ -5822,22 +5822,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>20885334</v>
+        <v>20978925</v>
       </c>
       <c r="E155" t="n">
-        <v>83541337</v>
+        <v>83915700</v>
       </c>
       <c r="F155" t="n">
-        <v>9544.963958467961</v>
+        <v>7788.460418563803</v>
       </c>
       <c r="G155" t="n">
-        <v>20912.2192008952</v>
+        <v>2876.461264731707</v>
       </c>
       <c r="H155" t="n">
-        <v>0.36</v>
+        <v>0.48</v>
       </c>
       <c r="I155" t="n">
-        <v>5235291</v>
+        <v>5107911</v>
       </c>
     </row>
     <row r="156">
@@ -5857,22 +5857,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>294471569</v>
+        <v>302395712</v>
       </c>
       <c r="E156" t="n">
-        <v>294471569</v>
+        <v>302395712</v>
       </c>
       <c r="F156" t="n">
-        <v>386697.4096017294</v>
+        <v>315225.3433601809</v>
       </c>
       <c r="G156" t="n">
-        <v>390961.1065066232</v>
+        <v>350875.4585437224</v>
       </c>
       <c r="H156" t="n">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="I156" t="n">
-        <v>12694487</v>
+        <v>12768663</v>
       </c>
     </row>
     <row r="157">
@@ -5892,22 +5892,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>12847753</v>
+        <v>12828231</v>
       </c>
       <c r="E157" t="n">
-        <v>40646118</v>
+        <v>40584357</v>
       </c>
       <c r="F157" t="n">
-        <v>9796.184552947805</v>
+        <v>10087.05025585934</v>
       </c>
       <c r="G157" t="n">
-        <v>14114.9260086254</v>
+        <v>14763.52278979775</v>
       </c>
       <c r="H157" t="n">
-        <v>0.37</v>
+        <v>0.29</v>
       </c>
       <c r="I157" t="n">
-        <v>1383297</v>
+        <v>1372571</v>
       </c>
     </row>
     <row r="158">
@@ -5927,10 +5927,10 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1084965</v>
+        <v>1085809</v>
       </c>
       <c r="E158" t="n">
-        <v>2471113</v>
+        <v>2473038</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -5942,7 +5942,7 @@
         <v>6.77</v>
       </c>
       <c r="I158" t="n">
-        <v>1741.77</v>
+        <v>1743.37</v>
       </c>
     </row>
     <row r="159">
@@ -5962,22 +5962,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>17314796</v>
+        <v>17351865</v>
       </c>
       <c r="E159" t="n">
-        <v>17314796</v>
+        <v>17351865</v>
       </c>
       <c r="F159" t="n">
-        <v>16092.09663156215</v>
+        <v>10509.1489506306</v>
       </c>
       <c r="G159" t="n">
-        <v>16442.24945982533</v>
+        <v>14463.20965721382</v>
       </c>
       <c r="H159" t="n">
-        <v>0.06</v>
+        <v>0.34</v>
       </c>
       <c r="I159" t="n">
-        <v>3564532</v>
+        <v>3654348</v>
       </c>
     </row>
     <row r="160">
@@ -5997,10 +5997,10 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>4851071</v>
+        <v>4854152</v>
       </c>
       <c r="E160" t="n">
-        <v>8931341</v>
+        <v>8937013</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -6009,7 +6009,7 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>8.67</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="I160" t="n">
         <v>22.61</v>
@@ -6032,10 +6032,10 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>116923</v>
+        <v>118310</v>
       </c>
       <c r="E161" t="n">
-        <v>140637</v>
+        <v>142306</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -6044,10 +6044,10 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>10.32</v>
+        <v>8.77</v>
       </c>
       <c r="I161" t="n">
-        <v>3760.05</v>
+        <v>4135.9</v>
       </c>
     </row>
     <row r="162">
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>20146869</v>
+        <v>20163394</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -6079,10 +6079,10 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>9.99</v>
+        <v>10.24</v>
       </c>
       <c r="I162" t="n">
-        <v>1548.7</v>
+        <v>1550.3</v>
       </c>
     </row>
     <row r="163">
@@ -6102,22 +6102,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>436453</v>
+        <v>437087</v>
       </c>
       <c r="E163" t="n">
-        <v>549768</v>
+        <v>550567</v>
       </c>
       <c r="F163" t="n">
-        <v>150.7467721040175</v>
+        <v>142.129663982964</v>
       </c>
       <c r="G163" t="n">
-        <v>150.8401985402872</v>
+        <v>80.70199614204896</v>
       </c>
       <c r="H163" t="n">
-        <v>0.18</v>
+        <v>0.9</v>
       </c>
       <c r="I163" t="n">
-        <v>113666</v>
+        <v>184664</v>
       </c>
     </row>
     <row r="164">
@@ -6140,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>105116</v>
+        <v>105169</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -6149,10 +6149,10 @@
         <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>4.82</v>
+        <v>4.12</v>
       </c>
       <c r="I164" t="n">
-        <v>3983.61</v>
+        <v>3984.98</v>
       </c>
     </row>
     <row r="165">
@@ -6172,22 +6172,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>12554413</v>
+        <v>12607514</v>
       </c>
       <c r="E165" t="n">
-        <v>19133754</v>
+        <v>19214683</v>
       </c>
       <c r="F165" t="n">
-        <v>1032.29800058385</v>
+        <v>1218.175382660917</v>
       </c>
       <c r="G165" t="n">
-        <v>3565.42149631269</v>
+        <v>4365.192473248193</v>
       </c>
       <c r="H165" t="n">
-        <v>1.38</v>
+        <v>0.92</v>
       </c>
       <c r="I165" t="n">
-        <v>700035</v>
+        <v>695621</v>
       </c>
     </row>
     <row r="166">
@@ -6207,22 +6207,22 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>306665973</v>
+        <v>308900366</v>
       </c>
       <c r="E166" t="n">
-        <v>306665973</v>
+        <v>308900366</v>
       </c>
       <c r="F166" t="n">
-        <v>311220.2293358481</v>
+        <v>291160.6568240786</v>
       </c>
       <c r="G166" t="n">
-        <v>383866.2705568721</v>
+        <v>390513.3734422289</v>
       </c>
       <c r="H166" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I166" t="n">
-        <v>50871948</v>
+        <v>50993551</v>
       </c>
     </row>
     <row r="167">
@@ -6242,22 +6242,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>10373781</v>
+        <v>10404884</v>
       </c>
       <c r="E167" t="n">
-        <v>29452895</v>
+        <v>29541200</v>
       </c>
       <c r="F167" t="n">
-        <v>503.3871096485396</v>
+        <v>990.7651441154048</v>
       </c>
       <c r="G167" t="n">
-        <v>83.10345972480967</v>
+        <v>36.18805154372922</v>
       </c>
       <c r="H167" t="n">
-        <v>2.02</v>
+        <v>1.35</v>
       </c>
       <c r="I167" t="n">
-        <v>133120</v>
+        <v>133184</v>
       </c>
     </row>
     <row r="168">
@@ -6280,19 +6280,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>11884152</v>
+        <v>11557497</v>
       </c>
       <c r="F168" t="n">
-        <v>98.79153314847673</v>
+        <v>2.926133919555643</v>
       </c>
       <c r="G168" t="n">
-        <v>2557.032415921974</v>
+        <v>284.5915000973272</v>
       </c>
       <c r="H168" t="n">
-        <v>0.42</v>
+        <v>0.52</v>
       </c>
       <c r="I168" t="n">
-        <v>107305</v>
+        <v>113313</v>
       </c>
     </row>
     <row r="169">
@@ -6312,22 +6312,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>4279760</v>
+        <v>4330936</v>
       </c>
       <c r="E169" t="n">
-        <v>29243301</v>
+        <v>29592980</v>
       </c>
       <c r="F169" t="n">
-        <v>1387.509521650514</v>
+        <v>563.2922335047301</v>
       </c>
       <c r="G169" t="n">
-        <v>3214.628295206312</v>
+        <v>568.9442910753727</v>
       </c>
       <c r="H169" t="n">
-        <v>1.02</v>
+        <v>0.34</v>
       </c>
       <c r="I169" t="n">
-        <v>2601312</v>
+        <v>2617936</v>
       </c>
     </row>
     <row r="170">
@@ -6347,22 +6347,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2834228</v>
+        <v>2816017</v>
       </c>
       <c r="E170" t="n">
-        <v>4205087</v>
+        <v>4177667</v>
       </c>
       <c r="F170" t="n">
-        <v>2030.239157919939</v>
+        <v>2554.828199993623</v>
       </c>
       <c r="G170" t="n">
-        <v>1004.137938266273</v>
+        <v>2379.586753052344</v>
       </c>
       <c r="H170" t="n">
-        <v>1.19</v>
+        <v>0.71</v>
       </c>
       <c r="I170" t="n">
-        <v>228224</v>
+        <v>224027</v>
       </c>
     </row>
     <row r="171">
@@ -6382,22 +6382,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>89963515</v>
+        <v>90621064</v>
       </c>
       <c r="E171" t="n">
-        <v>518408576</v>
+        <v>522197659</v>
       </c>
       <c r="F171" t="n">
-        <v>365048.4836501745</v>
+        <v>284680.2420765505</v>
       </c>
       <c r="G171" t="n">
-        <v>374704.0265098748</v>
+        <v>298170.183830019</v>
       </c>
       <c r="H171" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="I171" t="n">
-        <v>16362592</v>
+        <v>16414326</v>
       </c>
     </row>
     <row r="172">
@@ -6417,22 +6417,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>13705160</v>
+        <v>13715660</v>
       </c>
       <c r="E172" t="n">
-        <v>13705160</v>
+        <v>13715660</v>
       </c>
       <c r="F172" t="n">
-        <v>5012.578881172893</v>
+        <v>5215.680889010863</v>
       </c>
       <c r="G172" t="n">
-        <v>6141.558241872634</v>
+        <v>4907.951502254703</v>
       </c>
       <c r="H172" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="I172" t="n">
-        <v>593686</v>
+        <v>577802</v>
       </c>
     </row>
     <row r="173">
@@ -6452,22 +6452,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>6179590</v>
+        <v>6199909</v>
       </c>
       <c r="E173" t="n">
-        <v>17554440</v>
+        <v>17612161</v>
       </c>
       <c r="F173" t="n">
-        <v>969.7924080014515</v>
+        <v>519.9541592105452</v>
       </c>
       <c r="G173" t="n">
-        <v>237.2428248608535</v>
+        <v>646.5605256049621</v>
       </c>
       <c r="H173" t="n">
-        <v>0.62</v>
+        <v>0.17</v>
       </c>
       <c r="I173" t="n">
-        <v>218020</v>
+        <v>216608</v>
       </c>
     </row>
     <row r="174">
@@ -6487,22 +6487,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>18662304</v>
+        <v>18489001</v>
       </c>
       <c r="E174" t="n">
-        <v>18662304</v>
+        <v>18489001</v>
       </c>
       <c r="F174" t="n">
-        <v>1060.626250478073</v>
+        <v>1062.123243725069</v>
       </c>
       <c r="G174" t="n">
-        <v>17.41303918655131</v>
+        <v>1.017065523131836</v>
       </c>
       <c r="H174" t="n">
-        <v>1.96</v>
+        <v>2.15</v>
       </c>
       <c r="I174" t="n">
-        <v>69058</v>
+        <v>67641</v>
       </c>
     </row>
     <row r="175">
@@ -6525,19 +6525,19 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>1338165</v>
+        <v>1337836</v>
       </c>
       <c r="F175" t="n">
-        <v>515.3974481312703</v>
+        <v>1120.281455785188</v>
       </c>
       <c r="G175" t="n">
-        <v>613.1000211287993</v>
+        <v>497.4967454007956</v>
       </c>
       <c r="H175" t="n">
         <v>0.08</v>
       </c>
       <c r="I175" t="n">
-        <v>23194</v>
+        <v>21531</v>
       </c>
     </row>
     <row r="176">
@@ -6557,10 +6557,10 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>129493</v>
+        <v>144349</v>
       </c>
       <c r="E176" t="n">
-        <v>281904</v>
+        <v>314246</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -6572,7 +6572,7 @@
         <v>7.67</v>
       </c>
       <c r="I176" t="n">
-        <v>48095</v>
+        <v>53247</v>
       </c>
     </row>
     <row r="177">
@@ -6595,19 +6595,19 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>3376291</v>
+        <v>3025037</v>
       </c>
       <c r="F177" t="n">
-        <v>328.7012432089107</v>
+        <v>1122.721889804517</v>
       </c>
       <c r="G177" t="n">
-        <v>118.6137433166219</v>
+        <v>428.6938162548588</v>
       </c>
       <c r="H177" t="n">
-        <v>2.12</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
-        <v>297995</v>
+        <v>291168</v>
       </c>
     </row>
     <row r="178">
@@ -6627,22 +6627,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>249188044</v>
+        <v>249463419</v>
       </c>
       <c r="E178" t="n">
-        <v>249190519</v>
+        <v>249465897</v>
       </c>
       <c r="F178" t="n">
-        <v>46734.12952513807</v>
+        <v>46286.68250570493</v>
       </c>
       <c r="G178" t="n">
-        <v>54134.79357974922</v>
+        <v>43332.86962106077</v>
       </c>
       <c r="H178" t="n">
-        <v>0.36</v>
+        <v>0.68</v>
       </c>
       <c r="I178" t="n">
-        <v>2778410</v>
+        <v>2672216</v>
       </c>
     </row>
     <row r="179">
@@ -6662,22 +6662,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>9250337</v>
+        <v>9252817</v>
       </c>
       <c r="E179" t="n">
-        <v>9250337</v>
+        <v>9252817</v>
       </c>
       <c r="F179" t="n">
-        <v>1566.425706629858</v>
+        <v>1799.172299387876</v>
       </c>
       <c r="G179" t="n">
-        <v>297.8176294552594</v>
+        <v>282.7014123039379</v>
       </c>
       <c r="H179" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I179" t="n">
-        <v>2068802</v>
+        <v>2079226</v>
       </c>
     </row>
     <row r="180">
@@ -6697,10 +6697,10 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>184161</v>
+        <v>180808</v>
       </c>
       <c r="E180" t="n">
-        <v>1422091</v>
+        <v>1396201</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
@@ -6709,10 +6709,10 @@
         <v>0</v>
       </c>
       <c r="H180" t="n">
-        <v>5.63</v>
+        <v>5.48</v>
       </c>
       <c r="I180" t="n">
-        <v>131958</v>
+        <v>132400</v>
       </c>
     </row>
     <row r="181">
@@ -6732,22 +6732,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>30343122</v>
+        <v>30345618</v>
       </c>
       <c r="E181" t="n">
-        <v>135858603</v>
+        <v>135869782</v>
       </c>
       <c r="F181" t="n">
-        <v>70316.51483106241</v>
+        <v>67333.17311322145</v>
       </c>
       <c r="G181" t="n">
-        <v>73838.94613572804</v>
+        <v>68248.48054158404</v>
       </c>
       <c r="H181" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="I181" t="n">
-        <v>8706809</v>
+        <v>8636826</v>
       </c>
     </row>
     <row r="182">
@@ -6770,19 +6770,19 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>1456387</v>
+        <v>1491028</v>
       </c>
       <c r="F182" t="n">
-        <v>19.92540884525667</v>
+        <v>581.2369143826767</v>
       </c>
       <c r="G182" t="n">
-        <v>4871.772298803235</v>
+        <v>1.999433988314719</v>
       </c>
       <c r="H182" t="n">
-        <v>2.31</v>
+        <v>1.95</v>
       </c>
       <c r="I182" t="n">
-        <v>26194</v>
+        <v>58310</v>
       </c>
     </row>
     <row r="183">
@@ -6802,22 +6802,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>3045076</v>
+        <v>2989154</v>
       </c>
       <c r="E183" t="n">
-        <v>3045076</v>
+        <v>2989154</v>
       </c>
       <c r="F183" t="n">
-        <v>107.968010210822</v>
+        <v>982.4395586711214</v>
       </c>
       <c r="G183" t="n">
-        <v>649.2956923364314</v>
+        <v>298.8785016249582</v>
       </c>
       <c r="H183" t="n">
-        <v>1.63</v>
+        <v>2.22</v>
       </c>
       <c r="I183" t="n">
-        <v>430678</v>
+        <v>440011</v>
       </c>
     </row>
     <row r="184">
@@ -6837,22 +6837,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>576353</v>
+        <v>570388</v>
       </c>
       <c r="E184" t="n">
-        <v>576353</v>
+        <v>570388</v>
       </c>
       <c r="F184" t="n">
-        <v>9.569758897584723</v>
+        <v>9.569690810966859</v>
       </c>
       <c r="G184" t="n">
-        <v>25.11348404812722</v>
+        <v>159.6078716579185</v>
       </c>
       <c r="H184" t="n">
-        <v>1.75</v>
+        <v>3.51</v>
       </c>
       <c r="I184" t="n">
-        <v>1368496</v>
+        <v>1311550</v>
       </c>
     </row>
     <row r="185">
@@ -6872,22 +6872,22 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>13391556</v>
+        <v>13749915</v>
       </c>
       <c r="E185" t="n">
-        <v>17049588</v>
+        <v>17505836</v>
       </c>
       <c r="F185" t="n">
-        <v>65.33970391104101</v>
+        <v>265.376721000716</v>
       </c>
       <c r="G185" t="n">
-        <v>2940.564352094507</v>
+        <v>149.1147600123016</v>
       </c>
       <c r="H185" t="n">
-        <v>0.75</v>
+        <v>0.72</v>
       </c>
       <c r="I185" t="n">
-        <v>810555</v>
+        <v>818984</v>
       </c>
     </row>
     <row r="186">
@@ -6907,10 +6907,10 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1867648</v>
+        <v>1805923</v>
       </c>
       <c r="E186" t="n">
-        <v>1867648</v>
+        <v>1805923</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
@@ -6919,10 +6919,10 @@
         <v>0</v>
       </c>
       <c r="H186" t="n">
-        <v>4.44</v>
+        <v>4.05</v>
       </c>
       <c r="I186" t="n">
-        <v>2901.32</v>
+        <v>3056.2</v>
       </c>
     </row>
     <row r="187">
@@ -6942,22 +6942,22 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>48387509</v>
+        <v>48719052</v>
       </c>
       <c r="E187" t="n">
-        <v>313780120</v>
+        <v>315930086</v>
       </c>
       <c r="F187" t="n">
-        <v>154661.5593607926</v>
+        <v>129690.340548609</v>
       </c>
       <c r="G187" t="n">
-        <v>198830.6246409155</v>
+        <v>216557.8900671327</v>
       </c>
       <c r="H187" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="I187" t="n">
-        <v>16592988</v>
+        <v>17002984</v>
       </c>
     </row>
     <row r="188">
@@ -6980,19 +6980,19 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>8553950</v>
+        <v>8613996</v>
       </c>
       <c r="F188" t="n">
-        <v>98.614646610961</v>
+        <v>143.2106380974477</v>
       </c>
       <c r="G188" t="n">
-        <v>749.5083300237153</v>
+        <v>750.407991146147</v>
       </c>
       <c r="H188" t="n">
-        <v>1.28</v>
+        <v>1.96</v>
       </c>
       <c r="I188" t="n">
-        <v>297633</v>
+        <v>298566</v>
       </c>
     </row>
     <row r="189">
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>7052095</v>
+        <v>7051233</v>
       </c>
       <c r="E189" t="n">
-        <v>7062197</v>
+        <v>7061334</v>
       </c>
       <c r="F189" t="n">
-        <v>80.57048860094582</v>
+        <v>122.6602323458408</v>
       </c>
       <c r="G189" t="n">
-        <v>962.5375632576047</v>
+        <v>810.300424307476</v>
       </c>
       <c r="H189" t="n">
         <v>1.23</v>
       </c>
       <c r="I189" t="n">
-        <v>821393</v>
+        <v>793566</v>
       </c>
     </row>
     <row r="190">
@@ -7050,19 +7050,19 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>4800175</v>
+        <v>4805334</v>
       </c>
       <c r="F190" t="n">
-        <v>1901.021384481945</v>
+        <v>1910.871419235136</v>
       </c>
       <c r="G190" t="n">
-        <v>366.544783162585</v>
+        <v>207.2828723984046</v>
       </c>
       <c r="H190" t="n">
-        <v>1.82</v>
+        <v>2.55</v>
       </c>
       <c r="I190" t="n">
-        <v>174603</v>
+        <v>177099</v>
       </c>
     </row>
     <row r="191">
@@ -7082,22 +7082,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>77747041</v>
+        <v>78971105</v>
       </c>
       <c r="E191" t="n">
-        <v>78583935</v>
+        <v>79821175</v>
       </c>
       <c r="F191" t="n">
-        <v>50856.79616542029</v>
+        <v>44719.59367872231</v>
       </c>
       <c r="G191" t="n">
-        <v>62821.35400412543</v>
+        <v>65660.69607530432</v>
       </c>
       <c r="H191" t="n">
         <v>0.14</v>
       </c>
       <c r="I191" t="n">
-        <v>9482709</v>
+        <v>10959070</v>
       </c>
     </row>
     <row r="192">
@@ -7117,22 +7117,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>234539705</v>
+        <v>239729310</v>
       </c>
       <c r="E192" t="n">
-        <v>234539705</v>
+        <v>239729310</v>
       </c>
       <c r="F192" t="n">
-        <v>112327.1371249767</v>
+        <v>138472.4578463219</v>
       </c>
       <c r="G192" t="n">
-        <v>111236.1577374849</v>
+        <v>82260.44886324808</v>
       </c>
       <c r="H192" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="I192" t="n">
-        <v>42901657</v>
+        <v>43076046</v>
       </c>
     </row>
     <row r="193">
@@ -7152,22 +7152,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>23691747</v>
+        <v>23668485</v>
       </c>
       <c r="E193" t="n">
-        <v>141752485</v>
+        <v>141613302</v>
       </c>
       <c r="F193" t="n">
-        <v>107896.4510511919</v>
+        <v>77365.87922153949</v>
       </c>
       <c r="G193" t="n">
-        <v>110725.4543586678</v>
+        <v>140017.6939490843</v>
       </c>
       <c r="H193" t="n">
-        <v>0.21</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I193" t="n">
-        <v>13353651</v>
+        <v>13346272</v>
       </c>
     </row>
     <row r="194">
@@ -7187,22 +7187,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>13358146</v>
+        <v>13322728</v>
       </c>
       <c r="E194" t="n">
-        <v>40991462</v>
+        <v>40882777</v>
       </c>
       <c r="F194" t="n">
-        <v>709.2239841984272</v>
+        <v>635.564940758258</v>
       </c>
       <c r="G194" t="n">
-        <v>1589.367499668375</v>
+        <v>1490.193362271162</v>
       </c>
       <c r="H194" t="n">
-        <v>0.09</v>
+        <v>0.26</v>
       </c>
       <c r="I194" t="n">
-        <v>2557092</v>
+        <v>2573683</v>
       </c>
     </row>
     <row r="195">
@@ -7222,22 +7222,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>52560452</v>
+        <v>51874404</v>
       </c>
       <c r="E195" t="n">
-        <v>90783328</v>
+        <v>89598373</v>
       </c>
       <c r="F195" t="n">
-        <v>14587.3516593428</v>
+        <v>3446.723328307675</v>
       </c>
       <c r="G195" t="n">
-        <v>1957.521077475986</v>
+        <v>1788.24237593417</v>
       </c>
       <c r="H195" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I195" t="n">
-        <v>2054704</v>
+        <v>2066702</v>
       </c>
     </row>
     <row r="196">
@@ -7257,22 +7257,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>4183065</v>
+        <v>4194524</v>
       </c>
       <c r="E196" t="n">
-        <v>4183065</v>
+        <v>4194524</v>
       </c>
       <c r="F196" t="n">
-        <v>1.064368655693092</v>
+        <v>1.064361070659784</v>
       </c>
       <c r="G196" t="n">
-        <v>389.627698527416</v>
+        <v>390.6935683045635</v>
       </c>
       <c r="H196" t="n">
-        <v>1.16</v>
+        <v>1.42</v>
       </c>
       <c r="I196" t="n">
-        <v>1551319</v>
+        <v>1552681</v>
       </c>
     </row>
     <row r="197">
@@ -7295,7 +7295,7 @@
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>212606</v>
+        <v>210465</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>
@@ -7304,10 +7304,10 @@
         <v>0</v>
       </c>
       <c r="H197" t="n">
-        <v>5.33</v>
+        <v>4.59</v>
       </c>
       <c r="I197" t="n">
-        <v>57082</v>
+        <v>57720</v>
       </c>
     </row>
     <row r="198">
@@ -7327,22 +7327,22 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>6902501</v>
+        <v>6903533</v>
       </c>
       <c r="E198" t="n">
-        <v>35511271</v>
+        <v>35516581</v>
       </c>
       <c r="F198" t="n">
-        <v>112.4879528255419</v>
+        <v>258.6712110863778</v>
       </c>
       <c r="G198" t="n">
-        <v>550.5888276954134</v>
+        <v>474.4020006010101</v>
       </c>
       <c r="H198" t="n">
-        <v>1.35</v>
+        <v>1.12</v>
       </c>
       <c r="I198" t="n">
-        <v>918505</v>
+        <v>917967</v>
       </c>
     </row>
     <row r="199">
@@ -7362,22 +7362,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>177123490</v>
+        <v>180749710</v>
       </c>
       <c r="E199" t="n">
-        <v>206932535</v>
+        <v>211169030</v>
       </c>
       <c r="F199" t="n">
-        <v>21728.35634910326</v>
+        <v>56491.32950267044</v>
       </c>
       <c r="G199" t="n">
-        <v>20930.71980977119</v>
+        <v>8235.530792374628</v>
       </c>
       <c r="H199" t="n">
-        <v>0.15</v>
+        <v>0.28</v>
       </c>
       <c r="I199" t="n">
-        <v>3945303</v>
+        <v>4108764</v>
       </c>
     </row>
     <row r="200">
@@ -7400,19 +7400,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>304802</v>
+        <v>299149</v>
       </c>
       <c r="F200" t="n">
-        <v>111.7854626229366</v>
+        <v>147.5718069825766</v>
       </c>
       <c r="G200" t="n">
-        <v>129.3601417201</v>
+        <v>108.4146347963373</v>
       </c>
       <c r="H200" t="n">
-        <v>0.99</v>
+        <v>0.67</v>
       </c>
       <c r="I200" t="n">
-        <v>298539</v>
+        <v>302812</v>
       </c>
     </row>
     <row r="201">
@@ -7435,19 +7435,19 @@
         <v>0</v>
       </c>
       <c r="E201" t="n">
-        <v>8049396</v>
+        <v>8000169</v>
       </c>
       <c r="F201" t="n">
-        <v>863.0469544222702</v>
+        <v>717.6006939861436</v>
       </c>
       <c r="G201" t="n">
-        <v>646.2084505613345</v>
+        <v>639.0837394319002</v>
       </c>
       <c r="H201" t="n">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="I201" t="n">
-        <v>682285</v>
+        <v>692648</v>
       </c>
     </row>
     <row r="202">
@@ -7470,19 +7470,19 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>34012</v>
+        <v>34022</v>
       </c>
       <c r="F202" t="n">
-        <v>199.1772946570465</v>
+        <v>0</v>
       </c>
       <c r="G202" t="n">
-        <v>5.017728417139829</v>
+        <v>0</v>
       </c>
       <c r="H202" t="n">
-        <v>2.78</v>
+        <v>5.56</v>
       </c>
       <c r="I202" t="n">
-        <v>535.08</v>
+        <v>690.55</v>
       </c>
     </row>
     <row r="203">
@@ -7502,22 +7502,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>34417877</v>
+        <v>34352634</v>
       </c>
       <c r="E203" t="n">
-        <v>171761072</v>
+        <v>171435479</v>
       </c>
       <c r="F203" t="n">
-        <v>80120.65374831107</v>
+        <v>89235.01306887215</v>
       </c>
       <c r="G203" t="n">
-        <v>93165.03169927414</v>
+        <v>117470.1582869506</v>
       </c>
       <c r="H203" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="I203" t="n">
-        <v>10214375</v>
+        <v>10184310</v>
       </c>
     </row>
     <row r="204">
@@ -7537,10 +7537,10 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1976773</v>
+        <v>1973803</v>
       </c>
       <c r="E204" t="n">
-        <v>1976773</v>
+        <v>1973803</v>
       </c>
       <c r="F204" t="n">
         <v>0</v>
@@ -7549,10 +7549,10 @@
         <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>16.64</v>
+        <v>11.72</v>
       </c>
       <c r="I204" t="n">
-        <v>12560.07</v>
+        <v>12548.69</v>
       </c>
     </row>
     <row r="205">
@@ -7575,19 +7575,19 @@
         <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>176203</v>
+        <v>176674</v>
       </c>
       <c r="F205" t="n">
-        <v>17.77282203761441</v>
+        <v>103.6414106200516</v>
       </c>
       <c r="G205" t="n">
-        <v>77.94271454164549</v>
+        <v>77.94215909679767</v>
       </c>
       <c r="H205" t="n">
-        <v>0.6</v>
+        <v>2.91</v>
       </c>
       <c r="I205" t="n">
-        <v>12445.26</v>
+        <v>12670.65</v>
       </c>
     </row>
     <row r="206">
@@ -7607,10 +7607,10 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>2768.11</v>
+        <v>2782.89</v>
       </c>
       <c r="E206" t="n">
-        <v>33085</v>
+        <v>33262</v>
       </c>
       <c r="F206" t="n">
         <v>0</v>
@@ -7622,7 +7622,7 @@
         <v>7.97</v>
       </c>
       <c r="I206" t="n">
-        <v>7867.38</v>
+        <v>7869.45</v>
       </c>
     </row>
     <row r="207">
@@ -7669,22 +7669,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>311808654</v>
+        <v>313229277</v>
       </c>
       <c r="E208" t="n">
-        <v>576917117</v>
+        <v>579545593</v>
       </c>
       <c r="F208" t="n">
-        <v>136477.5069570924</v>
+        <v>120556.3439841832</v>
       </c>
       <c r="G208" t="n">
-        <v>138303.0143024753</v>
+        <v>175405.8786354763</v>
       </c>
       <c r="H208" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="I208" t="n">
-        <v>13055973</v>
+        <v>13110633</v>
       </c>
     </row>
     <row r="209">
@@ -7704,22 +7704,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>71390532</v>
+        <v>71089730</v>
       </c>
       <c r="E209" t="n">
-        <v>681112799</v>
+        <v>678232367</v>
       </c>
       <c r="F209" t="n">
-        <v>243779.707814838</v>
+        <v>296434.483312885</v>
       </c>
       <c r="G209" t="n">
-        <v>292449.5491693753</v>
+        <v>362600.9560783191</v>
       </c>
       <c r="H209" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="I209" t="n">
-        <v>21160308</v>
+        <v>21492582</v>
       </c>
     </row>
     <row r="210">
@@ -7742,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>2273082</v>
+        <v>2291983</v>
       </c>
       <c r="F210" t="n">
         <v>0</v>
@@ -7751,10 +7751,10 @@
         <v>0</v>
       </c>
       <c r="H210" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I210" t="n">
-        <v>49720</v>
+        <v>49774</v>
       </c>
     </row>
     <row r="211">
@@ -7774,10 +7774,10 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>82232</v>
+        <v>80647</v>
       </c>
       <c r="E211" t="n">
-        <v>683613</v>
+        <v>670438</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -7789,7 +7789,7 @@
         <v>7.04</v>
       </c>
       <c r="I211" t="n">
-        <v>174.97</v>
+        <v>177.09</v>
       </c>
     </row>
     <row r="212">
@@ -7809,22 +7809,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1902949</v>
+        <v>1904858</v>
       </c>
       <c r="E212" t="n">
-        <v>5434579</v>
+        <v>5440031</v>
       </c>
       <c r="F212" t="n">
-        <v>724.174578192195</v>
+        <v>561.1653623419027</v>
       </c>
       <c r="G212" t="n">
-        <v>190.7780852520592</v>
+        <v>190.2295828645655</v>
       </c>
       <c r="H212" t="n">
         <v>1.14</v>
       </c>
       <c r="I212" t="n">
-        <v>71263</v>
+        <v>71003</v>
       </c>
     </row>
     <row r="213">
@@ -7844,22 +7844,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>9412665</v>
+        <v>9511381</v>
       </c>
       <c r="E213" t="n">
-        <v>27929551</v>
+        <v>28222462</v>
       </c>
       <c r="F213" t="n">
-        <v>1904.425266577601</v>
+        <v>1222.031012242579</v>
       </c>
       <c r="G213" t="n">
-        <v>1974.190486086392</v>
+        <v>2946.030261349472</v>
       </c>
       <c r="H213" t="n">
         <v>0.53</v>
       </c>
       <c r="I213" t="n">
-        <v>6042763</v>
+        <v>3099582</v>
       </c>
     </row>
     <row r="214">
@@ -7882,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>14235155</v>
+        <v>13847767</v>
       </c>
       <c r="F214" t="n">
         <v>0</v>
@@ -7891,10 +7891,10 @@
         <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>8.449999999999999</v>
+        <v>8.33</v>
       </c>
       <c r="I214" t="n">
-        <v>1334.11</v>
+        <v>973.98</v>
       </c>
     </row>
     <row r="215">
@@ -7914,22 +7914,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>2002608</v>
+        <v>2013972</v>
       </c>
       <c r="E215" t="n">
-        <v>5810210</v>
+        <v>5843182</v>
       </c>
       <c r="F215" t="n">
-        <v>12.24902717724886</v>
+        <v>12.23891150265094</v>
       </c>
       <c r="G215" t="n">
-        <v>572.4676441599474</v>
+        <v>572.4857921358848</v>
       </c>
       <c r="H215" t="n">
-        <v>0.02</v>
+        <v>0.26</v>
       </c>
       <c r="I215" t="n">
-        <v>38714</v>
+        <v>42678</v>
       </c>
     </row>
     <row r="216">
@@ -7949,22 +7949,22 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>2176371</v>
+        <v>2180056</v>
       </c>
       <c r="E216" t="n">
-        <v>19197033</v>
+        <v>19229536</v>
       </c>
       <c r="F216" t="n">
-        <v>400.0598458511107</v>
+        <v>461.7753209747842</v>
       </c>
       <c r="G216" t="n">
-        <v>2652.884065915831</v>
+        <v>3096.039741582969</v>
       </c>
       <c r="H216" t="n">
         <v>1.41</v>
       </c>
       <c r="I216" t="n">
-        <v>76689</v>
+        <v>77396</v>
       </c>
     </row>
     <row r="217">
@@ -7984,22 +7984,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>44773216</v>
+        <v>44691908</v>
       </c>
       <c r="E217" t="n">
-        <v>44773216</v>
+        <v>44691908</v>
       </c>
       <c r="F217" t="n">
-        <v>38902.0971681825</v>
+        <v>32736.6437326528</v>
       </c>
       <c r="G217" t="n">
-        <v>41283.27777836867</v>
+        <v>34641.95948080293</v>
       </c>
       <c r="H217" t="n">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="I217" t="n">
-        <v>7857009</v>
+        <v>7474187</v>
       </c>
     </row>
     <row r="218">
@@ -8019,22 +8019,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>9648445</v>
+        <v>9431782</v>
       </c>
       <c r="E218" t="n">
-        <v>13746824</v>
+        <v>13438129</v>
       </c>
       <c r="F218" t="n">
-        <v>267.7837566656001</v>
+        <v>2856.131689005289</v>
       </c>
       <c r="G218" t="n">
-        <v>125.164905110997</v>
+        <v>60.93598913931957</v>
       </c>
       <c r="H218" t="n">
-        <v>0.73</v>
+        <v>0.99</v>
       </c>
       <c r="I218" t="n">
-        <v>477388</v>
+        <v>469187</v>
       </c>
     </row>
     <row r="219">
@@ -8057,19 +8057,19 @@
         <v>0</v>
       </c>
       <c r="E219" t="n">
-        <v>16133909</v>
+        <v>16210072</v>
       </c>
       <c r="F219" t="n">
-        <v>11.69101376223479</v>
+        <v>24.31398980569089</v>
       </c>
       <c r="G219" t="n">
-        <v>611.4783756056287</v>
+        <v>548.2906516263959</v>
       </c>
       <c r="H219" t="n">
-        <v>1.74</v>
+        <v>2.02</v>
       </c>
       <c r="I219" t="n">
-        <v>959683</v>
+        <v>962937</v>
       </c>
     </row>
     <row r="220">
@@ -8092,19 +8092,19 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>715271</v>
+        <v>724768</v>
       </c>
       <c r="F220" t="n">
-        <v>49.76205259940399</v>
+        <v>78.63510082843987</v>
       </c>
       <c r="G220" t="n">
-        <v>344.3861318784504</v>
+        <v>343.7411420684877</v>
       </c>
       <c r="H220" t="n">
-        <v>0.49</v>
+        <v>0.62</v>
       </c>
       <c r="I220" t="n">
-        <v>222460</v>
+        <v>241209</v>
       </c>
     </row>
     <row r="221">
@@ -8124,22 +8124,22 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>2752378</v>
+        <v>2741575</v>
       </c>
       <c r="E221" t="n">
-        <v>2754762</v>
+        <v>2743949</v>
       </c>
       <c r="F221" t="n">
-        <v>1.76015205958521</v>
+        <v>6.969229443078965</v>
       </c>
       <c r="G221" t="n">
-        <v>53.37831566404411</v>
+        <v>104.8507331755223</v>
       </c>
       <c r="H221" t="n">
-        <v>3.85</v>
+        <v>1.94</v>
       </c>
       <c r="I221" t="n">
-        <v>85497</v>
+        <v>97235</v>
       </c>
     </row>
     <row r="222">
@@ -8159,22 +8159,22 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1236176</v>
+        <v>1241455</v>
       </c>
       <c r="E222" t="n">
-        <v>3739879</v>
+        <v>3755163</v>
       </c>
       <c r="F222" t="n">
-        <v>2115.902154093234</v>
+        <v>2115.887075494074</v>
       </c>
       <c r="G222" t="n">
-        <v>570.2751995327368</v>
+        <v>570.2711355682819</v>
       </c>
       <c r="H222" t="n">
         <v>1.31</v>
       </c>
       <c r="I222" t="n">
-        <v>9492.52</v>
+        <v>8896.09</v>
       </c>
     </row>
     <row r="223">
@@ -8194,22 +8194,22 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>37751731</v>
+        <v>37718981</v>
       </c>
       <c r="E223" t="n">
-        <v>267653614</v>
+        <v>267421422</v>
       </c>
       <c r="F223" t="n">
-        <v>74683.84017597482</v>
+        <v>85761.95065995964</v>
       </c>
       <c r="G223" t="n">
-        <v>65908.45214269991</v>
+        <v>61971.35812059113</v>
       </c>
       <c r="H223" t="n">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="I223" t="n">
-        <v>1447246</v>
+        <v>1495192</v>
       </c>
     </row>
     <row r="224">
@@ -8229,22 +8229,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>60165</v>
+        <v>59061</v>
       </c>
       <c r="E224" t="n">
-        <v>313917</v>
+        <v>308154</v>
       </c>
       <c r="F224" t="n">
-        <v>180.5394669131135</v>
+        <v>68.44601930672403</v>
       </c>
       <c r="G224" t="n">
-        <v>134.7122067862214</v>
+        <v>188.5079283668232</v>
       </c>
       <c r="H224" t="n">
-        <v>1.11</v>
+        <v>2.68</v>
       </c>
       <c r="I224" t="n">
-        <v>285117</v>
+        <v>273387</v>
       </c>
     </row>
     <row r="225">
@@ -8264,22 +8264,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1261600</v>
+        <v>1262056</v>
       </c>
       <c r="E225" t="n">
-        <v>7823090</v>
+        <v>7826634</v>
       </c>
       <c r="F225" t="n">
-        <v>1464.835303445423</v>
+        <v>1555.08238571225</v>
       </c>
       <c r="G225" t="n">
-        <v>1569.264157581121</v>
+        <v>1461.562944975049</v>
       </c>
       <c r="H225" t="n">
-        <v>0.32</v>
+        <v>0.39</v>
       </c>
       <c r="I225" t="n">
-        <v>729650</v>
+        <v>715406</v>
       </c>
     </row>
     <row r="226">
@@ -8299,22 +8299,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>602375619</v>
+        <v>604035103</v>
       </c>
       <c r="E226" t="n">
-        <v>2332911897</v>
+        <v>2339338836</v>
       </c>
       <c r="F226" t="n">
-        <v>201459.3126651663</v>
+        <v>166295.1770981362</v>
       </c>
       <c r="G226" t="n">
-        <v>301459.7967492196</v>
+        <v>313077.4548718688</v>
       </c>
       <c r="H226" t="n">
         <v>0.04</v>
       </c>
       <c r="I226" t="n">
-        <v>33410757</v>
+        <v>33475672</v>
       </c>
     </row>
     <row r="227">
@@ -8337,19 +8337,19 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>20776368</v>
+        <v>20865171</v>
       </c>
       <c r="F227" t="n">
-        <v>826.6346472144872</v>
+        <v>979.0280969474916</v>
       </c>
       <c r="G227" t="n">
-        <v>580.0808803428096</v>
+        <v>271.3134282652524</v>
       </c>
       <c r="H227" t="n">
-        <v>0.05</v>
+        <v>0.34</v>
       </c>
       <c r="I227" t="n">
-        <v>17005953</v>
+        <v>16907400</v>
       </c>
     </row>
     <row r="228">
@@ -8372,19 +8372,19 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>907561</v>
+        <v>892348</v>
       </c>
       <c r="F228" t="n">
-        <v>2.549406131609701</v>
+        <v>262.9858421541843</v>
       </c>
       <c r="G228" t="n">
-        <v>24.6772700588059</v>
+        <v>174.5003104247105</v>
       </c>
       <c r="H228" t="n">
-        <v>2.16</v>
+        <v>1.32</v>
       </c>
       <c r="I228" t="n">
-        <v>370554</v>
+        <v>364376</v>
       </c>
     </row>
     <row r="229">
@@ -8404,22 +8404,22 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>5888766</v>
+        <v>5888023</v>
       </c>
       <c r="E229" t="n">
-        <v>26364740</v>
+        <v>26361416</v>
       </c>
       <c r="F229" t="n">
-        <v>2125.997437472544</v>
+        <v>2669.40480418324</v>
       </c>
       <c r="G229" t="n">
-        <v>2138.912262331739</v>
+        <v>1114.050846772298</v>
       </c>
       <c r="H229" t="n">
         <v>0.38</v>
       </c>
       <c r="I229" t="n">
-        <v>144464</v>
+        <v>144955</v>
       </c>
     </row>
     <row r="230">
@@ -8439,22 +8439,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>6461860</v>
+        <v>6502356</v>
       </c>
       <c r="E230" t="n">
-        <v>12371754</v>
+        <v>12449288</v>
       </c>
       <c r="F230" t="n">
-        <v>115.1551331428121</v>
+        <v>173.6791930867261</v>
       </c>
       <c r="G230" t="n">
-        <v>39.5028809666476</v>
+        <v>24.5892874771147</v>
       </c>
       <c r="H230" t="n">
-        <v>3.17</v>
+        <v>2.57</v>
       </c>
       <c r="I230" t="n">
-        <v>195165</v>
+        <v>192266</v>
       </c>
     </row>
     <row r="231">
@@ -8474,22 +8474,22 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>3181785</v>
+        <v>3190162</v>
       </c>
       <c r="E231" t="n">
-        <v>20922675</v>
+        <v>20977763</v>
       </c>
       <c r="F231" t="n">
-        <v>218.2763350764873</v>
+        <v>128.5485829267361</v>
       </c>
       <c r="G231" t="n">
-        <v>347.6594646617604</v>
+        <v>419.5214136336739</v>
       </c>
       <c r="H231" t="n">
-        <v>1.19</v>
+        <v>1.08</v>
       </c>
       <c r="I231" t="n">
-        <v>1462467</v>
+        <v>1473251</v>
       </c>
     </row>
     <row r="232">
@@ -8509,22 +8509,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>118969492</v>
+        <v>119317067</v>
       </c>
       <c r="E232" t="n">
-        <v>1034366612</v>
+        <v>1037388563</v>
       </c>
       <c r="F232" t="n">
-        <v>193248.1957111641</v>
+        <v>182418.2725085845</v>
       </c>
       <c r="G232" t="n">
-        <v>225087.6768402786</v>
+        <v>231130.8458880103</v>
       </c>
       <c r="H232" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="I232" t="n">
-        <v>8877715</v>
+        <v>8942356</v>
       </c>
     </row>
     <row r="233">
@@ -8548,10 +8548,10 @@
       </c>
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="n">
-        <v>4.089695765740877</v>
+        <v>4.08966662125373</v>
       </c>
       <c r="G233" t="n">
-        <v>4.020676075177359</v>
+        <v>4.020647422546721</v>
       </c>
       <c r="H233" t="n">
         <v>2.9</v>
@@ -8577,22 +8577,22 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>101830973</v>
+        <v>103571009</v>
       </c>
       <c r="E234" t="n">
-        <v>155345537</v>
+        <v>158000002</v>
       </c>
       <c r="F234" t="n">
-        <v>91315.1562616318</v>
+        <v>93269.49311495532</v>
       </c>
       <c r="G234" t="n">
-        <v>91521.6786730837</v>
+        <v>67182.90960199556</v>
       </c>
       <c r="H234" t="n">
-        <v>0.08</v>
+        <v>0.25</v>
       </c>
       <c r="I234" t="n">
-        <v>7692839</v>
+        <v>7804122</v>
       </c>
     </row>
     <row r="235">
@@ -8612,22 +8612,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>15713732</v>
+        <v>15695747</v>
       </c>
       <c r="E235" t="n">
-        <v>21557879</v>
+        <v>21533205</v>
       </c>
       <c r="F235" t="n">
-        <v>995.5152790337174</v>
+        <v>377.8011133966152</v>
       </c>
       <c r="G235" t="n">
-        <v>2776.571441442571</v>
+        <v>2488.243465547432</v>
       </c>
       <c r="H235" t="n">
-        <v>0.65</v>
+        <v>0.87</v>
       </c>
       <c r="I235" t="n">
-        <v>343365</v>
+        <v>351776</v>
       </c>
     </row>
     <row r="236">
@@ -8647,22 +8647,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>116231337</v>
+        <v>122107195</v>
       </c>
       <c r="E236" t="n">
-        <v>445882118</v>
+        <v>468422854</v>
       </c>
       <c r="F236" t="n">
-        <v>428294.6269326997</v>
+        <v>444590.1022801129</v>
       </c>
       <c r="G236" t="n">
-        <v>566403.7277820406</v>
+        <v>523993.3082775628</v>
       </c>
       <c r="H236" t="n">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="I236" t="n">
-        <v>23389733</v>
+        <v>26739608</v>
       </c>
     </row>
     <row r="237">
@@ -8685,19 +8685,19 @@
         <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>657325</v>
+        <v>749477</v>
       </c>
       <c r="F237" t="n">
-        <v>69.76655616727223</v>
+        <v>69.7660589883582</v>
       </c>
       <c r="G237" t="n">
-        <v>20.55567247723721</v>
+        <v>20.55552599090506</v>
       </c>
       <c r="H237" t="n">
         <v>3.25</v>
       </c>
       <c r="I237" t="n">
-        <v>45807</v>
+        <v>51982</v>
       </c>
     </row>
     <row r="238">
@@ -8720,7 +8720,7 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>840294</v>
+        <v>850538</v>
       </c>
       <c r="F238" t="n">
         <v>0</v>
@@ -8729,10 +8729,10 @@
         <v>0</v>
       </c>
       <c r="H238" t="n">
-        <v>6.56</v>
+        <v>6.27</v>
       </c>
       <c r="I238" t="n">
-        <v>42580</v>
+        <v>52454</v>
       </c>
     </row>
     <row r="239">
@@ -8752,22 +8752,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>3200816</v>
+        <v>3211288</v>
       </c>
       <c r="E239" t="n">
-        <v>30328201</v>
+        <v>30427433</v>
       </c>
       <c r="F239" t="n">
-        <v>1606.392189750972</v>
+        <v>1602.871810088118</v>
       </c>
       <c r="G239" t="n">
-        <v>2109.011497230728</v>
+        <v>2276.503553107033</v>
       </c>
       <c r="H239" t="n">
-        <v>0.13</v>
+        <v>0.26</v>
       </c>
       <c r="I239" t="n">
-        <v>257951</v>
+        <v>259542</v>
       </c>
     </row>
     <row r="240">
@@ -8787,22 +8787,22 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>726587</v>
+        <v>732139</v>
       </c>
       <c r="E240" t="n">
-        <v>776717</v>
+        <v>782652</v>
       </c>
       <c r="F240" t="n">
-        <v>38.69119870380369</v>
+        <v>38.69093023736698</v>
       </c>
       <c r="G240" t="n">
-        <v>2332.006226245579</v>
+        <v>2331.990045165051</v>
       </c>
       <c r="H240" t="n">
         <v>1.09</v>
       </c>
       <c r="I240" t="n">
-        <v>43213</v>
+        <v>47649</v>
       </c>
     </row>
     <row r="241">
@@ -8825,19 +8825,19 @@
         <v>0</v>
       </c>
       <c r="E241" t="n">
-        <v>374141</v>
+        <v>374247</v>
       </c>
       <c r="F241" t="n">
-        <v>7.938000912327581</v>
+        <v>7.937944343580463</v>
       </c>
       <c r="G241" t="n">
-        <v>127.5591897182762</v>
+        <v>104.5484355552747</v>
       </c>
       <c r="H241" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="I241" t="n">
-        <v>594.62</v>
+        <v>529.11</v>
       </c>
     </row>
     <row r="242">
@@ -8860,19 +8860,19 @@
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>138953</v>
+        <v>138206</v>
       </c>
       <c r="F242" t="n">
-        <v>314.671404511364</v>
+        <v>312.8146128982295</v>
       </c>
       <c r="G242" t="n">
-        <v>83.08735740628858</v>
+        <v>7.465868699716849</v>
       </c>
       <c r="H242" t="n">
-        <v>2.76</v>
+        <v>2.08</v>
       </c>
       <c r="I242" t="n">
-        <v>94230</v>
+        <v>93577</v>
       </c>
     </row>
     <row r="243">
@@ -8927,22 +8927,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>5937442</v>
+        <v>5884972</v>
       </c>
       <c r="E244" t="n">
-        <v>37107316</v>
+        <v>36779388</v>
       </c>
       <c r="F244" t="n">
-        <v>825.4942763755786</v>
+        <v>835.6873532603216</v>
       </c>
       <c r="G244" t="n">
-        <v>1137.712533971333</v>
+        <v>550.9661766604755</v>
       </c>
       <c r="H244" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="I244" t="n">
-        <v>384251</v>
+        <v>388612</v>
       </c>
     </row>
     <row r="245">
@@ -8962,22 +8962,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>5005204</v>
+        <v>5110840</v>
       </c>
       <c r="E245" t="n">
-        <v>18638354</v>
+        <v>19031724</v>
       </c>
       <c r="F245" t="n">
-        <v>1364.865040570471</v>
+        <v>1365.548825156866</v>
       </c>
       <c r="G245" t="n">
-        <v>5950.167489307795</v>
+        <v>5925.118583102018</v>
       </c>
       <c r="H245" t="n">
         <v>1.05</v>
       </c>
       <c r="I245" t="n">
-        <v>108352</v>
+        <v>60375</v>
       </c>
     </row>
     <row r="246">
@@ -9000,19 +9000,19 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>3809363</v>
+        <v>3810537</v>
       </c>
       <c r="F246" t="n">
-        <v>159.6595664986483</v>
+        <v>159.5291607569405</v>
       </c>
       <c r="G246" t="n">
-        <v>2666.412487837158</v>
+        <v>2666.393482637468</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="I246" t="n">
-        <v>7197.77</v>
+        <v>7200.25</v>
       </c>
     </row>
     <row r="247">
@@ -9032,22 +9032,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>31476757</v>
+        <v>31453579</v>
       </c>
       <c r="E247" t="n">
-        <v>112824038</v>
+        <v>112740959</v>
       </c>
       <c r="F247" t="n">
-        <v>77.57116500484551</v>
+        <v>52.51064484230772</v>
       </c>
       <c r="G247" t="n">
-        <v>2353.155952783174</v>
+        <v>2115.91725401489</v>
       </c>
       <c r="H247" t="n">
-        <v>0.44</v>
+        <v>0.2</v>
       </c>
       <c r="I247" t="n">
-        <v>97505</v>
+        <v>96907</v>
       </c>
     </row>
     <row r="248">
@@ -9070,19 +9070,19 @@
         <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>1534317</v>
+        <v>1531604</v>
       </c>
       <c r="F248" t="n">
-        <v>12.00709821371476</v>
+        <v>20.5896472988881</v>
       </c>
       <c r="G248" t="n">
-        <v>454.1005453615361</v>
+        <v>440.7268807034233</v>
       </c>
       <c r="H248" t="n">
-        <v>0.65</v>
+        <v>2.55</v>
       </c>
       <c r="I248" t="n">
-        <v>617591</v>
+        <v>618305</v>
       </c>
     </row>
     <row r="249">
@@ -9102,22 +9102,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>2218484</v>
+        <v>2211250</v>
       </c>
       <c r="E249" t="n">
-        <v>17063949</v>
+        <v>17008305</v>
       </c>
       <c r="F249" t="n">
-        <v>5175.003213060891</v>
+        <v>1873.265688103729</v>
       </c>
       <c r="G249" t="n">
-        <v>5128.782502412845</v>
+        <v>4984.767124688786</v>
       </c>
       <c r="H249" t="n">
-        <v>0.18</v>
+        <v>0.7</v>
       </c>
       <c r="I249" t="n">
-        <v>173123</v>
+        <v>171202</v>
       </c>
     </row>
     <row r="250">
@@ -9137,22 +9137,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>103815</v>
+        <v>103846</v>
       </c>
       <c r="E250" t="n">
-        <v>824603</v>
+        <v>824852</v>
       </c>
       <c r="F250" t="n">
-        <v>158.3073654484651</v>
+        <v>158.3062372992721</v>
       </c>
       <c r="G250" t="n">
-        <v>359.6174690088683</v>
+        <v>359.6149062591422</v>
       </c>
       <c r="H250" t="n">
         <v>0.61</v>
       </c>
       <c r="I250" t="n">
-        <v>1384.57</v>
+        <v>1384.83</v>
       </c>
     </row>
     <row r="251">
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>87040092</v>
+        <v>87131848</v>
       </c>
       <c r="E251" t="n">
-        <v>321760304</v>
+        <v>322098021</v>
       </c>
       <c r="F251" t="n">
-        <v>7798.622757351439</v>
+        <v>8278.681521468035</v>
       </c>
       <c r="G251" t="n">
-        <v>2182.495300375768</v>
+        <v>2565.696339117416</v>
       </c>
       <c r="H251" t="n">
-        <v>0.27</v>
+        <v>0.16</v>
       </c>
       <c r="I251" t="n">
-        <v>347023</v>
+        <v>338897</v>
       </c>
     </row>
     <row r="252">
@@ -9207,22 +9207,22 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>2459243</v>
+        <v>2395699</v>
       </c>
       <c r="E252" t="n">
-        <v>9867796</v>
+        <v>9612821</v>
       </c>
       <c r="F252" t="n">
-        <v>4.931322543732432</v>
+        <v>4.946291312117147</v>
       </c>
       <c r="G252" t="n">
-        <v>81.92397999719016</v>
+        <v>41.37125755908306</v>
       </c>
       <c r="H252" t="n">
-        <v>3.14</v>
+        <v>3.64</v>
       </c>
       <c r="I252" t="n">
-        <v>40287</v>
+        <v>41774</v>
       </c>
     </row>
     <row r="253">
@@ -9245,19 +9245,19 @@
         <v>0</v>
       </c>
       <c r="E253" t="n">
-        <v>584615</v>
+        <v>584820</v>
       </c>
       <c r="F253" t="n">
-        <v>29.43391882834175</v>
+        <v>30.02247039753689</v>
       </c>
       <c r="G253" t="n">
-        <v>33.74949829839851</v>
+        <v>3.614726025442723</v>
       </c>
       <c r="H253" t="n">
-        <v>3.26</v>
+        <v>3</v>
       </c>
       <c r="I253" t="n">
-        <v>1513.62</v>
+        <v>1513.61</v>
       </c>
     </row>
     <row r="254">
@@ -9276,7 +9276,7 @@
         <v>0</v>
       </c>
       <c r="E254" t="n">
-        <v>37010</v>
+        <v>37023</v>
       </c>
       <c r="F254" t="n">
         <v>0</v>
@@ -9288,7 +9288,7 @@
         <v>4.13</v>
       </c>
       <c r="I254" t="n">
-        <v>4975.85</v>
+        <v>4975.82</v>
       </c>
     </row>
     <row r="255">
@@ -9308,22 +9308,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>718304512</v>
+        <v>719938901</v>
       </c>
       <c r="E255" t="n">
-        <v>1107688978</v>
+        <v>1110209350</v>
       </c>
       <c r="F255" t="n">
-        <v>177325.5031163945</v>
+        <v>137811.0630719779</v>
       </c>
       <c r="G255" t="n">
-        <v>197519.9037262254</v>
+        <v>219246.4907357856</v>
       </c>
       <c r="H255" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I255" t="n">
-        <v>177690387</v>
+        <v>214972998</v>
       </c>
     </row>
     <row r="256">
@@ -9343,22 +9343,22 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>5664663</v>
+        <v>5694723</v>
       </c>
       <c r="E256" t="n">
-        <v>5664663</v>
+        <v>5694723</v>
       </c>
       <c r="F256" t="n">
-        <v>21.29180580267575</v>
+        <v>0</v>
       </c>
       <c r="G256" t="n">
-        <v>2.887017276387408</v>
+        <v>0</v>
       </c>
       <c r="H256" t="n">
-        <v>0.97</v>
+        <v>3.95</v>
       </c>
       <c r="I256" t="n">
-        <v>516.15</v>
+        <v>540.28</v>
       </c>
     </row>
     <row r="257">
@@ -9378,22 +9378,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>39907120</v>
+        <v>39748806</v>
       </c>
       <c r="E257" t="n">
-        <v>190483328</v>
+        <v>189727670</v>
       </c>
       <c r="F257" t="n">
-        <v>508.8369963472905</v>
+        <v>509.3030416774377</v>
       </c>
       <c r="G257" t="n">
-        <v>288.4918648651185</v>
+        <v>263.8087632270515</v>
       </c>
       <c r="H257" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="I257" t="n">
-        <v>417101</v>
+        <v>418531</v>
       </c>
     </row>
     <row r="258">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>526181</v>
+        <v>526331</v>
       </c>
       <c r="F258" t="n">
         <v>0</v>
@@ -9428,7 +9428,7 @@
         <v>8.029999999999999</v>
       </c>
       <c r="I258" t="n">
-        <v>364.97</v>
+        <v>365.06</v>
       </c>
     </row>
     <row r="259">
@@ -9448,22 +9448,22 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>23988528</v>
+        <v>23733130</v>
       </c>
       <c r="E259" t="n">
-        <v>39980879</v>
+        <v>39555216</v>
       </c>
       <c r="F259" t="n">
-        <v>7258.378561708781</v>
+        <v>8162.241084620237</v>
       </c>
       <c r="G259" t="n">
-        <v>7339.888379030646</v>
+        <v>7552.03186029112</v>
       </c>
       <c r="H259" t="n">
-        <v>0.85</v>
+        <v>0.4</v>
       </c>
       <c r="I259" t="n">
-        <v>700877</v>
+        <v>734116</v>
       </c>
     </row>
     <row r="260">
@@ -9486,19 +9486,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>108587</v>
+        <v>108547</v>
       </c>
       <c r="F260" t="n">
-        <v>69.30995676873701</v>
+        <v>79.80045092540524</v>
       </c>
       <c r="G260" t="n">
-        <v>180.8359548602317</v>
+        <v>223.1806404656269</v>
       </c>
       <c r="H260" t="n">
-        <v>0.25</v>
+        <v>1.56</v>
       </c>
       <c r="I260" t="n">
-        <v>48884</v>
+        <v>48706</v>
       </c>
     </row>
     <row r="261">
@@ -9518,22 +9518,22 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>873825</v>
+        <v>939387</v>
       </c>
       <c r="E261" t="n">
-        <v>3732856</v>
+        <v>4012414</v>
       </c>
       <c r="F261" t="n">
-        <v>2506.780175932843</v>
+        <v>118.0780996181689</v>
       </c>
       <c r="G261" t="n">
-        <v>4067.132014410164</v>
+        <v>4620.55198755638</v>
       </c>
       <c r="H261" t="n">
-        <v>0.28</v>
+        <v>0.11</v>
       </c>
       <c r="I261" t="n">
-        <v>17584.56</v>
+        <v>30336</v>
       </c>
     </row>
     <row r="262">
@@ -9553,22 +9553,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>3783457</v>
+        <v>3792777</v>
       </c>
       <c r="E262" t="n">
-        <v>8255454</v>
+        <v>8275790</v>
       </c>
       <c r="F262" t="n">
-        <v>1346.50933990918</v>
+        <v>1659.854426173581</v>
       </c>
       <c r="G262" t="n">
-        <v>1901.338264766861</v>
+        <v>1883.586536684912</v>
       </c>
       <c r="H262" t="n">
-        <v>0.85</v>
+        <v>0.73</v>
       </c>
       <c r="I262" t="n">
-        <v>975749</v>
+        <v>1056505</v>
       </c>
     </row>
     <row r="263">
@@ -9588,22 +9588,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>492897607</v>
+        <v>493890418</v>
       </c>
       <c r="E263" t="n">
-        <v>17166